--- a/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
+++ b/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
@@ -2954,7 +2954,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3036,6 +3036,9 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3668,8 +3671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K830"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3742,7 +3745,9 @@
       <c r="H2" s="18">
         <v>1</v>
       </c>
-      <c r="I2" s="18"/>
+      <c r="I2" s="18">
+        <v>1</v>
+      </c>
       <c r="J2" s="18"/>
       <c r="K2" s="19"/>
     </row>
@@ -3759,13 +3764,15 @@
       <c r="D3" s="6" t="s">
         <v>744</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="34" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
+      <c r="I3" s="18">
+        <v>1</v>
+      </c>
       <c r="J3" s="18"/>
       <c r="K3" s="19"/>
     </row>
@@ -3792,7 +3799,9 @@
       <c r="H4" s="18">
         <v>1</v>
       </c>
-      <c r="I4" s="18"/>
+      <c r="I4" s="18">
+        <v>1</v>
+      </c>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
     </row>
@@ -3815,7 +3824,9 @@
       <c r="F5" s="17"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
+      <c r="I5" s="18">
+        <v>1</v>
+      </c>
       <c r="J5" s="18"/>
       <c r="K5" s="19"/>
     </row>
@@ -3838,7 +3849,9 @@
       <c r="F6" s="17"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
+      <c r="I6" s="18">
+        <v>1</v>
+      </c>
       <c r="J6" s="18"/>
       <c r="K6" s="19"/>
     </row>
@@ -3861,7 +3874,9 @@
       <c r="F7" s="17"/>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
+      <c r="I7" s="18">
+        <v>1</v>
+      </c>
       <c r="J7" s="18"/>
       <c r="K7" s="19"/>
     </row>
@@ -3884,7 +3899,9 @@
       <c r="F8" s="17"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="I8" s="18">
+        <v>1</v>
+      </c>
       <c r="J8" s="18"/>
       <c r="K8" s="19"/>
     </row>
@@ -3907,7 +3924,9 @@
       <c r="F9" s="17"/>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
+      <c r="I9" s="18">
+        <v>1</v>
+      </c>
       <c r="J9" s="18"/>
       <c r="K9" s="19"/>
     </row>
@@ -3930,7 +3949,9 @@
       <c r="F10" s="17"/>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
+      <c r="I10" s="18">
+        <v>1</v>
+      </c>
       <c r="J10" s="18"/>
       <c r="K10" s="19"/>
     </row>
@@ -4001,7 +4022,9 @@
       <c r="F13" s="17"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
+      <c r="I13" s="18">
+        <v>1</v>
+      </c>
       <c r="J13" s="18"/>
       <c r="K13" s="19"/>
     </row>
@@ -4024,7 +4047,9 @@
       <c r="F14" s="17"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
+      <c r="I14" s="18">
+        <v>1</v>
+      </c>
       <c r="J14" s="18"/>
       <c r="K14" s="19"/>
     </row>
@@ -4047,7 +4072,9 @@
       <c r="F15" s="17"/>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
+      <c r="I15" s="18">
+        <v>1</v>
+      </c>
       <c r="J15" s="18"/>
       <c r="K15" s="19"/>
     </row>
@@ -4070,7 +4097,9 @@
       <c r="F16" s="17"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
+      <c r="I16" s="18">
+        <v>1</v>
+      </c>
       <c r="J16" s="18"/>
       <c r="K16" s="19"/>
     </row>
@@ -4093,7 +4122,9 @@
       <c r="F17" s="17"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
+      <c r="I17" s="18">
+        <v>1</v>
+      </c>
       <c r="J17" s="18"/>
       <c r="K17" s="19"/>
     </row>
@@ -4116,7 +4147,9 @@
       <c r="F18" s="17"/>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
+      <c r="I18" s="18">
+        <v>1</v>
+      </c>
       <c r="J18" s="18"/>
       <c r="K18" s="19"/>
     </row>
@@ -4139,7 +4172,9 @@
       <c r="F19" s="17"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
+      <c r="I19" s="18">
+        <v>1</v>
+      </c>
       <c r="J19" s="18"/>
       <c r="K19" s="19"/>
     </row>
@@ -4208,7 +4243,9 @@
       <c r="F22" s="17"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
+      <c r="I22" s="18">
+        <v>1</v>
+      </c>
       <c r="J22" s="18"/>
       <c r="K22" s="19"/>
     </row>
@@ -4233,7 +4270,9 @@
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
-      <c r="K23" s="19"/>
+      <c r="K23" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
@@ -4254,9 +4293,13 @@
       <c r="F24" s="17"/>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
+      <c r="I24" s="18">
+        <v>1</v>
+      </c>
       <c r="J24" s="18"/>
-      <c r="K24" s="19"/>
+      <c r="K24" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
@@ -4277,9 +4320,13 @@
       <c r="F25" s="17"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
+      <c r="I25" s="18">
+        <v>1</v>
+      </c>
       <c r="J25" s="18"/>
-      <c r="K25" s="19"/>
+      <c r="K25" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
@@ -4300,9 +4347,13 @@
       <c r="F26" s="17"/>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
+      <c r="I26" s="18">
+        <v>1</v>
+      </c>
       <c r="J26" s="18"/>
-      <c r="K26" s="19"/>
+      <c r="K26" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
@@ -4323,9 +4374,13 @@
       <c r="F27" s="17"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
+      <c r="I27" s="18">
+        <v>1</v>
+      </c>
       <c r="J27" s="18"/>
-      <c r="K27" s="19"/>
+      <c r="K27" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
@@ -4367,9 +4422,15 @@
         <v>433</v>
       </c>
       <c r="F29" s="17"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
+      <c r="G29" s="18">
+        <v>1</v>
+      </c>
+      <c r="H29" s="18">
+        <v>1</v>
+      </c>
+      <c r="I29" s="18">
+        <v>1</v>
+      </c>
       <c r="J29" s="18"/>
       <c r="K29" s="19"/>
     </row>
@@ -4505,9 +4566,13 @@
         <v>531</v>
       </c>
       <c r="F35" s="17"/>
-      <c r="G35" s="18"/>
+      <c r="G35" s="18">
+        <v>1</v>
+      </c>
       <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
+      <c r="I35" s="18">
+        <v>1</v>
+      </c>
       <c r="J35" s="18"/>
       <c r="K35" s="19"/>
     </row>
@@ -4666,9 +4731,13 @@
         <v>667</v>
       </c>
       <c r="F42" s="17"/>
-      <c r="G42" s="18"/>
+      <c r="G42" s="18">
+        <v>1</v>
+      </c>
       <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
+      <c r="I42" s="18">
+        <v>1</v>
+      </c>
       <c r="J42" s="18"/>
       <c r="K42" s="19"/>
     </row>
@@ -4758,9 +4827,13 @@
         <v>689</v>
       </c>
       <c r="F46" s="17"/>
-      <c r="G46" s="18"/>
+      <c r="G46" s="18">
+        <v>1</v>
+      </c>
       <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
+      <c r="I46" s="18">
+        <v>1</v>
+      </c>
       <c r="J46" s="18"/>
       <c r="K46" s="19"/>
     </row>
@@ -4831,7 +4904,9 @@
       <c r="H49" s="18"/>
       <c r="I49" s="18"/>
       <c r="J49" s="18"/>
-      <c r="K49" s="19"/>
+      <c r="K49" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
@@ -4946,7 +5021,9 @@
       <c r="H54" s="25"/>
       <c r="I54" s="25"/>
       <c r="J54" s="25"/>
-      <c r="K54" s="26"/>
+      <c r="K54" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="20">
@@ -4969,7 +5046,9 @@
       <c r="H55" s="25"/>
       <c r="I55" s="25"/>
       <c r="J55" s="25"/>
-      <c r="K55" s="26"/>
+      <c r="K55" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="20">
@@ -4992,7 +5071,9 @@
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
       <c r="J56" s="25"/>
-      <c r="K56" s="26"/>
+      <c r="K56" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="20">
@@ -5015,7 +5096,9 @@
       <c r="H57" s="25"/>
       <c r="I57" s="25"/>
       <c r="J57" s="25"/>
-      <c r="K57" s="26"/>
+      <c r="K57" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="20">
@@ -5038,7 +5121,9 @@
       <c r="H58" s="25"/>
       <c r="I58" s="25"/>
       <c r="J58" s="25"/>
-      <c r="K58" s="26"/>
+      <c r="K58" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="20">
@@ -5061,7 +5146,9 @@
       <c r="H59" s="25"/>
       <c r="I59" s="25"/>
       <c r="J59" s="25"/>
-      <c r="K59" s="26"/>
+      <c r="K59" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="14">

--- a/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
+++ b/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="135" windowWidth="22995" windowHeight="11055"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -2799,8 +2799,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3047,26 +3047,8 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3088,7 +3070,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3112,7 +3094,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3136,7 +3118,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3160,7 +3142,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3184,7 +3166,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3207,7 +3189,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3230,7 +3212,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3253,7 +3235,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3326,13 +3308,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3348,6 +3323,31 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3359,24 +3359,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:K830" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:K830" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="A1:K830"/>
   <sortState ref="A2:K830">
     <sortCondition ref="A2:A830"/>
     <sortCondition ref="B2:B830"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" name="Task_ID" dataDxfId="11"/>
-    <tableColumn id="2" name="Date" dataDxfId="10"/>
-    <tableColumn id="3" name="Hours" dataDxfId="9"/>
-    <tableColumn id="4" name="Title" dataDxfId="8"/>
-    <tableColumn id="5" name="Description" dataDxfId="7"/>
-    <tableColumn id="6" name="Goal 1" dataDxfId="6"/>
-    <tableColumn id="7" name="Goal 2" dataDxfId="5"/>
-    <tableColumn id="8" name="Goal 3" dataDxfId="4"/>
-    <tableColumn id="9" name="Goal 4" dataDxfId="3"/>
-    <tableColumn id="10" name="Goal 5" dataDxfId="2"/>
-    <tableColumn id="11" name="Training" dataDxfId="1"/>
+    <tableColumn id="1" name="Task_ID" dataDxfId="10"/>
+    <tableColumn id="2" name="Date" dataDxfId="9"/>
+    <tableColumn id="3" name="Hours" dataDxfId="8"/>
+    <tableColumn id="4" name="Title" dataDxfId="7"/>
+    <tableColumn id="5" name="Description" dataDxfId="6"/>
+    <tableColumn id="6" name="Goal 1" dataDxfId="5"/>
+    <tableColumn id="7" name="Goal 2" dataDxfId="4"/>
+    <tableColumn id="8" name="Goal 3" dataDxfId="3"/>
+    <tableColumn id="9" name="Goal 4" dataDxfId="2"/>
+    <tableColumn id="10" name="Goal 5" dataDxfId="1"/>
+    <tableColumn id="11" name="Training" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3457,7 +3457,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3492,7 +3491,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3668,14 +3666,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K830"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="I136" sqref="I136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="2" customWidth="1"/>
@@ -3687,7 +3685,7 @@
     <col min="11" max="11" width="10.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3722,7 +3720,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="14">
         <v>5359</v>
       </c>
@@ -3751,7 +3749,7 @@
       <c r="J2" s="18"/>
       <c r="K2" s="19"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="14">
         <v>5359</v>
       </c>
@@ -3776,7 +3774,7 @@
       <c r="J3" s="18"/>
       <c r="K3" s="19"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="14">
         <v>5359</v>
       </c>
@@ -3805,7 +3803,7 @@
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="14">
         <v>5359</v>
       </c>
@@ -3830,7 +3828,7 @@
       <c r="J5" s="18"/>
       <c r="K5" s="19"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="14">
         <v>5359</v>
       </c>
@@ -3855,7 +3853,7 @@
       <c r="J6" s="18"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="14">
         <v>5359</v>
       </c>
@@ -3880,7 +3878,7 @@
       <c r="J7" s="18"/>
       <c r="K7" s="19"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="14">
         <v>5359</v>
       </c>
@@ -3905,7 +3903,7 @@
       <c r="J8" s="18"/>
       <c r="K8" s="19"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="14">
         <v>5359</v>
       </c>
@@ -3930,7 +3928,7 @@
       <c r="J9" s="18"/>
       <c r="K9" s="19"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="14">
         <v>5359</v>
       </c>
@@ -3955,7 +3953,7 @@
       <c r="J10" s="18"/>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="60">
       <c r="A11" s="14">
         <v>5359</v>
       </c>
@@ -3980,7 +3978,7 @@
       <c r="J11" s="18"/>
       <c r="K11" s="19"/>
     </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="30">
       <c r="A12" s="14">
         <v>5359</v>
       </c>
@@ -4003,7 +4001,7 @@
       <c r="J12" s="18"/>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="14">
         <v>5359</v>
       </c>
@@ -4028,7 +4026,7 @@
       <c r="J13" s="18"/>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="14">
         <v>5359</v>
       </c>
@@ -4053,7 +4051,7 @@
       <c r="J14" s="18"/>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="14">
         <v>5359</v>
       </c>
@@ -4078,7 +4076,7 @@
       <c r="J15" s="18"/>
       <c r="K15" s="19"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="14">
         <v>5359</v>
       </c>
@@ -4103,7 +4101,7 @@
       <c r="J16" s="18"/>
       <c r="K16" s="19"/>
     </row>
-    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="45">
       <c r="A17" s="14">
         <v>5359</v>
       </c>
@@ -4128,7 +4126,7 @@
       <c r="J17" s="18"/>
       <c r="K17" s="19"/>
     </row>
-    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="30">
       <c r="A18" s="14">
         <v>5359</v>
       </c>
@@ -4153,7 +4151,7 @@
       <c r="J18" s="18"/>
       <c r="K18" s="19"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="14">
         <v>5359</v>
       </c>
@@ -4178,7 +4176,7 @@
       <c r="J19" s="18"/>
       <c r="K19" s="19"/>
     </row>
-    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="45">
       <c r="A20" s="14">
         <v>5359</v>
       </c>
@@ -4201,7 +4199,7 @@
       <c r="J20" s="18"/>
       <c r="K20" s="19"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="14">
         <v>5359</v>
       </c>
@@ -4224,7 +4222,7 @@
       <c r="J21" s="18"/>
       <c r="K21" s="19"/>
     </row>
-    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="30">
       <c r="A22" s="14">
         <v>5359</v>
       </c>
@@ -4249,7 +4247,7 @@
       <c r="J22" s="18"/>
       <c r="K22" s="19"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="14">
         <v>5359</v>
       </c>
@@ -4274,7 +4272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="45">
       <c r="A24" s="14">
         <v>5359</v>
       </c>
@@ -4301,7 +4299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="60">
       <c r="A25" s="14">
         <v>5359</v>
       </c>
@@ -4328,7 +4326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="14">
         <v>5359</v>
       </c>
@@ -4355,7 +4353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="30">
       <c r="A27" s="14">
         <v>5359</v>
       </c>
@@ -4382,7 +4380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="14">
         <v>5359</v>
       </c>
@@ -4405,7 +4403,7 @@
       <c r="J28" s="18"/>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="14">
         <v>5359</v>
       </c>
@@ -4434,7 +4432,7 @@
       <c r="J29" s="18"/>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="14">
         <v>5359</v>
       </c>
@@ -4457,7 +4455,7 @@
       <c r="J30" s="18"/>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="14">
         <v>5359</v>
       </c>
@@ -4480,7 +4478,7 @@
       <c r="J31" s="18"/>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="45">
       <c r="A32" s="14">
         <v>5359</v>
       </c>
@@ -4503,7 +4501,7 @@
       <c r="J32" s="18"/>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="14">
         <v>5359</v>
       </c>
@@ -4526,7 +4524,7 @@
       <c r="J33" s="18"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="14">
         <v>5359</v>
       </c>
@@ -4549,7 +4547,7 @@
       <c r="J34" s="18"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="14">
         <v>5359</v>
       </c>
@@ -4576,7 +4574,7 @@
       <c r="J35" s="18"/>
       <c r="K35" s="19"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="14">
         <v>5359</v>
       </c>
@@ -4599,7 +4597,7 @@
       <c r="J36" s="18"/>
       <c r="K36" s="19"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="14">
         <v>5359</v>
       </c>
@@ -4622,7 +4620,7 @@
       <c r="J37" s="18"/>
       <c r="K37" s="19"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="14">
         <v>5359</v>
       </c>
@@ -4645,7 +4643,7 @@
       <c r="J38" s="18"/>
       <c r="K38" s="19"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="14">
         <v>5359</v>
       </c>
@@ -4668,7 +4666,7 @@
       <c r="J39" s="18"/>
       <c r="K39" s="19"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="14">
         <v>5359</v>
       </c>
@@ -4691,7 +4689,7 @@
       <c r="J40" s="18"/>
       <c r="K40" s="19"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="14">
         <v>5359</v>
       </c>
@@ -4714,7 +4712,7 @@
       <c r="J41" s="18"/>
       <c r="K41" s="19"/>
     </row>
-    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="30">
       <c r="A42" s="14">
         <v>5359</v>
       </c>
@@ -4741,7 +4739,7 @@
       <c r="J42" s="18"/>
       <c r="K42" s="19"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="14">
         <v>5359</v>
       </c>
@@ -4764,7 +4762,7 @@
       <c r="J43" s="18"/>
       <c r="K43" s="19"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" s="14">
         <v>5359</v>
       </c>
@@ -4787,7 +4785,7 @@
       <c r="J44" s="18"/>
       <c r="K44" s="19"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" s="14">
         <v>5359</v>
       </c>
@@ -4810,7 +4808,7 @@
       <c r="J45" s="18"/>
       <c r="K45" s="19"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46" s="14">
         <v>5359</v>
       </c>
@@ -4837,7 +4835,7 @@
       <c r="J46" s="18"/>
       <c r="K46" s="19"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47" s="14">
         <v>5359</v>
       </c>
@@ -4860,7 +4858,7 @@
       <c r="J47" s="18"/>
       <c r="K47" s="19"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48" s="14">
         <v>5359</v>
       </c>
@@ -4883,7 +4881,7 @@
       <c r="J48" s="18"/>
       <c r="K48" s="19"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="14">
         <v>5359</v>
       </c>
@@ -4908,7 +4906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="14">
         <v>5359</v>
       </c>
@@ -4931,7 +4929,7 @@
       <c r="J50" s="18"/>
       <c r="K50" s="19"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="14">
         <v>5359</v>
       </c>
@@ -4954,7 +4952,7 @@
       <c r="J51" s="18"/>
       <c r="K51" s="19"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="14">
         <v>5359</v>
       </c>
@@ -4977,7 +4975,7 @@
       <c r="J52" s="18"/>
       <c r="K52" s="19"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" s="14">
         <v>5359</v>
       </c>
@@ -5000,7 +4998,7 @@
       <c r="J53" s="18"/>
       <c r="K53" s="19"/>
     </row>
-    <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="30">
       <c r="A54" s="20">
         <v>5435</v>
       </c>
@@ -5025,7 +5023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="20">
         <v>5435</v>
       </c>
@@ -5050,7 +5048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="45">
       <c r="A56" s="20">
         <v>5435</v>
       </c>
@@ -5075,7 +5073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="20">
         <v>5435</v>
       </c>
@@ -5100,7 +5098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="20">
         <v>5435</v>
       </c>
@@ -5125,7 +5123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="20">
         <v>5435</v>
       </c>
@@ -5150,7 +5148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="60">
       <c r="A60" s="14">
         <v>18189</v>
       </c>
@@ -5169,11 +5167,15 @@
       <c r="F60" s="17"/>
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
+      <c r="I60" s="18">
+        <v>1</v>
+      </c>
       <c r="J60" s="18"/>
-      <c r="K60" s="19"/>
-    </row>
-    <row r="61" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="K60" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="60">
       <c r="A61" s="20">
         <v>18637</v>
       </c>
@@ -5192,11 +5194,15 @@
       <c r="F61" s="24"/>
       <c r="G61" s="25"/>
       <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
+      <c r="I61" s="25">
+        <v>1</v>
+      </c>
       <c r="J61" s="25"/>
-      <c r="K61" s="26"/>
-    </row>
-    <row r="62" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="K61" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="60">
       <c r="A62" s="14">
         <v>20431</v>
       </c>
@@ -5221,7 +5227,7 @@
       <c r="J62" s="18"/>
       <c r="K62" s="19"/>
     </row>
-    <row r="63" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="30">
       <c r="A63" s="14">
         <v>20431</v>
       </c>
@@ -5246,7 +5252,7 @@
       <c r="J63" s="18"/>
       <c r="K63" s="19"/>
     </row>
-    <row r="64" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="105">
       <c r="A64" s="14">
         <v>20431</v>
       </c>
@@ -5273,7 +5279,7 @@
       <c r="J64" s="18"/>
       <c r="K64" s="19"/>
     </row>
-    <row r="65" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="60">
       <c r="A65" s="14">
         <v>20431</v>
       </c>
@@ -5300,7 +5306,7 @@
       <c r="J65" s="18"/>
       <c r="K65" s="19"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" s="14">
         <v>20431</v>
       </c>
@@ -5323,7 +5329,7 @@
       <c r="J66" s="18"/>
       <c r="K66" s="19"/>
     </row>
-    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="30">
       <c r="A67" s="14">
         <v>20431</v>
       </c>
@@ -5346,7 +5352,7 @@
       <c r="J67" s="18"/>
       <c r="K67" s="19"/>
     </row>
-    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="30">
       <c r="A68" s="20">
         <v>20523</v>
       </c>
@@ -5369,7 +5375,7 @@
       <c r="J68" s="25"/>
       <c r="K68" s="26"/>
     </row>
-    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="30">
       <c r="A69" s="20">
         <v>20523</v>
       </c>
@@ -5392,7 +5398,7 @@
       <c r="J69" s="25"/>
       <c r="K69" s="26"/>
     </row>
-    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="30">
       <c r="A70" s="20">
         <v>20523</v>
       </c>
@@ -5415,7 +5421,7 @@
       <c r="J70" s="25"/>
       <c r="K70" s="26"/>
     </row>
-    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="30">
       <c r="A71" s="20">
         <v>20523</v>
       </c>
@@ -5438,7 +5444,7 @@
       <c r="J71" s="25"/>
       <c r="K71" s="26"/>
     </row>
-    <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="30">
       <c r="A72" s="14">
         <v>20541</v>
       </c>
@@ -5454,14 +5460,22 @@
       <c r="E72" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="17"/>
+      <c r="F72" s="17">
+        <v>1</v>
+      </c>
       <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
+      <c r="H72" s="18">
+        <v>1</v>
+      </c>
+      <c r="I72" s="18">
+        <v>1</v>
+      </c>
+      <c r="J72" s="18">
+        <v>1</v>
+      </c>
       <c r="K72" s="19"/>
     </row>
-    <row r="73" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="105">
       <c r="A73" s="14">
         <v>20541</v>
       </c>
@@ -5492,7 +5506,7 @@
       </c>
       <c r="K73" s="19"/>
     </row>
-    <row r="74" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="45">
       <c r="A74" s="14">
         <v>20541</v>
       </c>
@@ -5512,7 +5526,9 @@
         <v>1</v>
       </c>
       <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
+      <c r="H74" s="18">
+        <v>1</v>
+      </c>
       <c r="I74" s="18">
         <v>1</v>
       </c>
@@ -5521,7 +5537,7 @@
       </c>
       <c r="K74" s="19"/>
     </row>
-    <row r="75" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="60">
       <c r="A75" s="14">
         <v>20541</v>
       </c>
@@ -5541,7 +5557,9 @@
         <v>1</v>
       </c>
       <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
+      <c r="H75" s="18">
+        <v>1</v>
+      </c>
       <c r="I75" s="18">
         <v>1</v>
       </c>
@@ -5550,7 +5568,7 @@
       </c>
       <c r="K75" s="19"/>
     </row>
-    <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="30">
       <c r="A76" s="14">
         <v>20541</v>
       </c>
@@ -5570,7 +5588,9 @@
         <v>1</v>
       </c>
       <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
+      <c r="H76" s="18">
+        <v>1</v>
+      </c>
       <c r="I76" s="18">
         <v>1</v>
       </c>
@@ -5579,7 +5599,7 @@
       </c>
       <c r="K76" s="19"/>
     </row>
-    <row r="77" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="90">
       <c r="A77" s="14">
         <v>20541</v>
       </c>
@@ -5595,14 +5615,22 @@
       <c r="E77" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F77" s="17"/>
+      <c r="F77" s="17">
+        <v>1</v>
+      </c>
       <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
-      <c r="I77" s="18"/>
-      <c r="J77" s="18"/>
+      <c r="H77" s="18">
+        <v>1</v>
+      </c>
+      <c r="I77" s="18">
+        <v>1</v>
+      </c>
+      <c r="J77" s="18">
+        <v>1</v>
+      </c>
       <c r="K77" s="19"/>
     </row>
-    <row r="78" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="75">
       <c r="A78" s="14">
         <v>20541</v>
       </c>
@@ -5618,14 +5646,22 @@
       <c r="E78" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F78" s="17"/>
+      <c r="F78" s="17">
+        <v>1</v>
+      </c>
       <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="18"/>
+      <c r="H78" s="18">
+        <v>1</v>
+      </c>
+      <c r="I78" s="18">
+        <v>1</v>
+      </c>
+      <c r="J78" s="18">
+        <v>1</v>
+      </c>
       <c r="K78" s="19"/>
     </row>
-    <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="30">
       <c r="A79" s="14">
         <v>20541</v>
       </c>
@@ -5641,14 +5677,22 @@
       <c r="E79" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F79" s="17"/>
+      <c r="F79" s="17">
+        <v>1</v>
+      </c>
       <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
+      <c r="H79" s="18">
+        <v>1</v>
+      </c>
+      <c r="I79" s="18">
+        <v>1</v>
+      </c>
+      <c r="J79" s="18">
+        <v>1</v>
+      </c>
       <c r="K79" s="19"/>
     </row>
-    <row r="80" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="105">
       <c r="A80" s="14">
         <v>20541</v>
       </c>
@@ -5664,14 +5708,22 @@
       <c r="E80" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F80" s="17"/>
+      <c r="F80" s="17">
+        <v>1</v>
+      </c>
       <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
+      <c r="H80" s="18">
+        <v>1</v>
+      </c>
+      <c r="I80" s="18">
+        <v>1</v>
+      </c>
+      <c r="J80" s="18">
+        <v>1</v>
+      </c>
       <c r="K80" s="19"/>
     </row>
-    <row r="81" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="60">
       <c r="A81" s="20">
         <v>20579</v>
       </c>
@@ -5687,14 +5739,18 @@
       <c r="E81" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F81" s="24"/>
+      <c r="F81" s="24">
+        <v>1</v>
+      </c>
       <c r="G81" s="25"/>
       <c r="H81" s="25"/>
-      <c r="I81" s="25"/>
+      <c r="I81" s="25">
+        <v>1</v>
+      </c>
       <c r="J81" s="25"/>
       <c r="K81" s="26"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11">
       <c r="A82" s="14">
         <v>20588</v>
       </c>
@@ -5717,7 +5773,7 @@
       <c r="J82" s="18"/>
       <c r="K82" s="19"/>
     </row>
-    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="30">
       <c r="A83" s="14">
         <v>20588</v>
       </c>
@@ -5740,7 +5796,7 @@
       <c r="J83" s="18"/>
       <c r="K83" s="19"/>
     </row>
-    <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="30">
       <c r="A84" s="14">
         <v>20588</v>
       </c>
@@ -5763,7 +5819,7 @@
       <c r="J84" s="18"/>
       <c r="K84" s="19"/>
     </row>
-    <row r="85" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="60">
       <c r="A85" s="20">
         <v>20593</v>
       </c>
@@ -5782,11 +5838,13 @@
       <c r="F85" s="24"/>
       <c r="G85" s="25"/>
       <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
+      <c r="I85" s="25">
+        <v>1</v>
+      </c>
       <c r="J85" s="25"/>
       <c r="K85" s="26"/>
     </row>
-    <row r="86" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="105">
       <c r="A86" s="20">
         <v>20593</v>
       </c>
@@ -5805,11 +5863,13 @@
       <c r="F86" s="24"/>
       <c r="G86" s="25"/>
       <c r="H86" s="25"/>
-      <c r="I86" s="25"/>
+      <c r="I86" s="25">
+        <v>1</v>
+      </c>
       <c r="J86" s="25"/>
       <c r="K86" s="26"/>
     </row>
-    <row r="87" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="60">
       <c r="A87" s="20">
         <v>20593</v>
       </c>
@@ -5828,11 +5888,13 @@
       <c r="F87" s="24"/>
       <c r="G87" s="25"/>
       <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
+      <c r="I87" s="25">
+        <v>1</v>
+      </c>
       <c r="J87" s="25"/>
       <c r="K87" s="26"/>
     </row>
-    <row r="88" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="75">
       <c r="A88" s="14">
         <v>20616</v>
       </c>
@@ -5851,11 +5913,13 @@
       <c r="F88" s="17"/>
       <c r="G88" s="18"/>
       <c r="H88" s="18"/>
-      <c r="I88" s="18"/>
+      <c r="I88" s="18">
+        <v>1</v>
+      </c>
       <c r="J88" s="18"/>
       <c r="K88" s="19"/>
     </row>
-    <row r="89" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="60">
       <c r="A89" s="14">
         <v>20616</v>
       </c>
@@ -5874,11 +5938,13 @@
       <c r="F89" s="17"/>
       <c r="G89" s="18"/>
       <c r="H89" s="18"/>
-      <c r="I89" s="18"/>
+      <c r="I89" s="18">
+        <v>1</v>
+      </c>
       <c r="J89" s="18"/>
       <c r="K89" s="19"/>
     </row>
-    <row r="90" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="45">
       <c r="A90" s="14">
         <v>20616</v>
       </c>
@@ -5897,11 +5963,13 @@
       <c r="F90" s="17"/>
       <c r="G90" s="18"/>
       <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
+      <c r="I90" s="18">
+        <v>1</v>
+      </c>
       <c r="J90" s="18"/>
       <c r="K90" s="19"/>
     </row>
-    <row r="91" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="45">
       <c r="A91" s="14">
         <v>20616</v>
       </c>
@@ -5920,11 +5988,13 @@
       <c r="F91" s="17"/>
       <c r="G91" s="18"/>
       <c r="H91" s="18"/>
-      <c r="I91" s="18"/>
+      <c r="I91" s="18">
+        <v>1</v>
+      </c>
       <c r="J91" s="18"/>
       <c r="K91" s="19"/>
     </row>
-    <row r="92" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="75">
       <c r="A92" s="14">
         <v>20616</v>
       </c>
@@ -5943,11 +6013,13 @@
       <c r="F92" s="17"/>
       <c r="G92" s="18"/>
       <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
+      <c r="I92" s="18">
+        <v>1</v>
+      </c>
       <c r="J92" s="18"/>
       <c r="K92" s="19"/>
     </row>
-    <row r="93" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="45">
       <c r="A93" s="14">
         <v>20616</v>
       </c>
@@ -5966,11 +6038,13 @@
       <c r="F93" s="17"/>
       <c r="G93" s="18"/>
       <c r="H93" s="18"/>
-      <c r="I93" s="18"/>
+      <c r="I93" s="18">
+        <v>1</v>
+      </c>
       <c r="J93" s="18"/>
       <c r="K93" s="19"/>
     </row>
-    <row r="94" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="75">
       <c r="A94" s="14">
         <v>20616</v>
       </c>
@@ -5989,11 +6063,13 @@
       <c r="F94" s="17"/>
       <c r="G94" s="18"/>
       <c r="H94" s="18"/>
-      <c r="I94" s="18"/>
+      <c r="I94" s="18">
+        <v>1</v>
+      </c>
       <c r="J94" s="18"/>
       <c r="K94" s="19"/>
     </row>
-    <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="30">
       <c r="A95" s="14">
         <v>20616</v>
       </c>
@@ -6012,11 +6088,13 @@
       <c r="F95" s="17"/>
       <c r="G95" s="18"/>
       <c r="H95" s="18"/>
-      <c r="I95" s="18"/>
+      <c r="I95" s="18">
+        <v>1</v>
+      </c>
       <c r="J95" s="18"/>
       <c r="K95" s="19"/>
     </row>
-    <row r="96" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="75">
       <c r="A96" s="14">
         <v>20616</v>
       </c>
@@ -6035,11 +6113,13 @@
       <c r="F96" s="17"/>
       <c r="G96" s="18"/>
       <c r="H96" s="18"/>
-      <c r="I96" s="18"/>
+      <c r="I96" s="18">
+        <v>1</v>
+      </c>
       <c r="J96" s="18"/>
       <c r="K96" s="19"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11">
       <c r="A97" s="14">
         <v>20616</v>
       </c>
@@ -6058,11 +6138,13 @@
       <c r="F97" s="17"/>
       <c r="G97" s="18"/>
       <c r="H97" s="18"/>
-      <c r="I97" s="18"/>
+      <c r="I97" s="18">
+        <v>1</v>
+      </c>
       <c r="J97" s="18"/>
       <c r="K97" s="19"/>
     </row>
-    <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="30">
       <c r="A98" s="14">
         <v>20616</v>
       </c>
@@ -6081,11 +6163,13 @@
       <c r="F98" s="17"/>
       <c r="G98" s="18"/>
       <c r="H98" s="18"/>
-      <c r="I98" s="18"/>
+      <c r="I98" s="18">
+        <v>1</v>
+      </c>
       <c r="J98" s="18"/>
       <c r="K98" s="19"/>
     </row>
-    <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="30">
       <c r="A99" s="14">
         <v>20616</v>
       </c>
@@ -6104,11 +6188,13 @@
       <c r="F99" s="17"/>
       <c r="G99" s="18"/>
       <c r="H99" s="18"/>
-      <c r="I99" s="18"/>
+      <c r="I99" s="18">
+        <v>1</v>
+      </c>
       <c r="J99" s="18"/>
       <c r="K99" s="19"/>
     </row>
-    <row r="100" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="75">
       <c r="A100" s="20">
         <v>20639</v>
       </c>
@@ -6125,13 +6211,17 @@
         <v>31</v>
       </c>
       <c r="F100" s="24"/>
-      <c r="G100" s="25"/>
+      <c r="G100" s="25">
+        <v>1</v>
+      </c>
       <c r="H100" s="25"/>
-      <c r="I100" s="25"/>
+      <c r="I100" s="25">
+        <v>1</v>
+      </c>
       <c r="J100" s="25"/>
       <c r="K100" s="26"/>
     </row>
-    <row r="101" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="45">
       <c r="A101" s="20">
         <v>20639</v>
       </c>
@@ -6148,13 +6238,17 @@
         <v>40</v>
       </c>
       <c r="F101" s="24"/>
-      <c r="G101" s="25"/>
+      <c r="G101" s="25">
+        <v>1</v>
+      </c>
       <c r="H101" s="25"/>
-      <c r="I101" s="25"/>
+      <c r="I101" s="25">
+        <v>1</v>
+      </c>
       <c r="J101" s="25"/>
       <c r="K101" s="26"/>
     </row>
-    <row r="102" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="90">
       <c r="A102" s="20">
         <v>20639</v>
       </c>
@@ -6171,13 +6265,17 @@
         <v>41</v>
       </c>
       <c r="F102" s="24"/>
-      <c r="G102" s="25"/>
+      <c r="G102" s="25">
+        <v>1</v>
+      </c>
       <c r="H102" s="25"/>
-      <c r="I102" s="25"/>
+      <c r="I102" s="25">
+        <v>1</v>
+      </c>
       <c r="J102" s="25"/>
       <c r="K102" s="26"/>
     </row>
-    <row r="103" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="45">
       <c r="A103" s="20">
         <v>20639</v>
       </c>
@@ -6194,13 +6292,17 @@
         <v>76</v>
       </c>
       <c r="F103" s="24"/>
-      <c r="G103" s="25"/>
+      <c r="G103" s="25">
+        <v>1</v>
+      </c>
       <c r="H103" s="25"/>
-      <c r="I103" s="25"/>
+      <c r="I103" s="25">
+        <v>1</v>
+      </c>
       <c r="J103" s="25"/>
       <c r="K103" s="26"/>
     </row>
-    <row r="104" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="75">
       <c r="A104" s="20">
         <v>20639</v>
       </c>
@@ -6217,13 +6319,17 @@
         <v>89</v>
       </c>
       <c r="F104" s="24"/>
-      <c r="G104" s="25"/>
+      <c r="G104" s="25">
+        <v>1</v>
+      </c>
       <c r="H104" s="25"/>
-      <c r="I104" s="25"/>
+      <c r="I104" s="25">
+        <v>1</v>
+      </c>
       <c r="J104" s="25"/>
       <c r="K104" s="26"/>
     </row>
-    <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="30">
       <c r="A105" s="20">
         <v>20639</v>
       </c>
@@ -6240,13 +6346,17 @@
         <v>90</v>
       </c>
       <c r="F105" s="24"/>
-      <c r="G105" s="25"/>
+      <c r="G105" s="25">
+        <v>1</v>
+      </c>
       <c r="H105" s="25"/>
-      <c r="I105" s="25"/>
+      <c r="I105" s="25">
+        <v>1</v>
+      </c>
       <c r="J105" s="25"/>
       <c r="K105" s="26"/>
     </row>
-    <row r="106" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="45">
       <c r="A106" s="20">
         <v>20639</v>
       </c>
@@ -6263,13 +6373,17 @@
         <v>91</v>
       </c>
       <c r="F106" s="24"/>
-      <c r="G106" s="25"/>
+      <c r="G106" s="25">
+        <v>1</v>
+      </c>
       <c r="H106" s="25"/>
-      <c r="I106" s="25"/>
+      <c r="I106" s="25">
+        <v>1</v>
+      </c>
       <c r="J106" s="25"/>
       <c r="K106" s="26"/>
     </row>
-    <row r="107" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="60">
       <c r="A107" s="14">
         <v>20640</v>
       </c>
@@ -6288,11 +6402,13 @@
       <c r="F107" s="17"/>
       <c r="G107" s="18"/>
       <c r="H107" s="18"/>
-      <c r="I107" s="18"/>
+      <c r="I107" s="18">
+        <v>1</v>
+      </c>
       <c r="J107" s="18"/>
       <c r="K107" s="19"/>
     </row>
-    <row r="108" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="60">
       <c r="A108" s="14">
         <v>20640</v>
       </c>
@@ -6311,11 +6427,13 @@
       <c r="F108" s="17"/>
       <c r="G108" s="18"/>
       <c r="H108" s="18"/>
-      <c r="I108" s="18"/>
+      <c r="I108" s="18">
+        <v>1</v>
+      </c>
       <c r="J108" s="18"/>
       <c r="K108" s="19"/>
     </row>
-    <row r="109" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="90">
       <c r="A109" s="14">
         <v>20640</v>
       </c>
@@ -6334,11 +6452,13 @@
       <c r="F109" s="17"/>
       <c r="G109" s="18"/>
       <c r="H109" s="18"/>
-      <c r="I109" s="18"/>
+      <c r="I109" s="18">
+        <v>1</v>
+      </c>
       <c r="J109" s="18"/>
       <c r="K109" s="19"/>
     </row>
-    <row r="110" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="30">
       <c r="A110" s="20">
         <v>20647</v>
       </c>
@@ -6361,7 +6481,7 @@
       <c r="J110" s="25"/>
       <c r="K110" s="26"/>
     </row>
-    <row r="111" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="30">
       <c r="A111" s="20">
         <v>20647</v>
       </c>
@@ -6384,7 +6504,7 @@
       <c r="J111" s="25"/>
       <c r="K111" s="26"/>
     </row>
-    <row r="112" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="45">
       <c r="A112" s="14">
         <v>20651</v>
       </c>
@@ -6403,11 +6523,13 @@
       <c r="F112" s="17"/>
       <c r="G112" s="18"/>
       <c r="H112" s="18"/>
-      <c r="I112" s="18"/>
+      <c r="I112" s="18">
+        <v>1</v>
+      </c>
       <c r="J112" s="18"/>
       <c r="K112" s="19"/>
     </row>
-    <row r="113" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="60">
       <c r="A113" s="14">
         <v>20651</v>
       </c>
@@ -6426,11 +6548,13 @@
       <c r="F113" s="17"/>
       <c r="G113" s="18"/>
       <c r="H113" s="18"/>
-      <c r="I113" s="18"/>
+      <c r="I113" s="18">
+        <v>1</v>
+      </c>
       <c r="J113" s="18"/>
       <c r="K113" s="19"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11">
       <c r="A114" s="14">
         <v>20651</v>
       </c>
@@ -6449,11 +6573,13 @@
       <c r="F114" s="17"/>
       <c r="G114" s="18"/>
       <c r="H114" s="18"/>
-      <c r="I114" s="18"/>
+      <c r="I114" s="18">
+        <v>1</v>
+      </c>
       <c r="J114" s="18"/>
       <c r="K114" s="19"/>
     </row>
-    <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="30">
       <c r="A115" s="14">
         <v>20651</v>
       </c>
@@ -6472,11 +6598,13 @@
       <c r="F115" s="17"/>
       <c r="G115" s="18"/>
       <c r="H115" s="18"/>
-      <c r="I115" s="18"/>
+      <c r="I115" s="18">
+        <v>1</v>
+      </c>
       <c r="J115" s="18"/>
       <c r="K115" s="19"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11">
       <c r="A116" s="20">
         <v>20662</v>
       </c>
@@ -6499,7 +6627,7 @@
       <c r="J116" s="25"/>
       <c r="K116" s="26"/>
     </row>
-    <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="30">
       <c r="A117" s="20">
         <v>20662</v>
       </c>
@@ -6522,7 +6650,7 @@
       <c r="J117" s="25"/>
       <c r="K117" s="26"/>
     </row>
-    <row r="118" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="30">
       <c r="A118" s="14">
         <v>20669</v>
       </c>
@@ -6545,7 +6673,7 @@
       <c r="J118" s="18"/>
       <c r="K118" s="19"/>
     </row>
-    <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="30">
       <c r="A119" s="14">
         <v>20669</v>
       </c>
@@ -6568,7 +6696,7 @@
       <c r="J119" s="18"/>
       <c r="K119" s="19"/>
     </row>
-    <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="30">
       <c r="A120" s="20">
         <v>20682</v>
       </c>
@@ -6584,14 +6712,18 @@
       <c r="E120" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F120" s="24"/>
+      <c r="F120" s="24">
+        <v>1</v>
+      </c>
       <c r="G120" s="25"/>
       <c r="H120" s="25"/>
-      <c r="I120" s="25"/>
+      <c r="I120" s="25">
+        <v>1</v>
+      </c>
       <c r="J120" s="25"/>
       <c r="K120" s="26"/>
     </row>
-    <row r="121" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="30">
       <c r="A121" s="20">
         <v>20682</v>
       </c>
@@ -6607,14 +6739,18 @@
       <c r="E121" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F121" s="24"/>
+      <c r="F121" s="24">
+        <v>1</v>
+      </c>
       <c r="G121" s="25"/>
       <c r="H121" s="25"/>
-      <c r="I121" s="25"/>
+      <c r="I121" s="25">
+        <v>1</v>
+      </c>
       <c r="J121" s="25"/>
       <c r="K121" s="26"/>
     </row>
-    <row r="122" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="30">
       <c r="A122" s="20">
         <v>20682</v>
       </c>
@@ -6630,14 +6766,18 @@
       <c r="E122" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F122" s="24"/>
+      <c r="F122" s="24">
+        <v>1</v>
+      </c>
       <c r="G122" s="25"/>
       <c r="H122" s="25"/>
-      <c r="I122" s="25"/>
+      <c r="I122" s="25">
+        <v>1</v>
+      </c>
       <c r="J122" s="25"/>
       <c r="K122" s="26"/>
     </row>
-    <row r="123" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="60">
       <c r="A123" s="20">
         <v>20682</v>
       </c>
@@ -6653,14 +6793,18 @@
       <c r="E123" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F123" s="24"/>
+      <c r="F123" s="24">
+        <v>1</v>
+      </c>
       <c r="G123" s="25"/>
       <c r="H123" s="25"/>
-      <c r="I123" s="25"/>
+      <c r="I123" s="25">
+        <v>1</v>
+      </c>
       <c r="J123" s="25"/>
       <c r="K123" s="26"/>
     </row>
-    <row r="124" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" ht="30">
       <c r="A124" s="20">
         <v>20682</v>
       </c>
@@ -6676,14 +6820,18 @@
       <c r="E124" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F124" s="24"/>
+      <c r="F124" s="24">
+        <v>1</v>
+      </c>
       <c r="G124" s="25"/>
       <c r="H124" s="25"/>
-      <c r="I124" s="25"/>
+      <c r="I124" s="25">
+        <v>1</v>
+      </c>
       <c r="J124" s="25"/>
       <c r="K124" s="26"/>
     </row>
-    <row r="125" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="90">
       <c r="A125" s="20">
         <v>20682</v>
       </c>
@@ -6699,14 +6847,18 @@
       <c r="E125" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F125" s="24"/>
+      <c r="F125" s="24">
+        <v>1</v>
+      </c>
       <c r="G125" s="25"/>
       <c r="H125" s="25"/>
-      <c r="I125" s="25"/>
+      <c r="I125" s="25">
+        <v>1</v>
+      </c>
       <c r="J125" s="25"/>
       <c r="K125" s="26"/>
     </row>
-    <row r="126" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="30">
       <c r="A126" s="20">
         <v>20682</v>
       </c>
@@ -6722,14 +6874,18 @@
       <c r="E126" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F126" s="24"/>
+      <c r="F126" s="24">
+        <v>1</v>
+      </c>
       <c r="G126" s="25"/>
       <c r="H126" s="25"/>
-      <c r="I126" s="25"/>
+      <c r="I126" s="25">
+        <v>1</v>
+      </c>
       <c r="J126" s="25"/>
       <c r="K126" s="26"/>
     </row>
-    <row r="127" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" ht="45">
       <c r="A127" s="20">
         <v>20682</v>
       </c>
@@ -6745,14 +6901,18 @@
       <c r="E127" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F127" s="24"/>
+      <c r="F127" s="24">
+        <v>1</v>
+      </c>
       <c r="G127" s="25"/>
       <c r="H127" s="25"/>
-      <c r="I127" s="25"/>
+      <c r="I127" s="25">
+        <v>1</v>
+      </c>
       <c r="J127" s="25"/>
       <c r="K127" s="26"/>
     </row>
-    <row r="128" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" ht="60">
       <c r="A128" s="20">
         <v>20682</v>
       </c>
@@ -6768,14 +6928,18 @@
       <c r="E128" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F128" s="24"/>
+      <c r="F128" s="24">
+        <v>1</v>
+      </c>
       <c r="G128" s="25"/>
       <c r="H128" s="25"/>
-      <c r="I128" s="25"/>
+      <c r="I128" s="25">
+        <v>1</v>
+      </c>
       <c r="J128" s="25"/>
       <c r="K128" s="26"/>
     </row>
-    <row r="129" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" ht="30">
       <c r="A129" s="20">
         <v>20682</v>
       </c>
@@ -6791,14 +6955,18 @@
       <c r="E129" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="F129" s="24"/>
+      <c r="F129" s="24">
+        <v>1</v>
+      </c>
       <c r="G129" s="25"/>
       <c r="H129" s="25"/>
-      <c r="I129" s="25"/>
+      <c r="I129" s="25">
+        <v>1</v>
+      </c>
       <c r="J129" s="25"/>
       <c r="K129" s="26"/>
     </row>
-    <row r="130" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="30">
       <c r="A130" s="20">
         <v>20682</v>
       </c>
@@ -6814,14 +6982,18 @@
       <c r="E130" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="F130" s="24"/>
+      <c r="F130" s="24">
+        <v>1</v>
+      </c>
       <c r="G130" s="25"/>
       <c r="H130" s="25"/>
-      <c r="I130" s="25"/>
+      <c r="I130" s="25">
+        <v>1</v>
+      </c>
       <c r="J130" s="25"/>
       <c r="K130" s="26"/>
     </row>
-    <row r="131" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" ht="30">
       <c r="A131" s="20">
         <v>20682</v>
       </c>
@@ -6837,14 +7009,18 @@
       <c r="E131" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F131" s="24"/>
+      <c r="F131" s="24">
+        <v>1</v>
+      </c>
       <c r="G131" s="25"/>
       <c r="H131" s="25"/>
-      <c r="I131" s="25"/>
+      <c r="I131" s="25">
+        <v>1</v>
+      </c>
       <c r="J131" s="25"/>
       <c r="K131" s="26"/>
     </row>
-    <row r="132" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" ht="45">
       <c r="A132" s="20">
         <v>20682</v>
       </c>
@@ -6860,14 +7036,18 @@
       <c r="E132" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F132" s="24"/>
+      <c r="F132" s="24">
+        <v>1</v>
+      </c>
       <c r="G132" s="25"/>
       <c r="H132" s="25"/>
-      <c r="I132" s="25"/>
+      <c r="I132" s="25">
+        <v>1</v>
+      </c>
       <c r="J132" s="25"/>
       <c r="K132" s="26"/>
     </row>
-    <row r="133" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" ht="45">
       <c r="A133" s="20">
         <v>20682</v>
       </c>
@@ -6883,14 +7063,18 @@
       <c r="E133" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="F133" s="24"/>
+      <c r="F133" s="24">
+        <v>1</v>
+      </c>
       <c r="G133" s="25"/>
       <c r="H133" s="25"/>
-      <c r="I133" s="25"/>
+      <c r="I133" s="25">
+        <v>1</v>
+      </c>
       <c r="J133" s="25"/>
       <c r="K133" s="26"/>
     </row>
-    <row r="134" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" ht="90">
       <c r="A134" s="20">
         <v>20682</v>
       </c>
@@ -6906,14 +7090,18 @@
       <c r="E134" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="F134" s="24"/>
+      <c r="F134" s="24">
+        <v>1</v>
+      </c>
       <c r="G134" s="25"/>
       <c r="H134" s="25"/>
-      <c r="I134" s="25"/>
+      <c r="I134" s="25">
+        <v>1</v>
+      </c>
       <c r="J134" s="25"/>
       <c r="K134" s="26"/>
     </row>
-    <row r="135" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" ht="90">
       <c r="A135" s="20">
         <v>20682</v>
       </c>
@@ -6929,14 +7117,18 @@
       <c r="E135" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="F135" s="24"/>
+      <c r="F135" s="24">
+        <v>1</v>
+      </c>
       <c r="G135" s="25"/>
       <c r="H135" s="25"/>
-      <c r="I135" s="25"/>
+      <c r="I135" s="25">
+        <v>1</v>
+      </c>
       <c r="J135" s="25"/>
       <c r="K135" s="26"/>
     </row>
-    <row r="136" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" ht="60">
       <c r="A136" s="14">
         <v>20689</v>
       </c>
@@ -6959,7 +7151,7 @@
       <c r="J136" s="18"/>
       <c r="K136" s="19"/>
     </row>
-    <row r="137" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" ht="75">
       <c r="A137" s="14">
         <v>20689</v>
       </c>
@@ -6982,7 +7174,7 @@
       <c r="J137" s="18"/>
       <c r="K137" s="19"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11">
       <c r="A138" s="14">
         <v>20689</v>
       </c>
@@ -7005,7 +7197,7 @@
       <c r="J138" s="18"/>
       <c r="K138" s="19"/>
     </row>
-    <row r="139" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" ht="30">
       <c r="A139" s="20">
         <v>20762</v>
       </c>
@@ -7028,7 +7220,7 @@
       <c r="J139" s="25"/>
       <c r="K139" s="26"/>
     </row>
-    <row r="140" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" ht="30">
       <c r="A140" s="20">
         <v>20762</v>
       </c>
@@ -7051,7 +7243,7 @@
       <c r="J140" s="25"/>
       <c r="K140" s="26"/>
     </row>
-    <row r="141" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" ht="30">
       <c r="A141" s="20">
         <v>20762</v>
       </c>
@@ -7074,7 +7266,7 @@
       <c r="J141" s="25"/>
       <c r="K141" s="26"/>
     </row>
-    <row r="142" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" ht="30">
       <c r="A142" s="14">
         <v>20769</v>
       </c>
@@ -7097,7 +7289,7 @@
       <c r="J142" s="18"/>
       <c r="K142" s="19"/>
     </row>
-    <row r="143" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" ht="90">
       <c r="A143" s="14">
         <v>20769</v>
       </c>
@@ -7120,7 +7312,7 @@
       <c r="J143" s="18"/>
       <c r="K143" s="19"/>
     </row>
-    <row r="144" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" ht="30">
       <c r="A144" s="14">
         <v>20769</v>
       </c>
@@ -7143,7 +7335,7 @@
       <c r="J144" s="18"/>
       <c r="K144" s="19"/>
     </row>
-    <row r="145" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="30">
       <c r="A145" s="14">
         <v>20769</v>
       </c>
@@ -7166,7 +7358,7 @@
       <c r="J145" s="18"/>
       <c r="K145" s="19"/>
     </row>
-    <row r="146" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" ht="30">
       <c r="A146" s="20">
         <v>20812</v>
       </c>
@@ -7189,7 +7381,7 @@
       <c r="J146" s="25"/>
       <c r="K146" s="26"/>
     </row>
-    <row r="147" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" ht="30">
       <c r="A147" s="20">
         <v>20812</v>
       </c>
@@ -7212,7 +7404,7 @@
       <c r="J147" s="25"/>
       <c r="K147" s="26"/>
     </row>
-    <row r="148" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" ht="30">
       <c r="A148" s="14">
         <v>20846</v>
       </c>
@@ -7235,7 +7427,7 @@
       <c r="J148" s="18"/>
       <c r="K148" s="19"/>
     </row>
-    <row r="149" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" ht="30">
       <c r="A149" s="14">
         <v>20846</v>
       </c>
@@ -7258,7 +7450,7 @@
       <c r="J149" s="18"/>
       <c r="K149" s="19"/>
     </row>
-    <row r="150" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" ht="90">
       <c r="A150" s="14">
         <v>20846</v>
       </c>
@@ -7281,7 +7473,7 @@
       <c r="J150" s="18"/>
       <c r="K150" s="19"/>
     </row>
-    <row r="151" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" ht="30">
       <c r="A151" s="14">
         <v>20846</v>
       </c>
@@ -7304,7 +7496,7 @@
       <c r="J151" s="18"/>
       <c r="K151" s="19"/>
     </row>
-    <row r="152" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" ht="30">
       <c r="A152" s="14">
         <v>20846</v>
       </c>
@@ -7327,7 +7519,7 @@
       <c r="J152" s="18"/>
       <c r="K152" s="19"/>
     </row>
-    <row r="153" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" ht="90">
       <c r="A153" s="20">
         <v>20847</v>
       </c>
@@ -7350,7 +7542,7 @@
       <c r="J153" s="25"/>
       <c r="K153" s="26"/>
     </row>
-    <row r="154" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" ht="75">
       <c r="A154" s="20">
         <v>20847</v>
       </c>
@@ -7373,7 +7565,7 @@
       <c r="J154" s="25"/>
       <c r="K154" s="26"/>
     </row>
-    <row r="155" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" ht="30">
       <c r="A155" s="20">
         <v>20847</v>
       </c>
@@ -7396,7 +7588,7 @@
       <c r="J155" s="25"/>
       <c r="K155" s="26"/>
     </row>
-    <row r="156" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" ht="30">
       <c r="A156" s="20">
         <v>20847</v>
       </c>
@@ -7419,7 +7611,7 @@
       <c r="J156" s="25"/>
       <c r="K156" s="26"/>
     </row>
-    <row r="157" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" ht="30">
       <c r="A157" s="14">
         <v>20850</v>
       </c>
@@ -7442,7 +7634,7 @@
       <c r="J157" s="18"/>
       <c r="K157" s="19"/>
     </row>
-    <row r="158" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" ht="30">
       <c r="A158" s="14">
         <v>20850</v>
       </c>
@@ -7465,7 +7657,7 @@
       <c r="J158" s="18"/>
       <c r="K158" s="19"/>
     </row>
-    <row r="159" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" ht="45">
       <c r="A159" s="14">
         <v>20850</v>
       </c>
@@ -7488,7 +7680,7 @@
       <c r="J159" s="18"/>
       <c r="K159" s="19"/>
     </row>
-    <row r="160" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" ht="60">
       <c r="A160" s="14">
         <v>20850</v>
       </c>
@@ -7511,7 +7703,7 @@
       <c r="J160" s="18"/>
       <c r="K160" s="19"/>
     </row>
-    <row r="161" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="30">
       <c r="A161" s="20">
         <v>20852</v>
       </c>
@@ -7534,7 +7726,7 @@
       <c r="J161" s="25"/>
       <c r="K161" s="26"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11">
       <c r="A162" s="20">
         <v>20852</v>
       </c>
@@ -7557,7 +7749,7 @@
       <c r="J162" s="25"/>
       <c r="K162" s="26"/>
     </row>
-    <row r="163" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" ht="30">
       <c r="A163" s="14">
         <v>20855</v>
       </c>
@@ -7580,7 +7772,7 @@
       <c r="J163" s="18"/>
       <c r="K163" s="19"/>
     </row>
-    <row r="164" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" ht="30">
       <c r="A164" s="14">
         <v>20855</v>
       </c>
@@ -7603,7 +7795,7 @@
       <c r="J164" s="18"/>
       <c r="K164" s="19"/>
     </row>
-    <row r="165" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" ht="30">
       <c r="A165" s="20">
         <v>20857</v>
       </c>
@@ -7626,7 +7818,7 @@
       <c r="J165" s="25"/>
       <c r="K165" s="26"/>
     </row>
-    <row r="166" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" ht="30">
       <c r="A166" s="20">
         <v>20857</v>
       </c>
@@ -7649,7 +7841,7 @@
       <c r="J166" s="25"/>
       <c r="K166" s="26"/>
     </row>
-    <row r="167" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" ht="75">
       <c r="A167" s="14">
         <v>20878</v>
       </c>
@@ -7672,7 +7864,7 @@
       <c r="J167" s="18"/>
       <c r="K167" s="19"/>
     </row>
-    <row r="168" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" ht="60">
       <c r="A168" s="14">
         <v>20878</v>
       </c>
@@ -7695,7 +7887,7 @@
       <c r="J168" s="18"/>
       <c r="K168" s="19"/>
     </row>
-    <row r="169" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="30">
       <c r="A169" s="14">
         <v>20878</v>
       </c>
@@ -7718,7 +7910,7 @@
       <c r="J169" s="18"/>
       <c r="K169" s="19"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11">
       <c r="A170" s="20">
         <v>20973</v>
       </c>
@@ -7741,7 +7933,7 @@
       <c r="J170" s="25"/>
       <c r="K170" s="26"/>
     </row>
-    <row r="171" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" ht="75">
       <c r="A171" s="14">
         <v>21022</v>
       </c>
@@ -7764,7 +7956,7 @@
       <c r="J171" s="18"/>
       <c r="K171" s="19"/>
     </row>
-    <row r="172" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" ht="30">
       <c r="A172" s="14">
         <v>21022</v>
       </c>
@@ -7787,7 +7979,7 @@
       <c r="J172" s="18"/>
       <c r="K172" s="19"/>
     </row>
-    <row r="173" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" ht="45">
       <c r="A173" s="14">
         <v>21022</v>
       </c>
@@ -7810,7 +8002,7 @@
       <c r="J173" s="18"/>
       <c r="K173" s="19"/>
     </row>
-    <row r="174" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" ht="105">
       <c r="A174" s="20">
         <v>21082</v>
       </c>
@@ -7833,7 +8025,7 @@
       <c r="J174" s="25"/>
       <c r="K174" s="26"/>
     </row>
-    <row r="175" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" ht="30">
       <c r="A175" s="20">
         <v>21082</v>
       </c>
@@ -7856,7 +8048,7 @@
       <c r="J175" s="25"/>
       <c r="K175" s="26"/>
     </row>
-    <row r="176" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" ht="30">
       <c r="A176" s="14">
         <v>21113</v>
       </c>
@@ -7879,7 +8071,7 @@
       <c r="J176" s="18"/>
       <c r="K176" s="19"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11">
       <c r="A177" s="14">
         <v>21113</v>
       </c>
@@ -7902,7 +8094,7 @@
       <c r="J177" s="18"/>
       <c r="K177" s="19"/>
     </row>
-    <row r="178" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" ht="30">
       <c r="A178" s="20">
         <v>21149</v>
       </c>
@@ -7925,7 +8117,7 @@
       <c r="J178" s="25"/>
       <c r="K178" s="26"/>
     </row>
-    <row r="179" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" ht="30">
       <c r="A179" s="20">
         <v>21149</v>
       </c>
@@ -7948,7 +8140,7 @@
       <c r="J179" s="25"/>
       <c r="K179" s="26"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11">
       <c r="A180" s="14">
         <v>21201</v>
       </c>
@@ -7975,7 +8167,7 @@
       <c r="J180" s="18"/>
       <c r="K180" s="19"/>
     </row>
-    <row r="181" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" ht="75">
       <c r="A181" s="20">
         <v>21202</v>
       </c>
@@ -7998,7 +8190,7 @@
       <c r="J181" s="25"/>
       <c r="K181" s="26"/>
     </row>
-    <row r="182" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" ht="60">
       <c r="A182" s="20">
         <v>21202</v>
       </c>
@@ -8021,7 +8213,7 @@
       <c r="J182" s="25"/>
       <c r="K182" s="26"/>
     </row>
-    <row r="183" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" ht="45">
       <c r="A183" s="20">
         <v>21202</v>
       </c>
@@ -8044,7 +8236,7 @@
       <c r="J183" s="25"/>
       <c r="K183" s="26"/>
     </row>
-    <row r="184" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" ht="30">
       <c r="A184" s="20">
         <v>21202</v>
       </c>
@@ -8067,7 +8259,7 @@
       <c r="J184" s="25"/>
       <c r="K184" s="26"/>
     </row>
-    <row r="185" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" ht="45">
       <c r="A185" s="20">
         <v>21202</v>
       </c>
@@ -8090,7 +8282,7 @@
       <c r="J185" s="25"/>
       <c r="K185" s="26"/>
     </row>
-    <row r="186" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" ht="45">
       <c r="A186" s="20">
         <v>21202</v>
       </c>
@@ -8113,7 +8305,7 @@
       <c r="J186" s="25"/>
       <c r="K186" s="26"/>
     </row>
-    <row r="187" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" ht="45">
       <c r="A187" s="20">
         <v>21202</v>
       </c>
@@ -8136,7 +8328,7 @@
       <c r="J187" s="25"/>
       <c r="K187" s="26"/>
     </row>
-    <row r="188" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" ht="90">
       <c r="A188" s="20">
         <v>21202</v>
       </c>
@@ -8159,7 +8351,7 @@
       <c r="J188" s="25"/>
       <c r="K188" s="26"/>
     </row>
-    <row r="189" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" ht="105">
       <c r="A189" s="20">
         <v>21202</v>
       </c>
@@ -8182,7 +8374,7 @@
       <c r="J189" s="25"/>
       <c r="K189" s="26"/>
     </row>
-    <row r="190" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" ht="120">
       <c r="A190" s="20">
         <v>21202</v>
       </c>
@@ -8205,7 +8397,7 @@
       <c r="J190" s="25"/>
       <c r="K190" s="26"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11">
       <c r="A191" s="20">
         <v>21202</v>
       </c>
@@ -8228,7 +8420,7 @@
       <c r="J191" s="25"/>
       <c r="K191" s="26"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11">
       <c r="A192" s="20">
         <v>21202</v>
       </c>
@@ -8251,7 +8443,7 @@
       <c r="J192" s="25"/>
       <c r="K192" s="26"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11">
       <c r="A193" s="20">
         <v>21202</v>
       </c>
@@ -8274,7 +8466,7 @@
       <c r="J193" s="25"/>
       <c r="K193" s="26"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11">
       <c r="A194" s="20">
         <v>21202</v>
       </c>
@@ -8297,7 +8489,7 @@
       <c r="J194" s="25"/>
       <c r="K194" s="26"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11">
       <c r="A195" s="20">
         <v>21202</v>
       </c>
@@ -8320,7 +8512,7 @@
       <c r="J195" s="25"/>
       <c r="K195" s="26"/>
     </row>
-    <row r="196" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" ht="30">
       <c r="A196" s="14">
         <v>21219</v>
       </c>
@@ -8343,7 +8535,7 @@
       <c r="J196" s="18"/>
       <c r="K196" s="19"/>
     </row>
-    <row r="197" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" ht="60">
       <c r="A197" s="14">
         <v>21219</v>
       </c>
@@ -8366,7 +8558,7 @@
       <c r="J197" s="18"/>
       <c r="K197" s="19"/>
     </row>
-    <row r="198" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" ht="75">
       <c r="A198" s="14">
         <v>21219</v>
       </c>
@@ -8389,7 +8581,7 @@
       <c r="J198" s="18"/>
       <c r="K198" s="19"/>
     </row>
-    <row r="199" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" ht="45">
       <c r="A199" s="14">
         <v>21219</v>
       </c>
@@ -8412,7 +8604,7 @@
       <c r="J199" s="18"/>
       <c r="K199" s="19"/>
     </row>
-    <row r="200" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" ht="45">
       <c r="A200" s="14">
         <v>21219</v>
       </c>
@@ -8435,7 +8627,7 @@
       <c r="J200" s="18"/>
       <c r="K200" s="19"/>
     </row>
-    <row r="201" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" ht="105">
       <c r="A201" s="14">
         <v>21219</v>
       </c>
@@ -8458,7 +8650,7 @@
       <c r="J201" s="18"/>
       <c r="K201" s="19"/>
     </row>
-    <row r="202" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" ht="75">
       <c r="A202" s="14">
         <v>21219</v>
       </c>
@@ -8481,7 +8673,7 @@
       <c r="J202" s="18"/>
       <c r="K202" s="19"/>
     </row>
-    <row r="203" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" ht="75">
       <c r="A203" s="20">
         <v>21230</v>
       </c>
@@ -8504,7 +8696,7 @@
       <c r="J203" s="25"/>
       <c r="K203" s="26"/>
     </row>
-    <row r="204" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" ht="30">
       <c r="A204" s="14">
         <v>21233</v>
       </c>
@@ -8527,7 +8719,7 @@
       <c r="J204" s="18"/>
       <c r="K204" s="19"/>
     </row>
-    <row r="205" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" ht="45">
       <c r="A205" s="20">
         <v>21244</v>
       </c>
@@ -8550,7 +8742,7 @@
       <c r="J205" s="25"/>
       <c r="K205" s="26"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11">
       <c r="A206" s="14">
         <v>21328</v>
       </c>
@@ -8573,7 +8765,7 @@
       <c r="J206" s="18"/>
       <c r="K206" s="19"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11">
       <c r="A207" s="14">
         <v>21328</v>
       </c>
@@ -8596,7 +8788,7 @@
       <c r="J207" s="18"/>
       <c r="K207" s="19"/>
     </row>
-    <row r="208" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" ht="105">
       <c r="A208" s="20">
         <v>21433</v>
       </c>
@@ -8619,7 +8811,7 @@
       <c r="J208" s="25"/>
       <c r="K208" s="26"/>
     </row>
-    <row r="209" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" ht="45">
       <c r="A209" s="20">
         <v>21433</v>
       </c>
@@ -8642,7 +8834,7 @@
       <c r="J209" s="25"/>
       <c r="K209" s="26"/>
     </row>
-    <row r="210" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" ht="60">
       <c r="A210" s="20">
         <v>21433</v>
       </c>
@@ -8665,7 +8857,7 @@
       <c r="J210" s="25"/>
       <c r="K210" s="26"/>
     </row>
-    <row r="211" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" ht="60">
       <c r="A211" s="20">
         <v>21433</v>
       </c>
@@ -8688,7 +8880,7 @@
       <c r="J211" s="25"/>
       <c r="K211" s="26"/>
     </row>
-    <row r="212" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" ht="30">
       <c r="A212" s="20">
         <v>21433</v>
       </c>
@@ -8711,7 +8903,7 @@
       <c r="J212" s="25"/>
       <c r="K212" s="26"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11">
       <c r="A213" s="20">
         <v>21433</v>
       </c>
@@ -8734,7 +8926,7 @@
       <c r="J213" s="25"/>
       <c r="K213" s="26"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11">
       <c r="A214" s="20">
         <v>21433</v>
       </c>
@@ -8757,7 +8949,7 @@
       <c r="J214" s="25"/>
       <c r="K214" s="26"/>
     </row>
-    <row r="215" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" ht="60">
       <c r="A215" s="14">
         <v>21439</v>
       </c>
@@ -8780,7 +8972,7 @@
       <c r="J215" s="18"/>
       <c r="K215" s="19"/>
     </row>
-    <row r="216" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" ht="30">
       <c r="A216" s="20">
         <v>21442</v>
       </c>
@@ -8803,7 +8995,7 @@
       <c r="J216" s="25"/>
       <c r="K216" s="26"/>
     </row>
-    <row r="217" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" ht="30">
       <c r="A217" s="20">
         <v>21442</v>
       </c>
@@ -8826,7 +9018,7 @@
       <c r="J217" s="25"/>
       <c r="K217" s="26"/>
     </row>
-    <row r="218" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" ht="30">
       <c r="A218" s="14">
         <v>21443</v>
       </c>
@@ -8849,7 +9041,7 @@
       <c r="J218" s="18"/>
       <c r="K218" s="19"/>
     </row>
-    <row r="219" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" ht="30">
       <c r="A219" s="14">
         <v>21443</v>
       </c>
@@ -8872,7 +9064,7 @@
       <c r="J219" s="18"/>
       <c r="K219" s="19"/>
     </row>
-    <row r="220" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" ht="30">
       <c r="A220" s="20">
         <v>21444</v>
       </c>
@@ -8895,7 +9087,7 @@
       <c r="J220" s="25"/>
       <c r="K220" s="26"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11">
       <c r="A221" s="20">
         <v>21444</v>
       </c>
@@ -8918,7 +9110,7 @@
       <c r="J221" s="25"/>
       <c r="K221" s="26"/>
     </row>
-    <row r="222" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" ht="30">
       <c r="A222" s="14">
         <v>21452</v>
       </c>
@@ -8941,7 +9133,7 @@
       <c r="J222" s="18"/>
       <c r="K222" s="19"/>
     </row>
-    <row r="223" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" ht="30">
       <c r="A223" s="14">
         <v>21452</v>
       </c>
@@ -8964,7 +9156,7 @@
       <c r="J223" s="18"/>
       <c r="K223" s="19"/>
     </row>
-    <row r="224" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" ht="30">
       <c r="A224" s="20">
         <v>21527</v>
       </c>
@@ -8987,7 +9179,7 @@
       <c r="J224" s="25"/>
       <c r="K224" s="26"/>
     </row>
-    <row r="225" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" ht="75">
       <c r="A225" s="20">
         <v>21527</v>
       </c>
@@ -9010,7 +9202,7 @@
       <c r="J225" s="25"/>
       <c r="K225" s="26"/>
     </row>
-    <row r="226" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" ht="30">
       <c r="A226" s="20">
         <v>21527</v>
       </c>
@@ -9033,7 +9225,7 @@
       <c r="J226" s="25"/>
       <c r="K226" s="26"/>
     </row>
-    <row r="227" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" ht="30">
       <c r="A227" s="20">
         <v>21527</v>
       </c>
@@ -9056,7 +9248,7 @@
       <c r="J227" s="25"/>
       <c r="K227" s="26"/>
     </row>
-    <row r="228" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" ht="30">
       <c r="A228" s="20">
         <v>21527</v>
       </c>
@@ -9079,7 +9271,7 @@
       <c r="J228" s="25"/>
       <c r="K228" s="26"/>
     </row>
-    <row r="229" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" ht="60">
       <c r="A229" s="14">
         <v>21536</v>
       </c>
@@ -9102,7 +9294,7 @@
       <c r="J229" s="18"/>
       <c r="K229" s="19"/>
     </row>
-    <row r="230" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" ht="60">
       <c r="A230" s="14">
         <v>21536</v>
       </c>
@@ -9125,7 +9317,7 @@
       <c r="J230" s="18"/>
       <c r="K230" s="19"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11">
       <c r="A231" s="14">
         <v>21536</v>
       </c>
@@ -9148,7 +9340,7 @@
       <c r="J231" s="18"/>
       <c r="K231" s="19"/>
     </row>
-    <row r="232" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" ht="30">
       <c r="A232" s="14">
         <v>21536</v>
       </c>
@@ -9171,7 +9363,7 @@
       <c r="J232" s="18"/>
       <c r="K232" s="19"/>
     </row>
-    <row r="233" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" ht="45">
       <c r="A233" s="14">
         <v>21536</v>
       </c>
@@ -9194,7 +9386,7 @@
       <c r="J233" s="18"/>
       <c r="K233" s="19"/>
     </row>
-    <row r="234" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" ht="60">
       <c r="A234" s="14">
         <v>21536</v>
       </c>
@@ -9217,7 +9409,7 @@
       <c r="J234" s="18"/>
       <c r="K234" s="19"/>
     </row>
-    <row r="235" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" ht="45">
       <c r="A235" s="14">
         <v>21536</v>
       </c>
@@ -9240,7 +9432,7 @@
       <c r="J235" s="18"/>
       <c r="K235" s="19"/>
     </row>
-    <row r="236" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" ht="45">
       <c r="A236" s="14">
         <v>21536</v>
       </c>
@@ -9263,7 +9455,7 @@
       <c r="J236" s="18"/>
       <c r="K236" s="19"/>
     </row>
-    <row r="237" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" ht="90">
       <c r="A237" s="14">
         <v>21536</v>
       </c>
@@ -9286,7 +9478,7 @@
       <c r="J237" s="18"/>
       <c r="K237" s="19"/>
     </row>
-    <row r="238" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" ht="120">
       <c r="A238" s="14">
         <v>21536</v>
       </c>
@@ -9309,7 +9501,7 @@
       <c r="J238" s="18"/>
       <c r="K238" s="19"/>
     </row>
-    <row r="239" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" ht="75">
       <c r="A239" s="14">
         <v>21536</v>
       </c>
@@ -9332,7 +9524,7 @@
       <c r="J239" s="18"/>
       <c r="K239" s="19"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11">
       <c r="A240" s="14">
         <v>21536</v>
       </c>
@@ -9355,7 +9547,7 @@
       <c r="J240" s="18"/>
       <c r="K240" s="19"/>
     </row>
-    <row r="241" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" ht="30">
       <c r="A241" s="14">
         <v>21536</v>
       </c>
@@ -9378,7 +9570,7 @@
       <c r="J241" s="18"/>
       <c r="K241" s="19"/>
     </row>
-    <row r="242" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" ht="30">
       <c r="A242" s="14">
         <v>21536</v>
       </c>
@@ -9401,7 +9593,7 @@
       <c r="J242" s="18"/>
       <c r="K242" s="19"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11">
       <c r="A243" s="14">
         <v>21536</v>
       </c>
@@ -9424,7 +9616,7 @@
       <c r="J243" s="18"/>
       <c r="K243" s="19"/>
     </row>
-    <row r="244" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" ht="90">
       <c r="A244" s="14">
         <v>21536</v>
       </c>
@@ -9447,7 +9639,7 @@
       <c r="J244" s="18"/>
       <c r="K244" s="19"/>
     </row>
-    <row r="245" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" ht="60">
       <c r="A245" s="20">
         <v>21537</v>
       </c>
@@ -9470,7 +9662,7 @@
       <c r="J245" s="25"/>
       <c r="K245" s="26"/>
     </row>
-    <row r="246" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" ht="75">
       <c r="A246" s="20">
         <v>21537</v>
       </c>
@@ -9493,7 +9685,7 @@
       <c r="J246" s="25"/>
       <c r="K246" s="26"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11">
       <c r="A247" s="20">
         <v>21537</v>
       </c>
@@ -9516,7 +9708,7 @@
       <c r="J247" s="25"/>
       <c r="K247" s="26"/>
     </row>
-    <row r="248" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" ht="45">
       <c r="A248" s="20">
         <v>21537</v>
       </c>
@@ -9539,7 +9731,7 @@
       <c r="J248" s="25"/>
       <c r="K248" s="26"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11">
       <c r="A249" s="20">
         <v>21537</v>
       </c>
@@ -9562,7 +9754,7 @@
       <c r="J249" s="25"/>
       <c r="K249" s="26"/>
     </row>
-    <row r="250" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" ht="120">
       <c r="A250" s="14">
         <v>21566</v>
       </c>
@@ -9585,7 +9777,7 @@
       <c r="J250" s="18"/>
       <c r="K250" s="19"/>
     </row>
-    <row r="251" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" ht="60">
       <c r="A251" s="20">
         <v>21608</v>
       </c>
@@ -9608,7 +9800,7 @@
       <c r="J251" s="25"/>
       <c r="K251" s="26"/>
     </row>
-    <row r="252" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" ht="105">
       <c r="A252" s="20">
         <v>21608</v>
       </c>
@@ -9631,7 +9823,7 @@
       <c r="J252" s="25"/>
       <c r="K252" s="26"/>
     </row>
-    <row r="253" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" ht="90">
       <c r="A253" s="14">
         <v>21625</v>
       </c>
@@ -9654,7 +9846,7 @@
       <c r="J253" s="18"/>
       <c r="K253" s="19"/>
     </row>
-    <row r="254" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" ht="30">
       <c r="A254" s="20">
         <v>21626</v>
       </c>
@@ -9677,7 +9869,7 @@
       <c r="J254" s="25"/>
       <c r="K254" s="26"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11">
       <c r="A255" s="20">
         <v>21626</v>
       </c>
@@ -9700,7 +9892,7 @@
       <c r="J255" s="25"/>
       <c r="K255" s="26"/>
     </row>
-    <row r="256" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" ht="90">
       <c r="A256" s="14">
         <v>21638</v>
       </c>
@@ -9723,7 +9915,7 @@
       <c r="J256" s="18"/>
       <c r="K256" s="19"/>
     </row>
-    <row r="257" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" ht="75">
       <c r="A257" s="14">
         <v>21638</v>
       </c>
@@ -9746,7 +9938,7 @@
       <c r="J257" s="18"/>
       <c r="K257" s="19"/>
     </row>
-    <row r="258" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" ht="90">
       <c r="A258" s="14">
         <v>21638</v>
       </c>
@@ -9769,7 +9961,7 @@
       <c r="J258" s="18"/>
       <c r="K258" s="19"/>
     </row>
-    <row r="259" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" ht="60">
       <c r="A259" s="14">
         <v>21638</v>
       </c>
@@ -9792,7 +9984,7 @@
       <c r="J259" s="18"/>
       <c r="K259" s="19"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11">
       <c r="A260" s="14">
         <v>21638</v>
       </c>
@@ -9815,7 +10007,7 @@
       <c r="J260" s="18"/>
       <c r="K260" s="19"/>
     </row>
-    <row r="261" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" ht="30">
       <c r="A261" s="14">
         <v>21638</v>
       </c>
@@ -9838,7 +10030,7 @@
       <c r="J261" s="18"/>
       <c r="K261" s="19"/>
     </row>
-    <row r="262" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" ht="30">
       <c r="A262" s="14">
         <v>21638</v>
       </c>
@@ -9861,7 +10053,7 @@
       <c r="J262" s="18"/>
       <c r="K262" s="19"/>
     </row>
-    <row r="263" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" ht="60">
       <c r="A263" s="14">
         <v>21638</v>
       </c>
@@ -9884,7 +10076,7 @@
       <c r="J263" s="18"/>
       <c r="K263" s="19"/>
     </row>
-    <row r="264" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" ht="30">
       <c r="A264" s="14">
         <v>21638</v>
       </c>
@@ -9907,7 +10099,7 @@
       <c r="J264" s="18"/>
       <c r="K264" s="19"/>
     </row>
-    <row r="265" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" ht="60">
       <c r="A265" s="14">
         <v>21638</v>
       </c>
@@ -9930,7 +10122,7 @@
       <c r="J265" s="18"/>
       <c r="K265" s="19"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11">
       <c r="A266" s="14">
         <v>21638</v>
       </c>
@@ -9953,7 +10145,7 @@
       <c r="J266" s="18"/>
       <c r="K266" s="19"/>
     </row>
-    <row r="267" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" ht="45">
       <c r="A267" s="14">
         <v>21638</v>
       </c>
@@ -9976,7 +10168,7 @@
       <c r="J267" s="18"/>
       <c r="K267" s="19"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11">
       <c r="A268" s="14">
         <v>21638</v>
       </c>
@@ -9999,7 +10191,7 @@
       <c r="J268" s="18"/>
       <c r="K268" s="19"/>
     </row>
-    <row r="269" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" ht="45">
       <c r="A269" s="14">
         <v>21638</v>
       </c>
@@ -10022,7 +10214,7 @@
       <c r="J269" s="18"/>
       <c r="K269" s="19"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11">
       <c r="A270" s="20">
         <v>21777</v>
       </c>
@@ -10045,7 +10237,7 @@
       <c r="J270" s="25"/>
       <c r="K270" s="26"/>
     </row>
-    <row r="271" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" ht="30">
       <c r="A271" s="20">
         <v>21777</v>
       </c>
@@ -10068,7 +10260,7 @@
       <c r="J271" s="25"/>
       <c r="K271" s="26"/>
     </row>
-    <row r="272" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" ht="45">
       <c r="A272" s="14">
         <v>21921</v>
       </c>
@@ -10091,7 +10283,7 @@
       <c r="J272" s="18"/>
       <c r="K272" s="19"/>
     </row>
-    <row r="273" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" ht="30">
       <c r="A273" s="14">
         <v>21921</v>
       </c>
@@ -10114,7 +10306,7 @@
       <c r="J273" s="18"/>
       <c r="K273" s="19"/>
     </row>
-    <row r="274" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" ht="30">
       <c r="A274" s="14">
         <v>21921</v>
       </c>
@@ -10137,7 +10329,7 @@
       <c r="J274" s="18"/>
       <c r="K274" s="19"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11">
       <c r="A275" s="14">
         <v>21921</v>
       </c>
@@ -10160,7 +10352,7 @@
       <c r="J275" s="18"/>
       <c r="K275" s="19"/>
     </row>
-    <row r="276" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" ht="45">
       <c r="A276" s="14">
         <v>21921</v>
       </c>
@@ -10183,7 +10375,7 @@
       <c r="J276" s="18"/>
       <c r="K276" s="19"/>
     </row>
-    <row r="277" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" ht="30">
       <c r="A277" s="20">
         <v>21922</v>
       </c>
@@ -10206,7 +10398,7 @@
       <c r="J277" s="25"/>
       <c r="K277" s="26"/>
     </row>
-    <row r="278" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" ht="30">
       <c r="A278" s="20">
         <v>21922</v>
       </c>
@@ -10229,7 +10421,7 @@
       <c r="J278" s="25"/>
       <c r="K278" s="26"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11">
       <c r="A279" s="20">
         <v>21922</v>
       </c>
@@ -10252,7 +10444,7 @@
       <c r="J279" s="25"/>
       <c r="K279" s="26"/>
     </row>
-    <row r="280" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" ht="30">
       <c r="A280" s="20">
         <v>21922</v>
       </c>
@@ -10275,7 +10467,7 @@
       <c r="J280" s="25"/>
       <c r="K280" s="26"/>
     </row>
-    <row r="281" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" ht="30">
       <c r="A281" s="14">
         <v>21925</v>
       </c>
@@ -10298,7 +10490,7 @@
       <c r="J281" s="18"/>
       <c r="K281" s="19"/>
     </row>
-    <row r="282" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" ht="30">
       <c r="A282" s="14">
         <v>21925</v>
       </c>
@@ -10321,7 +10513,7 @@
       <c r="J282" s="18"/>
       <c r="K282" s="19"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11">
       <c r="A283" s="14">
         <v>21925</v>
       </c>
@@ -10344,7 +10536,7 @@
       <c r="J283" s="18"/>
       <c r="K283" s="19"/>
     </row>
-    <row r="284" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" ht="30">
       <c r="A284" s="14">
         <v>21925</v>
       </c>
@@ -10367,7 +10559,7 @@
       <c r="J284" s="18"/>
       <c r="K284" s="19"/>
     </row>
-    <row r="285" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" ht="30">
       <c r="A285" s="20">
         <v>21944</v>
       </c>
@@ -10390,7 +10582,7 @@
       <c r="J285" s="25"/>
       <c r="K285" s="26"/>
     </row>
-    <row r="286" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" ht="30">
       <c r="A286" s="20">
         <v>21944</v>
       </c>
@@ -10413,7 +10605,7 @@
       <c r="J286" s="25"/>
       <c r="K286" s="26"/>
     </row>
-    <row r="287" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" ht="30">
       <c r="A287" s="14">
         <v>21994</v>
       </c>
@@ -10436,7 +10628,7 @@
       <c r="J287" s="18"/>
       <c r="K287" s="19"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11">
       <c r="A288" s="14">
         <v>21994</v>
       </c>
@@ -10459,7 +10651,7 @@
       <c r="J288" s="18"/>
       <c r="K288" s="19"/>
     </row>
-    <row r="289" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" ht="45">
       <c r="A289" s="14">
         <v>21994</v>
       </c>
@@ -10482,7 +10674,7 @@
       <c r="J289" s="18"/>
       <c r="K289" s="19"/>
     </row>
-    <row r="290" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" ht="90">
       <c r="A290" s="14">
         <v>21994</v>
       </c>
@@ -10505,7 +10697,7 @@
       <c r="J290" s="18"/>
       <c r="K290" s="19"/>
     </row>
-    <row r="291" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" ht="45">
       <c r="A291" s="14">
         <v>21994</v>
       </c>
@@ -10528,7 +10720,7 @@
       <c r="J291" s="18"/>
       <c r="K291" s="19"/>
     </row>
-    <row r="292" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" ht="30">
       <c r="A292" s="20">
         <v>21995</v>
       </c>
@@ -10551,7 +10743,7 @@
       <c r="J292" s="25"/>
       <c r="K292" s="26"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11">
       <c r="A293" s="20">
         <v>21995</v>
       </c>
@@ -10574,7 +10766,7 @@
       <c r="J293" s="25"/>
       <c r="K293" s="26"/>
     </row>
-    <row r="294" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" ht="30">
       <c r="A294" s="20">
         <v>21995</v>
       </c>
@@ -10597,7 +10789,7 @@
       <c r="J294" s="25"/>
       <c r="K294" s="26"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11">
       <c r="A295" s="20">
         <v>21995</v>
       </c>
@@ -10620,7 +10812,7 @@
       <c r="J295" s="25"/>
       <c r="K295" s="26"/>
     </row>
-    <row r="296" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" ht="60">
       <c r="A296" s="14">
         <v>22062</v>
       </c>
@@ -10643,7 +10835,7 @@
       <c r="J296" s="18"/>
       <c r="K296" s="19"/>
     </row>
-    <row r="297" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" ht="60">
       <c r="A297" s="14">
         <v>22062</v>
       </c>
@@ -10666,7 +10858,7 @@
       <c r="J297" s="18"/>
       <c r="K297" s="19"/>
     </row>
-    <row r="298" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" ht="45">
       <c r="A298" s="20">
         <v>22063</v>
       </c>
@@ -10689,7 +10881,7 @@
       <c r="J298" s="25"/>
       <c r="K298" s="26"/>
     </row>
-    <row r="299" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" ht="90">
       <c r="A299" s="20">
         <v>22063</v>
       </c>
@@ -10712,7 +10904,7 @@
       <c r="J299" s="25"/>
       <c r="K299" s="26"/>
     </row>
-    <row r="300" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" ht="45">
       <c r="A300" s="20">
         <v>22063</v>
       </c>
@@ -10735,7 +10927,7 @@
       <c r="J300" s="25"/>
       <c r="K300" s="26"/>
     </row>
-    <row r="301" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" ht="60">
       <c r="A301" s="20">
         <v>22063</v>
       </c>
@@ -10758,7 +10950,7 @@
       <c r="J301" s="25"/>
       <c r="K301" s="26"/>
     </row>
-    <row r="302" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" ht="75">
       <c r="A302" s="20">
         <v>22063</v>
       </c>
@@ -10781,7 +10973,7 @@
       <c r="J302" s="25"/>
       <c r="K302" s="26"/>
     </row>
-    <row r="303" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" ht="60">
       <c r="A303" s="20">
         <v>22063</v>
       </c>
@@ -10804,7 +10996,7 @@
       <c r="J303" s="25"/>
       <c r="K303" s="26"/>
     </row>
-    <row r="304" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" ht="60">
       <c r="A304" s="14">
         <v>22097</v>
       </c>
@@ -10827,7 +11019,7 @@
       <c r="J304" s="18"/>
       <c r="K304" s="19"/>
     </row>
-    <row r="305" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" ht="45">
       <c r="A305" s="14">
         <v>22097</v>
       </c>
@@ -10850,7 +11042,7 @@
       <c r="J305" s="18"/>
       <c r="K305" s="19"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11">
       <c r="A306" s="14">
         <v>22097</v>
       </c>
@@ -10873,7 +11065,7 @@
       <c r="J306" s="18"/>
       <c r="K306" s="19"/>
     </row>
-    <row r="307" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" ht="90">
       <c r="A307" s="14">
         <v>22097</v>
       </c>
@@ -10896,7 +11088,7 @@
       <c r="J307" s="18"/>
       <c r="K307" s="19"/>
     </row>
-    <row r="308" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" ht="90">
       <c r="A308" s="20">
         <v>22175</v>
       </c>
@@ -10919,7 +11111,7 @@
       <c r="J308" s="25"/>
       <c r="K308" s="26"/>
     </row>
-    <row r="309" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" ht="75">
       <c r="A309" s="14">
         <v>22195</v>
       </c>
@@ -10942,7 +11134,7 @@
       <c r="J309" s="18"/>
       <c r="K309" s="19"/>
     </row>
-    <row r="310" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" ht="45">
       <c r="A310" s="14">
         <v>22195</v>
       </c>
@@ -10965,7 +11157,7 @@
       <c r="J310" s="18"/>
       <c r="K310" s="19"/>
     </row>
-    <row r="311" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" ht="60">
       <c r="A311" s="20">
         <v>22196</v>
       </c>
@@ -10988,7 +11180,7 @@
       <c r="J311" s="25"/>
       <c r="K311" s="26"/>
     </row>
-    <row r="312" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" ht="30">
       <c r="A312" s="20">
         <v>22196</v>
       </c>
@@ -11011,7 +11203,7 @@
       <c r="J312" s="25"/>
       <c r="K312" s="26"/>
     </row>
-    <row r="313" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" ht="120">
       <c r="A313" s="14">
         <v>22229</v>
       </c>
@@ -11034,7 +11226,7 @@
       <c r="J313" s="18"/>
       <c r="K313" s="19"/>
     </row>
-    <row r="314" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" ht="30">
       <c r="A314" s="20">
         <v>22232</v>
       </c>
@@ -11057,7 +11249,7 @@
       <c r="J314" s="25"/>
       <c r="K314" s="26"/>
     </row>
-    <row r="315" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" ht="75">
       <c r="A315" s="14">
         <v>22341</v>
       </c>
@@ -11080,7 +11272,7 @@
       <c r="J315" s="18"/>
       <c r="K315" s="19"/>
     </row>
-    <row r="316" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" ht="30">
       <c r="A316" s="14">
         <v>22341</v>
       </c>
@@ -11103,7 +11295,7 @@
       <c r="J316" s="18"/>
       <c r="K316" s="19"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11">
       <c r="A317" s="14">
         <v>22341</v>
       </c>
@@ -11126,7 +11318,7 @@
       <c r="J317" s="18"/>
       <c r="K317" s="19"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11">
       <c r="A318" s="14">
         <v>22341</v>
       </c>
@@ -11149,7 +11341,7 @@
       <c r="J318" s="18"/>
       <c r="K318" s="19"/>
     </row>
-    <row r="319" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" ht="45">
       <c r="A319" s="14">
         <v>22341</v>
       </c>
@@ -11172,7 +11364,7 @@
       <c r="J319" s="18"/>
       <c r="K319" s="19"/>
     </row>
-    <row r="320" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" ht="45">
       <c r="A320" s="14">
         <v>22341</v>
       </c>
@@ -11195,7 +11387,7 @@
       <c r="J320" s="18"/>
       <c r="K320" s="19"/>
     </row>
-    <row r="321" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" ht="90">
       <c r="A321" s="14">
         <v>22341</v>
       </c>
@@ -11218,7 +11410,7 @@
       <c r="J321" s="18"/>
       <c r="K321" s="19"/>
     </row>
-    <row r="322" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" ht="60">
       <c r="A322" s="14">
         <v>22341</v>
       </c>
@@ -11241,7 +11433,7 @@
       <c r="J322" s="18"/>
       <c r="K322" s="19"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11">
       <c r="A323" s="14">
         <v>22341</v>
       </c>
@@ -11264,7 +11456,7 @@
       <c r="J323" s="18"/>
       <c r="K323" s="19"/>
     </row>
-    <row r="324" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" ht="45">
       <c r="A324" s="14">
         <v>22341</v>
       </c>
@@ -11287,7 +11479,7 @@
       <c r="J324" s="18"/>
       <c r="K324" s="19"/>
     </row>
-    <row r="325" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" ht="90">
       <c r="A325" s="14">
         <v>22341</v>
       </c>
@@ -11310,7 +11502,7 @@
       <c r="J325" s="18"/>
       <c r="K325" s="19"/>
     </row>
-    <row r="326" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" ht="45">
       <c r="A326" s="14">
         <v>22341</v>
       </c>
@@ -11333,7 +11525,7 @@
       <c r="J326" s="18"/>
       <c r="K326" s="19"/>
     </row>
-    <row r="327" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" ht="45">
       <c r="A327" s="14">
         <v>22341</v>
       </c>
@@ -11356,7 +11548,7 @@
       <c r="J327" s="18"/>
       <c r="K327" s="19"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11">
       <c r="A328" s="14">
         <v>22341</v>
       </c>
@@ -11379,7 +11571,7 @@
       <c r="J328" s="18"/>
       <c r="K328" s="19"/>
     </row>
-    <row r="329" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" ht="90">
       <c r="A329" s="14">
         <v>22341</v>
       </c>
@@ -11402,7 +11594,7 @@
       <c r="J329" s="18"/>
       <c r="K329" s="19"/>
     </row>
-    <row r="330" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" ht="60">
       <c r="A330" s="14">
         <v>22341</v>
       </c>
@@ -11425,7 +11617,7 @@
       <c r="J330" s="18"/>
       <c r="K330" s="19"/>
     </row>
-    <row r="331" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" ht="90">
       <c r="A331" s="14">
         <v>22341</v>
       </c>
@@ -11448,7 +11640,7 @@
       <c r="J331" s="18"/>
       <c r="K331" s="19"/>
     </row>
-    <row r="332" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" ht="30">
       <c r="A332" s="14">
         <v>22341</v>
       </c>
@@ -11471,7 +11663,7 @@
       <c r="J332" s="18"/>
       <c r="K332" s="19"/>
     </row>
-    <row r="333" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" ht="30">
       <c r="A333" s="20">
         <v>22343</v>
       </c>
@@ -11494,7 +11686,7 @@
       <c r="J333" s="25"/>
       <c r="K333" s="26"/>
     </row>
-    <row r="334" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" ht="45">
       <c r="A334" s="20">
         <v>22343</v>
       </c>
@@ -11517,7 +11709,7 @@
       <c r="J334" s="25"/>
       <c r="K334" s="26"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11">
       <c r="A335" s="20">
         <v>22343</v>
       </c>
@@ -11540,7 +11732,7 @@
       <c r="J335" s="25"/>
       <c r="K335" s="26"/>
     </row>
-    <row r="336" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" ht="30">
       <c r="A336" s="20">
         <v>22343</v>
       </c>
@@ -11563,7 +11755,7 @@
       <c r="J336" s="25"/>
       <c r="K336" s="26"/>
     </row>
-    <row r="337" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" ht="30">
       <c r="A337" s="14">
         <v>22367</v>
       </c>
@@ -11586,7 +11778,7 @@
       <c r="J337" s="18"/>
       <c r="K337" s="19"/>
     </row>
-    <row r="338" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" ht="30">
       <c r="A338" s="14">
         <v>22367</v>
       </c>
@@ -11609,7 +11801,7 @@
       <c r="J338" s="18"/>
       <c r="K338" s="19"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11">
       <c r="A339" s="14">
         <v>22367</v>
       </c>
@@ -11632,7 +11824,7 @@
       <c r="J339" s="18"/>
       <c r="K339" s="19"/>
     </row>
-    <row r="340" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" ht="45">
       <c r="A340" s="14">
         <v>22367</v>
       </c>
@@ -11655,7 +11847,7 @@
       <c r="J340" s="18"/>
       <c r="K340" s="19"/>
     </row>
-    <row r="341" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" ht="60">
       <c r="A341" s="14">
         <v>22367</v>
       </c>
@@ -11678,7 +11870,7 @@
       <c r="J341" s="18"/>
       <c r="K341" s="19"/>
     </row>
-    <row r="342" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" ht="30">
       <c r="A342" s="14">
         <v>22367</v>
       </c>
@@ -11701,7 +11893,7 @@
       <c r="J342" s="18"/>
       <c r="K342" s="19"/>
     </row>
-    <row r="343" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" ht="45">
       <c r="A343" s="14">
         <v>22367</v>
       </c>
@@ -11724,7 +11916,7 @@
       <c r="J343" s="18"/>
       <c r="K343" s="19"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11">
       <c r="A344" s="14">
         <v>22367</v>
       </c>
@@ -11747,7 +11939,7 @@
       <c r="J344" s="18"/>
       <c r="K344" s="19"/>
     </row>
-    <row r="345" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" ht="30">
       <c r="A345" s="14">
         <v>22367</v>
       </c>
@@ -11770,7 +11962,7 @@
       <c r="J345" s="18"/>
       <c r="K345" s="19"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11">
       <c r="A346" s="14">
         <v>22367</v>
       </c>
@@ -11793,7 +11985,7 @@
       <c r="J346" s="18"/>
       <c r="K346" s="19"/>
     </row>
-    <row r="347" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" ht="30">
       <c r="A347" s="14">
         <v>22367</v>
       </c>
@@ -11816,7 +12008,7 @@
       <c r="J347" s="18"/>
       <c r="K347" s="19"/>
     </row>
-    <row r="348" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" ht="30">
       <c r="A348" s="14">
         <v>22367</v>
       </c>
@@ -11839,7 +12031,7 @@
       <c r="J348" s="18"/>
       <c r="K348" s="19"/>
     </row>
-    <row r="349" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" ht="60">
       <c r="A349" s="14">
         <v>22367</v>
       </c>
@@ -11862,7 +12054,7 @@
       <c r="J349" s="18"/>
       <c r="K349" s="19"/>
     </row>
-    <row r="350" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" ht="75">
       <c r="A350" s="14">
         <v>22367</v>
       </c>
@@ -11885,7 +12077,7 @@
       <c r="J350" s="18"/>
       <c r="K350" s="19"/>
     </row>
-    <row r="351" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" ht="30">
       <c r="A351" s="14">
         <v>22367</v>
       </c>
@@ -11908,7 +12100,7 @@
       <c r="J351" s="18"/>
       <c r="K351" s="19"/>
     </row>
-    <row r="352" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" ht="75">
       <c r="A352" s="14">
         <v>22367</v>
       </c>
@@ -11931,7 +12123,7 @@
       <c r="J352" s="18"/>
       <c r="K352" s="19"/>
     </row>
-    <row r="353" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" ht="30">
       <c r="A353" s="14">
         <v>22367</v>
       </c>
@@ -11954,7 +12146,7 @@
       <c r="J353" s="18"/>
       <c r="K353" s="19"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11">
       <c r="A354" s="14">
         <v>22367</v>
       </c>
@@ -11977,7 +12169,7 @@
       <c r="J354" s="18"/>
       <c r="K354" s="19"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11">
       <c r="A355" s="14">
         <v>22367</v>
       </c>
@@ -12000,7 +12192,7 @@
       <c r="J355" s="18"/>
       <c r="K355" s="19"/>
     </row>
-    <row r="356" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" ht="30">
       <c r="A356" s="14">
         <v>22367</v>
       </c>
@@ -12023,7 +12215,7 @@
       <c r="J356" s="18"/>
       <c r="K356" s="19"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11">
       <c r="A357" s="14">
         <v>22367</v>
       </c>
@@ -12046,7 +12238,7 @@
       <c r="J357" s="18"/>
       <c r="K357" s="19"/>
     </row>
-    <row r="358" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" ht="60">
       <c r="A358" s="20">
         <v>22398</v>
       </c>
@@ -12069,7 +12261,7 @@
       <c r="J358" s="25"/>
       <c r="K358" s="26"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11">
       <c r="A359" s="20">
         <v>22398</v>
       </c>
@@ -12092,7 +12284,7 @@
       <c r="J359" s="25"/>
       <c r="K359" s="26"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11">
       <c r="A360" s="20">
         <v>22398</v>
       </c>
@@ -12115,7 +12307,7 @@
       <c r="J360" s="25"/>
       <c r="K360" s="26"/>
     </row>
-    <row r="361" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" ht="45">
       <c r="A361" s="20">
         <v>22398</v>
       </c>
@@ -12138,7 +12330,7 @@
       <c r="J361" s="25"/>
       <c r="K361" s="26"/>
     </row>
-    <row r="362" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" ht="90">
       <c r="A362" s="20">
         <v>22398</v>
       </c>
@@ -12161,7 +12353,7 @@
       <c r="J362" s="25"/>
       <c r="K362" s="26"/>
     </row>
-    <row r="363" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" ht="45">
       <c r="A363" s="20">
         <v>22398</v>
       </c>
@@ -12184,7 +12376,7 @@
       <c r="J363" s="25"/>
       <c r="K363" s="26"/>
     </row>
-    <row r="364" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" ht="60">
       <c r="A364" s="20">
         <v>22398</v>
       </c>
@@ -12207,7 +12399,7 @@
       <c r="J364" s="25"/>
       <c r="K364" s="26"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11">
       <c r="A365" s="20">
         <v>22398</v>
       </c>
@@ -12230,7 +12422,7 @@
       <c r="J365" s="25"/>
       <c r="K365" s="26"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11">
       <c r="A366" s="20">
         <v>22398</v>
       </c>
@@ -12253,7 +12445,7 @@
       <c r="J366" s="25"/>
       <c r="K366" s="26"/>
     </row>
-    <row r="367" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" ht="30">
       <c r="A367" s="20">
         <v>22398</v>
       </c>
@@ -12276,7 +12468,7 @@
       <c r="J367" s="25"/>
       <c r="K367" s="26"/>
     </row>
-    <row r="368" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" ht="30">
       <c r="A368" s="14">
         <v>22421</v>
       </c>
@@ -12299,7 +12491,7 @@
       <c r="J368" s="18"/>
       <c r="K368" s="19"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11">
       <c r="A369" s="14">
         <v>22421</v>
       </c>
@@ -12322,7 +12514,7 @@
       <c r="J369" s="18"/>
       <c r="K369" s="19"/>
     </row>
-    <row r="370" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" ht="105">
       <c r="A370" s="14">
         <v>22421</v>
       </c>
@@ -12345,7 +12537,7 @@
       <c r="J370" s="18"/>
       <c r="K370" s="19"/>
     </row>
-    <row r="371" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" ht="45">
       <c r="A371" s="20">
         <v>22436</v>
       </c>
@@ -12368,7 +12560,7 @@
       <c r="J371" s="25"/>
       <c r="K371" s="26"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11">
       <c r="A372" s="14">
         <v>22452</v>
       </c>
@@ -12391,7 +12583,7 @@
       <c r="J372" s="18"/>
       <c r="K372" s="19"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11">
       <c r="A373" s="20">
         <v>22462</v>
       </c>
@@ -12414,7 +12606,7 @@
       <c r="J373" s="25"/>
       <c r="K373" s="26"/>
     </row>
-    <row r="374" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" ht="60">
       <c r="A374" s="14">
         <v>22555</v>
       </c>
@@ -12437,7 +12629,7 @@
       <c r="J374" s="18"/>
       <c r="K374" s="19"/>
     </row>
-    <row r="375" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" ht="45">
       <c r="A375" s="14">
         <v>22555</v>
       </c>
@@ -12460,7 +12652,7 @@
       <c r="J375" s="18"/>
       <c r="K375" s="19"/>
     </row>
-    <row r="376" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" ht="60">
       <c r="A376" s="14">
         <v>22555</v>
       </c>
@@ -12483,7 +12675,7 @@
       <c r="J376" s="18"/>
       <c r="K376" s="19"/>
     </row>
-    <row r="377" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" ht="30">
       <c r="A377" s="14">
         <v>22555</v>
       </c>
@@ -12506,7 +12698,7 @@
       <c r="J377" s="18"/>
       <c r="K377" s="19"/>
     </row>
-    <row r="378" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" ht="75">
       <c r="A378" s="14">
         <v>22555</v>
       </c>
@@ -12529,7 +12721,7 @@
       <c r="J378" s="18"/>
       <c r="K378" s="19"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11">
       <c r="A379" s="20">
         <v>22579</v>
       </c>
@@ -12552,7 +12744,7 @@
       <c r="J379" s="25"/>
       <c r="K379" s="26"/>
     </row>
-    <row r="380" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" ht="30">
       <c r="A380" s="20">
         <v>22579</v>
       </c>
@@ -12575,7 +12767,7 @@
       <c r="J380" s="25"/>
       <c r="K380" s="26"/>
     </row>
-    <row r="381" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" ht="30">
       <c r="A381" s="20">
         <v>22579</v>
       </c>
@@ -12598,7 +12790,7 @@
       <c r="J381" s="25"/>
       <c r="K381" s="26"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11">
       <c r="A382" s="20">
         <v>22579</v>
       </c>
@@ -12621,7 +12813,7 @@
       <c r="J382" s="25"/>
       <c r="K382" s="26"/>
     </row>
-    <row r="383" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" ht="30">
       <c r="A383" s="20">
         <v>22579</v>
       </c>
@@ -12644,7 +12836,7 @@
       <c r="J383" s="25"/>
       <c r="K383" s="26"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11">
       <c r="A384" s="14">
         <v>22609</v>
       </c>
@@ -12667,7 +12859,7 @@
       <c r="J384" s="18"/>
       <c r="K384" s="19"/>
     </row>
-    <row r="385" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" ht="45">
       <c r="A385" s="14">
         <v>22609</v>
       </c>
@@ -12690,7 +12882,7 @@
       <c r="J385" s="18"/>
       <c r="K385" s="19"/>
     </row>
-    <row r="386" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" ht="45">
       <c r="A386" s="14">
         <v>22609</v>
       </c>
@@ -12713,7 +12905,7 @@
       <c r="J386" s="18"/>
       <c r="K386" s="19"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11">
       <c r="A387" s="14">
         <v>22609</v>
       </c>
@@ -12736,7 +12928,7 @@
       <c r="J387" s="18"/>
       <c r="K387" s="19"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11">
       <c r="A388" s="20">
         <v>22613</v>
       </c>
@@ -12759,7 +12951,7 @@
       <c r="J388" s="25"/>
       <c r="K388" s="26"/>
     </row>
-    <row r="389" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" ht="60">
       <c r="A389" s="20">
         <v>22613</v>
       </c>
@@ -12782,7 +12974,7 @@
       <c r="J389" s="25"/>
       <c r="K389" s="26"/>
     </row>
-    <row r="390" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" ht="30">
       <c r="A390" s="14">
         <v>22614</v>
       </c>
@@ -12805,7 +12997,7 @@
       <c r="J390" s="18"/>
       <c r="K390" s="19"/>
     </row>
-    <row r="391" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" ht="60">
       <c r="A391" s="14">
         <v>22614</v>
       </c>
@@ -12828,7 +13020,7 @@
       <c r="J391" s="18"/>
       <c r="K391" s="19"/>
     </row>
-    <row r="392" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" ht="30">
       <c r="A392" s="20">
         <v>22634</v>
       </c>
@@ -12851,7 +13043,7 @@
       <c r="J392" s="25"/>
       <c r="K392" s="26"/>
     </row>
-    <row r="393" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" ht="30">
       <c r="A393" s="20">
         <v>22634</v>
       </c>
@@ -12874,7 +13066,7 @@
       <c r="J393" s="25"/>
       <c r="K393" s="26"/>
     </row>
-    <row r="394" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" ht="30">
       <c r="A394" s="20">
         <v>22634</v>
       </c>
@@ -12897,7 +13089,7 @@
       <c r="J394" s="25"/>
       <c r="K394" s="26"/>
     </row>
-    <row r="395" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" ht="30">
       <c r="A395" s="20">
         <v>22634</v>
       </c>
@@ -12920,7 +13112,7 @@
       <c r="J395" s="25"/>
       <c r="K395" s="26"/>
     </row>
-    <row r="396" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" ht="45">
       <c r="A396" s="20">
         <v>22634</v>
       </c>
@@ -12943,7 +13135,7 @@
       <c r="J396" s="25"/>
       <c r="K396" s="26"/>
     </row>
-    <row r="397" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" ht="30">
       <c r="A397" s="20">
         <v>22634</v>
       </c>
@@ -12966,7 +13158,7 @@
       <c r="J397" s="25"/>
       <c r="K397" s="26"/>
     </row>
-    <row r="398" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" ht="30">
       <c r="A398" s="20">
         <v>22634</v>
       </c>
@@ -12989,7 +13181,7 @@
       <c r="J398" s="25"/>
       <c r="K398" s="26"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11">
       <c r="A399" s="14">
         <v>22717</v>
       </c>
@@ -13012,7 +13204,7 @@
       <c r="J399" s="18"/>
       <c r="K399" s="19"/>
     </row>
-    <row r="400" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" ht="45">
       <c r="A400" s="20">
         <v>22720</v>
       </c>
@@ -13035,7 +13227,7 @@
       <c r="J400" s="25"/>
       <c r="K400" s="26"/>
     </row>
-    <row r="401" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" ht="60">
       <c r="A401" s="20">
         <v>22720</v>
       </c>
@@ -13058,7 +13250,7 @@
       <c r="J401" s="25"/>
       <c r="K401" s="26"/>
     </row>
-    <row r="402" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" ht="30">
       <c r="A402" s="20">
         <v>22720</v>
       </c>
@@ -13081,7 +13273,7 @@
       <c r="J402" s="25"/>
       <c r="K402" s="26"/>
     </row>
-    <row r="403" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" ht="45">
       <c r="A403" s="20">
         <v>22720</v>
       </c>
@@ -13104,7 +13296,7 @@
       <c r="J403" s="25"/>
       <c r="K403" s="26"/>
     </row>
-    <row r="404" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" ht="45">
       <c r="A404" s="20">
         <v>22720</v>
       </c>
@@ -13127,7 +13319,7 @@
       <c r="J404" s="25"/>
       <c r="K404" s="26"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11">
       <c r="A405" s="20">
         <v>22720</v>
       </c>
@@ -13150,7 +13342,7 @@
       <c r="J405" s="25"/>
       <c r="K405" s="26"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11">
       <c r="A406" s="20">
         <v>22720</v>
       </c>
@@ -13173,7 +13365,7 @@
       <c r="J406" s="25"/>
       <c r="K406" s="26"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11">
       <c r="A407" s="20">
         <v>22720</v>
       </c>
@@ -13196,7 +13388,7 @@
       <c r="J407" s="25"/>
       <c r="K407" s="26"/>
     </row>
-    <row r="408" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" ht="30">
       <c r="A408" s="20">
         <v>22720</v>
       </c>
@@ -13219,7 +13411,7 @@
       <c r="J408" s="25"/>
       <c r="K408" s="26"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11">
       <c r="A409" s="20">
         <v>22720</v>
       </c>
@@ -13242,7 +13434,7 @@
       <c r="J409" s="25"/>
       <c r="K409" s="26"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11">
       <c r="A410" s="14">
         <v>22721</v>
       </c>
@@ -13265,7 +13457,7 @@
       <c r="J410" s="18"/>
       <c r="K410" s="19"/>
     </row>
-    <row r="411" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" ht="30">
       <c r="A411" s="14">
         <v>22721</v>
       </c>
@@ -13288,7 +13480,7 @@
       <c r="J411" s="18"/>
       <c r="K411" s="19"/>
     </row>
-    <row r="412" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" ht="45">
       <c r="A412" s="14">
         <v>22721</v>
       </c>
@@ -13311,7 +13503,7 @@
       <c r="J412" s="18"/>
       <c r="K412" s="19"/>
     </row>
-    <row r="413" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" ht="45">
       <c r="A413" s="14">
         <v>22721</v>
       </c>
@@ -13334,7 +13526,7 @@
       <c r="J413" s="18"/>
       <c r="K413" s="19"/>
     </row>
-    <row r="414" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" ht="60">
       <c r="A414" s="14">
         <v>22721</v>
       </c>
@@ -13357,7 +13549,7 @@
       <c r="J414" s="18"/>
       <c r="K414" s="19"/>
     </row>
-    <row r="415" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" ht="45">
       <c r="A415" s="14">
         <v>22721</v>
       </c>
@@ -13380,7 +13572,7 @@
       <c r="J415" s="18"/>
       <c r="K415" s="19"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11">
       <c r="A416" s="14">
         <v>22721</v>
       </c>
@@ -13403,7 +13595,7 @@
       <c r="J416" s="18"/>
       <c r="K416" s="19"/>
     </row>
-    <row r="417" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" ht="30">
       <c r="A417" s="14">
         <v>22721</v>
       </c>
@@ -13426,7 +13618,7 @@
       <c r="J417" s="18"/>
       <c r="K417" s="19"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11">
       <c r="A418" s="20">
         <v>22723</v>
       </c>
@@ -13449,7 +13641,7 @@
       <c r="J418" s="25"/>
       <c r="K418" s="26"/>
     </row>
-    <row r="419" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" ht="60">
       <c r="A419" s="20">
         <v>22723</v>
       </c>
@@ -13472,7 +13664,7 @@
       <c r="J419" s="25"/>
       <c r="K419" s="26"/>
     </row>
-    <row r="420" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" ht="60">
       <c r="A420" s="20">
         <v>22723</v>
       </c>
@@ -13495,7 +13687,7 @@
       <c r="J420" s="25"/>
       <c r="K420" s="26"/>
     </row>
-    <row r="421" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" ht="60">
       <c r="A421" s="20">
         <v>22723</v>
       </c>
@@ -13518,7 +13710,7 @@
       <c r="J421" s="25"/>
       <c r="K421" s="26"/>
     </row>
-    <row r="422" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" ht="75">
       <c r="A422" s="20">
         <v>22723</v>
       </c>
@@ -13541,7 +13733,7 @@
       <c r="J422" s="25"/>
       <c r="K422" s="26"/>
     </row>
-    <row r="423" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" ht="60">
       <c r="A423" s="20">
         <v>22723</v>
       </c>
@@ -13564,7 +13756,7 @@
       <c r="J423" s="25"/>
       <c r="K423" s="26"/>
     </row>
-    <row r="424" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" ht="75">
       <c r="A424" s="20">
         <v>22723</v>
       </c>
@@ -13587,7 +13779,7 @@
       <c r="J424" s="25"/>
       <c r="K424" s="26"/>
     </row>
-    <row r="425" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" ht="90">
       <c r="A425" s="20">
         <v>22723</v>
       </c>
@@ -13610,7 +13802,7 @@
       <c r="J425" s="25"/>
       <c r="K425" s="26"/>
     </row>
-    <row r="426" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" ht="60">
       <c r="A426" s="20">
         <v>22723</v>
       </c>
@@ -13633,7 +13825,7 @@
       <c r="J426" s="25"/>
       <c r="K426" s="26"/>
     </row>
-    <row r="427" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" ht="30">
       <c r="A427" s="20">
         <v>22723</v>
       </c>
@@ -13656,7 +13848,7 @@
       <c r="J427" s="25"/>
       <c r="K427" s="26"/>
     </row>
-    <row r="428" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" ht="45">
       <c r="A428" s="14">
         <v>22779</v>
       </c>
@@ -13679,7 +13871,7 @@
       <c r="J428" s="18"/>
       <c r="K428" s="19"/>
     </row>
-    <row r="429" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" ht="45">
       <c r="A429" s="14">
         <v>22779</v>
       </c>
@@ -13702,7 +13894,7 @@
       <c r="J429" s="18"/>
       <c r="K429" s="19"/>
     </row>
-    <row r="430" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" ht="30">
       <c r="A430" s="14">
         <v>22779</v>
       </c>
@@ -13725,7 +13917,7 @@
       <c r="J430" s="18"/>
       <c r="K430" s="19"/>
     </row>
-    <row r="431" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" ht="45">
       <c r="A431" s="14">
         <v>22779</v>
       </c>
@@ -13748,7 +13940,7 @@
       <c r="J431" s="18"/>
       <c r="K431" s="19"/>
     </row>
-    <row r="432" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" ht="30">
       <c r="A432" s="20">
         <v>22870</v>
       </c>
@@ -13771,7 +13963,7 @@
       <c r="J432" s="25"/>
       <c r="K432" s="26"/>
     </row>
-    <row r="433" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" ht="75">
       <c r="A433" s="20">
         <v>22870</v>
       </c>
@@ -13794,7 +13986,7 @@
       <c r="J433" s="25"/>
       <c r="K433" s="26"/>
     </row>
-    <row r="434" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" ht="30">
       <c r="A434" s="20">
         <v>22870</v>
       </c>
@@ -13817,7 +14009,7 @@
       <c r="J434" s="25"/>
       <c r="K434" s="26"/>
     </row>
-    <row r="435" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" ht="30">
       <c r="A435" s="20">
         <v>22870</v>
       </c>
@@ -13840,7 +14032,7 @@
       <c r="J435" s="25"/>
       <c r="K435" s="26"/>
     </row>
-    <row r="436" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" ht="30">
       <c r="A436" s="20">
         <v>22870</v>
       </c>
@@ -13863,7 +14055,7 @@
       <c r="J436" s="25"/>
       <c r="K436" s="26"/>
     </row>
-    <row r="437" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" ht="45">
       <c r="A437" s="14">
         <v>22871</v>
       </c>
@@ -13886,7 +14078,7 @@
       <c r="J437" s="18"/>
       <c r="K437" s="19"/>
     </row>
-    <row r="438" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" ht="60">
       <c r="A438" s="14">
         <v>22871</v>
       </c>
@@ -13909,7 +14101,7 @@
       <c r="J438" s="18"/>
       <c r="K438" s="19"/>
     </row>
-    <row r="439" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" ht="45">
       <c r="A439" s="14">
         <v>22871</v>
       </c>
@@ -13932,7 +14124,7 @@
       <c r="J439" s="18"/>
       <c r="K439" s="19"/>
     </row>
-    <row r="440" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" ht="30">
       <c r="A440" s="14">
         <v>22871</v>
       </c>
@@ -13955,7 +14147,7 @@
       <c r="J440" s="18"/>
       <c r="K440" s="19"/>
     </row>
-    <row r="441" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" ht="30">
       <c r="A441" s="20">
         <v>22947</v>
       </c>
@@ -13978,7 +14170,7 @@
       <c r="J441" s="25"/>
       <c r="K441" s="26"/>
     </row>
-    <row r="442" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" ht="60">
       <c r="A442" s="14">
         <v>23012</v>
       </c>
@@ -14001,7 +14193,7 @@
       <c r="J442" s="18"/>
       <c r="K442" s="19"/>
     </row>
-    <row r="443" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" ht="30">
       <c r="A443" s="20">
         <v>23019</v>
       </c>
@@ -14024,7 +14216,7 @@
       <c r="J443" s="25"/>
       <c r="K443" s="26"/>
     </row>
-    <row r="444" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" ht="45">
       <c r="A444" s="20">
         <v>23019</v>
       </c>
@@ -14047,7 +14239,7 @@
       <c r="J444" s="25"/>
       <c r="K444" s="26"/>
     </row>
-    <row r="445" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" ht="60">
       <c r="A445" s="20">
         <v>23019</v>
       </c>
@@ -14070,7 +14262,7 @@
       <c r="J445" s="25"/>
       <c r="K445" s="26"/>
     </row>
-    <row r="446" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" ht="120">
       <c r="A446" s="20">
         <v>23019</v>
       </c>
@@ -14093,7 +14285,7 @@
       <c r="J446" s="25"/>
       <c r="K446" s="26"/>
     </row>
-    <row r="447" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" ht="30">
       <c r="A447" s="14">
         <v>23021</v>
       </c>
@@ -14116,7 +14308,7 @@
       <c r="J447" s="18"/>
       <c r="K447" s="19"/>
     </row>
-    <row r="448" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" ht="105">
       <c r="A448" s="14">
         <v>23021</v>
       </c>
@@ -14139,7 +14331,7 @@
       <c r="J448" s="18"/>
       <c r="K448" s="19"/>
     </row>
-    <row r="449" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" ht="75">
       <c r="A449" s="14">
         <v>23021</v>
       </c>
@@ -14162,7 +14354,7 @@
       <c r="J449" s="18"/>
       <c r="K449" s="19"/>
     </row>
-    <row r="450" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" ht="60">
       <c r="A450" s="14">
         <v>23021</v>
       </c>
@@ -14185,7 +14377,7 @@
       <c r="J450" s="18"/>
       <c r="K450" s="19"/>
     </row>
-    <row r="451" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" ht="30">
       <c r="A451" s="14">
         <v>23021</v>
       </c>
@@ -14208,7 +14400,7 @@
       <c r="J451" s="18"/>
       <c r="K451" s="19"/>
     </row>
-    <row r="452" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" ht="60">
       <c r="A452" s="14">
         <v>23021</v>
       </c>
@@ -14231,7 +14423,7 @@
       <c r="J452" s="18"/>
       <c r="K452" s="19"/>
     </row>
-    <row r="453" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" ht="30">
       <c r="A453" s="14">
         <v>23021</v>
       </c>
@@ -14254,7 +14446,7 @@
       <c r="J453" s="18"/>
       <c r="K453" s="19"/>
     </row>
-    <row r="454" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" ht="30">
       <c r="A454" s="14">
         <v>23021</v>
       </c>
@@ -14277,7 +14469,7 @@
       <c r="J454" s="18"/>
       <c r="K454" s="19"/>
     </row>
-    <row r="455" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" ht="45">
       <c r="A455" s="20">
         <v>23122</v>
       </c>
@@ -14300,7 +14492,7 @@
       <c r="J455" s="25"/>
       <c r="K455" s="26"/>
     </row>
-    <row r="456" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" ht="30">
       <c r="A456" s="20">
         <v>23122</v>
       </c>
@@ -14323,7 +14515,7 @@
       <c r="J456" s="25"/>
       <c r="K456" s="26"/>
     </row>
-    <row r="457" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" ht="90">
       <c r="A457" s="20">
         <v>23122</v>
       </c>
@@ -14346,7 +14538,7 @@
       <c r="J457" s="25"/>
       <c r="K457" s="26"/>
     </row>
-    <row r="458" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" ht="60">
       <c r="A458" s="20">
         <v>23122</v>
       </c>
@@ -14369,7 +14561,7 @@
       <c r="J458" s="25"/>
       <c r="K458" s="26"/>
     </row>
-    <row r="459" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" ht="45">
       <c r="A459" s="20">
         <v>23122</v>
       </c>
@@ -14392,7 +14584,7 @@
       <c r="J459" s="25"/>
       <c r="K459" s="26"/>
     </row>
-    <row r="460" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" ht="75">
       <c r="A460" s="14">
         <v>23124</v>
       </c>
@@ -14415,7 +14607,7 @@
       <c r="J460" s="18"/>
       <c r="K460" s="19"/>
     </row>
-    <row r="461" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" ht="60">
       <c r="A461" s="20">
         <v>23165</v>
       </c>
@@ -14438,7 +14630,7 @@
       <c r="J461" s="25"/>
       <c r="K461" s="26"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11">
       <c r="A462" s="20">
         <v>23165</v>
       </c>
@@ -14461,7 +14653,7 @@
       <c r="J462" s="25"/>
       <c r="K462" s="26"/>
     </row>
-    <row r="463" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" ht="30">
       <c r="A463" s="20">
         <v>23165</v>
       </c>
@@ -14484,7 +14676,7 @@
       <c r="J463" s="25"/>
       <c r="K463" s="26"/>
     </row>
-    <row r="464" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" ht="30">
       <c r="A464" s="14">
         <v>23201</v>
       </c>
@@ -14507,7 +14699,7 @@
       <c r="J464" s="18"/>
       <c r="K464" s="19"/>
     </row>
-    <row r="465" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" ht="30">
       <c r="A465" s="14">
         <v>23201</v>
       </c>
@@ -14530,7 +14722,7 @@
       <c r="J465" s="18"/>
       <c r="K465" s="19"/>
     </row>
-    <row r="466" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" ht="45">
       <c r="A466" s="20">
         <v>23274</v>
       </c>
@@ -14553,7 +14745,7 @@
       <c r="J466" s="25"/>
       <c r="K466" s="26"/>
     </row>
-    <row r="467" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" ht="30">
       <c r="A467" s="20">
         <v>23274</v>
       </c>
@@ -14576,7 +14768,7 @@
       <c r="J467" s="25"/>
       <c r="K467" s="26"/>
     </row>
-    <row r="468" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" ht="30">
       <c r="A468" s="20">
         <v>23274</v>
       </c>
@@ -14599,7 +14791,7 @@
       <c r="J468" s="25"/>
       <c r="K468" s="26"/>
     </row>
-    <row r="469" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" ht="30">
       <c r="A469" s="14">
         <v>23275</v>
       </c>
@@ -14622,7 +14814,7 @@
       <c r="J469" s="18"/>
       <c r="K469" s="19"/>
     </row>
-    <row r="470" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" ht="30">
       <c r="A470" s="14">
         <v>23275</v>
       </c>
@@ -14645,7 +14837,7 @@
       <c r="J470" s="18"/>
       <c r="K470" s="19"/>
     </row>
-    <row r="471" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" ht="30">
       <c r="A471" s="14">
         <v>23275</v>
       </c>
@@ -14668,7 +14860,7 @@
       <c r="J471" s="18"/>
       <c r="K471" s="19"/>
     </row>
-    <row r="472" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" ht="30">
       <c r="A472" s="14">
         <v>23275</v>
       </c>
@@ -14691,7 +14883,7 @@
       <c r="J472" s="18"/>
       <c r="K472" s="19"/>
     </row>
-    <row r="473" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" ht="30">
       <c r="A473" s="14">
         <v>23275</v>
       </c>
@@ -14714,7 +14906,7 @@
       <c r="J473" s="18"/>
       <c r="K473" s="19"/>
     </row>
-    <row r="474" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" ht="45">
       <c r="A474" s="20">
         <v>23276</v>
       </c>
@@ -14737,7 +14929,7 @@
       <c r="J474" s="25"/>
       <c r="K474" s="26"/>
     </row>
-    <row r="475" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" ht="30">
       <c r="A475" s="20">
         <v>23276</v>
       </c>
@@ -14760,7 +14952,7 @@
       <c r="J475" s="25"/>
       <c r="K475" s="26"/>
     </row>
-    <row r="476" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" ht="30">
       <c r="A476" s="20">
         <v>23276</v>
       </c>
@@ -14783,7 +14975,7 @@
       <c r="J476" s="25"/>
       <c r="K476" s="26"/>
     </row>
-    <row r="477" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" ht="105">
       <c r="A477" s="14">
         <v>23363</v>
       </c>
@@ -14806,7 +14998,7 @@
       <c r="J477" s="18"/>
       <c r="K477" s="19"/>
     </row>
-    <row r="478" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" ht="60">
       <c r="A478" s="14">
         <v>23363</v>
       </c>
@@ -14829,7 +15021,7 @@
       <c r="J478" s="18"/>
       <c r="K478" s="19"/>
     </row>
-    <row r="479" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" ht="120">
       <c r="A479" s="14">
         <v>23363</v>
       </c>
@@ -14852,7 +15044,7 @@
       <c r="J479" s="18"/>
       <c r="K479" s="19"/>
     </row>
-    <row r="480" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" ht="45">
       <c r="A480" s="14">
         <v>23363</v>
       </c>
@@ -14875,7 +15067,7 @@
       <c r="J480" s="18"/>
       <c r="K480" s="19"/>
     </row>
-    <row r="481" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" ht="45">
       <c r="A481" s="20">
         <v>23422</v>
       </c>
@@ -14898,7 +15090,7 @@
       <c r="J481" s="25"/>
       <c r="K481" s="26"/>
     </row>
-    <row r="482" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" ht="30">
       <c r="A482" s="20">
         <v>23422</v>
       </c>
@@ -14921,7 +15113,7 @@
       <c r="J482" s="25"/>
       <c r="K482" s="26"/>
     </row>
-    <row r="483" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" ht="45">
       <c r="A483" s="14">
         <v>23428</v>
       </c>
@@ -14944,7 +15136,7 @@
       <c r="J483" s="18"/>
       <c r="K483" s="19"/>
     </row>
-    <row r="484" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" ht="30">
       <c r="A484" s="14">
         <v>23428</v>
       </c>
@@ -14967,7 +15159,7 @@
       <c r="J484" s="18"/>
       <c r="K484" s="19"/>
     </row>
-    <row r="485" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" ht="45">
       <c r="A485" s="20">
         <v>23436</v>
       </c>
@@ -14990,7 +15182,7 @@
       <c r="J485" s="25"/>
       <c r="K485" s="26"/>
     </row>
-    <row r="486" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" ht="30">
       <c r="A486" s="20">
         <v>23436</v>
       </c>
@@ -15013,7 +15205,7 @@
       <c r="J486" s="25"/>
       <c r="K486" s="26"/>
     </row>
-    <row r="487" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" ht="30">
       <c r="A487" s="14">
         <v>23439</v>
       </c>
@@ -15036,7 +15228,7 @@
       <c r="J487" s="18"/>
       <c r="K487" s="19"/>
     </row>
-    <row r="488" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" ht="60">
       <c r="A488" s="20">
         <v>23462</v>
       </c>
@@ -15059,7 +15251,7 @@
       <c r="J488" s="25"/>
       <c r="K488" s="26"/>
     </row>
-    <row r="489" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" ht="45">
       <c r="A489" s="20">
         <v>23462</v>
       </c>
@@ -15082,7 +15274,7 @@
       <c r="J489" s="25"/>
       <c r="K489" s="26"/>
     </row>
-    <row r="490" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" ht="75">
       <c r="A490" s="14">
         <v>23486</v>
       </c>
@@ -15105,7 +15297,7 @@
       <c r="J490" s="18"/>
       <c r="K490" s="19"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11">
       <c r="A491" s="14">
         <v>23486</v>
       </c>
@@ -15128,7 +15320,7 @@
       <c r="J491" s="18"/>
       <c r="K491" s="19"/>
     </row>
-    <row r="492" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" ht="45">
       <c r="A492" s="14">
         <v>23486</v>
       </c>
@@ -15151,7 +15343,7 @@
       <c r="J492" s="18"/>
       <c r="K492" s="19"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11">
       <c r="A493" s="14">
         <v>23486</v>
       </c>
@@ -15174,7 +15366,7 @@
       <c r="J493" s="18"/>
       <c r="K493" s="19"/>
     </row>
-    <row r="494" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" ht="60">
       <c r="A494" s="20">
         <v>23487</v>
       </c>
@@ -15197,7 +15389,7 @@
       <c r="J494" s="25"/>
       <c r="K494" s="26"/>
     </row>
-    <row r="495" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" ht="30">
       <c r="A495" s="20">
         <v>23487</v>
       </c>
@@ -15220,7 +15412,7 @@
       <c r="J495" s="25"/>
       <c r="K495" s="26"/>
     </row>
-    <row r="496" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" ht="30">
       <c r="A496" s="14">
         <v>23489</v>
       </c>
@@ -15243,7 +15435,7 @@
       <c r="J496" s="18"/>
       <c r="K496" s="19"/>
     </row>
-    <row r="497" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" ht="30">
       <c r="A497" s="14">
         <v>23489</v>
       </c>
@@ -15266,7 +15458,7 @@
       <c r="J497" s="18"/>
       <c r="K497" s="19"/>
     </row>
-    <row r="498" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" ht="60">
       <c r="A498" s="20">
         <v>23492</v>
       </c>
@@ -15289,7 +15481,7 @@
       <c r="J498" s="25"/>
       <c r="K498" s="26"/>
     </row>
-    <row r="499" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" ht="30">
       <c r="A499" s="14">
         <v>23511</v>
       </c>
@@ -15312,7 +15504,7 @@
       <c r="J499" s="18"/>
       <c r="K499" s="19"/>
     </row>
-    <row r="500" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" ht="30">
       <c r="A500" s="14">
         <v>23511</v>
       </c>
@@ -15335,7 +15527,7 @@
       <c r="J500" s="18"/>
       <c r="K500" s="19"/>
     </row>
-    <row r="501" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" ht="45">
       <c r="A501" s="20">
         <v>23512</v>
       </c>
@@ -15358,7 +15550,7 @@
       <c r="J501" s="25"/>
       <c r="K501" s="26"/>
     </row>
-    <row r="502" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" ht="30">
       <c r="A502" s="20">
         <v>23512</v>
       </c>
@@ -15381,7 +15573,7 @@
       <c r="J502" s="25"/>
       <c r="K502" s="26"/>
     </row>
-    <row r="503" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" ht="30">
       <c r="A503" s="14">
         <v>23539</v>
       </c>
@@ -15404,7 +15596,7 @@
       <c r="J503" s="18"/>
       <c r="K503" s="19"/>
     </row>
-    <row r="504" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" ht="30">
       <c r="A504" s="14">
         <v>23539</v>
       </c>
@@ -15427,7 +15619,7 @@
       <c r="J504" s="18"/>
       <c r="K504" s="19"/>
     </row>
-    <row r="505" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" ht="75">
       <c r="A505" s="20">
         <v>23545</v>
       </c>
@@ -15450,7 +15642,7 @@
       <c r="J505" s="25"/>
       <c r="K505" s="26"/>
     </row>
-    <row r="506" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" ht="45">
       <c r="A506" s="20">
         <v>23545</v>
       </c>
@@ -15473,7 +15665,7 @@
       <c r="J506" s="25"/>
       <c r="K506" s="26"/>
     </row>
-    <row r="507" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" ht="45">
       <c r="A507" s="14">
         <v>23593</v>
       </c>
@@ -15496,7 +15688,7 @@
       <c r="J507" s="18"/>
       <c r="K507" s="19"/>
     </row>
-    <row r="508" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" ht="45">
       <c r="A508" s="20">
         <v>23630</v>
       </c>
@@ -15519,7 +15711,7 @@
       <c r="J508" s="25"/>
       <c r="K508" s="26"/>
     </row>
-    <row r="509" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" ht="105">
       <c r="A509" s="20">
         <v>23630</v>
       </c>
@@ -15542,7 +15734,7 @@
       <c r="J509" s="25"/>
       <c r="K509" s="26"/>
     </row>
-    <row r="510" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" ht="30">
       <c r="A510" s="20">
         <v>23630</v>
       </c>
@@ -15565,7 +15757,7 @@
       <c r="J510" s="25"/>
       <c r="K510" s="26"/>
     </row>
-    <row r="511" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" ht="30">
       <c r="A511" s="20">
         <v>23630</v>
       </c>
@@ -15588,7 +15780,7 @@
       <c r="J511" s="25"/>
       <c r="K511" s="26"/>
     </row>
-    <row r="512" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" ht="60">
       <c r="A512" s="20">
         <v>23630</v>
       </c>
@@ -15611,7 +15803,7 @@
       <c r="J512" s="25"/>
       <c r="K512" s="26"/>
     </row>
-    <row r="513" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" ht="30">
       <c r="A513" s="20">
         <v>23630</v>
       </c>
@@ -15634,7 +15826,7 @@
       <c r="J513" s="25"/>
       <c r="K513" s="26"/>
     </row>
-    <row r="514" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" ht="30">
       <c r="A514" s="20">
         <v>23630</v>
       </c>
@@ -15657,7 +15849,7 @@
       <c r="J514" s="25"/>
       <c r="K514" s="26"/>
     </row>
-    <row r="515" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" ht="45">
       <c r="A515" s="20">
         <v>23630</v>
       </c>
@@ -15680,7 +15872,7 @@
       <c r="J515" s="25"/>
       <c r="K515" s="26"/>
     </row>
-    <row r="516" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" ht="75">
       <c r="A516" s="14">
         <v>23692</v>
       </c>
@@ -15703,7 +15895,7 @@
       <c r="J516" s="18"/>
       <c r="K516" s="19"/>
     </row>
-    <row r="517" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" ht="30">
       <c r="A517" s="14">
         <v>23692</v>
       </c>
@@ -15726,7 +15918,7 @@
       <c r="J517" s="18"/>
       <c r="K517" s="19"/>
     </row>
-    <row r="518" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" ht="45">
       <c r="A518" s="14">
         <v>23692</v>
       </c>
@@ -15749,7 +15941,7 @@
       <c r="J518" s="18"/>
       <c r="K518" s="19"/>
     </row>
-    <row r="519" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" ht="30">
       <c r="A519" s="14">
         <v>23692</v>
       </c>
@@ -15772,7 +15964,7 @@
       <c r="J519" s="18"/>
       <c r="K519" s="19"/>
     </row>
-    <row r="520" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" ht="45">
       <c r="A520" s="14">
         <v>23692</v>
       </c>
@@ -15795,7 +15987,7 @@
       <c r="J520" s="18"/>
       <c r="K520" s="19"/>
     </row>
-    <row r="521" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" ht="30">
       <c r="A521" s="20">
         <v>23706</v>
       </c>
@@ -15818,7 +16010,7 @@
       <c r="J521" s="25"/>
       <c r="K521" s="26"/>
     </row>
-    <row r="522" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" ht="30">
       <c r="A522" s="14">
         <v>23708</v>
       </c>
@@ -15841,7 +16033,7 @@
       <c r="J522" s="18"/>
       <c r="K522" s="19"/>
     </row>
-    <row r="523" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" ht="30">
       <c r="A523" s="20">
         <v>23709</v>
       </c>
@@ -15864,7 +16056,7 @@
       <c r="J523" s="25"/>
       <c r="K523" s="26"/>
     </row>
-    <row r="524" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" ht="30">
       <c r="A524" s="14">
         <v>23710</v>
       </c>
@@ -15887,7 +16079,7 @@
       <c r="J524" s="18"/>
       <c r="K524" s="19"/>
     </row>
-    <row r="525" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" ht="30">
       <c r="A525" s="20">
         <v>23712</v>
       </c>
@@ -15910,7 +16102,7 @@
       <c r="J525" s="25"/>
       <c r="K525" s="26"/>
     </row>
-    <row r="526" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" ht="45">
       <c r="A526" s="20">
         <v>23712</v>
       </c>
@@ -15933,7 +16125,7 @@
       <c r="J526" s="25"/>
       <c r="K526" s="26"/>
     </row>
-    <row r="527" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" ht="75">
       <c r="A527" s="20">
         <v>23712</v>
       </c>
@@ -15956,7 +16148,7 @@
       <c r="J527" s="25"/>
       <c r="K527" s="26"/>
     </row>
-    <row r="528" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" ht="45">
       <c r="A528" s="20">
         <v>23712</v>
       </c>
@@ -15979,7 +16171,7 @@
       <c r="J528" s="25"/>
       <c r="K528" s="26"/>
     </row>
-    <row r="529" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" ht="30">
       <c r="A529" s="20">
         <v>23712</v>
       </c>
@@ -16002,7 +16194,7 @@
       <c r="J529" s="25"/>
       <c r="K529" s="26"/>
     </row>
-    <row r="530" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" ht="45">
       <c r="A530" s="20">
         <v>23712</v>
       </c>
@@ -16025,7 +16217,7 @@
       <c r="J530" s="25"/>
       <c r="K530" s="26"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11">
       <c r="A531" s="20">
         <v>23712</v>
       </c>
@@ -16048,7 +16240,7 @@
       <c r="J531" s="25"/>
       <c r="K531" s="26"/>
     </row>
-    <row r="532" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" ht="45">
       <c r="A532" s="20">
         <v>23712</v>
       </c>
@@ -16071,7 +16263,7 @@
       <c r="J532" s="25"/>
       <c r="K532" s="26"/>
     </row>
-    <row r="533" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" ht="60">
       <c r="A533" s="20">
         <v>23712</v>
       </c>
@@ -16094,7 +16286,7 @@
       <c r="J533" s="25"/>
       <c r="K533" s="26"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11">
       <c r="A534" s="20">
         <v>23712</v>
       </c>
@@ -16117,7 +16309,7 @@
       <c r="J534" s="25"/>
       <c r="K534" s="26"/>
     </row>
-    <row r="535" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" ht="30">
       <c r="A535" s="14">
         <v>23753</v>
       </c>
@@ -16140,7 +16332,7 @@
       <c r="J535" s="18"/>
       <c r="K535" s="19"/>
     </row>
-    <row r="536" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" ht="30">
       <c r="A536" s="14">
         <v>23753</v>
       </c>
@@ -16163,7 +16355,7 @@
       <c r="J536" s="18"/>
       <c r="K536" s="19"/>
     </row>
-    <row r="537" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" ht="30">
       <c r="A537" s="14">
         <v>23753</v>
       </c>
@@ -16186,7 +16378,7 @@
       <c r="J537" s="18"/>
       <c r="K537" s="19"/>
     </row>
-    <row r="538" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" ht="120">
       <c r="A538" s="14">
         <v>23753</v>
       </c>
@@ -16209,7 +16401,7 @@
       <c r="J538" s="18"/>
       <c r="K538" s="19"/>
     </row>
-    <row r="539" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" ht="30">
       <c r="A539" s="14">
         <v>23753</v>
       </c>
@@ -16232,7 +16424,7 @@
       <c r="J539" s="18"/>
       <c r="K539" s="19"/>
     </row>
-    <row r="540" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" ht="90">
       <c r="A540" s="14">
         <v>23753</v>
       </c>
@@ -16255,7 +16447,7 @@
       <c r="J540" s="18"/>
       <c r="K540" s="19"/>
     </row>
-    <row r="541" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" ht="60">
       <c r="A541" s="14">
         <v>23753</v>
       </c>
@@ -16278,7 +16470,7 @@
       <c r="J541" s="18"/>
       <c r="K541" s="19"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11">
       <c r="A542" s="20">
         <v>23899</v>
       </c>
@@ -16301,7 +16493,7 @@
       <c r="J542" s="25"/>
       <c r="K542" s="26"/>
     </row>
-    <row r="543" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" ht="30">
       <c r="A543" s="14">
         <v>23934</v>
       </c>
@@ -16324,7 +16516,7 @@
       <c r="J543" s="18"/>
       <c r="K543" s="19"/>
     </row>
-    <row r="544" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" ht="30">
       <c r="A544" s="14">
         <v>23934</v>
       </c>
@@ -16347,7 +16539,7 @@
       <c r="J544" s="18"/>
       <c r="K544" s="19"/>
     </row>
-    <row r="545" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" ht="30">
       <c r="A545" s="14">
         <v>23934</v>
       </c>
@@ -16370,7 +16562,7 @@
       <c r="J545" s="18"/>
       <c r="K545" s="19"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11">
       <c r="A546" s="20">
         <v>24045</v>
       </c>
@@ -16393,7 +16585,7 @@
       <c r="J546" s="25"/>
       <c r="K546" s="26"/>
     </row>
-    <row r="547" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" ht="45">
       <c r="A547" s="20">
         <v>24045</v>
       </c>
@@ -16416,7 +16608,7 @@
       <c r="J547" s="25"/>
       <c r="K547" s="26"/>
     </row>
-    <row r="548" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" ht="45">
       <c r="A548" s="20">
         <v>24045</v>
       </c>
@@ -16439,7 +16631,7 @@
       <c r="J548" s="25"/>
       <c r="K548" s="26"/>
     </row>
-    <row r="549" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" ht="30">
       <c r="A549" s="20">
         <v>24045</v>
       </c>
@@ -16462,7 +16654,7 @@
       <c r="J549" s="25"/>
       <c r="K549" s="26"/>
     </row>
-    <row r="550" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" ht="30">
       <c r="A550" s="20">
         <v>24045</v>
       </c>
@@ -16485,7 +16677,7 @@
       <c r="J550" s="25"/>
       <c r="K550" s="26"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11">
       <c r="A551" s="20">
         <v>24045</v>
       </c>
@@ -16508,7 +16700,7 @@
       <c r="J551" s="25"/>
       <c r="K551" s="26"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11">
       <c r="A552" s="20">
         <v>24045</v>
       </c>
@@ -16531,7 +16723,7 @@
       <c r="J552" s="25"/>
       <c r="K552" s="26"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11">
       <c r="A553" s="20">
         <v>24045</v>
       </c>
@@ -16554,7 +16746,7 @@
       <c r="J553" s="25"/>
       <c r="K553" s="26"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11">
       <c r="A554" s="20">
         <v>24045</v>
       </c>
@@ -16577,7 +16769,7 @@
       <c r="J554" s="25"/>
       <c r="K554" s="26"/>
     </row>
-    <row r="555" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" ht="30">
       <c r="A555" s="14">
         <v>24046</v>
       </c>
@@ -16600,7 +16792,7 @@
       <c r="J555" s="18"/>
       <c r="K555" s="19"/>
     </row>
-    <row r="556" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" ht="30">
       <c r="A556" s="14">
         <v>24046</v>
       </c>
@@ -16623,7 +16815,7 @@
       <c r="J556" s="18"/>
       <c r="K556" s="19"/>
     </row>
-    <row r="557" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" ht="45">
       <c r="A557" s="14">
         <v>24046</v>
       </c>
@@ -16646,7 +16838,7 @@
       <c r="J557" s="18"/>
       <c r="K557" s="19"/>
     </row>
-    <row r="558" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" ht="30">
       <c r="A558" s="14">
         <v>24046</v>
       </c>
@@ -16669,7 +16861,7 @@
       <c r="J558" s="18"/>
       <c r="K558" s="19"/>
     </row>
-    <row r="559" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" ht="30">
       <c r="A559" s="14">
         <v>24046</v>
       </c>
@@ -16692,7 +16884,7 @@
       <c r="J559" s="18"/>
       <c r="K559" s="19"/>
     </row>
-    <row r="560" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" ht="45">
       <c r="A560" s="20">
         <v>24047</v>
       </c>
@@ -16715,7 +16907,7 @@
       <c r="J560" s="25"/>
       <c r="K560" s="26"/>
     </row>
-    <row r="561" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" ht="45">
       <c r="A561" s="20">
         <v>24047</v>
       </c>
@@ -16738,7 +16930,7 @@
       <c r="J561" s="25"/>
       <c r="K561" s="26"/>
     </row>
-    <row r="562" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" ht="90">
       <c r="A562" s="20">
         <v>24047</v>
       </c>
@@ -16761,7 +16953,7 @@
       <c r="J562" s="25"/>
       <c r="K562" s="26"/>
     </row>
-    <row r="563" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" ht="60">
       <c r="A563" s="20">
         <v>24047</v>
       </c>
@@ -16784,7 +16976,7 @@
       <c r="J563" s="25"/>
       <c r="K563" s="26"/>
     </row>
-    <row r="564" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" ht="30">
       <c r="A564" s="20">
         <v>24047</v>
       </c>
@@ -16807,7 +16999,7 @@
       <c r="J564" s="25"/>
       <c r="K564" s="26"/>
     </row>
-    <row r="565" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" ht="30">
       <c r="A565" s="20">
         <v>24047</v>
       </c>
@@ -16830,7 +17022,7 @@
       <c r="J565" s="25"/>
       <c r="K565" s="26"/>
     </row>
-    <row r="566" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" ht="90">
       <c r="A566" s="20">
         <v>24047</v>
       </c>
@@ -16853,7 +17045,7 @@
       <c r="J566" s="25"/>
       <c r="K566" s="26"/>
     </row>
-    <row r="567" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" ht="60">
       <c r="A567" s="20">
         <v>24047</v>
       </c>
@@ -16876,7 +17068,7 @@
       <c r="J567" s="25"/>
       <c r="K567" s="26"/>
     </row>
-    <row r="568" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" ht="75">
       <c r="A568" s="20">
         <v>24047</v>
       </c>
@@ -16899,7 +17091,7 @@
       <c r="J568" s="25"/>
       <c r="K568" s="26"/>
     </row>
-    <row r="569" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" ht="90">
       <c r="A569" s="20">
         <v>24047</v>
       </c>
@@ -16922,7 +17114,7 @@
       <c r="J569" s="25"/>
       <c r="K569" s="26"/>
     </row>
-    <row r="570" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" ht="45">
       <c r="A570" s="20">
         <v>24047</v>
       </c>
@@ -16945,7 +17137,7 @@
       <c r="J570" s="25"/>
       <c r="K570" s="26"/>
     </row>
-    <row r="571" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" ht="45">
       <c r="A571" s="20">
         <v>24047</v>
       </c>
@@ -16968,7 +17160,7 @@
       <c r="J571" s="25"/>
       <c r="K571" s="26"/>
     </row>
-    <row r="572" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" ht="60">
       <c r="A572" s="20">
         <v>24047</v>
       </c>
@@ -16991,7 +17183,7 @@
       <c r="J572" s="25"/>
       <c r="K572" s="26"/>
     </row>
-    <row r="573" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" ht="90">
       <c r="A573" s="14">
         <v>24048</v>
       </c>
@@ -17014,7 +17206,7 @@
       <c r="J573" s="18"/>
       <c r="K573" s="19"/>
     </row>
-    <row r="574" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" ht="30">
       <c r="A574" s="14">
         <v>24048</v>
       </c>
@@ -17037,7 +17229,7 @@
       <c r="J574" s="18"/>
       <c r="K574" s="19"/>
     </row>
-    <row r="575" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" ht="30">
       <c r="A575" s="14">
         <v>24048</v>
       </c>
@@ -17060,7 +17252,7 @@
       <c r="J575" s="18"/>
       <c r="K575" s="19"/>
     </row>
-    <row r="576" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" ht="30">
       <c r="A576" s="14">
         <v>24048</v>
       </c>
@@ -17083,7 +17275,7 @@
       <c r="J576" s="18"/>
       <c r="K576" s="19"/>
     </row>
-    <row r="577" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" ht="60">
       <c r="A577" s="14">
         <v>24048</v>
       </c>
@@ -17106,7 +17298,7 @@
       <c r="J577" s="18"/>
       <c r="K577" s="19"/>
     </row>
-    <row r="578" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" ht="45">
       <c r="A578" s="14">
         <v>24048</v>
       </c>
@@ -17129,7 +17321,7 @@
       <c r="J578" s="18"/>
       <c r="K578" s="19"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11">
       <c r="A579" s="14">
         <v>24048</v>
       </c>
@@ -17152,7 +17344,7 @@
       <c r="J579" s="18"/>
       <c r="K579" s="19"/>
     </row>
-    <row r="580" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" ht="75">
       <c r="A580" s="14">
         <v>24048</v>
       </c>
@@ -17175,7 +17367,7 @@
       <c r="J580" s="18"/>
       <c r="K580" s="19"/>
     </row>
-    <row r="581" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" ht="60">
       <c r="A581" s="14">
         <v>24048</v>
       </c>
@@ -17198,7 +17390,7 @@
       <c r="J581" s="18"/>
       <c r="K581" s="19"/>
     </row>
-    <row r="582" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" ht="75">
       <c r="A582" s="14">
         <v>24048</v>
       </c>
@@ -17221,7 +17413,7 @@
       <c r="J582" s="18"/>
       <c r="K582" s="19"/>
     </row>
-    <row r="583" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" ht="75">
       <c r="A583" s="14">
         <v>24048</v>
       </c>
@@ -17244,7 +17436,7 @@
       <c r="J583" s="18"/>
       <c r="K583" s="19"/>
     </row>
-    <row r="584" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" ht="30">
       <c r="A584" s="14">
         <v>24048</v>
       </c>
@@ -17267,7 +17459,7 @@
       <c r="J584" s="18"/>
       <c r="K584" s="19"/>
     </row>
-    <row r="585" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" ht="60">
       <c r="A585" s="14">
         <v>24048</v>
       </c>
@@ -17290,7 +17482,7 @@
       <c r="J585" s="18"/>
       <c r="K585" s="19"/>
     </row>
-    <row r="586" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" ht="30">
       <c r="A586" s="14">
         <v>24048</v>
       </c>
@@ -17313,7 +17505,7 @@
       <c r="J586" s="18"/>
       <c r="K586" s="19"/>
     </row>
-    <row r="587" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" ht="45">
       <c r="A587" s="14">
         <v>24048</v>
       </c>
@@ -17336,7 +17528,7 @@
       <c r="J587" s="18"/>
       <c r="K587" s="19"/>
     </row>
-    <row r="588" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" ht="45">
       <c r="A588" s="20">
         <v>24049</v>
       </c>
@@ -17359,7 +17551,7 @@
       <c r="J588" s="25"/>
       <c r="K588" s="26"/>
     </row>
-    <row r="589" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" ht="30">
       <c r="A589" s="20">
         <v>24049</v>
       </c>
@@ -17382,7 +17574,7 @@
       <c r="J589" s="25"/>
       <c r="K589" s="26"/>
     </row>
-    <row r="590" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" ht="45">
       <c r="A590" s="20">
         <v>24049</v>
       </c>
@@ -17405,7 +17597,7 @@
       <c r="J590" s="25"/>
       <c r="K590" s="26"/>
     </row>
-    <row r="591" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" ht="60">
       <c r="A591" s="14">
         <v>24050</v>
       </c>
@@ -17428,7 +17620,7 @@
       <c r="J591" s="18"/>
       <c r="K591" s="19"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11">
       <c r="A592" s="14">
         <v>24050</v>
       </c>
@@ -17451,7 +17643,7 @@
       <c r="J592" s="18"/>
       <c r="K592" s="19"/>
     </row>
-    <row r="593" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" ht="45">
       <c r="A593" s="14">
         <v>24050</v>
       </c>
@@ -17474,7 +17666,7 @@
       <c r="J593" s="18"/>
       <c r="K593" s="19"/>
     </row>
-    <row r="594" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" ht="75">
       <c r="A594" s="20">
         <v>24067</v>
       </c>
@@ -17497,7 +17689,7 @@
       <c r="J594" s="25"/>
       <c r="K594" s="26"/>
     </row>
-    <row r="595" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" ht="90">
       <c r="A595" s="20">
         <v>24067</v>
       </c>
@@ -17520,7 +17712,7 @@
       <c r="J595" s="25"/>
       <c r="K595" s="26"/>
     </row>
-    <row r="596" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" ht="45">
       <c r="A596" s="20">
         <v>24067</v>
       </c>
@@ -17543,7 +17735,7 @@
       <c r="J596" s="25"/>
       <c r="K596" s="26"/>
     </row>
-    <row r="597" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" ht="75">
       <c r="A597" s="14">
         <v>24113</v>
       </c>
@@ -17566,7 +17758,7 @@
       <c r="J597" s="18"/>
       <c r="K597" s="19"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11">
       <c r="A598" s="14">
         <v>24113</v>
       </c>
@@ -17589,7 +17781,7 @@
       <c r="J598" s="18"/>
       <c r="K598" s="19"/>
     </row>
-    <row r="599" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" ht="30">
       <c r="A599" s="14">
         <v>24113</v>
       </c>
@@ -17612,7 +17804,7 @@
       <c r="J599" s="18"/>
       <c r="K599" s="19"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11">
       <c r="A600" s="14">
         <v>24113</v>
       </c>
@@ -17635,7 +17827,7 @@
       <c r="J600" s="18"/>
       <c r="K600" s="19"/>
     </row>
-    <row r="601" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" ht="75">
       <c r="A601" s="14">
         <v>24113</v>
       </c>
@@ -17658,7 +17850,7 @@
       <c r="J601" s="18"/>
       <c r="K601" s="19"/>
     </row>
-    <row r="602" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" ht="60">
       <c r="A602" s="14">
         <v>24113</v>
       </c>
@@ -17681,7 +17873,7 @@
       <c r="J602" s="18"/>
       <c r="K602" s="19"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11">
       <c r="A603" s="20">
         <v>24196</v>
       </c>
@@ -17704,7 +17896,7 @@
       <c r="J603" s="25"/>
       <c r="K603" s="26"/>
     </row>
-    <row r="604" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" ht="75">
       <c r="A604" s="14">
         <v>24387</v>
       </c>
@@ -17727,7 +17919,7 @@
       <c r="J604" s="18"/>
       <c r="K604" s="19"/>
     </row>
-    <row r="605" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" ht="105">
       <c r="A605" s="14">
         <v>24387</v>
       </c>
@@ -17750,7 +17942,7 @@
       <c r="J605" s="18"/>
       <c r="K605" s="19"/>
     </row>
-    <row r="606" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" ht="75">
       <c r="A606" s="14">
         <v>24387</v>
       </c>
@@ -17773,7 +17965,7 @@
       <c r="J606" s="18"/>
       <c r="K606" s="19"/>
     </row>
-    <row r="607" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" ht="120">
       <c r="A607" s="14">
         <v>24387</v>
       </c>
@@ -17796,7 +17988,7 @@
       <c r="J607" s="18"/>
       <c r="K607" s="19"/>
     </row>
-    <row r="608" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" ht="45">
       <c r="A608" s="14">
         <v>24387</v>
       </c>
@@ -17819,7 +18011,7 @@
       <c r="J608" s="18"/>
       <c r="K608" s="19"/>
     </row>
-    <row r="609" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" ht="30">
       <c r="A609" s="14">
         <v>24387</v>
       </c>
@@ -17842,7 +18034,7 @@
       <c r="J609" s="18"/>
       <c r="K609" s="19"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11">
       <c r="A610" s="20">
         <v>24418</v>
       </c>
@@ -17865,7 +18057,7 @@
       <c r="J610" s="25"/>
       <c r="K610" s="26"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11">
       <c r="A611" s="20">
         <v>24418</v>
       </c>
@@ -17888,7 +18080,7 @@
       <c r="J611" s="25"/>
       <c r="K611" s="26"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11">
       <c r="A612" s="20">
         <v>24418</v>
       </c>
@@ -17911,7 +18103,7 @@
       <c r="J612" s="25"/>
       <c r="K612" s="26"/>
     </row>
-    <row r="613" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" ht="45">
       <c r="A613" s="20">
         <v>24418</v>
       </c>
@@ -17934,7 +18126,7 @@
       <c r="J613" s="25"/>
       <c r="K613" s="26"/>
     </row>
-    <row r="614" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" ht="75">
       <c r="A614" s="20">
         <v>24418</v>
       </c>
@@ -17957,7 +18149,7 @@
       <c r="J614" s="25"/>
       <c r="K614" s="26"/>
     </row>
-    <row r="615" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" ht="45">
       <c r="A615" s="20">
         <v>24418</v>
       </c>
@@ -17980,7 +18172,7 @@
       <c r="J615" s="25"/>
       <c r="K615" s="26"/>
     </row>
-    <row r="616" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" ht="30">
       <c r="A616" s="14">
         <v>24539</v>
       </c>
@@ -18003,7 +18195,7 @@
       <c r="J616" s="18"/>
       <c r="K616" s="19"/>
     </row>
-    <row r="617" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" ht="45">
       <c r="A617" s="14">
         <v>24539</v>
       </c>
@@ -18026,7 +18218,7 @@
       <c r="J617" s="18"/>
       <c r="K617" s="19"/>
     </row>
-    <row r="618" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" ht="30">
       <c r="A618" s="20">
         <v>24544</v>
       </c>
@@ -18049,7 +18241,7 @@
       <c r="J618" s="25"/>
       <c r="K618" s="26"/>
     </row>
-    <row r="619" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" ht="60">
       <c r="A619" s="20">
         <v>24544</v>
       </c>
@@ -18072,7 +18264,7 @@
       <c r="J619" s="25"/>
       <c r="K619" s="26"/>
     </row>
-    <row r="620" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" ht="45">
       <c r="A620" s="20">
         <v>24544</v>
       </c>
@@ -18095,7 +18287,7 @@
       <c r="J620" s="25"/>
       <c r="K620" s="26"/>
     </row>
-    <row r="621" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" ht="30">
       <c r="A621" s="14">
         <v>24622</v>
       </c>
@@ -18118,7 +18310,7 @@
       <c r="J621" s="18"/>
       <c r="K621" s="19"/>
     </row>
-    <row r="622" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" ht="30">
       <c r="A622" s="14">
         <v>24622</v>
       </c>
@@ -18141,7 +18333,7 @@
       <c r="J622" s="18"/>
       <c r="K622" s="19"/>
     </row>
-    <row r="623" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" ht="45">
       <c r="A623" s="14">
         <v>24622</v>
       </c>
@@ -18164,7 +18356,7 @@
       <c r="J623" s="18"/>
       <c r="K623" s="19"/>
     </row>
-    <row r="624" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" ht="60">
       <c r="A624" s="14">
         <v>24622</v>
       </c>
@@ -18187,7 +18379,7 @@
       <c r="J624" s="18"/>
       <c r="K624" s="19"/>
     </row>
-    <row r="625" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" ht="30">
       <c r="A625" s="20">
         <v>24623</v>
       </c>
@@ -18210,7 +18402,7 @@
       <c r="J625" s="25"/>
       <c r="K625" s="26"/>
     </row>
-    <row r="626" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" ht="30">
       <c r="A626" s="20">
         <v>24623</v>
       </c>
@@ -18233,7 +18425,7 @@
       <c r="J626" s="25"/>
       <c r="K626" s="26"/>
     </row>
-    <row r="627" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" ht="30">
       <c r="A627" s="20">
         <v>24623</v>
       </c>
@@ -18256,7 +18448,7 @@
       <c r="J627" s="25"/>
       <c r="K627" s="26"/>
     </row>
-    <row r="628" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" ht="105">
       <c r="A628" s="20">
         <v>24623</v>
       </c>
@@ -18279,7 +18471,7 @@
       <c r="J628" s="25"/>
       <c r="K628" s="26"/>
     </row>
-    <row r="629" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" ht="60">
       <c r="A629" s="20">
         <v>24623</v>
       </c>
@@ -18302,7 +18494,7 @@
       <c r="J629" s="25"/>
       <c r="K629" s="26"/>
     </row>
-    <row r="630" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" ht="105">
       <c r="A630" s="14">
         <v>24630</v>
       </c>
@@ -18325,7 +18517,7 @@
       <c r="J630" s="18"/>
       <c r="K630" s="19"/>
     </row>
-    <row r="631" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" ht="75">
       <c r="A631" s="14">
         <v>24630</v>
       </c>
@@ -18348,7 +18540,7 @@
       <c r="J631" s="18"/>
       <c r="K631" s="19"/>
     </row>
-    <row r="632" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" ht="30">
       <c r="A632" s="20">
         <v>24667</v>
       </c>
@@ -18371,7 +18563,7 @@
       <c r="J632" s="25"/>
       <c r="K632" s="26"/>
     </row>
-    <row r="633" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" ht="30">
       <c r="A633" s="20">
         <v>24667</v>
       </c>
@@ -18394,7 +18586,7 @@
       <c r="J633" s="25"/>
       <c r="K633" s="26"/>
     </row>
-    <row r="634" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" ht="90">
       <c r="A634" s="20">
         <v>24667</v>
       </c>
@@ -18417,7 +18609,7 @@
       <c r="J634" s="25"/>
       <c r="K634" s="26"/>
     </row>
-    <row r="635" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" ht="30">
       <c r="A635" s="20">
         <v>24667</v>
       </c>
@@ -18440,7 +18632,7 @@
       <c r="J635" s="25"/>
       <c r="K635" s="26"/>
     </row>
-    <row r="636" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" ht="30">
       <c r="A636" s="20">
         <v>24667</v>
       </c>
@@ -18463,7 +18655,7 @@
       <c r="J636" s="25"/>
       <c r="K636" s="26"/>
     </row>
-    <row r="637" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" ht="60">
       <c r="A637" s="20">
         <v>24667</v>
       </c>
@@ -18486,7 +18678,7 @@
       <c r="J637" s="25"/>
       <c r="K637" s="26"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11">
       <c r="A638" s="14">
         <v>24755</v>
       </c>
@@ -18509,7 +18701,7 @@
       <c r="J638" s="18"/>
       <c r="K638" s="19"/>
     </row>
-    <row r="639" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" ht="45">
       <c r="A639" s="14">
         <v>24755</v>
       </c>
@@ -18532,7 +18724,7 @@
       <c r="J639" s="18"/>
       <c r="K639" s="19"/>
     </row>
-    <row r="640" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" ht="90">
       <c r="A640" s="14">
         <v>24755</v>
       </c>
@@ -18555,7 +18747,7 @@
       <c r="J640" s="18"/>
       <c r="K640" s="19"/>
     </row>
-    <row r="641" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" ht="30">
       <c r="A641" s="20">
         <v>24763</v>
       </c>
@@ -18578,7 +18770,7 @@
       <c r="J641" s="25"/>
       <c r="K641" s="26"/>
     </row>
-    <row r="642" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" ht="30">
       <c r="A642" s="20">
         <v>24763</v>
       </c>
@@ -18601,7 +18793,7 @@
       <c r="J642" s="25"/>
       <c r="K642" s="26"/>
     </row>
-    <row r="643" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" ht="30">
       <c r="A643" s="20">
         <v>24763</v>
       </c>
@@ -18624,7 +18816,7 @@
       <c r="J643" s="25"/>
       <c r="K643" s="26"/>
     </row>
-    <row r="644" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" ht="60">
       <c r="A644" s="14">
         <v>24764</v>
       </c>
@@ -18647,7 +18839,7 @@
       <c r="J644" s="18"/>
       <c r="K644" s="19"/>
     </row>
-    <row r="645" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" ht="30">
       <c r="A645" s="14">
         <v>24764</v>
       </c>
@@ -18670,7 +18862,7 @@
       <c r="J645" s="18"/>
       <c r="K645" s="19"/>
     </row>
-    <row r="646" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" ht="45">
       <c r="A646" s="14">
         <v>24764</v>
       </c>
@@ -18693,7 +18885,7 @@
       <c r="J646" s="18"/>
       <c r="K646" s="19"/>
     </row>
-    <row r="647" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" ht="75">
       <c r="A647" s="20">
         <v>24778</v>
       </c>
@@ -18716,7 +18908,7 @@
       <c r="J647" s="25"/>
       <c r="K647" s="26"/>
     </row>
-    <row r="648" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" ht="60">
       <c r="A648" s="20">
         <v>24778</v>
       </c>
@@ -18739,7 +18931,7 @@
       <c r="J648" s="25"/>
       <c r="K648" s="26"/>
     </row>
-    <row r="649" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" ht="45">
       <c r="A649" s="20">
         <v>24778</v>
       </c>
@@ -18762,7 +18954,7 @@
       <c r="J649" s="25"/>
       <c r="K649" s="26"/>
     </row>
-    <row r="650" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" ht="30">
       <c r="A650" s="20">
         <v>24778</v>
       </c>
@@ -18785,7 +18977,7 @@
       <c r="J650" s="25"/>
       <c r="K650" s="26"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11">
       <c r="A651" s="20">
         <v>24778</v>
       </c>
@@ -18808,7 +19000,7 @@
       <c r="J651" s="25"/>
       <c r="K651" s="26"/>
     </row>
-    <row r="652" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" ht="60">
       <c r="A652" s="20">
         <v>24778</v>
       </c>
@@ -18831,7 +19023,7 @@
       <c r="J652" s="25"/>
       <c r="K652" s="26"/>
     </row>
-    <row r="653" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" ht="75">
       <c r="A653" s="14">
         <v>24779</v>
       </c>
@@ -18854,7 +19046,7 @@
       <c r="J653" s="18"/>
       <c r="K653" s="19"/>
     </row>
-    <row r="654" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" ht="30">
       <c r="A654" s="14">
         <v>24779</v>
       </c>
@@ -18877,7 +19069,7 @@
       <c r="J654" s="18"/>
       <c r="K654" s="19"/>
     </row>
-    <row r="655" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" ht="105">
       <c r="A655" s="14">
         <v>24779</v>
       </c>
@@ -18900,7 +19092,7 @@
       <c r="J655" s="18"/>
       <c r="K655" s="19"/>
     </row>
-    <row r="656" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" ht="105">
       <c r="A656" s="14">
         <v>24779</v>
       </c>
@@ -18923,7 +19115,7 @@
       <c r="J656" s="18"/>
       <c r="K656" s="19"/>
     </row>
-    <row r="657" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" ht="30">
       <c r="A657" s="14">
         <v>24779</v>
       </c>
@@ -18946,7 +19138,7 @@
       <c r="J657" s="18"/>
       <c r="K657" s="19"/>
     </row>
-    <row r="658" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" ht="45">
       <c r="A658" s="14">
         <v>24779</v>
       </c>
@@ -18969,7 +19161,7 @@
       <c r="J658" s="18"/>
       <c r="K658" s="19"/>
     </row>
-    <row r="659" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" ht="90">
       <c r="A659" s="14">
         <v>24779</v>
       </c>
@@ -18992,7 +19184,7 @@
       <c r="J659" s="18"/>
       <c r="K659" s="19"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11">
       <c r="A660" s="14">
         <v>24779</v>
       </c>
@@ -19015,7 +19207,7 @@
       <c r="J660" s="18"/>
       <c r="K660" s="19"/>
     </row>
-    <row r="661" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" ht="60">
       <c r="A661" s="14">
         <v>24779</v>
       </c>
@@ -19038,7 +19230,7 @@
       <c r="J661" s="18"/>
       <c r="K661" s="19"/>
     </row>
-    <row r="662" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" ht="75">
       <c r="A662" s="20">
         <v>24780</v>
       </c>
@@ -19061,7 +19253,7 @@
       <c r="J662" s="25"/>
       <c r="K662" s="26"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11">
       <c r="A663" s="20">
         <v>24780</v>
       </c>
@@ -19084,7 +19276,7 @@
       <c r="J663" s="25"/>
       <c r="K663" s="26"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11">
       <c r="A664" s="20">
         <v>24780</v>
       </c>
@@ -19107,7 +19299,7 @@
       <c r="J664" s="25"/>
       <c r="K664" s="26"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11">
       <c r="A665" s="20">
         <v>24780</v>
       </c>
@@ -19130,7 +19322,7 @@
       <c r="J665" s="25"/>
       <c r="K665" s="26"/>
     </row>
-    <row r="666" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" ht="60">
       <c r="A666" s="20">
         <v>24780</v>
       </c>
@@ -19153,7 +19345,7 @@
       <c r="J666" s="25"/>
       <c r="K666" s="26"/>
     </row>
-    <row r="667" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" ht="60">
       <c r="A667" s="20">
         <v>24780</v>
       </c>
@@ -19176,7 +19368,7 @@
       <c r="J667" s="25"/>
       <c r="K667" s="26"/>
     </row>
-    <row r="668" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" ht="45">
       <c r="A668" s="20">
         <v>24780</v>
       </c>
@@ -19199,7 +19391,7 @@
       <c r="J668" s="25"/>
       <c r="K668" s="26"/>
     </row>
-    <row r="669" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" ht="30">
       <c r="A669" s="14">
         <v>24781</v>
       </c>
@@ -19222,7 +19414,7 @@
       <c r="J669" s="18"/>
       <c r="K669" s="19"/>
     </row>
-    <row r="670" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" ht="75">
       <c r="A670" s="14">
         <v>24781</v>
       </c>
@@ -19245,7 +19437,7 @@
       <c r="J670" s="18"/>
       <c r="K670" s="19"/>
     </row>
-    <row r="671" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" ht="45">
       <c r="A671" s="14">
         <v>24781</v>
       </c>
@@ -19268,7 +19460,7 @@
       <c r="J671" s="18"/>
       <c r="K671" s="19"/>
     </row>
-    <row r="672" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" ht="30">
       <c r="A672" s="14">
         <v>24781</v>
       </c>
@@ -19291,7 +19483,7 @@
       <c r="J672" s="18"/>
       <c r="K672" s="19"/>
     </row>
-    <row r="673" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" ht="75">
       <c r="A673" s="14">
         <v>24781</v>
       </c>
@@ -19314,7 +19506,7 @@
       <c r="J673" s="18"/>
       <c r="K673" s="19"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11">
       <c r="A674" s="14">
         <v>24781</v>
       </c>
@@ -19337,7 +19529,7 @@
       <c r="J674" s="18"/>
       <c r="K674" s="19"/>
     </row>
-    <row r="675" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" ht="30">
       <c r="A675" s="14">
         <v>24781</v>
       </c>
@@ -19360,7 +19552,7 @@
       <c r="J675" s="18"/>
       <c r="K675" s="19"/>
     </row>
-    <row r="676" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" ht="30">
       <c r="A676" s="20">
         <v>24782</v>
       </c>
@@ -19383,7 +19575,7 @@
       <c r="J676" s="25"/>
       <c r="K676" s="26"/>
     </row>
-    <row r="677" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" ht="60">
       <c r="A677" s="20">
         <v>24782</v>
       </c>
@@ -19406,7 +19598,7 @@
       <c r="J677" s="25"/>
       <c r="K677" s="26"/>
     </row>
-    <row r="678" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" ht="45">
       <c r="A678" s="20">
         <v>24782</v>
       </c>
@@ -19429,7 +19621,7 @@
       <c r="J678" s="25"/>
       <c r="K678" s="26"/>
     </row>
-    <row r="679" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" ht="75">
       <c r="A679" s="20">
         <v>24782</v>
       </c>
@@ -19452,7 +19644,7 @@
       <c r="J679" s="25"/>
       <c r="K679" s="26"/>
     </row>
-    <row r="680" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" ht="45">
       <c r="A680" s="20">
         <v>24782</v>
       </c>
@@ -19475,7 +19667,7 @@
       <c r="J680" s="25"/>
       <c r="K680" s="26"/>
     </row>
-    <row r="681" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" ht="45">
       <c r="A681" s="20">
         <v>24782</v>
       </c>
@@ -19498,7 +19690,7 @@
       <c r="J681" s="25"/>
       <c r="K681" s="26"/>
     </row>
-    <row r="682" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" ht="30">
       <c r="A682" s="20">
         <v>24782</v>
       </c>
@@ -19521,7 +19713,7 @@
       <c r="J682" s="25"/>
       <c r="K682" s="26"/>
     </row>
-    <row r="683" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" ht="45">
       <c r="A683" s="20">
         <v>24782</v>
       </c>
@@ -19544,7 +19736,7 @@
       <c r="J683" s="25"/>
       <c r="K683" s="26"/>
     </row>
-    <row r="684" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" ht="30">
       <c r="A684" s="14">
         <v>24783</v>
       </c>
@@ -19567,7 +19759,7 @@
       <c r="J684" s="18"/>
       <c r="K684" s="19"/>
     </row>
-    <row r="685" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" ht="30">
       <c r="A685" s="14">
         <v>24783</v>
       </c>
@@ -19590,7 +19782,7 @@
       <c r="J685" s="18"/>
       <c r="K685" s="19"/>
     </row>
-    <row r="686" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" ht="90">
       <c r="A686" s="14">
         <v>24783</v>
       </c>
@@ -19613,7 +19805,7 @@
       <c r="J686" s="18"/>
       <c r="K686" s="19"/>
     </row>
-    <row r="687" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" ht="75">
       <c r="A687" s="14">
         <v>24783</v>
       </c>
@@ -19636,7 +19828,7 @@
       <c r="J687" s="18"/>
       <c r="K687" s="19"/>
     </row>
-    <row r="688" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" ht="60">
       <c r="A688" s="14">
         <v>24783</v>
       </c>
@@ -19659,7 +19851,7 @@
       <c r="J688" s="18"/>
       <c r="K688" s="19"/>
     </row>
-    <row r="689" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" ht="60">
       <c r="A689" s="14">
         <v>24783</v>
       </c>
@@ -19682,7 +19874,7 @@
       <c r="J689" s="18"/>
       <c r="K689" s="19"/>
     </row>
-    <row r="690" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" ht="30">
       <c r="A690" s="20">
         <v>24784</v>
       </c>
@@ -19705,7 +19897,7 @@
       <c r="J690" s="25"/>
       <c r="K690" s="26"/>
     </row>
-    <row r="691" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" ht="30">
       <c r="A691" s="20">
         <v>24784</v>
       </c>
@@ -19728,7 +19920,7 @@
       <c r="J691" s="25"/>
       <c r="K691" s="26"/>
     </row>
-    <row r="692" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" ht="30">
       <c r="A692" s="14">
         <v>24787</v>
       </c>
@@ -19751,7 +19943,7 @@
       <c r="J692" s="18"/>
       <c r="K692" s="19"/>
     </row>
-    <row r="693" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" ht="30">
       <c r="A693" s="14">
         <v>24787</v>
       </c>
@@ -19774,7 +19966,7 @@
       <c r="J693" s="18"/>
       <c r="K693" s="19"/>
     </row>
-    <row r="694" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" ht="45">
       <c r="A694" s="14">
         <v>24787</v>
       </c>
@@ -19797,7 +19989,7 @@
       <c r="J694" s="18"/>
       <c r="K694" s="19"/>
     </row>
-    <row r="695" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" ht="30">
       <c r="A695" s="20">
         <v>24788</v>
       </c>
@@ -19820,7 +20012,7 @@
       <c r="J695" s="25"/>
       <c r="K695" s="26"/>
     </row>
-    <row r="696" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" ht="30">
       <c r="A696" s="20">
         <v>24788</v>
       </c>
@@ -19843,7 +20035,7 @@
       <c r="J696" s="25"/>
       <c r="K696" s="26"/>
     </row>
-    <row r="697" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" ht="60">
       <c r="A697" s="20">
         <v>24788</v>
       </c>
@@ -19866,7 +20058,7 @@
       <c r="J697" s="25"/>
       <c r="K697" s="26"/>
     </row>
-    <row r="698" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" ht="75">
       <c r="A698" s="20">
         <v>24788</v>
       </c>
@@ -19889,7 +20081,7 @@
       <c r="J698" s="25"/>
       <c r="K698" s="26"/>
     </row>
-    <row r="699" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" ht="30">
       <c r="A699" s="20">
         <v>24788</v>
       </c>
@@ -19912,7 +20104,7 @@
       <c r="J699" s="25"/>
       <c r="K699" s="26"/>
     </row>
-    <row r="700" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" ht="30">
       <c r="A700" s="20">
         <v>24788</v>
       </c>
@@ -19935,7 +20127,7 @@
       <c r="J700" s="25"/>
       <c r="K700" s="26"/>
     </row>
-    <row r="701" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" ht="75">
       <c r="A701" s="20">
         <v>24788</v>
       </c>
@@ -19958,7 +20150,7 @@
       <c r="J701" s="25"/>
       <c r="K701" s="26"/>
     </row>
-    <row r="702" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" ht="30">
       <c r="A702" s="20">
         <v>24788</v>
       </c>
@@ -19981,7 +20173,7 @@
       <c r="J702" s="25"/>
       <c r="K702" s="26"/>
     </row>
-    <row r="703" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" ht="30">
       <c r="A703" s="14">
         <v>24789</v>
       </c>
@@ -20004,7 +20196,7 @@
       <c r="J703" s="18"/>
       <c r="K703" s="19"/>
     </row>
-    <row r="704" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" ht="45">
       <c r="A704" s="14">
         <v>24789</v>
       </c>
@@ -20027,7 +20219,7 @@
       <c r="J704" s="18"/>
       <c r="K704" s="19"/>
     </row>
-    <row r="705" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" ht="45">
       <c r="A705" s="14">
         <v>24789</v>
       </c>
@@ -20050,7 +20242,7 @@
       <c r="J705" s="18"/>
       <c r="K705" s="19"/>
     </row>
-    <row r="706" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" ht="30">
       <c r="A706" s="14">
         <v>24789</v>
       </c>
@@ -20073,7 +20265,7 @@
       <c r="J706" s="18"/>
       <c r="K706" s="19"/>
     </row>
-    <row r="707" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" ht="30">
       <c r="A707" s="14">
         <v>24789</v>
       </c>
@@ -20096,7 +20288,7 @@
       <c r="J707" s="18"/>
       <c r="K707" s="19"/>
     </row>
-    <row r="708" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" ht="45">
       <c r="A708" s="14">
         <v>24789</v>
       </c>
@@ -20119,7 +20311,7 @@
       <c r="J708" s="18"/>
       <c r="K708" s="19"/>
     </row>
-    <row r="709" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" ht="30">
       <c r="A709" s="20">
         <v>24793</v>
       </c>
@@ -20142,7 +20334,7 @@
       <c r="J709" s="25"/>
       <c r="K709" s="26"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11">
       <c r="A710" s="20">
         <v>24793</v>
       </c>
@@ -20165,7 +20357,7 @@
       <c r="J710" s="25"/>
       <c r="K710" s="26"/>
     </row>
-    <row r="711" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" ht="45">
       <c r="A711" s="20">
         <v>24793</v>
       </c>
@@ -20188,7 +20380,7 @@
       <c r="J711" s="25"/>
       <c r="K711" s="26"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11">
       <c r="A712" s="20">
         <v>24793</v>
       </c>
@@ -20211,7 +20403,7 @@
       <c r="J712" s="25"/>
       <c r="K712" s="26"/>
     </row>
-    <row r="713" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" ht="30">
       <c r="A713" s="14">
         <v>24794</v>
       </c>
@@ -20234,7 +20426,7 @@
       <c r="J713" s="18"/>
       <c r="K713" s="19"/>
     </row>
-    <row r="714" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" ht="30">
       <c r="A714" s="14">
         <v>24794</v>
       </c>
@@ -20257,7 +20449,7 @@
       <c r="J714" s="18"/>
       <c r="K714" s="19"/>
     </row>
-    <row r="715" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" ht="30">
       <c r="A715" s="14">
         <v>24794</v>
       </c>
@@ -20280,7 +20472,7 @@
       <c r="J715" s="18"/>
       <c r="K715" s="19"/>
     </row>
-    <row r="716" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" ht="75">
       <c r="A716" s="14">
         <v>24794</v>
       </c>
@@ -20303,7 +20495,7 @@
       <c r="J716" s="18"/>
       <c r="K716" s="19"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11">
       <c r="A717" s="14">
         <v>24794</v>
       </c>
@@ -20326,7 +20518,7 @@
       <c r="J717" s="18"/>
       <c r="K717" s="19"/>
     </row>
-    <row r="718" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" ht="30">
       <c r="A718" s="14">
         <v>24794</v>
       </c>
@@ -20349,7 +20541,7 @@
       <c r="J718" s="18"/>
       <c r="K718" s="19"/>
     </row>
-    <row r="719" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" ht="30">
       <c r="A719" s="20">
         <v>24795</v>
       </c>
@@ -20372,7 +20564,7 @@
       <c r="J719" s="25"/>
       <c r="K719" s="26"/>
     </row>
-    <row r="720" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" ht="30">
       <c r="A720" s="20">
         <v>24795</v>
       </c>
@@ -20395,7 +20587,7 @@
       <c r="J720" s="25"/>
       <c r="K720" s="26"/>
     </row>
-    <row r="721" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" ht="60">
       <c r="A721" s="20">
         <v>24795</v>
       </c>
@@ -20418,7 +20610,7 @@
       <c r="J721" s="25"/>
       <c r="K721" s="26"/>
     </row>
-    <row r="722" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" ht="60">
       <c r="A722" s="20">
         <v>24795</v>
       </c>
@@ -20441,7 +20633,7 @@
       <c r="J722" s="25"/>
       <c r="K722" s="26"/>
     </row>
-    <row r="723" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" ht="75">
       <c r="A723" s="20">
         <v>24795</v>
       </c>
@@ -20464,7 +20656,7 @@
       <c r="J723" s="25"/>
       <c r="K723" s="26"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11">
       <c r="A724" s="20">
         <v>24795</v>
       </c>
@@ -20487,7 +20679,7 @@
       <c r="J724" s="25"/>
       <c r="K724" s="26"/>
     </row>
-    <row r="725" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" ht="30">
       <c r="A725" s="20">
         <v>24795</v>
       </c>
@@ -20510,7 +20702,7 @@
       <c r="J725" s="25"/>
       <c r="K725" s="26"/>
     </row>
-    <row r="726" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" ht="30">
       <c r="A726" s="14">
         <v>24856</v>
       </c>
@@ -20533,7 +20725,7 @@
       <c r="J726" s="18"/>
       <c r="K726" s="19"/>
     </row>
-    <row r="727" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" ht="60">
       <c r="A727" s="14">
         <v>24856</v>
       </c>
@@ -20556,7 +20748,7 @@
       <c r="J727" s="18"/>
       <c r="K727" s="19"/>
     </row>
-    <row r="728" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" ht="45">
       <c r="A728" s="14">
         <v>24856</v>
       </c>
@@ -20579,7 +20771,7 @@
       <c r="J728" s="18"/>
       <c r="K728" s="19"/>
     </row>
-    <row r="729" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" ht="30">
       <c r="A729" s="20">
         <v>24987</v>
       </c>
@@ -20602,7 +20794,7 @@
       <c r="J729" s="25"/>
       <c r="K729" s="26"/>
     </row>
-    <row r="730" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" ht="30">
       <c r="A730" s="20">
         <v>24987</v>
       </c>
@@ -20625,7 +20817,7 @@
       <c r="J730" s="25"/>
       <c r="K730" s="26"/>
     </row>
-    <row r="731" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" ht="120">
       <c r="A731" s="20">
         <v>24987</v>
       </c>
@@ -20648,7 +20840,7 @@
       <c r="J731" s="25"/>
       <c r="K731" s="26"/>
     </row>
-    <row r="732" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" ht="30">
       <c r="A732" s="20">
         <v>24987</v>
       </c>
@@ -20671,7 +20863,7 @@
       <c r="J732" s="25"/>
       <c r="K732" s="26"/>
     </row>
-    <row r="733" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" ht="30">
       <c r="A733" s="20">
         <v>24987</v>
       </c>
@@ -20694,7 +20886,7 @@
       <c r="J733" s="25"/>
       <c r="K733" s="26"/>
     </row>
-    <row r="734" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" ht="75">
       <c r="A734" s="20">
         <v>24987</v>
       </c>
@@ -20717,7 +20909,7 @@
       <c r="J734" s="25"/>
       <c r="K734" s="26"/>
     </row>
-    <row r="735" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" ht="45">
       <c r="A735" s="20">
         <v>24987</v>
       </c>
@@ -20740,7 +20932,7 @@
       <c r="J735" s="25"/>
       <c r="K735" s="26"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11">
       <c r="A736" s="20">
         <v>24987</v>
       </c>
@@ -20763,7 +20955,7 @@
       <c r="J736" s="25"/>
       <c r="K736" s="26"/>
     </row>
-    <row r="737" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" ht="60">
       <c r="A737" s="20">
         <v>24987</v>
       </c>
@@ -20786,7 +20978,7 @@
       <c r="J737" s="25"/>
       <c r="K737" s="26"/>
     </row>
-    <row r="738" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" ht="30">
       <c r="A738" s="20">
         <v>24987</v>
       </c>
@@ -20809,7 +21001,7 @@
       <c r="J738" s="25"/>
       <c r="K738" s="26"/>
     </row>
-    <row r="739" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11" ht="30">
       <c r="A739" s="14">
         <v>25253</v>
       </c>
@@ -20832,7 +21024,7 @@
       <c r="J739" s="18"/>
       <c r="K739" s="19"/>
     </row>
-    <row r="740" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:11" ht="75">
       <c r="A740" s="14">
         <v>25253</v>
       </c>
@@ -20855,7 +21047,7 @@
       <c r="J740" s="18"/>
       <c r="K740" s="19"/>
     </row>
-    <row r="741" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:11" ht="30">
       <c r="A741" s="14">
         <v>25253</v>
       </c>
@@ -20878,7 +21070,7 @@
       <c r="J741" s="18"/>
       <c r="K741" s="19"/>
     </row>
-    <row r="742" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:11" ht="30">
       <c r="A742" s="14">
         <v>25253</v>
       </c>
@@ -20901,7 +21093,7 @@
       <c r="J742" s="18"/>
       <c r="K742" s="19"/>
     </row>
-    <row r="743" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:11" ht="30">
       <c r="A743" s="14">
         <v>25253</v>
       </c>
@@ -20924,7 +21116,7 @@
       <c r="J743" s="18"/>
       <c r="K743" s="19"/>
     </row>
-    <row r="744" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:11" ht="60">
       <c r="A744" s="14">
         <v>25253</v>
       </c>
@@ -20947,7 +21139,7 @@
       <c r="J744" s="18"/>
       <c r="K744" s="19"/>
     </row>
-    <row r="745" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:11" ht="45">
       <c r="A745" s="14">
         <v>25253</v>
       </c>
@@ -20970,7 +21162,7 @@
       <c r="J745" s="18"/>
       <c r="K745" s="19"/>
     </row>
-    <row r="746" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:11" ht="30">
       <c r="A746" s="14">
         <v>25253</v>
       </c>
@@ -20993,7 +21185,7 @@
       <c r="J746" s="18"/>
       <c r="K746" s="19"/>
     </row>
-    <row r="747" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:11" ht="30">
       <c r="A747" s="14">
         <v>25253</v>
       </c>
@@ -21016,7 +21208,7 @@
       <c r="J747" s="18"/>
       <c r="K747" s="19"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:11">
       <c r="A748" s="20">
         <v>25451</v>
       </c>
@@ -21039,7 +21231,7 @@
       <c r="J748" s="25"/>
       <c r="K748" s="26"/>
     </row>
-    <row r="749" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:11" ht="45">
       <c r="A749" s="20">
         <v>25451</v>
       </c>
@@ -21062,7 +21254,7 @@
       <c r="J749" s="25"/>
       <c r="K749" s="26"/>
     </row>
-    <row r="750" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:11" ht="30">
       <c r="A750" s="20">
         <v>25451</v>
       </c>
@@ -21085,7 +21277,7 @@
       <c r="J750" s="25"/>
       <c r="K750" s="26"/>
     </row>
-    <row r="751" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:11" ht="105">
       <c r="A751" s="20">
         <v>25451</v>
       </c>
@@ -21108,7 +21300,7 @@
       <c r="J751" s="25"/>
       <c r="K751" s="26"/>
     </row>
-    <row r="752" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:11" ht="90">
       <c r="A752" s="20">
         <v>25451</v>
       </c>
@@ -21131,7 +21323,7 @@
       <c r="J752" s="25"/>
       <c r="K752" s="26"/>
     </row>
-    <row r="753" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:11" ht="45">
       <c r="A753" s="20">
         <v>25451</v>
       </c>
@@ -21154,7 +21346,7 @@
       <c r="J753" s="25"/>
       <c r="K753" s="26"/>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:11">
       <c r="A754" s="14">
         <v>25487</v>
       </c>
@@ -21177,7 +21369,7 @@
       <c r="J754" s="18"/>
       <c r="K754" s="19"/>
     </row>
-    <row r="755" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:11" ht="60">
       <c r="A755" s="14">
         <v>25487</v>
       </c>
@@ -21200,7 +21392,7 @@
       <c r="J755" s="18"/>
       <c r="K755" s="19"/>
     </row>
-    <row r="756" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:11" ht="45">
       <c r="A756" s="14">
         <v>25487</v>
       </c>
@@ -21223,7 +21415,7 @@
       <c r="J756" s="18"/>
       <c r="K756" s="19"/>
     </row>
-    <row r="757" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:11" ht="45">
       <c r="A757" s="14">
         <v>25487</v>
       </c>
@@ -21246,7 +21438,7 @@
       <c r="J757" s="18"/>
       <c r="K757" s="19"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:11">
       <c r="A758" s="14">
         <v>25487</v>
       </c>
@@ -21269,7 +21461,7 @@
       <c r="J758" s="18"/>
       <c r="K758" s="19"/>
     </row>
-    <row r="759" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:11" ht="45">
       <c r="A759" s="14">
         <v>25487</v>
       </c>
@@ -21292,7 +21484,7 @@
       <c r="J759" s="18"/>
       <c r="K759" s="19"/>
     </row>
-    <row r="760" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:11" ht="30">
       <c r="A760" s="20">
         <v>25661</v>
       </c>
@@ -21315,7 +21507,7 @@
       <c r="J760" s="25"/>
       <c r="K760" s="26"/>
     </row>
-    <row r="761" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:11" ht="30">
       <c r="A761" s="20">
         <v>25661</v>
       </c>
@@ -21338,7 +21530,7 @@
       <c r="J761" s="25"/>
       <c r="K761" s="26"/>
     </row>
-    <row r="762" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:11" ht="30">
       <c r="A762" s="20">
         <v>25661</v>
       </c>
@@ -21361,7 +21553,7 @@
       <c r="J762" s="25"/>
       <c r="K762" s="26"/>
     </row>
-    <row r="763" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:11" ht="30">
       <c r="A763" s="20">
         <v>25661</v>
       </c>
@@ -21384,7 +21576,7 @@
       <c r="J763" s="25"/>
       <c r="K763" s="26"/>
     </row>
-    <row r="764" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:11" ht="30">
       <c r="A764" s="20">
         <v>25661</v>
       </c>
@@ -21407,7 +21599,7 @@
       <c r="J764" s="25"/>
       <c r="K764" s="26"/>
     </row>
-    <row r="765" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:11" ht="90">
       <c r="A765" s="20">
         <v>25661</v>
       </c>
@@ -21430,7 +21622,7 @@
       <c r="J765" s="25"/>
       <c r="K765" s="26"/>
     </row>
-    <row r="766" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:11" ht="45">
       <c r="A766" s="20">
         <v>25661</v>
       </c>
@@ -21453,7 +21645,7 @@
       <c r="J766" s="25"/>
       <c r="K766" s="26"/>
     </row>
-    <row r="767" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:11" ht="75">
       <c r="A767" s="14">
         <v>25751</v>
       </c>
@@ -21480,7 +21672,7 @@
       <c r="J767" s="18"/>
       <c r="K767" s="19"/>
     </row>
-    <row r="768" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:11" ht="60">
       <c r="A768" s="14">
         <v>25751</v>
       </c>
@@ -21505,7 +21697,7 @@
       <c r="J768" s="18"/>
       <c r="K768" s="19"/>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:11">
       <c r="A769" s="14">
         <v>25751</v>
       </c>
@@ -21532,7 +21724,7 @@
       <c r="J769" s="18"/>
       <c r="K769" s="19"/>
     </row>
-    <row r="770" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:11" ht="75">
       <c r="A770" s="20">
         <v>25752</v>
       </c>
@@ -21561,7 +21753,7 @@
       </c>
       <c r="K770" s="26"/>
     </row>
-    <row r="771" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:11" ht="60">
       <c r="A771" s="20">
         <v>25752</v>
       </c>
@@ -21592,7 +21784,7 @@
       </c>
       <c r="K771" s="26"/>
     </row>
-    <row r="772" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:11" ht="45">
       <c r="A772" s="20">
         <v>25752</v>
       </c>
@@ -21621,7 +21813,7 @@
       </c>
       <c r="K772" s="26"/>
     </row>
-    <row r="773" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:11" ht="60">
       <c r="A773" s="20">
         <v>25752</v>
       </c>
@@ -21650,7 +21842,7 @@
       </c>
       <c r="K773" s="26"/>
     </row>
-    <row r="774" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:11" ht="30">
       <c r="A774" s="20">
         <v>25752</v>
       </c>
@@ -21679,7 +21871,7 @@
       </c>
       <c r="K774" s="26"/>
     </row>
-    <row r="775" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:11" ht="30">
       <c r="A775" s="20">
         <v>25752</v>
       </c>
@@ -21710,7 +21902,7 @@
       </c>
       <c r="K775" s="26"/>
     </row>
-    <row r="776" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:11" ht="60">
       <c r="A776" s="14">
         <v>25801</v>
       </c>
@@ -21733,7 +21925,7 @@
       <c r="J776" s="18"/>
       <c r="K776" s="19"/>
     </row>
-    <row r="777" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:11" ht="75">
       <c r="A777" s="14">
         <v>25801</v>
       </c>
@@ -21756,7 +21948,7 @@
       <c r="J777" s="18"/>
       <c r="K777" s="19"/>
     </row>
-    <row r="778" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:11" ht="30">
       <c r="A778" s="14">
         <v>25801</v>
       </c>
@@ -21779,7 +21971,7 @@
       <c r="J778" s="18"/>
       <c r="K778" s="19"/>
     </row>
-    <row r="779" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:11" ht="45">
       <c r="A779" s="14">
         <v>25801</v>
       </c>
@@ -21802,7 +21994,7 @@
       <c r="J779" s="18"/>
       <c r="K779" s="19"/>
     </row>
-    <row r="780" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:11" ht="45">
       <c r="A780" s="20">
         <v>25802</v>
       </c>
@@ -21825,7 +22017,7 @@
       <c r="J780" s="25"/>
       <c r="K780" s="26"/>
     </row>
-    <row r="781" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:11" ht="75">
       <c r="A781" s="20">
         <v>25802</v>
       </c>
@@ -21848,7 +22040,7 @@
       <c r="J781" s="25"/>
       <c r="K781" s="26"/>
     </row>
-    <row r="782" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:11" ht="120">
       <c r="A782" s="20">
         <v>25802</v>
       </c>
@@ -21871,7 +22063,7 @@
       <c r="J782" s="25"/>
       <c r="K782" s="26"/>
     </row>
-    <row r="783" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:11" ht="60">
       <c r="A783" s="20">
         <v>25802</v>
       </c>
@@ -21894,7 +22086,7 @@
       <c r="J783" s="25"/>
       <c r="K783" s="26"/>
     </row>
-    <row r="784" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:11" ht="90">
       <c r="A784" s="20">
         <v>25802</v>
       </c>
@@ -21917,7 +22109,7 @@
       <c r="J784" s="25"/>
       <c r="K784" s="26"/>
     </row>
-    <row r="785" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:11" ht="30">
       <c r="A785" s="14">
         <v>25806</v>
       </c>
@@ -21940,7 +22132,7 @@
       <c r="J785" s="18"/>
       <c r="K785" s="19"/>
     </row>
-    <row r="786" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:11" ht="30">
       <c r="A786" s="14">
         <v>25806</v>
       </c>
@@ -21963,7 +22155,7 @@
       <c r="J786" s="18"/>
       <c r="K786" s="19"/>
     </row>
-    <row r="787" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:11" ht="105">
       <c r="A787" s="14">
         <v>25806</v>
       </c>
@@ -21986,7 +22178,7 @@
       <c r="J787" s="18"/>
       <c r="K787" s="19"/>
     </row>
-    <row r="788" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:11" ht="90">
       <c r="A788" s="14">
         <v>25806</v>
       </c>
@@ -22009,7 +22201,7 @@
       <c r="J788" s="18"/>
       <c r="K788" s="19"/>
     </row>
-    <row r="789" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:11" ht="30">
       <c r="A789" s="14">
         <v>25806</v>
       </c>
@@ -22032,7 +22224,7 @@
       <c r="J789" s="18"/>
       <c r="K789" s="19"/>
     </row>
-    <row r="790" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:11" ht="30">
       <c r="A790" s="14">
         <v>25806</v>
       </c>
@@ -22055,7 +22247,7 @@
       <c r="J790" s="18"/>
       <c r="K790" s="19"/>
     </row>
-    <row r="791" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:11" ht="30">
       <c r="A791" s="20">
         <v>25843</v>
       </c>
@@ -22078,7 +22270,7 @@
       <c r="J791" s="25"/>
       <c r="K791" s="26"/>
     </row>
-    <row r="792" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:11" ht="30">
       <c r="A792" s="20">
         <v>25843</v>
       </c>
@@ -22101,7 +22293,7 @@
       <c r="J792" s="25"/>
       <c r="K792" s="26"/>
     </row>
-    <row r="793" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:11" ht="60">
       <c r="A793" s="20">
         <v>25843</v>
       </c>
@@ -22124,7 +22316,7 @@
       <c r="J793" s="25"/>
       <c r="K793" s="26"/>
     </row>
-    <row r="794" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:11" ht="60">
       <c r="A794" s="20">
         <v>25843</v>
       </c>
@@ -22147,7 +22339,7 @@
       <c r="J794" s="25"/>
       <c r="K794" s="26"/>
     </row>
-    <row r="795" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:11" ht="45">
       <c r="A795" s="20">
         <v>25843</v>
       </c>
@@ -22170,7 +22362,7 @@
       <c r="J795" s="25"/>
       <c r="K795" s="26"/>
     </row>
-    <row r="796" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:11" ht="45">
       <c r="A796" s="14">
         <v>26069</v>
       </c>
@@ -22193,7 +22385,7 @@
       <c r="J796" s="18"/>
       <c r="K796" s="19"/>
     </row>
-    <row r="797" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:11" ht="45">
       <c r="A797" s="14">
         <v>26069</v>
       </c>
@@ -22216,7 +22408,7 @@
       <c r="J797" s="18"/>
       <c r="K797" s="19"/>
     </row>
-    <row r="798" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:11" ht="60">
       <c r="A798" s="14">
         <v>26069</v>
       </c>
@@ -22239,7 +22431,7 @@
       <c r="J798" s="18"/>
       <c r="K798" s="19"/>
     </row>
-    <row r="799" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:11" ht="45">
       <c r="A799" s="14">
         <v>26069</v>
       </c>
@@ -22262,7 +22454,7 @@
       <c r="J799" s="18"/>
       <c r="K799" s="19"/>
     </row>
-    <row r="800" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:11" ht="30">
       <c r="A800" s="20">
         <v>26071</v>
       </c>
@@ -22285,7 +22477,7 @@
       <c r="J800" s="25"/>
       <c r="K800" s="26"/>
     </row>
-    <row r="801" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:11" ht="30">
       <c r="A801" s="20">
         <v>26071</v>
       </c>
@@ -22308,7 +22500,7 @@
       <c r="J801" s="25"/>
       <c r="K801" s="26"/>
     </row>
-    <row r="802" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:11" ht="30">
       <c r="A802" s="20">
         <v>26071</v>
       </c>
@@ -22331,7 +22523,7 @@
       <c r="J802" s="25"/>
       <c r="K802" s="26"/>
     </row>
-    <row r="803" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:11" ht="30">
       <c r="A803" s="20">
         <v>26071</v>
       </c>
@@ -22354,7 +22546,7 @@
       <c r="J803" s="25"/>
       <c r="K803" s="26"/>
     </row>
-    <row r="804" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:11" ht="30">
       <c r="A804" s="20">
         <v>26071</v>
       </c>
@@ -22377,7 +22569,7 @@
       <c r="J804" s="25"/>
       <c r="K804" s="26"/>
     </row>
-    <row r="805" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:11" ht="60">
       <c r="A805" s="14">
         <v>26076</v>
       </c>
@@ -22402,7 +22594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:11">
       <c r="A806" s="14">
         <v>26076</v>
       </c>
@@ -22427,7 +22619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:11">
       <c r="A807" s="14">
         <v>26076</v>
       </c>
@@ -22452,7 +22644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:11">
       <c r="A808" s="14">
         <v>26076</v>
       </c>
@@ -22477,7 +22669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="809" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:11" ht="45">
       <c r="A809" s="14">
         <v>26076</v>
       </c>
@@ -22502,7 +22694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="810" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:11" ht="75">
       <c r="A810" s="20">
         <v>26095</v>
       </c>
@@ -22525,7 +22717,7 @@
       <c r="J810" s="25"/>
       <c r="K810" s="26"/>
     </row>
-    <row r="811" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:11" ht="45">
       <c r="A811" s="14">
         <v>26179</v>
       </c>
@@ -22548,7 +22740,7 @@
       <c r="J811" s="18"/>
       <c r="K811" s="19"/>
     </row>
-    <row r="812" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:11" ht="30">
       <c r="A812" s="14">
         <v>26179</v>
       </c>
@@ -22571,7 +22763,7 @@
       <c r="J812" s="18"/>
       <c r="K812" s="19"/>
     </row>
-    <row r="813" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:11" ht="30">
       <c r="A813" s="14">
         <v>26179</v>
       </c>
@@ -22594,7 +22786,7 @@
       <c r="J813" s="18"/>
       <c r="K813" s="19"/>
     </row>
-    <row r="814" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:11" ht="30">
       <c r="A814" s="14">
         <v>26179</v>
       </c>
@@ -22617,7 +22809,7 @@
       <c r="J814" s="18"/>
       <c r="K814" s="19"/>
     </row>
-    <row r="815" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:11" ht="30">
       <c r="A815" s="14">
         <v>26179</v>
       </c>
@@ -22640,7 +22832,7 @@
       <c r="J815" s="18"/>
       <c r="K815" s="19"/>
     </row>
-    <row r="816" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:11" ht="30">
       <c r="A816" s="14">
         <v>26179</v>
       </c>
@@ -22663,7 +22855,7 @@
       <c r="J816" s="18"/>
       <c r="K816" s="19"/>
     </row>
-    <row r="817" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:11" ht="45">
       <c r="A817" s="20">
         <v>26180</v>
       </c>
@@ -22686,7 +22878,7 @@
       <c r="J817" s="25"/>
       <c r="K817" s="26"/>
     </row>
-    <row r="818" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:11" ht="30">
       <c r="A818" s="20">
         <v>26180</v>
       </c>
@@ -22709,7 +22901,7 @@
       <c r="J818" s="25"/>
       <c r="K818" s="26"/>
     </row>
-    <row r="819" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:11">
       <c r="A819" s="20">
         <v>26180</v>
       </c>
@@ -22732,7 +22924,7 @@
       <c r="J819" s="25"/>
       <c r="K819" s="26"/>
     </row>
-    <row r="820" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:11">
       <c r="A820" s="20">
         <v>26180</v>
       </c>
@@ -22755,7 +22947,7 @@
       <c r="J820" s="25"/>
       <c r="K820" s="26"/>
     </row>
-    <row r="821" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:11" ht="30">
       <c r="A821" s="20">
         <v>26180</v>
       </c>
@@ -22778,7 +22970,7 @@
       <c r="J821" s="25"/>
       <c r="K821" s="26"/>
     </row>
-    <row r="822" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:11" ht="45">
       <c r="A822" s="20">
         <v>26180</v>
       </c>
@@ -22801,7 +22993,7 @@
       <c r="J822" s="25"/>
       <c r="K822" s="26"/>
     </row>
-    <row r="823" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:11" ht="60">
       <c r="A823" s="20">
         <v>26180</v>
       </c>
@@ -22824,7 +23016,7 @@
       <c r="J823" s="25"/>
       <c r="K823" s="26"/>
     </row>
-    <row r="824" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:11" ht="30">
       <c r="A824" s="20">
         <v>26180</v>
       </c>
@@ -22847,7 +23039,7 @@
       <c r="J824" s="25"/>
       <c r="K824" s="26"/>
     </row>
-    <row r="825" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:11" ht="30">
       <c r="A825" s="20">
         <v>26180</v>
       </c>
@@ -22870,7 +23062,7 @@
       <c r="J825" s="25"/>
       <c r="K825" s="26"/>
     </row>
-    <row r="826" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:11" ht="30">
       <c r="A826" s="20">
         <v>26180</v>
       </c>
@@ -22893,7 +23085,7 @@
       <c r="J826" s="25"/>
       <c r="K826" s="26"/>
     </row>
-    <row r="827" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:11" ht="30">
       <c r="A827" s="20">
         <v>26180</v>
       </c>
@@ -22916,7 +23108,7 @@
       <c r="J827" s="25"/>
       <c r="K827" s="26"/>
     </row>
-    <row r="828" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:11" ht="90">
       <c r="A828" s="14">
         <v>26230</v>
       </c>
@@ -22939,7 +23131,7 @@
       <c r="J828" s="18"/>
       <c r="K828" s="19"/>
     </row>
-    <row r="829" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:11" ht="75">
       <c r="A829" s="20">
         <v>26329</v>
       </c>
@@ -22962,7 +23154,7 @@
       <c r="J829" s="25"/>
       <c r="K829" s="26"/>
     </row>
-    <row r="830" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:11" ht="30">
       <c r="A830" s="27">
         <v>26330</v>
       </c>
@@ -22989,9 +23181,9 @@
   <conditionalFormatting sqref="H13">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -23007,24 +23199,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
+++ b/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
@@ -3669,8 +3669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K830"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="I136" sqref="I136"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="I149" sqref="I149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7147,7 +7147,9 @@
       <c r="F136" s="17"/>
       <c r="G136" s="18"/>
       <c r="H136" s="18"/>
-      <c r="I136" s="18"/>
+      <c r="I136" s="18">
+        <v>1</v>
+      </c>
       <c r="J136" s="18"/>
       <c r="K136" s="19"/>
     </row>
@@ -7170,7 +7172,9 @@
       <c r="F137" s="17"/>
       <c r="G137" s="18"/>
       <c r="H137" s="18"/>
-      <c r="I137" s="18"/>
+      <c r="I137" s="18">
+        <v>1</v>
+      </c>
       <c r="J137" s="18"/>
       <c r="K137" s="19"/>
     </row>
@@ -7193,7 +7197,9 @@
       <c r="F138" s="17"/>
       <c r="G138" s="18"/>
       <c r="H138" s="18"/>
-      <c r="I138" s="18"/>
+      <c r="I138" s="18">
+        <v>1</v>
+      </c>
       <c r="J138" s="18"/>
       <c r="K138" s="19"/>
     </row>
@@ -7308,7 +7314,9 @@
       <c r="F143" s="17"/>
       <c r="G143" s="18"/>
       <c r="H143" s="18"/>
-      <c r="I143" s="18"/>
+      <c r="I143" s="18">
+        <v>1</v>
+      </c>
       <c r="J143" s="18"/>
       <c r="K143" s="19"/>
     </row>
@@ -7425,7 +7433,9 @@
       <c r="H148" s="18"/>
       <c r="I148" s="18"/>
       <c r="J148" s="18"/>
-      <c r="K148" s="19"/>
+      <c r="K148" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="149" spans="1:11" ht="30">
       <c r="A149" s="14">

--- a/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
+++ b/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
@@ -3669,8 +3669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K830"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="I149" sqref="I149"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="I157" sqref="I157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7428,10 +7428,14 @@
       <c r="E148" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F148" s="17"/>
+      <c r="F148" s="17">
+        <v>1</v>
+      </c>
       <c r="G148" s="18"/>
       <c r="H148" s="18"/>
-      <c r="I148" s="18"/>
+      <c r="I148" s="18">
+        <v>1</v>
+      </c>
       <c r="J148" s="18"/>
       <c r="K148" s="19">
         <v>1</v>
@@ -7453,10 +7457,14 @@
       <c r="E149" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F149" s="17"/>
+      <c r="F149" s="17">
+        <v>1</v>
+      </c>
       <c r="G149" s="18"/>
       <c r="H149" s="18"/>
-      <c r="I149" s="18"/>
+      <c r="I149" s="18">
+        <v>1</v>
+      </c>
       <c r="J149" s="18"/>
       <c r="K149" s="19"/>
     </row>
@@ -7476,10 +7484,14 @@
       <c r="E150" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F150" s="17"/>
+      <c r="F150" s="17">
+        <v>1</v>
+      </c>
       <c r="G150" s="18"/>
       <c r="H150" s="18"/>
-      <c r="I150" s="18"/>
+      <c r="I150" s="18">
+        <v>1</v>
+      </c>
       <c r="J150" s="18"/>
       <c r="K150" s="19"/>
     </row>
@@ -7499,10 +7511,14 @@
       <c r="E151" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F151" s="17"/>
+      <c r="F151" s="17">
+        <v>1</v>
+      </c>
       <c r="G151" s="18"/>
       <c r="H151" s="18"/>
-      <c r="I151" s="18"/>
+      <c r="I151" s="18">
+        <v>1</v>
+      </c>
       <c r="J151" s="18"/>
       <c r="K151" s="19"/>
     </row>
@@ -7522,10 +7538,14 @@
       <c r="E152" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F152" s="17"/>
+      <c r="F152" s="17">
+        <v>1</v>
+      </c>
       <c r="G152" s="18"/>
       <c r="H152" s="18"/>
-      <c r="I152" s="18"/>
+      <c r="I152" s="18">
+        <v>1</v>
+      </c>
       <c r="J152" s="18"/>
       <c r="K152" s="19"/>
     </row>
@@ -7545,10 +7565,14 @@
       <c r="E153" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="F153" s="24"/>
+      <c r="F153" s="24">
+        <v>1</v>
+      </c>
       <c r="G153" s="25"/>
       <c r="H153" s="25"/>
-      <c r="I153" s="25"/>
+      <c r="I153" s="25">
+        <v>1</v>
+      </c>
       <c r="J153" s="25"/>
       <c r="K153" s="26"/>
     </row>
@@ -7568,10 +7592,14 @@
       <c r="E154" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F154" s="24"/>
+      <c r="F154" s="24">
+        <v>1</v>
+      </c>
       <c r="G154" s="25"/>
       <c r="H154" s="25"/>
-      <c r="I154" s="25"/>
+      <c r="I154" s="25">
+        <v>1</v>
+      </c>
       <c r="J154" s="25"/>
       <c r="K154" s="26"/>
     </row>
@@ -7591,10 +7619,14 @@
       <c r="E155" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F155" s="24"/>
+      <c r="F155" s="24">
+        <v>1</v>
+      </c>
       <c r="G155" s="25"/>
       <c r="H155" s="25"/>
-      <c r="I155" s="25"/>
+      <c r="I155" s="25">
+        <v>1</v>
+      </c>
       <c r="J155" s="25"/>
       <c r="K155" s="26"/>
     </row>
@@ -7614,10 +7646,14 @@
       <c r="E156" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F156" s="24"/>
+      <c r="F156" s="24">
+        <v>1</v>
+      </c>
       <c r="G156" s="25"/>
       <c r="H156" s="25"/>
-      <c r="I156" s="25"/>
+      <c r="I156" s="25">
+        <v>1</v>
+      </c>
       <c r="J156" s="25"/>
       <c r="K156" s="26"/>
     </row>

--- a/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
+++ b/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="135" windowWidth="22995" windowHeight="11055"/>
@@ -2799,8 +2799,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3048,7 +3048,7 @@
   <dxfs count="15">
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3070,7 +3070,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3094,7 +3094,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3118,7 +3118,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3142,7 +3142,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3166,7 +3166,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3189,7 +3189,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3212,7 +3212,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3235,7 +3235,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3457,6 +3457,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3491,6 +3492,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3666,14 +3668,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K830"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="I157" sqref="I157"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="I202" sqref="I202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="2" customWidth="1"/>
@@ -3685,7 +3687,7 @@
     <col min="11" max="11" width="10.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3720,7 +3722,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>5359</v>
       </c>
@@ -3749,7 +3751,7 @@
       <c r="J2" s="18"/>
       <c r="K2" s="19"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>5359</v>
       </c>
@@ -3774,7 +3776,7 @@
       <c r="J3" s="18"/>
       <c r="K3" s="19"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>5359</v>
       </c>
@@ -3803,7 +3805,7 @@
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>5359</v>
       </c>
@@ -3828,7 +3830,7 @@
       <c r="J5" s="18"/>
       <c r="K5" s="19"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5359</v>
       </c>
@@ -3853,7 +3855,7 @@
       <c r="J6" s="18"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>5359</v>
       </c>
@@ -3878,7 +3880,7 @@
       <c r="J7" s="18"/>
       <c r="K7" s="19"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>5359</v>
       </c>
@@ -3903,7 +3905,7 @@
       <c r="J8" s="18"/>
       <c r="K8" s="19"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>5359</v>
       </c>
@@ -3928,7 +3930,7 @@
       <c r="J9" s="18"/>
       <c r="K9" s="19"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>5359</v>
       </c>
@@ -3953,7 +3955,7 @@
       <c r="J10" s="18"/>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="1:11" ht="60">
+    <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>5359</v>
       </c>
@@ -3978,7 +3980,7 @@
       <c r="J11" s="18"/>
       <c r="K11" s="19"/>
     </row>
-    <row r="12" spans="1:11" ht="30">
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>5359</v>
       </c>
@@ -4001,7 +4003,7 @@
       <c r="J12" s="18"/>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>5359</v>
       </c>
@@ -4026,7 +4028,7 @@
       <c r="J13" s="18"/>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>5359</v>
       </c>
@@ -4051,7 +4053,7 @@
       <c r="J14" s="18"/>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>5359</v>
       </c>
@@ -4076,7 +4078,7 @@
       <c r="J15" s="18"/>
       <c r="K15" s="19"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>5359</v>
       </c>
@@ -4101,7 +4103,7 @@
       <c r="J16" s="18"/>
       <c r="K16" s="19"/>
     </row>
-    <row r="17" spans="1:11" ht="45">
+    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>5359</v>
       </c>
@@ -4126,7 +4128,7 @@
       <c r="J17" s="18"/>
       <c r="K17" s="19"/>
     </row>
-    <row r="18" spans="1:11" ht="30">
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>5359</v>
       </c>
@@ -4151,7 +4153,7 @@
       <c r="J18" s="18"/>
       <c r="K18" s="19"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>5359</v>
       </c>
@@ -4176,7 +4178,7 @@
       <c r="J19" s="18"/>
       <c r="K19" s="19"/>
     </row>
-    <row r="20" spans="1:11" ht="45">
+    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>5359</v>
       </c>
@@ -4199,7 +4201,7 @@
       <c r="J20" s="18"/>
       <c r="K20" s="19"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>5359</v>
       </c>
@@ -4222,7 +4224,7 @@
       <c r="J21" s="18"/>
       <c r="K21" s="19"/>
     </row>
-    <row r="22" spans="1:11" ht="30">
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>5359</v>
       </c>
@@ -4247,7 +4249,7 @@
       <c r="J22" s="18"/>
       <c r="K22" s="19"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>5359</v>
       </c>
@@ -4272,7 +4274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="45">
+    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>5359</v>
       </c>
@@ -4299,7 +4301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="60">
+    <row r="25" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>5359</v>
       </c>
@@ -4326,7 +4328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>5359</v>
       </c>
@@ -4353,7 +4355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="30">
+    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>5359</v>
       </c>
@@ -4380,7 +4382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>5359</v>
       </c>
@@ -4403,7 +4405,7 @@
       <c r="J28" s="18"/>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>5359</v>
       </c>
@@ -4432,7 +4434,7 @@
       <c r="J29" s="18"/>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>5359</v>
       </c>
@@ -4455,7 +4457,7 @@
       <c r="J30" s="18"/>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>5359</v>
       </c>
@@ -4478,7 +4480,7 @@
       <c r="J31" s="18"/>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="1:11" ht="45">
+    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>5359</v>
       </c>
@@ -4501,7 +4503,7 @@
       <c r="J32" s="18"/>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>5359</v>
       </c>
@@ -4524,7 +4526,7 @@
       <c r="J33" s="18"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>5359</v>
       </c>
@@ -4547,7 +4549,7 @@
       <c r="J34" s="18"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>5359</v>
       </c>
@@ -4574,7 +4576,7 @@
       <c r="J35" s="18"/>
       <c r="K35" s="19"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>5359</v>
       </c>
@@ -4597,7 +4599,7 @@
       <c r="J36" s="18"/>
       <c r="K36" s="19"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>5359</v>
       </c>
@@ -4620,7 +4622,7 @@
       <c r="J37" s="18"/>
       <c r="K37" s="19"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>5359</v>
       </c>
@@ -4643,7 +4645,7 @@
       <c r="J38" s="18"/>
       <c r="K38" s="19"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>5359</v>
       </c>
@@ -4666,7 +4668,7 @@
       <c r="J39" s="18"/>
       <c r="K39" s="19"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>5359</v>
       </c>
@@ -4689,7 +4691,7 @@
       <c r="J40" s="18"/>
       <c r="K40" s="19"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>5359</v>
       </c>
@@ -4712,7 +4714,7 @@
       <c r="J41" s="18"/>
       <c r="K41" s="19"/>
     </row>
-    <row r="42" spans="1:11" ht="30">
+    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>5359</v>
       </c>
@@ -4739,7 +4741,7 @@
       <c r="J42" s="18"/>
       <c r="K42" s="19"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>5359</v>
       </c>
@@ -4762,7 +4764,7 @@
       <c r="J43" s="18"/>
       <c r="K43" s="19"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>5359</v>
       </c>
@@ -4785,7 +4787,7 @@
       <c r="J44" s="18"/>
       <c r="K44" s="19"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>5359</v>
       </c>
@@ -4808,7 +4810,7 @@
       <c r="J45" s="18"/>
       <c r="K45" s="19"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>5359</v>
       </c>
@@ -4835,7 +4837,7 @@
       <c r="J46" s="18"/>
       <c r="K46" s="19"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>5359</v>
       </c>
@@ -4858,7 +4860,7 @@
       <c r="J47" s="18"/>
       <c r="K47" s="19"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>5359</v>
       </c>
@@ -4881,7 +4883,7 @@
       <c r="J48" s="18"/>
       <c r="K48" s="19"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>5359</v>
       </c>
@@ -4906,7 +4908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>5359</v>
       </c>
@@ -4929,7 +4931,7 @@
       <c r="J50" s="18"/>
       <c r="K50" s="19"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>5359</v>
       </c>
@@ -4952,7 +4954,7 @@
       <c r="J51" s="18"/>
       <c r="K51" s="19"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>5359</v>
       </c>
@@ -4975,7 +4977,7 @@
       <c r="J52" s="18"/>
       <c r="K52" s="19"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>5359</v>
       </c>
@@ -4998,7 +5000,7 @@
       <c r="J53" s="18"/>
       <c r="K53" s="19"/>
     </row>
-    <row r="54" spans="1:11" ht="30">
+    <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="20">
         <v>5435</v>
       </c>
@@ -5023,7 +5025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="20">
         <v>5435</v>
       </c>
@@ -5048,7 +5050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="45">
+    <row r="56" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="20">
         <v>5435</v>
       </c>
@@ -5073,7 +5075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="20">
         <v>5435</v>
       </c>
@@ -5098,7 +5100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="20">
         <v>5435</v>
       </c>
@@ -5123,7 +5125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="20">
         <v>5435</v>
       </c>
@@ -5148,7 +5150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="60">
+    <row r="60" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
         <v>18189</v>
       </c>
@@ -5175,7 +5177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="60">
+    <row r="61" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="20">
         <v>18637</v>
       </c>
@@ -5202,7 +5204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="60">
+    <row r="62" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
         <v>20431</v>
       </c>
@@ -5218,7 +5220,9 @@
       <c r="E62" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F62" s="17"/>
+      <c r="F62" s="17">
+        <v>1</v>
+      </c>
       <c r="G62" s="18"/>
       <c r="H62" s="18"/>
       <c r="I62" s="18">
@@ -5227,7 +5231,7 @@
       <c r="J62" s="18"/>
       <c r="K62" s="19"/>
     </row>
-    <row r="63" spans="1:11" ht="30">
+    <row r="63" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
         <v>20431</v>
       </c>
@@ -5243,7 +5247,9 @@
       <c r="E63" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F63" s="17"/>
+      <c r="F63" s="17">
+        <v>1</v>
+      </c>
       <c r="G63" s="18"/>
       <c r="H63" s="18"/>
       <c r="I63" s="18">
@@ -5252,7 +5258,7 @@
       <c r="J63" s="18"/>
       <c r="K63" s="19"/>
     </row>
-    <row r="64" spans="1:11" ht="105">
+    <row r="64" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
         <v>20431</v>
       </c>
@@ -5279,7 +5285,7 @@
       <c r="J64" s="18"/>
       <c r="K64" s="19"/>
     </row>
-    <row r="65" spans="1:11" ht="60">
+    <row r="65" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>20431</v>
       </c>
@@ -5306,7 +5312,7 @@
       <c r="J65" s="18"/>
       <c r="K65" s="19"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="14">
         <v>20431</v>
       </c>
@@ -5322,14 +5328,18 @@
       <c r="E66" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F66" s="17"/>
+      <c r="F66" s="17">
+        <v>1</v>
+      </c>
       <c r="G66" s="18"/>
       <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
+      <c r="I66" s="18">
+        <v>1</v>
+      </c>
       <c r="J66" s="18"/>
       <c r="K66" s="19"/>
     </row>
-    <row r="67" spans="1:11" ht="30">
+    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>20431</v>
       </c>
@@ -5345,14 +5355,18 @@
       <c r="E67" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F67" s="17"/>
+      <c r="F67" s="17">
+        <v>1</v>
+      </c>
       <c r="G67" s="18"/>
       <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
+      <c r="I67" s="18">
+        <v>1</v>
+      </c>
       <c r="J67" s="18"/>
       <c r="K67" s="19"/>
     </row>
-    <row r="68" spans="1:11" ht="30">
+    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="20">
         <v>20523</v>
       </c>
@@ -5375,7 +5389,7 @@
       <c r="J68" s="25"/>
       <c r="K68" s="26"/>
     </row>
-    <row r="69" spans="1:11" ht="30">
+    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="20">
         <v>20523</v>
       </c>
@@ -5398,7 +5412,7 @@
       <c r="J69" s="25"/>
       <c r="K69" s="26"/>
     </row>
-    <row r="70" spans="1:11" ht="30">
+    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="20">
         <v>20523</v>
       </c>
@@ -5421,7 +5435,7 @@
       <c r="J70" s="25"/>
       <c r="K70" s="26"/>
     </row>
-    <row r="71" spans="1:11" ht="30">
+    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
         <v>20523</v>
       </c>
@@ -5444,7 +5458,7 @@
       <c r="J71" s="25"/>
       <c r="K71" s="26"/>
     </row>
-    <row r="72" spans="1:11" ht="30">
+    <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="14">
         <v>20541</v>
       </c>
@@ -5475,7 +5489,7 @@
       </c>
       <c r="K72" s="19"/>
     </row>
-    <row r="73" spans="1:11" ht="105">
+    <row r="73" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A73" s="14">
         <v>20541</v>
       </c>
@@ -5506,7 +5520,7 @@
       </c>
       <c r="K73" s="19"/>
     </row>
-    <row r="74" spans="1:11" ht="45">
+    <row r="74" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
         <v>20541</v>
       </c>
@@ -5537,7 +5551,7 @@
       </c>
       <c r="K74" s="19"/>
     </row>
-    <row r="75" spans="1:11" ht="60">
+    <row r="75" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="14">
         <v>20541</v>
       </c>
@@ -5568,7 +5582,7 @@
       </c>
       <c r="K75" s="19"/>
     </row>
-    <row r="76" spans="1:11" ht="30">
+    <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="14">
         <v>20541</v>
       </c>
@@ -5599,7 +5613,7 @@
       </c>
       <c r="K76" s="19"/>
     </row>
-    <row r="77" spans="1:11" ht="90">
+    <row r="77" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
         <v>20541</v>
       </c>
@@ -5630,7 +5644,7 @@
       </c>
       <c r="K77" s="19"/>
     </row>
-    <row r="78" spans="1:11" ht="75">
+    <row r="78" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A78" s="14">
         <v>20541</v>
       </c>
@@ -5661,7 +5675,7 @@
       </c>
       <c r="K78" s="19"/>
     </row>
-    <row r="79" spans="1:11" ht="30">
+    <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="14">
         <v>20541</v>
       </c>
@@ -5692,7 +5706,7 @@
       </c>
       <c r="K79" s="19"/>
     </row>
-    <row r="80" spans="1:11" ht="105">
+    <row r="80" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A80" s="14">
         <v>20541</v>
       </c>
@@ -5723,7 +5737,7 @@
       </c>
       <c r="K80" s="19"/>
     </row>
-    <row r="81" spans="1:11" ht="60">
+    <row r="81" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="20">
         <v>20579</v>
       </c>
@@ -5750,7 +5764,7 @@
       <c r="J81" s="25"/>
       <c r="K81" s="26"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="14">
         <v>20588</v>
       </c>
@@ -5773,7 +5787,7 @@
       <c r="J82" s="18"/>
       <c r="K82" s="19"/>
     </row>
-    <row r="83" spans="1:11" ht="30">
+    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="14">
         <v>20588</v>
       </c>
@@ -5796,7 +5810,7 @@
       <c r="J83" s="18"/>
       <c r="K83" s="19"/>
     </row>
-    <row r="84" spans="1:11" ht="30">
+    <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="14">
         <v>20588</v>
       </c>
@@ -5819,7 +5833,7 @@
       <c r="J84" s="18"/>
       <c r="K84" s="19"/>
     </row>
-    <row r="85" spans="1:11" ht="60">
+    <row r="85" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="20">
         <v>20593</v>
       </c>
@@ -5844,7 +5858,7 @@
       <c r="J85" s="25"/>
       <c r="K85" s="26"/>
     </row>
-    <row r="86" spans="1:11" ht="105">
+    <row r="86" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A86" s="20">
         <v>20593</v>
       </c>
@@ -5869,7 +5883,7 @@
       <c r="J86" s="25"/>
       <c r="K86" s="26"/>
     </row>
-    <row r="87" spans="1:11" ht="60">
+    <row r="87" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" s="20">
         <v>20593</v>
       </c>
@@ -5894,7 +5908,7 @@
       <c r="J87" s="25"/>
       <c r="K87" s="26"/>
     </row>
-    <row r="88" spans="1:11" ht="75">
+    <row r="88" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A88" s="14">
         <v>20616</v>
       </c>
@@ -5919,7 +5933,7 @@
       <c r="J88" s="18"/>
       <c r="K88" s="19"/>
     </row>
-    <row r="89" spans="1:11" ht="60">
+    <row r="89" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="14">
         <v>20616</v>
       </c>
@@ -5944,7 +5958,7 @@
       <c r="J89" s="18"/>
       <c r="K89" s="19"/>
     </row>
-    <row r="90" spans="1:11" ht="45">
+    <row r="90" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="14">
         <v>20616</v>
       </c>
@@ -5969,7 +5983,7 @@
       <c r="J90" s="18"/>
       <c r="K90" s="19"/>
     </row>
-    <row r="91" spans="1:11" ht="45">
+    <row r="91" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="14">
         <v>20616</v>
       </c>
@@ -5994,7 +6008,7 @@
       <c r="J91" s="18"/>
       <c r="K91" s="19"/>
     </row>
-    <row r="92" spans="1:11" ht="75">
+    <row r="92" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A92" s="14">
         <v>20616</v>
       </c>
@@ -6019,7 +6033,7 @@
       <c r="J92" s="18"/>
       <c r="K92" s="19"/>
     </row>
-    <row r="93" spans="1:11" ht="45">
+    <row r="93" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="14">
         <v>20616</v>
       </c>
@@ -6044,7 +6058,7 @@
       <c r="J93" s="18"/>
       <c r="K93" s="19"/>
     </row>
-    <row r="94" spans="1:11" ht="75">
+    <row r="94" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A94" s="14">
         <v>20616</v>
       </c>
@@ -6069,7 +6083,7 @@
       <c r="J94" s="18"/>
       <c r="K94" s="19"/>
     </row>
-    <row r="95" spans="1:11" ht="30">
+    <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="14">
         <v>20616</v>
       </c>
@@ -6094,7 +6108,7 @@
       <c r="J95" s="18"/>
       <c r="K95" s="19"/>
     </row>
-    <row r="96" spans="1:11" ht="75">
+    <row r="96" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A96" s="14">
         <v>20616</v>
       </c>
@@ -6119,7 +6133,7 @@
       <c r="J96" s="18"/>
       <c r="K96" s="19"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="14">
         <v>20616</v>
       </c>
@@ -6144,7 +6158,7 @@
       <c r="J97" s="18"/>
       <c r="K97" s="19"/>
     </row>
-    <row r="98" spans="1:11" ht="30">
+    <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="14">
         <v>20616</v>
       </c>
@@ -6169,7 +6183,7 @@
       <c r="J98" s="18"/>
       <c r="K98" s="19"/>
     </row>
-    <row r="99" spans="1:11" ht="30">
+    <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="14">
         <v>20616</v>
       </c>
@@ -6194,7 +6208,7 @@
       <c r="J99" s="18"/>
       <c r="K99" s="19"/>
     </row>
-    <row r="100" spans="1:11" ht="75">
+    <row r="100" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A100" s="20">
         <v>20639</v>
       </c>
@@ -6221,7 +6235,7 @@
       <c r="J100" s="25"/>
       <c r="K100" s="26"/>
     </row>
-    <row r="101" spans="1:11" ht="45">
+    <row r="101" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="20">
         <v>20639</v>
       </c>
@@ -6248,7 +6262,7 @@
       <c r="J101" s="25"/>
       <c r="K101" s="26"/>
     </row>
-    <row r="102" spans="1:11" ht="90">
+    <row r="102" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A102" s="20">
         <v>20639</v>
       </c>
@@ -6275,7 +6289,7 @@
       <c r="J102" s="25"/>
       <c r="K102" s="26"/>
     </row>
-    <row r="103" spans="1:11" ht="45">
+    <row r="103" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="20">
         <v>20639</v>
       </c>
@@ -6302,7 +6316,7 @@
       <c r="J103" s="25"/>
       <c r="K103" s="26"/>
     </row>
-    <row r="104" spans="1:11" ht="75">
+    <row r="104" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A104" s="20">
         <v>20639</v>
       </c>
@@ -6329,7 +6343,7 @@
       <c r="J104" s="25"/>
       <c r="K104" s="26"/>
     </row>
-    <row r="105" spans="1:11" ht="30">
+    <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="20">
         <v>20639</v>
       </c>
@@ -6356,7 +6370,7 @@
       <c r="J105" s="25"/>
       <c r="K105" s="26"/>
     </row>
-    <row r="106" spans="1:11" ht="45">
+    <row r="106" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="20">
         <v>20639</v>
       </c>
@@ -6383,7 +6397,7 @@
       <c r="J106" s="25"/>
       <c r="K106" s="26"/>
     </row>
-    <row r="107" spans="1:11" ht="60">
+    <row r="107" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" s="14">
         <v>20640</v>
       </c>
@@ -6408,7 +6422,7 @@
       <c r="J107" s="18"/>
       <c r="K107" s="19"/>
     </row>
-    <row r="108" spans="1:11" ht="60">
+    <row r="108" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A108" s="14">
         <v>20640</v>
       </c>
@@ -6433,7 +6447,7 @@
       <c r="J108" s="18"/>
       <c r="K108" s="19"/>
     </row>
-    <row r="109" spans="1:11" ht="90">
+    <row r="109" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A109" s="14">
         <v>20640</v>
       </c>
@@ -6458,7 +6472,7 @@
       <c r="J109" s="18"/>
       <c r="K109" s="19"/>
     </row>
-    <row r="110" spans="1:11" ht="30">
+    <row r="110" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="20">
         <v>20647</v>
       </c>
@@ -6481,7 +6495,7 @@
       <c r="J110" s="25"/>
       <c r="K110" s="26"/>
     </row>
-    <row r="111" spans="1:11" ht="30">
+    <row r="111" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="20">
         <v>20647</v>
       </c>
@@ -6504,7 +6518,7 @@
       <c r="J111" s="25"/>
       <c r="K111" s="26"/>
     </row>
-    <row r="112" spans="1:11" ht="45">
+    <row r="112" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="14">
         <v>20651</v>
       </c>
@@ -6529,7 +6543,7 @@
       <c r="J112" s="18"/>
       <c r="K112" s="19"/>
     </row>
-    <row r="113" spans="1:11" ht="60">
+    <row r="113" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A113" s="14">
         <v>20651</v>
       </c>
@@ -6554,7 +6568,7 @@
       <c r="J113" s="18"/>
       <c r="K113" s="19"/>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="14">
         <v>20651</v>
       </c>
@@ -6579,7 +6593,7 @@
       <c r="J114" s="18"/>
       <c r="K114" s="19"/>
     </row>
-    <row r="115" spans="1:11" ht="30">
+    <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="14">
         <v>20651</v>
       </c>
@@ -6604,7 +6618,7 @@
       <c r="J115" s="18"/>
       <c r="K115" s="19"/>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="20">
         <v>20662</v>
       </c>
@@ -6627,7 +6641,7 @@
       <c r="J116" s="25"/>
       <c r="K116" s="26"/>
     </row>
-    <row r="117" spans="1:11" ht="30">
+    <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="20">
         <v>20662</v>
       </c>
@@ -6650,7 +6664,7 @@
       <c r="J117" s="25"/>
       <c r="K117" s="26"/>
     </row>
-    <row r="118" spans="1:11" ht="30">
+    <row r="118" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="14">
         <v>20669</v>
       </c>
@@ -6673,7 +6687,7 @@
       <c r="J118" s="18"/>
       <c r="K118" s="19"/>
     </row>
-    <row r="119" spans="1:11" ht="30">
+    <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="14">
         <v>20669</v>
       </c>
@@ -6696,7 +6710,7 @@
       <c r="J119" s="18"/>
       <c r="K119" s="19"/>
     </row>
-    <row r="120" spans="1:11" ht="30">
+    <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="20">
         <v>20682</v>
       </c>
@@ -6723,7 +6737,7 @@
       <c r="J120" s="25"/>
       <c r="K120" s="26"/>
     </row>
-    <row r="121" spans="1:11" ht="30">
+    <row r="121" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="20">
         <v>20682</v>
       </c>
@@ -6750,7 +6764,7 @@
       <c r="J121" s="25"/>
       <c r="K121" s="26"/>
     </row>
-    <row r="122" spans="1:11" ht="30">
+    <row r="122" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="20">
         <v>20682</v>
       </c>
@@ -6777,7 +6791,7 @@
       <c r="J122" s="25"/>
       <c r="K122" s="26"/>
     </row>
-    <row r="123" spans="1:11" ht="60">
+    <row r="123" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A123" s="20">
         <v>20682</v>
       </c>
@@ -6804,7 +6818,7 @@
       <c r="J123" s="25"/>
       <c r="K123" s="26"/>
     </row>
-    <row r="124" spans="1:11" ht="30">
+    <row r="124" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="20">
         <v>20682</v>
       </c>
@@ -6831,7 +6845,7 @@
       <c r="J124" s="25"/>
       <c r="K124" s="26"/>
     </row>
-    <row r="125" spans="1:11" ht="90">
+    <row r="125" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A125" s="20">
         <v>20682</v>
       </c>
@@ -6858,7 +6872,7 @@
       <c r="J125" s="25"/>
       <c r="K125" s="26"/>
     </row>
-    <row r="126" spans="1:11" ht="30">
+    <row r="126" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="20">
         <v>20682</v>
       </c>
@@ -6885,7 +6899,7 @@
       <c r="J126" s="25"/>
       <c r="K126" s="26"/>
     </row>
-    <row r="127" spans="1:11" ht="45">
+    <row r="127" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="20">
         <v>20682</v>
       </c>
@@ -6912,7 +6926,7 @@
       <c r="J127" s="25"/>
       <c r="K127" s="26"/>
     </row>
-    <row r="128" spans="1:11" ht="60">
+    <row r="128" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="20">
         <v>20682</v>
       </c>
@@ -6939,7 +6953,7 @@
       <c r="J128" s="25"/>
       <c r="K128" s="26"/>
     </row>
-    <row r="129" spans="1:11" ht="30">
+    <row r="129" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="20">
         <v>20682</v>
       </c>
@@ -6966,7 +6980,7 @@
       <c r="J129" s="25"/>
       <c r="K129" s="26"/>
     </row>
-    <row r="130" spans="1:11" ht="30">
+    <row r="130" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="20">
         <v>20682</v>
       </c>
@@ -6993,7 +7007,7 @@
       <c r="J130" s="25"/>
       <c r="K130" s="26"/>
     </row>
-    <row r="131" spans="1:11" ht="30">
+    <row r="131" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="20">
         <v>20682</v>
       </c>
@@ -7020,7 +7034,7 @@
       <c r="J131" s="25"/>
       <c r="K131" s="26"/>
     </row>
-    <row r="132" spans="1:11" ht="45">
+    <row r="132" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="20">
         <v>20682</v>
       </c>
@@ -7047,7 +7061,7 @@
       <c r="J132" s="25"/>
       <c r="K132" s="26"/>
     </row>
-    <row r="133" spans="1:11" ht="45">
+    <row r="133" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" s="20">
         <v>20682</v>
       </c>
@@ -7074,7 +7088,7 @@
       <c r="J133" s="25"/>
       <c r="K133" s="26"/>
     </row>
-    <row r="134" spans="1:11" ht="90">
+    <row r="134" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A134" s="20">
         <v>20682</v>
       </c>
@@ -7101,7 +7115,7 @@
       <c r="J134" s="25"/>
       <c r="K134" s="26"/>
     </row>
-    <row r="135" spans="1:11" ht="90">
+    <row r="135" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A135" s="20">
         <v>20682</v>
       </c>
@@ -7128,7 +7142,7 @@
       <c r="J135" s="25"/>
       <c r="K135" s="26"/>
     </row>
-    <row r="136" spans="1:11" ht="60">
+    <row r="136" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A136" s="14">
         <v>20689</v>
       </c>
@@ -7153,7 +7167,7 @@
       <c r="J136" s="18"/>
       <c r="K136" s="19"/>
     </row>
-    <row r="137" spans="1:11" ht="75">
+    <row r="137" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A137" s="14">
         <v>20689</v>
       </c>
@@ -7178,7 +7192,7 @@
       <c r="J137" s="18"/>
       <c r="K137" s="19"/>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="14">
         <v>20689</v>
       </c>
@@ -7203,7 +7217,7 @@
       <c r="J138" s="18"/>
       <c r="K138" s="19"/>
     </row>
-    <row r="139" spans="1:11" ht="30">
+    <row r="139" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="20">
         <v>20762</v>
       </c>
@@ -7226,7 +7240,7 @@
       <c r="J139" s="25"/>
       <c r="K139" s="26"/>
     </row>
-    <row r="140" spans="1:11" ht="30">
+    <row r="140" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="20">
         <v>20762</v>
       </c>
@@ -7249,7 +7263,7 @@
       <c r="J140" s="25"/>
       <c r="K140" s="26"/>
     </row>
-    <row r="141" spans="1:11" ht="30">
+    <row r="141" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="20">
         <v>20762</v>
       </c>
@@ -7272,7 +7286,7 @@
       <c r="J141" s="25"/>
       <c r="K141" s="26"/>
     </row>
-    <row r="142" spans="1:11" ht="30">
+    <row r="142" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="14">
         <v>20769</v>
       </c>
@@ -7291,11 +7305,13 @@
       <c r="F142" s="17"/>
       <c r="G142" s="18"/>
       <c r="H142" s="18"/>
-      <c r="I142" s="18"/>
+      <c r="I142" s="18">
+        <v>1</v>
+      </c>
       <c r="J142" s="18"/>
       <c r="K142" s="19"/>
     </row>
-    <row r="143" spans="1:11" ht="90">
+    <row r="143" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A143" s="14">
         <v>20769</v>
       </c>
@@ -7320,7 +7336,7 @@
       <c r="J143" s="18"/>
       <c r="K143" s="19"/>
     </row>
-    <row r="144" spans="1:11" ht="30">
+    <row r="144" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="14">
         <v>20769</v>
       </c>
@@ -7339,11 +7355,13 @@
       <c r="F144" s="17"/>
       <c r="G144" s="18"/>
       <c r="H144" s="18"/>
-      <c r="I144" s="18"/>
+      <c r="I144" s="18">
+        <v>1</v>
+      </c>
       <c r="J144" s="18"/>
       <c r="K144" s="19"/>
     </row>
-    <row r="145" spans="1:11" ht="30">
+    <row r="145" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="14">
         <v>20769</v>
       </c>
@@ -7362,11 +7380,13 @@
       <c r="F145" s="17"/>
       <c r="G145" s="18"/>
       <c r="H145" s="18"/>
-      <c r="I145" s="18"/>
+      <c r="I145" s="18">
+        <v>1</v>
+      </c>
       <c r="J145" s="18"/>
       <c r="K145" s="19"/>
     </row>
-    <row r="146" spans="1:11" ht="30">
+    <row r="146" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="20">
         <v>20812</v>
       </c>
@@ -7389,7 +7409,7 @@
       <c r="J146" s="25"/>
       <c r="K146" s="26"/>
     </row>
-    <row r="147" spans="1:11" ht="30">
+    <row r="147" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="20">
         <v>20812</v>
       </c>
@@ -7412,7 +7432,7 @@
       <c r="J147" s="25"/>
       <c r="K147" s="26"/>
     </row>
-    <row r="148" spans="1:11" ht="30">
+    <row r="148" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="14">
         <v>20846</v>
       </c>
@@ -7441,7 +7461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="30">
+    <row r="149" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="14">
         <v>20846</v>
       </c>
@@ -7468,7 +7488,7 @@
       <c r="J149" s="18"/>
       <c r="K149" s="19"/>
     </row>
-    <row r="150" spans="1:11" ht="90">
+    <row r="150" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A150" s="14">
         <v>20846</v>
       </c>
@@ -7495,7 +7515,7 @@
       <c r="J150" s="18"/>
       <c r="K150" s="19"/>
     </row>
-    <row r="151" spans="1:11" ht="30">
+    <row r="151" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="14">
         <v>20846</v>
       </c>
@@ -7522,7 +7542,7 @@
       <c r="J151" s="18"/>
       <c r="K151" s="19"/>
     </row>
-    <row r="152" spans="1:11" ht="30">
+    <row r="152" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="14">
         <v>20846</v>
       </c>
@@ -7549,7 +7569,7 @@
       <c r="J152" s="18"/>
       <c r="K152" s="19"/>
     </row>
-    <row r="153" spans="1:11" ht="90">
+    <row r="153" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A153" s="20">
         <v>20847</v>
       </c>
@@ -7576,7 +7596,7 @@
       <c r="J153" s="25"/>
       <c r="K153" s="26"/>
     </row>
-    <row r="154" spans="1:11" ht="75">
+    <row r="154" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A154" s="20">
         <v>20847</v>
       </c>
@@ -7603,7 +7623,7 @@
       <c r="J154" s="25"/>
       <c r="K154" s="26"/>
     </row>
-    <row r="155" spans="1:11" ht="30">
+    <row r="155" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="20">
         <v>20847</v>
       </c>
@@ -7630,7 +7650,7 @@
       <c r="J155" s="25"/>
       <c r="K155" s="26"/>
     </row>
-    <row r="156" spans="1:11" ht="30">
+    <row r="156" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="20">
         <v>20847</v>
       </c>
@@ -7657,7 +7677,7 @@
       <c r="J156" s="25"/>
       <c r="K156" s="26"/>
     </row>
-    <row r="157" spans="1:11" ht="30">
+    <row r="157" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="14">
         <v>20850</v>
       </c>
@@ -7676,11 +7696,13 @@
       <c r="F157" s="17"/>
       <c r="G157" s="18"/>
       <c r="H157" s="18"/>
-      <c r="I157" s="18"/>
+      <c r="I157" s="18">
+        <v>1</v>
+      </c>
       <c r="J157" s="18"/>
       <c r="K157" s="19"/>
     </row>
-    <row r="158" spans="1:11" ht="30">
+    <row r="158" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="14">
         <v>20850</v>
       </c>
@@ -7699,11 +7721,13 @@
       <c r="F158" s="17"/>
       <c r="G158" s="18"/>
       <c r="H158" s="18"/>
-      <c r="I158" s="18"/>
+      <c r="I158" s="18">
+        <v>1</v>
+      </c>
       <c r="J158" s="18"/>
       <c r="K158" s="19"/>
     </row>
-    <row r="159" spans="1:11" ht="45">
+    <row r="159" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="14">
         <v>20850</v>
       </c>
@@ -7722,11 +7746,13 @@
       <c r="F159" s="17"/>
       <c r="G159" s="18"/>
       <c r="H159" s="18"/>
-      <c r="I159" s="18"/>
+      <c r="I159" s="18">
+        <v>1</v>
+      </c>
       <c r="J159" s="18"/>
       <c r="K159" s="19"/>
     </row>
-    <row r="160" spans="1:11" ht="60">
+    <row r="160" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" s="14">
         <v>20850</v>
       </c>
@@ -7745,11 +7771,13 @@
       <c r="F160" s="17"/>
       <c r="G160" s="18"/>
       <c r="H160" s="18"/>
-      <c r="I160" s="18"/>
+      <c r="I160" s="18">
+        <v>1</v>
+      </c>
       <c r="J160" s="18"/>
       <c r="K160" s="19"/>
     </row>
-    <row r="161" spans="1:11" ht="30">
+    <row r="161" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="20">
         <v>20852</v>
       </c>
@@ -7772,7 +7800,7 @@
       <c r="J161" s="25"/>
       <c r="K161" s="26"/>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="20">
         <v>20852</v>
       </c>
@@ -7795,7 +7823,7 @@
       <c r="J162" s="25"/>
       <c r="K162" s="26"/>
     </row>
-    <row r="163" spans="1:11" ht="30">
+    <row r="163" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="14">
         <v>20855</v>
       </c>
@@ -7818,7 +7846,7 @@
       <c r="J163" s="18"/>
       <c r="K163" s="19"/>
     </row>
-    <row r="164" spans="1:11" ht="30">
+    <row r="164" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="14">
         <v>20855</v>
       </c>
@@ -7841,7 +7869,7 @@
       <c r="J164" s="18"/>
       <c r="K164" s="19"/>
     </row>
-    <row r="165" spans="1:11" ht="30">
+    <row r="165" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="20">
         <v>20857</v>
       </c>
@@ -7864,7 +7892,7 @@
       <c r="J165" s="25"/>
       <c r="K165" s="26"/>
     </row>
-    <row r="166" spans="1:11" ht="30">
+    <row r="166" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="20">
         <v>20857</v>
       </c>
@@ -7887,7 +7915,7 @@
       <c r="J166" s="25"/>
       <c r="K166" s="26"/>
     </row>
-    <row r="167" spans="1:11" ht="75">
+    <row r="167" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A167" s="14">
         <v>20878</v>
       </c>
@@ -7903,14 +7931,16 @@
       <c r="E167" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F167" s="17"/>
+      <c r="F167" s="17">
+        <v>1</v>
+      </c>
       <c r="G167" s="18"/>
       <c r="H167" s="18"/>
       <c r="I167" s="18"/>
       <c r="J167" s="18"/>
       <c r="K167" s="19"/>
     </row>
-    <row r="168" spans="1:11" ht="60">
+    <row r="168" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A168" s="14">
         <v>20878</v>
       </c>
@@ -7926,14 +7956,16 @@
       <c r="E168" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F168" s="17"/>
+      <c r="F168" s="17">
+        <v>1</v>
+      </c>
       <c r="G168" s="18"/>
       <c r="H168" s="18"/>
       <c r="I168" s="18"/>
       <c r="J168" s="18"/>
       <c r="K168" s="19"/>
     </row>
-    <row r="169" spans="1:11" ht="30">
+    <row r="169" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="14">
         <v>20878</v>
       </c>
@@ -7949,14 +7981,16 @@
       <c r="E169" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F169" s="17"/>
+      <c r="F169" s="17">
+        <v>1</v>
+      </c>
       <c r="G169" s="18"/>
       <c r="H169" s="18"/>
       <c r="I169" s="18"/>
       <c r="J169" s="18"/>
       <c r="K169" s="19"/>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="20">
         <v>20973</v>
       </c>
@@ -7979,7 +8013,7 @@
       <c r="J170" s="25"/>
       <c r="K170" s="26"/>
     </row>
-    <row r="171" spans="1:11" ht="75">
+    <row r="171" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A171" s="14">
         <v>21022</v>
       </c>
@@ -7995,14 +8029,16 @@
       <c r="E171" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F171" s="17"/>
+      <c r="F171" s="17">
+        <v>1</v>
+      </c>
       <c r="G171" s="18"/>
       <c r="H171" s="18"/>
       <c r="I171" s="18"/>
       <c r="J171" s="18"/>
       <c r="K171" s="19"/>
     </row>
-    <row r="172" spans="1:11" ht="30">
+    <row r="172" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="14">
         <v>21022</v>
       </c>
@@ -8018,14 +8054,16 @@
       <c r="E172" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F172" s="17"/>
+      <c r="F172" s="17">
+        <v>1</v>
+      </c>
       <c r="G172" s="18"/>
       <c r="H172" s="18"/>
       <c r="I172" s="18"/>
       <c r="J172" s="18"/>
       <c r="K172" s="19"/>
     </row>
-    <row r="173" spans="1:11" ht="45">
+    <row r="173" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A173" s="14">
         <v>21022</v>
       </c>
@@ -8041,14 +8079,16 @@
       <c r="E173" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F173" s="17"/>
+      <c r="F173" s="17">
+        <v>1</v>
+      </c>
       <c r="G173" s="18"/>
       <c r="H173" s="18"/>
       <c r="I173" s="18"/>
       <c r="J173" s="18"/>
       <c r="K173" s="19"/>
     </row>
-    <row r="174" spans="1:11" ht="105">
+    <row r="174" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A174" s="20">
         <v>21082</v>
       </c>
@@ -8064,14 +8104,16 @@
       <c r="E174" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="F174" s="24"/>
+      <c r="F174" s="24">
+        <v>1</v>
+      </c>
       <c r="G174" s="25"/>
       <c r="H174" s="25"/>
       <c r="I174" s="25"/>
       <c r="J174" s="25"/>
       <c r="K174" s="26"/>
     </row>
-    <row r="175" spans="1:11" ht="30">
+    <row r="175" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="20">
         <v>21082</v>
       </c>
@@ -8087,14 +8129,16 @@
       <c r="E175" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="F175" s="24"/>
+      <c r="F175" s="24">
+        <v>1</v>
+      </c>
       <c r="G175" s="25"/>
       <c r="H175" s="25"/>
       <c r="I175" s="25"/>
       <c r="J175" s="25"/>
       <c r="K175" s="26"/>
     </row>
-    <row r="176" spans="1:11" ht="30">
+    <row r="176" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="14">
         <v>21113</v>
       </c>
@@ -8117,7 +8161,7 @@
       <c r="J176" s="18"/>
       <c r="K176" s="19"/>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="14">
         <v>21113</v>
       </c>
@@ -8140,7 +8184,7 @@
       <c r="J177" s="18"/>
       <c r="K177" s="19"/>
     </row>
-    <row r="178" spans="1:11" ht="30">
+    <row r="178" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="20">
         <v>21149</v>
       </c>
@@ -8163,7 +8207,7 @@
       <c r="J178" s="25"/>
       <c r="K178" s="26"/>
     </row>
-    <row r="179" spans="1:11" ht="30">
+    <row r="179" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="20">
         <v>21149</v>
       </c>
@@ -8186,7 +8230,7 @@
       <c r="J179" s="25"/>
       <c r="K179" s="26"/>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="14">
         <v>21201</v>
       </c>
@@ -8213,7 +8257,7 @@
       <c r="J180" s="18"/>
       <c r="K180" s="19"/>
     </row>
-    <row r="181" spans="1:11" ht="75">
+    <row r="181" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A181" s="20">
         <v>21202</v>
       </c>
@@ -8229,14 +8273,20 @@
       <c r="E181" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="F181" s="24"/>
+      <c r="F181" s="24">
+        <v>1</v>
+      </c>
       <c r="G181" s="25"/>
-      <c r="H181" s="25"/>
-      <c r="I181" s="25"/>
+      <c r="H181" s="25">
+        <v>1</v>
+      </c>
+      <c r="I181" s="25">
+        <v>1</v>
+      </c>
       <c r="J181" s="25"/>
       <c r="K181" s="26"/>
     </row>
-    <row r="182" spans="1:11" ht="60">
+    <row r="182" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A182" s="20">
         <v>21202</v>
       </c>
@@ -8252,14 +8302,20 @@
       <c r="E182" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="F182" s="24"/>
+      <c r="F182" s="24">
+        <v>1</v>
+      </c>
       <c r="G182" s="25"/>
-      <c r="H182" s="25"/>
-      <c r="I182" s="25"/>
+      <c r="H182" s="25">
+        <v>1</v>
+      </c>
+      <c r="I182" s="25">
+        <v>1</v>
+      </c>
       <c r="J182" s="25"/>
       <c r="K182" s="26"/>
     </row>
-    <row r="183" spans="1:11" ht="45">
+    <row r="183" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="20">
         <v>21202</v>
       </c>
@@ -8275,14 +8331,20 @@
       <c r="E183" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="F183" s="24"/>
+      <c r="F183" s="24">
+        <v>1</v>
+      </c>
       <c r="G183" s="25"/>
-      <c r="H183" s="25"/>
-      <c r="I183" s="25"/>
+      <c r="H183" s="25">
+        <v>1</v>
+      </c>
+      <c r="I183" s="25">
+        <v>1</v>
+      </c>
       <c r="J183" s="25"/>
       <c r="K183" s="26"/>
     </row>
-    <row r="184" spans="1:11" ht="30">
+    <row r="184" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="20">
         <v>21202</v>
       </c>
@@ -8298,14 +8360,20 @@
       <c r="E184" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="F184" s="24"/>
+      <c r="F184" s="24">
+        <v>1</v>
+      </c>
       <c r="G184" s="25"/>
-      <c r="H184" s="25"/>
-      <c r="I184" s="25"/>
+      <c r="H184" s="25">
+        <v>1</v>
+      </c>
+      <c r="I184" s="25">
+        <v>1</v>
+      </c>
       <c r="J184" s="25"/>
       <c r="K184" s="26"/>
     </row>
-    <row r="185" spans="1:11" ht="45">
+    <row r="185" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="20">
         <v>21202</v>
       </c>
@@ -8321,14 +8389,20 @@
       <c r="E185" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="F185" s="24"/>
+      <c r="F185" s="24">
+        <v>1</v>
+      </c>
       <c r="G185" s="25"/>
-      <c r="H185" s="25"/>
-      <c r="I185" s="25"/>
+      <c r="H185" s="25">
+        <v>1</v>
+      </c>
+      <c r="I185" s="25">
+        <v>1</v>
+      </c>
       <c r="J185" s="25"/>
       <c r="K185" s="26"/>
     </row>
-    <row r="186" spans="1:11" ht="45">
+    <row r="186" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="20">
         <v>21202</v>
       </c>
@@ -8344,14 +8418,20 @@
       <c r="E186" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="F186" s="24"/>
+      <c r="F186" s="24">
+        <v>1</v>
+      </c>
       <c r="G186" s="25"/>
-      <c r="H186" s="25"/>
-      <c r="I186" s="25"/>
+      <c r="H186" s="25">
+        <v>1</v>
+      </c>
+      <c r="I186" s="25">
+        <v>1</v>
+      </c>
       <c r="J186" s="25"/>
       <c r="K186" s="26"/>
     </row>
-    <row r="187" spans="1:11" ht="45">
+    <row r="187" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="20">
         <v>21202</v>
       </c>
@@ -8367,14 +8447,20 @@
       <c r="E187" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="F187" s="24"/>
+      <c r="F187" s="24">
+        <v>1</v>
+      </c>
       <c r="G187" s="25"/>
-      <c r="H187" s="25"/>
-      <c r="I187" s="25"/>
+      <c r="H187" s="25">
+        <v>1</v>
+      </c>
+      <c r="I187" s="25">
+        <v>1</v>
+      </c>
       <c r="J187" s="25"/>
       <c r="K187" s="26"/>
     </row>
-    <row r="188" spans="1:11" ht="90">
+    <row r="188" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A188" s="20">
         <v>21202</v>
       </c>
@@ -8390,14 +8476,20 @@
       <c r="E188" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="F188" s="24"/>
+      <c r="F188" s="24">
+        <v>1</v>
+      </c>
       <c r="G188" s="25"/>
-      <c r="H188" s="25"/>
-      <c r="I188" s="25"/>
+      <c r="H188" s="25">
+        <v>1</v>
+      </c>
+      <c r="I188" s="25">
+        <v>1</v>
+      </c>
       <c r="J188" s="25"/>
       <c r="K188" s="26"/>
     </row>
-    <row r="189" spans="1:11" ht="105">
+    <row r="189" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A189" s="20">
         <v>21202</v>
       </c>
@@ -8413,14 +8505,20 @@
       <c r="E189" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="F189" s="24"/>
+      <c r="F189" s="24">
+        <v>1</v>
+      </c>
       <c r="G189" s="25"/>
-      <c r="H189" s="25"/>
-      <c r="I189" s="25"/>
+      <c r="H189" s="25">
+        <v>1</v>
+      </c>
+      <c r="I189" s="25">
+        <v>1</v>
+      </c>
       <c r="J189" s="25"/>
       <c r="K189" s="26"/>
     </row>
-    <row r="190" spans="1:11" ht="120">
+    <row r="190" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A190" s="20">
         <v>21202</v>
       </c>
@@ -8436,14 +8534,20 @@
       <c r="E190" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="F190" s="24"/>
+      <c r="F190" s="24">
+        <v>1</v>
+      </c>
       <c r="G190" s="25"/>
-      <c r="H190" s="25"/>
-      <c r="I190" s="25"/>
+      <c r="H190" s="25">
+        <v>1</v>
+      </c>
+      <c r="I190" s="25">
+        <v>1</v>
+      </c>
       <c r="J190" s="25"/>
       <c r="K190" s="26"/>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="20">
         <v>21202</v>
       </c>
@@ -8459,14 +8563,20 @@
       <c r="E191" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="F191" s="24"/>
+      <c r="F191" s="24">
+        <v>1</v>
+      </c>
       <c r="G191" s="25"/>
-      <c r="H191" s="25"/>
-      <c r="I191" s="25"/>
+      <c r="H191" s="25">
+        <v>1</v>
+      </c>
+      <c r="I191" s="25">
+        <v>1</v>
+      </c>
       <c r="J191" s="25"/>
       <c r="K191" s="26"/>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="20">
         <v>21202</v>
       </c>
@@ -8482,14 +8592,20 @@
       <c r="E192" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="F192" s="24"/>
+      <c r="F192" s="24">
+        <v>1</v>
+      </c>
       <c r="G192" s="25"/>
-      <c r="H192" s="25"/>
-      <c r="I192" s="25"/>
+      <c r="H192" s="25">
+        <v>1</v>
+      </c>
+      <c r="I192" s="25">
+        <v>1</v>
+      </c>
       <c r="J192" s="25"/>
       <c r="K192" s="26"/>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="20">
         <v>21202</v>
       </c>
@@ -8505,14 +8621,20 @@
       <c r="E193" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="F193" s="24"/>
+      <c r="F193" s="24">
+        <v>1</v>
+      </c>
       <c r="G193" s="25"/>
-      <c r="H193" s="25"/>
-      <c r="I193" s="25"/>
+      <c r="H193" s="25">
+        <v>1</v>
+      </c>
+      <c r="I193" s="25">
+        <v>1</v>
+      </c>
       <c r="J193" s="25"/>
       <c r="K193" s="26"/>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="20">
         <v>21202</v>
       </c>
@@ -8528,14 +8650,20 @@
       <c r="E194" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="F194" s="24"/>
+      <c r="F194" s="24">
+        <v>1</v>
+      </c>
       <c r="G194" s="25"/>
-      <c r="H194" s="25"/>
-      <c r="I194" s="25"/>
+      <c r="H194" s="25">
+        <v>1</v>
+      </c>
+      <c r="I194" s="25">
+        <v>1</v>
+      </c>
       <c r="J194" s="25"/>
       <c r="K194" s="26"/>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="20">
         <v>21202</v>
       </c>
@@ -8551,14 +8679,20 @@
       <c r="E195" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="F195" s="24"/>
+      <c r="F195" s="24">
+        <v>1</v>
+      </c>
       <c r="G195" s="25"/>
-      <c r="H195" s="25"/>
-      <c r="I195" s="25"/>
+      <c r="H195" s="25">
+        <v>1</v>
+      </c>
+      <c r="I195" s="25">
+        <v>1</v>
+      </c>
       <c r="J195" s="25"/>
       <c r="K195" s="26"/>
     </row>
-    <row r="196" spans="1:11" ht="30">
+    <row r="196" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="14">
         <v>21219</v>
       </c>
@@ -8574,14 +8708,18 @@
       <c r="E196" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F196" s="17"/>
+      <c r="F196" s="17">
+        <v>1</v>
+      </c>
       <c r="G196" s="18"/>
       <c r="H196" s="18"/>
-      <c r="I196" s="18"/>
+      <c r="I196" s="18">
+        <v>1</v>
+      </c>
       <c r="J196" s="18"/>
       <c r="K196" s="19"/>
     </row>
-    <row r="197" spans="1:11" ht="60">
+    <row r="197" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A197" s="14">
         <v>21219</v>
       </c>
@@ -8597,14 +8735,18 @@
       <c r="E197" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="F197" s="17"/>
+      <c r="F197" s="17">
+        <v>1</v>
+      </c>
       <c r="G197" s="18"/>
       <c r="H197" s="18"/>
-      <c r="I197" s="18"/>
+      <c r="I197" s="18">
+        <v>1</v>
+      </c>
       <c r="J197" s="18"/>
       <c r="K197" s="19"/>
     </row>
-    <row r="198" spans="1:11" ht="75">
+    <row r="198" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A198" s="14">
         <v>21219</v>
       </c>
@@ -8620,14 +8762,18 @@
       <c r="E198" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="F198" s="17"/>
+      <c r="F198" s="17">
+        <v>1</v>
+      </c>
       <c r="G198" s="18"/>
       <c r="H198" s="18"/>
-      <c r="I198" s="18"/>
+      <c r="I198" s="18">
+        <v>1</v>
+      </c>
       <c r="J198" s="18"/>
       <c r="K198" s="19"/>
     </row>
-    <row r="199" spans="1:11" ht="45">
+    <row r="199" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" s="14">
         <v>21219</v>
       </c>
@@ -8643,14 +8789,18 @@
       <c r="E199" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F199" s="17"/>
+      <c r="F199" s="17">
+        <v>1</v>
+      </c>
       <c r="G199" s="18"/>
       <c r="H199" s="18"/>
-      <c r="I199" s="18"/>
+      <c r="I199" s="18">
+        <v>1</v>
+      </c>
       <c r="J199" s="18"/>
       <c r="K199" s="19"/>
     </row>
-    <row r="200" spans="1:11" ht="45">
+    <row r="200" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A200" s="14">
         <v>21219</v>
       </c>
@@ -8666,14 +8816,18 @@
       <c r="E200" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="F200" s="17"/>
+      <c r="F200" s="17">
+        <v>1</v>
+      </c>
       <c r="G200" s="18"/>
       <c r="H200" s="18"/>
-      <c r="I200" s="18"/>
+      <c r="I200" s="18">
+        <v>1</v>
+      </c>
       <c r="J200" s="18"/>
       <c r="K200" s="19"/>
     </row>
-    <row r="201" spans="1:11" ht="105">
+    <row r="201" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A201" s="14">
         <v>21219</v>
       </c>
@@ -8689,14 +8843,18 @@
       <c r="E201" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="F201" s="17"/>
+      <c r="F201" s="17">
+        <v>1</v>
+      </c>
       <c r="G201" s="18"/>
       <c r="H201" s="18"/>
-      <c r="I201" s="18"/>
+      <c r="I201" s="18">
+        <v>1</v>
+      </c>
       <c r="J201" s="18"/>
       <c r="K201" s="19"/>
     </row>
-    <row r="202" spans="1:11" ht="75">
+    <row r="202" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A202" s="14">
         <v>21219</v>
       </c>
@@ -8712,14 +8870,18 @@
       <c r="E202" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="F202" s="17"/>
+      <c r="F202" s="17">
+        <v>1</v>
+      </c>
       <c r="G202" s="18"/>
       <c r="H202" s="18"/>
-      <c r="I202" s="18"/>
+      <c r="I202" s="18">
+        <v>1</v>
+      </c>
       <c r="J202" s="18"/>
       <c r="K202" s="19"/>
     </row>
-    <row r="203" spans="1:11" ht="75">
+    <row r="203" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A203" s="20">
         <v>21230</v>
       </c>
@@ -8742,7 +8904,7 @@
       <c r="J203" s="25"/>
       <c r="K203" s="26"/>
     </row>
-    <row r="204" spans="1:11" ht="30">
+    <row r="204" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="14">
         <v>21233</v>
       </c>
@@ -8765,7 +8927,7 @@
       <c r="J204" s="18"/>
       <c r="K204" s="19"/>
     </row>
-    <row r="205" spans="1:11" ht="45">
+    <row r="205" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A205" s="20">
         <v>21244</v>
       </c>
@@ -8788,7 +8950,7 @@
       <c r="J205" s="25"/>
       <c r="K205" s="26"/>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="14">
         <v>21328</v>
       </c>
@@ -8811,7 +8973,7 @@
       <c r="J206" s="18"/>
       <c r="K206" s="19"/>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="14">
         <v>21328</v>
       </c>
@@ -8834,7 +8996,7 @@
       <c r="J207" s="18"/>
       <c r="K207" s="19"/>
     </row>
-    <row r="208" spans="1:11" ht="105">
+    <row r="208" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A208" s="20">
         <v>21433</v>
       </c>
@@ -8857,7 +9019,7 @@
       <c r="J208" s="25"/>
       <c r="K208" s="26"/>
     </row>
-    <row r="209" spans="1:11" ht="45">
+    <row r="209" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A209" s="20">
         <v>21433</v>
       </c>
@@ -8880,7 +9042,7 @@
       <c r="J209" s="25"/>
       <c r="K209" s="26"/>
     </row>
-    <row r="210" spans="1:11" ht="60">
+    <row r="210" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A210" s="20">
         <v>21433</v>
       </c>
@@ -8903,7 +9065,7 @@
       <c r="J210" s="25"/>
       <c r="K210" s="26"/>
     </row>
-    <row r="211" spans="1:11" ht="60">
+    <row r="211" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A211" s="20">
         <v>21433</v>
       </c>
@@ -8926,7 +9088,7 @@
       <c r="J211" s="25"/>
       <c r="K211" s="26"/>
     </row>
-    <row r="212" spans="1:11" ht="30">
+    <row r="212" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="20">
         <v>21433</v>
       </c>
@@ -8949,7 +9111,7 @@
       <c r="J212" s="25"/>
       <c r="K212" s="26"/>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="20">
         <v>21433</v>
       </c>
@@ -8972,7 +9134,7 @@
       <c r="J213" s="25"/>
       <c r="K213" s="26"/>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="20">
         <v>21433</v>
       </c>
@@ -8995,7 +9157,7 @@
       <c r="J214" s="25"/>
       <c r="K214" s="26"/>
     </row>
-    <row r="215" spans="1:11" ht="60">
+    <row r="215" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A215" s="14">
         <v>21439</v>
       </c>
@@ -9018,7 +9180,7 @@
       <c r="J215" s="18"/>
       <c r="K215" s="19"/>
     </row>
-    <row r="216" spans="1:11" ht="30">
+    <row r="216" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="20">
         <v>21442</v>
       </c>
@@ -9041,7 +9203,7 @@
       <c r="J216" s="25"/>
       <c r="K216" s="26"/>
     </row>
-    <row r="217" spans="1:11" ht="30">
+    <row r="217" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="20">
         <v>21442</v>
       </c>
@@ -9064,7 +9226,7 @@
       <c r="J217" s="25"/>
       <c r="K217" s="26"/>
     </row>
-    <row r="218" spans="1:11" ht="30">
+    <row r="218" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="14">
         <v>21443</v>
       </c>
@@ -9087,7 +9249,7 @@
       <c r="J218" s="18"/>
       <c r="K218" s="19"/>
     </row>
-    <row r="219" spans="1:11" ht="30">
+    <row r="219" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="14">
         <v>21443</v>
       </c>
@@ -9110,7 +9272,7 @@
       <c r="J219" s="18"/>
       <c r="K219" s="19"/>
     </row>
-    <row r="220" spans="1:11" ht="30">
+    <row r="220" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="20">
         <v>21444</v>
       </c>
@@ -9133,7 +9295,7 @@
       <c r="J220" s="25"/>
       <c r="K220" s="26"/>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="20">
         <v>21444</v>
       </c>
@@ -9156,7 +9318,7 @@
       <c r="J221" s="25"/>
       <c r="K221" s="26"/>
     </row>
-    <row r="222" spans="1:11" ht="30">
+    <row r="222" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="14">
         <v>21452</v>
       </c>
@@ -9179,7 +9341,7 @@
       <c r="J222" s="18"/>
       <c r="K222" s="19"/>
     </row>
-    <row r="223" spans="1:11" ht="30">
+    <row r="223" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="14">
         <v>21452</v>
       </c>
@@ -9202,7 +9364,7 @@
       <c r="J223" s="18"/>
       <c r="K223" s="19"/>
     </row>
-    <row r="224" spans="1:11" ht="30">
+    <row r="224" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="20">
         <v>21527</v>
       </c>
@@ -9225,7 +9387,7 @@
       <c r="J224" s="25"/>
       <c r="K224" s="26"/>
     </row>
-    <row r="225" spans="1:11" ht="75">
+    <row r="225" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A225" s="20">
         <v>21527</v>
       </c>
@@ -9248,7 +9410,7 @@
       <c r="J225" s="25"/>
       <c r="K225" s="26"/>
     </row>
-    <row r="226" spans="1:11" ht="30">
+    <row r="226" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="20">
         <v>21527</v>
       </c>
@@ -9271,7 +9433,7 @@
       <c r="J226" s="25"/>
       <c r="K226" s="26"/>
     </row>
-    <row r="227" spans="1:11" ht="30">
+    <row r="227" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="20">
         <v>21527</v>
       </c>
@@ -9294,7 +9456,7 @@
       <c r="J227" s="25"/>
       <c r="K227" s="26"/>
     </row>
-    <row r="228" spans="1:11" ht="30">
+    <row r="228" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="20">
         <v>21527</v>
       </c>
@@ -9317,7 +9479,7 @@
       <c r="J228" s="25"/>
       <c r="K228" s="26"/>
     </row>
-    <row r="229" spans="1:11" ht="60">
+    <row r="229" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A229" s="14">
         <v>21536</v>
       </c>
@@ -9340,7 +9502,7 @@
       <c r="J229" s="18"/>
       <c r="K229" s="19"/>
     </row>
-    <row r="230" spans="1:11" ht="60">
+    <row r="230" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A230" s="14">
         <v>21536</v>
       </c>
@@ -9363,7 +9525,7 @@
       <c r="J230" s="18"/>
       <c r="K230" s="19"/>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="14">
         <v>21536</v>
       </c>
@@ -9386,7 +9548,7 @@
       <c r="J231" s="18"/>
       <c r="K231" s="19"/>
     </row>
-    <row r="232" spans="1:11" ht="30">
+    <row r="232" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="14">
         <v>21536</v>
       </c>
@@ -9409,7 +9571,7 @@
       <c r="J232" s="18"/>
       <c r="K232" s="19"/>
     </row>
-    <row r="233" spans="1:11" ht="45">
+    <row r="233" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A233" s="14">
         <v>21536</v>
       </c>
@@ -9432,7 +9594,7 @@
       <c r="J233" s="18"/>
       <c r="K233" s="19"/>
     </row>
-    <row r="234" spans="1:11" ht="60">
+    <row r="234" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A234" s="14">
         <v>21536</v>
       </c>
@@ -9455,7 +9617,7 @@
       <c r="J234" s="18"/>
       <c r="K234" s="19"/>
     </row>
-    <row r="235" spans="1:11" ht="45">
+    <row r="235" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A235" s="14">
         <v>21536</v>
       </c>
@@ -9478,7 +9640,7 @@
       <c r="J235" s="18"/>
       <c r="K235" s="19"/>
     </row>
-    <row r="236" spans="1:11" ht="45">
+    <row r="236" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A236" s="14">
         <v>21536</v>
       </c>
@@ -9501,7 +9663,7 @@
       <c r="J236" s="18"/>
       <c r="K236" s="19"/>
     </row>
-    <row r="237" spans="1:11" ht="90">
+    <row r="237" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A237" s="14">
         <v>21536</v>
       </c>
@@ -9524,7 +9686,7 @@
       <c r="J237" s="18"/>
       <c r="K237" s="19"/>
     </row>
-    <row r="238" spans="1:11" ht="120">
+    <row r="238" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A238" s="14">
         <v>21536</v>
       </c>
@@ -9547,7 +9709,7 @@
       <c r="J238" s="18"/>
       <c r="K238" s="19"/>
     </row>
-    <row r="239" spans="1:11" ht="75">
+    <row r="239" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A239" s="14">
         <v>21536</v>
       </c>
@@ -9570,7 +9732,7 @@
       <c r="J239" s="18"/>
       <c r="K239" s="19"/>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="14">
         <v>21536</v>
       </c>
@@ -9593,7 +9755,7 @@
       <c r="J240" s="18"/>
       <c r="K240" s="19"/>
     </row>
-    <row r="241" spans="1:11" ht="30">
+    <row r="241" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="14">
         <v>21536</v>
       </c>
@@ -9616,7 +9778,7 @@
       <c r="J241" s="18"/>
       <c r="K241" s="19"/>
     </row>
-    <row r="242" spans="1:11" ht="30">
+    <row r="242" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="14">
         <v>21536</v>
       </c>
@@ -9639,7 +9801,7 @@
       <c r="J242" s="18"/>
       <c r="K242" s="19"/>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="14">
         <v>21536</v>
       </c>
@@ -9662,7 +9824,7 @@
       <c r="J243" s="18"/>
       <c r="K243" s="19"/>
     </row>
-    <row r="244" spans="1:11" ht="90">
+    <row r="244" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A244" s="14">
         <v>21536</v>
       </c>
@@ -9685,7 +9847,7 @@
       <c r="J244" s="18"/>
       <c r="K244" s="19"/>
     </row>
-    <row r="245" spans="1:11" ht="60">
+    <row r="245" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A245" s="20">
         <v>21537</v>
       </c>
@@ -9708,7 +9870,7 @@
       <c r="J245" s="25"/>
       <c r="K245" s="26"/>
     </row>
-    <row r="246" spans="1:11" ht="75">
+    <row r="246" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A246" s="20">
         <v>21537</v>
       </c>
@@ -9731,7 +9893,7 @@
       <c r="J246" s="25"/>
       <c r="K246" s="26"/>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="20">
         <v>21537</v>
       </c>
@@ -9754,7 +9916,7 @@
       <c r="J247" s="25"/>
       <c r="K247" s="26"/>
     </row>
-    <row r="248" spans="1:11" ht="45">
+    <row r="248" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A248" s="20">
         <v>21537</v>
       </c>
@@ -9777,7 +9939,7 @@
       <c r="J248" s="25"/>
       <c r="K248" s="26"/>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="20">
         <v>21537</v>
       </c>
@@ -9800,7 +9962,7 @@
       <c r="J249" s="25"/>
       <c r="K249" s="26"/>
     </row>
-    <row r="250" spans="1:11" ht="120">
+    <row r="250" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A250" s="14">
         <v>21566</v>
       </c>
@@ -9823,7 +9985,7 @@
       <c r="J250" s="18"/>
       <c r="K250" s="19"/>
     </row>
-    <row r="251" spans="1:11" ht="60">
+    <row r="251" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A251" s="20">
         <v>21608</v>
       </c>
@@ -9846,7 +10008,7 @@
       <c r="J251" s="25"/>
       <c r="K251" s="26"/>
     </row>
-    <row r="252" spans="1:11" ht="105">
+    <row r="252" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A252" s="20">
         <v>21608</v>
       </c>
@@ -9869,7 +10031,7 @@
       <c r="J252" s="25"/>
       <c r="K252" s="26"/>
     </row>
-    <row r="253" spans="1:11" ht="90">
+    <row r="253" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A253" s="14">
         <v>21625</v>
       </c>
@@ -9892,7 +10054,7 @@
       <c r="J253" s="18"/>
       <c r="K253" s="19"/>
     </row>
-    <row r="254" spans="1:11" ht="30">
+    <row r="254" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="20">
         <v>21626</v>
       </c>
@@ -9915,7 +10077,7 @@
       <c r="J254" s="25"/>
       <c r="K254" s="26"/>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="20">
         <v>21626</v>
       </c>
@@ -9938,7 +10100,7 @@
       <c r="J255" s="25"/>
       <c r="K255" s="26"/>
     </row>
-    <row r="256" spans="1:11" ht="90">
+    <row r="256" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A256" s="14">
         <v>21638</v>
       </c>
@@ -9961,7 +10123,7 @@
       <c r="J256" s="18"/>
       <c r="K256" s="19"/>
     </row>
-    <row r="257" spans="1:11" ht="75">
+    <row r="257" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A257" s="14">
         <v>21638</v>
       </c>
@@ -9984,7 +10146,7 @@
       <c r="J257" s="18"/>
       <c r="K257" s="19"/>
     </row>
-    <row r="258" spans="1:11" ht="90">
+    <row r="258" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A258" s="14">
         <v>21638</v>
       </c>
@@ -10007,7 +10169,7 @@
       <c r="J258" s="18"/>
       <c r="K258" s="19"/>
     </row>
-    <row r="259" spans="1:11" ht="60">
+    <row r="259" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A259" s="14">
         <v>21638</v>
       </c>
@@ -10030,7 +10192,7 @@
       <c r="J259" s="18"/>
       <c r="K259" s="19"/>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="14">
         <v>21638</v>
       </c>
@@ -10053,7 +10215,7 @@
       <c r="J260" s="18"/>
       <c r="K260" s="19"/>
     </row>
-    <row r="261" spans="1:11" ht="30">
+    <row r="261" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="14">
         <v>21638</v>
       </c>
@@ -10076,7 +10238,7 @@
       <c r="J261" s="18"/>
       <c r="K261" s="19"/>
     </row>
-    <row r="262" spans="1:11" ht="30">
+    <row r="262" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="14">
         <v>21638</v>
       </c>
@@ -10099,7 +10261,7 @@
       <c r="J262" s="18"/>
       <c r="K262" s="19"/>
     </row>
-    <row r="263" spans="1:11" ht="60">
+    <row r="263" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A263" s="14">
         <v>21638</v>
       </c>
@@ -10122,7 +10284,7 @@
       <c r="J263" s="18"/>
       <c r="K263" s="19"/>
     </row>
-    <row r="264" spans="1:11" ht="30">
+    <row r="264" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="14">
         <v>21638</v>
       </c>
@@ -10145,7 +10307,7 @@
       <c r="J264" s="18"/>
       <c r="K264" s="19"/>
     </row>
-    <row r="265" spans="1:11" ht="60">
+    <row r="265" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A265" s="14">
         <v>21638</v>
       </c>
@@ -10168,7 +10330,7 @@
       <c r="J265" s="18"/>
       <c r="K265" s="19"/>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="14">
         <v>21638</v>
       </c>
@@ -10191,7 +10353,7 @@
       <c r="J266" s="18"/>
       <c r="K266" s="19"/>
     </row>
-    <row r="267" spans="1:11" ht="45">
+    <row r="267" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A267" s="14">
         <v>21638</v>
       </c>
@@ -10214,7 +10376,7 @@
       <c r="J267" s="18"/>
       <c r="K267" s="19"/>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="14">
         <v>21638</v>
       </c>
@@ -10237,7 +10399,7 @@
       <c r="J268" s="18"/>
       <c r="K268" s="19"/>
     </row>
-    <row r="269" spans="1:11" ht="45">
+    <row r="269" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A269" s="14">
         <v>21638</v>
       </c>
@@ -10260,7 +10422,7 @@
       <c r="J269" s="18"/>
       <c r="K269" s="19"/>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="20">
         <v>21777</v>
       </c>
@@ -10283,7 +10445,7 @@
       <c r="J270" s="25"/>
       <c r="K270" s="26"/>
     </row>
-    <row r="271" spans="1:11" ht="30">
+    <row r="271" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="20">
         <v>21777</v>
       </c>
@@ -10306,7 +10468,7 @@
       <c r="J271" s="25"/>
       <c r="K271" s="26"/>
     </row>
-    <row r="272" spans="1:11" ht="45">
+    <row r="272" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A272" s="14">
         <v>21921</v>
       </c>
@@ -10329,7 +10491,7 @@
       <c r="J272" s="18"/>
       <c r="K272" s="19"/>
     </row>
-    <row r="273" spans="1:11" ht="30">
+    <row r="273" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="14">
         <v>21921</v>
       </c>
@@ -10352,7 +10514,7 @@
       <c r="J273" s="18"/>
       <c r="K273" s="19"/>
     </row>
-    <row r="274" spans="1:11" ht="30">
+    <row r="274" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A274" s="14">
         <v>21921</v>
       </c>
@@ -10375,7 +10537,7 @@
       <c r="J274" s="18"/>
       <c r="K274" s="19"/>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="14">
         <v>21921</v>
       </c>
@@ -10398,7 +10560,7 @@
       <c r="J275" s="18"/>
       <c r="K275" s="19"/>
     </row>
-    <row r="276" spans="1:11" ht="45">
+    <row r="276" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A276" s="14">
         <v>21921</v>
       </c>
@@ -10421,7 +10583,7 @@
       <c r="J276" s="18"/>
       <c r="K276" s="19"/>
     </row>
-    <row r="277" spans="1:11" ht="30">
+    <row r="277" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="20">
         <v>21922</v>
       </c>
@@ -10444,7 +10606,7 @@
       <c r="J277" s="25"/>
       <c r="K277" s="26"/>
     </row>
-    <row r="278" spans="1:11" ht="30">
+    <row r="278" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="20">
         <v>21922</v>
       </c>
@@ -10467,7 +10629,7 @@
       <c r="J278" s="25"/>
       <c r="K278" s="26"/>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="20">
         <v>21922</v>
       </c>
@@ -10490,7 +10652,7 @@
       <c r="J279" s="25"/>
       <c r="K279" s="26"/>
     </row>
-    <row r="280" spans="1:11" ht="30">
+    <row r="280" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A280" s="20">
         <v>21922</v>
       </c>
@@ -10513,7 +10675,7 @@
       <c r="J280" s="25"/>
       <c r="K280" s="26"/>
     </row>
-    <row r="281" spans="1:11" ht="30">
+    <row r="281" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="14">
         <v>21925</v>
       </c>
@@ -10536,7 +10698,7 @@
       <c r="J281" s="18"/>
       <c r="K281" s="19"/>
     </row>
-    <row r="282" spans="1:11" ht="30">
+    <row r="282" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="14">
         <v>21925</v>
       </c>
@@ -10559,7 +10721,7 @@
       <c r="J282" s="18"/>
       <c r="K282" s="19"/>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="14">
         <v>21925</v>
       </c>
@@ -10582,7 +10744,7 @@
       <c r="J283" s="18"/>
       <c r="K283" s="19"/>
     </row>
-    <row r="284" spans="1:11" ht="30">
+    <row r="284" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" s="14">
         <v>21925</v>
       </c>
@@ -10605,7 +10767,7 @@
       <c r="J284" s="18"/>
       <c r="K284" s="19"/>
     </row>
-    <row r="285" spans="1:11" ht="30">
+    <row r="285" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A285" s="20">
         <v>21944</v>
       </c>
@@ -10628,7 +10790,7 @@
       <c r="J285" s="25"/>
       <c r="K285" s="26"/>
     </row>
-    <row r="286" spans="1:11" ht="30">
+    <row r="286" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A286" s="20">
         <v>21944</v>
       </c>
@@ -10651,7 +10813,7 @@
       <c r="J286" s="25"/>
       <c r="K286" s="26"/>
     </row>
-    <row r="287" spans="1:11" ht="30">
+    <row r="287" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A287" s="14">
         <v>21994</v>
       </c>
@@ -10674,7 +10836,7 @@
       <c r="J287" s="18"/>
       <c r="K287" s="19"/>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="14">
         <v>21994</v>
       </c>
@@ -10697,7 +10859,7 @@
       <c r="J288" s="18"/>
       <c r="K288" s="19"/>
     </row>
-    <row r="289" spans="1:11" ht="45">
+    <row r="289" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A289" s="14">
         <v>21994</v>
       </c>
@@ -10720,7 +10882,7 @@
       <c r="J289" s="18"/>
       <c r="K289" s="19"/>
     </row>
-    <row r="290" spans="1:11" ht="90">
+    <row r="290" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A290" s="14">
         <v>21994</v>
       </c>
@@ -10743,7 +10905,7 @@
       <c r="J290" s="18"/>
       <c r="K290" s="19"/>
     </row>
-    <row r="291" spans="1:11" ht="45">
+    <row r="291" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A291" s="14">
         <v>21994</v>
       </c>
@@ -10766,7 +10928,7 @@
       <c r="J291" s="18"/>
       <c r="K291" s="19"/>
     </row>
-    <row r="292" spans="1:11" ht="30">
+    <row r="292" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A292" s="20">
         <v>21995</v>
       </c>
@@ -10789,7 +10951,7 @@
       <c r="J292" s="25"/>
       <c r="K292" s="26"/>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="20">
         <v>21995</v>
       </c>
@@ -10812,7 +10974,7 @@
       <c r="J293" s="25"/>
       <c r="K293" s="26"/>
     </row>
-    <row r="294" spans="1:11" ht="30">
+    <row r="294" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A294" s="20">
         <v>21995</v>
       </c>
@@ -10835,7 +10997,7 @@
       <c r="J294" s="25"/>
       <c r="K294" s="26"/>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="20">
         <v>21995</v>
       </c>
@@ -10858,7 +11020,7 @@
       <c r="J295" s="25"/>
       <c r="K295" s="26"/>
     </row>
-    <row r="296" spans="1:11" ht="60">
+    <row r="296" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A296" s="14">
         <v>22062</v>
       </c>
@@ -10881,7 +11043,7 @@
       <c r="J296" s="18"/>
       <c r="K296" s="19"/>
     </row>
-    <row r="297" spans="1:11" ht="60">
+    <row r="297" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A297" s="14">
         <v>22062</v>
       </c>
@@ -10904,7 +11066,7 @@
       <c r="J297" s="18"/>
       <c r="K297" s="19"/>
     </row>
-    <row r="298" spans="1:11" ht="45">
+    <row r="298" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A298" s="20">
         <v>22063</v>
       </c>
@@ -10927,7 +11089,7 @@
       <c r="J298" s="25"/>
       <c r="K298" s="26"/>
     </row>
-    <row r="299" spans="1:11" ht="90">
+    <row r="299" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A299" s="20">
         <v>22063</v>
       </c>
@@ -10950,7 +11112,7 @@
       <c r="J299" s="25"/>
       <c r="K299" s="26"/>
     </row>
-    <row r="300" spans="1:11" ht="45">
+    <row r="300" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A300" s="20">
         <v>22063</v>
       </c>
@@ -10973,7 +11135,7 @@
       <c r="J300" s="25"/>
       <c r="K300" s="26"/>
     </row>
-    <row r="301" spans="1:11" ht="60">
+    <row r="301" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A301" s="20">
         <v>22063</v>
       </c>
@@ -10996,7 +11158,7 @@
       <c r="J301" s="25"/>
       <c r="K301" s="26"/>
     </row>
-    <row r="302" spans="1:11" ht="75">
+    <row r="302" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A302" s="20">
         <v>22063</v>
       </c>
@@ -11019,7 +11181,7 @@
       <c r="J302" s="25"/>
       <c r="K302" s="26"/>
     </row>
-    <row r="303" spans="1:11" ht="60">
+    <row r="303" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A303" s="20">
         <v>22063</v>
       </c>
@@ -11042,7 +11204,7 @@
       <c r="J303" s="25"/>
       <c r="K303" s="26"/>
     </row>
-    <row r="304" spans="1:11" ht="60">
+    <row r="304" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A304" s="14">
         <v>22097</v>
       </c>
@@ -11065,7 +11227,7 @@
       <c r="J304" s="18"/>
       <c r="K304" s="19"/>
     </row>
-    <row r="305" spans="1:11" ht="45">
+    <row r="305" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A305" s="14">
         <v>22097</v>
       </c>
@@ -11088,7 +11250,7 @@
       <c r="J305" s="18"/>
       <c r="K305" s="19"/>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="14">
         <v>22097</v>
       </c>
@@ -11111,7 +11273,7 @@
       <c r="J306" s="18"/>
       <c r="K306" s="19"/>
     </row>
-    <row r="307" spans="1:11" ht="90">
+    <row r="307" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A307" s="14">
         <v>22097</v>
       </c>
@@ -11134,7 +11296,7 @@
       <c r="J307" s="18"/>
       <c r="K307" s="19"/>
     </row>
-    <row r="308" spans="1:11" ht="90">
+    <row r="308" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A308" s="20">
         <v>22175</v>
       </c>
@@ -11157,7 +11319,7 @@
       <c r="J308" s="25"/>
       <c r="K308" s="26"/>
     </row>
-    <row r="309" spans="1:11" ht="75">
+    <row r="309" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A309" s="14">
         <v>22195</v>
       </c>
@@ -11180,7 +11342,7 @@
       <c r="J309" s="18"/>
       <c r="K309" s="19"/>
     </row>
-    <row r="310" spans="1:11" ht="45">
+    <row r="310" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A310" s="14">
         <v>22195</v>
       </c>
@@ -11203,7 +11365,7 @@
       <c r="J310" s="18"/>
       <c r="K310" s="19"/>
     </row>
-    <row r="311" spans="1:11" ht="60">
+    <row r="311" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A311" s="20">
         <v>22196</v>
       </c>
@@ -11226,7 +11388,7 @@
       <c r="J311" s="25"/>
       <c r="K311" s="26"/>
     </row>
-    <row r="312" spans="1:11" ht="30">
+    <row r="312" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" s="20">
         <v>22196</v>
       </c>
@@ -11249,7 +11411,7 @@
       <c r="J312" s="25"/>
       <c r="K312" s="26"/>
     </row>
-    <row r="313" spans="1:11" ht="120">
+    <row r="313" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A313" s="14">
         <v>22229</v>
       </c>
@@ -11272,7 +11434,7 @@
       <c r="J313" s="18"/>
       <c r="K313" s="19"/>
     </row>
-    <row r="314" spans="1:11" ht="30">
+    <row r="314" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" s="20">
         <v>22232</v>
       </c>
@@ -11295,7 +11457,7 @@
       <c r="J314" s="25"/>
       <c r="K314" s="26"/>
     </row>
-    <row r="315" spans="1:11" ht="75">
+    <row r="315" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A315" s="14">
         <v>22341</v>
       </c>
@@ -11318,7 +11480,7 @@
       <c r="J315" s="18"/>
       <c r="K315" s="19"/>
     </row>
-    <row r="316" spans="1:11" ht="30">
+    <row r="316" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="14">
         <v>22341</v>
       </c>
@@ -11341,7 +11503,7 @@
       <c r="J316" s="18"/>
       <c r="K316" s="19"/>
     </row>
-    <row r="317" spans="1:11">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="14">
         <v>22341</v>
       </c>
@@ -11364,7 +11526,7 @@
       <c r="J317" s="18"/>
       <c r="K317" s="19"/>
     </row>
-    <row r="318" spans="1:11">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="14">
         <v>22341</v>
       </c>
@@ -11387,7 +11549,7 @@
       <c r="J318" s="18"/>
       <c r="K318" s="19"/>
     </row>
-    <row r="319" spans="1:11" ht="45">
+    <row r="319" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A319" s="14">
         <v>22341</v>
       </c>
@@ -11410,7 +11572,7 @@
       <c r="J319" s="18"/>
       <c r="K319" s="19"/>
     </row>
-    <row r="320" spans="1:11" ht="45">
+    <row r="320" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A320" s="14">
         <v>22341</v>
       </c>
@@ -11433,7 +11595,7 @@
       <c r="J320" s="18"/>
       <c r="K320" s="19"/>
     </row>
-    <row r="321" spans="1:11" ht="90">
+    <row r="321" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A321" s="14">
         <v>22341</v>
       </c>
@@ -11456,7 +11618,7 @@
       <c r="J321" s="18"/>
       <c r="K321" s="19"/>
     </row>
-    <row r="322" spans="1:11" ht="60">
+    <row r="322" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A322" s="14">
         <v>22341</v>
       </c>
@@ -11479,7 +11641,7 @@
       <c r="J322" s="18"/>
       <c r="K322" s="19"/>
     </row>
-    <row r="323" spans="1:11">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="14">
         <v>22341</v>
       </c>
@@ -11502,7 +11664,7 @@
       <c r="J323" s="18"/>
       <c r="K323" s="19"/>
     </row>
-    <row r="324" spans="1:11" ht="45">
+    <row r="324" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A324" s="14">
         <v>22341</v>
       </c>
@@ -11525,7 +11687,7 @@
       <c r="J324" s="18"/>
       <c r="K324" s="19"/>
     </row>
-    <row r="325" spans="1:11" ht="90">
+    <row r="325" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A325" s="14">
         <v>22341</v>
       </c>
@@ -11548,7 +11710,7 @@
       <c r="J325" s="18"/>
       <c r="K325" s="19"/>
     </row>
-    <row r="326" spans="1:11" ht="45">
+    <row r="326" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A326" s="14">
         <v>22341</v>
       </c>
@@ -11571,7 +11733,7 @@
       <c r="J326" s="18"/>
       <c r="K326" s="19"/>
     </row>
-    <row r="327" spans="1:11" ht="45">
+    <row r="327" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A327" s="14">
         <v>22341</v>
       </c>
@@ -11594,7 +11756,7 @@
       <c r="J327" s="18"/>
       <c r="K327" s="19"/>
     </row>
-    <row r="328" spans="1:11">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="14">
         <v>22341</v>
       </c>
@@ -11617,7 +11779,7 @@
       <c r="J328" s="18"/>
       <c r="K328" s="19"/>
     </row>
-    <row r="329" spans="1:11" ht="90">
+    <row r="329" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A329" s="14">
         <v>22341</v>
       </c>
@@ -11640,7 +11802,7 @@
       <c r="J329" s="18"/>
       <c r="K329" s="19"/>
     </row>
-    <row r="330" spans="1:11" ht="60">
+    <row r="330" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A330" s="14">
         <v>22341</v>
       </c>
@@ -11663,7 +11825,7 @@
       <c r="J330" s="18"/>
       <c r="K330" s="19"/>
     </row>
-    <row r="331" spans="1:11" ht="90">
+    <row r="331" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A331" s="14">
         <v>22341</v>
       </c>
@@ -11686,7 +11848,7 @@
       <c r="J331" s="18"/>
       <c r="K331" s="19"/>
     </row>
-    <row r="332" spans="1:11" ht="30">
+    <row r="332" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A332" s="14">
         <v>22341</v>
       </c>
@@ -11709,7 +11871,7 @@
       <c r="J332" s="18"/>
       <c r="K332" s="19"/>
     </row>
-    <row r="333" spans="1:11" ht="30">
+    <row r="333" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A333" s="20">
         <v>22343</v>
       </c>
@@ -11732,7 +11894,7 @@
       <c r="J333" s="25"/>
       <c r="K333" s="26"/>
     </row>
-    <row r="334" spans="1:11" ht="45">
+    <row r="334" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A334" s="20">
         <v>22343</v>
       </c>
@@ -11755,7 +11917,7 @@
       <c r="J334" s="25"/>
       <c r="K334" s="26"/>
     </row>
-    <row r="335" spans="1:11">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="20">
         <v>22343</v>
       </c>
@@ -11778,7 +11940,7 @@
       <c r="J335" s="25"/>
       <c r="K335" s="26"/>
     </row>
-    <row r="336" spans="1:11" ht="30">
+    <row r="336" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A336" s="20">
         <v>22343</v>
       </c>
@@ -11801,7 +11963,7 @@
       <c r="J336" s="25"/>
       <c r="K336" s="26"/>
     </row>
-    <row r="337" spans="1:11" ht="30">
+    <row r="337" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A337" s="14">
         <v>22367</v>
       </c>
@@ -11824,7 +11986,7 @@
       <c r="J337" s="18"/>
       <c r="K337" s="19"/>
     </row>
-    <row r="338" spans="1:11" ht="30">
+    <row r="338" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A338" s="14">
         <v>22367</v>
       </c>
@@ -11847,7 +12009,7 @@
       <c r="J338" s="18"/>
       <c r="K338" s="19"/>
     </row>
-    <row r="339" spans="1:11">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="14">
         <v>22367</v>
       </c>
@@ -11870,7 +12032,7 @@
       <c r="J339" s="18"/>
       <c r="K339" s="19"/>
     </row>
-    <row r="340" spans="1:11" ht="45">
+    <row r="340" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A340" s="14">
         <v>22367</v>
       </c>
@@ -11893,7 +12055,7 @@
       <c r="J340" s="18"/>
       <c r="K340" s="19"/>
     </row>
-    <row r="341" spans="1:11" ht="60">
+    <row r="341" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A341" s="14">
         <v>22367</v>
       </c>
@@ -11916,7 +12078,7 @@
       <c r="J341" s="18"/>
       <c r="K341" s="19"/>
     </row>
-    <row r="342" spans="1:11" ht="30">
+    <row r="342" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A342" s="14">
         <v>22367</v>
       </c>
@@ -11939,7 +12101,7 @@
       <c r="J342" s="18"/>
       <c r="K342" s="19"/>
     </row>
-    <row r="343" spans="1:11" ht="45">
+    <row r="343" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A343" s="14">
         <v>22367</v>
       </c>
@@ -11962,7 +12124,7 @@
       <c r="J343" s="18"/>
       <c r="K343" s="19"/>
     </row>
-    <row r="344" spans="1:11">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="14">
         <v>22367</v>
       </c>
@@ -11985,7 +12147,7 @@
       <c r="J344" s="18"/>
       <c r="K344" s="19"/>
     </row>
-    <row r="345" spans="1:11" ht="30">
+    <row r="345" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A345" s="14">
         <v>22367</v>
       </c>
@@ -12008,7 +12170,7 @@
       <c r="J345" s="18"/>
       <c r="K345" s="19"/>
     </row>
-    <row r="346" spans="1:11">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="14">
         <v>22367</v>
       </c>
@@ -12031,7 +12193,7 @@
       <c r="J346" s="18"/>
       <c r="K346" s="19"/>
     </row>
-    <row r="347" spans="1:11" ht="30">
+    <row r="347" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A347" s="14">
         <v>22367</v>
       </c>
@@ -12054,7 +12216,7 @@
       <c r="J347" s="18"/>
       <c r="K347" s="19"/>
     </row>
-    <row r="348" spans="1:11" ht="30">
+    <row r="348" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A348" s="14">
         <v>22367</v>
       </c>
@@ -12077,7 +12239,7 @@
       <c r="J348" s="18"/>
       <c r="K348" s="19"/>
     </row>
-    <row r="349" spans="1:11" ht="60">
+    <row r="349" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A349" s="14">
         <v>22367</v>
       </c>
@@ -12100,7 +12262,7 @@
       <c r="J349" s="18"/>
       <c r="K349" s="19"/>
     </row>
-    <row r="350" spans="1:11" ht="75">
+    <row r="350" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A350" s="14">
         <v>22367</v>
       </c>
@@ -12123,7 +12285,7 @@
       <c r="J350" s="18"/>
       <c r="K350" s="19"/>
     </row>
-    <row r="351" spans="1:11" ht="30">
+    <row r="351" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A351" s="14">
         <v>22367</v>
       </c>
@@ -12146,7 +12308,7 @@
       <c r="J351" s="18"/>
       <c r="K351" s="19"/>
     </row>
-    <row r="352" spans="1:11" ht="75">
+    <row r="352" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A352" s="14">
         <v>22367</v>
       </c>
@@ -12169,7 +12331,7 @@
       <c r="J352" s="18"/>
       <c r="K352" s="19"/>
     </row>
-    <row r="353" spans="1:11" ht="30">
+    <row r="353" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A353" s="14">
         <v>22367</v>
       </c>
@@ -12192,7 +12354,7 @@
       <c r="J353" s="18"/>
       <c r="K353" s="19"/>
     </row>
-    <row r="354" spans="1:11">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="14">
         <v>22367</v>
       </c>
@@ -12215,7 +12377,7 @@
       <c r="J354" s="18"/>
       <c r="K354" s="19"/>
     </row>
-    <row r="355" spans="1:11">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="14">
         <v>22367</v>
       </c>
@@ -12238,7 +12400,7 @@
       <c r="J355" s="18"/>
       <c r="K355" s="19"/>
     </row>
-    <row r="356" spans="1:11" ht="30">
+    <row r="356" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A356" s="14">
         <v>22367</v>
       </c>
@@ -12261,7 +12423,7 @@
       <c r="J356" s="18"/>
       <c r="K356" s="19"/>
     </row>
-    <row r="357" spans="1:11">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="14">
         <v>22367</v>
       </c>
@@ -12284,7 +12446,7 @@
       <c r="J357" s="18"/>
       <c r="K357" s="19"/>
     </row>
-    <row r="358" spans="1:11" ht="60">
+    <row r="358" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A358" s="20">
         <v>22398</v>
       </c>
@@ -12307,7 +12469,7 @@
       <c r="J358" s="25"/>
       <c r="K358" s="26"/>
     </row>
-    <row r="359" spans="1:11">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="20">
         <v>22398</v>
       </c>
@@ -12330,7 +12492,7 @@
       <c r="J359" s="25"/>
       <c r="K359" s="26"/>
     </row>
-    <row r="360" spans="1:11">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="20">
         <v>22398</v>
       </c>
@@ -12353,7 +12515,7 @@
       <c r="J360" s="25"/>
       <c r="K360" s="26"/>
     </row>
-    <row r="361" spans="1:11" ht="45">
+    <row r="361" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A361" s="20">
         <v>22398</v>
       </c>
@@ -12376,7 +12538,7 @@
       <c r="J361" s="25"/>
       <c r="K361" s="26"/>
     </row>
-    <row r="362" spans="1:11" ht="90">
+    <row r="362" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A362" s="20">
         <v>22398</v>
       </c>
@@ -12399,7 +12561,7 @@
       <c r="J362" s="25"/>
       <c r="K362" s="26"/>
     </row>
-    <row r="363" spans="1:11" ht="45">
+    <row r="363" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A363" s="20">
         <v>22398</v>
       </c>
@@ -12422,7 +12584,7 @@
       <c r="J363" s="25"/>
       <c r="K363" s="26"/>
     </row>
-    <row r="364" spans="1:11" ht="60">
+    <row r="364" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A364" s="20">
         <v>22398</v>
       </c>
@@ -12445,7 +12607,7 @@
       <c r="J364" s="25"/>
       <c r="K364" s="26"/>
     </row>
-    <row r="365" spans="1:11">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="20">
         <v>22398</v>
       </c>
@@ -12468,7 +12630,7 @@
       <c r="J365" s="25"/>
       <c r="K365" s="26"/>
     </row>
-    <row r="366" spans="1:11">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="20">
         <v>22398</v>
       </c>
@@ -12491,7 +12653,7 @@
       <c r="J366" s="25"/>
       <c r="K366" s="26"/>
     </row>
-    <row r="367" spans="1:11" ht="30">
+    <row r="367" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A367" s="20">
         <v>22398</v>
       </c>
@@ -12514,7 +12676,7 @@
       <c r="J367" s="25"/>
       <c r="K367" s="26"/>
     </row>
-    <row r="368" spans="1:11" ht="30">
+    <row r="368" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A368" s="14">
         <v>22421</v>
       </c>
@@ -12537,7 +12699,7 @@
       <c r="J368" s="18"/>
       <c r="K368" s="19"/>
     </row>
-    <row r="369" spans="1:11">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="14">
         <v>22421</v>
       </c>
@@ -12560,7 +12722,7 @@
       <c r="J369" s="18"/>
       <c r="K369" s="19"/>
     </row>
-    <row r="370" spans="1:11" ht="105">
+    <row r="370" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A370" s="14">
         <v>22421</v>
       </c>
@@ -12583,7 +12745,7 @@
       <c r="J370" s="18"/>
       <c r="K370" s="19"/>
     </row>
-    <row r="371" spans="1:11" ht="45">
+    <row r="371" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A371" s="20">
         <v>22436</v>
       </c>
@@ -12606,7 +12768,7 @@
       <c r="J371" s="25"/>
       <c r="K371" s="26"/>
     </row>
-    <row r="372" spans="1:11">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="14">
         <v>22452</v>
       </c>
@@ -12629,7 +12791,7 @@
       <c r="J372" s="18"/>
       <c r="K372" s="19"/>
     </row>
-    <row r="373" spans="1:11">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="20">
         <v>22462</v>
       </c>
@@ -12652,7 +12814,7 @@
       <c r="J373" s="25"/>
       <c r="K373" s="26"/>
     </row>
-    <row r="374" spans="1:11" ht="60">
+    <row r="374" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A374" s="14">
         <v>22555</v>
       </c>
@@ -12675,7 +12837,7 @@
       <c r="J374" s="18"/>
       <c r="K374" s="19"/>
     </row>
-    <row r="375" spans="1:11" ht="45">
+    <row r="375" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A375" s="14">
         <v>22555</v>
       </c>
@@ -12698,7 +12860,7 @@
       <c r="J375" s="18"/>
       <c r="K375" s="19"/>
     </row>
-    <row r="376" spans="1:11" ht="60">
+    <row r="376" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A376" s="14">
         <v>22555</v>
       </c>
@@ -12721,7 +12883,7 @@
       <c r="J376" s="18"/>
       <c r="K376" s="19"/>
     </row>
-    <row r="377" spans="1:11" ht="30">
+    <row r="377" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A377" s="14">
         <v>22555</v>
       </c>
@@ -12744,7 +12906,7 @@
       <c r="J377" s="18"/>
       <c r="K377" s="19"/>
     </row>
-    <row r="378" spans="1:11" ht="75">
+    <row r="378" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A378" s="14">
         <v>22555</v>
       </c>
@@ -12767,7 +12929,7 @@
       <c r="J378" s="18"/>
       <c r="K378" s="19"/>
     </row>
-    <row r="379" spans="1:11">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="20">
         <v>22579</v>
       </c>
@@ -12790,7 +12952,7 @@
       <c r="J379" s="25"/>
       <c r="K379" s="26"/>
     </row>
-    <row r="380" spans="1:11" ht="30">
+    <row r="380" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A380" s="20">
         <v>22579</v>
       </c>
@@ -12813,7 +12975,7 @@
       <c r="J380" s="25"/>
       <c r="K380" s="26"/>
     </row>
-    <row r="381" spans="1:11" ht="30">
+    <row r="381" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A381" s="20">
         <v>22579</v>
       </c>
@@ -12836,7 +12998,7 @@
       <c r="J381" s="25"/>
       <c r="K381" s="26"/>
     </row>
-    <row r="382" spans="1:11">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="20">
         <v>22579</v>
       </c>
@@ -12859,7 +13021,7 @@
       <c r="J382" s="25"/>
       <c r="K382" s="26"/>
     </row>
-    <row r="383" spans="1:11" ht="30">
+    <row r="383" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A383" s="20">
         <v>22579</v>
       </c>
@@ -12882,7 +13044,7 @@
       <c r="J383" s="25"/>
       <c r="K383" s="26"/>
     </row>
-    <row r="384" spans="1:11">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="14">
         <v>22609</v>
       </c>
@@ -12905,7 +13067,7 @@
       <c r="J384" s="18"/>
       <c r="K384" s="19"/>
     </row>
-    <row r="385" spans="1:11" ht="45">
+    <row r="385" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A385" s="14">
         <v>22609</v>
       </c>
@@ -12928,7 +13090,7 @@
       <c r="J385" s="18"/>
       <c r="K385" s="19"/>
     </row>
-    <row r="386" spans="1:11" ht="45">
+    <row r="386" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A386" s="14">
         <v>22609</v>
       </c>
@@ -12951,7 +13113,7 @@
       <c r="J386" s="18"/>
       <c r="K386" s="19"/>
     </row>
-    <row r="387" spans="1:11">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="14">
         <v>22609</v>
       </c>
@@ -12974,7 +13136,7 @@
       <c r="J387" s="18"/>
       <c r="K387" s="19"/>
     </row>
-    <row r="388" spans="1:11">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="20">
         <v>22613</v>
       </c>
@@ -12997,7 +13159,7 @@
       <c r="J388" s="25"/>
       <c r="K388" s="26"/>
     </row>
-    <row r="389" spans="1:11" ht="60">
+    <row r="389" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A389" s="20">
         <v>22613</v>
       </c>
@@ -13020,7 +13182,7 @@
       <c r="J389" s="25"/>
       <c r="K389" s="26"/>
     </row>
-    <row r="390" spans="1:11" ht="30">
+    <row r="390" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A390" s="14">
         <v>22614</v>
       </c>
@@ -13043,7 +13205,7 @@
       <c r="J390" s="18"/>
       <c r="K390" s="19"/>
     </row>
-    <row r="391" spans="1:11" ht="60">
+    <row r="391" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A391" s="14">
         <v>22614</v>
       </c>
@@ -13066,7 +13228,7 @@
       <c r="J391" s="18"/>
       <c r="K391" s="19"/>
     </row>
-    <row r="392" spans="1:11" ht="30">
+    <row r="392" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A392" s="20">
         <v>22634</v>
       </c>
@@ -13089,7 +13251,7 @@
       <c r="J392" s="25"/>
       <c r="K392" s="26"/>
     </row>
-    <row r="393" spans="1:11" ht="30">
+    <row r="393" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A393" s="20">
         <v>22634</v>
       </c>
@@ -13112,7 +13274,7 @@
       <c r="J393" s="25"/>
       <c r="K393" s="26"/>
     </row>
-    <row r="394" spans="1:11" ht="30">
+    <row r="394" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A394" s="20">
         <v>22634</v>
       </c>
@@ -13135,7 +13297,7 @@
       <c r="J394" s="25"/>
       <c r="K394" s="26"/>
     </row>
-    <row r="395" spans="1:11" ht="30">
+    <row r="395" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A395" s="20">
         <v>22634</v>
       </c>
@@ -13158,7 +13320,7 @@
       <c r="J395" s="25"/>
       <c r="K395" s="26"/>
     </row>
-    <row r="396" spans="1:11" ht="45">
+    <row r="396" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A396" s="20">
         <v>22634</v>
       </c>
@@ -13181,7 +13343,7 @@
       <c r="J396" s="25"/>
       <c r="K396" s="26"/>
     </row>
-    <row r="397" spans="1:11" ht="30">
+    <row r="397" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A397" s="20">
         <v>22634</v>
       </c>
@@ -13204,7 +13366,7 @@
       <c r="J397" s="25"/>
       <c r="K397" s="26"/>
     </row>
-    <row r="398" spans="1:11" ht="30">
+    <row r="398" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A398" s="20">
         <v>22634</v>
       </c>
@@ -13227,7 +13389,7 @@
       <c r="J398" s="25"/>
       <c r="K398" s="26"/>
     </row>
-    <row r="399" spans="1:11">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="14">
         <v>22717</v>
       </c>
@@ -13250,7 +13412,7 @@
       <c r="J399" s="18"/>
       <c r="K399" s="19"/>
     </row>
-    <row r="400" spans="1:11" ht="45">
+    <row r="400" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A400" s="20">
         <v>22720</v>
       </c>
@@ -13273,7 +13435,7 @@
       <c r="J400" s="25"/>
       <c r="K400" s="26"/>
     </row>
-    <row r="401" spans="1:11" ht="60">
+    <row r="401" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A401" s="20">
         <v>22720</v>
       </c>
@@ -13296,7 +13458,7 @@
       <c r="J401" s="25"/>
       <c r="K401" s="26"/>
     </row>
-    <row r="402" spans="1:11" ht="30">
+    <row r="402" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A402" s="20">
         <v>22720</v>
       </c>
@@ -13319,7 +13481,7 @@
       <c r="J402" s="25"/>
       <c r="K402" s="26"/>
     </row>
-    <row r="403" spans="1:11" ht="45">
+    <row r="403" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A403" s="20">
         <v>22720</v>
       </c>
@@ -13342,7 +13504,7 @@
       <c r="J403" s="25"/>
       <c r="K403" s="26"/>
     </row>
-    <row r="404" spans="1:11" ht="45">
+    <row r="404" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A404" s="20">
         <v>22720</v>
       </c>
@@ -13365,7 +13527,7 @@
       <c r="J404" s="25"/>
       <c r="K404" s="26"/>
     </row>
-    <row r="405" spans="1:11">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="20">
         <v>22720</v>
       </c>
@@ -13388,7 +13550,7 @@
       <c r="J405" s="25"/>
       <c r="K405" s="26"/>
     </row>
-    <row r="406" spans="1:11">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="20">
         <v>22720</v>
       </c>
@@ -13411,7 +13573,7 @@
       <c r="J406" s="25"/>
       <c r="K406" s="26"/>
     </row>
-    <row r="407" spans="1:11">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="20">
         <v>22720</v>
       </c>
@@ -13434,7 +13596,7 @@
       <c r="J407" s="25"/>
       <c r="K407" s="26"/>
     </row>
-    <row r="408" spans="1:11" ht="30">
+    <row r="408" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A408" s="20">
         <v>22720</v>
       </c>
@@ -13457,7 +13619,7 @@
       <c r="J408" s="25"/>
       <c r="K408" s="26"/>
     </row>
-    <row r="409" spans="1:11">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="20">
         <v>22720</v>
       </c>
@@ -13480,7 +13642,7 @@
       <c r="J409" s="25"/>
       <c r="K409" s="26"/>
     </row>
-    <row r="410" spans="1:11">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="14">
         <v>22721</v>
       </c>
@@ -13503,7 +13665,7 @@
       <c r="J410" s="18"/>
       <c r="K410" s="19"/>
     </row>
-    <row r="411" spans="1:11" ht="30">
+    <row r="411" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A411" s="14">
         <v>22721</v>
       </c>
@@ -13526,7 +13688,7 @@
       <c r="J411" s="18"/>
       <c r="K411" s="19"/>
     </row>
-    <row r="412" spans="1:11" ht="45">
+    <row r="412" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A412" s="14">
         <v>22721</v>
       </c>
@@ -13549,7 +13711,7 @@
       <c r="J412" s="18"/>
       <c r="K412" s="19"/>
     </row>
-    <row r="413" spans="1:11" ht="45">
+    <row r="413" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A413" s="14">
         <v>22721</v>
       </c>
@@ -13572,7 +13734,7 @@
       <c r="J413" s="18"/>
       <c r="K413" s="19"/>
     </row>
-    <row r="414" spans="1:11" ht="60">
+    <row r="414" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A414" s="14">
         <v>22721</v>
       </c>
@@ -13595,7 +13757,7 @@
       <c r="J414" s="18"/>
       <c r="K414" s="19"/>
     </row>
-    <row r="415" spans="1:11" ht="45">
+    <row r="415" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A415" s="14">
         <v>22721</v>
       </c>
@@ -13618,7 +13780,7 @@
       <c r="J415" s="18"/>
       <c r="K415" s="19"/>
     </row>
-    <row r="416" spans="1:11">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="14">
         <v>22721</v>
       </c>
@@ -13641,7 +13803,7 @@
       <c r="J416" s="18"/>
       <c r="K416" s="19"/>
     </row>
-    <row r="417" spans="1:11" ht="30">
+    <row r="417" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A417" s="14">
         <v>22721</v>
       </c>
@@ -13664,7 +13826,7 @@
       <c r="J417" s="18"/>
       <c r="K417" s="19"/>
     </row>
-    <row r="418" spans="1:11">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="20">
         <v>22723</v>
       </c>
@@ -13687,7 +13849,7 @@
       <c r="J418" s="25"/>
       <c r="K418" s="26"/>
     </row>
-    <row r="419" spans="1:11" ht="60">
+    <row r="419" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A419" s="20">
         <v>22723</v>
       </c>
@@ -13710,7 +13872,7 @@
       <c r="J419" s="25"/>
       <c r="K419" s="26"/>
     </row>
-    <row r="420" spans="1:11" ht="60">
+    <row r="420" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A420" s="20">
         <v>22723</v>
       </c>
@@ -13733,7 +13895,7 @@
       <c r="J420" s="25"/>
       <c r="K420" s="26"/>
     </row>
-    <row r="421" spans="1:11" ht="60">
+    <row r="421" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A421" s="20">
         <v>22723</v>
       </c>
@@ -13756,7 +13918,7 @@
       <c r="J421" s="25"/>
       <c r="K421" s="26"/>
     </row>
-    <row r="422" spans="1:11" ht="75">
+    <row r="422" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A422" s="20">
         <v>22723</v>
       </c>
@@ -13779,7 +13941,7 @@
       <c r="J422" s="25"/>
       <c r="K422" s="26"/>
     </row>
-    <row r="423" spans="1:11" ht="60">
+    <row r="423" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A423" s="20">
         <v>22723</v>
       </c>
@@ -13802,7 +13964,7 @@
       <c r="J423" s="25"/>
       <c r="K423" s="26"/>
     </row>
-    <row r="424" spans="1:11" ht="75">
+    <row r="424" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A424" s="20">
         <v>22723</v>
       </c>
@@ -13825,7 +13987,7 @@
       <c r="J424" s="25"/>
       <c r="K424" s="26"/>
     </row>
-    <row r="425" spans="1:11" ht="90">
+    <row r="425" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A425" s="20">
         <v>22723</v>
       </c>
@@ -13848,7 +14010,7 @@
       <c r="J425" s="25"/>
       <c r="K425" s="26"/>
     </row>
-    <row r="426" spans="1:11" ht="60">
+    <row r="426" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A426" s="20">
         <v>22723</v>
       </c>
@@ -13871,7 +14033,7 @@
       <c r="J426" s="25"/>
       <c r="K426" s="26"/>
     </row>
-    <row r="427" spans="1:11" ht="30">
+    <row r="427" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A427" s="20">
         <v>22723</v>
       </c>
@@ -13894,7 +14056,7 @@
       <c r="J427" s="25"/>
       <c r="K427" s="26"/>
     </row>
-    <row r="428" spans="1:11" ht="45">
+    <row r="428" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A428" s="14">
         <v>22779</v>
       </c>
@@ -13917,7 +14079,7 @@
       <c r="J428" s="18"/>
       <c r="K428" s="19"/>
     </row>
-    <row r="429" spans="1:11" ht="45">
+    <row r="429" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A429" s="14">
         <v>22779</v>
       </c>
@@ -13940,7 +14102,7 @@
       <c r="J429" s="18"/>
       <c r="K429" s="19"/>
     </row>
-    <row r="430" spans="1:11" ht="30">
+    <row r="430" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A430" s="14">
         <v>22779</v>
       </c>
@@ -13963,7 +14125,7 @@
       <c r="J430" s="18"/>
       <c r="K430" s="19"/>
     </row>
-    <row r="431" spans="1:11" ht="45">
+    <row r="431" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A431" s="14">
         <v>22779</v>
       </c>
@@ -13986,7 +14148,7 @@
       <c r="J431" s="18"/>
       <c r="K431" s="19"/>
     </row>
-    <row r="432" spans="1:11" ht="30">
+    <row r="432" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A432" s="20">
         <v>22870</v>
       </c>
@@ -14009,7 +14171,7 @@
       <c r="J432" s="25"/>
       <c r="K432" s="26"/>
     </row>
-    <row r="433" spans="1:11" ht="75">
+    <row r="433" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A433" s="20">
         <v>22870</v>
       </c>
@@ -14032,7 +14194,7 @@
       <c r="J433" s="25"/>
       <c r="K433" s="26"/>
     </row>
-    <row r="434" spans="1:11" ht="30">
+    <row r="434" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A434" s="20">
         <v>22870</v>
       </c>
@@ -14055,7 +14217,7 @@
       <c r="J434" s="25"/>
       <c r="K434" s="26"/>
     </row>
-    <row r="435" spans="1:11" ht="30">
+    <row r="435" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A435" s="20">
         <v>22870</v>
       </c>
@@ -14078,7 +14240,7 @@
       <c r="J435" s="25"/>
       <c r="K435" s="26"/>
     </row>
-    <row r="436" spans="1:11" ht="30">
+    <row r="436" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A436" s="20">
         <v>22870</v>
       </c>
@@ -14101,7 +14263,7 @@
       <c r="J436" s="25"/>
       <c r="K436" s="26"/>
     </row>
-    <row r="437" spans="1:11" ht="45">
+    <row r="437" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A437" s="14">
         <v>22871</v>
       </c>
@@ -14124,7 +14286,7 @@
       <c r="J437" s="18"/>
       <c r="K437" s="19"/>
     </row>
-    <row r="438" spans="1:11" ht="60">
+    <row r="438" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A438" s="14">
         <v>22871</v>
       </c>
@@ -14147,7 +14309,7 @@
       <c r="J438" s="18"/>
       <c r="K438" s="19"/>
     </row>
-    <row r="439" spans="1:11" ht="45">
+    <row r="439" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A439" s="14">
         <v>22871</v>
       </c>
@@ -14170,7 +14332,7 @@
       <c r="J439" s="18"/>
       <c r="K439" s="19"/>
     </row>
-    <row r="440" spans="1:11" ht="30">
+    <row r="440" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A440" s="14">
         <v>22871</v>
       </c>
@@ -14193,7 +14355,7 @@
       <c r="J440" s="18"/>
       <c r="K440" s="19"/>
     </row>
-    <row r="441" spans="1:11" ht="30">
+    <row r="441" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A441" s="20">
         <v>22947</v>
       </c>
@@ -14216,7 +14378,7 @@
       <c r="J441" s="25"/>
       <c r="K441" s="26"/>
     </row>
-    <row r="442" spans="1:11" ht="60">
+    <row r="442" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A442" s="14">
         <v>23012</v>
       </c>
@@ -14239,7 +14401,7 @@
       <c r="J442" s="18"/>
       <c r="K442" s="19"/>
     </row>
-    <row r="443" spans="1:11" ht="30">
+    <row r="443" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A443" s="20">
         <v>23019</v>
       </c>
@@ -14262,7 +14424,7 @@
       <c r="J443" s="25"/>
       <c r="K443" s="26"/>
     </row>
-    <row r="444" spans="1:11" ht="45">
+    <row r="444" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A444" s="20">
         <v>23019</v>
       </c>
@@ -14285,7 +14447,7 @@
       <c r="J444" s="25"/>
       <c r="K444" s="26"/>
     </row>
-    <row r="445" spans="1:11" ht="60">
+    <row r="445" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A445" s="20">
         <v>23019</v>
       </c>
@@ -14308,7 +14470,7 @@
       <c r="J445" s="25"/>
       <c r="K445" s="26"/>
     </row>
-    <row r="446" spans="1:11" ht="120">
+    <row r="446" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A446" s="20">
         <v>23019</v>
       </c>
@@ -14331,7 +14493,7 @@
       <c r="J446" s="25"/>
       <c r="K446" s="26"/>
     </row>
-    <row r="447" spans="1:11" ht="30">
+    <row r="447" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A447" s="14">
         <v>23021</v>
       </c>
@@ -14354,7 +14516,7 @@
       <c r="J447" s="18"/>
       <c r="K447" s="19"/>
     </row>
-    <row r="448" spans="1:11" ht="105">
+    <row r="448" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A448" s="14">
         <v>23021</v>
       </c>
@@ -14377,7 +14539,7 @@
       <c r="J448" s="18"/>
       <c r="K448" s="19"/>
     </row>
-    <row r="449" spans="1:11" ht="75">
+    <row r="449" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A449" s="14">
         <v>23021</v>
       </c>
@@ -14400,7 +14562,7 @@
       <c r="J449" s="18"/>
       <c r="K449" s="19"/>
     </row>
-    <row r="450" spans="1:11" ht="60">
+    <row r="450" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A450" s="14">
         <v>23021</v>
       </c>
@@ -14423,7 +14585,7 @@
       <c r="J450" s="18"/>
       <c r="K450" s="19"/>
     </row>
-    <row r="451" spans="1:11" ht="30">
+    <row r="451" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A451" s="14">
         <v>23021</v>
       </c>
@@ -14446,7 +14608,7 @@
       <c r="J451" s="18"/>
       <c r="K451" s="19"/>
     </row>
-    <row r="452" spans="1:11" ht="60">
+    <row r="452" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A452" s="14">
         <v>23021</v>
       </c>
@@ -14469,7 +14631,7 @@
       <c r="J452" s="18"/>
       <c r="K452" s="19"/>
     </row>
-    <row r="453" spans="1:11" ht="30">
+    <row r="453" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A453" s="14">
         <v>23021</v>
       </c>
@@ -14492,7 +14654,7 @@
       <c r="J453" s="18"/>
       <c r="K453" s="19"/>
     </row>
-    <row r="454" spans="1:11" ht="30">
+    <row r="454" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A454" s="14">
         <v>23021</v>
       </c>
@@ -14515,7 +14677,7 @@
       <c r="J454" s="18"/>
       <c r="K454" s="19"/>
     </row>
-    <row r="455" spans="1:11" ht="45">
+    <row r="455" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A455" s="20">
         <v>23122</v>
       </c>
@@ -14538,7 +14700,7 @@
       <c r="J455" s="25"/>
       <c r="K455" s="26"/>
     </row>
-    <row r="456" spans="1:11" ht="30">
+    <row r="456" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A456" s="20">
         <v>23122</v>
       </c>
@@ -14561,7 +14723,7 @@
       <c r="J456" s="25"/>
       <c r="K456" s="26"/>
     </row>
-    <row r="457" spans="1:11" ht="90">
+    <row r="457" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A457" s="20">
         <v>23122</v>
       </c>
@@ -14584,7 +14746,7 @@
       <c r="J457" s="25"/>
       <c r="K457" s="26"/>
     </row>
-    <row r="458" spans="1:11" ht="60">
+    <row r="458" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A458" s="20">
         <v>23122</v>
       </c>
@@ -14607,7 +14769,7 @@
       <c r="J458" s="25"/>
       <c r="K458" s="26"/>
     </row>
-    <row r="459" spans="1:11" ht="45">
+    <row r="459" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A459" s="20">
         <v>23122</v>
       </c>
@@ -14630,7 +14792,7 @@
       <c r="J459" s="25"/>
       <c r="K459" s="26"/>
     </row>
-    <row r="460" spans="1:11" ht="75">
+    <row r="460" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A460" s="14">
         <v>23124</v>
       </c>
@@ -14653,7 +14815,7 @@
       <c r="J460" s="18"/>
       <c r="K460" s="19"/>
     </row>
-    <row r="461" spans="1:11" ht="60">
+    <row r="461" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A461" s="20">
         <v>23165</v>
       </c>
@@ -14676,7 +14838,7 @@
       <c r="J461" s="25"/>
       <c r="K461" s="26"/>
     </row>
-    <row r="462" spans="1:11">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="20">
         <v>23165</v>
       </c>
@@ -14699,7 +14861,7 @@
       <c r="J462" s="25"/>
       <c r="K462" s="26"/>
     </row>
-    <row r="463" spans="1:11" ht="30">
+    <row r="463" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A463" s="20">
         <v>23165</v>
       </c>
@@ -14722,7 +14884,7 @@
       <c r="J463" s="25"/>
       <c r="K463" s="26"/>
     </row>
-    <row r="464" spans="1:11" ht="30">
+    <row r="464" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A464" s="14">
         <v>23201</v>
       </c>
@@ -14745,7 +14907,7 @@
       <c r="J464" s="18"/>
       <c r="K464" s="19"/>
     </row>
-    <row r="465" spans="1:11" ht="30">
+    <row r="465" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A465" s="14">
         <v>23201</v>
       </c>
@@ -14768,7 +14930,7 @@
       <c r="J465" s="18"/>
       <c r="K465" s="19"/>
     </row>
-    <row r="466" spans="1:11" ht="45">
+    <row r="466" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A466" s="20">
         <v>23274</v>
       </c>
@@ -14791,7 +14953,7 @@
       <c r="J466" s="25"/>
       <c r="K466" s="26"/>
     </row>
-    <row r="467" spans="1:11" ht="30">
+    <row r="467" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A467" s="20">
         <v>23274</v>
       </c>
@@ -14814,7 +14976,7 @@
       <c r="J467" s="25"/>
       <c r="K467" s="26"/>
     </row>
-    <row r="468" spans="1:11" ht="30">
+    <row r="468" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A468" s="20">
         <v>23274</v>
       </c>
@@ -14837,7 +14999,7 @@
       <c r="J468" s="25"/>
       <c r="K468" s="26"/>
     </row>
-    <row r="469" spans="1:11" ht="30">
+    <row r="469" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A469" s="14">
         <v>23275</v>
       </c>
@@ -14860,7 +15022,7 @@
       <c r="J469" s="18"/>
       <c r="K469" s="19"/>
     </row>
-    <row r="470" spans="1:11" ht="30">
+    <row r="470" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A470" s="14">
         <v>23275</v>
       </c>
@@ -14883,7 +15045,7 @@
       <c r="J470" s="18"/>
       <c r="K470" s="19"/>
     </row>
-    <row r="471" spans="1:11" ht="30">
+    <row r="471" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A471" s="14">
         <v>23275</v>
       </c>
@@ -14906,7 +15068,7 @@
       <c r="J471" s="18"/>
       <c r="K471" s="19"/>
     </row>
-    <row r="472" spans="1:11" ht="30">
+    <row r="472" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A472" s="14">
         <v>23275</v>
       </c>
@@ -14929,7 +15091,7 @@
       <c r="J472" s="18"/>
       <c r="K472" s="19"/>
     </row>
-    <row r="473" spans="1:11" ht="30">
+    <row r="473" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A473" s="14">
         <v>23275</v>
       </c>
@@ -14952,7 +15114,7 @@
       <c r="J473" s="18"/>
       <c r="K473" s="19"/>
     </row>
-    <row r="474" spans="1:11" ht="45">
+    <row r="474" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A474" s="20">
         <v>23276</v>
       </c>
@@ -14975,7 +15137,7 @@
       <c r="J474" s="25"/>
       <c r="K474" s="26"/>
     </row>
-    <row r="475" spans="1:11" ht="30">
+    <row r="475" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A475" s="20">
         <v>23276</v>
       </c>
@@ -14998,7 +15160,7 @@
       <c r="J475" s="25"/>
       <c r="K475" s="26"/>
     </row>
-    <row r="476" spans="1:11" ht="30">
+    <row r="476" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A476" s="20">
         <v>23276</v>
       </c>
@@ -15021,7 +15183,7 @@
       <c r="J476" s="25"/>
       <c r="K476" s="26"/>
     </row>
-    <row r="477" spans="1:11" ht="105">
+    <row r="477" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A477" s="14">
         <v>23363</v>
       </c>
@@ -15044,7 +15206,7 @@
       <c r="J477" s="18"/>
       <c r="K477" s="19"/>
     </row>
-    <row r="478" spans="1:11" ht="60">
+    <row r="478" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A478" s="14">
         <v>23363</v>
       </c>
@@ -15067,7 +15229,7 @@
       <c r="J478" s="18"/>
       <c r="K478" s="19"/>
     </row>
-    <row r="479" spans="1:11" ht="120">
+    <row r="479" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A479" s="14">
         <v>23363</v>
       </c>
@@ -15090,7 +15252,7 @@
       <c r="J479" s="18"/>
       <c r="K479" s="19"/>
     </row>
-    <row r="480" spans="1:11" ht="45">
+    <row r="480" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A480" s="14">
         <v>23363</v>
       </c>
@@ -15113,7 +15275,7 @@
       <c r="J480" s="18"/>
       <c r="K480" s="19"/>
     </row>
-    <row r="481" spans="1:11" ht="45">
+    <row r="481" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A481" s="20">
         <v>23422</v>
       </c>
@@ -15136,7 +15298,7 @@
       <c r="J481" s="25"/>
       <c r="K481" s="26"/>
     </row>
-    <row r="482" spans="1:11" ht="30">
+    <row r="482" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A482" s="20">
         <v>23422</v>
       </c>
@@ -15159,7 +15321,7 @@
       <c r="J482" s="25"/>
       <c r="K482" s="26"/>
     </row>
-    <row r="483" spans="1:11" ht="45">
+    <row r="483" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A483" s="14">
         <v>23428</v>
       </c>
@@ -15182,7 +15344,7 @@
       <c r="J483" s="18"/>
       <c r="K483" s="19"/>
     </row>
-    <row r="484" spans="1:11" ht="30">
+    <row r="484" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A484" s="14">
         <v>23428</v>
       </c>
@@ -15205,7 +15367,7 @@
       <c r="J484" s="18"/>
       <c r="K484" s="19"/>
     </row>
-    <row r="485" spans="1:11" ht="45">
+    <row r="485" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A485" s="20">
         <v>23436</v>
       </c>
@@ -15228,7 +15390,7 @@
       <c r="J485" s="25"/>
       <c r="K485" s="26"/>
     </row>
-    <row r="486" spans="1:11" ht="30">
+    <row r="486" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A486" s="20">
         <v>23436</v>
       </c>
@@ -15251,7 +15413,7 @@
       <c r="J486" s="25"/>
       <c r="K486" s="26"/>
     </row>
-    <row r="487" spans="1:11" ht="30">
+    <row r="487" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A487" s="14">
         <v>23439</v>
       </c>
@@ -15274,7 +15436,7 @@
       <c r="J487" s="18"/>
       <c r="K487" s="19"/>
     </row>
-    <row r="488" spans="1:11" ht="60">
+    <row r="488" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A488" s="20">
         <v>23462</v>
       </c>
@@ -15297,7 +15459,7 @@
       <c r="J488" s="25"/>
       <c r="K488" s="26"/>
     </row>
-    <row r="489" spans="1:11" ht="45">
+    <row r="489" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A489" s="20">
         <v>23462</v>
       </c>
@@ -15320,7 +15482,7 @@
       <c r="J489" s="25"/>
       <c r="K489" s="26"/>
     </row>
-    <row r="490" spans="1:11" ht="75">
+    <row r="490" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A490" s="14">
         <v>23486</v>
       </c>
@@ -15343,7 +15505,7 @@
       <c r="J490" s="18"/>
       <c r="K490" s="19"/>
     </row>
-    <row r="491" spans="1:11">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="14">
         <v>23486</v>
       </c>
@@ -15366,7 +15528,7 @@
       <c r="J491" s="18"/>
       <c r="K491" s="19"/>
     </row>
-    <row r="492" spans="1:11" ht="45">
+    <row r="492" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A492" s="14">
         <v>23486</v>
       </c>
@@ -15389,7 +15551,7 @@
       <c r="J492" s="18"/>
       <c r="K492" s="19"/>
     </row>
-    <row r="493" spans="1:11">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="14">
         <v>23486</v>
       </c>
@@ -15412,7 +15574,7 @@
       <c r="J493" s="18"/>
       <c r="K493" s="19"/>
     </row>
-    <row r="494" spans="1:11" ht="60">
+    <row r="494" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A494" s="20">
         <v>23487</v>
       </c>
@@ -15435,7 +15597,7 @@
       <c r="J494" s="25"/>
       <c r="K494" s="26"/>
     </row>
-    <row r="495" spans="1:11" ht="30">
+    <row r="495" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A495" s="20">
         <v>23487</v>
       </c>
@@ -15458,7 +15620,7 @@
       <c r="J495" s="25"/>
       <c r="K495" s="26"/>
     </row>
-    <row r="496" spans="1:11" ht="30">
+    <row r="496" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A496" s="14">
         <v>23489</v>
       </c>
@@ -15481,7 +15643,7 @@
       <c r="J496" s="18"/>
       <c r="K496" s="19"/>
     </row>
-    <row r="497" spans="1:11" ht="30">
+    <row r="497" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A497" s="14">
         <v>23489</v>
       </c>
@@ -15504,7 +15666,7 @@
       <c r="J497" s="18"/>
       <c r="K497" s="19"/>
     </row>
-    <row r="498" spans="1:11" ht="60">
+    <row r="498" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A498" s="20">
         <v>23492</v>
       </c>
@@ -15527,7 +15689,7 @@
       <c r="J498" s="25"/>
       <c r="K498" s="26"/>
     </row>
-    <row r="499" spans="1:11" ht="30">
+    <row r="499" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A499" s="14">
         <v>23511</v>
       </c>
@@ -15550,7 +15712,7 @@
       <c r="J499" s="18"/>
       <c r="K499" s="19"/>
     </row>
-    <row r="500" spans="1:11" ht="30">
+    <row r="500" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A500" s="14">
         <v>23511</v>
       </c>
@@ -15573,7 +15735,7 @@
       <c r="J500" s="18"/>
       <c r="K500" s="19"/>
     </row>
-    <row r="501" spans="1:11" ht="45">
+    <row r="501" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A501" s="20">
         <v>23512</v>
       </c>
@@ -15596,7 +15758,7 @@
       <c r="J501" s="25"/>
       <c r="K501" s="26"/>
     </row>
-    <row r="502" spans="1:11" ht="30">
+    <row r="502" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A502" s="20">
         <v>23512</v>
       </c>
@@ -15619,7 +15781,7 @@
       <c r="J502" s="25"/>
       <c r="K502" s="26"/>
     </row>
-    <row r="503" spans="1:11" ht="30">
+    <row r="503" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A503" s="14">
         <v>23539</v>
       </c>
@@ -15642,7 +15804,7 @@
       <c r="J503" s="18"/>
       <c r="K503" s="19"/>
     </row>
-    <row r="504" spans="1:11" ht="30">
+    <row r="504" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A504" s="14">
         <v>23539</v>
       </c>
@@ -15665,7 +15827,7 @@
       <c r="J504" s="18"/>
       <c r="K504" s="19"/>
     </row>
-    <row r="505" spans="1:11" ht="75">
+    <row r="505" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A505" s="20">
         <v>23545</v>
       </c>
@@ -15688,7 +15850,7 @@
       <c r="J505" s="25"/>
       <c r="K505" s="26"/>
     </row>
-    <row r="506" spans="1:11" ht="45">
+    <row r="506" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A506" s="20">
         <v>23545</v>
       </c>
@@ -15711,7 +15873,7 @@
       <c r="J506" s="25"/>
       <c r="K506" s="26"/>
     </row>
-    <row r="507" spans="1:11" ht="45">
+    <row r="507" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A507" s="14">
         <v>23593</v>
       </c>
@@ -15734,7 +15896,7 @@
       <c r="J507" s="18"/>
       <c r="K507" s="19"/>
     </row>
-    <row r="508" spans="1:11" ht="45">
+    <row r="508" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A508" s="20">
         <v>23630</v>
       </c>
@@ -15757,7 +15919,7 @@
       <c r="J508" s="25"/>
       <c r="K508" s="26"/>
     </row>
-    <row r="509" spans="1:11" ht="105">
+    <row r="509" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A509" s="20">
         <v>23630</v>
       </c>
@@ -15780,7 +15942,7 @@
       <c r="J509" s="25"/>
       <c r="K509" s="26"/>
     </row>
-    <row r="510" spans="1:11" ht="30">
+    <row r="510" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A510" s="20">
         <v>23630</v>
       </c>
@@ -15803,7 +15965,7 @@
       <c r="J510" s="25"/>
       <c r="K510" s="26"/>
     </row>
-    <row r="511" spans="1:11" ht="30">
+    <row r="511" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A511" s="20">
         <v>23630</v>
       </c>
@@ -15826,7 +15988,7 @@
       <c r="J511" s="25"/>
       <c r="K511" s="26"/>
     </row>
-    <row r="512" spans="1:11" ht="60">
+    <row r="512" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A512" s="20">
         <v>23630</v>
       </c>
@@ -15849,7 +16011,7 @@
       <c r="J512" s="25"/>
       <c r="K512" s="26"/>
     </row>
-    <row r="513" spans="1:11" ht="30">
+    <row r="513" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A513" s="20">
         <v>23630</v>
       </c>
@@ -15872,7 +16034,7 @@
       <c r="J513" s="25"/>
       <c r="K513" s="26"/>
     </row>
-    <row r="514" spans="1:11" ht="30">
+    <row r="514" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A514" s="20">
         <v>23630</v>
       </c>
@@ -15895,7 +16057,7 @@
       <c r="J514" s="25"/>
       <c r="K514" s="26"/>
     </row>
-    <row r="515" spans="1:11" ht="45">
+    <row r="515" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A515" s="20">
         <v>23630</v>
       </c>
@@ -15918,7 +16080,7 @@
       <c r="J515" s="25"/>
       <c r="K515" s="26"/>
     </row>
-    <row r="516" spans="1:11" ht="75">
+    <row r="516" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A516" s="14">
         <v>23692</v>
       </c>
@@ -15941,7 +16103,7 @@
       <c r="J516" s="18"/>
       <c r="K516" s="19"/>
     </row>
-    <row r="517" spans="1:11" ht="30">
+    <row r="517" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A517" s="14">
         <v>23692</v>
       </c>
@@ -15964,7 +16126,7 @@
       <c r="J517" s="18"/>
       <c r="K517" s="19"/>
     </row>
-    <row r="518" spans="1:11" ht="45">
+    <row r="518" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A518" s="14">
         <v>23692</v>
       </c>
@@ -15987,7 +16149,7 @@
       <c r="J518" s="18"/>
       <c r="K518" s="19"/>
     </row>
-    <row r="519" spans="1:11" ht="30">
+    <row r="519" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A519" s="14">
         <v>23692</v>
       </c>
@@ -16010,7 +16172,7 @@
       <c r="J519" s="18"/>
       <c r="K519" s="19"/>
     </row>
-    <row r="520" spans="1:11" ht="45">
+    <row r="520" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A520" s="14">
         <v>23692</v>
       </c>
@@ -16033,7 +16195,7 @@
       <c r="J520" s="18"/>
       <c r="K520" s="19"/>
     </row>
-    <row r="521" spans="1:11" ht="30">
+    <row r="521" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A521" s="20">
         <v>23706</v>
       </c>
@@ -16056,7 +16218,7 @@
       <c r="J521" s="25"/>
       <c r="K521" s="26"/>
     </row>
-    <row r="522" spans="1:11" ht="30">
+    <row r="522" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A522" s="14">
         <v>23708</v>
       </c>
@@ -16079,7 +16241,7 @@
       <c r="J522" s="18"/>
       <c r="K522" s="19"/>
     </row>
-    <row r="523" spans="1:11" ht="30">
+    <row r="523" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A523" s="20">
         <v>23709</v>
       </c>
@@ -16102,7 +16264,7 @@
       <c r="J523" s="25"/>
       <c r="K523" s="26"/>
     </row>
-    <row r="524" spans="1:11" ht="30">
+    <row r="524" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A524" s="14">
         <v>23710</v>
       </c>
@@ -16125,7 +16287,7 @@
       <c r="J524" s="18"/>
       <c r="K524" s="19"/>
     </row>
-    <row r="525" spans="1:11" ht="30">
+    <row r="525" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A525" s="20">
         <v>23712</v>
       </c>
@@ -16148,7 +16310,7 @@
       <c r="J525" s="25"/>
       <c r="K525" s="26"/>
     </row>
-    <row r="526" spans="1:11" ht="45">
+    <row r="526" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A526" s="20">
         <v>23712</v>
       </c>
@@ -16171,7 +16333,7 @@
       <c r="J526" s="25"/>
       <c r="K526" s="26"/>
     </row>
-    <row r="527" spans="1:11" ht="75">
+    <row r="527" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A527" s="20">
         <v>23712</v>
       </c>
@@ -16194,7 +16356,7 @@
       <c r="J527" s="25"/>
       <c r="K527" s="26"/>
     </row>
-    <row r="528" spans="1:11" ht="45">
+    <row r="528" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A528" s="20">
         <v>23712</v>
       </c>
@@ -16217,7 +16379,7 @@
       <c r="J528" s="25"/>
       <c r="K528" s="26"/>
     </row>
-    <row r="529" spans="1:11" ht="30">
+    <row r="529" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A529" s="20">
         <v>23712</v>
       </c>
@@ -16240,7 +16402,7 @@
       <c r="J529" s="25"/>
       <c r="K529" s="26"/>
     </row>
-    <row r="530" spans="1:11" ht="45">
+    <row r="530" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A530" s="20">
         <v>23712</v>
       </c>
@@ -16263,7 +16425,7 @@
       <c r="J530" s="25"/>
       <c r="K530" s="26"/>
     </row>
-    <row r="531" spans="1:11">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="20">
         <v>23712</v>
       </c>
@@ -16286,7 +16448,7 @@
       <c r="J531" s="25"/>
       <c r="K531" s="26"/>
     </row>
-    <row r="532" spans="1:11" ht="45">
+    <row r="532" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A532" s="20">
         <v>23712</v>
       </c>
@@ -16309,7 +16471,7 @@
       <c r="J532" s="25"/>
       <c r="K532" s="26"/>
     </row>
-    <row r="533" spans="1:11" ht="60">
+    <row r="533" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A533" s="20">
         <v>23712</v>
       </c>
@@ -16332,7 +16494,7 @@
       <c r="J533" s="25"/>
       <c r="K533" s="26"/>
     </row>
-    <row r="534" spans="1:11">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="20">
         <v>23712</v>
       </c>
@@ -16355,7 +16517,7 @@
       <c r="J534" s="25"/>
       <c r="K534" s="26"/>
     </row>
-    <row r="535" spans="1:11" ht="30">
+    <row r="535" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A535" s="14">
         <v>23753</v>
       </c>
@@ -16378,7 +16540,7 @@
       <c r="J535" s="18"/>
       <c r="K535" s="19"/>
     </row>
-    <row r="536" spans="1:11" ht="30">
+    <row r="536" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A536" s="14">
         <v>23753</v>
       </c>
@@ -16401,7 +16563,7 @@
       <c r="J536" s="18"/>
       <c r="K536" s="19"/>
     </row>
-    <row r="537" spans="1:11" ht="30">
+    <row r="537" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A537" s="14">
         <v>23753</v>
       </c>
@@ -16424,7 +16586,7 @@
       <c r="J537" s="18"/>
       <c r="K537" s="19"/>
     </row>
-    <row r="538" spans="1:11" ht="120">
+    <row r="538" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A538" s="14">
         <v>23753</v>
       </c>
@@ -16447,7 +16609,7 @@
       <c r="J538" s="18"/>
       <c r="K538" s="19"/>
     </row>
-    <row r="539" spans="1:11" ht="30">
+    <row r="539" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A539" s="14">
         <v>23753</v>
       </c>
@@ -16470,7 +16632,7 @@
       <c r="J539" s="18"/>
       <c r="K539" s="19"/>
     </row>
-    <row r="540" spans="1:11" ht="90">
+    <row r="540" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A540" s="14">
         <v>23753</v>
       </c>
@@ -16493,7 +16655,7 @@
       <c r="J540" s="18"/>
       <c r="K540" s="19"/>
     </row>
-    <row r="541" spans="1:11" ht="60">
+    <row r="541" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A541" s="14">
         <v>23753</v>
       </c>
@@ -16516,7 +16678,7 @@
       <c r="J541" s="18"/>
       <c r="K541" s="19"/>
     </row>
-    <row r="542" spans="1:11">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="20">
         <v>23899</v>
       </c>
@@ -16539,7 +16701,7 @@
       <c r="J542" s="25"/>
       <c r="K542" s="26"/>
     </row>
-    <row r="543" spans="1:11" ht="30">
+    <row r="543" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A543" s="14">
         <v>23934</v>
       </c>
@@ -16562,7 +16724,7 @@
       <c r="J543" s="18"/>
       <c r="K543" s="19"/>
     </row>
-    <row r="544" spans="1:11" ht="30">
+    <row r="544" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A544" s="14">
         <v>23934</v>
       </c>
@@ -16585,7 +16747,7 @@
       <c r="J544" s="18"/>
       <c r="K544" s="19"/>
     </row>
-    <row r="545" spans="1:11" ht="30">
+    <row r="545" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A545" s="14">
         <v>23934</v>
       </c>
@@ -16608,7 +16770,7 @@
       <c r="J545" s="18"/>
       <c r="K545" s="19"/>
     </row>
-    <row r="546" spans="1:11">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="20">
         <v>24045</v>
       </c>
@@ -16631,7 +16793,7 @@
       <c r="J546" s="25"/>
       <c r="K546" s="26"/>
     </row>
-    <row r="547" spans="1:11" ht="45">
+    <row r="547" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A547" s="20">
         <v>24045</v>
       </c>
@@ -16654,7 +16816,7 @@
       <c r="J547" s="25"/>
       <c r="K547" s="26"/>
     </row>
-    <row r="548" spans="1:11" ht="45">
+    <row r="548" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A548" s="20">
         <v>24045</v>
       </c>
@@ -16677,7 +16839,7 @@
       <c r="J548" s="25"/>
       <c r="K548" s="26"/>
     </row>
-    <row r="549" spans="1:11" ht="30">
+    <row r="549" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A549" s="20">
         <v>24045</v>
       </c>
@@ -16700,7 +16862,7 @@
       <c r="J549" s="25"/>
       <c r="K549" s="26"/>
     </row>
-    <row r="550" spans="1:11" ht="30">
+    <row r="550" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A550" s="20">
         <v>24045</v>
       </c>
@@ -16723,7 +16885,7 @@
       <c r="J550" s="25"/>
       <c r="K550" s="26"/>
     </row>
-    <row r="551" spans="1:11">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="20">
         <v>24045</v>
       </c>
@@ -16746,7 +16908,7 @@
       <c r="J551" s="25"/>
       <c r="K551" s="26"/>
     </row>
-    <row r="552" spans="1:11">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="20">
         <v>24045</v>
       </c>
@@ -16769,7 +16931,7 @@
       <c r="J552" s="25"/>
       <c r="K552" s="26"/>
     </row>
-    <row r="553" spans="1:11">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="20">
         <v>24045</v>
       </c>
@@ -16792,7 +16954,7 @@
       <c r="J553" s="25"/>
       <c r="K553" s="26"/>
     </row>
-    <row r="554" spans="1:11">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="20">
         <v>24045</v>
       </c>
@@ -16815,7 +16977,7 @@
       <c r="J554" s="25"/>
       <c r="K554" s="26"/>
     </row>
-    <row r="555" spans="1:11" ht="30">
+    <row r="555" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A555" s="14">
         <v>24046</v>
       </c>
@@ -16838,7 +17000,7 @@
       <c r="J555" s="18"/>
       <c r="K555" s="19"/>
     </row>
-    <row r="556" spans="1:11" ht="30">
+    <row r="556" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A556" s="14">
         <v>24046</v>
       </c>
@@ -16861,7 +17023,7 @@
       <c r="J556" s="18"/>
       <c r="K556" s="19"/>
     </row>
-    <row r="557" spans="1:11" ht="45">
+    <row r="557" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A557" s="14">
         <v>24046</v>
       </c>
@@ -16884,7 +17046,7 @@
       <c r="J557" s="18"/>
       <c r="K557" s="19"/>
     </row>
-    <row r="558" spans="1:11" ht="30">
+    <row r="558" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A558" s="14">
         <v>24046</v>
       </c>
@@ -16907,7 +17069,7 @@
       <c r="J558" s="18"/>
       <c r="K558" s="19"/>
     </row>
-    <row r="559" spans="1:11" ht="30">
+    <row r="559" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A559" s="14">
         <v>24046</v>
       </c>
@@ -16930,7 +17092,7 @@
       <c r="J559" s="18"/>
       <c r="K559" s="19"/>
     </row>
-    <row r="560" spans="1:11" ht="45">
+    <row r="560" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A560" s="20">
         <v>24047</v>
       </c>
@@ -16953,7 +17115,7 @@
       <c r="J560" s="25"/>
       <c r="K560" s="26"/>
     </row>
-    <row r="561" spans="1:11" ht="45">
+    <row r="561" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A561" s="20">
         <v>24047</v>
       </c>
@@ -16976,7 +17138,7 @@
       <c r="J561" s="25"/>
       <c r="K561" s="26"/>
     </row>
-    <row r="562" spans="1:11" ht="90">
+    <row r="562" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A562" s="20">
         <v>24047</v>
       </c>
@@ -16999,7 +17161,7 @@
       <c r="J562" s="25"/>
       <c r="K562" s="26"/>
     </row>
-    <row r="563" spans="1:11" ht="60">
+    <row r="563" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A563" s="20">
         <v>24047</v>
       </c>
@@ -17022,7 +17184,7 @@
       <c r="J563" s="25"/>
       <c r="K563" s="26"/>
     </row>
-    <row r="564" spans="1:11" ht="30">
+    <row r="564" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A564" s="20">
         <v>24047</v>
       </c>
@@ -17045,7 +17207,7 @@
       <c r="J564" s="25"/>
       <c r="K564" s="26"/>
     </row>
-    <row r="565" spans="1:11" ht="30">
+    <row r="565" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A565" s="20">
         <v>24047</v>
       </c>
@@ -17068,7 +17230,7 @@
       <c r="J565" s="25"/>
       <c r="K565" s="26"/>
     </row>
-    <row r="566" spans="1:11" ht="90">
+    <row r="566" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A566" s="20">
         <v>24047</v>
       </c>
@@ -17091,7 +17253,7 @@
       <c r="J566" s="25"/>
       <c r="K566" s="26"/>
     </row>
-    <row r="567" spans="1:11" ht="60">
+    <row r="567" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A567" s="20">
         <v>24047</v>
       </c>
@@ -17114,7 +17276,7 @@
       <c r="J567" s="25"/>
       <c r="K567" s="26"/>
     </row>
-    <row r="568" spans="1:11" ht="75">
+    <row r="568" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A568" s="20">
         <v>24047</v>
       </c>
@@ -17137,7 +17299,7 @@
       <c r="J568" s="25"/>
       <c r="K568" s="26"/>
     </row>
-    <row r="569" spans="1:11" ht="90">
+    <row r="569" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A569" s="20">
         <v>24047</v>
       </c>
@@ -17160,7 +17322,7 @@
       <c r="J569" s="25"/>
       <c r="K569" s="26"/>
     </row>
-    <row r="570" spans="1:11" ht="45">
+    <row r="570" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A570" s="20">
         <v>24047</v>
       </c>
@@ -17183,7 +17345,7 @@
       <c r="J570" s="25"/>
       <c r="K570" s="26"/>
     </row>
-    <row r="571" spans="1:11" ht="45">
+    <row r="571" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A571" s="20">
         <v>24047</v>
       </c>
@@ -17206,7 +17368,7 @@
       <c r="J571" s="25"/>
       <c r="K571" s="26"/>
     </row>
-    <row r="572" spans="1:11" ht="60">
+    <row r="572" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A572" s="20">
         <v>24047</v>
       </c>
@@ -17229,7 +17391,7 @@
       <c r="J572" s="25"/>
       <c r="K572" s="26"/>
     </row>
-    <row r="573" spans="1:11" ht="90">
+    <row r="573" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A573" s="14">
         <v>24048</v>
       </c>
@@ -17252,7 +17414,7 @@
       <c r="J573" s="18"/>
       <c r="K573" s="19"/>
     </row>
-    <row r="574" spans="1:11" ht="30">
+    <row r="574" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A574" s="14">
         <v>24048</v>
       </c>
@@ -17275,7 +17437,7 @@
       <c r="J574" s="18"/>
       <c r="K574" s="19"/>
     </row>
-    <row r="575" spans="1:11" ht="30">
+    <row r="575" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A575" s="14">
         <v>24048</v>
       </c>
@@ -17298,7 +17460,7 @@
       <c r="J575" s="18"/>
       <c r="K575" s="19"/>
     </row>
-    <row r="576" spans="1:11" ht="30">
+    <row r="576" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A576" s="14">
         <v>24048</v>
       </c>
@@ -17321,7 +17483,7 @@
       <c r="J576" s="18"/>
       <c r="K576" s="19"/>
     </row>
-    <row r="577" spans="1:11" ht="60">
+    <row r="577" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A577" s="14">
         <v>24048</v>
       </c>
@@ -17344,7 +17506,7 @@
       <c r="J577" s="18"/>
       <c r="K577" s="19"/>
     </row>
-    <row r="578" spans="1:11" ht="45">
+    <row r="578" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A578" s="14">
         <v>24048</v>
       </c>
@@ -17367,7 +17529,7 @@
       <c r="J578" s="18"/>
       <c r="K578" s="19"/>
     </row>
-    <row r="579" spans="1:11">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="14">
         <v>24048</v>
       </c>
@@ -17390,7 +17552,7 @@
       <c r="J579" s="18"/>
       <c r="K579" s="19"/>
     </row>
-    <row r="580" spans="1:11" ht="75">
+    <row r="580" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A580" s="14">
         <v>24048</v>
       </c>
@@ -17413,7 +17575,7 @@
       <c r="J580" s="18"/>
       <c r="K580" s="19"/>
     </row>
-    <row r="581" spans="1:11" ht="60">
+    <row r="581" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A581" s="14">
         <v>24048</v>
       </c>
@@ -17436,7 +17598,7 @@
       <c r="J581" s="18"/>
       <c r="K581" s="19"/>
     </row>
-    <row r="582" spans="1:11" ht="75">
+    <row r="582" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A582" s="14">
         <v>24048</v>
       </c>
@@ -17459,7 +17621,7 @@
       <c r="J582" s="18"/>
       <c r="K582" s="19"/>
     </row>
-    <row r="583" spans="1:11" ht="75">
+    <row r="583" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A583" s="14">
         <v>24048</v>
       </c>
@@ -17482,7 +17644,7 @@
       <c r="J583" s="18"/>
       <c r="K583" s="19"/>
     </row>
-    <row r="584" spans="1:11" ht="30">
+    <row r="584" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A584" s="14">
         <v>24048</v>
       </c>
@@ -17505,7 +17667,7 @@
       <c r="J584" s="18"/>
       <c r="K584" s="19"/>
     </row>
-    <row r="585" spans="1:11" ht="60">
+    <row r="585" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A585" s="14">
         <v>24048</v>
       </c>
@@ -17528,7 +17690,7 @@
       <c r="J585" s="18"/>
       <c r="K585" s="19"/>
     </row>
-    <row r="586" spans="1:11" ht="30">
+    <row r="586" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A586" s="14">
         <v>24048</v>
       </c>
@@ -17551,7 +17713,7 @@
       <c r="J586" s="18"/>
       <c r="K586" s="19"/>
     </row>
-    <row r="587" spans="1:11" ht="45">
+    <row r="587" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A587" s="14">
         <v>24048</v>
       </c>
@@ -17574,7 +17736,7 @@
       <c r="J587" s="18"/>
       <c r="K587" s="19"/>
     </row>
-    <row r="588" spans="1:11" ht="45">
+    <row r="588" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A588" s="20">
         <v>24049</v>
       </c>
@@ -17597,7 +17759,7 @@
       <c r="J588" s="25"/>
       <c r="K588" s="26"/>
     </row>
-    <row r="589" spans="1:11" ht="30">
+    <row r="589" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A589" s="20">
         <v>24049</v>
       </c>
@@ -17620,7 +17782,7 @@
       <c r="J589" s="25"/>
       <c r="K589" s="26"/>
     </row>
-    <row r="590" spans="1:11" ht="45">
+    <row r="590" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A590" s="20">
         <v>24049</v>
       </c>
@@ -17643,7 +17805,7 @@
       <c r="J590" s="25"/>
       <c r="K590" s="26"/>
     </row>
-    <row r="591" spans="1:11" ht="60">
+    <row r="591" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A591" s="14">
         <v>24050</v>
       </c>
@@ -17666,7 +17828,7 @@
       <c r="J591" s="18"/>
       <c r="K591" s="19"/>
     </row>
-    <row r="592" spans="1:11">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="14">
         <v>24050</v>
       </c>
@@ -17689,7 +17851,7 @@
       <c r="J592" s="18"/>
       <c r="K592" s="19"/>
     </row>
-    <row r="593" spans="1:11" ht="45">
+    <row r="593" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A593" s="14">
         <v>24050</v>
       </c>
@@ -17712,7 +17874,7 @@
       <c r="J593" s="18"/>
       <c r="K593" s="19"/>
     </row>
-    <row r="594" spans="1:11" ht="75">
+    <row r="594" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A594" s="20">
         <v>24067</v>
       </c>
@@ -17735,7 +17897,7 @@
       <c r="J594" s="25"/>
       <c r="K594" s="26"/>
     </row>
-    <row r="595" spans="1:11" ht="90">
+    <row r="595" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A595" s="20">
         <v>24067</v>
       </c>
@@ -17758,7 +17920,7 @@
       <c r="J595" s="25"/>
       <c r="K595" s="26"/>
     </row>
-    <row r="596" spans="1:11" ht="45">
+    <row r="596" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A596" s="20">
         <v>24067</v>
       </c>
@@ -17781,7 +17943,7 @@
       <c r="J596" s="25"/>
       <c r="K596" s="26"/>
     </row>
-    <row r="597" spans="1:11" ht="75">
+    <row r="597" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A597" s="14">
         <v>24113</v>
       </c>
@@ -17804,7 +17966,7 @@
       <c r="J597" s="18"/>
       <c r="K597" s="19"/>
     </row>
-    <row r="598" spans="1:11">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="14">
         <v>24113</v>
       </c>
@@ -17827,7 +17989,7 @@
       <c r="J598" s="18"/>
       <c r="K598" s="19"/>
     </row>
-    <row r="599" spans="1:11" ht="30">
+    <row r="599" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A599" s="14">
         <v>24113</v>
       </c>
@@ -17850,7 +18012,7 @@
       <c r="J599" s="18"/>
       <c r="K599" s="19"/>
     </row>
-    <row r="600" spans="1:11">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="14">
         <v>24113</v>
       </c>
@@ -17873,7 +18035,7 @@
       <c r="J600" s="18"/>
       <c r="K600" s="19"/>
     </row>
-    <row r="601" spans="1:11" ht="75">
+    <row r="601" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A601" s="14">
         <v>24113</v>
       </c>
@@ -17896,7 +18058,7 @@
       <c r="J601" s="18"/>
       <c r="K601" s="19"/>
     </row>
-    <row r="602" spans="1:11" ht="60">
+    <row r="602" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A602" s="14">
         <v>24113</v>
       </c>
@@ -17919,7 +18081,7 @@
       <c r="J602" s="18"/>
       <c r="K602" s="19"/>
     </row>
-    <row r="603" spans="1:11">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="20">
         <v>24196</v>
       </c>
@@ -17942,7 +18104,7 @@
       <c r="J603" s="25"/>
       <c r="K603" s="26"/>
     </row>
-    <row r="604" spans="1:11" ht="75">
+    <row r="604" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A604" s="14">
         <v>24387</v>
       </c>
@@ -17965,7 +18127,7 @@
       <c r="J604" s="18"/>
       <c r="K604" s="19"/>
     </row>
-    <row r="605" spans="1:11" ht="105">
+    <row r="605" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A605" s="14">
         <v>24387</v>
       </c>
@@ -17988,7 +18150,7 @@
       <c r="J605" s="18"/>
       <c r="K605" s="19"/>
     </row>
-    <row r="606" spans="1:11" ht="75">
+    <row r="606" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A606" s="14">
         <v>24387</v>
       </c>
@@ -18011,7 +18173,7 @@
       <c r="J606" s="18"/>
       <c r="K606" s="19"/>
     </row>
-    <row r="607" spans="1:11" ht="120">
+    <row r="607" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A607" s="14">
         <v>24387</v>
       </c>
@@ -18034,7 +18196,7 @@
       <c r="J607" s="18"/>
       <c r="K607" s="19"/>
     </row>
-    <row r="608" spans="1:11" ht="45">
+    <row r="608" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A608" s="14">
         <v>24387</v>
       </c>
@@ -18057,7 +18219,7 @@
       <c r="J608" s="18"/>
       <c r="K608" s="19"/>
     </row>
-    <row r="609" spans="1:11" ht="30">
+    <row r="609" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A609" s="14">
         <v>24387</v>
       </c>
@@ -18080,7 +18242,7 @@
       <c r="J609" s="18"/>
       <c r="K609" s="19"/>
     </row>
-    <row r="610" spans="1:11">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="20">
         <v>24418</v>
       </c>
@@ -18103,7 +18265,7 @@
       <c r="J610" s="25"/>
       <c r="K610" s="26"/>
     </row>
-    <row r="611" spans="1:11">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="20">
         <v>24418</v>
       </c>
@@ -18126,7 +18288,7 @@
       <c r="J611" s="25"/>
       <c r="K611" s="26"/>
     </row>
-    <row r="612" spans="1:11">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="20">
         <v>24418</v>
       </c>
@@ -18149,7 +18311,7 @@
       <c r="J612" s="25"/>
       <c r="K612" s="26"/>
     </row>
-    <row r="613" spans="1:11" ht="45">
+    <row r="613" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A613" s="20">
         <v>24418</v>
       </c>
@@ -18172,7 +18334,7 @@
       <c r="J613" s="25"/>
       <c r="K613" s="26"/>
     </row>
-    <row r="614" spans="1:11" ht="75">
+    <row r="614" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A614" s="20">
         <v>24418</v>
       </c>
@@ -18195,7 +18357,7 @@
       <c r="J614" s="25"/>
       <c r="K614" s="26"/>
     </row>
-    <row r="615" spans="1:11" ht="45">
+    <row r="615" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A615" s="20">
         <v>24418</v>
       </c>
@@ -18218,7 +18380,7 @@
       <c r="J615" s="25"/>
       <c r="K615" s="26"/>
     </row>
-    <row r="616" spans="1:11" ht="30">
+    <row r="616" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A616" s="14">
         <v>24539</v>
       </c>
@@ -18241,7 +18403,7 @@
       <c r="J616" s="18"/>
       <c r="K616" s="19"/>
     </row>
-    <row r="617" spans="1:11" ht="45">
+    <row r="617" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A617" s="14">
         <v>24539</v>
       </c>
@@ -18264,7 +18426,7 @@
       <c r="J617" s="18"/>
       <c r="K617" s="19"/>
     </row>
-    <row r="618" spans="1:11" ht="30">
+    <row r="618" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A618" s="20">
         <v>24544</v>
       </c>
@@ -18287,7 +18449,7 @@
       <c r="J618" s="25"/>
       <c r="K618" s="26"/>
     </row>
-    <row r="619" spans="1:11" ht="60">
+    <row r="619" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A619" s="20">
         <v>24544</v>
       </c>
@@ -18310,7 +18472,7 @@
       <c r="J619" s="25"/>
       <c r="K619" s="26"/>
     </row>
-    <row r="620" spans="1:11" ht="45">
+    <row r="620" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A620" s="20">
         <v>24544</v>
       </c>
@@ -18333,7 +18495,7 @@
       <c r="J620" s="25"/>
       <c r="K620" s="26"/>
     </row>
-    <row r="621" spans="1:11" ht="30">
+    <row r="621" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A621" s="14">
         <v>24622</v>
       </c>
@@ -18356,7 +18518,7 @@
       <c r="J621" s="18"/>
       <c r="K621" s="19"/>
     </row>
-    <row r="622" spans="1:11" ht="30">
+    <row r="622" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A622" s="14">
         <v>24622</v>
       </c>
@@ -18379,7 +18541,7 @@
       <c r="J622" s="18"/>
       <c r="K622" s="19"/>
     </row>
-    <row r="623" spans="1:11" ht="45">
+    <row r="623" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A623" s="14">
         <v>24622</v>
       </c>
@@ -18402,7 +18564,7 @@
       <c r="J623" s="18"/>
       <c r="K623" s="19"/>
     </row>
-    <row r="624" spans="1:11" ht="60">
+    <row r="624" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A624" s="14">
         <v>24622</v>
       </c>
@@ -18425,7 +18587,7 @@
       <c r="J624" s="18"/>
       <c r="K624" s="19"/>
     </row>
-    <row r="625" spans="1:11" ht="30">
+    <row r="625" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A625" s="20">
         <v>24623</v>
       </c>
@@ -18448,7 +18610,7 @@
       <c r="J625" s="25"/>
       <c r="K625" s="26"/>
     </row>
-    <row r="626" spans="1:11" ht="30">
+    <row r="626" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A626" s="20">
         <v>24623</v>
       </c>
@@ -18471,7 +18633,7 @@
       <c r="J626" s="25"/>
       <c r="K626" s="26"/>
     </row>
-    <row r="627" spans="1:11" ht="30">
+    <row r="627" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A627" s="20">
         <v>24623</v>
       </c>
@@ -18494,7 +18656,7 @@
       <c r="J627" s="25"/>
       <c r="K627" s="26"/>
     </row>
-    <row r="628" spans="1:11" ht="105">
+    <row r="628" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A628" s="20">
         <v>24623</v>
       </c>
@@ -18517,7 +18679,7 @@
       <c r="J628" s="25"/>
       <c r="K628" s="26"/>
     </row>
-    <row r="629" spans="1:11" ht="60">
+    <row r="629" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A629" s="20">
         <v>24623</v>
       </c>
@@ -18540,7 +18702,7 @@
       <c r="J629" s="25"/>
       <c r="K629" s="26"/>
     </row>
-    <row r="630" spans="1:11" ht="105">
+    <row r="630" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A630" s="14">
         <v>24630</v>
       </c>
@@ -18563,7 +18725,7 @@
       <c r="J630" s="18"/>
       <c r="K630" s="19"/>
     </row>
-    <row r="631" spans="1:11" ht="75">
+    <row r="631" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A631" s="14">
         <v>24630</v>
       </c>
@@ -18586,7 +18748,7 @@
       <c r="J631" s="18"/>
       <c r="K631" s="19"/>
     </row>
-    <row r="632" spans="1:11" ht="30">
+    <row r="632" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A632" s="20">
         <v>24667</v>
       </c>
@@ -18609,7 +18771,7 @@
       <c r="J632" s="25"/>
       <c r="K632" s="26"/>
     </row>
-    <row r="633" spans="1:11" ht="30">
+    <row r="633" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A633" s="20">
         <v>24667</v>
       </c>
@@ -18632,7 +18794,7 @@
       <c r="J633" s="25"/>
       <c r="K633" s="26"/>
     </row>
-    <row r="634" spans="1:11" ht="90">
+    <row r="634" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A634" s="20">
         <v>24667</v>
       </c>
@@ -18655,7 +18817,7 @@
       <c r="J634" s="25"/>
       <c r="K634" s="26"/>
     </row>
-    <row r="635" spans="1:11" ht="30">
+    <row r="635" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A635" s="20">
         <v>24667</v>
       </c>
@@ -18678,7 +18840,7 @@
       <c r="J635" s="25"/>
       <c r="K635" s="26"/>
     </row>
-    <row r="636" spans="1:11" ht="30">
+    <row r="636" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A636" s="20">
         <v>24667</v>
       </c>
@@ -18701,7 +18863,7 @@
       <c r="J636" s="25"/>
       <c r="K636" s="26"/>
     </row>
-    <row r="637" spans="1:11" ht="60">
+    <row r="637" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A637" s="20">
         <v>24667</v>
       </c>
@@ -18724,7 +18886,7 @@
       <c r="J637" s="25"/>
       <c r="K637" s="26"/>
     </row>
-    <row r="638" spans="1:11">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="14">
         <v>24755</v>
       </c>
@@ -18747,7 +18909,7 @@
       <c r="J638" s="18"/>
       <c r="K638" s="19"/>
     </row>
-    <row r="639" spans="1:11" ht="45">
+    <row r="639" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A639" s="14">
         <v>24755</v>
       </c>
@@ -18770,7 +18932,7 @@
       <c r="J639" s="18"/>
       <c r="K639" s="19"/>
     </row>
-    <row r="640" spans="1:11" ht="90">
+    <row r="640" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A640" s="14">
         <v>24755</v>
       </c>
@@ -18793,7 +18955,7 @@
       <c r="J640" s="18"/>
       <c r="K640" s="19"/>
     </row>
-    <row r="641" spans="1:11" ht="30">
+    <row r="641" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A641" s="20">
         <v>24763</v>
       </c>
@@ -18816,7 +18978,7 @@
       <c r="J641" s="25"/>
       <c r="K641" s="26"/>
     </row>
-    <row r="642" spans="1:11" ht="30">
+    <row r="642" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A642" s="20">
         <v>24763</v>
       </c>
@@ -18839,7 +19001,7 @@
       <c r="J642" s="25"/>
       <c r="K642" s="26"/>
     </row>
-    <row r="643" spans="1:11" ht="30">
+    <row r="643" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A643" s="20">
         <v>24763</v>
       </c>
@@ -18862,7 +19024,7 @@
       <c r="J643" s="25"/>
       <c r="K643" s="26"/>
     </row>
-    <row r="644" spans="1:11" ht="60">
+    <row r="644" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A644" s="14">
         <v>24764</v>
       </c>
@@ -18885,7 +19047,7 @@
       <c r="J644" s="18"/>
       <c r="K644" s="19"/>
     </row>
-    <row r="645" spans="1:11" ht="30">
+    <row r="645" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A645" s="14">
         <v>24764</v>
       </c>
@@ -18908,7 +19070,7 @@
       <c r="J645" s="18"/>
       <c r="K645" s="19"/>
     </row>
-    <row r="646" spans="1:11" ht="45">
+    <row r="646" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A646" s="14">
         <v>24764</v>
       </c>
@@ -18931,7 +19093,7 @@
       <c r="J646" s="18"/>
       <c r="K646" s="19"/>
     </row>
-    <row r="647" spans="1:11" ht="75">
+    <row r="647" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A647" s="20">
         <v>24778</v>
       </c>
@@ -18954,7 +19116,7 @@
       <c r="J647" s="25"/>
       <c r="K647" s="26"/>
     </row>
-    <row r="648" spans="1:11" ht="60">
+    <row r="648" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A648" s="20">
         <v>24778</v>
       </c>
@@ -18977,7 +19139,7 @@
       <c r="J648" s="25"/>
       <c r="K648" s="26"/>
     </row>
-    <row r="649" spans="1:11" ht="45">
+    <row r="649" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A649" s="20">
         <v>24778</v>
       </c>
@@ -19000,7 +19162,7 @@
       <c r="J649" s="25"/>
       <c r="K649" s="26"/>
     </row>
-    <row r="650" spans="1:11" ht="30">
+    <row r="650" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A650" s="20">
         <v>24778</v>
       </c>
@@ -19023,7 +19185,7 @@
       <c r="J650" s="25"/>
       <c r="K650" s="26"/>
     </row>
-    <row r="651" spans="1:11">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="20">
         <v>24778</v>
       </c>
@@ -19046,7 +19208,7 @@
       <c r="J651" s="25"/>
       <c r="K651" s="26"/>
     </row>
-    <row r="652" spans="1:11" ht="60">
+    <row r="652" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A652" s="20">
         <v>24778</v>
       </c>
@@ -19069,7 +19231,7 @@
       <c r="J652" s="25"/>
       <c r="K652" s="26"/>
     </row>
-    <row r="653" spans="1:11" ht="75">
+    <row r="653" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A653" s="14">
         <v>24779</v>
       </c>
@@ -19092,7 +19254,7 @@
       <c r="J653" s="18"/>
       <c r="K653" s="19"/>
     </row>
-    <row r="654" spans="1:11" ht="30">
+    <row r="654" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A654" s="14">
         <v>24779</v>
       </c>
@@ -19115,7 +19277,7 @@
       <c r="J654" s="18"/>
       <c r="K654" s="19"/>
     </row>
-    <row r="655" spans="1:11" ht="105">
+    <row r="655" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A655" s="14">
         <v>24779</v>
       </c>
@@ -19138,7 +19300,7 @@
       <c r="J655" s="18"/>
       <c r="K655" s="19"/>
     </row>
-    <row r="656" spans="1:11" ht="105">
+    <row r="656" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A656" s="14">
         <v>24779</v>
       </c>
@@ -19161,7 +19323,7 @@
       <c r="J656" s="18"/>
       <c r="K656" s="19"/>
     </row>
-    <row r="657" spans="1:11" ht="30">
+    <row r="657" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A657" s="14">
         <v>24779</v>
       </c>
@@ -19184,7 +19346,7 @@
       <c r="J657" s="18"/>
       <c r="K657" s="19"/>
     </row>
-    <row r="658" spans="1:11" ht="45">
+    <row r="658" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A658" s="14">
         <v>24779</v>
       </c>
@@ -19207,7 +19369,7 @@
       <c r="J658" s="18"/>
       <c r="K658" s="19"/>
     </row>
-    <row r="659" spans="1:11" ht="90">
+    <row r="659" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A659" s="14">
         <v>24779</v>
       </c>
@@ -19230,7 +19392,7 @@
       <c r="J659" s="18"/>
       <c r="K659" s="19"/>
     </row>
-    <row r="660" spans="1:11">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="14">
         <v>24779</v>
       </c>
@@ -19253,7 +19415,7 @@
       <c r="J660" s="18"/>
       <c r="K660" s="19"/>
     </row>
-    <row r="661" spans="1:11" ht="60">
+    <row r="661" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A661" s="14">
         <v>24779</v>
       </c>
@@ -19276,7 +19438,7 @@
       <c r="J661" s="18"/>
       <c r="K661" s="19"/>
     </row>
-    <row r="662" spans="1:11" ht="75">
+    <row r="662" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A662" s="20">
         <v>24780</v>
       </c>
@@ -19299,7 +19461,7 @@
       <c r="J662" s="25"/>
       <c r="K662" s="26"/>
     </row>
-    <row r="663" spans="1:11">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="20">
         <v>24780</v>
       </c>
@@ -19322,7 +19484,7 @@
       <c r="J663" s="25"/>
       <c r="K663" s="26"/>
     </row>
-    <row r="664" spans="1:11">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="20">
         <v>24780</v>
       </c>
@@ -19345,7 +19507,7 @@
       <c r="J664" s="25"/>
       <c r="K664" s="26"/>
     </row>
-    <row r="665" spans="1:11">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="20">
         <v>24780</v>
       </c>
@@ -19368,7 +19530,7 @@
       <c r="J665" s="25"/>
       <c r="K665" s="26"/>
     </row>
-    <row r="666" spans="1:11" ht="60">
+    <row r="666" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A666" s="20">
         <v>24780</v>
       </c>
@@ -19391,7 +19553,7 @@
       <c r="J666" s="25"/>
       <c r="K666" s="26"/>
     </row>
-    <row r="667" spans="1:11" ht="60">
+    <row r="667" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A667" s="20">
         <v>24780</v>
       </c>
@@ -19414,7 +19576,7 @@
       <c r="J667" s="25"/>
       <c r="K667" s="26"/>
     </row>
-    <row r="668" spans="1:11" ht="45">
+    <row r="668" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A668" s="20">
         <v>24780</v>
       </c>
@@ -19437,7 +19599,7 @@
       <c r="J668" s="25"/>
       <c r="K668" s="26"/>
     </row>
-    <row r="669" spans="1:11" ht="30">
+    <row r="669" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A669" s="14">
         <v>24781</v>
       </c>
@@ -19460,7 +19622,7 @@
       <c r="J669" s="18"/>
       <c r="K669" s="19"/>
     </row>
-    <row r="670" spans="1:11" ht="75">
+    <row r="670" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A670" s="14">
         <v>24781</v>
       </c>
@@ -19483,7 +19645,7 @@
       <c r="J670" s="18"/>
       <c r="K670" s="19"/>
     </row>
-    <row r="671" spans="1:11" ht="45">
+    <row r="671" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A671" s="14">
         <v>24781</v>
       </c>
@@ -19506,7 +19668,7 @@
       <c r="J671" s="18"/>
       <c r="K671" s="19"/>
     </row>
-    <row r="672" spans="1:11" ht="30">
+    <row r="672" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A672" s="14">
         <v>24781</v>
       </c>
@@ -19529,7 +19691,7 @@
       <c r="J672" s="18"/>
       <c r="K672" s="19"/>
     </row>
-    <row r="673" spans="1:11" ht="75">
+    <row r="673" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A673" s="14">
         <v>24781</v>
       </c>
@@ -19552,7 +19714,7 @@
       <c r="J673" s="18"/>
       <c r="K673" s="19"/>
     </row>
-    <row r="674" spans="1:11">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="14">
         <v>24781</v>
       </c>
@@ -19575,7 +19737,7 @@
       <c r="J674" s="18"/>
       <c r="K674" s="19"/>
     </row>
-    <row r="675" spans="1:11" ht="30">
+    <row r="675" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A675" s="14">
         <v>24781</v>
       </c>
@@ -19598,7 +19760,7 @@
       <c r="J675" s="18"/>
       <c r="K675" s="19"/>
     </row>
-    <row r="676" spans="1:11" ht="30">
+    <row r="676" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A676" s="20">
         <v>24782</v>
       </c>
@@ -19621,7 +19783,7 @@
       <c r="J676" s="25"/>
       <c r="K676" s="26"/>
     </row>
-    <row r="677" spans="1:11" ht="60">
+    <row r="677" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A677" s="20">
         <v>24782</v>
       </c>
@@ -19644,7 +19806,7 @@
       <c r="J677" s="25"/>
       <c r="K677" s="26"/>
     </row>
-    <row r="678" spans="1:11" ht="45">
+    <row r="678" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A678" s="20">
         <v>24782</v>
       </c>
@@ -19667,7 +19829,7 @@
       <c r="J678" s="25"/>
       <c r="K678" s="26"/>
     </row>
-    <row r="679" spans="1:11" ht="75">
+    <row r="679" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A679" s="20">
         <v>24782</v>
       </c>
@@ -19690,7 +19852,7 @@
       <c r="J679" s="25"/>
       <c r="K679" s="26"/>
     </row>
-    <row r="680" spans="1:11" ht="45">
+    <row r="680" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A680" s="20">
         <v>24782</v>
       </c>
@@ -19713,7 +19875,7 @@
       <c r="J680" s="25"/>
       <c r="K680" s="26"/>
     </row>
-    <row r="681" spans="1:11" ht="45">
+    <row r="681" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A681" s="20">
         <v>24782</v>
       </c>
@@ -19736,7 +19898,7 @@
       <c r="J681" s="25"/>
       <c r="K681" s="26"/>
     </row>
-    <row r="682" spans="1:11" ht="30">
+    <row r="682" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A682" s="20">
         <v>24782</v>
       </c>
@@ -19759,7 +19921,7 @@
       <c r="J682" s="25"/>
       <c r="K682" s="26"/>
     </row>
-    <row r="683" spans="1:11" ht="45">
+    <row r="683" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A683" s="20">
         <v>24782</v>
       </c>
@@ -19782,7 +19944,7 @@
       <c r="J683" s="25"/>
       <c r="K683" s="26"/>
     </row>
-    <row r="684" spans="1:11" ht="30">
+    <row r="684" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A684" s="14">
         <v>24783</v>
       </c>
@@ -19805,7 +19967,7 @@
       <c r="J684" s="18"/>
       <c r="K684" s="19"/>
     </row>
-    <row r="685" spans="1:11" ht="30">
+    <row r="685" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A685" s="14">
         <v>24783</v>
       </c>
@@ -19828,7 +19990,7 @@
       <c r="J685" s="18"/>
       <c r="K685" s="19"/>
     </row>
-    <row r="686" spans="1:11" ht="90">
+    <row r="686" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A686" s="14">
         <v>24783</v>
       </c>
@@ -19851,7 +20013,7 @@
       <c r="J686" s="18"/>
       <c r="K686" s="19"/>
     </row>
-    <row r="687" spans="1:11" ht="75">
+    <row r="687" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A687" s="14">
         <v>24783</v>
       </c>
@@ -19874,7 +20036,7 @@
       <c r="J687" s="18"/>
       <c r="K687" s="19"/>
     </row>
-    <row r="688" spans="1:11" ht="60">
+    <row r="688" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A688" s="14">
         <v>24783</v>
       </c>
@@ -19897,7 +20059,7 @@
       <c r="J688" s="18"/>
       <c r="K688" s="19"/>
     </row>
-    <row r="689" spans="1:11" ht="60">
+    <row r="689" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A689" s="14">
         <v>24783</v>
       </c>
@@ -19920,7 +20082,7 @@
       <c r="J689" s="18"/>
       <c r="K689" s="19"/>
     </row>
-    <row r="690" spans="1:11" ht="30">
+    <row r="690" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A690" s="20">
         <v>24784</v>
       </c>
@@ -19943,7 +20105,7 @@
       <c r="J690" s="25"/>
       <c r="K690" s="26"/>
     </row>
-    <row r="691" spans="1:11" ht="30">
+    <row r="691" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A691" s="20">
         <v>24784</v>
       </c>
@@ -19966,7 +20128,7 @@
       <c r="J691" s="25"/>
       <c r="K691" s="26"/>
     </row>
-    <row r="692" spans="1:11" ht="30">
+    <row r="692" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A692" s="14">
         <v>24787</v>
       </c>
@@ -19989,7 +20151,7 @@
       <c r="J692" s="18"/>
       <c r="K692" s="19"/>
     </row>
-    <row r="693" spans="1:11" ht="30">
+    <row r="693" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A693" s="14">
         <v>24787</v>
       </c>
@@ -20012,7 +20174,7 @@
       <c r="J693" s="18"/>
       <c r="K693" s="19"/>
     </row>
-    <row r="694" spans="1:11" ht="45">
+    <row r="694" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A694" s="14">
         <v>24787</v>
       </c>
@@ -20035,7 +20197,7 @@
       <c r="J694" s="18"/>
       <c r="K694" s="19"/>
     </row>
-    <row r="695" spans="1:11" ht="30">
+    <row r="695" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A695" s="20">
         <v>24788</v>
       </c>
@@ -20058,7 +20220,7 @@
       <c r="J695" s="25"/>
       <c r="K695" s="26"/>
     </row>
-    <row r="696" spans="1:11" ht="30">
+    <row r="696" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A696" s="20">
         <v>24788</v>
       </c>
@@ -20081,7 +20243,7 @@
       <c r="J696" s="25"/>
       <c r="K696" s="26"/>
     </row>
-    <row r="697" spans="1:11" ht="60">
+    <row r="697" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A697" s="20">
         <v>24788</v>
       </c>
@@ -20104,7 +20266,7 @@
       <c r="J697" s="25"/>
       <c r="K697" s="26"/>
     </row>
-    <row r="698" spans="1:11" ht="75">
+    <row r="698" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A698" s="20">
         <v>24788</v>
       </c>
@@ -20127,7 +20289,7 @@
       <c r="J698" s="25"/>
       <c r="K698" s="26"/>
     </row>
-    <row r="699" spans="1:11" ht="30">
+    <row r="699" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A699" s="20">
         <v>24788</v>
       </c>
@@ -20150,7 +20312,7 @@
       <c r="J699" s="25"/>
       <c r="K699" s="26"/>
     </row>
-    <row r="700" spans="1:11" ht="30">
+    <row r="700" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A700" s="20">
         <v>24788</v>
       </c>
@@ -20173,7 +20335,7 @@
       <c r="J700" s="25"/>
       <c r="K700" s="26"/>
     </row>
-    <row r="701" spans="1:11" ht="75">
+    <row r="701" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A701" s="20">
         <v>24788</v>
       </c>
@@ -20196,7 +20358,7 @@
       <c r="J701" s="25"/>
       <c r="K701" s="26"/>
     </row>
-    <row r="702" spans="1:11" ht="30">
+    <row r="702" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A702" s="20">
         <v>24788</v>
       </c>
@@ -20219,7 +20381,7 @@
       <c r="J702" s="25"/>
       <c r="K702" s="26"/>
     </row>
-    <row r="703" spans="1:11" ht="30">
+    <row r="703" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A703" s="14">
         <v>24789</v>
       </c>
@@ -20242,7 +20404,7 @@
       <c r="J703" s="18"/>
       <c r="K703" s="19"/>
     </row>
-    <row r="704" spans="1:11" ht="45">
+    <row r="704" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A704" s="14">
         <v>24789</v>
       </c>
@@ -20265,7 +20427,7 @@
       <c r="J704" s="18"/>
       <c r="K704" s="19"/>
     </row>
-    <row r="705" spans="1:11" ht="45">
+    <row r="705" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A705" s="14">
         <v>24789</v>
       </c>
@@ -20288,7 +20450,7 @@
       <c r="J705" s="18"/>
       <c r="K705" s="19"/>
     </row>
-    <row r="706" spans="1:11" ht="30">
+    <row r="706" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A706" s="14">
         <v>24789</v>
       </c>
@@ -20311,7 +20473,7 @@
       <c r="J706" s="18"/>
       <c r="K706" s="19"/>
     </row>
-    <row r="707" spans="1:11" ht="30">
+    <row r="707" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A707" s="14">
         <v>24789</v>
       </c>
@@ -20334,7 +20496,7 @@
       <c r="J707" s="18"/>
       <c r="K707" s="19"/>
     </row>
-    <row r="708" spans="1:11" ht="45">
+    <row r="708" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A708" s="14">
         <v>24789</v>
       </c>
@@ -20357,7 +20519,7 @@
       <c r="J708" s="18"/>
       <c r="K708" s="19"/>
     </row>
-    <row r="709" spans="1:11" ht="30">
+    <row r="709" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A709" s="20">
         <v>24793</v>
       </c>
@@ -20380,7 +20542,7 @@
       <c r="J709" s="25"/>
       <c r="K709" s="26"/>
     </row>
-    <row r="710" spans="1:11">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="20">
         <v>24793</v>
       </c>
@@ -20403,7 +20565,7 @@
       <c r="J710" s="25"/>
       <c r="K710" s="26"/>
     </row>
-    <row r="711" spans="1:11" ht="45">
+    <row r="711" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A711" s="20">
         <v>24793</v>
       </c>
@@ -20426,7 +20588,7 @@
       <c r="J711" s="25"/>
       <c r="K711" s="26"/>
     </row>
-    <row r="712" spans="1:11">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="20">
         <v>24793</v>
       </c>
@@ -20449,7 +20611,7 @@
       <c r="J712" s="25"/>
       <c r="K712" s="26"/>
     </row>
-    <row r="713" spans="1:11" ht="30">
+    <row r="713" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A713" s="14">
         <v>24794</v>
       </c>
@@ -20472,7 +20634,7 @@
       <c r="J713" s="18"/>
       <c r="K713" s="19"/>
     </row>
-    <row r="714" spans="1:11" ht="30">
+    <row r="714" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A714" s="14">
         <v>24794</v>
       </c>
@@ -20495,7 +20657,7 @@
       <c r="J714" s="18"/>
       <c r="K714" s="19"/>
     </row>
-    <row r="715" spans="1:11" ht="30">
+    <row r="715" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A715" s="14">
         <v>24794</v>
       </c>
@@ -20518,7 +20680,7 @@
       <c r="J715" s="18"/>
       <c r="K715" s="19"/>
     </row>
-    <row r="716" spans="1:11" ht="75">
+    <row r="716" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A716" s="14">
         <v>24794</v>
       </c>
@@ -20541,7 +20703,7 @@
       <c r="J716" s="18"/>
       <c r="K716" s="19"/>
     </row>
-    <row r="717" spans="1:11">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="14">
         <v>24794</v>
       </c>
@@ -20564,7 +20726,7 @@
       <c r="J717" s="18"/>
       <c r="K717" s="19"/>
     </row>
-    <row r="718" spans="1:11" ht="30">
+    <row r="718" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A718" s="14">
         <v>24794</v>
       </c>
@@ -20587,7 +20749,7 @@
       <c r="J718" s="18"/>
       <c r="K718" s="19"/>
     </row>
-    <row r="719" spans="1:11" ht="30">
+    <row r="719" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A719" s="20">
         <v>24795</v>
       </c>
@@ -20610,7 +20772,7 @@
       <c r="J719" s="25"/>
       <c r="K719" s="26"/>
     </row>
-    <row r="720" spans="1:11" ht="30">
+    <row r="720" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A720" s="20">
         <v>24795</v>
       </c>
@@ -20633,7 +20795,7 @@
       <c r="J720" s="25"/>
       <c r="K720" s="26"/>
     </row>
-    <row r="721" spans="1:11" ht="60">
+    <row r="721" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A721" s="20">
         <v>24795</v>
       </c>
@@ -20656,7 +20818,7 @@
       <c r="J721" s="25"/>
       <c r="K721" s="26"/>
     </row>
-    <row r="722" spans="1:11" ht="60">
+    <row r="722" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A722" s="20">
         <v>24795</v>
       </c>
@@ -20679,7 +20841,7 @@
       <c r="J722" s="25"/>
       <c r="K722" s="26"/>
     </row>
-    <row r="723" spans="1:11" ht="75">
+    <row r="723" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A723" s="20">
         <v>24795</v>
       </c>
@@ -20702,7 +20864,7 @@
       <c r="J723" s="25"/>
       <c r="K723" s="26"/>
     </row>
-    <row r="724" spans="1:11">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="20">
         <v>24795</v>
       </c>
@@ -20725,7 +20887,7 @@
       <c r="J724" s="25"/>
       <c r="K724" s="26"/>
     </row>
-    <row r="725" spans="1:11" ht="30">
+    <row r="725" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A725" s="20">
         <v>24795</v>
       </c>
@@ -20748,7 +20910,7 @@
       <c r="J725" s="25"/>
       <c r="K725" s="26"/>
     </row>
-    <row r="726" spans="1:11" ht="30">
+    <row r="726" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A726" s="14">
         <v>24856</v>
       </c>
@@ -20771,7 +20933,7 @@
       <c r="J726" s="18"/>
       <c r="K726" s="19"/>
     </row>
-    <row r="727" spans="1:11" ht="60">
+    <row r="727" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A727" s="14">
         <v>24856</v>
       </c>
@@ -20794,7 +20956,7 @@
       <c r="J727" s="18"/>
       <c r="K727" s="19"/>
     </row>
-    <row r="728" spans="1:11" ht="45">
+    <row r="728" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A728" s="14">
         <v>24856</v>
       </c>
@@ -20817,7 +20979,7 @@
       <c r="J728" s="18"/>
       <c r="K728" s="19"/>
     </row>
-    <row r="729" spans="1:11" ht="30">
+    <row r="729" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A729" s="20">
         <v>24987</v>
       </c>
@@ -20840,7 +21002,7 @@
       <c r="J729" s="25"/>
       <c r="K729" s="26"/>
     </row>
-    <row r="730" spans="1:11" ht="30">
+    <row r="730" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A730" s="20">
         <v>24987</v>
       </c>
@@ -20863,7 +21025,7 @@
       <c r="J730" s="25"/>
       <c r="K730" s="26"/>
     </row>
-    <row r="731" spans="1:11" ht="120">
+    <row r="731" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A731" s="20">
         <v>24987</v>
       </c>
@@ -20886,7 +21048,7 @@
       <c r="J731" s="25"/>
       <c r="K731" s="26"/>
     </row>
-    <row r="732" spans="1:11" ht="30">
+    <row r="732" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A732" s="20">
         <v>24987</v>
       </c>
@@ -20909,7 +21071,7 @@
       <c r="J732" s="25"/>
       <c r="K732" s="26"/>
     </row>
-    <row r="733" spans="1:11" ht="30">
+    <row r="733" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A733" s="20">
         <v>24987</v>
       </c>
@@ -20932,7 +21094,7 @@
       <c r="J733" s="25"/>
       <c r="K733" s="26"/>
     </row>
-    <row r="734" spans="1:11" ht="75">
+    <row r="734" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A734" s="20">
         <v>24987</v>
       </c>
@@ -20955,7 +21117,7 @@
       <c r="J734" s="25"/>
       <c r="K734" s="26"/>
     </row>
-    <row r="735" spans="1:11" ht="45">
+    <row r="735" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A735" s="20">
         <v>24987</v>
       </c>
@@ -20978,7 +21140,7 @@
       <c r="J735" s="25"/>
       <c r="K735" s="26"/>
     </row>
-    <row r="736" spans="1:11">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="20">
         <v>24987</v>
       </c>
@@ -21001,7 +21163,7 @@
       <c r="J736" s="25"/>
       <c r="K736" s="26"/>
     </row>
-    <row r="737" spans="1:11" ht="60">
+    <row r="737" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A737" s="20">
         <v>24987</v>
       </c>
@@ -21024,7 +21186,7 @@
       <c r="J737" s="25"/>
       <c r="K737" s="26"/>
     </row>
-    <row r="738" spans="1:11" ht="30">
+    <row r="738" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A738" s="20">
         <v>24987</v>
       </c>
@@ -21047,7 +21209,7 @@
       <c r="J738" s="25"/>
       <c r="K738" s="26"/>
     </row>
-    <row r="739" spans="1:11" ht="30">
+    <row r="739" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A739" s="14">
         <v>25253</v>
       </c>
@@ -21070,7 +21232,7 @@
       <c r="J739" s="18"/>
       <c r="K739" s="19"/>
     </row>
-    <row r="740" spans="1:11" ht="75">
+    <row r="740" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A740" s="14">
         <v>25253</v>
       </c>
@@ -21093,7 +21255,7 @@
       <c r="J740" s="18"/>
       <c r="K740" s="19"/>
     </row>
-    <row r="741" spans="1:11" ht="30">
+    <row r="741" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A741" s="14">
         <v>25253</v>
       </c>
@@ -21116,7 +21278,7 @@
       <c r="J741" s="18"/>
       <c r="K741" s="19"/>
     </row>
-    <row r="742" spans="1:11" ht="30">
+    <row r="742" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A742" s="14">
         <v>25253</v>
       </c>
@@ -21139,7 +21301,7 @@
       <c r="J742" s="18"/>
       <c r="K742" s="19"/>
     </row>
-    <row r="743" spans="1:11" ht="30">
+    <row r="743" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A743" s="14">
         <v>25253</v>
       </c>
@@ -21162,7 +21324,7 @@
       <c r="J743" s="18"/>
       <c r="K743" s="19"/>
     </row>
-    <row r="744" spans="1:11" ht="60">
+    <row r="744" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A744" s="14">
         <v>25253</v>
       </c>
@@ -21185,7 +21347,7 @@
       <c r="J744" s="18"/>
       <c r="K744" s="19"/>
     </row>
-    <row r="745" spans="1:11" ht="45">
+    <row r="745" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A745" s="14">
         <v>25253</v>
       </c>
@@ -21208,7 +21370,7 @@
       <c r="J745" s="18"/>
       <c r="K745" s="19"/>
     </row>
-    <row r="746" spans="1:11" ht="30">
+    <row r="746" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A746" s="14">
         <v>25253</v>
       </c>
@@ -21231,7 +21393,7 @@
       <c r="J746" s="18"/>
       <c r="K746" s="19"/>
     </row>
-    <row r="747" spans="1:11" ht="30">
+    <row r="747" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A747" s="14">
         <v>25253</v>
       </c>
@@ -21254,7 +21416,7 @@
       <c r="J747" s="18"/>
       <c r="K747" s="19"/>
     </row>
-    <row r="748" spans="1:11">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="20">
         <v>25451</v>
       </c>
@@ -21277,7 +21439,7 @@
       <c r="J748" s="25"/>
       <c r="K748" s="26"/>
     </row>
-    <row r="749" spans="1:11" ht="45">
+    <row r="749" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A749" s="20">
         <v>25451</v>
       </c>
@@ -21300,7 +21462,7 @@
       <c r="J749" s="25"/>
       <c r="K749" s="26"/>
     </row>
-    <row r="750" spans="1:11" ht="30">
+    <row r="750" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A750" s="20">
         <v>25451</v>
       </c>
@@ -21323,7 +21485,7 @@
       <c r="J750" s="25"/>
       <c r="K750" s="26"/>
     </row>
-    <row r="751" spans="1:11" ht="105">
+    <row r="751" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A751" s="20">
         <v>25451</v>
       </c>
@@ -21346,7 +21508,7 @@
       <c r="J751" s="25"/>
       <c r="K751" s="26"/>
     </row>
-    <row r="752" spans="1:11" ht="90">
+    <row r="752" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A752" s="20">
         <v>25451</v>
       </c>
@@ -21369,7 +21531,7 @@
       <c r="J752" s="25"/>
       <c r="K752" s="26"/>
     </row>
-    <row r="753" spans="1:11" ht="45">
+    <row r="753" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A753" s="20">
         <v>25451</v>
       </c>
@@ -21392,7 +21554,7 @@
       <c r="J753" s="25"/>
       <c r="K753" s="26"/>
     </row>
-    <row r="754" spans="1:11">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="14">
         <v>25487</v>
       </c>
@@ -21415,7 +21577,7 @@
       <c r="J754" s="18"/>
       <c r="K754" s="19"/>
     </row>
-    <row r="755" spans="1:11" ht="60">
+    <row r="755" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A755" s="14">
         <v>25487</v>
       </c>
@@ -21438,7 +21600,7 @@
       <c r="J755" s="18"/>
       <c r="K755" s="19"/>
     </row>
-    <row r="756" spans="1:11" ht="45">
+    <row r="756" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A756" s="14">
         <v>25487</v>
       </c>
@@ -21461,7 +21623,7 @@
       <c r="J756" s="18"/>
       <c r="K756" s="19"/>
     </row>
-    <row r="757" spans="1:11" ht="45">
+    <row r="757" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A757" s="14">
         <v>25487</v>
       </c>
@@ -21484,7 +21646,7 @@
       <c r="J757" s="18"/>
       <c r="K757" s="19"/>
     </row>
-    <row r="758" spans="1:11">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="14">
         <v>25487</v>
       </c>
@@ -21507,7 +21669,7 @@
       <c r="J758" s="18"/>
       <c r="K758" s="19"/>
     </row>
-    <row r="759" spans="1:11" ht="45">
+    <row r="759" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A759" s="14">
         <v>25487</v>
       </c>
@@ -21530,7 +21692,7 @@
       <c r="J759" s="18"/>
       <c r="K759" s="19"/>
     </row>
-    <row r="760" spans="1:11" ht="30">
+    <row r="760" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A760" s="20">
         <v>25661</v>
       </c>
@@ -21553,7 +21715,7 @@
       <c r="J760" s="25"/>
       <c r="K760" s="26"/>
     </row>
-    <row r="761" spans="1:11" ht="30">
+    <row r="761" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A761" s="20">
         <v>25661</v>
       </c>
@@ -21576,7 +21738,7 @@
       <c r="J761" s="25"/>
       <c r="K761" s="26"/>
     </row>
-    <row r="762" spans="1:11" ht="30">
+    <row r="762" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A762" s="20">
         <v>25661</v>
       </c>
@@ -21599,7 +21761,7 @@
       <c r="J762" s="25"/>
       <c r="K762" s="26"/>
     </row>
-    <row r="763" spans="1:11" ht="30">
+    <row r="763" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A763" s="20">
         <v>25661</v>
       </c>
@@ -21622,7 +21784,7 @@
       <c r="J763" s="25"/>
       <c r="K763" s="26"/>
     </row>
-    <row r="764" spans="1:11" ht="30">
+    <row r="764" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A764" s="20">
         <v>25661</v>
       </c>
@@ -21645,7 +21807,7 @@
       <c r="J764" s="25"/>
       <c r="K764" s="26"/>
     </row>
-    <row r="765" spans="1:11" ht="90">
+    <row r="765" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A765" s="20">
         <v>25661</v>
       </c>
@@ -21668,7 +21830,7 @@
       <c r="J765" s="25"/>
       <c r="K765" s="26"/>
     </row>
-    <row r="766" spans="1:11" ht="45">
+    <row r="766" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A766" s="20">
         <v>25661</v>
       </c>
@@ -21691,7 +21853,7 @@
       <c r="J766" s="25"/>
       <c r="K766" s="26"/>
     </row>
-    <row r="767" spans="1:11" ht="75">
+    <row r="767" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A767" s="14">
         <v>25751</v>
       </c>
@@ -21718,7 +21880,7 @@
       <c r="J767" s="18"/>
       <c r="K767" s="19"/>
     </row>
-    <row r="768" spans="1:11" ht="60">
+    <row r="768" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A768" s="14">
         <v>25751</v>
       </c>
@@ -21743,7 +21905,7 @@
       <c r="J768" s="18"/>
       <c r="K768" s="19"/>
     </row>
-    <row r="769" spans="1:11">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" s="14">
         <v>25751</v>
       </c>
@@ -21770,7 +21932,7 @@
       <c r="J769" s="18"/>
       <c r="K769" s="19"/>
     </row>
-    <row r="770" spans="1:11" ht="75">
+    <row r="770" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A770" s="20">
         <v>25752</v>
       </c>
@@ -21799,7 +21961,7 @@
       </c>
       <c r="K770" s="26"/>
     </row>
-    <row r="771" spans="1:11" ht="60">
+    <row r="771" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A771" s="20">
         <v>25752</v>
       </c>
@@ -21830,7 +21992,7 @@
       </c>
       <c r="K771" s="26"/>
     </row>
-    <row r="772" spans="1:11" ht="45">
+    <row r="772" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A772" s="20">
         <v>25752</v>
       </c>
@@ -21859,7 +22021,7 @@
       </c>
       <c r="K772" s="26"/>
     </row>
-    <row r="773" spans="1:11" ht="60">
+    <row r="773" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A773" s="20">
         <v>25752</v>
       </c>
@@ -21888,7 +22050,7 @@
       </c>
       <c r="K773" s="26"/>
     </row>
-    <row r="774" spans="1:11" ht="30">
+    <row r="774" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A774" s="20">
         <v>25752</v>
       </c>
@@ -21917,7 +22079,7 @@
       </c>
       <c r="K774" s="26"/>
     </row>
-    <row r="775" spans="1:11" ht="30">
+    <row r="775" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A775" s="20">
         <v>25752</v>
       </c>
@@ -21948,7 +22110,7 @@
       </c>
       <c r="K775" s="26"/>
     </row>
-    <row r="776" spans="1:11" ht="60">
+    <row r="776" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A776" s="14">
         <v>25801</v>
       </c>
@@ -21971,7 +22133,7 @@
       <c r="J776" s="18"/>
       <c r="K776" s="19"/>
     </row>
-    <row r="777" spans="1:11" ht="75">
+    <row r="777" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A777" s="14">
         <v>25801</v>
       </c>
@@ -21994,7 +22156,7 @@
       <c r="J777" s="18"/>
       <c r="K777" s="19"/>
     </row>
-    <row r="778" spans="1:11" ht="30">
+    <row r="778" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A778" s="14">
         <v>25801</v>
       </c>
@@ -22017,7 +22179,7 @@
       <c r="J778" s="18"/>
       <c r="K778" s="19"/>
     </row>
-    <row r="779" spans="1:11" ht="45">
+    <row r="779" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A779" s="14">
         <v>25801</v>
       </c>
@@ -22040,7 +22202,7 @@
       <c r="J779" s="18"/>
       <c r="K779" s="19"/>
     </row>
-    <row r="780" spans="1:11" ht="45">
+    <row r="780" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A780" s="20">
         <v>25802</v>
       </c>
@@ -22063,7 +22225,7 @@
       <c r="J780" s="25"/>
       <c r="K780" s="26"/>
     </row>
-    <row r="781" spans="1:11" ht="75">
+    <row r="781" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A781" s="20">
         <v>25802</v>
       </c>
@@ -22086,7 +22248,7 @@
       <c r="J781" s="25"/>
       <c r="K781" s="26"/>
     </row>
-    <row r="782" spans="1:11" ht="120">
+    <row r="782" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A782" s="20">
         <v>25802</v>
       </c>
@@ -22109,7 +22271,7 @@
       <c r="J782" s="25"/>
       <c r="K782" s="26"/>
     </row>
-    <row r="783" spans="1:11" ht="60">
+    <row r="783" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A783" s="20">
         <v>25802</v>
       </c>
@@ -22132,7 +22294,7 @@
       <c r="J783" s="25"/>
       <c r="K783" s="26"/>
     </row>
-    <row r="784" spans="1:11" ht="90">
+    <row r="784" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A784" s="20">
         <v>25802</v>
       </c>
@@ -22155,7 +22317,7 @@
       <c r="J784" s="25"/>
       <c r="K784" s="26"/>
     </row>
-    <row r="785" spans="1:11" ht="30">
+    <row r="785" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A785" s="14">
         <v>25806</v>
       </c>
@@ -22178,7 +22340,7 @@
       <c r="J785" s="18"/>
       <c r="K785" s="19"/>
     </row>
-    <row r="786" spans="1:11" ht="30">
+    <row r="786" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A786" s="14">
         <v>25806</v>
       </c>
@@ -22201,7 +22363,7 @@
       <c r="J786" s="18"/>
       <c r="K786" s="19"/>
     </row>
-    <row r="787" spans="1:11" ht="105">
+    <row r="787" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A787" s="14">
         <v>25806</v>
       </c>
@@ -22224,7 +22386,7 @@
       <c r="J787" s="18"/>
       <c r="K787" s="19"/>
     </row>
-    <row r="788" spans="1:11" ht="90">
+    <row r="788" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A788" s="14">
         <v>25806</v>
       </c>
@@ -22247,7 +22409,7 @@
       <c r="J788" s="18"/>
       <c r="K788" s="19"/>
     </row>
-    <row r="789" spans="1:11" ht="30">
+    <row r="789" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A789" s="14">
         <v>25806</v>
       </c>
@@ -22270,7 +22432,7 @@
       <c r="J789" s="18"/>
       <c r="K789" s="19"/>
     </row>
-    <row r="790" spans="1:11" ht="30">
+    <row r="790" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A790" s="14">
         <v>25806</v>
       </c>
@@ -22293,7 +22455,7 @@
       <c r="J790" s="18"/>
       <c r="K790" s="19"/>
     </row>
-    <row r="791" spans="1:11" ht="30">
+    <row r="791" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A791" s="20">
         <v>25843</v>
       </c>
@@ -22316,7 +22478,7 @@
       <c r="J791" s="25"/>
       <c r="K791" s="26"/>
     </row>
-    <row r="792" spans="1:11" ht="30">
+    <row r="792" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A792" s="20">
         <v>25843</v>
       </c>
@@ -22339,7 +22501,7 @@
       <c r="J792" s="25"/>
       <c r="K792" s="26"/>
     </row>
-    <row r="793" spans="1:11" ht="60">
+    <row r="793" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A793" s="20">
         <v>25843</v>
       </c>
@@ -22362,7 +22524,7 @@
       <c r="J793" s="25"/>
       <c r="K793" s="26"/>
     </row>
-    <row r="794" spans="1:11" ht="60">
+    <row r="794" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A794" s="20">
         <v>25843</v>
       </c>
@@ -22385,7 +22547,7 @@
       <c r="J794" s="25"/>
       <c r="K794" s="26"/>
     </row>
-    <row r="795" spans="1:11" ht="45">
+    <row r="795" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A795" s="20">
         <v>25843</v>
       </c>
@@ -22408,7 +22570,7 @@
       <c r="J795" s="25"/>
       <c r="K795" s="26"/>
     </row>
-    <row r="796" spans="1:11" ht="45">
+    <row r="796" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A796" s="14">
         <v>26069</v>
       </c>
@@ -22431,7 +22593,7 @@
       <c r="J796" s="18"/>
       <c r="K796" s="19"/>
     </row>
-    <row r="797" spans="1:11" ht="45">
+    <row r="797" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A797" s="14">
         <v>26069</v>
       </c>
@@ -22454,7 +22616,7 @@
       <c r="J797" s="18"/>
       <c r="K797" s="19"/>
     </row>
-    <row r="798" spans="1:11" ht="60">
+    <row r="798" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A798" s="14">
         <v>26069</v>
       </c>
@@ -22477,7 +22639,7 @@
       <c r="J798" s="18"/>
       <c r="K798" s="19"/>
     </row>
-    <row r="799" spans="1:11" ht="45">
+    <row r="799" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A799" s="14">
         <v>26069</v>
       </c>
@@ -22500,7 +22662,7 @@
       <c r="J799" s="18"/>
       <c r="K799" s="19"/>
     </row>
-    <row r="800" spans="1:11" ht="30">
+    <row r="800" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A800" s="20">
         <v>26071</v>
       </c>
@@ -22523,7 +22685,7 @@
       <c r="J800" s="25"/>
       <c r="K800" s="26"/>
     </row>
-    <row r="801" spans="1:11" ht="30">
+    <row r="801" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A801" s="20">
         <v>26071</v>
       </c>
@@ -22546,7 +22708,7 @@
       <c r="J801" s="25"/>
       <c r="K801" s="26"/>
     </row>
-    <row r="802" spans="1:11" ht="30">
+    <row r="802" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A802" s="20">
         <v>26071</v>
       </c>
@@ -22569,7 +22731,7 @@
       <c r="J802" s="25"/>
       <c r="K802" s="26"/>
     </row>
-    <row r="803" spans="1:11" ht="30">
+    <row r="803" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A803" s="20">
         <v>26071</v>
       </c>
@@ -22592,7 +22754,7 @@
       <c r="J803" s="25"/>
       <c r="K803" s="26"/>
     </row>
-    <row r="804" spans="1:11" ht="30">
+    <row r="804" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A804" s="20">
         <v>26071</v>
       </c>
@@ -22615,7 +22777,7 @@
       <c r="J804" s="25"/>
       <c r="K804" s="26"/>
     </row>
-    <row r="805" spans="1:11" ht="60">
+    <row r="805" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A805" s="14">
         <v>26076</v>
       </c>
@@ -22640,7 +22802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="806" spans="1:11">
+    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A806" s="14">
         <v>26076</v>
       </c>
@@ -22665,7 +22827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="807" spans="1:11">
+    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A807" s="14">
         <v>26076</v>
       </c>
@@ -22690,7 +22852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="808" spans="1:11">
+    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A808" s="14">
         <v>26076</v>
       </c>
@@ -22715,7 +22877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="809" spans="1:11" ht="45">
+    <row r="809" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A809" s="14">
         <v>26076</v>
       </c>
@@ -22740,7 +22902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="810" spans="1:11" ht="75">
+    <row r="810" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A810" s="20">
         <v>26095</v>
       </c>
@@ -22763,7 +22925,7 @@
       <c r="J810" s="25"/>
       <c r="K810" s="26"/>
     </row>
-    <row r="811" spans="1:11" ht="45">
+    <row r="811" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A811" s="14">
         <v>26179</v>
       </c>
@@ -22786,7 +22948,7 @@
       <c r="J811" s="18"/>
       <c r="K811" s="19"/>
     </row>
-    <row r="812" spans="1:11" ht="30">
+    <row r="812" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A812" s="14">
         <v>26179</v>
       </c>
@@ -22809,7 +22971,7 @@
       <c r="J812" s="18"/>
       <c r="K812" s="19"/>
     </row>
-    <row r="813" spans="1:11" ht="30">
+    <row r="813" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A813" s="14">
         <v>26179</v>
       </c>
@@ -22832,7 +22994,7 @@
       <c r="J813" s="18"/>
       <c r="K813" s="19"/>
     </row>
-    <row r="814" spans="1:11" ht="30">
+    <row r="814" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A814" s="14">
         <v>26179</v>
       </c>
@@ -22855,7 +23017,7 @@
       <c r="J814" s="18"/>
       <c r="K814" s="19"/>
     </row>
-    <row r="815" spans="1:11" ht="30">
+    <row r="815" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A815" s="14">
         <v>26179</v>
       </c>
@@ -22878,7 +23040,7 @@
       <c r="J815" s="18"/>
       <c r="K815" s="19"/>
     </row>
-    <row r="816" spans="1:11" ht="30">
+    <row r="816" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A816" s="14">
         <v>26179</v>
       </c>
@@ -22901,7 +23063,7 @@
       <c r="J816" s="18"/>
       <c r="K816" s="19"/>
     </row>
-    <row r="817" spans="1:11" ht="45">
+    <row r="817" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A817" s="20">
         <v>26180</v>
       </c>
@@ -22924,7 +23086,7 @@
       <c r="J817" s="25"/>
       <c r="K817" s="26"/>
     </row>
-    <row r="818" spans="1:11" ht="30">
+    <row r="818" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A818" s="20">
         <v>26180</v>
       </c>
@@ -22947,7 +23109,7 @@
       <c r="J818" s="25"/>
       <c r="K818" s="26"/>
     </row>
-    <row r="819" spans="1:11">
+    <row r="819" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A819" s="20">
         <v>26180</v>
       </c>
@@ -22970,7 +23132,7 @@
       <c r="J819" s="25"/>
       <c r="K819" s="26"/>
     </row>
-    <row r="820" spans="1:11">
+    <row r="820" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A820" s="20">
         <v>26180</v>
       </c>
@@ -22993,7 +23155,7 @@
       <c r="J820" s="25"/>
       <c r="K820" s="26"/>
     </row>
-    <row r="821" spans="1:11" ht="30">
+    <row r="821" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A821" s="20">
         <v>26180</v>
       </c>
@@ -23016,7 +23178,7 @@
       <c r="J821" s="25"/>
       <c r="K821" s="26"/>
     </row>
-    <row r="822" spans="1:11" ht="45">
+    <row r="822" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A822" s="20">
         <v>26180</v>
       </c>
@@ -23039,7 +23201,7 @@
       <c r="J822" s="25"/>
       <c r="K822" s="26"/>
     </row>
-    <row r="823" spans="1:11" ht="60">
+    <row r="823" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A823" s="20">
         <v>26180</v>
       </c>
@@ -23062,7 +23224,7 @@
       <c r="J823" s="25"/>
       <c r="K823" s="26"/>
     </row>
-    <row r="824" spans="1:11" ht="30">
+    <row r="824" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A824" s="20">
         <v>26180</v>
       </c>
@@ -23085,7 +23247,7 @@
       <c r="J824" s="25"/>
       <c r="K824" s="26"/>
     </row>
-    <row r="825" spans="1:11" ht="30">
+    <row r="825" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A825" s="20">
         <v>26180</v>
       </c>
@@ -23108,7 +23270,7 @@
       <c r="J825" s="25"/>
       <c r="K825" s="26"/>
     </row>
-    <row r="826" spans="1:11" ht="30">
+    <row r="826" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A826" s="20">
         <v>26180</v>
       </c>
@@ -23131,7 +23293,7 @@
       <c r="J826" s="25"/>
       <c r="K826" s="26"/>
     </row>
-    <row r="827" spans="1:11" ht="30">
+    <row r="827" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A827" s="20">
         <v>26180</v>
       </c>
@@ -23154,7 +23316,7 @@
       <c r="J827" s="25"/>
       <c r="K827" s="26"/>
     </row>
-    <row r="828" spans="1:11" ht="90">
+    <row r="828" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A828" s="14">
         <v>26230</v>
       </c>
@@ -23177,7 +23339,7 @@
       <c r="J828" s="18"/>
       <c r="K828" s="19"/>
     </row>
-    <row r="829" spans="1:11" ht="75">
+    <row r="829" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A829" s="20">
         <v>26329</v>
       </c>
@@ -23200,7 +23362,7 @@
       <c r="J829" s="25"/>
       <c r="K829" s="26"/>
     </row>
-    <row r="830" spans="1:11" ht="30">
+    <row r="830" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A830" s="27">
         <v>26330</v>
       </c>
@@ -23227,9 +23389,9 @@
   <conditionalFormatting sqref="H13">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -23245,24 +23407,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
+++ b/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
@@ -3671,8 +3671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K830"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="I202" sqref="I202"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="I267" sqref="I267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8900,7 +8900,9 @@
       <c r="F203" s="24"/>
       <c r="G203" s="25"/>
       <c r="H203" s="25"/>
-      <c r="I203" s="25"/>
+      <c r="I203" s="25">
+        <v>1</v>
+      </c>
       <c r="J203" s="25"/>
       <c r="K203" s="26"/>
     </row>
@@ -9012,7 +9014,9 @@
       <c r="E208" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="F208" s="24"/>
+      <c r="F208" s="24">
+        <v>1</v>
+      </c>
       <c r="G208" s="25"/>
       <c r="H208" s="25"/>
       <c r="I208" s="25"/>
@@ -9035,7 +9039,9 @@
       <c r="E209" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="F209" s="24"/>
+      <c r="F209" s="24">
+        <v>1</v>
+      </c>
       <c r="G209" s="25"/>
       <c r="H209" s="25"/>
       <c r="I209" s="25"/>
@@ -9058,7 +9064,9 @@
       <c r="E210" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="F210" s="24"/>
+      <c r="F210" s="24">
+        <v>1</v>
+      </c>
       <c r="G210" s="25"/>
       <c r="H210" s="25"/>
       <c r="I210" s="25"/>
@@ -9081,7 +9089,9 @@
       <c r="E211" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="F211" s="24"/>
+      <c r="F211" s="24">
+        <v>1</v>
+      </c>
       <c r="G211" s="25"/>
       <c r="H211" s="25"/>
       <c r="I211" s="25"/>
@@ -9104,7 +9114,9 @@
       <c r="E212" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="F212" s="24"/>
+      <c r="F212" s="24">
+        <v>1</v>
+      </c>
       <c r="G212" s="25"/>
       <c r="H212" s="25"/>
       <c r="I212" s="25"/>
@@ -9127,7 +9139,9 @@
       <c r="E213" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="F213" s="24"/>
+      <c r="F213" s="24">
+        <v>1</v>
+      </c>
       <c r="G213" s="25"/>
       <c r="H213" s="25"/>
       <c r="I213" s="25"/>
@@ -9150,7 +9164,9 @@
       <c r="E214" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="F214" s="24"/>
+      <c r="F214" s="24">
+        <v>1</v>
+      </c>
       <c r="G214" s="25"/>
       <c r="H214" s="25"/>
       <c r="I214" s="25"/>
@@ -9176,7 +9192,9 @@
       <c r="F215" s="17"/>
       <c r="G215" s="18"/>
       <c r="H215" s="18"/>
-      <c r="I215" s="18"/>
+      <c r="I215" s="18">
+        <v>1</v>
+      </c>
       <c r="J215" s="18"/>
       <c r="K215" s="19"/>
     </row>
@@ -9495,11 +9513,15 @@
       <c r="E229" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="F229" s="17"/>
+      <c r="F229" s="17">
+        <v>1</v>
+      </c>
       <c r="G229" s="18"/>
       <c r="H229" s="18"/>
       <c r="I229" s="18"/>
-      <c r="J229" s="18"/>
+      <c r="J229" s="18">
+        <v>1</v>
+      </c>
       <c r="K229" s="19"/>
     </row>
     <row r="230" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -9518,12 +9540,18 @@
       <c r="E230" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F230" s="17"/>
+      <c r="F230" s="17">
+        <v>1</v>
+      </c>
       <c r="G230" s="18"/>
       <c r="H230" s="18"/>
       <c r="I230" s="18"/>
-      <c r="J230" s="18"/>
-      <c r="K230" s="19"/>
+      <c r="J230" s="18">
+        <v>1</v>
+      </c>
+      <c r="K230" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="14">
@@ -9541,11 +9569,15 @@
       <c r="E231" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="F231" s="17"/>
+      <c r="F231" s="17">
+        <v>1</v>
+      </c>
       <c r="G231" s="18"/>
       <c r="H231" s="18"/>
       <c r="I231" s="18"/>
-      <c r="J231" s="18"/>
+      <c r="J231" s="18">
+        <v>1</v>
+      </c>
       <c r="K231" s="19"/>
     </row>
     <row r="232" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -9564,11 +9596,15 @@
       <c r="E232" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="F232" s="17"/>
+      <c r="F232" s="17">
+        <v>1</v>
+      </c>
       <c r="G232" s="18"/>
       <c r="H232" s="18"/>
       <c r="I232" s="18"/>
-      <c r="J232" s="18"/>
+      <c r="J232" s="18">
+        <v>1</v>
+      </c>
       <c r="K232" s="19"/>
     </row>
     <row r="233" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -9587,11 +9623,15 @@
       <c r="E233" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="F233" s="17"/>
+      <c r="F233" s="17">
+        <v>1</v>
+      </c>
       <c r="G233" s="18"/>
       <c r="H233" s="18"/>
       <c r="I233" s="18"/>
-      <c r="J233" s="18"/>
+      <c r="J233" s="18">
+        <v>1</v>
+      </c>
       <c r="K233" s="19"/>
     </row>
     <row r="234" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -9610,11 +9650,15 @@
       <c r="E234" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="F234" s="17"/>
+      <c r="F234" s="17">
+        <v>1</v>
+      </c>
       <c r="G234" s="18"/>
       <c r="H234" s="18"/>
       <c r="I234" s="18"/>
-      <c r="J234" s="18"/>
+      <c r="J234" s="18">
+        <v>1</v>
+      </c>
       <c r="K234" s="19"/>
     </row>
     <row r="235" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -9633,11 +9677,15 @@
       <c r="E235" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="F235" s="17"/>
+      <c r="F235" s="17">
+        <v>1</v>
+      </c>
       <c r="G235" s="18"/>
       <c r="H235" s="18"/>
       <c r="I235" s="18"/>
-      <c r="J235" s="18"/>
+      <c r="J235" s="18">
+        <v>1</v>
+      </c>
       <c r="K235" s="19"/>
     </row>
     <row r="236" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -9656,11 +9704,15 @@
       <c r="E236" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="F236" s="17"/>
+      <c r="F236" s="17">
+        <v>1</v>
+      </c>
       <c r="G236" s="18"/>
       <c r="H236" s="18"/>
       <c r="I236" s="18"/>
-      <c r="J236" s="18"/>
+      <c r="J236" s="18">
+        <v>1</v>
+      </c>
       <c r="K236" s="19"/>
     </row>
     <row r="237" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -9679,11 +9731,15 @@
       <c r="E237" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="F237" s="17"/>
+      <c r="F237" s="17">
+        <v>1</v>
+      </c>
       <c r="G237" s="18"/>
       <c r="H237" s="18"/>
       <c r="I237" s="18"/>
-      <c r="J237" s="18"/>
+      <c r="J237" s="18">
+        <v>1</v>
+      </c>
       <c r="K237" s="19"/>
     </row>
     <row r="238" spans="1:11" ht="120" x14ac:dyDescent="0.25">
@@ -9702,11 +9758,15 @@
       <c r="E238" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="F238" s="17"/>
+      <c r="F238" s="17">
+        <v>1</v>
+      </c>
       <c r="G238" s="18"/>
       <c r="H238" s="18"/>
       <c r="I238" s="18"/>
-      <c r="J238" s="18"/>
+      <c r="J238" s="18">
+        <v>1</v>
+      </c>
       <c r="K238" s="19"/>
     </row>
     <row r="239" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -9725,11 +9785,15 @@
       <c r="E239" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="F239" s="17"/>
+      <c r="F239" s="17">
+        <v>1</v>
+      </c>
       <c r="G239" s="18"/>
       <c r="H239" s="18"/>
       <c r="I239" s="18"/>
-      <c r="J239" s="18"/>
+      <c r="J239" s="18">
+        <v>1</v>
+      </c>
       <c r="K239" s="19"/>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
@@ -9748,11 +9812,15 @@
       <c r="E240" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="F240" s="17"/>
+      <c r="F240" s="17">
+        <v>1</v>
+      </c>
       <c r="G240" s="18"/>
       <c r="H240" s="18"/>
       <c r="I240" s="18"/>
-      <c r="J240" s="18"/>
+      <c r="J240" s="18">
+        <v>1</v>
+      </c>
       <c r="K240" s="19"/>
     </row>
     <row r="241" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -9771,11 +9839,15 @@
       <c r="E241" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="F241" s="17"/>
+      <c r="F241" s="17">
+        <v>1</v>
+      </c>
       <c r="G241" s="18"/>
       <c r="H241" s="18"/>
       <c r="I241" s="18"/>
-      <c r="J241" s="18"/>
+      <c r="J241" s="18">
+        <v>1</v>
+      </c>
       <c r="K241" s="19"/>
     </row>
     <row r="242" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -9794,11 +9866,15 @@
       <c r="E242" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F242" s="17"/>
+      <c r="F242" s="17">
+        <v>1</v>
+      </c>
       <c r="G242" s="18"/>
       <c r="H242" s="18"/>
       <c r="I242" s="18"/>
-      <c r="J242" s="18"/>
+      <c r="J242" s="18">
+        <v>1</v>
+      </c>
       <c r="K242" s="19"/>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
@@ -9817,11 +9893,15 @@
       <c r="E243" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F243" s="17"/>
+      <c r="F243" s="17">
+        <v>1</v>
+      </c>
       <c r="G243" s="18"/>
       <c r="H243" s="18"/>
       <c r="I243" s="18"/>
-      <c r="J243" s="18"/>
+      <c r="J243" s="18">
+        <v>1</v>
+      </c>
       <c r="K243" s="19"/>
     </row>
     <row r="244" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -9840,11 +9920,15 @@
       <c r="E244" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="F244" s="17"/>
+      <c r="F244" s="17">
+        <v>1</v>
+      </c>
       <c r="G244" s="18"/>
       <c r="H244" s="18"/>
       <c r="I244" s="18"/>
-      <c r="J244" s="18"/>
+      <c r="J244" s="18">
+        <v>1</v>
+      </c>
       <c r="K244" s="19"/>
     </row>
     <row r="245" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -9863,10 +9947,14 @@
       <c r="E245" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="F245" s="24"/>
+      <c r="F245" s="24">
+        <v>1</v>
+      </c>
       <c r="G245" s="25"/>
       <c r="H245" s="25"/>
-      <c r="I245" s="25"/>
+      <c r="I245" s="25">
+        <v>1</v>
+      </c>
       <c r="J245" s="25"/>
       <c r="K245" s="26"/>
     </row>
@@ -9886,10 +9974,14 @@
       <c r="E246" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="F246" s="24"/>
+      <c r="F246" s="24">
+        <v>1</v>
+      </c>
       <c r="G246" s="25"/>
       <c r="H246" s="25"/>
-      <c r="I246" s="25"/>
+      <c r="I246" s="25">
+        <v>1</v>
+      </c>
       <c r="J246" s="25"/>
       <c r="K246" s="26"/>
     </row>
@@ -9909,10 +10001,14 @@
       <c r="E247" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="F247" s="24"/>
+      <c r="F247" s="24">
+        <v>1</v>
+      </c>
       <c r="G247" s="25"/>
       <c r="H247" s="25"/>
-      <c r="I247" s="25"/>
+      <c r="I247" s="25">
+        <v>1</v>
+      </c>
       <c r="J247" s="25"/>
       <c r="K247" s="26"/>
     </row>
@@ -9932,10 +10028,14 @@
       <c r="E248" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="F248" s="24"/>
+      <c r="F248" s="24">
+        <v>1</v>
+      </c>
       <c r="G248" s="25"/>
       <c r="H248" s="25"/>
-      <c r="I248" s="25"/>
+      <c r="I248" s="25">
+        <v>1</v>
+      </c>
       <c r="J248" s="25"/>
       <c r="K248" s="26"/>
     </row>
@@ -9955,10 +10055,14 @@
       <c r="E249" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="F249" s="24"/>
+      <c r="F249" s="24">
+        <v>1</v>
+      </c>
       <c r="G249" s="25"/>
       <c r="H249" s="25"/>
-      <c r="I249" s="25"/>
+      <c r="I249" s="25">
+        <v>1</v>
+      </c>
       <c r="J249" s="25"/>
       <c r="K249" s="26"/>
     </row>
@@ -9981,7 +10085,9 @@
       <c r="F250" s="17"/>
       <c r="G250" s="18"/>
       <c r="H250" s="18"/>
-      <c r="I250" s="18"/>
+      <c r="I250" s="18">
+        <v>1</v>
+      </c>
       <c r="J250" s="18"/>
       <c r="K250" s="19"/>
     </row>
@@ -10004,7 +10110,9 @@
       <c r="F251" s="24"/>
       <c r="G251" s="25"/>
       <c r="H251" s="25"/>
-      <c r="I251" s="25"/>
+      <c r="I251" s="25">
+        <v>1</v>
+      </c>
       <c r="J251" s="25"/>
       <c r="K251" s="26"/>
     </row>
@@ -10027,7 +10135,9 @@
       <c r="F252" s="24"/>
       <c r="G252" s="25"/>
       <c r="H252" s="25"/>
-      <c r="I252" s="25"/>
+      <c r="I252" s="25">
+        <v>1</v>
+      </c>
       <c r="J252" s="25"/>
       <c r="K252" s="26"/>
     </row>
@@ -10050,8 +10160,12 @@
       <c r="F253" s="17"/>
       <c r="G253" s="18"/>
       <c r="H253" s="18"/>
-      <c r="I253" s="18"/>
-      <c r="J253" s="18"/>
+      <c r="I253" s="18">
+        <v>1</v>
+      </c>
+      <c r="J253" s="18">
+        <v>1</v>
+      </c>
       <c r="K253" s="19"/>
     </row>
     <row r="254" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -10116,7 +10230,9 @@
       <c r="E256" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="F256" s="17"/>
+      <c r="F256" s="17">
+        <v>1</v>
+      </c>
       <c r="G256" s="18"/>
       <c r="H256" s="18"/>
       <c r="I256" s="18"/>
@@ -10139,7 +10255,9 @@
       <c r="E257" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="F257" s="17"/>
+      <c r="F257" s="17">
+        <v>1</v>
+      </c>
       <c r="G257" s="18"/>
       <c r="H257" s="18"/>
       <c r="I257" s="18"/>
@@ -10162,7 +10280,9 @@
       <c r="E258" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="F258" s="17"/>
+      <c r="F258" s="17">
+        <v>1</v>
+      </c>
       <c r="G258" s="18"/>
       <c r="H258" s="18"/>
       <c r="I258" s="18"/>
@@ -10185,7 +10305,9 @@
       <c r="E259" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="F259" s="17"/>
+      <c r="F259" s="17">
+        <v>1</v>
+      </c>
       <c r="G259" s="18"/>
       <c r="H259" s="18"/>
       <c r="I259" s="18"/>
@@ -10208,7 +10330,9 @@
       <c r="E260" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="F260" s="17"/>
+      <c r="F260" s="17">
+        <v>1</v>
+      </c>
       <c r="G260" s="18"/>
       <c r="H260" s="18"/>
       <c r="I260" s="18"/>
@@ -10231,7 +10355,9 @@
       <c r="E261" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="F261" s="17"/>
+      <c r="F261" s="17">
+        <v>1</v>
+      </c>
       <c r="G261" s="18"/>
       <c r="H261" s="18"/>
       <c r="I261" s="18"/>
@@ -10254,7 +10380,9 @@
       <c r="E262" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="F262" s="17"/>
+      <c r="F262" s="17">
+        <v>1</v>
+      </c>
       <c r="G262" s="18"/>
       <c r="H262" s="18"/>
       <c r="I262" s="18"/>
@@ -10277,7 +10405,9 @@
       <c r="E263" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="F263" s="17"/>
+      <c r="F263" s="17">
+        <v>1</v>
+      </c>
       <c r="G263" s="18"/>
       <c r="H263" s="18"/>
       <c r="I263" s="18"/>
@@ -10300,7 +10430,9 @@
       <c r="E264" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="F264" s="17"/>
+      <c r="F264" s="17">
+        <v>1</v>
+      </c>
       <c r="G264" s="18"/>
       <c r="H264" s="18"/>
       <c r="I264" s="18"/>
@@ -10323,7 +10455,9 @@
       <c r="E265" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="F265" s="17"/>
+      <c r="F265" s="17">
+        <v>1</v>
+      </c>
       <c r="G265" s="18"/>
       <c r="H265" s="18"/>
       <c r="I265" s="18"/>
@@ -10346,7 +10480,9 @@
       <c r="E266" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="F266" s="17"/>
+      <c r="F266" s="17">
+        <v>1</v>
+      </c>
       <c r="G266" s="18"/>
       <c r="H266" s="18"/>
       <c r="I266" s="18"/>
@@ -10369,7 +10505,9 @@
       <c r="E267" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="F267" s="17"/>
+      <c r="F267" s="17">
+        <v>1</v>
+      </c>
       <c r="G267" s="18"/>
       <c r="H267" s="18"/>
       <c r="I267" s="18"/>
@@ -10392,7 +10530,9 @@
       <c r="E268" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="F268" s="17"/>
+      <c r="F268" s="17">
+        <v>1</v>
+      </c>
       <c r="G268" s="18"/>
       <c r="H268" s="18"/>
       <c r="I268" s="18"/>
@@ -10415,7 +10555,9 @@
       <c r="E269" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="F269" s="17"/>
+      <c r="F269" s="17">
+        <v>1</v>
+      </c>
       <c r="G269" s="18"/>
       <c r="H269" s="18"/>
       <c r="I269" s="18"/>

--- a/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
+++ b/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
@@ -3672,7 +3672,7 @@
   <dimension ref="A1:K830"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="I267" sqref="I267"/>
+      <selection activeCell="H256" sqref="H256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
+++ b/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
@@ -3671,8 +3671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K830"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="H256" sqref="H256"/>
+    <sheetView tabSelected="1" topLeftCell="A377" workbookViewId="0">
+      <selection activeCell="F384" sqref="F384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10236,7 +10236,9 @@
       <c r="G256" s="18"/>
       <c r="H256" s="18"/>
       <c r="I256" s="18"/>
-      <c r="J256" s="18"/>
+      <c r="J256" s="18">
+        <v>1</v>
+      </c>
       <c r="K256" s="19"/>
     </row>
     <row r="257" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -10261,7 +10263,9 @@
       <c r="G257" s="18"/>
       <c r="H257" s="18"/>
       <c r="I257" s="18"/>
-      <c r="J257" s="18"/>
+      <c r="J257" s="18">
+        <v>1</v>
+      </c>
       <c r="K257" s="19"/>
     </row>
     <row r="258" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -10286,7 +10290,9 @@
       <c r="G258" s="18"/>
       <c r="H258" s="18"/>
       <c r="I258" s="18"/>
-      <c r="J258" s="18"/>
+      <c r="J258" s="18">
+        <v>1</v>
+      </c>
       <c r="K258" s="19"/>
     </row>
     <row r="259" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -10311,7 +10317,9 @@
       <c r="G259" s="18"/>
       <c r="H259" s="18"/>
       <c r="I259" s="18"/>
-      <c r="J259" s="18"/>
+      <c r="J259" s="18">
+        <v>1</v>
+      </c>
       <c r="K259" s="19"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
@@ -10336,7 +10344,9 @@
       <c r="G260" s="18"/>
       <c r="H260" s="18"/>
       <c r="I260" s="18"/>
-      <c r="J260" s="18"/>
+      <c r="J260" s="18">
+        <v>1</v>
+      </c>
       <c r="K260" s="19"/>
     </row>
     <row r="261" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -10361,7 +10371,9 @@
       <c r="G261" s="18"/>
       <c r="H261" s="18"/>
       <c r="I261" s="18"/>
-      <c r="J261" s="18"/>
+      <c r="J261" s="18">
+        <v>1</v>
+      </c>
       <c r="K261" s="19"/>
     </row>
     <row r="262" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -10386,7 +10398,9 @@
       <c r="G262" s="18"/>
       <c r="H262" s="18"/>
       <c r="I262" s="18"/>
-      <c r="J262" s="18"/>
+      <c r="J262" s="18">
+        <v>1</v>
+      </c>
       <c r="K262" s="19"/>
     </row>
     <row r="263" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -10411,7 +10425,9 @@
       <c r="G263" s="18"/>
       <c r="H263" s="18"/>
       <c r="I263" s="18"/>
-      <c r="J263" s="18"/>
+      <c r="J263" s="18">
+        <v>1</v>
+      </c>
       <c r="K263" s="19"/>
     </row>
     <row r="264" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -10436,7 +10452,9 @@
       <c r="G264" s="18"/>
       <c r="H264" s="18"/>
       <c r="I264" s="18"/>
-      <c r="J264" s="18"/>
+      <c r="J264" s="18">
+        <v>1</v>
+      </c>
       <c r="K264" s="19"/>
     </row>
     <row r="265" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -10461,7 +10479,9 @@
       <c r="G265" s="18"/>
       <c r="H265" s="18"/>
       <c r="I265" s="18"/>
-      <c r="J265" s="18"/>
+      <c r="J265" s="18">
+        <v>1</v>
+      </c>
       <c r="K265" s="19"/>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
@@ -10486,7 +10506,9 @@
       <c r="G266" s="18"/>
       <c r="H266" s="18"/>
       <c r="I266" s="18"/>
-      <c r="J266" s="18"/>
+      <c r="J266" s="18">
+        <v>1</v>
+      </c>
       <c r="K266" s="19"/>
     </row>
     <row r="267" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -10511,7 +10533,9 @@
       <c r="G267" s="18"/>
       <c r="H267" s="18"/>
       <c r="I267" s="18"/>
-      <c r="J267" s="18"/>
+      <c r="J267" s="18">
+        <v>1</v>
+      </c>
       <c r="K267" s="19"/>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
@@ -10536,7 +10560,9 @@
       <c r="G268" s="18"/>
       <c r="H268" s="18"/>
       <c r="I268" s="18"/>
-      <c r="J268" s="18"/>
+      <c r="J268" s="18">
+        <v>1</v>
+      </c>
       <c r="K268" s="19"/>
     </row>
     <row r="269" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -10561,7 +10587,9 @@
       <c r="G269" s="18"/>
       <c r="H269" s="18"/>
       <c r="I269" s="18"/>
-      <c r="J269" s="18"/>
+      <c r="J269" s="18">
+        <v>1</v>
+      </c>
       <c r="K269" s="19"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
@@ -10928,7 +10956,9 @@
       <c r="F285" s="24"/>
       <c r="G285" s="25"/>
       <c r="H285" s="25"/>
-      <c r="I285" s="25"/>
+      <c r="I285" s="25">
+        <v>1</v>
+      </c>
       <c r="J285" s="25"/>
       <c r="K285" s="26"/>
     </row>
@@ -10951,7 +10981,9 @@
       <c r="F286" s="24"/>
       <c r="G286" s="25"/>
       <c r="H286" s="25"/>
-      <c r="I286" s="25"/>
+      <c r="I286" s="25">
+        <v>1</v>
+      </c>
       <c r="J286" s="25"/>
       <c r="K286" s="26"/>
     </row>
@@ -10971,7 +11003,9 @@
       <c r="E287" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="F287" s="17"/>
+      <c r="F287" s="17">
+        <v>1</v>
+      </c>
       <c r="G287" s="18"/>
       <c r="H287" s="18"/>
       <c r="I287" s="18"/>
@@ -10994,7 +11028,9 @@
       <c r="E288" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="F288" s="17"/>
+      <c r="F288" s="17">
+        <v>1</v>
+      </c>
       <c r="G288" s="18"/>
       <c r="H288" s="18"/>
       <c r="I288" s="18"/>
@@ -11017,7 +11053,9 @@
       <c r="E289" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="F289" s="17"/>
+      <c r="F289" s="17">
+        <v>1</v>
+      </c>
       <c r="G289" s="18"/>
       <c r="H289" s="18"/>
       <c r="I289" s="18"/>
@@ -11040,7 +11078,9 @@
       <c r="E290" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="F290" s="17"/>
+      <c r="F290" s="17">
+        <v>1</v>
+      </c>
       <c r="G290" s="18"/>
       <c r="H290" s="18"/>
       <c r="I290" s="18"/>
@@ -11063,7 +11103,9 @@
       <c r="E291" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="F291" s="17"/>
+      <c r="F291" s="17">
+        <v>1</v>
+      </c>
       <c r="G291" s="18"/>
       <c r="H291" s="18"/>
       <c r="I291" s="18"/>
@@ -11086,7 +11128,9 @@
       <c r="E292" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="F292" s="24"/>
+      <c r="F292" s="24">
+        <v>1</v>
+      </c>
       <c r="G292" s="25"/>
       <c r="H292" s="25"/>
       <c r="I292" s="25"/>
@@ -11109,7 +11153,9 @@
       <c r="E293" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="F293" s="24"/>
+      <c r="F293" s="24">
+        <v>1</v>
+      </c>
       <c r="G293" s="25"/>
       <c r="H293" s="25"/>
       <c r="I293" s="25"/>
@@ -11132,7 +11178,9 @@
       <c r="E294" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="F294" s="24"/>
+      <c r="F294" s="24">
+        <v>1</v>
+      </c>
       <c r="G294" s="25"/>
       <c r="H294" s="25"/>
       <c r="I294" s="25"/>
@@ -11155,7 +11203,9 @@
       <c r="E295" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="F295" s="24"/>
+      <c r="F295" s="24">
+        <v>1</v>
+      </c>
       <c r="G295" s="25"/>
       <c r="H295" s="25"/>
       <c r="I295" s="25"/>
@@ -11181,7 +11231,9 @@
       <c r="F296" s="17"/>
       <c r="G296" s="18"/>
       <c r="H296" s="18"/>
-      <c r="I296" s="18"/>
+      <c r="I296" s="18">
+        <v>1</v>
+      </c>
       <c r="J296" s="18"/>
       <c r="K296" s="19"/>
     </row>
@@ -11204,7 +11256,9 @@
       <c r="F297" s="17"/>
       <c r="G297" s="18"/>
       <c r="H297" s="18"/>
-      <c r="I297" s="18"/>
+      <c r="I297" s="18">
+        <v>1</v>
+      </c>
       <c r="J297" s="18"/>
       <c r="K297" s="19"/>
     </row>
@@ -11227,7 +11281,9 @@
       <c r="F298" s="24"/>
       <c r="G298" s="25"/>
       <c r="H298" s="25"/>
-      <c r="I298" s="25"/>
+      <c r="I298" s="25">
+        <v>1</v>
+      </c>
       <c r="J298" s="25"/>
       <c r="K298" s="26"/>
     </row>
@@ -11250,7 +11306,9 @@
       <c r="F299" s="24"/>
       <c r="G299" s="25"/>
       <c r="H299" s="25"/>
-      <c r="I299" s="25"/>
+      <c r="I299" s="25">
+        <v>1</v>
+      </c>
       <c r="J299" s="25"/>
       <c r="K299" s="26"/>
     </row>
@@ -11273,7 +11331,9 @@
       <c r="F300" s="24"/>
       <c r="G300" s="25"/>
       <c r="H300" s="25"/>
-      <c r="I300" s="25"/>
+      <c r="I300" s="25">
+        <v>1</v>
+      </c>
       <c r="J300" s="25"/>
       <c r="K300" s="26"/>
     </row>
@@ -11296,7 +11356,9 @@
       <c r="F301" s="24"/>
       <c r="G301" s="25"/>
       <c r="H301" s="25"/>
-      <c r="I301" s="25"/>
+      <c r="I301" s="25">
+        <v>1</v>
+      </c>
       <c r="J301" s="25"/>
       <c r="K301" s="26"/>
     </row>
@@ -11342,7 +11404,9 @@
       <c r="F303" s="24"/>
       <c r="G303" s="25"/>
       <c r="H303" s="25"/>
-      <c r="I303" s="25"/>
+      <c r="I303" s="25">
+        <v>1</v>
+      </c>
       <c r="J303" s="25"/>
       <c r="K303" s="26"/>
     </row>
@@ -11362,7 +11426,9 @@
       <c r="E304" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="F304" s="17"/>
+      <c r="F304" s="17">
+        <v>1</v>
+      </c>
       <c r="G304" s="18"/>
       <c r="H304" s="18"/>
       <c r="I304" s="18"/>
@@ -11385,7 +11451,9 @@
       <c r="E305" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="F305" s="17"/>
+      <c r="F305" s="17">
+        <v>1</v>
+      </c>
       <c r="G305" s="18"/>
       <c r="H305" s="18"/>
       <c r="I305" s="18"/>
@@ -11408,7 +11476,9 @@
       <c r="E306" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="F306" s="17"/>
+      <c r="F306" s="17">
+        <v>1</v>
+      </c>
       <c r="G306" s="18"/>
       <c r="H306" s="18"/>
       <c r="I306" s="18"/>
@@ -11431,7 +11501,9 @@
       <c r="E307" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="F307" s="17"/>
+      <c r="F307" s="17">
+        <v>1</v>
+      </c>
       <c r="G307" s="18"/>
       <c r="H307" s="18"/>
       <c r="I307" s="18"/>
@@ -11457,7 +11529,9 @@
       <c r="F308" s="24"/>
       <c r="G308" s="25"/>
       <c r="H308" s="25"/>
-      <c r="I308" s="25"/>
+      <c r="I308" s="25">
+        <v>1</v>
+      </c>
       <c r="J308" s="25"/>
       <c r="K308" s="26"/>
     </row>
@@ -11480,7 +11554,9 @@
       <c r="F309" s="17"/>
       <c r="G309" s="18"/>
       <c r="H309" s="18"/>
-      <c r="I309" s="18"/>
+      <c r="I309" s="18">
+        <v>1</v>
+      </c>
       <c r="J309" s="18"/>
       <c r="K309" s="19"/>
     </row>
@@ -11503,7 +11579,9 @@
       <c r="F310" s="17"/>
       <c r="G310" s="18"/>
       <c r="H310" s="18"/>
-      <c r="I310" s="18"/>
+      <c r="I310" s="18">
+        <v>1</v>
+      </c>
       <c r="J310" s="18"/>
       <c r="K310" s="19"/>
     </row>
@@ -11526,7 +11604,9 @@
       <c r="F311" s="24"/>
       <c r="G311" s="25"/>
       <c r="H311" s="25"/>
-      <c r="I311" s="25"/>
+      <c r="I311" s="25">
+        <v>1</v>
+      </c>
       <c r="J311" s="25"/>
       <c r="K311" s="26"/>
     </row>
@@ -11549,7 +11629,9 @@
       <c r="F312" s="24"/>
       <c r="G312" s="25"/>
       <c r="H312" s="25"/>
-      <c r="I312" s="25"/>
+      <c r="I312" s="25">
+        <v>1</v>
+      </c>
       <c r="J312" s="25"/>
       <c r="K312" s="26"/>
     </row>
@@ -11572,7 +11654,9 @@
       <c r="F313" s="17"/>
       <c r="G313" s="18"/>
       <c r="H313" s="18"/>
-      <c r="I313" s="18"/>
+      <c r="I313" s="18">
+        <v>1</v>
+      </c>
       <c r="J313" s="18"/>
       <c r="K313" s="19"/>
     </row>
@@ -11615,7 +11699,9 @@
       <c r="E315" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="F315" s="17"/>
+      <c r="F315" s="17">
+        <v>1</v>
+      </c>
       <c r="G315" s="18"/>
       <c r="H315" s="18"/>
       <c r="I315" s="18"/>
@@ -11638,7 +11724,9 @@
       <c r="E316" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="F316" s="17"/>
+      <c r="F316" s="17">
+        <v>1</v>
+      </c>
       <c r="G316" s="18"/>
       <c r="H316" s="18"/>
       <c r="I316" s="18"/>
@@ -11661,7 +11749,9 @@
       <c r="E317" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="F317" s="17"/>
+      <c r="F317" s="17">
+        <v>1</v>
+      </c>
       <c r="G317" s="18"/>
       <c r="H317" s="18"/>
       <c r="I317" s="18"/>
@@ -11684,7 +11774,9 @@
       <c r="E318" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="F318" s="17"/>
+      <c r="F318" s="17">
+        <v>1</v>
+      </c>
       <c r="G318" s="18"/>
       <c r="H318" s="18"/>
       <c r="I318" s="18"/>
@@ -11707,7 +11799,9 @@
       <c r="E319" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="F319" s="17"/>
+      <c r="F319" s="17">
+        <v>1</v>
+      </c>
       <c r="G319" s="18"/>
       <c r="H319" s="18"/>
       <c r="I319" s="18"/>
@@ -11730,7 +11824,9 @@
       <c r="E320" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="F320" s="17"/>
+      <c r="F320" s="17">
+        <v>1</v>
+      </c>
       <c r="G320" s="18"/>
       <c r="H320" s="18"/>
       <c r="I320" s="18"/>
@@ -11753,7 +11849,9 @@
       <c r="E321" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="F321" s="17"/>
+      <c r="F321" s="17">
+        <v>1</v>
+      </c>
       <c r="G321" s="18"/>
       <c r="H321" s="18"/>
       <c r="I321" s="18"/>
@@ -11776,7 +11874,9 @@
       <c r="E322" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="F322" s="17"/>
+      <c r="F322" s="17">
+        <v>1</v>
+      </c>
       <c r="G322" s="18"/>
       <c r="H322" s="18"/>
       <c r="I322" s="18"/>
@@ -11799,7 +11899,9 @@
       <c r="E323" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="F323" s="17"/>
+      <c r="F323" s="17">
+        <v>1</v>
+      </c>
       <c r="G323" s="18"/>
       <c r="H323" s="18"/>
       <c r="I323" s="18"/>
@@ -11822,7 +11924,9 @@
       <c r="E324" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="F324" s="17"/>
+      <c r="F324" s="17">
+        <v>1</v>
+      </c>
       <c r="G324" s="18"/>
       <c r="H324" s="18"/>
       <c r="I324" s="18"/>
@@ -11845,7 +11949,9 @@
       <c r="E325" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="F325" s="17"/>
+      <c r="F325" s="17">
+        <v>1</v>
+      </c>
       <c r="G325" s="18"/>
       <c r="H325" s="18"/>
       <c r="I325" s="18"/>
@@ -11868,7 +11974,9 @@
       <c r="E326" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="F326" s="17"/>
+      <c r="F326" s="17">
+        <v>1</v>
+      </c>
       <c r="G326" s="18"/>
       <c r="H326" s="18"/>
       <c r="I326" s="18"/>
@@ -11891,7 +11999,9 @@
       <c r="E327" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="F327" s="17"/>
+      <c r="F327" s="17">
+        <v>1</v>
+      </c>
       <c r="G327" s="18"/>
       <c r="H327" s="18"/>
       <c r="I327" s="18"/>
@@ -11914,7 +12024,9 @@
       <c r="E328" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="F328" s="17"/>
+      <c r="F328" s="17">
+        <v>1</v>
+      </c>
       <c r="G328" s="18"/>
       <c r="H328" s="18"/>
       <c r="I328" s="18"/>
@@ -11937,9 +12049,13 @@
       <c r="E329" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="F329" s="17"/>
+      <c r="F329" s="17">
+        <v>1</v>
+      </c>
       <c r="G329" s="18"/>
-      <c r="H329" s="18"/>
+      <c r="H329" s="18">
+        <v>1</v>
+      </c>
       <c r="I329" s="18"/>
       <c r="J329" s="18"/>
       <c r="K329" s="19"/>
@@ -11960,7 +12076,9 @@
       <c r="E330" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="F330" s="17"/>
+      <c r="F330" s="17">
+        <v>1</v>
+      </c>
       <c r="G330" s="18"/>
       <c r="H330" s="18"/>
       <c r="I330" s="18"/>
@@ -11983,7 +12101,9 @@
       <c r="E331" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="F331" s="17"/>
+      <c r="F331" s="17">
+        <v>1</v>
+      </c>
       <c r="G331" s="18"/>
       <c r="H331" s="18"/>
       <c r="I331" s="18"/>
@@ -12006,7 +12126,9 @@
       <c r="E332" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="F332" s="17"/>
+      <c r="F332" s="17">
+        <v>1</v>
+      </c>
       <c r="G332" s="18"/>
       <c r="H332" s="18"/>
       <c r="I332" s="18"/>
@@ -12029,7 +12151,9 @@
       <c r="E333" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="F333" s="24"/>
+      <c r="F333" s="24">
+        <v>1</v>
+      </c>
       <c r="G333" s="25"/>
       <c r="H333" s="25"/>
       <c r="I333" s="25"/>
@@ -12052,7 +12176,9 @@
       <c r="E334" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="F334" s="24"/>
+      <c r="F334" s="24">
+        <v>1</v>
+      </c>
       <c r="G334" s="25"/>
       <c r="H334" s="25"/>
       <c r="I334" s="25"/>
@@ -12075,7 +12201,9 @@
       <c r="E335" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="F335" s="24"/>
+      <c r="F335" s="24">
+        <v>1</v>
+      </c>
       <c r="G335" s="25"/>
       <c r="H335" s="25"/>
       <c r="I335" s="25"/>
@@ -12098,7 +12226,9 @@
       <c r="E336" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="F336" s="24"/>
+      <c r="F336" s="24">
+        <v>1</v>
+      </c>
       <c r="G336" s="25"/>
       <c r="H336" s="25"/>
       <c r="I336" s="25"/>
@@ -12125,7 +12255,9 @@
       <c r="G337" s="18"/>
       <c r="H337" s="18"/>
       <c r="I337" s="18"/>
-      <c r="J337" s="18"/>
+      <c r="J337" s="18">
+        <v>1</v>
+      </c>
       <c r="K337" s="19"/>
     </row>
     <row r="338" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -12148,7 +12280,9 @@
       <c r="G338" s="18"/>
       <c r="H338" s="18"/>
       <c r="I338" s="18"/>
-      <c r="J338" s="18"/>
+      <c r="J338" s="18">
+        <v>1</v>
+      </c>
       <c r="K338" s="19"/>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
@@ -12171,7 +12305,9 @@
       <c r="G339" s="18"/>
       <c r="H339" s="18"/>
       <c r="I339" s="18"/>
-      <c r="J339" s="18"/>
+      <c r="J339" s="18">
+        <v>1</v>
+      </c>
       <c r="K339" s="19"/>
     </row>
     <row r="340" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -12194,7 +12330,9 @@
       <c r="G340" s="18"/>
       <c r="H340" s="18"/>
       <c r="I340" s="18"/>
-      <c r="J340" s="18"/>
+      <c r="J340" s="18">
+        <v>1</v>
+      </c>
       <c r="K340" s="19"/>
     </row>
     <row r="341" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -12217,7 +12355,9 @@
       <c r="G341" s="18"/>
       <c r="H341" s="18"/>
       <c r="I341" s="18"/>
-      <c r="J341" s="18"/>
+      <c r="J341" s="18">
+        <v>1</v>
+      </c>
       <c r="K341" s="19"/>
     </row>
     <row r="342" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -12240,7 +12380,9 @@
       <c r="G342" s="18"/>
       <c r="H342" s="18"/>
       <c r="I342" s="18"/>
-      <c r="J342" s="18"/>
+      <c r="J342" s="18">
+        <v>1</v>
+      </c>
       <c r="K342" s="19"/>
     </row>
     <row r="343" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -12263,7 +12405,9 @@
       <c r="G343" s="18"/>
       <c r="H343" s="18"/>
       <c r="I343" s="18"/>
-      <c r="J343" s="18"/>
+      <c r="J343" s="18">
+        <v>1</v>
+      </c>
       <c r="K343" s="19"/>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
@@ -12286,7 +12430,9 @@
       <c r="G344" s="18"/>
       <c r="H344" s="18"/>
       <c r="I344" s="18"/>
-      <c r="J344" s="18"/>
+      <c r="J344" s="18">
+        <v>1</v>
+      </c>
       <c r="K344" s="19"/>
     </row>
     <row r="345" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -12309,7 +12455,9 @@
       <c r="G345" s="18"/>
       <c r="H345" s="18"/>
       <c r="I345" s="18"/>
-      <c r="J345" s="18"/>
+      <c r="J345" s="18">
+        <v>1</v>
+      </c>
       <c r="K345" s="19"/>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
@@ -12332,7 +12480,9 @@
       <c r="G346" s="18"/>
       <c r="H346" s="18"/>
       <c r="I346" s="18"/>
-      <c r="J346" s="18"/>
+      <c r="J346" s="18">
+        <v>1</v>
+      </c>
       <c r="K346" s="19"/>
     </row>
     <row r="347" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -12355,7 +12505,9 @@
       <c r="G347" s="18"/>
       <c r="H347" s="18"/>
       <c r="I347" s="18"/>
-      <c r="J347" s="18"/>
+      <c r="J347" s="18">
+        <v>1</v>
+      </c>
       <c r="K347" s="19"/>
     </row>
     <row r="348" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -12378,7 +12530,9 @@
       <c r="G348" s="18"/>
       <c r="H348" s="18"/>
       <c r="I348" s="18"/>
-      <c r="J348" s="18"/>
+      <c r="J348" s="18">
+        <v>1</v>
+      </c>
       <c r="K348" s="19"/>
     </row>
     <row r="349" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -12401,7 +12555,9 @@
       <c r="G349" s="18"/>
       <c r="H349" s="18"/>
       <c r="I349" s="18"/>
-      <c r="J349" s="18"/>
+      <c r="J349" s="18">
+        <v>1</v>
+      </c>
       <c r="K349" s="19"/>
     </row>
     <row r="350" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -12424,7 +12580,9 @@
       <c r="G350" s="18"/>
       <c r="H350" s="18"/>
       <c r="I350" s="18"/>
-      <c r="J350" s="18"/>
+      <c r="J350" s="18">
+        <v>1</v>
+      </c>
       <c r="K350" s="19"/>
     </row>
     <row r="351" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -12447,7 +12605,9 @@
       <c r="G351" s="18"/>
       <c r="H351" s="18"/>
       <c r="I351" s="18"/>
-      <c r="J351" s="18"/>
+      <c r="J351" s="18">
+        <v>1</v>
+      </c>
       <c r="K351" s="19"/>
     </row>
     <row r="352" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -12470,7 +12630,9 @@
       <c r="G352" s="18"/>
       <c r="H352" s="18"/>
       <c r="I352" s="18"/>
-      <c r="J352" s="18"/>
+      <c r="J352" s="18">
+        <v>1</v>
+      </c>
       <c r="K352" s="19"/>
     </row>
     <row r="353" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -12493,7 +12655,9 @@
       <c r="G353" s="18"/>
       <c r="H353" s="18"/>
       <c r="I353" s="18"/>
-      <c r="J353" s="18"/>
+      <c r="J353" s="18">
+        <v>1</v>
+      </c>
       <c r="K353" s="19"/>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
@@ -12516,7 +12680,9 @@
       <c r="G354" s="18"/>
       <c r="H354" s="18"/>
       <c r="I354" s="18"/>
-      <c r="J354" s="18"/>
+      <c r="J354" s="18">
+        <v>1</v>
+      </c>
       <c r="K354" s="19"/>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
@@ -12539,7 +12705,9 @@
       <c r="G355" s="18"/>
       <c r="H355" s="18"/>
       <c r="I355" s="18"/>
-      <c r="J355" s="18"/>
+      <c r="J355" s="18">
+        <v>1</v>
+      </c>
       <c r="K355" s="19"/>
     </row>
     <row r="356" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -12562,7 +12730,9 @@
       <c r="G356" s="18"/>
       <c r="H356" s="18"/>
       <c r="I356" s="18"/>
-      <c r="J356" s="18"/>
+      <c r="J356" s="18">
+        <v>1</v>
+      </c>
       <c r="K356" s="19"/>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
@@ -12585,7 +12755,9 @@
       <c r="G357" s="18"/>
       <c r="H357" s="18"/>
       <c r="I357" s="18"/>
-      <c r="J357" s="18"/>
+      <c r="J357" s="18">
+        <v>1</v>
+      </c>
       <c r="K357" s="19"/>
     </row>
     <row r="358" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -12604,12 +12776,18 @@
       <c r="E358" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="F358" s="24"/>
+      <c r="F358" s="24">
+        <v>1</v>
+      </c>
       <c r="G358" s="25"/>
-      <c r="H358" s="25"/>
+      <c r="H358" s="25">
+        <v>1</v>
+      </c>
       <c r="I358" s="25"/>
       <c r="J358" s="25"/>
-      <c r="K358" s="26"/>
+      <c r="K358" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="20">
@@ -12627,12 +12805,18 @@
       <c r="E359" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="F359" s="24"/>
+      <c r="F359" s="24">
+        <v>1</v>
+      </c>
       <c r="G359" s="25"/>
-      <c r="H359" s="25"/>
+      <c r="H359" s="25">
+        <v>1</v>
+      </c>
       <c r="I359" s="25"/>
       <c r="J359" s="25"/>
-      <c r="K359" s="26"/>
+      <c r="K359" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="20">
@@ -12650,12 +12834,18 @@
       <c r="E360" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="F360" s="24"/>
+      <c r="F360" s="24">
+        <v>1</v>
+      </c>
       <c r="G360" s="25"/>
-      <c r="H360" s="25"/>
+      <c r="H360" s="25">
+        <v>1</v>
+      </c>
       <c r="I360" s="25"/>
       <c r="J360" s="25"/>
-      <c r="K360" s="26"/>
+      <c r="K360" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="361" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A361" s="20">
@@ -12673,12 +12863,18 @@
       <c r="E361" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="F361" s="24"/>
+      <c r="F361" s="24">
+        <v>1</v>
+      </c>
       <c r="G361" s="25"/>
-      <c r="H361" s="25"/>
+      <c r="H361" s="25">
+        <v>1</v>
+      </c>
       <c r="I361" s="25"/>
       <c r="J361" s="25"/>
-      <c r="K361" s="26"/>
+      <c r="K361" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="362" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A362" s="20">
@@ -12696,12 +12892,18 @@
       <c r="E362" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="F362" s="24"/>
+      <c r="F362" s="24">
+        <v>1</v>
+      </c>
       <c r="G362" s="25"/>
-      <c r="H362" s="25"/>
+      <c r="H362" s="25">
+        <v>1</v>
+      </c>
       <c r="I362" s="25"/>
       <c r="J362" s="25"/>
-      <c r="K362" s="26"/>
+      <c r="K362" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="363" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A363" s="20">
@@ -12719,12 +12921,18 @@
       <c r="E363" s="23" t="s">
         <v>341</v>
       </c>
-      <c r="F363" s="24"/>
+      <c r="F363" s="24">
+        <v>1</v>
+      </c>
       <c r="G363" s="25"/>
-      <c r="H363" s="25"/>
+      <c r="H363" s="25">
+        <v>1</v>
+      </c>
       <c r="I363" s="25"/>
       <c r="J363" s="25"/>
-      <c r="K363" s="26"/>
+      <c r="K363" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="364" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A364" s="20">
@@ -12742,12 +12950,18 @@
       <c r="E364" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="F364" s="24"/>
+      <c r="F364" s="24">
+        <v>1</v>
+      </c>
       <c r="G364" s="25"/>
-      <c r="H364" s="25"/>
+      <c r="H364" s="25">
+        <v>1</v>
+      </c>
       <c r="I364" s="25"/>
       <c r="J364" s="25"/>
-      <c r="K364" s="26"/>
+      <c r="K364" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="20">
@@ -12765,12 +12979,18 @@
       <c r="E365" s="23" t="s">
         <v>384</v>
       </c>
-      <c r="F365" s="24"/>
+      <c r="F365" s="24">
+        <v>1</v>
+      </c>
       <c r="G365" s="25"/>
-      <c r="H365" s="25"/>
+      <c r="H365" s="25">
+        <v>1</v>
+      </c>
       <c r="I365" s="25"/>
       <c r="J365" s="25"/>
-      <c r="K365" s="26"/>
+      <c r="K365" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="20">
@@ -12788,12 +13008,18 @@
       <c r="E366" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="F366" s="24"/>
+      <c r="F366" s="24">
+        <v>1</v>
+      </c>
       <c r="G366" s="25"/>
-      <c r="H366" s="25"/>
+      <c r="H366" s="25">
+        <v>1</v>
+      </c>
       <c r="I366" s="25"/>
       <c r="J366" s="25"/>
-      <c r="K366" s="26"/>
+      <c r="K366" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="367" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A367" s="20">
@@ -12811,12 +13037,18 @@
       <c r="E367" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="F367" s="24"/>
+      <c r="F367" s="24">
+        <v>1</v>
+      </c>
       <c r="G367" s="25"/>
-      <c r="H367" s="25"/>
+      <c r="H367" s="25">
+        <v>1</v>
+      </c>
       <c r="I367" s="25"/>
       <c r="J367" s="25"/>
-      <c r="K367" s="26"/>
+      <c r="K367" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="368" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A368" s="14">
@@ -12838,7 +13070,9 @@
       <c r="G368" s="18"/>
       <c r="H368" s="18"/>
       <c r="I368" s="18"/>
-      <c r="J368" s="18"/>
+      <c r="J368" s="18">
+        <v>1</v>
+      </c>
       <c r="K368" s="19"/>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
@@ -12861,7 +13095,9 @@
       <c r="G369" s="18"/>
       <c r="H369" s="18"/>
       <c r="I369" s="18"/>
-      <c r="J369" s="18"/>
+      <c r="J369" s="18">
+        <v>1</v>
+      </c>
       <c r="K369" s="19"/>
     </row>
     <row r="370" spans="1:11" ht="105" x14ac:dyDescent="0.25">
@@ -12884,7 +13120,9 @@
       <c r="G370" s="18"/>
       <c r="H370" s="18"/>
       <c r="I370" s="18"/>
-      <c r="J370" s="18"/>
+      <c r="J370" s="18">
+        <v>1</v>
+      </c>
       <c r="K370" s="19"/>
     </row>
     <row r="371" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -12972,7 +13210,9 @@
       <c r="E374" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="F374" s="17"/>
+      <c r="F374" s="17">
+        <v>1</v>
+      </c>
       <c r="G374" s="18"/>
       <c r="H374" s="18"/>
       <c r="I374" s="18"/>
@@ -12995,7 +13235,9 @@
       <c r="E375" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="F375" s="17"/>
+      <c r="F375" s="17">
+        <v>1</v>
+      </c>
       <c r="G375" s="18"/>
       <c r="H375" s="18"/>
       <c r="I375" s="18"/>
@@ -13018,7 +13260,9 @@
       <c r="E376" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="F376" s="17"/>
+      <c r="F376" s="17">
+        <v>1</v>
+      </c>
       <c r="G376" s="18"/>
       <c r="H376" s="18"/>
       <c r="I376" s="18"/>
@@ -13041,7 +13285,9 @@
       <c r="E377" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="F377" s="17"/>
+      <c r="F377" s="17">
+        <v>1</v>
+      </c>
       <c r="G377" s="18"/>
       <c r="H377" s="18"/>
       <c r="I377" s="18"/>
@@ -13064,7 +13310,9 @@
       <c r="E378" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="F378" s="17"/>
+      <c r="F378" s="17">
+        <v>1</v>
+      </c>
       <c r="G378" s="18"/>
       <c r="H378" s="18"/>
       <c r="I378" s="18"/>

--- a/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
+++ b/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
@@ -3671,8 +3671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K830"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A377" workbookViewId="0">
-      <selection activeCell="F384" sqref="F384"/>
+    <sheetView tabSelected="1" topLeftCell="A457" workbookViewId="0">
+      <selection activeCell="I464" sqref="I464"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13799,7 +13799,9 @@
       <c r="G399" s="18"/>
       <c r="H399" s="18"/>
       <c r="I399" s="18"/>
-      <c r="J399" s="18"/>
+      <c r="J399" s="18">
+        <v>1</v>
+      </c>
       <c r="K399" s="19"/>
     </row>
     <row r="400" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -13818,11 +13820,17 @@
       <c r="E400" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="F400" s="24"/>
+      <c r="F400" s="24">
+        <v>1</v>
+      </c>
       <c r="G400" s="25"/>
-      <c r="H400" s="25"/>
+      <c r="H400" s="25">
+        <v>1</v>
+      </c>
       <c r="I400" s="25"/>
-      <c r="J400" s="25"/>
+      <c r="J400" s="25">
+        <v>1</v>
+      </c>
       <c r="K400" s="26"/>
     </row>
     <row r="401" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -13841,11 +13849,17 @@
       <c r="E401" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="F401" s="24"/>
+      <c r="F401" s="24">
+        <v>1</v>
+      </c>
       <c r="G401" s="25"/>
-      <c r="H401" s="25"/>
+      <c r="H401" s="25">
+        <v>1</v>
+      </c>
       <c r="I401" s="25"/>
-      <c r="J401" s="25"/>
+      <c r="J401" s="25">
+        <v>1</v>
+      </c>
       <c r="K401" s="26"/>
     </row>
     <row r="402" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -13864,11 +13878,17 @@
       <c r="E402" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="F402" s="24"/>
+      <c r="F402" s="24">
+        <v>1</v>
+      </c>
       <c r="G402" s="25"/>
-      <c r="H402" s="25"/>
+      <c r="H402" s="25">
+        <v>1</v>
+      </c>
       <c r="I402" s="25"/>
-      <c r="J402" s="25"/>
+      <c r="J402" s="25">
+        <v>1</v>
+      </c>
       <c r="K402" s="26"/>
     </row>
     <row r="403" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -13887,11 +13907,17 @@
       <c r="E403" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="F403" s="24"/>
+      <c r="F403" s="24">
+        <v>1</v>
+      </c>
       <c r="G403" s="25"/>
-      <c r="H403" s="25"/>
+      <c r="H403" s="25">
+        <v>1</v>
+      </c>
       <c r="I403" s="25"/>
-      <c r="J403" s="25"/>
+      <c r="J403" s="25">
+        <v>1</v>
+      </c>
       <c r="K403" s="26"/>
     </row>
     <row r="404" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -13910,11 +13936,17 @@
       <c r="E404" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="F404" s="24"/>
+      <c r="F404" s="24">
+        <v>1</v>
+      </c>
       <c r="G404" s="25"/>
-      <c r="H404" s="25"/>
+      <c r="H404" s="25">
+        <v>1</v>
+      </c>
       <c r="I404" s="25"/>
-      <c r="J404" s="25"/>
+      <c r="J404" s="25">
+        <v>1</v>
+      </c>
       <c r="K404" s="26"/>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
@@ -13933,11 +13965,17 @@
       <c r="E405" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="F405" s="24"/>
+      <c r="F405" s="24">
+        <v>1</v>
+      </c>
       <c r="G405" s="25"/>
-      <c r="H405" s="25"/>
+      <c r="H405" s="25">
+        <v>1</v>
+      </c>
       <c r="I405" s="25"/>
-      <c r="J405" s="25"/>
+      <c r="J405" s="25">
+        <v>1</v>
+      </c>
       <c r="K405" s="26"/>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
@@ -13956,11 +13994,17 @@
       <c r="E406" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="F406" s="24"/>
+      <c r="F406" s="24">
+        <v>1</v>
+      </c>
       <c r="G406" s="25"/>
-      <c r="H406" s="25"/>
+      <c r="H406" s="25">
+        <v>1</v>
+      </c>
       <c r="I406" s="25"/>
-      <c r="J406" s="25"/>
+      <c r="J406" s="25">
+        <v>1</v>
+      </c>
       <c r="K406" s="26"/>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
@@ -13979,11 +14023,17 @@
       <c r="E407" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="F407" s="24"/>
+      <c r="F407" s="24">
+        <v>1</v>
+      </c>
       <c r="G407" s="25"/>
-      <c r="H407" s="25"/>
+      <c r="H407" s="25">
+        <v>1</v>
+      </c>
       <c r="I407" s="25"/>
-      <c r="J407" s="25"/>
+      <c r="J407" s="25">
+        <v>1</v>
+      </c>
       <c r="K407" s="26"/>
     </row>
     <row r="408" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -14002,11 +14052,17 @@
       <c r="E408" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="F408" s="24"/>
+      <c r="F408" s="24">
+        <v>1</v>
+      </c>
       <c r="G408" s="25"/>
-      <c r="H408" s="25"/>
+      <c r="H408" s="25">
+        <v>1</v>
+      </c>
       <c r="I408" s="25"/>
-      <c r="J408" s="25"/>
+      <c r="J408" s="25">
+        <v>1</v>
+      </c>
       <c r="K408" s="26"/>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
@@ -14025,11 +14081,17 @@
       <c r="E409" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="F409" s="24"/>
+      <c r="F409" s="24">
+        <v>1</v>
+      </c>
       <c r="G409" s="25"/>
-      <c r="H409" s="25"/>
+      <c r="H409" s="25">
+        <v>1</v>
+      </c>
       <c r="I409" s="25"/>
-      <c r="J409" s="25"/>
+      <c r="J409" s="25">
+        <v>1</v>
+      </c>
       <c r="K409" s="26"/>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
@@ -14048,7 +14110,9 @@
       <c r="E410" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="F410" s="17"/>
+      <c r="F410" s="17">
+        <v>1</v>
+      </c>
       <c r="G410" s="18"/>
       <c r="H410" s="18"/>
       <c r="I410" s="18"/>
@@ -14071,7 +14135,9 @@
       <c r="E411" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="F411" s="17"/>
+      <c r="F411" s="17">
+        <v>1</v>
+      </c>
       <c r="G411" s="18"/>
       <c r="H411" s="18"/>
       <c r="I411" s="18"/>
@@ -14094,7 +14160,9 @@
       <c r="E412" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="F412" s="17"/>
+      <c r="F412" s="17">
+        <v>1</v>
+      </c>
       <c r="G412" s="18"/>
       <c r="H412" s="18"/>
       <c r="I412" s="18"/>
@@ -14117,7 +14185,9 @@
       <c r="E413" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="F413" s="17"/>
+      <c r="F413" s="17">
+        <v>1</v>
+      </c>
       <c r="G413" s="18"/>
       <c r="H413" s="18"/>
       <c r="I413" s="18"/>
@@ -14140,7 +14210,9 @@
       <c r="E414" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="F414" s="17"/>
+      <c r="F414" s="17">
+        <v>1</v>
+      </c>
       <c r="G414" s="18"/>
       <c r="H414" s="18"/>
       <c r="I414" s="18"/>
@@ -14163,7 +14235,9 @@
       <c r="E415" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="F415" s="17"/>
+      <c r="F415" s="17">
+        <v>1</v>
+      </c>
       <c r="G415" s="18"/>
       <c r="H415" s="18"/>
       <c r="I415" s="18"/>
@@ -14186,7 +14260,9 @@
       <c r="E416" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="F416" s="17"/>
+      <c r="F416" s="17">
+        <v>1</v>
+      </c>
       <c r="G416" s="18"/>
       <c r="H416" s="18"/>
       <c r="I416" s="18"/>
@@ -14209,7 +14285,9 @@
       <c r="E417" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="F417" s="17"/>
+      <c r="F417" s="17">
+        <v>1</v>
+      </c>
       <c r="G417" s="18"/>
       <c r="H417" s="18"/>
       <c r="I417" s="18"/>
@@ -14232,11 +14310,17 @@
       <c r="E418" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="F418" s="24"/>
+      <c r="F418" s="24">
+        <v>1</v>
+      </c>
       <c r="G418" s="25"/>
-      <c r="H418" s="25"/>
+      <c r="H418" s="25">
+        <v>1</v>
+      </c>
       <c r="I418" s="25"/>
-      <c r="J418" s="25"/>
+      <c r="J418" s="25">
+        <v>1</v>
+      </c>
       <c r="K418" s="26"/>
     </row>
     <row r="419" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -14255,11 +14339,17 @@
       <c r="E419" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="F419" s="24"/>
+      <c r="F419" s="24">
+        <v>1</v>
+      </c>
       <c r="G419" s="25"/>
-      <c r="H419" s="25"/>
+      <c r="H419" s="25">
+        <v>1</v>
+      </c>
       <c r="I419" s="25"/>
-      <c r="J419" s="25"/>
+      <c r="J419" s="25">
+        <v>1</v>
+      </c>
       <c r="K419" s="26"/>
     </row>
     <row r="420" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -14278,11 +14368,17 @@
       <c r="E420" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="F420" s="24"/>
+      <c r="F420" s="24">
+        <v>1</v>
+      </c>
       <c r="G420" s="25"/>
-      <c r="H420" s="25"/>
+      <c r="H420" s="25">
+        <v>1</v>
+      </c>
       <c r="I420" s="25"/>
-      <c r="J420" s="25"/>
+      <c r="J420" s="25">
+        <v>1</v>
+      </c>
       <c r="K420" s="26"/>
     </row>
     <row r="421" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -14301,11 +14397,17 @@
       <c r="E421" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="F421" s="24"/>
+      <c r="F421" s="24">
+        <v>1</v>
+      </c>
       <c r="G421" s="25"/>
-      <c r="H421" s="25"/>
+      <c r="H421" s="25">
+        <v>1</v>
+      </c>
       <c r="I421" s="25"/>
-      <c r="J421" s="25"/>
+      <c r="J421" s="25">
+        <v>1</v>
+      </c>
       <c r="K421" s="26"/>
     </row>
     <row r="422" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -14324,11 +14426,17 @@
       <c r="E422" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="F422" s="24"/>
+      <c r="F422" s="24">
+        <v>1</v>
+      </c>
       <c r="G422" s="25"/>
-      <c r="H422" s="25"/>
+      <c r="H422" s="25">
+        <v>1</v>
+      </c>
       <c r="I422" s="25"/>
-      <c r="J422" s="25"/>
+      <c r="J422" s="25">
+        <v>1</v>
+      </c>
       <c r="K422" s="26"/>
     </row>
     <row r="423" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -14347,11 +14455,17 @@
       <c r="E423" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="F423" s="24"/>
+      <c r="F423" s="24">
+        <v>1</v>
+      </c>
       <c r="G423" s="25"/>
-      <c r="H423" s="25"/>
+      <c r="H423" s="25">
+        <v>1</v>
+      </c>
       <c r="I423" s="25"/>
-      <c r="J423" s="25"/>
+      <c r="J423" s="25">
+        <v>1</v>
+      </c>
       <c r="K423" s="26"/>
     </row>
     <row r="424" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -14370,11 +14484,17 @@
       <c r="E424" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="F424" s="24"/>
+      <c r="F424" s="24">
+        <v>1</v>
+      </c>
       <c r="G424" s="25"/>
-      <c r="H424" s="25"/>
+      <c r="H424" s="25">
+        <v>1</v>
+      </c>
       <c r="I424" s="25"/>
-      <c r="J424" s="25"/>
+      <c r="J424" s="25">
+        <v>1</v>
+      </c>
       <c r="K424" s="26"/>
     </row>
     <row r="425" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -14393,11 +14513,17 @@
       <c r="E425" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="F425" s="24"/>
+      <c r="F425" s="24">
+        <v>1</v>
+      </c>
       <c r="G425" s="25"/>
-      <c r="H425" s="25"/>
+      <c r="H425" s="25">
+        <v>1</v>
+      </c>
       <c r="I425" s="25"/>
-      <c r="J425" s="25"/>
+      <c r="J425" s="25">
+        <v>1</v>
+      </c>
       <c r="K425" s="26"/>
     </row>
     <row r="426" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -14416,11 +14542,17 @@
       <c r="E426" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="F426" s="24"/>
+      <c r="F426" s="24">
+        <v>1</v>
+      </c>
       <c r="G426" s="25"/>
-      <c r="H426" s="25"/>
+      <c r="H426" s="25">
+        <v>1</v>
+      </c>
       <c r="I426" s="25"/>
-      <c r="J426" s="25"/>
+      <c r="J426" s="25">
+        <v>1</v>
+      </c>
       <c r="K426" s="26"/>
     </row>
     <row r="427" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -14439,11 +14571,17 @@
       <c r="E427" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="F427" s="24"/>
+      <c r="F427" s="24">
+        <v>1</v>
+      </c>
       <c r="G427" s="25"/>
-      <c r="H427" s="25"/>
+      <c r="H427" s="25">
+        <v>1</v>
+      </c>
       <c r="I427" s="25"/>
-      <c r="J427" s="25"/>
+      <c r="J427" s="25">
+        <v>1</v>
+      </c>
       <c r="K427" s="26"/>
     </row>
     <row r="428" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -14465,7 +14603,9 @@
       <c r="F428" s="17"/>
       <c r="G428" s="18"/>
       <c r="H428" s="18"/>
-      <c r="I428" s="18"/>
+      <c r="I428" s="18">
+        <v>1</v>
+      </c>
       <c r="J428" s="18"/>
       <c r="K428" s="19"/>
     </row>
@@ -14488,7 +14628,9 @@
       <c r="F429" s="17"/>
       <c r="G429" s="18"/>
       <c r="H429" s="18"/>
-      <c r="I429" s="18"/>
+      <c r="I429" s="18">
+        <v>1</v>
+      </c>
       <c r="J429" s="18"/>
       <c r="K429" s="19"/>
     </row>
@@ -14511,7 +14653,9 @@
       <c r="F430" s="17"/>
       <c r="G430" s="18"/>
       <c r="H430" s="18"/>
-      <c r="I430" s="18"/>
+      <c r="I430" s="18">
+        <v>1</v>
+      </c>
       <c r="J430" s="18"/>
       <c r="K430" s="19"/>
     </row>
@@ -14534,7 +14678,9 @@
       <c r="F431" s="17"/>
       <c r="G431" s="18"/>
       <c r="H431" s="18"/>
-      <c r="I431" s="18"/>
+      <c r="I431" s="18">
+        <v>1</v>
+      </c>
       <c r="J431" s="18"/>
       <c r="K431" s="19"/>
     </row>
@@ -14554,9 +14700,13 @@
       <c r="E432" s="23" t="s">
         <v>338</v>
       </c>
-      <c r="F432" s="24"/>
+      <c r="F432" s="24">
+        <v>1</v>
+      </c>
       <c r="G432" s="25"/>
-      <c r="H432" s="25"/>
+      <c r="H432" s="25">
+        <v>1</v>
+      </c>
       <c r="I432" s="25"/>
       <c r="J432" s="25"/>
       <c r="K432" s="26"/>
@@ -14577,9 +14727,13 @@
       <c r="E433" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="F433" s="24"/>
+      <c r="F433" s="24">
+        <v>1</v>
+      </c>
       <c r="G433" s="25"/>
-      <c r="H433" s="25"/>
+      <c r="H433" s="25">
+        <v>1</v>
+      </c>
       <c r="I433" s="25"/>
       <c r="J433" s="25"/>
       <c r="K433" s="26"/>
@@ -14600,9 +14754,13 @@
       <c r="E434" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="F434" s="24"/>
+      <c r="F434" s="24">
+        <v>1</v>
+      </c>
       <c r="G434" s="25"/>
-      <c r="H434" s="25"/>
+      <c r="H434" s="25">
+        <v>1</v>
+      </c>
       <c r="I434" s="25"/>
       <c r="J434" s="25"/>
       <c r="K434" s="26"/>
@@ -14623,9 +14781,13 @@
       <c r="E435" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="F435" s="24"/>
+      <c r="F435" s="24">
+        <v>1</v>
+      </c>
       <c r="G435" s="25"/>
-      <c r="H435" s="25"/>
+      <c r="H435" s="25">
+        <v>1</v>
+      </c>
       <c r="I435" s="25"/>
       <c r="J435" s="25"/>
       <c r="K435" s="26"/>
@@ -14646,9 +14808,13 @@
       <c r="E436" s="23" t="s">
         <v>386</v>
       </c>
-      <c r="F436" s="24"/>
+      <c r="F436" s="24">
+        <v>1</v>
+      </c>
       <c r="G436" s="25"/>
-      <c r="H436" s="25"/>
+      <c r="H436" s="25">
+        <v>1</v>
+      </c>
       <c r="I436" s="25"/>
       <c r="J436" s="25"/>
       <c r="K436" s="26"/>
@@ -14669,7 +14835,9 @@
       <c r="E437" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="F437" s="17"/>
+      <c r="F437" s="17">
+        <v>1</v>
+      </c>
       <c r="G437" s="18"/>
       <c r="H437" s="18"/>
       <c r="I437" s="18"/>
@@ -14692,7 +14860,9 @@
       <c r="E438" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="F438" s="17"/>
+      <c r="F438" s="17">
+        <v>1</v>
+      </c>
       <c r="G438" s="18"/>
       <c r="H438" s="18"/>
       <c r="I438" s="18"/>
@@ -14715,7 +14885,9 @@
       <c r="E439" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="F439" s="17"/>
+      <c r="F439" s="17">
+        <v>1</v>
+      </c>
       <c r="G439" s="18"/>
       <c r="H439" s="18"/>
       <c r="I439" s="18"/>
@@ -14738,7 +14910,9 @@
       <c r="E440" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="F440" s="17"/>
+      <c r="F440" s="17">
+        <v>1</v>
+      </c>
       <c r="G440" s="18"/>
       <c r="H440" s="18"/>
       <c r="I440" s="18"/>
@@ -14766,7 +14940,9 @@
       <c r="H441" s="25"/>
       <c r="I441" s="25"/>
       <c r="J441" s="25"/>
-      <c r="K441" s="26"/>
+      <c r="K441" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="442" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A442" s="14">
@@ -14788,7 +14964,9 @@
       <c r="G442" s="18"/>
       <c r="H442" s="18"/>
       <c r="I442" s="18"/>
-      <c r="J442" s="18"/>
+      <c r="J442" s="18">
+        <v>1</v>
+      </c>
       <c r="K442" s="19"/>
     </row>
     <row r="443" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -14807,7 +14985,9 @@
       <c r="E443" s="23" t="s">
         <v>339</v>
       </c>
-      <c r="F443" s="24"/>
+      <c r="F443" s="24">
+        <v>1</v>
+      </c>
       <c r="G443" s="25"/>
       <c r="H443" s="25"/>
       <c r="I443" s="25"/>
@@ -14830,7 +15010,9 @@
       <c r="E444" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="F444" s="24"/>
+      <c r="F444" s="24">
+        <v>1</v>
+      </c>
       <c r="G444" s="25"/>
       <c r="H444" s="25"/>
       <c r="I444" s="25"/>
@@ -14853,7 +15035,9 @@
       <c r="E445" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="F445" s="24"/>
+      <c r="F445" s="24">
+        <v>1</v>
+      </c>
       <c r="G445" s="25"/>
       <c r="H445" s="25"/>
       <c r="I445" s="25"/>
@@ -14876,7 +15060,9 @@
       <c r="E446" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="F446" s="24"/>
+      <c r="F446" s="24">
+        <v>1</v>
+      </c>
       <c r="G446" s="25"/>
       <c r="H446" s="25"/>
       <c r="I446" s="25"/>
@@ -14899,7 +15085,9 @@
       <c r="E447" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="F447" s="17"/>
+      <c r="F447" s="17">
+        <v>1</v>
+      </c>
       <c r="G447" s="18"/>
       <c r="H447" s="18"/>
       <c r="I447" s="18"/>
@@ -14922,7 +15110,9 @@
       <c r="E448" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="F448" s="17"/>
+      <c r="F448" s="17">
+        <v>1</v>
+      </c>
       <c r="G448" s="18"/>
       <c r="H448" s="18"/>
       <c r="I448" s="18"/>
@@ -14945,7 +15135,9 @@
       <c r="E449" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="F449" s="17"/>
+      <c r="F449" s="17">
+        <v>1</v>
+      </c>
       <c r="G449" s="18"/>
       <c r="H449" s="18"/>
       <c r="I449" s="18"/>
@@ -14968,7 +15160,9 @@
       <c r="E450" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="F450" s="17"/>
+      <c r="F450" s="17">
+        <v>1</v>
+      </c>
       <c r="G450" s="18"/>
       <c r="H450" s="18"/>
       <c r="I450" s="18"/>
@@ -14991,7 +15185,9 @@
       <c r="E451" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="F451" s="17"/>
+      <c r="F451" s="17">
+        <v>1</v>
+      </c>
       <c r="G451" s="18"/>
       <c r="H451" s="18"/>
       <c r="I451" s="18"/>
@@ -15014,7 +15210,9 @@
       <c r="E452" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="F452" s="17"/>
+      <c r="F452" s="17">
+        <v>1</v>
+      </c>
       <c r="G452" s="18"/>
       <c r="H452" s="18"/>
       <c r="I452" s="18"/>
@@ -15037,7 +15235,9 @@
       <c r="E453" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F453" s="17"/>
+      <c r="F453" s="17">
+        <v>1</v>
+      </c>
       <c r="G453" s="18"/>
       <c r="H453" s="18"/>
       <c r="I453" s="18"/>
@@ -15060,7 +15260,9 @@
       <c r="E454" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="F454" s="17"/>
+      <c r="F454" s="17">
+        <v>1</v>
+      </c>
       <c r="G454" s="18"/>
       <c r="H454" s="18"/>
       <c r="I454" s="18"/>
@@ -15083,7 +15285,9 @@
       <c r="E455" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="F455" s="24"/>
+      <c r="F455" s="24">
+        <v>1</v>
+      </c>
       <c r="G455" s="25"/>
       <c r="H455" s="25"/>
       <c r="I455" s="25"/>
@@ -15106,7 +15310,9 @@
       <c r="E456" s="23" t="s">
         <v>362</v>
       </c>
-      <c r="F456" s="24"/>
+      <c r="F456" s="24">
+        <v>1</v>
+      </c>
       <c r="G456" s="25"/>
       <c r="H456" s="25"/>
       <c r="I456" s="25"/>
@@ -15129,7 +15335,9 @@
       <c r="E457" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="F457" s="24"/>
+      <c r="F457" s="24">
+        <v>1</v>
+      </c>
       <c r="G457" s="25"/>
       <c r="H457" s="25"/>
       <c r="I457" s="25"/>
@@ -15152,7 +15360,9 @@
       <c r="E458" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="F458" s="24"/>
+      <c r="F458" s="24">
+        <v>1</v>
+      </c>
       <c r="G458" s="25"/>
       <c r="H458" s="25"/>
       <c r="I458" s="25"/>
@@ -15175,7 +15385,9 @@
       <c r="E459" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="F459" s="24"/>
+      <c r="F459" s="24">
+        <v>1</v>
+      </c>
       <c r="G459" s="25"/>
       <c r="H459" s="25"/>
       <c r="I459" s="25"/>
@@ -15201,7 +15413,9 @@
       <c r="F460" s="17"/>
       <c r="G460" s="18"/>
       <c r="H460" s="18"/>
-      <c r="I460" s="18"/>
+      <c r="I460" s="18">
+        <v>1</v>
+      </c>
       <c r="J460" s="18"/>
       <c r="K460" s="19"/>
     </row>

--- a/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
+++ b/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="135" windowWidth="22995" windowHeight="11055"/>
@@ -2799,8 +2799,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3048,7 +3048,7 @@
   <dxfs count="15">
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3070,7 +3070,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3094,7 +3094,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3118,7 +3118,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3142,7 +3142,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3166,7 +3166,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3189,7 +3189,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3212,7 +3212,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3235,7 +3235,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3457,7 +3457,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3492,7 +3491,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3668,14 +3666,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K830"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A457" workbookViewId="0">
-      <selection activeCell="I464" sqref="I464"/>
+    <sheetView tabSelected="1" topLeftCell="A552" workbookViewId="0">
+      <selection activeCell="K553" sqref="K553"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="2" customWidth="1"/>
@@ -3687,7 +3685,7 @@
     <col min="11" max="11" width="10.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3722,7 +3720,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="14">
         <v>5359</v>
       </c>
@@ -3751,7 +3749,7 @@
       <c r="J2" s="18"/>
       <c r="K2" s="19"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="14">
         <v>5359</v>
       </c>
@@ -3776,7 +3774,7 @@
       <c r="J3" s="18"/>
       <c r="K3" s="19"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="14">
         <v>5359</v>
       </c>
@@ -3805,7 +3803,7 @@
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="14">
         <v>5359</v>
       </c>
@@ -3830,7 +3828,7 @@
       <c r="J5" s="18"/>
       <c r="K5" s="19"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="14">
         <v>5359</v>
       </c>
@@ -3855,7 +3853,7 @@
       <c r="J6" s="18"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="14">
         <v>5359</v>
       </c>
@@ -3880,7 +3878,7 @@
       <c r="J7" s="18"/>
       <c r="K7" s="19"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="14">
         <v>5359</v>
       </c>
@@ -3905,7 +3903,7 @@
       <c r="J8" s="18"/>
       <c r="K8" s="19"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="14">
         <v>5359</v>
       </c>
@@ -3930,7 +3928,7 @@
       <c r="J9" s="18"/>
       <c r="K9" s="19"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="14">
         <v>5359</v>
       </c>
@@ -3955,7 +3953,7 @@
       <c r="J10" s="18"/>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="60">
       <c r="A11" s="14">
         <v>5359</v>
       </c>
@@ -3980,7 +3978,7 @@
       <c r="J11" s="18"/>
       <c r="K11" s="19"/>
     </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="30">
       <c r="A12" s="14">
         <v>5359</v>
       </c>
@@ -4003,7 +4001,7 @@
       <c r="J12" s="18"/>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="14">
         <v>5359</v>
       </c>
@@ -4028,7 +4026,7 @@
       <c r="J13" s="18"/>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="14">
         <v>5359</v>
       </c>
@@ -4053,7 +4051,7 @@
       <c r="J14" s="18"/>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="14">
         <v>5359</v>
       </c>
@@ -4078,7 +4076,7 @@
       <c r="J15" s="18"/>
       <c r="K15" s="19"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="14">
         <v>5359</v>
       </c>
@@ -4103,7 +4101,7 @@
       <c r="J16" s="18"/>
       <c r="K16" s="19"/>
     </row>
-    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="45">
       <c r="A17" s="14">
         <v>5359</v>
       </c>
@@ -4128,7 +4126,7 @@
       <c r="J17" s="18"/>
       <c r="K17" s="19"/>
     </row>
-    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="30">
       <c r="A18" s="14">
         <v>5359</v>
       </c>
@@ -4153,7 +4151,7 @@
       <c r="J18" s="18"/>
       <c r="K18" s="19"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="14">
         <v>5359</v>
       </c>
@@ -4178,7 +4176,7 @@
       <c r="J19" s="18"/>
       <c r="K19" s="19"/>
     </row>
-    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="45">
       <c r="A20" s="14">
         <v>5359</v>
       </c>
@@ -4201,7 +4199,7 @@
       <c r="J20" s="18"/>
       <c r="K20" s="19"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="14">
         <v>5359</v>
       </c>
@@ -4224,7 +4222,7 @@
       <c r="J21" s="18"/>
       <c r="K21" s="19"/>
     </row>
-    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="30">
       <c r="A22" s="14">
         <v>5359</v>
       </c>
@@ -4249,7 +4247,7 @@
       <c r="J22" s="18"/>
       <c r="K22" s="19"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="14">
         <v>5359</v>
       </c>
@@ -4274,7 +4272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="45">
       <c r="A24" s="14">
         <v>5359</v>
       </c>
@@ -4301,7 +4299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="60">
       <c r="A25" s="14">
         <v>5359</v>
       </c>
@@ -4328,7 +4326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="14">
         <v>5359</v>
       </c>
@@ -4355,7 +4353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="30">
       <c r="A27" s="14">
         <v>5359</v>
       </c>
@@ -4382,7 +4380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="14">
         <v>5359</v>
       </c>
@@ -4405,7 +4403,7 @@
       <c r="J28" s="18"/>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="14">
         <v>5359</v>
       </c>
@@ -4434,7 +4432,7 @@
       <c r="J29" s="18"/>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="14">
         <v>5359</v>
       </c>
@@ -4457,7 +4455,7 @@
       <c r="J30" s="18"/>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="14">
         <v>5359</v>
       </c>
@@ -4480,7 +4478,7 @@
       <c r="J31" s="18"/>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="45">
       <c r="A32" s="14">
         <v>5359</v>
       </c>
@@ -4503,7 +4501,7 @@
       <c r="J32" s="18"/>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="14">
         <v>5359</v>
       </c>
@@ -4526,7 +4524,7 @@
       <c r="J33" s="18"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="14">
         <v>5359</v>
       </c>
@@ -4549,7 +4547,7 @@
       <c r="J34" s="18"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="14">
         <v>5359</v>
       </c>
@@ -4576,7 +4574,7 @@
       <c r="J35" s="18"/>
       <c r="K35" s="19"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="14">
         <v>5359</v>
       </c>
@@ -4599,7 +4597,7 @@
       <c r="J36" s="18"/>
       <c r="K36" s="19"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="14">
         <v>5359</v>
       </c>
@@ -4622,7 +4620,7 @@
       <c r="J37" s="18"/>
       <c r="K37" s="19"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="14">
         <v>5359</v>
       </c>
@@ -4645,7 +4643,7 @@
       <c r="J38" s="18"/>
       <c r="K38" s="19"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="14">
         <v>5359</v>
       </c>
@@ -4668,7 +4666,7 @@
       <c r="J39" s="18"/>
       <c r="K39" s="19"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="14">
         <v>5359</v>
       </c>
@@ -4691,7 +4689,7 @@
       <c r="J40" s="18"/>
       <c r="K40" s="19"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="14">
         <v>5359</v>
       </c>
@@ -4714,7 +4712,7 @@
       <c r="J41" s="18"/>
       <c r="K41" s="19"/>
     </row>
-    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="30">
       <c r="A42" s="14">
         <v>5359</v>
       </c>
@@ -4741,7 +4739,7 @@
       <c r="J42" s="18"/>
       <c r="K42" s="19"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="14">
         <v>5359</v>
       </c>
@@ -4764,7 +4762,7 @@
       <c r="J43" s="18"/>
       <c r="K43" s="19"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" s="14">
         <v>5359</v>
       </c>
@@ -4787,7 +4785,7 @@
       <c r="J44" s="18"/>
       <c r="K44" s="19"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" s="14">
         <v>5359</v>
       </c>
@@ -4810,7 +4808,7 @@
       <c r="J45" s="18"/>
       <c r="K45" s="19"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46" s="14">
         <v>5359</v>
       </c>
@@ -4837,7 +4835,7 @@
       <c r="J46" s="18"/>
       <c r="K46" s="19"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47" s="14">
         <v>5359</v>
       </c>
@@ -4860,7 +4858,7 @@
       <c r="J47" s="18"/>
       <c r="K47" s="19"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48" s="14">
         <v>5359</v>
       </c>
@@ -4883,7 +4881,7 @@
       <c r="J48" s="18"/>
       <c r="K48" s="19"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="14">
         <v>5359</v>
       </c>
@@ -4908,7 +4906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="14">
         <v>5359</v>
       </c>
@@ -4931,7 +4929,7 @@
       <c r="J50" s="18"/>
       <c r="K50" s="19"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="14">
         <v>5359</v>
       </c>
@@ -4954,7 +4952,7 @@
       <c r="J51" s="18"/>
       <c r="K51" s="19"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="14">
         <v>5359</v>
       </c>
@@ -4977,7 +4975,7 @@
       <c r="J52" s="18"/>
       <c r="K52" s="19"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" s="14">
         <v>5359</v>
       </c>
@@ -5000,7 +4998,7 @@
       <c r="J53" s="18"/>
       <c r="K53" s="19"/>
     </row>
-    <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="30">
       <c r="A54" s="20">
         <v>5435</v>
       </c>
@@ -5025,7 +5023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="20">
         <v>5435</v>
       </c>
@@ -5050,7 +5048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="45">
       <c r="A56" s="20">
         <v>5435</v>
       </c>
@@ -5075,7 +5073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="20">
         <v>5435</v>
       </c>
@@ -5100,7 +5098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="20">
         <v>5435</v>
       </c>
@@ -5125,7 +5123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="20">
         <v>5435</v>
       </c>
@@ -5150,7 +5148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="60">
       <c r="A60" s="14">
         <v>18189</v>
       </c>
@@ -5177,7 +5175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="60">
       <c r="A61" s="20">
         <v>18637</v>
       </c>
@@ -5204,7 +5202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="60">
       <c r="A62" s="14">
         <v>20431</v>
       </c>
@@ -5231,7 +5229,7 @@
       <c r="J62" s="18"/>
       <c r="K62" s="19"/>
     </row>
-    <row r="63" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="30">
       <c r="A63" s="14">
         <v>20431</v>
       </c>
@@ -5258,7 +5256,7 @@
       <c r="J63" s="18"/>
       <c r="K63" s="19"/>
     </row>
-    <row r="64" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="105">
       <c r="A64" s="14">
         <v>20431</v>
       </c>
@@ -5285,7 +5283,7 @@
       <c r="J64" s="18"/>
       <c r="K64" s="19"/>
     </row>
-    <row r="65" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="60">
       <c r="A65" s="14">
         <v>20431</v>
       </c>
@@ -5312,7 +5310,7 @@
       <c r="J65" s="18"/>
       <c r="K65" s="19"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" s="14">
         <v>20431</v>
       </c>
@@ -5339,7 +5337,7 @@
       <c r="J66" s="18"/>
       <c r="K66" s="19"/>
     </row>
-    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="30">
       <c r="A67" s="14">
         <v>20431</v>
       </c>
@@ -5366,7 +5364,7 @@
       <c r="J67" s="18"/>
       <c r="K67" s="19"/>
     </row>
-    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="30">
       <c r="A68" s="20">
         <v>20523</v>
       </c>
@@ -5389,7 +5387,7 @@
       <c r="J68" s="25"/>
       <c r="K68" s="26"/>
     </row>
-    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="30">
       <c r="A69" s="20">
         <v>20523</v>
       </c>
@@ -5412,7 +5410,7 @@
       <c r="J69" s="25"/>
       <c r="K69" s="26"/>
     </row>
-    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="30">
       <c r="A70" s="20">
         <v>20523</v>
       </c>
@@ -5435,7 +5433,7 @@
       <c r="J70" s="25"/>
       <c r="K70" s="26"/>
     </row>
-    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="30">
       <c r="A71" s="20">
         <v>20523</v>
       </c>
@@ -5458,7 +5456,7 @@
       <c r="J71" s="25"/>
       <c r="K71" s="26"/>
     </row>
-    <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="30">
       <c r="A72" s="14">
         <v>20541</v>
       </c>
@@ -5489,7 +5487,7 @@
       </c>
       <c r="K72" s="19"/>
     </row>
-    <row r="73" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="105">
       <c r="A73" s="14">
         <v>20541</v>
       </c>
@@ -5520,7 +5518,7 @@
       </c>
       <c r="K73" s="19"/>
     </row>
-    <row r="74" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="45">
       <c r="A74" s="14">
         <v>20541</v>
       </c>
@@ -5551,7 +5549,7 @@
       </c>
       <c r="K74" s="19"/>
     </row>
-    <row r="75" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="60">
       <c r="A75" s="14">
         <v>20541</v>
       </c>
@@ -5582,7 +5580,7 @@
       </c>
       <c r="K75" s="19"/>
     </row>
-    <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="30">
       <c r="A76" s="14">
         <v>20541</v>
       </c>
@@ -5613,7 +5611,7 @@
       </c>
       <c r="K76" s="19"/>
     </row>
-    <row r="77" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="90">
       <c r="A77" s="14">
         <v>20541</v>
       </c>
@@ -5644,7 +5642,7 @@
       </c>
       <c r="K77" s="19"/>
     </row>
-    <row r="78" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="75">
       <c r="A78" s="14">
         <v>20541</v>
       </c>
@@ -5675,7 +5673,7 @@
       </c>
       <c r="K78" s="19"/>
     </row>
-    <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="30">
       <c r="A79" s="14">
         <v>20541</v>
       </c>
@@ -5706,7 +5704,7 @@
       </c>
       <c r="K79" s="19"/>
     </row>
-    <row r="80" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="105">
       <c r="A80" s="14">
         <v>20541</v>
       </c>
@@ -5737,7 +5735,7 @@
       </c>
       <c r="K80" s="19"/>
     </row>
-    <row r="81" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="60">
       <c r="A81" s="20">
         <v>20579</v>
       </c>
@@ -5764,7 +5762,7 @@
       <c r="J81" s="25"/>
       <c r="K81" s="26"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11">
       <c r="A82" s="14">
         <v>20588</v>
       </c>
@@ -5787,7 +5785,7 @@
       <c r="J82" s="18"/>
       <c r="K82" s="19"/>
     </row>
-    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="30">
       <c r="A83" s="14">
         <v>20588</v>
       </c>
@@ -5810,7 +5808,7 @@
       <c r="J83" s="18"/>
       <c r="K83" s="19"/>
     </row>
-    <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="30">
       <c r="A84" s="14">
         <v>20588</v>
       </c>
@@ -5833,7 +5831,7 @@
       <c r="J84" s="18"/>
       <c r="K84" s="19"/>
     </row>
-    <row r="85" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="60">
       <c r="A85" s="20">
         <v>20593</v>
       </c>
@@ -5858,7 +5856,7 @@
       <c r="J85" s="25"/>
       <c r="K85" s="26"/>
     </row>
-    <row r="86" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="105">
       <c r="A86" s="20">
         <v>20593</v>
       </c>
@@ -5883,7 +5881,7 @@
       <c r="J86" s="25"/>
       <c r="K86" s="26"/>
     </row>
-    <row r="87" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="60">
       <c r="A87" s="20">
         <v>20593</v>
       </c>
@@ -5908,7 +5906,7 @@
       <c r="J87" s="25"/>
       <c r="K87" s="26"/>
     </row>
-    <row r="88" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="75">
       <c r="A88" s="14">
         <v>20616</v>
       </c>
@@ -5933,7 +5931,7 @@
       <c r="J88" s="18"/>
       <c r="K88" s="19"/>
     </row>
-    <row r="89" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="60">
       <c r="A89" s="14">
         <v>20616</v>
       </c>
@@ -5958,7 +5956,7 @@
       <c r="J89" s="18"/>
       <c r="K89" s="19"/>
     </row>
-    <row r="90" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="45">
       <c r="A90" s="14">
         <v>20616</v>
       </c>
@@ -5983,7 +5981,7 @@
       <c r="J90" s="18"/>
       <c r="K90" s="19"/>
     </row>
-    <row r="91" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="45">
       <c r="A91" s="14">
         <v>20616</v>
       </c>
@@ -6008,7 +6006,7 @@
       <c r="J91" s="18"/>
       <c r="K91" s="19"/>
     </row>
-    <row r="92" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="75">
       <c r="A92" s="14">
         <v>20616</v>
       </c>
@@ -6033,7 +6031,7 @@
       <c r="J92" s="18"/>
       <c r="K92" s="19"/>
     </row>
-    <row r="93" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="45">
       <c r="A93" s="14">
         <v>20616</v>
       </c>
@@ -6058,7 +6056,7 @@
       <c r="J93" s="18"/>
       <c r="K93" s="19"/>
     </row>
-    <row r="94" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="75">
       <c r="A94" s="14">
         <v>20616</v>
       </c>
@@ -6083,7 +6081,7 @@
       <c r="J94" s="18"/>
       <c r="K94" s="19"/>
     </row>
-    <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="30">
       <c r="A95" s="14">
         <v>20616</v>
       </c>
@@ -6108,7 +6106,7 @@
       <c r="J95" s="18"/>
       <c r="K95" s="19"/>
     </row>
-    <row r="96" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="75">
       <c r="A96" s="14">
         <v>20616</v>
       </c>
@@ -6133,7 +6131,7 @@
       <c r="J96" s="18"/>
       <c r="K96" s="19"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11">
       <c r="A97" s="14">
         <v>20616</v>
       </c>
@@ -6158,7 +6156,7 @@
       <c r="J97" s="18"/>
       <c r="K97" s="19"/>
     </row>
-    <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="30">
       <c r="A98" s="14">
         <v>20616</v>
       </c>
@@ -6183,7 +6181,7 @@
       <c r="J98" s="18"/>
       <c r="K98" s="19"/>
     </row>
-    <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="30">
       <c r="A99" s="14">
         <v>20616</v>
       </c>
@@ -6208,7 +6206,7 @@
       <c r="J99" s="18"/>
       <c r="K99" s="19"/>
     </row>
-    <row r="100" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="75">
       <c r="A100" s="20">
         <v>20639</v>
       </c>
@@ -6235,7 +6233,7 @@
       <c r="J100" s="25"/>
       <c r="K100" s="26"/>
     </row>
-    <row r="101" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="45">
       <c r="A101" s="20">
         <v>20639</v>
       </c>
@@ -6262,7 +6260,7 @@
       <c r="J101" s="25"/>
       <c r="K101" s="26"/>
     </row>
-    <row r="102" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="90">
       <c r="A102" s="20">
         <v>20639</v>
       </c>
@@ -6289,7 +6287,7 @@
       <c r="J102" s="25"/>
       <c r="K102" s="26"/>
     </row>
-    <row r="103" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="45">
       <c r="A103" s="20">
         <v>20639</v>
       </c>
@@ -6316,7 +6314,7 @@
       <c r="J103" s="25"/>
       <c r="K103" s="26"/>
     </row>
-    <row r="104" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="75">
       <c r="A104" s="20">
         <v>20639</v>
       </c>
@@ -6343,7 +6341,7 @@
       <c r="J104" s="25"/>
       <c r="K104" s="26"/>
     </row>
-    <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="30">
       <c r="A105" s="20">
         <v>20639</v>
       </c>
@@ -6370,7 +6368,7 @@
       <c r="J105" s="25"/>
       <c r="K105" s="26"/>
     </row>
-    <row r="106" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="45">
       <c r="A106" s="20">
         <v>20639</v>
       </c>
@@ -6397,7 +6395,7 @@
       <c r="J106" s="25"/>
       <c r="K106" s="26"/>
     </row>
-    <row r="107" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="60">
       <c r="A107" s="14">
         <v>20640</v>
       </c>
@@ -6422,7 +6420,7 @@
       <c r="J107" s="18"/>
       <c r="K107" s="19"/>
     </row>
-    <row r="108" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="60">
       <c r="A108" s="14">
         <v>20640</v>
       </c>
@@ -6447,7 +6445,7 @@
       <c r="J108" s="18"/>
       <c r="K108" s="19"/>
     </row>
-    <row r="109" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="90">
       <c r="A109" s="14">
         <v>20640</v>
       </c>
@@ -6472,7 +6470,7 @@
       <c r="J109" s="18"/>
       <c r="K109" s="19"/>
     </row>
-    <row r="110" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="30">
       <c r="A110" s="20">
         <v>20647</v>
       </c>
@@ -6495,7 +6493,7 @@
       <c r="J110" s="25"/>
       <c r="K110" s="26"/>
     </row>
-    <row r="111" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="30">
       <c r="A111" s="20">
         <v>20647</v>
       </c>
@@ -6518,7 +6516,7 @@
       <c r="J111" s="25"/>
       <c r="K111" s="26"/>
     </row>
-    <row r="112" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="45">
       <c r="A112" s="14">
         <v>20651</v>
       </c>
@@ -6543,7 +6541,7 @@
       <c r="J112" s="18"/>
       <c r="K112" s="19"/>
     </row>
-    <row r="113" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="60">
       <c r="A113" s="14">
         <v>20651</v>
       </c>
@@ -6568,7 +6566,7 @@
       <c r="J113" s="18"/>
       <c r="K113" s="19"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11">
       <c r="A114" s="14">
         <v>20651</v>
       </c>
@@ -6593,7 +6591,7 @@
       <c r="J114" s="18"/>
       <c r="K114" s="19"/>
     </row>
-    <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="30">
       <c r="A115" s="14">
         <v>20651</v>
       </c>
@@ -6618,7 +6616,7 @@
       <c r="J115" s="18"/>
       <c r="K115" s="19"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11">
       <c r="A116" s="20">
         <v>20662</v>
       </c>
@@ -6641,7 +6639,7 @@
       <c r="J116" s="25"/>
       <c r="K116" s="26"/>
     </row>
-    <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="30">
       <c r="A117" s="20">
         <v>20662</v>
       </c>
@@ -6664,7 +6662,7 @@
       <c r="J117" s="25"/>
       <c r="K117" s="26"/>
     </row>
-    <row r="118" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="30">
       <c r="A118" s="14">
         <v>20669</v>
       </c>
@@ -6687,7 +6685,7 @@
       <c r="J118" s="18"/>
       <c r="K118" s="19"/>
     </row>
-    <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="30">
       <c r="A119" s="14">
         <v>20669</v>
       </c>
@@ -6710,7 +6708,7 @@
       <c r="J119" s="18"/>
       <c r="K119" s="19"/>
     </row>
-    <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="30">
       <c r="A120" s="20">
         <v>20682</v>
       </c>
@@ -6737,7 +6735,7 @@
       <c r="J120" s="25"/>
       <c r="K120" s="26"/>
     </row>
-    <row r="121" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="30">
       <c r="A121" s="20">
         <v>20682</v>
       </c>
@@ -6764,7 +6762,7 @@
       <c r="J121" s="25"/>
       <c r="K121" s="26"/>
     </row>
-    <row r="122" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="30">
       <c r="A122" s="20">
         <v>20682</v>
       </c>
@@ -6791,7 +6789,7 @@
       <c r="J122" s="25"/>
       <c r="K122" s="26"/>
     </row>
-    <row r="123" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="60">
       <c r="A123" s="20">
         <v>20682</v>
       </c>
@@ -6818,7 +6816,7 @@
       <c r="J123" s="25"/>
       <c r="K123" s="26"/>
     </row>
-    <row r="124" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" ht="30">
       <c r="A124" s="20">
         <v>20682</v>
       </c>
@@ -6845,7 +6843,7 @@
       <c r="J124" s="25"/>
       <c r="K124" s="26"/>
     </row>
-    <row r="125" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="90">
       <c r="A125" s="20">
         <v>20682</v>
       </c>
@@ -6872,7 +6870,7 @@
       <c r="J125" s="25"/>
       <c r="K125" s="26"/>
     </row>
-    <row r="126" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="30">
       <c r="A126" s="20">
         <v>20682</v>
       </c>
@@ -6899,7 +6897,7 @@
       <c r="J126" s="25"/>
       <c r="K126" s="26"/>
     </row>
-    <row r="127" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" ht="45">
       <c r="A127" s="20">
         <v>20682</v>
       </c>
@@ -6926,7 +6924,7 @@
       <c r="J127" s="25"/>
       <c r="K127" s="26"/>
     </row>
-    <row r="128" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" ht="60">
       <c r="A128" s="20">
         <v>20682</v>
       </c>
@@ -6953,7 +6951,7 @@
       <c r="J128" s="25"/>
       <c r="K128" s="26"/>
     </row>
-    <row r="129" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" ht="30">
       <c r="A129" s="20">
         <v>20682</v>
       </c>
@@ -6980,7 +6978,7 @@
       <c r="J129" s="25"/>
       <c r="K129" s="26"/>
     </row>
-    <row r="130" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="30">
       <c r="A130" s="20">
         <v>20682</v>
       </c>
@@ -7007,7 +7005,7 @@
       <c r="J130" s="25"/>
       <c r="K130" s="26"/>
     </row>
-    <row r="131" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" ht="30">
       <c r="A131" s="20">
         <v>20682</v>
       </c>
@@ -7034,7 +7032,7 @@
       <c r="J131" s="25"/>
       <c r="K131" s="26"/>
     </row>
-    <row r="132" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" ht="45">
       <c r="A132" s="20">
         <v>20682</v>
       </c>
@@ -7061,7 +7059,7 @@
       <c r="J132" s="25"/>
       <c r="K132" s="26"/>
     </row>
-    <row r="133" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" ht="45">
       <c r="A133" s="20">
         <v>20682</v>
       </c>
@@ -7088,7 +7086,7 @@
       <c r="J133" s="25"/>
       <c r="K133" s="26"/>
     </row>
-    <row r="134" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" ht="90">
       <c r="A134" s="20">
         <v>20682</v>
       </c>
@@ -7115,7 +7113,7 @@
       <c r="J134" s="25"/>
       <c r="K134" s="26"/>
     </row>
-    <row r="135" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" ht="90">
       <c r="A135" s="20">
         <v>20682</v>
       </c>
@@ -7142,7 +7140,7 @@
       <c r="J135" s="25"/>
       <c r="K135" s="26"/>
     </row>
-    <row r="136" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" ht="60">
       <c r="A136" s="14">
         <v>20689</v>
       </c>
@@ -7167,7 +7165,7 @@
       <c r="J136" s="18"/>
       <c r="K136" s="19"/>
     </row>
-    <row r="137" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" ht="75">
       <c r="A137" s="14">
         <v>20689</v>
       </c>
@@ -7192,7 +7190,7 @@
       <c r="J137" s="18"/>
       <c r="K137" s="19"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11">
       <c r="A138" s="14">
         <v>20689</v>
       </c>
@@ -7217,7 +7215,7 @@
       <c r="J138" s="18"/>
       <c r="K138" s="19"/>
     </row>
-    <row r="139" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" ht="30">
       <c r="A139" s="20">
         <v>20762</v>
       </c>
@@ -7240,7 +7238,7 @@
       <c r="J139" s="25"/>
       <c r="K139" s="26"/>
     </row>
-    <row r="140" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" ht="30">
       <c r="A140" s="20">
         <v>20762</v>
       </c>
@@ -7263,7 +7261,7 @@
       <c r="J140" s="25"/>
       <c r="K140" s="26"/>
     </row>
-    <row r="141" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" ht="30">
       <c r="A141" s="20">
         <v>20762</v>
       </c>
@@ -7286,7 +7284,7 @@
       <c r="J141" s="25"/>
       <c r="K141" s="26"/>
     </row>
-    <row r="142" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" ht="30">
       <c r="A142" s="14">
         <v>20769</v>
       </c>
@@ -7311,7 +7309,7 @@
       <c r="J142" s="18"/>
       <c r="K142" s="19"/>
     </row>
-    <row r="143" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" ht="90">
       <c r="A143" s="14">
         <v>20769</v>
       </c>
@@ -7336,7 +7334,7 @@
       <c r="J143" s="18"/>
       <c r="K143" s="19"/>
     </row>
-    <row r="144" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" ht="30">
       <c r="A144" s="14">
         <v>20769</v>
       </c>
@@ -7361,7 +7359,7 @@
       <c r="J144" s="18"/>
       <c r="K144" s="19"/>
     </row>
-    <row r="145" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="30">
       <c r="A145" s="14">
         <v>20769</v>
       </c>
@@ -7386,7 +7384,7 @@
       <c r="J145" s="18"/>
       <c r="K145" s="19"/>
     </row>
-    <row r="146" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" ht="30">
       <c r="A146" s="20">
         <v>20812</v>
       </c>
@@ -7409,7 +7407,7 @@
       <c r="J146" s="25"/>
       <c r="K146" s="26"/>
     </row>
-    <row r="147" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" ht="30">
       <c r="A147" s="20">
         <v>20812</v>
       </c>
@@ -7432,7 +7430,7 @@
       <c r="J147" s="25"/>
       <c r="K147" s="26"/>
     </row>
-    <row r="148" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" ht="30">
       <c r="A148" s="14">
         <v>20846</v>
       </c>
@@ -7461,7 +7459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" ht="30">
       <c r="A149" s="14">
         <v>20846</v>
       </c>
@@ -7488,7 +7486,7 @@
       <c r="J149" s="18"/>
       <c r="K149" s="19"/>
     </row>
-    <row r="150" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" ht="90">
       <c r="A150" s="14">
         <v>20846</v>
       </c>
@@ -7515,7 +7513,7 @@
       <c r="J150" s="18"/>
       <c r="K150" s="19"/>
     </row>
-    <row r="151" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" ht="30">
       <c r="A151" s="14">
         <v>20846</v>
       </c>
@@ -7542,7 +7540,7 @@
       <c r="J151" s="18"/>
       <c r="K151" s="19"/>
     </row>
-    <row r="152" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" ht="30">
       <c r="A152" s="14">
         <v>20846</v>
       </c>
@@ -7569,7 +7567,7 @@
       <c r="J152" s="18"/>
       <c r="K152" s="19"/>
     </row>
-    <row r="153" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" ht="90">
       <c r="A153" s="20">
         <v>20847</v>
       </c>
@@ -7596,7 +7594,7 @@
       <c r="J153" s="25"/>
       <c r="K153" s="26"/>
     </row>
-    <row r="154" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" ht="75">
       <c r="A154" s="20">
         <v>20847</v>
       </c>
@@ -7623,7 +7621,7 @@
       <c r="J154" s="25"/>
       <c r="K154" s="26"/>
     </row>
-    <row r="155" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" ht="30">
       <c r="A155" s="20">
         <v>20847</v>
       </c>
@@ -7650,7 +7648,7 @@
       <c r="J155" s="25"/>
       <c r="K155" s="26"/>
     </row>
-    <row r="156" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" ht="30">
       <c r="A156" s="20">
         <v>20847</v>
       </c>
@@ -7677,7 +7675,7 @@
       <c r="J156" s="25"/>
       <c r="K156" s="26"/>
     </row>
-    <row r="157" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" ht="30">
       <c r="A157" s="14">
         <v>20850</v>
       </c>
@@ -7702,7 +7700,7 @@
       <c r="J157" s="18"/>
       <c r="K157" s="19"/>
     </row>
-    <row r="158" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" ht="30">
       <c r="A158" s="14">
         <v>20850</v>
       </c>
@@ -7727,7 +7725,7 @@
       <c r="J158" s="18"/>
       <c r="K158" s="19"/>
     </row>
-    <row r="159" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" ht="45">
       <c r="A159" s="14">
         <v>20850</v>
       </c>
@@ -7752,7 +7750,7 @@
       <c r="J159" s="18"/>
       <c r="K159" s="19"/>
     </row>
-    <row r="160" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" ht="60">
       <c r="A160" s="14">
         <v>20850</v>
       </c>
@@ -7777,7 +7775,7 @@
       <c r="J160" s="18"/>
       <c r="K160" s="19"/>
     </row>
-    <row r="161" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="30">
       <c r="A161" s="20">
         <v>20852</v>
       </c>
@@ -7800,7 +7798,7 @@
       <c r="J161" s="25"/>
       <c r="K161" s="26"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11">
       <c r="A162" s="20">
         <v>20852</v>
       </c>
@@ -7823,7 +7821,7 @@
       <c r="J162" s="25"/>
       <c r="K162" s="26"/>
     </row>
-    <row r="163" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" ht="30">
       <c r="A163" s="14">
         <v>20855</v>
       </c>
@@ -7846,7 +7844,7 @@
       <c r="J163" s="18"/>
       <c r="K163" s="19"/>
     </row>
-    <row r="164" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" ht="30">
       <c r="A164" s="14">
         <v>20855</v>
       </c>
@@ -7869,7 +7867,7 @@
       <c r="J164" s="18"/>
       <c r="K164" s="19"/>
     </row>
-    <row r="165" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" ht="30">
       <c r="A165" s="20">
         <v>20857</v>
       </c>
@@ -7892,7 +7890,7 @@
       <c r="J165" s="25"/>
       <c r="K165" s="26"/>
     </row>
-    <row r="166" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" ht="30">
       <c r="A166" s="20">
         <v>20857</v>
       </c>
@@ -7915,7 +7913,7 @@
       <c r="J166" s="25"/>
       <c r="K166" s="26"/>
     </row>
-    <row r="167" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" ht="75">
       <c r="A167" s="14">
         <v>20878</v>
       </c>
@@ -7940,7 +7938,7 @@
       <c r="J167" s="18"/>
       <c r="K167" s="19"/>
     </row>
-    <row r="168" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" ht="60">
       <c r="A168" s="14">
         <v>20878</v>
       </c>
@@ -7965,7 +7963,7 @@
       <c r="J168" s="18"/>
       <c r="K168" s="19"/>
     </row>
-    <row r="169" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="30">
       <c r="A169" s="14">
         <v>20878</v>
       </c>
@@ -7990,7 +7988,7 @@
       <c r="J169" s="18"/>
       <c r="K169" s="19"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11">
       <c r="A170" s="20">
         <v>20973</v>
       </c>
@@ -8013,7 +8011,7 @@
       <c r="J170" s="25"/>
       <c r="K170" s="26"/>
     </row>
-    <row r="171" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" ht="75">
       <c r="A171" s="14">
         <v>21022</v>
       </c>
@@ -8038,7 +8036,7 @@
       <c r="J171" s="18"/>
       <c r="K171" s="19"/>
     </row>
-    <row r="172" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" ht="30">
       <c r="A172" s="14">
         <v>21022</v>
       </c>
@@ -8063,7 +8061,7 @@
       <c r="J172" s="18"/>
       <c r="K172" s="19"/>
     </row>
-    <row r="173" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" ht="45">
       <c r="A173" s="14">
         <v>21022</v>
       </c>
@@ -8088,7 +8086,7 @@
       <c r="J173" s="18"/>
       <c r="K173" s="19"/>
     </row>
-    <row r="174" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" ht="105">
       <c r="A174" s="20">
         <v>21082</v>
       </c>
@@ -8113,7 +8111,7 @@
       <c r="J174" s="25"/>
       <c r="K174" s="26"/>
     </row>
-    <row r="175" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" ht="30">
       <c r="A175" s="20">
         <v>21082</v>
       </c>
@@ -8138,7 +8136,7 @@
       <c r="J175" s="25"/>
       <c r="K175" s="26"/>
     </row>
-    <row r="176" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" ht="30">
       <c r="A176" s="14">
         <v>21113</v>
       </c>
@@ -8161,7 +8159,7 @@
       <c r="J176" s="18"/>
       <c r="K176" s="19"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11">
       <c r="A177" s="14">
         <v>21113</v>
       </c>
@@ -8184,7 +8182,7 @@
       <c r="J177" s="18"/>
       <c r="K177" s="19"/>
     </row>
-    <row r="178" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" ht="30">
       <c r="A178" s="20">
         <v>21149</v>
       </c>
@@ -8207,7 +8205,7 @@
       <c r="J178" s="25"/>
       <c r="K178" s="26"/>
     </row>
-    <row r="179" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" ht="30">
       <c r="A179" s="20">
         <v>21149</v>
       </c>
@@ -8230,7 +8228,7 @@
       <c r="J179" s="25"/>
       <c r="K179" s="26"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11">
       <c r="A180" s="14">
         <v>21201</v>
       </c>
@@ -8257,7 +8255,7 @@
       <c r="J180" s="18"/>
       <c r="K180" s="19"/>
     </row>
-    <row r="181" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" ht="75">
       <c r="A181" s="20">
         <v>21202</v>
       </c>
@@ -8286,7 +8284,7 @@
       <c r="J181" s="25"/>
       <c r="K181" s="26"/>
     </row>
-    <row r="182" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" ht="60">
       <c r="A182" s="20">
         <v>21202</v>
       </c>
@@ -8315,7 +8313,7 @@
       <c r="J182" s="25"/>
       <c r="K182" s="26"/>
     </row>
-    <row r="183" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" ht="45">
       <c r="A183" s="20">
         <v>21202</v>
       </c>
@@ -8344,7 +8342,7 @@
       <c r="J183" s="25"/>
       <c r="K183" s="26"/>
     </row>
-    <row r="184" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" ht="30">
       <c r="A184" s="20">
         <v>21202</v>
       </c>
@@ -8373,7 +8371,7 @@
       <c r="J184" s="25"/>
       <c r="K184" s="26"/>
     </row>
-    <row r="185" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" ht="45">
       <c r="A185" s="20">
         <v>21202</v>
       </c>
@@ -8402,7 +8400,7 @@
       <c r="J185" s="25"/>
       <c r="K185" s="26"/>
     </row>
-    <row r="186" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" ht="45">
       <c r="A186" s="20">
         <v>21202</v>
       </c>
@@ -8431,7 +8429,7 @@
       <c r="J186" s="25"/>
       <c r="K186" s="26"/>
     </row>
-    <row r="187" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" ht="45">
       <c r="A187" s="20">
         <v>21202</v>
       </c>
@@ -8460,7 +8458,7 @@
       <c r="J187" s="25"/>
       <c r="K187" s="26"/>
     </row>
-    <row r="188" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" ht="90">
       <c r="A188" s="20">
         <v>21202</v>
       </c>
@@ -8489,7 +8487,7 @@
       <c r="J188" s="25"/>
       <c r="K188" s="26"/>
     </row>
-    <row r="189" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" ht="105">
       <c r="A189" s="20">
         <v>21202</v>
       </c>
@@ -8518,7 +8516,7 @@
       <c r="J189" s="25"/>
       <c r="K189" s="26"/>
     </row>
-    <row r="190" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" ht="120">
       <c r="A190" s="20">
         <v>21202</v>
       </c>
@@ -8547,7 +8545,7 @@
       <c r="J190" s="25"/>
       <c r="K190" s="26"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11">
       <c r="A191" s="20">
         <v>21202</v>
       </c>
@@ -8576,7 +8574,7 @@
       <c r="J191" s="25"/>
       <c r="K191" s="26"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11">
       <c r="A192" s="20">
         <v>21202</v>
       </c>
@@ -8605,7 +8603,7 @@
       <c r="J192" s="25"/>
       <c r="K192" s="26"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11">
       <c r="A193" s="20">
         <v>21202</v>
       </c>
@@ -8634,7 +8632,7 @@
       <c r="J193" s="25"/>
       <c r="K193" s="26"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11">
       <c r="A194" s="20">
         <v>21202</v>
       </c>
@@ -8663,7 +8661,7 @@
       <c r="J194" s="25"/>
       <c r="K194" s="26"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11">
       <c r="A195" s="20">
         <v>21202</v>
       </c>
@@ -8692,7 +8690,7 @@
       <c r="J195" s="25"/>
       <c r="K195" s="26"/>
     </row>
-    <row r="196" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" ht="30">
       <c r="A196" s="14">
         <v>21219</v>
       </c>
@@ -8719,7 +8717,7 @@
       <c r="J196" s="18"/>
       <c r="K196" s="19"/>
     </row>
-    <row r="197" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" ht="60">
       <c r="A197" s="14">
         <v>21219</v>
       </c>
@@ -8746,7 +8744,7 @@
       <c r="J197" s="18"/>
       <c r="K197" s="19"/>
     </row>
-    <row r="198" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" ht="75">
       <c r="A198" s="14">
         <v>21219</v>
       </c>
@@ -8773,7 +8771,7 @@
       <c r="J198" s="18"/>
       <c r="K198" s="19"/>
     </row>
-    <row r="199" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" ht="45">
       <c r="A199" s="14">
         <v>21219</v>
       </c>
@@ -8800,7 +8798,7 @@
       <c r="J199" s="18"/>
       <c r="K199" s="19"/>
     </row>
-    <row r="200" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" ht="45">
       <c r="A200" s="14">
         <v>21219</v>
       </c>
@@ -8827,7 +8825,7 @@
       <c r="J200" s="18"/>
       <c r="K200" s="19"/>
     </row>
-    <row r="201" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" ht="105">
       <c r="A201" s="14">
         <v>21219</v>
       </c>
@@ -8854,7 +8852,7 @@
       <c r="J201" s="18"/>
       <c r="K201" s="19"/>
     </row>
-    <row r="202" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" ht="75">
       <c r="A202" s="14">
         <v>21219</v>
       </c>
@@ -8881,7 +8879,7 @@
       <c r="J202" s="18"/>
       <c r="K202" s="19"/>
     </row>
-    <row r="203" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" ht="75">
       <c r="A203" s="20">
         <v>21230</v>
       </c>
@@ -8906,7 +8904,7 @@
       <c r="J203" s="25"/>
       <c r="K203" s="26"/>
     </row>
-    <row r="204" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" ht="30">
       <c r="A204" s="14">
         <v>21233</v>
       </c>
@@ -8929,7 +8927,7 @@
       <c r="J204" s="18"/>
       <c r="K204" s="19"/>
     </row>
-    <row r="205" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" ht="45">
       <c r="A205" s="20">
         <v>21244</v>
       </c>
@@ -8952,7 +8950,7 @@
       <c r="J205" s="25"/>
       <c r="K205" s="26"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11">
       <c r="A206" s="14">
         <v>21328</v>
       </c>
@@ -8975,7 +8973,7 @@
       <c r="J206" s="18"/>
       <c r="K206" s="19"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11">
       <c r="A207" s="14">
         <v>21328</v>
       </c>
@@ -8998,7 +8996,7 @@
       <c r="J207" s="18"/>
       <c r="K207" s="19"/>
     </row>
-    <row r="208" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" ht="105">
       <c r="A208" s="20">
         <v>21433</v>
       </c>
@@ -9023,7 +9021,7 @@
       <c r="J208" s="25"/>
       <c r="K208" s="26"/>
     </row>
-    <row r="209" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" ht="45">
       <c r="A209" s="20">
         <v>21433</v>
       </c>
@@ -9048,7 +9046,7 @@
       <c r="J209" s="25"/>
       <c r="K209" s="26"/>
     </row>
-    <row r="210" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" ht="60">
       <c r="A210" s="20">
         <v>21433</v>
       </c>
@@ -9073,7 +9071,7 @@
       <c r="J210" s="25"/>
       <c r="K210" s="26"/>
     </row>
-    <row r="211" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" ht="60">
       <c r="A211" s="20">
         <v>21433</v>
       </c>
@@ -9098,7 +9096,7 @@
       <c r="J211" s="25"/>
       <c r="K211" s="26"/>
     </row>
-    <row r="212" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" ht="30">
       <c r="A212" s="20">
         <v>21433</v>
       </c>
@@ -9123,7 +9121,7 @@
       <c r="J212" s="25"/>
       <c r="K212" s="26"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11">
       <c r="A213" s="20">
         <v>21433</v>
       </c>
@@ -9148,7 +9146,7 @@
       <c r="J213" s="25"/>
       <c r="K213" s="26"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11">
       <c r="A214" s="20">
         <v>21433</v>
       </c>
@@ -9173,7 +9171,7 @@
       <c r="J214" s="25"/>
       <c r="K214" s="26"/>
     </row>
-    <row r="215" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" ht="60">
       <c r="A215" s="14">
         <v>21439</v>
       </c>
@@ -9198,7 +9196,7 @@
       <c r="J215" s="18"/>
       <c r="K215" s="19"/>
     </row>
-    <row r="216" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" ht="30">
       <c r="A216" s="20">
         <v>21442</v>
       </c>
@@ -9221,7 +9219,7 @@
       <c r="J216" s="25"/>
       <c r="K216" s="26"/>
     </row>
-    <row r="217" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" ht="30">
       <c r="A217" s="20">
         <v>21442</v>
       </c>
@@ -9244,7 +9242,7 @@
       <c r="J217" s="25"/>
       <c r="K217" s="26"/>
     </row>
-    <row r="218" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" ht="30">
       <c r="A218" s="14">
         <v>21443</v>
       </c>
@@ -9267,7 +9265,7 @@
       <c r="J218" s="18"/>
       <c r="K218" s="19"/>
     </row>
-    <row r="219" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" ht="30">
       <c r="A219" s="14">
         <v>21443</v>
       </c>
@@ -9290,7 +9288,7 @@
       <c r="J219" s="18"/>
       <c r="K219" s="19"/>
     </row>
-    <row r="220" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" ht="30">
       <c r="A220" s="20">
         <v>21444</v>
       </c>
@@ -9313,7 +9311,7 @@
       <c r="J220" s="25"/>
       <c r="K220" s="26"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11">
       <c r="A221" s="20">
         <v>21444</v>
       </c>
@@ -9336,7 +9334,7 @@
       <c r="J221" s="25"/>
       <c r="K221" s="26"/>
     </row>
-    <row r="222" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" ht="30">
       <c r="A222" s="14">
         <v>21452</v>
       </c>
@@ -9359,7 +9357,7 @@
       <c r="J222" s="18"/>
       <c r="K222" s="19"/>
     </row>
-    <row r="223" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" ht="30">
       <c r="A223" s="14">
         <v>21452</v>
       </c>
@@ -9382,7 +9380,7 @@
       <c r="J223" s="18"/>
       <c r="K223" s="19"/>
     </row>
-    <row r="224" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" ht="30">
       <c r="A224" s="20">
         <v>21527</v>
       </c>
@@ -9405,7 +9403,7 @@
       <c r="J224" s="25"/>
       <c r="K224" s="26"/>
     </row>
-    <row r="225" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" ht="75">
       <c r="A225" s="20">
         <v>21527</v>
       </c>
@@ -9428,7 +9426,7 @@
       <c r="J225" s="25"/>
       <c r="K225" s="26"/>
     </row>
-    <row r="226" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" ht="30">
       <c r="A226" s="20">
         <v>21527</v>
       </c>
@@ -9451,7 +9449,7 @@
       <c r="J226" s="25"/>
       <c r="K226" s="26"/>
     </row>
-    <row r="227" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" ht="30">
       <c r="A227" s="20">
         <v>21527</v>
       </c>
@@ -9474,7 +9472,7 @@
       <c r="J227" s="25"/>
       <c r="K227" s="26"/>
     </row>
-    <row r="228" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" ht="30">
       <c r="A228" s="20">
         <v>21527</v>
       </c>
@@ -9497,7 +9495,7 @@
       <c r="J228" s="25"/>
       <c r="K228" s="26"/>
     </row>
-    <row r="229" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" ht="60">
       <c r="A229" s="14">
         <v>21536</v>
       </c>
@@ -9524,7 +9522,7 @@
       </c>
       <c r="K229" s="19"/>
     </row>
-    <row r="230" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" ht="60">
       <c r="A230" s="14">
         <v>21536</v>
       </c>
@@ -9553,7 +9551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11">
       <c r="A231" s="14">
         <v>21536</v>
       </c>
@@ -9580,7 +9578,7 @@
       </c>
       <c r="K231" s="19"/>
     </row>
-    <row r="232" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" ht="30">
       <c r="A232" s="14">
         <v>21536</v>
       </c>
@@ -9607,7 +9605,7 @@
       </c>
       <c r="K232" s="19"/>
     </row>
-    <row r="233" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" ht="45">
       <c r="A233" s="14">
         <v>21536</v>
       </c>
@@ -9634,7 +9632,7 @@
       </c>
       <c r="K233" s="19"/>
     </row>
-    <row r="234" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" ht="60">
       <c r="A234" s="14">
         <v>21536</v>
       </c>
@@ -9661,7 +9659,7 @@
       </c>
       <c r="K234" s="19"/>
     </row>
-    <row r="235" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" ht="45">
       <c r="A235" s="14">
         <v>21536</v>
       </c>
@@ -9688,7 +9686,7 @@
       </c>
       <c r="K235" s="19"/>
     </row>
-    <row r="236" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" ht="45">
       <c r="A236" s="14">
         <v>21536</v>
       </c>
@@ -9715,7 +9713,7 @@
       </c>
       <c r="K236" s="19"/>
     </row>
-    <row r="237" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" ht="90">
       <c r="A237" s="14">
         <v>21536</v>
       </c>
@@ -9742,7 +9740,7 @@
       </c>
       <c r="K237" s="19"/>
     </row>
-    <row r="238" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" ht="120">
       <c r="A238" s="14">
         <v>21536</v>
       </c>
@@ -9769,7 +9767,7 @@
       </c>
       <c r="K238" s="19"/>
     </row>
-    <row r="239" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" ht="75">
       <c r="A239" s="14">
         <v>21536</v>
       </c>
@@ -9796,7 +9794,7 @@
       </c>
       <c r="K239" s="19"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11">
       <c r="A240" s="14">
         <v>21536</v>
       </c>
@@ -9823,7 +9821,7 @@
       </c>
       <c r="K240" s="19"/>
     </row>
-    <row r="241" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" ht="30">
       <c r="A241" s="14">
         <v>21536</v>
       </c>
@@ -9850,7 +9848,7 @@
       </c>
       <c r="K241" s="19"/>
     </row>
-    <row r="242" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" ht="30">
       <c r="A242" s="14">
         <v>21536</v>
       </c>
@@ -9877,7 +9875,7 @@
       </c>
       <c r="K242" s="19"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11">
       <c r="A243" s="14">
         <v>21536</v>
       </c>
@@ -9904,7 +9902,7 @@
       </c>
       <c r="K243" s="19"/>
     </row>
-    <row r="244" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" ht="90">
       <c r="A244" s="14">
         <v>21536</v>
       </c>
@@ -9931,7 +9929,7 @@
       </c>
       <c r="K244" s="19"/>
     </row>
-    <row r="245" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" ht="60">
       <c r="A245" s="20">
         <v>21537</v>
       </c>
@@ -9958,7 +9956,7 @@
       <c r="J245" s="25"/>
       <c r="K245" s="26"/>
     </row>
-    <row r="246" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" ht="75">
       <c r="A246" s="20">
         <v>21537</v>
       </c>
@@ -9985,7 +9983,7 @@
       <c r="J246" s="25"/>
       <c r="K246" s="26"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11">
       <c r="A247" s="20">
         <v>21537</v>
       </c>
@@ -10012,7 +10010,7 @@
       <c r="J247" s="25"/>
       <c r="K247" s="26"/>
     </row>
-    <row r="248" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" ht="45">
       <c r="A248" s="20">
         <v>21537</v>
       </c>
@@ -10039,7 +10037,7 @@
       <c r="J248" s="25"/>
       <c r="K248" s="26"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11">
       <c r="A249" s="20">
         <v>21537</v>
       </c>
@@ -10066,7 +10064,7 @@
       <c r="J249" s="25"/>
       <c r="K249" s="26"/>
     </row>
-    <row r="250" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" ht="120">
       <c r="A250" s="14">
         <v>21566</v>
       </c>
@@ -10091,7 +10089,7 @@
       <c r="J250" s="18"/>
       <c r="K250" s="19"/>
     </row>
-    <row r="251" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" ht="60">
       <c r="A251" s="20">
         <v>21608</v>
       </c>
@@ -10116,7 +10114,7 @@
       <c r="J251" s="25"/>
       <c r="K251" s="26"/>
     </row>
-    <row r="252" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" ht="105">
       <c r="A252" s="20">
         <v>21608</v>
       </c>
@@ -10141,7 +10139,7 @@
       <c r="J252" s="25"/>
       <c r="K252" s="26"/>
     </row>
-    <row r="253" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" ht="90">
       <c r="A253" s="14">
         <v>21625</v>
       </c>
@@ -10168,7 +10166,7 @@
       </c>
       <c r="K253" s="19"/>
     </row>
-    <row r="254" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" ht="30">
       <c r="A254" s="20">
         <v>21626</v>
       </c>
@@ -10191,7 +10189,7 @@
       <c r="J254" s="25"/>
       <c r="K254" s="26"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11">
       <c r="A255" s="20">
         <v>21626</v>
       </c>
@@ -10214,7 +10212,7 @@
       <c r="J255" s="25"/>
       <c r="K255" s="26"/>
     </row>
-    <row r="256" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" ht="90">
       <c r="A256" s="14">
         <v>21638</v>
       </c>
@@ -10241,7 +10239,7 @@
       </c>
       <c r="K256" s="19"/>
     </row>
-    <row r="257" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" ht="75">
       <c r="A257" s="14">
         <v>21638</v>
       </c>
@@ -10268,7 +10266,7 @@
       </c>
       <c r="K257" s="19"/>
     </row>
-    <row r="258" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" ht="90">
       <c r="A258" s="14">
         <v>21638</v>
       </c>
@@ -10295,7 +10293,7 @@
       </c>
       <c r="K258" s="19"/>
     </row>
-    <row r="259" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" ht="60">
       <c r="A259" s="14">
         <v>21638</v>
       </c>
@@ -10322,7 +10320,7 @@
       </c>
       <c r="K259" s="19"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11">
       <c r="A260" s="14">
         <v>21638</v>
       </c>
@@ -10349,7 +10347,7 @@
       </c>
       <c r="K260" s="19"/>
     </row>
-    <row r="261" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" ht="30">
       <c r="A261" s="14">
         <v>21638</v>
       </c>
@@ -10376,7 +10374,7 @@
       </c>
       <c r="K261" s="19"/>
     </row>
-    <row r="262" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" ht="30">
       <c r="A262" s="14">
         <v>21638</v>
       </c>
@@ -10403,7 +10401,7 @@
       </c>
       <c r="K262" s="19"/>
     </row>
-    <row r="263" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" ht="60">
       <c r="A263" s="14">
         <v>21638</v>
       </c>
@@ -10430,7 +10428,7 @@
       </c>
       <c r="K263" s="19"/>
     </row>
-    <row r="264" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" ht="30">
       <c r="A264" s="14">
         <v>21638</v>
       </c>
@@ -10457,7 +10455,7 @@
       </c>
       <c r="K264" s="19"/>
     </row>
-    <row r="265" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" ht="60">
       <c r="A265" s="14">
         <v>21638</v>
       </c>
@@ -10484,7 +10482,7 @@
       </c>
       <c r="K265" s="19"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11">
       <c r="A266" s="14">
         <v>21638</v>
       </c>
@@ -10511,7 +10509,7 @@
       </c>
       <c r="K266" s="19"/>
     </row>
-    <row r="267" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" ht="45">
       <c r="A267" s="14">
         <v>21638</v>
       </c>
@@ -10538,7 +10536,7 @@
       </c>
       <c r="K267" s="19"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11">
       <c r="A268" s="14">
         <v>21638</v>
       </c>
@@ -10565,7 +10563,7 @@
       </c>
       <c r="K268" s="19"/>
     </row>
-    <row r="269" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" ht="45">
       <c r="A269" s="14">
         <v>21638</v>
       </c>
@@ -10592,7 +10590,7 @@
       </c>
       <c r="K269" s="19"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11">
       <c r="A270" s="20">
         <v>21777</v>
       </c>
@@ -10615,7 +10613,7 @@
       <c r="J270" s="25"/>
       <c r="K270" s="26"/>
     </row>
-    <row r="271" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" ht="30">
       <c r="A271" s="20">
         <v>21777</v>
       </c>
@@ -10638,7 +10636,7 @@
       <c r="J271" s="25"/>
       <c r="K271" s="26"/>
     </row>
-    <row r="272" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" ht="45">
       <c r="A272" s="14">
         <v>21921</v>
       </c>
@@ -10661,7 +10659,7 @@
       <c r="J272" s="18"/>
       <c r="K272" s="19"/>
     </row>
-    <row r="273" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" ht="30">
       <c r="A273" s="14">
         <v>21921</v>
       </c>
@@ -10684,7 +10682,7 @@
       <c r="J273" s="18"/>
       <c r="K273" s="19"/>
     </row>
-    <row r="274" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" ht="30">
       <c r="A274" s="14">
         <v>21921</v>
       </c>
@@ -10707,7 +10705,7 @@
       <c r="J274" s="18"/>
       <c r="K274" s="19"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11">
       <c r="A275" s="14">
         <v>21921</v>
       </c>
@@ -10730,7 +10728,7 @@
       <c r="J275" s="18"/>
       <c r="K275" s="19"/>
     </row>
-    <row r="276" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" ht="45">
       <c r="A276" s="14">
         <v>21921</v>
       </c>
@@ -10753,7 +10751,7 @@
       <c r="J276" s="18"/>
       <c r="K276" s="19"/>
     </row>
-    <row r="277" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" ht="30">
       <c r="A277" s="20">
         <v>21922</v>
       </c>
@@ -10776,7 +10774,7 @@
       <c r="J277" s="25"/>
       <c r="K277" s="26"/>
     </row>
-    <row r="278" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" ht="30">
       <c r="A278" s="20">
         <v>21922</v>
       </c>
@@ -10799,7 +10797,7 @@
       <c r="J278" s="25"/>
       <c r="K278" s="26"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11">
       <c r="A279" s="20">
         <v>21922</v>
       </c>
@@ -10822,7 +10820,7 @@
       <c r="J279" s="25"/>
       <c r="K279" s="26"/>
     </row>
-    <row r="280" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" ht="30">
       <c r="A280" s="20">
         <v>21922</v>
       </c>
@@ -10845,7 +10843,7 @@
       <c r="J280" s="25"/>
       <c r="K280" s="26"/>
     </row>
-    <row r="281" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" ht="30">
       <c r="A281" s="14">
         <v>21925</v>
       </c>
@@ -10868,7 +10866,7 @@
       <c r="J281" s="18"/>
       <c r="K281" s="19"/>
     </row>
-    <row r="282" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" ht="30">
       <c r="A282" s="14">
         <v>21925</v>
       </c>
@@ -10891,7 +10889,7 @@
       <c r="J282" s="18"/>
       <c r="K282" s="19"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11">
       <c r="A283" s="14">
         <v>21925</v>
       </c>
@@ -10914,7 +10912,7 @@
       <c r="J283" s="18"/>
       <c r="K283" s="19"/>
     </row>
-    <row r="284" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" ht="30">
       <c r="A284" s="14">
         <v>21925</v>
       </c>
@@ -10937,7 +10935,7 @@
       <c r="J284" s="18"/>
       <c r="K284" s="19"/>
     </row>
-    <row r="285" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" ht="30">
       <c r="A285" s="20">
         <v>21944</v>
       </c>
@@ -10962,7 +10960,7 @@
       <c r="J285" s="25"/>
       <c r="K285" s="26"/>
     </row>
-    <row r="286" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" ht="30">
       <c r="A286" s="20">
         <v>21944</v>
       </c>
@@ -10987,7 +10985,7 @@
       <c r="J286" s="25"/>
       <c r="K286" s="26"/>
     </row>
-    <row r="287" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" ht="30">
       <c r="A287" s="14">
         <v>21994</v>
       </c>
@@ -11012,7 +11010,7 @@
       <c r="J287" s="18"/>
       <c r="K287" s="19"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11">
       <c r="A288" s="14">
         <v>21994</v>
       </c>
@@ -11037,7 +11035,7 @@
       <c r="J288" s="18"/>
       <c r="K288" s="19"/>
     </row>
-    <row r="289" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" ht="45">
       <c r="A289" s="14">
         <v>21994</v>
       </c>
@@ -11062,7 +11060,7 @@
       <c r="J289" s="18"/>
       <c r="K289" s="19"/>
     </row>
-    <row r="290" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" ht="90">
       <c r="A290" s="14">
         <v>21994</v>
       </c>
@@ -11087,7 +11085,7 @@
       <c r="J290" s="18"/>
       <c r="K290" s="19"/>
     </row>
-    <row r="291" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" ht="45">
       <c r="A291" s="14">
         <v>21994</v>
       </c>
@@ -11112,7 +11110,7 @@
       <c r="J291" s="18"/>
       <c r="K291" s="19"/>
     </row>
-    <row r="292" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" ht="30">
       <c r="A292" s="20">
         <v>21995</v>
       </c>
@@ -11137,7 +11135,7 @@
       <c r="J292" s="25"/>
       <c r="K292" s="26"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11">
       <c r="A293" s="20">
         <v>21995</v>
       </c>
@@ -11162,7 +11160,7 @@
       <c r="J293" s="25"/>
       <c r="K293" s="26"/>
     </row>
-    <row r="294" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" ht="30">
       <c r="A294" s="20">
         <v>21995</v>
       </c>
@@ -11187,7 +11185,7 @@
       <c r="J294" s="25"/>
       <c r="K294" s="26"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11">
       <c r="A295" s="20">
         <v>21995</v>
       </c>
@@ -11212,7 +11210,7 @@
       <c r="J295" s="25"/>
       <c r="K295" s="26"/>
     </row>
-    <row r="296" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" ht="60">
       <c r="A296" s="14">
         <v>22062</v>
       </c>
@@ -11237,7 +11235,7 @@
       <c r="J296" s="18"/>
       <c r="K296" s="19"/>
     </row>
-    <row r="297" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" ht="60">
       <c r="A297" s="14">
         <v>22062</v>
       </c>
@@ -11262,7 +11260,7 @@
       <c r="J297" s="18"/>
       <c r="K297" s="19"/>
     </row>
-    <row r="298" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" ht="45">
       <c r="A298" s="20">
         <v>22063</v>
       </c>
@@ -11287,7 +11285,7 @@
       <c r="J298" s="25"/>
       <c r="K298" s="26"/>
     </row>
-    <row r="299" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" ht="90">
       <c r="A299" s="20">
         <v>22063</v>
       </c>
@@ -11312,7 +11310,7 @@
       <c r="J299" s="25"/>
       <c r="K299" s="26"/>
     </row>
-    <row r="300" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" ht="45">
       <c r="A300" s="20">
         <v>22063</v>
       </c>
@@ -11337,7 +11335,7 @@
       <c r="J300" s="25"/>
       <c r="K300" s="26"/>
     </row>
-    <row r="301" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" ht="60">
       <c r="A301" s="20">
         <v>22063</v>
       </c>
@@ -11362,7 +11360,7 @@
       <c r="J301" s="25"/>
       <c r="K301" s="26"/>
     </row>
-    <row r="302" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" ht="75">
       <c r="A302" s="20">
         <v>22063</v>
       </c>
@@ -11385,7 +11383,7 @@
       <c r="J302" s="25"/>
       <c r="K302" s="26"/>
     </row>
-    <row r="303" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" ht="60">
       <c r="A303" s="20">
         <v>22063</v>
       </c>
@@ -11410,7 +11408,7 @@
       <c r="J303" s="25"/>
       <c r="K303" s="26"/>
     </row>
-    <row r="304" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" ht="60">
       <c r="A304" s="14">
         <v>22097</v>
       </c>
@@ -11435,7 +11433,7 @@
       <c r="J304" s="18"/>
       <c r="K304" s="19"/>
     </row>
-    <row r="305" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" ht="45">
       <c r="A305" s="14">
         <v>22097</v>
       </c>
@@ -11460,7 +11458,7 @@
       <c r="J305" s="18"/>
       <c r="K305" s="19"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11">
       <c r="A306" s="14">
         <v>22097</v>
       </c>
@@ -11485,7 +11483,7 @@
       <c r="J306" s="18"/>
       <c r="K306" s="19"/>
     </row>
-    <row r="307" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" ht="90">
       <c r="A307" s="14">
         <v>22097</v>
       </c>
@@ -11510,7 +11508,7 @@
       <c r="J307" s="18"/>
       <c r="K307" s="19"/>
     </row>
-    <row r="308" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" ht="90">
       <c r="A308" s="20">
         <v>22175</v>
       </c>
@@ -11535,7 +11533,7 @@
       <c r="J308" s="25"/>
       <c r="K308" s="26"/>
     </row>
-    <row r="309" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" ht="75">
       <c r="A309" s="14">
         <v>22195</v>
       </c>
@@ -11560,7 +11558,7 @@
       <c r="J309" s="18"/>
       <c r="K309" s="19"/>
     </row>
-    <row r="310" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" ht="45">
       <c r="A310" s="14">
         <v>22195</v>
       </c>
@@ -11585,7 +11583,7 @@
       <c r="J310" s="18"/>
       <c r="K310" s="19"/>
     </row>
-    <row r="311" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" ht="60">
       <c r="A311" s="20">
         <v>22196</v>
       </c>
@@ -11610,7 +11608,7 @@
       <c r="J311" s="25"/>
       <c r="K311" s="26"/>
     </row>
-    <row r="312" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" ht="30">
       <c r="A312" s="20">
         <v>22196</v>
       </c>
@@ -11635,7 +11633,7 @@
       <c r="J312" s="25"/>
       <c r="K312" s="26"/>
     </row>
-    <row r="313" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" ht="120">
       <c r="A313" s="14">
         <v>22229</v>
       </c>
@@ -11660,7 +11658,7 @@
       <c r="J313" s="18"/>
       <c r="K313" s="19"/>
     </row>
-    <row r="314" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" ht="30">
       <c r="A314" s="20">
         <v>22232</v>
       </c>
@@ -11683,7 +11681,7 @@
       <c r="J314" s="25"/>
       <c r="K314" s="26"/>
     </row>
-    <row r="315" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" ht="75">
       <c r="A315" s="14">
         <v>22341</v>
       </c>
@@ -11708,7 +11706,7 @@
       <c r="J315" s="18"/>
       <c r="K315" s="19"/>
     </row>
-    <row r="316" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" ht="30">
       <c r="A316" s="14">
         <v>22341</v>
       </c>
@@ -11733,7 +11731,7 @@
       <c r="J316" s="18"/>
       <c r="K316" s="19"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11">
       <c r="A317" s="14">
         <v>22341</v>
       </c>
@@ -11758,7 +11756,7 @@
       <c r="J317" s="18"/>
       <c r="K317" s="19"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11">
       <c r="A318" s="14">
         <v>22341</v>
       </c>
@@ -11783,7 +11781,7 @@
       <c r="J318" s="18"/>
       <c r="K318" s="19"/>
     </row>
-    <row r="319" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" ht="45">
       <c r="A319" s="14">
         <v>22341</v>
       </c>
@@ -11808,7 +11806,7 @@
       <c r="J319" s="18"/>
       <c r="K319" s="19"/>
     </row>
-    <row r="320" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" ht="45">
       <c r="A320" s="14">
         <v>22341</v>
       </c>
@@ -11833,7 +11831,7 @@
       <c r="J320" s="18"/>
       <c r="K320" s="19"/>
     </row>
-    <row r="321" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" ht="90">
       <c r="A321" s="14">
         <v>22341</v>
       </c>
@@ -11858,7 +11856,7 @@
       <c r="J321" s="18"/>
       <c r="K321" s="19"/>
     </row>
-    <row r="322" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" ht="60">
       <c r="A322" s="14">
         <v>22341</v>
       </c>
@@ -11883,7 +11881,7 @@
       <c r="J322" s="18"/>
       <c r="K322" s="19"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11">
       <c r="A323" s="14">
         <v>22341</v>
       </c>
@@ -11908,7 +11906,7 @@
       <c r="J323" s="18"/>
       <c r="K323" s="19"/>
     </row>
-    <row r="324" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" ht="45">
       <c r="A324" s="14">
         <v>22341</v>
       </c>
@@ -11933,7 +11931,7 @@
       <c r="J324" s="18"/>
       <c r="K324" s="19"/>
     </row>
-    <row r="325" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" ht="90">
       <c r="A325" s="14">
         <v>22341</v>
       </c>
@@ -11958,7 +11956,7 @@
       <c r="J325" s="18"/>
       <c r="K325" s="19"/>
     </row>
-    <row r="326" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" ht="45">
       <c r="A326" s="14">
         <v>22341</v>
       </c>
@@ -11983,7 +11981,7 @@
       <c r="J326" s="18"/>
       <c r="K326" s="19"/>
     </row>
-    <row r="327" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" ht="45">
       <c r="A327" s="14">
         <v>22341</v>
       </c>
@@ -12008,7 +12006,7 @@
       <c r="J327" s="18"/>
       <c r="K327" s="19"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11">
       <c r="A328" s="14">
         <v>22341</v>
       </c>
@@ -12033,7 +12031,7 @@
       <c r="J328" s="18"/>
       <c r="K328" s="19"/>
     </row>
-    <row r="329" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" ht="90">
       <c r="A329" s="14">
         <v>22341</v>
       </c>
@@ -12060,7 +12058,7 @@
       <c r="J329" s="18"/>
       <c r="K329" s="19"/>
     </row>
-    <row r="330" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" ht="60">
       <c r="A330" s="14">
         <v>22341</v>
       </c>
@@ -12085,7 +12083,7 @@
       <c r="J330" s="18"/>
       <c r="K330" s="19"/>
     </row>
-    <row r="331" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" ht="90">
       <c r="A331" s="14">
         <v>22341</v>
       </c>
@@ -12110,7 +12108,7 @@
       <c r="J331" s="18"/>
       <c r="K331" s="19"/>
     </row>
-    <row r="332" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" ht="30">
       <c r="A332" s="14">
         <v>22341</v>
       </c>
@@ -12135,7 +12133,7 @@
       <c r="J332" s="18"/>
       <c r="K332" s="19"/>
     </row>
-    <row r="333" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" ht="30">
       <c r="A333" s="20">
         <v>22343</v>
       </c>
@@ -12160,7 +12158,7 @@
       <c r="J333" s="25"/>
       <c r="K333" s="26"/>
     </row>
-    <row r="334" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" ht="45">
       <c r="A334" s="20">
         <v>22343</v>
       </c>
@@ -12185,7 +12183,7 @@
       <c r="J334" s="25"/>
       <c r="K334" s="26"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11">
       <c r="A335" s="20">
         <v>22343</v>
       </c>
@@ -12210,7 +12208,7 @@
       <c r="J335" s="25"/>
       <c r="K335" s="26"/>
     </row>
-    <row r="336" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" ht="30">
       <c r="A336" s="20">
         <v>22343</v>
       </c>
@@ -12235,7 +12233,7 @@
       <c r="J336" s="25"/>
       <c r="K336" s="26"/>
     </row>
-    <row r="337" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" ht="30">
       <c r="A337" s="14">
         <v>22367</v>
       </c>
@@ -12260,7 +12258,7 @@
       </c>
       <c r="K337" s="19"/>
     </row>
-    <row r="338" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" ht="30">
       <c r="A338" s="14">
         <v>22367</v>
       </c>
@@ -12285,7 +12283,7 @@
       </c>
       <c r="K338" s="19"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11">
       <c r="A339" s="14">
         <v>22367</v>
       </c>
@@ -12310,7 +12308,7 @@
       </c>
       <c r="K339" s="19"/>
     </row>
-    <row r="340" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" ht="45">
       <c r="A340" s="14">
         <v>22367</v>
       </c>
@@ -12335,7 +12333,7 @@
       </c>
       <c r="K340" s="19"/>
     </row>
-    <row r="341" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" ht="60">
       <c r="A341" s="14">
         <v>22367</v>
       </c>
@@ -12360,7 +12358,7 @@
       </c>
       <c r="K341" s="19"/>
     </row>
-    <row r="342" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" ht="30">
       <c r="A342" s="14">
         <v>22367</v>
       </c>
@@ -12385,7 +12383,7 @@
       </c>
       <c r="K342" s="19"/>
     </row>
-    <row r="343" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" ht="45">
       <c r="A343" s="14">
         <v>22367</v>
       </c>
@@ -12410,7 +12408,7 @@
       </c>
       <c r="K343" s="19"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11">
       <c r="A344" s="14">
         <v>22367</v>
       </c>
@@ -12435,7 +12433,7 @@
       </c>
       <c r="K344" s="19"/>
     </row>
-    <row r="345" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" ht="30">
       <c r="A345" s="14">
         <v>22367</v>
       </c>
@@ -12460,7 +12458,7 @@
       </c>
       <c r="K345" s="19"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11">
       <c r="A346" s="14">
         <v>22367</v>
       </c>
@@ -12485,7 +12483,7 @@
       </c>
       <c r="K346" s="19"/>
     </row>
-    <row r="347" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" ht="30">
       <c r="A347" s="14">
         <v>22367</v>
       </c>
@@ -12510,7 +12508,7 @@
       </c>
       <c r="K347" s="19"/>
     </row>
-    <row r="348" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" ht="30">
       <c r="A348" s="14">
         <v>22367</v>
       </c>
@@ -12535,7 +12533,7 @@
       </c>
       <c r="K348" s="19"/>
     </row>
-    <row r="349" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" ht="60">
       <c r="A349" s="14">
         <v>22367</v>
       </c>
@@ -12560,7 +12558,7 @@
       </c>
       <c r="K349" s="19"/>
     </row>
-    <row r="350" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" ht="75">
       <c r="A350" s="14">
         <v>22367</v>
       </c>
@@ -12585,7 +12583,7 @@
       </c>
       <c r="K350" s="19"/>
     </row>
-    <row r="351" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" ht="30">
       <c r="A351" s="14">
         <v>22367</v>
       </c>
@@ -12610,7 +12608,7 @@
       </c>
       <c r="K351" s="19"/>
     </row>
-    <row r="352" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" ht="75">
       <c r="A352" s="14">
         <v>22367</v>
       </c>
@@ -12635,7 +12633,7 @@
       </c>
       <c r="K352" s="19"/>
     </row>
-    <row r="353" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" ht="30">
       <c r="A353" s="14">
         <v>22367</v>
       </c>
@@ -12660,7 +12658,7 @@
       </c>
       <c r="K353" s="19"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11">
       <c r="A354" s="14">
         <v>22367</v>
       </c>
@@ -12685,7 +12683,7 @@
       </c>
       <c r="K354" s="19"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11">
       <c r="A355" s="14">
         <v>22367</v>
       </c>
@@ -12710,7 +12708,7 @@
       </c>
       <c r="K355" s="19"/>
     </row>
-    <row r="356" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" ht="30">
       <c r="A356" s="14">
         <v>22367</v>
       </c>
@@ -12735,7 +12733,7 @@
       </c>
       <c r="K356" s="19"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11">
       <c r="A357" s="14">
         <v>22367</v>
       </c>
@@ -12760,7 +12758,7 @@
       </c>
       <c r="K357" s="19"/>
     </row>
-    <row r="358" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" ht="60">
       <c r="A358" s="20">
         <v>22398</v>
       </c>
@@ -12789,7 +12787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11">
       <c r="A359" s="20">
         <v>22398</v>
       </c>
@@ -12818,7 +12816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11">
       <c r="A360" s="20">
         <v>22398</v>
       </c>
@@ -12847,7 +12845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" ht="45">
       <c r="A361" s="20">
         <v>22398</v>
       </c>
@@ -12876,7 +12874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" ht="90">
       <c r="A362" s="20">
         <v>22398</v>
       </c>
@@ -12905,7 +12903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" ht="45">
       <c r="A363" s="20">
         <v>22398</v>
       </c>
@@ -12934,7 +12932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" ht="60">
       <c r="A364" s="20">
         <v>22398</v>
       </c>
@@ -12963,7 +12961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11">
       <c r="A365" s="20">
         <v>22398</v>
       </c>
@@ -12992,7 +12990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11">
       <c r="A366" s="20">
         <v>22398</v>
       </c>
@@ -13021,7 +13019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" ht="30">
       <c r="A367" s="20">
         <v>22398</v>
       </c>
@@ -13050,7 +13048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" ht="30">
       <c r="A368" s="14">
         <v>22421</v>
       </c>
@@ -13075,7 +13073,7 @@
       </c>
       <c r="K368" s="19"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11">
       <c r="A369" s="14">
         <v>22421</v>
       </c>
@@ -13100,7 +13098,7 @@
       </c>
       <c r="K369" s="19"/>
     </row>
-    <row r="370" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" ht="105">
       <c r="A370" s="14">
         <v>22421</v>
       </c>
@@ -13125,7 +13123,7 @@
       </c>
       <c r="K370" s="19"/>
     </row>
-    <row r="371" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" ht="45">
       <c r="A371" s="20">
         <v>22436</v>
       </c>
@@ -13148,7 +13146,7 @@
       <c r="J371" s="25"/>
       <c r="K371" s="26"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11">
       <c r="A372" s="14">
         <v>22452</v>
       </c>
@@ -13171,7 +13169,7 @@
       <c r="J372" s="18"/>
       <c r="K372" s="19"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11">
       <c r="A373" s="20">
         <v>22462</v>
       </c>
@@ -13194,7 +13192,7 @@
       <c r="J373" s="25"/>
       <c r="K373" s="26"/>
     </row>
-    <row r="374" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" ht="60">
       <c r="A374" s="14">
         <v>22555</v>
       </c>
@@ -13219,7 +13217,7 @@
       <c r="J374" s="18"/>
       <c r="K374" s="19"/>
     </row>
-    <row r="375" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" ht="45">
       <c r="A375" s="14">
         <v>22555</v>
       </c>
@@ -13244,7 +13242,7 @@
       <c r="J375" s="18"/>
       <c r="K375" s="19"/>
     </row>
-    <row r="376" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" ht="60">
       <c r="A376" s="14">
         <v>22555</v>
       </c>
@@ -13269,7 +13267,7 @@
       <c r="J376" s="18"/>
       <c r="K376" s="19"/>
     </row>
-    <row r="377" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" ht="30">
       <c r="A377" s="14">
         <v>22555</v>
       </c>
@@ -13294,7 +13292,7 @@
       <c r="J377" s="18"/>
       <c r="K377" s="19"/>
     </row>
-    <row r="378" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" ht="75">
       <c r="A378" s="14">
         <v>22555</v>
       </c>
@@ -13319,7 +13317,7 @@
       <c r="J378" s="18"/>
       <c r="K378" s="19"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11">
       <c r="A379" s="20">
         <v>22579</v>
       </c>
@@ -13342,7 +13340,7 @@
       <c r="J379" s="25"/>
       <c r="K379" s="26"/>
     </row>
-    <row r="380" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" ht="30">
       <c r="A380" s="20">
         <v>22579</v>
       </c>
@@ -13365,7 +13363,7 @@
       <c r="J380" s="25"/>
       <c r="K380" s="26"/>
     </row>
-    <row r="381" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" ht="30">
       <c r="A381" s="20">
         <v>22579</v>
       </c>
@@ -13388,7 +13386,7 @@
       <c r="J381" s="25"/>
       <c r="K381" s="26"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11">
       <c r="A382" s="20">
         <v>22579</v>
       </c>
@@ -13411,7 +13409,7 @@
       <c r="J382" s="25"/>
       <c r="K382" s="26"/>
     </row>
-    <row r="383" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" ht="30">
       <c r="A383" s="20">
         <v>22579</v>
       </c>
@@ -13434,7 +13432,7 @@
       <c r="J383" s="25"/>
       <c r="K383" s="26"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11">
       <c r="A384" s="14">
         <v>22609</v>
       </c>
@@ -13457,7 +13455,7 @@
       <c r="J384" s="18"/>
       <c r="K384" s="19"/>
     </row>
-    <row r="385" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" ht="45">
       <c r="A385" s="14">
         <v>22609</v>
       </c>
@@ -13480,7 +13478,7 @@
       <c r="J385" s="18"/>
       <c r="K385" s="19"/>
     </row>
-    <row r="386" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" ht="45">
       <c r="A386" s="14">
         <v>22609</v>
       </c>
@@ -13503,7 +13501,7 @@
       <c r="J386" s="18"/>
       <c r="K386" s="19"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11">
       <c r="A387" s="14">
         <v>22609</v>
       </c>
@@ -13526,7 +13524,7 @@
       <c r="J387" s="18"/>
       <c r="K387" s="19"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11">
       <c r="A388" s="20">
         <v>22613</v>
       </c>
@@ -13549,7 +13547,7 @@
       <c r="J388" s="25"/>
       <c r="K388" s="26"/>
     </row>
-    <row r="389" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" ht="60">
       <c r="A389" s="20">
         <v>22613</v>
       </c>
@@ -13572,7 +13570,7 @@
       <c r="J389" s="25"/>
       <c r="K389" s="26"/>
     </row>
-    <row r="390" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" ht="30">
       <c r="A390" s="14">
         <v>22614</v>
       </c>
@@ -13595,7 +13593,7 @@
       <c r="J390" s="18"/>
       <c r="K390" s="19"/>
     </row>
-    <row r="391" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" ht="60">
       <c r="A391" s="14">
         <v>22614</v>
       </c>
@@ -13618,7 +13616,7 @@
       <c r="J391" s="18"/>
       <c r="K391" s="19"/>
     </row>
-    <row r="392" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" ht="30">
       <c r="A392" s="20">
         <v>22634</v>
       </c>
@@ -13641,7 +13639,7 @@
       <c r="J392" s="25"/>
       <c r="K392" s="26"/>
     </row>
-    <row r="393" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" ht="30">
       <c r="A393" s="20">
         <v>22634</v>
       </c>
@@ -13664,7 +13662,7 @@
       <c r="J393" s="25"/>
       <c r="K393" s="26"/>
     </row>
-    <row r="394" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" ht="30">
       <c r="A394" s="20">
         <v>22634</v>
       </c>
@@ -13687,7 +13685,7 @@
       <c r="J394" s="25"/>
       <c r="K394" s="26"/>
     </row>
-    <row r="395" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" ht="30">
       <c r="A395" s="20">
         <v>22634</v>
       </c>
@@ -13710,7 +13708,7 @@
       <c r="J395" s="25"/>
       <c r="K395" s="26"/>
     </row>
-    <row r="396" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" ht="45">
       <c r="A396" s="20">
         <v>22634</v>
       </c>
@@ -13733,7 +13731,7 @@
       <c r="J396" s="25"/>
       <c r="K396" s="26"/>
     </row>
-    <row r="397" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" ht="30">
       <c r="A397" s="20">
         <v>22634</v>
       </c>
@@ -13756,7 +13754,7 @@
       <c r="J397" s="25"/>
       <c r="K397" s="26"/>
     </row>
-    <row r="398" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" ht="30">
       <c r="A398" s="20">
         <v>22634</v>
       </c>
@@ -13779,7 +13777,7 @@
       <c r="J398" s="25"/>
       <c r="K398" s="26"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11">
       <c r="A399" s="14">
         <v>22717</v>
       </c>
@@ -13804,7 +13802,7 @@
       </c>
       <c r="K399" s="19"/>
     </row>
-    <row r="400" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" ht="45">
       <c r="A400" s="20">
         <v>22720</v>
       </c>
@@ -13833,7 +13831,7 @@
       </c>
       <c r="K400" s="26"/>
     </row>
-    <row r="401" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" ht="60">
       <c r="A401" s="20">
         <v>22720</v>
       </c>
@@ -13862,7 +13860,7 @@
       </c>
       <c r="K401" s="26"/>
     </row>
-    <row r="402" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" ht="30">
       <c r="A402" s="20">
         <v>22720</v>
       </c>
@@ -13891,7 +13889,7 @@
       </c>
       <c r="K402" s="26"/>
     </row>
-    <row r="403" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" ht="45">
       <c r="A403" s="20">
         <v>22720</v>
       </c>
@@ -13920,7 +13918,7 @@
       </c>
       <c r="K403" s="26"/>
     </row>
-    <row r="404" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" ht="45">
       <c r="A404" s="20">
         <v>22720</v>
       </c>
@@ -13949,7 +13947,7 @@
       </c>
       <c r="K404" s="26"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11">
       <c r="A405" s="20">
         <v>22720</v>
       </c>
@@ -13978,7 +13976,7 @@
       </c>
       <c r="K405" s="26"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11">
       <c r="A406" s="20">
         <v>22720</v>
       </c>
@@ -14007,7 +14005,7 @@
       </c>
       <c r="K406" s="26"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11">
       <c r="A407" s="20">
         <v>22720</v>
       </c>
@@ -14036,7 +14034,7 @@
       </c>
       <c r="K407" s="26"/>
     </row>
-    <row r="408" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" ht="30">
       <c r="A408" s="20">
         <v>22720</v>
       </c>
@@ -14065,7 +14063,7 @@
       </c>
       <c r="K408" s="26"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11">
       <c r="A409" s="20">
         <v>22720</v>
       </c>
@@ -14094,7 +14092,7 @@
       </c>
       <c r="K409" s="26"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11">
       <c r="A410" s="14">
         <v>22721</v>
       </c>
@@ -14119,7 +14117,7 @@
       <c r="J410" s="18"/>
       <c r="K410" s="19"/>
     </row>
-    <row r="411" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" ht="30">
       <c r="A411" s="14">
         <v>22721</v>
       </c>
@@ -14144,7 +14142,7 @@
       <c r="J411" s="18"/>
       <c r="K411" s="19"/>
     </row>
-    <row r="412" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" ht="45">
       <c r="A412" s="14">
         <v>22721</v>
       </c>
@@ -14169,7 +14167,7 @@
       <c r="J412" s="18"/>
       <c r="K412" s="19"/>
     </row>
-    <row r="413" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" ht="45">
       <c r="A413" s="14">
         <v>22721</v>
       </c>
@@ -14194,7 +14192,7 @@
       <c r="J413" s="18"/>
       <c r="K413" s="19"/>
     </row>
-    <row r="414" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" ht="60">
       <c r="A414" s="14">
         <v>22721</v>
       </c>
@@ -14219,7 +14217,7 @@
       <c r="J414" s="18"/>
       <c r="K414" s="19"/>
     </row>
-    <row r="415" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" ht="45">
       <c r="A415" s="14">
         <v>22721</v>
       </c>
@@ -14244,7 +14242,7 @@
       <c r="J415" s="18"/>
       <c r="K415" s="19"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11">
       <c r="A416" s="14">
         <v>22721</v>
       </c>
@@ -14269,7 +14267,7 @@
       <c r="J416" s="18"/>
       <c r="K416" s="19"/>
     </row>
-    <row r="417" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" ht="30">
       <c r="A417" s="14">
         <v>22721</v>
       </c>
@@ -14294,7 +14292,7 @@
       <c r="J417" s="18"/>
       <c r="K417" s="19"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11">
       <c r="A418" s="20">
         <v>22723</v>
       </c>
@@ -14323,7 +14321,7 @@
       </c>
       <c r="K418" s="26"/>
     </row>
-    <row r="419" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" ht="60">
       <c r="A419" s="20">
         <v>22723</v>
       </c>
@@ -14352,7 +14350,7 @@
       </c>
       <c r="K419" s="26"/>
     </row>
-    <row r="420" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" ht="60">
       <c r="A420" s="20">
         <v>22723</v>
       </c>
@@ -14381,7 +14379,7 @@
       </c>
       <c r="K420" s="26"/>
     </row>
-    <row r="421" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" ht="60">
       <c r="A421" s="20">
         <v>22723</v>
       </c>
@@ -14410,7 +14408,7 @@
       </c>
       <c r="K421" s="26"/>
     </row>
-    <row r="422" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" ht="75">
       <c r="A422" s="20">
         <v>22723</v>
       </c>
@@ -14439,7 +14437,7 @@
       </c>
       <c r="K422" s="26"/>
     </row>
-    <row r="423" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" ht="60">
       <c r="A423" s="20">
         <v>22723</v>
       </c>
@@ -14468,7 +14466,7 @@
       </c>
       <c r="K423" s="26"/>
     </row>
-    <row r="424" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" ht="75">
       <c r="A424" s="20">
         <v>22723</v>
       </c>
@@ -14497,7 +14495,7 @@
       </c>
       <c r="K424" s="26"/>
     </row>
-    <row r="425" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" ht="90">
       <c r="A425" s="20">
         <v>22723</v>
       </c>
@@ -14526,7 +14524,7 @@
       </c>
       <c r="K425" s="26"/>
     </row>
-    <row r="426" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" ht="60">
       <c r="A426" s="20">
         <v>22723</v>
       </c>
@@ -14555,7 +14553,7 @@
       </c>
       <c r="K426" s="26"/>
     </row>
-    <row r="427" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" ht="30">
       <c r="A427" s="20">
         <v>22723</v>
       </c>
@@ -14584,7 +14582,7 @@
       </c>
       <c r="K427" s="26"/>
     </row>
-    <row r="428" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" ht="45">
       <c r="A428" s="14">
         <v>22779</v>
       </c>
@@ -14609,7 +14607,7 @@
       <c r="J428" s="18"/>
       <c r="K428" s="19"/>
     </row>
-    <row r="429" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" ht="45">
       <c r="A429" s="14">
         <v>22779</v>
       </c>
@@ -14634,7 +14632,7 @@
       <c r="J429" s="18"/>
       <c r="K429" s="19"/>
     </row>
-    <row r="430" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" ht="30">
       <c r="A430" s="14">
         <v>22779</v>
       </c>
@@ -14659,7 +14657,7 @@
       <c r="J430" s="18"/>
       <c r="K430" s="19"/>
     </row>
-    <row r="431" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" ht="45">
       <c r="A431" s="14">
         <v>22779</v>
       </c>
@@ -14684,7 +14682,7 @@
       <c r="J431" s="18"/>
       <c r="K431" s="19"/>
     </row>
-    <row r="432" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" ht="30">
       <c r="A432" s="20">
         <v>22870</v>
       </c>
@@ -14711,7 +14709,7 @@
       <c r="J432" s="25"/>
       <c r="K432" s="26"/>
     </row>
-    <row r="433" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" ht="75">
       <c r="A433" s="20">
         <v>22870</v>
       </c>
@@ -14738,7 +14736,7 @@
       <c r="J433" s="25"/>
       <c r="K433" s="26"/>
     </row>
-    <row r="434" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" ht="30">
       <c r="A434" s="20">
         <v>22870</v>
       </c>
@@ -14765,7 +14763,7 @@
       <c r="J434" s="25"/>
       <c r="K434" s="26"/>
     </row>
-    <row r="435" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" ht="30">
       <c r="A435" s="20">
         <v>22870</v>
       </c>
@@ -14792,7 +14790,7 @@
       <c r="J435" s="25"/>
       <c r="K435" s="26"/>
     </row>
-    <row r="436" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" ht="30">
       <c r="A436" s="20">
         <v>22870</v>
       </c>
@@ -14819,7 +14817,7 @@
       <c r="J436" s="25"/>
       <c r="K436" s="26"/>
     </row>
-    <row r="437" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" ht="45">
       <c r="A437" s="14">
         <v>22871</v>
       </c>
@@ -14844,7 +14842,7 @@
       <c r="J437" s="18"/>
       <c r="K437" s="19"/>
     </row>
-    <row r="438" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" ht="60">
       <c r="A438" s="14">
         <v>22871</v>
       </c>
@@ -14869,7 +14867,7 @@
       <c r="J438" s="18"/>
       <c r="K438" s="19"/>
     </row>
-    <row r="439" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" ht="45">
       <c r="A439" s="14">
         <v>22871</v>
       </c>
@@ -14894,7 +14892,7 @@
       <c r="J439" s="18"/>
       <c r="K439" s="19"/>
     </row>
-    <row r="440" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" ht="30">
       <c r="A440" s="14">
         <v>22871</v>
       </c>
@@ -14919,7 +14917,7 @@
       <c r="J440" s="18"/>
       <c r="K440" s="19"/>
     </row>
-    <row r="441" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" ht="30">
       <c r="A441" s="20">
         <v>22947</v>
       </c>
@@ -14944,7 +14942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" ht="60">
       <c r="A442" s="14">
         <v>23012</v>
       </c>
@@ -14969,7 +14967,7 @@
       </c>
       <c r="K442" s="19"/>
     </row>
-    <row r="443" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" ht="30">
       <c r="A443" s="20">
         <v>23019</v>
       </c>
@@ -14994,7 +14992,7 @@
       <c r="J443" s="25"/>
       <c r="K443" s="26"/>
     </row>
-    <row r="444" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" ht="45">
       <c r="A444" s="20">
         <v>23019</v>
       </c>
@@ -15019,7 +15017,7 @@
       <c r="J444" s="25"/>
       <c r="K444" s="26"/>
     </row>
-    <row r="445" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" ht="60">
       <c r="A445" s="20">
         <v>23019</v>
       </c>
@@ -15044,7 +15042,7 @@
       <c r="J445" s="25"/>
       <c r="K445" s="26"/>
     </row>
-    <row r="446" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" ht="120">
       <c r="A446" s="20">
         <v>23019</v>
       </c>
@@ -15069,7 +15067,7 @@
       <c r="J446" s="25"/>
       <c r="K446" s="26"/>
     </row>
-    <row r="447" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" ht="30">
       <c r="A447" s="14">
         <v>23021</v>
       </c>
@@ -15094,7 +15092,7 @@
       <c r="J447" s="18"/>
       <c r="K447" s="19"/>
     </row>
-    <row r="448" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" ht="105">
       <c r="A448" s="14">
         <v>23021</v>
       </c>
@@ -15119,7 +15117,7 @@
       <c r="J448" s="18"/>
       <c r="K448" s="19"/>
     </row>
-    <row r="449" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" ht="75">
       <c r="A449" s="14">
         <v>23021</v>
       </c>
@@ -15144,7 +15142,7 @@
       <c r="J449" s="18"/>
       <c r="K449" s="19"/>
     </row>
-    <row r="450" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" ht="60">
       <c r="A450" s="14">
         <v>23021</v>
       </c>
@@ -15169,7 +15167,7 @@
       <c r="J450" s="18"/>
       <c r="K450" s="19"/>
     </row>
-    <row r="451" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" ht="30">
       <c r="A451" s="14">
         <v>23021</v>
       </c>
@@ -15194,7 +15192,7 @@
       <c r="J451" s="18"/>
       <c r="K451" s="19"/>
     </row>
-    <row r="452" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" ht="60">
       <c r="A452" s="14">
         <v>23021</v>
       </c>
@@ -15219,7 +15217,7 @@
       <c r="J452" s="18"/>
       <c r="K452" s="19"/>
     </row>
-    <row r="453" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" ht="30">
       <c r="A453" s="14">
         <v>23021</v>
       </c>
@@ -15244,7 +15242,7 @@
       <c r="J453" s="18"/>
       <c r="K453" s="19"/>
     </row>
-    <row r="454" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" ht="30">
       <c r="A454" s="14">
         <v>23021</v>
       </c>
@@ -15269,7 +15267,7 @@
       <c r="J454" s="18"/>
       <c r="K454" s="19"/>
     </row>
-    <row r="455" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" ht="45">
       <c r="A455" s="20">
         <v>23122</v>
       </c>
@@ -15294,7 +15292,7 @@
       <c r="J455" s="25"/>
       <c r="K455" s="26"/>
     </row>
-    <row r="456" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" ht="30">
       <c r="A456" s="20">
         <v>23122</v>
       </c>
@@ -15319,7 +15317,7 @@
       <c r="J456" s="25"/>
       <c r="K456" s="26"/>
     </row>
-    <row r="457" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" ht="90">
       <c r="A457" s="20">
         <v>23122</v>
       </c>
@@ -15344,7 +15342,7 @@
       <c r="J457" s="25"/>
       <c r="K457" s="26"/>
     </row>
-    <row r="458" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" ht="60">
       <c r="A458" s="20">
         <v>23122</v>
       </c>
@@ -15369,7 +15367,7 @@
       <c r="J458" s="25"/>
       <c r="K458" s="26"/>
     </row>
-    <row r="459" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" ht="45">
       <c r="A459" s="20">
         <v>23122</v>
       </c>
@@ -15394,7 +15392,7 @@
       <c r="J459" s="25"/>
       <c r="K459" s="26"/>
     </row>
-    <row r="460" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" ht="75">
       <c r="A460" s="14">
         <v>23124</v>
       </c>
@@ -15419,7 +15417,7 @@
       <c r="J460" s="18"/>
       <c r="K460" s="19"/>
     </row>
-    <row r="461" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" ht="60">
       <c r="A461" s="20">
         <v>23165</v>
       </c>
@@ -15435,14 +15433,18 @@
       <c r="E461" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="F461" s="24"/>
+      <c r="F461" s="24">
+        <v>1</v>
+      </c>
       <c r="G461" s="25"/>
       <c r="H461" s="25"/>
-      <c r="I461" s="25"/>
+      <c r="I461" s="25">
+        <v>1</v>
+      </c>
       <c r="J461" s="25"/>
       <c r="K461" s="26"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11">
       <c r="A462" s="20">
         <v>23165</v>
       </c>
@@ -15458,14 +15460,18 @@
       <c r="E462" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="F462" s="24"/>
+      <c r="F462" s="24">
+        <v>1</v>
+      </c>
       <c r="G462" s="25"/>
       <c r="H462" s="25"/>
-      <c r="I462" s="25"/>
+      <c r="I462" s="25">
+        <v>1</v>
+      </c>
       <c r="J462" s="25"/>
       <c r="K462" s="26"/>
     </row>
-    <row r="463" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" ht="30">
       <c r="A463" s="20">
         <v>23165</v>
       </c>
@@ -15481,14 +15487,18 @@
       <c r="E463" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="F463" s="24"/>
+      <c r="F463" s="24">
+        <v>1</v>
+      </c>
       <c r="G463" s="25"/>
       <c r="H463" s="25"/>
-      <c r="I463" s="25"/>
+      <c r="I463" s="25">
+        <v>1</v>
+      </c>
       <c r="J463" s="25"/>
       <c r="K463" s="26"/>
     </row>
-    <row r="464" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" ht="30">
       <c r="A464" s="14">
         <v>23201</v>
       </c>
@@ -15507,11 +15517,13 @@
       <c r="F464" s="17"/>
       <c r="G464" s="18"/>
       <c r="H464" s="18"/>
-      <c r="I464" s="18"/>
+      <c r="I464" s="18">
+        <v>1</v>
+      </c>
       <c r="J464" s="18"/>
       <c r="K464" s="19"/>
     </row>
-    <row r="465" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" ht="30">
       <c r="A465" s="14">
         <v>23201</v>
       </c>
@@ -15530,11 +15542,13 @@
       <c r="F465" s="17"/>
       <c r="G465" s="18"/>
       <c r="H465" s="18"/>
-      <c r="I465" s="18"/>
+      <c r="I465" s="18">
+        <v>1</v>
+      </c>
       <c r="J465" s="18"/>
       <c r="K465" s="19"/>
     </row>
-    <row r="466" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" ht="45">
       <c r="A466" s="20">
         <v>23274</v>
       </c>
@@ -15553,11 +15567,13 @@
       <c r="F466" s="24"/>
       <c r="G466" s="25"/>
       <c r="H466" s="25"/>
-      <c r="I466" s="25"/>
+      <c r="I466" s="25">
+        <v>1</v>
+      </c>
       <c r="J466" s="25"/>
       <c r="K466" s="26"/>
     </row>
-    <row r="467" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" ht="30">
       <c r="A467" s="20">
         <v>23274</v>
       </c>
@@ -15576,11 +15592,13 @@
       <c r="F467" s="24"/>
       <c r="G467" s="25"/>
       <c r="H467" s="25"/>
-      <c r="I467" s="25"/>
+      <c r="I467" s="25">
+        <v>1</v>
+      </c>
       <c r="J467" s="25"/>
       <c r="K467" s="26"/>
     </row>
-    <row r="468" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" ht="30">
       <c r="A468" s="20">
         <v>23274</v>
       </c>
@@ -15599,11 +15617,13 @@
       <c r="F468" s="24"/>
       <c r="G468" s="25"/>
       <c r="H468" s="25"/>
-      <c r="I468" s="25"/>
+      <c r="I468" s="25">
+        <v>1</v>
+      </c>
       <c r="J468" s="25"/>
       <c r="K468" s="26"/>
     </row>
-    <row r="469" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" ht="30">
       <c r="A469" s="14">
         <v>23275</v>
       </c>
@@ -15622,11 +15642,13 @@
       <c r="F469" s="17"/>
       <c r="G469" s="18"/>
       <c r="H469" s="18"/>
-      <c r="I469" s="18"/>
+      <c r="I469" s="18">
+        <v>1</v>
+      </c>
       <c r="J469" s="18"/>
       <c r="K469" s="19"/>
     </row>
-    <row r="470" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" ht="30">
       <c r="A470" s="14">
         <v>23275</v>
       </c>
@@ -15645,11 +15667,13 @@
       <c r="F470" s="17"/>
       <c r="G470" s="18"/>
       <c r="H470" s="18"/>
-      <c r="I470" s="18"/>
+      <c r="I470" s="18">
+        <v>1</v>
+      </c>
       <c r="J470" s="18"/>
       <c r="K470" s="19"/>
     </row>
-    <row r="471" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" ht="30">
       <c r="A471" s="14">
         <v>23275</v>
       </c>
@@ -15668,11 +15692,13 @@
       <c r="F471" s="17"/>
       <c r="G471" s="18"/>
       <c r="H471" s="18"/>
-      <c r="I471" s="18"/>
+      <c r="I471" s="18">
+        <v>1</v>
+      </c>
       <c r="J471" s="18"/>
       <c r="K471" s="19"/>
     </row>
-    <row r="472" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" ht="30">
       <c r="A472" s="14">
         <v>23275</v>
       </c>
@@ -15691,11 +15717,13 @@
       <c r="F472" s="17"/>
       <c r="G472" s="18"/>
       <c r="H472" s="18"/>
-      <c r="I472" s="18"/>
+      <c r="I472" s="18">
+        <v>1</v>
+      </c>
       <c r="J472" s="18"/>
       <c r="K472" s="19"/>
     </row>
-    <row r="473" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" ht="30">
       <c r="A473" s="14">
         <v>23275</v>
       </c>
@@ -15714,11 +15742,13 @@
       <c r="F473" s="17"/>
       <c r="G473" s="18"/>
       <c r="H473" s="18"/>
-      <c r="I473" s="18"/>
+      <c r="I473" s="18">
+        <v>1</v>
+      </c>
       <c r="J473" s="18"/>
       <c r="K473" s="19"/>
     </row>
-    <row r="474" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" ht="45">
       <c r="A474" s="20">
         <v>23276</v>
       </c>
@@ -15737,11 +15767,13 @@
       <c r="F474" s="24"/>
       <c r="G474" s="25"/>
       <c r="H474" s="25"/>
-      <c r="I474" s="25"/>
+      <c r="I474" s="25">
+        <v>1</v>
+      </c>
       <c r="J474" s="25"/>
       <c r="K474" s="26"/>
     </row>
-    <row r="475" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" ht="30">
       <c r="A475" s="20">
         <v>23276</v>
       </c>
@@ -15760,11 +15792,13 @@
       <c r="F475" s="24"/>
       <c r="G475" s="25"/>
       <c r="H475" s="25"/>
-      <c r="I475" s="25"/>
+      <c r="I475" s="25">
+        <v>1</v>
+      </c>
       <c r="J475" s="25"/>
       <c r="K475" s="26"/>
     </row>
-    <row r="476" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" ht="30">
       <c r="A476" s="20">
         <v>23276</v>
       </c>
@@ -15783,11 +15817,13 @@
       <c r="F476" s="24"/>
       <c r="G476" s="25"/>
       <c r="H476" s="25"/>
-      <c r="I476" s="25"/>
+      <c r="I476" s="25">
+        <v>1</v>
+      </c>
       <c r="J476" s="25"/>
       <c r="K476" s="26"/>
     </row>
-    <row r="477" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" ht="105">
       <c r="A477" s="14">
         <v>23363</v>
       </c>
@@ -15803,14 +15839,20 @@
       <c r="E477" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="F477" s="17"/>
+      <c r="F477" s="17">
+        <v>1</v>
+      </c>
       <c r="G477" s="18"/>
       <c r="H477" s="18"/>
-      <c r="I477" s="18"/>
-      <c r="J477" s="18"/>
+      <c r="I477" s="18">
+        <v>1</v>
+      </c>
+      <c r="J477" s="18">
+        <v>1</v>
+      </c>
       <c r="K477" s="19"/>
     </row>
-    <row r="478" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" ht="60">
       <c r="A478" s="14">
         <v>23363</v>
       </c>
@@ -15826,14 +15868,20 @@
       <c r="E478" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="F478" s="17"/>
+      <c r="F478" s="17">
+        <v>1</v>
+      </c>
       <c r="G478" s="18"/>
       <c r="H478" s="18"/>
-      <c r="I478" s="18"/>
-      <c r="J478" s="18"/>
+      <c r="I478" s="18">
+        <v>1</v>
+      </c>
+      <c r="J478" s="18">
+        <v>1</v>
+      </c>
       <c r="K478" s="19"/>
     </row>
-    <row r="479" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" ht="120">
       <c r="A479" s="14">
         <v>23363</v>
       </c>
@@ -15849,14 +15897,20 @@
       <c r="E479" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="F479" s="17"/>
+      <c r="F479" s="17">
+        <v>1</v>
+      </c>
       <c r="G479" s="18"/>
       <c r="H479" s="18"/>
-      <c r="I479" s="18"/>
-      <c r="J479" s="18"/>
+      <c r="I479" s="18">
+        <v>1</v>
+      </c>
+      <c r="J479" s="18">
+        <v>1</v>
+      </c>
       <c r="K479" s="19"/>
     </row>
-    <row r="480" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" ht="45">
       <c r="A480" s="14">
         <v>23363</v>
       </c>
@@ -15872,14 +15926,20 @@
       <c r="E480" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="F480" s="17"/>
+      <c r="F480" s="17">
+        <v>1</v>
+      </c>
       <c r="G480" s="18"/>
       <c r="H480" s="18"/>
-      <c r="I480" s="18"/>
-      <c r="J480" s="18"/>
+      <c r="I480" s="18">
+        <v>1</v>
+      </c>
+      <c r="J480" s="18">
+        <v>1</v>
+      </c>
       <c r="K480" s="19"/>
     </row>
-    <row r="481" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" ht="45">
       <c r="A481" s="20">
         <v>23422</v>
       </c>
@@ -15898,11 +15958,13 @@
       <c r="F481" s="24"/>
       <c r="G481" s="25"/>
       <c r="H481" s="25"/>
-      <c r="I481" s="25"/>
+      <c r="I481" s="25">
+        <v>1</v>
+      </c>
       <c r="J481" s="25"/>
       <c r="K481" s="26"/>
     </row>
-    <row r="482" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" ht="30">
       <c r="A482" s="20">
         <v>23422</v>
       </c>
@@ -15921,11 +15983,13 @@
       <c r="F482" s="24"/>
       <c r="G482" s="25"/>
       <c r="H482" s="25"/>
-      <c r="I482" s="25"/>
+      <c r="I482" s="25">
+        <v>1</v>
+      </c>
       <c r="J482" s="25"/>
       <c r="K482" s="26"/>
     </row>
-    <row r="483" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" ht="45">
       <c r="A483" s="14">
         <v>23428</v>
       </c>
@@ -15944,11 +16008,13 @@
       <c r="F483" s="17"/>
       <c r="G483" s="18"/>
       <c r="H483" s="18"/>
-      <c r="I483" s="18"/>
+      <c r="I483" s="18">
+        <v>1</v>
+      </c>
       <c r="J483" s="18"/>
       <c r="K483" s="19"/>
     </row>
-    <row r="484" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" ht="30">
       <c r="A484" s="14">
         <v>23428</v>
       </c>
@@ -15967,11 +16033,13 @@
       <c r="F484" s="17"/>
       <c r="G484" s="18"/>
       <c r="H484" s="18"/>
-      <c r="I484" s="18"/>
+      <c r="I484" s="18">
+        <v>1</v>
+      </c>
       <c r="J484" s="18"/>
       <c r="K484" s="19"/>
     </row>
-    <row r="485" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" ht="45">
       <c r="A485" s="20">
         <v>23436</v>
       </c>
@@ -15990,11 +16058,13 @@
       <c r="F485" s="24"/>
       <c r="G485" s="25"/>
       <c r="H485" s="25"/>
-      <c r="I485" s="25"/>
+      <c r="I485" s="25">
+        <v>1</v>
+      </c>
       <c r="J485" s="25"/>
       <c r="K485" s="26"/>
     </row>
-    <row r="486" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" ht="30">
       <c r="A486" s="20">
         <v>23436</v>
       </c>
@@ -16013,11 +16083,13 @@
       <c r="F486" s="24"/>
       <c r="G486" s="25"/>
       <c r="H486" s="25"/>
-      <c r="I486" s="25"/>
+      <c r="I486" s="25">
+        <v>1</v>
+      </c>
       <c r="J486" s="25"/>
       <c r="K486" s="26"/>
     </row>
-    <row r="487" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" ht="30">
       <c r="A487" s="14">
         <v>23439</v>
       </c>
@@ -16036,11 +16108,13 @@
       <c r="F487" s="17"/>
       <c r="G487" s="18"/>
       <c r="H487" s="18"/>
-      <c r="I487" s="18"/>
+      <c r="I487" s="18">
+        <v>1</v>
+      </c>
       <c r="J487" s="18"/>
       <c r="K487" s="19"/>
     </row>
-    <row r="488" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" ht="60">
       <c r="A488" s="20">
         <v>23462</v>
       </c>
@@ -16056,14 +16130,16 @@
       <c r="E488" s="23" t="s">
         <v>416</v>
       </c>
-      <c r="F488" s="24"/>
+      <c r="F488" s="24">
+        <v>1</v>
+      </c>
       <c r="G488" s="25"/>
       <c r="H488" s="25"/>
       <c r="I488" s="25"/>
       <c r="J488" s="25"/>
       <c r="K488" s="26"/>
     </row>
-    <row r="489" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" ht="45">
       <c r="A489" s="20">
         <v>23462</v>
       </c>
@@ -16079,14 +16155,16 @@
       <c r="E489" s="23" t="s">
         <v>427</v>
       </c>
-      <c r="F489" s="24"/>
+      <c r="F489" s="24">
+        <v>1</v>
+      </c>
       <c r="G489" s="25"/>
       <c r="H489" s="25"/>
       <c r="I489" s="25"/>
       <c r="J489" s="25"/>
       <c r="K489" s="26"/>
     </row>
-    <row r="490" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" ht="75">
       <c r="A490" s="14">
         <v>23486</v>
       </c>
@@ -16102,14 +16180,16 @@
       <c r="E490" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="F490" s="17"/>
+      <c r="F490" s="17">
+        <v>1</v>
+      </c>
       <c r="G490" s="18"/>
       <c r="H490" s="18"/>
       <c r="I490" s="18"/>
       <c r="J490" s="18"/>
       <c r="K490" s="19"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11">
       <c r="A491" s="14">
         <v>23486</v>
       </c>
@@ -16125,14 +16205,16 @@
       <c r="E491" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="F491" s="17"/>
+      <c r="F491" s="17">
+        <v>1</v>
+      </c>
       <c r="G491" s="18"/>
       <c r="H491" s="18"/>
       <c r="I491" s="18"/>
       <c r="J491" s="18"/>
       <c r="K491" s="19"/>
     </row>
-    <row r="492" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" ht="45">
       <c r="A492" s="14">
         <v>23486</v>
       </c>
@@ -16148,14 +16230,16 @@
       <c r="E492" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="F492" s="17"/>
+      <c r="F492" s="17">
+        <v>1</v>
+      </c>
       <c r="G492" s="18"/>
       <c r="H492" s="18"/>
       <c r="I492" s="18"/>
       <c r="J492" s="18"/>
       <c r="K492" s="19"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11">
       <c r="A493" s="14">
         <v>23486</v>
       </c>
@@ -16171,14 +16255,16 @@
       <c r="E493" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="F493" s="17"/>
+      <c r="F493" s="17">
+        <v>1</v>
+      </c>
       <c r="G493" s="18"/>
       <c r="H493" s="18"/>
       <c r="I493" s="18"/>
       <c r="J493" s="18"/>
       <c r="K493" s="19"/>
     </row>
-    <row r="494" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" ht="60">
       <c r="A494" s="20">
         <v>23487</v>
       </c>
@@ -16194,14 +16280,16 @@
       <c r="E494" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="F494" s="24"/>
+      <c r="F494" s="24">
+        <v>1</v>
+      </c>
       <c r="G494" s="25"/>
       <c r="H494" s="25"/>
       <c r="I494" s="25"/>
       <c r="J494" s="25"/>
       <c r="K494" s="26"/>
     </row>
-    <row r="495" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" ht="30">
       <c r="A495" s="20">
         <v>23487</v>
       </c>
@@ -16217,14 +16305,16 @@
       <c r="E495" s="23" t="s">
         <v>419</v>
       </c>
-      <c r="F495" s="24"/>
+      <c r="F495" s="24">
+        <v>1</v>
+      </c>
       <c r="G495" s="25"/>
       <c r="H495" s="25"/>
       <c r="I495" s="25"/>
       <c r="J495" s="25"/>
       <c r="K495" s="26"/>
     </row>
-    <row r="496" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" ht="30">
       <c r="A496" s="14">
         <v>23489</v>
       </c>
@@ -16243,11 +16333,13 @@
       <c r="F496" s="17"/>
       <c r="G496" s="18"/>
       <c r="H496" s="18"/>
-      <c r="I496" s="18"/>
+      <c r="I496" s="18">
+        <v>1</v>
+      </c>
       <c r="J496" s="18"/>
       <c r="K496" s="19"/>
     </row>
-    <row r="497" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" ht="30">
       <c r="A497" s="14">
         <v>23489</v>
       </c>
@@ -16266,11 +16358,13 @@
       <c r="F497" s="17"/>
       <c r="G497" s="18"/>
       <c r="H497" s="18"/>
-      <c r="I497" s="18"/>
+      <c r="I497" s="18">
+        <v>1</v>
+      </c>
       <c r="J497" s="18"/>
       <c r="K497" s="19"/>
     </row>
-    <row r="498" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" ht="60">
       <c r="A498" s="20">
         <v>23492</v>
       </c>
@@ -16289,11 +16383,13 @@
       <c r="F498" s="24"/>
       <c r="G498" s="25"/>
       <c r="H498" s="25"/>
-      <c r="I498" s="25"/>
+      <c r="I498" s="25">
+        <v>1</v>
+      </c>
       <c r="J498" s="25"/>
       <c r="K498" s="26"/>
     </row>
-    <row r="499" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" ht="30">
       <c r="A499" s="14">
         <v>23511</v>
       </c>
@@ -16312,11 +16408,13 @@
       <c r="F499" s="17"/>
       <c r="G499" s="18"/>
       <c r="H499" s="18"/>
-      <c r="I499" s="18"/>
+      <c r="I499" s="18">
+        <v>1</v>
+      </c>
       <c r="J499" s="18"/>
       <c r="K499" s="19"/>
     </row>
-    <row r="500" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" ht="30">
       <c r="A500" s="14">
         <v>23511</v>
       </c>
@@ -16335,11 +16433,13 @@
       <c r="F500" s="17"/>
       <c r="G500" s="18"/>
       <c r="H500" s="18"/>
-      <c r="I500" s="18"/>
+      <c r="I500" s="18">
+        <v>1</v>
+      </c>
       <c r="J500" s="18"/>
       <c r="K500" s="19"/>
     </row>
-    <row r="501" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" ht="45">
       <c r="A501" s="20">
         <v>23512</v>
       </c>
@@ -16358,11 +16458,13 @@
       <c r="F501" s="24"/>
       <c r="G501" s="25"/>
       <c r="H501" s="25"/>
-      <c r="I501" s="25"/>
+      <c r="I501" s="25">
+        <v>1</v>
+      </c>
       <c r="J501" s="25"/>
       <c r="K501" s="26"/>
     </row>
-    <row r="502" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" ht="30">
       <c r="A502" s="20">
         <v>23512</v>
       </c>
@@ -16381,11 +16483,13 @@
       <c r="F502" s="24"/>
       <c r="G502" s="25"/>
       <c r="H502" s="25"/>
-      <c r="I502" s="25"/>
+      <c r="I502" s="25">
+        <v>1</v>
+      </c>
       <c r="J502" s="25"/>
       <c r="K502" s="26"/>
     </row>
-    <row r="503" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" ht="30">
       <c r="A503" s="14">
         <v>23539</v>
       </c>
@@ -16404,11 +16508,13 @@
       <c r="F503" s="17"/>
       <c r="G503" s="18"/>
       <c r="H503" s="18"/>
-      <c r="I503" s="18"/>
+      <c r="I503" s="18">
+        <v>1</v>
+      </c>
       <c r="J503" s="18"/>
       <c r="K503" s="19"/>
     </row>
-    <row r="504" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" ht="30">
       <c r="A504" s="14">
         <v>23539</v>
       </c>
@@ -16427,11 +16533,13 @@
       <c r="F504" s="17"/>
       <c r="G504" s="18"/>
       <c r="H504" s="18"/>
-      <c r="I504" s="18"/>
+      <c r="I504" s="18">
+        <v>1</v>
+      </c>
       <c r="J504" s="18"/>
       <c r="K504" s="19"/>
     </row>
-    <row r="505" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" ht="75">
       <c r="A505" s="20">
         <v>23545</v>
       </c>
@@ -16447,14 +16555,16 @@
       <c r="E505" s="23" t="s">
         <v>436</v>
       </c>
-      <c r="F505" s="24"/>
+      <c r="F505" s="24">
+        <v>1</v>
+      </c>
       <c r="G505" s="25"/>
       <c r="H505" s="25"/>
       <c r="I505" s="25"/>
       <c r="J505" s="25"/>
       <c r="K505" s="26"/>
     </row>
-    <row r="506" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" ht="45">
       <c r="A506" s="20">
         <v>23545</v>
       </c>
@@ -16470,14 +16580,16 @@
       <c r="E506" s="23" t="s">
         <v>437</v>
       </c>
-      <c r="F506" s="24"/>
+      <c r="F506" s="24">
+        <v>1</v>
+      </c>
       <c r="G506" s="25"/>
       <c r="H506" s="25"/>
       <c r="I506" s="25"/>
       <c r="J506" s="25"/>
       <c r="K506" s="26"/>
     </row>
-    <row r="507" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" ht="45">
       <c r="A507" s="14">
         <v>23593</v>
       </c>
@@ -16500,7 +16612,7 @@
       <c r="J507" s="18"/>
       <c r="K507" s="19"/>
     </row>
-    <row r="508" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" ht="45">
       <c r="A508" s="20">
         <v>23630</v>
       </c>
@@ -16519,11 +16631,13 @@
       <c r="F508" s="24"/>
       <c r="G508" s="25"/>
       <c r="H508" s="25"/>
-      <c r="I508" s="25"/>
+      <c r="I508" s="25">
+        <v>1</v>
+      </c>
       <c r="J508" s="25"/>
       <c r="K508" s="26"/>
     </row>
-    <row r="509" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" ht="105">
       <c r="A509" s="20">
         <v>23630</v>
       </c>
@@ -16542,11 +16656,13 @@
       <c r="F509" s="24"/>
       <c r="G509" s="25"/>
       <c r="H509" s="25"/>
-      <c r="I509" s="25"/>
+      <c r="I509" s="25">
+        <v>1</v>
+      </c>
       <c r="J509" s="25"/>
       <c r="K509" s="26"/>
     </row>
-    <row r="510" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" ht="30">
       <c r="A510" s="20">
         <v>23630</v>
       </c>
@@ -16569,7 +16685,7 @@
       <c r="J510" s="25"/>
       <c r="K510" s="26"/>
     </row>
-    <row r="511" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" ht="30">
       <c r="A511" s="20">
         <v>23630</v>
       </c>
@@ -16588,11 +16704,13 @@
       <c r="F511" s="24"/>
       <c r="G511" s="25"/>
       <c r="H511" s="25"/>
-      <c r="I511" s="25"/>
+      <c r="I511" s="25">
+        <v>1</v>
+      </c>
       <c r="J511" s="25"/>
       <c r="K511" s="26"/>
     </row>
-    <row r="512" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" ht="60">
       <c r="A512" s="20">
         <v>23630</v>
       </c>
@@ -16611,11 +16729,13 @@
       <c r="F512" s="24"/>
       <c r="G512" s="25"/>
       <c r="H512" s="25"/>
-      <c r="I512" s="25"/>
+      <c r="I512" s="25">
+        <v>1</v>
+      </c>
       <c r="J512" s="25"/>
       <c r="K512" s="26"/>
     </row>
-    <row r="513" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" ht="30">
       <c r="A513" s="20">
         <v>23630</v>
       </c>
@@ -16634,11 +16754,13 @@
       <c r="F513" s="24"/>
       <c r="G513" s="25"/>
       <c r="H513" s="25"/>
-      <c r="I513" s="25"/>
+      <c r="I513" s="25">
+        <v>1</v>
+      </c>
       <c r="J513" s="25"/>
       <c r="K513" s="26"/>
     </row>
-    <row r="514" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" ht="30">
       <c r="A514" s="20">
         <v>23630</v>
       </c>
@@ -16657,11 +16779,13 @@
       <c r="F514" s="24"/>
       <c r="G514" s="25"/>
       <c r="H514" s="25"/>
-      <c r="I514" s="25"/>
+      <c r="I514" s="25">
+        <v>1</v>
+      </c>
       <c r="J514" s="25"/>
       <c r="K514" s="26"/>
     </row>
-    <row r="515" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" ht="45">
       <c r="A515" s="20">
         <v>23630</v>
       </c>
@@ -16680,11 +16804,13 @@
       <c r="F515" s="24"/>
       <c r="G515" s="25"/>
       <c r="H515" s="25"/>
-      <c r="I515" s="25"/>
+      <c r="I515" s="25">
+        <v>1</v>
+      </c>
       <c r="J515" s="25"/>
       <c r="K515" s="26"/>
     </row>
-    <row r="516" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" ht="75">
       <c r="A516" s="14">
         <v>23692</v>
       </c>
@@ -16700,14 +16826,16 @@
       <c r="E516" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="F516" s="17"/>
+      <c r="F516" s="17">
+        <v>1</v>
+      </c>
       <c r="G516" s="18"/>
       <c r="H516" s="18"/>
       <c r="I516" s="18"/>
       <c r="J516" s="18"/>
       <c r="K516" s="19"/>
     </row>
-    <row r="517" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" ht="30">
       <c r="A517" s="14">
         <v>23692</v>
       </c>
@@ -16723,14 +16851,16 @@
       <c r="E517" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="F517" s="17"/>
+      <c r="F517" s="17">
+        <v>1</v>
+      </c>
       <c r="G517" s="18"/>
       <c r="H517" s="18"/>
       <c r="I517" s="18"/>
       <c r="J517" s="18"/>
       <c r="K517" s="19"/>
     </row>
-    <row r="518" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" ht="45">
       <c r="A518" s="14">
         <v>23692</v>
       </c>
@@ -16746,14 +16876,16 @@
       <c r="E518" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="F518" s="17"/>
+      <c r="F518" s="17">
+        <v>1</v>
+      </c>
       <c r="G518" s="18"/>
       <c r="H518" s="18"/>
       <c r="I518" s="18"/>
       <c r="J518" s="18"/>
       <c r="K518" s="19"/>
     </row>
-    <row r="519" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" ht="30">
       <c r="A519" s="14">
         <v>23692</v>
       </c>
@@ -16769,14 +16901,16 @@
       <c r="E519" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="F519" s="17"/>
+      <c r="F519" s="17">
+        <v>1</v>
+      </c>
       <c r="G519" s="18"/>
       <c r="H519" s="18"/>
       <c r="I519" s="18"/>
       <c r="J519" s="18"/>
       <c r="K519" s="19"/>
     </row>
-    <row r="520" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" ht="45">
       <c r="A520" s="14">
         <v>23692</v>
       </c>
@@ -16792,14 +16926,16 @@
       <c r="E520" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="F520" s="17"/>
+      <c r="F520" s="17">
+        <v>1</v>
+      </c>
       <c r="G520" s="18"/>
       <c r="H520" s="18"/>
       <c r="I520" s="18"/>
       <c r="J520" s="18"/>
       <c r="K520" s="19"/>
     </row>
-    <row r="521" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" ht="30">
       <c r="A521" s="20">
         <v>23706</v>
       </c>
@@ -16822,7 +16958,7 @@
       <c r="J521" s="25"/>
       <c r="K521" s="26"/>
     </row>
-    <row r="522" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" ht="30">
       <c r="A522" s="14">
         <v>23708</v>
       </c>
@@ -16845,7 +16981,7 @@
       <c r="J522" s="18"/>
       <c r="K522" s="19"/>
     </row>
-    <row r="523" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" ht="30">
       <c r="A523" s="20">
         <v>23709</v>
       </c>
@@ -16868,7 +17004,7 @@
       <c r="J523" s="25"/>
       <c r="K523" s="26"/>
     </row>
-    <row r="524" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" ht="30">
       <c r="A524" s="14">
         <v>23710</v>
       </c>
@@ -16891,7 +17027,7 @@
       <c r="J524" s="18"/>
       <c r="K524" s="19"/>
     </row>
-    <row r="525" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" ht="30">
       <c r="A525" s="20">
         <v>23712</v>
       </c>
@@ -16907,14 +17043,18 @@
       <c r="E525" s="23" t="s">
         <v>444</v>
       </c>
-      <c r="F525" s="24"/>
+      <c r="F525" s="24">
+        <v>1</v>
+      </c>
       <c r="G525" s="25"/>
       <c r="H525" s="25"/>
       <c r="I525" s="25"/>
-      <c r="J525" s="25"/>
+      <c r="J525" s="25">
+        <v>1</v>
+      </c>
       <c r="K525" s="26"/>
     </row>
-    <row r="526" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" ht="45">
       <c r="A526" s="20">
         <v>23712</v>
       </c>
@@ -16930,14 +17070,18 @@
       <c r="E526" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="F526" s="24"/>
+      <c r="F526" s="24">
+        <v>1</v>
+      </c>
       <c r="G526" s="25"/>
       <c r="H526" s="25"/>
       <c r="I526" s="25"/>
-      <c r="J526" s="25"/>
+      <c r="J526" s="25">
+        <v>1</v>
+      </c>
       <c r="K526" s="26"/>
     </row>
-    <row r="527" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" ht="75">
       <c r="A527" s="20">
         <v>23712</v>
       </c>
@@ -16953,14 +17097,18 @@
       <c r="E527" s="23" t="s">
         <v>453</v>
       </c>
-      <c r="F527" s="24"/>
+      <c r="F527" s="24">
+        <v>1</v>
+      </c>
       <c r="G527" s="25"/>
       <c r="H527" s="25"/>
       <c r="I527" s="25"/>
-      <c r="J527" s="25"/>
+      <c r="J527" s="25">
+        <v>1</v>
+      </c>
       <c r="K527" s="26"/>
     </row>
-    <row r="528" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" ht="45">
       <c r="A528" s="20">
         <v>23712</v>
       </c>
@@ -16976,14 +17124,18 @@
       <c r="E528" s="23" t="s">
         <v>457</v>
       </c>
-      <c r="F528" s="24"/>
+      <c r="F528" s="24">
+        <v>1</v>
+      </c>
       <c r="G528" s="25"/>
       <c r="H528" s="25"/>
       <c r="I528" s="25"/>
-      <c r="J528" s="25"/>
+      <c r="J528" s="25">
+        <v>1</v>
+      </c>
       <c r="K528" s="26"/>
     </row>
-    <row r="529" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" ht="30">
       <c r="A529" s="20">
         <v>23712</v>
       </c>
@@ -16999,14 +17151,18 @@
       <c r="E529" s="23" t="s">
         <v>458</v>
       </c>
-      <c r="F529" s="24"/>
+      <c r="F529" s="24">
+        <v>1</v>
+      </c>
       <c r="G529" s="25"/>
       <c r="H529" s="25"/>
       <c r="I529" s="25"/>
-      <c r="J529" s="25"/>
+      <c r="J529" s="25">
+        <v>1</v>
+      </c>
       <c r="K529" s="26"/>
     </row>
-    <row r="530" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" ht="45">
       <c r="A530" s="20">
         <v>23712</v>
       </c>
@@ -17022,14 +17178,18 @@
       <c r="E530" s="23" t="s">
         <v>459</v>
       </c>
-      <c r="F530" s="24"/>
+      <c r="F530" s="24">
+        <v>1</v>
+      </c>
       <c r="G530" s="25"/>
       <c r="H530" s="25"/>
       <c r="I530" s="25"/>
-      <c r="J530" s="25"/>
+      <c r="J530" s="25">
+        <v>1</v>
+      </c>
       <c r="K530" s="26"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11">
       <c r="A531" s="20">
         <v>23712</v>
       </c>
@@ -17045,14 +17205,18 @@
       <c r="E531" s="23" t="s">
         <v>460</v>
       </c>
-      <c r="F531" s="24"/>
+      <c r="F531" s="24">
+        <v>1</v>
+      </c>
       <c r="G531" s="25"/>
       <c r="H531" s="25"/>
       <c r="I531" s="25"/>
-      <c r="J531" s="25"/>
+      <c r="J531" s="25">
+        <v>1</v>
+      </c>
       <c r="K531" s="26"/>
     </row>
-    <row r="532" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" ht="45">
       <c r="A532" s="20">
         <v>23712</v>
       </c>
@@ -17068,14 +17232,18 @@
       <c r="E532" s="23" t="s">
         <v>461</v>
       </c>
-      <c r="F532" s="24"/>
+      <c r="F532" s="24">
+        <v>1</v>
+      </c>
       <c r="G532" s="25"/>
       <c r="H532" s="25"/>
       <c r="I532" s="25"/>
-      <c r="J532" s="25"/>
+      <c r="J532" s="25">
+        <v>1</v>
+      </c>
       <c r="K532" s="26"/>
     </row>
-    <row r="533" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" ht="60">
       <c r="A533" s="20">
         <v>23712</v>
       </c>
@@ -17091,14 +17259,18 @@
       <c r="E533" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="F533" s="24"/>
+      <c r="F533" s="24">
+        <v>1</v>
+      </c>
       <c r="G533" s="25"/>
       <c r="H533" s="25"/>
       <c r="I533" s="25"/>
-      <c r="J533" s="25"/>
+      <c r="J533" s="25">
+        <v>1</v>
+      </c>
       <c r="K533" s="26"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11">
       <c r="A534" s="20">
         <v>23712</v>
       </c>
@@ -17114,14 +17286,18 @@
       <c r="E534" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="F534" s="24"/>
+      <c r="F534" s="24">
+        <v>1</v>
+      </c>
       <c r="G534" s="25"/>
       <c r="H534" s="25"/>
       <c r="I534" s="25"/>
-      <c r="J534" s="25"/>
+      <c r="J534" s="25">
+        <v>1</v>
+      </c>
       <c r="K534" s="26"/>
     </row>
-    <row r="535" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" ht="30">
       <c r="A535" s="14">
         <v>23753</v>
       </c>
@@ -17144,7 +17320,7 @@
       <c r="J535" s="18"/>
       <c r="K535" s="19"/>
     </row>
-    <row r="536" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" ht="30">
       <c r="A536" s="14">
         <v>23753</v>
       </c>
@@ -17167,7 +17343,7 @@
       <c r="J536" s="18"/>
       <c r="K536" s="19"/>
     </row>
-    <row r="537" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" ht="30">
       <c r="A537" s="14">
         <v>23753</v>
       </c>
@@ -17190,7 +17366,7 @@
       <c r="J537" s="18"/>
       <c r="K537" s="19"/>
     </row>
-    <row r="538" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" ht="120">
       <c r="A538" s="14">
         <v>23753</v>
       </c>
@@ -17211,9 +17387,11 @@
       <c r="H538" s="18"/>
       <c r="I538" s="18"/>
       <c r="J538" s="18"/>
-      <c r="K538" s="19"/>
-    </row>
-    <row r="539" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K538" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:11" ht="30">
       <c r="A539" s="14">
         <v>23753</v>
       </c>
@@ -17234,9 +17412,11 @@
       <c r="H539" s="18"/>
       <c r="I539" s="18"/>
       <c r="J539" s="18"/>
-      <c r="K539" s="19"/>
-    </row>
-    <row r="540" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="K539" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:11" ht="90">
       <c r="A540" s="14">
         <v>23753</v>
       </c>
@@ -17259,7 +17439,7 @@
       <c r="J540" s="18"/>
       <c r="K540" s="19"/>
     </row>
-    <row r="541" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" ht="60">
       <c r="A541" s="14">
         <v>23753</v>
       </c>
@@ -17282,7 +17462,7 @@
       <c r="J541" s="18"/>
       <c r="K541" s="19"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11">
       <c r="A542" s="20">
         <v>23899</v>
       </c>
@@ -17303,9 +17483,11 @@
       <c r="H542" s="25"/>
       <c r="I542" s="25"/>
       <c r="J542" s="25"/>
-      <c r="K542" s="26"/>
-    </row>
-    <row r="543" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K542" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:11" ht="30">
       <c r="A543" s="14">
         <v>23934</v>
       </c>
@@ -17328,7 +17510,7 @@
       <c r="J543" s="18"/>
       <c r="K543" s="19"/>
     </row>
-    <row r="544" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" ht="30">
       <c r="A544" s="14">
         <v>23934</v>
       </c>
@@ -17351,7 +17533,7 @@
       <c r="J544" s="18"/>
       <c r="K544" s="19"/>
     </row>
-    <row r="545" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" ht="30">
       <c r="A545" s="14">
         <v>23934</v>
       </c>
@@ -17374,7 +17556,7 @@
       <c r="J545" s="18"/>
       <c r="K545" s="19"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11">
       <c r="A546" s="20">
         <v>24045</v>
       </c>
@@ -17397,7 +17579,7 @@
       <c r="J546" s="25"/>
       <c r="K546" s="26"/>
     </row>
-    <row r="547" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" ht="45">
       <c r="A547" s="20">
         <v>24045</v>
       </c>
@@ -17418,9 +17600,11 @@
       <c r="H547" s="25"/>
       <c r="I547" s="25"/>
       <c r="J547" s="25"/>
-      <c r="K547" s="26"/>
-    </row>
-    <row r="548" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="K547" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:11" ht="45">
       <c r="A548" s="20">
         <v>24045</v>
       </c>
@@ -17441,9 +17625,11 @@
       <c r="H548" s="25"/>
       <c r="I548" s="25"/>
       <c r="J548" s="25"/>
-      <c r="K548" s="26"/>
-    </row>
-    <row r="549" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K548" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:11" ht="30">
       <c r="A549" s="20">
         <v>24045</v>
       </c>
@@ -17464,9 +17650,11 @@
       <c r="H549" s="25"/>
       <c r="I549" s="25"/>
       <c r="J549" s="25"/>
-      <c r="K549" s="26"/>
-    </row>
-    <row r="550" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K549" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:11" ht="30">
       <c r="A550" s="20">
         <v>24045</v>
       </c>
@@ -17487,9 +17675,11 @@
       <c r="H550" s="25"/>
       <c r="I550" s="25"/>
       <c r="J550" s="25"/>
-      <c r="K550" s="26"/>
-    </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K550" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:11">
       <c r="A551" s="20">
         <v>24045</v>
       </c>
@@ -17512,7 +17702,7 @@
       <c r="J551" s="25"/>
       <c r="K551" s="26"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11">
       <c r="A552" s="20">
         <v>24045</v>
       </c>
@@ -17535,7 +17725,7 @@
       <c r="J552" s="25"/>
       <c r="K552" s="26"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11">
       <c r="A553" s="20">
         <v>24045</v>
       </c>
@@ -17558,7 +17748,7 @@
       <c r="J553" s="25"/>
       <c r="K553" s="26"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11">
       <c r="A554" s="20">
         <v>24045</v>
       </c>
@@ -17581,7 +17771,7 @@
       <c r="J554" s="25"/>
       <c r="K554" s="26"/>
     </row>
-    <row r="555" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" ht="30">
       <c r="A555" s="14">
         <v>24046</v>
       </c>
@@ -17604,7 +17794,7 @@
       <c r="J555" s="18"/>
       <c r="K555" s="19"/>
     </row>
-    <row r="556" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" ht="30">
       <c r="A556" s="14">
         <v>24046</v>
       </c>
@@ -17627,7 +17817,7 @@
       <c r="J556" s="18"/>
       <c r="K556" s="19"/>
     </row>
-    <row r="557" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" ht="45">
       <c r="A557" s="14">
         <v>24046</v>
       </c>
@@ -17650,7 +17840,7 @@
       <c r="J557" s="18"/>
       <c r="K557" s="19"/>
     </row>
-    <row r="558" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" ht="30">
       <c r="A558" s="14">
         <v>24046</v>
       </c>
@@ -17673,7 +17863,7 @@
       <c r="J558" s="18"/>
       <c r="K558" s="19"/>
     </row>
-    <row r="559" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" ht="30">
       <c r="A559" s="14">
         <v>24046</v>
       </c>
@@ -17696,7 +17886,7 @@
       <c r="J559" s="18"/>
       <c r="K559" s="19"/>
     </row>
-    <row r="560" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" ht="45">
       <c r="A560" s="20">
         <v>24047</v>
       </c>
@@ -17719,7 +17909,7 @@
       <c r="J560" s="25"/>
       <c r="K560" s="26"/>
     </row>
-    <row r="561" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" ht="45">
       <c r="A561" s="20">
         <v>24047</v>
       </c>
@@ -17742,7 +17932,7 @@
       <c r="J561" s="25"/>
       <c r="K561" s="26"/>
     </row>
-    <row r="562" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" ht="90">
       <c r="A562" s="20">
         <v>24047</v>
       </c>
@@ -17765,7 +17955,7 @@
       <c r="J562" s="25"/>
       <c r="K562" s="26"/>
     </row>
-    <row r="563" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" ht="60">
       <c r="A563" s="20">
         <v>24047</v>
       </c>
@@ -17788,7 +17978,7 @@
       <c r="J563" s="25"/>
       <c r="K563" s="26"/>
     </row>
-    <row r="564" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" ht="30">
       <c r="A564" s="20">
         <v>24047</v>
       </c>
@@ -17811,7 +18001,7 @@
       <c r="J564" s="25"/>
       <c r="K564" s="26"/>
     </row>
-    <row r="565" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" ht="30">
       <c r="A565" s="20">
         <v>24047</v>
       </c>
@@ -17834,7 +18024,7 @@
       <c r="J565" s="25"/>
       <c r="K565" s="26"/>
     </row>
-    <row r="566" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" ht="90">
       <c r="A566" s="20">
         <v>24047</v>
       </c>
@@ -17857,7 +18047,7 @@
       <c r="J566" s="25"/>
       <c r="K566" s="26"/>
     </row>
-    <row r="567" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" ht="60">
       <c r="A567" s="20">
         <v>24047</v>
       </c>
@@ -17880,7 +18070,7 @@
       <c r="J567" s="25"/>
       <c r="K567" s="26"/>
     </row>
-    <row r="568" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" ht="75">
       <c r="A568" s="20">
         <v>24047</v>
       </c>
@@ -17903,7 +18093,7 @@
       <c r="J568" s="25"/>
       <c r="K568" s="26"/>
     </row>
-    <row r="569" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" ht="90">
       <c r="A569" s="20">
         <v>24047</v>
       </c>
@@ -17926,7 +18116,7 @@
       <c r="J569" s="25"/>
       <c r="K569" s="26"/>
     </row>
-    <row r="570" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" ht="45">
       <c r="A570" s="20">
         <v>24047</v>
       </c>
@@ -17949,7 +18139,7 @@
       <c r="J570" s="25"/>
       <c r="K570" s="26"/>
     </row>
-    <row r="571" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" ht="45">
       <c r="A571" s="20">
         <v>24047</v>
       </c>
@@ -17972,7 +18162,7 @@
       <c r="J571" s="25"/>
       <c r="K571" s="26"/>
     </row>
-    <row r="572" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" ht="60">
       <c r="A572" s="20">
         <v>24047</v>
       </c>
@@ -17995,7 +18185,7 @@
       <c r="J572" s="25"/>
       <c r="K572" s="26"/>
     </row>
-    <row r="573" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" ht="90">
       <c r="A573" s="14">
         <v>24048</v>
       </c>
@@ -18018,7 +18208,7 @@
       <c r="J573" s="18"/>
       <c r="K573" s="19"/>
     </row>
-    <row r="574" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" ht="30">
       <c r="A574" s="14">
         <v>24048</v>
       </c>
@@ -18041,7 +18231,7 @@
       <c r="J574" s="18"/>
       <c r="K574" s="19"/>
     </row>
-    <row r="575" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" ht="30">
       <c r="A575" s="14">
         <v>24048</v>
       </c>
@@ -18064,7 +18254,7 @@
       <c r="J575" s="18"/>
       <c r="K575" s="19"/>
     </row>
-    <row r="576" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" ht="30">
       <c r="A576" s="14">
         <v>24048</v>
       </c>
@@ -18087,7 +18277,7 @@
       <c r="J576" s="18"/>
       <c r="K576" s="19"/>
     </row>
-    <row r="577" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" ht="60">
       <c r="A577" s="14">
         <v>24048</v>
       </c>
@@ -18110,7 +18300,7 @@
       <c r="J577" s="18"/>
       <c r="K577" s="19"/>
     </row>
-    <row r="578" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" ht="45">
       <c r="A578" s="14">
         <v>24048</v>
       </c>
@@ -18133,7 +18323,7 @@
       <c r="J578" s="18"/>
       <c r="K578" s="19"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11">
       <c r="A579" s="14">
         <v>24048</v>
       </c>
@@ -18156,7 +18346,7 @@
       <c r="J579" s="18"/>
       <c r="K579" s="19"/>
     </row>
-    <row r="580" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" ht="75">
       <c r="A580" s="14">
         <v>24048</v>
       </c>
@@ -18179,7 +18369,7 @@
       <c r="J580" s="18"/>
       <c r="K580" s="19"/>
     </row>
-    <row r="581" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" ht="60">
       <c r="A581" s="14">
         <v>24048</v>
       </c>
@@ -18202,7 +18392,7 @@
       <c r="J581" s="18"/>
       <c r="K581" s="19"/>
     </row>
-    <row r="582" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" ht="75">
       <c r="A582" s="14">
         <v>24048</v>
       </c>
@@ -18225,7 +18415,7 @@
       <c r="J582" s="18"/>
       <c r="K582" s="19"/>
     </row>
-    <row r="583" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" ht="75">
       <c r="A583" s="14">
         <v>24048</v>
       </c>
@@ -18248,7 +18438,7 @@
       <c r="J583" s="18"/>
       <c r="K583" s="19"/>
     </row>
-    <row r="584" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" ht="30">
       <c r="A584" s="14">
         <v>24048</v>
       </c>
@@ -18271,7 +18461,7 @@
       <c r="J584" s="18"/>
       <c r="K584" s="19"/>
     </row>
-    <row r="585" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" ht="60">
       <c r="A585" s="14">
         <v>24048</v>
       </c>
@@ -18294,7 +18484,7 @@
       <c r="J585" s="18"/>
       <c r="K585" s="19"/>
     </row>
-    <row r="586" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" ht="30">
       <c r="A586" s="14">
         <v>24048</v>
       </c>
@@ -18317,7 +18507,7 @@
       <c r="J586" s="18"/>
       <c r="K586" s="19"/>
     </row>
-    <row r="587" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" ht="45">
       <c r="A587" s="14">
         <v>24048</v>
       </c>
@@ -18340,7 +18530,7 @@
       <c r="J587" s="18"/>
       <c r="K587" s="19"/>
     </row>
-    <row r="588" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" ht="45">
       <c r="A588" s="20">
         <v>24049</v>
       </c>
@@ -18363,7 +18553,7 @@
       <c r="J588" s="25"/>
       <c r="K588" s="26"/>
     </row>
-    <row r="589" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" ht="30">
       <c r="A589" s="20">
         <v>24049</v>
       </c>
@@ -18386,7 +18576,7 @@
       <c r="J589" s="25"/>
       <c r="K589" s="26"/>
     </row>
-    <row r="590" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" ht="45">
       <c r="A590" s="20">
         <v>24049</v>
       </c>
@@ -18409,7 +18599,7 @@
       <c r="J590" s="25"/>
       <c r="K590" s="26"/>
     </row>
-    <row r="591" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" ht="60">
       <c r="A591" s="14">
         <v>24050</v>
       </c>
@@ -18432,7 +18622,7 @@
       <c r="J591" s="18"/>
       <c r="K591" s="19"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11">
       <c r="A592" s="14">
         <v>24050</v>
       </c>
@@ -18455,7 +18645,7 @@
       <c r="J592" s="18"/>
       <c r="K592" s="19"/>
     </row>
-    <row r="593" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" ht="45">
       <c r="A593" s="14">
         <v>24050</v>
       </c>
@@ -18478,7 +18668,7 @@
       <c r="J593" s="18"/>
       <c r="K593" s="19"/>
     </row>
-    <row r="594" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" ht="75">
       <c r="A594" s="20">
         <v>24067</v>
       </c>
@@ -18501,7 +18691,7 @@
       <c r="J594" s="25"/>
       <c r="K594" s="26"/>
     </row>
-    <row r="595" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" ht="90">
       <c r="A595" s="20">
         <v>24067</v>
       </c>
@@ -18524,7 +18714,7 @@
       <c r="J595" s="25"/>
       <c r="K595" s="26"/>
     </row>
-    <row r="596" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" ht="45">
       <c r="A596" s="20">
         <v>24067</v>
       </c>
@@ -18547,7 +18737,7 @@
       <c r="J596" s="25"/>
       <c r="K596" s="26"/>
     </row>
-    <row r="597" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" ht="75">
       <c r="A597" s="14">
         <v>24113</v>
       </c>
@@ -18570,7 +18760,7 @@
       <c r="J597" s="18"/>
       <c r="K597" s="19"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11">
       <c r="A598" s="14">
         <v>24113</v>
       </c>
@@ -18593,7 +18783,7 @@
       <c r="J598" s="18"/>
       <c r="K598" s="19"/>
     </row>
-    <row r="599" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" ht="30">
       <c r="A599" s="14">
         <v>24113</v>
       </c>
@@ -18616,7 +18806,7 @@
       <c r="J599" s="18"/>
       <c r="K599" s="19"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11">
       <c r="A600" s="14">
         <v>24113</v>
       </c>
@@ -18639,7 +18829,7 @@
       <c r="J600" s="18"/>
       <c r="K600" s="19"/>
     </row>
-    <row r="601" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" ht="75">
       <c r="A601" s="14">
         <v>24113</v>
       </c>
@@ -18662,7 +18852,7 @@
       <c r="J601" s="18"/>
       <c r="K601" s="19"/>
     </row>
-    <row r="602" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" ht="60">
       <c r="A602" s="14">
         <v>24113</v>
       </c>
@@ -18685,7 +18875,7 @@
       <c r="J602" s="18"/>
       <c r="K602" s="19"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11">
       <c r="A603" s="20">
         <v>24196</v>
       </c>
@@ -18708,7 +18898,7 @@
       <c r="J603" s="25"/>
       <c r="K603" s="26"/>
     </row>
-    <row r="604" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" ht="75">
       <c r="A604" s="14">
         <v>24387</v>
       </c>
@@ -18731,7 +18921,7 @@
       <c r="J604" s="18"/>
       <c r="K604" s="19"/>
     </row>
-    <row r="605" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" ht="105">
       <c r="A605" s="14">
         <v>24387</v>
       </c>
@@ -18754,7 +18944,7 @@
       <c r="J605" s="18"/>
       <c r="K605" s="19"/>
     </row>
-    <row r="606" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" ht="75">
       <c r="A606" s="14">
         <v>24387</v>
       </c>
@@ -18777,7 +18967,7 @@
       <c r="J606" s="18"/>
       <c r="K606" s="19"/>
     </row>
-    <row r="607" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" ht="120">
       <c r="A607" s="14">
         <v>24387</v>
       </c>
@@ -18800,7 +18990,7 @@
       <c r="J607" s="18"/>
       <c r="K607" s="19"/>
     </row>
-    <row r="608" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" ht="45">
       <c r="A608" s="14">
         <v>24387</v>
       </c>
@@ -18823,7 +19013,7 @@
       <c r="J608" s="18"/>
       <c r="K608" s="19"/>
     </row>
-    <row r="609" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" ht="30">
       <c r="A609" s="14">
         <v>24387</v>
       </c>
@@ -18846,7 +19036,7 @@
       <c r="J609" s="18"/>
       <c r="K609" s="19"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11">
       <c r="A610" s="20">
         <v>24418</v>
       </c>
@@ -18869,7 +19059,7 @@
       <c r="J610" s="25"/>
       <c r="K610" s="26"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11">
       <c r="A611" s="20">
         <v>24418</v>
       </c>
@@ -18892,7 +19082,7 @@
       <c r="J611" s="25"/>
       <c r="K611" s="26"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11">
       <c r="A612" s="20">
         <v>24418</v>
       </c>
@@ -18915,7 +19105,7 @@
       <c r="J612" s="25"/>
       <c r="K612" s="26"/>
     </row>
-    <row r="613" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" ht="45">
       <c r="A613" s="20">
         <v>24418</v>
       </c>
@@ -18938,7 +19128,7 @@
       <c r="J613" s="25"/>
       <c r="K613" s="26"/>
     </row>
-    <row r="614" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" ht="75">
       <c r="A614" s="20">
         <v>24418</v>
       </c>
@@ -18961,7 +19151,7 @@
       <c r="J614" s="25"/>
       <c r="K614" s="26"/>
     </row>
-    <row r="615" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" ht="45">
       <c r="A615" s="20">
         <v>24418</v>
       </c>
@@ -18984,7 +19174,7 @@
       <c r="J615" s="25"/>
       <c r="K615" s="26"/>
     </row>
-    <row r="616" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" ht="30">
       <c r="A616" s="14">
         <v>24539</v>
       </c>
@@ -19007,7 +19197,7 @@
       <c r="J616" s="18"/>
       <c r="K616" s="19"/>
     </row>
-    <row r="617" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" ht="45">
       <c r="A617" s="14">
         <v>24539</v>
       </c>
@@ -19030,7 +19220,7 @@
       <c r="J617" s="18"/>
       <c r="K617" s="19"/>
     </row>
-    <row r="618" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" ht="30">
       <c r="A618" s="20">
         <v>24544</v>
       </c>
@@ -19053,7 +19243,7 @@
       <c r="J618" s="25"/>
       <c r="K618" s="26"/>
     </row>
-    <row r="619" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" ht="60">
       <c r="A619" s="20">
         <v>24544</v>
       </c>
@@ -19076,7 +19266,7 @@
       <c r="J619" s="25"/>
       <c r="K619" s="26"/>
     </row>
-    <row r="620" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" ht="45">
       <c r="A620" s="20">
         <v>24544</v>
       </c>
@@ -19099,7 +19289,7 @@
       <c r="J620" s="25"/>
       <c r="K620" s="26"/>
     </row>
-    <row r="621" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" ht="30">
       <c r="A621" s="14">
         <v>24622</v>
       </c>
@@ -19122,7 +19312,7 @@
       <c r="J621" s="18"/>
       <c r="K621" s="19"/>
     </row>
-    <row r="622" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" ht="30">
       <c r="A622" s="14">
         <v>24622</v>
       </c>
@@ -19145,7 +19335,7 @@
       <c r="J622" s="18"/>
       <c r="K622" s="19"/>
     </row>
-    <row r="623" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" ht="45">
       <c r="A623" s="14">
         <v>24622</v>
       </c>
@@ -19168,7 +19358,7 @@
       <c r="J623" s="18"/>
       <c r="K623" s="19"/>
     </row>
-    <row r="624" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" ht="60">
       <c r="A624" s="14">
         <v>24622</v>
       </c>
@@ -19191,7 +19381,7 @@
       <c r="J624" s="18"/>
       <c r="K624" s="19"/>
     </row>
-    <row r="625" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" ht="30">
       <c r="A625" s="20">
         <v>24623</v>
       </c>
@@ -19214,7 +19404,7 @@
       <c r="J625" s="25"/>
       <c r="K625" s="26"/>
     </row>
-    <row r="626" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" ht="30">
       <c r="A626" s="20">
         <v>24623</v>
       </c>
@@ -19237,7 +19427,7 @@
       <c r="J626" s="25"/>
       <c r="K626" s="26"/>
     </row>
-    <row r="627" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" ht="30">
       <c r="A627" s="20">
         <v>24623</v>
       </c>
@@ -19260,7 +19450,7 @@
       <c r="J627" s="25"/>
       <c r="K627" s="26"/>
     </row>
-    <row r="628" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" ht="105">
       <c r="A628" s="20">
         <v>24623</v>
       </c>
@@ -19283,7 +19473,7 @@
       <c r="J628" s="25"/>
       <c r="K628" s="26"/>
     </row>
-    <row r="629" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" ht="60">
       <c r="A629" s="20">
         <v>24623</v>
       </c>
@@ -19306,7 +19496,7 @@
       <c r="J629" s="25"/>
       <c r="K629" s="26"/>
     </row>
-    <row r="630" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" ht="105">
       <c r="A630" s="14">
         <v>24630</v>
       </c>
@@ -19329,7 +19519,7 @@
       <c r="J630" s="18"/>
       <c r="K630" s="19"/>
     </row>
-    <row r="631" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" ht="75">
       <c r="A631" s="14">
         <v>24630</v>
       </c>
@@ -19352,7 +19542,7 @@
       <c r="J631" s="18"/>
       <c r="K631" s="19"/>
     </row>
-    <row r="632" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" ht="30">
       <c r="A632" s="20">
         <v>24667</v>
       </c>
@@ -19375,7 +19565,7 @@
       <c r="J632" s="25"/>
       <c r="K632" s="26"/>
     </row>
-    <row r="633" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" ht="30">
       <c r="A633" s="20">
         <v>24667</v>
       </c>
@@ -19398,7 +19588,7 @@
       <c r="J633" s="25"/>
       <c r="K633" s="26"/>
     </row>
-    <row r="634" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" ht="90">
       <c r="A634" s="20">
         <v>24667</v>
       </c>
@@ -19421,7 +19611,7 @@
       <c r="J634" s="25"/>
       <c r="K634" s="26"/>
     </row>
-    <row r="635" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" ht="30">
       <c r="A635" s="20">
         <v>24667</v>
       </c>
@@ -19444,7 +19634,7 @@
       <c r="J635" s="25"/>
       <c r="K635" s="26"/>
     </row>
-    <row r="636" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" ht="30">
       <c r="A636" s="20">
         <v>24667</v>
       </c>
@@ -19467,7 +19657,7 @@
       <c r="J636" s="25"/>
       <c r="K636" s="26"/>
     </row>
-    <row r="637" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" ht="60">
       <c r="A637" s="20">
         <v>24667</v>
       </c>
@@ -19490,7 +19680,7 @@
       <c r="J637" s="25"/>
       <c r="K637" s="26"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11">
       <c r="A638" s="14">
         <v>24755</v>
       </c>
@@ -19513,7 +19703,7 @@
       <c r="J638" s="18"/>
       <c r="K638" s="19"/>
     </row>
-    <row r="639" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" ht="45">
       <c r="A639" s="14">
         <v>24755</v>
       </c>
@@ -19536,7 +19726,7 @@
       <c r="J639" s="18"/>
       <c r="K639" s="19"/>
     </row>
-    <row r="640" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" ht="90">
       <c r="A640" s="14">
         <v>24755</v>
       </c>
@@ -19559,7 +19749,7 @@
       <c r="J640" s="18"/>
       <c r="K640" s="19"/>
     </row>
-    <row r="641" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" ht="30">
       <c r="A641" s="20">
         <v>24763</v>
       </c>
@@ -19582,7 +19772,7 @@
       <c r="J641" s="25"/>
       <c r="K641" s="26"/>
     </row>
-    <row r="642" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" ht="30">
       <c r="A642" s="20">
         <v>24763</v>
       </c>
@@ -19605,7 +19795,7 @@
       <c r="J642" s="25"/>
       <c r="K642" s="26"/>
     </row>
-    <row r="643" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" ht="30">
       <c r="A643" s="20">
         <v>24763</v>
       </c>
@@ -19628,7 +19818,7 @@
       <c r="J643" s="25"/>
       <c r="K643" s="26"/>
     </row>
-    <row r="644" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" ht="60">
       <c r="A644" s="14">
         <v>24764</v>
       </c>
@@ -19651,7 +19841,7 @@
       <c r="J644" s="18"/>
       <c r="K644" s="19"/>
     </row>
-    <row r="645" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" ht="30">
       <c r="A645" s="14">
         <v>24764</v>
       </c>
@@ -19674,7 +19864,7 @@
       <c r="J645" s="18"/>
       <c r="K645" s="19"/>
     </row>
-    <row r="646" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" ht="45">
       <c r="A646" s="14">
         <v>24764</v>
       </c>
@@ -19697,7 +19887,7 @@
       <c r="J646" s="18"/>
       <c r="K646" s="19"/>
     </row>
-    <row r="647" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" ht="75">
       <c r="A647" s="20">
         <v>24778</v>
       </c>
@@ -19720,7 +19910,7 @@
       <c r="J647" s="25"/>
       <c r="K647" s="26"/>
     </row>
-    <row r="648" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" ht="60">
       <c r="A648" s="20">
         <v>24778</v>
       </c>
@@ -19743,7 +19933,7 @@
       <c r="J648" s="25"/>
       <c r="K648" s="26"/>
     </row>
-    <row r="649" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" ht="45">
       <c r="A649" s="20">
         <v>24778</v>
       </c>
@@ -19766,7 +19956,7 @@
       <c r="J649" s="25"/>
       <c r="K649" s="26"/>
     </row>
-    <row r="650" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" ht="30">
       <c r="A650" s="20">
         <v>24778</v>
       </c>
@@ -19789,7 +19979,7 @@
       <c r="J650" s="25"/>
       <c r="K650" s="26"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11">
       <c r="A651" s="20">
         <v>24778</v>
       </c>
@@ -19812,7 +20002,7 @@
       <c r="J651" s="25"/>
       <c r="K651" s="26"/>
     </row>
-    <row r="652" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" ht="60">
       <c r="A652" s="20">
         <v>24778</v>
       </c>
@@ -19835,7 +20025,7 @@
       <c r="J652" s="25"/>
       <c r="K652" s="26"/>
     </row>
-    <row r="653" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" ht="75">
       <c r="A653" s="14">
         <v>24779</v>
       </c>
@@ -19858,7 +20048,7 @@
       <c r="J653" s="18"/>
       <c r="K653" s="19"/>
     </row>
-    <row r="654" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" ht="30">
       <c r="A654" s="14">
         <v>24779</v>
       </c>
@@ -19881,7 +20071,7 @@
       <c r="J654" s="18"/>
       <c r="K654" s="19"/>
     </row>
-    <row r="655" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" ht="105">
       <c r="A655" s="14">
         <v>24779</v>
       </c>
@@ -19904,7 +20094,7 @@
       <c r="J655" s="18"/>
       <c r="K655" s="19"/>
     </row>
-    <row r="656" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" ht="105">
       <c r="A656" s="14">
         <v>24779</v>
       </c>
@@ -19927,7 +20117,7 @@
       <c r="J656" s="18"/>
       <c r="K656" s="19"/>
     </row>
-    <row r="657" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" ht="30">
       <c r="A657" s="14">
         <v>24779</v>
       </c>
@@ -19950,7 +20140,7 @@
       <c r="J657" s="18"/>
       <c r="K657" s="19"/>
     </row>
-    <row r="658" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" ht="45">
       <c r="A658" s="14">
         <v>24779</v>
       </c>
@@ -19973,7 +20163,7 @@
       <c r="J658" s="18"/>
       <c r="K658" s="19"/>
     </row>
-    <row r="659" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" ht="90">
       <c r="A659" s="14">
         <v>24779</v>
       </c>
@@ -19996,7 +20186,7 @@
       <c r="J659" s="18"/>
       <c r="K659" s="19"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11">
       <c r="A660" s="14">
         <v>24779</v>
       </c>
@@ -20019,7 +20209,7 @@
       <c r="J660" s="18"/>
       <c r="K660" s="19"/>
     </row>
-    <row r="661" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" ht="60">
       <c r="A661" s="14">
         <v>24779</v>
       </c>
@@ -20042,7 +20232,7 @@
       <c r="J661" s="18"/>
       <c r="K661" s="19"/>
     </row>
-    <row r="662" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" ht="75">
       <c r="A662" s="20">
         <v>24780</v>
       </c>
@@ -20065,7 +20255,7 @@
       <c r="J662" s="25"/>
       <c r="K662" s="26"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11">
       <c r="A663" s="20">
         <v>24780</v>
       </c>
@@ -20088,7 +20278,7 @@
       <c r="J663" s="25"/>
       <c r="K663" s="26"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11">
       <c r="A664" s="20">
         <v>24780</v>
       </c>
@@ -20111,7 +20301,7 @@
       <c r="J664" s="25"/>
       <c r="K664" s="26"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11">
       <c r="A665" s="20">
         <v>24780</v>
       </c>
@@ -20134,7 +20324,7 @@
       <c r="J665" s="25"/>
       <c r="K665" s="26"/>
     </row>
-    <row r="666" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" ht="60">
       <c r="A666" s="20">
         <v>24780</v>
       </c>
@@ -20157,7 +20347,7 @@
       <c r="J666" s="25"/>
       <c r="K666" s="26"/>
     </row>
-    <row r="667" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" ht="60">
       <c r="A667" s="20">
         <v>24780</v>
       </c>
@@ -20180,7 +20370,7 @@
       <c r="J667" s="25"/>
       <c r="K667" s="26"/>
     </row>
-    <row r="668" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" ht="45">
       <c r="A668" s="20">
         <v>24780</v>
       </c>
@@ -20203,7 +20393,7 @@
       <c r="J668" s="25"/>
       <c r="K668" s="26"/>
     </row>
-    <row r="669" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" ht="30">
       <c r="A669" s="14">
         <v>24781</v>
       </c>
@@ -20226,7 +20416,7 @@
       <c r="J669" s="18"/>
       <c r="K669" s="19"/>
     </row>
-    <row r="670" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" ht="75">
       <c r="A670" s="14">
         <v>24781</v>
       </c>
@@ -20249,7 +20439,7 @@
       <c r="J670" s="18"/>
       <c r="K670" s="19"/>
     </row>
-    <row r="671" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" ht="45">
       <c r="A671" s="14">
         <v>24781</v>
       </c>
@@ -20272,7 +20462,7 @@
       <c r="J671" s="18"/>
       <c r="K671" s="19"/>
     </row>
-    <row r="672" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" ht="30">
       <c r="A672" s="14">
         <v>24781</v>
       </c>
@@ -20295,7 +20485,7 @@
       <c r="J672" s="18"/>
       <c r="K672" s="19"/>
     </row>
-    <row r="673" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" ht="75">
       <c r="A673" s="14">
         <v>24781</v>
       </c>
@@ -20318,7 +20508,7 @@
       <c r="J673" s="18"/>
       <c r="K673" s="19"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11">
       <c r="A674" s="14">
         <v>24781</v>
       </c>
@@ -20341,7 +20531,7 @@
       <c r="J674" s="18"/>
       <c r="K674" s="19"/>
     </row>
-    <row r="675" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" ht="30">
       <c r="A675" s="14">
         <v>24781</v>
       </c>
@@ -20364,7 +20554,7 @@
       <c r="J675" s="18"/>
       <c r="K675" s="19"/>
     </row>
-    <row r="676" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" ht="30">
       <c r="A676" s="20">
         <v>24782</v>
       </c>
@@ -20387,7 +20577,7 @@
       <c r="J676" s="25"/>
       <c r="K676" s="26"/>
     </row>
-    <row r="677" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" ht="60">
       <c r="A677" s="20">
         <v>24782</v>
       </c>
@@ -20410,7 +20600,7 @@
       <c r="J677" s="25"/>
       <c r="K677" s="26"/>
     </row>
-    <row r="678" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" ht="45">
       <c r="A678" s="20">
         <v>24782</v>
       </c>
@@ -20433,7 +20623,7 @@
       <c r="J678" s="25"/>
       <c r="K678" s="26"/>
     </row>
-    <row r="679" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" ht="75">
       <c r="A679" s="20">
         <v>24782</v>
       </c>
@@ -20456,7 +20646,7 @@
       <c r="J679" s="25"/>
       <c r="K679" s="26"/>
     </row>
-    <row r="680" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" ht="45">
       <c r="A680" s="20">
         <v>24782</v>
       </c>
@@ -20479,7 +20669,7 @@
       <c r="J680" s="25"/>
       <c r="K680" s="26"/>
     </row>
-    <row r="681" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" ht="45">
       <c r="A681" s="20">
         <v>24782</v>
       </c>
@@ -20502,7 +20692,7 @@
       <c r="J681" s="25"/>
       <c r="K681" s="26"/>
     </row>
-    <row r="682" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" ht="30">
       <c r="A682" s="20">
         <v>24782</v>
       </c>
@@ -20525,7 +20715,7 @@
       <c r="J682" s="25"/>
       <c r="K682" s="26"/>
     </row>
-    <row r="683" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" ht="45">
       <c r="A683" s="20">
         <v>24782</v>
       </c>
@@ -20548,7 +20738,7 @@
       <c r="J683" s="25"/>
       <c r="K683" s="26"/>
     </row>
-    <row r="684" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" ht="30">
       <c r="A684" s="14">
         <v>24783</v>
       </c>
@@ -20571,7 +20761,7 @@
       <c r="J684" s="18"/>
       <c r="K684" s="19"/>
     </row>
-    <row r="685" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" ht="30">
       <c r="A685" s="14">
         <v>24783</v>
       </c>
@@ -20594,7 +20784,7 @@
       <c r="J685" s="18"/>
       <c r="K685" s="19"/>
     </row>
-    <row r="686" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" ht="90">
       <c r="A686" s="14">
         <v>24783</v>
       </c>
@@ -20617,7 +20807,7 @@
       <c r="J686" s="18"/>
       <c r="K686" s="19"/>
     </row>
-    <row r="687" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" ht="75">
       <c r="A687" s="14">
         <v>24783</v>
       </c>
@@ -20640,7 +20830,7 @@
       <c r="J687" s="18"/>
       <c r="K687" s="19"/>
     </row>
-    <row r="688" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" ht="60">
       <c r="A688" s="14">
         <v>24783</v>
       </c>
@@ -20663,7 +20853,7 @@
       <c r="J688" s="18"/>
       <c r="K688" s="19"/>
     </row>
-    <row r="689" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" ht="60">
       <c r="A689" s="14">
         <v>24783</v>
       </c>
@@ -20686,7 +20876,7 @@
       <c r="J689" s="18"/>
       <c r="K689" s="19"/>
     </row>
-    <row r="690" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" ht="30">
       <c r="A690" s="20">
         <v>24784</v>
       </c>
@@ -20709,7 +20899,7 @@
       <c r="J690" s="25"/>
       <c r="K690" s="26"/>
     </row>
-    <row r="691" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" ht="30">
       <c r="A691" s="20">
         <v>24784</v>
       </c>
@@ -20732,7 +20922,7 @@
       <c r="J691" s="25"/>
       <c r="K691" s="26"/>
     </row>
-    <row r="692" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" ht="30">
       <c r="A692" s="14">
         <v>24787</v>
       </c>
@@ -20755,7 +20945,7 @@
       <c r="J692" s="18"/>
       <c r="K692" s="19"/>
     </row>
-    <row r="693" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" ht="30">
       <c r="A693" s="14">
         <v>24787</v>
       </c>
@@ -20778,7 +20968,7 @@
       <c r="J693" s="18"/>
       <c r="K693" s="19"/>
     </row>
-    <row r="694" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" ht="45">
       <c r="A694" s="14">
         <v>24787</v>
       </c>
@@ -20801,7 +20991,7 @@
       <c r="J694" s="18"/>
       <c r="K694" s="19"/>
     </row>
-    <row r="695" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" ht="30">
       <c r="A695" s="20">
         <v>24788</v>
       </c>
@@ -20824,7 +21014,7 @@
       <c r="J695" s="25"/>
       <c r="K695" s="26"/>
     </row>
-    <row r="696" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" ht="30">
       <c r="A696" s="20">
         <v>24788</v>
       </c>
@@ -20847,7 +21037,7 @@
       <c r="J696" s="25"/>
       <c r="K696" s="26"/>
     </row>
-    <row r="697" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" ht="60">
       <c r="A697" s="20">
         <v>24788</v>
       </c>
@@ -20870,7 +21060,7 @@
       <c r="J697" s="25"/>
       <c r="K697" s="26"/>
     </row>
-    <row r="698" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" ht="75">
       <c r="A698" s="20">
         <v>24788</v>
       </c>
@@ -20893,7 +21083,7 @@
       <c r="J698" s="25"/>
       <c r="K698" s="26"/>
     </row>
-    <row r="699" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" ht="30">
       <c r="A699" s="20">
         <v>24788</v>
       </c>
@@ -20916,7 +21106,7 @@
       <c r="J699" s="25"/>
       <c r="K699" s="26"/>
     </row>
-    <row r="700" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" ht="30">
       <c r="A700" s="20">
         <v>24788</v>
       </c>
@@ -20939,7 +21129,7 @@
       <c r="J700" s="25"/>
       <c r="K700" s="26"/>
     </row>
-    <row r="701" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" ht="75">
       <c r="A701" s="20">
         <v>24788</v>
       </c>
@@ -20962,7 +21152,7 @@
       <c r="J701" s="25"/>
       <c r="K701" s="26"/>
     </row>
-    <row r="702" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" ht="30">
       <c r="A702" s="20">
         <v>24788</v>
       </c>
@@ -20985,7 +21175,7 @@
       <c r="J702" s="25"/>
       <c r="K702" s="26"/>
     </row>
-    <row r="703" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" ht="30">
       <c r="A703" s="14">
         <v>24789</v>
       </c>
@@ -21008,7 +21198,7 @@
       <c r="J703" s="18"/>
       <c r="K703" s="19"/>
     </row>
-    <row r="704" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" ht="45">
       <c r="A704" s="14">
         <v>24789</v>
       </c>
@@ -21031,7 +21221,7 @@
       <c r="J704" s="18"/>
       <c r="K704" s="19"/>
     </row>
-    <row r="705" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" ht="45">
       <c r="A705" s="14">
         <v>24789</v>
       </c>
@@ -21054,7 +21244,7 @@
       <c r="J705" s="18"/>
       <c r="K705" s="19"/>
     </row>
-    <row r="706" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" ht="30">
       <c r="A706" s="14">
         <v>24789</v>
       </c>
@@ -21077,7 +21267,7 @@
       <c r="J706" s="18"/>
       <c r="K706" s="19"/>
     </row>
-    <row r="707" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" ht="30">
       <c r="A707" s="14">
         <v>24789</v>
       </c>
@@ -21100,7 +21290,7 @@
       <c r="J707" s="18"/>
       <c r="K707" s="19"/>
     </row>
-    <row r="708" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" ht="45">
       <c r="A708" s="14">
         <v>24789</v>
       </c>
@@ -21123,7 +21313,7 @@
       <c r="J708" s="18"/>
       <c r="K708" s="19"/>
     </row>
-    <row r="709" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" ht="30">
       <c r="A709" s="20">
         <v>24793</v>
       </c>
@@ -21146,7 +21336,7 @@
       <c r="J709" s="25"/>
       <c r="K709" s="26"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11">
       <c r="A710" s="20">
         <v>24793</v>
       </c>
@@ -21169,7 +21359,7 @@
       <c r="J710" s="25"/>
       <c r="K710" s="26"/>
     </row>
-    <row r="711" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" ht="45">
       <c r="A711" s="20">
         <v>24793</v>
       </c>
@@ -21192,7 +21382,7 @@
       <c r="J711" s="25"/>
       <c r="K711" s="26"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11">
       <c r="A712" s="20">
         <v>24793</v>
       </c>
@@ -21215,7 +21405,7 @@
       <c r="J712" s="25"/>
       <c r="K712" s="26"/>
     </row>
-    <row r="713" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" ht="30">
       <c r="A713" s="14">
         <v>24794</v>
       </c>
@@ -21238,7 +21428,7 @@
       <c r="J713" s="18"/>
       <c r="K713" s="19"/>
     </row>
-    <row r="714" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" ht="30">
       <c r="A714" s="14">
         <v>24794</v>
       </c>
@@ -21261,7 +21451,7 @@
       <c r="J714" s="18"/>
       <c r="K714" s="19"/>
     </row>
-    <row r="715" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" ht="30">
       <c r="A715" s="14">
         <v>24794</v>
       </c>
@@ -21284,7 +21474,7 @@
       <c r="J715" s="18"/>
       <c r="K715" s="19"/>
     </row>
-    <row r="716" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" ht="75">
       <c r="A716" s="14">
         <v>24794</v>
       </c>
@@ -21307,7 +21497,7 @@
       <c r="J716" s="18"/>
       <c r="K716" s="19"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11">
       <c r="A717" s="14">
         <v>24794</v>
       </c>
@@ -21330,7 +21520,7 @@
       <c r="J717" s="18"/>
       <c r="K717" s="19"/>
     </row>
-    <row r="718" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" ht="30">
       <c r="A718" s="14">
         <v>24794</v>
       </c>
@@ -21353,7 +21543,7 @@
       <c r="J718" s="18"/>
       <c r="K718" s="19"/>
     </row>
-    <row r="719" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" ht="30">
       <c r="A719" s="20">
         <v>24795</v>
       </c>
@@ -21376,7 +21566,7 @@
       <c r="J719" s="25"/>
       <c r="K719" s="26"/>
     </row>
-    <row r="720" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" ht="30">
       <c r="A720" s="20">
         <v>24795</v>
       </c>
@@ -21399,7 +21589,7 @@
       <c r="J720" s="25"/>
       <c r="K720" s="26"/>
     </row>
-    <row r="721" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" ht="60">
       <c r="A721" s="20">
         <v>24795</v>
       </c>
@@ -21422,7 +21612,7 @@
       <c r="J721" s="25"/>
       <c r="K721" s="26"/>
     </row>
-    <row r="722" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" ht="60">
       <c r="A722" s="20">
         <v>24795</v>
       </c>
@@ -21445,7 +21635,7 @@
       <c r="J722" s="25"/>
       <c r="K722" s="26"/>
     </row>
-    <row r="723" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" ht="75">
       <c r="A723" s="20">
         <v>24795</v>
       </c>
@@ -21468,7 +21658,7 @@
       <c r="J723" s="25"/>
       <c r="K723" s="26"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11">
       <c r="A724" s="20">
         <v>24795</v>
       </c>
@@ -21491,7 +21681,7 @@
       <c r="J724" s="25"/>
       <c r="K724" s="26"/>
     </row>
-    <row r="725" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" ht="30">
       <c r="A725" s="20">
         <v>24795</v>
       </c>
@@ -21514,7 +21704,7 @@
       <c r="J725" s="25"/>
       <c r="K725" s="26"/>
     </row>
-    <row r="726" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" ht="30">
       <c r="A726" s="14">
         <v>24856</v>
       </c>
@@ -21537,7 +21727,7 @@
       <c r="J726" s="18"/>
       <c r="K726" s="19"/>
     </row>
-    <row r="727" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" ht="60">
       <c r="A727" s="14">
         <v>24856</v>
       </c>
@@ -21560,7 +21750,7 @@
       <c r="J727" s="18"/>
       <c r="K727" s="19"/>
     </row>
-    <row r="728" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" ht="45">
       <c r="A728" s="14">
         <v>24856</v>
       </c>
@@ -21583,7 +21773,7 @@
       <c r="J728" s="18"/>
       <c r="K728" s="19"/>
     </row>
-    <row r="729" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" ht="30">
       <c r="A729" s="20">
         <v>24987</v>
       </c>
@@ -21606,7 +21796,7 @@
       <c r="J729" s="25"/>
       <c r="K729" s="26"/>
     </row>
-    <row r="730" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" ht="30">
       <c r="A730" s="20">
         <v>24987</v>
       </c>
@@ -21629,7 +21819,7 @@
       <c r="J730" s="25"/>
       <c r="K730" s="26"/>
     </row>
-    <row r="731" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" ht="120">
       <c r="A731" s="20">
         <v>24987</v>
       </c>
@@ -21652,7 +21842,7 @@
       <c r="J731" s="25"/>
       <c r="K731" s="26"/>
     </row>
-    <row r="732" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" ht="30">
       <c r="A732" s="20">
         <v>24987</v>
       </c>
@@ -21675,7 +21865,7 @@
       <c r="J732" s="25"/>
       <c r="K732" s="26"/>
     </row>
-    <row r="733" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" ht="30">
       <c r="A733" s="20">
         <v>24987</v>
       </c>
@@ -21698,7 +21888,7 @@
       <c r="J733" s="25"/>
       <c r="K733" s="26"/>
     </row>
-    <row r="734" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" ht="75">
       <c r="A734" s="20">
         <v>24987</v>
       </c>
@@ -21721,7 +21911,7 @@
       <c r="J734" s="25"/>
       <c r="K734" s="26"/>
     </row>
-    <row r="735" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" ht="45">
       <c r="A735" s="20">
         <v>24987</v>
       </c>
@@ -21744,7 +21934,7 @@
       <c r="J735" s="25"/>
       <c r="K735" s="26"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11">
       <c r="A736" s="20">
         <v>24987</v>
       </c>
@@ -21767,7 +21957,7 @@
       <c r="J736" s="25"/>
       <c r="K736" s="26"/>
     </row>
-    <row r="737" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" ht="60">
       <c r="A737" s="20">
         <v>24987</v>
       </c>
@@ -21790,7 +21980,7 @@
       <c r="J737" s="25"/>
       <c r="K737" s="26"/>
     </row>
-    <row r="738" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" ht="30">
       <c r="A738" s="20">
         <v>24987</v>
       </c>
@@ -21813,7 +22003,7 @@
       <c r="J738" s="25"/>
       <c r="K738" s="26"/>
     </row>
-    <row r="739" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11" ht="30">
       <c r="A739" s="14">
         <v>25253</v>
       </c>
@@ -21836,7 +22026,7 @@
       <c r="J739" s="18"/>
       <c r="K739" s="19"/>
     </row>
-    <row r="740" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:11" ht="75">
       <c r="A740" s="14">
         <v>25253</v>
       </c>
@@ -21859,7 +22049,7 @@
       <c r="J740" s="18"/>
       <c r="K740" s="19"/>
     </row>
-    <row r="741" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:11" ht="30">
       <c r="A741" s="14">
         <v>25253</v>
       </c>
@@ -21882,7 +22072,7 @@
       <c r="J741" s="18"/>
       <c r="K741" s="19"/>
     </row>
-    <row r="742" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:11" ht="30">
       <c r="A742" s="14">
         <v>25253</v>
       </c>
@@ -21905,7 +22095,7 @@
       <c r="J742" s="18"/>
       <c r="K742" s="19"/>
     </row>
-    <row r="743" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:11" ht="30">
       <c r="A743" s="14">
         <v>25253</v>
       </c>
@@ -21928,7 +22118,7 @@
       <c r="J743" s="18"/>
       <c r="K743" s="19"/>
     </row>
-    <row r="744" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:11" ht="60">
       <c r="A744" s="14">
         <v>25253</v>
       </c>
@@ -21951,7 +22141,7 @@
       <c r="J744" s="18"/>
       <c r="K744" s="19"/>
     </row>
-    <row r="745" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:11" ht="45">
       <c r="A745" s="14">
         <v>25253</v>
       </c>
@@ -21974,7 +22164,7 @@
       <c r="J745" s="18"/>
       <c r="K745" s="19"/>
     </row>
-    <row r="746" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:11" ht="30">
       <c r="A746" s="14">
         <v>25253</v>
       </c>
@@ -21997,7 +22187,7 @@
       <c r="J746" s="18"/>
       <c r="K746" s="19"/>
     </row>
-    <row r="747" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:11" ht="30">
       <c r="A747" s="14">
         <v>25253</v>
       </c>
@@ -22020,7 +22210,7 @@
       <c r="J747" s="18"/>
       <c r="K747" s="19"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:11">
       <c r="A748" s="20">
         <v>25451</v>
       </c>
@@ -22043,7 +22233,7 @@
       <c r="J748" s="25"/>
       <c r="K748" s="26"/>
     </row>
-    <row r="749" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:11" ht="45">
       <c r="A749" s="20">
         <v>25451</v>
       </c>
@@ -22066,7 +22256,7 @@
       <c r="J749" s="25"/>
       <c r="K749" s="26"/>
     </row>
-    <row r="750" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:11" ht="30">
       <c r="A750" s="20">
         <v>25451</v>
       </c>
@@ -22089,7 +22279,7 @@
       <c r="J750" s="25"/>
       <c r="K750" s="26"/>
     </row>
-    <row r="751" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:11" ht="105">
       <c r="A751" s="20">
         <v>25451</v>
       </c>
@@ -22112,7 +22302,7 @@
       <c r="J751" s="25"/>
       <c r="K751" s="26"/>
     </row>
-    <row r="752" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:11" ht="90">
       <c r="A752" s="20">
         <v>25451</v>
       </c>
@@ -22135,7 +22325,7 @@
       <c r="J752" s="25"/>
       <c r="K752" s="26"/>
     </row>
-    <row r="753" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:11" ht="45">
       <c r="A753" s="20">
         <v>25451</v>
       </c>
@@ -22158,7 +22348,7 @@
       <c r="J753" s="25"/>
       <c r="K753" s="26"/>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:11">
       <c r="A754" s="14">
         <v>25487</v>
       </c>
@@ -22181,7 +22371,7 @@
       <c r="J754" s="18"/>
       <c r="K754" s="19"/>
     </row>
-    <row r="755" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:11" ht="60">
       <c r="A755" s="14">
         <v>25487</v>
       </c>
@@ -22204,7 +22394,7 @@
       <c r="J755" s="18"/>
       <c r="K755" s="19"/>
     </row>
-    <row r="756" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:11" ht="45">
       <c r="A756" s="14">
         <v>25487</v>
       </c>
@@ -22227,7 +22417,7 @@
       <c r="J756" s="18"/>
       <c r="K756" s="19"/>
     </row>
-    <row r="757" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:11" ht="45">
       <c r="A757" s="14">
         <v>25487</v>
       </c>
@@ -22250,7 +22440,7 @@
       <c r="J757" s="18"/>
       <c r="K757" s="19"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:11">
       <c r="A758" s="14">
         <v>25487</v>
       </c>
@@ -22273,7 +22463,7 @@
       <c r="J758" s="18"/>
       <c r="K758" s="19"/>
     </row>
-    <row r="759" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:11" ht="45">
       <c r="A759" s="14">
         <v>25487</v>
       </c>
@@ -22296,7 +22486,7 @@
       <c r="J759" s="18"/>
       <c r="K759" s="19"/>
     </row>
-    <row r="760" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:11" ht="30">
       <c r="A760" s="20">
         <v>25661</v>
       </c>
@@ -22319,7 +22509,7 @@
       <c r="J760" s="25"/>
       <c r="K760" s="26"/>
     </row>
-    <row r="761" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:11" ht="30">
       <c r="A761" s="20">
         <v>25661</v>
       </c>
@@ -22342,7 +22532,7 @@
       <c r="J761" s="25"/>
       <c r="K761" s="26"/>
     </row>
-    <row r="762" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:11" ht="30">
       <c r="A762" s="20">
         <v>25661</v>
       </c>
@@ -22365,7 +22555,7 @@
       <c r="J762" s="25"/>
       <c r="K762" s="26"/>
     </row>
-    <row r="763" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:11" ht="30">
       <c r="A763" s="20">
         <v>25661</v>
       </c>
@@ -22388,7 +22578,7 @@
       <c r="J763" s="25"/>
       <c r="K763" s="26"/>
     </row>
-    <row r="764" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:11" ht="30">
       <c r="A764" s="20">
         <v>25661</v>
       </c>
@@ -22411,7 +22601,7 @@
       <c r="J764" s="25"/>
       <c r="K764" s="26"/>
     </row>
-    <row r="765" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:11" ht="90">
       <c r="A765" s="20">
         <v>25661</v>
       </c>
@@ -22434,7 +22624,7 @@
       <c r="J765" s="25"/>
       <c r="K765" s="26"/>
     </row>
-    <row r="766" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:11" ht="45">
       <c r="A766" s="20">
         <v>25661</v>
       </c>
@@ -22457,7 +22647,7 @@
       <c r="J766" s="25"/>
       <c r="K766" s="26"/>
     </row>
-    <row r="767" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:11" ht="75">
       <c r="A767" s="14">
         <v>25751</v>
       </c>
@@ -22484,7 +22674,7 @@
       <c r="J767" s="18"/>
       <c r="K767" s="19"/>
     </row>
-    <row r="768" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:11" ht="60">
       <c r="A768" s="14">
         <v>25751</v>
       </c>
@@ -22509,7 +22699,7 @@
       <c r="J768" s="18"/>
       <c r="K768" s="19"/>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:11">
       <c r="A769" s="14">
         <v>25751</v>
       </c>
@@ -22536,7 +22726,7 @@
       <c r="J769" s="18"/>
       <c r="K769" s="19"/>
     </row>
-    <row r="770" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:11" ht="75">
       <c r="A770" s="20">
         <v>25752</v>
       </c>
@@ -22565,7 +22755,7 @@
       </c>
       <c r="K770" s="26"/>
     </row>
-    <row r="771" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:11" ht="60">
       <c r="A771" s="20">
         <v>25752</v>
       </c>
@@ -22596,7 +22786,7 @@
       </c>
       <c r="K771" s="26"/>
     </row>
-    <row r="772" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:11" ht="45">
       <c r="A772" s="20">
         <v>25752</v>
       </c>
@@ -22625,7 +22815,7 @@
       </c>
       <c r="K772" s="26"/>
     </row>
-    <row r="773" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:11" ht="60">
       <c r="A773" s="20">
         <v>25752</v>
       </c>
@@ -22654,7 +22844,7 @@
       </c>
       <c r="K773" s="26"/>
     </row>
-    <row r="774" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:11" ht="30">
       <c r="A774" s="20">
         <v>25752</v>
       </c>
@@ -22683,7 +22873,7 @@
       </c>
       <c r="K774" s="26"/>
     </row>
-    <row r="775" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:11" ht="30">
       <c r="A775" s="20">
         <v>25752</v>
       </c>
@@ -22714,7 +22904,7 @@
       </c>
       <c r="K775" s="26"/>
     </row>
-    <row r="776" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:11" ht="60">
       <c r="A776" s="14">
         <v>25801</v>
       </c>
@@ -22737,7 +22927,7 @@
       <c r="J776" s="18"/>
       <c r="K776" s="19"/>
     </row>
-    <row r="777" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:11" ht="75">
       <c r="A777" s="14">
         <v>25801</v>
       </c>
@@ -22760,7 +22950,7 @@
       <c r="J777" s="18"/>
       <c r="K777" s="19"/>
     </row>
-    <row r="778" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:11" ht="30">
       <c r="A778" s="14">
         <v>25801</v>
       </c>
@@ -22783,7 +22973,7 @@
       <c r="J778" s="18"/>
       <c r="K778" s="19"/>
     </row>
-    <row r="779" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:11" ht="45">
       <c r="A779" s="14">
         <v>25801</v>
       </c>
@@ -22806,7 +22996,7 @@
       <c r="J779" s="18"/>
       <c r="K779" s="19"/>
     </row>
-    <row r="780" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:11" ht="45">
       <c r="A780" s="20">
         <v>25802</v>
       </c>
@@ -22829,7 +23019,7 @@
       <c r="J780" s="25"/>
       <c r="K780" s="26"/>
     </row>
-    <row r="781" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:11" ht="75">
       <c r="A781" s="20">
         <v>25802</v>
       </c>
@@ -22852,7 +23042,7 @@
       <c r="J781" s="25"/>
       <c r="K781" s="26"/>
     </row>
-    <row r="782" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:11" ht="120">
       <c r="A782" s="20">
         <v>25802</v>
       </c>
@@ -22875,7 +23065,7 @@
       <c r="J782" s="25"/>
       <c r="K782" s="26"/>
     </row>
-    <row r="783" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:11" ht="60">
       <c r="A783" s="20">
         <v>25802</v>
       </c>
@@ -22898,7 +23088,7 @@
       <c r="J783" s="25"/>
       <c r="K783" s="26"/>
     </row>
-    <row r="784" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:11" ht="90">
       <c r="A784" s="20">
         <v>25802</v>
       </c>
@@ -22921,7 +23111,7 @@
       <c r="J784" s="25"/>
       <c r="K784" s="26"/>
     </row>
-    <row r="785" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:11" ht="30">
       <c r="A785" s="14">
         <v>25806</v>
       </c>
@@ -22944,7 +23134,7 @@
       <c r="J785" s="18"/>
       <c r="K785" s="19"/>
     </row>
-    <row r="786" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:11" ht="30">
       <c r="A786" s="14">
         <v>25806</v>
       </c>
@@ -22967,7 +23157,7 @@
       <c r="J786" s="18"/>
       <c r="K786" s="19"/>
     </row>
-    <row r="787" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:11" ht="105">
       <c r="A787" s="14">
         <v>25806</v>
       </c>
@@ -22990,7 +23180,7 @@
       <c r="J787" s="18"/>
       <c r="K787" s="19"/>
     </row>
-    <row r="788" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:11" ht="90">
       <c r="A788" s="14">
         <v>25806</v>
       </c>
@@ -23013,7 +23203,7 @@
       <c r="J788" s="18"/>
       <c r="K788" s="19"/>
     </row>
-    <row r="789" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:11" ht="30">
       <c r="A789" s="14">
         <v>25806</v>
       </c>
@@ -23036,7 +23226,7 @@
       <c r="J789" s="18"/>
       <c r="K789" s="19"/>
     </row>
-    <row r="790" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:11" ht="30">
       <c r="A790" s="14">
         <v>25806</v>
       </c>
@@ -23059,7 +23249,7 @@
       <c r="J790" s="18"/>
       <c r="K790" s="19"/>
     </row>
-    <row r="791" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:11" ht="30">
       <c r="A791" s="20">
         <v>25843</v>
       </c>
@@ -23082,7 +23272,7 @@
       <c r="J791" s="25"/>
       <c r="K791" s="26"/>
     </row>
-    <row r="792" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:11" ht="30">
       <c r="A792" s="20">
         <v>25843</v>
       </c>
@@ -23105,7 +23295,7 @@
       <c r="J792" s="25"/>
       <c r="K792" s="26"/>
     </row>
-    <row r="793" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:11" ht="60">
       <c r="A793" s="20">
         <v>25843</v>
       </c>
@@ -23128,7 +23318,7 @@
       <c r="J793" s="25"/>
       <c r="K793" s="26"/>
     </row>
-    <row r="794" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:11" ht="60">
       <c r="A794" s="20">
         <v>25843</v>
       </c>
@@ -23151,7 +23341,7 @@
       <c r="J794" s="25"/>
       <c r="K794" s="26"/>
     </row>
-    <row r="795" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:11" ht="45">
       <c r="A795" s="20">
         <v>25843</v>
       </c>
@@ -23174,7 +23364,7 @@
       <c r="J795" s="25"/>
       <c r="K795" s="26"/>
     </row>
-    <row r="796" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:11" ht="45">
       <c r="A796" s="14">
         <v>26069</v>
       </c>
@@ -23197,7 +23387,7 @@
       <c r="J796" s="18"/>
       <c r="K796" s="19"/>
     </row>
-    <row r="797" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:11" ht="45">
       <c r="A797" s="14">
         <v>26069</v>
       </c>
@@ -23220,7 +23410,7 @@
       <c r="J797" s="18"/>
       <c r="K797" s="19"/>
     </row>
-    <row r="798" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:11" ht="60">
       <c r="A798" s="14">
         <v>26069</v>
       </c>
@@ -23243,7 +23433,7 @@
       <c r="J798" s="18"/>
       <c r="K798" s="19"/>
     </row>
-    <row r="799" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:11" ht="45">
       <c r="A799" s="14">
         <v>26069</v>
       </c>
@@ -23266,7 +23456,7 @@
       <c r="J799" s="18"/>
       <c r="K799" s="19"/>
     </row>
-    <row r="800" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:11" ht="30">
       <c r="A800" s="20">
         <v>26071</v>
       </c>
@@ -23289,7 +23479,7 @@
       <c r="J800" s="25"/>
       <c r="K800" s="26"/>
     </row>
-    <row r="801" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:11" ht="30">
       <c r="A801" s="20">
         <v>26071</v>
       </c>
@@ -23312,7 +23502,7 @@
       <c r="J801" s="25"/>
       <c r="K801" s="26"/>
     </row>
-    <row r="802" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:11" ht="30">
       <c r="A802" s="20">
         <v>26071</v>
       </c>
@@ -23335,7 +23525,7 @@
       <c r="J802" s="25"/>
       <c r="K802" s="26"/>
     </row>
-    <row r="803" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:11" ht="30">
       <c r="A803" s="20">
         <v>26071</v>
       </c>
@@ -23358,7 +23548,7 @@
       <c r="J803" s="25"/>
       <c r="K803" s="26"/>
     </row>
-    <row r="804" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:11" ht="30">
       <c r="A804" s="20">
         <v>26071</v>
       </c>
@@ -23381,7 +23571,7 @@
       <c r="J804" s="25"/>
       <c r="K804" s="26"/>
     </row>
-    <row r="805" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:11" ht="60">
       <c r="A805" s="14">
         <v>26076</v>
       </c>
@@ -23406,7 +23596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:11">
       <c r="A806" s="14">
         <v>26076</v>
       </c>
@@ -23431,7 +23621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:11">
       <c r="A807" s="14">
         <v>26076</v>
       </c>
@@ -23456,7 +23646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:11">
       <c r="A808" s="14">
         <v>26076</v>
       </c>
@@ -23481,7 +23671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="809" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:11" ht="45">
       <c r="A809" s="14">
         <v>26076</v>
       </c>
@@ -23506,7 +23696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="810" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:11" ht="75">
       <c r="A810" s="20">
         <v>26095</v>
       </c>
@@ -23529,7 +23719,7 @@
       <c r="J810" s="25"/>
       <c r="K810" s="26"/>
     </row>
-    <row r="811" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:11" ht="45">
       <c r="A811" s="14">
         <v>26179</v>
       </c>
@@ -23552,7 +23742,7 @@
       <c r="J811" s="18"/>
       <c r="K811" s="19"/>
     </row>
-    <row r="812" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:11" ht="30">
       <c r="A812" s="14">
         <v>26179</v>
       </c>
@@ -23575,7 +23765,7 @@
       <c r="J812" s="18"/>
       <c r="K812" s="19"/>
     </row>
-    <row r="813" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:11" ht="30">
       <c r="A813" s="14">
         <v>26179</v>
       </c>
@@ -23598,7 +23788,7 @@
       <c r="J813" s="18"/>
       <c r="K813" s="19"/>
     </row>
-    <row r="814" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:11" ht="30">
       <c r="A814" s="14">
         <v>26179</v>
       </c>
@@ -23621,7 +23811,7 @@
       <c r="J814" s="18"/>
       <c r="K814" s="19"/>
     </row>
-    <row r="815" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:11" ht="30">
       <c r="A815" s="14">
         <v>26179</v>
       </c>
@@ -23644,7 +23834,7 @@
       <c r="J815" s="18"/>
       <c r="K815" s="19"/>
     </row>
-    <row r="816" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:11" ht="30">
       <c r="A816" s="14">
         <v>26179</v>
       </c>
@@ -23667,7 +23857,7 @@
       <c r="J816" s="18"/>
       <c r="K816" s="19"/>
     </row>
-    <row r="817" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:11" ht="45">
       <c r="A817" s="20">
         <v>26180</v>
       </c>
@@ -23690,7 +23880,7 @@
       <c r="J817" s="25"/>
       <c r="K817" s="26"/>
     </row>
-    <row r="818" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:11" ht="30">
       <c r="A818" s="20">
         <v>26180</v>
       </c>
@@ -23713,7 +23903,7 @@
       <c r="J818" s="25"/>
       <c r="K818" s="26"/>
     </row>
-    <row r="819" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:11">
       <c r="A819" s="20">
         <v>26180</v>
       </c>
@@ -23736,7 +23926,7 @@
       <c r="J819" s="25"/>
       <c r="K819" s="26"/>
     </row>
-    <row r="820" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:11">
       <c r="A820" s="20">
         <v>26180</v>
       </c>
@@ -23759,7 +23949,7 @@
       <c r="J820" s="25"/>
       <c r="K820" s="26"/>
     </row>
-    <row r="821" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:11" ht="30">
       <c r="A821" s="20">
         <v>26180</v>
       </c>
@@ -23782,7 +23972,7 @@
       <c r="J821" s="25"/>
       <c r="K821" s="26"/>
     </row>
-    <row r="822" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:11" ht="45">
       <c r="A822" s="20">
         <v>26180</v>
       </c>
@@ -23805,7 +23995,7 @@
       <c r="J822" s="25"/>
       <c r="K822" s="26"/>
     </row>
-    <row r="823" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:11" ht="60">
       <c r="A823" s="20">
         <v>26180</v>
       </c>
@@ -23828,7 +24018,7 @@
       <c r="J823" s="25"/>
       <c r="K823" s="26"/>
     </row>
-    <row r="824" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:11" ht="30">
       <c r="A824" s="20">
         <v>26180</v>
       </c>
@@ -23851,7 +24041,7 @@
       <c r="J824" s="25"/>
       <c r="K824" s="26"/>
     </row>
-    <row r="825" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:11" ht="30">
       <c r="A825" s="20">
         <v>26180</v>
       </c>
@@ -23874,7 +24064,7 @@
       <c r="J825" s="25"/>
       <c r="K825" s="26"/>
     </row>
-    <row r="826" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:11" ht="30">
       <c r="A826" s="20">
         <v>26180</v>
       </c>
@@ -23897,7 +24087,7 @@
       <c r="J826" s="25"/>
       <c r="K826" s="26"/>
     </row>
-    <row r="827" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:11" ht="30">
       <c r="A827" s="20">
         <v>26180</v>
       </c>
@@ -23920,7 +24110,7 @@
       <c r="J827" s="25"/>
       <c r="K827" s="26"/>
     </row>
-    <row r="828" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:11" ht="90">
       <c r="A828" s="14">
         <v>26230</v>
       </c>
@@ -23943,7 +24133,7 @@
       <c r="J828" s="18"/>
       <c r="K828" s="19"/>
     </row>
-    <row r="829" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:11" ht="75">
       <c r="A829" s="20">
         <v>26329</v>
       </c>
@@ -23966,7 +24156,7 @@
       <c r="J829" s="25"/>
       <c r="K829" s="26"/>
     </row>
-    <row r="830" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:11" ht="30">
       <c r="A830" s="27">
         <v>26330</v>
       </c>
@@ -23993,9 +24183,9 @@
   <conditionalFormatting sqref="H13">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -24011,24 +24201,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
+++ b/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
@@ -3670,7 +3670,7 @@
   <dimension ref="A1:K830"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A552" workbookViewId="0">
-      <selection activeCell="K553" sqref="K553"/>
+      <selection activeCell="G560" sqref="G560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
+++ b/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
@@ -3671,8 +3671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K830"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A457" workbookViewId="0">
-      <selection activeCell="I464" sqref="I464"/>
+    <sheetView tabSelected="1" topLeftCell="A490" workbookViewId="0">
+      <selection activeCell="I496" sqref="I496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15438,7 +15438,9 @@
       <c r="F461" s="24"/>
       <c r="G461" s="25"/>
       <c r="H461" s="25"/>
-      <c r="I461" s="25"/>
+      <c r="I461" s="25">
+        <v>1</v>
+      </c>
       <c r="J461" s="25"/>
       <c r="K461" s="26"/>
     </row>
@@ -15461,7 +15463,9 @@
       <c r="F462" s="24"/>
       <c r="G462" s="25"/>
       <c r="H462" s="25"/>
-      <c r="I462" s="25"/>
+      <c r="I462" s="25">
+        <v>1</v>
+      </c>
       <c r="J462" s="25"/>
       <c r="K462" s="26"/>
     </row>
@@ -15484,7 +15488,9 @@
       <c r="F463" s="24"/>
       <c r="G463" s="25"/>
       <c r="H463" s="25"/>
-      <c r="I463" s="25"/>
+      <c r="I463" s="25">
+        <v>1</v>
+      </c>
       <c r="J463" s="25"/>
       <c r="K463" s="26"/>
     </row>
@@ -15507,7 +15513,9 @@
       <c r="F464" s="17"/>
       <c r="G464" s="18"/>
       <c r="H464" s="18"/>
-      <c r="I464" s="18"/>
+      <c r="I464" s="18">
+        <v>1</v>
+      </c>
       <c r="J464" s="18"/>
       <c r="K464" s="19"/>
     </row>
@@ -15530,7 +15538,9 @@
       <c r="F465" s="17"/>
       <c r="G465" s="18"/>
       <c r="H465" s="18"/>
-      <c r="I465" s="18"/>
+      <c r="I465" s="18">
+        <v>1</v>
+      </c>
       <c r="J465" s="18"/>
       <c r="K465" s="19"/>
     </row>
@@ -15553,7 +15563,9 @@
       <c r="F466" s="24"/>
       <c r="G466" s="25"/>
       <c r="H466" s="25"/>
-      <c r="I466" s="25"/>
+      <c r="I466" s="25">
+        <v>1</v>
+      </c>
       <c r="J466" s="25"/>
       <c r="K466" s="26"/>
     </row>
@@ -15576,7 +15588,9 @@
       <c r="F467" s="24"/>
       <c r="G467" s="25"/>
       <c r="H467" s="25"/>
-      <c r="I467" s="25"/>
+      <c r="I467" s="25">
+        <v>1</v>
+      </c>
       <c r="J467" s="25"/>
       <c r="K467" s="26"/>
     </row>
@@ -15599,7 +15613,9 @@
       <c r="F468" s="24"/>
       <c r="G468" s="25"/>
       <c r="H468" s="25"/>
-      <c r="I468" s="25"/>
+      <c r="I468" s="25">
+        <v>1</v>
+      </c>
       <c r="J468" s="25"/>
       <c r="K468" s="26"/>
     </row>
@@ -15622,7 +15638,9 @@
       <c r="F469" s="17"/>
       <c r="G469" s="18"/>
       <c r="H469" s="18"/>
-      <c r="I469" s="18"/>
+      <c r="I469" s="18">
+        <v>1</v>
+      </c>
       <c r="J469" s="18"/>
       <c r="K469" s="19"/>
     </row>
@@ -15645,7 +15663,9 @@
       <c r="F470" s="17"/>
       <c r="G470" s="18"/>
       <c r="H470" s="18"/>
-      <c r="I470" s="18"/>
+      <c r="I470" s="18">
+        <v>1</v>
+      </c>
       <c r="J470" s="18"/>
       <c r="K470" s="19"/>
     </row>
@@ -15668,7 +15688,9 @@
       <c r="F471" s="17"/>
       <c r="G471" s="18"/>
       <c r="H471" s="18"/>
-      <c r="I471" s="18"/>
+      <c r="I471" s="18">
+        <v>1</v>
+      </c>
       <c r="J471" s="18"/>
       <c r="K471" s="19"/>
     </row>
@@ -15691,7 +15713,9 @@
       <c r="F472" s="17"/>
       <c r="G472" s="18"/>
       <c r="H472" s="18"/>
-      <c r="I472" s="18"/>
+      <c r="I472" s="18">
+        <v>1</v>
+      </c>
       <c r="J472" s="18"/>
       <c r="K472" s="19"/>
     </row>
@@ -15714,7 +15738,9 @@
       <c r="F473" s="17"/>
       <c r="G473" s="18"/>
       <c r="H473" s="18"/>
-      <c r="I473" s="18"/>
+      <c r="I473" s="18">
+        <v>1</v>
+      </c>
       <c r="J473" s="18"/>
       <c r="K473" s="19"/>
     </row>
@@ -15737,7 +15763,9 @@
       <c r="F474" s="24"/>
       <c r="G474" s="25"/>
       <c r="H474" s="25"/>
-      <c r="I474" s="25"/>
+      <c r="I474" s="25">
+        <v>1</v>
+      </c>
       <c r="J474" s="25"/>
       <c r="K474" s="26"/>
     </row>
@@ -15760,7 +15788,9 @@
       <c r="F475" s="24"/>
       <c r="G475" s="25"/>
       <c r="H475" s="25"/>
-      <c r="I475" s="25"/>
+      <c r="I475" s="25">
+        <v>1</v>
+      </c>
       <c r="J475" s="25"/>
       <c r="K475" s="26"/>
     </row>
@@ -15783,7 +15813,9 @@
       <c r="F476" s="24"/>
       <c r="G476" s="25"/>
       <c r="H476" s="25"/>
-      <c r="I476" s="25"/>
+      <c r="I476" s="25">
+        <v>1</v>
+      </c>
       <c r="J476" s="25"/>
       <c r="K476" s="26"/>
     </row>
@@ -15803,9 +15835,13 @@
       <c r="E477" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="F477" s="17"/>
+      <c r="F477" s="17">
+        <v>1</v>
+      </c>
       <c r="G477" s="18"/>
-      <c r="H477" s="18"/>
+      <c r="H477" s="18">
+        <v>1</v>
+      </c>
       <c r="I477" s="18"/>
       <c r="J477" s="18"/>
       <c r="K477" s="19"/>
@@ -15826,9 +15862,13 @@
       <c r="E478" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="F478" s="17"/>
+      <c r="F478" s="17">
+        <v>1</v>
+      </c>
       <c r="G478" s="18"/>
-      <c r="H478" s="18"/>
+      <c r="H478" s="18">
+        <v>1</v>
+      </c>
       <c r="I478" s="18"/>
       <c r="J478" s="18"/>
       <c r="K478" s="19"/>
@@ -15849,9 +15889,13 @@
       <c r="E479" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="F479" s="17"/>
+      <c r="F479" s="17">
+        <v>1</v>
+      </c>
       <c r="G479" s="18"/>
-      <c r="H479" s="18"/>
+      <c r="H479" s="18">
+        <v>1</v>
+      </c>
       <c r="I479" s="18"/>
       <c r="J479" s="18"/>
       <c r="K479" s="19"/>
@@ -15872,9 +15916,13 @@
       <c r="E480" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="F480" s="17"/>
+      <c r="F480" s="17">
+        <v>1</v>
+      </c>
       <c r="G480" s="18"/>
-      <c r="H480" s="18"/>
+      <c r="H480" s="18">
+        <v>1</v>
+      </c>
       <c r="I480" s="18"/>
       <c r="J480" s="18"/>
       <c r="K480" s="19"/>
@@ -15898,7 +15946,9 @@
       <c r="F481" s="24"/>
       <c r="G481" s="25"/>
       <c r="H481" s="25"/>
-      <c r="I481" s="25"/>
+      <c r="I481" s="25">
+        <v>1</v>
+      </c>
       <c r="J481" s="25"/>
       <c r="K481" s="26"/>
     </row>
@@ -15921,7 +15971,9 @@
       <c r="F482" s="24"/>
       <c r="G482" s="25"/>
       <c r="H482" s="25"/>
-      <c r="I482" s="25"/>
+      <c r="I482" s="25">
+        <v>1</v>
+      </c>
       <c r="J482" s="25"/>
       <c r="K482" s="26"/>
     </row>
@@ -15944,7 +15996,9 @@
       <c r="F483" s="17"/>
       <c r="G483" s="18"/>
       <c r="H483" s="18"/>
-      <c r="I483" s="18"/>
+      <c r="I483" s="18">
+        <v>1</v>
+      </c>
       <c r="J483" s="18"/>
       <c r="K483" s="19"/>
     </row>
@@ -15967,7 +16021,9 @@
       <c r="F484" s="17"/>
       <c r="G484" s="18"/>
       <c r="H484" s="18"/>
-      <c r="I484" s="18"/>
+      <c r="I484" s="18">
+        <v>1</v>
+      </c>
       <c r="J484" s="18"/>
       <c r="K484" s="19"/>
     </row>
@@ -15990,7 +16046,9 @@
       <c r="F485" s="24"/>
       <c r="G485" s="25"/>
       <c r="H485" s="25"/>
-      <c r="I485" s="25"/>
+      <c r="I485" s="25">
+        <v>1</v>
+      </c>
       <c r="J485" s="25"/>
       <c r="K485" s="26"/>
     </row>
@@ -16013,7 +16071,9 @@
       <c r="F486" s="24"/>
       <c r="G486" s="25"/>
       <c r="H486" s="25"/>
-      <c r="I486" s="25"/>
+      <c r="I486" s="25">
+        <v>1</v>
+      </c>
       <c r="J486" s="25"/>
       <c r="K486" s="26"/>
     </row>
@@ -16036,7 +16096,9 @@
       <c r="F487" s="17"/>
       <c r="G487" s="18"/>
       <c r="H487" s="18"/>
-      <c r="I487" s="18"/>
+      <c r="I487" s="18">
+        <v>1</v>
+      </c>
       <c r="J487" s="18"/>
       <c r="K487" s="19"/>
     </row>
@@ -16056,9 +16118,13 @@
       <c r="E488" s="23" t="s">
         <v>416</v>
       </c>
-      <c r="F488" s="24"/>
+      <c r="F488" s="24">
+        <v>1</v>
+      </c>
       <c r="G488" s="25"/>
-      <c r="H488" s="25"/>
+      <c r="H488" s="25">
+        <v>1</v>
+      </c>
       <c r="I488" s="25"/>
       <c r="J488" s="25"/>
       <c r="K488" s="26"/>
@@ -16079,9 +16145,13 @@
       <c r="E489" s="23" t="s">
         <v>427</v>
       </c>
-      <c r="F489" s="24"/>
+      <c r="F489" s="24">
+        <v>1</v>
+      </c>
       <c r="G489" s="25"/>
-      <c r="H489" s="25"/>
+      <c r="H489" s="25">
+        <v>1</v>
+      </c>
       <c r="I489" s="25"/>
       <c r="J489" s="25"/>
       <c r="K489" s="26"/>
@@ -16102,9 +16172,13 @@
       <c r="E490" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="F490" s="17"/>
+      <c r="F490" s="17">
+        <v>1</v>
+      </c>
       <c r="G490" s="18"/>
-      <c r="H490" s="18"/>
+      <c r="H490" s="18">
+        <v>1</v>
+      </c>
       <c r="I490" s="18"/>
       <c r="J490" s="18"/>
       <c r="K490" s="19"/>
@@ -16125,9 +16199,13 @@
       <c r="E491" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="F491" s="17"/>
+      <c r="F491" s="17">
+        <v>1</v>
+      </c>
       <c r="G491" s="18"/>
-      <c r="H491" s="18"/>
+      <c r="H491" s="18">
+        <v>1</v>
+      </c>
       <c r="I491" s="18"/>
       <c r="J491" s="18"/>
       <c r="K491" s="19"/>
@@ -16148,9 +16226,13 @@
       <c r="E492" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="F492" s="17"/>
+      <c r="F492" s="17">
+        <v>1</v>
+      </c>
       <c r="G492" s="18"/>
-      <c r="H492" s="18"/>
+      <c r="H492" s="18">
+        <v>1</v>
+      </c>
       <c r="I492" s="18"/>
       <c r="J492" s="18"/>
       <c r="K492" s="19"/>
@@ -16171,9 +16253,13 @@
       <c r="E493" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="F493" s="17"/>
+      <c r="F493" s="17">
+        <v>1</v>
+      </c>
       <c r="G493" s="18"/>
-      <c r="H493" s="18"/>
+      <c r="H493" s="18">
+        <v>1</v>
+      </c>
       <c r="I493" s="18"/>
       <c r="J493" s="18"/>
       <c r="K493" s="19"/>
@@ -16197,7 +16283,9 @@
       <c r="F494" s="24"/>
       <c r="G494" s="25"/>
       <c r="H494" s="25"/>
-      <c r="I494" s="25"/>
+      <c r="I494" s="25">
+        <v>1</v>
+      </c>
       <c r="J494" s="25"/>
       <c r="K494" s="26"/>
     </row>
@@ -16220,7 +16308,9 @@
       <c r="F495" s="24"/>
       <c r="G495" s="25"/>
       <c r="H495" s="25"/>
-      <c r="I495" s="25"/>
+      <c r="I495" s="25">
+        <v>1</v>
+      </c>
       <c r="J495" s="25"/>
       <c r="K495" s="26"/>
     </row>

--- a/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
+++ b/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="135" windowWidth="22995" windowHeight="11055"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -2799,8 +2799,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3045,10 +3045,147 @@
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="26">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3070,7 +3207,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3094,7 +3231,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3118,7 +3255,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3142,7 +3279,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3166,7 +3303,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3189,7 +3326,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3212,7 +3349,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3235,7 +3372,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3359,24 +3496,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:K830" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:K830" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <autoFilter ref="A1:K830"/>
   <sortState ref="A2:K830">
     <sortCondition ref="A2:A830"/>
     <sortCondition ref="B2:B830"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" name="Task_ID" dataDxfId="10"/>
-    <tableColumn id="2" name="Date" dataDxfId="9"/>
-    <tableColumn id="3" name="Hours" dataDxfId="8"/>
-    <tableColumn id="4" name="Title" dataDxfId="7"/>
-    <tableColumn id="5" name="Description" dataDxfId="6"/>
-    <tableColumn id="6" name="Goal 1" dataDxfId="5"/>
-    <tableColumn id="7" name="Goal 2" dataDxfId="4"/>
-    <tableColumn id="8" name="Goal 3" dataDxfId="3"/>
-    <tableColumn id="9" name="Goal 4" dataDxfId="2"/>
-    <tableColumn id="10" name="Goal 5" dataDxfId="1"/>
-    <tableColumn id="11" name="Training" dataDxfId="0"/>
+    <tableColumn id="1" name="Task_ID" dataDxfId="21" totalsRowDxfId="10"/>
+    <tableColumn id="2" name="Date" dataDxfId="20" totalsRowDxfId="9"/>
+    <tableColumn id="3" name="Hours" dataDxfId="19" totalsRowDxfId="8"/>
+    <tableColumn id="4" name="Title" dataDxfId="18" totalsRowDxfId="7"/>
+    <tableColumn id="5" name="Description" dataDxfId="17" totalsRowDxfId="6"/>
+    <tableColumn id="6" name="Goal 1" dataDxfId="16" totalsRowDxfId="5"/>
+    <tableColumn id="7" name="Goal 2" dataDxfId="15" totalsRowDxfId="4"/>
+    <tableColumn id="8" name="Goal 3" dataDxfId="14" totalsRowDxfId="3"/>
+    <tableColumn id="9" name="Goal 4" dataDxfId="13" totalsRowDxfId="2"/>
+    <tableColumn id="10" name="Goal 5" dataDxfId="12" totalsRowDxfId="1"/>
+    <tableColumn id="11" name="Training" dataDxfId="11" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3457,6 +3594,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3491,6 +3629,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3666,14 +3805,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K830"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A552" workbookViewId="0">
-      <selection activeCell="G560" sqref="G560"/>
+    <sheetView tabSelected="1" topLeftCell="A591" workbookViewId="0">
+      <selection activeCell="I594" sqref="I594"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="2" customWidth="1"/>
@@ -3685,7 +3824,7 @@
     <col min="11" max="11" width="10.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3720,7 +3859,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>5359</v>
       </c>
@@ -3749,7 +3888,7 @@
       <c r="J2" s="18"/>
       <c r="K2" s="19"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>5359</v>
       </c>
@@ -3774,7 +3913,7 @@
       <c r="J3" s="18"/>
       <c r="K3" s="19"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>5359</v>
       </c>
@@ -3803,7 +3942,7 @@
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>5359</v>
       </c>
@@ -3828,7 +3967,7 @@
       <c r="J5" s="18"/>
       <c r="K5" s="19"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5359</v>
       </c>
@@ -3853,7 +3992,7 @@
       <c r="J6" s="18"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>5359</v>
       </c>
@@ -3878,7 +4017,7 @@
       <c r="J7" s="18"/>
       <c r="K7" s="19"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>5359</v>
       </c>
@@ -3903,7 +4042,7 @@
       <c r="J8" s="18"/>
       <c r="K8" s="19"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>5359</v>
       </c>
@@ -3928,7 +4067,7 @@
       <c r="J9" s="18"/>
       <c r="K9" s="19"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>5359</v>
       </c>
@@ -3953,7 +4092,7 @@
       <c r="J10" s="18"/>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="1:11" ht="60">
+    <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>5359</v>
       </c>
@@ -3978,7 +4117,7 @@
       <c r="J11" s="18"/>
       <c r="K11" s="19"/>
     </row>
-    <row r="12" spans="1:11" ht="30">
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>5359</v>
       </c>
@@ -4001,7 +4140,7 @@
       <c r="J12" s="18"/>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>5359</v>
       </c>
@@ -4026,7 +4165,7 @@
       <c r="J13" s="18"/>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>5359</v>
       </c>
@@ -4051,7 +4190,7 @@
       <c r="J14" s="18"/>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>5359</v>
       </c>
@@ -4076,7 +4215,7 @@
       <c r="J15" s="18"/>
       <c r="K15" s="19"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>5359</v>
       </c>
@@ -4101,7 +4240,7 @@
       <c r="J16" s="18"/>
       <c r="K16" s="19"/>
     </row>
-    <row r="17" spans="1:11" ht="45">
+    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>5359</v>
       </c>
@@ -4126,7 +4265,7 @@
       <c r="J17" s="18"/>
       <c r="K17" s="19"/>
     </row>
-    <row r="18" spans="1:11" ht="30">
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>5359</v>
       </c>
@@ -4151,7 +4290,7 @@
       <c r="J18" s="18"/>
       <c r="K18" s="19"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>5359</v>
       </c>
@@ -4176,7 +4315,7 @@
       <c r="J19" s="18"/>
       <c r="K19" s="19"/>
     </row>
-    <row r="20" spans="1:11" ht="45">
+    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>5359</v>
       </c>
@@ -4199,7 +4338,7 @@
       <c r="J20" s="18"/>
       <c r="K20" s="19"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>5359</v>
       </c>
@@ -4222,7 +4361,7 @@
       <c r="J21" s="18"/>
       <c r="K21" s="19"/>
     </row>
-    <row r="22" spans="1:11" ht="30">
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>5359</v>
       </c>
@@ -4247,7 +4386,7 @@
       <c r="J22" s="18"/>
       <c r="K22" s="19"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>5359</v>
       </c>
@@ -4272,7 +4411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="45">
+    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>5359</v>
       </c>
@@ -4299,7 +4438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="60">
+    <row r="25" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>5359</v>
       </c>
@@ -4326,7 +4465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>5359</v>
       </c>
@@ -4353,7 +4492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="30">
+    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>5359</v>
       </c>
@@ -4380,7 +4519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>5359</v>
       </c>
@@ -4403,7 +4542,7 @@
       <c r="J28" s="18"/>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>5359</v>
       </c>
@@ -4432,7 +4571,7 @@
       <c r="J29" s="18"/>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>5359</v>
       </c>
@@ -4455,7 +4594,7 @@
       <c r="J30" s="18"/>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>5359</v>
       </c>
@@ -4478,7 +4617,7 @@
       <c r="J31" s="18"/>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="1:11" ht="45">
+    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>5359</v>
       </c>
@@ -4501,7 +4640,7 @@
       <c r="J32" s="18"/>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>5359</v>
       </c>
@@ -4524,7 +4663,7 @@
       <c r="J33" s="18"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>5359</v>
       </c>
@@ -4547,7 +4686,7 @@
       <c r="J34" s="18"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>5359</v>
       </c>
@@ -4574,7 +4713,7 @@
       <c r="J35" s="18"/>
       <c r="K35" s="19"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>5359</v>
       </c>
@@ -4597,7 +4736,7 @@
       <c r="J36" s="18"/>
       <c r="K36" s="19"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>5359</v>
       </c>
@@ -4620,7 +4759,7 @@
       <c r="J37" s="18"/>
       <c r="K37" s="19"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>5359</v>
       </c>
@@ -4643,7 +4782,7 @@
       <c r="J38" s="18"/>
       <c r="K38" s="19"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>5359</v>
       </c>
@@ -4666,7 +4805,7 @@
       <c r="J39" s="18"/>
       <c r="K39" s="19"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>5359</v>
       </c>
@@ -4689,7 +4828,7 @@
       <c r="J40" s="18"/>
       <c r="K40" s="19"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>5359</v>
       </c>
@@ -4712,7 +4851,7 @@
       <c r="J41" s="18"/>
       <c r="K41" s="19"/>
     </row>
-    <row r="42" spans="1:11" ht="30">
+    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>5359</v>
       </c>
@@ -4739,7 +4878,7 @@
       <c r="J42" s="18"/>
       <c r="K42" s="19"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>5359</v>
       </c>
@@ -4762,7 +4901,7 @@
       <c r="J43" s="18"/>
       <c r="K43" s="19"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>5359</v>
       </c>
@@ -4785,7 +4924,7 @@
       <c r="J44" s="18"/>
       <c r="K44" s="19"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>5359</v>
       </c>
@@ -4808,7 +4947,7 @@
       <c r="J45" s="18"/>
       <c r="K45" s="19"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>5359</v>
       </c>
@@ -4835,7 +4974,7 @@
       <c r="J46" s="18"/>
       <c r="K46" s="19"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>5359</v>
       </c>
@@ -4858,7 +4997,7 @@
       <c r="J47" s="18"/>
       <c r="K47" s="19"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>5359</v>
       </c>
@@ -4881,7 +5020,7 @@
       <c r="J48" s="18"/>
       <c r="K48" s="19"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>5359</v>
       </c>
@@ -4906,7 +5045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>5359</v>
       </c>
@@ -4929,7 +5068,7 @@
       <c r="J50" s="18"/>
       <c r="K50" s="19"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>5359</v>
       </c>
@@ -4952,7 +5091,7 @@
       <c r="J51" s="18"/>
       <c r="K51" s="19"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>5359</v>
       </c>
@@ -4975,7 +5114,7 @@
       <c r="J52" s="18"/>
       <c r="K52" s="19"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>5359</v>
       </c>
@@ -4998,7 +5137,7 @@
       <c r="J53" s="18"/>
       <c r="K53" s="19"/>
     </row>
-    <row r="54" spans="1:11" ht="30">
+    <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="20">
         <v>5435</v>
       </c>
@@ -5023,7 +5162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="20">
         <v>5435</v>
       </c>
@@ -5048,7 +5187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="45">
+    <row r="56" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="20">
         <v>5435</v>
       </c>
@@ -5073,7 +5212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="20">
         <v>5435</v>
       </c>
@@ -5098,7 +5237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="20">
         <v>5435</v>
       </c>
@@ -5123,7 +5262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="20">
         <v>5435</v>
       </c>
@@ -5148,7 +5287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="60">
+    <row r="60" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
         <v>18189</v>
       </c>
@@ -5175,7 +5314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="60">
+    <row r="61" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="20">
         <v>18637</v>
       </c>
@@ -5202,7 +5341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="60">
+    <row r="62" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
         <v>20431</v>
       </c>
@@ -5229,7 +5368,7 @@
       <c r="J62" s="18"/>
       <c r="K62" s="19"/>
     </row>
-    <row r="63" spans="1:11" ht="30">
+    <row r="63" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
         <v>20431</v>
       </c>
@@ -5256,7 +5395,7 @@
       <c r="J63" s="18"/>
       <c r="K63" s="19"/>
     </row>
-    <row r="64" spans="1:11" ht="105">
+    <row r="64" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
         <v>20431</v>
       </c>
@@ -5283,7 +5422,7 @@
       <c r="J64" s="18"/>
       <c r="K64" s="19"/>
     </row>
-    <row r="65" spans="1:11" ht="60">
+    <row r="65" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>20431</v>
       </c>
@@ -5310,7 +5449,7 @@
       <c r="J65" s="18"/>
       <c r="K65" s="19"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="14">
         <v>20431</v>
       </c>
@@ -5337,7 +5476,7 @@
       <c r="J66" s="18"/>
       <c r="K66" s="19"/>
     </row>
-    <row r="67" spans="1:11" ht="30">
+    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>20431</v>
       </c>
@@ -5364,7 +5503,7 @@
       <c r="J67" s="18"/>
       <c r="K67" s="19"/>
     </row>
-    <row r="68" spans="1:11" ht="30">
+    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="20">
         <v>20523</v>
       </c>
@@ -5387,7 +5526,7 @@
       <c r="J68" s="25"/>
       <c r="K68" s="26"/>
     </row>
-    <row r="69" spans="1:11" ht="30">
+    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="20">
         <v>20523</v>
       </c>
@@ -5410,7 +5549,7 @@
       <c r="J69" s="25"/>
       <c r="K69" s="26"/>
     </row>
-    <row r="70" spans="1:11" ht="30">
+    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="20">
         <v>20523</v>
       </c>
@@ -5433,7 +5572,7 @@
       <c r="J70" s="25"/>
       <c r="K70" s="26"/>
     </row>
-    <row r="71" spans="1:11" ht="30">
+    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
         <v>20523</v>
       </c>
@@ -5456,7 +5595,7 @@
       <c r="J71" s="25"/>
       <c r="K71" s="26"/>
     </row>
-    <row r="72" spans="1:11" ht="30">
+    <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="14">
         <v>20541</v>
       </c>
@@ -5487,7 +5626,7 @@
       </c>
       <c r="K72" s="19"/>
     </row>
-    <row r="73" spans="1:11" ht="105">
+    <row r="73" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A73" s="14">
         <v>20541</v>
       </c>
@@ -5518,7 +5657,7 @@
       </c>
       <c r="K73" s="19"/>
     </row>
-    <row r="74" spans="1:11" ht="45">
+    <row r="74" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
         <v>20541</v>
       </c>
@@ -5549,7 +5688,7 @@
       </c>
       <c r="K74" s="19"/>
     </row>
-    <row r="75" spans="1:11" ht="60">
+    <row r="75" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="14">
         <v>20541</v>
       </c>
@@ -5580,7 +5719,7 @@
       </c>
       <c r="K75" s="19"/>
     </row>
-    <row r="76" spans="1:11" ht="30">
+    <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="14">
         <v>20541</v>
       </c>
@@ -5611,7 +5750,7 @@
       </c>
       <c r="K76" s="19"/>
     </row>
-    <row r="77" spans="1:11" ht="90">
+    <row r="77" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
         <v>20541</v>
       </c>
@@ -5642,7 +5781,7 @@
       </c>
       <c r="K77" s="19"/>
     </row>
-    <row r="78" spans="1:11" ht="75">
+    <row r="78" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A78" s="14">
         <v>20541</v>
       </c>
@@ -5673,7 +5812,7 @@
       </c>
       <c r="K78" s="19"/>
     </row>
-    <row r="79" spans="1:11" ht="30">
+    <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="14">
         <v>20541</v>
       </c>
@@ -5704,7 +5843,7 @@
       </c>
       <c r="K79" s="19"/>
     </row>
-    <row r="80" spans="1:11" ht="105">
+    <row r="80" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A80" s="14">
         <v>20541</v>
       </c>
@@ -5735,7 +5874,7 @@
       </c>
       <c r="K80" s="19"/>
     </row>
-    <row r="81" spans="1:11" ht="60">
+    <row r="81" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="20">
         <v>20579</v>
       </c>
@@ -5762,7 +5901,7 @@
       <c r="J81" s="25"/>
       <c r="K81" s="26"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="14">
         <v>20588</v>
       </c>
@@ -5785,7 +5924,7 @@
       <c r="J82" s="18"/>
       <c r="K82" s="19"/>
     </row>
-    <row r="83" spans="1:11" ht="30">
+    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="14">
         <v>20588</v>
       </c>
@@ -5808,7 +5947,7 @@
       <c r="J83" s="18"/>
       <c r="K83" s="19"/>
     </row>
-    <row r="84" spans="1:11" ht="30">
+    <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="14">
         <v>20588</v>
       </c>
@@ -5831,7 +5970,7 @@
       <c r="J84" s="18"/>
       <c r="K84" s="19"/>
     </row>
-    <row r="85" spans="1:11" ht="60">
+    <row r="85" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="20">
         <v>20593</v>
       </c>
@@ -5856,7 +5995,7 @@
       <c r="J85" s="25"/>
       <c r="K85" s="26"/>
     </row>
-    <row r="86" spans="1:11" ht="105">
+    <row r="86" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A86" s="20">
         <v>20593</v>
       </c>
@@ -5881,7 +6020,7 @@
       <c r="J86" s="25"/>
       <c r="K86" s="26"/>
     </row>
-    <row r="87" spans="1:11" ht="60">
+    <row r="87" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" s="20">
         <v>20593</v>
       </c>
@@ -5906,7 +6045,7 @@
       <c r="J87" s="25"/>
       <c r="K87" s="26"/>
     </row>
-    <row r="88" spans="1:11" ht="75">
+    <row r="88" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A88" s="14">
         <v>20616</v>
       </c>
@@ -5931,7 +6070,7 @@
       <c r="J88" s="18"/>
       <c r="K88" s="19"/>
     </row>
-    <row r="89" spans="1:11" ht="60">
+    <row r="89" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="14">
         <v>20616</v>
       </c>
@@ -5956,7 +6095,7 @@
       <c r="J89" s="18"/>
       <c r="K89" s="19"/>
     </row>
-    <row r="90" spans="1:11" ht="45">
+    <row r="90" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="14">
         <v>20616</v>
       </c>
@@ -5981,7 +6120,7 @@
       <c r="J90" s="18"/>
       <c r="K90" s="19"/>
     </row>
-    <row r="91" spans="1:11" ht="45">
+    <row r="91" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="14">
         <v>20616</v>
       </c>
@@ -6006,7 +6145,7 @@
       <c r="J91" s="18"/>
       <c r="K91" s="19"/>
     </row>
-    <row r="92" spans="1:11" ht="75">
+    <row r="92" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A92" s="14">
         <v>20616</v>
       </c>
@@ -6031,7 +6170,7 @@
       <c r="J92" s="18"/>
       <c r="K92" s="19"/>
     </row>
-    <row r="93" spans="1:11" ht="45">
+    <row r="93" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="14">
         <v>20616</v>
       </c>
@@ -6056,7 +6195,7 @@
       <c r="J93" s="18"/>
       <c r="K93" s="19"/>
     </row>
-    <row r="94" spans="1:11" ht="75">
+    <row r="94" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A94" s="14">
         <v>20616</v>
       </c>
@@ -6081,7 +6220,7 @@
       <c r="J94" s="18"/>
       <c r="K94" s="19"/>
     </row>
-    <row r="95" spans="1:11" ht="30">
+    <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="14">
         <v>20616</v>
       </c>
@@ -6106,7 +6245,7 @@
       <c r="J95" s="18"/>
       <c r="K95" s="19"/>
     </row>
-    <row r="96" spans="1:11" ht="75">
+    <row r="96" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A96" s="14">
         <v>20616</v>
       </c>
@@ -6131,7 +6270,7 @@
       <c r="J96" s="18"/>
       <c r="K96" s="19"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="14">
         <v>20616</v>
       </c>
@@ -6156,7 +6295,7 @@
       <c r="J97" s="18"/>
       <c r="K97" s="19"/>
     </row>
-    <row r="98" spans="1:11" ht="30">
+    <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="14">
         <v>20616</v>
       </c>
@@ -6181,7 +6320,7 @@
       <c r="J98" s="18"/>
       <c r="K98" s="19"/>
     </row>
-    <row r="99" spans="1:11" ht="30">
+    <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="14">
         <v>20616</v>
       </c>
@@ -6206,7 +6345,7 @@
       <c r="J99" s="18"/>
       <c r="K99" s="19"/>
     </row>
-    <row r="100" spans="1:11" ht="75">
+    <row r="100" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A100" s="20">
         <v>20639</v>
       </c>
@@ -6233,7 +6372,7 @@
       <c r="J100" s="25"/>
       <c r="K100" s="26"/>
     </row>
-    <row r="101" spans="1:11" ht="45">
+    <row r="101" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="20">
         <v>20639</v>
       </c>
@@ -6260,7 +6399,7 @@
       <c r="J101" s="25"/>
       <c r="K101" s="26"/>
     </row>
-    <row r="102" spans="1:11" ht="90">
+    <row r="102" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A102" s="20">
         <v>20639</v>
       </c>
@@ -6287,7 +6426,7 @@
       <c r="J102" s="25"/>
       <c r="K102" s="26"/>
     </row>
-    <row r="103" spans="1:11" ht="45">
+    <row r="103" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="20">
         <v>20639</v>
       </c>
@@ -6314,7 +6453,7 @@
       <c r="J103" s="25"/>
       <c r="K103" s="26"/>
     </row>
-    <row r="104" spans="1:11" ht="75">
+    <row r="104" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A104" s="20">
         <v>20639</v>
       </c>
@@ -6341,7 +6480,7 @@
       <c r="J104" s="25"/>
       <c r="K104" s="26"/>
     </row>
-    <row r="105" spans="1:11" ht="30">
+    <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="20">
         <v>20639</v>
       </c>
@@ -6368,7 +6507,7 @@
       <c r="J105" s="25"/>
       <c r="K105" s="26"/>
     </row>
-    <row r="106" spans="1:11" ht="45">
+    <row r="106" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="20">
         <v>20639</v>
       </c>
@@ -6395,7 +6534,7 @@
       <c r="J106" s="25"/>
       <c r="K106" s="26"/>
     </row>
-    <row r="107" spans="1:11" ht="60">
+    <row r="107" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" s="14">
         <v>20640</v>
       </c>
@@ -6420,7 +6559,7 @@
       <c r="J107" s="18"/>
       <c r="K107" s="19"/>
     </row>
-    <row r="108" spans="1:11" ht="60">
+    <row r="108" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A108" s="14">
         <v>20640</v>
       </c>
@@ -6445,7 +6584,7 @@
       <c r="J108" s="18"/>
       <c r="K108" s="19"/>
     </row>
-    <row r="109" spans="1:11" ht="90">
+    <row r="109" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A109" s="14">
         <v>20640</v>
       </c>
@@ -6470,7 +6609,7 @@
       <c r="J109" s="18"/>
       <c r="K109" s="19"/>
     </row>
-    <row r="110" spans="1:11" ht="30">
+    <row r="110" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="20">
         <v>20647</v>
       </c>
@@ -6493,7 +6632,7 @@
       <c r="J110" s="25"/>
       <c r="K110" s="26"/>
     </row>
-    <row r="111" spans="1:11" ht="30">
+    <row r="111" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="20">
         <v>20647</v>
       </c>
@@ -6516,7 +6655,7 @@
       <c r="J111" s="25"/>
       <c r="K111" s="26"/>
     </row>
-    <row r="112" spans="1:11" ht="45">
+    <row r="112" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="14">
         <v>20651</v>
       </c>
@@ -6541,7 +6680,7 @@
       <c r="J112" s="18"/>
       <c r="K112" s="19"/>
     </row>
-    <row r="113" spans="1:11" ht="60">
+    <row r="113" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A113" s="14">
         <v>20651</v>
       </c>
@@ -6566,7 +6705,7 @@
       <c r="J113" s="18"/>
       <c r="K113" s="19"/>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="14">
         <v>20651</v>
       </c>
@@ -6591,7 +6730,7 @@
       <c r="J114" s="18"/>
       <c r="K114" s="19"/>
     </row>
-    <row r="115" spans="1:11" ht="30">
+    <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="14">
         <v>20651</v>
       </c>
@@ -6616,7 +6755,7 @@
       <c r="J115" s="18"/>
       <c r="K115" s="19"/>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="20">
         <v>20662</v>
       </c>
@@ -6639,7 +6778,7 @@
       <c r="J116" s="25"/>
       <c r="K116" s="26"/>
     </row>
-    <row r="117" spans="1:11" ht="30">
+    <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="20">
         <v>20662</v>
       </c>
@@ -6662,7 +6801,7 @@
       <c r="J117" s="25"/>
       <c r="K117" s="26"/>
     </row>
-    <row r="118" spans="1:11" ht="30">
+    <row r="118" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="14">
         <v>20669</v>
       </c>
@@ -6685,7 +6824,7 @@
       <c r="J118" s="18"/>
       <c r="K118" s="19"/>
     </row>
-    <row r="119" spans="1:11" ht="30">
+    <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="14">
         <v>20669</v>
       </c>
@@ -6708,7 +6847,7 @@
       <c r="J119" s="18"/>
       <c r="K119" s="19"/>
     </row>
-    <row r="120" spans="1:11" ht="30">
+    <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="20">
         <v>20682</v>
       </c>
@@ -6735,7 +6874,7 @@
       <c r="J120" s="25"/>
       <c r="K120" s="26"/>
     </row>
-    <row r="121" spans="1:11" ht="30">
+    <row r="121" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="20">
         <v>20682</v>
       </c>
@@ -6762,7 +6901,7 @@
       <c r="J121" s="25"/>
       <c r="K121" s="26"/>
     </row>
-    <row r="122" spans="1:11" ht="30">
+    <row r="122" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="20">
         <v>20682</v>
       </c>
@@ -6789,7 +6928,7 @@
       <c r="J122" s="25"/>
       <c r="K122" s="26"/>
     </row>
-    <row r="123" spans="1:11" ht="60">
+    <row r="123" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A123" s="20">
         <v>20682</v>
       </c>
@@ -6816,7 +6955,7 @@
       <c r="J123" s="25"/>
       <c r="K123" s="26"/>
     </row>
-    <row r="124" spans="1:11" ht="30">
+    <row r="124" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="20">
         <v>20682</v>
       </c>
@@ -6843,7 +6982,7 @@
       <c r="J124" s="25"/>
       <c r="K124" s="26"/>
     </row>
-    <row r="125" spans="1:11" ht="90">
+    <row r="125" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A125" s="20">
         <v>20682</v>
       </c>
@@ -6870,7 +7009,7 @@
       <c r="J125" s="25"/>
       <c r="K125" s="26"/>
     </row>
-    <row r="126" spans="1:11" ht="30">
+    <row r="126" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="20">
         <v>20682</v>
       </c>
@@ -6897,7 +7036,7 @@
       <c r="J126" s="25"/>
       <c r="K126" s="26"/>
     </row>
-    <row r="127" spans="1:11" ht="45">
+    <row r="127" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="20">
         <v>20682</v>
       </c>
@@ -6924,7 +7063,7 @@
       <c r="J127" s="25"/>
       <c r="K127" s="26"/>
     </row>
-    <row r="128" spans="1:11" ht="60">
+    <row r="128" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="20">
         <v>20682</v>
       </c>
@@ -6951,7 +7090,7 @@
       <c r="J128" s="25"/>
       <c r="K128" s="26"/>
     </row>
-    <row r="129" spans="1:11" ht="30">
+    <row r="129" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="20">
         <v>20682</v>
       </c>
@@ -6978,7 +7117,7 @@
       <c r="J129" s="25"/>
       <c r="K129" s="26"/>
     </row>
-    <row r="130" spans="1:11" ht="30">
+    <row r="130" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="20">
         <v>20682</v>
       </c>
@@ -7005,7 +7144,7 @@
       <c r="J130" s="25"/>
       <c r="K130" s="26"/>
     </row>
-    <row r="131" spans="1:11" ht="30">
+    <row r="131" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="20">
         <v>20682</v>
       </c>
@@ -7032,7 +7171,7 @@
       <c r="J131" s="25"/>
       <c r="K131" s="26"/>
     </row>
-    <row r="132" spans="1:11" ht="45">
+    <row r="132" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="20">
         <v>20682</v>
       </c>
@@ -7059,7 +7198,7 @@
       <c r="J132" s="25"/>
       <c r="K132" s="26"/>
     </row>
-    <row r="133" spans="1:11" ht="45">
+    <row r="133" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" s="20">
         <v>20682</v>
       </c>
@@ -7086,7 +7225,7 @@
       <c r="J133" s="25"/>
       <c r="K133" s="26"/>
     </row>
-    <row r="134" spans="1:11" ht="90">
+    <row r="134" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A134" s="20">
         <v>20682</v>
       </c>
@@ -7113,7 +7252,7 @@
       <c r="J134" s="25"/>
       <c r="K134" s="26"/>
     </row>
-    <row r="135" spans="1:11" ht="90">
+    <row r="135" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A135" s="20">
         <v>20682</v>
       </c>
@@ -7140,7 +7279,7 @@
       <c r="J135" s="25"/>
       <c r="K135" s="26"/>
     </row>
-    <row r="136" spans="1:11" ht="60">
+    <row r="136" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A136" s="14">
         <v>20689</v>
       </c>
@@ -7165,7 +7304,7 @@
       <c r="J136" s="18"/>
       <c r="K136" s="19"/>
     </row>
-    <row r="137" spans="1:11" ht="75">
+    <row r="137" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A137" s="14">
         <v>20689</v>
       </c>
@@ -7190,7 +7329,7 @@
       <c r="J137" s="18"/>
       <c r="K137" s="19"/>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="14">
         <v>20689</v>
       </c>
@@ -7215,7 +7354,7 @@
       <c r="J138" s="18"/>
       <c r="K138" s="19"/>
     </row>
-    <row r="139" spans="1:11" ht="30">
+    <row r="139" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="20">
         <v>20762</v>
       </c>
@@ -7238,7 +7377,7 @@
       <c r="J139" s="25"/>
       <c r="K139" s="26"/>
     </row>
-    <row r="140" spans="1:11" ht="30">
+    <row r="140" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="20">
         <v>20762</v>
       </c>
@@ -7261,7 +7400,7 @@
       <c r="J140" s="25"/>
       <c r="K140" s="26"/>
     </row>
-    <row r="141" spans="1:11" ht="30">
+    <row r="141" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="20">
         <v>20762</v>
       </c>
@@ -7284,7 +7423,7 @@
       <c r="J141" s="25"/>
       <c r="K141" s="26"/>
     </row>
-    <row r="142" spans="1:11" ht="30">
+    <row r="142" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="14">
         <v>20769</v>
       </c>
@@ -7309,7 +7448,7 @@
       <c r="J142" s="18"/>
       <c r="K142" s="19"/>
     </row>
-    <row r="143" spans="1:11" ht="90">
+    <row r="143" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A143" s="14">
         <v>20769</v>
       </c>
@@ -7334,7 +7473,7 @@
       <c r="J143" s="18"/>
       <c r="K143" s="19"/>
     </row>
-    <row r="144" spans="1:11" ht="30">
+    <row r="144" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="14">
         <v>20769</v>
       </c>
@@ -7359,7 +7498,7 @@
       <c r="J144" s="18"/>
       <c r="K144" s="19"/>
     </row>
-    <row r="145" spans="1:11" ht="30">
+    <row r="145" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="14">
         <v>20769</v>
       </c>
@@ -7384,7 +7523,7 @@
       <c r="J145" s="18"/>
       <c r="K145" s="19"/>
     </row>
-    <row r="146" spans="1:11" ht="30">
+    <row r="146" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="20">
         <v>20812</v>
       </c>
@@ -7407,7 +7546,7 @@
       <c r="J146" s="25"/>
       <c r="K146" s="26"/>
     </row>
-    <row r="147" spans="1:11" ht="30">
+    <row r="147" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="20">
         <v>20812</v>
       </c>
@@ -7430,7 +7569,7 @@
       <c r="J147" s="25"/>
       <c r="K147" s="26"/>
     </row>
-    <row r="148" spans="1:11" ht="30">
+    <row r="148" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="14">
         <v>20846</v>
       </c>
@@ -7459,7 +7598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="30">
+    <row r="149" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="14">
         <v>20846</v>
       </c>
@@ -7486,7 +7625,7 @@
       <c r="J149" s="18"/>
       <c r="K149" s="19"/>
     </row>
-    <row r="150" spans="1:11" ht="90">
+    <row r="150" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A150" s="14">
         <v>20846</v>
       </c>
@@ -7513,7 +7652,7 @@
       <c r="J150" s="18"/>
       <c r="K150" s="19"/>
     </row>
-    <row r="151" spans="1:11" ht="30">
+    <row r="151" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="14">
         <v>20846</v>
       </c>
@@ -7540,7 +7679,7 @@
       <c r="J151" s="18"/>
       <c r="K151" s="19"/>
     </row>
-    <row r="152" spans="1:11" ht="30">
+    <row r="152" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="14">
         <v>20846</v>
       </c>
@@ -7567,7 +7706,7 @@
       <c r="J152" s="18"/>
       <c r="K152" s="19"/>
     </row>
-    <row r="153" spans="1:11" ht="90">
+    <row r="153" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A153" s="20">
         <v>20847</v>
       </c>
@@ -7594,7 +7733,7 @@
       <c r="J153" s="25"/>
       <c r="K153" s="26"/>
     </row>
-    <row r="154" spans="1:11" ht="75">
+    <row r="154" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A154" s="20">
         <v>20847</v>
       </c>
@@ -7621,7 +7760,7 @@
       <c r="J154" s="25"/>
       <c r="K154" s="26"/>
     </row>
-    <row r="155" spans="1:11" ht="30">
+    <row r="155" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="20">
         <v>20847</v>
       </c>
@@ -7648,7 +7787,7 @@
       <c r="J155" s="25"/>
       <c r="K155" s="26"/>
     </row>
-    <row r="156" spans="1:11" ht="30">
+    <row r="156" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="20">
         <v>20847</v>
       </c>
@@ -7675,7 +7814,7 @@
       <c r="J156" s="25"/>
       <c r="K156" s="26"/>
     </row>
-    <row r="157" spans="1:11" ht="30">
+    <row r="157" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="14">
         <v>20850</v>
       </c>
@@ -7700,7 +7839,7 @@
       <c r="J157" s="18"/>
       <c r="K157" s="19"/>
     </row>
-    <row r="158" spans="1:11" ht="30">
+    <row r="158" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="14">
         <v>20850</v>
       </c>
@@ -7725,7 +7864,7 @@
       <c r="J158" s="18"/>
       <c r="K158" s="19"/>
     </row>
-    <row r="159" spans="1:11" ht="45">
+    <row r="159" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="14">
         <v>20850</v>
       </c>
@@ -7750,7 +7889,7 @@
       <c r="J159" s="18"/>
       <c r="K159" s="19"/>
     </row>
-    <row r="160" spans="1:11" ht="60">
+    <row r="160" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" s="14">
         <v>20850</v>
       </c>
@@ -7775,7 +7914,7 @@
       <c r="J160" s="18"/>
       <c r="K160" s="19"/>
     </row>
-    <row r="161" spans="1:11" ht="30">
+    <row r="161" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="20">
         <v>20852</v>
       </c>
@@ -7798,7 +7937,7 @@
       <c r="J161" s="25"/>
       <c r="K161" s="26"/>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="20">
         <v>20852</v>
       </c>
@@ -7821,7 +7960,7 @@
       <c r="J162" s="25"/>
       <c r="K162" s="26"/>
     </row>
-    <row r="163" spans="1:11" ht="30">
+    <row r="163" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="14">
         <v>20855</v>
       </c>
@@ -7844,7 +7983,7 @@
       <c r="J163" s="18"/>
       <c r="K163" s="19"/>
     </row>
-    <row r="164" spans="1:11" ht="30">
+    <row r="164" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="14">
         <v>20855</v>
       </c>
@@ -7867,7 +8006,7 @@
       <c r="J164" s="18"/>
       <c r="K164" s="19"/>
     </row>
-    <row r="165" spans="1:11" ht="30">
+    <row r="165" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="20">
         <v>20857</v>
       </c>
@@ -7890,7 +8029,7 @@
       <c r="J165" s="25"/>
       <c r="K165" s="26"/>
     </row>
-    <row r="166" spans="1:11" ht="30">
+    <row r="166" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="20">
         <v>20857</v>
       </c>
@@ -7913,7 +8052,7 @@
       <c r="J166" s="25"/>
       <c r="K166" s="26"/>
     </row>
-    <row r="167" spans="1:11" ht="75">
+    <row r="167" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A167" s="14">
         <v>20878</v>
       </c>
@@ -7938,7 +8077,7 @@
       <c r="J167" s="18"/>
       <c r="K167" s="19"/>
     </row>
-    <row r="168" spans="1:11" ht="60">
+    <row r="168" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A168" s="14">
         <v>20878</v>
       </c>
@@ -7963,7 +8102,7 @@
       <c r="J168" s="18"/>
       <c r="K168" s="19"/>
     </row>
-    <row r="169" spans="1:11" ht="30">
+    <row r="169" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="14">
         <v>20878</v>
       </c>
@@ -7988,7 +8127,7 @@
       <c r="J169" s="18"/>
       <c r="K169" s="19"/>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="20">
         <v>20973</v>
       </c>
@@ -8011,7 +8150,7 @@
       <c r="J170" s="25"/>
       <c r="K170" s="26"/>
     </row>
-    <row r="171" spans="1:11" ht="75">
+    <row r="171" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A171" s="14">
         <v>21022</v>
       </c>
@@ -8036,7 +8175,7 @@
       <c r="J171" s="18"/>
       <c r="K171" s="19"/>
     </row>
-    <row r="172" spans="1:11" ht="30">
+    <row r="172" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="14">
         <v>21022</v>
       </c>
@@ -8061,7 +8200,7 @@
       <c r="J172" s="18"/>
       <c r="K172" s="19"/>
     </row>
-    <row r="173" spans="1:11" ht="45">
+    <row r="173" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A173" s="14">
         <v>21022</v>
       </c>
@@ -8086,7 +8225,7 @@
       <c r="J173" s="18"/>
       <c r="K173" s="19"/>
     </row>
-    <row r="174" spans="1:11" ht="105">
+    <row r="174" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A174" s="20">
         <v>21082</v>
       </c>
@@ -8111,7 +8250,7 @@
       <c r="J174" s="25"/>
       <c r="K174" s="26"/>
     </row>
-    <row r="175" spans="1:11" ht="30">
+    <row r="175" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="20">
         <v>21082</v>
       </c>
@@ -8136,7 +8275,7 @@
       <c r="J175" s="25"/>
       <c r="K175" s="26"/>
     </row>
-    <row r="176" spans="1:11" ht="30">
+    <row r="176" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="14">
         <v>21113</v>
       </c>
@@ -8159,7 +8298,7 @@
       <c r="J176" s="18"/>
       <c r="K176" s="19"/>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="14">
         <v>21113</v>
       </c>
@@ -8182,7 +8321,7 @@
       <c r="J177" s="18"/>
       <c r="K177" s="19"/>
     </row>
-    <row r="178" spans="1:11" ht="30">
+    <row r="178" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="20">
         <v>21149</v>
       </c>
@@ -8205,7 +8344,7 @@
       <c r="J178" s="25"/>
       <c r="K178" s="26"/>
     </row>
-    <row r="179" spans="1:11" ht="30">
+    <row r="179" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="20">
         <v>21149</v>
       </c>
@@ -8228,7 +8367,7 @@
       <c r="J179" s="25"/>
       <c r="K179" s="26"/>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="14">
         <v>21201</v>
       </c>
@@ -8255,7 +8394,7 @@
       <c r="J180" s="18"/>
       <c r="K180" s="19"/>
     </row>
-    <row r="181" spans="1:11" ht="75">
+    <row r="181" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A181" s="20">
         <v>21202</v>
       </c>
@@ -8284,7 +8423,7 @@
       <c r="J181" s="25"/>
       <c r="K181" s="26"/>
     </row>
-    <row r="182" spans="1:11" ht="60">
+    <row r="182" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A182" s="20">
         <v>21202</v>
       </c>
@@ -8313,7 +8452,7 @@
       <c r="J182" s="25"/>
       <c r="K182" s="26"/>
     </row>
-    <row r="183" spans="1:11" ht="45">
+    <row r="183" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="20">
         <v>21202</v>
       </c>
@@ -8342,7 +8481,7 @@
       <c r="J183" s="25"/>
       <c r="K183" s="26"/>
     </row>
-    <row r="184" spans="1:11" ht="30">
+    <row r="184" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="20">
         <v>21202</v>
       </c>
@@ -8371,7 +8510,7 @@
       <c r="J184" s="25"/>
       <c r="K184" s="26"/>
     </row>
-    <row r="185" spans="1:11" ht="45">
+    <row r="185" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="20">
         <v>21202</v>
       </c>
@@ -8400,7 +8539,7 @@
       <c r="J185" s="25"/>
       <c r="K185" s="26"/>
     </row>
-    <row r="186" spans="1:11" ht="45">
+    <row r="186" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="20">
         <v>21202</v>
       </c>
@@ -8429,7 +8568,7 @@
       <c r="J186" s="25"/>
       <c r="K186" s="26"/>
     </row>
-    <row r="187" spans="1:11" ht="45">
+    <row r="187" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="20">
         <v>21202</v>
       </c>
@@ -8458,7 +8597,7 @@
       <c r="J187" s="25"/>
       <c r="K187" s="26"/>
     </row>
-    <row r="188" spans="1:11" ht="90">
+    <row r="188" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A188" s="20">
         <v>21202</v>
       </c>
@@ -8487,7 +8626,7 @@
       <c r="J188" s="25"/>
       <c r="K188" s="26"/>
     </row>
-    <row r="189" spans="1:11" ht="105">
+    <row r="189" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A189" s="20">
         <v>21202</v>
       </c>
@@ -8516,7 +8655,7 @@
       <c r="J189" s="25"/>
       <c r="K189" s="26"/>
     </row>
-    <row r="190" spans="1:11" ht="120">
+    <row r="190" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A190" s="20">
         <v>21202</v>
       </c>
@@ -8545,7 +8684,7 @@
       <c r="J190" s="25"/>
       <c r="K190" s="26"/>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="20">
         <v>21202</v>
       </c>
@@ -8574,7 +8713,7 @@
       <c r="J191" s="25"/>
       <c r="K191" s="26"/>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="20">
         <v>21202</v>
       </c>
@@ -8603,7 +8742,7 @@
       <c r="J192" s="25"/>
       <c r="K192" s="26"/>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="20">
         <v>21202</v>
       </c>
@@ -8632,7 +8771,7 @@
       <c r="J193" s="25"/>
       <c r="K193" s="26"/>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="20">
         <v>21202</v>
       </c>
@@ -8661,7 +8800,7 @@
       <c r="J194" s="25"/>
       <c r="K194" s="26"/>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="20">
         <v>21202</v>
       </c>
@@ -8690,7 +8829,7 @@
       <c r="J195" s="25"/>
       <c r="K195" s="26"/>
     </row>
-    <row r="196" spans="1:11" ht="30">
+    <row r="196" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="14">
         <v>21219</v>
       </c>
@@ -8717,7 +8856,7 @@
       <c r="J196" s="18"/>
       <c r="K196" s="19"/>
     </row>
-    <row r="197" spans="1:11" ht="60">
+    <row r="197" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A197" s="14">
         <v>21219</v>
       </c>
@@ -8744,7 +8883,7 @@
       <c r="J197" s="18"/>
       <c r="K197" s="19"/>
     </row>
-    <row r="198" spans="1:11" ht="75">
+    <row r="198" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A198" s="14">
         <v>21219</v>
       </c>
@@ -8771,7 +8910,7 @@
       <c r="J198" s="18"/>
       <c r="K198" s="19"/>
     </row>
-    <row r="199" spans="1:11" ht="45">
+    <row r="199" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" s="14">
         <v>21219</v>
       </c>
@@ -8798,7 +8937,7 @@
       <c r="J199" s="18"/>
       <c r="K199" s="19"/>
     </row>
-    <row r="200" spans="1:11" ht="45">
+    <row r="200" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A200" s="14">
         <v>21219</v>
       </c>
@@ -8825,7 +8964,7 @@
       <c r="J200" s="18"/>
       <c r="K200" s="19"/>
     </row>
-    <row r="201" spans="1:11" ht="105">
+    <row r="201" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A201" s="14">
         <v>21219</v>
       </c>
@@ -8852,7 +8991,7 @@
       <c r="J201" s="18"/>
       <c r="K201" s="19"/>
     </row>
-    <row r="202" spans="1:11" ht="75">
+    <row r="202" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A202" s="14">
         <v>21219</v>
       </c>
@@ -8879,7 +9018,7 @@
       <c r="J202" s="18"/>
       <c r="K202" s="19"/>
     </row>
-    <row r="203" spans="1:11" ht="75">
+    <row r="203" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A203" s="20">
         <v>21230</v>
       </c>
@@ -8904,7 +9043,7 @@
       <c r="J203" s="25"/>
       <c r="K203" s="26"/>
     </row>
-    <row r="204" spans="1:11" ht="30">
+    <row r="204" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="14">
         <v>21233</v>
       </c>
@@ -8927,7 +9066,7 @@
       <c r="J204" s="18"/>
       <c r="K204" s="19"/>
     </row>
-    <row r="205" spans="1:11" ht="45">
+    <row r="205" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A205" s="20">
         <v>21244</v>
       </c>
@@ -8950,7 +9089,7 @@
       <c r="J205" s="25"/>
       <c r="K205" s="26"/>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="14">
         <v>21328</v>
       </c>
@@ -8973,7 +9112,7 @@
       <c r="J206" s="18"/>
       <c r="K206" s="19"/>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="14">
         <v>21328</v>
       </c>
@@ -8996,7 +9135,7 @@
       <c r="J207" s="18"/>
       <c r="K207" s="19"/>
     </row>
-    <row r="208" spans="1:11" ht="105">
+    <row r="208" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A208" s="20">
         <v>21433</v>
       </c>
@@ -9021,7 +9160,7 @@
       <c r="J208" s="25"/>
       <c r="K208" s="26"/>
     </row>
-    <row r="209" spans="1:11" ht="45">
+    <row r="209" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A209" s="20">
         <v>21433</v>
       </c>
@@ -9046,7 +9185,7 @@
       <c r="J209" s="25"/>
       <c r="K209" s="26"/>
     </row>
-    <row r="210" spans="1:11" ht="60">
+    <row r="210" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A210" s="20">
         <v>21433</v>
       </c>
@@ -9071,7 +9210,7 @@
       <c r="J210" s="25"/>
       <c r="K210" s="26"/>
     </row>
-    <row r="211" spans="1:11" ht="60">
+    <row r="211" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A211" s="20">
         <v>21433</v>
       </c>
@@ -9096,7 +9235,7 @@
       <c r="J211" s="25"/>
       <c r="K211" s="26"/>
     </row>
-    <row r="212" spans="1:11" ht="30">
+    <row r="212" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="20">
         <v>21433</v>
       </c>
@@ -9121,7 +9260,7 @@
       <c r="J212" s="25"/>
       <c r="K212" s="26"/>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="20">
         <v>21433</v>
       </c>
@@ -9146,7 +9285,7 @@
       <c r="J213" s="25"/>
       <c r="K213" s="26"/>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="20">
         <v>21433</v>
       </c>
@@ -9171,7 +9310,7 @@
       <c r="J214" s="25"/>
       <c r="K214" s="26"/>
     </row>
-    <row r="215" spans="1:11" ht="60">
+    <row r="215" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A215" s="14">
         <v>21439</v>
       </c>
@@ -9196,7 +9335,7 @@
       <c r="J215" s="18"/>
       <c r="K215" s="19"/>
     </row>
-    <row r="216" spans="1:11" ht="30">
+    <row r="216" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="20">
         <v>21442</v>
       </c>
@@ -9219,7 +9358,7 @@
       <c r="J216" s="25"/>
       <c r="K216" s="26"/>
     </row>
-    <row r="217" spans="1:11" ht="30">
+    <row r="217" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="20">
         <v>21442</v>
       </c>
@@ -9242,7 +9381,7 @@
       <c r="J217" s="25"/>
       <c r="K217" s="26"/>
     </row>
-    <row r="218" spans="1:11" ht="30">
+    <row r="218" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="14">
         <v>21443</v>
       </c>
@@ -9265,7 +9404,7 @@
       <c r="J218" s="18"/>
       <c r="K218" s="19"/>
     </row>
-    <row r="219" spans="1:11" ht="30">
+    <row r="219" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="14">
         <v>21443</v>
       </c>
@@ -9288,7 +9427,7 @@
       <c r="J219" s="18"/>
       <c r="K219" s="19"/>
     </row>
-    <row r="220" spans="1:11" ht="30">
+    <row r="220" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="20">
         <v>21444</v>
       </c>
@@ -9311,7 +9450,7 @@
       <c r="J220" s="25"/>
       <c r="K220" s="26"/>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="20">
         <v>21444</v>
       </c>
@@ -9334,7 +9473,7 @@
       <c r="J221" s="25"/>
       <c r="K221" s="26"/>
     </row>
-    <row r="222" spans="1:11" ht="30">
+    <row r="222" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="14">
         <v>21452</v>
       </c>
@@ -9357,7 +9496,7 @@
       <c r="J222" s="18"/>
       <c r="K222" s="19"/>
     </row>
-    <row r="223" spans="1:11" ht="30">
+    <row r="223" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="14">
         <v>21452</v>
       </c>
@@ -9380,7 +9519,7 @@
       <c r="J223" s="18"/>
       <c r="K223" s="19"/>
     </row>
-    <row r="224" spans="1:11" ht="30">
+    <row r="224" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="20">
         <v>21527</v>
       </c>
@@ -9403,7 +9542,7 @@
       <c r="J224" s="25"/>
       <c r="K224" s="26"/>
     </row>
-    <row r="225" spans="1:11" ht="75">
+    <row r="225" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A225" s="20">
         <v>21527</v>
       </c>
@@ -9426,7 +9565,7 @@
       <c r="J225" s="25"/>
       <c r="K225" s="26"/>
     </row>
-    <row r="226" spans="1:11" ht="30">
+    <row r="226" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="20">
         <v>21527</v>
       </c>
@@ -9449,7 +9588,7 @@
       <c r="J226" s="25"/>
       <c r="K226" s="26"/>
     </row>
-    <row r="227" spans="1:11" ht="30">
+    <row r="227" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="20">
         <v>21527</v>
       </c>
@@ -9472,7 +9611,7 @@
       <c r="J227" s="25"/>
       <c r="K227" s="26"/>
     </row>
-    <row r="228" spans="1:11" ht="30">
+    <row r="228" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="20">
         <v>21527</v>
       </c>
@@ -9495,7 +9634,7 @@
       <c r="J228" s="25"/>
       <c r="K228" s="26"/>
     </row>
-    <row r="229" spans="1:11" ht="60">
+    <row r="229" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A229" s="14">
         <v>21536</v>
       </c>
@@ -9522,7 +9661,7 @@
       </c>
       <c r="K229" s="19"/>
     </row>
-    <row r="230" spans="1:11" ht="60">
+    <row r="230" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A230" s="14">
         <v>21536</v>
       </c>
@@ -9551,7 +9690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="14">
         <v>21536</v>
       </c>
@@ -9578,7 +9717,7 @@
       </c>
       <c r="K231" s="19"/>
     </row>
-    <row r="232" spans="1:11" ht="30">
+    <row r="232" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="14">
         <v>21536</v>
       </c>
@@ -9605,7 +9744,7 @@
       </c>
       <c r="K232" s="19"/>
     </row>
-    <row r="233" spans="1:11" ht="45">
+    <row r="233" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A233" s="14">
         <v>21536</v>
       </c>
@@ -9632,7 +9771,7 @@
       </c>
       <c r="K233" s="19"/>
     </row>
-    <row r="234" spans="1:11" ht="60">
+    <row r="234" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A234" s="14">
         <v>21536</v>
       </c>
@@ -9659,7 +9798,7 @@
       </c>
       <c r="K234" s="19"/>
     </row>
-    <row r="235" spans="1:11" ht="45">
+    <row r="235" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A235" s="14">
         <v>21536</v>
       </c>
@@ -9686,7 +9825,7 @@
       </c>
       <c r="K235" s="19"/>
     </row>
-    <row r="236" spans="1:11" ht="45">
+    <row r="236" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A236" s="14">
         <v>21536</v>
       </c>
@@ -9713,7 +9852,7 @@
       </c>
       <c r="K236" s="19"/>
     </row>
-    <row r="237" spans="1:11" ht="90">
+    <row r="237" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A237" s="14">
         <v>21536</v>
       </c>
@@ -9740,7 +9879,7 @@
       </c>
       <c r="K237" s="19"/>
     </row>
-    <row r="238" spans="1:11" ht="120">
+    <row r="238" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A238" s="14">
         <v>21536</v>
       </c>
@@ -9767,7 +9906,7 @@
       </c>
       <c r="K238" s="19"/>
     </row>
-    <row r="239" spans="1:11" ht="75">
+    <row r="239" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A239" s="14">
         <v>21536</v>
       </c>
@@ -9794,7 +9933,7 @@
       </c>
       <c r="K239" s="19"/>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="14">
         <v>21536</v>
       </c>
@@ -9821,7 +9960,7 @@
       </c>
       <c r="K240" s="19"/>
     </row>
-    <row r="241" spans="1:11" ht="30">
+    <row r="241" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="14">
         <v>21536</v>
       </c>
@@ -9848,7 +9987,7 @@
       </c>
       <c r="K241" s="19"/>
     </row>
-    <row r="242" spans="1:11" ht="30">
+    <row r="242" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="14">
         <v>21536</v>
       </c>
@@ -9875,7 +10014,7 @@
       </c>
       <c r="K242" s="19"/>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="14">
         <v>21536</v>
       </c>
@@ -9902,7 +10041,7 @@
       </c>
       <c r="K243" s="19"/>
     </row>
-    <row r="244" spans="1:11" ht="90">
+    <row r="244" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A244" s="14">
         <v>21536</v>
       </c>
@@ -9929,7 +10068,7 @@
       </c>
       <c r="K244" s="19"/>
     </row>
-    <row r="245" spans="1:11" ht="60">
+    <row r="245" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A245" s="20">
         <v>21537</v>
       </c>
@@ -9956,7 +10095,7 @@
       <c r="J245" s="25"/>
       <c r="K245" s="26"/>
     </row>
-    <row r="246" spans="1:11" ht="75">
+    <row r="246" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A246" s="20">
         <v>21537</v>
       </c>
@@ -9983,7 +10122,7 @@
       <c r="J246" s="25"/>
       <c r="K246" s="26"/>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="20">
         <v>21537</v>
       </c>
@@ -10010,7 +10149,7 @@
       <c r="J247" s="25"/>
       <c r="K247" s="26"/>
     </row>
-    <row r="248" spans="1:11" ht="45">
+    <row r="248" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A248" s="20">
         <v>21537</v>
       </c>
@@ -10037,7 +10176,7 @@
       <c r="J248" s="25"/>
       <c r="K248" s="26"/>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="20">
         <v>21537</v>
       </c>
@@ -10064,7 +10203,7 @@
       <c r="J249" s="25"/>
       <c r="K249" s="26"/>
     </row>
-    <row r="250" spans="1:11" ht="120">
+    <row r="250" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A250" s="14">
         <v>21566</v>
       </c>
@@ -10089,7 +10228,7 @@
       <c r="J250" s="18"/>
       <c r="K250" s="19"/>
     </row>
-    <row r="251" spans="1:11" ht="60">
+    <row r="251" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A251" s="20">
         <v>21608</v>
       </c>
@@ -10114,7 +10253,7 @@
       <c r="J251" s="25"/>
       <c r="K251" s="26"/>
     </row>
-    <row r="252" spans="1:11" ht="105">
+    <row r="252" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A252" s="20">
         <v>21608</v>
       </c>
@@ -10139,7 +10278,7 @@
       <c r="J252" s="25"/>
       <c r="K252" s="26"/>
     </row>
-    <row r="253" spans="1:11" ht="90">
+    <row r="253" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A253" s="14">
         <v>21625</v>
       </c>
@@ -10166,7 +10305,7 @@
       </c>
       <c r="K253" s="19"/>
     </row>
-    <row r="254" spans="1:11" ht="30">
+    <row r="254" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="20">
         <v>21626</v>
       </c>
@@ -10189,7 +10328,7 @@
       <c r="J254" s="25"/>
       <c r="K254" s="26"/>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="20">
         <v>21626</v>
       </c>
@@ -10212,7 +10351,7 @@
       <c r="J255" s="25"/>
       <c r="K255" s="26"/>
     </row>
-    <row r="256" spans="1:11" ht="90">
+    <row r="256" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A256" s="14">
         <v>21638</v>
       </c>
@@ -10239,7 +10378,7 @@
       </c>
       <c r="K256" s="19"/>
     </row>
-    <row r="257" spans="1:11" ht="75">
+    <row r="257" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A257" s="14">
         <v>21638</v>
       </c>
@@ -10266,7 +10405,7 @@
       </c>
       <c r="K257" s="19"/>
     </row>
-    <row r="258" spans="1:11" ht="90">
+    <row r="258" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A258" s="14">
         <v>21638</v>
       </c>
@@ -10293,7 +10432,7 @@
       </c>
       <c r="K258" s="19"/>
     </row>
-    <row r="259" spans="1:11" ht="60">
+    <row r="259" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A259" s="14">
         <v>21638</v>
       </c>
@@ -10320,7 +10459,7 @@
       </c>
       <c r="K259" s="19"/>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="14">
         <v>21638</v>
       </c>
@@ -10347,7 +10486,7 @@
       </c>
       <c r="K260" s="19"/>
     </row>
-    <row r="261" spans="1:11" ht="30">
+    <row r="261" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="14">
         <v>21638</v>
       </c>
@@ -10374,7 +10513,7 @@
       </c>
       <c r="K261" s="19"/>
     </row>
-    <row r="262" spans="1:11" ht="30">
+    <row r="262" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="14">
         <v>21638</v>
       </c>
@@ -10401,7 +10540,7 @@
       </c>
       <c r="K262" s="19"/>
     </row>
-    <row r="263" spans="1:11" ht="60">
+    <row r="263" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A263" s="14">
         <v>21638</v>
       </c>
@@ -10428,7 +10567,7 @@
       </c>
       <c r="K263" s="19"/>
     </row>
-    <row r="264" spans="1:11" ht="30">
+    <row r="264" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="14">
         <v>21638</v>
       </c>
@@ -10455,7 +10594,7 @@
       </c>
       <c r="K264" s="19"/>
     </row>
-    <row r="265" spans="1:11" ht="60">
+    <row r="265" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A265" s="14">
         <v>21638</v>
       </c>
@@ -10482,7 +10621,7 @@
       </c>
       <c r="K265" s="19"/>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="14">
         <v>21638</v>
       </c>
@@ -10509,7 +10648,7 @@
       </c>
       <c r="K266" s="19"/>
     </row>
-    <row r="267" spans="1:11" ht="45">
+    <row r="267" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A267" s="14">
         <v>21638</v>
       </c>
@@ -10536,7 +10675,7 @@
       </c>
       <c r="K267" s="19"/>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="14">
         <v>21638</v>
       </c>
@@ -10563,7 +10702,7 @@
       </c>
       <c r="K268" s="19"/>
     </row>
-    <row r="269" spans="1:11" ht="45">
+    <row r="269" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A269" s="14">
         <v>21638</v>
       </c>
@@ -10590,7 +10729,7 @@
       </c>
       <c r="K269" s="19"/>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="20">
         <v>21777</v>
       </c>
@@ -10613,7 +10752,7 @@
       <c r="J270" s="25"/>
       <c r="K270" s="26"/>
     </row>
-    <row r="271" spans="1:11" ht="30">
+    <row r="271" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="20">
         <v>21777</v>
       </c>
@@ -10636,7 +10775,7 @@
       <c r="J271" s="25"/>
       <c r="K271" s="26"/>
     </row>
-    <row r="272" spans="1:11" ht="45">
+    <row r="272" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A272" s="14">
         <v>21921</v>
       </c>
@@ -10659,7 +10798,7 @@
       <c r="J272" s="18"/>
       <c r="K272" s="19"/>
     </row>
-    <row r="273" spans="1:11" ht="30">
+    <row r="273" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="14">
         <v>21921</v>
       </c>
@@ -10682,7 +10821,7 @@
       <c r="J273" s="18"/>
       <c r="K273" s="19"/>
     </row>
-    <row r="274" spans="1:11" ht="30">
+    <row r="274" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A274" s="14">
         <v>21921</v>
       </c>
@@ -10705,7 +10844,7 @@
       <c r="J274" s="18"/>
       <c r="K274" s="19"/>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="14">
         <v>21921</v>
       </c>
@@ -10728,7 +10867,7 @@
       <c r="J275" s="18"/>
       <c r="K275" s="19"/>
     </row>
-    <row r="276" spans="1:11" ht="45">
+    <row r="276" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A276" s="14">
         <v>21921</v>
       </c>
@@ -10751,7 +10890,7 @@
       <c r="J276" s="18"/>
       <c r="K276" s="19"/>
     </row>
-    <row r="277" spans="1:11" ht="30">
+    <row r="277" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="20">
         <v>21922</v>
       </c>
@@ -10774,7 +10913,7 @@
       <c r="J277" s="25"/>
       <c r="K277" s="26"/>
     </row>
-    <row r="278" spans="1:11" ht="30">
+    <row r="278" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="20">
         <v>21922</v>
       </c>
@@ -10797,7 +10936,7 @@
       <c r="J278" s="25"/>
       <c r="K278" s="26"/>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="20">
         <v>21922</v>
       </c>
@@ -10820,7 +10959,7 @@
       <c r="J279" s="25"/>
       <c r="K279" s="26"/>
     </row>
-    <row r="280" spans="1:11" ht="30">
+    <row r="280" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A280" s="20">
         <v>21922</v>
       </c>
@@ -10843,7 +10982,7 @@
       <c r="J280" s="25"/>
       <c r="K280" s="26"/>
     </row>
-    <row r="281" spans="1:11" ht="30">
+    <row r="281" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="14">
         <v>21925</v>
       </c>
@@ -10866,7 +11005,7 @@
       <c r="J281" s="18"/>
       <c r="K281" s="19"/>
     </row>
-    <row r="282" spans="1:11" ht="30">
+    <row r="282" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="14">
         <v>21925</v>
       </c>
@@ -10889,7 +11028,7 @@
       <c r="J282" s="18"/>
       <c r="K282" s="19"/>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="14">
         <v>21925</v>
       </c>
@@ -10912,7 +11051,7 @@
       <c r="J283" s="18"/>
       <c r="K283" s="19"/>
     </row>
-    <row r="284" spans="1:11" ht="30">
+    <row r="284" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" s="14">
         <v>21925</v>
       </c>
@@ -10935,7 +11074,7 @@
       <c r="J284" s="18"/>
       <c r="K284" s="19"/>
     </row>
-    <row r="285" spans="1:11" ht="30">
+    <row r="285" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A285" s="20">
         <v>21944</v>
       </c>
@@ -10960,7 +11099,7 @@
       <c r="J285" s="25"/>
       <c r="K285" s="26"/>
     </row>
-    <row r="286" spans="1:11" ht="30">
+    <row r="286" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A286" s="20">
         <v>21944</v>
       </c>
@@ -10985,7 +11124,7 @@
       <c r="J286" s="25"/>
       <c r="K286" s="26"/>
     </row>
-    <row r="287" spans="1:11" ht="30">
+    <row r="287" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A287" s="14">
         <v>21994</v>
       </c>
@@ -11010,7 +11149,7 @@
       <c r="J287" s="18"/>
       <c r="K287" s="19"/>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="14">
         <v>21994</v>
       </c>
@@ -11035,7 +11174,7 @@
       <c r="J288" s="18"/>
       <c r="K288" s="19"/>
     </row>
-    <row r="289" spans="1:11" ht="45">
+    <row r="289" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A289" s="14">
         <v>21994</v>
       </c>
@@ -11060,7 +11199,7 @@
       <c r="J289" s="18"/>
       <c r="K289" s="19"/>
     </row>
-    <row r="290" spans="1:11" ht="90">
+    <row r="290" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A290" s="14">
         <v>21994</v>
       </c>
@@ -11085,7 +11224,7 @@
       <c r="J290" s="18"/>
       <c r="K290" s="19"/>
     </row>
-    <row r="291" spans="1:11" ht="45">
+    <row r="291" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A291" s="14">
         <v>21994</v>
       </c>
@@ -11110,7 +11249,7 @@
       <c r="J291" s="18"/>
       <c r="K291" s="19"/>
     </row>
-    <row r="292" spans="1:11" ht="30">
+    <row r="292" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A292" s="20">
         <v>21995</v>
       </c>
@@ -11135,7 +11274,7 @@
       <c r="J292" s="25"/>
       <c r="K292" s="26"/>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="20">
         <v>21995</v>
       </c>
@@ -11160,7 +11299,7 @@
       <c r="J293" s="25"/>
       <c r="K293" s="26"/>
     </row>
-    <row r="294" spans="1:11" ht="30">
+    <row r="294" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A294" s="20">
         <v>21995</v>
       </c>
@@ -11185,7 +11324,7 @@
       <c r="J294" s="25"/>
       <c r="K294" s="26"/>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="20">
         <v>21995</v>
       </c>
@@ -11210,7 +11349,7 @@
       <c r="J295" s="25"/>
       <c r="K295" s="26"/>
     </row>
-    <row r="296" spans="1:11" ht="60">
+    <row r="296" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A296" s="14">
         <v>22062</v>
       </c>
@@ -11235,7 +11374,7 @@
       <c r="J296" s="18"/>
       <c r="K296" s="19"/>
     </row>
-    <row r="297" spans="1:11" ht="60">
+    <row r="297" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A297" s="14">
         <v>22062</v>
       </c>
@@ -11260,7 +11399,7 @@
       <c r="J297" s="18"/>
       <c r="K297" s="19"/>
     </row>
-    <row r="298" spans="1:11" ht="45">
+    <row r="298" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A298" s="20">
         <v>22063</v>
       </c>
@@ -11285,7 +11424,7 @@
       <c r="J298" s="25"/>
       <c r="K298" s="26"/>
     </row>
-    <row r="299" spans="1:11" ht="90">
+    <row r="299" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A299" s="20">
         <v>22063</v>
       </c>
@@ -11310,7 +11449,7 @@
       <c r="J299" s="25"/>
       <c r="K299" s="26"/>
     </row>
-    <row r="300" spans="1:11" ht="45">
+    <row r="300" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A300" s="20">
         <v>22063</v>
       </c>
@@ -11335,7 +11474,7 @@
       <c r="J300" s="25"/>
       <c r="K300" s="26"/>
     </row>
-    <row r="301" spans="1:11" ht="60">
+    <row r="301" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A301" s="20">
         <v>22063</v>
       </c>
@@ -11360,7 +11499,7 @@
       <c r="J301" s="25"/>
       <c r="K301" s="26"/>
     </row>
-    <row r="302" spans="1:11" ht="75">
+    <row r="302" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A302" s="20">
         <v>22063</v>
       </c>
@@ -11383,7 +11522,7 @@
       <c r="J302" s="25"/>
       <c r="K302" s="26"/>
     </row>
-    <row r="303" spans="1:11" ht="60">
+    <row r="303" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A303" s="20">
         <v>22063</v>
       </c>
@@ -11408,7 +11547,7 @@
       <c r="J303" s="25"/>
       <c r="K303" s="26"/>
     </row>
-    <row r="304" spans="1:11" ht="60">
+    <row r="304" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A304" s="14">
         <v>22097</v>
       </c>
@@ -11433,7 +11572,7 @@
       <c r="J304" s="18"/>
       <c r="K304" s="19"/>
     </row>
-    <row r="305" spans="1:11" ht="45">
+    <row r="305" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A305" s="14">
         <v>22097</v>
       </c>
@@ -11458,7 +11597,7 @@
       <c r="J305" s="18"/>
       <c r="K305" s="19"/>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="14">
         <v>22097</v>
       </c>
@@ -11483,7 +11622,7 @@
       <c r="J306" s="18"/>
       <c r="K306" s="19"/>
     </row>
-    <row r="307" spans="1:11" ht="90">
+    <row r="307" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A307" s="14">
         <v>22097</v>
       </c>
@@ -11508,7 +11647,7 @@
       <c r="J307" s="18"/>
       <c r="K307" s="19"/>
     </row>
-    <row r="308" spans="1:11" ht="90">
+    <row r="308" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A308" s="20">
         <v>22175</v>
       </c>
@@ -11533,7 +11672,7 @@
       <c r="J308" s="25"/>
       <c r="K308" s="26"/>
     </row>
-    <row r="309" spans="1:11" ht="75">
+    <row r="309" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A309" s="14">
         <v>22195</v>
       </c>
@@ -11558,7 +11697,7 @@
       <c r="J309" s="18"/>
       <c r="K309" s="19"/>
     </row>
-    <row r="310" spans="1:11" ht="45">
+    <row r="310" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A310" s="14">
         <v>22195</v>
       </c>
@@ -11583,7 +11722,7 @@
       <c r="J310" s="18"/>
       <c r="K310" s="19"/>
     </row>
-    <row r="311" spans="1:11" ht="60">
+    <row r="311" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A311" s="20">
         <v>22196</v>
       </c>
@@ -11608,7 +11747,7 @@
       <c r="J311" s="25"/>
       <c r="K311" s="26"/>
     </row>
-    <row r="312" spans="1:11" ht="30">
+    <row r="312" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" s="20">
         <v>22196</v>
       </c>
@@ -11633,7 +11772,7 @@
       <c r="J312" s="25"/>
       <c r="K312" s="26"/>
     </row>
-    <row r="313" spans="1:11" ht="120">
+    <row r="313" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A313" s="14">
         <v>22229</v>
       </c>
@@ -11658,7 +11797,7 @@
       <c r="J313" s="18"/>
       <c r="K313" s="19"/>
     </row>
-    <row r="314" spans="1:11" ht="30">
+    <row r="314" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" s="20">
         <v>22232</v>
       </c>
@@ -11681,7 +11820,7 @@
       <c r="J314" s="25"/>
       <c r="K314" s="26"/>
     </row>
-    <row r="315" spans="1:11" ht="75">
+    <row r="315" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A315" s="14">
         <v>22341</v>
       </c>
@@ -11706,7 +11845,7 @@
       <c r="J315" s="18"/>
       <c r="K315" s="19"/>
     </row>
-    <row r="316" spans="1:11" ht="30">
+    <row r="316" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="14">
         <v>22341</v>
       </c>
@@ -11731,7 +11870,7 @@
       <c r="J316" s="18"/>
       <c r="K316" s="19"/>
     </row>
-    <row r="317" spans="1:11">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="14">
         <v>22341</v>
       </c>
@@ -11756,7 +11895,7 @@
       <c r="J317" s="18"/>
       <c r="K317" s="19"/>
     </row>
-    <row r="318" spans="1:11">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="14">
         <v>22341</v>
       </c>
@@ -11781,7 +11920,7 @@
       <c r="J318" s="18"/>
       <c r="K318" s="19"/>
     </row>
-    <row r="319" spans="1:11" ht="45">
+    <row r="319" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A319" s="14">
         <v>22341</v>
       </c>
@@ -11806,7 +11945,7 @@
       <c r="J319" s="18"/>
       <c r="K319" s="19"/>
     </row>
-    <row r="320" spans="1:11" ht="45">
+    <row r="320" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A320" s="14">
         <v>22341</v>
       </c>
@@ -11831,7 +11970,7 @@
       <c r="J320" s="18"/>
       <c r="K320" s="19"/>
     </row>
-    <row r="321" spans="1:11" ht="90">
+    <row r="321" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A321" s="14">
         <v>22341</v>
       </c>
@@ -11856,7 +11995,7 @@
       <c r="J321" s="18"/>
       <c r="K321" s="19"/>
     </row>
-    <row r="322" spans="1:11" ht="60">
+    <row r="322" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A322" s="14">
         <v>22341</v>
       </c>
@@ -11881,7 +12020,7 @@
       <c r="J322" s="18"/>
       <c r="K322" s="19"/>
     </row>
-    <row r="323" spans="1:11">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="14">
         <v>22341</v>
       </c>
@@ -11906,7 +12045,7 @@
       <c r="J323" s="18"/>
       <c r="K323" s="19"/>
     </row>
-    <row r="324" spans="1:11" ht="45">
+    <row r="324" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A324" s="14">
         <v>22341</v>
       </c>
@@ -11931,7 +12070,7 @@
       <c r="J324" s="18"/>
       <c r="K324" s="19"/>
     </row>
-    <row r="325" spans="1:11" ht="90">
+    <row r="325" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A325" s="14">
         <v>22341</v>
       </c>
@@ -11956,7 +12095,7 @@
       <c r="J325" s="18"/>
       <c r="K325" s="19"/>
     </row>
-    <row r="326" spans="1:11" ht="45">
+    <row r="326" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A326" s="14">
         <v>22341</v>
       </c>
@@ -11981,7 +12120,7 @@
       <c r="J326" s="18"/>
       <c r="K326" s="19"/>
     </row>
-    <row r="327" spans="1:11" ht="45">
+    <row r="327" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A327" s="14">
         <v>22341</v>
       </c>
@@ -12006,7 +12145,7 @@
       <c r="J327" s="18"/>
       <c r="K327" s="19"/>
     </row>
-    <row r="328" spans="1:11">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="14">
         <v>22341</v>
       </c>
@@ -12031,7 +12170,7 @@
       <c r="J328" s="18"/>
       <c r="K328" s="19"/>
     </row>
-    <row r="329" spans="1:11" ht="90">
+    <row r="329" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A329" s="14">
         <v>22341</v>
       </c>
@@ -12058,7 +12197,7 @@
       <c r="J329" s="18"/>
       <c r="K329" s="19"/>
     </row>
-    <row r="330" spans="1:11" ht="60">
+    <row r="330" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A330" s="14">
         <v>22341</v>
       </c>
@@ -12083,7 +12222,7 @@
       <c r="J330" s="18"/>
       <c r="K330" s="19"/>
     </row>
-    <row r="331" spans="1:11" ht="90">
+    <row r="331" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A331" s="14">
         <v>22341</v>
       </c>
@@ -12108,7 +12247,7 @@
       <c r="J331" s="18"/>
       <c r="K331" s="19"/>
     </row>
-    <row r="332" spans="1:11" ht="30">
+    <row r="332" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A332" s="14">
         <v>22341</v>
       </c>
@@ -12133,7 +12272,7 @@
       <c r="J332" s="18"/>
       <c r="K332" s="19"/>
     </row>
-    <row r="333" spans="1:11" ht="30">
+    <row r="333" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A333" s="20">
         <v>22343</v>
       </c>
@@ -12158,7 +12297,7 @@
       <c r="J333" s="25"/>
       <c r="K333" s="26"/>
     </row>
-    <row r="334" spans="1:11" ht="45">
+    <row r="334" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A334" s="20">
         <v>22343</v>
       </c>
@@ -12183,7 +12322,7 @@
       <c r="J334" s="25"/>
       <c r="K334" s="26"/>
     </row>
-    <row r="335" spans="1:11">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="20">
         <v>22343</v>
       </c>
@@ -12208,7 +12347,7 @@
       <c r="J335" s="25"/>
       <c r="K335" s="26"/>
     </row>
-    <row r="336" spans="1:11" ht="30">
+    <row r="336" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A336" s="20">
         <v>22343</v>
       </c>
@@ -12233,7 +12372,7 @@
       <c r="J336" s="25"/>
       <c r="K336" s="26"/>
     </row>
-    <row r="337" spans="1:11" ht="30">
+    <row r="337" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A337" s="14">
         <v>22367</v>
       </c>
@@ -12258,7 +12397,7 @@
       </c>
       <c r="K337" s="19"/>
     </row>
-    <row r="338" spans="1:11" ht="30">
+    <row r="338" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A338" s="14">
         <v>22367</v>
       </c>
@@ -12283,7 +12422,7 @@
       </c>
       <c r="K338" s="19"/>
     </row>
-    <row r="339" spans="1:11">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="14">
         <v>22367</v>
       </c>
@@ -12308,7 +12447,7 @@
       </c>
       <c r="K339" s="19"/>
     </row>
-    <row r="340" spans="1:11" ht="45">
+    <row r="340" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A340" s="14">
         <v>22367</v>
       </c>
@@ -12333,7 +12472,7 @@
       </c>
       <c r="K340" s="19"/>
     </row>
-    <row r="341" spans="1:11" ht="60">
+    <row r="341" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A341" s="14">
         <v>22367</v>
       </c>
@@ -12358,7 +12497,7 @@
       </c>
       <c r="K341" s="19"/>
     </row>
-    <row r="342" spans="1:11" ht="30">
+    <row r="342" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A342" s="14">
         <v>22367</v>
       </c>
@@ -12383,7 +12522,7 @@
       </c>
       <c r="K342" s="19"/>
     </row>
-    <row r="343" spans="1:11" ht="45">
+    <row r="343" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A343" s="14">
         <v>22367</v>
       </c>
@@ -12408,7 +12547,7 @@
       </c>
       <c r="K343" s="19"/>
     </row>
-    <row r="344" spans="1:11">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="14">
         <v>22367</v>
       </c>
@@ -12433,7 +12572,7 @@
       </c>
       <c r="K344" s="19"/>
     </row>
-    <row r="345" spans="1:11" ht="30">
+    <row r="345" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A345" s="14">
         <v>22367</v>
       </c>
@@ -12458,7 +12597,7 @@
       </c>
       <c r="K345" s="19"/>
     </row>
-    <row r="346" spans="1:11">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="14">
         <v>22367</v>
       </c>
@@ -12483,7 +12622,7 @@
       </c>
       <c r="K346" s="19"/>
     </row>
-    <row r="347" spans="1:11" ht="30">
+    <row r="347" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A347" s="14">
         <v>22367</v>
       </c>
@@ -12508,7 +12647,7 @@
       </c>
       <c r="K347" s="19"/>
     </row>
-    <row r="348" spans="1:11" ht="30">
+    <row r="348" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A348" s="14">
         <v>22367</v>
       </c>
@@ -12533,7 +12672,7 @@
       </c>
       <c r="K348" s="19"/>
     </row>
-    <row r="349" spans="1:11" ht="60">
+    <row r="349" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A349" s="14">
         <v>22367</v>
       </c>
@@ -12558,7 +12697,7 @@
       </c>
       <c r="K349" s="19"/>
     </row>
-    <row r="350" spans="1:11" ht="75">
+    <row r="350" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A350" s="14">
         <v>22367</v>
       </c>
@@ -12583,7 +12722,7 @@
       </c>
       <c r="K350" s="19"/>
     </row>
-    <row r="351" spans="1:11" ht="30">
+    <row r="351" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A351" s="14">
         <v>22367</v>
       </c>
@@ -12608,7 +12747,7 @@
       </c>
       <c r="K351" s="19"/>
     </row>
-    <row r="352" spans="1:11" ht="75">
+    <row r="352" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A352" s="14">
         <v>22367</v>
       </c>
@@ -12633,7 +12772,7 @@
       </c>
       <c r="K352" s="19"/>
     </row>
-    <row r="353" spans="1:11" ht="30">
+    <row r="353" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A353" s="14">
         <v>22367</v>
       </c>
@@ -12658,7 +12797,7 @@
       </c>
       <c r="K353" s="19"/>
     </row>
-    <row r="354" spans="1:11">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="14">
         <v>22367</v>
       </c>
@@ -12683,7 +12822,7 @@
       </c>
       <c r="K354" s="19"/>
     </row>
-    <row r="355" spans="1:11">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="14">
         <v>22367</v>
       </c>
@@ -12708,7 +12847,7 @@
       </c>
       <c r="K355" s="19"/>
     </row>
-    <row r="356" spans="1:11" ht="30">
+    <row r="356" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A356" s="14">
         <v>22367</v>
       </c>
@@ -12733,7 +12872,7 @@
       </c>
       <c r="K356" s="19"/>
     </row>
-    <row r="357" spans="1:11">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="14">
         <v>22367</v>
       </c>
@@ -12758,7 +12897,7 @@
       </c>
       <c r="K357" s="19"/>
     </row>
-    <row r="358" spans="1:11" ht="60">
+    <row r="358" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A358" s="20">
         <v>22398</v>
       </c>
@@ -12787,7 +12926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:11">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="20">
         <v>22398</v>
       </c>
@@ -12816,7 +12955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:11">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="20">
         <v>22398</v>
       </c>
@@ -12845,7 +12984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:11" ht="45">
+    <row r="361" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A361" s="20">
         <v>22398</v>
       </c>
@@ -12874,7 +13013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:11" ht="90">
+    <row r="362" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A362" s="20">
         <v>22398</v>
       </c>
@@ -12903,7 +13042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:11" ht="45">
+    <row r="363" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A363" s="20">
         <v>22398</v>
       </c>
@@ -12932,7 +13071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:11" ht="60">
+    <row r="364" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A364" s="20">
         <v>22398</v>
       </c>
@@ -12961,7 +13100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:11">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="20">
         <v>22398</v>
       </c>
@@ -12990,7 +13129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:11">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="20">
         <v>22398</v>
       </c>
@@ -13019,7 +13158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:11" ht="30">
+    <row r="367" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A367" s="20">
         <v>22398</v>
       </c>
@@ -13048,7 +13187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:11" ht="30">
+    <row r="368" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A368" s="14">
         <v>22421</v>
       </c>
@@ -13073,7 +13212,7 @@
       </c>
       <c r="K368" s="19"/>
     </row>
-    <row r="369" spans="1:11">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="14">
         <v>22421</v>
       </c>
@@ -13098,7 +13237,7 @@
       </c>
       <c r="K369" s="19"/>
     </row>
-    <row r="370" spans="1:11" ht="105">
+    <row r="370" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A370" s="14">
         <v>22421</v>
       </c>
@@ -13123,7 +13262,7 @@
       </c>
       <c r="K370" s="19"/>
     </row>
-    <row r="371" spans="1:11" ht="45">
+    <row r="371" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A371" s="20">
         <v>22436</v>
       </c>
@@ -13146,7 +13285,7 @@
       <c r="J371" s="25"/>
       <c r="K371" s="26"/>
     </row>
-    <row r="372" spans="1:11">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="14">
         <v>22452</v>
       </c>
@@ -13169,7 +13308,7 @@
       <c r="J372" s="18"/>
       <c r="K372" s="19"/>
     </row>
-    <row r="373" spans="1:11">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="20">
         <v>22462</v>
       </c>
@@ -13192,7 +13331,7 @@
       <c r="J373" s="25"/>
       <c r="K373" s="26"/>
     </row>
-    <row r="374" spans="1:11" ht="60">
+    <row r="374" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A374" s="14">
         <v>22555</v>
       </c>
@@ -13217,7 +13356,7 @@
       <c r="J374" s="18"/>
       <c r="K374" s="19"/>
     </row>
-    <row r="375" spans="1:11" ht="45">
+    <row r="375" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A375" s="14">
         <v>22555</v>
       </c>
@@ -13242,7 +13381,7 @@
       <c r="J375" s="18"/>
       <c r="K375" s="19"/>
     </row>
-    <row r="376" spans="1:11" ht="60">
+    <row r="376" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A376" s="14">
         <v>22555</v>
       </c>
@@ -13267,7 +13406,7 @@
       <c r="J376" s="18"/>
       <c r="K376" s="19"/>
     </row>
-    <row r="377" spans="1:11" ht="30">
+    <row r="377" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A377" s="14">
         <v>22555</v>
       </c>
@@ -13292,7 +13431,7 @@
       <c r="J377" s="18"/>
       <c r="K377" s="19"/>
     </row>
-    <row r="378" spans="1:11" ht="75">
+    <row r="378" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A378" s="14">
         <v>22555</v>
       </c>
@@ -13317,7 +13456,7 @@
       <c r="J378" s="18"/>
       <c r="K378" s="19"/>
     </row>
-    <row r="379" spans="1:11">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="20">
         <v>22579</v>
       </c>
@@ -13340,7 +13479,7 @@
       <c r="J379" s="25"/>
       <c r="K379" s="26"/>
     </row>
-    <row r="380" spans="1:11" ht="30">
+    <row r="380" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A380" s="20">
         <v>22579</v>
       </c>
@@ -13363,7 +13502,7 @@
       <c r="J380" s="25"/>
       <c r="K380" s="26"/>
     </row>
-    <row r="381" spans="1:11" ht="30">
+    <row r="381" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A381" s="20">
         <v>22579</v>
       </c>
@@ -13386,7 +13525,7 @@
       <c r="J381" s="25"/>
       <c r="K381" s="26"/>
     </row>
-    <row r="382" spans="1:11">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="20">
         <v>22579</v>
       </c>
@@ -13409,7 +13548,7 @@
       <c r="J382" s="25"/>
       <c r="K382" s="26"/>
     </row>
-    <row r="383" spans="1:11" ht="30">
+    <row r="383" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A383" s="20">
         <v>22579</v>
       </c>
@@ -13432,7 +13571,7 @@
       <c r="J383" s="25"/>
       <c r="K383" s="26"/>
     </row>
-    <row r="384" spans="1:11">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="14">
         <v>22609</v>
       </c>
@@ -13455,7 +13594,7 @@
       <c r="J384" s="18"/>
       <c r="K384" s="19"/>
     </row>
-    <row r="385" spans="1:11" ht="45">
+    <row r="385" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A385" s="14">
         <v>22609</v>
       </c>
@@ -13478,7 +13617,7 @@
       <c r="J385" s="18"/>
       <c r="K385" s="19"/>
     </row>
-    <row r="386" spans="1:11" ht="45">
+    <row r="386" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A386" s="14">
         <v>22609</v>
       </c>
@@ -13501,7 +13640,7 @@
       <c r="J386" s="18"/>
       <c r="K386" s="19"/>
     </row>
-    <row r="387" spans="1:11">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="14">
         <v>22609</v>
       </c>
@@ -13524,7 +13663,7 @@
       <c r="J387" s="18"/>
       <c r="K387" s="19"/>
     </row>
-    <row r="388" spans="1:11">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="20">
         <v>22613</v>
       </c>
@@ -13547,7 +13686,7 @@
       <c r="J388" s="25"/>
       <c r="K388" s="26"/>
     </row>
-    <row r="389" spans="1:11" ht="60">
+    <row r="389" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A389" s="20">
         <v>22613</v>
       </c>
@@ -13570,7 +13709,7 @@
       <c r="J389" s="25"/>
       <c r="K389" s="26"/>
     </row>
-    <row r="390" spans="1:11" ht="30">
+    <row r="390" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A390" s="14">
         <v>22614</v>
       </c>
@@ -13593,7 +13732,7 @@
       <c r="J390" s="18"/>
       <c r="K390" s="19"/>
     </row>
-    <row r="391" spans="1:11" ht="60">
+    <row r="391" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A391" s="14">
         <v>22614</v>
       </c>
@@ -13616,7 +13755,7 @@
       <c r="J391" s="18"/>
       <c r="K391" s="19"/>
     </row>
-    <row r="392" spans="1:11" ht="30">
+    <row r="392" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A392" s="20">
         <v>22634</v>
       </c>
@@ -13639,7 +13778,7 @@
       <c r="J392" s="25"/>
       <c r="K392" s="26"/>
     </row>
-    <row r="393" spans="1:11" ht="30">
+    <row r="393" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A393" s="20">
         <v>22634</v>
       </c>
@@ -13662,7 +13801,7 @@
       <c r="J393" s="25"/>
       <c r="K393" s="26"/>
     </row>
-    <row r="394" spans="1:11" ht="30">
+    <row r="394" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A394" s="20">
         <v>22634</v>
       </c>
@@ -13685,7 +13824,7 @@
       <c r="J394" s="25"/>
       <c r="K394" s="26"/>
     </row>
-    <row r="395" spans="1:11" ht="30">
+    <row r="395" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A395" s="20">
         <v>22634</v>
       </c>
@@ -13708,7 +13847,7 @@
       <c r="J395" s="25"/>
       <c r="K395" s="26"/>
     </row>
-    <row r="396" spans="1:11" ht="45">
+    <row r="396" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A396" s="20">
         <v>22634</v>
       </c>
@@ -13731,7 +13870,7 @@
       <c r="J396" s="25"/>
       <c r="K396" s="26"/>
     </row>
-    <row r="397" spans="1:11" ht="30">
+    <row r="397" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A397" s="20">
         <v>22634</v>
       </c>
@@ -13754,7 +13893,7 @@
       <c r="J397" s="25"/>
       <c r="K397" s="26"/>
     </row>
-    <row r="398" spans="1:11" ht="30">
+    <row r="398" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A398" s="20">
         <v>22634</v>
       </c>
@@ -13777,7 +13916,7 @@
       <c r="J398" s="25"/>
       <c r="K398" s="26"/>
     </row>
-    <row r="399" spans="1:11">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="14">
         <v>22717</v>
       </c>
@@ -13802,7 +13941,7 @@
       </c>
       <c r="K399" s="19"/>
     </row>
-    <row r="400" spans="1:11" ht="45">
+    <row r="400" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A400" s="20">
         <v>22720</v>
       </c>
@@ -13831,7 +13970,7 @@
       </c>
       <c r="K400" s="26"/>
     </row>
-    <row r="401" spans="1:11" ht="60">
+    <row r="401" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A401" s="20">
         <v>22720</v>
       </c>
@@ -13860,7 +13999,7 @@
       </c>
       <c r="K401" s="26"/>
     </row>
-    <row r="402" spans="1:11" ht="30">
+    <row r="402" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A402" s="20">
         <v>22720</v>
       </c>
@@ -13889,7 +14028,7 @@
       </c>
       <c r="K402" s="26"/>
     </row>
-    <row r="403" spans="1:11" ht="45">
+    <row r="403" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A403" s="20">
         <v>22720</v>
       </c>
@@ -13918,7 +14057,7 @@
       </c>
       <c r="K403" s="26"/>
     </row>
-    <row r="404" spans="1:11" ht="45">
+    <row r="404" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A404" s="20">
         <v>22720</v>
       </c>
@@ -13947,7 +14086,7 @@
       </c>
       <c r="K404" s="26"/>
     </row>
-    <row r="405" spans="1:11">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="20">
         <v>22720</v>
       </c>
@@ -13976,7 +14115,7 @@
       </c>
       <c r="K405" s="26"/>
     </row>
-    <row r="406" spans="1:11">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="20">
         <v>22720</v>
       </c>
@@ -14005,7 +14144,7 @@
       </c>
       <c r="K406" s="26"/>
     </row>
-    <row r="407" spans="1:11">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="20">
         <v>22720</v>
       </c>
@@ -14034,7 +14173,7 @@
       </c>
       <c r="K407" s="26"/>
     </row>
-    <row r="408" spans="1:11" ht="30">
+    <row r="408" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A408" s="20">
         <v>22720</v>
       </c>
@@ -14063,7 +14202,7 @@
       </c>
       <c r="K408" s="26"/>
     </row>
-    <row r="409" spans="1:11">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="20">
         <v>22720</v>
       </c>
@@ -14092,7 +14231,7 @@
       </c>
       <c r="K409" s="26"/>
     </row>
-    <row r="410" spans="1:11">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="14">
         <v>22721</v>
       </c>
@@ -14117,7 +14256,7 @@
       <c r="J410" s="18"/>
       <c r="K410" s="19"/>
     </row>
-    <row r="411" spans="1:11" ht="30">
+    <row r="411" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A411" s="14">
         <v>22721</v>
       </c>
@@ -14142,7 +14281,7 @@
       <c r="J411" s="18"/>
       <c r="K411" s="19"/>
     </row>
-    <row r="412" spans="1:11" ht="45">
+    <row r="412" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A412" s="14">
         <v>22721</v>
       </c>
@@ -14167,7 +14306,7 @@
       <c r="J412" s="18"/>
       <c r="K412" s="19"/>
     </row>
-    <row r="413" spans="1:11" ht="45">
+    <row r="413" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A413" s="14">
         <v>22721</v>
       </c>
@@ -14192,7 +14331,7 @@
       <c r="J413" s="18"/>
       <c r="K413" s="19"/>
     </row>
-    <row r="414" spans="1:11" ht="60">
+    <row r="414" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A414" s="14">
         <v>22721</v>
       </c>
@@ -14217,7 +14356,7 @@
       <c r="J414" s="18"/>
       <c r="K414" s="19"/>
     </row>
-    <row r="415" spans="1:11" ht="45">
+    <row r="415" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A415" s="14">
         <v>22721</v>
       </c>
@@ -14242,7 +14381,7 @@
       <c r="J415" s="18"/>
       <c r="K415" s="19"/>
     </row>
-    <row r="416" spans="1:11">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="14">
         <v>22721</v>
       </c>
@@ -14267,7 +14406,7 @@
       <c r="J416" s="18"/>
       <c r="K416" s="19"/>
     </row>
-    <row r="417" spans="1:11" ht="30">
+    <row r="417" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A417" s="14">
         <v>22721</v>
       </c>
@@ -14292,7 +14431,7 @@
       <c r="J417" s="18"/>
       <c r="K417" s="19"/>
     </row>
-    <row r="418" spans="1:11">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="20">
         <v>22723</v>
       </c>
@@ -14321,7 +14460,7 @@
       </c>
       <c r="K418" s="26"/>
     </row>
-    <row r="419" spans="1:11" ht="60">
+    <row r="419" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A419" s="20">
         <v>22723</v>
       </c>
@@ -14350,7 +14489,7 @@
       </c>
       <c r="K419" s="26"/>
     </row>
-    <row r="420" spans="1:11" ht="60">
+    <row r="420" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A420" s="20">
         <v>22723</v>
       </c>
@@ -14379,7 +14518,7 @@
       </c>
       <c r="K420" s="26"/>
     </row>
-    <row r="421" spans="1:11" ht="60">
+    <row r="421" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A421" s="20">
         <v>22723</v>
       </c>
@@ -14408,7 +14547,7 @@
       </c>
       <c r="K421" s="26"/>
     </row>
-    <row r="422" spans="1:11" ht="75">
+    <row r="422" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A422" s="20">
         <v>22723</v>
       </c>
@@ -14437,7 +14576,7 @@
       </c>
       <c r="K422" s="26"/>
     </row>
-    <row r="423" spans="1:11" ht="60">
+    <row r="423" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A423" s="20">
         <v>22723</v>
       </c>
@@ -14466,7 +14605,7 @@
       </c>
       <c r="K423" s="26"/>
     </row>
-    <row r="424" spans="1:11" ht="75">
+    <row r="424" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A424" s="20">
         <v>22723</v>
       </c>
@@ -14495,7 +14634,7 @@
       </c>
       <c r="K424" s="26"/>
     </row>
-    <row r="425" spans="1:11" ht="90">
+    <row r="425" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A425" s="20">
         <v>22723</v>
       </c>
@@ -14524,7 +14663,7 @@
       </c>
       <c r="K425" s="26"/>
     </row>
-    <row r="426" spans="1:11" ht="60">
+    <row r="426" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A426" s="20">
         <v>22723</v>
       </c>
@@ -14553,7 +14692,7 @@
       </c>
       <c r="K426" s="26"/>
     </row>
-    <row r="427" spans="1:11" ht="30">
+    <row r="427" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A427" s="20">
         <v>22723</v>
       </c>
@@ -14582,7 +14721,7 @@
       </c>
       <c r="K427" s="26"/>
     </row>
-    <row r="428" spans="1:11" ht="45">
+    <row r="428" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A428" s="14">
         <v>22779</v>
       </c>
@@ -14607,7 +14746,7 @@
       <c r="J428" s="18"/>
       <c r="K428" s="19"/>
     </row>
-    <row r="429" spans="1:11" ht="45">
+    <row r="429" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A429" s="14">
         <v>22779</v>
       </c>
@@ -14632,7 +14771,7 @@
       <c r="J429" s="18"/>
       <c r="K429" s="19"/>
     </row>
-    <row r="430" spans="1:11" ht="30">
+    <row r="430" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A430" s="14">
         <v>22779</v>
       </c>
@@ -14657,7 +14796,7 @@
       <c r="J430" s="18"/>
       <c r="K430" s="19"/>
     </row>
-    <row r="431" spans="1:11" ht="45">
+    <row r="431" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A431" s="14">
         <v>22779</v>
       </c>
@@ -14682,7 +14821,7 @@
       <c r="J431" s="18"/>
       <c r="K431" s="19"/>
     </row>
-    <row r="432" spans="1:11" ht="30">
+    <row r="432" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A432" s="20">
         <v>22870</v>
       </c>
@@ -14709,7 +14848,7 @@
       <c r="J432" s="25"/>
       <c r="K432" s="26"/>
     </row>
-    <row r="433" spans="1:11" ht="75">
+    <row r="433" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A433" s="20">
         <v>22870</v>
       </c>
@@ -14736,7 +14875,7 @@
       <c r="J433" s="25"/>
       <c r="K433" s="26"/>
     </row>
-    <row r="434" spans="1:11" ht="30">
+    <row r="434" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A434" s="20">
         <v>22870</v>
       </c>
@@ -14763,7 +14902,7 @@
       <c r="J434" s="25"/>
       <c r="K434" s="26"/>
     </row>
-    <row r="435" spans="1:11" ht="30">
+    <row r="435" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A435" s="20">
         <v>22870</v>
       </c>
@@ -14790,7 +14929,7 @@
       <c r="J435" s="25"/>
       <c r="K435" s="26"/>
     </row>
-    <row r="436" spans="1:11" ht="30">
+    <row r="436" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A436" s="20">
         <v>22870</v>
       </c>
@@ -14817,7 +14956,7 @@
       <c r="J436" s="25"/>
       <c r="K436" s="26"/>
     </row>
-    <row r="437" spans="1:11" ht="45">
+    <row r="437" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A437" s="14">
         <v>22871</v>
       </c>
@@ -14842,7 +14981,7 @@
       <c r="J437" s="18"/>
       <c r="K437" s="19"/>
     </row>
-    <row r="438" spans="1:11" ht="60">
+    <row r="438" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A438" s="14">
         <v>22871</v>
       </c>
@@ -14867,7 +15006,7 @@
       <c r="J438" s="18"/>
       <c r="K438" s="19"/>
     </row>
-    <row r="439" spans="1:11" ht="45">
+    <row r="439" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A439" s="14">
         <v>22871</v>
       </c>
@@ -14892,7 +15031,7 @@
       <c r="J439" s="18"/>
       <c r="K439" s="19"/>
     </row>
-    <row r="440" spans="1:11" ht="30">
+    <row r="440" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A440" s="14">
         <v>22871</v>
       </c>
@@ -14917,7 +15056,7 @@
       <c r="J440" s="18"/>
       <c r="K440" s="19"/>
     </row>
-    <row r="441" spans="1:11" ht="30">
+    <row r="441" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A441" s="20">
         <v>22947</v>
       </c>
@@ -14942,7 +15081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:11" ht="60">
+    <row r="442" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A442" s="14">
         <v>23012</v>
       </c>
@@ -14967,7 +15106,7 @@
       </c>
       <c r="K442" s="19"/>
     </row>
-    <row r="443" spans="1:11" ht="30">
+    <row r="443" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A443" s="20">
         <v>23019</v>
       </c>
@@ -14992,7 +15131,7 @@
       <c r="J443" s="25"/>
       <c r="K443" s="26"/>
     </row>
-    <row r="444" spans="1:11" ht="45">
+    <row r="444" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A444" s="20">
         <v>23019</v>
       </c>
@@ -15017,7 +15156,7 @@
       <c r="J444" s="25"/>
       <c r="K444" s="26"/>
     </row>
-    <row r="445" spans="1:11" ht="60">
+    <row r="445" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A445" s="20">
         <v>23019</v>
       </c>
@@ -15042,7 +15181,7 @@
       <c r="J445" s="25"/>
       <c r="K445" s="26"/>
     </row>
-    <row r="446" spans="1:11" ht="120">
+    <row r="446" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A446" s="20">
         <v>23019</v>
       </c>
@@ -15067,7 +15206,7 @@
       <c r="J446" s="25"/>
       <c r="K446" s="26"/>
     </row>
-    <row r="447" spans="1:11" ht="30">
+    <row r="447" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A447" s="14">
         <v>23021</v>
       </c>
@@ -15092,7 +15231,7 @@
       <c r="J447" s="18"/>
       <c r="K447" s="19"/>
     </row>
-    <row r="448" spans="1:11" ht="105">
+    <row r="448" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A448" s="14">
         <v>23021</v>
       </c>
@@ -15117,7 +15256,7 @@
       <c r="J448" s="18"/>
       <c r="K448" s="19"/>
     </row>
-    <row r="449" spans="1:11" ht="75">
+    <row r="449" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A449" s="14">
         <v>23021</v>
       </c>
@@ -15142,7 +15281,7 @@
       <c r="J449" s="18"/>
       <c r="K449" s="19"/>
     </row>
-    <row r="450" spans="1:11" ht="60">
+    <row r="450" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A450" s="14">
         <v>23021</v>
       </c>
@@ -15167,7 +15306,7 @@
       <c r="J450" s="18"/>
       <c r="K450" s="19"/>
     </row>
-    <row r="451" spans="1:11" ht="30">
+    <row r="451" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A451" s="14">
         <v>23021</v>
       </c>
@@ -15192,7 +15331,7 @@
       <c r="J451" s="18"/>
       <c r="K451" s="19"/>
     </row>
-    <row r="452" spans="1:11" ht="60">
+    <row r="452" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A452" s="14">
         <v>23021</v>
       </c>
@@ -15217,7 +15356,7 @@
       <c r="J452" s="18"/>
       <c r="K452" s="19"/>
     </row>
-    <row r="453" spans="1:11" ht="30">
+    <row r="453" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A453" s="14">
         <v>23021</v>
       </c>
@@ -15242,7 +15381,7 @@
       <c r="J453" s="18"/>
       <c r="K453" s="19"/>
     </row>
-    <row r="454" spans="1:11" ht="30">
+    <row r="454" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A454" s="14">
         <v>23021</v>
       </c>
@@ -15267,7 +15406,7 @@
       <c r="J454" s="18"/>
       <c r="K454" s="19"/>
     </row>
-    <row r="455" spans="1:11" ht="45">
+    <row r="455" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A455" s="20">
         <v>23122</v>
       </c>
@@ -15292,7 +15431,7 @@
       <c r="J455" s="25"/>
       <c r="K455" s="26"/>
     </row>
-    <row r="456" spans="1:11" ht="30">
+    <row r="456" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A456" s="20">
         <v>23122</v>
       </c>
@@ -15317,7 +15456,7 @@
       <c r="J456" s="25"/>
       <c r="K456" s="26"/>
     </row>
-    <row r="457" spans="1:11" ht="90">
+    <row r="457" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A457" s="20">
         <v>23122</v>
       </c>
@@ -15342,7 +15481,7 @@
       <c r="J457" s="25"/>
       <c r="K457" s="26"/>
     </row>
-    <row r="458" spans="1:11" ht="60">
+    <row r="458" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A458" s="20">
         <v>23122</v>
       </c>
@@ -15367,7 +15506,7 @@
       <c r="J458" s="25"/>
       <c r="K458" s="26"/>
     </row>
-    <row r="459" spans="1:11" ht="45">
+    <row r="459" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A459" s="20">
         <v>23122</v>
       </c>
@@ -15392,7 +15531,7 @@
       <c r="J459" s="25"/>
       <c r="K459" s="26"/>
     </row>
-    <row r="460" spans="1:11" ht="75">
+    <row r="460" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A460" s="14">
         <v>23124</v>
       </c>
@@ -15417,7 +15556,7 @@
       <c r="J460" s="18"/>
       <c r="K460" s="19"/>
     </row>
-    <row r="461" spans="1:11" ht="60">
+    <row r="461" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A461" s="20">
         <v>23165</v>
       </c>
@@ -15444,7 +15583,7 @@
       <c r="J461" s="25"/>
       <c r="K461" s="26"/>
     </row>
-    <row r="462" spans="1:11">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="20">
         <v>23165</v>
       </c>
@@ -15471,7 +15610,7 @@
       <c r="J462" s="25"/>
       <c r="K462" s="26"/>
     </row>
-    <row r="463" spans="1:11" ht="30">
+    <row r="463" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A463" s="20">
         <v>23165</v>
       </c>
@@ -15498,7 +15637,7 @@
       <c r="J463" s="25"/>
       <c r="K463" s="26"/>
     </row>
-    <row r="464" spans="1:11" ht="30">
+    <row r="464" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A464" s="14">
         <v>23201</v>
       </c>
@@ -15523,7 +15662,7 @@
       <c r="J464" s="18"/>
       <c r="K464" s="19"/>
     </row>
-    <row r="465" spans="1:11" ht="30">
+    <row r="465" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A465" s="14">
         <v>23201</v>
       </c>
@@ -15548,7 +15687,7 @@
       <c r="J465" s="18"/>
       <c r="K465" s="19"/>
     </row>
-    <row r="466" spans="1:11" ht="45">
+    <row r="466" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A466" s="20">
         <v>23274</v>
       </c>
@@ -15573,7 +15712,7 @@
       <c r="J466" s="25"/>
       <c r="K466" s="26"/>
     </row>
-    <row r="467" spans="1:11" ht="30">
+    <row r="467" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A467" s="20">
         <v>23274</v>
       </c>
@@ -15598,7 +15737,7 @@
       <c r="J467" s="25"/>
       <c r="K467" s="26"/>
     </row>
-    <row r="468" spans="1:11" ht="30">
+    <row r="468" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A468" s="20">
         <v>23274</v>
       </c>
@@ -15623,7 +15762,7 @@
       <c r="J468" s="25"/>
       <c r="K468" s="26"/>
     </row>
-    <row r="469" spans="1:11" ht="30">
+    <row r="469" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A469" s="14">
         <v>23275</v>
       </c>
@@ -15648,7 +15787,7 @@
       <c r="J469" s="18"/>
       <c r="K469" s="19"/>
     </row>
-    <row r="470" spans="1:11" ht="30">
+    <row r="470" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A470" s="14">
         <v>23275</v>
       </c>
@@ -15673,7 +15812,7 @@
       <c r="J470" s="18"/>
       <c r="K470" s="19"/>
     </row>
-    <row r="471" spans="1:11" ht="30">
+    <row r="471" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A471" s="14">
         <v>23275</v>
       </c>
@@ -15698,7 +15837,7 @@
       <c r="J471" s="18"/>
       <c r="K471" s="19"/>
     </row>
-    <row r="472" spans="1:11" ht="30">
+    <row r="472" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A472" s="14">
         <v>23275</v>
       </c>
@@ -15723,7 +15862,7 @@
       <c r="J472" s="18"/>
       <c r="K472" s="19"/>
     </row>
-    <row r="473" spans="1:11" ht="30">
+    <row r="473" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A473" s="14">
         <v>23275</v>
       </c>
@@ -15748,7 +15887,7 @@
       <c r="J473" s="18"/>
       <c r="K473" s="19"/>
     </row>
-    <row r="474" spans="1:11" ht="45">
+    <row r="474" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A474" s="20">
         <v>23276</v>
       </c>
@@ -15773,7 +15912,7 @@
       <c r="J474" s="25"/>
       <c r="K474" s="26"/>
     </row>
-    <row r="475" spans="1:11" ht="30">
+    <row r="475" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A475" s="20">
         <v>23276</v>
       </c>
@@ -15798,7 +15937,7 @@
       <c r="J475" s="25"/>
       <c r="K475" s="26"/>
     </row>
-    <row r="476" spans="1:11" ht="30">
+    <row r="476" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A476" s="20">
         <v>23276</v>
       </c>
@@ -15823,7 +15962,7 @@
       <c r="J476" s="25"/>
       <c r="K476" s="26"/>
     </row>
-    <row r="477" spans="1:11" ht="105">
+    <row r="477" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A477" s="14">
         <v>23363</v>
       </c>
@@ -15852,7 +15991,7 @@
       </c>
       <c r="K477" s="19"/>
     </row>
-    <row r="478" spans="1:11" ht="60">
+    <row r="478" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A478" s="14">
         <v>23363</v>
       </c>
@@ -15881,7 +16020,7 @@
       </c>
       <c r="K478" s="19"/>
     </row>
-    <row r="479" spans="1:11" ht="120">
+    <row r="479" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A479" s="14">
         <v>23363</v>
       </c>
@@ -15910,7 +16049,7 @@
       </c>
       <c r="K479" s="19"/>
     </row>
-    <row r="480" spans="1:11" ht="45">
+    <row r="480" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A480" s="14">
         <v>23363</v>
       </c>
@@ -15939,7 +16078,7 @@
       </c>
       <c r="K480" s="19"/>
     </row>
-    <row r="481" spans="1:11" ht="45">
+    <row r="481" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A481" s="20">
         <v>23422</v>
       </c>
@@ -15964,7 +16103,7 @@
       <c r="J481" s="25"/>
       <c r="K481" s="26"/>
     </row>
-    <row r="482" spans="1:11" ht="30">
+    <row r="482" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A482" s="20">
         <v>23422</v>
       </c>
@@ -15989,7 +16128,7 @@
       <c r="J482" s="25"/>
       <c r="K482" s="26"/>
     </row>
-    <row r="483" spans="1:11" ht="45">
+    <row r="483" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A483" s="14">
         <v>23428</v>
       </c>
@@ -16014,7 +16153,7 @@
       <c r="J483" s="18"/>
       <c r="K483" s="19"/>
     </row>
-    <row r="484" spans="1:11" ht="30">
+    <row r="484" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A484" s="14">
         <v>23428</v>
       </c>
@@ -16039,7 +16178,7 @@
       <c r="J484" s="18"/>
       <c r="K484" s="19"/>
     </row>
-    <row r="485" spans="1:11" ht="45">
+    <row r="485" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A485" s="20">
         <v>23436</v>
       </c>
@@ -16064,7 +16203,7 @@
       <c r="J485" s="25"/>
       <c r="K485" s="26"/>
     </row>
-    <row r="486" spans="1:11" ht="30">
+    <row r="486" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A486" s="20">
         <v>23436</v>
       </c>
@@ -16089,7 +16228,7 @@
       <c r="J486" s="25"/>
       <c r="K486" s="26"/>
     </row>
-    <row r="487" spans="1:11" ht="30">
+    <row r="487" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A487" s="14">
         <v>23439</v>
       </c>
@@ -16114,7 +16253,7 @@
       <c r="J487" s="18"/>
       <c r="K487" s="19"/>
     </row>
-    <row r="488" spans="1:11" ht="60">
+    <row r="488" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A488" s="20">
         <v>23462</v>
       </c>
@@ -16139,7 +16278,7 @@
       <c r="J488" s="25"/>
       <c r="K488" s="26"/>
     </row>
-    <row r="489" spans="1:11" ht="45">
+    <row r="489" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A489" s="20">
         <v>23462</v>
       </c>
@@ -16164,7 +16303,7 @@
       <c r="J489" s="25"/>
       <c r="K489" s="26"/>
     </row>
-    <row r="490" spans="1:11" ht="75">
+    <row r="490" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A490" s="14">
         <v>23486</v>
       </c>
@@ -16189,7 +16328,7 @@
       <c r="J490" s="18"/>
       <c r="K490" s="19"/>
     </row>
-    <row r="491" spans="1:11">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="14">
         <v>23486</v>
       </c>
@@ -16214,7 +16353,7 @@
       <c r="J491" s="18"/>
       <c r="K491" s="19"/>
     </row>
-    <row r="492" spans="1:11" ht="45">
+    <row r="492" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A492" s="14">
         <v>23486</v>
       </c>
@@ -16239,7 +16378,7 @@
       <c r="J492" s="18"/>
       <c r="K492" s="19"/>
     </row>
-    <row r="493" spans="1:11">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="14">
         <v>23486</v>
       </c>
@@ -16264,7 +16403,7 @@
       <c r="J493" s="18"/>
       <c r="K493" s="19"/>
     </row>
-    <row r="494" spans="1:11" ht="60">
+    <row r="494" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A494" s="20">
         <v>23487</v>
       </c>
@@ -16289,7 +16428,7 @@
       <c r="J494" s="25"/>
       <c r="K494" s="26"/>
     </row>
-    <row r="495" spans="1:11" ht="30">
+    <row r="495" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A495" s="20">
         <v>23487</v>
       </c>
@@ -16314,7 +16453,7 @@
       <c r="J495" s="25"/>
       <c r="K495" s="26"/>
     </row>
-    <row r="496" spans="1:11" ht="30">
+    <row r="496" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A496" s="14">
         <v>23489</v>
       </c>
@@ -16339,7 +16478,7 @@
       <c r="J496" s="18"/>
       <c r="K496" s="19"/>
     </row>
-    <row r="497" spans="1:11" ht="30">
+    <row r="497" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A497" s="14">
         <v>23489</v>
       </c>
@@ -16364,7 +16503,7 @@
       <c r="J497" s="18"/>
       <c r="K497" s="19"/>
     </row>
-    <row r="498" spans="1:11" ht="60">
+    <row r="498" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A498" s="20">
         <v>23492</v>
       </c>
@@ -16389,7 +16528,7 @@
       <c r="J498" s="25"/>
       <c r="K498" s="26"/>
     </row>
-    <row r="499" spans="1:11" ht="30">
+    <row r="499" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A499" s="14">
         <v>23511</v>
       </c>
@@ -16414,7 +16553,7 @@
       <c r="J499" s="18"/>
       <c r="K499" s="19"/>
     </row>
-    <row r="500" spans="1:11" ht="30">
+    <row r="500" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A500" s="14">
         <v>23511</v>
       </c>
@@ -16439,7 +16578,7 @@
       <c r="J500" s="18"/>
       <c r="K500" s="19"/>
     </row>
-    <row r="501" spans="1:11" ht="45">
+    <row r="501" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A501" s="20">
         <v>23512</v>
       </c>
@@ -16464,7 +16603,7 @@
       <c r="J501" s="25"/>
       <c r="K501" s="26"/>
     </row>
-    <row r="502" spans="1:11" ht="30">
+    <row r="502" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A502" s="20">
         <v>23512</v>
       </c>
@@ -16489,7 +16628,7 @@
       <c r="J502" s="25"/>
       <c r="K502" s="26"/>
     </row>
-    <row r="503" spans="1:11" ht="30">
+    <row r="503" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A503" s="14">
         <v>23539</v>
       </c>
@@ -16514,7 +16653,7 @@
       <c r="J503" s="18"/>
       <c r="K503" s="19"/>
     </row>
-    <row r="504" spans="1:11" ht="30">
+    <row r="504" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A504" s="14">
         <v>23539</v>
       </c>
@@ -16539,7 +16678,7 @@
       <c r="J504" s="18"/>
       <c r="K504" s="19"/>
     </row>
-    <row r="505" spans="1:11" ht="75">
+    <row r="505" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A505" s="20">
         <v>23545</v>
       </c>
@@ -16564,7 +16703,7 @@
       <c r="J505" s="25"/>
       <c r="K505" s="26"/>
     </row>
-    <row r="506" spans="1:11" ht="45">
+    <row r="506" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A506" s="20">
         <v>23545</v>
       </c>
@@ -16589,7 +16728,7 @@
       <c r="J506" s="25"/>
       <c r="K506" s="26"/>
     </row>
-    <row r="507" spans="1:11" ht="45">
+    <row r="507" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A507" s="14">
         <v>23593</v>
       </c>
@@ -16612,7 +16751,7 @@
       <c r="J507" s="18"/>
       <c r="K507" s="19"/>
     </row>
-    <row r="508" spans="1:11" ht="45">
+    <row r="508" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A508" s="20">
         <v>23630</v>
       </c>
@@ -16637,7 +16776,7 @@
       <c r="J508" s="25"/>
       <c r="K508" s="26"/>
     </row>
-    <row r="509" spans="1:11" ht="105">
+    <row r="509" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A509" s="20">
         <v>23630</v>
       </c>
@@ -16662,7 +16801,7 @@
       <c r="J509" s="25"/>
       <c r="K509" s="26"/>
     </row>
-    <row r="510" spans="1:11" ht="30">
+    <row r="510" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A510" s="20">
         <v>23630</v>
       </c>
@@ -16685,7 +16824,7 @@
       <c r="J510" s="25"/>
       <c r="K510" s="26"/>
     </row>
-    <row r="511" spans="1:11" ht="30">
+    <row r="511" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A511" s="20">
         <v>23630</v>
       </c>
@@ -16710,7 +16849,7 @@
       <c r="J511" s="25"/>
       <c r="K511" s="26"/>
     </row>
-    <row r="512" spans="1:11" ht="60">
+    <row r="512" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A512" s="20">
         <v>23630</v>
       </c>
@@ -16735,7 +16874,7 @@
       <c r="J512" s="25"/>
       <c r="K512" s="26"/>
     </row>
-    <row r="513" spans="1:11" ht="30">
+    <row r="513" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A513" s="20">
         <v>23630</v>
       </c>
@@ -16760,7 +16899,7 @@
       <c r="J513" s="25"/>
       <c r="K513" s="26"/>
     </row>
-    <row r="514" spans="1:11" ht="30">
+    <row r="514" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A514" s="20">
         <v>23630</v>
       </c>
@@ -16785,7 +16924,7 @@
       <c r="J514" s="25"/>
       <c r="K514" s="26"/>
     </row>
-    <row r="515" spans="1:11" ht="45">
+    <row r="515" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A515" s="20">
         <v>23630</v>
       </c>
@@ -16810,7 +16949,7 @@
       <c r="J515" s="25"/>
       <c r="K515" s="26"/>
     </row>
-    <row r="516" spans="1:11" ht="75">
+    <row r="516" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A516" s="14">
         <v>23692</v>
       </c>
@@ -16835,7 +16974,7 @@
       <c r="J516" s="18"/>
       <c r="K516" s="19"/>
     </row>
-    <row r="517" spans="1:11" ht="30">
+    <row r="517" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A517" s="14">
         <v>23692</v>
       </c>
@@ -16860,7 +16999,7 @@
       <c r="J517" s="18"/>
       <c r="K517" s="19"/>
     </row>
-    <row r="518" spans="1:11" ht="45">
+    <row r="518" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A518" s="14">
         <v>23692</v>
       </c>
@@ -16885,7 +17024,7 @@
       <c r="J518" s="18"/>
       <c r="K518" s="19"/>
     </row>
-    <row r="519" spans="1:11" ht="30">
+    <row r="519" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A519" s="14">
         <v>23692</v>
       </c>
@@ -16910,7 +17049,7 @@
       <c r="J519" s="18"/>
       <c r="K519" s="19"/>
     </row>
-    <row r="520" spans="1:11" ht="45">
+    <row r="520" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A520" s="14">
         <v>23692</v>
       </c>
@@ -16935,7 +17074,7 @@
       <c r="J520" s="18"/>
       <c r="K520" s="19"/>
     </row>
-    <row r="521" spans="1:11" ht="30">
+    <row r="521" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A521" s="20">
         <v>23706</v>
       </c>
@@ -16958,7 +17097,7 @@
       <c r="J521" s="25"/>
       <c r="K521" s="26"/>
     </row>
-    <row r="522" spans="1:11" ht="30">
+    <row r="522" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A522" s="14">
         <v>23708</v>
       </c>
@@ -16981,7 +17120,7 @@
       <c r="J522" s="18"/>
       <c r="K522" s="19"/>
     </row>
-    <row r="523" spans="1:11" ht="30">
+    <row r="523" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A523" s="20">
         <v>23709</v>
       </c>
@@ -17004,7 +17143,7 @@
       <c r="J523" s="25"/>
       <c r="K523" s="26"/>
     </row>
-    <row r="524" spans="1:11" ht="30">
+    <row r="524" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A524" s="14">
         <v>23710</v>
       </c>
@@ -17027,7 +17166,7 @@
       <c r="J524" s="18"/>
       <c r="K524" s="19"/>
     </row>
-    <row r="525" spans="1:11" ht="30">
+    <row r="525" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A525" s="20">
         <v>23712</v>
       </c>
@@ -17054,7 +17193,7 @@
       </c>
       <c r="K525" s="26"/>
     </row>
-    <row r="526" spans="1:11" ht="45">
+    <row r="526" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A526" s="20">
         <v>23712</v>
       </c>
@@ -17081,7 +17220,7 @@
       </c>
       <c r="K526" s="26"/>
     </row>
-    <row r="527" spans="1:11" ht="75">
+    <row r="527" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A527" s="20">
         <v>23712</v>
       </c>
@@ -17108,7 +17247,7 @@
       </c>
       <c r="K527" s="26"/>
     </row>
-    <row r="528" spans="1:11" ht="45">
+    <row r="528" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A528" s="20">
         <v>23712</v>
       </c>
@@ -17135,7 +17274,7 @@
       </c>
       <c r="K528" s="26"/>
     </row>
-    <row r="529" spans="1:11" ht="30">
+    <row r="529" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A529" s="20">
         <v>23712</v>
       </c>
@@ -17162,7 +17301,7 @@
       </c>
       <c r="K529" s="26"/>
     </row>
-    <row r="530" spans="1:11" ht="45">
+    <row r="530" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A530" s="20">
         <v>23712</v>
       </c>
@@ -17189,7 +17328,7 @@
       </c>
       <c r="K530" s="26"/>
     </row>
-    <row r="531" spans="1:11">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="20">
         <v>23712</v>
       </c>
@@ -17216,7 +17355,7 @@
       </c>
       <c r="K531" s="26"/>
     </row>
-    <row r="532" spans="1:11" ht="45">
+    <row r="532" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A532" s="20">
         <v>23712</v>
       </c>
@@ -17243,7 +17382,7 @@
       </c>
       <c r="K532" s="26"/>
     </row>
-    <row r="533" spans="1:11" ht="60">
+    <row r="533" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A533" s="20">
         <v>23712</v>
       </c>
@@ -17270,7 +17409,7 @@
       </c>
       <c r="K533" s="26"/>
     </row>
-    <row r="534" spans="1:11">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="20">
         <v>23712</v>
       </c>
@@ -17297,7 +17436,7 @@
       </c>
       <c r="K534" s="26"/>
     </row>
-    <row r="535" spans="1:11" ht="30">
+    <row r="535" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A535" s="14">
         <v>23753</v>
       </c>
@@ -17320,7 +17459,7 @@
       <c r="J535" s="18"/>
       <c r="K535" s="19"/>
     </row>
-    <row r="536" spans="1:11" ht="30">
+    <row r="536" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A536" s="14">
         <v>23753</v>
       </c>
@@ -17343,7 +17482,7 @@
       <c r="J536" s="18"/>
       <c r="K536" s="19"/>
     </row>
-    <row r="537" spans="1:11" ht="30">
+    <row r="537" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A537" s="14">
         <v>23753</v>
       </c>
@@ -17366,7 +17505,7 @@
       <c r="J537" s="18"/>
       <c r="K537" s="19"/>
     </row>
-    <row r="538" spans="1:11" ht="120">
+    <row r="538" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A538" s="14">
         <v>23753</v>
       </c>
@@ -17391,7 +17530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:11" ht="30">
+    <row r="539" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A539" s="14">
         <v>23753</v>
       </c>
@@ -17416,7 +17555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:11" ht="90">
+    <row r="540" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A540" s="14">
         <v>23753</v>
       </c>
@@ -17439,7 +17578,7 @@
       <c r="J540" s="18"/>
       <c r="K540" s="19"/>
     </row>
-    <row r="541" spans="1:11" ht="60">
+    <row r="541" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A541" s="14">
         <v>23753</v>
       </c>
@@ -17462,7 +17601,7 @@
       <c r="J541" s="18"/>
       <c r="K541" s="19"/>
     </row>
-    <row r="542" spans="1:11">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="20">
         <v>23899</v>
       </c>
@@ -17487,7 +17626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:11" ht="30">
+    <row r="543" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A543" s="14">
         <v>23934</v>
       </c>
@@ -17510,7 +17649,7 @@
       <c r="J543" s="18"/>
       <c r="K543" s="19"/>
     </row>
-    <row r="544" spans="1:11" ht="30">
+    <row r="544" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A544" s="14">
         <v>23934</v>
       </c>
@@ -17533,7 +17672,7 @@
       <c r="J544" s="18"/>
       <c r="K544" s="19"/>
     </row>
-    <row r="545" spans="1:11" ht="30">
+    <row r="545" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A545" s="14">
         <v>23934</v>
       </c>
@@ -17556,7 +17695,7 @@
       <c r="J545" s="18"/>
       <c r="K545" s="19"/>
     </row>
-    <row r="546" spans="1:11">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="20">
         <v>24045</v>
       </c>
@@ -17579,7 +17718,7 @@
       <c r="J546" s="25"/>
       <c r="K546" s="26"/>
     </row>
-    <row r="547" spans="1:11" ht="45">
+    <row r="547" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A547" s="20">
         <v>24045</v>
       </c>
@@ -17604,7 +17743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:11" ht="45">
+    <row r="548" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A548" s="20">
         <v>24045</v>
       </c>
@@ -17629,7 +17768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:11" ht="30">
+    <row r="549" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A549" s="20">
         <v>24045</v>
       </c>
@@ -17654,7 +17793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:11" ht="30">
+    <row r="550" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A550" s="20">
         <v>24045</v>
       </c>
@@ -17679,7 +17818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:11">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="20">
         <v>24045</v>
       </c>
@@ -17702,7 +17841,7 @@
       <c r="J551" s="25"/>
       <c r="K551" s="26"/>
     </row>
-    <row r="552" spans="1:11">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="20">
         <v>24045</v>
       </c>
@@ -17725,7 +17864,7 @@
       <c r="J552" s="25"/>
       <c r="K552" s="26"/>
     </row>
-    <row r="553" spans="1:11">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="20">
         <v>24045</v>
       </c>
@@ -17748,7 +17887,7 @@
       <c r="J553" s="25"/>
       <c r="K553" s="26"/>
     </row>
-    <row r="554" spans="1:11">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="20">
         <v>24045</v>
       </c>
@@ -17771,7 +17910,7 @@
       <c r="J554" s="25"/>
       <c r="K554" s="26"/>
     </row>
-    <row r="555" spans="1:11" ht="30">
+    <row r="555" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A555" s="14">
         <v>24046</v>
       </c>
@@ -17794,7 +17933,7 @@
       <c r="J555" s="18"/>
       <c r="K555" s="19"/>
     </row>
-    <row r="556" spans="1:11" ht="30">
+    <row r="556" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A556" s="14">
         <v>24046</v>
       </c>
@@ -17817,7 +17956,7 @@
       <c r="J556" s="18"/>
       <c r="K556" s="19"/>
     </row>
-    <row r="557" spans="1:11" ht="45">
+    <row r="557" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A557" s="14">
         <v>24046</v>
       </c>
@@ -17840,7 +17979,7 @@
       <c r="J557" s="18"/>
       <c r="K557" s="19"/>
     </row>
-    <row r="558" spans="1:11" ht="30">
+    <row r="558" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A558" s="14">
         <v>24046</v>
       </c>
@@ -17863,7 +18002,7 @@
       <c r="J558" s="18"/>
       <c r="K558" s="19"/>
     </row>
-    <row r="559" spans="1:11" ht="30">
+    <row r="559" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A559" s="14">
         <v>24046</v>
       </c>
@@ -17886,7 +18025,7 @@
       <c r="J559" s="18"/>
       <c r="K559" s="19"/>
     </row>
-    <row r="560" spans="1:11" ht="45">
+    <row r="560" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A560" s="20">
         <v>24047</v>
       </c>
@@ -17902,14 +18041,16 @@
       <c r="E560" s="23" t="s">
         <v>499</v>
       </c>
-      <c r="F560" s="24"/>
+      <c r="F560" s="24">
+        <v>1</v>
+      </c>
       <c r="G560" s="25"/>
       <c r="H560" s="25"/>
       <c r="I560" s="25"/>
       <c r="J560" s="25"/>
       <c r="K560" s="26"/>
     </row>
-    <row r="561" spans="1:11" ht="45">
+    <row r="561" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A561" s="20">
         <v>24047</v>
       </c>
@@ -17925,14 +18066,16 @@
       <c r="E561" s="23" t="s">
         <v>513</v>
       </c>
-      <c r="F561" s="24"/>
+      <c r="F561" s="24">
+        <v>1</v>
+      </c>
       <c r="G561" s="25"/>
       <c r="H561" s="25"/>
       <c r="I561" s="25"/>
       <c r="J561" s="25"/>
       <c r="K561" s="26"/>
     </row>
-    <row r="562" spans="1:11" ht="90">
+    <row r="562" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A562" s="20">
         <v>24047</v>
       </c>
@@ -17948,14 +18091,16 @@
       <c r="E562" s="23" t="s">
         <v>525</v>
       </c>
-      <c r="F562" s="24"/>
+      <c r="F562" s="24">
+        <v>1</v>
+      </c>
       <c r="G562" s="25"/>
       <c r="H562" s="25"/>
       <c r="I562" s="25"/>
       <c r="J562" s="25"/>
       <c r="K562" s="26"/>
     </row>
-    <row r="563" spans="1:11" ht="60">
+    <row r="563" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A563" s="20">
         <v>24047</v>
       </c>
@@ -17971,14 +18116,16 @@
       <c r="E563" s="23" t="s">
         <v>526</v>
       </c>
-      <c r="F563" s="24"/>
+      <c r="F563" s="24">
+        <v>1</v>
+      </c>
       <c r="G563" s="25"/>
       <c r="H563" s="25"/>
       <c r="I563" s="25"/>
       <c r="J563" s="25"/>
       <c r="K563" s="26"/>
     </row>
-    <row r="564" spans="1:11" ht="30">
+    <row r="564" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A564" s="20">
         <v>24047</v>
       </c>
@@ -17994,14 +18141,16 @@
       <c r="E564" s="23" t="s">
         <v>539</v>
       </c>
-      <c r="F564" s="24"/>
+      <c r="F564" s="24">
+        <v>1</v>
+      </c>
       <c r="G564" s="25"/>
       <c r="H564" s="25"/>
       <c r="I564" s="25"/>
       <c r="J564" s="25"/>
       <c r="K564" s="26"/>
     </row>
-    <row r="565" spans="1:11" ht="30">
+    <row r="565" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A565" s="20">
         <v>24047</v>
       </c>
@@ -18017,14 +18166,16 @@
       <c r="E565" s="23" t="s">
         <v>540</v>
       </c>
-      <c r="F565" s="24"/>
+      <c r="F565" s="24">
+        <v>1</v>
+      </c>
       <c r="G565" s="25"/>
       <c r="H565" s="25"/>
       <c r="I565" s="25"/>
       <c r="J565" s="25"/>
       <c r="K565" s="26"/>
     </row>
-    <row r="566" spans="1:11" ht="90">
+    <row r="566" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A566" s="20">
         <v>24047</v>
       </c>
@@ -18040,14 +18191,16 @@
       <c r="E566" s="23" t="s">
         <v>541</v>
       </c>
-      <c r="F566" s="24"/>
+      <c r="F566" s="24">
+        <v>1</v>
+      </c>
       <c r="G566" s="25"/>
       <c r="H566" s="25"/>
       <c r="I566" s="25"/>
       <c r="J566" s="25"/>
       <c r="K566" s="26"/>
     </row>
-    <row r="567" spans="1:11" ht="60">
+    <row r="567" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A567" s="20">
         <v>24047</v>
       </c>
@@ -18063,14 +18216,16 @@
       <c r="E567" s="23" t="s">
         <v>542</v>
       </c>
-      <c r="F567" s="24"/>
+      <c r="F567" s="24">
+        <v>1</v>
+      </c>
       <c r="G567" s="25"/>
       <c r="H567" s="25"/>
       <c r="I567" s="25"/>
       <c r="J567" s="25"/>
       <c r="K567" s="26"/>
     </row>
-    <row r="568" spans="1:11" ht="75">
+    <row r="568" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A568" s="20">
         <v>24047</v>
       </c>
@@ -18086,14 +18241,16 @@
       <c r="E568" s="23" t="s">
         <v>553</v>
       </c>
-      <c r="F568" s="24"/>
+      <c r="F568" s="24">
+        <v>1</v>
+      </c>
       <c r="G568" s="25"/>
       <c r="H568" s="25"/>
       <c r="I568" s="25"/>
       <c r="J568" s="25"/>
       <c r="K568" s="26"/>
     </row>
-    <row r="569" spans="1:11" ht="90">
+    <row r="569" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A569" s="20">
         <v>24047</v>
       </c>
@@ -18109,14 +18266,16 @@
       <c r="E569" s="23" t="s">
         <v>554</v>
       </c>
-      <c r="F569" s="24"/>
+      <c r="F569" s="24">
+        <v>1</v>
+      </c>
       <c r="G569" s="25"/>
       <c r="H569" s="25"/>
       <c r="I569" s="25"/>
       <c r="J569" s="25"/>
       <c r="K569" s="26"/>
     </row>
-    <row r="570" spans="1:11" ht="45">
+    <row r="570" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A570" s="20">
         <v>24047</v>
       </c>
@@ -18132,14 +18291,16 @@
       <c r="E570" s="23" t="s">
         <v>555</v>
       </c>
-      <c r="F570" s="24"/>
+      <c r="F570" s="24">
+        <v>1</v>
+      </c>
       <c r="G570" s="25"/>
       <c r="H570" s="25"/>
       <c r="I570" s="25"/>
       <c r="J570" s="25"/>
       <c r="K570" s="26"/>
     </row>
-    <row r="571" spans="1:11" ht="45">
+    <row r="571" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A571" s="20">
         <v>24047</v>
       </c>
@@ -18155,14 +18316,16 @@
       <c r="E571" s="23" t="s">
         <v>556</v>
       </c>
-      <c r="F571" s="24"/>
+      <c r="F571" s="24">
+        <v>1</v>
+      </c>
       <c r="G571" s="25"/>
       <c r="H571" s="25"/>
       <c r="I571" s="25"/>
       <c r="J571" s="25"/>
       <c r="K571" s="26"/>
     </row>
-    <row r="572" spans="1:11" ht="60">
+    <row r="572" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A572" s="20">
         <v>24047</v>
       </c>
@@ -18178,14 +18341,16 @@
       <c r="E572" s="23" t="s">
         <v>557</v>
       </c>
-      <c r="F572" s="24"/>
+      <c r="F572" s="24">
+        <v>1</v>
+      </c>
       <c r="G572" s="25"/>
       <c r="H572" s="25"/>
       <c r="I572" s="25"/>
       <c r="J572" s="25"/>
       <c r="K572" s="26"/>
     </row>
-    <row r="573" spans="1:11" ht="90">
+    <row r="573" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A573" s="14">
         <v>24048</v>
       </c>
@@ -18201,14 +18366,16 @@
       <c r="E573" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="F573" s="17"/>
+      <c r="F573" s="17">
+        <v>1</v>
+      </c>
       <c r="G573" s="18"/>
       <c r="H573" s="18"/>
       <c r="I573" s="18"/>
       <c r="J573" s="18"/>
       <c r="K573" s="19"/>
     </row>
-    <row r="574" spans="1:11" ht="30">
+    <row r="574" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A574" s="14">
         <v>24048</v>
       </c>
@@ -18224,14 +18391,16 @@
       <c r="E574" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="F574" s="17"/>
+      <c r="F574" s="17">
+        <v>1</v>
+      </c>
       <c r="G574" s="18"/>
       <c r="H574" s="18"/>
       <c r="I574" s="18"/>
       <c r="J574" s="18"/>
       <c r="K574" s="19"/>
     </row>
-    <row r="575" spans="1:11" ht="30">
+    <row r="575" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A575" s="14">
         <v>24048</v>
       </c>
@@ -18247,14 +18416,16 @@
       <c r="E575" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="F575" s="17"/>
+      <c r="F575" s="17">
+        <v>1</v>
+      </c>
       <c r="G575" s="18"/>
       <c r="H575" s="18"/>
       <c r="I575" s="18"/>
       <c r="J575" s="18"/>
       <c r="K575" s="19"/>
     </row>
-    <row r="576" spans="1:11" ht="30">
+    <row r="576" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A576" s="14">
         <v>24048</v>
       </c>
@@ -18270,14 +18441,16 @@
       <c r="E576" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="F576" s="17"/>
+      <c r="F576" s="17">
+        <v>1</v>
+      </c>
       <c r="G576" s="18"/>
       <c r="H576" s="18"/>
       <c r="I576" s="18"/>
       <c r="J576" s="18"/>
       <c r="K576" s="19"/>
     </row>
-    <row r="577" spans="1:11" ht="60">
+    <row r="577" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A577" s="14">
         <v>24048</v>
       </c>
@@ -18293,14 +18466,16 @@
       <c r="E577" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="F577" s="17"/>
+      <c r="F577" s="17">
+        <v>1</v>
+      </c>
       <c r="G577" s="18"/>
       <c r="H577" s="18"/>
       <c r="I577" s="18"/>
       <c r="J577" s="18"/>
       <c r="K577" s="19"/>
     </row>
-    <row r="578" spans="1:11" ht="45">
+    <row r="578" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A578" s="14">
         <v>24048</v>
       </c>
@@ -18316,14 +18491,16 @@
       <c r="E578" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="F578" s="17"/>
+      <c r="F578" s="17">
+        <v>1</v>
+      </c>
       <c r="G578" s="18"/>
       <c r="H578" s="18"/>
       <c r="I578" s="18"/>
       <c r="J578" s="18"/>
       <c r="K578" s="19"/>
     </row>
-    <row r="579" spans="1:11">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="14">
         <v>24048</v>
       </c>
@@ -18339,14 +18516,16 @@
       <c r="E579" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="F579" s="17"/>
+      <c r="F579" s="17">
+        <v>1</v>
+      </c>
       <c r="G579" s="18"/>
       <c r="H579" s="18"/>
       <c r="I579" s="18"/>
       <c r="J579" s="18"/>
       <c r="K579" s="19"/>
     </row>
-    <row r="580" spans="1:11" ht="75">
+    <row r="580" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A580" s="14">
         <v>24048</v>
       </c>
@@ -18362,14 +18541,16 @@
       <c r="E580" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="F580" s="17"/>
+      <c r="F580" s="17">
+        <v>1</v>
+      </c>
       <c r="G580" s="18"/>
       <c r="H580" s="18"/>
       <c r="I580" s="18"/>
       <c r="J580" s="18"/>
       <c r="K580" s="19"/>
     </row>
-    <row r="581" spans="1:11" ht="60">
+    <row r="581" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A581" s="14">
         <v>24048</v>
       </c>
@@ -18385,14 +18566,16 @@
       <c r="E581" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="F581" s="17"/>
+      <c r="F581" s="17">
+        <v>1</v>
+      </c>
       <c r="G581" s="18"/>
       <c r="H581" s="18"/>
       <c r="I581" s="18"/>
       <c r="J581" s="18"/>
       <c r="K581" s="19"/>
     </row>
-    <row r="582" spans="1:11" ht="75">
+    <row r="582" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A582" s="14">
         <v>24048</v>
       </c>
@@ -18408,14 +18591,16 @@
       <c r="E582" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="F582" s="17"/>
+      <c r="F582" s="17">
+        <v>1</v>
+      </c>
       <c r="G582" s="18"/>
       <c r="H582" s="18"/>
       <c r="I582" s="18"/>
       <c r="J582" s="18"/>
       <c r="K582" s="19"/>
     </row>
-    <row r="583" spans="1:11" ht="75">
+    <row r="583" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A583" s="14">
         <v>24048</v>
       </c>
@@ -18431,14 +18616,16 @@
       <c r="E583" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="F583" s="17"/>
+      <c r="F583" s="17">
+        <v>1</v>
+      </c>
       <c r="G583" s="18"/>
       <c r="H583" s="18"/>
       <c r="I583" s="18"/>
       <c r="J583" s="18"/>
       <c r="K583" s="19"/>
     </row>
-    <row r="584" spans="1:11" ht="30">
+    <row r="584" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A584" s="14">
         <v>24048</v>
       </c>
@@ -18454,14 +18641,16 @@
       <c r="E584" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="F584" s="17"/>
+      <c r="F584" s="17">
+        <v>1</v>
+      </c>
       <c r="G584" s="18"/>
       <c r="H584" s="18"/>
       <c r="I584" s="18"/>
       <c r="J584" s="18"/>
       <c r="K584" s="19"/>
     </row>
-    <row r="585" spans="1:11" ht="60">
+    <row r="585" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A585" s="14">
         <v>24048</v>
       </c>
@@ -18477,14 +18666,16 @@
       <c r="E585" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="F585" s="17"/>
+      <c r="F585" s="17">
+        <v>1</v>
+      </c>
       <c r="G585" s="18"/>
       <c r="H585" s="18"/>
       <c r="I585" s="18"/>
       <c r="J585" s="18"/>
       <c r="K585" s="19"/>
     </row>
-    <row r="586" spans="1:11" ht="30">
+    <row r="586" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A586" s="14">
         <v>24048</v>
       </c>
@@ -18500,14 +18691,16 @@
       <c r="E586" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="F586" s="17"/>
+      <c r="F586" s="17">
+        <v>1</v>
+      </c>
       <c r="G586" s="18"/>
       <c r="H586" s="18"/>
       <c r="I586" s="18"/>
       <c r="J586" s="18"/>
       <c r="K586" s="19"/>
     </row>
-    <row r="587" spans="1:11" ht="45">
+    <row r="587" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A587" s="14">
         <v>24048</v>
       </c>
@@ -18523,14 +18716,16 @@
       <c r="E587" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="F587" s="17"/>
+      <c r="F587" s="17">
+        <v>1</v>
+      </c>
       <c r="G587" s="18"/>
       <c r="H587" s="18"/>
       <c r="I587" s="18"/>
       <c r="J587" s="18"/>
       <c r="K587" s="19"/>
     </row>
-    <row r="588" spans="1:11" ht="45">
+    <row r="588" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A588" s="20">
         <v>24049</v>
       </c>
@@ -18549,11 +18744,13 @@
       <c r="F588" s="24"/>
       <c r="G588" s="25"/>
       <c r="H588" s="25"/>
-      <c r="I588" s="25"/>
+      <c r="I588" s="25">
+        <v>1</v>
+      </c>
       <c r="J588" s="25"/>
       <c r="K588" s="26"/>
     </row>
-    <row r="589" spans="1:11" ht="30">
+    <row r="589" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A589" s="20">
         <v>24049</v>
       </c>
@@ -18572,11 +18769,13 @@
       <c r="F589" s="24"/>
       <c r="G589" s="25"/>
       <c r="H589" s="25"/>
-      <c r="I589" s="25"/>
+      <c r="I589" s="25">
+        <v>1</v>
+      </c>
       <c r="J589" s="25"/>
       <c r="K589" s="26"/>
     </row>
-    <row r="590" spans="1:11" ht="45">
+    <row r="590" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A590" s="20">
         <v>24049</v>
       </c>
@@ -18595,11 +18794,13 @@
       <c r="F590" s="24"/>
       <c r="G590" s="25"/>
       <c r="H590" s="25"/>
-      <c r="I590" s="25"/>
+      <c r="I590" s="25">
+        <v>1</v>
+      </c>
       <c r="J590" s="25"/>
       <c r="K590" s="26"/>
     </row>
-    <row r="591" spans="1:11" ht="60">
+    <row r="591" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A591" s="14">
         <v>24050</v>
       </c>
@@ -18618,11 +18819,13 @@
       <c r="F591" s="17"/>
       <c r="G591" s="18"/>
       <c r="H591" s="18"/>
-      <c r="I591" s="18"/>
+      <c r="I591" s="18">
+        <v>1</v>
+      </c>
       <c r="J591" s="18"/>
       <c r="K591" s="19"/>
     </row>
-    <row r="592" spans="1:11">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="14">
         <v>24050</v>
       </c>
@@ -18641,11 +18844,13 @@
       <c r="F592" s="17"/>
       <c r="G592" s="18"/>
       <c r="H592" s="18"/>
-      <c r="I592" s="18"/>
+      <c r="I592" s="18">
+        <v>1</v>
+      </c>
       <c r="J592" s="18"/>
       <c r="K592" s="19"/>
     </row>
-    <row r="593" spans="1:11" ht="45">
+    <row r="593" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A593" s="14">
         <v>24050</v>
       </c>
@@ -18664,11 +18869,13 @@
       <c r="F593" s="17"/>
       <c r="G593" s="18"/>
       <c r="H593" s="18"/>
-      <c r="I593" s="18"/>
+      <c r="I593" s="18">
+        <v>1</v>
+      </c>
       <c r="J593" s="18"/>
       <c r="K593" s="19"/>
     </row>
-    <row r="594" spans="1:11" ht="75">
+    <row r="594" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A594" s="20">
         <v>24067</v>
       </c>
@@ -18691,7 +18898,7 @@
       <c r="J594" s="25"/>
       <c r="K594" s="26"/>
     </row>
-    <row r="595" spans="1:11" ht="90">
+    <row r="595" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A595" s="20">
         <v>24067</v>
       </c>
@@ -18714,7 +18921,7 @@
       <c r="J595" s="25"/>
       <c r="K595" s="26"/>
     </row>
-    <row r="596" spans="1:11" ht="45">
+    <row r="596" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A596" s="20">
         <v>24067</v>
       </c>
@@ -18737,7 +18944,7 @@
       <c r="J596" s="25"/>
       <c r="K596" s="26"/>
     </row>
-    <row r="597" spans="1:11" ht="75">
+    <row r="597" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A597" s="14">
         <v>24113</v>
       </c>
@@ -18760,7 +18967,7 @@
       <c r="J597" s="18"/>
       <c r="K597" s="19"/>
     </row>
-    <row r="598" spans="1:11">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="14">
         <v>24113</v>
       </c>
@@ -18783,7 +18990,7 @@
       <c r="J598" s="18"/>
       <c r="K598" s="19"/>
     </row>
-    <row r="599" spans="1:11" ht="30">
+    <row r="599" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A599" s="14">
         <v>24113</v>
       </c>
@@ -18806,7 +19013,7 @@
       <c r="J599" s="18"/>
       <c r="K599" s="19"/>
     </row>
-    <row r="600" spans="1:11">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="14">
         <v>24113</v>
       </c>
@@ -18829,7 +19036,7 @@
       <c r="J600" s="18"/>
       <c r="K600" s="19"/>
     </row>
-    <row r="601" spans="1:11" ht="75">
+    <row r="601" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A601" s="14">
         <v>24113</v>
       </c>
@@ -18852,7 +19059,7 @@
       <c r="J601" s="18"/>
       <c r="K601" s="19"/>
     </row>
-    <row r="602" spans="1:11" ht="60">
+    <row r="602" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A602" s="14">
         <v>24113</v>
       </c>
@@ -18875,7 +19082,7 @@
       <c r="J602" s="18"/>
       <c r="K602" s="19"/>
     </row>
-    <row r="603" spans="1:11">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="20">
         <v>24196</v>
       </c>
@@ -18898,7 +19105,7 @@
       <c r="J603" s="25"/>
       <c r="K603" s="26"/>
     </row>
-    <row r="604" spans="1:11" ht="75">
+    <row r="604" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A604" s="14">
         <v>24387</v>
       </c>
@@ -18921,7 +19128,7 @@
       <c r="J604" s="18"/>
       <c r="K604" s="19"/>
     </row>
-    <row r="605" spans="1:11" ht="105">
+    <row r="605" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A605" s="14">
         <v>24387</v>
       </c>
@@ -18944,7 +19151,7 @@
       <c r="J605" s="18"/>
       <c r="K605" s="19"/>
     </row>
-    <row r="606" spans="1:11" ht="75">
+    <row r="606" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A606" s="14">
         <v>24387</v>
       </c>
@@ -18967,7 +19174,7 @@
       <c r="J606" s="18"/>
       <c r="K606" s="19"/>
     </row>
-    <row r="607" spans="1:11" ht="120">
+    <row r="607" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A607" s="14">
         <v>24387</v>
       </c>
@@ -18990,7 +19197,7 @@
       <c r="J607" s="18"/>
       <c r="K607" s="19"/>
     </row>
-    <row r="608" spans="1:11" ht="45">
+    <row r="608" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A608" s="14">
         <v>24387</v>
       </c>
@@ -19013,7 +19220,7 @@
       <c r="J608" s="18"/>
       <c r="K608" s="19"/>
     </row>
-    <row r="609" spans="1:11" ht="30">
+    <row r="609" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A609" s="14">
         <v>24387</v>
       </c>
@@ -19036,7 +19243,7 @@
       <c r="J609" s="18"/>
       <c r="K609" s="19"/>
     </row>
-    <row r="610" spans="1:11">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="20">
         <v>24418</v>
       </c>
@@ -19059,7 +19266,7 @@
       <c r="J610" s="25"/>
       <c r="K610" s="26"/>
     </row>
-    <row r="611" spans="1:11">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="20">
         <v>24418</v>
       </c>
@@ -19082,7 +19289,7 @@
       <c r="J611" s="25"/>
       <c r="K611" s="26"/>
     </row>
-    <row r="612" spans="1:11">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="20">
         <v>24418</v>
       </c>
@@ -19105,7 +19312,7 @@
       <c r="J612" s="25"/>
       <c r="K612" s="26"/>
     </row>
-    <row r="613" spans="1:11" ht="45">
+    <row r="613" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A613" s="20">
         <v>24418</v>
       </c>
@@ -19128,7 +19335,7 @@
       <c r="J613" s="25"/>
       <c r="K613" s="26"/>
     </row>
-    <row r="614" spans="1:11" ht="75">
+    <row r="614" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A614" s="20">
         <v>24418</v>
       </c>
@@ -19151,7 +19358,7 @@
       <c r="J614" s="25"/>
       <c r="K614" s="26"/>
     </row>
-    <row r="615" spans="1:11" ht="45">
+    <row r="615" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A615" s="20">
         <v>24418</v>
       </c>
@@ -19174,7 +19381,7 @@
       <c r="J615" s="25"/>
       <c r="K615" s="26"/>
     </row>
-    <row r="616" spans="1:11" ht="30">
+    <row r="616" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A616" s="14">
         <v>24539</v>
       </c>
@@ -19197,7 +19404,7 @@
       <c r="J616" s="18"/>
       <c r="K616" s="19"/>
     </row>
-    <row r="617" spans="1:11" ht="45">
+    <row r="617" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A617" s="14">
         <v>24539</v>
       </c>
@@ -19220,7 +19427,7 @@
       <c r="J617" s="18"/>
       <c r="K617" s="19"/>
     </row>
-    <row r="618" spans="1:11" ht="30">
+    <row r="618" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A618" s="20">
         <v>24544</v>
       </c>
@@ -19243,7 +19450,7 @@
       <c r="J618" s="25"/>
       <c r="K618" s="26"/>
     </row>
-    <row r="619" spans="1:11" ht="60">
+    <row r="619" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A619" s="20">
         <v>24544</v>
       </c>
@@ -19266,7 +19473,7 @@
       <c r="J619" s="25"/>
       <c r="K619" s="26"/>
     </row>
-    <row r="620" spans="1:11" ht="45">
+    <row r="620" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A620" s="20">
         <v>24544</v>
       </c>
@@ -19289,7 +19496,7 @@
       <c r="J620" s="25"/>
       <c r="K620" s="26"/>
     </row>
-    <row r="621" spans="1:11" ht="30">
+    <row r="621" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A621" s="14">
         <v>24622</v>
       </c>
@@ -19312,7 +19519,7 @@
       <c r="J621" s="18"/>
       <c r="K621" s="19"/>
     </row>
-    <row r="622" spans="1:11" ht="30">
+    <row r="622" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A622" s="14">
         <v>24622</v>
       </c>
@@ -19335,7 +19542,7 @@
       <c r="J622" s="18"/>
       <c r="K622" s="19"/>
     </row>
-    <row r="623" spans="1:11" ht="45">
+    <row r="623" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A623" s="14">
         <v>24622</v>
       </c>
@@ -19358,7 +19565,7 @@
       <c r="J623" s="18"/>
       <c r="K623" s="19"/>
     </row>
-    <row r="624" spans="1:11" ht="60">
+    <row r="624" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A624" s="14">
         <v>24622</v>
       </c>
@@ -19381,7 +19588,7 @@
       <c r="J624" s="18"/>
       <c r="K624" s="19"/>
     </row>
-    <row r="625" spans="1:11" ht="30">
+    <row r="625" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A625" s="20">
         <v>24623</v>
       </c>
@@ -19404,7 +19611,7 @@
       <c r="J625" s="25"/>
       <c r="K625" s="26"/>
     </row>
-    <row r="626" spans="1:11" ht="30">
+    <row r="626" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A626" s="20">
         <v>24623</v>
       </c>
@@ -19427,7 +19634,7 @@
       <c r="J626" s="25"/>
       <c r="K626" s="26"/>
     </row>
-    <row r="627" spans="1:11" ht="30">
+    <row r="627" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A627" s="20">
         <v>24623</v>
       </c>
@@ -19450,7 +19657,7 @@
       <c r="J627" s="25"/>
       <c r="K627" s="26"/>
     </row>
-    <row r="628" spans="1:11" ht="105">
+    <row r="628" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A628" s="20">
         <v>24623</v>
       </c>
@@ -19473,7 +19680,7 @@
       <c r="J628" s="25"/>
       <c r="K628" s="26"/>
     </row>
-    <row r="629" spans="1:11" ht="60">
+    <row r="629" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A629" s="20">
         <v>24623</v>
       </c>
@@ -19496,7 +19703,7 @@
       <c r="J629" s="25"/>
       <c r="K629" s="26"/>
     </row>
-    <row r="630" spans="1:11" ht="105">
+    <row r="630" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A630" s="14">
         <v>24630</v>
       </c>
@@ -19519,7 +19726,7 @@
       <c r="J630" s="18"/>
       <c r="K630" s="19"/>
     </row>
-    <row r="631" spans="1:11" ht="75">
+    <row r="631" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A631" s="14">
         <v>24630</v>
       </c>
@@ -19542,7 +19749,7 @@
       <c r="J631" s="18"/>
       <c r="K631" s="19"/>
     </row>
-    <row r="632" spans="1:11" ht="30">
+    <row r="632" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A632" s="20">
         <v>24667</v>
       </c>
@@ -19565,7 +19772,7 @@
       <c r="J632" s="25"/>
       <c r="K632" s="26"/>
     </row>
-    <row r="633" spans="1:11" ht="30">
+    <row r="633" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A633" s="20">
         <v>24667</v>
       </c>
@@ -19588,7 +19795,7 @@
       <c r="J633" s="25"/>
       <c r="K633" s="26"/>
     </row>
-    <row r="634" spans="1:11" ht="90">
+    <row r="634" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A634" s="20">
         <v>24667</v>
       </c>
@@ -19611,7 +19818,7 @@
       <c r="J634" s="25"/>
       <c r="K634" s="26"/>
     </row>
-    <row r="635" spans="1:11" ht="30">
+    <row r="635" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A635" s="20">
         <v>24667</v>
       </c>
@@ -19634,7 +19841,7 @@
       <c r="J635" s="25"/>
       <c r="K635" s="26"/>
     </row>
-    <row r="636" spans="1:11" ht="30">
+    <row r="636" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A636" s="20">
         <v>24667</v>
       </c>
@@ -19657,7 +19864,7 @@
       <c r="J636" s="25"/>
       <c r="K636" s="26"/>
     </row>
-    <row r="637" spans="1:11" ht="60">
+    <row r="637" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A637" s="20">
         <v>24667</v>
       </c>
@@ -19680,7 +19887,7 @@
       <c r="J637" s="25"/>
       <c r="K637" s="26"/>
     </row>
-    <row r="638" spans="1:11">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="14">
         <v>24755</v>
       </c>
@@ -19703,7 +19910,7 @@
       <c r="J638" s="18"/>
       <c r="K638" s="19"/>
     </row>
-    <row r="639" spans="1:11" ht="45">
+    <row r="639" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A639" s="14">
         <v>24755</v>
       </c>
@@ -19726,7 +19933,7 @@
       <c r="J639" s="18"/>
       <c r="K639" s="19"/>
     </row>
-    <row r="640" spans="1:11" ht="90">
+    <row r="640" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A640" s="14">
         <v>24755</v>
       </c>
@@ -19749,7 +19956,7 @@
       <c r="J640" s="18"/>
       <c r="K640" s="19"/>
     </row>
-    <row r="641" spans="1:11" ht="30">
+    <row r="641" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A641" s="20">
         <v>24763</v>
       </c>
@@ -19772,7 +19979,7 @@
       <c r="J641" s="25"/>
       <c r="K641" s="26"/>
     </row>
-    <row r="642" spans="1:11" ht="30">
+    <row r="642" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A642" s="20">
         <v>24763</v>
       </c>
@@ -19795,7 +20002,7 @@
       <c r="J642" s="25"/>
       <c r="K642" s="26"/>
     </row>
-    <row r="643" spans="1:11" ht="30">
+    <row r="643" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A643" s="20">
         <v>24763</v>
       </c>
@@ -19818,7 +20025,7 @@
       <c r="J643" s="25"/>
       <c r="K643" s="26"/>
     </row>
-    <row r="644" spans="1:11" ht="60">
+    <row r="644" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A644" s="14">
         <v>24764</v>
       </c>
@@ -19841,7 +20048,7 @@
       <c r="J644" s="18"/>
       <c r="K644" s="19"/>
     </row>
-    <row r="645" spans="1:11" ht="30">
+    <row r="645" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A645" s="14">
         <v>24764</v>
       </c>
@@ -19864,7 +20071,7 @@
       <c r="J645" s="18"/>
       <c r="K645" s="19"/>
     </row>
-    <row r="646" spans="1:11" ht="45">
+    <row r="646" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A646" s="14">
         <v>24764</v>
       </c>
@@ -19887,7 +20094,7 @@
       <c r="J646" s="18"/>
       <c r="K646" s="19"/>
     </row>
-    <row r="647" spans="1:11" ht="75">
+    <row r="647" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A647" s="20">
         <v>24778</v>
       </c>
@@ -19910,7 +20117,7 @@
       <c r="J647" s="25"/>
       <c r="K647" s="26"/>
     </row>
-    <row r="648" spans="1:11" ht="60">
+    <row r="648" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A648" s="20">
         <v>24778</v>
       </c>
@@ -19933,7 +20140,7 @@
       <c r="J648" s="25"/>
       <c r="K648" s="26"/>
     </row>
-    <row r="649" spans="1:11" ht="45">
+    <row r="649" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A649" s="20">
         <v>24778</v>
       </c>
@@ -19956,7 +20163,7 @@
       <c r="J649" s="25"/>
       <c r="K649" s="26"/>
     </row>
-    <row r="650" spans="1:11" ht="30">
+    <row r="650" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A650" s="20">
         <v>24778</v>
       </c>
@@ -19979,7 +20186,7 @@
       <c r="J650" s="25"/>
       <c r="K650" s="26"/>
     </row>
-    <row r="651" spans="1:11">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="20">
         <v>24778</v>
       </c>
@@ -20002,7 +20209,7 @@
       <c r="J651" s="25"/>
       <c r="K651" s="26"/>
     </row>
-    <row r="652" spans="1:11" ht="60">
+    <row r="652" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A652" s="20">
         <v>24778</v>
       </c>
@@ -20025,7 +20232,7 @@
       <c r="J652" s="25"/>
       <c r="K652" s="26"/>
     </row>
-    <row r="653" spans="1:11" ht="75">
+    <row r="653" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A653" s="14">
         <v>24779</v>
       </c>
@@ -20048,7 +20255,7 @@
       <c r="J653" s="18"/>
       <c r="K653" s="19"/>
     </row>
-    <row r="654" spans="1:11" ht="30">
+    <row r="654" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A654" s="14">
         <v>24779</v>
       </c>
@@ -20071,7 +20278,7 @@
       <c r="J654" s="18"/>
       <c r="K654" s="19"/>
     </row>
-    <row r="655" spans="1:11" ht="105">
+    <row r="655" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A655" s="14">
         <v>24779</v>
       </c>
@@ -20094,7 +20301,7 @@
       <c r="J655" s="18"/>
       <c r="K655" s="19"/>
     </row>
-    <row r="656" spans="1:11" ht="105">
+    <row r="656" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A656" s="14">
         <v>24779</v>
       </c>
@@ -20117,7 +20324,7 @@
       <c r="J656" s="18"/>
       <c r="K656" s="19"/>
     </row>
-    <row r="657" spans="1:11" ht="30">
+    <row r="657" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A657" s="14">
         <v>24779</v>
       </c>
@@ -20140,7 +20347,7 @@
       <c r="J657" s="18"/>
       <c r="K657" s="19"/>
     </row>
-    <row r="658" spans="1:11" ht="45">
+    <row r="658" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A658" s="14">
         <v>24779</v>
       </c>
@@ -20163,7 +20370,7 @@
       <c r="J658" s="18"/>
       <c r="K658" s="19"/>
     </row>
-    <row r="659" spans="1:11" ht="90">
+    <row r="659" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A659" s="14">
         <v>24779</v>
       </c>
@@ -20186,7 +20393,7 @@
       <c r="J659" s="18"/>
       <c r="K659" s="19"/>
     </row>
-    <row r="660" spans="1:11">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="14">
         <v>24779</v>
       </c>
@@ -20209,7 +20416,7 @@
       <c r="J660" s="18"/>
       <c r="K660" s="19"/>
     </row>
-    <row r="661" spans="1:11" ht="60">
+    <row r="661" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A661" s="14">
         <v>24779</v>
       </c>
@@ -20232,7 +20439,7 @@
       <c r="J661" s="18"/>
       <c r="K661" s="19"/>
     </row>
-    <row r="662" spans="1:11" ht="75">
+    <row r="662" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A662" s="20">
         <v>24780</v>
       </c>
@@ -20255,7 +20462,7 @@
       <c r="J662" s="25"/>
       <c r="K662" s="26"/>
     </row>
-    <row r="663" spans="1:11">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="20">
         <v>24780</v>
       </c>
@@ -20278,7 +20485,7 @@
       <c r="J663" s="25"/>
       <c r="K663" s="26"/>
     </row>
-    <row r="664" spans="1:11">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="20">
         <v>24780</v>
       </c>
@@ -20301,7 +20508,7 @@
       <c r="J664" s="25"/>
       <c r="K664" s="26"/>
     </row>
-    <row r="665" spans="1:11">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="20">
         <v>24780</v>
       </c>
@@ -20324,7 +20531,7 @@
       <c r="J665" s="25"/>
       <c r="K665" s="26"/>
     </row>
-    <row r="666" spans="1:11" ht="60">
+    <row r="666" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A666" s="20">
         <v>24780</v>
       </c>
@@ -20347,7 +20554,7 @@
       <c r="J666" s="25"/>
       <c r="K666" s="26"/>
     </row>
-    <row r="667" spans="1:11" ht="60">
+    <row r="667" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A667" s="20">
         <v>24780</v>
       </c>
@@ -20370,7 +20577,7 @@
       <c r="J667" s="25"/>
       <c r="K667" s="26"/>
     </row>
-    <row r="668" spans="1:11" ht="45">
+    <row r="668" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A668" s="20">
         <v>24780</v>
       </c>
@@ -20393,7 +20600,7 @@
       <c r="J668" s="25"/>
       <c r="K668" s="26"/>
     </row>
-    <row r="669" spans="1:11" ht="30">
+    <row r="669" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A669" s="14">
         <v>24781</v>
       </c>
@@ -20416,7 +20623,7 @@
       <c r="J669" s="18"/>
       <c r="K669" s="19"/>
     </row>
-    <row r="670" spans="1:11" ht="75">
+    <row r="670" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A670" s="14">
         <v>24781</v>
       </c>
@@ -20439,7 +20646,7 @@
       <c r="J670" s="18"/>
       <c r="K670" s="19"/>
     </row>
-    <row r="671" spans="1:11" ht="45">
+    <row r="671" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A671" s="14">
         <v>24781</v>
       </c>
@@ -20462,7 +20669,7 @@
       <c r="J671" s="18"/>
       <c r="K671" s="19"/>
     </row>
-    <row r="672" spans="1:11" ht="30">
+    <row r="672" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A672" s="14">
         <v>24781</v>
       </c>
@@ -20485,7 +20692,7 @@
       <c r="J672" s="18"/>
       <c r="K672" s="19"/>
     </row>
-    <row r="673" spans="1:11" ht="75">
+    <row r="673" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A673" s="14">
         <v>24781</v>
       </c>
@@ -20508,7 +20715,7 @@
       <c r="J673" s="18"/>
       <c r="K673" s="19"/>
     </row>
-    <row r="674" spans="1:11">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="14">
         <v>24781</v>
       </c>
@@ -20531,7 +20738,7 @@
       <c r="J674" s="18"/>
       <c r="K674" s="19"/>
     </row>
-    <row r="675" spans="1:11" ht="30">
+    <row r="675" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A675" s="14">
         <v>24781</v>
       </c>
@@ -20554,7 +20761,7 @@
       <c r="J675" s="18"/>
       <c r="K675" s="19"/>
     </row>
-    <row r="676" spans="1:11" ht="30">
+    <row r="676" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A676" s="20">
         <v>24782</v>
       </c>
@@ -20577,7 +20784,7 @@
       <c r="J676" s="25"/>
       <c r="K676" s="26"/>
     </row>
-    <row r="677" spans="1:11" ht="60">
+    <row r="677" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A677" s="20">
         <v>24782</v>
       </c>
@@ -20600,7 +20807,7 @@
       <c r="J677" s="25"/>
       <c r="K677" s="26"/>
     </row>
-    <row r="678" spans="1:11" ht="45">
+    <row r="678" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A678" s="20">
         <v>24782</v>
       </c>
@@ -20623,7 +20830,7 @@
       <c r="J678" s="25"/>
       <c r="K678" s="26"/>
     </row>
-    <row r="679" spans="1:11" ht="75">
+    <row r="679" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A679" s="20">
         <v>24782</v>
       </c>
@@ -20646,7 +20853,7 @@
       <c r="J679" s="25"/>
       <c r="K679" s="26"/>
     </row>
-    <row r="680" spans="1:11" ht="45">
+    <row r="680" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A680" s="20">
         <v>24782</v>
       </c>
@@ -20669,7 +20876,7 @@
       <c r="J680" s="25"/>
       <c r="K680" s="26"/>
     </row>
-    <row r="681" spans="1:11" ht="45">
+    <row r="681" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A681" s="20">
         <v>24782</v>
       </c>
@@ -20692,7 +20899,7 @@
       <c r="J681" s="25"/>
       <c r="K681" s="26"/>
     </row>
-    <row r="682" spans="1:11" ht="30">
+    <row r="682" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A682" s="20">
         <v>24782</v>
       </c>
@@ -20715,7 +20922,7 @@
       <c r="J682" s="25"/>
       <c r="K682" s="26"/>
     </row>
-    <row r="683" spans="1:11" ht="45">
+    <row r="683" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A683" s="20">
         <v>24782</v>
       </c>
@@ -20738,7 +20945,7 @@
       <c r="J683" s="25"/>
       <c r="K683" s="26"/>
     </row>
-    <row r="684" spans="1:11" ht="30">
+    <row r="684" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A684" s="14">
         <v>24783</v>
       </c>
@@ -20761,7 +20968,7 @@
       <c r="J684" s="18"/>
       <c r="K684" s="19"/>
     </row>
-    <row r="685" spans="1:11" ht="30">
+    <row r="685" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A685" s="14">
         <v>24783</v>
       </c>
@@ -20784,7 +20991,7 @@
       <c r="J685" s="18"/>
       <c r="K685" s="19"/>
     </row>
-    <row r="686" spans="1:11" ht="90">
+    <row r="686" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A686" s="14">
         <v>24783</v>
       </c>
@@ -20807,7 +21014,7 @@
       <c r="J686" s="18"/>
       <c r="K686" s="19"/>
     </row>
-    <row r="687" spans="1:11" ht="75">
+    <row r="687" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A687" s="14">
         <v>24783</v>
       </c>
@@ -20830,7 +21037,7 @@
       <c r="J687" s="18"/>
       <c r="K687" s="19"/>
     </row>
-    <row r="688" spans="1:11" ht="60">
+    <row r="688" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A688" s="14">
         <v>24783</v>
       </c>
@@ -20853,7 +21060,7 @@
       <c r="J688" s="18"/>
       <c r="K688" s="19"/>
     </row>
-    <row r="689" spans="1:11" ht="60">
+    <row r="689" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A689" s="14">
         <v>24783</v>
       </c>
@@ -20876,7 +21083,7 @@
       <c r="J689" s="18"/>
       <c r="K689" s="19"/>
     </row>
-    <row r="690" spans="1:11" ht="30">
+    <row r="690" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A690" s="20">
         <v>24784</v>
       </c>
@@ -20899,7 +21106,7 @@
       <c r="J690" s="25"/>
       <c r="K690" s="26"/>
     </row>
-    <row r="691" spans="1:11" ht="30">
+    <row r="691" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A691" s="20">
         <v>24784</v>
       </c>
@@ -20922,7 +21129,7 @@
       <c r="J691" s="25"/>
       <c r="K691" s="26"/>
     </row>
-    <row r="692" spans="1:11" ht="30">
+    <row r="692" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A692" s="14">
         <v>24787</v>
       </c>
@@ -20945,7 +21152,7 @@
       <c r="J692" s="18"/>
       <c r="K692" s="19"/>
     </row>
-    <row r="693" spans="1:11" ht="30">
+    <row r="693" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A693" s="14">
         <v>24787</v>
       </c>
@@ -20968,7 +21175,7 @@
       <c r="J693" s="18"/>
       <c r="K693" s="19"/>
     </row>
-    <row r="694" spans="1:11" ht="45">
+    <row r="694" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A694" s="14">
         <v>24787</v>
       </c>
@@ -20991,7 +21198,7 @@
       <c r="J694" s="18"/>
       <c r="K694" s="19"/>
     </row>
-    <row r="695" spans="1:11" ht="30">
+    <row r="695" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A695" s="20">
         <v>24788</v>
       </c>
@@ -21014,7 +21221,7 @@
       <c r="J695" s="25"/>
       <c r="K695" s="26"/>
     </row>
-    <row r="696" spans="1:11" ht="30">
+    <row r="696" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A696" s="20">
         <v>24788</v>
       </c>
@@ -21037,7 +21244,7 @@
       <c r="J696" s="25"/>
       <c r="K696" s="26"/>
     </row>
-    <row r="697" spans="1:11" ht="60">
+    <row r="697" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A697" s="20">
         <v>24788</v>
       </c>
@@ -21060,7 +21267,7 @@
       <c r="J697" s="25"/>
       <c r="K697" s="26"/>
     </row>
-    <row r="698" spans="1:11" ht="75">
+    <row r="698" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A698" s="20">
         <v>24788</v>
       </c>
@@ -21083,7 +21290,7 @@
       <c r="J698" s="25"/>
       <c r="K698" s="26"/>
     </row>
-    <row r="699" spans="1:11" ht="30">
+    <row r="699" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A699" s="20">
         <v>24788</v>
       </c>
@@ -21106,7 +21313,7 @@
       <c r="J699" s="25"/>
       <c r="K699" s="26"/>
     </row>
-    <row r="700" spans="1:11" ht="30">
+    <row r="700" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A700" s="20">
         <v>24788</v>
       </c>
@@ -21129,7 +21336,7 @@
       <c r="J700" s="25"/>
       <c r="K700" s="26"/>
     </row>
-    <row r="701" spans="1:11" ht="75">
+    <row r="701" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A701" s="20">
         <v>24788</v>
       </c>
@@ -21152,7 +21359,7 @@
       <c r="J701" s="25"/>
       <c r="K701" s="26"/>
     </row>
-    <row r="702" spans="1:11" ht="30">
+    <row r="702" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A702" s="20">
         <v>24788</v>
       </c>
@@ -21175,7 +21382,7 @@
       <c r="J702" s="25"/>
       <c r="K702" s="26"/>
     </row>
-    <row r="703" spans="1:11" ht="30">
+    <row r="703" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A703" s="14">
         <v>24789</v>
       </c>
@@ -21198,7 +21405,7 @@
       <c r="J703" s="18"/>
       <c r="K703" s="19"/>
     </row>
-    <row r="704" spans="1:11" ht="45">
+    <row r="704" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A704" s="14">
         <v>24789</v>
       </c>
@@ -21221,7 +21428,7 @@
       <c r="J704" s="18"/>
       <c r="K704" s="19"/>
     </row>
-    <row r="705" spans="1:11" ht="45">
+    <row r="705" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A705" s="14">
         <v>24789</v>
       </c>
@@ -21244,7 +21451,7 @@
       <c r="J705" s="18"/>
       <c r="K705" s="19"/>
     </row>
-    <row r="706" spans="1:11" ht="30">
+    <row r="706" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A706" s="14">
         <v>24789</v>
       </c>
@@ -21267,7 +21474,7 @@
       <c r="J706" s="18"/>
       <c r="K706" s="19"/>
     </row>
-    <row r="707" spans="1:11" ht="30">
+    <row r="707" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A707" s="14">
         <v>24789</v>
       </c>
@@ -21290,7 +21497,7 @@
       <c r="J707" s="18"/>
       <c r="K707" s="19"/>
     </row>
-    <row r="708" spans="1:11" ht="45">
+    <row r="708" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A708" s="14">
         <v>24789</v>
       </c>
@@ -21313,7 +21520,7 @@
       <c r="J708" s="18"/>
       <c r="K708" s="19"/>
     </row>
-    <row r="709" spans="1:11" ht="30">
+    <row r="709" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A709" s="20">
         <v>24793</v>
       </c>
@@ -21336,7 +21543,7 @@
       <c r="J709" s="25"/>
       <c r="K709" s="26"/>
     </row>
-    <row r="710" spans="1:11">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="20">
         <v>24793</v>
       </c>
@@ -21359,7 +21566,7 @@
       <c r="J710" s="25"/>
       <c r="K710" s="26"/>
     </row>
-    <row r="711" spans="1:11" ht="45">
+    <row r="711" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A711" s="20">
         <v>24793</v>
       </c>
@@ -21382,7 +21589,7 @@
       <c r="J711" s="25"/>
       <c r="K711" s="26"/>
     </row>
-    <row r="712" spans="1:11">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="20">
         <v>24793</v>
       </c>
@@ -21405,7 +21612,7 @@
       <c r="J712" s="25"/>
       <c r="K712" s="26"/>
     </row>
-    <row r="713" spans="1:11" ht="30">
+    <row r="713" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A713" s="14">
         <v>24794</v>
       </c>
@@ -21428,7 +21635,7 @@
       <c r="J713" s="18"/>
       <c r="K713" s="19"/>
     </row>
-    <row r="714" spans="1:11" ht="30">
+    <row r="714" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A714" s="14">
         <v>24794</v>
       </c>
@@ -21451,7 +21658,7 @@
       <c r="J714" s="18"/>
       <c r="K714" s="19"/>
     </row>
-    <row r="715" spans="1:11" ht="30">
+    <row r="715" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A715" s="14">
         <v>24794</v>
       </c>
@@ -21474,7 +21681,7 @@
       <c r="J715" s="18"/>
       <c r="K715" s="19"/>
     </row>
-    <row r="716" spans="1:11" ht="75">
+    <row r="716" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A716" s="14">
         <v>24794</v>
       </c>
@@ -21497,7 +21704,7 @@
       <c r="J716" s="18"/>
       <c r="K716" s="19"/>
     </row>
-    <row r="717" spans="1:11">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="14">
         <v>24794</v>
       </c>
@@ -21520,7 +21727,7 @@
       <c r="J717" s="18"/>
       <c r="K717" s="19"/>
     </row>
-    <row r="718" spans="1:11" ht="30">
+    <row r="718" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A718" s="14">
         <v>24794</v>
       </c>
@@ -21543,7 +21750,7 @@
       <c r="J718" s="18"/>
       <c r="K718" s="19"/>
     </row>
-    <row r="719" spans="1:11" ht="30">
+    <row r="719" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A719" s="20">
         <v>24795</v>
       </c>
@@ -21566,7 +21773,7 @@
       <c r="J719" s="25"/>
       <c r="K719" s="26"/>
     </row>
-    <row r="720" spans="1:11" ht="30">
+    <row r="720" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A720" s="20">
         <v>24795</v>
       </c>
@@ -21589,7 +21796,7 @@
       <c r="J720" s="25"/>
       <c r="K720" s="26"/>
     </row>
-    <row r="721" spans="1:11" ht="60">
+    <row r="721" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A721" s="20">
         <v>24795</v>
       </c>
@@ -21612,7 +21819,7 @@
       <c r="J721" s="25"/>
       <c r="K721" s="26"/>
     </row>
-    <row r="722" spans="1:11" ht="60">
+    <row r="722" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A722" s="20">
         <v>24795</v>
       </c>
@@ -21635,7 +21842,7 @@
       <c r="J722" s="25"/>
       <c r="K722" s="26"/>
     </row>
-    <row r="723" spans="1:11" ht="75">
+    <row r="723" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A723" s="20">
         <v>24795</v>
       </c>
@@ -21658,7 +21865,7 @@
       <c r="J723" s="25"/>
       <c r="K723" s="26"/>
     </row>
-    <row r="724" spans="1:11">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="20">
         <v>24795</v>
       </c>
@@ -21681,7 +21888,7 @@
       <c r="J724" s="25"/>
       <c r="K724" s="26"/>
     </row>
-    <row r="725" spans="1:11" ht="30">
+    <row r="725" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A725" s="20">
         <v>24795</v>
       </c>
@@ -21704,7 +21911,7 @@
       <c r="J725" s="25"/>
       <c r="K725" s="26"/>
     </row>
-    <row r="726" spans="1:11" ht="30">
+    <row r="726" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A726" s="14">
         <v>24856</v>
       </c>
@@ -21727,7 +21934,7 @@
       <c r="J726" s="18"/>
       <c r="K726" s="19"/>
     </row>
-    <row r="727" spans="1:11" ht="60">
+    <row r="727" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A727" s="14">
         <v>24856</v>
       </c>
@@ -21750,7 +21957,7 @@
       <c r="J727" s="18"/>
       <c r="K727" s="19"/>
     </row>
-    <row r="728" spans="1:11" ht="45">
+    <row r="728" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A728" s="14">
         <v>24856</v>
       </c>
@@ -21773,7 +21980,7 @@
       <c r="J728" s="18"/>
       <c r="K728" s="19"/>
     </row>
-    <row r="729" spans="1:11" ht="30">
+    <row r="729" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A729" s="20">
         <v>24987</v>
       </c>
@@ -21796,7 +22003,7 @@
       <c r="J729" s="25"/>
       <c r="K729" s="26"/>
     </row>
-    <row r="730" spans="1:11" ht="30">
+    <row r="730" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A730" s="20">
         <v>24987</v>
       </c>
@@ -21819,7 +22026,7 @@
       <c r="J730" s="25"/>
       <c r="K730" s="26"/>
     </row>
-    <row r="731" spans="1:11" ht="120">
+    <row r="731" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A731" s="20">
         <v>24987</v>
       </c>
@@ -21842,7 +22049,7 @@
       <c r="J731" s="25"/>
       <c r="K731" s="26"/>
     </row>
-    <row r="732" spans="1:11" ht="30">
+    <row r="732" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A732" s="20">
         <v>24987</v>
       </c>
@@ -21865,7 +22072,7 @@
       <c r="J732" s="25"/>
       <c r="K732" s="26"/>
     </row>
-    <row r="733" spans="1:11" ht="30">
+    <row r="733" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A733" s="20">
         <v>24987</v>
       </c>
@@ -21888,7 +22095,7 @@
       <c r="J733" s="25"/>
       <c r="K733" s="26"/>
     </row>
-    <row r="734" spans="1:11" ht="75">
+    <row r="734" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A734" s="20">
         <v>24987</v>
       </c>
@@ -21911,7 +22118,7 @@
       <c r="J734" s="25"/>
       <c r="K734" s="26"/>
     </row>
-    <row r="735" spans="1:11" ht="45">
+    <row r="735" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A735" s="20">
         <v>24987</v>
       </c>
@@ -21934,7 +22141,7 @@
       <c r="J735" s="25"/>
       <c r="K735" s="26"/>
     </row>
-    <row r="736" spans="1:11">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="20">
         <v>24987</v>
       </c>
@@ -21957,7 +22164,7 @@
       <c r="J736" s="25"/>
       <c r="K736" s="26"/>
     </row>
-    <row r="737" spans="1:11" ht="60">
+    <row r="737" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A737" s="20">
         <v>24987</v>
       </c>
@@ -21980,7 +22187,7 @@
       <c r="J737" s="25"/>
       <c r="K737" s="26"/>
     </row>
-    <row r="738" spans="1:11" ht="30">
+    <row r="738" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A738" s="20">
         <v>24987</v>
       </c>
@@ -22003,7 +22210,7 @@
       <c r="J738" s="25"/>
       <c r="K738" s="26"/>
     </row>
-    <row r="739" spans="1:11" ht="30">
+    <row r="739" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A739" s="14">
         <v>25253</v>
       </c>
@@ -22026,7 +22233,7 @@
       <c r="J739" s="18"/>
       <c r="K739" s="19"/>
     </row>
-    <row r="740" spans="1:11" ht="75">
+    <row r="740" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A740" s="14">
         <v>25253</v>
       </c>
@@ -22049,7 +22256,7 @@
       <c r="J740" s="18"/>
       <c r="K740" s="19"/>
     </row>
-    <row r="741" spans="1:11" ht="30">
+    <row r="741" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A741" s="14">
         <v>25253</v>
       </c>
@@ -22072,7 +22279,7 @@
       <c r="J741" s="18"/>
       <c r="K741" s="19"/>
     </row>
-    <row r="742" spans="1:11" ht="30">
+    <row r="742" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A742" s="14">
         <v>25253</v>
       </c>
@@ -22095,7 +22302,7 @@
       <c r="J742" s="18"/>
       <c r="K742" s="19"/>
     </row>
-    <row r="743" spans="1:11" ht="30">
+    <row r="743" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A743" s="14">
         <v>25253</v>
       </c>
@@ -22118,7 +22325,7 @@
       <c r="J743" s="18"/>
       <c r="K743" s="19"/>
     </row>
-    <row r="744" spans="1:11" ht="60">
+    <row r="744" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A744" s="14">
         <v>25253</v>
       </c>
@@ -22141,7 +22348,7 @@
       <c r="J744" s="18"/>
       <c r="K744" s="19"/>
     </row>
-    <row r="745" spans="1:11" ht="45">
+    <row r="745" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A745" s="14">
         <v>25253</v>
       </c>
@@ -22164,7 +22371,7 @@
       <c r="J745" s="18"/>
       <c r="K745" s="19"/>
     </row>
-    <row r="746" spans="1:11" ht="30">
+    <row r="746" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A746" s="14">
         <v>25253</v>
       </c>
@@ -22187,7 +22394,7 @@
       <c r="J746" s="18"/>
       <c r="K746" s="19"/>
     </row>
-    <row r="747" spans="1:11" ht="30">
+    <row r="747" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A747" s="14">
         <v>25253</v>
       </c>
@@ -22210,7 +22417,7 @@
       <c r="J747" s="18"/>
       <c r="K747" s="19"/>
     </row>
-    <row r="748" spans="1:11">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="20">
         <v>25451</v>
       </c>
@@ -22233,7 +22440,7 @@
       <c r="J748" s="25"/>
       <c r="K748" s="26"/>
     </row>
-    <row r="749" spans="1:11" ht="45">
+    <row r="749" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A749" s="20">
         <v>25451</v>
       </c>
@@ -22256,7 +22463,7 @@
       <c r="J749" s="25"/>
       <c r="K749" s="26"/>
     </row>
-    <row r="750" spans="1:11" ht="30">
+    <row r="750" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A750" s="20">
         <v>25451</v>
       </c>
@@ -22279,7 +22486,7 @@
       <c r="J750" s="25"/>
       <c r="K750" s="26"/>
     </row>
-    <row r="751" spans="1:11" ht="105">
+    <row r="751" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A751" s="20">
         <v>25451</v>
       </c>
@@ -22302,7 +22509,7 @@
       <c r="J751" s="25"/>
       <c r="K751" s="26"/>
     </row>
-    <row r="752" spans="1:11" ht="90">
+    <row r="752" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A752" s="20">
         <v>25451</v>
       </c>
@@ -22325,7 +22532,7 @@
       <c r="J752" s="25"/>
       <c r="K752" s="26"/>
     </row>
-    <row r="753" spans="1:11" ht="45">
+    <row r="753" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A753" s="20">
         <v>25451</v>
       </c>
@@ -22348,7 +22555,7 @@
       <c r="J753" s="25"/>
       <c r="K753" s="26"/>
     </row>
-    <row r="754" spans="1:11">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="14">
         <v>25487</v>
       </c>
@@ -22371,7 +22578,7 @@
       <c r="J754" s="18"/>
       <c r="K754" s="19"/>
     </row>
-    <row r="755" spans="1:11" ht="60">
+    <row r="755" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A755" s="14">
         <v>25487</v>
       </c>
@@ -22394,7 +22601,7 @@
       <c r="J755" s="18"/>
       <c r="K755" s="19"/>
     </row>
-    <row r="756" spans="1:11" ht="45">
+    <row r="756" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A756" s="14">
         <v>25487</v>
       </c>
@@ -22417,7 +22624,7 @@
       <c r="J756" s="18"/>
       <c r="K756" s="19"/>
     </row>
-    <row r="757" spans="1:11" ht="45">
+    <row r="757" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A757" s="14">
         <v>25487</v>
       </c>
@@ -22440,7 +22647,7 @@
       <c r="J757" s="18"/>
       <c r="K757" s="19"/>
     </row>
-    <row r="758" spans="1:11">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="14">
         <v>25487</v>
       </c>
@@ -22463,7 +22670,7 @@
       <c r="J758" s="18"/>
       <c r="K758" s="19"/>
     </row>
-    <row r="759" spans="1:11" ht="45">
+    <row r="759" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A759" s="14">
         <v>25487</v>
       </c>
@@ -22486,7 +22693,7 @@
       <c r="J759" s="18"/>
       <c r="K759" s="19"/>
     </row>
-    <row r="760" spans="1:11" ht="30">
+    <row r="760" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A760" s="20">
         <v>25661</v>
       </c>
@@ -22509,7 +22716,7 @@
       <c r="J760" s="25"/>
       <c r="K760" s="26"/>
     </row>
-    <row r="761" spans="1:11" ht="30">
+    <row r="761" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A761" s="20">
         <v>25661</v>
       </c>
@@ -22532,7 +22739,7 @@
       <c r="J761" s="25"/>
       <c r="K761" s="26"/>
     </row>
-    <row r="762" spans="1:11" ht="30">
+    <row r="762" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A762" s="20">
         <v>25661</v>
       </c>
@@ -22555,7 +22762,7 @@
       <c r="J762" s="25"/>
       <c r="K762" s="26"/>
     </row>
-    <row r="763" spans="1:11" ht="30">
+    <row r="763" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A763" s="20">
         <v>25661</v>
       </c>
@@ -22578,7 +22785,7 @@
       <c r="J763" s="25"/>
       <c r="K763" s="26"/>
     </row>
-    <row r="764" spans="1:11" ht="30">
+    <row r="764" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A764" s="20">
         <v>25661</v>
       </c>
@@ -22601,7 +22808,7 @@
       <c r="J764" s="25"/>
       <c r="K764" s="26"/>
     </row>
-    <row r="765" spans="1:11" ht="90">
+    <row r="765" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A765" s="20">
         <v>25661</v>
       </c>
@@ -22624,7 +22831,7 @@
       <c r="J765" s="25"/>
       <c r="K765" s="26"/>
     </row>
-    <row r="766" spans="1:11" ht="45">
+    <row r="766" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A766" s="20">
         <v>25661</v>
       </c>
@@ -22647,7 +22854,7 @@
       <c r="J766" s="25"/>
       <c r="K766" s="26"/>
     </row>
-    <row r="767" spans="1:11" ht="75">
+    <row r="767" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A767" s="14">
         <v>25751</v>
       </c>
@@ -22674,7 +22881,7 @@
       <c r="J767" s="18"/>
       <c r="K767" s="19"/>
     </row>
-    <row r="768" spans="1:11" ht="60">
+    <row r="768" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A768" s="14">
         <v>25751</v>
       </c>
@@ -22699,7 +22906,7 @@
       <c r="J768" s="18"/>
       <c r="K768" s="19"/>
     </row>
-    <row r="769" spans="1:11">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" s="14">
         <v>25751</v>
       </c>
@@ -22726,7 +22933,7 @@
       <c r="J769" s="18"/>
       <c r="K769" s="19"/>
     </row>
-    <row r="770" spans="1:11" ht="75">
+    <row r="770" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A770" s="20">
         <v>25752</v>
       </c>
@@ -22755,7 +22962,7 @@
       </c>
       <c r="K770" s="26"/>
     </row>
-    <row r="771" spans="1:11" ht="60">
+    <row r="771" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A771" s="20">
         <v>25752</v>
       </c>
@@ -22786,7 +22993,7 @@
       </c>
       <c r="K771" s="26"/>
     </row>
-    <row r="772" spans="1:11" ht="45">
+    <row r="772" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A772" s="20">
         <v>25752</v>
       </c>
@@ -22815,7 +23022,7 @@
       </c>
       <c r="K772" s="26"/>
     </row>
-    <row r="773" spans="1:11" ht="60">
+    <row r="773" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A773" s="20">
         <v>25752</v>
       </c>
@@ -22844,7 +23051,7 @@
       </c>
       <c r="K773" s="26"/>
     </row>
-    <row r="774" spans="1:11" ht="30">
+    <row r="774" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A774" s="20">
         <v>25752</v>
       </c>
@@ -22873,7 +23080,7 @@
       </c>
       <c r="K774" s="26"/>
     </row>
-    <row r="775" spans="1:11" ht="30">
+    <row r="775" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A775" s="20">
         <v>25752</v>
       </c>
@@ -22904,7 +23111,7 @@
       </c>
       <c r="K775" s="26"/>
     </row>
-    <row r="776" spans="1:11" ht="60">
+    <row r="776" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A776" s="14">
         <v>25801</v>
       </c>
@@ -22927,7 +23134,7 @@
       <c r="J776" s="18"/>
       <c r="K776" s="19"/>
     </row>
-    <row r="777" spans="1:11" ht="75">
+    <row r="777" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A777" s="14">
         <v>25801</v>
       </c>
@@ -22950,7 +23157,7 @@
       <c r="J777" s="18"/>
       <c r="K777" s="19"/>
     </row>
-    <row r="778" spans="1:11" ht="30">
+    <row r="778" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A778" s="14">
         <v>25801</v>
       </c>
@@ -22973,7 +23180,7 @@
       <c r="J778" s="18"/>
       <c r="K778" s="19"/>
     </row>
-    <row r="779" spans="1:11" ht="45">
+    <row r="779" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A779" s="14">
         <v>25801</v>
       </c>
@@ -22996,7 +23203,7 @@
       <c r="J779" s="18"/>
       <c r="K779" s="19"/>
     </row>
-    <row r="780" spans="1:11" ht="45">
+    <row r="780" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A780" s="20">
         <v>25802</v>
       </c>
@@ -23019,7 +23226,7 @@
       <c r="J780" s="25"/>
       <c r="K780" s="26"/>
     </row>
-    <row r="781" spans="1:11" ht="75">
+    <row r="781" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A781" s="20">
         <v>25802</v>
       </c>
@@ -23042,7 +23249,7 @@
       <c r="J781" s="25"/>
       <c r="K781" s="26"/>
     </row>
-    <row r="782" spans="1:11" ht="120">
+    <row r="782" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A782" s="20">
         <v>25802</v>
       </c>
@@ -23065,7 +23272,7 @@
       <c r="J782" s="25"/>
       <c r="K782" s="26"/>
     </row>
-    <row r="783" spans="1:11" ht="60">
+    <row r="783" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A783" s="20">
         <v>25802</v>
       </c>
@@ -23088,7 +23295,7 @@
       <c r="J783" s="25"/>
       <c r="K783" s="26"/>
     </row>
-    <row r="784" spans="1:11" ht="90">
+    <row r="784" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A784" s="20">
         <v>25802</v>
       </c>
@@ -23111,7 +23318,7 @@
       <c r="J784" s="25"/>
       <c r="K784" s="26"/>
     </row>
-    <row r="785" spans="1:11" ht="30">
+    <row r="785" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A785" s="14">
         <v>25806</v>
       </c>
@@ -23134,7 +23341,7 @@
       <c r="J785" s="18"/>
       <c r="K785" s="19"/>
     </row>
-    <row r="786" spans="1:11" ht="30">
+    <row r="786" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A786" s="14">
         <v>25806</v>
       </c>
@@ -23157,7 +23364,7 @@
       <c r="J786" s="18"/>
       <c r="K786" s="19"/>
     </row>
-    <row r="787" spans="1:11" ht="105">
+    <row r="787" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A787" s="14">
         <v>25806</v>
       </c>
@@ -23180,7 +23387,7 @@
       <c r="J787" s="18"/>
       <c r="K787" s="19"/>
     </row>
-    <row r="788" spans="1:11" ht="90">
+    <row r="788" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A788" s="14">
         <v>25806</v>
       </c>
@@ -23203,7 +23410,7 @@
       <c r="J788" s="18"/>
       <c r="K788" s="19"/>
     </row>
-    <row r="789" spans="1:11" ht="30">
+    <row r="789" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A789" s="14">
         <v>25806</v>
       </c>
@@ -23226,7 +23433,7 @@
       <c r="J789" s="18"/>
       <c r="K789" s="19"/>
     </row>
-    <row r="790" spans="1:11" ht="30">
+    <row r="790" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A790" s="14">
         <v>25806</v>
       </c>
@@ -23249,7 +23456,7 @@
       <c r="J790" s="18"/>
       <c r="K790" s="19"/>
     </row>
-    <row r="791" spans="1:11" ht="30">
+    <row r="791" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A791" s="20">
         <v>25843</v>
       </c>
@@ -23272,7 +23479,7 @@
       <c r="J791" s="25"/>
       <c r="K791" s="26"/>
     </row>
-    <row r="792" spans="1:11" ht="30">
+    <row r="792" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A792" s="20">
         <v>25843</v>
       </c>
@@ -23295,7 +23502,7 @@
       <c r="J792" s="25"/>
       <c r="K792" s="26"/>
     </row>
-    <row r="793" spans="1:11" ht="60">
+    <row r="793" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A793" s="20">
         <v>25843</v>
       </c>
@@ -23318,7 +23525,7 @@
       <c r="J793" s="25"/>
       <c r="K793" s="26"/>
     </row>
-    <row r="794" spans="1:11" ht="60">
+    <row r="794" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A794" s="20">
         <v>25843</v>
       </c>
@@ -23341,7 +23548,7 @@
       <c r="J794" s="25"/>
       <c r="K794" s="26"/>
     </row>
-    <row r="795" spans="1:11" ht="45">
+    <row r="795" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A795" s="20">
         <v>25843</v>
       </c>
@@ -23364,7 +23571,7 @@
       <c r="J795" s="25"/>
       <c r="K795" s="26"/>
     </row>
-    <row r="796" spans="1:11" ht="45">
+    <row r="796" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A796" s="14">
         <v>26069</v>
       </c>
@@ -23387,7 +23594,7 @@
       <c r="J796" s="18"/>
       <c r="K796" s="19"/>
     </row>
-    <row r="797" spans="1:11" ht="45">
+    <row r="797" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A797" s="14">
         <v>26069</v>
       </c>
@@ -23410,7 +23617,7 @@
       <c r="J797" s="18"/>
       <c r="K797" s="19"/>
     </row>
-    <row r="798" spans="1:11" ht="60">
+    <row r="798" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A798" s="14">
         <v>26069</v>
       </c>
@@ -23433,7 +23640,7 @@
       <c r="J798" s="18"/>
       <c r="K798" s="19"/>
     </row>
-    <row r="799" spans="1:11" ht="45">
+    <row r="799" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A799" s="14">
         <v>26069</v>
       </c>
@@ -23456,7 +23663,7 @@
       <c r="J799" s="18"/>
       <c r="K799" s="19"/>
     </row>
-    <row r="800" spans="1:11" ht="30">
+    <row r="800" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A800" s="20">
         <v>26071</v>
       </c>
@@ -23479,7 +23686,7 @@
       <c r="J800" s="25"/>
       <c r="K800" s="26"/>
     </row>
-    <row r="801" spans="1:11" ht="30">
+    <row r="801" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A801" s="20">
         <v>26071</v>
       </c>
@@ -23502,7 +23709,7 @@
       <c r="J801" s="25"/>
       <c r="K801" s="26"/>
     </row>
-    <row r="802" spans="1:11" ht="30">
+    <row r="802" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A802" s="20">
         <v>26071</v>
       </c>
@@ -23525,7 +23732,7 @@
       <c r="J802" s="25"/>
       <c r="K802" s="26"/>
     </row>
-    <row r="803" spans="1:11" ht="30">
+    <row r="803" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A803" s="20">
         <v>26071</v>
       </c>
@@ -23548,7 +23755,7 @@
       <c r="J803" s="25"/>
       <c r="K803" s="26"/>
     </row>
-    <row r="804" spans="1:11" ht="30">
+    <row r="804" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A804" s="20">
         <v>26071</v>
       </c>
@@ -23571,7 +23778,7 @@
       <c r="J804" s="25"/>
       <c r="K804" s="26"/>
     </row>
-    <row r="805" spans="1:11" ht="60">
+    <row r="805" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A805" s="14">
         <v>26076</v>
       </c>
@@ -23596,7 +23803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="806" spans="1:11">
+    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A806" s="14">
         <v>26076</v>
       </c>
@@ -23621,7 +23828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="807" spans="1:11">
+    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A807" s="14">
         <v>26076</v>
       </c>
@@ -23646,7 +23853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="808" spans="1:11">
+    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A808" s="14">
         <v>26076</v>
       </c>
@@ -23671,7 +23878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="809" spans="1:11" ht="45">
+    <row r="809" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A809" s="14">
         <v>26076</v>
       </c>
@@ -23696,7 +23903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="810" spans="1:11" ht="75">
+    <row r="810" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A810" s="20">
         <v>26095</v>
       </c>
@@ -23719,7 +23926,7 @@
       <c r="J810" s="25"/>
       <c r="K810" s="26"/>
     </row>
-    <row r="811" spans="1:11" ht="45">
+    <row r="811" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A811" s="14">
         <v>26179</v>
       </c>
@@ -23742,7 +23949,7 @@
       <c r="J811" s="18"/>
       <c r="K811" s="19"/>
     </row>
-    <row r="812" spans="1:11" ht="30">
+    <row r="812" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A812" s="14">
         <v>26179</v>
       </c>
@@ -23765,7 +23972,7 @@
       <c r="J812" s="18"/>
       <c r="K812" s="19"/>
     </row>
-    <row r="813" spans="1:11" ht="30">
+    <row r="813" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A813" s="14">
         <v>26179</v>
       </c>
@@ -23788,7 +23995,7 @@
       <c r="J813" s="18"/>
       <c r="K813" s="19"/>
     </row>
-    <row r="814" spans="1:11" ht="30">
+    <row r="814" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A814" s="14">
         <v>26179</v>
       </c>
@@ -23811,7 +24018,7 @@
       <c r="J814" s="18"/>
       <c r="K814" s="19"/>
     </row>
-    <row r="815" spans="1:11" ht="30">
+    <row r="815" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A815" s="14">
         <v>26179</v>
       </c>
@@ -23834,7 +24041,7 @@
       <c r="J815" s="18"/>
       <c r="K815" s="19"/>
     </row>
-    <row r="816" spans="1:11" ht="30">
+    <row r="816" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A816" s="14">
         <v>26179</v>
       </c>
@@ -23857,7 +24064,7 @@
       <c r="J816" s="18"/>
       <c r="K816" s="19"/>
     </row>
-    <row r="817" spans="1:11" ht="45">
+    <row r="817" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A817" s="20">
         <v>26180</v>
       </c>
@@ -23880,7 +24087,7 @@
       <c r="J817" s="25"/>
       <c r="K817" s="26"/>
     </row>
-    <row r="818" spans="1:11" ht="30">
+    <row r="818" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A818" s="20">
         <v>26180</v>
       </c>
@@ -23903,7 +24110,7 @@
       <c r="J818" s="25"/>
       <c r="K818" s="26"/>
     </row>
-    <row r="819" spans="1:11">
+    <row r="819" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A819" s="20">
         <v>26180</v>
       </c>
@@ -23926,7 +24133,7 @@
       <c r="J819" s="25"/>
       <c r="K819" s="26"/>
     </row>
-    <row r="820" spans="1:11">
+    <row r="820" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A820" s="20">
         <v>26180</v>
       </c>
@@ -23949,7 +24156,7 @@
       <c r="J820" s="25"/>
       <c r="K820" s="26"/>
     </row>
-    <row r="821" spans="1:11" ht="30">
+    <row r="821" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A821" s="20">
         <v>26180</v>
       </c>
@@ -23972,7 +24179,7 @@
       <c r="J821" s="25"/>
       <c r="K821" s="26"/>
     </row>
-    <row r="822" spans="1:11" ht="45">
+    <row r="822" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A822" s="20">
         <v>26180</v>
       </c>
@@ -23995,7 +24202,7 @@
       <c r="J822" s="25"/>
       <c r="K822" s="26"/>
     </row>
-    <row r="823" spans="1:11" ht="60">
+    <row r="823" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A823" s="20">
         <v>26180</v>
       </c>
@@ -24018,7 +24225,7 @@
       <c r="J823" s="25"/>
       <c r="K823" s="26"/>
     </row>
-    <row r="824" spans="1:11" ht="30">
+    <row r="824" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A824" s="20">
         <v>26180</v>
       </c>
@@ -24041,7 +24248,7 @@
       <c r="J824" s="25"/>
       <c r="K824" s="26"/>
     </row>
-    <row r="825" spans="1:11" ht="30">
+    <row r="825" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A825" s="20">
         <v>26180</v>
       </c>
@@ -24064,7 +24271,7 @@
       <c r="J825" s="25"/>
       <c r="K825" s="26"/>
     </row>
-    <row r="826" spans="1:11" ht="30">
+    <row r="826" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A826" s="20">
         <v>26180</v>
       </c>
@@ -24087,7 +24294,7 @@
       <c r="J826" s="25"/>
       <c r="K826" s="26"/>
     </row>
-    <row r="827" spans="1:11" ht="30">
+    <row r="827" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A827" s="20">
         <v>26180</v>
       </c>
@@ -24110,7 +24317,7 @@
       <c r="J827" s="25"/>
       <c r="K827" s="26"/>
     </row>
-    <row r="828" spans="1:11" ht="90">
+    <row r="828" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A828" s="14">
         <v>26230</v>
       </c>
@@ -24133,7 +24340,7 @@
       <c r="J828" s="18"/>
       <c r="K828" s="19"/>
     </row>
-    <row r="829" spans="1:11" ht="75">
+    <row r="829" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A829" s="20">
         <v>26329</v>
       </c>
@@ -24156,7 +24363,7 @@
       <c r="J829" s="25"/>
       <c r="K829" s="26"/>
     </row>
-    <row r="830" spans="1:11" ht="30">
+    <row r="830" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A830" s="27">
         <v>26330</v>
       </c>
@@ -24183,9 +24390,9 @@
   <conditionalFormatting sqref="H13">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -24201,24 +24408,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
+++ b/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
@@ -3808,8 +3808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K830"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A591" workbookViewId="0">
-      <selection activeCell="I594" sqref="I594"/>
+    <sheetView tabSelected="1" topLeftCell="A644" workbookViewId="0">
+      <selection activeCell="F653" sqref="F653"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18894,7 +18894,9 @@
       <c r="F594" s="24"/>
       <c r="G594" s="25"/>
       <c r="H594" s="25"/>
-      <c r="I594" s="25"/>
+      <c r="I594" s="25">
+        <v>1</v>
+      </c>
       <c r="J594" s="25"/>
       <c r="K594" s="26"/>
     </row>
@@ -18917,7 +18919,9 @@
       <c r="F595" s="24"/>
       <c r="G595" s="25"/>
       <c r="H595" s="25"/>
-      <c r="I595" s="25"/>
+      <c r="I595" s="25">
+        <v>1</v>
+      </c>
       <c r="J595" s="25"/>
       <c r="K595" s="26"/>
     </row>
@@ -18940,7 +18944,9 @@
       <c r="F596" s="24"/>
       <c r="G596" s="25"/>
       <c r="H596" s="25"/>
-      <c r="I596" s="25"/>
+      <c r="I596" s="25">
+        <v>1</v>
+      </c>
       <c r="J596" s="25"/>
       <c r="K596" s="26"/>
     </row>
@@ -18963,7 +18969,9 @@
       <c r="F597" s="17"/>
       <c r="G597" s="18"/>
       <c r="H597" s="18"/>
-      <c r="I597" s="18"/>
+      <c r="I597" s="18">
+        <v>1</v>
+      </c>
       <c r="J597" s="18"/>
       <c r="K597" s="19"/>
     </row>
@@ -18986,7 +18994,9 @@
       <c r="F598" s="17"/>
       <c r="G598" s="18"/>
       <c r="H598" s="18"/>
-      <c r="I598" s="18"/>
+      <c r="I598" s="18">
+        <v>1</v>
+      </c>
       <c r="J598" s="18"/>
       <c r="K598" s="19"/>
     </row>
@@ -19009,7 +19019,9 @@
       <c r="F599" s="17"/>
       <c r="G599" s="18"/>
       <c r="H599" s="18"/>
-      <c r="I599" s="18"/>
+      <c r="I599" s="18">
+        <v>1</v>
+      </c>
       <c r="J599" s="18"/>
       <c r="K599" s="19"/>
     </row>
@@ -19032,7 +19044,9 @@
       <c r="F600" s="17"/>
       <c r="G600" s="18"/>
       <c r="H600" s="18"/>
-      <c r="I600" s="18"/>
+      <c r="I600" s="18">
+        <v>1</v>
+      </c>
       <c r="J600" s="18"/>
       <c r="K600" s="19"/>
     </row>
@@ -19055,7 +19069,9 @@
       <c r="F601" s="17"/>
       <c r="G601" s="18"/>
       <c r="H601" s="18"/>
-      <c r="I601" s="18"/>
+      <c r="I601" s="18">
+        <v>1</v>
+      </c>
       <c r="J601" s="18"/>
       <c r="K601" s="19"/>
     </row>
@@ -19078,7 +19094,9 @@
       <c r="F602" s="17"/>
       <c r="G602" s="18"/>
       <c r="H602" s="18"/>
-      <c r="I602" s="18"/>
+      <c r="I602" s="18">
+        <v>1</v>
+      </c>
       <c r="J602" s="18"/>
       <c r="K602" s="19"/>
     </row>
@@ -19101,7 +19119,9 @@
       <c r="F603" s="24"/>
       <c r="G603" s="25"/>
       <c r="H603" s="25"/>
-      <c r="I603" s="25"/>
+      <c r="I603" s="25">
+        <v>1</v>
+      </c>
       <c r="J603" s="25"/>
       <c r="K603" s="26"/>
     </row>
@@ -19121,8 +19141,12 @@
       <c r="E604" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="F604" s="17"/>
-      <c r="G604" s="18"/>
+      <c r="F604" s="17">
+        <v>1</v>
+      </c>
+      <c r="G604" s="18">
+        <v>1</v>
+      </c>
       <c r="H604" s="18"/>
       <c r="I604" s="18"/>
       <c r="J604" s="18"/>
@@ -19144,8 +19168,12 @@
       <c r="E605" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="F605" s="17"/>
-      <c r="G605" s="18"/>
+      <c r="F605" s="17">
+        <v>1</v>
+      </c>
+      <c r="G605" s="18">
+        <v>1</v>
+      </c>
       <c r="H605" s="18"/>
       <c r="I605" s="18"/>
       <c r="J605" s="18"/>
@@ -19167,8 +19195,12 @@
       <c r="E606" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="F606" s="17"/>
-      <c r="G606" s="18"/>
+      <c r="F606" s="17">
+        <v>1</v>
+      </c>
+      <c r="G606" s="18">
+        <v>1</v>
+      </c>
       <c r="H606" s="18"/>
       <c r="I606" s="18"/>
       <c r="J606" s="18"/>
@@ -19190,8 +19222,12 @@
       <c r="E607" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="F607" s="17"/>
-      <c r="G607" s="18"/>
+      <c r="F607" s="17">
+        <v>1</v>
+      </c>
+      <c r="G607" s="18">
+        <v>1</v>
+      </c>
       <c r="H607" s="18"/>
       <c r="I607" s="18"/>
       <c r="J607" s="18"/>
@@ -19213,8 +19249,12 @@
       <c r="E608" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="F608" s="17"/>
-      <c r="G608" s="18"/>
+      <c r="F608" s="17">
+        <v>1</v>
+      </c>
+      <c r="G608" s="18">
+        <v>1</v>
+      </c>
       <c r="H608" s="18"/>
       <c r="I608" s="18"/>
       <c r="J608" s="18"/>
@@ -19236,8 +19276,12 @@
       <c r="E609" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="F609" s="17"/>
-      <c r="G609" s="18"/>
+      <c r="F609" s="17">
+        <v>1</v>
+      </c>
+      <c r="G609" s="18">
+        <v>1</v>
+      </c>
       <c r="H609" s="18"/>
       <c r="I609" s="18"/>
       <c r="J609" s="18"/>
@@ -19310,7 +19354,9 @@
       <c r="H612" s="25"/>
       <c r="I612" s="25"/>
       <c r="J612" s="25"/>
-      <c r="K612" s="26"/>
+      <c r="K612" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="613" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A613" s="20">
@@ -19333,7 +19379,9 @@
       <c r="H613" s="25"/>
       <c r="I613" s="25"/>
       <c r="J613" s="25"/>
-      <c r="K613" s="26"/>
+      <c r="K613" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="614" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A614" s="20">
@@ -19397,7 +19445,9 @@
       <c r="E616" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="F616" s="17"/>
+      <c r="F616" s="17">
+        <v>1</v>
+      </c>
       <c r="G616" s="18"/>
       <c r="H616" s="18"/>
       <c r="I616" s="18"/>
@@ -19420,7 +19470,9 @@
       <c r="E617" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="F617" s="17"/>
+      <c r="F617" s="17">
+        <v>1</v>
+      </c>
       <c r="G617" s="18"/>
       <c r="H617" s="18"/>
       <c r="I617" s="18"/>
@@ -19471,7 +19523,9 @@
       <c r="H619" s="25"/>
       <c r="I619" s="25"/>
       <c r="J619" s="25"/>
-      <c r="K619" s="26"/>
+      <c r="K619" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="620" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A620" s="20">
@@ -19515,7 +19569,9 @@
       <c r="F621" s="17"/>
       <c r="G621" s="18"/>
       <c r="H621" s="18"/>
-      <c r="I621" s="18"/>
+      <c r="I621" s="18">
+        <v>1</v>
+      </c>
       <c r="J621" s="18"/>
       <c r="K621" s="19"/>
     </row>
@@ -19538,7 +19594,9 @@
       <c r="F622" s="17"/>
       <c r="G622" s="18"/>
       <c r="H622" s="18"/>
-      <c r="I622" s="18"/>
+      <c r="I622" s="18">
+        <v>1</v>
+      </c>
       <c r="J622" s="18"/>
       <c r="K622" s="19"/>
     </row>
@@ -19561,7 +19619,9 @@
       <c r="F623" s="17"/>
       <c r="G623" s="18"/>
       <c r="H623" s="18"/>
-      <c r="I623" s="18"/>
+      <c r="I623" s="18">
+        <v>1</v>
+      </c>
       <c r="J623" s="18"/>
       <c r="K623" s="19"/>
     </row>
@@ -19584,7 +19644,9 @@
       <c r="F624" s="17"/>
       <c r="G624" s="18"/>
       <c r="H624" s="18"/>
-      <c r="I624" s="18"/>
+      <c r="I624" s="18">
+        <v>1</v>
+      </c>
       <c r="J624" s="18"/>
       <c r="K624" s="19"/>
     </row>
@@ -19607,7 +19669,9 @@
       <c r="F625" s="24"/>
       <c r="G625" s="25"/>
       <c r="H625" s="25"/>
-      <c r="I625" s="25"/>
+      <c r="I625" s="25">
+        <v>1</v>
+      </c>
       <c r="J625" s="25"/>
       <c r="K625" s="26"/>
     </row>
@@ -19630,7 +19694,9 @@
       <c r="F626" s="24"/>
       <c r="G626" s="25"/>
       <c r="H626" s="25"/>
-      <c r="I626" s="25"/>
+      <c r="I626" s="25">
+        <v>1</v>
+      </c>
       <c r="J626" s="25"/>
       <c r="K626" s="26"/>
     </row>
@@ -19653,7 +19719,9 @@
       <c r="F627" s="24"/>
       <c r="G627" s="25"/>
       <c r="H627" s="25"/>
-      <c r="I627" s="25"/>
+      <c r="I627" s="25">
+        <v>1</v>
+      </c>
       <c r="J627" s="25"/>
       <c r="K627" s="26"/>
     </row>
@@ -19676,7 +19744,9 @@
       <c r="F628" s="24"/>
       <c r="G628" s="25"/>
       <c r="H628" s="25"/>
-      <c r="I628" s="25"/>
+      <c r="I628" s="25">
+        <v>1</v>
+      </c>
       <c r="J628" s="25"/>
       <c r="K628" s="26"/>
     </row>
@@ -19699,7 +19769,9 @@
       <c r="F629" s="24"/>
       <c r="G629" s="25"/>
       <c r="H629" s="25"/>
-      <c r="I629" s="25"/>
+      <c r="I629" s="25">
+        <v>1</v>
+      </c>
       <c r="J629" s="25"/>
       <c r="K629" s="26"/>
     </row>
@@ -19722,7 +19794,9 @@
       <c r="F630" s="17"/>
       <c r="G630" s="18"/>
       <c r="H630" s="18"/>
-      <c r="I630" s="18"/>
+      <c r="I630" s="18">
+        <v>1</v>
+      </c>
       <c r="J630" s="18"/>
       <c r="K630" s="19"/>
     </row>
@@ -19745,7 +19819,9 @@
       <c r="F631" s="17"/>
       <c r="G631" s="18"/>
       <c r="H631" s="18"/>
-      <c r="I631" s="18"/>
+      <c r="I631" s="18">
+        <v>1</v>
+      </c>
       <c r="J631" s="18"/>
       <c r="K631" s="19"/>
     </row>
@@ -19816,7 +19892,9 @@
       <c r="H634" s="25"/>
       <c r="I634" s="25"/>
       <c r="J634" s="25"/>
-      <c r="K634" s="26"/>
+      <c r="K634" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="635" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A635" s="20">
@@ -19839,7 +19917,9 @@
       <c r="H635" s="25"/>
       <c r="I635" s="25"/>
       <c r="J635" s="25"/>
-      <c r="K635" s="26"/>
+      <c r="K635" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="636" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A636" s="20">
@@ -19931,7 +20011,9 @@
       <c r="H639" s="18"/>
       <c r="I639" s="18"/>
       <c r="J639" s="18"/>
-      <c r="K639" s="19"/>
+      <c r="K639" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="640" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A640" s="14">
@@ -19972,7 +20054,9 @@
       <c r="E641" s="23" t="s">
         <v>566</v>
       </c>
-      <c r="F641" s="24"/>
+      <c r="F641" s="24">
+        <v>1</v>
+      </c>
       <c r="G641" s="25"/>
       <c r="H641" s="25"/>
       <c r="I641" s="25"/>
@@ -19995,7 +20079,9 @@
       <c r="E642" s="23" t="s">
         <v>571</v>
       </c>
-      <c r="F642" s="24"/>
+      <c r="F642" s="24">
+        <v>1</v>
+      </c>
       <c r="G642" s="25"/>
       <c r="H642" s="25"/>
       <c r="I642" s="25"/>
@@ -20018,7 +20104,9 @@
       <c r="E643" s="23" t="s">
         <v>597</v>
       </c>
-      <c r="F643" s="24"/>
+      <c r="F643" s="24">
+        <v>1</v>
+      </c>
       <c r="G643" s="25"/>
       <c r="H643" s="25"/>
       <c r="I643" s="25"/>
@@ -20041,9 +20129,13 @@
       <c r="E644" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="F644" s="17"/>
+      <c r="F644" s="17">
+        <v>1</v>
+      </c>
       <c r="G644" s="18"/>
-      <c r="H644" s="18"/>
+      <c r="H644" s="18">
+        <v>1</v>
+      </c>
       <c r="I644" s="18"/>
       <c r="J644" s="18"/>
       <c r="K644" s="19"/>
@@ -20064,9 +20156,13 @@
       <c r="E645" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="F645" s="17"/>
+      <c r="F645" s="17">
+        <v>1</v>
+      </c>
       <c r="G645" s="18"/>
-      <c r="H645" s="18"/>
+      <c r="H645" s="18">
+        <v>1</v>
+      </c>
       <c r="I645" s="18"/>
       <c r="J645" s="18"/>
       <c r="K645" s="19"/>
@@ -20087,9 +20183,13 @@
       <c r="E646" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="F646" s="17"/>
+      <c r="F646" s="17">
+        <v>1</v>
+      </c>
       <c r="G646" s="18"/>
-      <c r="H646" s="18"/>
+      <c r="H646" s="18">
+        <v>1</v>
+      </c>
       <c r="I646" s="18"/>
       <c r="J646" s="18"/>
       <c r="K646" s="19"/>
@@ -20110,8 +20210,12 @@
       <c r="E647" s="23" t="s">
         <v>574</v>
       </c>
-      <c r="F647" s="24"/>
-      <c r="G647" s="25"/>
+      <c r="F647" s="24">
+        <v>1</v>
+      </c>
+      <c r="G647" s="25">
+        <v>1</v>
+      </c>
       <c r="H647" s="25"/>
       <c r="I647" s="25"/>
       <c r="J647" s="25"/>
@@ -20133,8 +20237,12 @@
       <c r="E648" s="23" t="s">
         <v>575</v>
       </c>
-      <c r="F648" s="24"/>
-      <c r="G648" s="25"/>
+      <c r="F648" s="24">
+        <v>1</v>
+      </c>
+      <c r="G648" s="25">
+        <v>1</v>
+      </c>
       <c r="H648" s="25"/>
       <c r="I648" s="25"/>
       <c r="J648" s="25"/>
@@ -20156,8 +20264,12 @@
       <c r="E649" s="23" t="s">
         <v>576</v>
       </c>
-      <c r="F649" s="24"/>
-      <c r="G649" s="25"/>
+      <c r="F649" s="24">
+        <v>1</v>
+      </c>
+      <c r="G649" s="25">
+        <v>1</v>
+      </c>
       <c r="H649" s="25"/>
       <c r="I649" s="25"/>
       <c r="J649" s="25"/>
@@ -20179,8 +20291,12 @@
       <c r="E650" s="23" t="s">
         <v>577</v>
       </c>
-      <c r="F650" s="24"/>
-      <c r="G650" s="25"/>
+      <c r="F650" s="24">
+        <v>1</v>
+      </c>
+      <c r="G650" s="25">
+        <v>1</v>
+      </c>
       <c r="H650" s="25"/>
       <c r="I650" s="25"/>
       <c r="J650" s="25"/>
@@ -20202,8 +20318,12 @@
       <c r="E651" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="F651" s="24"/>
-      <c r="G651" s="25"/>
+      <c r="F651" s="24">
+        <v>1</v>
+      </c>
+      <c r="G651" s="25">
+        <v>1</v>
+      </c>
       <c r="H651" s="25"/>
       <c r="I651" s="25"/>
       <c r="J651" s="25"/>
@@ -20225,8 +20345,12 @@
       <c r="E652" s="23" t="s">
         <v>606</v>
       </c>
-      <c r="F652" s="24"/>
-      <c r="G652" s="25"/>
+      <c r="F652" s="24">
+        <v>1</v>
+      </c>
+      <c r="G652" s="25">
+        <v>1</v>
+      </c>
       <c r="H652" s="25"/>
       <c r="I652" s="25"/>
       <c r="J652" s="25"/>

--- a/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
+++ b/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
@@ -3808,8 +3808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K830"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A644" workbookViewId="0">
-      <selection activeCell="F653" sqref="F653"/>
+    <sheetView tabSelected="1" topLeftCell="A683" workbookViewId="0">
+      <selection activeCell="F684" sqref="F684"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20372,7 +20372,9 @@
       <c r="E653" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="F653" s="17"/>
+      <c r="F653" s="17">
+        <v>1</v>
+      </c>
       <c r="G653" s="18"/>
       <c r="H653" s="18"/>
       <c r="I653" s="18"/>
@@ -20395,7 +20397,9 @@
       <c r="E654" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="F654" s="17"/>
+      <c r="F654" s="17">
+        <v>1</v>
+      </c>
       <c r="G654" s="18"/>
       <c r="H654" s="18"/>
       <c r="I654" s="18"/>
@@ -20418,7 +20422,9 @@
       <c r="E655" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="F655" s="17"/>
+      <c r="F655" s="17">
+        <v>1</v>
+      </c>
       <c r="G655" s="18"/>
       <c r="H655" s="18"/>
       <c r="I655" s="18"/>
@@ -20441,7 +20447,9 @@
       <c r="E656" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="F656" s="17"/>
+      <c r="F656" s="17">
+        <v>1</v>
+      </c>
       <c r="G656" s="18"/>
       <c r="H656" s="18"/>
       <c r="I656" s="18"/>
@@ -20464,7 +20472,9 @@
       <c r="E657" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="F657" s="17"/>
+      <c r="F657" s="17">
+        <v>1</v>
+      </c>
       <c r="G657" s="18"/>
       <c r="H657" s="18"/>
       <c r="I657" s="18"/>
@@ -20487,7 +20497,9 @@
       <c r="E658" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="F658" s="17"/>
+      <c r="F658" s="17">
+        <v>1</v>
+      </c>
       <c r="G658" s="18"/>
       <c r="H658" s="18"/>
       <c r="I658" s="18"/>
@@ -20510,7 +20522,9 @@
       <c r="E659" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="F659" s="17"/>
+      <c r="F659" s="17">
+        <v>1</v>
+      </c>
       <c r="G659" s="18"/>
       <c r="H659" s="18"/>
       <c r="I659" s="18"/>
@@ -20533,7 +20547,9 @@
       <c r="E660" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="F660" s="17"/>
+      <c r="F660" s="17">
+        <v>1</v>
+      </c>
       <c r="G660" s="18"/>
       <c r="H660" s="18"/>
       <c r="I660" s="18"/>
@@ -20556,7 +20572,9 @@
       <c r="E661" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="F661" s="17"/>
+      <c r="F661" s="17">
+        <v>1</v>
+      </c>
       <c r="G661" s="18"/>
       <c r="H661" s="18"/>
       <c r="I661" s="18"/>
@@ -20579,7 +20597,9 @@
       <c r="E662" s="23" t="s">
         <v>594</v>
       </c>
-      <c r="F662" s="24"/>
+      <c r="F662" s="24">
+        <v>1</v>
+      </c>
       <c r="G662" s="25"/>
       <c r="H662" s="25"/>
       <c r="I662" s="25"/>
@@ -20602,7 +20622,9 @@
       <c r="E663" s="23" t="s">
         <v>595</v>
       </c>
-      <c r="F663" s="24"/>
+      <c r="F663" s="24">
+        <v>1</v>
+      </c>
       <c r="G663" s="25"/>
       <c r="H663" s="25"/>
       <c r="I663" s="25"/>
@@ -20625,7 +20647,9 @@
       <c r="E664" s="23" t="s">
         <v>608</v>
       </c>
-      <c r="F664" s="24"/>
+      <c r="F664" s="24">
+        <v>1</v>
+      </c>
       <c r="G664" s="25"/>
       <c r="H664" s="25"/>
       <c r="I664" s="25"/>
@@ -20648,7 +20672,9 @@
       <c r="E665" s="23" t="s">
         <v>609</v>
       </c>
-      <c r="F665" s="24"/>
+      <c r="F665" s="24">
+        <v>1</v>
+      </c>
       <c r="G665" s="25"/>
       <c r="H665" s="25"/>
       <c r="I665" s="25"/>
@@ -20671,7 +20697,9 @@
       <c r="E666" s="23" t="s">
         <v>610</v>
       </c>
-      <c r="F666" s="24"/>
+      <c r="F666" s="24">
+        <v>1</v>
+      </c>
       <c r="G666" s="25"/>
       <c r="H666" s="25"/>
       <c r="I666" s="25"/>
@@ -20694,7 +20722,9 @@
       <c r="E667" s="23" t="s">
         <v>619</v>
       </c>
-      <c r="F667" s="24"/>
+      <c r="F667" s="24">
+        <v>1</v>
+      </c>
       <c r="G667" s="25"/>
       <c r="H667" s="25"/>
       <c r="I667" s="25"/>
@@ -20717,7 +20747,9 @@
       <c r="E668" s="23" t="s">
         <v>652</v>
       </c>
-      <c r="F668" s="24"/>
+      <c r="F668" s="24">
+        <v>1</v>
+      </c>
       <c r="G668" s="25"/>
       <c r="H668" s="25"/>
       <c r="I668" s="25"/>
@@ -20740,7 +20772,9 @@
       <c r="E669" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="F669" s="17"/>
+      <c r="F669" s="17">
+        <v>1</v>
+      </c>
       <c r="G669" s="18"/>
       <c r="H669" s="18"/>
       <c r="I669" s="18"/>
@@ -20763,7 +20797,9 @@
       <c r="E670" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="F670" s="17"/>
+      <c r="F670" s="17">
+        <v>1</v>
+      </c>
       <c r="G670" s="18"/>
       <c r="H670" s="18"/>
       <c r="I670" s="18"/>
@@ -20786,7 +20822,9 @@
       <c r="E671" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="F671" s="17"/>
+      <c r="F671" s="17">
+        <v>1</v>
+      </c>
       <c r="G671" s="18"/>
       <c r="H671" s="18"/>
       <c r="I671" s="18"/>
@@ -20809,7 +20847,9 @@
       <c r="E672" s="6" t="s">
         <v>647</v>
       </c>
-      <c r="F672" s="17"/>
+      <c r="F672" s="17">
+        <v>1</v>
+      </c>
       <c r="G672" s="18"/>
       <c r="H672" s="18"/>
       <c r="I672" s="18"/>
@@ -20832,7 +20872,9 @@
       <c r="E673" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="F673" s="17"/>
+      <c r="F673" s="17">
+        <v>1</v>
+      </c>
       <c r="G673" s="18"/>
       <c r="H673" s="18"/>
       <c r="I673" s="18"/>
@@ -20855,7 +20897,9 @@
       <c r="E674" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="F674" s="17"/>
+      <c r="F674" s="17">
+        <v>1</v>
+      </c>
       <c r="G674" s="18"/>
       <c r="H674" s="18"/>
       <c r="I674" s="18"/>
@@ -20878,7 +20922,9 @@
       <c r="E675" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="F675" s="17"/>
+      <c r="F675" s="17">
+        <v>1</v>
+      </c>
       <c r="G675" s="18"/>
       <c r="H675" s="18"/>
       <c r="I675" s="18"/>
@@ -20901,8 +20947,12 @@
       <c r="E676" s="23" t="s">
         <v>611</v>
       </c>
-      <c r="F676" s="24"/>
-      <c r="G676" s="25"/>
+      <c r="F676" s="24">
+        <v>1</v>
+      </c>
+      <c r="G676" s="25">
+        <v>1</v>
+      </c>
       <c r="H676" s="25"/>
       <c r="I676" s="25"/>
       <c r="J676" s="25"/>
@@ -20924,8 +20974,12 @@
       <c r="E677" s="23" t="s">
         <v>612</v>
       </c>
-      <c r="F677" s="24"/>
-      <c r="G677" s="25"/>
+      <c r="F677" s="24">
+        <v>1</v>
+      </c>
+      <c r="G677" s="25">
+        <v>1</v>
+      </c>
       <c r="H677" s="25"/>
       <c r="I677" s="25"/>
       <c r="J677" s="25"/>
@@ -20947,8 +21001,12 @@
       <c r="E678" s="23" t="s">
         <v>613</v>
       </c>
-      <c r="F678" s="24"/>
-      <c r="G678" s="25"/>
+      <c r="F678" s="24">
+        <v>1</v>
+      </c>
+      <c r="G678" s="25">
+        <v>1</v>
+      </c>
       <c r="H678" s="25"/>
       <c r="I678" s="25"/>
       <c r="J678" s="25"/>
@@ -20970,8 +21028,12 @@
       <c r="E679" s="23" t="s">
         <v>617</v>
       </c>
-      <c r="F679" s="24"/>
-      <c r="G679" s="25"/>
+      <c r="F679" s="24">
+        <v>1</v>
+      </c>
+      <c r="G679" s="25">
+        <v>1</v>
+      </c>
       <c r="H679" s="25"/>
       <c r="I679" s="25"/>
       <c r="J679" s="25"/>
@@ -20993,8 +21055,12 @@
       <c r="E680" s="23" t="s">
         <v>622</v>
       </c>
-      <c r="F680" s="24"/>
-      <c r="G680" s="25"/>
+      <c r="F680" s="24">
+        <v>1</v>
+      </c>
+      <c r="G680" s="25">
+        <v>1</v>
+      </c>
       <c r="H680" s="25"/>
       <c r="I680" s="25"/>
       <c r="J680" s="25"/>
@@ -21016,8 +21082,12 @@
       <c r="E681" s="23" t="s">
         <v>623</v>
       </c>
-      <c r="F681" s="24"/>
-      <c r="G681" s="25"/>
+      <c r="F681" s="24">
+        <v>1</v>
+      </c>
+      <c r="G681" s="25">
+        <v>1</v>
+      </c>
       <c r="H681" s="25"/>
       <c r="I681" s="25"/>
       <c r="J681" s="25"/>
@@ -21039,8 +21109,12 @@
       <c r="E682" s="23" t="s">
         <v>624</v>
       </c>
-      <c r="F682" s="24"/>
-      <c r="G682" s="25"/>
+      <c r="F682" s="24">
+        <v>1</v>
+      </c>
+      <c r="G682" s="25">
+        <v>1</v>
+      </c>
       <c r="H682" s="25"/>
       <c r="I682" s="25"/>
       <c r="J682" s="25"/>
@@ -21062,8 +21136,12 @@
       <c r="E683" s="23" t="s">
         <v>629</v>
       </c>
-      <c r="F683" s="24"/>
-      <c r="G683" s="25"/>
+      <c r="F683" s="24">
+        <v>1</v>
+      </c>
+      <c r="G683" s="25">
+        <v>1</v>
+      </c>
       <c r="H683" s="25"/>
       <c r="I683" s="25"/>
       <c r="J683" s="25"/>

--- a/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
+++ b/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
@@ -3808,8 +3808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K830"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A683" workbookViewId="0">
-      <selection activeCell="F684" sqref="F684"/>
+    <sheetView tabSelected="1" topLeftCell="A727" workbookViewId="0">
+      <selection activeCell="F729" sqref="F729"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21163,10 +21163,14 @@
       <c r="E684" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="F684" s="17"/>
+      <c r="F684" s="17">
+        <v>1</v>
+      </c>
       <c r="G684" s="18"/>
       <c r="H684" s="18"/>
-      <c r="I684" s="18"/>
+      <c r="I684" s="18">
+        <v>1</v>
+      </c>
       <c r="J684" s="18"/>
       <c r="K684" s="19"/>
     </row>
@@ -21186,10 +21190,14 @@
       <c r="E685" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="F685" s="17"/>
+      <c r="F685" s="17">
+        <v>1</v>
+      </c>
       <c r="G685" s="18"/>
       <c r="H685" s="18"/>
-      <c r="I685" s="18"/>
+      <c r="I685" s="18">
+        <v>1</v>
+      </c>
       <c r="J685" s="18"/>
       <c r="K685" s="19"/>
     </row>
@@ -21209,10 +21217,14 @@
       <c r="E686" s="6" t="s">
         <v>643</v>
       </c>
-      <c r="F686" s="17"/>
+      <c r="F686" s="17">
+        <v>1</v>
+      </c>
       <c r="G686" s="18"/>
       <c r="H686" s="18"/>
-      <c r="I686" s="18"/>
+      <c r="I686" s="18">
+        <v>1</v>
+      </c>
       <c r="J686" s="18"/>
       <c r="K686" s="19"/>
     </row>
@@ -21232,10 +21244,14 @@
       <c r="E687" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="F687" s="17"/>
+      <c r="F687" s="17">
+        <v>1</v>
+      </c>
       <c r="G687" s="18"/>
       <c r="H687" s="18"/>
-      <c r="I687" s="18"/>
+      <c r="I687" s="18">
+        <v>1</v>
+      </c>
       <c r="J687" s="18"/>
       <c r="K687" s="19"/>
     </row>
@@ -21255,10 +21271,14 @@
       <c r="E688" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="F688" s="17"/>
+      <c r="F688" s="17">
+        <v>1</v>
+      </c>
       <c r="G688" s="18"/>
       <c r="H688" s="18"/>
-      <c r="I688" s="18"/>
+      <c r="I688" s="18">
+        <v>1</v>
+      </c>
       <c r="J688" s="18"/>
       <c r="K688" s="19"/>
     </row>
@@ -21278,10 +21298,14 @@
       <c r="E689" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="F689" s="17"/>
+      <c r="F689" s="17">
+        <v>1</v>
+      </c>
       <c r="G689" s="18"/>
       <c r="H689" s="18"/>
-      <c r="I689" s="18"/>
+      <c r="I689" s="18">
+        <v>1</v>
+      </c>
       <c r="J689" s="18"/>
       <c r="K689" s="19"/>
     </row>
@@ -21347,7 +21371,9 @@
       <c r="E692" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="F692" s="17"/>
+      <c r="F692" s="17">
+        <v>1</v>
+      </c>
       <c r="G692" s="18"/>
       <c r="H692" s="18"/>
       <c r="I692" s="18"/>
@@ -21370,7 +21396,9 @@
       <c r="E693" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="F693" s="17"/>
+      <c r="F693" s="17">
+        <v>1</v>
+      </c>
       <c r="G693" s="18"/>
       <c r="H693" s="18"/>
       <c r="I693" s="18"/>
@@ -21393,7 +21421,9 @@
       <c r="E694" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="F694" s="17"/>
+      <c r="F694" s="17">
+        <v>1</v>
+      </c>
       <c r="G694" s="18"/>
       <c r="H694" s="18"/>
       <c r="I694" s="18"/>
@@ -21416,7 +21446,9 @@
       <c r="E695" s="23" t="s">
         <v>611</v>
       </c>
-      <c r="F695" s="24"/>
+      <c r="F695" s="24">
+        <v>1</v>
+      </c>
       <c r="G695" s="25"/>
       <c r="H695" s="25"/>
       <c r="I695" s="25"/>
@@ -21439,7 +21471,9 @@
       <c r="E696" s="23" t="s">
         <v>636</v>
       </c>
-      <c r="F696" s="24"/>
+      <c r="F696" s="24">
+        <v>1</v>
+      </c>
       <c r="G696" s="25"/>
       <c r="H696" s="25"/>
       <c r="I696" s="25"/>
@@ -21462,7 +21496,9 @@
       <c r="E697" s="23" t="s">
         <v>637</v>
       </c>
-      <c r="F697" s="24"/>
+      <c r="F697" s="24">
+        <v>1</v>
+      </c>
       <c r="G697" s="25"/>
       <c r="H697" s="25"/>
       <c r="I697" s="25"/>
@@ -21485,7 +21521,9 @@
       <c r="E698" s="23" t="s">
         <v>638</v>
       </c>
-      <c r="F698" s="24"/>
+      <c r="F698" s="24">
+        <v>1</v>
+      </c>
       <c r="G698" s="25"/>
       <c r="H698" s="25"/>
       <c r="I698" s="25"/>
@@ -21508,7 +21546,9 @@
       <c r="E699" s="23" t="s">
         <v>648</v>
       </c>
-      <c r="F699" s="24"/>
+      <c r="F699" s="24">
+        <v>1</v>
+      </c>
       <c r="G699" s="25"/>
       <c r="H699" s="25"/>
       <c r="I699" s="25"/>
@@ -21531,7 +21571,9 @@
       <c r="E700" s="23" t="s">
         <v>649</v>
       </c>
-      <c r="F700" s="24"/>
+      <c r="F700" s="24">
+        <v>1</v>
+      </c>
       <c r="G700" s="25"/>
       <c r="H700" s="25"/>
       <c r="I700" s="25"/>
@@ -21554,7 +21596,9 @@
       <c r="E701" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="F701" s="24"/>
+      <c r="F701" s="24">
+        <v>1</v>
+      </c>
       <c r="G701" s="25"/>
       <c r="H701" s="25"/>
       <c r="I701" s="25"/>
@@ -21577,7 +21621,9 @@
       <c r="E702" s="23" t="s">
         <v>654</v>
       </c>
-      <c r="F702" s="24"/>
+      <c r="F702" s="24">
+        <v>1</v>
+      </c>
       <c r="G702" s="25"/>
       <c r="H702" s="25"/>
       <c r="I702" s="25"/>
@@ -21600,7 +21646,9 @@
       <c r="E703" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="F703" s="17"/>
+      <c r="F703" s="17">
+        <v>1</v>
+      </c>
       <c r="G703" s="18"/>
       <c r="H703" s="18"/>
       <c r="I703" s="18"/>
@@ -21623,7 +21671,9 @@
       <c r="E704" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="F704" s="17"/>
+      <c r="F704" s="17">
+        <v>1</v>
+      </c>
       <c r="G704" s="18"/>
       <c r="H704" s="18"/>
       <c r="I704" s="18"/>
@@ -21646,7 +21696,9 @@
       <c r="E705" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="F705" s="17"/>
+      <c r="F705" s="17">
+        <v>1</v>
+      </c>
       <c r="G705" s="18"/>
       <c r="H705" s="18"/>
       <c r="I705" s="18"/>
@@ -21669,7 +21721,9 @@
       <c r="E706" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="F706" s="17"/>
+      <c r="F706" s="17">
+        <v>1</v>
+      </c>
       <c r="G706" s="18"/>
       <c r="H706" s="18"/>
       <c r="I706" s="18"/>
@@ -21692,7 +21746,9 @@
       <c r="E707" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="F707" s="17"/>
+      <c r="F707" s="17">
+        <v>1</v>
+      </c>
       <c r="G707" s="18"/>
       <c r="H707" s="18"/>
       <c r="I707" s="18"/>
@@ -21715,7 +21771,9 @@
       <c r="E708" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="F708" s="17"/>
+      <c r="F708" s="17">
+        <v>1</v>
+      </c>
       <c r="G708" s="18"/>
       <c r="H708" s="18"/>
       <c r="I708" s="18"/>
@@ -21738,7 +21796,9 @@
       <c r="E709" s="23" t="s">
         <v>611</v>
       </c>
-      <c r="F709" s="24"/>
+      <c r="F709" s="24">
+        <v>1</v>
+      </c>
       <c r="G709" s="25"/>
       <c r="H709" s="25"/>
       <c r="I709" s="25"/>
@@ -21761,7 +21821,9 @@
       <c r="E710" s="23" t="s">
         <v>621</v>
       </c>
-      <c r="F710" s="24"/>
+      <c r="F710" s="24">
+        <v>1</v>
+      </c>
       <c r="G710" s="25"/>
       <c r="H710" s="25"/>
       <c r="I710" s="25"/>
@@ -21784,7 +21846,9 @@
       <c r="E711" s="23" t="s">
         <v>630</v>
       </c>
-      <c r="F711" s="24"/>
+      <c r="F711" s="24">
+        <v>1</v>
+      </c>
       <c r="G711" s="25"/>
       <c r="H711" s="25"/>
       <c r="I711" s="25"/>
@@ -21807,7 +21871,9 @@
       <c r="E712" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="F712" s="24"/>
+      <c r="F712" s="24">
+        <v>1</v>
+      </c>
       <c r="G712" s="25"/>
       <c r="H712" s="25"/>
       <c r="I712" s="25"/>
@@ -21830,7 +21896,9 @@
       <c r="E713" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="F713" s="17"/>
+      <c r="F713" s="17">
+        <v>1</v>
+      </c>
       <c r="G713" s="18"/>
       <c r="H713" s="18"/>
       <c r="I713" s="18"/>
@@ -21853,7 +21921,9 @@
       <c r="E714" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="F714" s="17"/>
+      <c r="F714" s="17">
+        <v>1</v>
+      </c>
       <c r="G714" s="18"/>
       <c r="H714" s="18"/>
       <c r="I714" s="18"/>
@@ -21876,7 +21946,9 @@
       <c r="E715" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="F715" s="17"/>
+      <c r="F715" s="17">
+        <v>1</v>
+      </c>
       <c r="G715" s="18"/>
       <c r="H715" s="18"/>
       <c r="I715" s="18"/>
@@ -21899,7 +21971,9 @@
       <c r="E716" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="F716" s="17"/>
+      <c r="F716" s="17">
+        <v>1</v>
+      </c>
       <c r="G716" s="18"/>
       <c r="H716" s="18"/>
       <c r="I716" s="18"/>
@@ -21922,7 +21996,9 @@
       <c r="E717" s="6" t="s">
         <v>651</v>
       </c>
-      <c r="F717" s="17"/>
+      <c r="F717" s="17">
+        <v>1</v>
+      </c>
       <c r="G717" s="18"/>
       <c r="H717" s="18"/>
       <c r="I717" s="18"/>
@@ -21945,7 +22021,9 @@
       <c r="E718" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="F718" s="17"/>
+      <c r="F718" s="17">
+        <v>1</v>
+      </c>
       <c r="G718" s="18"/>
       <c r="H718" s="18"/>
       <c r="I718" s="18"/>
@@ -21968,7 +22046,9 @@
       <c r="E719" s="23" t="s">
         <v>611</v>
       </c>
-      <c r="F719" s="24"/>
+      <c r="F719" s="24">
+        <v>1</v>
+      </c>
       <c r="G719" s="25"/>
       <c r="H719" s="25"/>
       <c r="I719" s="25"/>
@@ -21991,7 +22071,9 @@
       <c r="E720" s="23" t="s">
         <v>631</v>
       </c>
-      <c r="F720" s="24"/>
+      <c r="F720" s="24">
+        <v>1</v>
+      </c>
       <c r="G720" s="25"/>
       <c r="H720" s="25"/>
       <c r="I720" s="25"/>
@@ -22014,7 +22096,9 @@
       <c r="E721" s="23" t="s">
         <v>633</v>
       </c>
-      <c r="F721" s="24"/>
+      <c r="F721" s="24">
+        <v>1</v>
+      </c>
       <c r="G721" s="25"/>
       <c r="H721" s="25"/>
       <c r="I721" s="25"/>
@@ -22037,7 +22121,9 @@
       <c r="E722" s="23" t="s">
         <v>634</v>
       </c>
-      <c r="F722" s="24"/>
+      <c r="F722" s="24">
+        <v>1</v>
+      </c>
       <c r="G722" s="25"/>
       <c r="H722" s="25"/>
       <c r="I722" s="25"/>
@@ -22060,7 +22146,9 @@
       <c r="E723" s="23" t="s">
         <v>650</v>
       </c>
-      <c r="F723" s="24"/>
+      <c r="F723" s="24">
+        <v>1</v>
+      </c>
       <c r="G723" s="25"/>
       <c r="H723" s="25"/>
       <c r="I723" s="25"/>
@@ -22083,7 +22171,9 @@
       <c r="E724" s="23" t="s">
         <v>651</v>
       </c>
-      <c r="F724" s="24"/>
+      <c r="F724" s="24">
+        <v>1</v>
+      </c>
       <c r="G724" s="25"/>
       <c r="H724" s="25"/>
       <c r="I724" s="25"/>
@@ -22106,7 +22196,9 @@
       <c r="E725" s="23" t="s">
         <v>654</v>
       </c>
-      <c r="F725" s="24"/>
+      <c r="F725" s="24">
+        <v>1</v>
+      </c>
       <c r="G725" s="25"/>
       <c r="H725" s="25"/>
       <c r="I725" s="25"/>

--- a/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
+++ b/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
@@ -3808,8 +3808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K830"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A727" workbookViewId="0">
-      <selection activeCell="F729" sqref="F729"/>
+    <sheetView tabSelected="1" topLeftCell="A736" workbookViewId="0">
+      <selection activeCell="K736" sqref="K736"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22341,7 +22341,9 @@
       <c r="H731" s="25"/>
       <c r="I731" s="25"/>
       <c r="J731" s="25"/>
-      <c r="K731" s="26"/>
+      <c r="K731" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="732" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A732" s="20">
@@ -22364,7 +22366,9 @@
       <c r="H732" s="25"/>
       <c r="I732" s="25"/>
       <c r="J732" s="25"/>
-      <c r="K732" s="26"/>
+      <c r="K732" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="733" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A733" s="20">
@@ -22387,7 +22391,9 @@
       <c r="H733" s="25"/>
       <c r="I733" s="25"/>
       <c r="J733" s="25"/>
-      <c r="K733" s="26"/>
+      <c r="K733" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="734" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A734" s="20">
@@ -22410,7 +22416,9 @@
       <c r="H734" s="25"/>
       <c r="I734" s="25"/>
       <c r="J734" s="25"/>
-      <c r="K734" s="26"/>
+      <c r="K734" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="735" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A735" s="20">
@@ -22433,7 +22441,9 @@
       <c r="H735" s="25"/>
       <c r="I735" s="25"/>
       <c r="J735" s="25"/>
-      <c r="K735" s="26"/>
+      <c r="K735" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="20">

--- a/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
+++ b/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
@@ -3808,8 +3808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K830"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A736" workbookViewId="0">
-      <selection activeCell="K736" sqref="K736"/>
+    <sheetView tabSelected="1" topLeftCell="A770" workbookViewId="0">
+      <selection activeCell="K766" sqref="K766"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22807,11 +22807,15 @@
         <v>659</v>
       </c>
       <c r="F751" s="24"/>
-      <c r="G751" s="25"/>
+      <c r="G751" s="25">
+        <v>1</v>
+      </c>
       <c r="H751" s="25"/>
       <c r="I751" s="25"/>
       <c r="J751" s="25"/>
-      <c r="K751" s="26"/>
+      <c r="K751" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="752" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A752" s="20">
@@ -22830,11 +22834,15 @@
         <v>674</v>
       </c>
       <c r="F752" s="24"/>
-      <c r="G752" s="25"/>
+      <c r="G752" s="25">
+        <v>1</v>
+      </c>
       <c r="H752" s="25"/>
       <c r="I752" s="25"/>
       <c r="J752" s="25"/>
-      <c r="K752" s="26"/>
+      <c r="K752" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="753" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A753" s="20">
@@ -22922,11 +22930,15 @@
         <v>603</v>
       </c>
       <c r="F756" s="17"/>
-      <c r="G756" s="18"/>
+      <c r="G756" s="18">
+        <v>1</v>
+      </c>
       <c r="H756" s="18"/>
       <c r="I756" s="18"/>
       <c r="J756" s="18"/>
-      <c r="K756" s="19"/>
+      <c r="K756" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="757" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A757" s="14">
@@ -22945,11 +22957,15 @@
         <v>604</v>
       </c>
       <c r="F757" s="17"/>
-      <c r="G757" s="18"/>
+      <c r="G757" s="18">
+        <v>1</v>
+      </c>
       <c r="H757" s="18"/>
       <c r="I757" s="18"/>
       <c r="J757" s="18"/>
-      <c r="K757" s="19"/>
+      <c r="K757" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="14">
@@ -23037,11 +23053,15 @@
         <v>675</v>
       </c>
       <c r="F761" s="24"/>
-      <c r="G761" s="25"/>
+      <c r="G761" s="25">
+        <v>1</v>
+      </c>
       <c r="H761" s="25"/>
       <c r="I761" s="25"/>
       <c r="J761" s="25"/>
-      <c r="K761" s="26"/>
+      <c r="K761" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="762" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A762" s="20">
@@ -23060,11 +23080,15 @@
         <v>676</v>
       </c>
       <c r="F762" s="24"/>
-      <c r="G762" s="25"/>
+      <c r="G762" s="25">
+        <v>1</v>
+      </c>
       <c r="H762" s="25"/>
       <c r="I762" s="25"/>
       <c r="J762" s="25"/>
-      <c r="K762" s="26"/>
+      <c r="K762" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="763" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A763" s="20">
@@ -23083,11 +23107,15 @@
         <v>677</v>
       </c>
       <c r="F763" s="24"/>
-      <c r="G763" s="25"/>
+      <c r="G763" s="25">
+        <v>1</v>
+      </c>
       <c r="H763" s="25"/>
       <c r="I763" s="25"/>
       <c r="J763" s="25"/>
-      <c r="K763" s="26"/>
+      <c r="K763" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="764" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A764" s="20">
@@ -23110,7 +23138,9 @@
       <c r="H764" s="25"/>
       <c r="I764" s="25"/>
       <c r="J764" s="25"/>
-      <c r="K764" s="26"/>
+      <c r="K764" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="765" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A765" s="20">
@@ -23128,12 +23158,18 @@
       <c r="E765" s="23" t="s">
         <v>702</v>
       </c>
-      <c r="F765" s="24"/>
-      <c r="G765" s="25"/>
+      <c r="F765" s="24">
+        <v>1</v>
+      </c>
+      <c r="G765" s="25">
+        <v>1</v>
+      </c>
       <c r="H765" s="25"/>
       <c r="I765" s="25"/>
       <c r="J765" s="25"/>
-      <c r="K765" s="26"/>
+      <c r="K765" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="766" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A766" s="20">

--- a/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
+++ b/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
@@ -3808,8 +3808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K830"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A770" workbookViewId="0">
-      <selection activeCell="K766" sqref="K766"/>
+    <sheetView tabSelected="1" topLeftCell="A805" workbookViewId="0">
+      <selection activeCell="J795" sqref="J795"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23467,7 +23467,9 @@
       <c r="E776" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="F776" s="17"/>
+      <c r="F776" s="17">
+        <v>1</v>
+      </c>
       <c r="G776" s="18"/>
       <c r="H776" s="18"/>
       <c r="I776" s="18"/>
@@ -23490,7 +23492,9 @@
       <c r="E777" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="F777" s="17"/>
+      <c r="F777" s="17">
+        <v>1</v>
+      </c>
       <c r="G777" s="18"/>
       <c r="H777" s="18"/>
       <c r="I777" s="18"/>
@@ -23513,7 +23517,9 @@
       <c r="E778" s="6" t="s">
         <v>682</v>
       </c>
-      <c r="F778" s="17"/>
+      <c r="F778" s="17">
+        <v>1</v>
+      </c>
       <c r="G778" s="18"/>
       <c r="H778" s="18"/>
       <c r="I778" s="18"/>
@@ -23536,7 +23542,9 @@
       <c r="E779" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="F779" s="17"/>
+      <c r="F779" s="17">
+        <v>1</v>
+      </c>
       <c r="G779" s="18"/>
       <c r="H779" s="18"/>
       <c r="I779" s="18"/>
@@ -23559,7 +23567,9 @@
       <c r="E780" s="23" t="s">
         <v>685</v>
       </c>
-      <c r="F780" s="24"/>
+      <c r="F780" s="24">
+        <v>1</v>
+      </c>
       <c r="G780" s="25"/>
       <c r="H780" s="25"/>
       <c r="I780" s="25"/>
@@ -23582,7 +23592,9 @@
       <c r="E781" s="23" t="s">
         <v>687</v>
       </c>
-      <c r="F781" s="24"/>
+      <c r="F781" s="24">
+        <v>1</v>
+      </c>
       <c r="G781" s="25"/>
       <c r="H781" s="25"/>
       <c r="I781" s="25"/>
@@ -23605,7 +23617,9 @@
       <c r="E782" s="23" t="s">
         <v>688</v>
       </c>
-      <c r="F782" s="24"/>
+      <c r="F782" s="24">
+        <v>1</v>
+      </c>
       <c r="G782" s="25"/>
       <c r="H782" s="25"/>
       <c r="I782" s="25"/>
@@ -23628,7 +23642,9 @@
       <c r="E783" s="23" t="s">
         <v>690</v>
       </c>
-      <c r="F783" s="24"/>
+      <c r="F783" s="24">
+        <v>1</v>
+      </c>
       <c r="G783" s="25"/>
       <c r="H783" s="25"/>
       <c r="I783" s="25"/>
@@ -23651,7 +23667,9 @@
       <c r="E784" s="23" t="s">
         <v>697</v>
       </c>
-      <c r="F784" s="24"/>
+      <c r="F784" s="24">
+        <v>1</v>
+      </c>
       <c r="G784" s="25"/>
       <c r="H784" s="25"/>
       <c r="I784" s="25"/>
@@ -23674,7 +23692,9 @@
       <c r="E785" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="F785" s="17"/>
+      <c r="F785" s="17">
+        <v>1</v>
+      </c>
       <c r="G785" s="18"/>
       <c r="H785" s="18"/>
       <c r="I785" s="18"/>
@@ -23697,7 +23717,9 @@
       <c r="E786" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="F786" s="17"/>
+      <c r="F786" s="17">
+        <v>1</v>
+      </c>
       <c r="G786" s="18"/>
       <c r="H786" s="18"/>
       <c r="I786" s="18"/>
@@ -23720,7 +23742,9 @@
       <c r="E787" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="F787" s="17"/>
+      <c r="F787" s="17">
+        <v>1</v>
+      </c>
       <c r="G787" s="18"/>
       <c r="H787" s="18"/>
       <c r="I787" s="18"/>
@@ -23743,7 +23767,9 @@
       <c r="E788" s="6" t="s">
         <v>695</v>
       </c>
-      <c r="F788" s="17"/>
+      <c r="F788" s="17">
+        <v>1</v>
+      </c>
       <c r="G788" s="18"/>
       <c r="H788" s="18"/>
       <c r="I788" s="18"/>
@@ -23766,7 +23792,9 @@
       <c r="E789" s="6" t="s">
         <v>696</v>
       </c>
-      <c r="F789" s="17"/>
+      <c r="F789" s="17">
+        <v>1</v>
+      </c>
       <c r="G789" s="18"/>
       <c r="H789" s="18"/>
       <c r="I789" s="18"/>
@@ -23789,7 +23817,9 @@
       <c r="E790" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="F790" s="17"/>
+      <c r="F790" s="17">
+        <v>1</v>
+      </c>
       <c r="G790" s="18"/>
       <c r="H790" s="18"/>
       <c r="I790" s="18"/>
@@ -23812,11 +23842,15 @@
       <c r="E791" s="23" t="s">
         <v>678</v>
       </c>
-      <c r="F791" s="24"/>
+      <c r="F791" s="24">
+        <v>1</v>
+      </c>
       <c r="G791" s="25"/>
       <c r="H791" s="25"/>
       <c r="I791" s="25"/>
-      <c r="J791" s="25"/>
+      <c r="J791" s="25">
+        <v>1</v>
+      </c>
       <c r="K791" s="26"/>
     </row>
     <row r="792" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -23835,11 +23869,15 @@
       <c r="E792" s="23" t="s">
         <v>679</v>
       </c>
-      <c r="F792" s="24"/>
+      <c r="F792" s="24">
+        <v>1</v>
+      </c>
       <c r="G792" s="25"/>
       <c r="H792" s="25"/>
       <c r="I792" s="25"/>
-      <c r="J792" s="25"/>
+      <c r="J792" s="25">
+        <v>1</v>
+      </c>
       <c r="K792" s="26"/>
     </row>
     <row r="793" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -23858,11 +23896,15 @@
       <c r="E793" s="23" t="s">
         <v>680</v>
       </c>
-      <c r="F793" s="24"/>
+      <c r="F793" s="24">
+        <v>1</v>
+      </c>
       <c r="G793" s="25"/>
       <c r="H793" s="25"/>
       <c r="I793" s="25"/>
-      <c r="J793" s="25"/>
+      <c r="J793" s="25">
+        <v>1</v>
+      </c>
       <c r="K793" s="26"/>
     </row>
     <row r="794" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -23881,11 +23923,15 @@
       <c r="E794" s="23" t="s">
         <v>681</v>
       </c>
-      <c r="F794" s="24"/>
+      <c r="F794" s="24">
+        <v>1</v>
+      </c>
       <c r="G794" s="25"/>
       <c r="H794" s="25"/>
       <c r="I794" s="25"/>
-      <c r="J794" s="25"/>
+      <c r="J794" s="25">
+        <v>1</v>
+      </c>
       <c r="K794" s="26"/>
     </row>
     <row r="795" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -23904,11 +23950,15 @@
       <c r="E795" s="23" t="s">
         <v>683</v>
       </c>
-      <c r="F795" s="24"/>
+      <c r="F795" s="24">
+        <v>1</v>
+      </c>
       <c r="G795" s="25"/>
       <c r="H795" s="25"/>
       <c r="I795" s="25"/>
-      <c r="J795" s="25"/>
+      <c r="J795" s="25">
+        <v>1</v>
+      </c>
       <c r="K795" s="26"/>
     </row>
     <row r="796" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -23927,11 +23977,15 @@
       <c r="E796" s="6" t="s">
         <v>711</v>
       </c>
-      <c r="F796" s="17"/>
+      <c r="F796" s="17">
+        <v>1</v>
+      </c>
       <c r="G796" s="18"/>
       <c r="H796" s="18"/>
       <c r="I796" s="18"/>
-      <c r="J796" s="18"/>
+      <c r="J796" s="18">
+        <v>1</v>
+      </c>
       <c r="K796" s="19"/>
     </row>
     <row r="797" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -23950,11 +24004,15 @@
       <c r="E797" s="6" t="s">
         <v>712</v>
       </c>
-      <c r="F797" s="17"/>
+      <c r="F797" s="17">
+        <v>1</v>
+      </c>
       <c r="G797" s="18"/>
       <c r="H797" s="18"/>
       <c r="I797" s="18"/>
-      <c r="J797" s="18"/>
+      <c r="J797" s="18">
+        <v>1</v>
+      </c>
       <c r="K797" s="19"/>
     </row>
     <row r="798" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -23973,11 +24031,15 @@
       <c r="E798" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="F798" s="17"/>
+      <c r="F798" s="17">
+        <v>1</v>
+      </c>
       <c r="G798" s="18"/>
       <c r="H798" s="18"/>
       <c r="I798" s="18"/>
-      <c r="J798" s="18"/>
+      <c r="J798" s="18">
+        <v>1</v>
+      </c>
       <c r="K798" s="19"/>
     </row>
     <row r="799" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -23996,11 +24058,15 @@
       <c r="E799" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="F799" s="17"/>
+      <c r="F799" s="17">
+        <v>1</v>
+      </c>
       <c r="G799" s="18"/>
       <c r="H799" s="18"/>
       <c r="I799" s="18"/>
-      <c r="J799" s="18"/>
+      <c r="J799" s="18">
+        <v>1</v>
+      </c>
       <c r="K799" s="19"/>
     </row>
     <row r="800" spans="1:11" ht="30" x14ac:dyDescent="0.25">

--- a/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
+++ b/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
@@ -3808,8 +3808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K830"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A805" workbookViewId="0">
-      <selection activeCell="J795" sqref="J795"/>
+    <sheetView tabSelected="1" topLeftCell="A819" workbookViewId="0">
+      <selection activeCell="I830" sqref="I830"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24328,7 +24328,9 @@
       <c r="F810" s="24"/>
       <c r="G810" s="25"/>
       <c r="H810" s="25"/>
-      <c r="I810" s="25"/>
+      <c r="I810" s="25">
+        <v>1</v>
+      </c>
       <c r="J810" s="25"/>
       <c r="K810" s="26"/>
     </row>
@@ -24348,7 +24350,9 @@
       <c r="E811" s="6" t="s">
         <v>714</v>
       </c>
-      <c r="F811" s="17"/>
+      <c r="F811" s="17">
+        <v>1</v>
+      </c>
       <c r="G811" s="18"/>
       <c r="H811" s="18"/>
       <c r="I811" s="18"/>
@@ -24371,7 +24375,9 @@
       <c r="E812" s="6" t="s">
         <v>716</v>
       </c>
-      <c r="F812" s="17"/>
+      <c r="F812" s="17">
+        <v>1</v>
+      </c>
       <c r="G812" s="18"/>
       <c r="H812" s="18"/>
       <c r="I812" s="18"/>
@@ -24394,7 +24400,9 @@
       <c r="E813" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="F813" s="17"/>
+      <c r="F813" s="17">
+        <v>1</v>
+      </c>
       <c r="G813" s="18"/>
       <c r="H813" s="18"/>
       <c r="I813" s="18"/>
@@ -24417,7 +24425,9 @@
       <c r="E814" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="F814" s="17"/>
+      <c r="F814" s="17">
+        <v>1</v>
+      </c>
       <c r="G814" s="18"/>
       <c r="H814" s="18"/>
       <c r="I814" s="18"/>
@@ -24440,7 +24450,9 @@
       <c r="E815" s="6" t="s">
         <v>731</v>
       </c>
-      <c r="F815" s="17"/>
+      <c r="F815" s="17">
+        <v>1</v>
+      </c>
       <c r="G815" s="18"/>
       <c r="H815" s="18"/>
       <c r="I815" s="18"/>
@@ -24463,7 +24475,9 @@
       <c r="E816" s="6" t="s">
         <v>735</v>
       </c>
-      <c r="F816" s="17"/>
+      <c r="F816" s="17">
+        <v>1</v>
+      </c>
       <c r="G816" s="18"/>
       <c r="H816" s="18"/>
       <c r="I816" s="18"/>
@@ -24486,7 +24500,9 @@
       <c r="E817" s="23" t="s">
         <v>714</v>
       </c>
-      <c r="F817" s="24"/>
+      <c r="F817" s="24">
+        <v>1</v>
+      </c>
       <c r="G817" s="25"/>
       <c r="H817" s="25"/>
       <c r="I817" s="25"/>
@@ -24509,7 +24525,9 @@
       <c r="E818" s="23" t="s">
         <v>716</v>
       </c>
-      <c r="F818" s="24"/>
+      <c r="F818" s="24">
+        <v>1</v>
+      </c>
       <c r="G818" s="25"/>
       <c r="H818" s="25"/>
       <c r="I818" s="25"/>
@@ -24532,7 +24550,9 @@
       <c r="E819" s="23" t="s">
         <v>717</v>
       </c>
-      <c r="F819" s="24"/>
+      <c r="F819" s="24">
+        <v>1</v>
+      </c>
       <c r="G819" s="25"/>
       <c r="H819" s="25"/>
       <c r="I819" s="25"/>
@@ -24555,7 +24575,9 @@
       <c r="E820" s="23" t="s">
         <v>718</v>
       </c>
-      <c r="F820" s="24"/>
+      <c r="F820" s="24">
+        <v>1</v>
+      </c>
       <c r="G820" s="25"/>
       <c r="H820" s="25"/>
       <c r="I820" s="25"/>
@@ -24578,7 +24600,9 @@
       <c r="E821" s="23" t="s">
         <v>721</v>
       </c>
-      <c r="F821" s="24"/>
+      <c r="F821" s="24">
+        <v>1</v>
+      </c>
       <c r="G821" s="25"/>
       <c r="H821" s="25"/>
       <c r="I821" s="25"/>
@@ -24601,7 +24625,9 @@
       <c r="E822" s="23" t="s">
         <v>722</v>
       </c>
-      <c r="F822" s="24"/>
+      <c r="F822" s="24">
+        <v>1</v>
+      </c>
       <c r="G822" s="25"/>
       <c r="H822" s="25"/>
       <c r="I822" s="25"/>
@@ -24624,7 +24650,9 @@
       <c r="E823" s="23" t="s">
         <v>723</v>
       </c>
-      <c r="F823" s="24"/>
+      <c r="F823" s="24">
+        <v>1</v>
+      </c>
       <c r="G823" s="25"/>
       <c r="H823" s="25"/>
       <c r="I823" s="25"/>
@@ -24647,7 +24675,9 @@
       <c r="E824" s="23" t="s">
         <v>732</v>
       </c>
-      <c r="F824" s="24"/>
+      <c r="F824" s="24">
+        <v>1</v>
+      </c>
       <c r="G824" s="25"/>
       <c r="H824" s="25"/>
       <c r="I824" s="25"/>
@@ -24670,7 +24700,9 @@
       <c r="E825" s="23" t="s">
         <v>733</v>
       </c>
-      <c r="F825" s="24"/>
+      <c r="F825" s="24">
+        <v>1</v>
+      </c>
       <c r="G825" s="25"/>
       <c r="H825" s="25"/>
       <c r="I825" s="25"/>
@@ -24693,7 +24725,9 @@
       <c r="E826" s="23" t="s">
         <v>734</v>
       </c>
-      <c r="F826" s="24"/>
+      <c r="F826" s="24">
+        <v>1</v>
+      </c>
       <c r="G826" s="25"/>
       <c r="H826" s="25"/>
       <c r="I826" s="25"/>
@@ -24716,7 +24750,9 @@
       <c r="E827" s="23" t="s">
         <v>736</v>
       </c>
-      <c r="F827" s="24"/>
+      <c r="F827" s="24">
+        <v>1</v>
+      </c>
       <c r="G827" s="25"/>
       <c r="H827" s="25"/>
       <c r="I827" s="25"/>
@@ -24742,7 +24778,9 @@
       <c r="F828" s="17"/>
       <c r="G828" s="18"/>
       <c r="H828" s="18"/>
-      <c r="I828" s="18"/>
+      <c r="I828" s="18">
+        <v>1</v>
+      </c>
       <c r="J828" s="18"/>
       <c r="K828" s="19"/>
     </row>
@@ -24765,7 +24803,9 @@
       <c r="F829" s="24"/>
       <c r="G829" s="25"/>
       <c r="H829" s="25"/>
-      <c r="I829" s="25"/>
+      <c r="I829" s="25">
+        <v>1</v>
+      </c>
       <c r="J829" s="25"/>
       <c r="K829" s="26"/>
     </row>

--- a/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
+++ b/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="135" windowWidth="22995" windowHeight="11055"/>
@@ -2799,8 +2799,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3047,7 +3047,7 @@
   </cellStyles>
   <dxfs count="26">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3058,134 +3058,8 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3206,8 +3080,21 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3230,8 +3117,21 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3254,8 +3154,21 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3278,8 +3191,21 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3302,8 +3228,21 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3326,7 +3265,20 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3349,7 +3301,20 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3372,7 +3337,20 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3392,6 +3370,18 @@
         <horizontal style="thin">
           <color theme="0" tint="-0.249977111117893"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3415,6 +3405,16 @@
         <horizontal style="thin">
           <color theme="0" tint="-0.249977111117893"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3503,17 +3503,17 @@
     <sortCondition ref="B2:B830"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" name="Task_ID" dataDxfId="21" totalsRowDxfId="10"/>
-    <tableColumn id="2" name="Date" dataDxfId="20" totalsRowDxfId="9"/>
-    <tableColumn id="3" name="Hours" dataDxfId="19" totalsRowDxfId="8"/>
-    <tableColumn id="4" name="Title" dataDxfId="18" totalsRowDxfId="7"/>
-    <tableColumn id="5" name="Description" dataDxfId="17" totalsRowDxfId="6"/>
-    <tableColumn id="6" name="Goal 1" dataDxfId="16" totalsRowDxfId="5"/>
-    <tableColumn id="7" name="Goal 2" dataDxfId="15" totalsRowDxfId="4"/>
-    <tableColumn id="8" name="Goal 3" dataDxfId="14" totalsRowDxfId="3"/>
-    <tableColumn id="9" name="Goal 4" dataDxfId="13" totalsRowDxfId="2"/>
-    <tableColumn id="10" name="Goal 5" dataDxfId="12" totalsRowDxfId="1"/>
-    <tableColumn id="11" name="Training" dataDxfId="11" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Task_ID" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="2" name="Date" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="3" name="Hours" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="4" name="Title" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="5" name="Description" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="6" name="Goal 1" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="7" name="Goal 2" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="8" name="Goal 3" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="9" name="Goal 4" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="10" name="Goal 5" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="11" name="Training" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3594,7 +3594,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3629,7 +3628,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3805,14 +3803,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K830"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A819" workbookViewId="0">
-      <selection activeCell="I830" sqref="I830"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="N73" sqref="N73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="2" customWidth="1"/>
@@ -3824,7 +3822,7 @@
     <col min="11" max="11" width="10.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3859,7 +3857,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="14">
         <v>5359</v>
       </c>
@@ -3888,7 +3886,7 @@
       <c r="J2" s="18"/>
       <c r="K2" s="19"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="14">
         <v>5359</v>
       </c>
@@ -3913,7 +3911,7 @@
       <c r="J3" s="18"/>
       <c r="K3" s="19"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="14">
         <v>5359</v>
       </c>
@@ -3942,7 +3940,7 @@
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="14">
         <v>5359</v>
       </c>
@@ -3967,7 +3965,7 @@
       <c r="J5" s="18"/>
       <c r="K5" s="19"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="14">
         <v>5359</v>
       </c>
@@ -3992,7 +3990,7 @@
       <c r="J6" s="18"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="14">
         <v>5359</v>
       </c>
@@ -4017,7 +4015,7 @@
       <c r="J7" s="18"/>
       <c r="K7" s="19"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="14">
         <v>5359</v>
       </c>
@@ -4042,7 +4040,7 @@
       <c r="J8" s="18"/>
       <c r="K8" s="19"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="14">
         <v>5359</v>
       </c>
@@ -4067,7 +4065,7 @@
       <c r="J9" s="18"/>
       <c r="K9" s="19"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="14">
         <v>5359</v>
       </c>
@@ -4092,7 +4090,7 @@
       <c r="J10" s="18"/>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="60">
       <c r="A11" s="14">
         <v>5359</v>
       </c>
@@ -4117,7 +4115,7 @@
       <c r="J11" s="18"/>
       <c r="K11" s="19"/>
     </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="30">
       <c r="A12" s="14">
         <v>5359</v>
       </c>
@@ -4140,7 +4138,7 @@
       <c r="J12" s="18"/>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="14">
         <v>5359</v>
       </c>
@@ -4165,7 +4163,7 @@
       <c r="J13" s="18"/>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="14">
         <v>5359</v>
       </c>
@@ -4190,7 +4188,7 @@
       <c r="J14" s="18"/>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="14">
         <v>5359</v>
       </c>
@@ -4215,7 +4213,7 @@
       <c r="J15" s="18"/>
       <c r="K15" s="19"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="14">
         <v>5359</v>
       </c>
@@ -4240,7 +4238,7 @@
       <c r="J16" s="18"/>
       <c r="K16" s="19"/>
     </row>
-    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="45">
       <c r="A17" s="14">
         <v>5359</v>
       </c>
@@ -4265,7 +4263,7 @@
       <c r="J17" s="18"/>
       <c r="K17" s="19"/>
     </row>
-    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="30">
       <c r="A18" s="14">
         <v>5359</v>
       </c>
@@ -4290,7 +4288,7 @@
       <c r="J18" s="18"/>
       <c r="K18" s="19"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="14">
         <v>5359</v>
       </c>
@@ -4315,7 +4313,7 @@
       <c r="J19" s="18"/>
       <c r="K19" s="19"/>
     </row>
-    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="45">
       <c r="A20" s="14">
         <v>5359</v>
       </c>
@@ -4338,7 +4336,7 @@
       <c r="J20" s="18"/>
       <c r="K20" s="19"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="14">
         <v>5359</v>
       </c>
@@ -4361,7 +4359,7 @@
       <c r="J21" s="18"/>
       <c r="K21" s="19"/>
     </row>
-    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="30">
       <c r="A22" s="14">
         <v>5359</v>
       </c>
@@ -4386,7 +4384,7 @@
       <c r="J22" s="18"/>
       <c r="K22" s="19"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="14">
         <v>5359</v>
       </c>
@@ -4411,7 +4409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="45">
       <c r="A24" s="14">
         <v>5359</v>
       </c>
@@ -4438,7 +4436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="60">
       <c r="A25" s="14">
         <v>5359</v>
       </c>
@@ -4465,7 +4463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="14">
         <v>5359</v>
       </c>
@@ -4492,7 +4490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="30">
       <c r="A27" s="14">
         <v>5359</v>
       </c>
@@ -4519,7 +4517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="14">
         <v>5359</v>
       </c>
@@ -4542,7 +4540,7 @@
       <c r="J28" s="18"/>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="14">
         <v>5359</v>
       </c>
@@ -4571,7 +4569,7 @@
       <c r="J29" s="18"/>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="14">
         <v>5359</v>
       </c>
@@ -4594,7 +4592,7 @@
       <c r="J30" s="18"/>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="14">
         <v>5359</v>
       </c>
@@ -4617,7 +4615,7 @@
       <c r="J31" s="18"/>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="45">
       <c r="A32" s="14">
         <v>5359</v>
       </c>
@@ -4640,7 +4638,7 @@
       <c r="J32" s="18"/>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="14">
         <v>5359</v>
       </c>
@@ -4663,7 +4661,7 @@
       <c r="J33" s="18"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="14">
         <v>5359</v>
       </c>
@@ -4686,7 +4684,7 @@
       <c r="J34" s="18"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="14">
         <v>5359</v>
       </c>
@@ -4713,7 +4711,7 @@
       <c r="J35" s="18"/>
       <c r="K35" s="19"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="14">
         <v>5359</v>
       </c>
@@ -4736,7 +4734,7 @@
       <c r="J36" s="18"/>
       <c r="K36" s="19"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="14">
         <v>5359</v>
       </c>
@@ -4759,7 +4757,7 @@
       <c r="J37" s="18"/>
       <c r="K37" s="19"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="14">
         <v>5359</v>
       </c>
@@ -4782,7 +4780,7 @@
       <c r="J38" s="18"/>
       <c r="K38" s="19"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="14">
         <v>5359</v>
       </c>
@@ -4805,7 +4803,7 @@
       <c r="J39" s="18"/>
       <c r="K39" s="19"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="14">
         <v>5359</v>
       </c>
@@ -4828,7 +4826,7 @@
       <c r="J40" s="18"/>
       <c r="K40" s="19"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="14">
         <v>5359</v>
       </c>
@@ -4851,7 +4849,7 @@
       <c r="J41" s="18"/>
       <c r="K41" s="19"/>
     </row>
-    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="30">
       <c r="A42" s="14">
         <v>5359</v>
       </c>
@@ -4878,7 +4876,7 @@
       <c r="J42" s="18"/>
       <c r="K42" s="19"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="14">
         <v>5359</v>
       </c>
@@ -4901,7 +4899,7 @@
       <c r="J43" s="18"/>
       <c r="K43" s="19"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" s="14">
         <v>5359</v>
       </c>
@@ -4924,7 +4922,7 @@
       <c r="J44" s="18"/>
       <c r="K44" s="19"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" s="14">
         <v>5359</v>
       </c>
@@ -4947,7 +4945,7 @@
       <c r="J45" s="18"/>
       <c r="K45" s="19"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46" s="14">
         <v>5359</v>
       </c>
@@ -4974,7 +4972,7 @@
       <c r="J46" s="18"/>
       <c r="K46" s="19"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47" s="14">
         <v>5359</v>
       </c>
@@ -4997,7 +4995,7 @@
       <c r="J47" s="18"/>
       <c r="K47" s="19"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48" s="14">
         <v>5359</v>
       </c>
@@ -5020,7 +5018,7 @@
       <c r="J48" s="18"/>
       <c r="K48" s="19"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="14">
         <v>5359</v>
       </c>
@@ -5045,7 +5043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="14">
         <v>5359</v>
       </c>
@@ -5068,7 +5066,7 @@
       <c r="J50" s="18"/>
       <c r="K50" s="19"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="14">
         <v>5359</v>
       </c>
@@ -5091,7 +5089,7 @@
       <c r="J51" s="18"/>
       <c r="K51" s="19"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="14">
         <v>5359</v>
       </c>
@@ -5114,7 +5112,7 @@
       <c r="J52" s="18"/>
       <c r="K52" s="19"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" s="14">
         <v>5359</v>
       </c>
@@ -5137,7 +5135,7 @@
       <c r="J53" s="18"/>
       <c r="K53" s="19"/>
     </row>
-    <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="30">
       <c r="A54" s="20">
         <v>5435</v>
       </c>
@@ -5162,7 +5160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="20">
         <v>5435</v>
       </c>
@@ -5187,7 +5185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="45">
       <c r="A56" s="20">
         <v>5435</v>
       </c>
@@ -5212,7 +5210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="20">
         <v>5435</v>
       </c>
@@ -5237,7 +5235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="20">
         <v>5435</v>
       </c>
@@ -5262,7 +5260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="20">
         <v>5435</v>
       </c>
@@ -5287,7 +5285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="60">
       <c r="A60" s="14">
         <v>18189</v>
       </c>
@@ -5314,7 +5312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="60">
       <c r="A61" s="20">
         <v>18637</v>
       </c>
@@ -5341,7 +5339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="60">
       <c r="A62" s="14">
         <v>20431</v>
       </c>
@@ -5357,9 +5355,7 @@
       <c r="E62" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F62" s="17">
-        <v>1</v>
-      </c>
+      <c r="F62" s="17"/>
       <c r="G62" s="18"/>
       <c r="H62" s="18"/>
       <c r="I62" s="18">
@@ -5368,7 +5364,7 @@
       <c r="J62" s="18"/>
       <c r="K62" s="19"/>
     </row>
-    <row r="63" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="30">
       <c r="A63" s="14">
         <v>20431</v>
       </c>
@@ -5384,9 +5380,7 @@
       <c r="E63" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F63" s="17">
-        <v>1</v>
-      </c>
+      <c r="F63" s="17"/>
       <c r="G63" s="18"/>
       <c r="H63" s="18"/>
       <c r="I63" s="18">
@@ -5395,7 +5389,7 @@
       <c r="J63" s="18"/>
       <c r="K63" s="19"/>
     </row>
-    <row r="64" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="105">
       <c r="A64" s="14">
         <v>20431</v>
       </c>
@@ -5411,9 +5405,7 @@
       <c r="E64" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F64" s="17">
-        <v>1</v>
-      </c>
+      <c r="F64" s="17"/>
       <c r="G64" s="18"/>
       <c r="H64" s="18"/>
       <c r="I64" s="18">
@@ -5422,7 +5414,7 @@
       <c r="J64" s="18"/>
       <c r="K64" s="19"/>
     </row>
-    <row r="65" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="60">
       <c r="A65" s="14">
         <v>20431</v>
       </c>
@@ -5438,9 +5430,7 @@
       <c r="E65" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F65" s="17">
-        <v>1</v>
-      </c>
+      <c r="F65" s="17"/>
       <c r="G65" s="18"/>
       <c r="H65" s="18"/>
       <c r="I65" s="18">
@@ -5449,7 +5439,7 @@
       <c r="J65" s="18"/>
       <c r="K65" s="19"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" s="14">
         <v>20431</v>
       </c>
@@ -5465,9 +5455,7 @@
       <c r="E66" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F66" s="17">
-        <v>1</v>
-      </c>
+      <c r="F66" s="17"/>
       <c r="G66" s="18"/>
       <c r="H66" s="18"/>
       <c r="I66" s="18">
@@ -5476,7 +5464,7 @@
       <c r="J66" s="18"/>
       <c r="K66" s="19"/>
     </row>
-    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="30">
       <c r="A67" s="14">
         <v>20431</v>
       </c>
@@ -5492,9 +5480,7 @@
       <c r="E67" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F67" s="17">
-        <v>1</v>
-      </c>
+      <c r="F67" s="17"/>
       <c r="G67" s="18"/>
       <c r="H67" s="18"/>
       <c r="I67" s="18">
@@ -5503,7 +5489,7 @@
       <c r="J67" s="18"/>
       <c r="K67" s="19"/>
     </row>
-    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="30">
       <c r="A68" s="20">
         <v>20523</v>
       </c>
@@ -5526,7 +5512,7 @@
       <c r="J68" s="25"/>
       <c r="K68" s="26"/>
     </row>
-    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="30">
       <c r="A69" s="20">
         <v>20523</v>
       </c>
@@ -5549,7 +5535,7 @@
       <c r="J69" s="25"/>
       <c r="K69" s="26"/>
     </row>
-    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="30">
       <c r="A70" s="20">
         <v>20523</v>
       </c>
@@ -5572,7 +5558,7 @@
       <c r="J70" s="25"/>
       <c r="K70" s="26"/>
     </row>
-    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="30">
       <c r="A71" s="20">
         <v>20523</v>
       </c>
@@ -5595,7 +5581,7 @@
       <c r="J71" s="25"/>
       <c r="K71" s="26"/>
     </row>
-    <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="30">
       <c r="A72" s="14">
         <v>20541</v>
       </c>
@@ -5626,7 +5612,7 @@
       </c>
       <c r="K72" s="19"/>
     </row>
-    <row r="73" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="105">
       <c r="A73" s="14">
         <v>20541</v>
       </c>
@@ -5657,7 +5643,7 @@
       </c>
       <c r="K73" s="19"/>
     </row>
-    <row r="74" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="45">
       <c r="A74" s="14">
         <v>20541</v>
       </c>
@@ -5688,7 +5674,7 @@
       </c>
       <c r="K74" s="19"/>
     </row>
-    <row r="75" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="60">
       <c r="A75" s="14">
         <v>20541</v>
       </c>
@@ -5719,7 +5705,7 @@
       </c>
       <c r="K75" s="19"/>
     </row>
-    <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="30">
       <c r="A76" s="14">
         <v>20541</v>
       </c>
@@ -5750,7 +5736,7 @@
       </c>
       <c r="K76" s="19"/>
     </row>
-    <row r="77" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="90">
       <c r="A77" s="14">
         <v>20541</v>
       </c>
@@ -5781,7 +5767,7 @@
       </c>
       <c r="K77" s="19"/>
     </row>
-    <row r="78" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="75">
       <c r="A78" s="14">
         <v>20541</v>
       </c>
@@ -5812,7 +5798,7 @@
       </c>
       <c r="K78" s="19"/>
     </row>
-    <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="30">
       <c r="A79" s="14">
         <v>20541</v>
       </c>
@@ -5843,7 +5829,7 @@
       </c>
       <c r="K79" s="19"/>
     </row>
-    <row r="80" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="105">
       <c r="A80" s="14">
         <v>20541</v>
       </c>
@@ -5874,7 +5860,7 @@
       </c>
       <c r="K80" s="19"/>
     </row>
-    <row r="81" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="60">
       <c r="A81" s="20">
         <v>20579</v>
       </c>
@@ -5901,7 +5887,7 @@
       <c r="J81" s="25"/>
       <c r="K81" s="26"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11">
       <c r="A82" s="14">
         <v>20588</v>
       </c>
@@ -5924,7 +5910,7 @@
       <c r="J82" s="18"/>
       <c r="K82" s="19"/>
     </row>
-    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="30">
       <c r="A83" s="14">
         <v>20588</v>
       </c>
@@ -5947,7 +5933,7 @@
       <c r="J83" s="18"/>
       <c r="K83" s="19"/>
     </row>
-    <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="30">
       <c r="A84" s="14">
         <v>20588</v>
       </c>
@@ -5970,7 +5956,7 @@
       <c r="J84" s="18"/>
       <c r="K84" s="19"/>
     </row>
-    <row r="85" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="60">
       <c r="A85" s="20">
         <v>20593</v>
       </c>
@@ -5995,7 +5981,7 @@
       <c r="J85" s="25"/>
       <c r="K85" s="26"/>
     </row>
-    <row r="86" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="105">
       <c r="A86" s="20">
         <v>20593</v>
       </c>
@@ -6020,7 +6006,7 @@
       <c r="J86" s="25"/>
       <c r="K86" s="26"/>
     </row>
-    <row r="87" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="60">
       <c r="A87" s="20">
         <v>20593</v>
       </c>
@@ -6045,7 +6031,7 @@
       <c r="J87" s="25"/>
       <c r="K87" s="26"/>
     </row>
-    <row r="88" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="75">
       <c r="A88" s="14">
         <v>20616</v>
       </c>
@@ -6070,7 +6056,7 @@
       <c r="J88" s="18"/>
       <c r="K88" s="19"/>
     </row>
-    <row r="89" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="60">
       <c r="A89" s="14">
         <v>20616</v>
       </c>
@@ -6095,7 +6081,7 @@
       <c r="J89" s="18"/>
       <c r="K89" s="19"/>
     </row>
-    <row r="90" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="45">
       <c r="A90" s="14">
         <v>20616</v>
       </c>
@@ -6120,7 +6106,7 @@
       <c r="J90" s="18"/>
       <c r="K90" s="19"/>
     </row>
-    <row r="91" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="45">
       <c r="A91" s="14">
         <v>20616</v>
       </c>
@@ -6145,7 +6131,7 @@
       <c r="J91" s="18"/>
       <c r="K91" s="19"/>
     </row>
-    <row r="92" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="75">
       <c r="A92" s="14">
         <v>20616</v>
       </c>
@@ -6170,7 +6156,7 @@
       <c r="J92" s="18"/>
       <c r="K92" s="19"/>
     </row>
-    <row r="93" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="45">
       <c r="A93" s="14">
         <v>20616</v>
       </c>
@@ -6195,7 +6181,7 @@
       <c r="J93" s="18"/>
       <c r="K93" s="19"/>
     </row>
-    <row r="94" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="75">
       <c r="A94" s="14">
         <v>20616</v>
       </c>
@@ -6220,7 +6206,7 @@
       <c r="J94" s="18"/>
       <c r="K94" s="19"/>
     </row>
-    <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="30">
       <c r="A95" s="14">
         <v>20616</v>
       </c>
@@ -6245,7 +6231,7 @@
       <c r="J95" s="18"/>
       <c r="K95" s="19"/>
     </row>
-    <row r="96" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="75">
       <c r="A96" s="14">
         <v>20616</v>
       </c>
@@ -6270,7 +6256,7 @@
       <c r="J96" s="18"/>
       <c r="K96" s="19"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11">
       <c r="A97" s="14">
         <v>20616</v>
       </c>
@@ -6295,7 +6281,7 @@
       <c r="J97" s="18"/>
       <c r="K97" s="19"/>
     </row>
-    <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="30">
       <c r="A98" s="14">
         <v>20616</v>
       </c>
@@ -6320,7 +6306,7 @@
       <c r="J98" s="18"/>
       <c r="K98" s="19"/>
     </row>
-    <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="30">
       <c r="A99" s="14">
         <v>20616</v>
       </c>
@@ -6345,7 +6331,7 @@
       <c r="J99" s="18"/>
       <c r="K99" s="19"/>
     </row>
-    <row r="100" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="75">
       <c r="A100" s="20">
         <v>20639</v>
       </c>
@@ -6372,7 +6358,7 @@
       <c r="J100" s="25"/>
       <c r="K100" s="26"/>
     </row>
-    <row r="101" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="45">
       <c r="A101" s="20">
         <v>20639</v>
       </c>
@@ -6399,7 +6385,7 @@
       <c r="J101" s="25"/>
       <c r="K101" s="26"/>
     </row>
-    <row r="102" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="90">
       <c r="A102" s="20">
         <v>20639</v>
       </c>
@@ -6426,7 +6412,7 @@
       <c r="J102" s="25"/>
       <c r="K102" s="26"/>
     </row>
-    <row r="103" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="45">
       <c r="A103" s="20">
         <v>20639</v>
       </c>
@@ -6453,7 +6439,7 @@
       <c r="J103" s="25"/>
       <c r="K103" s="26"/>
     </row>
-    <row r="104" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="75">
       <c r="A104" s="20">
         <v>20639</v>
       </c>
@@ -6480,7 +6466,7 @@
       <c r="J104" s="25"/>
       <c r="K104" s="26"/>
     </row>
-    <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="30">
       <c r="A105" s="20">
         <v>20639</v>
       </c>
@@ -6507,7 +6493,7 @@
       <c r="J105" s="25"/>
       <c r="K105" s="26"/>
     </row>
-    <row r="106" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="45">
       <c r="A106" s="20">
         <v>20639</v>
       </c>
@@ -6534,7 +6520,7 @@
       <c r="J106" s="25"/>
       <c r="K106" s="26"/>
     </row>
-    <row r="107" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="60">
       <c r="A107" s="14">
         <v>20640</v>
       </c>
@@ -6559,7 +6545,7 @@
       <c r="J107" s="18"/>
       <c r="K107" s="19"/>
     </row>
-    <row r="108" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="60">
       <c r="A108" s="14">
         <v>20640</v>
       </c>
@@ -6584,7 +6570,7 @@
       <c r="J108" s="18"/>
       <c r="K108" s="19"/>
     </row>
-    <row r="109" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="90">
       <c r="A109" s="14">
         <v>20640</v>
       </c>
@@ -6609,7 +6595,7 @@
       <c r="J109" s="18"/>
       <c r="K109" s="19"/>
     </row>
-    <row r="110" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="30">
       <c r="A110" s="20">
         <v>20647</v>
       </c>
@@ -6632,7 +6618,7 @@
       <c r="J110" s="25"/>
       <c r="K110" s="26"/>
     </row>
-    <row r="111" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="30">
       <c r="A111" s="20">
         <v>20647</v>
       </c>
@@ -6655,7 +6641,7 @@
       <c r="J111" s="25"/>
       <c r="K111" s="26"/>
     </row>
-    <row r="112" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="45">
       <c r="A112" s="14">
         <v>20651</v>
       </c>
@@ -6680,7 +6666,7 @@
       <c r="J112" s="18"/>
       <c r="K112" s="19"/>
     </row>
-    <row r="113" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="60">
       <c r="A113" s="14">
         <v>20651</v>
       </c>
@@ -6705,7 +6691,7 @@
       <c r="J113" s="18"/>
       <c r="K113" s="19"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11">
       <c r="A114" s="14">
         <v>20651</v>
       </c>
@@ -6730,7 +6716,7 @@
       <c r="J114" s="18"/>
       <c r="K114" s="19"/>
     </row>
-    <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="30">
       <c r="A115" s="14">
         <v>20651</v>
       </c>
@@ -6755,7 +6741,7 @@
       <c r="J115" s="18"/>
       <c r="K115" s="19"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11">
       <c r="A116" s="20">
         <v>20662</v>
       </c>
@@ -6778,7 +6764,7 @@
       <c r="J116" s="25"/>
       <c r="K116" s="26"/>
     </row>
-    <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="30">
       <c r="A117" s="20">
         <v>20662</v>
       </c>
@@ -6801,7 +6787,7 @@
       <c r="J117" s="25"/>
       <c r="K117" s="26"/>
     </row>
-    <row r="118" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="30">
       <c r="A118" s="14">
         <v>20669</v>
       </c>
@@ -6824,7 +6810,7 @@
       <c r="J118" s="18"/>
       <c r="K118" s="19"/>
     </row>
-    <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="30">
       <c r="A119" s="14">
         <v>20669</v>
       </c>
@@ -6847,7 +6833,7 @@
       <c r="J119" s="18"/>
       <c r="K119" s="19"/>
     </row>
-    <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="30">
       <c r="A120" s="20">
         <v>20682</v>
       </c>
@@ -6874,7 +6860,7 @@
       <c r="J120" s="25"/>
       <c r="K120" s="26"/>
     </row>
-    <row r="121" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="30">
       <c r="A121" s="20">
         <v>20682</v>
       </c>
@@ -6901,7 +6887,7 @@
       <c r="J121" s="25"/>
       <c r="K121" s="26"/>
     </row>
-    <row r="122" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="30">
       <c r="A122" s="20">
         <v>20682</v>
       </c>
@@ -6928,7 +6914,7 @@
       <c r="J122" s="25"/>
       <c r="K122" s="26"/>
     </row>
-    <row r="123" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="60">
       <c r="A123" s="20">
         <v>20682</v>
       </c>
@@ -6955,7 +6941,7 @@
       <c r="J123" s="25"/>
       <c r="K123" s="26"/>
     </row>
-    <row r="124" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" ht="30">
       <c r="A124" s="20">
         <v>20682</v>
       </c>
@@ -6982,7 +6968,7 @@
       <c r="J124" s="25"/>
       <c r="K124" s="26"/>
     </row>
-    <row r="125" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="90">
       <c r="A125" s="20">
         <v>20682</v>
       </c>
@@ -7009,7 +6995,7 @@
       <c r="J125" s="25"/>
       <c r="K125" s="26"/>
     </row>
-    <row r="126" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="30">
       <c r="A126" s="20">
         <v>20682</v>
       </c>
@@ -7036,7 +7022,7 @@
       <c r="J126" s="25"/>
       <c r="K126" s="26"/>
     </row>
-    <row r="127" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" ht="45">
       <c r="A127" s="20">
         <v>20682</v>
       </c>
@@ -7063,7 +7049,7 @@
       <c r="J127" s="25"/>
       <c r="K127" s="26"/>
     </row>
-    <row r="128" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" ht="60">
       <c r="A128" s="20">
         <v>20682</v>
       </c>
@@ -7090,7 +7076,7 @@
       <c r="J128" s="25"/>
       <c r="K128" s="26"/>
     </row>
-    <row r="129" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" ht="30">
       <c r="A129" s="20">
         <v>20682</v>
       </c>
@@ -7117,7 +7103,7 @@
       <c r="J129" s="25"/>
       <c r="K129" s="26"/>
     </row>
-    <row r="130" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="30">
       <c r="A130" s="20">
         <v>20682</v>
       </c>
@@ -7144,7 +7130,7 @@
       <c r="J130" s="25"/>
       <c r="K130" s="26"/>
     </row>
-    <row r="131" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" ht="30">
       <c r="A131" s="20">
         <v>20682</v>
       </c>
@@ -7171,7 +7157,7 @@
       <c r="J131" s="25"/>
       <c r="K131" s="26"/>
     </row>
-    <row r="132" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" ht="45">
       <c r="A132" s="20">
         <v>20682</v>
       </c>
@@ -7198,7 +7184,7 @@
       <c r="J132" s="25"/>
       <c r="K132" s="26"/>
     </row>
-    <row r="133" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" ht="45">
       <c r="A133" s="20">
         <v>20682</v>
       </c>
@@ -7225,7 +7211,7 @@
       <c r="J133" s="25"/>
       <c r="K133" s="26"/>
     </row>
-    <row r="134" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" ht="90">
       <c r="A134" s="20">
         <v>20682</v>
       </c>
@@ -7252,7 +7238,7 @@
       <c r="J134" s="25"/>
       <c r="K134" s="26"/>
     </row>
-    <row r="135" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" ht="90">
       <c r="A135" s="20">
         <v>20682</v>
       </c>
@@ -7279,7 +7265,7 @@
       <c r="J135" s="25"/>
       <c r="K135" s="26"/>
     </row>
-    <row r="136" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" ht="60">
       <c r="A136" s="14">
         <v>20689</v>
       </c>
@@ -7304,7 +7290,7 @@
       <c r="J136" s="18"/>
       <c r="K136" s="19"/>
     </row>
-    <row r="137" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" ht="75">
       <c r="A137" s="14">
         <v>20689</v>
       </c>
@@ -7329,7 +7315,7 @@
       <c r="J137" s="18"/>
       <c r="K137" s="19"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11">
       <c r="A138" s="14">
         <v>20689</v>
       </c>
@@ -7354,7 +7340,7 @@
       <c r="J138" s="18"/>
       <c r="K138" s="19"/>
     </row>
-    <row r="139" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" ht="30">
       <c r="A139" s="20">
         <v>20762</v>
       </c>
@@ -7377,7 +7363,7 @@
       <c r="J139" s="25"/>
       <c r="K139" s="26"/>
     </row>
-    <row r="140" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" ht="30">
       <c r="A140" s="20">
         <v>20762</v>
       </c>
@@ -7400,7 +7386,7 @@
       <c r="J140" s="25"/>
       <c r="K140" s="26"/>
     </row>
-    <row r="141" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" ht="30">
       <c r="A141" s="20">
         <v>20762</v>
       </c>
@@ -7423,7 +7409,7 @@
       <c r="J141" s="25"/>
       <c r="K141" s="26"/>
     </row>
-    <row r="142" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" ht="30">
       <c r="A142" s="14">
         <v>20769</v>
       </c>
@@ -7448,7 +7434,7 @@
       <c r="J142" s="18"/>
       <c r="K142" s="19"/>
     </row>
-    <row r="143" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" ht="90">
       <c r="A143" s="14">
         <v>20769</v>
       </c>
@@ -7473,7 +7459,7 @@
       <c r="J143" s="18"/>
       <c r="K143" s="19"/>
     </row>
-    <row r="144" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" ht="30">
       <c r="A144" s="14">
         <v>20769</v>
       </c>
@@ -7498,7 +7484,7 @@
       <c r="J144" s="18"/>
       <c r="K144" s="19"/>
     </row>
-    <row r="145" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="30">
       <c r="A145" s="14">
         <v>20769</v>
       </c>
@@ -7523,7 +7509,7 @@
       <c r="J145" s="18"/>
       <c r="K145" s="19"/>
     </row>
-    <row r="146" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" ht="30">
       <c r="A146" s="20">
         <v>20812</v>
       </c>
@@ -7546,7 +7532,7 @@
       <c r="J146" s="25"/>
       <c r="K146" s="26"/>
     </row>
-    <row r="147" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" ht="30">
       <c r="A147" s="20">
         <v>20812</v>
       </c>
@@ -7569,7 +7555,7 @@
       <c r="J147" s="25"/>
       <c r="K147" s="26"/>
     </row>
-    <row r="148" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" ht="30">
       <c r="A148" s="14">
         <v>20846</v>
       </c>
@@ -7598,7 +7584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" ht="30">
       <c r="A149" s="14">
         <v>20846</v>
       </c>
@@ -7625,7 +7611,7 @@
       <c r="J149" s="18"/>
       <c r="K149" s="19"/>
     </row>
-    <row r="150" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" ht="90">
       <c r="A150" s="14">
         <v>20846</v>
       </c>
@@ -7652,7 +7638,7 @@
       <c r="J150" s="18"/>
       <c r="K150" s="19"/>
     </row>
-    <row r="151" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" ht="30">
       <c r="A151" s="14">
         <v>20846</v>
       </c>
@@ -7679,7 +7665,7 @@
       <c r="J151" s="18"/>
       <c r="K151" s="19"/>
     </row>
-    <row r="152" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" ht="30">
       <c r="A152" s="14">
         <v>20846</v>
       </c>
@@ -7706,7 +7692,7 @@
       <c r="J152" s="18"/>
       <c r="K152" s="19"/>
     </row>
-    <row r="153" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" ht="90">
       <c r="A153" s="20">
         <v>20847</v>
       </c>
@@ -7733,7 +7719,7 @@
       <c r="J153" s="25"/>
       <c r="K153" s="26"/>
     </row>
-    <row r="154" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" ht="75">
       <c r="A154" s="20">
         <v>20847</v>
       </c>
@@ -7760,7 +7746,7 @@
       <c r="J154" s="25"/>
       <c r="K154" s="26"/>
     </row>
-    <row r="155" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" ht="30">
       <c r="A155" s="20">
         <v>20847</v>
       </c>
@@ -7787,7 +7773,7 @@
       <c r="J155" s="25"/>
       <c r="K155" s="26"/>
     </row>
-    <row r="156" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" ht="30">
       <c r="A156" s="20">
         <v>20847</v>
       </c>
@@ -7814,7 +7800,7 @@
       <c r="J156" s="25"/>
       <c r="K156" s="26"/>
     </row>
-    <row r="157" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" ht="30">
       <c r="A157" s="14">
         <v>20850</v>
       </c>
@@ -7839,7 +7825,7 @@
       <c r="J157" s="18"/>
       <c r="K157" s="19"/>
     </row>
-    <row r="158" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" ht="30">
       <c r="A158" s="14">
         <v>20850</v>
       </c>
@@ -7864,7 +7850,7 @@
       <c r="J158" s="18"/>
       <c r="K158" s="19"/>
     </row>
-    <row r="159" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" ht="45">
       <c r="A159" s="14">
         <v>20850</v>
       </c>
@@ -7889,7 +7875,7 @@
       <c r="J159" s="18"/>
       <c r="K159" s="19"/>
     </row>
-    <row r="160" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" ht="60">
       <c r="A160" s="14">
         <v>20850</v>
       </c>
@@ -7914,7 +7900,7 @@
       <c r="J160" s="18"/>
       <c r="K160" s="19"/>
     </row>
-    <row r="161" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="30">
       <c r="A161" s="20">
         <v>20852</v>
       </c>
@@ -7937,7 +7923,7 @@
       <c r="J161" s="25"/>
       <c r="K161" s="26"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11">
       <c r="A162" s="20">
         <v>20852</v>
       </c>
@@ -7960,7 +7946,7 @@
       <c r="J162" s="25"/>
       <c r="K162" s="26"/>
     </row>
-    <row r="163" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" ht="30">
       <c r="A163" s="14">
         <v>20855</v>
       </c>
@@ -7983,7 +7969,7 @@
       <c r="J163" s="18"/>
       <c r="K163" s="19"/>
     </row>
-    <row r="164" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" ht="30">
       <c r="A164" s="14">
         <v>20855</v>
       </c>
@@ -8006,7 +7992,7 @@
       <c r="J164" s="18"/>
       <c r="K164" s="19"/>
     </row>
-    <row r="165" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" ht="30">
       <c r="A165" s="20">
         <v>20857</v>
       </c>
@@ -8029,7 +8015,7 @@
       <c r="J165" s="25"/>
       <c r="K165" s="26"/>
     </row>
-    <row r="166" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" ht="30">
       <c r="A166" s="20">
         <v>20857</v>
       </c>
@@ -8052,7 +8038,7 @@
       <c r="J166" s="25"/>
       <c r="K166" s="26"/>
     </row>
-    <row r="167" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" ht="75">
       <c r="A167" s="14">
         <v>20878</v>
       </c>
@@ -8077,7 +8063,7 @@
       <c r="J167" s="18"/>
       <c r="K167" s="19"/>
     </row>
-    <row r="168" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" ht="60">
       <c r="A168" s="14">
         <v>20878</v>
       </c>
@@ -8102,7 +8088,7 @@
       <c r="J168" s="18"/>
       <c r="K168" s="19"/>
     </row>
-    <row r="169" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="30">
       <c r="A169" s="14">
         <v>20878</v>
       </c>
@@ -8127,7 +8113,7 @@
       <c r="J169" s="18"/>
       <c r="K169" s="19"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11">
       <c r="A170" s="20">
         <v>20973</v>
       </c>
@@ -8150,7 +8136,7 @@
       <c r="J170" s="25"/>
       <c r="K170" s="26"/>
     </row>
-    <row r="171" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" ht="75">
       <c r="A171" s="14">
         <v>21022</v>
       </c>
@@ -8175,7 +8161,7 @@
       <c r="J171" s="18"/>
       <c r="K171" s="19"/>
     </row>
-    <row r="172" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" ht="30">
       <c r="A172" s="14">
         <v>21022</v>
       </c>
@@ -8200,7 +8186,7 @@
       <c r="J172" s="18"/>
       <c r="K172" s="19"/>
     </row>
-    <row r="173" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" ht="45">
       <c r="A173" s="14">
         <v>21022</v>
       </c>
@@ -8225,7 +8211,7 @@
       <c r="J173" s="18"/>
       <c r="K173" s="19"/>
     </row>
-    <row r="174" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" ht="105">
       <c r="A174" s="20">
         <v>21082</v>
       </c>
@@ -8250,7 +8236,7 @@
       <c r="J174" s="25"/>
       <c r="K174" s="26"/>
     </row>
-    <row r="175" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" ht="30">
       <c r="A175" s="20">
         <v>21082</v>
       </c>
@@ -8275,7 +8261,7 @@
       <c r="J175" s="25"/>
       <c r="K175" s="26"/>
     </row>
-    <row r="176" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" ht="30">
       <c r="A176" s="14">
         <v>21113</v>
       </c>
@@ -8298,7 +8284,7 @@
       <c r="J176" s="18"/>
       <c r="K176" s="19"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11">
       <c r="A177" s="14">
         <v>21113</v>
       </c>
@@ -8321,7 +8307,7 @@
       <c r="J177" s="18"/>
       <c r="K177" s="19"/>
     </row>
-    <row r="178" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" ht="30">
       <c r="A178" s="20">
         <v>21149</v>
       </c>
@@ -8344,7 +8330,7 @@
       <c r="J178" s="25"/>
       <c r="K178" s="26"/>
     </row>
-    <row r="179" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" ht="30">
       <c r="A179" s="20">
         <v>21149</v>
       </c>
@@ -8367,7 +8353,7 @@
       <c r="J179" s="25"/>
       <c r="K179" s="26"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11">
       <c r="A180" s="14">
         <v>21201</v>
       </c>
@@ -8394,7 +8380,7 @@
       <c r="J180" s="18"/>
       <c r="K180" s="19"/>
     </row>
-    <row r="181" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" ht="75">
       <c r="A181" s="20">
         <v>21202</v>
       </c>
@@ -8423,7 +8409,7 @@
       <c r="J181" s="25"/>
       <c r="K181" s="26"/>
     </row>
-    <row r="182" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" ht="60">
       <c r="A182" s="20">
         <v>21202</v>
       </c>
@@ -8452,7 +8438,7 @@
       <c r="J182" s="25"/>
       <c r="K182" s="26"/>
     </row>
-    <row r="183" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" ht="45">
       <c r="A183" s="20">
         <v>21202</v>
       </c>
@@ -8481,7 +8467,7 @@
       <c r="J183" s="25"/>
       <c r="K183" s="26"/>
     </row>
-    <row r="184" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" ht="30">
       <c r="A184" s="20">
         <v>21202</v>
       </c>
@@ -8510,7 +8496,7 @@
       <c r="J184" s="25"/>
       <c r="K184" s="26"/>
     </row>
-    <row r="185" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" ht="45">
       <c r="A185" s="20">
         <v>21202</v>
       </c>
@@ -8539,7 +8525,7 @@
       <c r="J185" s="25"/>
       <c r="K185" s="26"/>
     </row>
-    <row r="186" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" ht="45">
       <c r="A186" s="20">
         <v>21202</v>
       </c>
@@ -8568,7 +8554,7 @@
       <c r="J186" s="25"/>
       <c r="K186" s="26"/>
     </row>
-    <row r="187" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" ht="45">
       <c r="A187" s="20">
         <v>21202</v>
       </c>
@@ -8597,7 +8583,7 @@
       <c r="J187" s="25"/>
       <c r="K187" s="26"/>
     </row>
-    <row r="188" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" ht="90">
       <c r="A188" s="20">
         <v>21202</v>
       </c>
@@ -8626,7 +8612,7 @@
       <c r="J188" s="25"/>
       <c r="K188" s="26"/>
     </row>
-    <row r="189" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" ht="105">
       <c r="A189" s="20">
         <v>21202</v>
       </c>
@@ -8655,7 +8641,7 @@
       <c r="J189" s="25"/>
       <c r="K189" s="26"/>
     </row>
-    <row r="190" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" ht="120">
       <c r="A190" s="20">
         <v>21202</v>
       </c>
@@ -8684,7 +8670,7 @@
       <c r="J190" s="25"/>
       <c r="K190" s="26"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11">
       <c r="A191" s="20">
         <v>21202</v>
       </c>
@@ -8713,7 +8699,7 @@
       <c r="J191" s="25"/>
       <c r="K191" s="26"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11">
       <c r="A192" s="20">
         <v>21202</v>
       </c>
@@ -8742,7 +8728,7 @@
       <c r="J192" s="25"/>
       <c r="K192" s="26"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11">
       <c r="A193" s="20">
         <v>21202</v>
       </c>
@@ -8771,7 +8757,7 @@
       <c r="J193" s="25"/>
       <c r="K193" s="26"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11">
       <c r="A194" s="20">
         <v>21202</v>
       </c>
@@ -8800,7 +8786,7 @@
       <c r="J194" s="25"/>
       <c r="K194" s="26"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11">
       <c r="A195" s="20">
         <v>21202</v>
       </c>
@@ -8829,7 +8815,7 @@
       <c r="J195" s="25"/>
       <c r="K195" s="26"/>
     </row>
-    <row r="196" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" ht="30">
       <c r="A196" s="14">
         <v>21219</v>
       </c>
@@ -8856,7 +8842,7 @@
       <c r="J196" s="18"/>
       <c r="K196" s="19"/>
     </row>
-    <row r="197" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" ht="60">
       <c r="A197" s="14">
         <v>21219</v>
       </c>
@@ -8883,7 +8869,7 @@
       <c r="J197" s="18"/>
       <c r="K197" s="19"/>
     </row>
-    <row r="198" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" ht="75">
       <c r="A198" s="14">
         <v>21219</v>
       </c>
@@ -8910,7 +8896,7 @@
       <c r="J198" s="18"/>
       <c r="K198" s="19"/>
     </row>
-    <row r="199" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" ht="45">
       <c r="A199" s="14">
         <v>21219</v>
       </c>
@@ -8937,7 +8923,7 @@
       <c r="J199" s="18"/>
       <c r="K199" s="19"/>
     </row>
-    <row r="200" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" ht="45">
       <c r="A200" s="14">
         <v>21219</v>
       </c>
@@ -8964,7 +8950,7 @@
       <c r="J200" s="18"/>
       <c r="K200" s="19"/>
     </row>
-    <row r="201" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" ht="105">
       <c r="A201" s="14">
         <v>21219</v>
       </c>
@@ -8991,7 +8977,7 @@
       <c r="J201" s="18"/>
       <c r="K201" s="19"/>
     </row>
-    <row r="202" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" ht="75">
       <c r="A202" s="14">
         <v>21219</v>
       </c>
@@ -9018,7 +9004,7 @@
       <c r="J202" s="18"/>
       <c r="K202" s="19"/>
     </row>
-    <row r="203" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" ht="75">
       <c r="A203" s="20">
         <v>21230</v>
       </c>
@@ -9043,7 +9029,7 @@
       <c r="J203" s="25"/>
       <c r="K203" s="26"/>
     </row>
-    <row r="204" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" ht="30">
       <c r="A204" s="14">
         <v>21233</v>
       </c>
@@ -9066,7 +9052,7 @@
       <c r="J204" s="18"/>
       <c r="K204" s="19"/>
     </row>
-    <row r="205" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" ht="45">
       <c r="A205" s="20">
         <v>21244</v>
       </c>
@@ -9089,7 +9075,7 @@
       <c r="J205" s="25"/>
       <c r="K205" s="26"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11">
       <c r="A206" s="14">
         <v>21328</v>
       </c>
@@ -9112,7 +9098,7 @@
       <c r="J206" s="18"/>
       <c r="K206" s="19"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11">
       <c r="A207" s="14">
         <v>21328</v>
       </c>
@@ -9135,7 +9121,7 @@
       <c r="J207" s="18"/>
       <c r="K207" s="19"/>
     </row>
-    <row r="208" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" ht="105">
       <c r="A208" s="20">
         <v>21433</v>
       </c>
@@ -9160,7 +9146,7 @@
       <c r="J208" s="25"/>
       <c r="K208" s="26"/>
     </row>
-    <row r="209" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" ht="45">
       <c r="A209" s="20">
         <v>21433</v>
       </c>
@@ -9185,7 +9171,7 @@
       <c r="J209" s="25"/>
       <c r="K209" s="26"/>
     </row>
-    <row r="210" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" ht="60">
       <c r="A210" s="20">
         <v>21433</v>
       </c>
@@ -9210,7 +9196,7 @@
       <c r="J210" s="25"/>
       <c r="K210" s="26"/>
     </row>
-    <row r="211" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" ht="60">
       <c r="A211" s="20">
         <v>21433</v>
       </c>
@@ -9235,7 +9221,7 @@
       <c r="J211" s="25"/>
       <c r="K211" s="26"/>
     </row>
-    <row r="212" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" ht="30">
       <c r="A212" s="20">
         <v>21433</v>
       </c>
@@ -9260,7 +9246,7 @@
       <c r="J212" s="25"/>
       <c r="K212" s="26"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11">
       <c r="A213" s="20">
         <v>21433</v>
       </c>
@@ -9285,7 +9271,7 @@
       <c r="J213" s="25"/>
       <c r="K213" s="26"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11">
       <c r="A214" s="20">
         <v>21433</v>
       </c>
@@ -9310,7 +9296,7 @@
       <c r="J214" s="25"/>
       <c r="K214" s="26"/>
     </row>
-    <row r="215" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" ht="60">
       <c r="A215" s="14">
         <v>21439</v>
       </c>
@@ -9335,7 +9321,7 @@
       <c r="J215" s="18"/>
       <c r="K215" s="19"/>
     </row>
-    <row r="216" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" ht="30">
       <c r="A216" s="20">
         <v>21442</v>
       </c>
@@ -9358,7 +9344,7 @@
       <c r="J216" s="25"/>
       <c r="K216" s="26"/>
     </row>
-    <row r="217" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" ht="30">
       <c r="A217" s="20">
         <v>21442</v>
       </c>
@@ -9381,7 +9367,7 @@
       <c r="J217" s="25"/>
       <c r="K217" s="26"/>
     </row>
-    <row r="218" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" ht="30">
       <c r="A218" s="14">
         <v>21443</v>
       </c>
@@ -9404,7 +9390,7 @@
       <c r="J218" s="18"/>
       <c r="K218" s="19"/>
     </row>
-    <row r="219" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" ht="30">
       <c r="A219" s="14">
         <v>21443</v>
       </c>
@@ -9427,7 +9413,7 @@
       <c r="J219" s="18"/>
       <c r="K219" s="19"/>
     </row>
-    <row r="220" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" ht="30">
       <c r="A220" s="20">
         <v>21444</v>
       </c>
@@ -9450,7 +9436,7 @@
       <c r="J220" s="25"/>
       <c r="K220" s="26"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11">
       <c r="A221" s="20">
         <v>21444</v>
       </c>
@@ -9473,7 +9459,7 @@
       <c r="J221" s="25"/>
       <c r="K221" s="26"/>
     </row>
-    <row r="222" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" ht="30">
       <c r="A222" s="14">
         <v>21452</v>
       </c>
@@ -9496,7 +9482,7 @@
       <c r="J222" s="18"/>
       <c r="K222" s="19"/>
     </row>
-    <row r="223" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" ht="30">
       <c r="A223" s="14">
         <v>21452</v>
       </c>
@@ -9519,7 +9505,7 @@
       <c r="J223" s="18"/>
       <c r="K223" s="19"/>
     </row>
-    <row r="224" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" ht="30">
       <c r="A224" s="20">
         <v>21527</v>
       </c>
@@ -9542,7 +9528,7 @@
       <c r="J224" s="25"/>
       <c r="K224" s="26"/>
     </row>
-    <row r="225" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" ht="75">
       <c r="A225" s="20">
         <v>21527</v>
       </c>
@@ -9565,7 +9551,7 @@
       <c r="J225" s="25"/>
       <c r="K225" s="26"/>
     </row>
-    <row r="226" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" ht="30">
       <c r="A226" s="20">
         <v>21527</v>
       </c>
@@ -9588,7 +9574,7 @@
       <c r="J226" s="25"/>
       <c r="K226" s="26"/>
     </row>
-    <row r="227" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" ht="30">
       <c r="A227" s="20">
         <v>21527</v>
       </c>
@@ -9611,7 +9597,7 @@
       <c r="J227" s="25"/>
       <c r="K227" s="26"/>
     </row>
-    <row r="228" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" ht="30">
       <c r="A228" s="20">
         <v>21527</v>
       </c>
@@ -9634,7 +9620,7 @@
       <c r="J228" s="25"/>
       <c r="K228" s="26"/>
     </row>
-    <row r="229" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" ht="60">
       <c r="A229" s="14">
         <v>21536</v>
       </c>
@@ -9661,7 +9647,7 @@
       </c>
       <c r="K229" s="19"/>
     </row>
-    <row r="230" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" ht="60">
       <c r="A230" s="14">
         <v>21536</v>
       </c>
@@ -9690,7 +9676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11">
       <c r="A231" s="14">
         <v>21536</v>
       </c>
@@ -9717,7 +9703,7 @@
       </c>
       <c r="K231" s="19"/>
     </row>
-    <row r="232" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" ht="30">
       <c r="A232" s="14">
         <v>21536</v>
       </c>
@@ -9744,7 +9730,7 @@
       </c>
       <c r="K232" s="19"/>
     </row>
-    <row r="233" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" ht="45">
       <c r="A233" s="14">
         <v>21536</v>
       </c>
@@ -9771,7 +9757,7 @@
       </c>
       <c r="K233" s="19"/>
     </row>
-    <row r="234" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" ht="60">
       <c r="A234" s="14">
         <v>21536</v>
       </c>
@@ -9798,7 +9784,7 @@
       </c>
       <c r="K234" s="19"/>
     </row>
-    <row r="235" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" ht="45">
       <c r="A235" s="14">
         <v>21536</v>
       </c>
@@ -9825,7 +9811,7 @@
       </c>
       <c r="K235" s="19"/>
     </row>
-    <row r="236" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" ht="45">
       <c r="A236" s="14">
         <v>21536</v>
       </c>
@@ -9852,7 +9838,7 @@
       </c>
       <c r="K236" s="19"/>
     </row>
-    <row r="237" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" ht="90">
       <c r="A237" s="14">
         <v>21536</v>
       </c>
@@ -9879,7 +9865,7 @@
       </c>
       <c r="K237" s="19"/>
     </row>
-    <row r="238" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" ht="120">
       <c r="A238" s="14">
         <v>21536</v>
       </c>
@@ -9906,7 +9892,7 @@
       </c>
       <c r="K238" s="19"/>
     </row>
-    <row r="239" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" ht="75">
       <c r="A239" s="14">
         <v>21536</v>
       </c>
@@ -9933,7 +9919,7 @@
       </c>
       <c r="K239" s="19"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11">
       <c r="A240" s="14">
         <v>21536</v>
       </c>
@@ -9960,7 +9946,7 @@
       </c>
       <c r="K240" s="19"/>
     </row>
-    <row r="241" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" ht="30">
       <c r="A241" s="14">
         <v>21536</v>
       </c>
@@ -9987,7 +9973,7 @@
       </c>
       <c r="K241" s="19"/>
     </row>
-    <row r="242" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" ht="30">
       <c r="A242" s="14">
         <v>21536</v>
       </c>
@@ -10014,7 +10000,7 @@
       </c>
       <c r="K242" s="19"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11">
       <c r="A243" s="14">
         <v>21536</v>
       </c>
@@ -10041,7 +10027,7 @@
       </c>
       <c r="K243" s="19"/>
     </row>
-    <row r="244" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" ht="90">
       <c r="A244" s="14">
         <v>21536</v>
       </c>
@@ -10068,7 +10054,7 @@
       </c>
       <c r="K244" s="19"/>
     </row>
-    <row r="245" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" ht="60">
       <c r="A245" s="20">
         <v>21537</v>
       </c>
@@ -10095,7 +10081,7 @@
       <c r="J245" s="25"/>
       <c r="K245" s="26"/>
     </row>
-    <row r="246" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" ht="75">
       <c r="A246" s="20">
         <v>21537</v>
       </c>
@@ -10122,7 +10108,7 @@
       <c r="J246" s="25"/>
       <c r="K246" s="26"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11">
       <c r="A247" s="20">
         <v>21537</v>
       </c>
@@ -10149,7 +10135,7 @@
       <c r="J247" s="25"/>
       <c r="K247" s="26"/>
     </row>
-    <row r="248" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" ht="45">
       <c r="A248" s="20">
         <v>21537</v>
       </c>
@@ -10176,7 +10162,7 @@
       <c r="J248" s="25"/>
       <c r="K248" s="26"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11">
       <c r="A249" s="20">
         <v>21537</v>
       </c>
@@ -10203,7 +10189,7 @@
       <c r="J249" s="25"/>
       <c r="K249" s="26"/>
     </row>
-    <row r="250" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" ht="120">
       <c r="A250" s="14">
         <v>21566</v>
       </c>
@@ -10228,7 +10214,7 @@
       <c r="J250" s="18"/>
       <c r="K250" s="19"/>
     </row>
-    <row r="251" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" ht="60">
       <c r="A251" s="20">
         <v>21608</v>
       </c>
@@ -10253,7 +10239,7 @@
       <c r="J251" s="25"/>
       <c r="K251" s="26"/>
     </row>
-    <row r="252" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" ht="105">
       <c r="A252" s="20">
         <v>21608</v>
       </c>
@@ -10278,7 +10264,7 @@
       <c r="J252" s="25"/>
       <c r="K252" s="26"/>
     </row>
-    <row r="253" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" ht="90">
       <c r="A253" s="14">
         <v>21625</v>
       </c>
@@ -10305,7 +10291,7 @@
       </c>
       <c r="K253" s="19"/>
     </row>
-    <row r="254" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" ht="30">
       <c r="A254" s="20">
         <v>21626</v>
       </c>
@@ -10328,7 +10314,7 @@
       <c r="J254" s="25"/>
       <c r="K254" s="26"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11">
       <c r="A255" s="20">
         <v>21626</v>
       </c>
@@ -10351,7 +10337,7 @@
       <c r="J255" s="25"/>
       <c r="K255" s="26"/>
     </row>
-    <row r="256" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" ht="90">
       <c r="A256" s="14">
         <v>21638</v>
       </c>
@@ -10378,7 +10364,7 @@
       </c>
       <c r="K256" s="19"/>
     </row>
-    <row r="257" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" ht="75">
       <c r="A257" s="14">
         <v>21638</v>
       </c>
@@ -10405,7 +10391,7 @@
       </c>
       <c r="K257" s="19"/>
     </row>
-    <row r="258" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" ht="90">
       <c r="A258" s="14">
         <v>21638</v>
       </c>
@@ -10432,7 +10418,7 @@
       </c>
       <c r="K258" s="19"/>
     </row>
-    <row r="259" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" ht="60">
       <c r="A259" s="14">
         <v>21638</v>
       </c>
@@ -10459,7 +10445,7 @@
       </c>
       <c r="K259" s="19"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11">
       <c r="A260" s="14">
         <v>21638</v>
       </c>
@@ -10486,7 +10472,7 @@
       </c>
       <c r="K260" s="19"/>
     </row>
-    <row r="261" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" ht="30">
       <c r="A261" s="14">
         <v>21638</v>
       </c>
@@ -10513,7 +10499,7 @@
       </c>
       <c r="K261" s="19"/>
     </row>
-    <row r="262" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" ht="30">
       <c r="A262" s="14">
         <v>21638</v>
       </c>
@@ -10540,7 +10526,7 @@
       </c>
       <c r="K262" s="19"/>
     </row>
-    <row r="263" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" ht="60">
       <c r="A263" s="14">
         <v>21638</v>
       </c>
@@ -10567,7 +10553,7 @@
       </c>
       <c r="K263" s="19"/>
     </row>
-    <row r="264" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" ht="30">
       <c r="A264" s="14">
         <v>21638</v>
       </c>
@@ -10594,7 +10580,7 @@
       </c>
       <c r="K264" s="19"/>
     </row>
-    <row r="265" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" ht="60">
       <c r="A265" s="14">
         <v>21638</v>
       </c>
@@ -10621,7 +10607,7 @@
       </c>
       <c r="K265" s="19"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11">
       <c r="A266" s="14">
         <v>21638</v>
       </c>
@@ -10648,7 +10634,7 @@
       </c>
       <c r="K266" s="19"/>
     </row>
-    <row r="267" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" ht="45">
       <c r="A267" s="14">
         <v>21638</v>
       </c>
@@ -10675,7 +10661,7 @@
       </c>
       <c r="K267" s="19"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11">
       <c r="A268" s="14">
         <v>21638</v>
       </c>
@@ -10702,7 +10688,7 @@
       </c>
       <c r="K268" s="19"/>
     </row>
-    <row r="269" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" ht="45">
       <c r="A269" s="14">
         <v>21638</v>
       </c>
@@ -10729,7 +10715,7 @@
       </c>
       <c r="K269" s="19"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11">
       <c r="A270" s="20">
         <v>21777</v>
       </c>
@@ -10752,7 +10738,7 @@
       <c r="J270" s="25"/>
       <c r="K270" s="26"/>
     </row>
-    <row r="271" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" ht="30">
       <c r="A271" s="20">
         <v>21777</v>
       </c>
@@ -10775,7 +10761,7 @@
       <c r="J271" s="25"/>
       <c r="K271" s="26"/>
     </row>
-    <row r="272" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" ht="45">
       <c r="A272" s="14">
         <v>21921</v>
       </c>
@@ -10798,7 +10784,7 @@
       <c r="J272" s="18"/>
       <c r="K272" s="19"/>
     </row>
-    <row r="273" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" ht="30">
       <c r="A273" s="14">
         <v>21921</v>
       </c>
@@ -10821,7 +10807,7 @@
       <c r="J273" s="18"/>
       <c r="K273" s="19"/>
     </row>
-    <row r="274" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" ht="30">
       <c r="A274" s="14">
         <v>21921</v>
       </c>
@@ -10844,7 +10830,7 @@
       <c r="J274" s="18"/>
       <c r="K274" s="19"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11">
       <c r="A275" s="14">
         <v>21921</v>
       </c>
@@ -10867,7 +10853,7 @@
       <c r="J275" s="18"/>
       <c r="K275" s="19"/>
     </row>
-    <row r="276" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" ht="45">
       <c r="A276" s="14">
         <v>21921</v>
       </c>
@@ -10890,7 +10876,7 @@
       <c r="J276" s="18"/>
       <c r="K276" s="19"/>
     </row>
-    <row r="277" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" ht="30">
       <c r="A277" s="20">
         <v>21922</v>
       </c>
@@ -10913,7 +10899,7 @@
       <c r="J277" s="25"/>
       <c r="K277" s="26"/>
     </row>
-    <row r="278" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" ht="30">
       <c r="A278" s="20">
         <v>21922</v>
       </c>
@@ -10936,7 +10922,7 @@
       <c r="J278" s="25"/>
       <c r="K278" s="26"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11">
       <c r="A279" s="20">
         <v>21922</v>
       </c>
@@ -10959,7 +10945,7 @@
       <c r="J279" s="25"/>
       <c r="K279" s="26"/>
     </row>
-    <row r="280" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" ht="30">
       <c r="A280" s="20">
         <v>21922</v>
       </c>
@@ -10982,7 +10968,7 @@
       <c r="J280" s="25"/>
       <c r="K280" s="26"/>
     </row>
-    <row r="281" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" ht="30">
       <c r="A281" s="14">
         <v>21925</v>
       </c>
@@ -11005,7 +10991,7 @@
       <c r="J281" s="18"/>
       <c r="K281" s="19"/>
     </row>
-    <row r="282" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" ht="30">
       <c r="A282" s="14">
         <v>21925</v>
       </c>
@@ -11028,7 +11014,7 @@
       <c r="J282" s="18"/>
       <c r="K282" s="19"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11">
       <c r="A283" s="14">
         <v>21925</v>
       </c>
@@ -11051,7 +11037,7 @@
       <c r="J283" s="18"/>
       <c r="K283" s="19"/>
     </row>
-    <row r="284" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" ht="30">
       <c r="A284" s="14">
         <v>21925</v>
       </c>
@@ -11074,7 +11060,7 @@
       <c r="J284" s="18"/>
       <c r="K284" s="19"/>
     </row>
-    <row r="285" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" ht="30">
       <c r="A285" s="20">
         <v>21944</v>
       </c>
@@ -11099,7 +11085,7 @@
       <c r="J285" s="25"/>
       <c r="K285" s="26"/>
     </row>
-    <row r="286" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" ht="30">
       <c r="A286" s="20">
         <v>21944</v>
       </c>
@@ -11124,7 +11110,7 @@
       <c r="J286" s="25"/>
       <c r="K286" s="26"/>
     </row>
-    <row r="287" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" ht="30">
       <c r="A287" s="14">
         <v>21994</v>
       </c>
@@ -11149,7 +11135,7 @@
       <c r="J287" s="18"/>
       <c r="K287" s="19"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11">
       <c r="A288" s="14">
         <v>21994</v>
       </c>
@@ -11174,7 +11160,7 @@
       <c r="J288" s="18"/>
       <c r="K288" s="19"/>
     </row>
-    <row r="289" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" ht="45">
       <c r="A289" s="14">
         <v>21994</v>
       </c>
@@ -11199,7 +11185,7 @@
       <c r="J289" s="18"/>
       <c r="K289" s="19"/>
     </row>
-    <row r="290" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" ht="90">
       <c r="A290" s="14">
         <v>21994</v>
       </c>
@@ -11224,7 +11210,7 @@
       <c r="J290" s="18"/>
       <c r="K290" s="19"/>
     </row>
-    <row r="291" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" ht="45">
       <c r="A291" s="14">
         <v>21994</v>
       </c>
@@ -11249,7 +11235,7 @@
       <c r="J291" s="18"/>
       <c r="K291" s="19"/>
     </row>
-    <row r="292" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" ht="30">
       <c r="A292" s="20">
         <v>21995</v>
       </c>
@@ -11274,7 +11260,7 @@
       <c r="J292" s="25"/>
       <c r="K292" s="26"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11">
       <c r="A293" s="20">
         <v>21995</v>
       </c>
@@ -11299,7 +11285,7 @@
       <c r="J293" s="25"/>
       <c r="K293" s="26"/>
     </row>
-    <row r="294" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" ht="30">
       <c r="A294" s="20">
         <v>21995</v>
       </c>
@@ -11324,7 +11310,7 @@
       <c r="J294" s="25"/>
       <c r="K294" s="26"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11">
       <c r="A295" s="20">
         <v>21995</v>
       </c>
@@ -11349,7 +11335,7 @@
       <c r="J295" s="25"/>
       <c r="K295" s="26"/>
     </row>
-    <row r="296" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" ht="60">
       <c r="A296" s="14">
         <v>22062</v>
       </c>
@@ -11374,7 +11360,7 @@
       <c r="J296" s="18"/>
       <c r="K296" s="19"/>
     </row>
-    <row r="297" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" ht="60">
       <c r="A297" s="14">
         <v>22062</v>
       </c>
@@ -11399,7 +11385,7 @@
       <c r="J297" s="18"/>
       <c r="K297" s="19"/>
     </row>
-    <row r="298" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" ht="45">
       <c r="A298" s="20">
         <v>22063</v>
       </c>
@@ -11424,7 +11410,7 @@
       <c r="J298" s="25"/>
       <c r="K298" s="26"/>
     </row>
-    <row r="299" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" ht="90">
       <c r="A299" s="20">
         <v>22063</v>
       </c>
@@ -11449,7 +11435,7 @@
       <c r="J299" s="25"/>
       <c r="K299" s="26"/>
     </row>
-    <row r="300" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" ht="45">
       <c r="A300" s="20">
         <v>22063</v>
       </c>
@@ -11474,7 +11460,7 @@
       <c r="J300" s="25"/>
       <c r="K300" s="26"/>
     </row>
-    <row r="301" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" ht="60">
       <c r="A301" s="20">
         <v>22063</v>
       </c>
@@ -11499,7 +11485,7 @@
       <c r="J301" s="25"/>
       <c r="K301" s="26"/>
     </row>
-    <row r="302" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" ht="75">
       <c r="A302" s="20">
         <v>22063</v>
       </c>
@@ -11522,7 +11508,7 @@
       <c r="J302" s="25"/>
       <c r="K302" s="26"/>
     </row>
-    <row r="303" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" ht="60">
       <c r="A303" s="20">
         <v>22063</v>
       </c>
@@ -11547,7 +11533,7 @@
       <c r="J303" s="25"/>
       <c r="K303" s="26"/>
     </row>
-    <row r="304" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" ht="60">
       <c r="A304" s="14">
         <v>22097</v>
       </c>
@@ -11572,7 +11558,7 @@
       <c r="J304" s="18"/>
       <c r="K304" s="19"/>
     </row>
-    <row r="305" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" ht="45">
       <c r="A305" s="14">
         <v>22097</v>
       </c>
@@ -11597,7 +11583,7 @@
       <c r="J305" s="18"/>
       <c r="K305" s="19"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11">
       <c r="A306" s="14">
         <v>22097</v>
       </c>
@@ -11622,7 +11608,7 @@
       <c r="J306" s="18"/>
       <c r="K306" s="19"/>
     </row>
-    <row r="307" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" ht="90">
       <c r="A307" s="14">
         <v>22097</v>
       </c>
@@ -11647,7 +11633,7 @@
       <c r="J307" s="18"/>
       <c r="K307" s="19"/>
     </row>
-    <row r="308" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" ht="90">
       <c r="A308" s="20">
         <v>22175</v>
       </c>
@@ -11672,7 +11658,7 @@
       <c r="J308" s="25"/>
       <c r="K308" s="26"/>
     </row>
-    <row r="309" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" ht="75">
       <c r="A309" s="14">
         <v>22195</v>
       </c>
@@ -11697,7 +11683,7 @@
       <c r="J309" s="18"/>
       <c r="K309" s="19"/>
     </row>
-    <row r="310" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" ht="45">
       <c r="A310" s="14">
         <v>22195</v>
       </c>
@@ -11722,7 +11708,7 @@
       <c r="J310" s="18"/>
       <c r="K310" s="19"/>
     </row>
-    <row r="311" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" ht="60">
       <c r="A311" s="20">
         <v>22196</v>
       </c>
@@ -11747,7 +11733,7 @@
       <c r="J311" s="25"/>
       <c r="K311" s="26"/>
     </row>
-    <row r="312" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" ht="30">
       <c r="A312" s="20">
         <v>22196</v>
       </c>
@@ -11772,7 +11758,7 @@
       <c r="J312" s="25"/>
       <c r="K312" s="26"/>
     </row>
-    <row r="313" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" ht="120">
       <c r="A313" s="14">
         <v>22229</v>
       </c>
@@ -11797,7 +11783,7 @@
       <c r="J313" s="18"/>
       <c r="K313" s="19"/>
     </row>
-    <row r="314" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" ht="30">
       <c r="A314" s="20">
         <v>22232</v>
       </c>
@@ -11820,7 +11806,7 @@
       <c r="J314" s="25"/>
       <c r="K314" s="26"/>
     </row>
-    <row r="315" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" ht="75">
       <c r="A315" s="14">
         <v>22341</v>
       </c>
@@ -11845,7 +11831,7 @@
       <c r="J315" s="18"/>
       <c r="K315" s="19"/>
     </row>
-    <row r="316" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" ht="30">
       <c r="A316" s="14">
         <v>22341</v>
       </c>
@@ -11870,7 +11856,7 @@
       <c r="J316" s="18"/>
       <c r="K316" s="19"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11">
       <c r="A317" s="14">
         <v>22341</v>
       </c>
@@ -11895,7 +11881,7 @@
       <c r="J317" s="18"/>
       <c r="K317" s="19"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11">
       <c r="A318" s="14">
         <v>22341</v>
       </c>
@@ -11920,7 +11906,7 @@
       <c r="J318" s="18"/>
       <c r="K318" s="19"/>
     </row>
-    <row r="319" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" ht="45">
       <c r="A319" s="14">
         <v>22341</v>
       </c>
@@ -11945,7 +11931,7 @@
       <c r="J319" s="18"/>
       <c r="K319" s="19"/>
     </row>
-    <row r="320" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" ht="45">
       <c r="A320" s="14">
         <v>22341</v>
       </c>
@@ -11970,7 +11956,7 @@
       <c r="J320" s="18"/>
       <c r="K320" s="19"/>
     </row>
-    <row r="321" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" ht="90">
       <c r="A321" s="14">
         <v>22341</v>
       </c>
@@ -11995,7 +11981,7 @@
       <c r="J321" s="18"/>
       <c r="K321" s="19"/>
     </row>
-    <row r="322" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" ht="60">
       <c r="A322" s="14">
         <v>22341</v>
       </c>
@@ -12020,7 +12006,7 @@
       <c r="J322" s="18"/>
       <c r="K322" s="19"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11">
       <c r="A323" s="14">
         <v>22341</v>
       </c>
@@ -12045,7 +12031,7 @@
       <c r="J323" s="18"/>
       <c r="K323" s="19"/>
     </row>
-    <row r="324" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" ht="45">
       <c r="A324" s="14">
         <v>22341</v>
       </c>
@@ -12070,7 +12056,7 @@
       <c r="J324" s="18"/>
       <c r="K324" s="19"/>
     </row>
-    <row r="325" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" ht="90">
       <c r="A325" s="14">
         <v>22341</v>
       </c>
@@ -12095,7 +12081,7 @@
       <c r="J325" s="18"/>
       <c r="K325" s="19"/>
     </row>
-    <row r="326" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" ht="45">
       <c r="A326" s="14">
         <v>22341</v>
       </c>
@@ -12120,7 +12106,7 @@
       <c r="J326" s="18"/>
       <c r="K326" s="19"/>
     </row>
-    <row r="327" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" ht="45">
       <c r="A327" s="14">
         <v>22341</v>
       </c>
@@ -12145,7 +12131,7 @@
       <c r="J327" s="18"/>
       <c r="K327" s="19"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11">
       <c r="A328" s="14">
         <v>22341</v>
       </c>
@@ -12170,7 +12156,7 @@
       <c r="J328" s="18"/>
       <c r="K328" s="19"/>
     </row>
-    <row r="329" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" ht="90">
       <c r="A329" s="14">
         <v>22341</v>
       </c>
@@ -12197,7 +12183,7 @@
       <c r="J329" s="18"/>
       <c r="K329" s="19"/>
     </row>
-    <row r="330" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" ht="60">
       <c r="A330" s="14">
         <v>22341</v>
       </c>
@@ -12222,7 +12208,7 @@
       <c r="J330" s="18"/>
       <c r="K330" s="19"/>
     </row>
-    <row r="331" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" ht="90">
       <c r="A331" s="14">
         <v>22341</v>
       </c>
@@ -12247,7 +12233,7 @@
       <c r="J331" s="18"/>
       <c r="K331" s="19"/>
     </row>
-    <row r="332" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" ht="30">
       <c r="A332" s="14">
         <v>22341</v>
       </c>
@@ -12272,7 +12258,7 @@
       <c r="J332" s="18"/>
       <c r="K332" s="19"/>
     </row>
-    <row r="333" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" ht="30">
       <c r="A333" s="20">
         <v>22343</v>
       </c>
@@ -12297,7 +12283,7 @@
       <c r="J333" s="25"/>
       <c r="K333" s="26"/>
     </row>
-    <row r="334" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" ht="45">
       <c r="A334" s="20">
         <v>22343</v>
       </c>
@@ -12322,7 +12308,7 @@
       <c r="J334" s="25"/>
       <c r="K334" s="26"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11">
       <c r="A335" s="20">
         <v>22343</v>
       </c>
@@ -12347,7 +12333,7 @@
       <c r="J335" s="25"/>
       <c r="K335" s="26"/>
     </row>
-    <row r="336" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" ht="30">
       <c r="A336" s="20">
         <v>22343</v>
       </c>
@@ -12372,7 +12358,7 @@
       <c r="J336" s="25"/>
       <c r="K336" s="26"/>
     </row>
-    <row r="337" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" ht="30">
       <c r="A337" s="14">
         <v>22367</v>
       </c>
@@ -12397,7 +12383,7 @@
       </c>
       <c r="K337" s="19"/>
     </row>
-    <row r="338" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" ht="30">
       <c r="A338" s="14">
         <v>22367</v>
       </c>
@@ -12422,7 +12408,7 @@
       </c>
       <c r="K338" s="19"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11">
       <c r="A339" s="14">
         <v>22367</v>
       </c>
@@ -12447,7 +12433,7 @@
       </c>
       <c r="K339" s="19"/>
     </row>
-    <row r="340" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" ht="45">
       <c r="A340" s="14">
         <v>22367</v>
       </c>
@@ -12472,7 +12458,7 @@
       </c>
       <c r="K340" s="19"/>
     </row>
-    <row r="341" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" ht="60">
       <c r="A341" s="14">
         <v>22367</v>
       </c>
@@ -12497,7 +12483,7 @@
       </c>
       <c r="K341" s="19"/>
     </row>
-    <row r="342" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" ht="30">
       <c r="A342" s="14">
         <v>22367</v>
       </c>
@@ -12522,7 +12508,7 @@
       </c>
       <c r="K342" s="19"/>
     </row>
-    <row r="343" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" ht="45">
       <c r="A343" s="14">
         <v>22367</v>
       </c>
@@ -12547,7 +12533,7 @@
       </c>
       <c r="K343" s="19"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11">
       <c r="A344" s="14">
         <v>22367</v>
       </c>
@@ -12572,7 +12558,7 @@
       </c>
       <c r="K344" s="19"/>
     </row>
-    <row r="345" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" ht="30">
       <c r="A345" s="14">
         <v>22367</v>
       </c>
@@ -12597,7 +12583,7 @@
       </c>
       <c r="K345" s="19"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11">
       <c r="A346" s="14">
         <v>22367</v>
       </c>
@@ -12622,7 +12608,7 @@
       </c>
       <c r="K346" s="19"/>
     </row>
-    <row r="347" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" ht="30">
       <c r="A347" s="14">
         <v>22367</v>
       </c>
@@ -12647,7 +12633,7 @@
       </c>
       <c r="K347" s="19"/>
     </row>
-    <row r="348" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" ht="30">
       <c r="A348" s="14">
         <v>22367</v>
       </c>
@@ -12672,7 +12658,7 @@
       </c>
       <c r="K348" s="19"/>
     </row>
-    <row r="349" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" ht="60">
       <c r="A349" s="14">
         <v>22367</v>
       </c>
@@ -12697,7 +12683,7 @@
       </c>
       <c r="K349" s="19"/>
     </row>
-    <row r="350" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" ht="75">
       <c r="A350" s="14">
         <v>22367</v>
       </c>
@@ -12722,7 +12708,7 @@
       </c>
       <c r="K350" s="19"/>
     </row>
-    <row r="351" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" ht="30">
       <c r="A351" s="14">
         <v>22367</v>
       </c>
@@ -12747,7 +12733,7 @@
       </c>
       <c r="K351" s="19"/>
     </row>
-    <row r="352" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" ht="75">
       <c r="A352" s="14">
         <v>22367</v>
       </c>
@@ -12772,7 +12758,7 @@
       </c>
       <c r="K352" s="19"/>
     </row>
-    <row r="353" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" ht="30">
       <c r="A353" s="14">
         <v>22367</v>
       </c>
@@ -12797,7 +12783,7 @@
       </c>
       <c r="K353" s="19"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11">
       <c r="A354" s="14">
         <v>22367</v>
       </c>
@@ -12822,7 +12808,7 @@
       </c>
       <c r="K354" s="19"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11">
       <c r="A355" s="14">
         <v>22367</v>
       </c>
@@ -12847,7 +12833,7 @@
       </c>
       <c r="K355" s="19"/>
     </row>
-    <row r="356" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" ht="30">
       <c r="A356" s="14">
         <v>22367</v>
       </c>
@@ -12872,7 +12858,7 @@
       </c>
       <c r="K356" s="19"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11">
       <c r="A357" s="14">
         <v>22367</v>
       </c>
@@ -12897,7 +12883,7 @@
       </c>
       <c r="K357" s="19"/>
     </row>
-    <row r="358" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" ht="60">
       <c r="A358" s="20">
         <v>22398</v>
       </c>
@@ -12926,7 +12912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11">
       <c r="A359" s="20">
         <v>22398</v>
       </c>
@@ -12955,7 +12941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11">
       <c r="A360" s="20">
         <v>22398</v>
       </c>
@@ -12984,7 +12970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" ht="45">
       <c r="A361" s="20">
         <v>22398</v>
       </c>
@@ -13013,7 +12999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" ht="90">
       <c r="A362" s="20">
         <v>22398</v>
       </c>
@@ -13042,7 +13028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" ht="45">
       <c r="A363" s="20">
         <v>22398</v>
       </c>
@@ -13071,7 +13057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" ht="60">
       <c r="A364" s="20">
         <v>22398</v>
       </c>
@@ -13100,7 +13086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11">
       <c r="A365" s="20">
         <v>22398</v>
       </c>
@@ -13129,7 +13115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11">
       <c r="A366" s="20">
         <v>22398</v>
       </c>
@@ -13158,7 +13144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" ht="30">
       <c r="A367" s="20">
         <v>22398</v>
       </c>
@@ -13187,7 +13173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" ht="30">
       <c r="A368" s="14">
         <v>22421</v>
       </c>
@@ -13212,7 +13198,7 @@
       </c>
       <c r="K368" s="19"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11">
       <c r="A369" s="14">
         <v>22421</v>
       </c>
@@ -13237,7 +13223,7 @@
       </c>
       <c r="K369" s="19"/>
     </row>
-    <row r="370" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" ht="105">
       <c r="A370" s="14">
         <v>22421</v>
       </c>
@@ -13262,7 +13248,7 @@
       </c>
       <c r="K370" s="19"/>
     </row>
-    <row r="371" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" ht="45">
       <c r="A371" s="20">
         <v>22436</v>
       </c>
@@ -13285,7 +13271,7 @@
       <c r="J371" s="25"/>
       <c r="K371" s="26"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11">
       <c r="A372" s="14">
         <v>22452</v>
       </c>
@@ -13308,7 +13294,7 @@
       <c r="J372" s="18"/>
       <c r="K372" s="19"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11">
       <c r="A373" s="20">
         <v>22462</v>
       </c>
@@ -13331,7 +13317,7 @@
       <c r="J373" s="25"/>
       <c r="K373" s="26"/>
     </row>
-    <row r="374" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" ht="60">
       <c r="A374" s="14">
         <v>22555</v>
       </c>
@@ -13356,7 +13342,7 @@
       <c r="J374" s="18"/>
       <c r="K374" s="19"/>
     </row>
-    <row r="375" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" ht="45">
       <c r="A375" s="14">
         <v>22555</v>
       </c>
@@ -13381,7 +13367,7 @@
       <c r="J375" s="18"/>
       <c r="K375" s="19"/>
     </row>
-    <row r="376" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" ht="60">
       <c r="A376" s="14">
         <v>22555</v>
       </c>
@@ -13406,7 +13392,7 @@
       <c r="J376" s="18"/>
       <c r="K376" s="19"/>
     </row>
-    <row r="377" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" ht="30">
       <c r="A377" s="14">
         <v>22555</v>
       </c>
@@ -13431,7 +13417,7 @@
       <c r="J377" s="18"/>
       <c r="K377" s="19"/>
     </row>
-    <row r="378" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" ht="75">
       <c r="A378" s="14">
         <v>22555</v>
       </c>
@@ -13456,7 +13442,7 @@
       <c r="J378" s="18"/>
       <c r="K378" s="19"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11">
       <c r="A379" s="20">
         <v>22579</v>
       </c>
@@ -13479,7 +13465,7 @@
       <c r="J379" s="25"/>
       <c r="K379" s="26"/>
     </row>
-    <row r="380" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" ht="30">
       <c r="A380" s="20">
         <v>22579</v>
       </c>
@@ -13502,7 +13488,7 @@
       <c r="J380" s="25"/>
       <c r="K380" s="26"/>
     </row>
-    <row r="381" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" ht="30">
       <c r="A381" s="20">
         <v>22579</v>
       </c>
@@ -13525,7 +13511,7 @@
       <c r="J381" s="25"/>
       <c r="K381" s="26"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11">
       <c r="A382" s="20">
         <v>22579</v>
       </c>
@@ -13548,7 +13534,7 @@
       <c r="J382" s="25"/>
       <c r="K382" s="26"/>
     </row>
-    <row r="383" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" ht="30">
       <c r="A383" s="20">
         <v>22579</v>
       </c>
@@ -13571,7 +13557,7 @@
       <c r="J383" s="25"/>
       <c r="K383" s="26"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11">
       <c r="A384" s="14">
         <v>22609</v>
       </c>
@@ -13594,7 +13580,7 @@
       <c r="J384" s="18"/>
       <c r="K384" s="19"/>
     </row>
-    <row r="385" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" ht="45">
       <c r="A385" s="14">
         <v>22609</v>
       </c>
@@ -13617,7 +13603,7 @@
       <c r="J385" s="18"/>
       <c r="K385" s="19"/>
     </row>
-    <row r="386" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" ht="45">
       <c r="A386" s="14">
         <v>22609</v>
       </c>
@@ -13640,7 +13626,7 @@
       <c r="J386" s="18"/>
       <c r="K386" s="19"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11">
       <c r="A387" s="14">
         <v>22609</v>
       </c>
@@ -13663,7 +13649,7 @@
       <c r="J387" s="18"/>
       <c r="K387" s="19"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11">
       <c r="A388" s="20">
         <v>22613</v>
       </c>
@@ -13686,7 +13672,7 @@
       <c r="J388" s="25"/>
       <c r="K388" s="26"/>
     </row>
-    <row r="389" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" ht="60">
       <c r="A389" s="20">
         <v>22613</v>
       </c>
@@ -13709,7 +13695,7 @@
       <c r="J389" s="25"/>
       <c r="K389" s="26"/>
     </row>
-    <row r="390" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" ht="30">
       <c r="A390" s="14">
         <v>22614</v>
       </c>
@@ -13732,7 +13718,7 @@
       <c r="J390" s="18"/>
       <c r="K390" s="19"/>
     </row>
-    <row r="391" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" ht="60">
       <c r="A391" s="14">
         <v>22614</v>
       </c>
@@ -13755,7 +13741,7 @@
       <c r="J391" s="18"/>
       <c r="K391" s="19"/>
     </row>
-    <row r="392" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" ht="30">
       <c r="A392" s="20">
         <v>22634</v>
       </c>
@@ -13778,7 +13764,7 @@
       <c r="J392" s="25"/>
       <c r="K392" s="26"/>
     </row>
-    <row r="393" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" ht="30">
       <c r="A393" s="20">
         <v>22634</v>
       </c>
@@ -13801,7 +13787,7 @@
       <c r="J393" s="25"/>
       <c r="K393" s="26"/>
     </row>
-    <row r="394" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" ht="30">
       <c r="A394" s="20">
         <v>22634</v>
       </c>
@@ -13824,7 +13810,7 @@
       <c r="J394" s="25"/>
       <c r="K394" s="26"/>
     </row>
-    <row r="395" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" ht="30">
       <c r="A395" s="20">
         <v>22634</v>
       </c>
@@ -13847,7 +13833,7 @@
       <c r="J395" s="25"/>
       <c r="K395" s="26"/>
     </row>
-    <row r="396" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" ht="45">
       <c r="A396" s="20">
         <v>22634</v>
       </c>
@@ -13870,7 +13856,7 @@
       <c r="J396" s="25"/>
       <c r="K396" s="26"/>
     </row>
-    <row r="397" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" ht="30">
       <c r="A397" s="20">
         <v>22634</v>
       </c>
@@ -13893,7 +13879,7 @@
       <c r="J397" s="25"/>
       <c r="K397" s="26"/>
     </row>
-    <row r="398" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" ht="30">
       <c r="A398" s="20">
         <v>22634</v>
       </c>
@@ -13916,7 +13902,7 @@
       <c r="J398" s="25"/>
       <c r="K398" s="26"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11">
       <c r="A399" s="14">
         <v>22717</v>
       </c>
@@ -13941,7 +13927,7 @@
       </c>
       <c r="K399" s="19"/>
     </row>
-    <row r="400" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" ht="45">
       <c r="A400" s="20">
         <v>22720</v>
       </c>
@@ -13970,7 +13956,7 @@
       </c>
       <c r="K400" s="26"/>
     </row>
-    <row r="401" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" ht="60">
       <c r="A401" s="20">
         <v>22720</v>
       </c>
@@ -13999,7 +13985,7 @@
       </c>
       <c r="K401" s="26"/>
     </row>
-    <row r="402" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" ht="30">
       <c r="A402" s="20">
         <v>22720</v>
       </c>
@@ -14028,7 +14014,7 @@
       </c>
       <c r="K402" s="26"/>
     </row>
-    <row r="403" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" ht="45">
       <c r="A403" s="20">
         <v>22720</v>
       </c>
@@ -14057,7 +14043,7 @@
       </c>
       <c r="K403" s="26"/>
     </row>
-    <row r="404" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" ht="45">
       <c r="A404" s="20">
         <v>22720</v>
       </c>
@@ -14086,7 +14072,7 @@
       </c>
       <c r="K404" s="26"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11">
       <c r="A405" s="20">
         <v>22720</v>
       </c>
@@ -14115,7 +14101,7 @@
       </c>
       <c r="K405" s="26"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11">
       <c r="A406" s="20">
         <v>22720</v>
       </c>
@@ -14144,7 +14130,7 @@
       </c>
       <c r="K406" s="26"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11">
       <c r="A407" s="20">
         <v>22720</v>
       </c>
@@ -14173,7 +14159,7 @@
       </c>
       <c r="K407" s="26"/>
     </row>
-    <row r="408" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" ht="30">
       <c r="A408" s="20">
         <v>22720</v>
       </c>
@@ -14202,7 +14188,7 @@
       </c>
       <c r="K408" s="26"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11">
       <c r="A409" s="20">
         <v>22720</v>
       </c>
@@ -14231,7 +14217,7 @@
       </c>
       <c r="K409" s="26"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11">
       <c r="A410" s="14">
         <v>22721</v>
       </c>
@@ -14256,7 +14242,7 @@
       <c r="J410" s="18"/>
       <c r="K410" s="19"/>
     </row>
-    <row r="411" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" ht="30">
       <c r="A411" s="14">
         <v>22721</v>
       </c>
@@ -14281,7 +14267,7 @@
       <c r="J411" s="18"/>
       <c r="K411" s="19"/>
     </row>
-    <row r="412" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" ht="45">
       <c r="A412" s="14">
         <v>22721</v>
       </c>
@@ -14306,7 +14292,7 @@
       <c r="J412" s="18"/>
       <c r="K412" s="19"/>
     </row>
-    <row r="413" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" ht="45">
       <c r="A413" s="14">
         <v>22721</v>
       </c>
@@ -14331,7 +14317,7 @@
       <c r="J413" s="18"/>
       <c r="K413" s="19"/>
     </row>
-    <row r="414" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" ht="60">
       <c r="A414" s="14">
         <v>22721</v>
       </c>
@@ -14356,7 +14342,7 @@
       <c r="J414" s="18"/>
       <c r="K414" s="19"/>
     </row>
-    <row r="415" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" ht="45">
       <c r="A415" s="14">
         <v>22721</v>
       </c>
@@ -14381,7 +14367,7 @@
       <c r="J415" s="18"/>
       <c r="K415" s="19"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11">
       <c r="A416" s="14">
         <v>22721</v>
       </c>
@@ -14406,7 +14392,7 @@
       <c r="J416" s="18"/>
       <c r="K416" s="19"/>
     </row>
-    <row r="417" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" ht="30">
       <c r="A417" s="14">
         <v>22721</v>
       </c>
@@ -14431,7 +14417,7 @@
       <c r="J417" s="18"/>
       <c r="K417" s="19"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11">
       <c r="A418" s="20">
         <v>22723</v>
       </c>
@@ -14460,7 +14446,7 @@
       </c>
       <c r="K418" s="26"/>
     </row>
-    <row r="419" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" ht="60">
       <c r="A419" s="20">
         <v>22723</v>
       </c>
@@ -14489,7 +14475,7 @@
       </c>
       <c r="K419" s="26"/>
     </row>
-    <row r="420" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" ht="60">
       <c r="A420" s="20">
         <v>22723</v>
       </c>
@@ -14518,7 +14504,7 @@
       </c>
       <c r="K420" s="26"/>
     </row>
-    <row r="421" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" ht="60">
       <c r="A421" s="20">
         <v>22723</v>
       </c>
@@ -14547,7 +14533,7 @@
       </c>
       <c r="K421" s="26"/>
     </row>
-    <row r="422" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" ht="75">
       <c r="A422" s="20">
         <v>22723</v>
       </c>
@@ -14576,7 +14562,7 @@
       </c>
       <c r="K422" s="26"/>
     </row>
-    <row r="423" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" ht="60">
       <c r="A423" s="20">
         <v>22723</v>
       </c>
@@ -14605,7 +14591,7 @@
       </c>
       <c r="K423" s="26"/>
     </row>
-    <row r="424" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" ht="75">
       <c r="A424" s="20">
         <v>22723</v>
       </c>
@@ -14634,7 +14620,7 @@
       </c>
       <c r="K424" s="26"/>
     </row>
-    <row r="425" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" ht="90">
       <c r="A425" s="20">
         <v>22723</v>
       </c>
@@ -14663,7 +14649,7 @@
       </c>
       <c r="K425" s="26"/>
     </row>
-    <row r="426" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" ht="60">
       <c r="A426" s="20">
         <v>22723</v>
       </c>
@@ -14692,7 +14678,7 @@
       </c>
       <c r="K426" s="26"/>
     </row>
-    <row r="427" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" ht="30">
       <c r="A427" s="20">
         <v>22723</v>
       </c>
@@ -14721,7 +14707,7 @@
       </c>
       <c r="K427" s="26"/>
     </row>
-    <row r="428" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" ht="45">
       <c r="A428" s="14">
         <v>22779</v>
       </c>
@@ -14746,7 +14732,7 @@
       <c r="J428" s="18"/>
       <c r="K428" s="19"/>
     </row>
-    <row r="429" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" ht="45">
       <c r="A429" s="14">
         <v>22779</v>
       </c>
@@ -14771,7 +14757,7 @@
       <c r="J429" s="18"/>
       <c r="K429" s="19"/>
     </row>
-    <row r="430" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" ht="30">
       <c r="A430" s="14">
         <v>22779</v>
       </c>
@@ -14796,7 +14782,7 @@
       <c r="J430" s="18"/>
       <c r="K430" s="19"/>
     </row>
-    <row r="431" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" ht="45">
       <c r="A431" s="14">
         <v>22779</v>
       </c>
@@ -14821,7 +14807,7 @@
       <c r="J431" s="18"/>
       <c r="K431" s="19"/>
     </row>
-    <row r="432" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" ht="30">
       <c r="A432" s="20">
         <v>22870</v>
       </c>
@@ -14848,7 +14834,7 @@
       <c r="J432" s="25"/>
       <c r="K432" s="26"/>
     </row>
-    <row r="433" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" ht="75">
       <c r="A433" s="20">
         <v>22870</v>
       </c>
@@ -14875,7 +14861,7 @@
       <c r="J433" s="25"/>
       <c r="K433" s="26"/>
     </row>
-    <row r="434" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" ht="30">
       <c r="A434" s="20">
         <v>22870</v>
       </c>
@@ -14902,7 +14888,7 @@
       <c r="J434" s="25"/>
       <c r="K434" s="26"/>
     </row>
-    <row r="435" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" ht="30">
       <c r="A435" s="20">
         <v>22870</v>
       </c>
@@ -14929,7 +14915,7 @@
       <c r="J435" s="25"/>
       <c r="K435" s="26"/>
     </row>
-    <row r="436" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" ht="30">
       <c r="A436" s="20">
         <v>22870</v>
       </c>
@@ -14956,7 +14942,7 @@
       <c r="J436" s="25"/>
       <c r="K436" s="26"/>
     </row>
-    <row r="437" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" ht="45">
       <c r="A437" s="14">
         <v>22871</v>
       </c>
@@ -14981,7 +14967,7 @@
       <c r="J437" s="18"/>
       <c r="K437" s="19"/>
     </row>
-    <row r="438" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" ht="60">
       <c r="A438" s="14">
         <v>22871</v>
       </c>
@@ -15006,7 +14992,7 @@
       <c r="J438" s="18"/>
       <c r="K438" s="19"/>
     </row>
-    <row r="439" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" ht="45">
       <c r="A439" s="14">
         <v>22871</v>
       </c>
@@ -15031,7 +15017,7 @@
       <c r="J439" s="18"/>
       <c r="K439" s="19"/>
     </row>
-    <row r="440" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" ht="30">
       <c r="A440" s="14">
         <v>22871</v>
       </c>
@@ -15056,7 +15042,7 @@
       <c r="J440" s="18"/>
       <c r="K440" s="19"/>
     </row>
-    <row r="441" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" ht="30">
       <c r="A441" s="20">
         <v>22947</v>
       </c>
@@ -15081,7 +15067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" ht="60">
       <c r="A442" s="14">
         <v>23012</v>
       </c>
@@ -15106,7 +15092,7 @@
       </c>
       <c r="K442" s="19"/>
     </row>
-    <row r="443" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" ht="30">
       <c r="A443" s="20">
         <v>23019</v>
       </c>
@@ -15131,7 +15117,7 @@
       <c r="J443" s="25"/>
       <c r="K443" s="26"/>
     </row>
-    <row r="444" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" ht="45">
       <c r="A444" s="20">
         <v>23019</v>
       </c>
@@ -15156,7 +15142,7 @@
       <c r="J444" s="25"/>
       <c r="K444" s="26"/>
     </row>
-    <row r="445" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" ht="60">
       <c r="A445" s="20">
         <v>23019</v>
       </c>
@@ -15181,7 +15167,7 @@
       <c r="J445" s="25"/>
       <c r="K445" s="26"/>
     </row>
-    <row r="446" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" ht="120">
       <c r="A446" s="20">
         <v>23019</v>
       </c>
@@ -15206,7 +15192,7 @@
       <c r="J446" s="25"/>
       <c r="K446" s="26"/>
     </row>
-    <row r="447" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" ht="30">
       <c r="A447" s="14">
         <v>23021</v>
       </c>
@@ -15231,7 +15217,7 @@
       <c r="J447" s="18"/>
       <c r="K447" s="19"/>
     </row>
-    <row r="448" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" ht="105">
       <c r="A448" s="14">
         <v>23021</v>
       </c>
@@ -15256,7 +15242,7 @@
       <c r="J448" s="18"/>
       <c r="K448" s="19"/>
     </row>
-    <row r="449" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" ht="75">
       <c r="A449" s="14">
         <v>23021</v>
       </c>
@@ -15281,7 +15267,7 @@
       <c r="J449" s="18"/>
       <c r="K449" s="19"/>
     </row>
-    <row r="450" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" ht="60">
       <c r="A450" s="14">
         <v>23021</v>
       </c>
@@ -15306,7 +15292,7 @@
       <c r="J450" s="18"/>
       <c r="K450" s="19"/>
     </row>
-    <row r="451" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" ht="30">
       <c r="A451" s="14">
         <v>23021</v>
       </c>
@@ -15331,7 +15317,7 @@
       <c r="J451" s="18"/>
       <c r="K451" s="19"/>
     </row>
-    <row r="452" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" ht="60">
       <c r="A452" s="14">
         <v>23021</v>
       </c>
@@ -15356,7 +15342,7 @@
       <c r="J452" s="18"/>
       <c r="K452" s="19"/>
     </row>
-    <row r="453" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" ht="30">
       <c r="A453" s="14">
         <v>23021</v>
       </c>
@@ -15381,7 +15367,7 @@
       <c r="J453" s="18"/>
       <c r="K453" s="19"/>
     </row>
-    <row r="454" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" ht="30">
       <c r="A454" s="14">
         <v>23021</v>
       </c>
@@ -15406,7 +15392,7 @@
       <c r="J454" s="18"/>
       <c r="K454" s="19"/>
     </row>
-    <row r="455" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" ht="45">
       <c r="A455" s="20">
         <v>23122</v>
       </c>
@@ -15431,7 +15417,7 @@
       <c r="J455" s="25"/>
       <c r="K455" s="26"/>
     </row>
-    <row r="456" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" ht="30">
       <c r="A456" s="20">
         <v>23122</v>
       </c>
@@ -15456,7 +15442,7 @@
       <c r="J456" s="25"/>
       <c r="K456" s="26"/>
     </row>
-    <row r="457" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" ht="90">
       <c r="A457" s="20">
         <v>23122</v>
       </c>
@@ -15481,7 +15467,7 @@
       <c r="J457" s="25"/>
       <c r="K457" s="26"/>
     </row>
-    <row r="458" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" ht="60">
       <c r="A458" s="20">
         <v>23122</v>
       </c>
@@ -15506,7 +15492,7 @@
       <c r="J458" s="25"/>
       <c r="K458" s="26"/>
     </row>
-    <row r="459" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" ht="45">
       <c r="A459" s="20">
         <v>23122</v>
       </c>
@@ -15531,7 +15517,7 @@
       <c r="J459" s="25"/>
       <c r="K459" s="26"/>
     </row>
-    <row r="460" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" ht="75">
       <c r="A460" s="14">
         <v>23124</v>
       </c>
@@ -15556,7 +15542,7 @@
       <c r="J460" s="18"/>
       <c r="K460" s="19"/>
     </row>
-    <row r="461" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" ht="60">
       <c r="A461" s="20">
         <v>23165</v>
       </c>
@@ -15583,7 +15569,7 @@
       <c r="J461" s="25"/>
       <c r="K461" s="26"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11">
       <c r="A462" s="20">
         <v>23165</v>
       </c>
@@ -15610,7 +15596,7 @@
       <c r="J462" s="25"/>
       <c r="K462" s="26"/>
     </row>
-    <row r="463" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" ht="30">
       <c r="A463" s="20">
         <v>23165</v>
       </c>
@@ -15637,7 +15623,7 @@
       <c r="J463" s="25"/>
       <c r="K463" s="26"/>
     </row>
-    <row r="464" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" ht="30">
       <c r="A464" s="14">
         <v>23201</v>
       </c>
@@ -15662,7 +15648,7 @@
       <c r="J464" s="18"/>
       <c r="K464" s="19"/>
     </row>
-    <row r="465" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" ht="30">
       <c r="A465" s="14">
         <v>23201</v>
       </c>
@@ -15687,7 +15673,7 @@
       <c r="J465" s="18"/>
       <c r="K465" s="19"/>
     </row>
-    <row r="466" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" ht="45">
       <c r="A466" s="20">
         <v>23274</v>
       </c>
@@ -15712,7 +15698,7 @@
       <c r="J466" s="25"/>
       <c r="K466" s="26"/>
     </row>
-    <row r="467" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" ht="30">
       <c r="A467" s="20">
         <v>23274</v>
       </c>
@@ -15737,7 +15723,7 @@
       <c r="J467" s="25"/>
       <c r="K467" s="26"/>
     </row>
-    <row r="468" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" ht="30">
       <c r="A468" s="20">
         <v>23274</v>
       </c>
@@ -15762,7 +15748,7 @@
       <c r="J468" s="25"/>
       <c r="K468" s="26"/>
     </row>
-    <row r="469" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" ht="30">
       <c r="A469" s="14">
         <v>23275</v>
       </c>
@@ -15787,7 +15773,7 @@
       <c r="J469" s="18"/>
       <c r="K469" s="19"/>
     </row>
-    <row r="470" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" ht="30">
       <c r="A470" s="14">
         <v>23275</v>
       </c>
@@ -15812,7 +15798,7 @@
       <c r="J470" s="18"/>
       <c r="K470" s="19"/>
     </row>
-    <row r="471" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" ht="30">
       <c r="A471" s="14">
         <v>23275</v>
       </c>
@@ -15837,7 +15823,7 @@
       <c r="J471" s="18"/>
       <c r="K471" s="19"/>
     </row>
-    <row r="472" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" ht="30">
       <c r="A472" s="14">
         <v>23275</v>
       </c>
@@ -15862,7 +15848,7 @@
       <c r="J472" s="18"/>
       <c r="K472" s="19"/>
     </row>
-    <row r="473" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" ht="30">
       <c r="A473" s="14">
         <v>23275</v>
       </c>
@@ -15887,7 +15873,7 @@
       <c r="J473" s="18"/>
       <c r="K473" s="19"/>
     </row>
-    <row r="474" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" ht="45">
       <c r="A474" s="20">
         <v>23276</v>
       </c>
@@ -15912,7 +15898,7 @@
       <c r="J474" s="25"/>
       <c r="K474" s="26"/>
     </row>
-    <row r="475" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" ht="30">
       <c r="A475" s="20">
         <v>23276</v>
       </c>
@@ -15937,7 +15923,7 @@
       <c r="J475" s="25"/>
       <c r="K475" s="26"/>
     </row>
-    <row r="476" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" ht="30">
       <c r="A476" s="20">
         <v>23276</v>
       </c>
@@ -15962,7 +15948,7 @@
       <c r="J476" s="25"/>
       <c r="K476" s="26"/>
     </row>
-    <row r="477" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" ht="105">
       <c r="A477" s="14">
         <v>23363</v>
       </c>
@@ -15991,7 +15977,7 @@
       </c>
       <c r="K477" s="19"/>
     </row>
-    <row r="478" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" ht="60">
       <c r="A478" s="14">
         <v>23363</v>
       </c>
@@ -16020,7 +16006,7 @@
       </c>
       <c r="K478" s="19"/>
     </row>
-    <row r="479" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" ht="120">
       <c r="A479" s="14">
         <v>23363</v>
       </c>
@@ -16049,7 +16035,7 @@
       </c>
       <c r="K479" s="19"/>
     </row>
-    <row r="480" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" ht="45">
       <c r="A480" s="14">
         <v>23363</v>
       </c>
@@ -16078,7 +16064,7 @@
       </c>
       <c r="K480" s="19"/>
     </row>
-    <row r="481" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" ht="45">
       <c r="A481" s="20">
         <v>23422</v>
       </c>
@@ -16103,7 +16089,7 @@
       <c r="J481" s="25"/>
       <c r="K481" s="26"/>
     </row>
-    <row r="482" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" ht="30">
       <c r="A482" s="20">
         <v>23422</v>
       </c>
@@ -16128,7 +16114,7 @@
       <c r="J482" s="25"/>
       <c r="K482" s="26"/>
     </row>
-    <row r="483" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" ht="45">
       <c r="A483" s="14">
         <v>23428</v>
       </c>
@@ -16153,7 +16139,7 @@
       <c r="J483" s="18"/>
       <c r="K483" s="19"/>
     </row>
-    <row r="484" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" ht="30">
       <c r="A484" s="14">
         <v>23428</v>
       </c>
@@ -16178,7 +16164,7 @@
       <c r="J484" s="18"/>
       <c r="K484" s="19"/>
     </row>
-    <row r="485" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" ht="45">
       <c r="A485" s="20">
         <v>23436</v>
       </c>
@@ -16203,7 +16189,7 @@
       <c r="J485" s="25"/>
       <c r="K485" s="26"/>
     </row>
-    <row r="486" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" ht="30">
       <c r="A486" s="20">
         <v>23436</v>
       </c>
@@ -16228,7 +16214,7 @@
       <c r="J486" s="25"/>
       <c r="K486" s="26"/>
     </row>
-    <row r="487" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" ht="30">
       <c r="A487" s="14">
         <v>23439</v>
       </c>
@@ -16253,7 +16239,7 @@
       <c r="J487" s="18"/>
       <c r="K487" s="19"/>
     </row>
-    <row r="488" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" ht="60">
       <c r="A488" s="20">
         <v>23462</v>
       </c>
@@ -16278,7 +16264,7 @@
       <c r="J488" s="25"/>
       <c r="K488" s="26"/>
     </row>
-    <row r="489" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" ht="45">
       <c r="A489" s="20">
         <v>23462</v>
       </c>
@@ -16303,7 +16289,7 @@
       <c r="J489" s="25"/>
       <c r="K489" s="26"/>
     </row>
-    <row r="490" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" ht="75">
       <c r="A490" s="14">
         <v>23486</v>
       </c>
@@ -16328,7 +16314,7 @@
       <c r="J490" s="18"/>
       <c r="K490" s="19"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11">
       <c r="A491" s="14">
         <v>23486</v>
       </c>
@@ -16353,7 +16339,7 @@
       <c r="J491" s="18"/>
       <c r="K491" s="19"/>
     </row>
-    <row r="492" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" ht="45">
       <c r="A492" s="14">
         <v>23486</v>
       </c>
@@ -16378,7 +16364,7 @@
       <c r="J492" s="18"/>
       <c r="K492" s="19"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11">
       <c r="A493" s="14">
         <v>23486</v>
       </c>
@@ -16403,7 +16389,7 @@
       <c r="J493" s="18"/>
       <c r="K493" s="19"/>
     </row>
-    <row r="494" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" ht="60">
       <c r="A494" s="20">
         <v>23487</v>
       </c>
@@ -16428,7 +16414,7 @@
       <c r="J494" s="25"/>
       <c r="K494" s="26"/>
     </row>
-    <row r="495" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" ht="30">
       <c r="A495" s="20">
         <v>23487</v>
       </c>
@@ -16453,7 +16439,7 @@
       <c r="J495" s="25"/>
       <c r="K495" s="26"/>
     </row>
-    <row r="496" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" ht="30">
       <c r="A496" s="14">
         <v>23489</v>
       </c>
@@ -16478,7 +16464,7 @@
       <c r="J496" s="18"/>
       <c r="K496" s="19"/>
     </row>
-    <row r="497" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" ht="30">
       <c r="A497" s="14">
         <v>23489</v>
       </c>
@@ -16503,7 +16489,7 @@
       <c r="J497" s="18"/>
       <c r="K497" s="19"/>
     </row>
-    <row r="498" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" ht="60">
       <c r="A498" s="20">
         <v>23492</v>
       </c>
@@ -16528,7 +16514,7 @@
       <c r="J498" s="25"/>
       <c r="K498" s="26"/>
     </row>
-    <row r="499" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" ht="30">
       <c r="A499" s="14">
         <v>23511</v>
       </c>
@@ -16553,7 +16539,7 @@
       <c r="J499" s="18"/>
       <c r="K499" s="19"/>
     </row>
-    <row r="500" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" ht="30">
       <c r="A500" s="14">
         <v>23511</v>
       </c>
@@ -16578,7 +16564,7 @@
       <c r="J500" s="18"/>
       <c r="K500" s="19"/>
     </row>
-    <row r="501" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" ht="45">
       <c r="A501" s="20">
         <v>23512</v>
       </c>
@@ -16603,7 +16589,7 @@
       <c r="J501" s="25"/>
       <c r="K501" s="26"/>
     </row>
-    <row r="502" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" ht="30">
       <c r="A502" s="20">
         <v>23512</v>
       </c>
@@ -16628,7 +16614,7 @@
       <c r="J502" s="25"/>
       <c r="K502" s="26"/>
     </row>
-    <row r="503" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" ht="30">
       <c r="A503" s="14">
         <v>23539</v>
       </c>
@@ -16653,7 +16639,7 @@
       <c r="J503" s="18"/>
       <c r="K503" s="19"/>
     </row>
-    <row r="504" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" ht="30">
       <c r="A504" s="14">
         <v>23539</v>
       </c>
@@ -16678,7 +16664,7 @@
       <c r="J504" s="18"/>
       <c r="K504" s="19"/>
     </row>
-    <row r="505" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" ht="75">
       <c r="A505" s="20">
         <v>23545</v>
       </c>
@@ -16703,7 +16689,7 @@
       <c r="J505" s="25"/>
       <c r="K505" s="26"/>
     </row>
-    <row r="506" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" ht="45">
       <c r="A506" s="20">
         <v>23545</v>
       </c>
@@ -16728,7 +16714,7 @@
       <c r="J506" s="25"/>
       <c r="K506" s="26"/>
     </row>
-    <row r="507" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" ht="45">
       <c r="A507" s="14">
         <v>23593</v>
       </c>
@@ -16751,7 +16737,7 @@
       <c r="J507" s="18"/>
       <c r="K507" s="19"/>
     </row>
-    <row r="508" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" ht="45">
       <c r="A508" s="20">
         <v>23630</v>
       </c>
@@ -16776,7 +16762,7 @@
       <c r="J508" s="25"/>
       <c r="K508" s="26"/>
     </row>
-    <row r="509" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" ht="105">
       <c r="A509" s="20">
         <v>23630</v>
       </c>
@@ -16801,7 +16787,7 @@
       <c r="J509" s="25"/>
       <c r="K509" s="26"/>
     </row>
-    <row r="510" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" ht="30">
       <c r="A510" s="20">
         <v>23630</v>
       </c>
@@ -16824,7 +16810,7 @@
       <c r="J510" s="25"/>
       <c r="K510" s="26"/>
     </row>
-    <row r="511" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" ht="30">
       <c r="A511" s="20">
         <v>23630</v>
       </c>
@@ -16849,7 +16835,7 @@
       <c r="J511" s="25"/>
       <c r="K511" s="26"/>
     </row>
-    <row r="512" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" ht="60">
       <c r="A512" s="20">
         <v>23630</v>
       </c>
@@ -16874,7 +16860,7 @@
       <c r="J512" s="25"/>
       <c r="K512" s="26"/>
     </row>
-    <row r="513" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" ht="30">
       <c r="A513" s="20">
         <v>23630</v>
       </c>
@@ -16899,7 +16885,7 @@
       <c r="J513" s="25"/>
       <c r="K513" s="26"/>
     </row>
-    <row r="514" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" ht="30">
       <c r="A514" s="20">
         <v>23630</v>
       </c>
@@ -16924,7 +16910,7 @@
       <c r="J514" s="25"/>
       <c r="K514" s="26"/>
     </row>
-    <row r="515" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" ht="45">
       <c r="A515" s="20">
         <v>23630</v>
       </c>
@@ -16949,7 +16935,7 @@
       <c r="J515" s="25"/>
       <c r="K515" s="26"/>
     </row>
-    <row r="516" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" ht="75">
       <c r="A516" s="14">
         <v>23692</v>
       </c>
@@ -16974,7 +16960,7 @@
       <c r="J516" s="18"/>
       <c r="K516" s="19"/>
     </row>
-    <row r="517" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" ht="30">
       <c r="A517" s="14">
         <v>23692</v>
       </c>
@@ -16999,7 +16985,7 @@
       <c r="J517" s="18"/>
       <c r="K517" s="19"/>
     </row>
-    <row r="518" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" ht="45">
       <c r="A518" s="14">
         <v>23692</v>
       </c>
@@ -17024,7 +17010,7 @@
       <c r="J518" s="18"/>
       <c r="K518" s="19"/>
     </row>
-    <row r="519" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" ht="30">
       <c r="A519" s="14">
         <v>23692</v>
       </c>
@@ -17049,7 +17035,7 @@
       <c r="J519" s="18"/>
       <c r="K519" s="19"/>
     </row>
-    <row r="520" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" ht="45">
       <c r="A520" s="14">
         <v>23692</v>
       </c>
@@ -17074,7 +17060,7 @@
       <c r="J520" s="18"/>
       <c r="K520" s="19"/>
     </row>
-    <row r="521" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" ht="30">
       <c r="A521" s="20">
         <v>23706</v>
       </c>
@@ -17097,7 +17083,7 @@
       <c r="J521" s="25"/>
       <c r="K521" s="26"/>
     </row>
-    <row r="522" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" ht="30">
       <c r="A522" s="14">
         <v>23708</v>
       </c>
@@ -17120,7 +17106,7 @@
       <c r="J522" s="18"/>
       <c r="K522" s="19"/>
     </row>
-    <row r="523" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" ht="30">
       <c r="A523" s="20">
         <v>23709</v>
       </c>
@@ -17143,7 +17129,7 @@
       <c r="J523" s="25"/>
       <c r="K523" s="26"/>
     </row>
-    <row r="524" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" ht="30">
       <c r="A524" s="14">
         <v>23710</v>
       </c>
@@ -17166,7 +17152,7 @@
       <c r="J524" s="18"/>
       <c r="K524" s="19"/>
     </row>
-    <row r="525" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" ht="30">
       <c r="A525" s="20">
         <v>23712</v>
       </c>
@@ -17193,7 +17179,7 @@
       </c>
       <c r="K525" s="26"/>
     </row>
-    <row r="526" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" ht="45">
       <c r="A526" s="20">
         <v>23712</v>
       </c>
@@ -17220,7 +17206,7 @@
       </c>
       <c r="K526" s="26"/>
     </row>
-    <row r="527" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" ht="75">
       <c r="A527" s="20">
         <v>23712</v>
       </c>
@@ -17247,7 +17233,7 @@
       </c>
       <c r="K527" s="26"/>
     </row>
-    <row r="528" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" ht="45">
       <c r="A528" s="20">
         <v>23712</v>
       </c>
@@ -17274,7 +17260,7 @@
       </c>
       <c r="K528" s="26"/>
     </row>
-    <row r="529" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" ht="30">
       <c r="A529" s="20">
         <v>23712</v>
       </c>
@@ -17301,7 +17287,7 @@
       </c>
       <c r="K529" s="26"/>
     </row>
-    <row r="530" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" ht="45">
       <c r="A530" s="20">
         <v>23712</v>
       </c>
@@ -17328,7 +17314,7 @@
       </c>
       <c r="K530" s="26"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11">
       <c r="A531" s="20">
         <v>23712</v>
       </c>
@@ -17355,7 +17341,7 @@
       </c>
       <c r="K531" s="26"/>
     </row>
-    <row r="532" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" ht="45">
       <c r="A532" s="20">
         <v>23712</v>
       </c>
@@ -17382,7 +17368,7 @@
       </c>
       <c r="K532" s="26"/>
     </row>
-    <row r="533" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" ht="60">
       <c r="A533" s="20">
         <v>23712</v>
       </c>
@@ -17409,7 +17395,7 @@
       </c>
       <c r="K533" s="26"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11">
       <c r="A534" s="20">
         <v>23712</v>
       </c>
@@ -17436,7 +17422,7 @@
       </c>
       <c r="K534" s="26"/>
     </row>
-    <row r="535" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" ht="30">
       <c r="A535" s="14">
         <v>23753</v>
       </c>
@@ -17459,7 +17445,7 @@
       <c r="J535" s="18"/>
       <c r="K535" s="19"/>
     </row>
-    <row r="536" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" ht="30">
       <c r="A536" s="14">
         <v>23753</v>
       </c>
@@ -17482,7 +17468,7 @@
       <c r="J536" s="18"/>
       <c r="K536" s="19"/>
     </row>
-    <row r="537" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" ht="30">
       <c r="A537" s="14">
         <v>23753</v>
       </c>
@@ -17505,7 +17491,7 @@
       <c r="J537" s="18"/>
       <c r="K537" s="19"/>
     </row>
-    <row r="538" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" ht="120">
       <c r="A538" s="14">
         <v>23753</v>
       </c>
@@ -17530,7 +17516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" ht="30">
       <c r="A539" s="14">
         <v>23753</v>
       </c>
@@ -17555,7 +17541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" ht="90">
       <c r="A540" s="14">
         <v>23753</v>
       </c>
@@ -17578,7 +17564,7 @@
       <c r="J540" s="18"/>
       <c r="K540" s="19"/>
     </row>
-    <row r="541" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" ht="60">
       <c r="A541" s="14">
         <v>23753</v>
       </c>
@@ -17601,7 +17587,7 @@
       <c r="J541" s="18"/>
       <c r="K541" s="19"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11">
       <c r="A542" s="20">
         <v>23899</v>
       </c>
@@ -17626,7 +17612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" ht="30">
       <c r="A543" s="14">
         <v>23934</v>
       </c>
@@ -17649,7 +17635,7 @@
       <c r="J543" s="18"/>
       <c r="K543" s="19"/>
     </row>
-    <row r="544" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" ht="30">
       <c r="A544" s="14">
         <v>23934</v>
       </c>
@@ -17672,7 +17658,7 @@
       <c r="J544" s="18"/>
       <c r="K544" s="19"/>
     </row>
-    <row r="545" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" ht="30">
       <c r="A545" s="14">
         <v>23934</v>
       </c>
@@ -17695,7 +17681,7 @@
       <c r="J545" s="18"/>
       <c r="K545" s="19"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11">
       <c r="A546" s="20">
         <v>24045</v>
       </c>
@@ -17718,7 +17704,7 @@
       <c r="J546" s="25"/>
       <c r="K546" s="26"/>
     </row>
-    <row r="547" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" ht="45">
       <c r="A547" s="20">
         <v>24045</v>
       </c>
@@ -17743,7 +17729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" ht="45">
       <c r="A548" s="20">
         <v>24045</v>
       </c>
@@ -17768,7 +17754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" ht="30">
       <c r="A549" s="20">
         <v>24045</v>
       </c>
@@ -17793,7 +17779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" ht="30">
       <c r="A550" s="20">
         <v>24045</v>
       </c>
@@ -17818,7 +17804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11">
       <c r="A551" s="20">
         <v>24045</v>
       </c>
@@ -17841,7 +17827,7 @@
       <c r="J551" s="25"/>
       <c r="K551" s="26"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11">
       <c r="A552" s="20">
         <v>24045</v>
       </c>
@@ -17864,7 +17850,7 @@
       <c r="J552" s="25"/>
       <c r="K552" s="26"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11">
       <c r="A553" s="20">
         <v>24045</v>
       </c>
@@ -17887,7 +17873,7 @@
       <c r="J553" s="25"/>
       <c r="K553" s="26"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11">
       <c r="A554" s="20">
         <v>24045</v>
       </c>
@@ -17910,7 +17896,7 @@
       <c r="J554" s="25"/>
       <c r="K554" s="26"/>
     </row>
-    <row r="555" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" ht="30">
       <c r="A555" s="14">
         <v>24046</v>
       </c>
@@ -17933,7 +17919,7 @@
       <c r="J555" s="18"/>
       <c r="K555" s="19"/>
     </row>
-    <row r="556" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" ht="30">
       <c r="A556" s="14">
         <v>24046</v>
       </c>
@@ -17956,7 +17942,7 @@
       <c r="J556" s="18"/>
       <c r="K556" s="19"/>
     </row>
-    <row r="557" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" ht="45">
       <c r="A557" s="14">
         <v>24046</v>
       </c>
@@ -17979,7 +17965,7 @@
       <c r="J557" s="18"/>
       <c r="K557" s="19"/>
     </row>
-    <row r="558" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" ht="30">
       <c r="A558" s="14">
         <v>24046</v>
       </c>
@@ -18002,7 +17988,7 @@
       <c r="J558" s="18"/>
       <c r="K558" s="19"/>
     </row>
-    <row r="559" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" ht="30">
       <c r="A559" s="14">
         <v>24046</v>
       </c>
@@ -18025,7 +18011,7 @@
       <c r="J559" s="18"/>
       <c r="K559" s="19"/>
     </row>
-    <row r="560" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" ht="45">
       <c r="A560" s="20">
         <v>24047</v>
       </c>
@@ -18050,7 +18036,7 @@
       <c r="J560" s="25"/>
       <c r="K560" s="26"/>
     </row>
-    <row r="561" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" ht="45">
       <c r="A561" s="20">
         <v>24047</v>
       </c>
@@ -18075,7 +18061,7 @@
       <c r="J561" s="25"/>
       <c r="K561" s="26"/>
     </row>
-    <row r="562" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" ht="90">
       <c r="A562" s="20">
         <v>24047</v>
       </c>
@@ -18100,7 +18086,7 @@
       <c r="J562" s="25"/>
       <c r="K562" s="26"/>
     </row>
-    <row r="563" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" ht="60">
       <c r="A563" s="20">
         <v>24047</v>
       </c>
@@ -18125,7 +18111,7 @@
       <c r="J563" s="25"/>
       <c r="K563" s="26"/>
     </row>
-    <row r="564" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" ht="30">
       <c r="A564" s="20">
         <v>24047</v>
       </c>
@@ -18150,7 +18136,7 @@
       <c r="J564" s="25"/>
       <c r="K564" s="26"/>
     </row>
-    <row r="565" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" ht="30">
       <c r="A565" s="20">
         <v>24047</v>
       </c>
@@ -18175,7 +18161,7 @@
       <c r="J565" s="25"/>
       <c r="K565" s="26"/>
     </row>
-    <row r="566" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" ht="90">
       <c r="A566" s="20">
         <v>24047</v>
       </c>
@@ -18200,7 +18186,7 @@
       <c r="J566" s="25"/>
       <c r="K566" s="26"/>
     </row>
-    <row r="567" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" ht="60">
       <c r="A567" s="20">
         <v>24047</v>
       </c>
@@ -18225,7 +18211,7 @@
       <c r="J567" s="25"/>
       <c r="K567" s="26"/>
     </row>
-    <row r="568" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" ht="75">
       <c r="A568" s="20">
         <v>24047</v>
       </c>
@@ -18250,7 +18236,7 @@
       <c r="J568" s="25"/>
       <c r="K568" s="26"/>
     </row>
-    <row r="569" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" ht="90">
       <c r="A569" s="20">
         <v>24047</v>
       </c>
@@ -18275,7 +18261,7 @@
       <c r="J569" s="25"/>
       <c r="K569" s="26"/>
     </row>
-    <row r="570" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" ht="45">
       <c r="A570" s="20">
         <v>24047</v>
       </c>
@@ -18300,7 +18286,7 @@
       <c r="J570" s="25"/>
       <c r="K570" s="26"/>
     </row>
-    <row r="571" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" ht="45">
       <c r="A571" s="20">
         <v>24047</v>
       </c>
@@ -18325,7 +18311,7 @@
       <c r="J571" s="25"/>
       <c r="K571" s="26"/>
     </row>
-    <row r="572" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" ht="60">
       <c r="A572" s="20">
         <v>24047</v>
       </c>
@@ -18350,7 +18336,7 @@
       <c r="J572" s="25"/>
       <c r="K572" s="26"/>
     </row>
-    <row r="573" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" ht="90">
       <c r="A573" s="14">
         <v>24048</v>
       </c>
@@ -18375,7 +18361,7 @@
       <c r="J573" s="18"/>
       <c r="K573" s="19"/>
     </row>
-    <row r="574" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" ht="30">
       <c r="A574" s="14">
         <v>24048</v>
       </c>
@@ -18400,7 +18386,7 @@
       <c r="J574" s="18"/>
       <c r="K574" s="19"/>
     </row>
-    <row r="575" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" ht="30">
       <c r="A575" s="14">
         <v>24048</v>
       </c>
@@ -18425,7 +18411,7 @@
       <c r="J575" s="18"/>
       <c r="K575" s="19"/>
     </row>
-    <row r="576" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" ht="30">
       <c r="A576" s="14">
         <v>24048</v>
       </c>
@@ -18450,7 +18436,7 @@
       <c r="J576" s="18"/>
       <c r="K576" s="19"/>
     </row>
-    <row r="577" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" ht="60">
       <c r="A577" s="14">
         <v>24048</v>
       </c>
@@ -18475,7 +18461,7 @@
       <c r="J577" s="18"/>
       <c r="K577" s="19"/>
     </row>
-    <row r="578" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" ht="45">
       <c r="A578" s="14">
         <v>24048</v>
       </c>
@@ -18500,7 +18486,7 @@
       <c r="J578" s="18"/>
       <c r="K578" s="19"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11">
       <c r="A579" s="14">
         <v>24048</v>
       </c>
@@ -18525,7 +18511,7 @@
       <c r="J579" s="18"/>
       <c r="K579" s="19"/>
     </row>
-    <row r="580" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" ht="75">
       <c r="A580" s="14">
         <v>24048</v>
       </c>
@@ -18550,7 +18536,7 @@
       <c r="J580" s="18"/>
       <c r="K580" s="19"/>
     </row>
-    <row r="581" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" ht="60">
       <c r="A581" s="14">
         <v>24048</v>
       </c>
@@ -18575,7 +18561,7 @@
       <c r="J581" s="18"/>
       <c r="K581" s="19"/>
     </row>
-    <row r="582" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" ht="75">
       <c r="A582" s="14">
         <v>24048</v>
       </c>
@@ -18600,7 +18586,7 @@
       <c r="J582" s="18"/>
       <c r="K582" s="19"/>
     </row>
-    <row r="583" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" ht="75">
       <c r="A583" s="14">
         <v>24048</v>
       </c>
@@ -18625,7 +18611,7 @@
       <c r="J583" s="18"/>
       <c r="K583" s="19"/>
     </row>
-    <row r="584" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" ht="30">
       <c r="A584" s="14">
         <v>24048</v>
       </c>
@@ -18650,7 +18636,7 @@
       <c r="J584" s="18"/>
       <c r="K584" s="19"/>
     </row>
-    <row r="585" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" ht="60">
       <c r="A585" s="14">
         <v>24048</v>
       </c>
@@ -18675,7 +18661,7 @@
       <c r="J585" s="18"/>
       <c r="K585" s="19"/>
     </row>
-    <row r="586" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" ht="30">
       <c r="A586" s="14">
         <v>24048</v>
       </c>
@@ -18700,7 +18686,7 @@
       <c r="J586" s="18"/>
       <c r="K586" s="19"/>
     </row>
-    <row r="587" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" ht="45">
       <c r="A587" s="14">
         <v>24048</v>
       </c>
@@ -18725,7 +18711,7 @@
       <c r="J587" s="18"/>
       <c r="K587" s="19"/>
     </row>
-    <row r="588" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" ht="45">
       <c r="A588" s="20">
         <v>24049</v>
       </c>
@@ -18750,7 +18736,7 @@
       <c r="J588" s="25"/>
       <c r="K588" s="26"/>
     </row>
-    <row r="589" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" ht="30">
       <c r="A589" s="20">
         <v>24049</v>
       </c>
@@ -18775,7 +18761,7 @@
       <c r="J589" s="25"/>
       <c r="K589" s="26"/>
     </row>
-    <row r="590" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" ht="45">
       <c r="A590" s="20">
         <v>24049</v>
       </c>
@@ -18800,7 +18786,7 @@
       <c r="J590" s="25"/>
       <c r="K590" s="26"/>
     </row>
-    <row r="591" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" ht="60">
       <c r="A591" s="14">
         <v>24050</v>
       </c>
@@ -18825,7 +18811,7 @@
       <c r="J591" s="18"/>
       <c r="K591" s="19"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11">
       <c r="A592" s="14">
         <v>24050</v>
       </c>
@@ -18850,7 +18836,7 @@
       <c r="J592" s="18"/>
       <c r="K592" s="19"/>
     </row>
-    <row r="593" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" ht="45">
       <c r="A593" s="14">
         <v>24050</v>
       </c>
@@ -18875,7 +18861,7 @@
       <c r="J593" s="18"/>
       <c r="K593" s="19"/>
     </row>
-    <row r="594" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" ht="75">
       <c r="A594" s="20">
         <v>24067</v>
       </c>
@@ -18900,7 +18886,7 @@
       <c r="J594" s="25"/>
       <c r="K594" s="26"/>
     </row>
-    <row r="595" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" ht="90">
       <c r="A595" s="20">
         <v>24067</v>
       </c>
@@ -18925,7 +18911,7 @@
       <c r="J595" s="25"/>
       <c r="K595" s="26"/>
     </row>
-    <row r="596" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" ht="45">
       <c r="A596" s="20">
         <v>24067</v>
       </c>
@@ -18950,7 +18936,7 @@
       <c r="J596" s="25"/>
       <c r="K596" s="26"/>
     </row>
-    <row r="597" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" ht="75">
       <c r="A597" s="14">
         <v>24113</v>
       </c>
@@ -18975,7 +18961,7 @@
       <c r="J597" s="18"/>
       <c r="K597" s="19"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11">
       <c r="A598" s="14">
         <v>24113</v>
       </c>
@@ -19000,7 +18986,7 @@
       <c r="J598" s="18"/>
       <c r="K598" s="19"/>
     </row>
-    <row r="599" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" ht="30">
       <c r="A599" s="14">
         <v>24113</v>
       </c>
@@ -19025,7 +19011,7 @@
       <c r="J599" s="18"/>
       <c r="K599" s="19"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11">
       <c r="A600" s="14">
         <v>24113</v>
       </c>
@@ -19050,7 +19036,7 @@
       <c r="J600" s="18"/>
       <c r="K600" s="19"/>
     </row>
-    <row r="601" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" ht="75">
       <c r="A601" s="14">
         <v>24113</v>
       </c>
@@ -19075,7 +19061,7 @@
       <c r="J601" s="18"/>
       <c r="K601" s="19"/>
     </row>
-    <row r="602" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" ht="60">
       <c r="A602" s="14">
         <v>24113</v>
       </c>
@@ -19100,7 +19086,7 @@
       <c r="J602" s="18"/>
       <c r="K602" s="19"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11">
       <c r="A603" s="20">
         <v>24196</v>
       </c>
@@ -19125,7 +19111,7 @@
       <c r="J603" s="25"/>
       <c r="K603" s="26"/>
     </row>
-    <row r="604" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" ht="75">
       <c r="A604" s="14">
         <v>24387</v>
       </c>
@@ -19152,7 +19138,7 @@
       <c r="J604" s="18"/>
       <c r="K604" s="19"/>
     </row>
-    <row r="605" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" ht="105">
       <c r="A605" s="14">
         <v>24387</v>
       </c>
@@ -19179,7 +19165,7 @@
       <c r="J605" s="18"/>
       <c r="K605" s="19"/>
     </row>
-    <row r="606" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" ht="75">
       <c r="A606" s="14">
         <v>24387</v>
       </c>
@@ -19206,7 +19192,7 @@
       <c r="J606" s="18"/>
       <c r="K606" s="19"/>
     </row>
-    <row r="607" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" ht="120">
       <c r="A607" s="14">
         <v>24387</v>
       </c>
@@ -19233,7 +19219,7 @@
       <c r="J607" s="18"/>
       <c r="K607" s="19"/>
     </row>
-    <row r="608" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" ht="45">
       <c r="A608" s="14">
         <v>24387</v>
       </c>
@@ -19260,7 +19246,7 @@
       <c r="J608" s="18"/>
       <c r="K608" s="19"/>
     </row>
-    <row r="609" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" ht="30">
       <c r="A609" s="14">
         <v>24387</v>
       </c>
@@ -19287,7 +19273,7 @@
       <c r="J609" s="18"/>
       <c r="K609" s="19"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11">
       <c r="A610" s="20">
         <v>24418</v>
       </c>
@@ -19310,7 +19296,7 @@
       <c r="J610" s="25"/>
       <c r="K610" s="26"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11">
       <c r="A611" s="20">
         <v>24418</v>
       </c>
@@ -19333,7 +19319,7 @@
       <c r="J611" s="25"/>
       <c r="K611" s="26"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11">
       <c r="A612" s="20">
         <v>24418</v>
       </c>
@@ -19358,7 +19344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" ht="45">
       <c r="A613" s="20">
         <v>24418</v>
       </c>
@@ -19383,7 +19369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" ht="75">
       <c r="A614" s="20">
         <v>24418</v>
       </c>
@@ -19406,7 +19392,7 @@
       <c r="J614" s="25"/>
       <c r="K614" s="26"/>
     </row>
-    <row r="615" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" ht="45">
       <c r="A615" s="20">
         <v>24418</v>
       </c>
@@ -19429,7 +19415,7 @@
       <c r="J615" s="25"/>
       <c r="K615" s="26"/>
     </row>
-    <row r="616" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" ht="30">
       <c r="A616" s="14">
         <v>24539</v>
       </c>
@@ -19454,7 +19440,7 @@
       <c r="J616" s="18"/>
       <c r="K616" s="19"/>
     </row>
-    <row r="617" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" ht="45">
       <c r="A617" s="14">
         <v>24539</v>
       </c>
@@ -19479,7 +19465,7 @@
       <c r="J617" s="18"/>
       <c r="K617" s="19"/>
     </row>
-    <row r="618" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" ht="30">
       <c r="A618" s="20">
         <v>24544</v>
       </c>
@@ -19502,7 +19488,7 @@
       <c r="J618" s="25"/>
       <c r="K618" s="26"/>
     </row>
-    <row r="619" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" ht="60">
       <c r="A619" s="20">
         <v>24544</v>
       </c>
@@ -19527,7 +19513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" ht="45">
       <c r="A620" s="20">
         <v>24544</v>
       </c>
@@ -19550,7 +19536,7 @@
       <c r="J620" s="25"/>
       <c r="K620" s="26"/>
     </row>
-    <row r="621" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" ht="30">
       <c r="A621" s="14">
         <v>24622</v>
       </c>
@@ -19575,7 +19561,7 @@
       <c r="J621" s="18"/>
       <c r="K621" s="19"/>
     </row>
-    <row r="622" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" ht="30">
       <c r="A622" s="14">
         <v>24622</v>
       </c>
@@ -19600,7 +19586,7 @@
       <c r="J622" s="18"/>
       <c r="K622" s="19"/>
     </row>
-    <row r="623" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" ht="45">
       <c r="A623" s="14">
         <v>24622</v>
       </c>
@@ -19625,7 +19611,7 @@
       <c r="J623" s="18"/>
       <c r="K623" s="19"/>
     </row>
-    <row r="624" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" ht="60">
       <c r="A624" s="14">
         <v>24622</v>
       </c>
@@ -19650,7 +19636,7 @@
       <c r="J624" s="18"/>
       <c r="K624" s="19"/>
     </row>
-    <row r="625" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" ht="30">
       <c r="A625" s="20">
         <v>24623</v>
       </c>
@@ -19675,7 +19661,7 @@
       <c r="J625" s="25"/>
       <c r="K625" s="26"/>
     </row>
-    <row r="626" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" ht="30">
       <c r="A626" s="20">
         <v>24623</v>
       </c>
@@ -19700,7 +19686,7 @@
       <c r="J626" s="25"/>
       <c r="K626" s="26"/>
     </row>
-    <row r="627" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" ht="30">
       <c r="A627" s="20">
         <v>24623</v>
       </c>
@@ -19725,7 +19711,7 @@
       <c r="J627" s="25"/>
       <c r="K627" s="26"/>
     </row>
-    <row r="628" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" ht="105">
       <c r="A628" s="20">
         <v>24623</v>
       </c>
@@ -19750,7 +19736,7 @@
       <c r="J628" s="25"/>
       <c r="K628" s="26"/>
     </row>
-    <row r="629" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" ht="60">
       <c r="A629" s="20">
         <v>24623</v>
       </c>
@@ -19775,7 +19761,7 @@
       <c r="J629" s="25"/>
       <c r="K629" s="26"/>
     </row>
-    <row r="630" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" ht="105">
       <c r="A630" s="14">
         <v>24630</v>
       </c>
@@ -19800,7 +19786,7 @@
       <c r="J630" s="18"/>
       <c r="K630" s="19"/>
     </row>
-    <row r="631" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" ht="75">
       <c r="A631" s="14">
         <v>24630</v>
       </c>
@@ -19825,7 +19811,7 @@
       <c r="J631" s="18"/>
       <c r="K631" s="19"/>
     </row>
-    <row r="632" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" ht="30">
       <c r="A632" s="20">
         <v>24667</v>
       </c>
@@ -19848,7 +19834,7 @@
       <c r="J632" s="25"/>
       <c r="K632" s="26"/>
     </row>
-    <row r="633" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" ht="30">
       <c r="A633" s="20">
         <v>24667</v>
       </c>
@@ -19871,7 +19857,7 @@
       <c r="J633" s="25"/>
       <c r="K633" s="26"/>
     </row>
-    <row r="634" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" ht="90">
       <c r="A634" s="20">
         <v>24667</v>
       </c>
@@ -19896,7 +19882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" ht="30">
       <c r="A635" s="20">
         <v>24667</v>
       </c>
@@ -19921,7 +19907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" ht="30">
       <c r="A636" s="20">
         <v>24667</v>
       </c>
@@ -19944,7 +19930,7 @@
       <c r="J636" s="25"/>
       <c r="K636" s="26"/>
     </row>
-    <row r="637" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" ht="60">
       <c r="A637" s="20">
         <v>24667</v>
       </c>
@@ -19967,7 +19953,7 @@
       <c r="J637" s="25"/>
       <c r="K637" s="26"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11">
       <c r="A638" s="14">
         <v>24755</v>
       </c>
@@ -19990,7 +19976,7 @@
       <c r="J638" s="18"/>
       <c r="K638" s="19"/>
     </row>
-    <row r="639" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" ht="45">
       <c r="A639" s="14">
         <v>24755</v>
       </c>
@@ -20015,7 +20001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" ht="90">
       <c r="A640" s="14">
         <v>24755</v>
       </c>
@@ -20038,7 +20024,7 @@
       <c r="J640" s="18"/>
       <c r="K640" s="19"/>
     </row>
-    <row r="641" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" ht="30">
       <c r="A641" s="20">
         <v>24763</v>
       </c>
@@ -20063,7 +20049,7 @@
       <c r="J641" s="25"/>
       <c r="K641" s="26"/>
     </row>
-    <row r="642" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" ht="30">
       <c r="A642" s="20">
         <v>24763</v>
       </c>
@@ -20088,7 +20074,7 @@
       <c r="J642" s="25"/>
       <c r="K642" s="26"/>
     </row>
-    <row r="643" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" ht="30">
       <c r="A643" s="20">
         <v>24763</v>
       </c>
@@ -20113,7 +20099,7 @@
       <c r="J643" s="25"/>
       <c r="K643" s="26"/>
     </row>
-    <row r="644" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" ht="60">
       <c r="A644" s="14">
         <v>24764</v>
       </c>
@@ -20140,7 +20126,7 @@
       <c r="J644" s="18"/>
       <c r="K644" s="19"/>
     </row>
-    <row r="645" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" ht="30">
       <c r="A645" s="14">
         <v>24764</v>
       </c>
@@ -20167,7 +20153,7 @@
       <c r="J645" s="18"/>
       <c r="K645" s="19"/>
     </row>
-    <row r="646" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" ht="45">
       <c r="A646" s="14">
         <v>24764</v>
       </c>
@@ -20194,7 +20180,7 @@
       <c r="J646" s="18"/>
       <c r="K646" s="19"/>
     </row>
-    <row r="647" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" ht="75">
       <c r="A647" s="20">
         <v>24778</v>
       </c>
@@ -20221,7 +20207,7 @@
       <c r="J647" s="25"/>
       <c r="K647" s="26"/>
     </row>
-    <row r="648" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" ht="60">
       <c r="A648" s="20">
         <v>24778</v>
       </c>
@@ -20248,7 +20234,7 @@
       <c r="J648" s="25"/>
       <c r="K648" s="26"/>
     </row>
-    <row r="649" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" ht="45">
       <c r="A649" s="20">
         <v>24778</v>
       </c>
@@ -20275,7 +20261,7 @@
       <c r="J649" s="25"/>
       <c r="K649" s="26"/>
     </row>
-    <row r="650" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" ht="30">
       <c r="A650" s="20">
         <v>24778</v>
       </c>
@@ -20302,7 +20288,7 @@
       <c r="J650" s="25"/>
       <c r="K650" s="26"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11">
       <c r="A651" s="20">
         <v>24778</v>
       </c>
@@ -20329,7 +20315,7 @@
       <c r="J651" s="25"/>
       <c r="K651" s="26"/>
     </row>
-    <row r="652" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" ht="60">
       <c r="A652" s="20">
         <v>24778</v>
       </c>
@@ -20356,7 +20342,7 @@
       <c r="J652" s="25"/>
       <c r="K652" s="26"/>
     </row>
-    <row r="653" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" ht="75">
       <c r="A653" s="14">
         <v>24779</v>
       </c>
@@ -20381,7 +20367,7 @@
       <c r="J653" s="18"/>
       <c r="K653" s="19"/>
     </row>
-    <row r="654" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" ht="30">
       <c r="A654" s="14">
         <v>24779</v>
       </c>
@@ -20406,7 +20392,7 @@
       <c r="J654" s="18"/>
       <c r="K654" s="19"/>
     </row>
-    <row r="655" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" ht="105">
       <c r="A655" s="14">
         <v>24779</v>
       </c>
@@ -20431,7 +20417,7 @@
       <c r="J655" s="18"/>
       <c r="K655" s="19"/>
     </row>
-    <row r="656" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" ht="105">
       <c r="A656" s="14">
         <v>24779</v>
       </c>
@@ -20456,7 +20442,7 @@
       <c r="J656" s="18"/>
       <c r="K656" s="19"/>
     </row>
-    <row r="657" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" ht="30">
       <c r="A657" s="14">
         <v>24779</v>
       </c>
@@ -20481,7 +20467,7 @@
       <c r="J657" s="18"/>
       <c r="K657" s="19"/>
     </row>
-    <row r="658" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" ht="45">
       <c r="A658" s="14">
         <v>24779</v>
       </c>
@@ -20506,7 +20492,7 @@
       <c r="J658" s="18"/>
       <c r="K658" s="19"/>
     </row>
-    <row r="659" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" ht="90">
       <c r="A659" s="14">
         <v>24779</v>
       </c>
@@ -20531,7 +20517,7 @@
       <c r="J659" s="18"/>
       <c r="K659" s="19"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11">
       <c r="A660" s="14">
         <v>24779</v>
       </c>
@@ -20556,7 +20542,7 @@
       <c r="J660" s="18"/>
       <c r="K660" s="19"/>
     </row>
-    <row r="661" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" ht="60">
       <c r="A661" s="14">
         <v>24779</v>
       </c>
@@ -20581,7 +20567,7 @@
       <c r="J661" s="18"/>
       <c r="K661" s="19"/>
     </row>
-    <row r="662" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" ht="75">
       <c r="A662" s="20">
         <v>24780</v>
       </c>
@@ -20606,7 +20592,7 @@
       <c r="J662" s="25"/>
       <c r="K662" s="26"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11">
       <c r="A663" s="20">
         <v>24780</v>
       </c>
@@ -20631,7 +20617,7 @@
       <c r="J663" s="25"/>
       <c r="K663" s="26"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11">
       <c r="A664" s="20">
         <v>24780</v>
       </c>
@@ -20656,7 +20642,7 @@
       <c r="J664" s="25"/>
       <c r="K664" s="26"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11">
       <c r="A665" s="20">
         <v>24780</v>
       </c>
@@ -20681,7 +20667,7 @@
       <c r="J665" s="25"/>
       <c r="K665" s="26"/>
     </row>
-    <row r="666" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" ht="60">
       <c r="A666" s="20">
         <v>24780</v>
       </c>
@@ -20706,7 +20692,7 @@
       <c r="J666" s="25"/>
       <c r="K666" s="26"/>
     </row>
-    <row r="667" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" ht="60">
       <c r="A667" s="20">
         <v>24780</v>
       </c>
@@ -20731,7 +20717,7 @@
       <c r="J667" s="25"/>
       <c r="K667" s="26"/>
     </row>
-    <row r="668" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" ht="45">
       <c r="A668" s="20">
         <v>24780</v>
       </c>
@@ -20756,7 +20742,7 @@
       <c r="J668" s="25"/>
       <c r="K668" s="26"/>
     </row>
-    <row r="669" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" ht="30">
       <c r="A669" s="14">
         <v>24781</v>
       </c>
@@ -20781,7 +20767,7 @@
       <c r="J669" s="18"/>
       <c r="K669" s="19"/>
     </row>
-    <row r="670" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" ht="75">
       <c r="A670" s="14">
         <v>24781</v>
       </c>
@@ -20806,7 +20792,7 @@
       <c r="J670" s="18"/>
       <c r="K670" s="19"/>
     </row>
-    <row r="671" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" ht="45">
       <c r="A671" s="14">
         <v>24781</v>
       </c>
@@ -20831,7 +20817,7 @@
       <c r="J671" s="18"/>
       <c r="K671" s="19"/>
     </row>
-    <row r="672" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" ht="30">
       <c r="A672" s="14">
         <v>24781</v>
       </c>
@@ -20856,7 +20842,7 @@
       <c r="J672" s="18"/>
       <c r="K672" s="19"/>
     </row>
-    <row r="673" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" ht="75">
       <c r="A673" s="14">
         <v>24781</v>
       </c>
@@ -20881,7 +20867,7 @@
       <c r="J673" s="18"/>
       <c r="K673" s="19"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11">
       <c r="A674" s="14">
         <v>24781</v>
       </c>
@@ -20906,7 +20892,7 @@
       <c r="J674" s="18"/>
       <c r="K674" s="19"/>
     </row>
-    <row r="675" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" ht="30">
       <c r="A675" s="14">
         <v>24781</v>
       </c>
@@ -20931,7 +20917,7 @@
       <c r="J675" s="18"/>
       <c r="K675" s="19"/>
     </row>
-    <row r="676" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" ht="30">
       <c r="A676" s="20">
         <v>24782</v>
       </c>
@@ -20958,7 +20944,7 @@
       <c r="J676" s="25"/>
       <c r="K676" s="26"/>
     </row>
-    <row r="677" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" ht="60">
       <c r="A677" s="20">
         <v>24782</v>
       </c>
@@ -20985,7 +20971,7 @@
       <c r="J677" s="25"/>
       <c r="K677" s="26"/>
     </row>
-    <row r="678" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" ht="45">
       <c r="A678" s="20">
         <v>24782</v>
       </c>
@@ -21012,7 +20998,7 @@
       <c r="J678" s="25"/>
       <c r="K678" s="26"/>
     </row>
-    <row r="679" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" ht="75">
       <c r="A679" s="20">
         <v>24782</v>
       </c>
@@ -21039,7 +21025,7 @@
       <c r="J679" s="25"/>
       <c r="K679" s="26"/>
     </row>
-    <row r="680" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" ht="45">
       <c r="A680" s="20">
         <v>24782</v>
       </c>
@@ -21066,7 +21052,7 @@
       <c r="J680" s="25"/>
       <c r="K680" s="26"/>
     </row>
-    <row r="681" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" ht="45">
       <c r="A681" s="20">
         <v>24782</v>
       </c>
@@ -21093,7 +21079,7 @@
       <c r="J681" s="25"/>
       <c r="K681" s="26"/>
     </row>
-    <row r="682" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" ht="30">
       <c r="A682" s="20">
         <v>24782</v>
       </c>
@@ -21120,7 +21106,7 @@
       <c r="J682" s="25"/>
       <c r="K682" s="26"/>
     </row>
-    <row r="683" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" ht="45">
       <c r="A683" s="20">
         <v>24782</v>
       </c>
@@ -21147,7 +21133,7 @@
       <c r="J683" s="25"/>
       <c r="K683" s="26"/>
     </row>
-    <row r="684" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" ht="30">
       <c r="A684" s="14">
         <v>24783</v>
       </c>
@@ -21174,7 +21160,7 @@
       <c r="J684" s="18"/>
       <c r="K684" s="19"/>
     </row>
-    <row r="685" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" ht="30">
       <c r="A685" s="14">
         <v>24783</v>
       </c>
@@ -21201,7 +21187,7 @@
       <c r="J685" s="18"/>
       <c r="K685" s="19"/>
     </row>
-    <row r="686" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" ht="90">
       <c r="A686" s="14">
         <v>24783</v>
       </c>
@@ -21228,7 +21214,7 @@
       <c r="J686" s="18"/>
       <c r="K686" s="19"/>
     </row>
-    <row r="687" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" ht="75">
       <c r="A687" s="14">
         <v>24783</v>
       </c>
@@ -21255,7 +21241,7 @@
       <c r="J687" s="18"/>
       <c r="K687" s="19"/>
     </row>
-    <row r="688" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" ht="60">
       <c r="A688" s="14">
         <v>24783</v>
       </c>
@@ -21282,7 +21268,7 @@
       <c r="J688" s="18"/>
       <c r="K688" s="19"/>
     </row>
-    <row r="689" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" ht="60">
       <c r="A689" s="14">
         <v>24783</v>
       </c>
@@ -21309,7 +21295,7 @@
       <c r="J689" s="18"/>
       <c r="K689" s="19"/>
     </row>
-    <row r="690" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" ht="30">
       <c r="A690" s="20">
         <v>24784</v>
       </c>
@@ -21332,7 +21318,7 @@
       <c r="J690" s="25"/>
       <c r="K690" s="26"/>
     </row>
-    <row r="691" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" ht="30">
       <c r="A691" s="20">
         <v>24784</v>
       </c>
@@ -21355,7 +21341,7 @@
       <c r="J691" s="25"/>
       <c r="K691" s="26"/>
     </row>
-    <row r="692" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" ht="30">
       <c r="A692" s="14">
         <v>24787</v>
       </c>
@@ -21380,7 +21366,7 @@
       <c r="J692" s="18"/>
       <c r="K692" s="19"/>
     </row>
-    <row r="693" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" ht="30">
       <c r="A693" s="14">
         <v>24787</v>
       </c>
@@ -21405,7 +21391,7 @@
       <c r="J693" s="18"/>
       <c r="K693" s="19"/>
     </row>
-    <row r="694" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" ht="45">
       <c r="A694" s="14">
         <v>24787</v>
       </c>
@@ -21430,7 +21416,7 @@
       <c r="J694" s="18"/>
       <c r="K694" s="19"/>
     </row>
-    <row r="695" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" ht="30">
       <c r="A695" s="20">
         <v>24788</v>
       </c>
@@ -21455,7 +21441,7 @@
       <c r="J695" s="25"/>
       <c r="K695" s="26"/>
     </row>
-    <row r="696" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" ht="30">
       <c r="A696" s="20">
         <v>24788</v>
       </c>
@@ -21480,7 +21466,7 @@
       <c r="J696" s="25"/>
       <c r="K696" s="26"/>
     </row>
-    <row r="697" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" ht="60">
       <c r="A697" s="20">
         <v>24788</v>
       </c>
@@ -21505,7 +21491,7 @@
       <c r="J697" s="25"/>
       <c r="K697" s="26"/>
     </row>
-    <row r="698" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" ht="75">
       <c r="A698" s="20">
         <v>24788</v>
       </c>
@@ -21530,7 +21516,7 @@
       <c r="J698" s="25"/>
       <c r="K698" s="26"/>
     </row>
-    <row r="699" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" ht="30">
       <c r="A699" s="20">
         <v>24788</v>
       </c>
@@ -21555,7 +21541,7 @@
       <c r="J699" s="25"/>
       <c r="K699" s="26"/>
     </row>
-    <row r="700" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" ht="30">
       <c r="A700" s="20">
         <v>24788</v>
       </c>
@@ -21580,7 +21566,7 @@
       <c r="J700" s="25"/>
       <c r="K700" s="26"/>
     </row>
-    <row r="701" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" ht="75">
       <c r="A701" s="20">
         <v>24788</v>
       </c>
@@ -21605,7 +21591,7 @@
       <c r="J701" s="25"/>
       <c r="K701" s="26"/>
     </row>
-    <row r="702" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" ht="30">
       <c r="A702" s="20">
         <v>24788</v>
       </c>
@@ -21630,7 +21616,7 @@
       <c r="J702" s="25"/>
       <c r="K702" s="26"/>
     </row>
-    <row r="703" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" ht="30">
       <c r="A703" s="14">
         <v>24789</v>
       </c>
@@ -21655,7 +21641,7 @@
       <c r="J703" s="18"/>
       <c r="K703" s="19"/>
     </row>
-    <row r="704" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" ht="45">
       <c r="A704" s="14">
         <v>24789</v>
       </c>
@@ -21680,7 +21666,7 @@
       <c r="J704" s="18"/>
       <c r="K704" s="19"/>
     </row>
-    <row r="705" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" ht="45">
       <c r="A705" s="14">
         <v>24789</v>
       </c>
@@ -21705,7 +21691,7 @@
       <c r="J705" s="18"/>
       <c r="K705" s="19"/>
     </row>
-    <row r="706" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" ht="30">
       <c r="A706" s="14">
         <v>24789</v>
       </c>
@@ -21730,7 +21716,7 @@
       <c r="J706" s="18"/>
       <c r="K706" s="19"/>
     </row>
-    <row r="707" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" ht="30">
       <c r="A707" s="14">
         <v>24789</v>
       </c>
@@ -21755,7 +21741,7 @@
       <c r="J707" s="18"/>
       <c r="K707" s="19"/>
     </row>
-    <row r="708" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" ht="45">
       <c r="A708" s="14">
         <v>24789</v>
       </c>
@@ -21780,7 +21766,7 @@
       <c r="J708" s="18"/>
       <c r="K708" s="19"/>
     </row>
-    <row r="709" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" ht="30">
       <c r="A709" s="20">
         <v>24793</v>
       </c>
@@ -21805,7 +21791,7 @@
       <c r="J709" s="25"/>
       <c r="K709" s="26"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11">
       <c r="A710" s="20">
         <v>24793</v>
       </c>
@@ -21830,7 +21816,7 @@
       <c r="J710" s="25"/>
       <c r="K710" s="26"/>
     </row>
-    <row r="711" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" ht="45">
       <c r="A711" s="20">
         <v>24793</v>
       </c>
@@ -21855,7 +21841,7 @@
       <c r="J711" s="25"/>
       <c r="K711" s="26"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11">
       <c r="A712" s="20">
         <v>24793</v>
       </c>
@@ -21880,7 +21866,7 @@
       <c r="J712" s="25"/>
       <c r="K712" s="26"/>
     </row>
-    <row r="713" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" ht="30">
       <c r="A713" s="14">
         <v>24794</v>
       </c>
@@ -21905,7 +21891,7 @@
       <c r="J713" s="18"/>
       <c r="K713" s="19"/>
     </row>
-    <row r="714" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" ht="30">
       <c r="A714" s="14">
         <v>24794</v>
       </c>
@@ -21930,7 +21916,7 @@
       <c r="J714" s="18"/>
       <c r="K714" s="19"/>
     </row>
-    <row r="715" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" ht="30">
       <c r="A715" s="14">
         <v>24794</v>
       </c>
@@ -21955,7 +21941,7 @@
       <c r="J715" s="18"/>
       <c r="K715" s="19"/>
     </row>
-    <row r="716" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" ht="75">
       <c r="A716" s="14">
         <v>24794</v>
       </c>
@@ -21980,7 +21966,7 @@
       <c r="J716" s="18"/>
       <c r="K716" s="19"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11">
       <c r="A717" s="14">
         <v>24794</v>
       </c>
@@ -22005,7 +21991,7 @@
       <c r="J717" s="18"/>
       <c r="K717" s="19"/>
     </row>
-    <row r="718" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" ht="30">
       <c r="A718" s="14">
         <v>24794</v>
       </c>
@@ -22030,7 +22016,7 @@
       <c r="J718" s="18"/>
       <c r="K718" s="19"/>
     </row>
-    <row r="719" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" ht="30">
       <c r="A719" s="20">
         <v>24795</v>
       </c>
@@ -22055,7 +22041,7 @@
       <c r="J719" s="25"/>
       <c r="K719" s="26"/>
     </row>
-    <row r="720" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" ht="30">
       <c r="A720" s="20">
         <v>24795</v>
       </c>
@@ -22080,7 +22066,7 @@
       <c r="J720" s="25"/>
       <c r="K720" s="26"/>
     </row>
-    <row r="721" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" ht="60">
       <c r="A721" s="20">
         <v>24795</v>
       </c>
@@ -22105,7 +22091,7 @@
       <c r="J721" s="25"/>
       <c r="K721" s="26"/>
     </row>
-    <row r="722" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" ht="60">
       <c r="A722" s="20">
         <v>24795</v>
       </c>
@@ -22130,7 +22116,7 @@
       <c r="J722" s="25"/>
       <c r="K722" s="26"/>
     </row>
-    <row r="723" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" ht="75">
       <c r="A723" s="20">
         <v>24795</v>
       </c>
@@ -22155,7 +22141,7 @@
       <c r="J723" s="25"/>
       <c r="K723" s="26"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11">
       <c r="A724" s="20">
         <v>24795</v>
       </c>
@@ -22180,7 +22166,7 @@
       <c r="J724" s="25"/>
       <c r="K724" s="26"/>
     </row>
-    <row r="725" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" ht="30">
       <c r="A725" s="20">
         <v>24795</v>
       </c>
@@ -22205,7 +22191,7 @@
       <c r="J725" s="25"/>
       <c r="K725" s="26"/>
     </row>
-    <row r="726" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" ht="30">
       <c r="A726" s="14">
         <v>24856</v>
       </c>
@@ -22228,7 +22214,7 @@
       <c r="J726" s="18"/>
       <c r="K726" s="19"/>
     </row>
-    <row r="727" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" ht="60">
       <c r="A727" s="14">
         <v>24856</v>
       </c>
@@ -22251,7 +22237,7 @@
       <c r="J727" s="18"/>
       <c r="K727" s="19"/>
     </row>
-    <row r="728" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" ht="45">
       <c r="A728" s="14">
         <v>24856</v>
       </c>
@@ -22274,7 +22260,7 @@
       <c r="J728" s="18"/>
       <c r="K728" s="19"/>
     </row>
-    <row r="729" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" ht="30">
       <c r="A729" s="20">
         <v>24987</v>
       </c>
@@ -22297,7 +22283,7 @@
       <c r="J729" s="25"/>
       <c r="K729" s="26"/>
     </row>
-    <row r="730" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" ht="30">
       <c r="A730" s="20">
         <v>24987</v>
       </c>
@@ -22320,7 +22306,7 @@
       <c r="J730" s="25"/>
       <c r="K730" s="26"/>
     </row>
-    <row r="731" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" ht="120">
       <c r="A731" s="20">
         <v>24987</v>
       </c>
@@ -22345,7 +22331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" ht="30">
       <c r="A732" s="20">
         <v>24987</v>
       </c>
@@ -22370,7 +22356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" ht="30">
       <c r="A733" s="20">
         <v>24987</v>
       </c>
@@ -22395,7 +22381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" ht="75">
       <c r="A734" s="20">
         <v>24987</v>
       </c>
@@ -22420,7 +22406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" ht="45">
       <c r="A735" s="20">
         <v>24987</v>
       </c>
@@ -22445,7 +22431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11">
       <c r="A736" s="20">
         <v>24987</v>
       </c>
@@ -22468,7 +22454,7 @@
       <c r="J736" s="25"/>
       <c r="K736" s="26"/>
     </row>
-    <row r="737" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" ht="60">
       <c r="A737" s="20">
         <v>24987</v>
       </c>
@@ -22491,7 +22477,7 @@
       <c r="J737" s="25"/>
       <c r="K737" s="26"/>
     </row>
-    <row r="738" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" ht="30">
       <c r="A738" s="20">
         <v>24987</v>
       </c>
@@ -22514,7 +22500,7 @@
       <c r="J738" s="25"/>
       <c r="K738" s="26"/>
     </row>
-    <row r="739" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11" ht="30">
       <c r="A739" s="14">
         <v>25253</v>
       </c>
@@ -22537,7 +22523,7 @@
       <c r="J739" s="18"/>
       <c r="K739" s="19"/>
     </row>
-    <row r="740" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:11" ht="75">
       <c r="A740" s="14">
         <v>25253</v>
       </c>
@@ -22560,7 +22546,7 @@
       <c r="J740" s="18"/>
       <c r="K740" s="19"/>
     </row>
-    <row r="741" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:11" ht="30">
       <c r="A741" s="14">
         <v>25253</v>
       </c>
@@ -22583,7 +22569,7 @@
       <c r="J741" s="18"/>
       <c r="K741" s="19"/>
     </row>
-    <row r="742" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:11" ht="30">
       <c r="A742" s="14">
         <v>25253</v>
       </c>
@@ -22606,7 +22592,7 @@
       <c r="J742" s="18"/>
       <c r="K742" s="19"/>
     </row>
-    <row r="743" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:11" ht="30">
       <c r="A743" s="14">
         <v>25253</v>
       </c>
@@ -22629,7 +22615,7 @@
       <c r="J743" s="18"/>
       <c r="K743" s="19"/>
     </row>
-    <row r="744" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:11" ht="60">
       <c r="A744" s="14">
         <v>25253</v>
       </c>
@@ -22652,7 +22638,7 @@
       <c r="J744" s="18"/>
       <c r="K744" s="19"/>
     </row>
-    <row r="745" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:11" ht="45">
       <c r="A745" s="14">
         <v>25253</v>
       </c>
@@ -22675,7 +22661,7 @@
       <c r="J745" s="18"/>
       <c r="K745" s="19"/>
     </row>
-    <row r="746" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:11" ht="30">
       <c r="A746" s="14">
         <v>25253</v>
       </c>
@@ -22698,7 +22684,7 @@
       <c r="J746" s="18"/>
       <c r="K746" s="19"/>
     </row>
-    <row r="747" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:11" ht="30">
       <c r="A747" s="14">
         <v>25253</v>
       </c>
@@ -22721,7 +22707,7 @@
       <c r="J747" s="18"/>
       <c r="K747" s="19"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:11">
       <c r="A748" s="20">
         <v>25451</v>
       </c>
@@ -22744,7 +22730,7 @@
       <c r="J748" s="25"/>
       <c r="K748" s="26"/>
     </row>
-    <row r="749" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:11" ht="45">
       <c r="A749" s="20">
         <v>25451</v>
       </c>
@@ -22767,7 +22753,7 @@
       <c r="J749" s="25"/>
       <c r="K749" s="26"/>
     </row>
-    <row r="750" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:11" ht="30">
       <c r="A750" s="20">
         <v>25451</v>
       </c>
@@ -22790,7 +22776,7 @@
       <c r="J750" s="25"/>
       <c r="K750" s="26"/>
     </row>
-    <row r="751" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:11" ht="105">
       <c r="A751" s="20">
         <v>25451</v>
       </c>
@@ -22817,7 +22803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:11" ht="90">
       <c r="A752" s="20">
         <v>25451</v>
       </c>
@@ -22844,7 +22830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:11" ht="45">
       <c r="A753" s="20">
         <v>25451</v>
       </c>
@@ -22867,7 +22853,7 @@
       <c r="J753" s="25"/>
       <c r="K753" s="26"/>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:11">
       <c r="A754" s="14">
         <v>25487</v>
       </c>
@@ -22890,7 +22876,7 @@
       <c r="J754" s="18"/>
       <c r="K754" s="19"/>
     </row>
-    <row r="755" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:11" ht="60">
       <c r="A755" s="14">
         <v>25487</v>
       </c>
@@ -22913,7 +22899,7 @@
       <c r="J755" s="18"/>
       <c r="K755" s="19"/>
     </row>
-    <row r="756" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:11" ht="45">
       <c r="A756" s="14">
         <v>25487</v>
       </c>
@@ -22940,7 +22926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:11" ht="45">
       <c r="A757" s="14">
         <v>25487</v>
       </c>
@@ -22967,7 +22953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:11">
       <c r="A758" s="14">
         <v>25487</v>
       </c>
@@ -22990,7 +22976,7 @@
       <c r="J758" s="18"/>
       <c r="K758" s="19"/>
     </row>
-    <row r="759" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:11" ht="45">
       <c r="A759" s="14">
         <v>25487</v>
       </c>
@@ -23013,7 +22999,7 @@
       <c r="J759" s="18"/>
       <c r="K759" s="19"/>
     </row>
-    <row r="760" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:11" ht="30">
       <c r="A760" s="20">
         <v>25661</v>
       </c>
@@ -23036,7 +23022,7 @@
       <c r="J760" s="25"/>
       <c r="K760" s="26"/>
     </row>
-    <row r="761" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:11" ht="30">
       <c r="A761" s="20">
         <v>25661</v>
       </c>
@@ -23063,7 +23049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:11" ht="30">
       <c r="A762" s="20">
         <v>25661</v>
       </c>
@@ -23090,7 +23076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="763" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:11" ht="30">
       <c r="A763" s="20">
         <v>25661</v>
       </c>
@@ -23117,7 +23103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="764" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:11" ht="30">
       <c r="A764" s="20">
         <v>25661</v>
       </c>
@@ -23142,7 +23128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:11" ht="90">
       <c r="A765" s="20">
         <v>25661</v>
       </c>
@@ -23171,7 +23157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="766" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:11" ht="45">
       <c r="A766" s="20">
         <v>25661</v>
       </c>
@@ -23194,7 +23180,7 @@
       <c r="J766" s="25"/>
       <c r="K766" s="26"/>
     </row>
-    <row r="767" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:11" ht="75">
       <c r="A767" s="14">
         <v>25751</v>
       </c>
@@ -23221,7 +23207,7 @@
       <c r="J767" s="18"/>
       <c r="K767" s="19"/>
     </row>
-    <row r="768" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:11" ht="60">
       <c r="A768" s="14">
         <v>25751</v>
       </c>
@@ -23246,7 +23232,7 @@
       <c r="J768" s="18"/>
       <c r="K768" s="19"/>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:11">
       <c r="A769" s="14">
         <v>25751</v>
       </c>
@@ -23273,7 +23259,7 @@
       <c r="J769" s="18"/>
       <c r="K769" s="19"/>
     </row>
-    <row r="770" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:11" ht="75">
       <c r="A770" s="20">
         <v>25752</v>
       </c>
@@ -23302,7 +23288,7 @@
       </c>
       <c r="K770" s="26"/>
     </row>
-    <row r="771" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:11" ht="60">
       <c r="A771" s="20">
         <v>25752</v>
       </c>
@@ -23333,7 +23319,7 @@
       </c>
       <c r="K771" s="26"/>
     </row>
-    <row r="772" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:11" ht="45">
       <c r="A772" s="20">
         <v>25752</v>
       </c>
@@ -23362,7 +23348,7 @@
       </c>
       <c r="K772" s="26"/>
     </row>
-    <row r="773" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:11" ht="60">
       <c r="A773" s="20">
         <v>25752</v>
       </c>
@@ -23391,7 +23377,7 @@
       </c>
       <c r="K773" s="26"/>
     </row>
-    <row r="774" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:11" ht="30">
       <c r="A774" s="20">
         <v>25752</v>
       </c>
@@ -23420,7 +23406,7 @@
       </c>
       <c r="K774" s="26"/>
     </row>
-    <row r="775" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:11" ht="30">
       <c r="A775" s="20">
         <v>25752</v>
       </c>
@@ -23451,7 +23437,7 @@
       </c>
       <c r="K775" s="26"/>
     </row>
-    <row r="776" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:11" ht="60">
       <c r="A776" s="14">
         <v>25801</v>
       </c>
@@ -23476,7 +23462,7 @@
       <c r="J776" s="18"/>
       <c r="K776" s="19"/>
     </row>
-    <row r="777" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:11" ht="75">
       <c r="A777" s="14">
         <v>25801</v>
       </c>
@@ -23501,7 +23487,7 @@
       <c r="J777" s="18"/>
       <c r="K777" s="19"/>
     </row>
-    <row r="778" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:11" ht="30">
       <c r="A778" s="14">
         <v>25801</v>
       </c>
@@ -23526,7 +23512,7 @@
       <c r="J778" s="18"/>
       <c r="K778" s="19"/>
     </row>
-    <row r="779" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:11" ht="45">
       <c r="A779" s="14">
         <v>25801</v>
       </c>
@@ -23551,7 +23537,7 @@
       <c r="J779" s="18"/>
       <c r="K779" s="19"/>
     </row>
-    <row r="780" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:11" ht="45">
       <c r="A780" s="20">
         <v>25802</v>
       </c>
@@ -23576,7 +23562,7 @@
       <c r="J780" s="25"/>
       <c r="K780" s="26"/>
     </row>
-    <row r="781" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:11" ht="75">
       <c r="A781" s="20">
         <v>25802</v>
       </c>
@@ -23601,7 +23587,7 @@
       <c r="J781" s="25"/>
       <c r="K781" s="26"/>
     </row>
-    <row r="782" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:11" ht="120">
       <c r="A782" s="20">
         <v>25802</v>
       </c>
@@ -23626,7 +23612,7 @@
       <c r="J782" s="25"/>
       <c r="K782" s="26"/>
     </row>
-    <row r="783" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:11" ht="60">
       <c r="A783" s="20">
         <v>25802</v>
       </c>
@@ -23651,7 +23637,7 @@
       <c r="J783" s="25"/>
       <c r="K783" s="26"/>
     </row>
-    <row r="784" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:11" ht="90">
       <c r="A784" s="20">
         <v>25802</v>
       </c>
@@ -23676,7 +23662,7 @@
       <c r="J784" s="25"/>
       <c r="K784" s="26"/>
     </row>
-    <row r="785" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:11" ht="30">
       <c r="A785" s="14">
         <v>25806</v>
       </c>
@@ -23701,7 +23687,7 @@
       <c r="J785" s="18"/>
       <c r="K785" s="19"/>
     </row>
-    <row r="786" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:11" ht="30">
       <c r="A786" s="14">
         <v>25806</v>
       </c>
@@ -23726,7 +23712,7 @@
       <c r="J786" s="18"/>
       <c r="K786" s="19"/>
     </row>
-    <row r="787" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:11" ht="105">
       <c r="A787" s="14">
         <v>25806</v>
       </c>
@@ -23751,7 +23737,7 @@
       <c r="J787" s="18"/>
       <c r="K787" s="19"/>
     </row>
-    <row r="788" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:11" ht="90">
       <c r="A788" s="14">
         <v>25806</v>
       </c>
@@ -23776,7 +23762,7 @@
       <c r="J788" s="18"/>
       <c r="K788" s="19"/>
     </row>
-    <row r="789" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:11" ht="30">
       <c r="A789" s="14">
         <v>25806</v>
       </c>
@@ -23801,7 +23787,7 @@
       <c r="J789" s="18"/>
       <c r="K789" s="19"/>
     </row>
-    <row r="790" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:11" ht="30">
       <c r="A790" s="14">
         <v>25806</v>
       </c>
@@ -23826,7 +23812,7 @@
       <c r="J790" s="18"/>
       <c r="K790" s="19"/>
     </row>
-    <row r="791" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:11" ht="30">
       <c r="A791" s="20">
         <v>25843</v>
       </c>
@@ -23853,7 +23839,7 @@
       </c>
       <c r="K791" s="26"/>
     </row>
-    <row r="792" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:11" ht="30">
       <c r="A792" s="20">
         <v>25843</v>
       </c>
@@ -23880,7 +23866,7 @@
       </c>
       <c r="K792" s="26"/>
     </row>
-    <row r="793" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:11" ht="60">
       <c r="A793" s="20">
         <v>25843</v>
       </c>
@@ -23907,7 +23893,7 @@
       </c>
       <c r="K793" s="26"/>
     </row>
-    <row r="794" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:11" ht="60">
       <c r="A794" s="20">
         <v>25843</v>
       </c>
@@ -23934,7 +23920,7 @@
       </c>
       <c r="K794" s="26"/>
     </row>
-    <row r="795" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:11" ht="45">
       <c r="A795" s="20">
         <v>25843</v>
       </c>
@@ -23961,7 +23947,7 @@
       </c>
       <c r="K795" s="26"/>
     </row>
-    <row r="796" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:11" ht="45">
       <c r="A796" s="14">
         <v>26069</v>
       </c>
@@ -23988,7 +23974,7 @@
       </c>
       <c r="K796" s="19"/>
     </row>
-    <row r="797" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:11" ht="45">
       <c r="A797" s="14">
         <v>26069</v>
       </c>
@@ -24015,7 +24001,7 @@
       </c>
       <c r="K797" s="19"/>
     </row>
-    <row r="798" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:11" ht="60">
       <c r="A798" s="14">
         <v>26069</v>
       </c>
@@ -24042,7 +24028,7 @@
       </c>
       <c r="K798" s="19"/>
     </row>
-    <row r="799" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:11" ht="45">
       <c r="A799" s="14">
         <v>26069</v>
       </c>
@@ -24069,7 +24055,7 @@
       </c>
       <c r="K799" s="19"/>
     </row>
-    <row r="800" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:11" ht="30">
       <c r="A800" s="20">
         <v>26071</v>
       </c>
@@ -24092,7 +24078,7 @@
       <c r="J800" s="25"/>
       <c r="K800" s="26"/>
     </row>
-    <row r="801" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:11" ht="30">
       <c r="A801" s="20">
         <v>26071</v>
       </c>
@@ -24115,7 +24101,7 @@
       <c r="J801" s="25"/>
       <c r="K801" s="26"/>
     </row>
-    <row r="802" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:11" ht="30">
       <c r="A802" s="20">
         <v>26071</v>
       </c>
@@ -24138,7 +24124,7 @@
       <c r="J802" s="25"/>
       <c r="K802" s="26"/>
     </row>
-    <row r="803" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:11" ht="30">
       <c r="A803" s="20">
         <v>26071</v>
       </c>
@@ -24161,7 +24147,7 @@
       <c r="J803" s="25"/>
       <c r="K803" s="26"/>
     </row>
-    <row r="804" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:11" ht="30">
       <c r="A804" s="20">
         <v>26071</v>
       </c>
@@ -24184,7 +24170,7 @@
       <c r="J804" s="25"/>
       <c r="K804" s="26"/>
     </row>
-    <row r="805" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:11" ht="60">
       <c r="A805" s="14">
         <v>26076</v>
       </c>
@@ -24209,7 +24195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:11">
       <c r="A806" s="14">
         <v>26076</v>
       </c>
@@ -24234,7 +24220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:11">
       <c r="A807" s="14">
         <v>26076</v>
       </c>
@@ -24259,7 +24245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:11">
       <c r="A808" s="14">
         <v>26076</v>
       </c>
@@ -24284,7 +24270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="809" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:11" ht="45">
       <c r="A809" s="14">
         <v>26076</v>
       </c>
@@ -24309,7 +24295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="810" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:11" ht="75">
       <c r="A810" s="20">
         <v>26095</v>
       </c>
@@ -24334,7 +24320,7 @@
       <c r="J810" s="25"/>
       <c r="K810" s="26"/>
     </row>
-    <row r="811" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:11" ht="45">
       <c r="A811" s="14">
         <v>26179</v>
       </c>
@@ -24359,7 +24345,7 @@
       <c r="J811" s="18"/>
       <c r="K811" s="19"/>
     </row>
-    <row r="812" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:11" ht="30">
       <c r="A812" s="14">
         <v>26179</v>
       </c>
@@ -24384,7 +24370,7 @@
       <c r="J812" s="18"/>
       <c r="K812" s="19"/>
     </row>
-    <row r="813" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:11" ht="30">
       <c r="A813" s="14">
         <v>26179</v>
       </c>
@@ -24409,7 +24395,7 @@
       <c r="J813" s="18"/>
       <c r="K813" s="19"/>
     </row>
-    <row r="814" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:11" ht="30">
       <c r="A814" s="14">
         <v>26179</v>
       </c>
@@ -24434,7 +24420,7 @@
       <c r="J814" s="18"/>
       <c r="K814" s="19"/>
     </row>
-    <row r="815" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:11" ht="30">
       <c r="A815" s="14">
         <v>26179</v>
       </c>
@@ -24459,7 +24445,7 @@
       <c r="J815" s="18"/>
       <c r="K815" s="19"/>
     </row>
-    <row r="816" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:11" ht="30">
       <c r="A816" s="14">
         <v>26179</v>
       </c>
@@ -24484,7 +24470,7 @@
       <c r="J816" s="18"/>
       <c r="K816" s="19"/>
     </row>
-    <row r="817" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:11" ht="45">
       <c r="A817" s="20">
         <v>26180</v>
       </c>
@@ -24509,7 +24495,7 @@
       <c r="J817" s="25"/>
       <c r="K817" s="26"/>
     </row>
-    <row r="818" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:11" ht="30">
       <c r="A818" s="20">
         <v>26180</v>
       </c>
@@ -24534,7 +24520,7 @@
       <c r="J818" s="25"/>
       <c r="K818" s="26"/>
     </row>
-    <row r="819" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:11">
       <c r="A819" s="20">
         <v>26180</v>
       </c>
@@ -24559,7 +24545,7 @@
       <c r="J819" s="25"/>
       <c r="K819" s="26"/>
     </row>
-    <row r="820" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:11">
       <c r="A820" s="20">
         <v>26180</v>
       </c>
@@ -24584,7 +24570,7 @@
       <c r="J820" s="25"/>
       <c r="K820" s="26"/>
     </row>
-    <row r="821" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:11" ht="30">
       <c r="A821" s="20">
         <v>26180</v>
       </c>
@@ -24609,7 +24595,7 @@
       <c r="J821" s="25"/>
       <c r="K821" s="26"/>
     </row>
-    <row r="822" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:11" ht="45">
       <c r="A822" s="20">
         <v>26180</v>
       </c>
@@ -24634,7 +24620,7 @@
       <c r="J822" s="25"/>
       <c r="K822" s="26"/>
     </row>
-    <row r="823" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:11" ht="60">
       <c r="A823" s="20">
         <v>26180</v>
       </c>
@@ -24659,7 +24645,7 @@
       <c r="J823" s="25"/>
       <c r="K823" s="26"/>
     </row>
-    <row r="824" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:11" ht="30">
       <c r="A824" s="20">
         <v>26180</v>
       </c>
@@ -24684,7 +24670,7 @@
       <c r="J824" s="25"/>
       <c r="K824" s="26"/>
     </row>
-    <row r="825" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:11" ht="30">
       <c r="A825" s="20">
         <v>26180</v>
       </c>
@@ -24709,7 +24695,7 @@
       <c r="J825" s="25"/>
       <c r="K825" s="26"/>
     </row>
-    <row r="826" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:11" ht="30">
       <c r="A826" s="20">
         <v>26180</v>
       </c>
@@ -24734,7 +24720,7 @@
       <c r="J826" s="25"/>
       <c r="K826" s="26"/>
     </row>
-    <row r="827" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:11" ht="30">
       <c r="A827" s="20">
         <v>26180</v>
       </c>
@@ -24759,7 +24745,7 @@
       <c r="J827" s="25"/>
       <c r="K827" s="26"/>
     </row>
-    <row r="828" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:11" ht="90">
       <c r="A828" s="14">
         <v>26230</v>
       </c>
@@ -24784,7 +24770,7 @@
       <c r="J828" s="18"/>
       <c r="K828" s="19"/>
     </row>
-    <row r="829" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:11" ht="75">
       <c r="A829" s="20">
         <v>26329</v>
       </c>
@@ -24809,7 +24795,7 @@
       <c r="J829" s="25"/>
       <c r="K829" s="26"/>
     </row>
-    <row r="830" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:11" ht="30">
       <c r="A830" s="27">
         <v>26330</v>
       </c>
@@ -24836,9 +24822,9 @@
   <conditionalFormatting sqref="H13">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -24854,24 +24840,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
+++ b/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
@@ -2816,7 +2816,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2827,6 +2827,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2954,7 +2960,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3039,6 +3045,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3806,8 +3815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K830"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="N73" sqref="N73"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="L73" sqref="L73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5597,7 +5606,7 @@
       <c r="E72" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="17">
+      <c r="F72" s="35">
         <v>1</v>
       </c>
       <c r="G72" s="18"/>
@@ -5628,7 +5637,7 @@
       <c r="E73" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F73" s="17">
+      <c r="F73" s="35">
         <v>1</v>
       </c>
       <c r="G73" s="18"/>
@@ -5659,7 +5668,7 @@
       <c r="E74" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F74" s="17">
+      <c r="F74" s="35">
         <v>1</v>
       </c>
       <c r="G74" s="18"/>
@@ -5690,7 +5699,7 @@
       <c r="E75" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F75" s="17">
+      <c r="F75" s="35">
         <v>1</v>
       </c>
       <c r="G75" s="18"/>
@@ -5721,7 +5730,7 @@
       <c r="E76" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F76" s="17">
+      <c r="F76" s="35">
         <v>1</v>
       </c>
       <c r="G76" s="18"/>
@@ -5752,7 +5761,7 @@
       <c r="E77" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F77" s="17">
+      <c r="F77" s="35">
         <v>1</v>
       </c>
       <c r="G77" s="18"/>
@@ -5783,7 +5792,7 @@
       <c r="E78" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F78" s="17">
+      <c r="F78" s="35">
         <v>1</v>
       </c>
       <c r="G78" s="18"/>
@@ -5814,7 +5823,7 @@
       <c r="E79" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F79" s="17">
+      <c r="F79" s="35">
         <v>1</v>
       </c>
       <c r="G79" s="18"/>
@@ -5845,7 +5854,7 @@
       <c r="E80" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F80" s="17">
+      <c r="F80" s="35">
         <v>1</v>
       </c>
       <c r="G80" s="18"/>

--- a/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
+++ b/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="135" windowWidth="22995" windowHeight="11055"/>
@@ -2799,8 +2799,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3056,7 +3056,7 @@
   </cellStyles>
   <dxfs count="26">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3068,7 +3068,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3089,7 +3089,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3103,7 +3103,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3126,7 +3126,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3140,7 +3140,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3163,7 +3163,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3177,7 +3177,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3200,7 +3200,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3214,7 +3214,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3237,7 +3237,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3251,7 +3251,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3274,7 +3274,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3287,7 +3287,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3310,7 +3310,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3323,7 +3323,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3346,7 +3346,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3359,7 +3359,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3603,6 +3603,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3637,6 +3638,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3812,14 +3814,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K830"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="L73" sqref="L73"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="F148" sqref="F148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="2" customWidth="1"/>
@@ -3831,7 +3833,7 @@
     <col min="11" max="11" width="10.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3866,7 +3868,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>5359</v>
       </c>
@@ -3895,7 +3897,7 @@
       <c r="J2" s="18"/>
       <c r="K2" s="19"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>5359</v>
       </c>
@@ -3920,7 +3922,7 @@
       <c r="J3" s="18"/>
       <c r="K3" s="19"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>5359</v>
       </c>
@@ -3949,7 +3951,7 @@
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>5359</v>
       </c>
@@ -3974,7 +3976,7 @@
       <c r="J5" s="18"/>
       <c r="K5" s="19"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5359</v>
       </c>
@@ -3999,7 +4001,7 @@
       <c r="J6" s="18"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>5359</v>
       </c>
@@ -4024,7 +4026,7 @@
       <c r="J7" s="18"/>
       <c r="K7" s="19"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>5359</v>
       </c>
@@ -4049,7 +4051,7 @@
       <c r="J8" s="18"/>
       <c r="K8" s="19"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>5359</v>
       </c>
@@ -4074,7 +4076,7 @@
       <c r="J9" s="18"/>
       <c r="K9" s="19"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>5359</v>
       </c>
@@ -4099,7 +4101,7 @@
       <c r="J10" s="18"/>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="1:11" ht="60">
+    <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>5359</v>
       </c>
@@ -4124,7 +4126,7 @@
       <c r="J11" s="18"/>
       <c r="K11" s="19"/>
     </row>
-    <row r="12" spans="1:11" ht="30">
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>5359</v>
       </c>
@@ -4147,7 +4149,7 @@
       <c r="J12" s="18"/>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>5359</v>
       </c>
@@ -4172,7 +4174,7 @@
       <c r="J13" s="18"/>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>5359</v>
       </c>
@@ -4197,7 +4199,7 @@
       <c r="J14" s="18"/>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>5359</v>
       </c>
@@ -4222,7 +4224,7 @@
       <c r="J15" s="18"/>
       <c r="K15" s="19"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>5359</v>
       </c>
@@ -4247,7 +4249,7 @@
       <c r="J16" s="18"/>
       <c r="K16" s="19"/>
     </row>
-    <row r="17" spans="1:11" ht="45">
+    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>5359</v>
       </c>
@@ -4272,7 +4274,7 @@
       <c r="J17" s="18"/>
       <c r="K17" s="19"/>
     </row>
-    <row r="18" spans="1:11" ht="30">
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>5359</v>
       </c>
@@ -4297,7 +4299,7 @@
       <c r="J18" s="18"/>
       <c r="K18" s="19"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>5359</v>
       </c>
@@ -4322,7 +4324,7 @@
       <c r="J19" s="18"/>
       <c r="K19" s="19"/>
     </row>
-    <row r="20" spans="1:11" ht="45">
+    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>5359</v>
       </c>
@@ -4345,7 +4347,7 @@
       <c r="J20" s="18"/>
       <c r="K20" s="19"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>5359</v>
       </c>
@@ -4368,7 +4370,7 @@
       <c r="J21" s="18"/>
       <c r="K21" s="19"/>
     </row>
-    <row r="22" spans="1:11" ht="30">
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>5359</v>
       </c>
@@ -4393,7 +4395,7 @@
       <c r="J22" s="18"/>
       <c r="K22" s="19"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>5359</v>
       </c>
@@ -4418,7 +4420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="45">
+    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>5359</v>
       </c>
@@ -4445,7 +4447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="60">
+    <row r="25" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>5359</v>
       </c>
@@ -4472,7 +4474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>5359</v>
       </c>
@@ -4499,7 +4501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="30">
+    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>5359</v>
       </c>
@@ -4526,7 +4528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>5359</v>
       </c>
@@ -4549,7 +4551,7 @@
       <c r="J28" s="18"/>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>5359</v>
       </c>
@@ -4578,7 +4580,7 @@
       <c r="J29" s="18"/>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>5359</v>
       </c>
@@ -4601,7 +4603,7 @@
       <c r="J30" s="18"/>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>5359</v>
       </c>
@@ -4624,7 +4626,7 @@
       <c r="J31" s="18"/>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="1:11" ht="45">
+    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>5359</v>
       </c>
@@ -4647,7 +4649,7 @@
       <c r="J32" s="18"/>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>5359</v>
       </c>
@@ -4670,7 +4672,7 @@
       <c r="J33" s="18"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>5359</v>
       </c>
@@ -4693,7 +4695,7 @@
       <c r="J34" s="18"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>5359</v>
       </c>
@@ -4720,7 +4722,7 @@
       <c r="J35" s="18"/>
       <c r="K35" s="19"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>5359</v>
       </c>
@@ -4743,7 +4745,7 @@
       <c r="J36" s="18"/>
       <c r="K36" s="19"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>5359</v>
       </c>
@@ -4766,7 +4768,7 @@
       <c r="J37" s="18"/>
       <c r="K37" s="19"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>5359</v>
       </c>
@@ -4789,7 +4791,7 @@
       <c r="J38" s="18"/>
       <c r="K38" s="19"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>5359</v>
       </c>
@@ -4812,7 +4814,7 @@
       <c r="J39" s="18"/>
       <c r="K39" s="19"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>5359</v>
       </c>
@@ -4835,7 +4837,7 @@
       <c r="J40" s="18"/>
       <c r="K40" s="19"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>5359</v>
       </c>
@@ -4858,7 +4860,7 @@
       <c r="J41" s="18"/>
       <c r="K41" s="19"/>
     </row>
-    <row r="42" spans="1:11" ht="30">
+    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>5359</v>
       </c>
@@ -4885,7 +4887,7 @@
       <c r="J42" s="18"/>
       <c r="K42" s="19"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>5359</v>
       </c>
@@ -4908,7 +4910,7 @@
       <c r="J43" s="18"/>
       <c r="K43" s="19"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>5359</v>
       </c>
@@ -4931,7 +4933,7 @@
       <c r="J44" s="18"/>
       <c r="K44" s="19"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>5359</v>
       </c>
@@ -4954,7 +4956,7 @@
       <c r="J45" s="18"/>
       <c r="K45" s="19"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>5359</v>
       </c>
@@ -4981,7 +4983,7 @@
       <c r="J46" s="18"/>
       <c r="K46" s="19"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>5359</v>
       </c>
@@ -5004,7 +5006,7 @@
       <c r="J47" s="18"/>
       <c r="K47" s="19"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>5359</v>
       </c>
@@ -5027,7 +5029,7 @@
       <c r="J48" s="18"/>
       <c r="K48" s="19"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>5359</v>
       </c>
@@ -5052,7 +5054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>5359</v>
       </c>
@@ -5075,7 +5077,7 @@
       <c r="J50" s="18"/>
       <c r="K50" s="19"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>5359</v>
       </c>
@@ -5098,7 +5100,7 @@
       <c r="J51" s="18"/>
       <c r="K51" s="19"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>5359</v>
       </c>
@@ -5121,7 +5123,7 @@
       <c r="J52" s="18"/>
       <c r="K52" s="19"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>5359</v>
       </c>
@@ -5144,7 +5146,7 @@
       <c r="J53" s="18"/>
       <c r="K53" s="19"/>
     </row>
-    <row r="54" spans="1:11" ht="30">
+    <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="20">
         <v>5435</v>
       </c>
@@ -5169,7 +5171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="20">
         <v>5435</v>
       </c>
@@ -5194,7 +5196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="45">
+    <row r="56" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="20">
         <v>5435</v>
       </c>
@@ -5219,7 +5221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="20">
         <v>5435</v>
       </c>
@@ -5244,7 +5246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="20">
         <v>5435</v>
       </c>
@@ -5269,7 +5271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="20">
         <v>5435</v>
       </c>
@@ -5294,7 +5296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="60">
+    <row r="60" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
         <v>18189</v>
       </c>
@@ -5321,7 +5323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="60">
+    <row r="61" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="20">
         <v>18637</v>
       </c>
@@ -5348,7 +5350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="60">
+    <row r="62" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
         <v>20431</v>
       </c>
@@ -5373,7 +5375,7 @@
       <c r="J62" s="18"/>
       <c r="K62" s="19"/>
     </row>
-    <row r="63" spans="1:11" ht="30">
+    <row r="63" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
         <v>20431</v>
       </c>
@@ -5398,7 +5400,7 @@
       <c r="J63" s="18"/>
       <c r="K63" s="19"/>
     </row>
-    <row r="64" spans="1:11" ht="105">
+    <row r="64" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
         <v>20431</v>
       </c>
@@ -5423,7 +5425,7 @@
       <c r="J64" s="18"/>
       <c r="K64" s="19"/>
     </row>
-    <row r="65" spans="1:11" ht="60">
+    <row r="65" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>20431</v>
       </c>
@@ -5448,7 +5450,7 @@
       <c r="J65" s="18"/>
       <c r="K65" s="19"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="14">
         <v>20431</v>
       </c>
@@ -5473,7 +5475,7 @@
       <c r="J66" s="18"/>
       <c r="K66" s="19"/>
     </row>
-    <row r="67" spans="1:11" ht="30">
+    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>20431</v>
       </c>
@@ -5498,7 +5500,7 @@
       <c r="J67" s="18"/>
       <c r="K67" s="19"/>
     </row>
-    <row r="68" spans="1:11" ht="30">
+    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="20">
         <v>20523</v>
       </c>
@@ -5521,7 +5523,7 @@
       <c r="J68" s="25"/>
       <c r="K68" s="26"/>
     </row>
-    <row r="69" spans="1:11" ht="30">
+    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="20">
         <v>20523</v>
       </c>
@@ -5544,7 +5546,7 @@
       <c r="J69" s="25"/>
       <c r="K69" s="26"/>
     </row>
-    <row r="70" spans="1:11" ht="30">
+    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="20">
         <v>20523</v>
       </c>
@@ -5567,7 +5569,7 @@
       <c r="J70" s="25"/>
       <c r="K70" s="26"/>
     </row>
-    <row r="71" spans="1:11" ht="30">
+    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
         <v>20523</v>
       </c>
@@ -5590,7 +5592,7 @@
       <c r="J71" s="25"/>
       <c r="K71" s="26"/>
     </row>
-    <row r="72" spans="1:11" ht="30">
+    <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="14">
         <v>20541</v>
       </c>
@@ -5621,7 +5623,7 @@
       </c>
       <c r="K72" s="19"/>
     </row>
-    <row r="73" spans="1:11" ht="105">
+    <row r="73" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A73" s="14">
         <v>20541</v>
       </c>
@@ -5652,7 +5654,7 @@
       </c>
       <c r="K73" s="19"/>
     </row>
-    <row r="74" spans="1:11" ht="45">
+    <row r="74" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
         <v>20541</v>
       </c>
@@ -5683,7 +5685,7 @@
       </c>
       <c r="K74" s="19"/>
     </row>
-    <row r="75" spans="1:11" ht="60">
+    <row r="75" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="14">
         <v>20541</v>
       </c>
@@ -5714,7 +5716,7 @@
       </c>
       <c r="K75" s="19"/>
     </row>
-    <row r="76" spans="1:11" ht="30">
+    <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="14">
         <v>20541</v>
       </c>
@@ -5745,7 +5747,7 @@
       </c>
       <c r="K76" s="19"/>
     </row>
-    <row r="77" spans="1:11" ht="90">
+    <row r="77" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
         <v>20541</v>
       </c>
@@ -5776,7 +5778,7 @@
       </c>
       <c r="K77" s="19"/>
     </row>
-    <row r="78" spans="1:11" ht="75">
+    <row r="78" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A78" s="14">
         <v>20541</v>
       </c>
@@ -5807,7 +5809,7 @@
       </c>
       <c r="K78" s="19"/>
     </row>
-    <row r="79" spans="1:11" ht="30">
+    <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="14">
         <v>20541</v>
       </c>
@@ -5838,7 +5840,7 @@
       </c>
       <c r="K79" s="19"/>
     </row>
-    <row r="80" spans="1:11" ht="105">
+    <row r="80" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A80" s="14">
         <v>20541</v>
       </c>
@@ -5869,7 +5871,7 @@
       </c>
       <c r="K80" s="19"/>
     </row>
-    <row r="81" spans="1:11" ht="60">
+    <row r="81" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="20">
         <v>20579</v>
       </c>
@@ -5896,7 +5898,7 @@
       <c r="J81" s="25"/>
       <c r="K81" s="26"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="14">
         <v>20588</v>
       </c>
@@ -5919,7 +5921,7 @@
       <c r="J82" s="18"/>
       <c r="K82" s="19"/>
     </row>
-    <row r="83" spans="1:11" ht="30">
+    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="14">
         <v>20588</v>
       </c>
@@ -5942,7 +5944,7 @@
       <c r="J83" s="18"/>
       <c r="K83" s="19"/>
     </row>
-    <row r="84" spans="1:11" ht="30">
+    <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="14">
         <v>20588</v>
       </c>
@@ -5965,7 +5967,7 @@
       <c r="J84" s="18"/>
       <c r="K84" s="19"/>
     </row>
-    <row r="85" spans="1:11" ht="60">
+    <row r="85" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="20">
         <v>20593</v>
       </c>
@@ -5990,7 +5992,7 @@
       <c r="J85" s="25"/>
       <c r="K85" s="26"/>
     </row>
-    <row r="86" spans="1:11" ht="105">
+    <row r="86" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A86" s="20">
         <v>20593</v>
       </c>
@@ -6015,7 +6017,7 @@
       <c r="J86" s="25"/>
       <c r="K86" s="26"/>
     </row>
-    <row r="87" spans="1:11" ht="60">
+    <row r="87" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" s="20">
         <v>20593</v>
       </c>
@@ -6040,7 +6042,7 @@
       <c r="J87" s="25"/>
       <c r="K87" s="26"/>
     </row>
-    <row r="88" spans="1:11" ht="75">
+    <row r="88" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A88" s="14">
         <v>20616</v>
       </c>
@@ -6065,7 +6067,7 @@
       <c r="J88" s="18"/>
       <c r="K88" s="19"/>
     </row>
-    <row r="89" spans="1:11" ht="60">
+    <row r="89" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="14">
         <v>20616</v>
       </c>
@@ -6090,7 +6092,7 @@
       <c r="J89" s="18"/>
       <c r="K89" s="19"/>
     </row>
-    <row r="90" spans="1:11" ht="45">
+    <row r="90" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="14">
         <v>20616</v>
       </c>
@@ -6115,7 +6117,7 @@
       <c r="J90" s="18"/>
       <c r="K90" s="19"/>
     </row>
-    <row r="91" spans="1:11" ht="45">
+    <row r="91" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="14">
         <v>20616</v>
       </c>
@@ -6140,7 +6142,7 @@
       <c r="J91" s="18"/>
       <c r="K91" s="19"/>
     </row>
-    <row r="92" spans="1:11" ht="75">
+    <row r="92" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A92" s="14">
         <v>20616</v>
       </c>
@@ -6165,7 +6167,7 @@
       <c r="J92" s="18"/>
       <c r="K92" s="19"/>
     </row>
-    <row r="93" spans="1:11" ht="45">
+    <row r="93" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="14">
         <v>20616</v>
       </c>
@@ -6190,7 +6192,7 @@
       <c r="J93" s="18"/>
       <c r="K93" s="19"/>
     </row>
-    <row r="94" spans="1:11" ht="75">
+    <row r="94" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A94" s="14">
         <v>20616</v>
       </c>
@@ -6215,7 +6217,7 @@
       <c r="J94" s="18"/>
       <c r="K94" s="19"/>
     </row>
-    <row r="95" spans="1:11" ht="30">
+    <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="14">
         <v>20616</v>
       </c>
@@ -6240,7 +6242,7 @@
       <c r="J95" s="18"/>
       <c r="K95" s="19"/>
     </row>
-    <row r="96" spans="1:11" ht="75">
+    <row r="96" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A96" s="14">
         <v>20616</v>
       </c>
@@ -6265,7 +6267,7 @@
       <c r="J96" s="18"/>
       <c r="K96" s="19"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="14">
         <v>20616</v>
       </c>
@@ -6290,7 +6292,7 @@
       <c r="J97" s="18"/>
       <c r="K97" s="19"/>
     </row>
-    <row r="98" spans="1:11" ht="30">
+    <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="14">
         <v>20616</v>
       </c>
@@ -6315,7 +6317,7 @@
       <c r="J98" s="18"/>
       <c r="K98" s="19"/>
     </row>
-    <row r="99" spans="1:11" ht="30">
+    <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="14">
         <v>20616</v>
       </c>
@@ -6340,7 +6342,7 @@
       <c r="J99" s="18"/>
       <c r="K99" s="19"/>
     </row>
-    <row r="100" spans="1:11" ht="75">
+    <row r="100" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A100" s="20">
         <v>20639</v>
       </c>
@@ -6367,7 +6369,7 @@
       <c r="J100" s="25"/>
       <c r="K100" s="26"/>
     </row>
-    <row r="101" spans="1:11" ht="45">
+    <row r="101" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="20">
         <v>20639</v>
       </c>
@@ -6394,7 +6396,7 @@
       <c r="J101" s="25"/>
       <c r="K101" s="26"/>
     </row>
-    <row r="102" spans="1:11" ht="90">
+    <row r="102" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A102" s="20">
         <v>20639</v>
       </c>
@@ -6421,7 +6423,7 @@
       <c r="J102" s="25"/>
       <c r="K102" s="26"/>
     </row>
-    <row r="103" spans="1:11" ht="45">
+    <row r="103" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="20">
         <v>20639</v>
       </c>
@@ -6448,7 +6450,7 @@
       <c r="J103" s="25"/>
       <c r="K103" s="26"/>
     </row>
-    <row r="104" spans="1:11" ht="75">
+    <row r="104" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A104" s="20">
         <v>20639</v>
       </c>
@@ -6475,7 +6477,7 @@
       <c r="J104" s="25"/>
       <c r="K104" s="26"/>
     </row>
-    <row r="105" spans="1:11" ht="30">
+    <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="20">
         <v>20639</v>
       </c>
@@ -6502,7 +6504,7 @@
       <c r="J105" s="25"/>
       <c r="K105" s="26"/>
     </row>
-    <row r="106" spans="1:11" ht="45">
+    <row r="106" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="20">
         <v>20639</v>
       </c>
@@ -6529,7 +6531,7 @@
       <c r="J106" s="25"/>
       <c r="K106" s="26"/>
     </row>
-    <row r="107" spans="1:11" ht="60">
+    <row r="107" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" s="14">
         <v>20640</v>
       </c>
@@ -6554,7 +6556,7 @@
       <c r="J107" s="18"/>
       <c r="K107" s="19"/>
     </row>
-    <row r="108" spans="1:11" ht="60">
+    <row r="108" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A108" s="14">
         <v>20640</v>
       </c>
@@ -6579,7 +6581,7 @@
       <c r="J108" s="18"/>
       <c r="K108" s="19"/>
     </row>
-    <row r="109" spans="1:11" ht="90">
+    <row r="109" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A109" s="14">
         <v>20640</v>
       </c>
@@ -6604,7 +6606,7 @@
       <c r="J109" s="18"/>
       <c r="K109" s="19"/>
     </row>
-    <row r="110" spans="1:11" ht="30">
+    <row r="110" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="20">
         <v>20647</v>
       </c>
@@ -6627,7 +6629,7 @@
       <c r="J110" s="25"/>
       <c r="K110" s="26"/>
     </row>
-    <row r="111" spans="1:11" ht="30">
+    <row r="111" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="20">
         <v>20647</v>
       </c>
@@ -6650,7 +6652,7 @@
       <c r="J111" s="25"/>
       <c r="K111" s="26"/>
     </row>
-    <row r="112" spans="1:11" ht="45">
+    <row r="112" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="14">
         <v>20651</v>
       </c>
@@ -6675,7 +6677,7 @@
       <c r="J112" s="18"/>
       <c r="K112" s="19"/>
     </row>
-    <row r="113" spans="1:11" ht="60">
+    <row r="113" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A113" s="14">
         <v>20651</v>
       </c>
@@ -6700,7 +6702,7 @@
       <c r="J113" s="18"/>
       <c r="K113" s="19"/>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="14">
         <v>20651</v>
       </c>
@@ -6725,7 +6727,7 @@
       <c r="J114" s="18"/>
       <c r="K114" s="19"/>
     </row>
-    <row r="115" spans="1:11" ht="30">
+    <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="14">
         <v>20651</v>
       </c>
@@ -6750,7 +6752,7 @@
       <c r="J115" s="18"/>
       <c r="K115" s="19"/>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="20">
         <v>20662</v>
       </c>
@@ -6773,7 +6775,7 @@
       <c r="J116" s="25"/>
       <c r="K116" s="26"/>
     </row>
-    <row r="117" spans="1:11" ht="30">
+    <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="20">
         <v>20662</v>
       </c>
@@ -6796,7 +6798,7 @@
       <c r="J117" s="25"/>
       <c r="K117" s="26"/>
     </row>
-    <row r="118" spans="1:11" ht="30">
+    <row r="118" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="14">
         <v>20669</v>
       </c>
@@ -6819,7 +6821,7 @@
       <c r="J118" s="18"/>
       <c r="K118" s="19"/>
     </row>
-    <row r="119" spans="1:11" ht="30">
+    <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="14">
         <v>20669</v>
       </c>
@@ -6842,7 +6844,7 @@
       <c r="J119" s="18"/>
       <c r="K119" s="19"/>
     </row>
-    <row r="120" spans="1:11" ht="30">
+    <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="20">
         <v>20682</v>
       </c>
@@ -6869,7 +6871,7 @@
       <c r="J120" s="25"/>
       <c r="K120" s="26"/>
     </row>
-    <row r="121" spans="1:11" ht="30">
+    <row r="121" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="20">
         <v>20682</v>
       </c>
@@ -6896,7 +6898,7 @@
       <c r="J121" s="25"/>
       <c r="K121" s="26"/>
     </row>
-    <row r="122" spans="1:11" ht="30">
+    <row r="122" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="20">
         <v>20682</v>
       </c>
@@ -6923,7 +6925,7 @@
       <c r="J122" s="25"/>
       <c r="K122" s="26"/>
     </row>
-    <row r="123" spans="1:11" ht="60">
+    <row r="123" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A123" s="20">
         <v>20682</v>
       </c>
@@ -6950,7 +6952,7 @@
       <c r="J123" s="25"/>
       <c r="K123" s="26"/>
     </row>
-    <row r="124" spans="1:11" ht="30">
+    <row r="124" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="20">
         <v>20682</v>
       </c>
@@ -6977,7 +6979,7 @@
       <c r="J124" s="25"/>
       <c r="K124" s="26"/>
     </row>
-    <row r="125" spans="1:11" ht="90">
+    <row r="125" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A125" s="20">
         <v>20682</v>
       </c>
@@ -7004,7 +7006,7 @@
       <c r="J125" s="25"/>
       <c r="K125" s="26"/>
     </row>
-    <row r="126" spans="1:11" ht="30">
+    <row r="126" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="20">
         <v>20682</v>
       </c>
@@ -7031,7 +7033,7 @@
       <c r="J126" s="25"/>
       <c r="K126" s="26"/>
     </row>
-    <row r="127" spans="1:11" ht="45">
+    <row r="127" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="20">
         <v>20682</v>
       </c>
@@ -7058,7 +7060,7 @@
       <c r="J127" s="25"/>
       <c r="K127" s="26"/>
     </row>
-    <row r="128" spans="1:11" ht="60">
+    <row r="128" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="20">
         <v>20682</v>
       </c>
@@ -7085,7 +7087,7 @@
       <c r="J128" s="25"/>
       <c r="K128" s="26"/>
     </row>
-    <row r="129" spans="1:11" ht="30">
+    <row r="129" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="20">
         <v>20682</v>
       </c>
@@ -7112,7 +7114,7 @@
       <c r="J129" s="25"/>
       <c r="K129" s="26"/>
     </row>
-    <row r="130" spans="1:11" ht="30">
+    <row r="130" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="20">
         <v>20682</v>
       </c>
@@ -7139,7 +7141,7 @@
       <c r="J130" s="25"/>
       <c r="K130" s="26"/>
     </row>
-    <row r="131" spans="1:11" ht="30">
+    <row r="131" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="20">
         <v>20682</v>
       </c>
@@ -7166,7 +7168,7 @@
       <c r="J131" s="25"/>
       <c r="K131" s="26"/>
     </row>
-    <row r="132" spans="1:11" ht="45">
+    <row r="132" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="20">
         <v>20682</v>
       </c>
@@ -7193,7 +7195,7 @@
       <c r="J132" s="25"/>
       <c r="K132" s="26"/>
     </row>
-    <row r="133" spans="1:11" ht="45">
+    <row r="133" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" s="20">
         <v>20682</v>
       </c>
@@ -7220,7 +7222,7 @@
       <c r="J133" s="25"/>
       <c r="K133" s="26"/>
     </row>
-    <row r="134" spans="1:11" ht="90">
+    <row r="134" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A134" s="20">
         <v>20682</v>
       </c>
@@ -7247,7 +7249,7 @@
       <c r="J134" s="25"/>
       <c r="K134" s="26"/>
     </row>
-    <row r="135" spans="1:11" ht="90">
+    <row r="135" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A135" s="20">
         <v>20682</v>
       </c>
@@ -7274,7 +7276,7 @@
       <c r="J135" s="25"/>
       <c r="K135" s="26"/>
     </row>
-    <row r="136" spans="1:11" ht="60">
+    <row r="136" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A136" s="14">
         <v>20689</v>
       </c>
@@ -7299,7 +7301,7 @@
       <c r="J136" s="18"/>
       <c r="K136" s="19"/>
     </row>
-    <row r="137" spans="1:11" ht="75">
+    <row r="137" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A137" s="14">
         <v>20689</v>
       </c>
@@ -7324,7 +7326,7 @@
       <c r="J137" s="18"/>
       <c r="K137" s="19"/>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="14">
         <v>20689</v>
       </c>
@@ -7349,7 +7351,7 @@
       <c r="J138" s="18"/>
       <c r="K138" s="19"/>
     </row>
-    <row r="139" spans="1:11" ht="30">
+    <row r="139" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="20">
         <v>20762</v>
       </c>
@@ -7372,7 +7374,7 @@
       <c r="J139" s="25"/>
       <c r="K139" s="26"/>
     </row>
-    <row r="140" spans="1:11" ht="30">
+    <row r="140" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="20">
         <v>20762</v>
       </c>
@@ -7395,7 +7397,7 @@
       <c r="J140" s="25"/>
       <c r="K140" s="26"/>
     </row>
-    <row r="141" spans="1:11" ht="30">
+    <row r="141" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="20">
         <v>20762</v>
       </c>
@@ -7418,7 +7420,7 @@
       <c r="J141" s="25"/>
       <c r="K141" s="26"/>
     </row>
-    <row r="142" spans="1:11" ht="30">
+    <row r="142" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="14">
         <v>20769</v>
       </c>
@@ -7437,13 +7439,11 @@
       <c r="F142" s="17"/>
       <c r="G142" s="18"/>
       <c r="H142" s="18"/>
-      <c r="I142" s="18">
-        <v>1</v>
-      </c>
+      <c r="I142" s="18"/>
       <c r="J142" s="18"/>
       <c r="K142" s="19"/>
     </row>
-    <row r="143" spans="1:11" ht="90">
+    <row r="143" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A143" s="14">
         <v>20769</v>
       </c>
@@ -7462,13 +7462,11 @@
       <c r="F143" s="17"/>
       <c r="G143" s="18"/>
       <c r="H143" s="18"/>
-      <c r="I143" s="18">
-        <v>1</v>
-      </c>
+      <c r="I143" s="18"/>
       <c r="J143" s="18"/>
       <c r="K143" s="19"/>
     </row>
-    <row r="144" spans="1:11" ht="30">
+    <row r="144" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="14">
         <v>20769</v>
       </c>
@@ -7487,13 +7485,11 @@
       <c r="F144" s="17"/>
       <c r="G144" s="18"/>
       <c r="H144" s="18"/>
-      <c r="I144" s="18">
-        <v>1</v>
-      </c>
+      <c r="I144" s="18"/>
       <c r="J144" s="18"/>
       <c r="K144" s="19"/>
     </row>
-    <row r="145" spans="1:11" ht="30">
+    <row r="145" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="14">
         <v>20769</v>
       </c>
@@ -7512,13 +7508,11 @@
       <c r="F145" s="17"/>
       <c r="G145" s="18"/>
       <c r="H145" s="18"/>
-      <c r="I145" s="18">
-        <v>1</v>
-      </c>
+      <c r="I145" s="18"/>
       <c r="J145" s="18"/>
       <c r="K145" s="19"/>
     </row>
-    <row r="146" spans="1:11" ht="30">
+    <row r="146" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="20">
         <v>20812</v>
       </c>
@@ -7541,7 +7535,7 @@
       <c r="J146" s="25"/>
       <c r="K146" s="26"/>
     </row>
-    <row r="147" spans="1:11" ht="30">
+    <row r="147" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="20">
         <v>20812</v>
       </c>
@@ -7564,7 +7558,7 @@
       <c r="J147" s="25"/>
       <c r="K147" s="26"/>
     </row>
-    <row r="148" spans="1:11" ht="30">
+    <row r="148" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="14">
         <v>20846</v>
       </c>
@@ -7593,7 +7587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="30">
+    <row r="149" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="14">
         <v>20846</v>
       </c>
@@ -7620,7 +7614,7 @@
       <c r="J149" s="18"/>
       <c r="K149" s="19"/>
     </row>
-    <row r="150" spans="1:11" ht="90">
+    <row r="150" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A150" s="14">
         <v>20846</v>
       </c>
@@ -7647,7 +7641,7 @@
       <c r="J150" s="18"/>
       <c r="K150" s="19"/>
     </row>
-    <row r="151" spans="1:11" ht="30">
+    <row r="151" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="14">
         <v>20846</v>
       </c>
@@ -7674,7 +7668,7 @@
       <c r="J151" s="18"/>
       <c r="K151" s="19"/>
     </row>
-    <row r="152" spans="1:11" ht="30">
+    <row r="152" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="14">
         <v>20846</v>
       </c>
@@ -7701,7 +7695,7 @@
       <c r="J152" s="18"/>
       <c r="K152" s="19"/>
     </row>
-    <row r="153" spans="1:11" ht="90">
+    <row r="153" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A153" s="20">
         <v>20847</v>
       </c>
@@ -7728,7 +7722,7 @@
       <c r="J153" s="25"/>
       <c r="K153" s="26"/>
     </row>
-    <row r="154" spans="1:11" ht="75">
+    <row r="154" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A154" s="20">
         <v>20847</v>
       </c>
@@ -7755,7 +7749,7 @@
       <c r="J154" s="25"/>
       <c r="K154" s="26"/>
     </row>
-    <row r="155" spans="1:11" ht="30">
+    <row r="155" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="20">
         <v>20847</v>
       </c>
@@ -7782,7 +7776,7 @@
       <c r="J155" s="25"/>
       <c r="K155" s="26"/>
     </row>
-    <row r="156" spans="1:11" ht="30">
+    <row r="156" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="20">
         <v>20847</v>
       </c>
@@ -7809,7 +7803,7 @@
       <c r="J156" s="25"/>
       <c r="K156" s="26"/>
     </row>
-    <row r="157" spans="1:11" ht="30">
+    <row r="157" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="14">
         <v>20850</v>
       </c>
@@ -7834,7 +7828,7 @@
       <c r="J157" s="18"/>
       <c r="K157" s="19"/>
     </row>
-    <row r="158" spans="1:11" ht="30">
+    <row r="158" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="14">
         <v>20850</v>
       </c>
@@ -7859,7 +7853,7 @@
       <c r="J158" s="18"/>
       <c r="K158" s="19"/>
     </row>
-    <row r="159" spans="1:11" ht="45">
+    <row r="159" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="14">
         <v>20850</v>
       </c>
@@ -7884,7 +7878,7 @@
       <c r="J159" s="18"/>
       <c r="K159" s="19"/>
     </row>
-    <row r="160" spans="1:11" ht="60">
+    <row r="160" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" s="14">
         <v>20850</v>
       </c>
@@ -7909,7 +7903,7 @@
       <c r="J160" s="18"/>
       <c r="K160" s="19"/>
     </row>
-    <row r="161" spans="1:11" ht="30">
+    <row r="161" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="20">
         <v>20852</v>
       </c>
@@ -7932,7 +7926,7 @@
       <c r="J161" s="25"/>
       <c r="K161" s="26"/>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="20">
         <v>20852</v>
       </c>
@@ -7955,7 +7949,7 @@
       <c r="J162" s="25"/>
       <c r="K162" s="26"/>
     </row>
-    <row r="163" spans="1:11" ht="30">
+    <row r="163" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="14">
         <v>20855</v>
       </c>
@@ -7978,7 +7972,7 @@
       <c r="J163" s="18"/>
       <c r="K163" s="19"/>
     </row>
-    <row r="164" spans="1:11" ht="30">
+    <row r="164" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="14">
         <v>20855</v>
       </c>
@@ -8001,7 +7995,7 @@
       <c r="J164" s="18"/>
       <c r="K164" s="19"/>
     </row>
-    <row r="165" spans="1:11" ht="30">
+    <row r="165" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="20">
         <v>20857</v>
       </c>
@@ -8024,7 +8018,7 @@
       <c r="J165" s="25"/>
       <c r="K165" s="26"/>
     </row>
-    <row r="166" spans="1:11" ht="30">
+    <row r="166" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="20">
         <v>20857</v>
       </c>
@@ -8047,7 +8041,7 @@
       <c r="J166" s="25"/>
       <c r="K166" s="26"/>
     </row>
-    <row r="167" spans="1:11" ht="75">
+    <row r="167" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A167" s="14">
         <v>20878</v>
       </c>
@@ -8072,7 +8066,7 @@
       <c r="J167" s="18"/>
       <c r="K167" s="19"/>
     </row>
-    <row r="168" spans="1:11" ht="60">
+    <row r="168" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A168" s="14">
         <v>20878</v>
       </c>
@@ -8097,7 +8091,7 @@
       <c r="J168" s="18"/>
       <c r="K168" s="19"/>
     </row>
-    <row r="169" spans="1:11" ht="30">
+    <row r="169" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="14">
         <v>20878</v>
       </c>
@@ -8122,7 +8116,7 @@
       <c r="J169" s="18"/>
       <c r="K169" s="19"/>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="20">
         <v>20973</v>
       </c>
@@ -8145,7 +8139,7 @@
       <c r="J170" s="25"/>
       <c r="K170" s="26"/>
     </row>
-    <row r="171" spans="1:11" ht="75">
+    <row r="171" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A171" s="14">
         <v>21022</v>
       </c>
@@ -8170,7 +8164,7 @@
       <c r="J171" s="18"/>
       <c r="K171" s="19"/>
     </row>
-    <row r="172" spans="1:11" ht="30">
+    <row r="172" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="14">
         <v>21022</v>
       </c>
@@ -8195,7 +8189,7 @@
       <c r="J172" s="18"/>
       <c r="K172" s="19"/>
     </row>
-    <row r="173" spans="1:11" ht="45">
+    <row r="173" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A173" s="14">
         <v>21022</v>
       </c>
@@ -8220,7 +8214,7 @@
       <c r="J173" s="18"/>
       <c r="K173" s="19"/>
     </row>
-    <row r="174" spans="1:11" ht="105">
+    <row r="174" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A174" s="20">
         <v>21082</v>
       </c>
@@ -8245,7 +8239,7 @@
       <c r="J174" s="25"/>
       <c r="K174" s="26"/>
     </row>
-    <row r="175" spans="1:11" ht="30">
+    <row r="175" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="20">
         <v>21082</v>
       </c>
@@ -8270,7 +8264,7 @@
       <c r="J175" s="25"/>
       <c r="K175" s="26"/>
     </row>
-    <row r="176" spans="1:11" ht="30">
+    <row r="176" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="14">
         <v>21113</v>
       </c>
@@ -8293,7 +8287,7 @@
       <c r="J176" s="18"/>
       <c r="K176" s="19"/>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="14">
         <v>21113</v>
       </c>
@@ -8316,7 +8310,7 @@
       <c r="J177" s="18"/>
       <c r="K177" s="19"/>
     </row>
-    <row r="178" spans="1:11" ht="30">
+    <row r="178" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="20">
         <v>21149</v>
       </c>
@@ -8339,7 +8333,7 @@
       <c r="J178" s="25"/>
       <c r="K178" s="26"/>
     </row>
-    <row r="179" spans="1:11" ht="30">
+    <row r="179" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="20">
         <v>21149</v>
       </c>
@@ -8362,7 +8356,7 @@
       <c r="J179" s="25"/>
       <c r="K179" s="26"/>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="14">
         <v>21201</v>
       </c>
@@ -8389,7 +8383,7 @@
       <c r="J180" s="18"/>
       <c r="K180" s="19"/>
     </row>
-    <row r="181" spans="1:11" ht="75">
+    <row r="181" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A181" s="20">
         <v>21202</v>
       </c>
@@ -8418,7 +8412,7 @@
       <c r="J181" s="25"/>
       <c r="K181" s="26"/>
     </row>
-    <row r="182" spans="1:11" ht="60">
+    <row r="182" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A182" s="20">
         <v>21202</v>
       </c>
@@ -8447,7 +8441,7 @@
       <c r="J182" s="25"/>
       <c r="K182" s="26"/>
     </row>
-    <row r="183" spans="1:11" ht="45">
+    <row r="183" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="20">
         <v>21202</v>
       </c>
@@ -8476,7 +8470,7 @@
       <c r="J183" s="25"/>
       <c r="K183" s="26"/>
     </row>
-    <row r="184" spans="1:11" ht="30">
+    <row r="184" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="20">
         <v>21202</v>
       </c>
@@ -8505,7 +8499,7 @@
       <c r="J184" s="25"/>
       <c r="K184" s="26"/>
     </row>
-    <row r="185" spans="1:11" ht="45">
+    <row r="185" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="20">
         <v>21202</v>
       </c>
@@ -8534,7 +8528,7 @@
       <c r="J185" s="25"/>
       <c r="K185" s="26"/>
     </row>
-    <row r="186" spans="1:11" ht="45">
+    <row r="186" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="20">
         <v>21202</v>
       </c>
@@ -8563,7 +8557,7 @@
       <c r="J186" s="25"/>
       <c r="K186" s="26"/>
     </row>
-    <row r="187" spans="1:11" ht="45">
+    <row r="187" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="20">
         <v>21202</v>
       </c>
@@ -8592,7 +8586,7 @@
       <c r="J187" s="25"/>
       <c r="K187" s="26"/>
     </row>
-    <row r="188" spans="1:11" ht="90">
+    <row r="188" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A188" s="20">
         <v>21202</v>
       </c>
@@ -8621,7 +8615,7 @@
       <c r="J188" s="25"/>
       <c r="K188" s="26"/>
     </row>
-    <row r="189" spans="1:11" ht="105">
+    <row r="189" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A189" s="20">
         <v>21202</v>
       </c>
@@ -8650,7 +8644,7 @@
       <c r="J189" s="25"/>
       <c r="K189" s="26"/>
     </row>
-    <row r="190" spans="1:11" ht="120">
+    <row r="190" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A190" s="20">
         <v>21202</v>
       </c>
@@ -8679,7 +8673,7 @@
       <c r="J190" s="25"/>
       <c r="K190" s="26"/>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="20">
         <v>21202</v>
       </c>
@@ -8708,7 +8702,7 @@
       <c r="J191" s="25"/>
       <c r="K191" s="26"/>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="20">
         <v>21202</v>
       </c>
@@ -8737,7 +8731,7 @@
       <c r="J192" s="25"/>
       <c r="K192" s="26"/>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="20">
         <v>21202</v>
       </c>
@@ -8766,7 +8760,7 @@
       <c r="J193" s="25"/>
       <c r="K193" s="26"/>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="20">
         <v>21202</v>
       </c>
@@ -8795,7 +8789,7 @@
       <c r="J194" s="25"/>
       <c r="K194" s="26"/>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="20">
         <v>21202</v>
       </c>
@@ -8824,7 +8818,7 @@
       <c r="J195" s="25"/>
       <c r="K195" s="26"/>
     </row>
-    <row r="196" spans="1:11" ht="30">
+    <row r="196" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="14">
         <v>21219</v>
       </c>
@@ -8851,7 +8845,7 @@
       <c r="J196" s="18"/>
       <c r="K196" s="19"/>
     </row>
-    <row r="197" spans="1:11" ht="60">
+    <row r="197" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A197" s="14">
         <v>21219</v>
       </c>
@@ -8878,7 +8872,7 @@
       <c r="J197" s="18"/>
       <c r="K197" s="19"/>
     </row>
-    <row r="198" spans="1:11" ht="75">
+    <row r="198" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A198" s="14">
         <v>21219</v>
       </c>
@@ -8905,7 +8899,7 @@
       <c r="J198" s="18"/>
       <c r="K198" s="19"/>
     </row>
-    <row r="199" spans="1:11" ht="45">
+    <row r="199" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" s="14">
         <v>21219</v>
       </c>
@@ -8932,7 +8926,7 @@
       <c r="J199" s="18"/>
       <c r="K199" s="19"/>
     </row>
-    <row r="200" spans="1:11" ht="45">
+    <row r="200" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A200" s="14">
         <v>21219</v>
       </c>
@@ -8959,7 +8953,7 @@
       <c r="J200" s="18"/>
       <c r="K200" s="19"/>
     </row>
-    <row r="201" spans="1:11" ht="105">
+    <row r="201" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A201" s="14">
         <v>21219</v>
       </c>
@@ -8986,7 +8980,7 @@
       <c r="J201" s="18"/>
       <c r="K201" s="19"/>
     </row>
-    <row r="202" spans="1:11" ht="75">
+    <row r="202" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A202" s="14">
         <v>21219</v>
       </c>
@@ -9013,7 +9007,7 @@
       <c r="J202" s="18"/>
       <c r="K202" s="19"/>
     </row>
-    <row r="203" spans="1:11" ht="75">
+    <row r="203" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A203" s="20">
         <v>21230</v>
       </c>
@@ -9038,7 +9032,7 @@
       <c r="J203" s="25"/>
       <c r="K203" s="26"/>
     </row>
-    <row r="204" spans="1:11" ht="30">
+    <row r="204" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="14">
         <v>21233</v>
       </c>
@@ -9061,7 +9055,7 @@
       <c r="J204" s="18"/>
       <c r="K204" s="19"/>
     </row>
-    <row r="205" spans="1:11" ht="45">
+    <row r="205" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A205" s="20">
         <v>21244</v>
       </c>
@@ -9084,7 +9078,7 @@
       <c r="J205" s="25"/>
       <c r="K205" s="26"/>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="14">
         <v>21328</v>
       </c>
@@ -9107,7 +9101,7 @@
       <c r="J206" s="18"/>
       <c r="K206" s="19"/>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="14">
         <v>21328</v>
       </c>
@@ -9130,7 +9124,7 @@
       <c r="J207" s="18"/>
       <c r="K207" s="19"/>
     </row>
-    <row r="208" spans="1:11" ht="105">
+    <row r="208" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A208" s="20">
         <v>21433</v>
       </c>
@@ -9155,7 +9149,7 @@
       <c r="J208" s="25"/>
       <c r="K208" s="26"/>
     </row>
-    <row r="209" spans="1:11" ht="45">
+    <row r="209" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A209" s="20">
         <v>21433</v>
       </c>
@@ -9180,7 +9174,7 @@
       <c r="J209" s="25"/>
       <c r="K209" s="26"/>
     </row>
-    <row r="210" spans="1:11" ht="60">
+    <row r="210" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A210" s="20">
         <v>21433</v>
       </c>
@@ -9205,7 +9199,7 @@
       <c r="J210" s="25"/>
       <c r="K210" s="26"/>
     </row>
-    <row r="211" spans="1:11" ht="60">
+    <row r="211" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A211" s="20">
         <v>21433</v>
       </c>
@@ -9230,7 +9224,7 @@
       <c r="J211" s="25"/>
       <c r="K211" s="26"/>
     </row>
-    <row r="212" spans="1:11" ht="30">
+    <row r="212" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="20">
         <v>21433</v>
       </c>
@@ -9255,7 +9249,7 @@
       <c r="J212" s="25"/>
       <c r="K212" s="26"/>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="20">
         <v>21433</v>
       </c>
@@ -9280,7 +9274,7 @@
       <c r="J213" s="25"/>
       <c r="K213" s="26"/>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="20">
         <v>21433</v>
       </c>
@@ -9305,7 +9299,7 @@
       <c r="J214" s="25"/>
       <c r="K214" s="26"/>
     </row>
-    <row r="215" spans="1:11" ht="60">
+    <row r="215" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A215" s="14">
         <v>21439</v>
       </c>
@@ -9330,7 +9324,7 @@
       <c r="J215" s="18"/>
       <c r="K215" s="19"/>
     </row>
-    <row r="216" spans="1:11" ht="30">
+    <row r="216" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="20">
         <v>21442</v>
       </c>
@@ -9353,7 +9347,7 @@
       <c r="J216" s="25"/>
       <c r="K216" s="26"/>
     </row>
-    <row r="217" spans="1:11" ht="30">
+    <row r="217" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="20">
         <v>21442</v>
       </c>
@@ -9376,7 +9370,7 @@
       <c r="J217" s="25"/>
       <c r="K217" s="26"/>
     </row>
-    <row r="218" spans="1:11" ht="30">
+    <row r="218" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="14">
         <v>21443</v>
       </c>
@@ -9399,7 +9393,7 @@
       <c r="J218" s="18"/>
       <c r="K218" s="19"/>
     </row>
-    <row r="219" spans="1:11" ht="30">
+    <row r="219" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="14">
         <v>21443</v>
       </c>
@@ -9422,7 +9416,7 @@
       <c r="J219" s="18"/>
       <c r="K219" s="19"/>
     </row>
-    <row r="220" spans="1:11" ht="30">
+    <row r="220" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="20">
         <v>21444</v>
       </c>
@@ -9445,7 +9439,7 @@
       <c r="J220" s="25"/>
       <c r="K220" s="26"/>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="20">
         <v>21444</v>
       </c>
@@ -9468,7 +9462,7 @@
       <c r="J221" s="25"/>
       <c r="K221" s="26"/>
     </row>
-    <row r="222" spans="1:11" ht="30">
+    <row r="222" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="14">
         <v>21452</v>
       </c>
@@ -9491,7 +9485,7 @@
       <c r="J222" s="18"/>
       <c r="K222" s="19"/>
     </row>
-    <row r="223" spans="1:11" ht="30">
+    <row r="223" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="14">
         <v>21452</v>
       </c>
@@ -9514,7 +9508,7 @@
       <c r="J223" s="18"/>
       <c r="K223" s="19"/>
     </row>
-    <row r="224" spans="1:11" ht="30">
+    <row r="224" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="20">
         <v>21527</v>
       </c>
@@ -9537,7 +9531,7 @@
       <c r="J224" s="25"/>
       <c r="K224" s="26"/>
     </row>
-    <row r="225" spans="1:11" ht="75">
+    <row r="225" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A225" s="20">
         <v>21527</v>
       </c>
@@ -9560,7 +9554,7 @@
       <c r="J225" s="25"/>
       <c r="K225" s="26"/>
     </row>
-    <row r="226" spans="1:11" ht="30">
+    <row r="226" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="20">
         <v>21527</v>
       </c>
@@ -9583,7 +9577,7 @@
       <c r="J226" s="25"/>
       <c r="K226" s="26"/>
     </row>
-    <row r="227" spans="1:11" ht="30">
+    <row r="227" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="20">
         <v>21527</v>
       </c>
@@ -9606,7 +9600,7 @@
       <c r="J227" s="25"/>
       <c r="K227" s="26"/>
     </row>
-    <row r="228" spans="1:11" ht="30">
+    <row r="228" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="20">
         <v>21527</v>
       </c>
@@ -9629,7 +9623,7 @@
       <c r="J228" s="25"/>
       <c r="K228" s="26"/>
     </row>
-    <row r="229" spans="1:11" ht="60">
+    <row r="229" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A229" s="14">
         <v>21536</v>
       </c>
@@ -9656,7 +9650,7 @@
       </c>
       <c r="K229" s="19"/>
     </row>
-    <row r="230" spans="1:11" ht="60">
+    <row r="230" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A230" s="14">
         <v>21536</v>
       </c>
@@ -9685,7 +9679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="14">
         <v>21536</v>
       </c>
@@ -9712,7 +9706,7 @@
       </c>
       <c r="K231" s="19"/>
     </row>
-    <row r="232" spans="1:11" ht="30">
+    <row r="232" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="14">
         <v>21536</v>
       </c>
@@ -9739,7 +9733,7 @@
       </c>
       <c r="K232" s="19"/>
     </row>
-    <row r="233" spans="1:11" ht="45">
+    <row r="233" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A233" s="14">
         <v>21536</v>
       </c>
@@ -9766,7 +9760,7 @@
       </c>
       <c r="K233" s="19"/>
     </row>
-    <row r="234" spans="1:11" ht="60">
+    <row r="234" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A234" s="14">
         <v>21536</v>
       </c>
@@ -9793,7 +9787,7 @@
       </c>
       <c r="K234" s="19"/>
     </row>
-    <row r="235" spans="1:11" ht="45">
+    <row r="235" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A235" s="14">
         <v>21536</v>
       </c>
@@ -9820,7 +9814,7 @@
       </c>
       <c r="K235" s="19"/>
     </row>
-    <row r="236" spans="1:11" ht="45">
+    <row r="236" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A236" s="14">
         <v>21536</v>
       </c>
@@ -9847,7 +9841,7 @@
       </c>
       <c r="K236" s="19"/>
     </row>
-    <row r="237" spans="1:11" ht="90">
+    <row r="237" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A237" s="14">
         <v>21536</v>
       </c>
@@ -9874,7 +9868,7 @@
       </c>
       <c r="K237" s="19"/>
     </row>
-    <row r="238" spans="1:11" ht="120">
+    <row r="238" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A238" s="14">
         <v>21536</v>
       </c>
@@ -9901,7 +9895,7 @@
       </c>
       <c r="K238" s="19"/>
     </row>
-    <row r="239" spans="1:11" ht="75">
+    <row r="239" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A239" s="14">
         <v>21536</v>
       </c>
@@ -9928,7 +9922,7 @@
       </c>
       <c r="K239" s="19"/>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="14">
         <v>21536</v>
       </c>
@@ -9955,7 +9949,7 @@
       </c>
       <c r="K240" s="19"/>
     </row>
-    <row r="241" spans="1:11" ht="30">
+    <row r="241" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="14">
         <v>21536</v>
       </c>
@@ -9982,7 +9976,7 @@
       </c>
       <c r="K241" s="19"/>
     </row>
-    <row r="242" spans="1:11" ht="30">
+    <row r="242" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="14">
         <v>21536</v>
       </c>
@@ -10009,7 +10003,7 @@
       </c>
       <c r="K242" s="19"/>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="14">
         <v>21536</v>
       </c>
@@ -10036,7 +10030,7 @@
       </c>
       <c r="K243" s="19"/>
     </row>
-    <row r="244" spans="1:11" ht="90">
+    <row r="244" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A244" s="14">
         <v>21536</v>
       </c>
@@ -10063,7 +10057,7 @@
       </c>
       <c r="K244" s="19"/>
     </row>
-    <row r="245" spans="1:11" ht="60">
+    <row r="245" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A245" s="20">
         <v>21537</v>
       </c>
@@ -10090,7 +10084,7 @@
       <c r="J245" s="25"/>
       <c r="K245" s="26"/>
     </row>
-    <row r="246" spans="1:11" ht="75">
+    <row r="246" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A246" s="20">
         <v>21537</v>
       </c>
@@ -10117,7 +10111,7 @@
       <c r="J246" s="25"/>
       <c r="K246" s="26"/>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="20">
         <v>21537</v>
       </c>
@@ -10144,7 +10138,7 @@
       <c r="J247" s="25"/>
       <c r="K247" s="26"/>
     </row>
-    <row r="248" spans="1:11" ht="45">
+    <row r="248" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A248" s="20">
         <v>21537</v>
       </c>
@@ -10171,7 +10165,7 @@
       <c r="J248" s="25"/>
       <c r="K248" s="26"/>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="20">
         <v>21537</v>
       </c>
@@ -10198,7 +10192,7 @@
       <c r="J249" s="25"/>
       <c r="K249" s="26"/>
     </row>
-    <row r="250" spans="1:11" ht="120">
+    <row r="250" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A250" s="14">
         <v>21566</v>
       </c>
@@ -10223,7 +10217,7 @@
       <c r="J250" s="18"/>
       <c r="K250" s="19"/>
     </row>
-    <row r="251" spans="1:11" ht="60">
+    <row r="251" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A251" s="20">
         <v>21608</v>
       </c>
@@ -10248,7 +10242,7 @@
       <c r="J251" s="25"/>
       <c r="K251" s="26"/>
     </row>
-    <row r="252" spans="1:11" ht="105">
+    <row r="252" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A252" s="20">
         <v>21608</v>
       </c>
@@ -10273,7 +10267,7 @@
       <c r="J252" s="25"/>
       <c r="K252" s="26"/>
     </row>
-    <row r="253" spans="1:11" ht="90">
+    <row r="253" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A253" s="14">
         <v>21625</v>
       </c>
@@ -10300,7 +10294,7 @@
       </c>
       <c r="K253" s="19"/>
     </row>
-    <row r="254" spans="1:11" ht="30">
+    <row r="254" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="20">
         <v>21626</v>
       </c>
@@ -10323,7 +10317,7 @@
       <c r="J254" s="25"/>
       <c r="K254" s="26"/>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="20">
         <v>21626</v>
       </c>
@@ -10346,7 +10340,7 @@
       <c r="J255" s="25"/>
       <c r="K255" s="26"/>
     </row>
-    <row r="256" spans="1:11" ht="90">
+    <row r="256" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A256" s="14">
         <v>21638</v>
       </c>
@@ -10373,7 +10367,7 @@
       </c>
       <c r="K256" s="19"/>
     </row>
-    <row r="257" spans="1:11" ht="75">
+    <row r="257" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A257" s="14">
         <v>21638</v>
       </c>
@@ -10400,7 +10394,7 @@
       </c>
       <c r="K257" s="19"/>
     </row>
-    <row r="258" spans="1:11" ht="90">
+    <row r="258" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A258" s="14">
         <v>21638</v>
       </c>
@@ -10427,7 +10421,7 @@
       </c>
       <c r="K258" s="19"/>
     </row>
-    <row r="259" spans="1:11" ht="60">
+    <row r="259" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A259" s="14">
         <v>21638</v>
       </c>
@@ -10454,7 +10448,7 @@
       </c>
       <c r="K259" s="19"/>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="14">
         <v>21638</v>
       </c>
@@ -10481,7 +10475,7 @@
       </c>
       <c r="K260" s="19"/>
     </row>
-    <row r="261" spans="1:11" ht="30">
+    <row r="261" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="14">
         <v>21638</v>
       </c>
@@ -10508,7 +10502,7 @@
       </c>
       <c r="K261" s="19"/>
     </row>
-    <row r="262" spans="1:11" ht="30">
+    <row r="262" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="14">
         <v>21638</v>
       </c>
@@ -10535,7 +10529,7 @@
       </c>
       <c r="K262" s="19"/>
     </row>
-    <row r="263" spans="1:11" ht="60">
+    <row r="263" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A263" s="14">
         <v>21638</v>
       </c>
@@ -10562,7 +10556,7 @@
       </c>
       <c r="K263" s="19"/>
     </row>
-    <row r="264" spans="1:11" ht="30">
+    <row r="264" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="14">
         <v>21638</v>
       </c>
@@ -10589,7 +10583,7 @@
       </c>
       <c r="K264" s="19"/>
     </row>
-    <row r="265" spans="1:11" ht="60">
+    <row r="265" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A265" s="14">
         <v>21638</v>
       </c>
@@ -10616,7 +10610,7 @@
       </c>
       <c r="K265" s="19"/>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="14">
         <v>21638</v>
       </c>
@@ -10643,7 +10637,7 @@
       </c>
       <c r="K266" s="19"/>
     </row>
-    <row r="267" spans="1:11" ht="45">
+    <row r="267" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A267" s="14">
         <v>21638</v>
       </c>
@@ -10670,7 +10664,7 @@
       </c>
       <c r="K267" s="19"/>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="14">
         <v>21638</v>
       </c>
@@ -10697,7 +10691,7 @@
       </c>
       <c r="K268" s="19"/>
     </row>
-    <row r="269" spans="1:11" ht="45">
+    <row r="269" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A269" s="14">
         <v>21638</v>
       </c>
@@ -10724,7 +10718,7 @@
       </c>
       <c r="K269" s="19"/>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="20">
         <v>21777</v>
       </c>
@@ -10747,7 +10741,7 @@
       <c r="J270" s="25"/>
       <c r="K270" s="26"/>
     </row>
-    <row r="271" spans="1:11" ht="30">
+    <row r="271" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="20">
         <v>21777</v>
       </c>
@@ -10770,7 +10764,7 @@
       <c r="J271" s="25"/>
       <c r="K271" s="26"/>
     </row>
-    <row r="272" spans="1:11" ht="45">
+    <row r="272" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A272" s="14">
         <v>21921</v>
       </c>
@@ -10793,7 +10787,7 @@
       <c r="J272" s="18"/>
       <c r="K272" s="19"/>
     </row>
-    <row r="273" spans="1:11" ht="30">
+    <row r="273" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="14">
         <v>21921</v>
       </c>
@@ -10816,7 +10810,7 @@
       <c r="J273" s="18"/>
       <c r="K273" s="19"/>
     </row>
-    <row r="274" spans="1:11" ht="30">
+    <row r="274" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A274" s="14">
         <v>21921</v>
       </c>
@@ -10839,7 +10833,7 @@
       <c r="J274" s="18"/>
       <c r="K274" s="19"/>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="14">
         <v>21921</v>
       </c>
@@ -10862,7 +10856,7 @@
       <c r="J275" s="18"/>
       <c r="K275" s="19"/>
     </row>
-    <row r="276" spans="1:11" ht="45">
+    <row r="276" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A276" s="14">
         <v>21921</v>
       </c>
@@ -10885,7 +10879,7 @@
       <c r="J276" s="18"/>
       <c r="K276" s="19"/>
     </row>
-    <row r="277" spans="1:11" ht="30">
+    <row r="277" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="20">
         <v>21922</v>
       </c>
@@ -10908,7 +10902,7 @@
       <c r="J277" s="25"/>
       <c r="K277" s="26"/>
     </row>
-    <row r="278" spans="1:11" ht="30">
+    <row r="278" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="20">
         <v>21922</v>
       </c>
@@ -10931,7 +10925,7 @@
       <c r="J278" s="25"/>
       <c r="K278" s="26"/>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="20">
         <v>21922</v>
       </c>
@@ -10954,7 +10948,7 @@
       <c r="J279" s="25"/>
       <c r="K279" s="26"/>
     </row>
-    <row r="280" spans="1:11" ht="30">
+    <row r="280" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A280" s="20">
         <v>21922</v>
       </c>
@@ -10977,7 +10971,7 @@
       <c r="J280" s="25"/>
       <c r="K280" s="26"/>
     </row>
-    <row r="281" spans="1:11" ht="30">
+    <row r="281" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="14">
         <v>21925</v>
       </c>
@@ -11000,7 +10994,7 @@
       <c r="J281" s="18"/>
       <c r="K281" s="19"/>
     </row>
-    <row r="282" spans="1:11" ht="30">
+    <row r="282" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="14">
         <v>21925</v>
       </c>
@@ -11023,7 +11017,7 @@
       <c r="J282" s="18"/>
       <c r="K282" s="19"/>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="14">
         <v>21925</v>
       </c>
@@ -11046,7 +11040,7 @@
       <c r="J283" s="18"/>
       <c r="K283" s="19"/>
     </row>
-    <row r="284" spans="1:11" ht="30">
+    <row r="284" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" s="14">
         <v>21925</v>
       </c>
@@ -11069,7 +11063,7 @@
       <c r="J284" s="18"/>
       <c r="K284" s="19"/>
     </row>
-    <row r="285" spans="1:11" ht="30">
+    <row r="285" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A285" s="20">
         <v>21944</v>
       </c>
@@ -11094,7 +11088,7 @@
       <c r="J285" s="25"/>
       <c r="K285" s="26"/>
     </row>
-    <row r="286" spans="1:11" ht="30">
+    <row r="286" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A286" s="20">
         <v>21944</v>
       </c>
@@ -11119,7 +11113,7 @@
       <c r="J286" s="25"/>
       <c r="K286" s="26"/>
     </row>
-    <row r="287" spans="1:11" ht="30">
+    <row r="287" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A287" s="14">
         <v>21994</v>
       </c>
@@ -11144,7 +11138,7 @@
       <c r="J287" s="18"/>
       <c r="K287" s="19"/>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="14">
         <v>21994</v>
       </c>
@@ -11169,7 +11163,7 @@
       <c r="J288" s="18"/>
       <c r="K288" s="19"/>
     </row>
-    <row r="289" spans="1:11" ht="45">
+    <row r="289" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A289" s="14">
         <v>21994</v>
       </c>
@@ -11194,7 +11188,7 @@
       <c r="J289" s="18"/>
       <c r="K289" s="19"/>
     </row>
-    <row r="290" spans="1:11" ht="90">
+    <row r="290" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A290" s="14">
         <v>21994</v>
       </c>
@@ -11219,7 +11213,7 @@
       <c r="J290" s="18"/>
       <c r="K290" s="19"/>
     </row>
-    <row r="291" spans="1:11" ht="45">
+    <row r="291" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A291" s="14">
         <v>21994</v>
       </c>
@@ -11244,7 +11238,7 @@
       <c r="J291" s="18"/>
       <c r="K291" s="19"/>
     </row>
-    <row r="292" spans="1:11" ht="30">
+    <row r="292" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A292" s="20">
         <v>21995</v>
       </c>
@@ -11269,7 +11263,7 @@
       <c r="J292" s="25"/>
       <c r="K292" s="26"/>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="20">
         <v>21995</v>
       </c>
@@ -11294,7 +11288,7 @@
       <c r="J293" s="25"/>
       <c r="K293" s="26"/>
     </row>
-    <row r="294" spans="1:11" ht="30">
+    <row r="294" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A294" s="20">
         <v>21995</v>
       </c>
@@ -11319,7 +11313,7 @@
       <c r="J294" s="25"/>
       <c r="K294" s="26"/>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="20">
         <v>21995</v>
       </c>
@@ -11344,7 +11338,7 @@
       <c r="J295" s="25"/>
       <c r="K295" s="26"/>
     </row>
-    <row r="296" spans="1:11" ht="60">
+    <row r="296" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A296" s="14">
         <v>22062</v>
       </c>
@@ -11369,7 +11363,7 @@
       <c r="J296" s="18"/>
       <c r="K296" s="19"/>
     </row>
-    <row r="297" spans="1:11" ht="60">
+    <row r="297" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A297" s="14">
         <v>22062</v>
       </c>
@@ -11394,7 +11388,7 @@
       <c r="J297" s="18"/>
       <c r="K297" s="19"/>
     </row>
-    <row r="298" spans="1:11" ht="45">
+    <row r="298" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A298" s="20">
         <v>22063</v>
       </c>
@@ -11419,7 +11413,7 @@
       <c r="J298" s="25"/>
       <c r="K298" s="26"/>
     </row>
-    <row r="299" spans="1:11" ht="90">
+    <row r="299" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A299" s="20">
         <v>22063</v>
       </c>
@@ -11444,7 +11438,7 @@
       <c r="J299" s="25"/>
       <c r="K299" s="26"/>
     </row>
-    <row r="300" spans="1:11" ht="45">
+    <row r="300" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A300" s="20">
         <v>22063</v>
       </c>
@@ -11469,7 +11463,7 @@
       <c r="J300" s="25"/>
       <c r="K300" s="26"/>
     </row>
-    <row r="301" spans="1:11" ht="60">
+    <row r="301" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A301" s="20">
         <v>22063</v>
       </c>
@@ -11494,7 +11488,7 @@
       <c r="J301" s="25"/>
       <c r="K301" s="26"/>
     </row>
-    <row r="302" spans="1:11" ht="75">
+    <row r="302" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A302" s="20">
         <v>22063</v>
       </c>
@@ -11517,7 +11511,7 @@
       <c r="J302" s="25"/>
       <c r="K302" s="26"/>
     </row>
-    <row r="303" spans="1:11" ht="60">
+    <row r="303" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A303" s="20">
         <v>22063</v>
       </c>
@@ -11542,7 +11536,7 @@
       <c r="J303" s="25"/>
       <c r="K303" s="26"/>
     </row>
-    <row r="304" spans="1:11" ht="60">
+    <row r="304" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A304" s="14">
         <v>22097</v>
       </c>
@@ -11567,7 +11561,7 @@
       <c r="J304" s="18"/>
       <c r="K304" s="19"/>
     </row>
-    <row r="305" spans="1:11" ht="45">
+    <row r="305" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A305" s="14">
         <v>22097</v>
       </c>
@@ -11592,7 +11586,7 @@
       <c r="J305" s="18"/>
       <c r="K305" s="19"/>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="14">
         <v>22097</v>
       </c>
@@ -11617,7 +11611,7 @@
       <c r="J306" s="18"/>
       <c r="K306" s="19"/>
     </row>
-    <row r="307" spans="1:11" ht="90">
+    <row r="307" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A307" s="14">
         <v>22097</v>
       </c>
@@ -11642,7 +11636,7 @@
       <c r="J307" s="18"/>
       <c r="K307" s="19"/>
     </row>
-    <row r="308" spans="1:11" ht="90">
+    <row r="308" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A308" s="20">
         <v>22175</v>
       </c>
@@ -11667,7 +11661,7 @@
       <c r="J308" s="25"/>
       <c r="K308" s="26"/>
     </row>
-    <row r="309" spans="1:11" ht="75">
+    <row r="309" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A309" s="14">
         <v>22195</v>
       </c>
@@ -11692,7 +11686,7 @@
       <c r="J309" s="18"/>
       <c r="K309" s="19"/>
     </row>
-    <row r="310" spans="1:11" ht="45">
+    <row r="310" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A310" s="14">
         <v>22195</v>
       </c>
@@ -11717,7 +11711,7 @@
       <c r="J310" s="18"/>
       <c r="K310" s="19"/>
     </row>
-    <row r="311" spans="1:11" ht="60">
+    <row r="311" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A311" s="20">
         <v>22196</v>
       </c>
@@ -11742,7 +11736,7 @@
       <c r="J311" s="25"/>
       <c r="K311" s="26"/>
     </row>
-    <row r="312" spans="1:11" ht="30">
+    <row r="312" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" s="20">
         <v>22196</v>
       </c>
@@ -11767,7 +11761,7 @@
       <c r="J312" s="25"/>
       <c r="K312" s="26"/>
     </row>
-    <row r="313" spans="1:11" ht="120">
+    <row r="313" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A313" s="14">
         <v>22229</v>
       </c>
@@ -11792,7 +11786,7 @@
       <c r="J313" s="18"/>
       <c r="K313" s="19"/>
     </row>
-    <row r="314" spans="1:11" ht="30">
+    <row r="314" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" s="20">
         <v>22232</v>
       </c>
@@ -11815,7 +11809,7 @@
       <c r="J314" s="25"/>
       <c r="K314" s="26"/>
     </row>
-    <row r="315" spans="1:11" ht="75">
+    <row r="315" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A315" s="14">
         <v>22341</v>
       </c>
@@ -11840,7 +11834,7 @@
       <c r="J315" s="18"/>
       <c r="K315" s="19"/>
     </row>
-    <row r="316" spans="1:11" ht="30">
+    <row r="316" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="14">
         <v>22341</v>
       </c>
@@ -11865,7 +11859,7 @@
       <c r="J316" s="18"/>
       <c r="K316" s="19"/>
     </row>
-    <row r="317" spans="1:11">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="14">
         <v>22341</v>
       </c>
@@ -11890,7 +11884,7 @@
       <c r="J317" s="18"/>
       <c r="K317" s="19"/>
     </row>
-    <row r="318" spans="1:11">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="14">
         <v>22341</v>
       </c>
@@ -11915,7 +11909,7 @@
       <c r="J318" s="18"/>
       <c r="K318" s="19"/>
     </row>
-    <row r="319" spans="1:11" ht="45">
+    <row r="319" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A319" s="14">
         <v>22341</v>
       </c>
@@ -11940,7 +11934,7 @@
       <c r="J319" s="18"/>
       <c r="K319" s="19"/>
     </row>
-    <row r="320" spans="1:11" ht="45">
+    <row r="320" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A320" s="14">
         <v>22341</v>
       </c>
@@ -11965,7 +11959,7 @@
       <c r="J320" s="18"/>
       <c r="K320" s="19"/>
     </row>
-    <row r="321" spans="1:11" ht="90">
+    <row r="321" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A321" s="14">
         <v>22341</v>
       </c>
@@ -11990,7 +11984,7 @@
       <c r="J321" s="18"/>
       <c r="K321" s="19"/>
     </row>
-    <row r="322" spans="1:11" ht="60">
+    <row r="322" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A322" s="14">
         <v>22341</v>
       </c>
@@ -12015,7 +12009,7 @@
       <c r="J322" s="18"/>
       <c r="K322" s="19"/>
     </row>
-    <row r="323" spans="1:11">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="14">
         <v>22341</v>
       </c>
@@ -12040,7 +12034,7 @@
       <c r="J323" s="18"/>
       <c r="K323" s="19"/>
     </row>
-    <row r="324" spans="1:11" ht="45">
+    <row r="324" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A324" s="14">
         <v>22341</v>
       </c>
@@ -12065,7 +12059,7 @@
       <c r="J324" s="18"/>
       <c r="K324" s="19"/>
     </row>
-    <row r="325" spans="1:11" ht="90">
+    <row r="325" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A325" s="14">
         <v>22341</v>
       </c>
@@ -12090,7 +12084,7 @@
       <c r="J325" s="18"/>
       <c r="K325" s="19"/>
     </row>
-    <row r="326" spans="1:11" ht="45">
+    <row r="326" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A326" s="14">
         <v>22341</v>
       </c>
@@ -12115,7 +12109,7 @@
       <c r="J326" s="18"/>
       <c r="K326" s="19"/>
     </row>
-    <row r="327" spans="1:11" ht="45">
+    <row r="327" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A327" s="14">
         <v>22341</v>
       </c>
@@ -12140,7 +12134,7 @@
       <c r="J327" s="18"/>
       <c r="K327" s="19"/>
     </row>
-    <row r="328" spans="1:11">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="14">
         <v>22341</v>
       </c>
@@ -12165,7 +12159,7 @@
       <c r="J328" s="18"/>
       <c r="K328" s="19"/>
     </row>
-    <row r="329" spans="1:11" ht="90">
+    <row r="329" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A329" s="14">
         <v>22341</v>
       </c>
@@ -12192,7 +12186,7 @@
       <c r="J329" s="18"/>
       <c r="K329" s="19"/>
     </row>
-    <row r="330" spans="1:11" ht="60">
+    <row r="330" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A330" s="14">
         <v>22341</v>
       </c>
@@ -12217,7 +12211,7 @@
       <c r="J330" s="18"/>
       <c r="K330" s="19"/>
     </row>
-    <row r="331" spans="1:11" ht="90">
+    <row r="331" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A331" s="14">
         <v>22341</v>
       </c>
@@ -12242,7 +12236,7 @@
       <c r="J331" s="18"/>
       <c r="K331" s="19"/>
     </row>
-    <row r="332" spans="1:11" ht="30">
+    <row r="332" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A332" s="14">
         <v>22341</v>
       </c>
@@ -12267,7 +12261,7 @@
       <c r="J332" s="18"/>
       <c r="K332" s="19"/>
     </row>
-    <row r="333" spans="1:11" ht="30">
+    <row r="333" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A333" s="20">
         <v>22343</v>
       </c>
@@ -12292,7 +12286,7 @@
       <c r="J333" s="25"/>
       <c r="K333" s="26"/>
     </row>
-    <row r="334" spans="1:11" ht="45">
+    <row r="334" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A334" s="20">
         <v>22343</v>
       </c>
@@ -12317,7 +12311,7 @@
       <c r="J334" s="25"/>
       <c r="K334" s="26"/>
     </row>
-    <row r="335" spans="1:11">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="20">
         <v>22343</v>
       </c>
@@ -12342,7 +12336,7 @@
       <c r="J335" s="25"/>
       <c r="K335" s="26"/>
     </row>
-    <row r="336" spans="1:11" ht="30">
+    <row r="336" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A336" s="20">
         <v>22343</v>
       </c>
@@ -12367,7 +12361,7 @@
       <c r="J336" s="25"/>
       <c r="K336" s="26"/>
     </row>
-    <row r="337" spans="1:11" ht="30">
+    <row r="337" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A337" s="14">
         <v>22367</v>
       </c>
@@ -12392,7 +12386,7 @@
       </c>
       <c r="K337" s="19"/>
     </row>
-    <row r="338" spans="1:11" ht="30">
+    <row r="338" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A338" s="14">
         <v>22367</v>
       </c>
@@ -12417,7 +12411,7 @@
       </c>
       <c r="K338" s="19"/>
     </row>
-    <row r="339" spans="1:11">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="14">
         <v>22367</v>
       </c>
@@ -12442,7 +12436,7 @@
       </c>
       <c r="K339" s="19"/>
     </row>
-    <row r="340" spans="1:11" ht="45">
+    <row r="340" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A340" s="14">
         <v>22367</v>
       </c>
@@ -12467,7 +12461,7 @@
       </c>
       <c r="K340" s="19"/>
     </row>
-    <row r="341" spans="1:11" ht="60">
+    <row r="341" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A341" s="14">
         <v>22367</v>
       </c>
@@ -12492,7 +12486,7 @@
       </c>
       <c r="K341" s="19"/>
     </row>
-    <row r="342" spans="1:11" ht="30">
+    <row r="342" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A342" s="14">
         <v>22367</v>
       </c>
@@ -12517,7 +12511,7 @@
       </c>
       <c r="K342" s="19"/>
     </row>
-    <row r="343" spans="1:11" ht="45">
+    <row r="343" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A343" s="14">
         <v>22367</v>
       </c>
@@ -12542,7 +12536,7 @@
       </c>
       <c r="K343" s="19"/>
     </row>
-    <row r="344" spans="1:11">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="14">
         <v>22367</v>
       </c>
@@ -12567,7 +12561,7 @@
       </c>
       <c r="K344" s="19"/>
     </row>
-    <row r="345" spans="1:11" ht="30">
+    <row r="345" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A345" s="14">
         <v>22367</v>
       </c>
@@ -12592,7 +12586,7 @@
       </c>
       <c r="K345" s="19"/>
     </row>
-    <row r="346" spans="1:11">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="14">
         <v>22367</v>
       </c>
@@ -12617,7 +12611,7 @@
       </c>
       <c r="K346" s="19"/>
     </row>
-    <row r="347" spans="1:11" ht="30">
+    <row r="347" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A347" s="14">
         <v>22367</v>
       </c>
@@ -12642,7 +12636,7 @@
       </c>
       <c r="K347" s="19"/>
     </row>
-    <row r="348" spans="1:11" ht="30">
+    <row r="348" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A348" s="14">
         <v>22367</v>
       </c>
@@ -12667,7 +12661,7 @@
       </c>
       <c r="K348" s="19"/>
     </row>
-    <row r="349" spans="1:11" ht="60">
+    <row r="349" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A349" s="14">
         <v>22367</v>
       </c>
@@ -12692,7 +12686,7 @@
       </c>
       <c r="K349" s="19"/>
     </row>
-    <row r="350" spans="1:11" ht="75">
+    <row r="350" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A350" s="14">
         <v>22367</v>
       </c>
@@ -12717,7 +12711,7 @@
       </c>
       <c r="K350" s="19"/>
     </row>
-    <row r="351" spans="1:11" ht="30">
+    <row r="351" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A351" s="14">
         <v>22367</v>
       </c>
@@ -12742,7 +12736,7 @@
       </c>
       <c r="K351" s="19"/>
     </row>
-    <row r="352" spans="1:11" ht="75">
+    <row r="352" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A352" s="14">
         <v>22367</v>
       </c>
@@ -12767,7 +12761,7 @@
       </c>
       <c r="K352" s="19"/>
     </row>
-    <row r="353" spans="1:11" ht="30">
+    <row r="353" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A353" s="14">
         <v>22367</v>
       </c>
@@ -12792,7 +12786,7 @@
       </c>
       <c r="K353" s="19"/>
     </row>
-    <row r="354" spans="1:11">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="14">
         <v>22367</v>
       </c>
@@ -12817,7 +12811,7 @@
       </c>
       <c r="K354" s="19"/>
     </row>
-    <row r="355" spans="1:11">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="14">
         <v>22367</v>
       </c>
@@ -12842,7 +12836,7 @@
       </c>
       <c r="K355" s="19"/>
     </row>
-    <row r="356" spans="1:11" ht="30">
+    <row r="356" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A356" s="14">
         <v>22367</v>
       </c>
@@ -12867,7 +12861,7 @@
       </c>
       <c r="K356" s="19"/>
     </row>
-    <row r="357" spans="1:11">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="14">
         <v>22367</v>
       </c>
@@ -12892,7 +12886,7 @@
       </c>
       <c r="K357" s="19"/>
     </row>
-    <row r="358" spans="1:11" ht="60">
+    <row r="358" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A358" s="20">
         <v>22398</v>
       </c>
@@ -12921,7 +12915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:11">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="20">
         <v>22398</v>
       </c>
@@ -12950,7 +12944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:11">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="20">
         <v>22398</v>
       </c>
@@ -12979,7 +12973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:11" ht="45">
+    <row r="361" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A361" s="20">
         <v>22398</v>
       </c>
@@ -13008,7 +13002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:11" ht="90">
+    <row r="362" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A362" s="20">
         <v>22398</v>
       </c>
@@ -13037,7 +13031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:11" ht="45">
+    <row r="363" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A363" s="20">
         <v>22398</v>
       </c>
@@ -13066,7 +13060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:11" ht="60">
+    <row r="364" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A364" s="20">
         <v>22398</v>
       </c>
@@ -13095,7 +13089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:11">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="20">
         <v>22398</v>
       </c>
@@ -13124,7 +13118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:11">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="20">
         <v>22398</v>
       </c>
@@ -13153,7 +13147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:11" ht="30">
+    <row r="367" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A367" s="20">
         <v>22398</v>
       </c>
@@ -13182,7 +13176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:11" ht="30">
+    <row r="368" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A368" s="14">
         <v>22421</v>
       </c>
@@ -13207,7 +13201,7 @@
       </c>
       <c r="K368" s="19"/>
     </row>
-    <row r="369" spans="1:11">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="14">
         <v>22421</v>
       </c>
@@ -13232,7 +13226,7 @@
       </c>
       <c r="K369" s="19"/>
     </row>
-    <row r="370" spans="1:11" ht="105">
+    <row r="370" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A370" s="14">
         <v>22421</v>
       </c>
@@ -13257,7 +13251,7 @@
       </c>
       <c r="K370" s="19"/>
     </row>
-    <row r="371" spans="1:11" ht="45">
+    <row r="371" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A371" s="20">
         <v>22436</v>
       </c>
@@ -13280,7 +13274,7 @@
       <c r="J371" s="25"/>
       <c r="K371" s="26"/>
     </row>
-    <row r="372" spans="1:11">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="14">
         <v>22452</v>
       </c>
@@ -13303,7 +13297,7 @@
       <c r="J372" s="18"/>
       <c r="K372" s="19"/>
     </row>
-    <row r="373" spans="1:11">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="20">
         <v>22462</v>
       </c>
@@ -13326,7 +13320,7 @@
       <c r="J373" s="25"/>
       <c r="K373" s="26"/>
     </row>
-    <row r="374" spans="1:11" ht="60">
+    <row r="374" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A374" s="14">
         <v>22555</v>
       </c>
@@ -13351,7 +13345,7 @@
       <c r="J374" s="18"/>
       <c r="K374" s="19"/>
     </row>
-    <row r="375" spans="1:11" ht="45">
+    <row r="375" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A375" s="14">
         <v>22555</v>
       </c>
@@ -13376,7 +13370,7 @@
       <c r="J375" s="18"/>
       <c r="K375" s="19"/>
     </row>
-    <row r="376" spans="1:11" ht="60">
+    <row r="376" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A376" s="14">
         <v>22555</v>
       </c>
@@ -13401,7 +13395,7 @@
       <c r="J376" s="18"/>
       <c r="K376" s="19"/>
     </row>
-    <row r="377" spans="1:11" ht="30">
+    <row r="377" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A377" s="14">
         <v>22555</v>
       </c>
@@ -13426,7 +13420,7 @@
       <c r="J377" s="18"/>
       <c r="K377" s="19"/>
     </row>
-    <row r="378" spans="1:11" ht="75">
+    <row r="378" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A378" s="14">
         <v>22555</v>
       </c>
@@ -13451,7 +13445,7 @@
       <c r="J378" s="18"/>
       <c r="K378" s="19"/>
     </row>
-    <row r="379" spans="1:11">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="20">
         <v>22579</v>
       </c>
@@ -13474,7 +13468,7 @@
       <c r="J379" s="25"/>
       <c r="K379" s="26"/>
     </row>
-    <row r="380" spans="1:11" ht="30">
+    <row r="380" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A380" s="20">
         <v>22579</v>
       </c>
@@ -13497,7 +13491,7 @@
       <c r="J380" s="25"/>
       <c r="K380" s="26"/>
     </row>
-    <row r="381" spans="1:11" ht="30">
+    <row r="381" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A381" s="20">
         <v>22579</v>
       </c>
@@ -13520,7 +13514,7 @@
       <c r="J381" s="25"/>
       <c r="K381" s="26"/>
     </row>
-    <row r="382" spans="1:11">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="20">
         <v>22579</v>
       </c>
@@ -13543,7 +13537,7 @@
       <c r="J382" s="25"/>
       <c r="K382" s="26"/>
     </row>
-    <row r="383" spans="1:11" ht="30">
+    <row r="383" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A383" s="20">
         <v>22579</v>
       </c>
@@ -13566,7 +13560,7 @@
       <c r="J383" s="25"/>
       <c r="K383" s="26"/>
     </row>
-    <row r="384" spans="1:11">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="14">
         <v>22609</v>
       </c>
@@ -13589,7 +13583,7 @@
       <c r="J384" s="18"/>
       <c r="K384" s="19"/>
     </row>
-    <row r="385" spans="1:11" ht="45">
+    <row r="385" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A385" s="14">
         <v>22609</v>
       </c>
@@ -13612,7 +13606,7 @@
       <c r="J385" s="18"/>
       <c r="K385" s="19"/>
     </row>
-    <row r="386" spans="1:11" ht="45">
+    <row r="386" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A386" s="14">
         <v>22609</v>
       </c>
@@ -13635,7 +13629,7 @@
       <c r="J386" s="18"/>
       <c r="K386" s="19"/>
     </row>
-    <row r="387" spans="1:11">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="14">
         <v>22609</v>
       </c>
@@ -13658,7 +13652,7 @@
       <c r="J387" s="18"/>
       <c r="K387" s="19"/>
     </row>
-    <row r="388" spans="1:11">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="20">
         <v>22613</v>
       </c>
@@ -13681,7 +13675,7 @@
       <c r="J388" s="25"/>
       <c r="K388" s="26"/>
     </row>
-    <row r="389" spans="1:11" ht="60">
+    <row r="389" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A389" s="20">
         <v>22613</v>
       </c>
@@ -13704,7 +13698,7 @@
       <c r="J389" s="25"/>
       <c r="K389" s="26"/>
     </row>
-    <row r="390" spans="1:11" ht="30">
+    <row r="390" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A390" s="14">
         <v>22614</v>
       </c>
@@ -13727,7 +13721,7 @@
       <c r="J390" s="18"/>
       <c r="K390" s="19"/>
     </row>
-    <row r="391" spans="1:11" ht="60">
+    <row r="391" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A391" s="14">
         <v>22614</v>
       </c>
@@ -13750,7 +13744,7 @@
       <c r="J391" s="18"/>
       <c r="K391" s="19"/>
     </row>
-    <row r="392" spans="1:11" ht="30">
+    <row r="392" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A392" s="20">
         <v>22634</v>
       </c>
@@ -13773,7 +13767,7 @@
       <c r="J392" s="25"/>
       <c r="K392" s="26"/>
     </row>
-    <row r="393" spans="1:11" ht="30">
+    <row r="393" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A393" s="20">
         <v>22634</v>
       </c>
@@ -13796,7 +13790,7 @@
       <c r="J393" s="25"/>
       <c r="K393" s="26"/>
     </row>
-    <row r="394" spans="1:11" ht="30">
+    <row r="394" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A394" s="20">
         <v>22634</v>
       </c>
@@ -13819,7 +13813,7 @@
       <c r="J394" s="25"/>
       <c r="K394" s="26"/>
     </row>
-    <row r="395" spans="1:11" ht="30">
+    <row r="395" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A395" s="20">
         <v>22634</v>
       </c>
@@ -13842,7 +13836,7 @@
       <c r="J395" s="25"/>
       <c r="K395" s="26"/>
     </row>
-    <row r="396" spans="1:11" ht="45">
+    <row r="396" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A396" s="20">
         <v>22634</v>
       </c>
@@ -13865,7 +13859,7 @@
       <c r="J396" s="25"/>
       <c r="K396" s="26"/>
     </row>
-    <row r="397" spans="1:11" ht="30">
+    <row r="397" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A397" s="20">
         <v>22634</v>
       </c>
@@ -13888,7 +13882,7 @@
       <c r="J397" s="25"/>
       <c r="K397" s="26"/>
     </row>
-    <row r="398" spans="1:11" ht="30">
+    <row r="398" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A398" s="20">
         <v>22634</v>
       </c>
@@ -13911,7 +13905,7 @@
       <c r="J398" s="25"/>
       <c r="K398" s="26"/>
     </row>
-    <row r="399" spans="1:11">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="14">
         <v>22717</v>
       </c>
@@ -13936,7 +13930,7 @@
       </c>
       <c r="K399" s="19"/>
     </row>
-    <row r="400" spans="1:11" ht="45">
+    <row r="400" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A400" s="20">
         <v>22720</v>
       </c>
@@ -13965,7 +13959,7 @@
       </c>
       <c r="K400" s="26"/>
     </row>
-    <row r="401" spans="1:11" ht="60">
+    <row r="401" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A401" s="20">
         <v>22720</v>
       </c>
@@ -13994,7 +13988,7 @@
       </c>
       <c r="K401" s="26"/>
     </row>
-    <row r="402" spans="1:11" ht="30">
+    <row r="402" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A402" s="20">
         <v>22720</v>
       </c>
@@ -14023,7 +14017,7 @@
       </c>
       <c r="K402" s="26"/>
     </row>
-    <row r="403" spans="1:11" ht="45">
+    <row r="403" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A403" s="20">
         <v>22720</v>
       </c>
@@ -14052,7 +14046,7 @@
       </c>
       <c r="K403" s="26"/>
     </row>
-    <row r="404" spans="1:11" ht="45">
+    <row r="404" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A404" s="20">
         <v>22720</v>
       </c>
@@ -14081,7 +14075,7 @@
       </c>
       <c r="K404" s="26"/>
     </row>
-    <row r="405" spans="1:11">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="20">
         <v>22720</v>
       </c>
@@ -14110,7 +14104,7 @@
       </c>
       <c r="K405" s="26"/>
     </row>
-    <row r="406" spans="1:11">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="20">
         <v>22720</v>
       </c>
@@ -14139,7 +14133,7 @@
       </c>
       <c r="K406" s="26"/>
     </row>
-    <row r="407" spans="1:11">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="20">
         <v>22720</v>
       </c>
@@ -14168,7 +14162,7 @@
       </c>
       <c r="K407" s="26"/>
     </row>
-    <row r="408" spans="1:11" ht="30">
+    <row r="408" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A408" s="20">
         <v>22720</v>
       </c>
@@ -14197,7 +14191,7 @@
       </c>
       <c r="K408" s="26"/>
     </row>
-    <row r="409" spans="1:11">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="20">
         <v>22720</v>
       </c>
@@ -14226,7 +14220,7 @@
       </c>
       <c r="K409" s="26"/>
     </row>
-    <row r="410" spans="1:11">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="14">
         <v>22721</v>
       </c>
@@ -14251,7 +14245,7 @@
       <c r="J410" s="18"/>
       <c r="K410" s="19"/>
     </row>
-    <row r="411" spans="1:11" ht="30">
+    <row r="411" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A411" s="14">
         <v>22721</v>
       </c>
@@ -14276,7 +14270,7 @@
       <c r="J411" s="18"/>
       <c r="K411" s="19"/>
     </row>
-    <row r="412" spans="1:11" ht="45">
+    <row r="412" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A412" s="14">
         <v>22721</v>
       </c>
@@ -14301,7 +14295,7 @@
       <c r="J412" s="18"/>
       <c r="K412" s="19"/>
     </row>
-    <row r="413" spans="1:11" ht="45">
+    <row r="413" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A413" s="14">
         <v>22721</v>
       </c>
@@ -14326,7 +14320,7 @@
       <c r="J413" s="18"/>
       <c r="K413" s="19"/>
     </row>
-    <row r="414" spans="1:11" ht="60">
+    <row r="414" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A414" s="14">
         <v>22721</v>
       </c>
@@ -14351,7 +14345,7 @@
       <c r="J414" s="18"/>
       <c r="K414" s="19"/>
     </row>
-    <row r="415" spans="1:11" ht="45">
+    <row r="415" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A415" s="14">
         <v>22721</v>
       </c>
@@ -14376,7 +14370,7 @@
       <c r="J415" s="18"/>
       <c r="K415" s="19"/>
     </row>
-    <row r="416" spans="1:11">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="14">
         <v>22721</v>
       </c>
@@ -14401,7 +14395,7 @@
       <c r="J416" s="18"/>
       <c r="K416" s="19"/>
     </row>
-    <row r="417" spans="1:11" ht="30">
+    <row r="417" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A417" s="14">
         <v>22721</v>
       </c>
@@ -14426,7 +14420,7 @@
       <c r="J417" s="18"/>
       <c r="K417" s="19"/>
     </row>
-    <row r="418" spans="1:11">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="20">
         <v>22723</v>
       </c>
@@ -14455,7 +14449,7 @@
       </c>
       <c r="K418" s="26"/>
     </row>
-    <row r="419" spans="1:11" ht="60">
+    <row r="419" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A419" s="20">
         <v>22723</v>
       </c>
@@ -14484,7 +14478,7 @@
       </c>
       <c r="K419" s="26"/>
     </row>
-    <row r="420" spans="1:11" ht="60">
+    <row r="420" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A420" s="20">
         <v>22723</v>
       </c>
@@ -14513,7 +14507,7 @@
       </c>
       <c r="K420" s="26"/>
     </row>
-    <row r="421" spans="1:11" ht="60">
+    <row r="421" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A421" s="20">
         <v>22723</v>
       </c>
@@ -14542,7 +14536,7 @@
       </c>
       <c r="K421" s="26"/>
     </row>
-    <row r="422" spans="1:11" ht="75">
+    <row r="422" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A422" s="20">
         <v>22723</v>
       </c>
@@ -14571,7 +14565,7 @@
       </c>
       <c r="K422" s="26"/>
     </row>
-    <row r="423" spans="1:11" ht="60">
+    <row r="423" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A423" s="20">
         <v>22723</v>
       </c>
@@ -14600,7 +14594,7 @@
       </c>
       <c r="K423" s="26"/>
     </row>
-    <row r="424" spans="1:11" ht="75">
+    <row r="424" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A424" s="20">
         <v>22723</v>
       </c>
@@ -14629,7 +14623,7 @@
       </c>
       <c r="K424" s="26"/>
     </row>
-    <row r="425" spans="1:11" ht="90">
+    <row r="425" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A425" s="20">
         <v>22723</v>
       </c>
@@ -14658,7 +14652,7 @@
       </c>
       <c r="K425" s="26"/>
     </row>
-    <row r="426" spans="1:11" ht="60">
+    <row r="426" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A426" s="20">
         <v>22723</v>
       </c>
@@ -14687,7 +14681,7 @@
       </c>
       <c r="K426" s="26"/>
     </row>
-    <row r="427" spans="1:11" ht="30">
+    <row r="427" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A427" s="20">
         <v>22723</v>
       </c>
@@ -14716,7 +14710,7 @@
       </c>
       <c r="K427" s="26"/>
     </row>
-    <row r="428" spans="1:11" ht="45">
+    <row r="428" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A428" s="14">
         <v>22779</v>
       </c>
@@ -14741,7 +14735,7 @@
       <c r="J428" s="18"/>
       <c r="K428" s="19"/>
     </row>
-    <row r="429" spans="1:11" ht="45">
+    <row r="429" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A429" s="14">
         <v>22779</v>
       </c>
@@ -14766,7 +14760,7 @@
       <c r="J429" s="18"/>
       <c r="K429" s="19"/>
     </row>
-    <row r="430" spans="1:11" ht="30">
+    <row r="430" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A430" s="14">
         <v>22779</v>
       </c>
@@ -14791,7 +14785,7 @@
       <c r="J430" s="18"/>
       <c r="K430" s="19"/>
     </row>
-    <row r="431" spans="1:11" ht="45">
+    <row r="431" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A431" s="14">
         <v>22779</v>
       </c>
@@ -14816,7 +14810,7 @@
       <c r="J431" s="18"/>
       <c r="K431" s="19"/>
     </row>
-    <row r="432" spans="1:11" ht="30">
+    <row r="432" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A432" s="20">
         <v>22870</v>
       </c>
@@ -14843,7 +14837,7 @@
       <c r="J432" s="25"/>
       <c r="K432" s="26"/>
     </row>
-    <row r="433" spans="1:11" ht="75">
+    <row r="433" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A433" s="20">
         <v>22870</v>
       </c>
@@ -14870,7 +14864,7 @@
       <c r="J433" s="25"/>
       <c r="K433" s="26"/>
     </row>
-    <row r="434" spans="1:11" ht="30">
+    <row r="434" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A434" s="20">
         <v>22870</v>
       </c>
@@ -14897,7 +14891,7 @@
       <c r="J434" s="25"/>
       <c r="K434" s="26"/>
     </row>
-    <row r="435" spans="1:11" ht="30">
+    <row r="435" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A435" s="20">
         <v>22870</v>
       </c>
@@ -14924,7 +14918,7 @@
       <c r="J435" s="25"/>
       <c r="K435" s="26"/>
     </row>
-    <row r="436" spans="1:11" ht="30">
+    <row r="436" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A436" s="20">
         <v>22870</v>
       </c>
@@ -14951,7 +14945,7 @@
       <c r="J436" s="25"/>
       <c r="K436" s="26"/>
     </row>
-    <row r="437" spans="1:11" ht="45">
+    <row r="437" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A437" s="14">
         <v>22871</v>
       </c>
@@ -14976,7 +14970,7 @@
       <c r="J437" s="18"/>
       <c r="K437" s="19"/>
     </row>
-    <row r="438" spans="1:11" ht="60">
+    <row r="438" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A438" s="14">
         <v>22871</v>
       </c>
@@ -15001,7 +14995,7 @@
       <c r="J438" s="18"/>
       <c r="K438" s="19"/>
     </row>
-    <row r="439" spans="1:11" ht="45">
+    <row r="439" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A439" s="14">
         <v>22871</v>
       </c>
@@ -15026,7 +15020,7 @@
       <c r="J439" s="18"/>
       <c r="K439" s="19"/>
     </row>
-    <row r="440" spans="1:11" ht="30">
+    <row r="440" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A440" s="14">
         <v>22871</v>
       </c>
@@ -15051,7 +15045,7 @@
       <c r="J440" s="18"/>
       <c r="K440" s="19"/>
     </row>
-    <row r="441" spans="1:11" ht="30">
+    <row r="441" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A441" s="20">
         <v>22947</v>
       </c>
@@ -15076,7 +15070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:11" ht="60">
+    <row r="442" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A442" s="14">
         <v>23012</v>
       </c>
@@ -15101,7 +15095,7 @@
       </c>
       <c r="K442" s="19"/>
     </row>
-    <row r="443" spans="1:11" ht="30">
+    <row r="443" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A443" s="20">
         <v>23019</v>
       </c>
@@ -15126,7 +15120,7 @@
       <c r="J443" s="25"/>
       <c r="K443" s="26"/>
     </row>
-    <row r="444" spans="1:11" ht="45">
+    <row r="444" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A444" s="20">
         <v>23019</v>
       </c>
@@ -15151,7 +15145,7 @@
       <c r="J444" s="25"/>
       <c r="K444" s="26"/>
     </row>
-    <row r="445" spans="1:11" ht="60">
+    <row r="445" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A445" s="20">
         <v>23019</v>
       </c>
@@ -15176,7 +15170,7 @@
       <c r="J445" s="25"/>
       <c r="K445" s="26"/>
     </row>
-    <row r="446" spans="1:11" ht="120">
+    <row r="446" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A446" s="20">
         <v>23019</v>
       </c>
@@ -15201,7 +15195,7 @@
       <c r="J446" s="25"/>
       <c r="K446" s="26"/>
     </row>
-    <row r="447" spans="1:11" ht="30">
+    <row r="447" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A447" s="14">
         <v>23021</v>
       </c>
@@ -15226,7 +15220,7 @@
       <c r="J447" s="18"/>
       <c r="K447" s="19"/>
     </row>
-    <row r="448" spans="1:11" ht="105">
+    <row r="448" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A448" s="14">
         <v>23021</v>
       </c>
@@ -15251,7 +15245,7 @@
       <c r="J448" s="18"/>
       <c r="K448" s="19"/>
     </row>
-    <row r="449" spans="1:11" ht="75">
+    <row r="449" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A449" s="14">
         <v>23021</v>
       </c>
@@ -15276,7 +15270,7 @@
       <c r="J449" s="18"/>
       <c r="K449" s="19"/>
     </row>
-    <row r="450" spans="1:11" ht="60">
+    <row r="450" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A450" s="14">
         <v>23021</v>
       </c>
@@ -15301,7 +15295,7 @@
       <c r="J450" s="18"/>
       <c r="K450" s="19"/>
     </row>
-    <row r="451" spans="1:11" ht="30">
+    <row r="451" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A451" s="14">
         <v>23021</v>
       </c>
@@ -15326,7 +15320,7 @@
       <c r="J451" s="18"/>
       <c r="K451" s="19"/>
     </row>
-    <row r="452" spans="1:11" ht="60">
+    <row r="452" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A452" s="14">
         <v>23021</v>
       </c>
@@ -15351,7 +15345,7 @@
       <c r="J452" s="18"/>
       <c r="K452" s="19"/>
     </row>
-    <row r="453" spans="1:11" ht="30">
+    <row r="453" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A453" s="14">
         <v>23021</v>
       </c>
@@ -15376,7 +15370,7 @@
       <c r="J453" s="18"/>
       <c r="K453" s="19"/>
     </row>
-    <row r="454" spans="1:11" ht="30">
+    <row r="454" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A454" s="14">
         <v>23021</v>
       </c>
@@ -15401,7 +15395,7 @@
       <c r="J454" s="18"/>
       <c r="K454" s="19"/>
     </row>
-    <row r="455" spans="1:11" ht="45">
+    <row r="455" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A455" s="20">
         <v>23122</v>
       </c>
@@ -15426,7 +15420,7 @@
       <c r="J455" s="25"/>
       <c r="K455" s="26"/>
     </row>
-    <row r="456" spans="1:11" ht="30">
+    <row r="456" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A456" s="20">
         <v>23122</v>
       </c>
@@ -15451,7 +15445,7 @@
       <c r="J456" s="25"/>
       <c r="K456" s="26"/>
     </row>
-    <row r="457" spans="1:11" ht="90">
+    <row r="457" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A457" s="20">
         <v>23122</v>
       </c>
@@ -15476,7 +15470,7 @@
       <c r="J457" s="25"/>
       <c r="K457" s="26"/>
     </row>
-    <row r="458" spans="1:11" ht="60">
+    <row r="458" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A458" s="20">
         <v>23122</v>
       </c>
@@ -15501,7 +15495,7 @@
       <c r="J458" s="25"/>
       <c r="K458" s="26"/>
     </row>
-    <row r="459" spans="1:11" ht="45">
+    <row r="459" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A459" s="20">
         <v>23122</v>
       </c>
@@ -15526,7 +15520,7 @@
       <c r="J459" s="25"/>
       <c r="K459" s="26"/>
     </row>
-    <row r="460" spans="1:11" ht="75">
+    <row r="460" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A460" s="14">
         <v>23124</v>
       </c>
@@ -15551,7 +15545,7 @@
       <c r="J460" s="18"/>
       <c r="K460" s="19"/>
     </row>
-    <row r="461" spans="1:11" ht="60">
+    <row r="461" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A461" s="20">
         <v>23165</v>
       </c>
@@ -15578,7 +15572,7 @@
       <c r="J461" s="25"/>
       <c r="K461" s="26"/>
     </row>
-    <row r="462" spans="1:11">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="20">
         <v>23165</v>
       </c>
@@ -15605,7 +15599,7 @@
       <c r="J462" s="25"/>
       <c r="K462" s="26"/>
     </row>
-    <row r="463" spans="1:11" ht="30">
+    <row r="463" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A463" s="20">
         <v>23165</v>
       </c>
@@ -15632,7 +15626,7 @@
       <c r="J463" s="25"/>
       <c r="K463" s="26"/>
     </row>
-    <row r="464" spans="1:11" ht="30">
+    <row r="464" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A464" s="14">
         <v>23201</v>
       </c>
@@ -15657,7 +15651,7 @@
       <c r="J464" s="18"/>
       <c r="K464" s="19"/>
     </row>
-    <row r="465" spans="1:11" ht="30">
+    <row r="465" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A465" s="14">
         <v>23201</v>
       </c>
@@ -15682,7 +15676,7 @@
       <c r="J465" s="18"/>
       <c r="K465" s="19"/>
     </row>
-    <row r="466" spans="1:11" ht="45">
+    <row r="466" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A466" s="20">
         <v>23274</v>
       </c>
@@ -15707,7 +15701,7 @@
       <c r="J466" s="25"/>
       <c r="K466" s="26"/>
     </row>
-    <row r="467" spans="1:11" ht="30">
+    <row r="467" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A467" s="20">
         <v>23274</v>
       </c>
@@ -15732,7 +15726,7 @@
       <c r="J467" s="25"/>
       <c r="K467" s="26"/>
     </row>
-    <row r="468" spans="1:11" ht="30">
+    <row r="468" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A468" s="20">
         <v>23274</v>
       </c>
@@ -15757,7 +15751,7 @@
       <c r="J468" s="25"/>
       <c r="K468" s="26"/>
     </row>
-    <row r="469" spans="1:11" ht="30">
+    <row r="469" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A469" s="14">
         <v>23275</v>
       </c>
@@ -15782,7 +15776,7 @@
       <c r="J469" s="18"/>
       <c r="K469" s="19"/>
     </row>
-    <row r="470" spans="1:11" ht="30">
+    <row r="470" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A470" s="14">
         <v>23275</v>
       </c>
@@ -15807,7 +15801,7 @@
       <c r="J470" s="18"/>
       <c r="K470" s="19"/>
     </row>
-    <row r="471" spans="1:11" ht="30">
+    <row r="471" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A471" s="14">
         <v>23275</v>
       </c>
@@ -15832,7 +15826,7 @@
       <c r="J471" s="18"/>
       <c r="K471" s="19"/>
     </row>
-    <row r="472" spans="1:11" ht="30">
+    <row r="472" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A472" s="14">
         <v>23275</v>
       </c>
@@ -15857,7 +15851,7 @@
       <c r="J472" s="18"/>
       <c r="K472" s="19"/>
     </row>
-    <row r="473" spans="1:11" ht="30">
+    <row r="473" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A473" s="14">
         <v>23275</v>
       </c>
@@ -15882,7 +15876,7 @@
       <c r="J473" s="18"/>
       <c r="K473" s="19"/>
     </row>
-    <row r="474" spans="1:11" ht="45">
+    <row r="474" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A474" s="20">
         <v>23276</v>
       </c>
@@ -15907,7 +15901,7 @@
       <c r="J474" s="25"/>
       <c r="K474" s="26"/>
     </row>
-    <row r="475" spans="1:11" ht="30">
+    <row r="475" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A475" s="20">
         <v>23276</v>
       </c>
@@ -15932,7 +15926,7 @@
       <c r="J475" s="25"/>
       <c r="K475" s="26"/>
     </row>
-    <row r="476" spans="1:11" ht="30">
+    <row r="476" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A476" s="20">
         <v>23276</v>
       </c>
@@ -15957,7 +15951,7 @@
       <c r="J476" s="25"/>
       <c r="K476" s="26"/>
     </row>
-    <row r="477" spans="1:11" ht="105">
+    <row r="477" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A477" s="14">
         <v>23363</v>
       </c>
@@ -15986,7 +15980,7 @@
       </c>
       <c r="K477" s="19"/>
     </row>
-    <row r="478" spans="1:11" ht="60">
+    <row r="478" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A478" s="14">
         <v>23363</v>
       </c>
@@ -16015,7 +16009,7 @@
       </c>
       <c r="K478" s="19"/>
     </row>
-    <row r="479" spans="1:11" ht="120">
+    <row r="479" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A479" s="14">
         <v>23363</v>
       </c>
@@ -16044,7 +16038,7 @@
       </c>
       <c r="K479" s="19"/>
     </row>
-    <row r="480" spans="1:11" ht="45">
+    <row r="480" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A480" s="14">
         <v>23363</v>
       </c>
@@ -16073,7 +16067,7 @@
       </c>
       <c r="K480" s="19"/>
     </row>
-    <row r="481" spans="1:11" ht="45">
+    <row r="481" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A481" s="20">
         <v>23422</v>
       </c>
@@ -16098,7 +16092,7 @@
       <c r="J481" s="25"/>
       <c r="K481" s="26"/>
     </row>
-    <row r="482" spans="1:11" ht="30">
+    <row r="482" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A482" s="20">
         <v>23422</v>
       </c>
@@ -16123,7 +16117,7 @@
       <c r="J482" s="25"/>
       <c r="K482" s="26"/>
     </row>
-    <row r="483" spans="1:11" ht="45">
+    <row r="483" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A483" s="14">
         <v>23428</v>
       </c>
@@ -16148,7 +16142,7 @@
       <c r="J483" s="18"/>
       <c r="K483" s="19"/>
     </row>
-    <row r="484" spans="1:11" ht="30">
+    <row r="484" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A484" s="14">
         <v>23428</v>
       </c>
@@ -16173,7 +16167,7 @@
       <c r="J484" s="18"/>
       <c r="K484" s="19"/>
     </row>
-    <row r="485" spans="1:11" ht="45">
+    <row r="485" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A485" s="20">
         <v>23436</v>
       </c>
@@ -16198,7 +16192,7 @@
       <c r="J485" s="25"/>
       <c r="K485" s="26"/>
     </row>
-    <row r="486" spans="1:11" ht="30">
+    <row r="486" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A486" s="20">
         <v>23436</v>
       </c>
@@ -16223,7 +16217,7 @@
       <c r="J486" s="25"/>
       <c r="K486" s="26"/>
     </row>
-    <row r="487" spans="1:11" ht="30">
+    <row r="487" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A487" s="14">
         <v>23439</v>
       </c>
@@ -16248,7 +16242,7 @@
       <c r="J487" s="18"/>
       <c r="K487" s="19"/>
     </row>
-    <row r="488" spans="1:11" ht="60">
+    <row r="488" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A488" s="20">
         <v>23462</v>
       </c>
@@ -16273,7 +16267,7 @@
       <c r="J488" s="25"/>
       <c r="K488" s="26"/>
     </row>
-    <row r="489" spans="1:11" ht="45">
+    <row r="489" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A489" s="20">
         <v>23462</v>
       </c>
@@ -16298,7 +16292,7 @@
       <c r="J489" s="25"/>
       <c r="K489" s="26"/>
     </row>
-    <row r="490" spans="1:11" ht="75">
+    <row r="490" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A490" s="14">
         <v>23486</v>
       </c>
@@ -16323,7 +16317,7 @@
       <c r="J490" s="18"/>
       <c r="K490" s="19"/>
     </row>
-    <row r="491" spans="1:11">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="14">
         <v>23486</v>
       </c>
@@ -16348,7 +16342,7 @@
       <c r="J491" s="18"/>
       <c r="K491" s="19"/>
     </row>
-    <row r="492" spans="1:11" ht="45">
+    <row r="492" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A492" s="14">
         <v>23486</v>
       </c>
@@ -16373,7 +16367,7 @@
       <c r="J492" s="18"/>
       <c r="K492" s="19"/>
     </row>
-    <row r="493" spans="1:11">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="14">
         <v>23486</v>
       </c>
@@ -16398,7 +16392,7 @@
       <c r="J493" s="18"/>
       <c r="K493" s="19"/>
     </row>
-    <row r="494" spans="1:11" ht="60">
+    <row r="494" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A494" s="20">
         <v>23487</v>
       </c>
@@ -16423,7 +16417,7 @@
       <c r="J494" s="25"/>
       <c r="K494" s="26"/>
     </row>
-    <row r="495" spans="1:11" ht="30">
+    <row r="495" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A495" s="20">
         <v>23487</v>
       </c>
@@ -16448,7 +16442,7 @@
       <c r="J495" s="25"/>
       <c r="K495" s="26"/>
     </row>
-    <row r="496" spans="1:11" ht="30">
+    <row r="496" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A496" s="14">
         <v>23489</v>
       </c>
@@ -16473,7 +16467,7 @@
       <c r="J496" s="18"/>
       <c r="K496" s="19"/>
     </row>
-    <row r="497" spans="1:11" ht="30">
+    <row r="497" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A497" s="14">
         <v>23489</v>
       </c>
@@ -16498,7 +16492,7 @@
       <c r="J497" s="18"/>
       <c r="K497" s="19"/>
     </row>
-    <row r="498" spans="1:11" ht="60">
+    <row r="498" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A498" s="20">
         <v>23492</v>
       </c>
@@ -16523,7 +16517,7 @@
       <c r="J498" s="25"/>
       <c r="K498" s="26"/>
     </row>
-    <row r="499" spans="1:11" ht="30">
+    <row r="499" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A499" s="14">
         <v>23511</v>
       </c>
@@ -16548,7 +16542,7 @@
       <c r="J499" s="18"/>
       <c r="K499" s="19"/>
     </row>
-    <row r="500" spans="1:11" ht="30">
+    <row r="500" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A500" s="14">
         <v>23511</v>
       </c>
@@ -16573,7 +16567,7 @@
       <c r="J500" s="18"/>
       <c r="K500" s="19"/>
     </row>
-    <row r="501" spans="1:11" ht="45">
+    <row r="501" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A501" s="20">
         <v>23512</v>
       </c>
@@ -16598,7 +16592,7 @@
       <c r="J501" s="25"/>
       <c r="K501" s="26"/>
     </row>
-    <row r="502" spans="1:11" ht="30">
+    <row r="502" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A502" s="20">
         <v>23512</v>
       </c>
@@ -16623,7 +16617,7 @@
       <c r="J502" s="25"/>
       <c r="K502" s="26"/>
     </row>
-    <row r="503" spans="1:11" ht="30">
+    <row r="503" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A503" s="14">
         <v>23539</v>
       </c>
@@ -16648,7 +16642,7 @@
       <c r="J503" s="18"/>
       <c r="K503" s="19"/>
     </row>
-    <row r="504" spans="1:11" ht="30">
+    <row r="504" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A504" s="14">
         <v>23539</v>
       </c>
@@ -16673,7 +16667,7 @@
       <c r="J504" s="18"/>
       <c r="K504" s="19"/>
     </row>
-    <row r="505" spans="1:11" ht="75">
+    <row r="505" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A505" s="20">
         <v>23545</v>
       </c>
@@ -16698,7 +16692,7 @@
       <c r="J505" s="25"/>
       <c r="K505" s="26"/>
     </row>
-    <row r="506" spans="1:11" ht="45">
+    <row r="506" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A506" s="20">
         <v>23545</v>
       </c>
@@ -16723,7 +16717,7 @@
       <c r="J506" s="25"/>
       <c r="K506" s="26"/>
     </row>
-    <row r="507" spans="1:11" ht="45">
+    <row r="507" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A507" s="14">
         <v>23593</v>
       </c>
@@ -16746,7 +16740,7 @@
       <c r="J507" s="18"/>
       <c r="K507" s="19"/>
     </row>
-    <row r="508" spans="1:11" ht="45">
+    <row r="508" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A508" s="20">
         <v>23630</v>
       </c>
@@ -16771,7 +16765,7 @@
       <c r="J508" s="25"/>
       <c r="K508" s="26"/>
     </row>
-    <row r="509" spans="1:11" ht="105">
+    <row r="509" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A509" s="20">
         <v>23630</v>
       </c>
@@ -16796,7 +16790,7 @@
       <c r="J509" s="25"/>
       <c r="K509" s="26"/>
     </row>
-    <row r="510" spans="1:11" ht="30">
+    <row r="510" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A510" s="20">
         <v>23630</v>
       </c>
@@ -16819,7 +16813,7 @@
       <c r="J510" s="25"/>
       <c r="K510" s="26"/>
     </row>
-    <row r="511" spans="1:11" ht="30">
+    <row r="511" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A511" s="20">
         <v>23630</v>
       </c>
@@ -16844,7 +16838,7 @@
       <c r="J511" s="25"/>
       <c r="K511" s="26"/>
     </row>
-    <row r="512" spans="1:11" ht="60">
+    <row r="512" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A512" s="20">
         <v>23630</v>
       </c>
@@ -16869,7 +16863,7 @@
       <c r="J512" s="25"/>
       <c r="K512" s="26"/>
     </row>
-    <row r="513" spans="1:11" ht="30">
+    <row r="513" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A513" s="20">
         <v>23630</v>
       </c>
@@ -16894,7 +16888,7 @@
       <c r="J513" s="25"/>
       <c r="K513" s="26"/>
     </row>
-    <row r="514" spans="1:11" ht="30">
+    <row r="514" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A514" s="20">
         <v>23630</v>
       </c>
@@ -16919,7 +16913,7 @@
       <c r="J514" s="25"/>
       <c r="K514" s="26"/>
     </row>
-    <row r="515" spans="1:11" ht="45">
+    <row r="515" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A515" s="20">
         <v>23630</v>
       </c>
@@ -16944,7 +16938,7 @@
       <c r="J515" s="25"/>
       <c r="K515" s="26"/>
     </row>
-    <row r="516" spans="1:11" ht="75">
+    <row r="516" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A516" s="14">
         <v>23692</v>
       </c>
@@ -16969,7 +16963,7 @@
       <c r="J516" s="18"/>
       <c r="K516" s="19"/>
     </row>
-    <row r="517" spans="1:11" ht="30">
+    <row r="517" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A517" s="14">
         <v>23692</v>
       </c>
@@ -16994,7 +16988,7 @@
       <c r="J517" s="18"/>
       <c r="K517" s="19"/>
     </row>
-    <row r="518" spans="1:11" ht="45">
+    <row r="518" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A518" s="14">
         <v>23692</v>
       </c>
@@ -17019,7 +17013,7 @@
       <c r="J518" s="18"/>
       <c r="K518" s="19"/>
     </row>
-    <row r="519" spans="1:11" ht="30">
+    <row r="519" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A519" s="14">
         <v>23692</v>
       </c>
@@ -17044,7 +17038,7 @@
       <c r="J519" s="18"/>
       <c r="K519" s="19"/>
     </row>
-    <row r="520" spans="1:11" ht="45">
+    <row r="520" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A520" s="14">
         <v>23692</v>
       </c>
@@ -17069,7 +17063,7 @@
       <c r="J520" s="18"/>
       <c r="K520" s="19"/>
     </row>
-    <row r="521" spans="1:11" ht="30">
+    <row r="521" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A521" s="20">
         <v>23706</v>
       </c>
@@ -17092,7 +17086,7 @@
       <c r="J521" s="25"/>
       <c r="K521" s="26"/>
     </row>
-    <row r="522" spans="1:11" ht="30">
+    <row r="522" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A522" s="14">
         <v>23708</v>
       </c>
@@ -17115,7 +17109,7 @@
       <c r="J522" s="18"/>
       <c r="K522" s="19"/>
     </row>
-    <row r="523" spans="1:11" ht="30">
+    <row r="523" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A523" s="20">
         <v>23709</v>
       </c>
@@ -17138,7 +17132,7 @@
       <c r="J523" s="25"/>
       <c r="K523" s="26"/>
     </row>
-    <row r="524" spans="1:11" ht="30">
+    <row r="524" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A524" s="14">
         <v>23710</v>
       </c>
@@ -17161,7 +17155,7 @@
       <c r="J524" s="18"/>
       <c r="K524" s="19"/>
     </row>
-    <row r="525" spans="1:11" ht="30">
+    <row r="525" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A525" s="20">
         <v>23712</v>
       </c>
@@ -17188,7 +17182,7 @@
       </c>
       <c r="K525" s="26"/>
     </row>
-    <row r="526" spans="1:11" ht="45">
+    <row r="526" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A526" s="20">
         <v>23712</v>
       </c>
@@ -17215,7 +17209,7 @@
       </c>
       <c r="K526" s="26"/>
     </row>
-    <row r="527" spans="1:11" ht="75">
+    <row r="527" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A527" s="20">
         <v>23712</v>
       </c>
@@ -17242,7 +17236,7 @@
       </c>
       <c r="K527" s="26"/>
     </row>
-    <row r="528" spans="1:11" ht="45">
+    <row r="528" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A528" s="20">
         <v>23712</v>
       </c>
@@ -17269,7 +17263,7 @@
       </c>
       <c r="K528" s="26"/>
     </row>
-    <row r="529" spans="1:11" ht="30">
+    <row r="529" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A529" s="20">
         <v>23712</v>
       </c>
@@ -17296,7 +17290,7 @@
       </c>
       <c r="K529" s="26"/>
     </row>
-    <row r="530" spans="1:11" ht="45">
+    <row r="530" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A530" s="20">
         <v>23712</v>
       </c>
@@ -17323,7 +17317,7 @@
       </c>
       <c r="K530" s="26"/>
     </row>
-    <row r="531" spans="1:11">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="20">
         <v>23712</v>
       </c>
@@ -17350,7 +17344,7 @@
       </c>
       <c r="K531" s="26"/>
     </row>
-    <row r="532" spans="1:11" ht="45">
+    <row r="532" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A532" s="20">
         <v>23712</v>
       </c>
@@ -17377,7 +17371,7 @@
       </c>
       <c r="K532" s="26"/>
     </row>
-    <row r="533" spans="1:11" ht="60">
+    <row r="533" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A533" s="20">
         <v>23712</v>
       </c>
@@ -17404,7 +17398,7 @@
       </c>
       <c r="K533" s="26"/>
     </row>
-    <row r="534" spans="1:11">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="20">
         <v>23712</v>
       </c>
@@ -17431,7 +17425,7 @@
       </c>
       <c r="K534" s="26"/>
     </row>
-    <row r="535" spans="1:11" ht="30">
+    <row r="535" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A535" s="14">
         <v>23753</v>
       </c>
@@ -17454,7 +17448,7 @@
       <c r="J535" s="18"/>
       <c r="K535" s="19"/>
     </row>
-    <row r="536" spans="1:11" ht="30">
+    <row r="536" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A536" s="14">
         <v>23753</v>
       </c>
@@ -17477,7 +17471,7 @@
       <c r="J536" s="18"/>
       <c r="K536" s="19"/>
     </row>
-    <row r="537" spans="1:11" ht="30">
+    <row r="537" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A537" s="14">
         <v>23753</v>
       </c>
@@ -17500,7 +17494,7 @@
       <c r="J537" s="18"/>
       <c r="K537" s="19"/>
     </row>
-    <row r="538" spans="1:11" ht="120">
+    <row r="538" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A538" s="14">
         <v>23753</v>
       </c>
@@ -17525,7 +17519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:11" ht="30">
+    <row r="539" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A539" s="14">
         <v>23753</v>
       </c>
@@ -17550,7 +17544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:11" ht="90">
+    <row r="540" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A540" s="14">
         <v>23753</v>
       </c>
@@ -17573,7 +17567,7 @@
       <c r="J540" s="18"/>
       <c r="K540" s="19"/>
     </row>
-    <row r="541" spans="1:11" ht="60">
+    <row r="541" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A541" s="14">
         <v>23753</v>
       </c>
@@ -17596,7 +17590,7 @@
       <c r="J541" s="18"/>
       <c r="K541" s="19"/>
     </row>
-    <row r="542" spans="1:11">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="20">
         <v>23899</v>
       </c>
@@ -17621,7 +17615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:11" ht="30">
+    <row r="543" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A543" s="14">
         <v>23934</v>
       </c>
@@ -17644,7 +17638,7 @@
       <c r="J543" s="18"/>
       <c r="K543" s="19"/>
     </row>
-    <row r="544" spans="1:11" ht="30">
+    <row r="544" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A544" s="14">
         <v>23934</v>
       </c>
@@ -17667,7 +17661,7 @@
       <c r="J544" s="18"/>
       <c r="K544" s="19"/>
     </row>
-    <row r="545" spans="1:11" ht="30">
+    <row r="545" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A545" s="14">
         <v>23934</v>
       </c>
@@ -17690,7 +17684,7 @@
       <c r="J545" s="18"/>
       <c r="K545" s="19"/>
     </row>
-    <row r="546" spans="1:11">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="20">
         <v>24045</v>
       </c>
@@ -17713,7 +17707,7 @@
       <c r="J546" s="25"/>
       <c r="K546" s="26"/>
     </row>
-    <row r="547" spans="1:11" ht="45">
+    <row r="547" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A547" s="20">
         <v>24045</v>
       </c>
@@ -17738,7 +17732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:11" ht="45">
+    <row r="548" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A548" s="20">
         <v>24045</v>
       </c>
@@ -17763,7 +17757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:11" ht="30">
+    <row r="549" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A549" s="20">
         <v>24045</v>
       </c>
@@ -17788,7 +17782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:11" ht="30">
+    <row r="550" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A550" s="20">
         <v>24045</v>
       </c>
@@ -17813,7 +17807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:11">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="20">
         <v>24045</v>
       </c>
@@ -17836,7 +17830,7 @@
       <c r="J551" s="25"/>
       <c r="K551" s="26"/>
     </row>
-    <row r="552" spans="1:11">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="20">
         <v>24045</v>
       </c>
@@ -17859,7 +17853,7 @@
       <c r="J552" s="25"/>
       <c r="K552" s="26"/>
     </row>
-    <row r="553" spans="1:11">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="20">
         <v>24045</v>
       </c>
@@ -17882,7 +17876,7 @@
       <c r="J553" s="25"/>
       <c r="K553" s="26"/>
     </row>
-    <row r="554" spans="1:11">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="20">
         <v>24045</v>
       </c>
@@ -17905,7 +17899,7 @@
       <c r="J554" s="25"/>
       <c r="K554" s="26"/>
     </row>
-    <row r="555" spans="1:11" ht="30">
+    <row r="555" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A555" s="14">
         <v>24046</v>
       </c>
@@ -17928,7 +17922,7 @@
       <c r="J555" s="18"/>
       <c r="K555" s="19"/>
     </row>
-    <row r="556" spans="1:11" ht="30">
+    <row r="556" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A556" s="14">
         <v>24046</v>
       </c>
@@ -17951,7 +17945,7 @@
       <c r="J556" s="18"/>
       <c r="K556" s="19"/>
     </row>
-    <row r="557" spans="1:11" ht="45">
+    <row r="557" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A557" s="14">
         <v>24046</v>
       </c>
@@ -17974,7 +17968,7 @@
       <c r="J557" s="18"/>
       <c r="K557" s="19"/>
     </row>
-    <row r="558" spans="1:11" ht="30">
+    <row r="558" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A558" s="14">
         <v>24046</v>
       </c>
@@ -17997,7 +17991,7 @@
       <c r="J558" s="18"/>
       <c r="K558" s="19"/>
     </row>
-    <row r="559" spans="1:11" ht="30">
+    <row r="559" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A559" s="14">
         <v>24046</v>
       </c>
@@ -18020,7 +18014,7 @@
       <c r="J559" s="18"/>
       <c r="K559" s="19"/>
     </row>
-    <row r="560" spans="1:11" ht="45">
+    <row r="560" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A560" s="20">
         <v>24047</v>
       </c>
@@ -18045,7 +18039,7 @@
       <c r="J560" s="25"/>
       <c r="K560" s="26"/>
     </row>
-    <row r="561" spans="1:11" ht="45">
+    <row r="561" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A561" s="20">
         <v>24047</v>
       </c>
@@ -18070,7 +18064,7 @@
       <c r="J561" s="25"/>
       <c r="K561" s="26"/>
     </row>
-    <row r="562" spans="1:11" ht="90">
+    <row r="562" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A562" s="20">
         <v>24047</v>
       </c>
@@ -18095,7 +18089,7 @@
       <c r="J562" s="25"/>
       <c r="K562" s="26"/>
     </row>
-    <row r="563" spans="1:11" ht="60">
+    <row r="563" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A563" s="20">
         <v>24047</v>
       </c>
@@ -18120,7 +18114,7 @@
       <c r="J563" s="25"/>
       <c r="K563" s="26"/>
     </row>
-    <row r="564" spans="1:11" ht="30">
+    <row r="564" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A564" s="20">
         <v>24047</v>
       </c>
@@ -18145,7 +18139,7 @@
       <c r="J564" s="25"/>
       <c r="K564" s="26"/>
     </row>
-    <row r="565" spans="1:11" ht="30">
+    <row r="565" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A565" s="20">
         <v>24047</v>
       </c>
@@ -18170,7 +18164,7 @@
       <c r="J565" s="25"/>
       <c r="K565" s="26"/>
     </row>
-    <row r="566" spans="1:11" ht="90">
+    <row r="566" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A566" s="20">
         <v>24047</v>
       </c>
@@ -18195,7 +18189,7 @@
       <c r="J566" s="25"/>
       <c r="K566" s="26"/>
     </row>
-    <row r="567" spans="1:11" ht="60">
+    <row r="567" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A567" s="20">
         <v>24047</v>
       </c>
@@ -18220,7 +18214,7 @@
       <c r="J567" s="25"/>
       <c r="K567" s="26"/>
     </row>
-    <row r="568" spans="1:11" ht="75">
+    <row r="568" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A568" s="20">
         <v>24047</v>
       </c>
@@ -18245,7 +18239,7 @@
       <c r="J568" s="25"/>
       <c r="K568" s="26"/>
     </row>
-    <row r="569" spans="1:11" ht="90">
+    <row r="569" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A569" s="20">
         <v>24047</v>
       </c>
@@ -18270,7 +18264,7 @@
       <c r="J569" s="25"/>
       <c r="K569" s="26"/>
     </row>
-    <row r="570" spans="1:11" ht="45">
+    <row r="570" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A570" s="20">
         <v>24047</v>
       </c>
@@ -18295,7 +18289,7 @@
       <c r="J570" s="25"/>
       <c r="K570" s="26"/>
     </row>
-    <row r="571" spans="1:11" ht="45">
+    <row r="571" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A571" s="20">
         <v>24047</v>
       </c>
@@ -18320,7 +18314,7 @@
       <c r="J571" s="25"/>
       <c r="K571" s="26"/>
     </row>
-    <row r="572" spans="1:11" ht="60">
+    <row r="572" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A572" s="20">
         <v>24047</v>
       </c>
@@ -18345,7 +18339,7 @@
       <c r="J572" s="25"/>
       <c r="K572" s="26"/>
     </row>
-    <row r="573" spans="1:11" ht="90">
+    <row r="573" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A573" s="14">
         <v>24048</v>
       </c>
@@ -18370,7 +18364,7 @@
       <c r="J573" s="18"/>
       <c r="K573" s="19"/>
     </row>
-    <row r="574" spans="1:11" ht="30">
+    <row r="574" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A574" s="14">
         <v>24048</v>
       </c>
@@ -18395,7 +18389,7 @@
       <c r="J574" s="18"/>
       <c r="K574" s="19"/>
     </row>
-    <row r="575" spans="1:11" ht="30">
+    <row r="575" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A575" s="14">
         <v>24048</v>
       </c>
@@ -18420,7 +18414,7 @@
       <c r="J575" s="18"/>
       <c r="K575" s="19"/>
     </row>
-    <row r="576" spans="1:11" ht="30">
+    <row r="576" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A576" s="14">
         <v>24048</v>
       </c>
@@ -18445,7 +18439,7 @@
       <c r="J576" s="18"/>
       <c r="K576" s="19"/>
     </row>
-    <row r="577" spans="1:11" ht="60">
+    <row r="577" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A577" s="14">
         <v>24048</v>
       </c>
@@ -18470,7 +18464,7 @@
       <c r="J577" s="18"/>
       <c r="K577" s="19"/>
     </row>
-    <row r="578" spans="1:11" ht="45">
+    <row r="578" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A578" s="14">
         <v>24048</v>
       </c>
@@ -18495,7 +18489,7 @@
       <c r="J578" s="18"/>
       <c r="K578" s="19"/>
     </row>
-    <row r="579" spans="1:11">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="14">
         <v>24048</v>
       </c>
@@ -18520,7 +18514,7 @@
       <c r="J579" s="18"/>
       <c r="K579" s="19"/>
     </row>
-    <row r="580" spans="1:11" ht="75">
+    <row r="580" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A580" s="14">
         <v>24048</v>
       </c>
@@ -18545,7 +18539,7 @@
       <c r="J580" s="18"/>
       <c r="K580" s="19"/>
     </row>
-    <row r="581" spans="1:11" ht="60">
+    <row r="581" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A581" s="14">
         <v>24048</v>
       </c>
@@ -18570,7 +18564,7 @@
       <c r="J581" s="18"/>
       <c r="K581" s="19"/>
     </row>
-    <row r="582" spans="1:11" ht="75">
+    <row r="582" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A582" s="14">
         <v>24048</v>
       </c>
@@ -18595,7 +18589,7 @@
       <c r="J582" s="18"/>
       <c r="K582" s="19"/>
     </row>
-    <row r="583" spans="1:11" ht="75">
+    <row r="583" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A583" s="14">
         <v>24048</v>
       </c>
@@ -18620,7 +18614,7 @@
       <c r="J583" s="18"/>
       <c r="K583" s="19"/>
     </row>
-    <row r="584" spans="1:11" ht="30">
+    <row r="584" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A584" s="14">
         <v>24048</v>
       </c>
@@ -18645,7 +18639,7 @@
       <c r="J584" s="18"/>
       <c r="K584" s="19"/>
     </row>
-    <row r="585" spans="1:11" ht="60">
+    <row r="585" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A585" s="14">
         <v>24048</v>
       </c>
@@ -18670,7 +18664,7 @@
       <c r="J585" s="18"/>
       <c r="K585" s="19"/>
     </row>
-    <row r="586" spans="1:11" ht="30">
+    <row r="586" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A586" s="14">
         <v>24048</v>
       </c>
@@ -18695,7 +18689,7 @@
       <c r="J586" s="18"/>
       <c r="K586" s="19"/>
     </row>
-    <row r="587" spans="1:11" ht="45">
+    <row r="587" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A587" s="14">
         <v>24048</v>
       </c>
@@ -18720,7 +18714,7 @@
       <c r="J587" s="18"/>
       <c r="K587" s="19"/>
     </row>
-    <row r="588" spans="1:11" ht="45">
+    <row r="588" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A588" s="20">
         <v>24049</v>
       </c>
@@ -18745,7 +18739,7 @@
       <c r="J588" s="25"/>
       <c r="K588" s="26"/>
     </row>
-    <row r="589" spans="1:11" ht="30">
+    <row r="589" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A589" s="20">
         <v>24049</v>
       </c>
@@ -18770,7 +18764,7 @@
       <c r="J589" s="25"/>
       <c r="K589" s="26"/>
     </row>
-    <row r="590" spans="1:11" ht="45">
+    <row r="590" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A590" s="20">
         <v>24049</v>
       </c>
@@ -18795,7 +18789,7 @@
       <c r="J590" s="25"/>
       <c r="K590" s="26"/>
     </row>
-    <row r="591" spans="1:11" ht="60">
+    <row r="591" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A591" s="14">
         <v>24050</v>
       </c>
@@ -18820,7 +18814,7 @@
       <c r="J591" s="18"/>
       <c r="K591" s="19"/>
     </row>
-    <row r="592" spans="1:11">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="14">
         <v>24050</v>
       </c>
@@ -18845,7 +18839,7 @@
       <c r="J592" s="18"/>
       <c r="K592" s="19"/>
     </row>
-    <row r="593" spans="1:11" ht="45">
+    <row r="593" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A593" s="14">
         <v>24050</v>
       </c>
@@ -18870,7 +18864,7 @@
       <c r="J593" s="18"/>
       <c r="K593" s="19"/>
     </row>
-    <row r="594" spans="1:11" ht="75">
+    <row r="594" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A594" s="20">
         <v>24067</v>
       </c>
@@ -18895,7 +18889,7 @@
       <c r="J594" s="25"/>
       <c r="K594" s="26"/>
     </row>
-    <row r="595" spans="1:11" ht="90">
+    <row r="595" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A595" s="20">
         <v>24067</v>
       </c>
@@ -18920,7 +18914,7 @@
       <c r="J595" s="25"/>
       <c r="K595" s="26"/>
     </row>
-    <row r="596" spans="1:11" ht="45">
+    <row r="596" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A596" s="20">
         <v>24067</v>
       </c>
@@ -18945,7 +18939,7 @@
       <c r="J596" s="25"/>
       <c r="K596" s="26"/>
     </row>
-    <row r="597" spans="1:11" ht="75">
+    <row r="597" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A597" s="14">
         <v>24113</v>
       </c>
@@ -18970,7 +18964,7 @@
       <c r="J597" s="18"/>
       <c r="K597" s="19"/>
     </row>
-    <row r="598" spans="1:11">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="14">
         <v>24113</v>
       </c>
@@ -18995,7 +18989,7 @@
       <c r="J598" s="18"/>
       <c r="K598" s="19"/>
     </row>
-    <row r="599" spans="1:11" ht="30">
+    <row r="599" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A599" s="14">
         <v>24113</v>
       </c>
@@ -19020,7 +19014,7 @@
       <c r="J599" s="18"/>
       <c r="K599" s="19"/>
     </row>
-    <row r="600" spans="1:11">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="14">
         <v>24113</v>
       </c>
@@ -19045,7 +19039,7 @@
       <c r="J600" s="18"/>
       <c r="K600" s="19"/>
     </row>
-    <row r="601" spans="1:11" ht="75">
+    <row r="601" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A601" s="14">
         <v>24113</v>
       </c>
@@ -19070,7 +19064,7 @@
       <c r="J601" s="18"/>
       <c r="K601" s="19"/>
     </row>
-    <row r="602" spans="1:11" ht="60">
+    <row r="602" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A602" s="14">
         <v>24113</v>
       </c>
@@ -19095,7 +19089,7 @@
       <c r="J602" s="18"/>
       <c r="K602" s="19"/>
     </row>
-    <row r="603" spans="1:11">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="20">
         <v>24196</v>
       </c>
@@ -19120,7 +19114,7 @@
       <c r="J603" s="25"/>
       <c r="K603" s="26"/>
     </row>
-    <row r="604" spans="1:11" ht="75">
+    <row r="604" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A604" s="14">
         <v>24387</v>
       </c>
@@ -19147,7 +19141,7 @@
       <c r="J604" s="18"/>
       <c r="K604" s="19"/>
     </row>
-    <row r="605" spans="1:11" ht="105">
+    <row r="605" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A605" s="14">
         <v>24387</v>
       </c>
@@ -19174,7 +19168,7 @@
       <c r="J605" s="18"/>
       <c r="K605" s="19"/>
     </row>
-    <row r="606" spans="1:11" ht="75">
+    <row r="606" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A606" s="14">
         <v>24387</v>
       </c>
@@ -19201,7 +19195,7 @@
       <c r="J606" s="18"/>
       <c r="K606" s="19"/>
     </row>
-    <row r="607" spans="1:11" ht="120">
+    <row r="607" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A607" s="14">
         <v>24387</v>
       </c>
@@ -19228,7 +19222,7 @@
       <c r="J607" s="18"/>
       <c r="K607" s="19"/>
     </row>
-    <row r="608" spans="1:11" ht="45">
+    <row r="608" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A608" s="14">
         <v>24387</v>
       </c>
@@ -19255,7 +19249,7 @@
       <c r="J608" s="18"/>
       <c r="K608" s="19"/>
     </row>
-    <row r="609" spans="1:11" ht="30">
+    <row r="609" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A609" s="14">
         <v>24387</v>
       </c>
@@ -19282,7 +19276,7 @@
       <c r="J609" s="18"/>
       <c r="K609" s="19"/>
     </row>
-    <row r="610" spans="1:11">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="20">
         <v>24418</v>
       </c>
@@ -19305,7 +19299,7 @@
       <c r="J610" s="25"/>
       <c r="K610" s="26"/>
     </row>
-    <row r="611" spans="1:11">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="20">
         <v>24418</v>
       </c>
@@ -19328,7 +19322,7 @@
       <c r="J611" s="25"/>
       <c r="K611" s="26"/>
     </row>
-    <row r="612" spans="1:11">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="20">
         <v>24418</v>
       </c>
@@ -19353,7 +19347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:11" ht="45">
+    <row r="613" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A613" s="20">
         <v>24418</v>
       </c>
@@ -19378,7 +19372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:11" ht="75">
+    <row r="614" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A614" s="20">
         <v>24418</v>
       </c>
@@ -19401,7 +19395,7 @@
       <c r="J614" s="25"/>
       <c r="K614" s="26"/>
     </row>
-    <row r="615" spans="1:11" ht="45">
+    <row r="615" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A615" s="20">
         <v>24418</v>
       </c>
@@ -19424,7 +19418,7 @@
       <c r="J615" s="25"/>
       <c r="K615" s="26"/>
     </row>
-    <row r="616" spans="1:11" ht="30">
+    <row r="616" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A616" s="14">
         <v>24539</v>
       </c>
@@ -19449,7 +19443,7 @@
       <c r="J616" s="18"/>
       <c r="K616" s="19"/>
     </row>
-    <row r="617" spans="1:11" ht="45">
+    <row r="617" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A617" s="14">
         <v>24539</v>
       </c>
@@ -19474,7 +19468,7 @@
       <c r="J617" s="18"/>
       <c r="K617" s="19"/>
     </row>
-    <row r="618" spans="1:11" ht="30">
+    <row r="618" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A618" s="20">
         <v>24544</v>
       </c>
@@ -19497,7 +19491,7 @@
       <c r="J618" s="25"/>
       <c r="K618" s="26"/>
     </row>
-    <row r="619" spans="1:11" ht="60">
+    <row r="619" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A619" s="20">
         <v>24544</v>
       </c>
@@ -19522,7 +19516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:11" ht="45">
+    <row r="620" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A620" s="20">
         <v>24544</v>
       </c>
@@ -19545,7 +19539,7 @@
       <c r="J620" s="25"/>
       <c r="K620" s="26"/>
     </row>
-    <row r="621" spans="1:11" ht="30">
+    <row r="621" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A621" s="14">
         <v>24622</v>
       </c>
@@ -19570,7 +19564,7 @@
       <c r="J621" s="18"/>
       <c r="K621" s="19"/>
     </row>
-    <row r="622" spans="1:11" ht="30">
+    <row r="622" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A622" s="14">
         <v>24622</v>
       </c>
@@ -19595,7 +19589,7 @@
       <c r="J622" s="18"/>
       <c r="K622" s="19"/>
     </row>
-    <row r="623" spans="1:11" ht="45">
+    <row r="623" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A623" s="14">
         <v>24622</v>
       </c>
@@ -19620,7 +19614,7 @@
       <c r="J623" s="18"/>
       <c r="K623" s="19"/>
     </row>
-    <row r="624" spans="1:11" ht="60">
+    <row r="624" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A624" s="14">
         <v>24622</v>
       </c>
@@ -19645,7 +19639,7 @@
       <c r="J624" s="18"/>
       <c r="K624" s="19"/>
     </row>
-    <row r="625" spans="1:11" ht="30">
+    <row r="625" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A625" s="20">
         <v>24623</v>
       </c>
@@ -19670,7 +19664,7 @@
       <c r="J625" s="25"/>
       <c r="K625" s="26"/>
     </row>
-    <row r="626" spans="1:11" ht="30">
+    <row r="626" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A626" s="20">
         <v>24623</v>
       </c>
@@ -19695,7 +19689,7 @@
       <c r="J626" s="25"/>
       <c r="K626" s="26"/>
     </row>
-    <row r="627" spans="1:11" ht="30">
+    <row r="627" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A627" s="20">
         <v>24623</v>
       </c>
@@ -19720,7 +19714,7 @@
       <c r="J627" s="25"/>
       <c r="K627" s="26"/>
     </row>
-    <row r="628" spans="1:11" ht="105">
+    <row r="628" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A628" s="20">
         <v>24623</v>
       </c>
@@ -19745,7 +19739,7 @@
       <c r="J628" s="25"/>
       <c r="K628" s="26"/>
     </row>
-    <row r="629" spans="1:11" ht="60">
+    <row r="629" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A629" s="20">
         <v>24623</v>
       </c>
@@ -19770,7 +19764,7 @@
       <c r="J629" s="25"/>
       <c r="K629" s="26"/>
     </row>
-    <row r="630" spans="1:11" ht="105">
+    <row r="630" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A630" s="14">
         <v>24630</v>
       </c>
@@ -19795,7 +19789,7 @@
       <c r="J630" s="18"/>
       <c r="K630" s="19"/>
     </row>
-    <row r="631" spans="1:11" ht="75">
+    <row r="631" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A631" s="14">
         <v>24630</v>
       </c>
@@ -19820,7 +19814,7 @@
       <c r="J631" s="18"/>
       <c r="K631" s="19"/>
     </row>
-    <row r="632" spans="1:11" ht="30">
+    <row r="632" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A632" s="20">
         <v>24667</v>
       </c>
@@ -19843,7 +19837,7 @@
       <c r="J632" s="25"/>
       <c r="K632" s="26"/>
     </row>
-    <row r="633" spans="1:11" ht="30">
+    <row r="633" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A633" s="20">
         <v>24667</v>
       </c>
@@ -19866,7 +19860,7 @@
       <c r="J633" s="25"/>
       <c r="K633" s="26"/>
     </row>
-    <row r="634" spans="1:11" ht="90">
+    <row r="634" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A634" s="20">
         <v>24667</v>
       </c>
@@ -19891,7 +19885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:11" ht="30">
+    <row r="635" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A635" s="20">
         <v>24667</v>
       </c>
@@ -19916,7 +19910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:11" ht="30">
+    <row r="636" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A636" s="20">
         <v>24667</v>
       </c>
@@ -19939,7 +19933,7 @@
       <c r="J636" s="25"/>
       <c r="K636" s="26"/>
     </row>
-    <row r="637" spans="1:11" ht="60">
+    <row r="637" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A637" s="20">
         <v>24667</v>
       </c>
@@ -19962,7 +19956,7 @@
       <c r="J637" s="25"/>
       <c r="K637" s="26"/>
     </row>
-    <row r="638" spans="1:11">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="14">
         <v>24755</v>
       </c>
@@ -19985,7 +19979,7 @@
       <c r="J638" s="18"/>
       <c r="K638" s="19"/>
     </row>
-    <row r="639" spans="1:11" ht="45">
+    <row r="639" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A639" s="14">
         <v>24755</v>
       </c>
@@ -20010,7 +20004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:11" ht="90">
+    <row r="640" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A640" s="14">
         <v>24755</v>
       </c>
@@ -20033,7 +20027,7 @@
       <c r="J640" s="18"/>
       <c r="K640" s="19"/>
     </row>
-    <row r="641" spans="1:11" ht="30">
+    <row r="641" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A641" s="20">
         <v>24763</v>
       </c>
@@ -20058,7 +20052,7 @@
       <c r="J641" s="25"/>
       <c r="K641" s="26"/>
     </row>
-    <row r="642" spans="1:11" ht="30">
+    <row r="642" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A642" s="20">
         <v>24763</v>
       </c>
@@ -20083,7 +20077,7 @@
       <c r="J642" s="25"/>
       <c r="K642" s="26"/>
     </row>
-    <row r="643" spans="1:11" ht="30">
+    <row r="643" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A643" s="20">
         <v>24763</v>
       </c>
@@ -20108,7 +20102,7 @@
       <c r="J643" s="25"/>
       <c r="K643" s="26"/>
     </row>
-    <row r="644" spans="1:11" ht="60">
+    <row r="644" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A644" s="14">
         <v>24764</v>
       </c>
@@ -20135,7 +20129,7 @@
       <c r="J644" s="18"/>
       <c r="K644" s="19"/>
     </row>
-    <row r="645" spans="1:11" ht="30">
+    <row r="645" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A645" s="14">
         <v>24764</v>
       </c>
@@ -20162,7 +20156,7 @@
       <c r="J645" s="18"/>
       <c r="K645" s="19"/>
     </row>
-    <row r="646" spans="1:11" ht="45">
+    <row r="646" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A646" s="14">
         <v>24764</v>
       </c>
@@ -20189,7 +20183,7 @@
       <c r="J646" s="18"/>
       <c r="K646" s="19"/>
     </row>
-    <row r="647" spans="1:11" ht="75">
+    <row r="647" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A647" s="20">
         <v>24778</v>
       </c>
@@ -20216,7 +20210,7 @@
       <c r="J647" s="25"/>
       <c r="K647" s="26"/>
     </row>
-    <row r="648" spans="1:11" ht="60">
+    <row r="648" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A648" s="20">
         <v>24778</v>
       </c>
@@ -20243,7 +20237,7 @@
       <c r="J648" s="25"/>
       <c r="K648" s="26"/>
     </row>
-    <row r="649" spans="1:11" ht="45">
+    <row r="649" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A649" s="20">
         <v>24778</v>
       </c>
@@ -20270,7 +20264,7 @@
       <c r="J649" s="25"/>
       <c r="K649" s="26"/>
     </row>
-    <row r="650" spans="1:11" ht="30">
+    <row r="650" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A650" s="20">
         <v>24778</v>
       </c>
@@ -20297,7 +20291,7 @@
       <c r="J650" s="25"/>
       <c r="K650" s="26"/>
     </row>
-    <row r="651" spans="1:11">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="20">
         <v>24778</v>
       </c>
@@ -20324,7 +20318,7 @@
       <c r="J651" s="25"/>
       <c r="K651" s="26"/>
     </row>
-    <row r="652" spans="1:11" ht="60">
+    <row r="652" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A652" s="20">
         <v>24778</v>
       </c>
@@ -20351,7 +20345,7 @@
       <c r="J652" s="25"/>
       <c r="K652" s="26"/>
     </row>
-    <row r="653" spans="1:11" ht="75">
+    <row r="653" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A653" s="14">
         <v>24779</v>
       </c>
@@ -20376,7 +20370,7 @@
       <c r="J653" s="18"/>
       <c r="K653" s="19"/>
     </row>
-    <row r="654" spans="1:11" ht="30">
+    <row r="654" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A654" s="14">
         <v>24779</v>
       </c>
@@ -20401,7 +20395,7 @@
       <c r="J654" s="18"/>
       <c r="K654" s="19"/>
     </row>
-    <row r="655" spans="1:11" ht="105">
+    <row r="655" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A655" s="14">
         <v>24779</v>
       </c>
@@ -20426,7 +20420,7 @@
       <c r="J655" s="18"/>
       <c r="K655" s="19"/>
     </row>
-    <row r="656" spans="1:11" ht="105">
+    <row r="656" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A656" s="14">
         <v>24779</v>
       </c>
@@ -20451,7 +20445,7 @@
       <c r="J656" s="18"/>
       <c r="K656" s="19"/>
     </row>
-    <row r="657" spans="1:11" ht="30">
+    <row r="657" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A657" s="14">
         <v>24779</v>
       </c>
@@ -20476,7 +20470,7 @@
       <c r="J657" s="18"/>
       <c r="K657" s="19"/>
     </row>
-    <row r="658" spans="1:11" ht="45">
+    <row r="658" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A658" s="14">
         <v>24779</v>
       </c>
@@ -20501,7 +20495,7 @@
       <c r="J658" s="18"/>
       <c r="K658" s="19"/>
     </row>
-    <row r="659" spans="1:11" ht="90">
+    <row r="659" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A659" s="14">
         <v>24779</v>
       </c>
@@ -20526,7 +20520,7 @@
       <c r="J659" s="18"/>
       <c r="K659" s="19"/>
     </row>
-    <row r="660" spans="1:11">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="14">
         <v>24779</v>
       </c>
@@ -20551,7 +20545,7 @@
       <c r="J660" s="18"/>
       <c r="K660" s="19"/>
     </row>
-    <row r="661" spans="1:11" ht="60">
+    <row r="661" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A661" s="14">
         <v>24779</v>
       </c>
@@ -20576,7 +20570,7 @@
       <c r="J661" s="18"/>
       <c r="K661" s="19"/>
     </row>
-    <row r="662" spans="1:11" ht="75">
+    <row r="662" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A662" s="20">
         <v>24780</v>
       </c>
@@ -20601,7 +20595,7 @@
       <c r="J662" s="25"/>
       <c r="K662" s="26"/>
     </row>
-    <row r="663" spans="1:11">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="20">
         <v>24780</v>
       </c>
@@ -20626,7 +20620,7 @@
       <c r="J663" s="25"/>
       <c r="K663" s="26"/>
     </row>
-    <row r="664" spans="1:11">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="20">
         <v>24780</v>
       </c>
@@ -20651,7 +20645,7 @@
       <c r="J664" s="25"/>
       <c r="K664" s="26"/>
     </row>
-    <row r="665" spans="1:11">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="20">
         <v>24780</v>
       </c>
@@ -20676,7 +20670,7 @@
       <c r="J665" s="25"/>
       <c r="K665" s="26"/>
     </row>
-    <row r="666" spans="1:11" ht="60">
+    <row r="666" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A666" s="20">
         <v>24780</v>
       </c>
@@ -20701,7 +20695,7 @@
       <c r="J666" s="25"/>
       <c r="K666" s="26"/>
     </row>
-    <row r="667" spans="1:11" ht="60">
+    <row r="667" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A667" s="20">
         <v>24780</v>
       </c>
@@ -20726,7 +20720,7 @@
       <c r="J667" s="25"/>
       <c r="K667" s="26"/>
     </row>
-    <row r="668" spans="1:11" ht="45">
+    <row r="668" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A668" s="20">
         <v>24780</v>
       </c>
@@ -20751,7 +20745,7 @@
       <c r="J668" s="25"/>
       <c r="K668" s="26"/>
     </row>
-    <row r="669" spans="1:11" ht="30">
+    <row r="669" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A669" s="14">
         <v>24781</v>
       </c>
@@ -20776,7 +20770,7 @@
       <c r="J669" s="18"/>
       <c r="K669" s="19"/>
     </row>
-    <row r="670" spans="1:11" ht="75">
+    <row r="670" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A670" s="14">
         <v>24781</v>
       </c>
@@ -20801,7 +20795,7 @@
       <c r="J670" s="18"/>
       <c r="K670" s="19"/>
     </row>
-    <row r="671" spans="1:11" ht="45">
+    <row r="671" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A671" s="14">
         <v>24781</v>
       </c>
@@ -20826,7 +20820,7 @@
       <c r="J671" s="18"/>
       <c r="K671" s="19"/>
     </row>
-    <row r="672" spans="1:11" ht="30">
+    <row r="672" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A672" s="14">
         <v>24781</v>
       </c>
@@ -20851,7 +20845,7 @@
       <c r="J672" s="18"/>
       <c r="K672" s="19"/>
     </row>
-    <row r="673" spans="1:11" ht="75">
+    <row r="673" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A673" s="14">
         <v>24781</v>
       </c>
@@ -20876,7 +20870,7 @@
       <c r="J673" s="18"/>
       <c r="K673" s="19"/>
     </row>
-    <row r="674" spans="1:11">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="14">
         <v>24781</v>
       </c>
@@ -20901,7 +20895,7 @@
       <c r="J674" s="18"/>
       <c r="K674" s="19"/>
     </row>
-    <row r="675" spans="1:11" ht="30">
+    <row r="675" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A675" s="14">
         <v>24781</v>
       </c>
@@ -20926,7 +20920,7 @@
       <c r="J675" s="18"/>
       <c r="K675" s="19"/>
     </row>
-    <row r="676" spans="1:11" ht="30">
+    <row r="676" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A676" s="20">
         <v>24782</v>
       </c>
@@ -20953,7 +20947,7 @@
       <c r="J676" s="25"/>
       <c r="K676" s="26"/>
     </row>
-    <row r="677" spans="1:11" ht="60">
+    <row r="677" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A677" s="20">
         <v>24782</v>
       </c>
@@ -20980,7 +20974,7 @@
       <c r="J677" s="25"/>
       <c r="K677" s="26"/>
     </row>
-    <row r="678" spans="1:11" ht="45">
+    <row r="678" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A678" s="20">
         <v>24782</v>
       </c>
@@ -21007,7 +21001,7 @@
       <c r="J678" s="25"/>
       <c r="K678" s="26"/>
     </row>
-    <row r="679" spans="1:11" ht="75">
+    <row r="679" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A679" s="20">
         <v>24782</v>
       </c>
@@ -21034,7 +21028,7 @@
       <c r="J679" s="25"/>
       <c r="K679" s="26"/>
     </row>
-    <row r="680" spans="1:11" ht="45">
+    <row r="680" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A680" s="20">
         <v>24782</v>
       </c>
@@ -21061,7 +21055,7 @@
       <c r="J680" s="25"/>
       <c r="K680" s="26"/>
     </row>
-    <row r="681" spans="1:11" ht="45">
+    <row r="681" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A681" s="20">
         <v>24782</v>
       </c>
@@ -21088,7 +21082,7 @@
       <c r="J681" s="25"/>
       <c r="K681" s="26"/>
     </row>
-    <row r="682" spans="1:11" ht="30">
+    <row r="682" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A682" s="20">
         <v>24782</v>
       </c>
@@ -21115,7 +21109,7 @@
       <c r="J682" s="25"/>
       <c r="K682" s="26"/>
     </row>
-    <row r="683" spans="1:11" ht="45">
+    <row r="683" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A683" s="20">
         <v>24782</v>
       </c>
@@ -21142,7 +21136,7 @@
       <c r="J683" s="25"/>
       <c r="K683" s="26"/>
     </row>
-    <row r="684" spans="1:11" ht="30">
+    <row r="684" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A684" s="14">
         <v>24783</v>
       </c>
@@ -21169,7 +21163,7 @@
       <c r="J684" s="18"/>
       <c r="K684" s="19"/>
     </row>
-    <row r="685" spans="1:11" ht="30">
+    <row r="685" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A685" s="14">
         <v>24783</v>
       </c>
@@ -21196,7 +21190,7 @@
       <c r="J685" s="18"/>
       <c r="K685" s="19"/>
     </row>
-    <row r="686" spans="1:11" ht="90">
+    <row r="686" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A686" s="14">
         <v>24783</v>
       </c>
@@ -21223,7 +21217,7 @@
       <c r="J686" s="18"/>
       <c r="K686" s="19"/>
     </row>
-    <row r="687" spans="1:11" ht="75">
+    <row r="687" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A687" s="14">
         <v>24783</v>
       </c>
@@ -21250,7 +21244,7 @@
       <c r="J687" s="18"/>
       <c r="K687" s="19"/>
     </row>
-    <row r="688" spans="1:11" ht="60">
+    <row r="688" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A688" s="14">
         <v>24783</v>
       </c>
@@ -21277,7 +21271,7 @@
       <c r="J688" s="18"/>
       <c r="K688" s="19"/>
     </row>
-    <row r="689" spans="1:11" ht="60">
+    <row r="689" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A689" s="14">
         <v>24783</v>
       </c>
@@ -21304,7 +21298,7 @@
       <c r="J689" s="18"/>
       <c r="K689" s="19"/>
     </row>
-    <row r="690" spans="1:11" ht="30">
+    <row r="690" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A690" s="20">
         <v>24784</v>
       </c>
@@ -21327,7 +21321,7 @@
       <c r="J690" s="25"/>
       <c r="K690" s="26"/>
     </row>
-    <row r="691" spans="1:11" ht="30">
+    <row r="691" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A691" s="20">
         <v>24784</v>
       </c>
@@ -21350,7 +21344,7 @@
       <c r="J691" s="25"/>
       <c r="K691" s="26"/>
     </row>
-    <row r="692" spans="1:11" ht="30">
+    <row r="692" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A692" s="14">
         <v>24787</v>
       </c>
@@ -21375,7 +21369,7 @@
       <c r="J692" s="18"/>
       <c r="K692" s="19"/>
     </row>
-    <row r="693" spans="1:11" ht="30">
+    <row r="693" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A693" s="14">
         <v>24787</v>
       </c>
@@ -21400,7 +21394,7 @@
       <c r="J693" s="18"/>
       <c r="K693" s="19"/>
     </row>
-    <row r="694" spans="1:11" ht="45">
+    <row r="694" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A694" s="14">
         <v>24787</v>
       </c>
@@ -21425,7 +21419,7 @@
       <c r="J694" s="18"/>
       <c r="K694" s="19"/>
     </row>
-    <row r="695" spans="1:11" ht="30">
+    <row r="695" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A695" s="20">
         <v>24788</v>
       </c>
@@ -21450,7 +21444,7 @@
       <c r="J695" s="25"/>
       <c r="K695" s="26"/>
     </row>
-    <row r="696" spans="1:11" ht="30">
+    <row r="696" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A696" s="20">
         <v>24788</v>
       </c>
@@ -21475,7 +21469,7 @@
       <c r="J696" s="25"/>
       <c r="K696" s="26"/>
     </row>
-    <row r="697" spans="1:11" ht="60">
+    <row r="697" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A697" s="20">
         <v>24788</v>
       </c>
@@ -21500,7 +21494,7 @@
       <c r="J697" s="25"/>
       <c r="K697" s="26"/>
     </row>
-    <row r="698" spans="1:11" ht="75">
+    <row r="698" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A698" s="20">
         <v>24788</v>
       </c>
@@ -21525,7 +21519,7 @@
       <c r="J698" s="25"/>
       <c r="K698" s="26"/>
     </row>
-    <row r="699" spans="1:11" ht="30">
+    <row r="699" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A699" s="20">
         <v>24788</v>
       </c>
@@ -21550,7 +21544,7 @@
       <c r="J699" s="25"/>
       <c r="K699" s="26"/>
     </row>
-    <row r="700" spans="1:11" ht="30">
+    <row r="700" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A700" s="20">
         <v>24788</v>
       </c>
@@ -21575,7 +21569,7 @@
       <c r="J700" s="25"/>
       <c r="K700" s="26"/>
     </row>
-    <row r="701" spans="1:11" ht="75">
+    <row r="701" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A701" s="20">
         <v>24788</v>
       </c>
@@ -21600,7 +21594,7 @@
       <c r="J701" s="25"/>
       <c r="K701" s="26"/>
     </row>
-    <row r="702" spans="1:11" ht="30">
+    <row r="702" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A702" s="20">
         <v>24788</v>
       </c>
@@ -21625,7 +21619,7 @@
       <c r="J702" s="25"/>
       <c r="K702" s="26"/>
     </row>
-    <row r="703" spans="1:11" ht="30">
+    <row r="703" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A703" s="14">
         <v>24789</v>
       </c>
@@ -21650,7 +21644,7 @@
       <c r="J703" s="18"/>
       <c r="K703" s="19"/>
     </row>
-    <row r="704" spans="1:11" ht="45">
+    <row r="704" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A704" s="14">
         <v>24789</v>
       </c>
@@ -21675,7 +21669,7 @@
       <c r="J704" s="18"/>
       <c r="K704" s="19"/>
     </row>
-    <row r="705" spans="1:11" ht="45">
+    <row r="705" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A705" s="14">
         <v>24789</v>
       </c>
@@ -21700,7 +21694,7 @@
       <c r="J705" s="18"/>
       <c r="K705" s="19"/>
     </row>
-    <row r="706" spans="1:11" ht="30">
+    <row r="706" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A706" s="14">
         <v>24789</v>
       </c>
@@ -21725,7 +21719,7 @@
       <c r="J706" s="18"/>
       <c r="K706" s="19"/>
     </row>
-    <row r="707" spans="1:11" ht="30">
+    <row r="707" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A707" s="14">
         <v>24789</v>
       </c>
@@ -21750,7 +21744,7 @@
       <c r="J707" s="18"/>
       <c r="K707" s="19"/>
     </row>
-    <row r="708" spans="1:11" ht="45">
+    <row r="708" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A708" s="14">
         <v>24789</v>
       </c>
@@ -21775,7 +21769,7 @@
       <c r="J708" s="18"/>
       <c r="K708" s="19"/>
     </row>
-    <row r="709" spans="1:11" ht="30">
+    <row r="709" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A709" s="20">
         <v>24793</v>
       </c>
@@ -21800,7 +21794,7 @@
       <c r="J709" s="25"/>
       <c r="K709" s="26"/>
     </row>
-    <row r="710" spans="1:11">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="20">
         <v>24793</v>
       </c>
@@ -21825,7 +21819,7 @@
       <c r="J710" s="25"/>
       <c r="K710" s="26"/>
     </row>
-    <row r="711" spans="1:11" ht="45">
+    <row r="711" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A711" s="20">
         <v>24793</v>
       </c>
@@ -21850,7 +21844,7 @@
       <c r="J711" s="25"/>
       <c r="K711" s="26"/>
     </row>
-    <row r="712" spans="1:11">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="20">
         <v>24793</v>
       </c>
@@ -21875,7 +21869,7 @@
       <c r="J712" s="25"/>
       <c r="K712" s="26"/>
     </row>
-    <row r="713" spans="1:11" ht="30">
+    <row r="713" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A713" s="14">
         <v>24794</v>
       </c>
@@ -21900,7 +21894,7 @@
       <c r="J713" s="18"/>
       <c r="K713" s="19"/>
     </row>
-    <row r="714" spans="1:11" ht="30">
+    <row r="714" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A714" s="14">
         <v>24794</v>
       </c>
@@ -21925,7 +21919,7 @@
       <c r="J714" s="18"/>
       <c r="K714" s="19"/>
     </row>
-    <row r="715" spans="1:11" ht="30">
+    <row r="715" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A715" s="14">
         <v>24794</v>
       </c>
@@ -21950,7 +21944,7 @@
       <c r="J715" s="18"/>
       <c r="K715" s="19"/>
     </row>
-    <row r="716" spans="1:11" ht="75">
+    <row r="716" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A716" s="14">
         <v>24794</v>
       </c>
@@ -21975,7 +21969,7 @@
       <c r="J716" s="18"/>
       <c r="K716" s="19"/>
     </row>
-    <row r="717" spans="1:11">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="14">
         <v>24794</v>
       </c>
@@ -22000,7 +21994,7 @@
       <c r="J717" s="18"/>
       <c r="K717" s="19"/>
     </row>
-    <row r="718" spans="1:11" ht="30">
+    <row r="718" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A718" s="14">
         <v>24794</v>
       </c>
@@ -22025,7 +22019,7 @@
       <c r="J718" s="18"/>
       <c r="K718" s="19"/>
     </row>
-    <row r="719" spans="1:11" ht="30">
+    <row r="719" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A719" s="20">
         <v>24795</v>
       </c>
@@ -22050,7 +22044,7 @@
       <c r="J719" s="25"/>
       <c r="K719" s="26"/>
     </row>
-    <row r="720" spans="1:11" ht="30">
+    <row r="720" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A720" s="20">
         <v>24795</v>
       </c>
@@ -22075,7 +22069,7 @@
       <c r="J720" s="25"/>
       <c r="K720" s="26"/>
     </row>
-    <row r="721" spans="1:11" ht="60">
+    <row r="721" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A721" s="20">
         <v>24795</v>
       </c>
@@ -22100,7 +22094,7 @@
       <c r="J721" s="25"/>
       <c r="K721" s="26"/>
     </row>
-    <row r="722" spans="1:11" ht="60">
+    <row r="722" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A722" s="20">
         <v>24795</v>
       </c>
@@ -22125,7 +22119,7 @@
       <c r="J722" s="25"/>
       <c r="K722" s="26"/>
     </row>
-    <row r="723" spans="1:11" ht="75">
+    <row r="723" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A723" s="20">
         <v>24795</v>
       </c>
@@ -22150,7 +22144,7 @@
       <c r="J723" s="25"/>
       <c r="K723" s="26"/>
     </row>
-    <row r="724" spans="1:11">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="20">
         <v>24795</v>
       </c>
@@ -22175,7 +22169,7 @@
       <c r="J724" s="25"/>
       <c r="K724" s="26"/>
     </row>
-    <row r="725" spans="1:11" ht="30">
+    <row r="725" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A725" s="20">
         <v>24795</v>
       </c>
@@ -22200,7 +22194,7 @@
       <c r="J725" s="25"/>
       <c r="K725" s="26"/>
     </row>
-    <row r="726" spans="1:11" ht="30">
+    <row r="726" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A726" s="14">
         <v>24856</v>
       </c>
@@ -22223,7 +22217,7 @@
       <c r="J726" s="18"/>
       <c r="K726" s="19"/>
     </row>
-    <row r="727" spans="1:11" ht="60">
+    <row r="727" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A727" s="14">
         <v>24856</v>
       </c>
@@ -22246,7 +22240,7 @@
       <c r="J727" s="18"/>
       <c r="K727" s="19"/>
     </row>
-    <row r="728" spans="1:11" ht="45">
+    <row r="728" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A728" s="14">
         <v>24856</v>
       </c>
@@ -22269,7 +22263,7 @@
       <c r="J728" s="18"/>
       <c r="K728" s="19"/>
     </row>
-    <row r="729" spans="1:11" ht="30">
+    <row r="729" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A729" s="20">
         <v>24987</v>
       </c>
@@ -22292,7 +22286,7 @@
       <c r="J729" s="25"/>
       <c r="K729" s="26"/>
     </row>
-    <row r="730" spans="1:11" ht="30">
+    <row r="730" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A730" s="20">
         <v>24987</v>
       </c>
@@ -22315,7 +22309,7 @@
       <c r="J730" s="25"/>
       <c r="K730" s="26"/>
     </row>
-    <row r="731" spans="1:11" ht="120">
+    <row r="731" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A731" s="20">
         <v>24987</v>
       </c>
@@ -22340,7 +22334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="1:11" ht="30">
+    <row r="732" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A732" s="20">
         <v>24987</v>
       </c>
@@ -22365,7 +22359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:11" ht="30">
+    <row r="733" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A733" s="20">
         <v>24987</v>
       </c>
@@ -22390,7 +22384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:11" ht="75">
+    <row r="734" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A734" s="20">
         <v>24987</v>
       </c>
@@ -22415,7 +22409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:11" ht="45">
+    <row r="735" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A735" s="20">
         <v>24987</v>
       </c>
@@ -22440,7 +22434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:11">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="20">
         <v>24987</v>
       </c>
@@ -22463,7 +22457,7 @@
       <c r="J736" s="25"/>
       <c r="K736" s="26"/>
     </row>
-    <row r="737" spans="1:11" ht="60">
+    <row r="737" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A737" s="20">
         <v>24987</v>
       </c>
@@ -22486,7 +22480,7 @@
       <c r="J737" s="25"/>
       <c r="K737" s="26"/>
     </row>
-    <row r="738" spans="1:11" ht="30">
+    <row r="738" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A738" s="20">
         <v>24987</v>
       </c>
@@ -22509,7 +22503,7 @@
       <c r="J738" s="25"/>
       <c r="K738" s="26"/>
     </row>
-    <row r="739" spans="1:11" ht="30">
+    <row r="739" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A739" s="14">
         <v>25253</v>
       </c>
@@ -22532,7 +22526,7 @@
       <c r="J739" s="18"/>
       <c r="K739" s="19"/>
     </row>
-    <row r="740" spans="1:11" ht="75">
+    <row r="740" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A740" s="14">
         <v>25253</v>
       </c>
@@ -22555,7 +22549,7 @@
       <c r="J740" s="18"/>
       <c r="K740" s="19"/>
     </row>
-    <row r="741" spans="1:11" ht="30">
+    <row r="741" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A741" s="14">
         <v>25253</v>
       </c>
@@ -22578,7 +22572,7 @@
       <c r="J741" s="18"/>
       <c r="K741" s="19"/>
     </row>
-    <row r="742" spans="1:11" ht="30">
+    <row r="742" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A742" s="14">
         <v>25253</v>
       </c>
@@ -22601,7 +22595,7 @@
       <c r="J742" s="18"/>
       <c r="K742" s="19"/>
     </row>
-    <row r="743" spans="1:11" ht="30">
+    <row r="743" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A743" s="14">
         <v>25253</v>
       </c>
@@ -22624,7 +22618,7 @@
       <c r="J743" s="18"/>
       <c r="K743" s="19"/>
     </row>
-    <row r="744" spans="1:11" ht="60">
+    <row r="744" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A744" s="14">
         <v>25253</v>
       </c>
@@ -22647,7 +22641,7 @@
       <c r="J744" s="18"/>
       <c r="K744" s="19"/>
     </row>
-    <row r="745" spans="1:11" ht="45">
+    <row r="745" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A745" s="14">
         <v>25253</v>
       </c>
@@ -22670,7 +22664,7 @@
       <c r="J745" s="18"/>
       <c r="K745" s="19"/>
     </row>
-    <row r="746" spans="1:11" ht="30">
+    <row r="746" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A746" s="14">
         <v>25253</v>
       </c>
@@ -22693,7 +22687,7 @@
       <c r="J746" s="18"/>
       <c r="K746" s="19"/>
     </row>
-    <row r="747" spans="1:11" ht="30">
+    <row r="747" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A747" s="14">
         <v>25253</v>
       </c>
@@ -22716,7 +22710,7 @@
       <c r="J747" s="18"/>
       <c r="K747" s="19"/>
     </row>
-    <row r="748" spans="1:11">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="20">
         <v>25451</v>
       </c>
@@ -22739,7 +22733,7 @@
       <c r="J748" s="25"/>
       <c r="K748" s="26"/>
     </row>
-    <row r="749" spans="1:11" ht="45">
+    <row r="749" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A749" s="20">
         <v>25451</v>
       </c>
@@ -22762,7 +22756,7 @@
       <c r="J749" s="25"/>
       <c r="K749" s="26"/>
     </row>
-    <row r="750" spans="1:11" ht="30">
+    <row r="750" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A750" s="20">
         <v>25451</v>
       </c>
@@ -22785,7 +22779,7 @@
       <c r="J750" s="25"/>
       <c r="K750" s="26"/>
     </row>
-    <row r="751" spans="1:11" ht="105">
+    <row r="751" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A751" s="20">
         <v>25451</v>
       </c>
@@ -22812,7 +22806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="1:11" ht="90">
+    <row r="752" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A752" s="20">
         <v>25451</v>
       </c>
@@ -22839,7 +22833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="1:11" ht="45">
+    <row r="753" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A753" s="20">
         <v>25451</v>
       </c>
@@ -22862,7 +22856,7 @@
       <c r="J753" s="25"/>
       <c r="K753" s="26"/>
     </row>
-    <row r="754" spans="1:11">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="14">
         <v>25487</v>
       </c>
@@ -22885,7 +22879,7 @@
       <c r="J754" s="18"/>
       <c r="K754" s="19"/>
     </row>
-    <row r="755" spans="1:11" ht="60">
+    <row r="755" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A755" s="14">
         <v>25487</v>
       </c>
@@ -22908,7 +22902,7 @@
       <c r="J755" s="18"/>
       <c r="K755" s="19"/>
     </row>
-    <row r="756" spans="1:11" ht="45">
+    <row r="756" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A756" s="14">
         <v>25487</v>
       </c>
@@ -22935,7 +22929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:11" ht="45">
+    <row r="757" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A757" s="14">
         <v>25487</v>
       </c>
@@ -22962,7 +22956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="758" spans="1:11">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="14">
         <v>25487</v>
       </c>
@@ -22985,7 +22979,7 @@
       <c r="J758" s="18"/>
       <c r="K758" s="19"/>
     </row>
-    <row r="759" spans="1:11" ht="45">
+    <row r="759" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A759" s="14">
         <v>25487</v>
       </c>
@@ -23008,7 +23002,7 @@
       <c r="J759" s="18"/>
       <c r="K759" s="19"/>
     </row>
-    <row r="760" spans="1:11" ht="30">
+    <row r="760" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A760" s="20">
         <v>25661</v>
       </c>
@@ -23031,7 +23025,7 @@
       <c r="J760" s="25"/>
       <c r="K760" s="26"/>
     </row>
-    <row r="761" spans="1:11" ht="30">
+    <row r="761" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A761" s="20">
         <v>25661</v>
       </c>
@@ -23058,7 +23052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="1:11" ht="30">
+    <row r="762" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A762" s="20">
         <v>25661</v>
       </c>
@@ -23085,7 +23079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="763" spans="1:11" ht="30">
+    <row r="763" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A763" s="20">
         <v>25661</v>
       </c>
@@ -23112,7 +23106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="764" spans="1:11" ht="30">
+    <row r="764" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A764" s="20">
         <v>25661</v>
       </c>
@@ -23137,7 +23131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:11" ht="90">
+    <row r="765" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A765" s="20">
         <v>25661</v>
       </c>
@@ -23166,7 +23160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="766" spans="1:11" ht="45">
+    <row r="766" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A766" s="20">
         <v>25661</v>
       </c>
@@ -23189,7 +23183,7 @@
       <c r="J766" s="25"/>
       <c r="K766" s="26"/>
     </row>
-    <row r="767" spans="1:11" ht="75">
+    <row r="767" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A767" s="14">
         <v>25751</v>
       </c>
@@ -23216,7 +23210,7 @@
       <c r="J767" s="18"/>
       <c r="K767" s="19"/>
     </row>
-    <row r="768" spans="1:11" ht="60">
+    <row r="768" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A768" s="14">
         <v>25751</v>
       </c>
@@ -23241,7 +23235,7 @@
       <c r="J768" s="18"/>
       <c r="K768" s="19"/>
     </row>
-    <row r="769" spans="1:11">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" s="14">
         <v>25751</v>
       </c>
@@ -23268,7 +23262,7 @@
       <c r="J769" s="18"/>
       <c r="K769" s="19"/>
     </row>
-    <row r="770" spans="1:11" ht="75">
+    <row r="770" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A770" s="20">
         <v>25752</v>
       </c>
@@ -23297,7 +23291,7 @@
       </c>
       <c r="K770" s="26"/>
     </row>
-    <row r="771" spans="1:11" ht="60">
+    <row r="771" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A771" s="20">
         <v>25752</v>
       </c>
@@ -23328,7 +23322,7 @@
       </c>
       <c r="K771" s="26"/>
     </row>
-    <row r="772" spans="1:11" ht="45">
+    <row r="772" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A772" s="20">
         <v>25752</v>
       </c>
@@ -23357,7 +23351,7 @@
       </c>
       <c r="K772" s="26"/>
     </row>
-    <row r="773" spans="1:11" ht="60">
+    <row r="773" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A773" s="20">
         <v>25752</v>
       </c>
@@ -23386,7 +23380,7 @@
       </c>
       <c r="K773" s="26"/>
     </row>
-    <row r="774" spans="1:11" ht="30">
+    <row r="774" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A774" s="20">
         <v>25752</v>
       </c>
@@ -23415,7 +23409,7 @@
       </c>
       <c r="K774" s="26"/>
     </row>
-    <row r="775" spans="1:11" ht="30">
+    <row r="775" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A775" s="20">
         <v>25752</v>
       </c>
@@ -23446,7 +23440,7 @@
       </c>
       <c r="K775" s="26"/>
     </row>
-    <row r="776" spans="1:11" ht="60">
+    <row r="776" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A776" s="14">
         <v>25801</v>
       </c>
@@ -23471,7 +23465,7 @@
       <c r="J776" s="18"/>
       <c r="K776" s="19"/>
     </row>
-    <row r="777" spans="1:11" ht="75">
+    <row r="777" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A777" s="14">
         <v>25801</v>
       </c>
@@ -23496,7 +23490,7 @@
       <c r="J777" s="18"/>
       <c r="K777" s="19"/>
     </row>
-    <row r="778" spans="1:11" ht="30">
+    <row r="778" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A778" s="14">
         <v>25801</v>
       </c>
@@ -23521,7 +23515,7 @@
       <c r="J778" s="18"/>
       <c r="K778" s="19"/>
     </row>
-    <row r="779" spans="1:11" ht="45">
+    <row r="779" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A779" s="14">
         <v>25801</v>
       </c>
@@ -23546,7 +23540,7 @@
       <c r="J779" s="18"/>
       <c r="K779" s="19"/>
     </row>
-    <row r="780" spans="1:11" ht="45">
+    <row r="780" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A780" s="20">
         <v>25802</v>
       </c>
@@ -23571,7 +23565,7 @@
       <c r="J780" s="25"/>
       <c r="K780" s="26"/>
     </row>
-    <row r="781" spans="1:11" ht="75">
+    <row r="781" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A781" s="20">
         <v>25802</v>
       </c>
@@ -23596,7 +23590,7 @@
       <c r="J781" s="25"/>
       <c r="K781" s="26"/>
     </row>
-    <row r="782" spans="1:11" ht="120">
+    <row r="782" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A782" s="20">
         <v>25802</v>
       </c>
@@ -23621,7 +23615,7 @@
       <c r="J782" s="25"/>
       <c r="K782" s="26"/>
     </row>
-    <row r="783" spans="1:11" ht="60">
+    <row r="783" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A783" s="20">
         <v>25802</v>
       </c>
@@ -23646,7 +23640,7 @@
       <c r="J783" s="25"/>
       <c r="K783" s="26"/>
     </row>
-    <row r="784" spans="1:11" ht="90">
+    <row r="784" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A784" s="20">
         <v>25802</v>
       </c>
@@ -23671,7 +23665,7 @@
       <c r="J784" s="25"/>
       <c r="K784" s="26"/>
     </row>
-    <row r="785" spans="1:11" ht="30">
+    <row r="785" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A785" s="14">
         <v>25806</v>
       </c>
@@ -23696,7 +23690,7 @@
       <c r="J785" s="18"/>
       <c r="K785" s="19"/>
     </row>
-    <row r="786" spans="1:11" ht="30">
+    <row r="786" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A786" s="14">
         <v>25806</v>
       </c>
@@ -23721,7 +23715,7 @@
       <c r="J786" s="18"/>
       <c r="K786" s="19"/>
     </row>
-    <row r="787" spans="1:11" ht="105">
+    <row r="787" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A787" s="14">
         <v>25806</v>
       </c>
@@ -23746,7 +23740,7 @@
       <c r="J787" s="18"/>
       <c r="K787" s="19"/>
     </row>
-    <row r="788" spans="1:11" ht="90">
+    <row r="788" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A788" s="14">
         <v>25806</v>
       </c>
@@ -23771,7 +23765,7 @@
       <c r="J788" s="18"/>
       <c r="K788" s="19"/>
     </row>
-    <row r="789" spans="1:11" ht="30">
+    <row r="789" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A789" s="14">
         <v>25806</v>
       </c>
@@ -23796,7 +23790,7 @@
       <c r="J789" s="18"/>
       <c r="K789" s="19"/>
     </row>
-    <row r="790" spans="1:11" ht="30">
+    <row r="790" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A790" s="14">
         <v>25806</v>
       </c>
@@ -23821,7 +23815,7 @@
       <c r="J790" s="18"/>
       <c r="K790" s="19"/>
     </row>
-    <row r="791" spans="1:11" ht="30">
+    <row r="791" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A791" s="20">
         <v>25843</v>
       </c>
@@ -23848,7 +23842,7 @@
       </c>
       <c r="K791" s="26"/>
     </row>
-    <row r="792" spans="1:11" ht="30">
+    <row r="792" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A792" s="20">
         <v>25843</v>
       </c>
@@ -23875,7 +23869,7 @@
       </c>
       <c r="K792" s="26"/>
     </row>
-    <row r="793" spans="1:11" ht="60">
+    <row r="793" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A793" s="20">
         <v>25843</v>
       </c>
@@ -23902,7 +23896,7 @@
       </c>
       <c r="K793" s="26"/>
     </row>
-    <row r="794" spans="1:11" ht="60">
+    <row r="794" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A794" s="20">
         <v>25843</v>
       </c>
@@ -23929,7 +23923,7 @@
       </c>
       <c r="K794" s="26"/>
     </row>
-    <row r="795" spans="1:11" ht="45">
+    <row r="795" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A795" s="20">
         <v>25843</v>
       </c>
@@ -23956,7 +23950,7 @@
       </c>
       <c r="K795" s="26"/>
     </row>
-    <row r="796" spans="1:11" ht="45">
+    <row r="796" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A796" s="14">
         <v>26069</v>
       </c>
@@ -23983,7 +23977,7 @@
       </c>
       <c r="K796" s="19"/>
     </row>
-    <row r="797" spans="1:11" ht="45">
+    <row r="797" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A797" s="14">
         <v>26069</v>
       </c>
@@ -24010,7 +24004,7 @@
       </c>
       <c r="K797" s="19"/>
     </row>
-    <row r="798" spans="1:11" ht="60">
+    <row r="798" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A798" s="14">
         <v>26069</v>
       </c>
@@ -24037,7 +24031,7 @@
       </c>
       <c r="K798" s="19"/>
     </row>
-    <row r="799" spans="1:11" ht="45">
+    <row r="799" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A799" s="14">
         <v>26069</v>
       </c>
@@ -24064,7 +24058,7 @@
       </c>
       <c r="K799" s="19"/>
     </row>
-    <row r="800" spans="1:11" ht="30">
+    <row r="800" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A800" s="20">
         <v>26071</v>
       </c>
@@ -24087,7 +24081,7 @@
       <c r="J800" s="25"/>
       <c r="K800" s="26"/>
     </row>
-    <row r="801" spans="1:11" ht="30">
+    <row r="801" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A801" s="20">
         <v>26071</v>
       </c>
@@ -24110,7 +24104,7 @@
       <c r="J801" s="25"/>
       <c r="K801" s="26"/>
     </row>
-    <row r="802" spans="1:11" ht="30">
+    <row r="802" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A802" s="20">
         <v>26071</v>
       </c>
@@ -24133,7 +24127,7 @@
       <c r="J802" s="25"/>
       <c r="K802" s="26"/>
     </row>
-    <row r="803" spans="1:11" ht="30">
+    <row r="803" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A803" s="20">
         <v>26071</v>
       </c>
@@ -24156,7 +24150,7 @@
       <c r="J803" s="25"/>
       <c r="K803" s="26"/>
     </row>
-    <row r="804" spans="1:11" ht="30">
+    <row r="804" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A804" s="20">
         <v>26071</v>
       </c>
@@ -24179,7 +24173,7 @@
       <c r="J804" s="25"/>
       <c r="K804" s="26"/>
     </row>
-    <row r="805" spans="1:11" ht="60">
+    <row r="805" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A805" s="14">
         <v>26076</v>
       </c>
@@ -24204,7 +24198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="806" spans="1:11">
+    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A806" s="14">
         <v>26076</v>
       </c>
@@ -24229,7 +24223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="807" spans="1:11">
+    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A807" s="14">
         <v>26076</v>
       </c>
@@ -24254,7 +24248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="808" spans="1:11">
+    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A808" s="14">
         <v>26076</v>
       </c>
@@ -24279,7 +24273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="809" spans="1:11" ht="45">
+    <row r="809" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A809" s="14">
         <v>26076</v>
       </c>
@@ -24304,7 +24298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="810" spans="1:11" ht="75">
+    <row r="810" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A810" s="20">
         <v>26095</v>
       </c>
@@ -24329,7 +24323,7 @@
       <c r="J810" s="25"/>
       <c r="K810" s="26"/>
     </row>
-    <row r="811" spans="1:11" ht="45">
+    <row r="811" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A811" s="14">
         <v>26179</v>
       </c>
@@ -24354,7 +24348,7 @@
       <c r="J811" s="18"/>
       <c r="K811" s="19"/>
     </row>
-    <row r="812" spans="1:11" ht="30">
+    <row r="812" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A812" s="14">
         <v>26179</v>
       </c>
@@ -24379,7 +24373,7 @@
       <c r="J812" s="18"/>
       <c r="K812" s="19"/>
     </row>
-    <row r="813" spans="1:11" ht="30">
+    <row r="813" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A813" s="14">
         <v>26179</v>
       </c>
@@ -24404,7 +24398,7 @@
       <c r="J813" s="18"/>
       <c r="K813" s="19"/>
     </row>
-    <row r="814" spans="1:11" ht="30">
+    <row r="814" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A814" s="14">
         <v>26179</v>
       </c>
@@ -24429,7 +24423,7 @@
       <c r="J814" s="18"/>
       <c r="K814" s="19"/>
     </row>
-    <row r="815" spans="1:11" ht="30">
+    <row r="815" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A815" s="14">
         <v>26179</v>
       </c>
@@ -24454,7 +24448,7 @@
       <c r="J815" s="18"/>
       <c r="K815" s="19"/>
     </row>
-    <row r="816" spans="1:11" ht="30">
+    <row r="816" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A816" s="14">
         <v>26179</v>
       </c>
@@ -24479,7 +24473,7 @@
       <c r="J816" s="18"/>
       <c r="K816" s="19"/>
     </row>
-    <row r="817" spans="1:11" ht="45">
+    <row r="817" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A817" s="20">
         <v>26180</v>
       </c>
@@ -24504,7 +24498,7 @@
       <c r="J817" s="25"/>
       <c r="K817" s="26"/>
     </row>
-    <row r="818" spans="1:11" ht="30">
+    <row r="818" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A818" s="20">
         <v>26180</v>
       </c>
@@ -24529,7 +24523,7 @@
       <c r="J818" s="25"/>
       <c r="K818" s="26"/>
     </row>
-    <row r="819" spans="1:11">
+    <row r="819" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A819" s="20">
         <v>26180</v>
       </c>
@@ -24554,7 +24548,7 @@
       <c r="J819" s="25"/>
       <c r="K819" s="26"/>
     </row>
-    <row r="820" spans="1:11">
+    <row r="820" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A820" s="20">
         <v>26180</v>
       </c>
@@ -24579,7 +24573,7 @@
       <c r="J820" s="25"/>
       <c r="K820" s="26"/>
     </row>
-    <row r="821" spans="1:11" ht="30">
+    <row r="821" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A821" s="20">
         <v>26180</v>
       </c>
@@ -24604,7 +24598,7 @@
       <c r="J821" s="25"/>
       <c r="K821" s="26"/>
     </row>
-    <row r="822" spans="1:11" ht="45">
+    <row r="822" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A822" s="20">
         <v>26180</v>
       </c>
@@ -24629,7 +24623,7 @@
       <c r="J822" s="25"/>
       <c r="K822" s="26"/>
     </row>
-    <row r="823" spans="1:11" ht="60">
+    <row r="823" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A823" s="20">
         <v>26180</v>
       </c>
@@ -24654,7 +24648,7 @@
       <c r="J823" s="25"/>
       <c r="K823" s="26"/>
     </row>
-    <row r="824" spans="1:11" ht="30">
+    <row r="824" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A824" s="20">
         <v>26180</v>
       </c>
@@ -24679,7 +24673,7 @@
       <c r="J824" s="25"/>
       <c r="K824" s="26"/>
     </row>
-    <row r="825" spans="1:11" ht="30">
+    <row r="825" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A825" s="20">
         <v>26180</v>
       </c>
@@ -24704,7 +24698,7 @@
       <c r="J825" s="25"/>
       <c r="K825" s="26"/>
     </row>
-    <row r="826" spans="1:11" ht="30">
+    <row r="826" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A826" s="20">
         <v>26180</v>
       </c>
@@ -24729,7 +24723,7 @@
       <c r="J826" s="25"/>
       <c r="K826" s="26"/>
     </row>
-    <row r="827" spans="1:11" ht="30">
+    <row r="827" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A827" s="20">
         <v>26180</v>
       </c>
@@ -24754,7 +24748,7 @@
       <c r="J827" s="25"/>
       <c r="K827" s="26"/>
     </row>
-    <row r="828" spans="1:11" ht="90">
+    <row r="828" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A828" s="14">
         <v>26230</v>
       </c>
@@ -24779,7 +24773,7 @@
       <c r="J828" s="18"/>
       <c r="K828" s="19"/>
     </row>
-    <row r="829" spans="1:11" ht="75">
+    <row r="829" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A829" s="20">
         <v>26329</v>
       </c>
@@ -24804,7 +24798,7 @@
       <c r="J829" s="25"/>
       <c r="K829" s="26"/>
     </row>
-    <row r="830" spans="1:11" ht="30">
+    <row r="830" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A830" s="27">
         <v>26330</v>
       </c>
@@ -24831,9 +24825,9 @@
   <conditionalFormatting sqref="H13">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -24849,24 +24843,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
+++ b/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
@@ -3817,8 +3817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K830"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="F148" sqref="F148"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="I153" sqref="I153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7574,7 +7574,7 @@
       <c r="E148" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F148" s="17">
+      <c r="F148" s="35">
         <v>1</v>
       </c>
       <c r="G148" s="18"/>
@@ -7603,7 +7603,7 @@
       <c r="E149" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F149" s="17">
+      <c r="F149" s="35">
         <v>1</v>
       </c>
       <c r="G149" s="18"/>
@@ -7630,7 +7630,7 @@
       <c r="E150" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F150" s="17">
+      <c r="F150" s="35">
         <v>1</v>
       </c>
       <c r="G150" s="18"/>
@@ -7657,7 +7657,7 @@
       <c r="E151" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F151" s="17">
+      <c r="F151" s="35">
         <v>1</v>
       </c>
       <c r="G151" s="18"/>
@@ -7684,7 +7684,7 @@
       <c r="E152" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F152" s="17">
+      <c r="F152" s="35">
         <v>1</v>
       </c>
       <c r="G152" s="18"/>

--- a/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
+++ b/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
@@ -3818,7 +3818,7 @@
   <dimension ref="A1:K830"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="I153" sqref="I153"/>
+      <selection activeCell="F153" sqref="F153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
+++ b/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="135" windowWidth="22995" windowHeight="11055"/>
@@ -2799,8 +2799,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3056,7 +3056,7 @@
   </cellStyles>
   <dxfs count="26">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3068,7 +3068,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3089,7 +3089,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3103,7 +3103,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3126,7 +3126,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3140,7 +3140,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3163,7 +3163,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3177,7 +3177,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3200,7 +3200,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3214,7 +3214,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3237,7 +3237,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3251,7 +3251,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3274,7 +3274,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3287,7 +3287,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3310,7 +3310,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3323,7 +3323,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3346,7 +3346,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3359,7 +3359,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3603,7 +3603,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3638,7 +3637,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3814,14 +3812,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K830"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="F153" sqref="F153"/>
+    <sheetView tabSelected="1" topLeftCell="E161" workbookViewId="0">
+      <selection activeCell="G171" sqref="G171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="2" customWidth="1"/>
@@ -3833,7 +3831,7 @@
     <col min="11" max="11" width="10.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3868,7 +3866,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="14">
         <v>5359</v>
       </c>
@@ -3897,7 +3895,7 @@
       <c r="J2" s="18"/>
       <c r="K2" s="19"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="14">
         <v>5359</v>
       </c>
@@ -3922,7 +3920,7 @@
       <c r="J3" s="18"/>
       <c r="K3" s="19"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="14">
         <v>5359</v>
       </c>
@@ -3951,7 +3949,7 @@
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="14">
         <v>5359</v>
       </c>
@@ -3976,7 +3974,7 @@
       <c r="J5" s="18"/>
       <c r="K5" s="19"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="14">
         <v>5359</v>
       </c>
@@ -4001,7 +3999,7 @@
       <c r="J6" s="18"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="14">
         <v>5359</v>
       </c>
@@ -4026,7 +4024,7 @@
       <c r="J7" s="18"/>
       <c r="K7" s="19"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="14">
         <v>5359</v>
       </c>
@@ -4051,7 +4049,7 @@
       <c r="J8" s="18"/>
       <c r="K8" s="19"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="14">
         <v>5359</v>
       </c>
@@ -4076,7 +4074,7 @@
       <c r="J9" s="18"/>
       <c r="K9" s="19"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="14">
         <v>5359</v>
       </c>
@@ -4101,7 +4099,7 @@
       <c r="J10" s="18"/>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="60">
       <c r="A11" s="14">
         <v>5359</v>
       </c>
@@ -4126,7 +4124,7 @@
       <c r="J11" s="18"/>
       <c r="K11" s="19"/>
     </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="30">
       <c r="A12" s="14">
         <v>5359</v>
       </c>
@@ -4149,7 +4147,7 @@
       <c r="J12" s="18"/>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="14">
         <v>5359</v>
       </c>
@@ -4174,7 +4172,7 @@
       <c r="J13" s="18"/>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="14">
         <v>5359</v>
       </c>
@@ -4199,7 +4197,7 @@
       <c r="J14" s="18"/>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="14">
         <v>5359</v>
       </c>
@@ -4224,7 +4222,7 @@
       <c r="J15" s="18"/>
       <c r="K15" s="19"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="14">
         <v>5359</v>
       </c>
@@ -4249,7 +4247,7 @@
       <c r="J16" s="18"/>
       <c r="K16" s="19"/>
     </row>
-    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="45">
       <c r="A17" s="14">
         <v>5359</v>
       </c>
@@ -4274,7 +4272,7 @@
       <c r="J17" s="18"/>
       <c r="K17" s="19"/>
     </row>
-    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="30">
       <c r="A18" s="14">
         <v>5359</v>
       </c>
@@ -4299,7 +4297,7 @@
       <c r="J18" s="18"/>
       <c r="K18" s="19"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="14">
         <v>5359</v>
       </c>
@@ -4324,7 +4322,7 @@
       <c r="J19" s="18"/>
       <c r="K19" s="19"/>
     </row>
-    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="45">
       <c r="A20" s="14">
         <v>5359</v>
       </c>
@@ -4347,7 +4345,7 @@
       <c r="J20" s="18"/>
       <c r="K20" s="19"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="14">
         <v>5359</v>
       </c>
@@ -4370,7 +4368,7 @@
       <c r="J21" s="18"/>
       <c r="K21" s="19"/>
     </row>
-    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="30">
       <c r="A22" s="14">
         <v>5359</v>
       </c>
@@ -4395,7 +4393,7 @@
       <c r="J22" s="18"/>
       <c r="K22" s="19"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="14">
         <v>5359</v>
       </c>
@@ -4420,7 +4418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="45">
       <c r="A24" s="14">
         <v>5359</v>
       </c>
@@ -4447,7 +4445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="60">
       <c r="A25" s="14">
         <v>5359</v>
       </c>
@@ -4474,7 +4472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="14">
         <v>5359</v>
       </c>
@@ -4501,7 +4499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="30">
       <c r="A27" s="14">
         <v>5359</v>
       </c>
@@ -4528,7 +4526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="14">
         <v>5359</v>
       </c>
@@ -4551,7 +4549,7 @@
       <c r="J28" s="18"/>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="14">
         <v>5359</v>
       </c>
@@ -4580,7 +4578,7 @@
       <c r="J29" s="18"/>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="14">
         <v>5359</v>
       </c>
@@ -4603,7 +4601,7 @@
       <c r="J30" s="18"/>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="14">
         <v>5359</v>
       </c>
@@ -4626,7 +4624,7 @@
       <c r="J31" s="18"/>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="45">
       <c r="A32" s="14">
         <v>5359</v>
       </c>
@@ -4649,7 +4647,7 @@
       <c r="J32" s="18"/>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="14">
         <v>5359</v>
       </c>
@@ -4672,7 +4670,7 @@
       <c r="J33" s="18"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="14">
         <v>5359</v>
       </c>
@@ -4695,7 +4693,7 @@
       <c r="J34" s="18"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="14">
         <v>5359</v>
       </c>
@@ -4722,7 +4720,7 @@
       <c r="J35" s="18"/>
       <c r="K35" s="19"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="14">
         <v>5359</v>
       </c>
@@ -4745,7 +4743,7 @@
       <c r="J36" s="18"/>
       <c r="K36" s="19"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="14">
         <v>5359</v>
       </c>
@@ -4768,7 +4766,7 @@
       <c r="J37" s="18"/>
       <c r="K37" s="19"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="14">
         <v>5359</v>
       </c>
@@ -4791,7 +4789,7 @@
       <c r="J38" s="18"/>
       <c r="K38" s="19"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="14">
         <v>5359</v>
       </c>
@@ -4814,7 +4812,7 @@
       <c r="J39" s="18"/>
       <c r="K39" s="19"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="14">
         <v>5359</v>
       </c>
@@ -4837,7 +4835,7 @@
       <c r="J40" s="18"/>
       <c r="K40" s="19"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="14">
         <v>5359</v>
       </c>
@@ -4860,7 +4858,7 @@
       <c r="J41" s="18"/>
       <c r="K41" s="19"/>
     </row>
-    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="30">
       <c r="A42" s="14">
         <v>5359</v>
       </c>
@@ -4887,7 +4885,7 @@
       <c r="J42" s="18"/>
       <c r="K42" s="19"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="14">
         <v>5359</v>
       </c>
@@ -4910,7 +4908,7 @@
       <c r="J43" s="18"/>
       <c r="K43" s="19"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" s="14">
         <v>5359</v>
       </c>
@@ -4933,7 +4931,7 @@
       <c r="J44" s="18"/>
       <c r="K44" s="19"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" s="14">
         <v>5359</v>
       </c>
@@ -4956,7 +4954,7 @@
       <c r="J45" s="18"/>
       <c r="K45" s="19"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46" s="14">
         <v>5359</v>
       </c>
@@ -4983,7 +4981,7 @@
       <c r="J46" s="18"/>
       <c r="K46" s="19"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47" s="14">
         <v>5359</v>
       </c>
@@ -5006,7 +5004,7 @@
       <c r="J47" s="18"/>
       <c r="K47" s="19"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48" s="14">
         <v>5359</v>
       </c>
@@ -5029,7 +5027,7 @@
       <c r="J48" s="18"/>
       <c r="K48" s="19"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="14">
         <v>5359</v>
       </c>
@@ -5054,7 +5052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="14">
         <v>5359</v>
       </c>
@@ -5077,7 +5075,7 @@
       <c r="J50" s="18"/>
       <c r="K50" s="19"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="14">
         <v>5359</v>
       </c>
@@ -5100,7 +5098,7 @@
       <c r="J51" s="18"/>
       <c r="K51" s="19"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="14">
         <v>5359</v>
       </c>
@@ -5123,7 +5121,7 @@
       <c r="J52" s="18"/>
       <c r="K52" s="19"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" s="14">
         <v>5359</v>
       </c>
@@ -5146,7 +5144,7 @@
       <c r="J53" s="18"/>
       <c r="K53" s="19"/>
     </row>
-    <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="30">
       <c r="A54" s="20">
         <v>5435</v>
       </c>
@@ -5171,7 +5169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="20">
         <v>5435</v>
       </c>
@@ -5196,7 +5194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="45">
       <c r="A56" s="20">
         <v>5435</v>
       </c>
@@ -5221,7 +5219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="20">
         <v>5435</v>
       </c>
@@ -5246,7 +5244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="20">
         <v>5435</v>
       </c>
@@ -5271,7 +5269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="20">
         <v>5435</v>
       </c>
@@ -5296,7 +5294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="60">
       <c r="A60" s="14">
         <v>18189</v>
       </c>
@@ -5323,7 +5321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="60">
       <c r="A61" s="20">
         <v>18637</v>
       </c>
@@ -5350,7 +5348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="60">
       <c r="A62" s="14">
         <v>20431</v>
       </c>
@@ -5375,7 +5373,7 @@
       <c r="J62" s="18"/>
       <c r="K62" s="19"/>
     </row>
-    <row r="63" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="30">
       <c r="A63" s="14">
         <v>20431</v>
       </c>
@@ -5400,7 +5398,7 @@
       <c r="J63" s="18"/>
       <c r="K63" s="19"/>
     </row>
-    <row r="64" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="105">
       <c r="A64" s="14">
         <v>20431</v>
       </c>
@@ -5425,7 +5423,7 @@
       <c r="J64" s="18"/>
       <c r="K64" s="19"/>
     </row>
-    <row r="65" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="60">
       <c r="A65" s="14">
         <v>20431</v>
       </c>
@@ -5450,7 +5448,7 @@
       <c r="J65" s="18"/>
       <c r="K65" s="19"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" s="14">
         <v>20431</v>
       </c>
@@ -5475,7 +5473,7 @@
       <c r="J66" s="18"/>
       <c r="K66" s="19"/>
     </row>
-    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="30">
       <c r="A67" s="14">
         <v>20431</v>
       </c>
@@ -5500,7 +5498,7 @@
       <c r="J67" s="18"/>
       <c r="K67" s="19"/>
     </row>
-    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="30">
       <c r="A68" s="20">
         <v>20523</v>
       </c>
@@ -5523,7 +5521,7 @@
       <c r="J68" s="25"/>
       <c r="K68" s="26"/>
     </row>
-    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="30">
       <c r="A69" s="20">
         <v>20523</v>
       </c>
@@ -5546,7 +5544,7 @@
       <c r="J69" s="25"/>
       <c r="K69" s="26"/>
     </row>
-    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="30">
       <c r="A70" s="20">
         <v>20523</v>
       </c>
@@ -5569,7 +5567,7 @@
       <c r="J70" s="25"/>
       <c r="K70" s="26"/>
     </row>
-    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="30">
       <c r="A71" s="20">
         <v>20523</v>
       </c>
@@ -5592,7 +5590,7 @@
       <c r="J71" s="25"/>
       <c r="K71" s="26"/>
     </row>
-    <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="30">
       <c r="A72" s="14">
         <v>20541</v>
       </c>
@@ -5623,7 +5621,7 @@
       </c>
       <c r="K72" s="19"/>
     </row>
-    <row r="73" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="105">
       <c r="A73" s="14">
         <v>20541</v>
       </c>
@@ -5654,7 +5652,7 @@
       </c>
       <c r="K73" s="19"/>
     </row>
-    <row r="74" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="45">
       <c r="A74" s="14">
         <v>20541</v>
       </c>
@@ -5685,7 +5683,7 @@
       </c>
       <c r="K74" s="19"/>
     </row>
-    <row r="75" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="60">
       <c r="A75" s="14">
         <v>20541</v>
       </c>
@@ -5716,7 +5714,7 @@
       </c>
       <c r="K75" s="19"/>
     </row>
-    <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="30">
       <c r="A76" s="14">
         <v>20541</v>
       </c>
@@ -5747,7 +5745,7 @@
       </c>
       <c r="K76" s="19"/>
     </row>
-    <row r="77" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="90">
       <c r="A77" s="14">
         <v>20541</v>
       </c>
@@ -5778,7 +5776,7 @@
       </c>
       <c r="K77" s="19"/>
     </row>
-    <row r="78" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="75">
       <c r="A78" s="14">
         <v>20541</v>
       </c>
@@ -5809,7 +5807,7 @@
       </c>
       <c r="K78" s="19"/>
     </row>
-    <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="30">
       <c r="A79" s="14">
         <v>20541</v>
       </c>
@@ -5840,7 +5838,7 @@
       </c>
       <c r="K79" s="19"/>
     </row>
-    <row r="80" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="105">
       <c r="A80" s="14">
         <v>20541</v>
       </c>
@@ -5871,7 +5869,7 @@
       </c>
       <c r="K80" s="19"/>
     </row>
-    <row r="81" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="60">
       <c r="A81" s="20">
         <v>20579</v>
       </c>
@@ -5898,7 +5896,7 @@
       <c r="J81" s="25"/>
       <c r="K81" s="26"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11">
       <c r="A82" s="14">
         <v>20588</v>
       </c>
@@ -5921,7 +5919,7 @@
       <c r="J82" s="18"/>
       <c r="K82" s="19"/>
     </row>
-    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="30">
       <c r="A83" s="14">
         <v>20588</v>
       </c>
@@ -5944,7 +5942,7 @@
       <c r="J83" s="18"/>
       <c r="K83" s="19"/>
     </row>
-    <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="30">
       <c r="A84" s="14">
         <v>20588</v>
       </c>
@@ -5967,7 +5965,7 @@
       <c r="J84" s="18"/>
       <c r="K84" s="19"/>
     </row>
-    <row r="85" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="60">
       <c r="A85" s="20">
         <v>20593</v>
       </c>
@@ -5992,7 +5990,7 @@
       <c r="J85" s="25"/>
       <c r="K85" s="26"/>
     </row>
-    <row r="86" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="105">
       <c r="A86" s="20">
         <v>20593</v>
       </c>
@@ -6017,7 +6015,7 @@
       <c r="J86" s="25"/>
       <c r="K86" s="26"/>
     </row>
-    <row r="87" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="60">
       <c r="A87" s="20">
         <v>20593</v>
       </c>
@@ -6042,7 +6040,7 @@
       <c r="J87" s="25"/>
       <c r="K87" s="26"/>
     </row>
-    <row r="88" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="75">
       <c r="A88" s="14">
         <v>20616</v>
       </c>
@@ -6067,7 +6065,7 @@
       <c r="J88" s="18"/>
       <c r="K88" s="19"/>
     </row>
-    <row r="89" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="60">
       <c r="A89" s="14">
         <v>20616</v>
       </c>
@@ -6092,7 +6090,7 @@
       <c r="J89" s="18"/>
       <c r="K89" s="19"/>
     </row>
-    <row r="90" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="45">
       <c r="A90" s="14">
         <v>20616</v>
       </c>
@@ -6117,7 +6115,7 @@
       <c r="J90" s="18"/>
       <c r="K90" s="19"/>
     </row>
-    <row r="91" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="45">
       <c r="A91" s="14">
         <v>20616</v>
       </c>
@@ -6142,7 +6140,7 @@
       <c r="J91" s="18"/>
       <c r="K91" s="19"/>
     </row>
-    <row r="92" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="75">
       <c r="A92" s="14">
         <v>20616</v>
       </c>
@@ -6167,7 +6165,7 @@
       <c r="J92" s="18"/>
       <c r="K92" s="19"/>
     </row>
-    <row r="93" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="45">
       <c r="A93" s="14">
         <v>20616</v>
       </c>
@@ -6192,7 +6190,7 @@
       <c r="J93" s="18"/>
       <c r="K93" s="19"/>
     </row>
-    <row r="94" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="75">
       <c r="A94" s="14">
         <v>20616</v>
       </c>
@@ -6217,7 +6215,7 @@
       <c r="J94" s="18"/>
       <c r="K94" s="19"/>
     </row>
-    <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="30">
       <c r="A95" s="14">
         <v>20616</v>
       </c>
@@ -6242,7 +6240,7 @@
       <c r="J95" s="18"/>
       <c r="K95" s="19"/>
     </row>
-    <row r="96" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="75">
       <c r="A96" s="14">
         <v>20616</v>
       </c>
@@ -6267,7 +6265,7 @@
       <c r="J96" s="18"/>
       <c r="K96" s="19"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11">
       <c r="A97" s="14">
         <v>20616</v>
       </c>
@@ -6292,7 +6290,7 @@
       <c r="J97" s="18"/>
       <c r="K97" s="19"/>
     </row>
-    <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="30">
       <c r="A98" s="14">
         <v>20616</v>
       </c>
@@ -6317,7 +6315,7 @@
       <c r="J98" s="18"/>
       <c r="K98" s="19"/>
     </row>
-    <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="30">
       <c r="A99" s="14">
         <v>20616</v>
       </c>
@@ -6342,7 +6340,7 @@
       <c r="J99" s="18"/>
       <c r="K99" s="19"/>
     </row>
-    <row r="100" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="75">
       <c r="A100" s="20">
         <v>20639</v>
       </c>
@@ -6369,7 +6367,7 @@
       <c r="J100" s="25"/>
       <c r="K100" s="26"/>
     </row>
-    <row r="101" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="45">
       <c r="A101" s="20">
         <v>20639</v>
       </c>
@@ -6396,7 +6394,7 @@
       <c r="J101" s="25"/>
       <c r="K101" s="26"/>
     </row>
-    <row r="102" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="90">
       <c r="A102" s="20">
         <v>20639</v>
       </c>
@@ -6423,7 +6421,7 @@
       <c r="J102" s="25"/>
       <c r="K102" s="26"/>
     </row>
-    <row r="103" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="45">
       <c r="A103" s="20">
         <v>20639</v>
       </c>
@@ -6450,7 +6448,7 @@
       <c r="J103" s="25"/>
       <c r="K103" s="26"/>
     </row>
-    <row r="104" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="75">
       <c r="A104" s="20">
         <v>20639</v>
       </c>
@@ -6477,7 +6475,7 @@
       <c r="J104" s="25"/>
       <c r="K104" s="26"/>
     </row>
-    <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="30">
       <c r="A105" s="20">
         <v>20639</v>
       </c>
@@ -6504,7 +6502,7 @@
       <c r="J105" s="25"/>
       <c r="K105" s="26"/>
     </row>
-    <row r="106" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="45">
       <c r="A106" s="20">
         <v>20639</v>
       </c>
@@ -6531,7 +6529,7 @@
       <c r="J106" s="25"/>
       <c r="K106" s="26"/>
     </row>
-    <row r="107" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="60">
       <c r="A107" s="14">
         <v>20640</v>
       </c>
@@ -6556,7 +6554,7 @@
       <c r="J107" s="18"/>
       <c r="K107" s="19"/>
     </row>
-    <row r="108" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="60">
       <c r="A108" s="14">
         <v>20640</v>
       </c>
@@ -6581,7 +6579,7 @@
       <c r="J108" s="18"/>
       <c r="K108" s="19"/>
     </row>
-    <row r="109" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="90">
       <c r="A109" s="14">
         <v>20640</v>
       </c>
@@ -6606,7 +6604,7 @@
       <c r="J109" s="18"/>
       <c r="K109" s="19"/>
     </row>
-    <row r="110" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="30">
       <c r="A110" s="20">
         <v>20647</v>
       </c>
@@ -6629,7 +6627,7 @@
       <c r="J110" s="25"/>
       <c r="K110" s="26"/>
     </row>
-    <row r="111" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="30">
       <c r="A111" s="20">
         <v>20647</v>
       </c>
@@ -6652,7 +6650,7 @@
       <c r="J111" s="25"/>
       <c r="K111" s="26"/>
     </row>
-    <row r="112" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="45">
       <c r="A112" s="14">
         <v>20651</v>
       </c>
@@ -6677,7 +6675,7 @@
       <c r="J112" s="18"/>
       <c r="K112" s="19"/>
     </row>
-    <row r="113" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="60">
       <c r="A113" s="14">
         <v>20651</v>
       </c>
@@ -6702,7 +6700,7 @@
       <c r="J113" s="18"/>
       <c r="K113" s="19"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11">
       <c r="A114" s="14">
         <v>20651</v>
       </c>
@@ -6727,7 +6725,7 @@
       <c r="J114" s="18"/>
       <c r="K114" s="19"/>
     </row>
-    <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="30">
       <c r="A115" s="14">
         <v>20651</v>
       </c>
@@ -6752,7 +6750,7 @@
       <c r="J115" s="18"/>
       <c r="K115" s="19"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11">
       <c r="A116" s="20">
         <v>20662</v>
       </c>
@@ -6775,7 +6773,7 @@
       <c r="J116" s="25"/>
       <c r="K116" s="26"/>
     </row>
-    <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="30">
       <c r="A117" s="20">
         <v>20662</v>
       </c>
@@ -6798,7 +6796,7 @@
       <c r="J117" s="25"/>
       <c r="K117" s="26"/>
     </row>
-    <row r="118" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="30">
       <c r="A118" s="14">
         <v>20669</v>
       </c>
@@ -6821,7 +6819,7 @@
       <c r="J118" s="18"/>
       <c r="K118" s="19"/>
     </row>
-    <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="30">
       <c r="A119" s="14">
         <v>20669</v>
       </c>
@@ -6844,7 +6842,7 @@
       <c r="J119" s="18"/>
       <c r="K119" s="19"/>
     </row>
-    <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="30">
       <c r="A120" s="20">
         <v>20682</v>
       </c>
@@ -6871,7 +6869,7 @@
       <c r="J120" s="25"/>
       <c r="K120" s="26"/>
     </row>
-    <row r="121" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="30">
       <c r="A121" s="20">
         <v>20682</v>
       </c>
@@ -6898,7 +6896,7 @@
       <c r="J121" s="25"/>
       <c r="K121" s="26"/>
     </row>
-    <row r="122" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="30">
       <c r="A122" s="20">
         <v>20682</v>
       </c>
@@ -6925,7 +6923,7 @@
       <c r="J122" s="25"/>
       <c r="K122" s="26"/>
     </row>
-    <row r="123" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="60">
       <c r="A123" s="20">
         <v>20682</v>
       </c>
@@ -6952,7 +6950,7 @@
       <c r="J123" s="25"/>
       <c r="K123" s="26"/>
     </row>
-    <row r="124" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" ht="30">
       <c r="A124" s="20">
         <v>20682</v>
       </c>
@@ -6979,7 +6977,7 @@
       <c r="J124" s="25"/>
       <c r="K124" s="26"/>
     </row>
-    <row r="125" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="90">
       <c r="A125" s="20">
         <v>20682</v>
       </c>
@@ -7006,7 +7004,7 @@
       <c r="J125" s="25"/>
       <c r="K125" s="26"/>
     </row>
-    <row r="126" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="30">
       <c r="A126" s="20">
         <v>20682</v>
       </c>
@@ -7033,7 +7031,7 @@
       <c r="J126" s="25"/>
       <c r="K126" s="26"/>
     </row>
-    <row r="127" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" ht="45">
       <c r="A127" s="20">
         <v>20682</v>
       </c>
@@ -7060,7 +7058,7 @@
       <c r="J127" s="25"/>
       <c r="K127" s="26"/>
     </row>
-    <row r="128" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" ht="60">
       <c r="A128" s="20">
         <v>20682</v>
       </c>
@@ -7087,7 +7085,7 @@
       <c r="J128" s="25"/>
       <c r="K128" s="26"/>
     </row>
-    <row r="129" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" ht="30">
       <c r="A129" s="20">
         <v>20682</v>
       </c>
@@ -7114,7 +7112,7 @@
       <c r="J129" s="25"/>
       <c r="K129" s="26"/>
     </row>
-    <row r="130" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="30">
       <c r="A130" s="20">
         <v>20682</v>
       </c>
@@ -7141,7 +7139,7 @@
       <c r="J130" s="25"/>
       <c r="K130" s="26"/>
     </row>
-    <row r="131" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" ht="30">
       <c r="A131" s="20">
         <v>20682</v>
       </c>
@@ -7168,7 +7166,7 @@
       <c r="J131" s="25"/>
       <c r="K131" s="26"/>
     </row>
-    <row r="132" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" ht="45">
       <c r="A132" s="20">
         <v>20682</v>
       </c>
@@ -7195,7 +7193,7 @@
       <c r="J132" s="25"/>
       <c r="K132" s="26"/>
     </row>
-    <row r="133" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" ht="45">
       <c r="A133" s="20">
         <v>20682</v>
       </c>
@@ -7222,7 +7220,7 @@
       <c r="J133" s="25"/>
       <c r="K133" s="26"/>
     </row>
-    <row r="134" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" ht="90">
       <c r="A134" s="20">
         <v>20682</v>
       </c>
@@ -7249,7 +7247,7 @@
       <c r="J134" s="25"/>
       <c r="K134" s="26"/>
     </row>
-    <row r="135" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" ht="90">
       <c r="A135" s="20">
         <v>20682</v>
       </c>
@@ -7276,7 +7274,7 @@
       <c r="J135" s="25"/>
       <c r="K135" s="26"/>
     </row>
-    <row r="136" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" ht="60">
       <c r="A136" s="14">
         <v>20689</v>
       </c>
@@ -7301,7 +7299,7 @@
       <c r="J136" s="18"/>
       <c r="K136" s="19"/>
     </row>
-    <row r="137" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" ht="75">
       <c r="A137" s="14">
         <v>20689</v>
       </c>
@@ -7326,7 +7324,7 @@
       <c r="J137" s="18"/>
       <c r="K137" s="19"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11">
       <c r="A138" s="14">
         <v>20689</v>
       </c>
@@ -7351,7 +7349,7 @@
       <c r="J138" s="18"/>
       <c r="K138" s="19"/>
     </row>
-    <row r="139" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" ht="30">
       <c r="A139" s="20">
         <v>20762</v>
       </c>
@@ -7374,7 +7372,7 @@
       <c r="J139" s="25"/>
       <c r="K139" s="26"/>
     </row>
-    <row r="140" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" ht="30">
       <c r="A140" s="20">
         <v>20762</v>
       </c>
@@ -7397,7 +7395,7 @@
       <c r="J140" s="25"/>
       <c r="K140" s="26"/>
     </row>
-    <row r="141" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" ht="30">
       <c r="A141" s="20">
         <v>20762</v>
       </c>
@@ -7420,7 +7418,7 @@
       <c r="J141" s="25"/>
       <c r="K141" s="26"/>
     </row>
-    <row r="142" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" ht="30">
       <c r="A142" s="14">
         <v>20769</v>
       </c>
@@ -7443,7 +7441,7 @@
       <c r="J142" s="18"/>
       <c r="K142" s="19"/>
     </row>
-    <row r="143" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" ht="90">
       <c r="A143" s="14">
         <v>20769</v>
       </c>
@@ -7466,7 +7464,7 @@
       <c r="J143" s="18"/>
       <c r="K143" s="19"/>
     </row>
-    <row r="144" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" ht="30">
       <c r="A144" s="14">
         <v>20769</v>
       </c>
@@ -7489,7 +7487,7 @@
       <c r="J144" s="18"/>
       <c r="K144" s="19"/>
     </row>
-    <row r="145" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="30">
       <c r="A145" s="14">
         <v>20769</v>
       </c>
@@ -7512,7 +7510,7 @@
       <c r="J145" s="18"/>
       <c r="K145" s="19"/>
     </row>
-    <row r="146" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" ht="30">
       <c r="A146" s="20">
         <v>20812</v>
       </c>
@@ -7535,7 +7533,7 @@
       <c r="J146" s="25"/>
       <c r="K146" s="26"/>
     </row>
-    <row r="147" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" ht="30">
       <c r="A147" s="20">
         <v>20812</v>
       </c>
@@ -7558,7 +7556,7 @@
       <c r="J147" s="25"/>
       <c r="K147" s="26"/>
     </row>
-    <row r="148" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" ht="30">
       <c r="A148" s="14">
         <v>20846</v>
       </c>
@@ -7587,7 +7585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" ht="30">
       <c r="A149" s="14">
         <v>20846</v>
       </c>
@@ -7614,7 +7612,7 @@
       <c r="J149" s="18"/>
       <c r="K149" s="19"/>
     </row>
-    <row r="150" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" ht="90">
       <c r="A150" s="14">
         <v>20846</v>
       </c>
@@ -7641,7 +7639,7 @@
       <c r="J150" s="18"/>
       <c r="K150" s="19"/>
     </row>
-    <row r="151" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" ht="30">
       <c r="A151" s="14">
         <v>20846</v>
       </c>
@@ -7668,7 +7666,7 @@
       <c r="J151" s="18"/>
       <c r="K151" s="19"/>
     </row>
-    <row r="152" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" ht="30">
       <c r="A152" s="14">
         <v>20846</v>
       </c>
@@ -7695,7 +7693,7 @@
       <c r="J152" s="18"/>
       <c r="K152" s="19"/>
     </row>
-    <row r="153" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" ht="90">
       <c r="A153" s="20">
         <v>20847</v>
       </c>
@@ -7711,9 +7709,7 @@
       <c r="E153" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="F153" s="24">
-        <v>1</v>
-      </c>
+      <c r="F153" s="24"/>
       <c r="G153" s="25"/>
       <c r="H153" s="25"/>
       <c r="I153" s="25">
@@ -7722,7 +7718,7 @@
       <c r="J153" s="25"/>
       <c r="K153" s="26"/>
     </row>
-    <row r="154" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" ht="75">
       <c r="A154" s="20">
         <v>20847</v>
       </c>
@@ -7738,9 +7734,7 @@
       <c r="E154" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F154" s="24">
-        <v>1</v>
-      </c>
+      <c r="F154" s="24"/>
       <c r="G154" s="25"/>
       <c r="H154" s="25"/>
       <c r="I154" s="25">
@@ -7749,7 +7743,7 @@
       <c r="J154" s="25"/>
       <c r="K154" s="26"/>
     </row>
-    <row r="155" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" ht="30">
       <c r="A155" s="20">
         <v>20847</v>
       </c>
@@ -7765,9 +7759,7 @@
       <c r="E155" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F155" s="24">
-        <v>1</v>
-      </c>
+      <c r="F155" s="24"/>
       <c r="G155" s="25"/>
       <c r="H155" s="25"/>
       <c r="I155" s="25">
@@ -7776,7 +7768,7 @@
       <c r="J155" s="25"/>
       <c r="K155" s="26"/>
     </row>
-    <row r="156" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" ht="30">
       <c r="A156" s="20">
         <v>20847</v>
       </c>
@@ -7792,9 +7784,7 @@
       <c r="E156" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F156" s="24">
-        <v>1</v>
-      </c>
+      <c r="F156" s="24"/>
       <c r="G156" s="25"/>
       <c r="H156" s="25"/>
       <c r="I156" s="25">
@@ -7803,7 +7793,7 @@
       <c r="J156" s="25"/>
       <c r="K156" s="26"/>
     </row>
-    <row r="157" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" ht="30">
       <c r="A157" s="14">
         <v>20850</v>
       </c>
@@ -7828,7 +7818,7 @@
       <c r="J157" s="18"/>
       <c r="K157" s="19"/>
     </row>
-    <row r="158" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" ht="30">
       <c r="A158" s="14">
         <v>20850</v>
       </c>
@@ -7853,7 +7843,7 @@
       <c r="J158" s="18"/>
       <c r="K158" s="19"/>
     </row>
-    <row r="159" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" ht="45">
       <c r="A159" s="14">
         <v>20850</v>
       </c>
@@ -7878,7 +7868,7 @@
       <c r="J159" s="18"/>
       <c r="K159" s="19"/>
     </row>
-    <row r="160" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" ht="60">
       <c r="A160" s="14">
         <v>20850</v>
       </c>
@@ -7903,7 +7893,7 @@
       <c r="J160" s="18"/>
       <c r="K160" s="19"/>
     </row>
-    <row r="161" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="30">
       <c r="A161" s="20">
         <v>20852</v>
       </c>
@@ -7926,7 +7916,7 @@
       <c r="J161" s="25"/>
       <c r="K161" s="26"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11">
       <c r="A162" s="20">
         <v>20852</v>
       </c>
@@ -7949,7 +7939,7 @@
       <c r="J162" s="25"/>
       <c r="K162" s="26"/>
     </row>
-    <row r="163" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" ht="30">
       <c r="A163" s="14">
         <v>20855</v>
       </c>
@@ -7972,7 +7962,7 @@
       <c r="J163" s="18"/>
       <c r="K163" s="19"/>
     </row>
-    <row r="164" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" ht="30">
       <c r="A164" s="14">
         <v>20855</v>
       </c>
@@ -7995,7 +7985,7 @@
       <c r="J164" s="18"/>
       <c r="K164" s="19"/>
     </row>
-    <row r="165" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" ht="30">
       <c r="A165" s="20">
         <v>20857</v>
       </c>
@@ -8018,7 +8008,7 @@
       <c r="J165" s="25"/>
       <c r="K165" s="26"/>
     </row>
-    <row r="166" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" ht="30">
       <c r="A166" s="20">
         <v>20857</v>
       </c>
@@ -8041,7 +8031,7 @@
       <c r="J166" s="25"/>
       <c r="K166" s="26"/>
     </row>
-    <row r="167" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" ht="75">
       <c r="A167" s="14">
         <v>20878</v>
       </c>
@@ -8066,7 +8056,7 @@
       <c r="J167" s="18"/>
       <c r="K167" s="19"/>
     </row>
-    <row r="168" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" ht="60">
       <c r="A168" s="14">
         <v>20878</v>
       </c>
@@ -8091,7 +8081,7 @@
       <c r="J168" s="18"/>
       <c r="K168" s="19"/>
     </row>
-    <row r="169" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="30">
       <c r="A169" s="14">
         <v>20878</v>
       </c>
@@ -8116,7 +8106,7 @@
       <c r="J169" s="18"/>
       <c r="K169" s="19"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11">
       <c r="A170" s="20">
         <v>20973</v>
       </c>
@@ -8139,7 +8129,7 @@
       <c r="J170" s="25"/>
       <c r="K170" s="26"/>
     </row>
-    <row r="171" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" ht="75">
       <c r="A171" s="14">
         <v>21022</v>
       </c>
@@ -8164,7 +8154,7 @@
       <c r="J171" s="18"/>
       <c r="K171" s="19"/>
     </row>
-    <row r="172" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" ht="30">
       <c r="A172" s="14">
         <v>21022</v>
       </c>
@@ -8189,7 +8179,7 @@
       <c r="J172" s="18"/>
       <c r="K172" s="19"/>
     </row>
-    <row r="173" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" ht="45">
       <c r="A173" s="14">
         <v>21022</v>
       </c>
@@ -8214,7 +8204,7 @@
       <c r="J173" s="18"/>
       <c r="K173" s="19"/>
     </row>
-    <row r="174" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" ht="105">
       <c r="A174" s="20">
         <v>21082</v>
       </c>
@@ -8239,7 +8229,7 @@
       <c r="J174" s="25"/>
       <c r="K174" s="26"/>
     </row>
-    <row r="175" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" ht="30">
       <c r="A175" s="20">
         <v>21082</v>
       </c>
@@ -8264,7 +8254,7 @@
       <c r="J175" s="25"/>
       <c r="K175" s="26"/>
     </row>
-    <row r="176" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" ht="30">
       <c r="A176" s="14">
         <v>21113</v>
       </c>
@@ -8287,7 +8277,7 @@
       <c r="J176" s="18"/>
       <c r="K176" s="19"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11">
       <c r="A177" s="14">
         <v>21113</v>
       </c>
@@ -8310,7 +8300,7 @@
       <c r="J177" s="18"/>
       <c r="K177" s="19"/>
     </row>
-    <row r="178" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" ht="30">
       <c r="A178" s="20">
         <v>21149</v>
       </c>
@@ -8333,7 +8323,7 @@
       <c r="J178" s="25"/>
       <c r="K178" s="26"/>
     </row>
-    <row r="179" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" ht="30">
       <c r="A179" s="20">
         <v>21149</v>
       </c>
@@ -8356,7 +8346,7 @@
       <c r="J179" s="25"/>
       <c r="K179" s="26"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11">
       <c r="A180" s="14">
         <v>21201</v>
       </c>
@@ -8383,7 +8373,7 @@
       <c r="J180" s="18"/>
       <c r="K180" s="19"/>
     </row>
-    <row r="181" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" ht="75">
       <c r="A181" s="20">
         <v>21202</v>
       </c>
@@ -8412,7 +8402,7 @@
       <c r="J181" s="25"/>
       <c r="K181" s="26"/>
     </row>
-    <row r="182" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" ht="60">
       <c r="A182" s="20">
         <v>21202</v>
       </c>
@@ -8441,7 +8431,7 @@
       <c r="J182" s="25"/>
       <c r="K182" s="26"/>
     </row>
-    <row r="183" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" ht="45">
       <c r="A183" s="20">
         <v>21202</v>
       </c>
@@ -8470,7 +8460,7 @@
       <c r="J183" s="25"/>
       <c r="K183" s="26"/>
     </row>
-    <row r="184" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" ht="30">
       <c r="A184" s="20">
         <v>21202</v>
       </c>
@@ -8499,7 +8489,7 @@
       <c r="J184" s="25"/>
       <c r="K184" s="26"/>
     </row>
-    <row r="185" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" ht="45">
       <c r="A185" s="20">
         <v>21202</v>
       </c>
@@ -8528,7 +8518,7 @@
       <c r="J185" s="25"/>
       <c r="K185" s="26"/>
     </row>
-    <row r="186" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" ht="45">
       <c r="A186" s="20">
         <v>21202</v>
       </c>
@@ -8557,7 +8547,7 @@
       <c r="J186" s="25"/>
       <c r="K186" s="26"/>
     </row>
-    <row r="187" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" ht="45">
       <c r="A187" s="20">
         <v>21202</v>
       </c>
@@ -8586,7 +8576,7 @@
       <c r="J187" s="25"/>
       <c r="K187" s="26"/>
     </row>
-    <row r="188" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" ht="90">
       <c r="A188" s="20">
         <v>21202</v>
       </c>
@@ -8615,7 +8605,7 @@
       <c r="J188" s="25"/>
       <c r="K188" s="26"/>
     </row>
-    <row r="189" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" ht="105">
       <c r="A189" s="20">
         <v>21202</v>
       </c>
@@ -8644,7 +8634,7 @@
       <c r="J189" s="25"/>
       <c r="K189" s="26"/>
     </row>
-    <row r="190" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" ht="120">
       <c r="A190" s="20">
         <v>21202</v>
       </c>
@@ -8673,7 +8663,7 @@
       <c r="J190" s="25"/>
       <c r="K190" s="26"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11">
       <c r="A191" s="20">
         <v>21202</v>
       </c>
@@ -8702,7 +8692,7 @@
       <c r="J191" s="25"/>
       <c r="K191" s="26"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11">
       <c r="A192" s="20">
         <v>21202</v>
       </c>
@@ -8731,7 +8721,7 @@
       <c r="J192" s="25"/>
       <c r="K192" s="26"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11">
       <c r="A193" s="20">
         <v>21202</v>
       </c>
@@ -8760,7 +8750,7 @@
       <c r="J193" s="25"/>
       <c r="K193" s="26"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11">
       <c r="A194" s="20">
         <v>21202</v>
       </c>
@@ -8789,7 +8779,7 @@
       <c r="J194" s="25"/>
       <c r="K194" s="26"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11">
       <c r="A195" s="20">
         <v>21202</v>
       </c>
@@ -8818,7 +8808,7 @@
       <c r="J195" s="25"/>
       <c r="K195" s="26"/>
     </row>
-    <row r="196" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" ht="30">
       <c r="A196" s="14">
         <v>21219</v>
       </c>
@@ -8845,7 +8835,7 @@
       <c r="J196" s="18"/>
       <c r="K196" s="19"/>
     </row>
-    <row r="197" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" ht="60">
       <c r="A197" s="14">
         <v>21219</v>
       </c>
@@ -8872,7 +8862,7 @@
       <c r="J197" s="18"/>
       <c r="K197" s="19"/>
     </row>
-    <row r="198" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" ht="75">
       <c r="A198" s="14">
         <v>21219</v>
       </c>
@@ -8899,7 +8889,7 @@
       <c r="J198" s="18"/>
       <c r="K198" s="19"/>
     </row>
-    <row r="199" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" ht="45">
       <c r="A199" s="14">
         <v>21219</v>
       </c>
@@ -8926,7 +8916,7 @@
       <c r="J199" s="18"/>
       <c r="K199" s="19"/>
     </row>
-    <row r="200" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" ht="45">
       <c r="A200" s="14">
         <v>21219</v>
       </c>
@@ -8953,7 +8943,7 @@
       <c r="J200" s="18"/>
       <c r="K200" s="19"/>
     </row>
-    <row r="201" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" ht="105">
       <c r="A201" s="14">
         <v>21219</v>
       </c>
@@ -8980,7 +8970,7 @@
       <c r="J201" s="18"/>
       <c r="K201" s="19"/>
     </row>
-    <row r="202" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" ht="75">
       <c r="A202" s="14">
         <v>21219</v>
       </c>
@@ -9007,7 +8997,7 @@
       <c r="J202" s="18"/>
       <c r="K202" s="19"/>
     </row>
-    <row r="203" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" ht="75">
       <c r="A203" s="20">
         <v>21230</v>
       </c>
@@ -9032,7 +9022,7 @@
       <c r="J203" s="25"/>
       <c r="K203" s="26"/>
     </row>
-    <row r="204" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" ht="30">
       <c r="A204" s="14">
         <v>21233</v>
       </c>
@@ -9055,7 +9045,7 @@
       <c r="J204" s="18"/>
       <c r="K204" s="19"/>
     </row>
-    <row r="205" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" ht="45">
       <c r="A205" s="20">
         <v>21244</v>
       </c>
@@ -9078,7 +9068,7 @@
       <c r="J205" s="25"/>
       <c r="K205" s="26"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11">
       <c r="A206" s="14">
         <v>21328</v>
       </c>
@@ -9101,7 +9091,7 @@
       <c r="J206" s="18"/>
       <c r="K206" s="19"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11">
       <c r="A207" s="14">
         <v>21328</v>
       </c>
@@ -9124,7 +9114,7 @@
       <c r="J207" s="18"/>
       <c r="K207" s="19"/>
     </row>
-    <row r="208" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" ht="105">
       <c r="A208" s="20">
         <v>21433</v>
       </c>
@@ -9149,7 +9139,7 @@
       <c r="J208" s="25"/>
       <c r="K208" s="26"/>
     </row>
-    <row r="209" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" ht="45">
       <c r="A209" s="20">
         <v>21433</v>
       </c>
@@ -9174,7 +9164,7 @@
       <c r="J209" s="25"/>
       <c r="K209" s="26"/>
     </row>
-    <row r="210" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" ht="60">
       <c r="A210" s="20">
         <v>21433</v>
       </c>
@@ -9199,7 +9189,7 @@
       <c r="J210" s="25"/>
       <c r="K210" s="26"/>
     </row>
-    <row r="211" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" ht="60">
       <c r="A211" s="20">
         <v>21433</v>
       </c>
@@ -9224,7 +9214,7 @@
       <c r="J211" s="25"/>
       <c r="K211" s="26"/>
     </row>
-    <row r="212" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" ht="30">
       <c r="A212" s="20">
         <v>21433</v>
       </c>
@@ -9249,7 +9239,7 @@
       <c r="J212" s="25"/>
       <c r="K212" s="26"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11">
       <c r="A213" s="20">
         <v>21433</v>
       </c>
@@ -9274,7 +9264,7 @@
       <c r="J213" s="25"/>
       <c r="K213" s="26"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11">
       <c r="A214" s="20">
         <v>21433</v>
       </c>
@@ -9299,7 +9289,7 @@
       <c r="J214" s="25"/>
       <c r="K214" s="26"/>
     </row>
-    <row r="215" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" ht="60">
       <c r="A215" s="14">
         <v>21439</v>
       </c>
@@ -9324,7 +9314,7 @@
       <c r="J215" s="18"/>
       <c r="K215" s="19"/>
     </row>
-    <row r="216" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" ht="30">
       <c r="A216" s="20">
         <v>21442</v>
       </c>
@@ -9347,7 +9337,7 @@
       <c r="J216" s="25"/>
       <c r="K216" s="26"/>
     </row>
-    <row r="217" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" ht="30">
       <c r="A217" s="20">
         <v>21442</v>
       </c>
@@ -9370,7 +9360,7 @@
       <c r="J217" s="25"/>
       <c r="K217" s="26"/>
     </row>
-    <row r="218" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" ht="30">
       <c r="A218" s="14">
         <v>21443</v>
       </c>
@@ -9393,7 +9383,7 @@
       <c r="J218" s="18"/>
       <c r="K218" s="19"/>
     </row>
-    <row r="219" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" ht="30">
       <c r="A219" s="14">
         <v>21443</v>
       </c>
@@ -9416,7 +9406,7 @@
       <c r="J219" s="18"/>
       <c r="K219" s="19"/>
     </row>
-    <row r="220" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" ht="30">
       <c r="A220" s="20">
         <v>21444</v>
       </c>
@@ -9439,7 +9429,7 @@
       <c r="J220" s="25"/>
       <c r="K220" s="26"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11">
       <c r="A221" s="20">
         <v>21444</v>
       </c>
@@ -9462,7 +9452,7 @@
       <c r="J221" s="25"/>
       <c r="K221" s="26"/>
     </row>
-    <row r="222" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" ht="30">
       <c r="A222" s="14">
         <v>21452</v>
       </c>
@@ -9485,7 +9475,7 @@
       <c r="J222" s="18"/>
       <c r="K222" s="19"/>
     </row>
-    <row r="223" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" ht="30">
       <c r="A223" s="14">
         <v>21452</v>
       </c>
@@ -9508,7 +9498,7 @@
       <c r="J223" s="18"/>
       <c r="K223" s="19"/>
     </row>
-    <row r="224" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" ht="30">
       <c r="A224" s="20">
         <v>21527</v>
       </c>
@@ -9531,7 +9521,7 @@
       <c r="J224" s="25"/>
       <c r="K224" s="26"/>
     </row>
-    <row r="225" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" ht="75">
       <c r="A225" s="20">
         <v>21527</v>
       </c>
@@ -9554,7 +9544,7 @@
       <c r="J225" s="25"/>
       <c r="K225" s="26"/>
     </row>
-    <row r="226" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" ht="30">
       <c r="A226" s="20">
         <v>21527</v>
       </c>
@@ -9577,7 +9567,7 @@
       <c r="J226" s="25"/>
       <c r="K226" s="26"/>
     </row>
-    <row r="227" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" ht="30">
       <c r="A227" s="20">
         <v>21527</v>
       </c>
@@ -9600,7 +9590,7 @@
       <c r="J227" s="25"/>
       <c r="K227" s="26"/>
     </row>
-    <row r="228" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" ht="30">
       <c r="A228" s="20">
         <v>21527</v>
       </c>
@@ -9623,7 +9613,7 @@
       <c r="J228" s="25"/>
       <c r="K228" s="26"/>
     </row>
-    <row r="229" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" ht="60">
       <c r="A229" s="14">
         <v>21536</v>
       </c>
@@ -9650,7 +9640,7 @@
       </c>
       <c r="K229" s="19"/>
     </row>
-    <row r="230" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" ht="60">
       <c r="A230" s="14">
         <v>21536</v>
       </c>
@@ -9679,7 +9669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11">
       <c r="A231" s="14">
         <v>21536</v>
       </c>
@@ -9706,7 +9696,7 @@
       </c>
       <c r="K231" s="19"/>
     </row>
-    <row r="232" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" ht="30">
       <c r="A232" s="14">
         <v>21536</v>
       </c>
@@ -9733,7 +9723,7 @@
       </c>
       <c r="K232" s="19"/>
     </row>
-    <row r="233" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" ht="45">
       <c r="A233" s="14">
         <v>21536</v>
       </c>
@@ -9760,7 +9750,7 @@
       </c>
       <c r="K233" s="19"/>
     </row>
-    <row r="234" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" ht="60">
       <c r="A234" s="14">
         <v>21536</v>
       </c>
@@ -9787,7 +9777,7 @@
       </c>
       <c r="K234" s="19"/>
     </row>
-    <row r="235" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" ht="45">
       <c r="A235" s="14">
         <v>21536</v>
       </c>
@@ -9814,7 +9804,7 @@
       </c>
       <c r="K235" s="19"/>
     </row>
-    <row r="236" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" ht="45">
       <c r="A236" s="14">
         <v>21536</v>
       </c>
@@ -9841,7 +9831,7 @@
       </c>
       <c r="K236" s="19"/>
     </row>
-    <row r="237" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" ht="90">
       <c r="A237" s="14">
         <v>21536</v>
       </c>
@@ -9868,7 +9858,7 @@
       </c>
       <c r="K237" s="19"/>
     </row>
-    <row r="238" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" ht="120">
       <c r="A238" s="14">
         <v>21536</v>
       </c>
@@ -9895,7 +9885,7 @@
       </c>
       <c r="K238" s="19"/>
     </row>
-    <row r="239" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" ht="75">
       <c r="A239" s="14">
         <v>21536</v>
       </c>
@@ -9922,7 +9912,7 @@
       </c>
       <c r="K239" s="19"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11">
       <c r="A240" s="14">
         <v>21536</v>
       </c>
@@ -9949,7 +9939,7 @@
       </c>
       <c r="K240" s="19"/>
     </row>
-    <row r="241" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" ht="30">
       <c r="A241" s="14">
         <v>21536</v>
       </c>
@@ -9976,7 +9966,7 @@
       </c>
       <c r="K241" s="19"/>
     </row>
-    <row r="242" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" ht="30">
       <c r="A242" s="14">
         <v>21536</v>
       </c>
@@ -10003,7 +9993,7 @@
       </c>
       <c r="K242" s="19"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11">
       <c r="A243" s="14">
         <v>21536</v>
       </c>
@@ -10030,7 +10020,7 @@
       </c>
       <c r="K243" s="19"/>
     </row>
-    <row r="244" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" ht="90">
       <c r="A244" s="14">
         <v>21536</v>
       </c>
@@ -10057,7 +10047,7 @@
       </c>
       <c r="K244" s="19"/>
     </row>
-    <row r="245" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" ht="60">
       <c r="A245" s="20">
         <v>21537</v>
       </c>
@@ -10084,7 +10074,7 @@
       <c r="J245" s="25"/>
       <c r="K245" s="26"/>
     </row>
-    <row r="246" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" ht="75">
       <c r="A246" s="20">
         <v>21537</v>
       </c>
@@ -10111,7 +10101,7 @@
       <c r="J246" s="25"/>
       <c r="K246" s="26"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11">
       <c r="A247" s="20">
         <v>21537</v>
       </c>
@@ -10138,7 +10128,7 @@
       <c r="J247" s="25"/>
       <c r="K247" s="26"/>
     </row>
-    <row r="248" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" ht="45">
       <c r="A248" s="20">
         <v>21537</v>
       </c>
@@ -10165,7 +10155,7 @@
       <c r="J248" s="25"/>
       <c r="K248" s="26"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11">
       <c r="A249" s="20">
         <v>21537</v>
       </c>
@@ -10192,7 +10182,7 @@
       <c r="J249" s="25"/>
       <c r="K249" s="26"/>
     </row>
-    <row r="250" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" ht="120">
       <c r="A250" s="14">
         <v>21566</v>
       </c>
@@ -10217,7 +10207,7 @@
       <c r="J250" s="18"/>
       <c r="K250" s="19"/>
     </row>
-    <row r="251" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" ht="60">
       <c r="A251" s="20">
         <v>21608</v>
       </c>
@@ -10242,7 +10232,7 @@
       <c r="J251" s="25"/>
       <c r="K251" s="26"/>
     </row>
-    <row r="252" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" ht="105">
       <c r="A252" s="20">
         <v>21608</v>
       </c>
@@ -10267,7 +10257,7 @@
       <c r="J252" s="25"/>
       <c r="K252" s="26"/>
     </row>
-    <row r="253" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" ht="90">
       <c r="A253" s="14">
         <v>21625</v>
       </c>
@@ -10294,7 +10284,7 @@
       </c>
       <c r="K253" s="19"/>
     </row>
-    <row r="254" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" ht="30">
       <c r="A254" s="20">
         <v>21626</v>
       </c>
@@ -10317,7 +10307,7 @@
       <c r="J254" s="25"/>
       <c r="K254" s="26"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11">
       <c r="A255" s="20">
         <v>21626</v>
       </c>
@@ -10340,7 +10330,7 @@
       <c r="J255" s="25"/>
       <c r="K255" s="26"/>
     </row>
-    <row r="256" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" ht="90">
       <c r="A256" s="14">
         <v>21638</v>
       </c>
@@ -10367,7 +10357,7 @@
       </c>
       <c r="K256" s="19"/>
     </row>
-    <row r="257" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" ht="75">
       <c r="A257" s="14">
         <v>21638</v>
       </c>
@@ -10394,7 +10384,7 @@
       </c>
       <c r="K257" s="19"/>
     </row>
-    <row r="258" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" ht="90">
       <c r="A258" s="14">
         <v>21638</v>
       </c>
@@ -10421,7 +10411,7 @@
       </c>
       <c r="K258" s="19"/>
     </row>
-    <row r="259" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" ht="60">
       <c r="A259" s="14">
         <v>21638</v>
       </c>
@@ -10448,7 +10438,7 @@
       </c>
       <c r="K259" s="19"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11">
       <c r="A260" s="14">
         <v>21638</v>
       </c>
@@ -10475,7 +10465,7 @@
       </c>
       <c r="K260" s="19"/>
     </row>
-    <row r="261" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" ht="30">
       <c r="A261" s="14">
         <v>21638</v>
       </c>
@@ -10502,7 +10492,7 @@
       </c>
       <c r="K261" s="19"/>
     </row>
-    <row r="262" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" ht="30">
       <c r="A262" s="14">
         <v>21638</v>
       </c>
@@ -10529,7 +10519,7 @@
       </c>
       <c r="K262" s="19"/>
     </row>
-    <row r="263" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" ht="60">
       <c r="A263" s="14">
         <v>21638</v>
       </c>
@@ -10556,7 +10546,7 @@
       </c>
       <c r="K263" s="19"/>
     </row>
-    <row r="264" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" ht="30">
       <c r="A264" s="14">
         <v>21638</v>
       </c>
@@ -10583,7 +10573,7 @@
       </c>
       <c r="K264" s="19"/>
     </row>
-    <row r="265" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" ht="60">
       <c r="A265" s="14">
         <v>21638</v>
       </c>
@@ -10610,7 +10600,7 @@
       </c>
       <c r="K265" s="19"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11">
       <c r="A266" s="14">
         <v>21638</v>
       </c>
@@ -10637,7 +10627,7 @@
       </c>
       <c r="K266" s="19"/>
     </row>
-    <row r="267" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" ht="45">
       <c r="A267" s="14">
         <v>21638</v>
       </c>
@@ -10664,7 +10654,7 @@
       </c>
       <c r="K267" s="19"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11">
       <c r="A268" s="14">
         <v>21638</v>
       </c>
@@ -10691,7 +10681,7 @@
       </c>
       <c r="K268" s="19"/>
     </row>
-    <row r="269" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" ht="45">
       <c r="A269" s="14">
         <v>21638</v>
       </c>
@@ -10718,7 +10708,7 @@
       </c>
       <c r="K269" s="19"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11">
       <c r="A270" s="20">
         <v>21777</v>
       </c>
@@ -10741,7 +10731,7 @@
       <c r="J270" s="25"/>
       <c r="K270" s="26"/>
     </row>
-    <row r="271" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" ht="30">
       <c r="A271" s="20">
         <v>21777</v>
       </c>
@@ -10764,7 +10754,7 @@
       <c r="J271" s="25"/>
       <c r="K271" s="26"/>
     </row>
-    <row r="272" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" ht="45">
       <c r="A272" s="14">
         <v>21921</v>
       </c>
@@ -10787,7 +10777,7 @@
       <c r="J272" s="18"/>
       <c r="K272" s="19"/>
     </row>
-    <row r="273" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" ht="30">
       <c r="A273" s="14">
         <v>21921</v>
       </c>
@@ -10810,7 +10800,7 @@
       <c r="J273" s="18"/>
       <c r="K273" s="19"/>
     </row>
-    <row r="274" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" ht="30">
       <c r="A274" s="14">
         <v>21921</v>
       </c>
@@ -10833,7 +10823,7 @@
       <c r="J274" s="18"/>
       <c r="K274" s="19"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11">
       <c r="A275" s="14">
         <v>21921</v>
       </c>
@@ -10856,7 +10846,7 @@
       <c r="J275" s="18"/>
       <c r="K275" s="19"/>
     </row>
-    <row r="276" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" ht="45">
       <c r="A276" s="14">
         <v>21921</v>
       </c>
@@ -10879,7 +10869,7 @@
       <c r="J276" s="18"/>
       <c r="K276" s="19"/>
     </row>
-    <row r="277" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" ht="30">
       <c r="A277" s="20">
         <v>21922</v>
       </c>
@@ -10902,7 +10892,7 @@
       <c r="J277" s="25"/>
       <c r="K277" s="26"/>
     </row>
-    <row r="278" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" ht="30">
       <c r="A278" s="20">
         <v>21922</v>
       </c>
@@ -10925,7 +10915,7 @@
       <c r="J278" s="25"/>
       <c r="K278" s="26"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11">
       <c r="A279" s="20">
         <v>21922</v>
       </c>
@@ -10948,7 +10938,7 @@
       <c r="J279" s="25"/>
       <c r="K279" s="26"/>
     </row>
-    <row r="280" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" ht="30">
       <c r="A280" s="20">
         <v>21922</v>
       </c>
@@ -10971,7 +10961,7 @@
       <c r="J280" s="25"/>
       <c r="K280" s="26"/>
     </row>
-    <row r="281" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" ht="30">
       <c r="A281" s="14">
         <v>21925</v>
       </c>
@@ -10994,7 +10984,7 @@
       <c r="J281" s="18"/>
       <c r="K281" s="19"/>
     </row>
-    <row r="282" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" ht="30">
       <c r="A282" s="14">
         <v>21925</v>
       </c>
@@ -11017,7 +11007,7 @@
       <c r="J282" s="18"/>
       <c r="K282" s="19"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11">
       <c r="A283" s="14">
         <v>21925</v>
       </c>
@@ -11040,7 +11030,7 @@
       <c r="J283" s="18"/>
       <c r="K283" s="19"/>
     </row>
-    <row r="284" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" ht="30">
       <c r="A284" s="14">
         <v>21925</v>
       </c>
@@ -11063,7 +11053,7 @@
       <c r="J284" s="18"/>
       <c r="K284" s="19"/>
     </row>
-    <row r="285" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" ht="30">
       <c r="A285" s="20">
         <v>21944</v>
       </c>
@@ -11088,7 +11078,7 @@
       <c r="J285" s="25"/>
       <c r="K285" s="26"/>
     </row>
-    <row r="286" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" ht="30">
       <c r="A286" s="20">
         <v>21944</v>
       </c>
@@ -11113,7 +11103,7 @@
       <c r="J286" s="25"/>
       <c r="K286" s="26"/>
     </row>
-    <row r="287" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" ht="30">
       <c r="A287" s="14">
         <v>21994</v>
       </c>
@@ -11138,7 +11128,7 @@
       <c r="J287" s="18"/>
       <c r="K287" s="19"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11">
       <c r="A288" s="14">
         <v>21994</v>
       </c>
@@ -11163,7 +11153,7 @@
       <c r="J288" s="18"/>
       <c r="K288" s="19"/>
     </row>
-    <row r="289" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" ht="45">
       <c r="A289" s="14">
         <v>21994</v>
       </c>
@@ -11188,7 +11178,7 @@
       <c r="J289" s="18"/>
       <c r="K289" s="19"/>
     </row>
-    <row r="290" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" ht="90">
       <c r="A290" s="14">
         <v>21994</v>
       </c>
@@ -11213,7 +11203,7 @@
       <c r="J290" s="18"/>
       <c r="K290" s="19"/>
     </row>
-    <row r="291" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" ht="45">
       <c r="A291" s="14">
         <v>21994</v>
       </c>
@@ -11238,7 +11228,7 @@
       <c r="J291" s="18"/>
       <c r="K291" s="19"/>
     </row>
-    <row r="292" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" ht="30">
       <c r="A292" s="20">
         <v>21995</v>
       </c>
@@ -11263,7 +11253,7 @@
       <c r="J292" s="25"/>
       <c r="K292" s="26"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11">
       <c r="A293" s="20">
         <v>21995</v>
       </c>
@@ -11288,7 +11278,7 @@
       <c r="J293" s="25"/>
       <c r="K293" s="26"/>
     </row>
-    <row r="294" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" ht="30">
       <c r="A294" s="20">
         <v>21995</v>
       </c>
@@ -11313,7 +11303,7 @@
       <c r="J294" s="25"/>
       <c r="K294" s="26"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11">
       <c r="A295" s="20">
         <v>21995</v>
       </c>
@@ -11338,7 +11328,7 @@
       <c r="J295" s="25"/>
       <c r="K295" s="26"/>
     </row>
-    <row r="296" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" ht="60">
       <c r="A296" s="14">
         <v>22062</v>
       </c>
@@ -11363,7 +11353,7 @@
       <c r="J296" s="18"/>
       <c r="K296" s="19"/>
     </row>
-    <row r="297" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" ht="60">
       <c r="A297" s="14">
         <v>22062</v>
       </c>
@@ -11388,7 +11378,7 @@
       <c r="J297" s="18"/>
       <c r="K297" s="19"/>
     </row>
-    <row r="298" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" ht="45">
       <c r="A298" s="20">
         <v>22063</v>
       </c>
@@ -11413,7 +11403,7 @@
       <c r="J298" s="25"/>
       <c r="K298" s="26"/>
     </row>
-    <row r="299" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" ht="90">
       <c r="A299" s="20">
         <v>22063</v>
       </c>
@@ -11438,7 +11428,7 @@
       <c r="J299" s="25"/>
       <c r="K299" s="26"/>
     </row>
-    <row r="300" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" ht="45">
       <c r="A300" s="20">
         <v>22063</v>
       </c>
@@ -11463,7 +11453,7 @@
       <c r="J300" s="25"/>
       <c r="K300" s="26"/>
     </row>
-    <row r="301" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" ht="60">
       <c r="A301" s="20">
         <v>22063</v>
       </c>
@@ -11488,7 +11478,7 @@
       <c r="J301" s="25"/>
       <c r="K301" s="26"/>
     </row>
-    <row r="302" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" ht="75">
       <c r="A302" s="20">
         <v>22063</v>
       </c>
@@ -11511,7 +11501,7 @@
       <c r="J302" s="25"/>
       <c r="K302" s="26"/>
     </row>
-    <row r="303" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" ht="60">
       <c r="A303" s="20">
         <v>22063</v>
       </c>
@@ -11536,7 +11526,7 @@
       <c r="J303" s="25"/>
       <c r="K303" s="26"/>
     </row>
-    <row r="304" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" ht="60">
       <c r="A304" s="14">
         <v>22097</v>
       </c>
@@ -11561,7 +11551,7 @@
       <c r="J304" s="18"/>
       <c r="K304" s="19"/>
     </row>
-    <row r="305" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" ht="45">
       <c r="A305" s="14">
         <v>22097</v>
       </c>
@@ -11586,7 +11576,7 @@
       <c r="J305" s="18"/>
       <c r="K305" s="19"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11">
       <c r="A306" s="14">
         <v>22097</v>
       </c>
@@ -11611,7 +11601,7 @@
       <c r="J306" s="18"/>
       <c r="K306" s="19"/>
     </row>
-    <row r="307" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" ht="90">
       <c r="A307" s="14">
         <v>22097</v>
       </c>
@@ -11636,7 +11626,7 @@
       <c r="J307" s="18"/>
       <c r="K307" s="19"/>
     </row>
-    <row r="308" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" ht="90">
       <c r="A308" s="20">
         <v>22175</v>
       </c>
@@ -11661,7 +11651,7 @@
       <c r="J308" s="25"/>
       <c r="K308" s="26"/>
     </row>
-    <row r="309" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" ht="75">
       <c r="A309" s="14">
         <v>22195</v>
       </c>
@@ -11686,7 +11676,7 @@
       <c r="J309" s="18"/>
       <c r="K309" s="19"/>
     </row>
-    <row r="310" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" ht="45">
       <c r="A310" s="14">
         <v>22195</v>
       </c>
@@ -11711,7 +11701,7 @@
       <c r="J310" s="18"/>
       <c r="K310" s="19"/>
     </row>
-    <row r="311" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" ht="60">
       <c r="A311" s="20">
         <v>22196</v>
       </c>
@@ -11736,7 +11726,7 @@
       <c r="J311" s="25"/>
       <c r="K311" s="26"/>
     </row>
-    <row r="312" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" ht="30">
       <c r="A312" s="20">
         <v>22196</v>
       </c>
@@ -11761,7 +11751,7 @@
       <c r="J312" s="25"/>
       <c r="K312" s="26"/>
     </row>
-    <row r="313" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" ht="120">
       <c r="A313" s="14">
         <v>22229</v>
       </c>
@@ -11786,7 +11776,7 @@
       <c r="J313" s="18"/>
       <c r="K313" s="19"/>
     </row>
-    <row r="314" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" ht="30">
       <c r="A314" s="20">
         <v>22232</v>
       </c>
@@ -11809,7 +11799,7 @@
       <c r="J314" s="25"/>
       <c r="K314" s="26"/>
     </row>
-    <row r="315" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" ht="75">
       <c r="A315" s="14">
         <v>22341</v>
       </c>
@@ -11834,7 +11824,7 @@
       <c r="J315" s="18"/>
       <c r="K315" s="19"/>
     </row>
-    <row r="316" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" ht="30">
       <c r="A316" s="14">
         <v>22341</v>
       </c>
@@ -11859,7 +11849,7 @@
       <c r="J316" s="18"/>
       <c r="K316" s="19"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11">
       <c r="A317" s="14">
         <v>22341</v>
       </c>
@@ -11884,7 +11874,7 @@
       <c r="J317" s="18"/>
       <c r="K317" s="19"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11">
       <c r="A318" s="14">
         <v>22341</v>
       </c>
@@ -11909,7 +11899,7 @@
       <c r="J318" s="18"/>
       <c r="K318" s="19"/>
     </row>
-    <row r="319" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" ht="45">
       <c r="A319" s="14">
         <v>22341</v>
       </c>
@@ -11934,7 +11924,7 @@
       <c r="J319" s="18"/>
       <c r="K319" s="19"/>
     </row>
-    <row r="320" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" ht="45">
       <c r="A320" s="14">
         <v>22341</v>
       </c>
@@ -11959,7 +11949,7 @@
       <c r="J320" s="18"/>
       <c r="K320" s="19"/>
     </row>
-    <row r="321" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" ht="90">
       <c r="A321" s="14">
         <v>22341</v>
       </c>
@@ -11984,7 +11974,7 @@
       <c r="J321" s="18"/>
       <c r="K321" s="19"/>
     </row>
-    <row r="322" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" ht="60">
       <c r="A322" s="14">
         <v>22341</v>
       </c>
@@ -12009,7 +11999,7 @@
       <c r="J322" s="18"/>
       <c r="K322" s="19"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11">
       <c r="A323" s="14">
         <v>22341</v>
       </c>
@@ -12034,7 +12024,7 @@
       <c r="J323" s="18"/>
       <c r="K323" s="19"/>
     </row>
-    <row r="324" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" ht="45">
       <c r="A324" s="14">
         <v>22341</v>
       </c>
@@ -12059,7 +12049,7 @@
       <c r="J324" s="18"/>
       <c r="K324" s="19"/>
     </row>
-    <row r="325" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" ht="90">
       <c r="A325" s="14">
         <v>22341</v>
       </c>
@@ -12084,7 +12074,7 @@
       <c r="J325" s="18"/>
       <c r="K325" s="19"/>
     </row>
-    <row r="326" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" ht="45">
       <c r="A326" s="14">
         <v>22341</v>
       </c>
@@ -12109,7 +12099,7 @@
       <c r="J326" s="18"/>
       <c r="K326" s="19"/>
     </row>
-    <row r="327" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" ht="45">
       <c r="A327" s="14">
         <v>22341</v>
       </c>
@@ -12134,7 +12124,7 @@
       <c r="J327" s="18"/>
       <c r="K327" s="19"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11">
       <c r="A328" s="14">
         <v>22341</v>
       </c>
@@ -12159,7 +12149,7 @@
       <c r="J328" s="18"/>
       <c r="K328" s="19"/>
     </row>
-    <row r="329" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" ht="90">
       <c r="A329" s="14">
         <v>22341</v>
       </c>
@@ -12186,7 +12176,7 @@
       <c r="J329" s="18"/>
       <c r="K329" s="19"/>
     </row>
-    <row r="330" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" ht="60">
       <c r="A330" s="14">
         <v>22341</v>
       </c>
@@ -12211,7 +12201,7 @@
       <c r="J330" s="18"/>
       <c r="K330" s="19"/>
     </row>
-    <row r="331" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" ht="90">
       <c r="A331" s="14">
         <v>22341</v>
       </c>
@@ -12236,7 +12226,7 @@
       <c r="J331" s="18"/>
       <c r="K331" s="19"/>
     </row>
-    <row r="332" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" ht="30">
       <c r="A332" s="14">
         <v>22341</v>
       </c>
@@ -12261,7 +12251,7 @@
       <c r="J332" s="18"/>
       <c r="K332" s="19"/>
     </row>
-    <row r="333" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" ht="30">
       <c r="A333" s="20">
         <v>22343</v>
       </c>
@@ -12286,7 +12276,7 @@
       <c r="J333" s="25"/>
       <c r="K333" s="26"/>
     </row>
-    <row r="334" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" ht="45">
       <c r="A334" s="20">
         <v>22343</v>
       </c>
@@ -12311,7 +12301,7 @@
       <c r="J334" s="25"/>
       <c r="K334" s="26"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11">
       <c r="A335" s="20">
         <v>22343</v>
       </c>
@@ -12336,7 +12326,7 @@
       <c r="J335" s="25"/>
       <c r="K335" s="26"/>
     </row>
-    <row r="336" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" ht="30">
       <c r="A336" s="20">
         <v>22343</v>
       </c>
@@ -12361,7 +12351,7 @@
       <c r="J336" s="25"/>
       <c r="K336" s="26"/>
     </row>
-    <row r="337" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" ht="30">
       <c r="A337" s="14">
         <v>22367</v>
       </c>
@@ -12386,7 +12376,7 @@
       </c>
       <c r="K337" s="19"/>
     </row>
-    <row r="338" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" ht="30">
       <c r="A338" s="14">
         <v>22367</v>
       </c>
@@ -12411,7 +12401,7 @@
       </c>
       <c r="K338" s="19"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11">
       <c r="A339" s="14">
         <v>22367</v>
       </c>
@@ -12436,7 +12426,7 @@
       </c>
       <c r="K339" s="19"/>
     </row>
-    <row r="340" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" ht="45">
       <c r="A340" s="14">
         <v>22367</v>
       </c>
@@ -12461,7 +12451,7 @@
       </c>
       <c r="K340" s="19"/>
     </row>
-    <row r="341" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" ht="60">
       <c r="A341" s="14">
         <v>22367</v>
       </c>
@@ -12486,7 +12476,7 @@
       </c>
       <c r="K341" s="19"/>
     </row>
-    <row r="342" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" ht="30">
       <c r="A342" s="14">
         <v>22367</v>
       </c>
@@ -12511,7 +12501,7 @@
       </c>
       <c r="K342" s="19"/>
     </row>
-    <row r="343" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" ht="45">
       <c r="A343" s="14">
         <v>22367</v>
       </c>
@@ -12536,7 +12526,7 @@
       </c>
       <c r="K343" s="19"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11">
       <c r="A344" s="14">
         <v>22367</v>
       </c>
@@ -12561,7 +12551,7 @@
       </c>
       <c r="K344" s="19"/>
     </row>
-    <row r="345" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" ht="30">
       <c r="A345" s="14">
         <v>22367</v>
       </c>
@@ -12586,7 +12576,7 @@
       </c>
       <c r="K345" s="19"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11">
       <c r="A346" s="14">
         <v>22367</v>
       </c>
@@ -12611,7 +12601,7 @@
       </c>
       <c r="K346" s="19"/>
     </row>
-    <row r="347" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" ht="30">
       <c r="A347" s="14">
         <v>22367</v>
       </c>
@@ -12636,7 +12626,7 @@
       </c>
       <c r="K347" s="19"/>
     </row>
-    <row r="348" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" ht="30">
       <c r="A348" s="14">
         <v>22367</v>
       </c>
@@ -12661,7 +12651,7 @@
       </c>
       <c r="K348" s="19"/>
     </row>
-    <row r="349" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" ht="60">
       <c r="A349" s="14">
         <v>22367</v>
       </c>
@@ -12686,7 +12676,7 @@
       </c>
       <c r="K349" s="19"/>
     </row>
-    <row r="350" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" ht="75">
       <c r="A350" s="14">
         <v>22367</v>
       </c>
@@ -12711,7 +12701,7 @@
       </c>
       <c r="K350" s="19"/>
     </row>
-    <row r="351" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" ht="30">
       <c r="A351" s="14">
         <v>22367</v>
       </c>
@@ -12736,7 +12726,7 @@
       </c>
       <c r="K351" s="19"/>
     </row>
-    <row r="352" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" ht="75">
       <c r="A352" s="14">
         <v>22367</v>
       </c>
@@ -12761,7 +12751,7 @@
       </c>
       <c r="K352" s="19"/>
     </row>
-    <row r="353" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" ht="30">
       <c r="A353" s="14">
         <v>22367</v>
       </c>
@@ -12786,7 +12776,7 @@
       </c>
       <c r="K353" s="19"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11">
       <c r="A354" s="14">
         <v>22367</v>
       </c>
@@ -12811,7 +12801,7 @@
       </c>
       <c r="K354" s="19"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11">
       <c r="A355" s="14">
         <v>22367</v>
       </c>
@@ -12836,7 +12826,7 @@
       </c>
       <c r="K355" s="19"/>
     </row>
-    <row r="356" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" ht="30">
       <c r="A356" s="14">
         <v>22367</v>
       </c>
@@ -12861,7 +12851,7 @@
       </c>
       <c r="K356" s="19"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11">
       <c r="A357" s="14">
         <v>22367</v>
       </c>
@@ -12886,7 +12876,7 @@
       </c>
       <c r="K357" s="19"/>
     </row>
-    <row r="358" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" ht="60">
       <c r="A358" s="20">
         <v>22398</v>
       </c>
@@ -12915,7 +12905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11">
       <c r="A359" s="20">
         <v>22398</v>
       </c>
@@ -12944,7 +12934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11">
       <c r="A360" s="20">
         <v>22398</v>
       </c>
@@ -12973,7 +12963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" ht="45">
       <c r="A361" s="20">
         <v>22398</v>
       </c>
@@ -13002,7 +12992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" ht="90">
       <c r="A362" s="20">
         <v>22398</v>
       </c>
@@ -13031,7 +13021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" ht="45">
       <c r="A363" s="20">
         <v>22398</v>
       </c>
@@ -13060,7 +13050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" ht="60">
       <c r="A364" s="20">
         <v>22398</v>
       </c>
@@ -13089,7 +13079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11">
       <c r="A365" s="20">
         <v>22398</v>
       </c>
@@ -13118,7 +13108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11">
       <c r="A366" s="20">
         <v>22398</v>
       </c>
@@ -13147,7 +13137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" ht="30">
       <c r="A367" s="20">
         <v>22398</v>
       </c>
@@ -13176,7 +13166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" ht="30">
       <c r="A368" s="14">
         <v>22421</v>
       </c>
@@ -13201,7 +13191,7 @@
       </c>
       <c r="K368" s="19"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11">
       <c r="A369" s="14">
         <v>22421</v>
       </c>
@@ -13226,7 +13216,7 @@
       </c>
       <c r="K369" s="19"/>
     </row>
-    <row r="370" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" ht="105">
       <c r="A370" s="14">
         <v>22421</v>
       </c>
@@ -13251,7 +13241,7 @@
       </c>
       <c r="K370" s="19"/>
     </row>
-    <row r="371" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" ht="45">
       <c r="A371" s="20">
         <v>22436</v>
       </c>
@@ -13274,7 +13264,7 @@
       <c r="J371" s="25"/>
       <c r="K371" s="26"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11">
       <c r="A372" s="14">
         <v>22452</v>
       </c>
@@ -13297,7 +13287,7 @@
       <c r="J372" s="18"/>
       <c r="K372" s="19"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11">
       <c r="A373" s="20">
         <v>22462</v>
       </c>
@@ -13320,7 +13310,7 @@
       <c r="J373" s="25"/>
       <c r="K373" s="26"/>
     </row>
-    <row r="374" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" ht="60">
       <c r="A374" s="14">
         <v>22555</v>
       </c>
@@ -13345,7 +13335,7 @@
       <c r="J374" s="18"/>
       <c r="K374" s="19"/>
     </row>
-    <row r="375" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" ht="45">
       <c r="A375" s="14">
         <v>22555</v>
       </c>
@@ -13370,7 +13360,7 @@
       <c r="J375" s="18"/>
       <c r="K375" s="19"/>
     </row>
-    <row r="376" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" ht="60">
       <c r="A376" s="14">
         <v>22555</v>
       </c>
@@ -13395,7 +13385,7 @@
       <c r="J376" s="18"/>
       <c r="K376" s="19"/>
     </row>
-    <row r="377" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" ht="30">
       <c r="A377" s="14">
         <v>22555</v>
       </c>
@@ -13420,7 +13410,7 @@
       <c r="J377" s="18"/>
       <c r="K377" s="19"/>
     </row>
-    <row r="378" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" ht="75">
       <c r="A378" s="14">
         <v>22555</v>
       </c>
@@ -13445,7 +13435,7 @@
       <c r="J378" s="18"/>
       <c r="K378" s="19"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11">
       <c r="A379" s="20">
         <v>22579</v>
       </c>
@@ -13468,7 +13458,7 @@
       <c r="J379" s="25"/>
       <c r="K379" s="26"/>
     </row>
-    <row r="380" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" ht="30">
       <c r="A380" s="20">
         <v>22579</v>
       </c>
@@ -13491,7 +13481,7 @@
       <c r="J380" s="25"/>
       <c r="K380" s="26"/>
     </row>
-    <row r="381" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" ht="30">
       <c r="A381" s="20">
         <v>22579</v>
       </c>
@@ -13514,7 +13504,7 @@
       <c r="J381" s="25"/>
       <c r="K381" s="26"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11">
       <c r="A382" s="20">
         <v>22579</v>
       </c>
@@ -13537,7 +13527,7 @@
       <c r="J382" s="25"/>
       <c r="K382" s="26"/>
     </row>
-    <row r="383" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" ht="30">
       <c r="A383" s="20">
         <v>22579</v>
       </c>
@@ -13560,7 +13550,7 @@
       <c r="J383" s="25"/>
       <c r="K383" s="26"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11">
       <c r="A384" s="14">
         <v>22609</v>
       </c>
@@ -13583,7 +13573,7 @@
       <c r="J384" s="18"/>
       <c r="K384" s="19"/>
     </row>
-    <row r="385" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" ht="45">
       <c r="A385" s="14">
         <v>22609</v>
       </c>
@@ -13606,7 +13596,7 @@
       <c r="J385" s="18"/>
       <c r="K385" s="19"/>
     </row>
-    <row r="386" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" ht="45">
       <c r="A386" s="14">
         <v>22609</v>
       </c>
@@ -13629,7 +13619,7 @@
       <c r="J386" s="18"/>
       <c r="K386" s="19"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11">
       <c r="A387" s="14">
         <v>22609</v>
       </c>
@@ -13652,7 +13642,7 @@
       <c r="J387" s="18"/>
       <c r="K387" s="19"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11">
       <c r="A388" s="20">
         <v>22613</v>
       </c>
@@ -13675,7 +13665,7 @@
       <c r="J388" s="25"/>
       <c r="K388" s="26"/>
     </row>
-    <row r="389" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" ht="60">
       <c r="A389" s="20">
         <v>22613</v>
       </c>
@@ -13698,7 +13688,7 @@
       <c r="J389" s="25"/>
       <c r="K389" s="26"/>
     </row>
-    <row r="390" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" ht="30">
       <c r="A390" s="14">
         <v>22614</v>
       </c>
@@ -13721,7 +13711,7 @@
       <c r="J390" s="18"/>
       <c r="K390" s="19"/>
     </row>
-    <row r="391" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" ht="60">
       <c r="A391" s="14">
         <v>22614</v>
       </c>
@@ -13744,7 +13734,7 @@
       <c r="J391" s="18"/>
       <c r="K391" s="19"/>
     </row>
-    <row r="392" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" ht="30">
       <c r="A392" s="20">
         <v>22634</v>
       </c>
@@ -13767,7 +13757,7 @@
       <c r="J392" s="25"/>
       <c r="K392" s="26"/>
     </row>
-    <row r="393" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" ht="30">
       <c r="A393" s="20">
         <v>22634</v>
       </c>
@@ -13790,7 +13780,7 @@
       <c r="J393" s="25"/>
       <c r="K393" s="26"/>
     </row>
-    <row r="394" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" ht="30">
       <c r="A394" s="20">
         <v>22634</v>
       </c>
@@ -13813,7 +13803,7 @@
       <c r="J394" s="25"/>
       <c r="K394" s="26"/>
     </row>
-    <row r="395" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" ht="30">
       <c r="A395" s="20">
         <v>22634</v>
       </c>
@@ -13836,7 +13826,7 @@
       <c r="J395" s="25"/>
       <c r="K395" s="26"/>
     </row>
-    <row r="396" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" ht="45">
       <c r="A396" s="20">
         <v>22634</v>
       </c>
@@ -13859,7 +13849,7 @@
       <c r="J396" s="25"/>
       <c r="K396" s="26"/>
     </row>
-    <row r="397" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" ht="30">
       <c r="A397" s="20">
         <v>22634</v>
       </c>
@@ -13882,7 +13872,7 @@
       <c r="J397" s="25"/>
       <c r="K397" s="26"/>
     </row>
-    <row r="398" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" ht="30">
       <c r="A398" s="20">
         <v>22634</v>
       </c>
@@ -13905,7 +13895,7 @@
       <c r="J398" s="25"/>
       <c r="K398" s="26"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11">
       <c r="A399" s="14">
         <v>22717</v>
       </c>
@@ -13930,7 +13920,7 @@
       </c>
       <c r="K399" s="19"/>
     </row>
-    <row r="400" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" ht="45">
       <c r="A400" s="20">
         <v>22720</v>
       </c>
@@ -13959,7 +13949,7 @@
       </c>
       <c r="K400" s="26"/>
     </row>
-    <row r="401" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" ht="60">
       <c r="A401" s="20">
         <v>22720</v>
       </c>
@@ -13988,7 +13978,7 @@
       </c>
       <c r="K401" s="26"/>
     </row>
-    <row r="402" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" ht="30">
       <c r="A402" s="20">
         <v>22720</v>
       </c>
@@ -14017,7 +14007,7 @@
       </c>
       <c r="K402" s="26"/>
     </row>
-    <row r="403" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" ht="45">
       <c r="A403" s="20">
         <v>22720</v>
       </c>
@@ -14046,7 +14036,7 @@
       </c>
       <c r="K403" s="26"/>
     </row>
-    <row r="404" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" ht="45">
       <c r="A404" s="20">
         <v>22720</v>
       </c>
@@ -14075,7 +14065,7 @@
       </c>
       <c r="K404" s="26"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11">
       <c r="A405" s="20">
         <v>22720</v>
       </c>
@@ -14104,7 +14094,7 @@
       </c>
       <c r="K405" s="26"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11">
       <c r="A406" s="20">
         <v>22720</v>
       </c>
@@ -14133,7 +14123,7 @@
       </c>
       <c r="K406" s="26"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11">
       <c r="A407" s="20">
         <v>22720</v>
       </c>
@@ -14162,7 +14152,7 @@
       </c>
       <c r="K407" s="26"/>
     </row>
-    <row r="408" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" ht="30">
       <c r="A408" s="20">
         <v>22720</v>
       </c>
@@ -14191,7 +14181,7 @@
       </c>
       <c r="K408" s="26"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11">
       <c r="A409" s="20">
         <v>22720</v>
       </c>
@@ -14220,7 +14210,7 @@
       </c>
       <c r="K409" s="26"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11">
       <c r="A410" s="14">
         <v>22721</v>
       </c>
@@ -14245,7 +14235,7 @@
       <c r="J410" s="18"/>
       <c r="K410" s="19"/>
     </row>
-    <row r="411" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" ht="30">
       <c r="A411" s="14">
         <v>22721</v>
       </c>
@@ -14270,7 +14260,7 @@
       <c r="J411" s="18"/>
       <c r="K411" s="19"/>
     </row>
-    <row r="412" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" ht="45">
       <c r="A412" s="14">
         <v>22721</v>
       </c>
@@ -14295,7 +14285,7 @@
       <c r="J412" s="18"/>
       <c r="K412" s="19"/>
     </row>
-    <row r="413" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" ht="45">
       <c r="A413" s="14">
         <v>22721</v>
       </c>
@@ -14320,7 +14310,7 @@
       <c r="J413" s="18"/>
       <c r="K413" s="19"/>
     </row>
-    <row r="414" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" ht="60">
       <c r="A414" s="14">
         <v>22721</v>
       </c>
@@ -14345,7 +14335,7 @@
       <c r="J414" s="18"/>
       <c r="K414" s="19"/>
     </row>
-    <row r="415" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" ht="45">
       <c r="A415" s="14">
         <v>22721</v>
       </c>
@@ -14370,7 +14360,7 @@
       <c r="J415" s="18"/>
       <c r="K415" s="19"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11">
       <c r="A416" s="14">
         <v>22721</v>
       </c>
@@ -14395,7 +14385,7 @@
       <c r="J416" s="18"/>
       <c r="K416" s="19"/>
     </row>
-    <row r="417" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" ht="30">
       <c r="A417" s="14">
         <v>22721</v>
       </c>
@@ -14420,7 +14410,7 @@
       <c r="J417" s="18"/>
       <c r="K417" s="19"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11">
       <c r="A418" s="20">
         <v>22723</v>
       </c>
@@ -14449,7 +14439,7 @@
       </c>
       <c r="K418" s="26"/>
     </row>
-    <row r="419" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" ht="60">
       <c r="A419" s="20">
         <v>22723</v>
       </c>
@@ -14478,7 +14468,7 @@
       </c>
       <c r="K419" s="26"/>
     </row>
-    <row r="420" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" ht="60">
       <c r="A420" s="20">
         <v>22723</v>
       </c>
@@ -14507,7 +14497,7 @@
       </c>
       <c r="K420" s="26"/>
     </row>
-    <row r="421" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" ht="60">
       <c r="A421" s="20">
         <v>22723</v>
       </c>
@@ -14536,7 +14526,7 @@
       </c>
       <c r="K421" s="26"/>
     </row>
-    <row r="422" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" ht="75">
       <c r="A422" s="20">
         <v>22723</v>
       </c>
@@ -14565,7 +14555,7 @@
       </c>
       <c r="K422" s="26"/>
     </row>
-    <row r="423" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" ht="60">
       <c r="A423" s="20">
         <v>22723</v>
       </c>
@@ -14594,7 +14584,7 @@
       </c>
       <c r="K423" s="26"/>
     </row>
-    <row r="424" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" ht="75">
       <c r="A424" s="20">
         <v>22723</v>
       </c>
@@ -14623,7 +14613,7 @@
       </c>
       <c r="K424" s="26"/>
     </row>
-    <row r="425" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" ht="90">
       <c r="A425" s="20">
         <v>22723</v>
       </c>
@@ -14652,7 +14642,7 @@
       </c>
       <c r="K425" s="26"/>
     </row>
-    <row r="426" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" ht="60">
       <c r="A426" s="20">
         <v>22723</v>
       </c>
@@ -14681,7 +14671,7 @@
       </c>
       <c r="K426" s="26"/>
     </row>
-    <row r="427" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" ht="30">
       <c r="A427" s="20">
         <v>22723</v>
       </c>
@@ -14710,7 +14700,7 @@
       </c>
       <c r="K427" s="26"/>
     </row>
-    <row r="428" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" ht="45">
       <c r="A428" s="14">
         <v>22779</v>
       </c>
@@ -14735,7 +14725,7 @@
       <c r="J428" s="18"/>
       <c r="K428" s="19"/>
     </row>
-    <row r="429" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" ht="45">
       <c r="A429" s="14">
         <v>22779</v>
       </c>
@@ -14760,7 +14750,7 @@
       <c r="J429" s="18"/>
       <c r="K429" s="19"/>
     </row>
-    <row r="430" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" ht="30">
       <c r="A430" s="14">
         <v>22779</v>
       </c>
@@ -14785,7 +14775,7 @@
       <c r="J430" s="18"/>
       <c r="K430" s="19"/>
     </row>
-    <row r="431" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" ht="45">
       <c r="A431" s="14">
         <v>22779</v>
       </c>
@@ -14810,7 +14800,7 @@
       <c r="J431" s="18"/>
       <c r="K431" s="19"/>
     </row>
-    <row r="432" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" ht="30">
       <c r="A432" s="20">
         <v>22870</v>
       </c>
@@ -14837,7 +14827,7 @@
       <c r="J432" s="25"/>
       <c r="K432" s="26"/>
     </row>
-    <row r="433" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" ht="75">
       <c r="A433" s="20">
         <v>22870</v>
       </c>
@@ -14864,7 +14854,7 @@
       <c r="J433" s="25"/>
       <c r="K433" s="26"/>
     </row>
-    <row r="434" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" ht="30">
       <c r="A434" s="20">
         <v>22870</v>
       </c>
@@ -14891,7 +14881,7 @@
       <c r="J434" s="25"/>
       <c r="K434" s="26"/>
     </row>
-    <row r="435" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" ht="30">
       <c r="A435" s="20">
         <v>22870</v>
       </c>
@@ -14918,7 +14908,7 @@
       <c r="J435" s="25"/>
       <c r="K435" s="26"/>
     </row>
-    <row r="436" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" ht="30">
       <c r="A436" s="20">
         <v>22870</v>
       </c>
@@ -14945,7 +14935,7 @@
       <c r="J436" s="25"/>
       <c r="K436" s="26"/>
     </row>
-    <row r="437" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" ht="45">
       <c r="A437" s="14">
         <v>22871</v>
       </c>
@@ -14970,7 +14960,7 @@
       <c r="J437" s="18"/>
       <c r="K437" s="19"/>
     </row>
-    <row r="438" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" ht="60">
       <c r="A438" s="14">
         <v>22871</v>
       </c>
@@ -14995,7 +14985,7 @@
       <c r="J438" s="18"/>
       <c r="K438" s="19"/>
     </row>
-    <row r="439" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" ht="45">
       <c r="A439" s="14">
         <v>22871</v>
       </c>
@@ -15020,7 +15010,7 @@
       <c r="J439" s="18"/>
       <c r="K439" s="19"/>
     </row>
-    <row r="440" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" ht="30">
       <c r="A440" s="14">
         <v>22871</v>
       </c>
@@ -15045,7 +15035,7 @@
       <c r="J440" s="18"/>
       <c r="K440" s="19"/>
     </row>
-    <row r="441" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" ht="30">
       <c r="A441" s="20">
         <v>22947</v>
       </c>
@@ -15070,7 +15060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" ht="60">
       <c r="A442" s="14">
         <v>23012</v>
       </c>
@@ -15095,7 +15085,7 @@
       </c>
       <c r="K442" s="19"/>
     </row>
-    <row r="443" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" ht="30">
       <c r="A443" s="20">
         <v>23019</v>
       </c>
@@ -15120,7 +15110,7 @@
       <c r="J443" s="25"/>
       <c r="K443" s="26"/>
     </row>
-    <row r="444" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" ht="45">
       <c r="A444" s="20">
         <v>23019</v>
       </c>
@@ -15145,7 +15135,7 @@
       <c r="J444" s="25"/>
       <c r="K444" s="26"/>
     </row>
-    <row r="445" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" ht="60">
       <c r="A445" s="20">
         <v>23019</v>
       </c>
@@ -15170,7 +15160,7 @@
       <c r="J445" s="25"/>
       <c r="K445" s="26"/>
     </row>
-    <row r="446" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" ht="120">
       <c r="A446" s="20">
         <v>23019</v>
       </c>
@@ -15195,7 +15185,7 @@
       <c r="J446" s="25"/>
       <c r="K446" s="26"/>
     </row>
-    <row r="447" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" ht="30">
       <c r="A447" s="14">
         <v>23021</v>
       </c>
@@ -15220,7 +15210,7 @@
       <c r="J447" s="18"/>
       <c r="K447" s="19"/>
     </row>
-    <row r="448" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" ht="105">
       <c r="A448" s="14">
         <v>23021</v>
       </c>
@@ -15245,7 +15235,7 @@
       <c r="J448" s="18"/>
       <c r="K448" s="19"/>
     </row>
-    <row r="449" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" ht="75">
       <c r="A449" s="14">
         <v>23021</v>
       </c>
@@ -15270,7 +15260,7 @@
       <c r="J449" s="18"/>
       <c r="K449" s="19"/>
     </row>
-    <row r="450" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" ht="60">
       <c r="A450" s="14">
         <v>23021</v>
       </c>
@@ -15295,7 +15285,7 @@
       <c r="J450" s="18"/>
       <c r="K450" s="19"/>
     </row>
-    <row r="451" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" ht="30">
       <c r="A451" s="14">
         <v>23021</v>
       </c>
@@ -15320,7 +15310,7 @@
       <c r="J451" s="18"/>
       <c r="K451" s="19"/>
     </row>
-    <row r="452" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" ht="60">
       <c r="A452" s="14">
         <v>23021</v>
       </c>
@@ -15345,7 +15335,7 @@
       <c r="J452" s="18"/>
       <c r="K452" s="19"/>
     </row>
-    <row r="453" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" ht="30">
       <c r="A453" s="14">
         <v>23021</v>
       </c>
@@ -15370,7 +15360,7 @@
       <c r="J453" s="18"/>
       <c r="K453" s="19"/>
     </row>
-    <row r="454" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" ht="30">
       <c r="A454" s="14">
         <v>23021</v>
       </c>
@@ -15395,7 +15385,7 @@
       <c r="J454" s="18"/>
       <c r="K454" s="19"/>
     </row>
-    <row r="455" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" ht="45">
       <c r="A455" s="20">
         <v>23122</v>
       </c>
@@ -15420,7 +15410,7 @@
       <c r="J455" s="25"/>
       <c r="K455" s="26"/>
     </row>
-    <row r="456" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" ht="30">
       <c r="A456" s="20">
         <v>23122</v>
       </c>
@@ -15445,7 +15435,7 @@
       <c r="J456" s="25"/>
       <c r="K456" s="26"/>
     </row>
-    <row r="457" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" ht="90">
       <c r="A457" s="20">
         <v>23122</v>
       </c>
@@ -15470,7 +15460,7 @@
       <c r="J457" s="25"/>
       <c r="K457" s="26"/>
     </row>
-    <row r="458" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" ht="60">
       <c r="A458" s="20">
         <v>23122</v>
       </c>
@@ -15495,7 +15485,7 @@
       <c r="J458" s="25"/>
       <c r="K458" s="26"/>
     </row>
-    <row r="459" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" ht="45">
       <c r="A459" s="20">
         <v>23122</v>
       </c>
@@ -15520,7 +15510,7 @@
       <c r="J459" s="25"/>
       <c r="K459" s="26"/>
     </row>
-    <row r="460" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" ht="75">
       <c r="A460" s="14">
         <v>23124</v>
       </c>
@@ -15545,7 +15535,7 @@
       <c r="J460" s="18"/>
       <c r="K460" s="19"/>
     </row>
-    <row r="461" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" ht="60">
       <c r="A461" s="20">
         <v>23165</v>
       </c>
@@ -15572,7 +15562,7 @@
       <c r="J461" s="25"/>
       <c r="K461" s="26"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11">
       <c r="A462" s="20">
         <v>23165</v>
       </c>
@@ -15599,7 +15589,7 @@
       <c r="J462" s="25"/>
       <c r="K462" s="26"/>
     </row>
-    <row r="463" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" ht="30">
       <c r="A463" s="20">
         <v>23165</v>
       </c>
@@ -15626,7 +15616,7 @@
       <c r="J463" s="25"/>
       <c r="K463" s="26"/>
     </row>
-    <row r="464" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" ht="30">
       <c r="A464" s="14">
         <v>23201</v>
       </c>
@@ -15651,7 +15641,7 @@
       <c r="J464" s="18"/>
       <c r="K464" s="19"/>
     </row>
-    <row r="465" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" ht="30">
       <c r="A465" s="14">
         <v>23201</v>
       </c>
@@ -15676,7 +15666,7 @@
       <c r="J465" s="18"/>
       <c r="K465" s="19"/>
     </row>
-    <row r="466" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" ht="45">
       <c r="A466" s="20">
         <v>23274</v>
       </c>
@@ -15701,7 +15691,7 @@
       <c r="J466" s="25"/>
       <c r="K466" s="26"/>
     </row>
-    <row r="467" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" ht="30">
       <c r="A467" s="20">
         <v>23274</v>
       </c>
@@ -15726,7 +15716,7 @@
       <c r="J467" s="25"/>
       <c r="K467" s="26"/>
     </row>
-    <row r="468" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" ht="30">
       <c r="A468" s="20">
         <v>23274</v>
       </c>
@@ -15751,7 +15741,7 @@
       <c r="J468" s="25"/>
       <c r="K468" s="26"/>
     </row>
-    <row r="469" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" ht="30">
       <c r="A469" s="14">
         <v>23275</v>
       </c>
@@ -15776,7 +15766,7 @@
       <c r="J469" s="18"/>
       <c r="K469" s="19"/>
     </row>
-    <row r="470" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" ht="30">
       <c r="A470" s="14">
         <v>23275</v>
       </c>
@@ -15801,7 +15791,7 @@
       <c r="J470" s="18"/>
       <c r="K470" s="19"/>
     </row>
-    <row r="471" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" ht="30">
       <c r="A471" s="14">
         <v>23275</v>
       </c>
@@ -15826,7 +15816,7 @@
       <c r="J471" s="18"/>
       <c r="K471" s="19"/>
     </row>
-    <row r="472" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" ht="30">
       <c r="A472" s="14">
         <v>23275</v>
       </c>
@@ -15851,7 +15841,7 @@
       <c r="J472" s="18"/>
       <c r="K472" s="19"/>
     </row>
-    <row r="473" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" ht="30">
       <c r="A473" s="14">
         <v>23275</v>
       </c>
@@ -15876,7 +15866,7 @@
       <c r="J473" s="18"/>
       <c r="K473" s="19"/>
     </row>
-    <row r="474" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" ht="45">
       <c r="A474" s="20">
         <v>23276</v>
       </c>
@@ -15901,7 +15891,7 @@
       <c r="J474" s="25"/>
       <c r="K474" s="26"/>
     </row>
-    <row r="475" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" ht="30">
       <c r="A475" s="20">
         <v>23276</v>
       </c>
@@ -15926,7 +15916,7 @@
       <c r="J475" s="25"/>
       <c r="K475" s="26"/>
     </row>
-    <row r="476" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" ht="30">
       <c r="A476" s="20">
         <v>23276</v>
       </c>
@@ -15951,7 +15941,7 @@
       <c r="J476" s="25"/>
       <c r="K476" s="26"/>
     </row>
-    <row r="477" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" ht="105">
       <c r="A477" s="14">
         <v>23363</v>
       </c>
@@ -15980,7 +15970,7 @@
       </c>
       <c r="K477" s="19"/>
     </row>
-    <row r="478" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" ht="60">
       <c r="A478" s="14">
         <v>23363</v>
       </c>
@@ -16009,7 +15999,7 @@
       </c>
       <c r="K478" s="19"/>
     </row>
-    <row r="479" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" ht="120">
       <c r="A479" s="14">
         <v>23363</v>
       </c>
@@ -16038,7 +16028,7 @@
       </c>
       <c r="K479" s="19"/>
     </row>
-    <row r="480" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" ht="45">
       <c r="A480" s="14">
         <v>23363</v>
       </c>
@@ -16067,7 +16057,7 @@
       </c>
       <c r="K480" s="19"/>
     </row>
-    <row r="481" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" ht="45">
       <c r="A481" s="20">
         <v>23422</v>
       </c>
@@ -16092,7 +16082,7 @@
       <c r="J481" s="25"/>
       <c r="K481" s="26"/>
     </row>
-    <row r="482" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" ht="30">
       <c r="A482" s="20">
         <v>23422</v>
       </c>
@@ -16117,7 +16107,7 @@
       <c r="J482" s="25"/>
       <c r="K482" s="26"/>
     </row>
-    <row r="483" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" ht="45">
       <c r="A483" s="14">
         <v>23428</v>
       </c>
@@ -16142,7 +16132,7 @@
       <c r="J483" s="18"/>
       <c r="K483" s="19"/>
     </row>
-    <row r="484" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" ht="30">
       <c r="A484" s="14">
         <v>23428</v>
       </c>
@@ -16167,7 +16157,7 @@
       <c r="J484" s="18"/>
       <c r="K484" s="19"/>
     </row>
-    <row r="485" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" ht="45">
       <c r="A485" s="20">
         <v>23436</v>
       </c>
@@ -16192,7 +16182,7 @@
       <c r="J485" s="25"/>
       <c r="K485" s="26"/>
     </row>
-    <row r="486" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" ht="30">
       <c r="A486" s="20">
         <v>23436</v>
       </c>
@@ -16217,7 +16207,7 @@
       <c r="J486" s="25"/>
       <c r="K486" s="26"/>
     </row>
-    <row r="487" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" ht="30">
       <c r="A487" s="14">
         <v>23439</v>
       </c>
@@ -16242,7 +16232,7 @@
       <c r="J487" s="18"/>
       <c r="K487" s="19"/>
     </row>
-    <row r="488" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" ht="60">
       <c r="A488" s="20">
         <v>23462</v>
       </c>
@@ -16267,7 +16257,7 @@
       <c r="J488" s="25"/>
       <c r="K488" s="26"/>
     </row>
-    <row r="489" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" ht="45">
       <c r="A489" s="20">
         <v>23462</v>
       </c>
@@ -16292,7 +16282,7 @@
       <c r="J489" s="25"/>
       <c r="K489" s="26"/>
     </row>
-    <row r="490" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" ht="75">
       <c r="A490" s="14">
         <v>23486</v>
       </c>
@@ -16317,7 +16307,7 @@
       <c r="J490" s="18"/>
       <c r="K490" s="19"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11">
       <c r="A491" s="14">
         <v>23486</v>
       </c>
@@ -16342,7 +16332,7 @@
       <c r="J491" s="18"/>
       <c r="K491" s="19"/>
     </row>
-    <row r="492" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" ht="45">
       <c r="A492" s="14">
         <v>23486</v>
       </c>
@@ -16367,7 +16357,7 @@
       <c r="J492" s="18"/>
       <c r="K492" s="19"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11">
       <c r="A493" s="14">
         <v>23486</v>
       </c>
@@ -16392,7 +16382,7 @@
       <c r="J493" s="18"/>
       <c r="K493" s="19"/>
     </row>
-    <row r="494" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" ht="60">
       <c r="A494" s="20">
         <v>23487</v>
       </c>
@@ -16417,7 +16407,7 @@
       <c r="J494" s="25"/>
       <c r="K494" s="26"/>
     </row>
-    <row r="495" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" ht="30">
       <c r="A495" s="20">
         <v>23487</v>
       </c>
@@ -16442,7 +16432,7 @@
       <c r="J495" s="25"/>
       <c r="K495" s="26"/>
     </row>
-    <row r="496" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" ht="30">
       <c r="A496" s="14">
         <v>23489</v>
       </c>
@@ -16467,7 +16457,7 @@
       <c r="J496" s="18"/>
       <c r="K496" s="19"/>
     </row>
-    <row r="497" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" ht="30">
       <c r="A497" s="14">
         <v>23489</v>
       </c>
@@ -16492,7 +16482,7 @@
       <c r="J497" s="18"/>
       <c r="K497" s="19"/>
     </row>
-    <row r="498" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" ht="60">
       <c r="A498" s="20">
         <v>23492</v>
       </c>
@@ -16517,7 +16507,7 @@
       <c r="J498" s="25"/>
       <c r="K498" s="26"/>
     </row>
-    <row r="499" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" ht="30">
       <c r="A499" s="14">
         <v>23511</v>
       </c>
@@ -16542,7 +16532,7 @@
       <c r="J499" s="18"/>
       <c r="K499" s="19"/>
     </row>
-    <row r="500" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" ht="30">
       <c r="A500" s="14">
         <v>23511</v>
       </c>
@@ -16567,7 +16557,7 @@
       <c r="J500" s="18"/>
       <c r="K500" s="19"/>
     </row>
-    <row r="501" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" ht="45">
       <c r="A501" s="20">
         <v>23512</v>
       </c>
@@ -16592,7 +16582,7 @@
       <c r="J501" s="25"/>
       <c r="K501" s="26"/>
     </row>
-    <row r="502" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" ht="30">
       <c r="A502" s="20">
         <v>23512</v>
       </c>
@@ -16617,7 +16607,7 @@
       <c r="J502" s="25"/>
       <c r="K502" s="26"/>
     </row>
-    <row r="503" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" ht="30">
       <c r="A503" s="14">
         <v>23539</v>
       </c>
@@ -16642,7 +16632,7 @@
       <c r="J503" s="18"/>
       <c r="K503" s="19"/>
     </row>
-    <row r="504" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" ht="30">
       <c r="A504" s="14">
         <v>23539</v>
       </c>
@@ -16667,7 +16657,7 @@
       <c r="J504" s="18"/>
       <c r="K504" s="19"/>
     </row>
-    <row r="505" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" ht="75">
       <c r="A505" s="20">
         <v>23545</v>
       </c>
@@ -16692,7 +16682,7 @@
       <c r="J505" s="25"/>
       <c r="K505" s="26"/>
     </row>
-    <row r="506" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" ht="45">
       <c r="A506" s="20">
         <v>23545</v>
       </c>
@@ -16717,7 +16707,7 @@
       <c r="J506" s="25"/>
       <c r="K506" s="26"/>
     </row>
-    <row r="507" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" ht="45">
       <c r="A507" s="14">
         <v>23593</v>
       </c>
@@ -16740,7 +16730,7 @@
       <c r="J507" s="18"/>
       <c r="K507" s="19"/>
     </row>
-    <row r="508" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" ht="45">
       <c r="A508" s="20">
         <v>23630</v>
       </c>
@@ -16765,7 +16755,7 @@
       <c r="J508" s="25"/>
       <c r="K508" s="26"/>
     </row>
-    <row r="509" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" ht="105">
       <c r="A509" s="20">
         <v>23630</v>
       </c>
@@ -16790,7 +16780,7 @@
       <c r="J509" s="25"/>
       <c r="K509" s="26"/>
     </row>
-    <row r="510" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" ht="30">
       <c r="A510" s="20">
         <v>23630</v>
       </c>
@@ -16813,7 +16803,7 @@
       <c r="J510" s="25"/>
       <c r="K510" s="26"/>
     </row>
-    <row r="511" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" ht="30">
       <c r="A511" s="20">
         <v>23630</v>
       </c>
@@ -16838,7 +16828,7 @@
       <c r="J511" s="25"/>
       <c r="K511" s="26"/>
     </row>
-    <row r="512" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" ht="60">
       <c r="A512" s="20">
         <v>23630</v>
       </c>
@@ -16863,7 +16853,7 @@
       <c r="J512" s="25"/>
       <c r="K512" s="26"/>
     </row>
-    <row r="513" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" ht="30">
       <c r="A513" s="20">
         <v>23630</v>
       </c>
@@ -16888,7 +16878,7 @@
       <c r="J513" s="25"/>
       <c r="K513" s="26"/>
     </row>
-    <row r="514" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" ht="30">
       <c r="A514" s="20">
         <v>23630</v>
       </c>
@@ -16913,7 +16903,7 @@
       <c r="J514" s="25"/>
       <c r="K514" s="26"/>
     </row>
-    <row r="515" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" ht="45">
       <c r="A515" s="20">
         <v>23630</v>
       </c>
@@ -16938,7 +16928,7 @@
       <c r="J515" s="25"/>
       <c r="K515" s="26"/>
     </row>
-    <row r="516" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" ht="75">
       <c r="A516" s="14">
         <v>23692</v>
       </c>
@@ -16963,7 +16953,7 @@
       <c r="J516" s="18"/>
       <c r="K516" s="19"/>
     </row>
-    <row r="517" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" ht="30">
       <c r="A517" s="14">
         <v>23692</v>
       </c>
@@ -16988,7 +16978,7 @@
       <c r="J517" s="18"/>
       <c r="K517" s="19"/>
     </row>
-    <row r="518" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" ht="45">
       <c r="A518" s="14">
         <v>23692</v>
       </c>
@@ -17013,7 +17003,7 @@
       <c r="J518" s="18"/>
       <c r="K518" s="19"/>
     </row>
-    <row r="519" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" ht="30">
       <c r="A519" s="14">
         <v>23692</v>
       </c>
@@ -17038,7 +17028,7 @@
       <c r="J519" s="18"/>
       <c r="K519" s="19"/>
     </row>
-    <row r="520" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" ht="45">
       <c r="A520" s="14">
         <v>23692</v>
       </c>
@@ -17063,7 +17053,7 @@
       <c r="J520" s="18"/>
       <c r="K520" s="19"/>
     </row>
-    <row r="521" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" ht="30">
       <c r="A521" s="20">
         <v>23706</v>
       </c>
@@ -17086,7 +17076,7 @@
       <c r="J521" s="25"/>
       <c r="K521" s="26"/>
     </row>
-    <row r="522" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" ht="30">
       <c r="A522" s="14">
         <v>23708</v>
       </c>
@@ -17109,7 +17099,7 @@
       <c r="J522" s="18"/>
       <c r="K522" s="19"/>
     </row>
-    <row r="523" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" ht="30">
       <c r="A523" s="20">
         <v>23709</v>
       </c>
@@ -17132,7 +17122,7 @@
       <c r="J523" s="25"/>
       <c r="K523" s="26"/>
     </row>
-    <row r="524" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" ht="30">
       <c r="A524" s="14">
         <v>23710</v>
       </c>
@@ -17155,7 +17145,7 @@
       <c r="J524" s="18"/>
       <c r="K524" s="19"/>
     </row>
-    <row r="525" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" ht="30">
       <c r="A525" s="20">
         <v>23712</v>
       </c>
@@ -17182,7 +17172,7 @@
       </c>
       <c r="K525" s="26"/>
     </row>
-    <row r="526" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" ht="45">
       <c r="A526" s="20">
         <v>23712</v>
       </c>
@@ -17209,7 +17199,7 @@
       </c>
       <c r="K526" s="26"/>
     </row>
-    <row r="527" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" ht="75">
       <c r="A527" s="20">
         <v>23712</v>
       </c>
@@ -17236,7 +17226,7 @@
       </c>
       <c r="K527" s="26"/>
     </row>
-    <row r="528" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" ht="45">
       <c r="A528" s="20">
         <v>23712</v>
       </c>
@@ -17263,7 +17253,7 @@
       </c>
       <c r="K528" s="26"/>
     </row>
-    <row r="529" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" ht="30">
       <c r="A529" s="20">
         <v>23712</v>
       </c>
@@ -17290,7 +17280,7 @@
       </c>
       <c r="K529" s="26"/>
     </row>
-    <row r="530" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" ht="45">
       <c r="A530" s="20">
         <v>23712</v>
       </c>
@@ -17317,7 +17307,7 @@
       </c>
       <c r="K530" s="26"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11">
       <c r="A531" s="20">
         <v>23712</v>
       </c>
@@ -17344,7 +17334,7 @@
       </c>
       <c r="K531" s="26"/>
     </row>
-    <row r="532" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" ht="45">
       <c r="A532" s="20">
         <v>23712</v>
       </c>
@@ -17371,7 +17361,7 @@
       </c>
       <c r="K532" s="26"/>
     </row>
-    <row r="533" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" ht="60">
       <c r="A533" s="20">
         <v>23712</v>
       </c>
@@ -17398,7 +17388,7 @@
       </c>
       <c r="K533" s="26"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11">
       <c r="A534" s="20">
         <v>23712</v>
       </c>
@@ -17425,7 +17415,7 @@
       </c>
       <c r="K534" s="26"/>
     </row>
-    <row r="535" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" ht="30">
       <c r="A535" s="14">
         <v>23753</v>
       </c>
@@ -17448,7 +17438,7 @@
       <c r="J535" s="18"/>
       <c r="K535" s="19"/>
     </row>
-    <row r="536" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" ht="30">
       <c r="A536" s="14">
         <v>23753</v>
       </c>
@@ -17471,7 +17461,7 @@
       <c r="J536" s="18"/>
       <c r="K536" s="19"/>
     </row>
-    <row r="537" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" ht="30">
       <c r="A537" s="14">
         <v>23753</v>
       </c>
@@ -17494,7 +17484,7 @@
       <c r="J537" s="18"/>
       <c r="K537" s="19"/>
     </row>
-    <row r="538" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" ht="120">
       <c r="A538" s="14">
         <v>23753</v>
       </c>
@@ -17519,7 +17509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" ht="30">
       <c r="A539" s="14">
         <v>23753</v>
       </c>
@@ -17544,7 +17534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" ht="90">
       <c r="A540" s="14">
         <v>23753</v>
       </c>
@@ -17567,7 +17557,7 @@
       <c r="J540" s="18"/>
       <c r="K540" s="19"/>
     </row>
-    <row r="541" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" ht="60">
       <c r="A541" s="14">
         <v>23753</v>
       </c>
@@ -17590,7 +17580,7 @@
       <c r="J541" s="18"/>
       <c r="K541" s="19"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11">
       <c r="A542" s="20">
         <v>23899</v>
       </c>
@@ -17615,7 +17605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" ht="30">
       <c r="A543" s="14">
         <v>23934</v>
       </c>
@@ -17638,7 +17628,7 @@
       <c r="J543" s="18"/>
       <c r="K543" s="19"/>
     </row>
-    <row r="544" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" ht="30">
       <c r="A544" s="14">
         <v>23934</v>
       </c>
@@ -17661,7 +17651,7 @@
       <c r="J544" s="18"/>
       <c r="K544" s="19"/>
     </row>
-    <row r="545" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" ht="30">
       <c r="A545" s="14">
         <v>23934</v>
       </c>
@@ -17684,7 +17674,7 @@
       <c r="J545" s="18"/>
       <c r="K545" s="19"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11">
       <c r="A546" s="20">
         <v>24045</v>
       </c>
@@ -17707,7 +17697,7 @@
       <c r="J546" s="25"/>
       <c r="K546" s="26"/>
     </row>
-    <row r="547" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" ht="45">
       <c r="A547" s="20">
         <v>24045</v>
       </c>
@@ -17732,7 +17722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" ht="45">
       <c r="A548" s="20">
         <v>24045</v>
       </c>
@@ -17757,7 +17747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" ht="30">
       <c r="A549" s="20">
         <v>24045</v>
       </c>
@@ -17782,7 +17772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" ht="30">
       <c r="A550" s="20">
         <v>24045</v>
       </c>
@@ -17807,7 +17797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11">
       <c r="A551" s="20">
         <v>24045</v>
       </c>
@@ -17830,7 +17820,7 @@
       <c r="J551" s="25"/>
       <c r="K551" s="26"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11">
       <c r="A552" s="20">
         <v>24045</v>
       </c>
@@ -17853,7 +17843,7 @@
       <c r="J552" s="25"/>
       <c r="K552" s="26"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11">
       <c r="A553" s="20">
         <v>24045</v>
       </c>
@@ -17876,7 +17866,7 @@
       <c r="J553" s="25"/>
       <c r="K553" s="26"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11">
       <c r="A554" s="20">
         <v>24045</v>
       </c>
@@ -17899,7 +17889,7 @@
       <c r="J554" s="25"/>
       <c r="K554" s="26"/>
     </row>
-    <row r="555" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" ht="30">
       <c r="A555" s="14">
         <v>24046</v>
       </c>
@@ -17922,7 +17912,7 @@
       <c r="J555" s="18"/>
       <c r="K555" s="19"/>
     </row>
-    <row r="556" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" ht="30">
       <c r="A556" s="14">
         <v>24046</v>
       </c>
@@ -17945,7 +17935,7 @@
       <c r="J556" s="18"/>
       <c r="K556" s="19"/>
     </row>
-    <row r="557" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" ht="45">
       <c r="A557" s="14">
         <v>24046</v>
       </c>
@@ -17968,7 +17958,7 @@
       <c r="J557" s="18"/>
       <c r="K557" s="19"/>
     </row>
-    <row r="558" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" ht="30">
       <c r="A558" s="14">
         <v>24046</v>
       </c>
@@ -17991,7 +17981,7 @@
       <c r="J558" s="18"/>
       <c r="K558" s="19"/>
     </row>
-    <row r="559" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" ht="30">
       <c r="A559" s="14">
         <v>24046</v>
       </c>
@@ -18014,7 +18004,7 @@
       <c r="J559" s="18"/>
       <c r="K559" s="19"/>
     </row>
-    <row r="560" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" ht="45">
       <c r="A560" s="20">
         <v>24047</v>
       </c>
@@ -18039,7 +18029,7 @@
       <c r="J560" s="25"/>
       <c r="K560" s="26"/>
     </row>
-    <row r="561" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" ht="45">
       <c r="A561" s="20">
         <v>24047</v>
       </c>
@@ -18064,7 +18054,7 @@
       <c r="J561" s="25"/>
       <c r="K561" s="26"/>
     </row>
-    <row r="562" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" ht="90">
       <c r="A562" s="20">
         <v>24047</v>
       </c>
@@ -18089,7 +18079,7 @@
       <c r="J562" s="25"/>
       <c r="K562" s="26"/>
     </row>
-    <row r="563" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" ht="60">
       <c r="A563" s="20">
         <v>24047</v>
       </c>
@@ -18114,7 +18104,7 @@
       <c r="J563" s="25"/>
       <c r="K563" s="26"/>
     </row>
-    <row r="564" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" ht="30">
       <c r="A564" s="20">
         <v>24047</v>
       </c>
@@ -18139,7 +18129,7 @@
       <c r="J564" s="25"/>
       <c r="K564" s="26"/>
     </row>
-    <row r="565" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" ht="30">
       <c r="A565" s="20">
         <v>24047</v>
       </c>
@@ -18164,7 +18154,7 @@
       <c r="J565" s="25"/>
       <c r="K565" s="26"/>
     </row>
-    <row r="566" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" ht="90">
       <c r="A566" s="20">
         <v>24047</v>
       </c>
@@ -18189,7 +18179,7 @@
       <c r="J566" s="25"/>
       <c r="K566" s="26"/>
     </row>
-    <row r="567" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" ht="60">
       <c r="A567" s="20">
         <v>24047</v>
       </c>
@@ -18214,7 +18204,7 @@
       <c r="J567" s="25"/>
       <c r="K567" s="26"/>
     </row>
-    <row r="568" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" ht="75">
       <c r="A568" s="20">
         <v>24047</v>
       </c>
@@ -18239,7 +18229,7 @@
       <c r="J568" s="25"/>
       <c r="K568" s="26"/>
     </row>
-    <row r="569" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" ht="90">
       <c r="A569" s="20">
         <v>24047</v>
       </c>
@@ -18264,7 +18254,7 @@
       <c r="J569" s="25"/>
       <c r="K569" s="26"/>
     </row>
-    <row r="570" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" ht="45">
       <c r="A570" s="20">
         <v>24047</v>
       </c>
@@ -18289,7 +18279,7 @@
       <c r="J570" s="25"/>
       <c r="K570" s="26"/>
     </row>
-    <row r="571" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" ht="45">
       <c r="A571" s="20">
         <v>24047</v>
       </c>
@@ -18314,7 +18304,7 @@
       <c r="J571" s="25"/>
       <c r="K571" s="26"/>
     </row>
-    <row r="572" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" ht="60">
       <c r="A572" s="20">
         <v>24047</v>
       </c>
@@ -18339,7 +18329,7 @@
       <c r="J572" s="25"/>
       <c r="K572" s="26"/>
     </row>
-    <row r="573" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" ht="90">
       <c r="A573" s="14">
         <v>24048</v>
       </c>
@@ -18364,7 +18354,7 @@
       <c r="J573" s="18"/>
       <c r="K573" s="19"/>
     </row>
-    <row r="574" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" ht="30">
       <c r="A574" s="14">
         <v>24048</v>
       </c>
@@ -18389,7 +18379,7 @@
       <c r="J574" s="18"/>
       <c r="K574" s="19"/>
     </row>
-    <row r="575" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" ht="30">
       <c r="A575" s="14">
         <v>24048</v>
       </c>
@@ -18414,7 +18404,7 @@
       <c r="J575" s="18"/>
       <c r="K575" s="19"/>
     </row>
-    <row r="576" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" ht="30">
       <c r="A576" s="14">
         <v>24048</v>
       </c>
@@ -18439,7 +18429,7 @@
       <c r="J576" s="18"/>
       <c r="K576" s="19"/>
     </row>
-    <row r="577" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" ht="60">
       <c r="A577" s="14">
         <v>24048</v>
       </c>
@@ -18464,7 +18454,7 @@
       <c r="J577" s="18"/>
       <c r="K577" s="19"/>
     </row>
-    <row r="578" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" ht="45">
       <c r="A578" s="14">
         <v>24048</v>
       </c>
@@ -18489,7 +18479,7 @@
       <c r="J578" s="18"/>
       <c r="K578" s="19"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11">
       <c r="A579" s="14">
         <v>24048</v>
       </c>
@@ -18514,7 +18504,7 @@
       <c r="J579" s="18"/>
       <c r="K579" s="19"/>
     </row>
-    <row r="580" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" ht="75">
       <c r="A580" s="14">
         <v>24048</v>
       </c>
@@ -18539,7 +18529,7 @@
       <c r="J580" s="18"/>
       <c r="K580" s="19"/>
     </row>
-    <row r="581" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" ht="60">
       <c r="A581" s="14">
         <v>24048</v>
       </c>
@@ -18564,7 +18554,7 @@
       <c r="J581" s="18"/>
       <c r="K581" s="19"/>
     </row>
-    <row r="582" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" ht="75">
       <c r="A582" s="14">
         <v>24048</v>
       </c>
@@ -18589,7 +18579,7 @@
       <c r="J582" s="18"/>
       <c r="K582" s="19"/>
     </row>
-    <row r="583" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" ht="75">
       <c r="A583" s="14">
         <v>24048</v>
       </c>
@@ -18614,7 +18604,7 @@
       <c r="J583" s="18"/>
       <c r="K583" s="19"/>
     </row>
-    <row r="584" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" ht="30">
       <c r="A584" s="14">
         <v>24048</v>
       </c>
@@ -18639,7 +18629,7 @@
       <c r="J584" s="18"/>
       <c r="K584" s="19"/>
     </row>
-    <row r="585" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" ht="60">
       <c r="A585" s="14">
         <v>24048</v>
       </c>
@@ -18664,7 +18654,7 @@
       <c r="J585" s="18"/>
       <c r="K585" s="19"/>
     </row>
-    <row r="586" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" ht="30">
       <c r="A586" s="14">
         <v>24048</v>
       </c>
@@ -18689,7 +18679,7 @@
       <c r="J586" s="18"/>
       <c r="K586" s="19"/>
     </row>
-    <row r="587" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" ht="45">
       <c r="A587" s="14">
         <v>24048</v>
       </c>
@@ -18714,7 +18704,7 @@
       <c r="J587" s="18"/>
       <c r="K587" s="19"/>
     </row>
-    <row r="588" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" ht="45">
       <c r="A588" s="20">
         <v>24049</v>
       </c>
@@ -18739,7 +18729,7 @@
       <c r="J588" s="25"/>
       <c r="K588" s="26"/>
     </row>
-    <row r="589" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" ht="30">
       <c r="A589" s="20">
         <v>24049</v>
       </c>
@@ -18764,7 +18754,7 @@
       <c r="J589" s="25"/>
       <c r="K589" s="26"/>
     </row>
-    <row r="590" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" ht="45">
       <c r="A590" s="20">
         <v>24049</v>
       </c>
@@ -18789,7 +18779,7 @@
       <c r="J590" s="25"/>
       <c r="K590" s="26"/>
     </row>
-    <row r="591" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" ht="60">
       <c r="A591" s="14">
         <v>24050</v>
       </c>
@@ -18814,7 +18804,7 @@
       <c r="J591" s="18"/>
       <c r="K591" s="19"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11">
       <c r="A592" s="14">
         <v>24050</v>
       </c>
@@ -18839,7 +18829,7 @@
       <c r="J592" s="18"/>
       <c r="K592" s="19"/>
     </row>
-    <row r="593" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" ht="45">
       <c r="A593" s="14">
         <v>24050</v>
       </c>
@@ -18864,7 +18854,7 @@
       <c r="J593" s="18"/>
       <c r="K593" s="19"/>
     </row>
-    <row r="594" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" ht="75">
       <c r="A594" s="20">
         <v>24067</v>
       </c>
@@ -18889,7 +18879,7 @@
       <c r="J594" s="25"/>
       <c r="K594" s="26"/>
     </row>
-    <row r="595" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" ht="90">
       <c r="A595" s="20">
         <v>24067</v>
       </c>
@@ -18914,7 +18904,7 @@
       <c r="J595" s="25"/>
       <c r="K595" s="26"/>
     </row>
-    <row r="596" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" ht="45">
       <c r="A596" s="20">
         <v>24067</v>
       </c>
@@ -18939,7 +18929,7 @@
       <c r="J596" s="25"/>
       <c r="K596" s="26"/>
     </row>
-    <row r="597" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" ht="75">
       <c r="A597" s="14">
         <v>24113</v>
       </c>
@@ -18964,7 +18954,7 @@
       <c r="J597" s="18"/>
       <c r="K597" s="19"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11">
       <c r="A598" s="14">
         <v>24113</v>
       </c>
@@ -18989,7 +18979,7 @@
       <c r="J598" s="18"/>
       <c r="K598" s="19"/>
     </row>
-    <row r="599" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" ht="30">
       <c r="A599" s="14">
         <v>24113</v>
       </c>
@@ -19014,7 +19004,7 @@
       <c r="J599" s="18"/>
       <c r="K599" s="19"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11">
       <c r="A600" s="14">
         <v>24113</v>
       </c>
@@ -19039,7 +19029,7 @@
       <c r="J600" s="18"/>
       <c r="K600" s="19"/>
     </row>
-    <row r="601" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" ht="75">
       <c r="A601" s="14">
         <v>24113</v>
       </c>
@@ -19064,7 +19054,7 @@
       <c r="J601" s="18"/>
       <c r="K601" s="19"/>
     </row>
-    <row r="602" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" ht="60">
       <c r="A602" s="14">
         <v>24113</v>
       </c>
@@ -19089,7 +19079,7 @@
       <c r="J602" s="18"/>
       <c r="K602" s="19"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11">
       <c r="A603" s="20">
         <v>24196</v>
       </c>
@@ -19114,7 +19104,7 @@
       <c r="J603" s="25"/>
       <c r="K603" s="26"/>
     </row>
-    <row r="604" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" ht="75">
       <c r="A604" s="14">
         <v>24387</v>
       </c>
@@ -19141,7 +19131,7 @@
       <c r="J604" s="18"/>
       <c r="K604" s="19"/>
     </row>
-    <row r="605" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" ht="105">
       <c r="A605" s="14">
         <v>24387</v>
       </c>
@@ -19168,7 +19158,7 @@
       <c r="J605" s="18"/>
       <c r="K605" s="19"/>
     </row>
-    <row r="606" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" ht="75">
       <c r="A606" s="14">
         <v>24387</v>
       </c>
@@ -19195,7 +19185,7 @@
       <c r="J606" s="18"/>
       <c r="K606" s="19"/>
     </row>
-    <row r="607" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" ht="120">
       <c r="A607" s="14">
         <v>24387</v>
       </c>
@@ -19222,7 +19212,7 @@
       <c r="J607" s="18"/>
       <c r="K607" s="19"/>
     </row>
-    <row r="608" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" ht="45">
       <c r="A608" s="14">
         <v>24387</v>
       </c>
@@ -19249,7 +19239,7 @@
       <c r="J608" s="18"/>
       <c r="K608" s="19"/>
     </row>
-    <row r="609" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" ht="30">
       <c r="A609" s="14">
         <v>24387</v>
       </c>
@@ -19276,7 +19266,7 @@
       <c r="J609" s="18"/>
       <c r="K609" s="19"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11">
       <c r="A610" s="20">
         <v>24418</v>
       </c>
@@ -19299,7 +19289,7 @@
       <c r="J610" s="25"/>
       <c r="K610" s="26"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11">
       <c r="A611" s="20">
         <v>24418</v>
       </c>
@@ -19322,7 +19312,7 @@
       <c r="J611" s="25"/>
       <c r="K611" s="26"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11">
       <c r="A612" s="20">
         <v>24418</v>
       </c>
@@ -19347,7 +19337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" ht="45">
       <c r="A613" s="20">
         <v>24418</v>
       </c>
@@ -19372,7 +19362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" ht="75">
       <c r="A614" s="20">
         <v>24418</v>
       </c>
@@ -19395,7 +19385,7 @@
       <c r="J614" s="25"/>
       <c r="K614" s="26"/>
     </row>
-    <row r="615" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" ht="45">
       <c r="A615" s="20">
         <v>24418</v>
       </c>
@@ -19418,7 +19408,7 @@
       <c r="J615" s="25"/>
       <c r="K615" s="26"/>
     </row>
-    <row r="616" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" ht="30">
       <c r="A616" s="14">
         <v>24539</v>
       </c>
@@ -19443,7 +19433,7 @@
       <c r="J616" s="18"/>
       <c r="K616" s="19"/>
     </row>
-    <row r="617" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" ht="45">
       <c r="A617" s="14">
         <v>24539</v>
       </c>
@@ -19468,7 +19458,7 @@
       <c r="J617" s="18"/>
       <c r="K617" s="19"/>
     </row>
-    <row r="618" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" ht="30">
       <c r="A618" s="20">
         <v>24544</v>
       </c>
@@ -19491,7 +19481,7 @@
       <c r="J618" s="25"/>
       <c r="K618" s="26"/>
     </row>
-    <row r="619" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" ht="60">
       <c r="A619" s="20">
         <v>24544</v>
       </c>
@@ -19516,7 +19506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" ht="45">
       <c r="A620" s="20">
         <v>24544</v>
       </c>
@@ -19539,7 +19529,7 @@
       <c r="J620" s="25"/>
       <c r="K620" s="26"/>
     </row>
-    <row r="621" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" ht="30">
       <c r="A621" s="14">
         <v>24622</v>
       </c>
@@ -19564,7 +19554,7 @@
       <c r="J621" s="18"/>
       <c r="K621" s="19"/>
     </row>
-    <row r="622" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" ht="30">
       <c r="A622" s="14">
         <v>24622</v>
       </c>
@@ -19589,7 +19579,7 @@
       <c r="J622" s="18"/>
       <c r="K622" s="19"/>
     </row>
-    <row r="623" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" ht="45">
       <c r="A623" s="14">
         <v>24622</v>
       </c>
@@ -19614,7 +19604,7 @@
       <c r="J623" s="18"/>
       <c r="K623" s="19"/>
     </row>
-    <row r="624" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" ht="60">
       <c r="A624" s="14">
         <v>24622</v>
       </c>
@@ -19639,7 +19629,7 @@
       <c r="J624" s="18"/>
       <c r="K624" s="19"/>
     </row>
-    <row r="625" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" ht="30">
       <c r="A625" s="20">
         <v>24623</v>
       </c>
@@ -19664,7 +19654,7 @@
       <c r="J625" s="25"/>
       <c r="K625" s="26"/>
     </row>
-    <row r="626" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" ht="30">
       <c r="A626" s="20">
         <v>24623</v>
       </c>
@@ -19689,7 +19679,7 @@
       <c r="J626" s="25"/>
       <c r="K626" s="26"/>
     </row>
-    <row r="627" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" ht="30">
       <c r="A627" s="20">
         <v>24623</v>
       </c>
@@ -19714,7 +19704,7 @@
       <c r="J627" s="25"/>
       <c r="K627" s="26"/>
     </row>
-    <row r="628" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" ht="105">
       <c r="A628" s="20">
         <v>24623</v>
       </c>
@@ -19739,7 +19729,7 @@
       <c r="J628" s="25"/>
       <c r="K628" s="26"/>
     </row>
-    <row r="629" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" ht="60">
       <c r="A629" s="20">
         <v>24623</v>
       </c>
@@ -19764,7 +19754,7 @@
       <c r="J629" s="25"/>
       <c r="K629" s="26"/>
     </row>
-    <row r="630" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" ht="105">
       <c r="A630" s="14">
         <v>24630</v>
       </c>
@@ -19789,7 +19779,7 @@
       <c r="J630" s="18"/>
       <c r="K630" s="19"/>
     </row>
-    <row r="631" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" ht="75">
       <c r="A631" s="14">
         <v>24630</v>
       </c>
@@ -19814,7 +19804,7 @@
       <c r="J631" s="18"/>
       <c r="K631" s="19"/>
     </row>
-    <row r="632" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" ht="30">
       <c r="A632" s="20">
         <v>24667</v>
       </c>
@@ -19837,7 +19827,7 @@
       <c r="J632" s="25"/>
       <c r="K632" s="26"/>
     </row>
-    <row r="633" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" ht="30">
       <c r="A633" s="20">
         <v>24667</v>
       </c>
@@ -19860,7 +19850,7 @@
       <c r="J633" s="25"/>
       <c r="K633" s="26"/>
     </row>
-    <row r="634" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" ht="90">
       <c r="A634" s="20">
         <v>24667</v>
       </c>
@@ -19885,7 +19875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" ht="30">
       <c r="A635" s="20">
         <v>24667</v>
       </c>
@@ -19910,7 +19900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" ht="30">
       <c r="A636" s="20">
         <v>24667</v>
       </c>
@@ -19933,7 +19923,7 @@
       <c r="J636" s="25"/>
       <c r="K636" s="26"/>
     </row>
-    <row r="637" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" ht="60">
       <c r="A637" s="20">
         <v>24667</v>
       </c>
@@ -19956,7 +19946,7 @@
       <c r="J637" s="25"/>
       <c r="K637" s="26"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11">
       <c r="A638" s="14">
         <v>24755</v>
       </c>
@@ -19979,7 +19969,7 @@
       <c r="J638" s="18"/>
       <c r="K638" s="19"/>
     </row>
-    <row r="639" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" ht="45">
       <c r="A639" s="14">
         <v>24755</v>
       </c>
@@ -20004,7 +19994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" ht="90">
       <c r="A640" s="14">
         <v>24755</v>
       </c>
@@ -20027,7 +20017,7 @@
       <c r="J640" s="18"/>
       <c r="K640" s="19"/>
     </row>
-    <row r="641" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" ht="30">
       <c r="A641" s="20">
         <v>24763</v>
       </c>
@@ -20052,7 +20042,7 @@
       <c r="J641" s="25"/>
       <c r="K641" s="26"/>
     </row>
-    <row r="642" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" ht="30">
       <c r="A642" s="20">
         <v>24763</v>
       </c>
@@ -20077,7 +20067,7 @@
       <c r="J642" s="25"/>
       <c r="K642" s="26"/>
     </row>
-    <row r="643" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" ht="30">
       <c r="A643" s="20">
         <v>24763</v>
       </c>
@@ -20102,7 +20092,7 @@
       <c r="J643" s="25"/>
       <c r="K643" s="26"/>
     </row>
-    <row r="644" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" ht="60">
       <c r="A644" s="14">
         <v>24764</v>
       </c>
@@ -20129,7 +20119,7 @@
       <c r="J644" s="18"/>
       <c r="K644" s="19"/>
     </row>
-    <row r="645" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" ht="30">
       <c r="A645" s="14">
         <v>24764</v>
       </c>
@@ -20156,7 +20146,7 @@
       <c r="J645" s="18"/>
       <c r="K645" s="19"/>
     </row>
-    <row r="646" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" ht="45">
       <c r="A646" s="14">
         <v>24764</v>
       </c>
@@ -20183,7 +20173,7 @@
       <c r="J646" s="18"/>
       <c r="K646" s="19"/>
     </row>
-    <row r="647" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" ht="75">
       <c r="A647" s="20">
         <v>24778</v>
       </c>
@@ -20210,7 +20200,7 @@
       <c r="J647" s="25"/>
       <c r="K647" s="26"/>
     </row>
-    <row r="648" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" ht="60">
       <c r="A648" s="20">
         <v>24778</v>
       </c>
@@ -20237,7 +20227,7 @@
       <c r="J648" s="25"/>
       <c r="K648" s="26"/>
     </row>
-    <row r="649" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" ht="45">
       <c r="A649" s="20">
         <v>24778</v>
       </c>
@@ -20264,7 +20254,7 @@
       <c r="J649" s="25"/>
       <c r="K649" s="26"/>
     </row>
-    <row r="650" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" ht="30">
       <c r="A650" s="20">
         <v>24778</v>
       </c>
@@ -20291,7 +20281,7 @@
       <c r="J650" s="25"/>
       <c r="K650" s="26"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11">
       <c r="A651" s="20">
         <v>24778</v>
       </c>
@@ -20318,7 +20308,7 @@
       <c r="J651" s="25"/>
       <c r="K651" s="26"/>
     </row>
-    <row r="652" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" ht="60">
       <c r="A652" s="20">
         <v>24778</v>
       </c>
@@ -20345,7 +20335,7 @@
       <c r="J652" s="25"/>
       <c r="K652" s="26"/>
     </row>
-    <row r="653" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" ht="75">
       <c r="A653" s="14">
         <v>24779</v>
       </c>
@@ -20370,7 +20360,7 @@
       <c r="J653" s="18"/>
       <c r="K653" s="19"/>
     </row>
-    <row r="654" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" ht="30">
       <c r="A654" s="14">
         <v>24779</v>
       </c>
@@ -20395,7 +20385,7 @@
       <c r="J654" s="18"/>
       <c r="K654" s="19"/>
     </row>
-    <row r="655" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" ht="105">
       <c r="A655" s="14">
         <v>24779</v>
       </c>
@@ -20420,7 +20410,7 @@
       <c r="J655" s="18"/>
       <c r="K655" s="19"/>
     </row>
-    <row r="656" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" ht="105">
       <c r="A656" s="14">
         <v>24779</v>
       </c>
@@ -20445,7 +20435,7 @@
       <c r="J656" s="18"/>
       <c r="K656" s="19"/>
     </row>
-    <row r="657" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" ht="30">
       <c r="A657" s="14">
         <v>24779</v>
       </c>
@@ -20470,7 +20460,7 @@
       <c r="J657" s="18"/>
       <c r="K657" s="19"/>
     </row>
-    <row r="658" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" ht="45">
       <c r="A658" s="14">
         <v>24779</v>
       </c>
@@ -20495,7 +20485,7 @@
       <c r="J658" s="18"/>
       <c r="K658" s="19"/>
     </row>
-    <row r="659" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" ht="90">
       <c r="A659" s="14">
         <v>24779</v>
       </c>
@@ -20520,7 +20510,7 @@
       <c r="J659" s="18"/>
       <c r="K659" s="19"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11">
       <c r="A660" s="14">
         <v>24779</v>
       </c>
@@ -20545,7 +20535,7 @@
       <c r="J660" s="18"/>
       <c r="K660" s="19"/>
     </row>
-    <row r="661" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" ht="60">
       <c r="A661" s="14">
         <v>24779</v>
       </c>
@@ -20570,7 +20560,7 @@
       <c r="J661" s="18"/>
       <c r="K661" s="19"/>
     </row>
-    <row r="662" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" ht="75">
       <c r="A662" s="20">
         <v>24780</v>
       </c>
@@ -20595,7 +20585,7 @@
       <c r="J662" s="25"/>
       <c r="K662" s="26"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11">
       <c r="A663" s="20">
         <v>24780</v>
       </c>
@@ -20620,7 +20610,7 @@
       <c r="J663" s="25"/>
       <c r="K663" s="26"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11">
       <c r="A664" s="20">
         <v>24780</v>
       </c>
@@ -20645,7 +20635,7 @@
       <c r="J664" s="25"/>
       <c r="K664" s="26"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11">
       <c r="A665" s="20">
         <v>24780</v>
       </c>
@@ -20670,7 +20660,7 @@
       <c r="J665" s="25"/>
       <c r="K665" s="26"/>
     </row>
-    <row r="666" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" ht="60">
       <c r="A666" s="20">
         <v>24780</v>
       </c>
@@ -20695,7 +20685,7 @@
       <c r="J666" s="25"/>
       <c r="K666" s="26"/>
     </row>
-    <row r="667" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" ht="60">
       <c r="A667" s="20">
         <v>24780</v>
       </c>
@@ -20720,7 +20710,7 @@
       <c r="J667" s="25"/>
       <c r="K667" s="26"/>
     </row>
-    <row r="668" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" ht="45">
       <c r="A668" s="20">
         <v>24780</v>
       </c>
@@ -20745,7 +20735,7 @@
       <c r="J668" s="25"/>
       <c r="K668" s="26"/>
     </row>
-    <row r="669" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" ht="30">
       <c r="A669" s="14">
         <v>24781</v>
       </c>
@@ -20770,7 +20760,7 @@
       <c r="J669" s="18"/>
       <c r="K669" s="19"/>
     </row>
-    <row r="670" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" ht="75">
       <c r="A670" s="14">
         <v>24781</v>
       </c>
@@ -20795,7 +20785,7 @@
       <c r="J670" s="18"/>
       <c r="K670" s="19"/>
     </row>
-    <row r="671" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" ht="45">
       <c r="A671" s="14">
         <v>24781</v>
       </c>
@@ -20820,7 +20810,7 @@
       <c r="J671" s="18"/>
       <c r="K671" s="19"/>
     </row>
-    <row r="672" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" ht="30">
       <c r="A672" s="14">
         <v>24781</v>
       </c>
@@ -20845,7 +20835,7 @@
       <c r="J672" s="18"/>
       <c r="K672" s="19"/>
     </row>
-    <row r="673" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" ht="75">
       <c r="A673" s="14">
         <v>24781</v>
       </c>
@@ -20870,7 +20860,7 @@
       <c r="J673" s="18"/>
       <c r="K673" s="19"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11">
       <c r="A674" s="14">
         <v>24781</v>
       </c>
@@ -20895,7 +20885,7 @@
       <c r="J674" s="18"/>
       <c r="K674" s="19"/>
     </row>
-    <row r="675" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" ht="30">
       <c r="A675" s="14">
         <v>24781</v>
       </c>
@@ -20920,7 +20910,7 @@
       <c r="J675" s="18"/>
       <c r="K675" s="19"/>
     </row>
-    <row r="676" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" ht="30">
       <c r="A676" s="20">
         <v>24782</v>
       </c>
@@ -20947,7 +20937,7 @@
       <c r="J676" s="25"/>
       <c r="K676" s="26"/>
     </row>
-    <row r="677" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" ht="60">
       <c r="A677" s="20">
         <v>24782</v>
       </c>
@@ -20974,7 +20964,7 @@
       <c r="J677" s="25"/>
       <c r="K677" s="26"/>
     </row>
-    <row r="678" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" ht="45">
       <c r="A678" s="20">
         <v>24782</v>
       </c>
@@ -21001,7 +20991,7 @@
       <c r="J678" s="25"/>
       <c r="K678" s="26"/>
     </row>
-    <row r="679" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" ht="75">
       <c r="A679" s="20">
         <v>24782</v>
       </c>
@@ -21028,7 +21018,7 @@
       <c r="J679" s="25"/>
       <c r="K679" s="26"/>
     </row>
-    <row r="680" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" ht="45">
       <c r="A680" s="20">
         <v>24782</v>
       </c>
@@ -21055,7 +21045,7 @@
       <c r="J680" s="25"/>
       <c r="K680" s="26"/>
     </row>
-    <row r="681" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" ht="45">
       <c r="A681" s="20">
         <v>24782</v>
       </c>
@@ -21082,7 +21072,7 @@
       <c r="J681" s="25"/>
       <c r="K681" s="26"/>
     </row>
-    <row r="682" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" ht="30">
       <c r="A682" s="20">
         <v>24782</v>
       </c>
@@ -21109,7 +21099,7 @@
       <c r="J682" s="25"/>
       <c r="K682" s="26"/>
     </row>
-    <row r="683" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" ht="45">
       <c r="A683" s="20">
         <v>24782</v>
       </c>
@@ -21136,7 +21126,7 @@
       <c r="J683" s="25"/>
       <c r="K683" s="26"/>
     </row>
-    <row r="684" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" ht="30">
       <c r="A684" s="14">
         <v>24783</v>
       </c>
@@ -21163,7 +21153,7 @@
       <c r="J684" s="18"/>
       <c r="K684" s="19"/>
     </row>
-    <row r="685" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" ht="30">
       <c r="A685" s="14">
         <v>24783</v>
       </c>
@@ -21190,7 +21180,7 @@
       <c r="J685" s="18"/>
       <c r="K685" s="19"/>
     </row>
-    <row r="686" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" ht="90">
       <c r="A686" s="14">
         <v>24783</v>
       </c>
@@ -21217,7 +21207,7 @@
       <c r="J686" s="18"/>
       <c r="K686" s="19"/>
     </row>
-    <row r="687" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" ht="75">
       <c r="A687" s="14">
         <v>24783</v>
       </c>
@@ -21244,7 +21234,7 @@
       <c r="J687" s="18"/>
       <c r="K687" s="19"/>
     </row>
-    <row r="688" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" ht="60">
       <c r="A688" s="14">
         <v>24783</v>
       </c>
@@ -21271,7 +21261,7 @@
       <c r="J688" s="18"/>
       <c r="K688" s="19"/>
     </row>
-    <row r="689" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" ht="60">
       <c r="A689" s="14">
         <v>24783</v>
       </c>
@@ -21298,7 +21288,7 @@
       <c r="J689" s="18"/>
       <c r="K689" s="19"/>
     </row>
-    <row r="690" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" ht="30">
       <c r="A690" s="20">
         <v>24784</v>
       </c>
@@ -21321,7 +21311,7 @@
       <c r="J690" s="25"/>
       <c r="K690" s="26"/>
     </row>
-    <row r="691" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" ht="30">
       <c r="A691" s="20">
         <v>24784</v>
       </c>
@@ -21344,7 +21334,7 @@
       <c r="J691" s="25"/>
       <c r="K691" s="26"/>
     </row>
-    <row r="692" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" ht="30">
       <c r="A692" s="14">
         <v>24787</v>
       </c>
@@ -21369,7 +21359,7 @@
       <c r="J692" s="18"/>
       <c r="K692" s="19"/>
     </row>
-    <row r="693" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" ht="30">
       <c r="A693" s="14">
         <v>24787</v>
       </c>
@@ -21394,7 +21384,7 @@
       <c r="J693" s="18"/>
       <c r="K693" s="19"/>
     </row>
-    <row r="694" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" ht="45">
       <c r="A694" s="14">
         <v>24787</v>
       </c>
@@ -21419,7 +21409,7 @@
       <c r="J694" s="18"/>
       <c r="K694" s="19"/>
     </row>
-    <row r="695" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" ht="30">
       <c r="A695" s="20">
         <v>24788</v>
       </c>
@@ -21444,7 +21434,7 @@
       <c r="J695" s="25"/>
       <c r="K695" s="26"/>
     </row>
-    <row r="696" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" ht="30">
       <c r="A696" s="20">
         <v>24788</v>
       </c>
@@ -21469,7 +21459,7 @@
       <c r="J696" s="25"/>
       <c r="K696" s="26"/>
     </row>
-    <row r="697" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" ht="60">
       <c r="A697" s="20">
         <v>24788</v>
       </c>
@@ -21494,7 +21484,7 @@
       <c r="J697" s="25"/>
       <c r="K697" s="26"/>
     </row>
-    <row r="698" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" ht="75">
       <c r="A698" s="20">
         <v>24788</v>
       </c>
@@ -21519,7 +21509,7 @@
       <c r="J698" s="25"/>
       <c r="K698" s="26"/>
     </row>
-    <row r="699" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" ht="30">
       <c r="A699" s="20">
         <v>24788</v>
       </c>
@@ -21544,7 +21534,7 @@
       <c r="J699" s="25"/>
       <c r="K699" s="26"/>
     </row>
-    <row r="700" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" ht="30">
       <c r="A700" s="20">
         <v>24788</v>
       </c>
@@ -21569,7 +21559,7 @@
       <c r="J700" s="25"/>
       <c r="K700" s="26"/>
     </row>
-    <row r="701" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" ht="75">
       <c r="A701" s="20">
         <v>24788</v>
       </c>
@@ -21594,7 +21584,7 @@
       <c r="J701" s="25"/>
       <c r="K701" s="26"/>
     </row>
-    <row r="702" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" ht="30">
       <c r="A702" s="20">
         <v>24788</v>
       </c>
@@ -21619,7 +21609,7 @@
       <c r="J702" s="25"/>
       <c r="K702" s="26"/>
     </row>
-    <row r="703" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" ht="30">
       <c r="A703" s="14">
         <v>24789</v>
       </c>
@@ -21644,7 +21634,7 @@
       <c r="J703" s="18"/>
       <c r="K703" s="19"/>
     </row>
-    <row r="704" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" ht="45">
       <c r="A704" s="14">
         <v>24789</v>
       </c>
@@ -21669,7 +21659,7 @@
       <c r="J704" s="18"/>
       <c r="K704" s="19"/>
     </row>
-    <row r="705" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" ht="45">
       <c r="A705" s="14">
         <v>24789</v>
       </c>
@@ -21694,7 +21684,7 @@
       <c r="J705" s="18"/>
       <c r="K705" s="19"/>
     </row>
-    <row r="706" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" ht="30">
       <c r="A706" s="14">
         <v>24789</v>
       </c>
@@ -21719,7 +21709,7 @@
       <c r="J706" s="18"/>
       <c r="K706" s="19"/>
     </row>
-    <row r="707" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" ht="30">
       <c r="A707" s="14">
         <v>24789</v>
       </c>
@@ -21744,7 +21734,7 @@
       <c r="J707" s="18"/>
       <c r="K707" s="19"/>
     </row>
-    <row r="708" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" ht="45">
       <c r="A708" s="14">
         <v>24789</v>
       </c>
@@ -21769,7 +21759,7 @@
       <c r="J708" s="18"/>
       <c r="K708" s="19"/>
     </row>
-    <row r="709" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" ht="30">
       <c r="A709" s="20">
         <v>24793</v>
       </c>
@@ -21794,7 +21784,7 @@
       <c r="J709" s="25"/>
       <c r="K709" s="26"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11">
       <c r="A710" s="20">
         <v>24793</v>
       </c>
@@ -21819,7 +21809,7 @@
       <c r="J710" s="25"/>
       <c r="K710" s="26"/>
     </row>
-    <row r="711" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" ht="45">
       <c r="A711" s="20">
         <v>24793</v>
       </c>
@@ -21844,7 +21834,7 @@
       <c r="J711" s="25"/>
       <c r="K711" s="26"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11">
       <c r="A712" s="20">
         <v>24793</v>
       </c>
@@ -21869,7 +21859,7 @@
       <c r="J712" s="25"/>
       <c r="K712" s="26"/>
     </row>
-    <row r="713" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" ht="30">
       <c r="A713" s="14">
         <v>24794</v>
       </c>
@@ -21894,7 +21884,7 @@
       <c r="J713" s="18"/>
       <c r="K713" s="19"/>
     </row>
-    <row r="714" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" ht="30">
       <c r="A714" s="14">
         <v>24794</v>
       </c>
@@ -21919,7 +21909,7 @@
       <c r="J714" s="18"/>
       <c r="K714" s="19"/>
     </row>
-    <row r="715" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" ht="30">
       <c r="A715" s="14">
         <v>24794</v>
       </c>
@@ -21944,7 +21934,7 @@
       <c r="J715" s="18"/>
       <c r="K715" s="19"/>
     </row>
-    <row r="716" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" ht="75">
       <c r="A716" s="14">
         <v>24794</v>
       </c>
@@ -21969,7 +21959,7 @@
       <c r="J716" s="18"/>
       <c r="K716" s="19"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11">
       <c r="A717" s="14">
         <v>24794</v>
       </c>
@@ -21994,7 +21984,7 @@
       <c r="J717" s="18"/>
       <c r="K717" s="19"/>
     </row>
-    <row r="718" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" ht="30">
       <c r="A718" s="14">
         <v>24794</v>
       </c>
@@ -22019,7 +22009,7 @@
       <c r="J718" s="18"/>
       <c r="K718" s="19"/>
     </row>
-    <row r="719" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" ht="30">
       <c r="A719" s="20">
         <v>24795</v>
       </c>
@@ -22044,7 +22034,7 @@
       <c r="J719" s="25"/>
       <c r="K719" s="26"/>
     </row>
-    <row r="720" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" ht="30">
       <c r="A720" s="20">
         <v>24795</v>
       </c>
@@ -22069,7 +22059,7 @@
       <c r="J720" s="25"/>
       <c r="K720" s="26"/>
     </row>
-    <row r="721" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" ht="60">
       <c r="A721" s="20">
         <v>24795</v>
       </c>
@@ -22094,7 +22084,7 @@
       <c r="J721" s="25"/>
       <c r="K721" s="26"/>
     </row>
-    <row r="722" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" ht="60">
       <c r="A722" s="20">
         <v>24795</v>
       </c>
@@ -22119,7 +22109,7 @@
       <c r="J722" s="25"/>
       <c r="K722" s="26"/>
     </row>
-    <row r="723" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" ht="75">
       <c r="A723" s="20">
         <v>24795</v>
       </c>
@@ -22144,7 +22134,7 @@
       <c r="J723" s="25"/>
       <c r="K723" s="26"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11">
       <c r="A724" s="20">
         <v>24795</v>
       </c>
@@ -22169,7 +22159,7 @@
       <c r="J724" s="25"/>
       <c r="K724" s="26"/>
     </row>
-    <row r="725" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" ht="30">
       <c r="A725" s="20">
         <v>24795</v>
       </c>
@@ -22194,7 +22184,7 @@
       <c r="J725" s="25"/>
       <c r="K725" s="26"/>
     </row>
-    <row r="726" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" ht="30">
       <c r="A726" s="14">
         <v>24856</v>
       </c>
@@ -22217,7 +22207,7 @@
       <c r="J726" s="18"/>
       <c r="K726" s="19"/>
     </row>
-    <row r="727" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" ht="60">
       <c r="A727" s="14">
         <v>24856</v>
       </c>
@@ -22240,7 +22230,7 @@
       <c r="J727" s="18"/>
       <c r="K727" s="19"/>
     </row>
-    <row r="728" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" ht="45">
       <c r="A728" s="14">
         <v>24856</v>
       </c>
@@ -22263,7 +22253,7 @@
       <c r="J728" s="18"/>
       <c r="K728" s="19"/>
     </row>
-    <row r="729" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" ht="30">
       <c r="A729" s="20">
         <v>24987</v>
       </c>
@@ -22286,7 +22276,7 @@
       <c r="J729" s="25"/>
       <c r="K729" s="26"/>
     </row>
-    <row r="730" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" ht="30">
       <c r="A730" s="20">
         <v>24987</v>
       </c>
@@ -22309,7 +22299,7 @@
       <c r="J730" s="25"/>
       <c r="K730" s="26"/>
     </row>
-    <row r="731" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" ht="120">
       <c r="A731" s="20">
         <v>24987</v>
       </c>
@@ -22334,7 +22324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" ht="30">
       <c r="A732" s="20">
         <v>24987</v>
       </c>
@@ -22359,7 +22349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" ht="30">
       <c r="A733" s="20">
         <v>24987</v>
       </c>
@@ -22384,7 +22374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" ht="75">
       <c r="A734" s="20">
         <v>24987</v>
       </c>
@@ -22409,7 +22399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" ht="45">
       <c r="A735" s="20">
         <v>24987</v>
       </c>
@@ -22434,7 +22424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11">
       <c r="A736" s="20">
         <v>24987</v>
       </c>
@@ -22457,7 +22447,7 @@
       <c r="J736" s="25"/>
       <c r="K736" s="26"/>
     </row>
-    <row r="737" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" ht="60">
       <c r="A737" s="20">
         <v>24987</v>
       </c>
@@ -22480,7 +22470,7 @@
       <c r="J737" s="25"/>
       <c r="K737" s="26"/>
     </row>
-    <row r="738" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" ht="30">
       <c r="A738" s="20">
         <v>24987</v>
       </c>
@@ -22503,7 +22493,7 @@
       <c r="J738" s="25"/>
       <c r="K738" s="26"/>
     </row>
-    <row r="739" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11" ht="30">
       <c r="A739" s="14">
         <v>25253</v>
       </c>
@@ -22526,7 +22516,7 @@
       <c r="J739" s="18"/>
       <c r="K739" s="19"/>
     </row>
-    <row r="740" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:11" ht="75">
       <c r="A740" s="14">
         <v>25253</v>
       </c>
@@ -22549,7 +22539,7 @@
       <c r="J740" s="18"/>
       <c r="K740" s="19"/>
     </row>
-    <row r="741" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:11" ht="30">
       <c r="A741" s="14">
         <v>25253</v>
       </c>
@@ -22572,7 +22562,7 @@
       <c r="J741" s="18"/>
       <c r="K741" s="19"/>
     </row>
-    <row r="742" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:11" ht="30">
       <c r="A742" s="14">
         <v>25253</v>
       </c>
@@ -22595,7 +22585,7 @@
       <c r="J742" s="18"/>
       <c r="K742" s="19"/>
     </row>
-    <row r="743" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:11" ht="30">
       <c r="A743" s="14">
         <v>25253</v>
       </c>
@@ -22618,7 +22608,7 @@
       <c r="J743" s="18"/>
       <c r="K743" s="19"/>
     </row>
-    <row r="744" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:11" ht="60">
       <c r="A744" s="14">
         <v>25253</v>
       </c>
@@ -22641,7 +22631,7 @@
       <c r="J744" s="18"/>
       <c r="K744" s="19"/>
     </row>
-    <row r="745" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:11" ht="45">
       <c r="A745" s="14">
         <v>25253</v>
       </c>
@@ -22664,7 +22654,7 @@
       <c r="J745" s="18"/>
       <c r="K745" s="19"/>
     </row>
-    <row r="746" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:11" ht="30">
       <c r="A746" s="14">
         <v>25253</v>
       </c>
@@ -22687,7 +22677,7 @@
       <c r="J746" s="18"/>
       <c r="K746" s="19"/>
     </row>
-    <row r="747" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:11" ht="30">
       <c r="A747" s="14">
         <v>25253</v>
       </c>
@@ -22710,7 +22700,7 @@
       <c r="J747" s="18"/>
       <c r="K747" s="19"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:11">
       <c r="A748" s="20">
         <v>25451</v>
       </c>
@@ -22733,7 +22723,7 @@
       <c r="J748" s="25"/>
       <c r="K748" s="26"/>
     </row>
-    <row r="749" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:11" ht="45">
       <c r="A749" s="20">
         <v>25451</v>
       </c>
@@ -22756,7 +22746,7 @@
       <c r="J749" s="25"/>
       <c r="K749" s="26"/>
     </row>
-    <row r="750" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:11" ht="30">
       <c r="A750" s="20">
         <v>25451</v>
       </c>
@@ -22779,7 +22769,7 @@
       <c r="J750" s="25"/>
       <c r="K750" s="26"/>
     </row>
-    <row r="751" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:11" ht="105">
       <c r="A751" s="20">
         <v>25451</v>
       </c>
@@ -22806,7 +22796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:11" ht="90">
       <c r="A752" s="20">
         <v>25451</v>
       </c>
@@ -22833,7 +22823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:11" ht="45">
       <c r="A753" s="20">
         <v>25451</v>
       </c>
@@ -22856,7 +22846,7 @@
       <c r="J753" s="25"/>
       <c r="K753" s="26"/>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:11">
       <c r="A754" s="14">
         <v>25487</v>
       </c>
@@ -22879,7 +22869,7 @@
       <c r="J754" s="18"/>
       <c r="K754" s="19"/>
     </row>
-    <row r="755" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:11" ht="60">
       <c r="A755" s="14">
         <v>25487</v>
       </c>
@@ -22902,7 +22892,7 @@
       <c r="J755" s="18"/>
       <c r="K755" s="19"/>
     </row>
-    <row r="756" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:11" ht="45">
       <c r="A756" s="14">
         <v>25487</v>
       </c>
@@ -22929,7 +22919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:11" ht="45">
       <c r="A757" s="14">
         <v>25487</v>
       </c>
@@ -22956,7 +22946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:11">
       <c r="A758" s="14">
         <v>25487</v>
       </c>
@@ -22979,7 +22969,7 @@
       <c r="J758" s="18"/>
       <c r="K758" s="19"/>
     </row>
-    <row r="759" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:11" ht="45">
       <c r="A759" s="14">
         <v>25487</v>
       </c>
@@ -23002,7 +22992,7 @@
       <c r="J759" s="18"/>
       <c r="K759" s="19"/>
     </row>
-    <row r="760" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:11" ht="30">
       <c r="A760" s="20">
         <v>25661</v>
       </c>
@@ -23025,7 +23015,7 @@
       <c r="J760" s="25"/>
       <c r="K760" s="26"/>
     </row>
-    <row r="761" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:11" ht="30">
       <c r="A761" s="20">
         <v>25661</v>
       </c>
@@ -23052,7 +23042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:11" ht="30">
       <c r="A762" s="20">
         <v>25661</v>
       </c>
@@ -23079,7 +23069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="763" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:11" ht="30">
       <c r="A763" s="20">
         <v>25661</v>
       </c>
@@ -23106,7 +23096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="764" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:11" ht="30">
       <c r="A764" s="20">
         <v>25661</v>
       </c>
@@ -23131,7 +23121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:11" ht="90">
       <c r="A765" s="20">
         <v>25661</v>
       </c>
@@ -23160,7 +23150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="766" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:11" ht="45">
       <c r="A766" s="20">
         <v>25661</v>
       </c>
@@ -23183,7 +23173,7 @@
       <c r="J766" s="25"/>
       <c r="K766" s="26"/>
     </row>
-    <row r="767" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:11" ht="75">
       <c r="A767" s="14">
         <v>25751</v>
       </c>
@@ -23210,7 +23200,7 @@
       <c r="J767" s="18"/>
       <c r="K767" s="19"/>
     </row>
-    <row r="768" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:11" ht="60">
       <c r="A768" s="14">
         <v>25751</v>
       </c>
@@ -23235,7 +23225,7 @@
       <c r="J768" s="18"/>
       <c r="K768" s="19"/>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:11">
       <c r="A769" s="14">
         <v>25751</v>
       </c>
@@ -23262,7 +23252,7 @@
       <c r="J769" s="18"/>
       <c r="K769" s="19"/>
     </row>
-    <row r="770" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:11" ht="75">
       <c r="A770" s="20">
         <v>25752</v>
       </c>
@@ -23291,7 +23281,7 @@
       </c>
       <c r="K770" s="26"/>
     </row>
-    <row r="771" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:11" ht="60">
       <c r="A771" s="20">
         <v>25752</v>
       </c>
@@ -23322,7 +23312,7 @@
       </c>
       <c r="K771" s="26"/>
     </row>
-    <row r="772" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:11" ht="45">
       <c r="A772" s="20">
         <v>25752</v>
       </c>
@@ -23351,7 +23341,7 @@
       </c>
       <c r="K772" s="26"/>
     </row>
-    <row r="773" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:11" ht="60">
       <c r="A773" s="20">
         <v>25752</v>
       </c>
@@ -23380,7 +23370,7 @@
       </c>
       <c r="K773" s="26"/>
     </row>
-    <row r="774" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:11" ht="30">
       <c r="A774" s="20">
         <v>25752</v>
       </c>
@@ -23409,7 +23399,7 @@
       </c>
       <c r="K774" s="26"/>
     </row>
-    <row r="775" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:11" ht="30">
       <c r="A775" s="20">
         <v>25752</v>
       </c>
@@ -23440,7 +23430,7 @@
       </c>
       <c r="K775" s="26"/>
     </row>
-    <row r="776" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:11" ht="60">
       <c r="A776" s="14">
         <v>25801</v>
       </c>
@@ -23465,7 +23455,7 @@
       <c r="J776" s="18"/>
       <c r="K776" s="19"/>
     </row>
-    <row r="777" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:11" ht="75">
       <c r="A777" s="14">
         <v>25801</v>
       </c>
@@ -23490,7 +23480,7 @@
       <c r="J777" s="18"/>
       <c r="K777" s="19"/>
     </row>
-    <row r="778" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:11" ht="30">
       <c r="A778" s="14">
         <v>25801</v>
       </c>
@@ -23515,7 +23505,7 @@
       <c r="J778" s="18"/>
       <c r="K778" s="19"/>
     </row>
-    <row r="779" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:11" ht="45">
       <c r="A779" s="14">
         <v>25801</v>
       </c>
@@ -23540,7 +23530,7 @@
       <c r="J779" s="18"/>
       <c r="K779" s="19"/>
     </row>
-    <row r="780" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:11" ht="45">
       <c r="A780" s="20">
         <v>25802</v>
       </c>
@@ -23565,7 +23555,7 @@
       <c r="J780" s="25"/>
       <c r="K780" s="26"/>
     </row>
-    <row r="781" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:11" ht="75">
       <c r="A781" s="20">
         <v>25802</v>
       </c>
@@ -23590,7 +23580,7 @@
       <c r="J781" s="25"/>
       <c r="K781" s="26"/>
     </row>
-    <row r="782" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:11" ht="120">
       <c r="A782" s="20">
         <v>25802</v>
       </c>
@@ -23615,7 +23605,7 @@
       <c r="J782" s="25"/>
       <c r="K782" s="26"/>
     </row>
-    <row r="783" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:11" ht="60">
       <c r="A783" s="20">
         <v>25802</v>
       </c>
@@ -23640,7 +23630,7 @@
       <c r="J783" s="25"/>
       <c r="K783" s="26"/>
     </row>
-    <row r="784" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:11" ht="90">
       <c r="A784" s="20">
         <v>25802</v>
       </c>
@@ -23665,7 +23655,7 @@
       <c r="J784" s="25"/>
       <c r="K784" s="26"/>
     </row>
-    <row r="785" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:11" ht="30">
       <c r="A785" s="14">
         <v>25806</v>
       </c>
@@ -23690,7 +23680,7 @@
       <c r="J785" s="18"/>
       <c r="K785" s="19"/>
     </row>
-    <row r="786" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:11" ht="30">
       <c r="A786" s="14">
         <v>25806</v>
       </c>
@@ -23715,7 +23705,7 @@
       <c r="J786" s="18"/>
       <c r="K786" s="19"/>
     </row>
-    <row r="787" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:11" ht="105">
       <c r="A787" s="14">
         <v>25806</v>
       </c>
@@ -23740,7 +23730,7 @@
       <c r="J787" s="18"/>
       <c r="K787" s="19"/>
     </row>
-    <row r="788" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:11" ht="90">
       <c r="A788" s="14">
         <v>25806</v>
       </c>
@@ -23765,7 +23755,7 @@
       <c r="J788" s="18"/>
       <c r="K788" s="19"/>
     </row>
-    <row r="789" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:11" ht="30">
       <c r="A789" s="14">
         <v>25806</v>
       </c>
@@ -23790,7 +23780,7 @@
       <c r="J789" s="18"/>
       <c r="K789" s="19"/>
     </row>
-    <row r="790" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:11" ht="30">
       <c r="A790" s="14">
         <v>25806</v>
       </c>
@@ -23815,7 +23805,7 @@
       <c r="J790" s="18"/>
       <c r="K790" s="19"/>
     </row>
-    <row r="791" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:11" ht="30">
       <c r="A791" s="20">
         <v>25843</v>
       </c>
@@ -23842,7 +23832,7 @@
       </c>
       <c r="K791" s="26"/>
     </row>
-    <row r="792" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:11" ht="30">
       <c r="A792" s="20">
         <v>25843</v>
       </c>
@@ -23869,7 +23859,7 @@
       </c>
       <c r="K792" s="26"/>
     </row>
-    <row r="793" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:11" ht="60">
       <c r="A793" s="20">
         <v>25843</v>
       </c>
@@ -23896,7 +23886,7 @@
       </c>
       <c r="K793" s="26"/>
     </row>
-    <row r="794" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:11" ht="60">
       <c r="A794" s="20">
         <v>25843</v>
       </c>
@@ -23923,7 +23913,7 @@
       </c>
       <c r="K794" s="26"/>
     </row>
-    <row r="795" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:11" ht="45">
       <c r="A795" s="20">
         <v>25843</v>
       </c>
@@ -23950,7 +23940,7 @@
       </c>
       <c r="K795" s="26"/>
     </row>
-    <row r="796" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:11" ht="45">
       <c r="A796" s="14">
         <v>26069</v>
       </c>
@@ -23977,7 +23967,7 @@
       </c>
       <c r="K796" s="19"/>
     </row>
-    <row r="797" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:11" ht="45">
       <c r="A797" s="14">
         <v>26069</v>
       </c>
@@ -24004,7 +23994,7 @@
       </c>
       <c r="K797" s="19"/>
     </row>
-    <row r="798" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:11" ht="60">
       <c r="A798" s="14">
         <v>26069</v>
       </c>
@@ -24031,7 +24021,7 @@
       </c>
       <c r="K798" s="19"/>
     </row>
-    <row r="799" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:11" ht="45">
       <c r="A799" s="14">
         <v>26069</v>
       </c>
@@ -24058,7 +24048,7 @@
       </c>
       <c r="K799" s="19"/>
     </row>
-    <row r="800" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:11" ht="30">
       <c r="A800" s="20">
         <v>26071</v>
       </c>
@@ -24081,7 +24071,7 @@
       <c r="J800" s="25"/>
       <c r="K800" s="26"/>
     </row>
-    <row r="801" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:11" ht="30">
       <c r="A801" s="20">
         <v>26071</v>
       </c>
@@ -24104,7 +24094,7 @@
       <c r="J801" s="25"/>
       <c r="K801" s="26"/>
     </row>
-    <row r="802" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:11" ht="30">
       <c r="A802" s="20">
         <v>26071</v>
       </c>
@@ -24127,7 +24117,7 @@
       <c r="J802" s="25"/>
       <c r="K802" s="26"/>
     </row>
-    <row r="803" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:11" ht="30">
       <c r="A803" s="20">
         <v>26071</v>
       </c>
@@ -24150,7 +24140,7 @@
       <c r="J803" s="25"/>
       <c r="K803" s="26"/>
     </row>
-    <row r="804" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:11" ht="30">
       <c r="A804" s="20">
         <v>26071</v>
       </c>
@@ -24173,7 +24163,7 @@
       <c r="J804" s="25"/>
       <c r="K804" s="26"/>
     </row>
-    <row r="805" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:11" ht="60">
       <c r="A805" s="14">
         <v>26076</v>
       </c>
@@ -24198,7 +24188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:11">
       <c r="A806" s="14">
         <v>26076</v>
       </c>
@@ -24223,7 +24213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:11">
       <c r="A807" s="14">
         <v>26076</v>
       </c>
@@ -24248,7 +24238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:11">
       <c r="A808" s="14">
         <v>26076</v>
       </c>
@@ -24273,7 +24263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="809" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:11" ht="45">
       <c r="A809" s="14">
         <v>26076</v>
       </c>
@@ -24298,7 +24288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="810" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:11" ht="75">
       <c r="A810" s="20">
         <v>26095</v>
       </c>
@@ -24323,7 +24313,7 @@
       <c r="J810" s="25"/>
       <c r="K810" s="26"/>
     </row>
-    <row r="811" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:11" ht="45">
       <c r="A811" s="14">
         <v>26179</v>
       </c>
@@ -24348,7 +24338,7 @@
       <c r="J811" s="18"/>
       <c r="K811" s="19"/>
     </row>
-    <row r="812" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:11" ht="30">
       <c r="A812" s="14">
         <v>26179</v>
       </c>
@@ -24373,7 +24363,7 @@
       <c r="J812" s="18"/>
       <c r="K812" s="19"/>
     </row>
-    <row r="813" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:11" ht="30">
       <c r="A813" s="14">
         <v>26179</v>
       </c>
@@ -24398,7 +24388,7 @@
       <c r="J813" s="18"/>
       <c r="K813" s="19"/>
     </row>
-    <row r="814" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:11" ht="30">
       <c r="A814" s="14">
         <v>26179</v>
       </c>
@@ -24423,7 +24413,7 @@
       <c r="J814" s="18"/>
       <c r="K814" s="19"/>
     </row>
-    <row r="815" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:11" ht="30">
       <c r="A815" s="14">
         <v>26179</v>
       </c>
@@ -24448,7 +24438,7 @@
       <c r="J815" s="18"/>
       <c r="K815" s="19"/>
     </row>
-    <row r="816" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:11" ht="30">
       <c r="A816" s="14">
         <v>26179</v>
       </c>
@@ -24473,7 +24463,7 @@
       <c r="J816" s="18"/>
       <c r="K816" s="19"/>
     </row>
-    <row r="817" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:11" ht="45">
       <c r="A817" s="20">
         <v>26180</v>
       </c>
@@ -24498,7 +24488,7 @@
       <c r="J817" s="25"/>
       <c r="K817" s="26"/>
     </row>
-    <row r="818" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:11" ht="30">
       <c r="A818" s="20">
         <v>26180</v>
       </c>
@@ -24523,7 +24513,7 @@
       <c r="J818" s="25"/>
       <c r="K818" s="26"/>
     </row>
-    <row r="819" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:11">
       <c r="A819" s="20">
         <v>26180</v>
       </c>
@@ -24548,7 +24538,7 @@
       <c r="J819" s="25"/>
       <c r="K819" s="26"/>
     </row>
-    <row r="820" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:11">
       <c r="A820" s="20">
         <v>26180</v>
       </c>
@@ -24573,7 +24563,7 @@
       <c r="J820" s="25"/>
       <c r="K820" s="26"/>
     </row>
-    <row r="821" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:11" ht="30">
       <c r="A821" s="20">
         <v>26180</v>
       </c>
@@ -24598,7 +24588,7 @@
       <c r="J821" s="25"/>
       <c r="K821" s="26"/>
     </row>
-    <row r="822" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:11" ht="45">
       <c r="A822" s="20">
         <v>26180</v>
       </c>
@@ -24623,7 +24613,7 @@
       <c r="J822" s="25"/>
       <c r="K822" s="26"/>
     </row>
-    <row r="823" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:11" ht="60">
       <c r="A823" s="20">
         <v>26180</v>
       </c>
@@ -24648,7 +24638,7 @@
       <c r="J823" s="25"/>
       <c r="K823" s="26"/>
     </row>
-    <row r="824" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:11" ht="30">
       <c r="A824" s="20">
         <v>26180</v>
       </c>
@@ -24673,7 +24663,7 @@
       <c r="J824" s="25"/>
       <c r="K824" s="26"/>
     </row>
-    <row r="825" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:11" ht="30">
       <c r="A825" s="20">
         <v>26180</v>
       </c>
@@ -24698,7 +24688,7 @@
       <c r="J825" s="25"/>
       <c r="K825" s="26"/>
     </row>
-    <row r="826" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:11" ht="30">
       <c r="A826" s="20">
         <v>26180</v>
       </c>
@@ -24723,7 +24713,7 @@
       <c r="J826" s="25"/>
       <c r="K826" s="26"/>
     </row>
-    <row r="827" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:11" ht="30">
       <c r="A827" s="20">
         <v>26180</v>
       </c>
@@ -24748,7 +24738,7 @@
       <c r="J827" s="25"/>
       <c r="K827" s="26"/>
     </row>
-    <row r="828" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:11" ht="90">
       <c r="A828" s="14">
         <v>26230</v>
       </c>
@@ -24773,7 +24763,7 @@
       <c r="J828" s="18"/>
       <c r="K828" s="19"/>
     </row>
-    <row r="829" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:11" ht="75">
       <c r="A829" s="20">
         <v>26329</v>
       </c>
@@ -24798,7 +24788,7 @@
       <c r="J829" s="25"/>
       <c r="K829" s="26"/>
     </row>
-    <row r="830" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:11" ht="30">
       <c r="A830" s="27">
         <v>26330</v>
       </c>
@@ -24825,9 +24815,9 @@
   <conditionalFormatting sqref="H13">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -24843,24 +24833,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
+++ b/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -2960,7 +2960,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3048,6 +3048,12 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3815,8 +3821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K830"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E161" workbookViewId="0">
-      <selection activeCell="G171" sqref="G171"/>
+    <sheetView tabSelected="1" topLeftCell="E173" workbookViewId="0">
+      <selection activeCell="K167" sqref="K167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8047,10 +8053,10 @@
       <c r="E167" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F167" s="17">
-        <v>1</v>
-      </c>
-      <c r="G167" s="18"/>
+      <c r="F167" s="17"/>
+      <c r="G167" s="36">
+        <v>2</v>
+      </c>
       <c r="H167" s="18"/>
       <c r="I167" s="18"/>
       <c r="J167" s="18"/>
@@ -8072,10 +8078,10 @@
       <c r="E168" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F168" s="17">
-        <v>1</v>
-      </c>
-      <c r="G168" s="18"/>
+      <c r="F168" s="17"/>
+      <c r="G168" s="36">
+        <v>2</v>
+      </c>
       <c r="H168" s="18"/>
       <c r="I168" s="18"/>
       <c r="J168" s="18"/>
@@ -8097,10 +8103,10 @@
       <c r="E169" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F169" s="17">
-        <v>1</v>
-      </c>
-      <c r="G169" s="18"/>
+      <c r="F169" s="17"/>
+      <c r="G169" s="36">
+        <v>2</v>
+      </c>
       <c r="H169" s="18"/>
       <c r="I169" s="18"/>
       <c r="J169" s="18"/>
@@ -8123,7 +8129,7 @@
         <v>132</v>
       </c>
       <c r="F170" s="24"/>
-      <c r="G170" s="25"/>
+      <c r="G170" s="37"/>
       <c r="H170" s="25"/>
       <c r="I170" s="25"/>
       <c r="J170" s="25"/>
@@ -8145,10 +8151,10 @@
       <c r="E171" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F171" s="17">
-        <v>1</v>
-      </c>
-      <c r="G171" s="18"/>
+      <c r="F171" s="17"/>
+      <c r="G171" s="36">
+        <v>2</v>
+      </c>
       <c r="H171" s="18"/>
       <c r="I171" s="18"/>
       <c r="J171" s="18"/>
@@ -8170,10 +8176,10 @@
       <c r="E172" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F172" s="17">
-        <v>1</v>
-      </c>
-      <c r="G172" s="18"/>
+      <c r="F172" s="17"/>
+      <c r="G172" s="36">
+        <v>2</v>
+      </c>
       <c r="H172" s="18"/>
       <c r="I172" s="18"/>
       <c r="J172" s="18"/>
@@ -8195,10 +8201,10 @@
       <c r="E173" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F173" s="17">
-        <v>1</v>
-      </c>
-      <c r="G173" s="18"/>
+      <c r="F173" s="17"/>
+      <c r="G173" s="36">
+        <v>2</v>
+      </c>
       <c r="H173" s="18"/>
       <c r="I173" s="18"/>
       <c r="J173" s="18"/>

--- a/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
+++ b/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
@@ -3821,8 +3821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K830"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E173" workbookViewId="0">
-      <selection activeCell="K167" sqref="K167"/>
+    <sheetView tabSelected="1" topLeftCell="E176" workbookViewId="0">
+      <selection activeCell="F181" sqref="F181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8226,12 +8226,12 @@
       <c r="E174" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="F174" s="24">
-        <v>1</v>
-      </c>
+      <c r="F174" s="24"/>
       <c r="G174" s="25"/>
       <c r="H174" s="25"/>
-      <c r="I174" s="25"/>
+      <c r="I174" s="25">
+        <v>1</v>
+      </c>
       <c r="J174" s="25"/>
       <c r="K174" s="26"/>
     </row>
@@ -8251,12 +8251,12 @@
       <c r="E175" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="F175" s="24">
-        <v>1</v>
-      </c>
+      <c r="F175" s="24"/>
       <c r="G175" s="25"/>
       <c r="H175" s="25"/>
-      <c r="I175" s="25"/>
+      <c r="I175" s="25">
+        <v>1</v>
+      </c>
       <c r="J175" s="25"/>
       <c r="K175" s="26"/>
     </row>
@@ -8368,9 +8368,7 @@
       <c r="E180" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F180" s="17">
-        <v>1</v>
-      </c>
+      <c r="F180" s="17"/>
       <c r="G180" s="18"/>
       <c r="H180" s="18">
         <v>1</v>

--- a/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
+++ b/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
@@ -3821,7 +3821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K830"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E176" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E179" workbookViewId="0">
       <selection activeCell="F181" sqref="F181"/>
     </sheetView>
   </sheetViews>

--- a/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
+++ b/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="135" windowWidth="22995" windowHeight="11055"/>
@@ -2799,8 +2799,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2960,7 +2960,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3055,6 +3055,9 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -3062,7 +3065,7 @@
   </cellStyles>
   <dxfs count="26">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3074,7 +3077,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3095,7 +3098,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3109,7 +3112,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3132,7 +3135,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3146,7 +3149,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3169,7 +3172,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3183,7 +3186,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3206,7 +3209,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3220,7 +3223,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3243,7 +3246,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3257,7 +3260,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3280,7 +3283,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3293,7 +3296,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3316,7 +3319,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3329,7 +3332,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3352,7 +3355,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3365,7 +3368,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -3609,6 +3612,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3643,6 +3647,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3818,14 +3823,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K830"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E179" workbookViewId="0">
-      <selection activeCell="F181" sqref="F181"/>
+    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="F208" sqref="F208"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="2" customWidth="1"/>
@@ -3837,7 +3842,7 @@
     <col min="11" max="11" width="10.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3872,7 +3877,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>5359</v>
       </c>
@@ -3901,7 +3906,7 @@
       <c r="J2" s="18"/>
       <c r="K2" s="19"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>5359</v>
       </c>
@@ -3926,7 +3931,7 @@
       <c r="J3" s="18"/>
       <c r="K3" s="19"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>5359</v>
       </c>
@@ -3955,7 +3960,7 @@
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>5359</v>
       </c>
@@ -3980,7 +3985,7 @@
       <c r="J5" s="18"/>
       <c r="K5" s="19"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5359</v>
       </c>
@@ -4005,7 +4010,7 @@
       <c r="J6" s="18"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>5359</v>
       </c>
@@ -4030,7 +4035,7 @@
       <c r="J7" s="18"/>
       <c r="K7" s="19"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>5359</v>
       </c>
@@ -4055,7 +4060,7 @@
       <c r="J8" s="18"/>
       <c r="K8" s="19"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>5359</v>
       </c>
@@ -4080,7 +4085,7 @@
       <c r="J9" s="18"/>
       <c r="K9" s="19"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>5359</v>
       </c>
@@ -4105,7 +4110,7 @@
       <c r="J10" s="18"/>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="1:11" ht="60">
+    <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>5359</v>
       </c>
@@ -4130,7 +4135,7 @@
       <c r="J11" s="18"/>
       <c r="K11" s="19"/>
     </row>
-    <row r="12" spans="1:11" ht="30">
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>5359</v>
       </c>
@@ -4153,7 +4158,7 @@
       <c r="J12" s="18"/>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>5359</v>
       </c>
@@ -4178,7 +4183,7 @@
       <c r="J13" s="18"/>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>5359</v>
       </c>
@@ -4203,7 +4208,7 @@
       <c r="J14" s="18"/>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>5359</v>
       </c>
@@ -4228,7 +4233,7 @@
       <c r="J15" s="18"/>
       <c r="K15" s="19"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>5359</v>
       </c>
@@ -4253,7 +4258,7 @@
       <c r="J16" s="18"/>
       <c r="K16" s="19"/>
     </row>
-    <row r="17" spans="1:11" ht="45">
+    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>5359</v>
       </c>
@@ -4278,7 +4283,7 @@
       <c r="J17" s="18"/>
       <c r="K17" s="19"/>
     </row>
-    <row r="18" spans="1:11" ht="30">
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>5359</v>
       </c>
@@ -4303,7 +4308,7 @@
       <c r="J18" s="18"/>
       <c r="K18" s="19"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>5359</v>
       </c>
@@ -4328,7 +4333,7 @@
       <c r="J19" s="18"/>
       <c r="K19" s="19"/>
     </row>
-    <row r="20" spans="1:11" ht="45">
+    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>5359</v>
       </c>
@@ -4351,7 +4356,7 @@
       <c r="J20" s="18"/>
       <c r="K20" s="19"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>5359</v>
       </c>
@@ -4374,7 +4379,7 @@
       <c r="J21" s="18"/>
       <c r="K21" s="19"/>
     </row>
-    <row r="22" spans="1:11" ht="30">
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>5359</v>
       </c>
@@ -4399,7 +4404,7 @@
       <c r="J22" s="18"/>
       <c r="K22" s="19"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>5359</v>
       </c>
@@ -4424,7 +4429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="45">
+    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>5359</v>
       </c>
@@ -4451,7 +4456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="60">
+    <row r="25" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>5359</v>
       </c>
@@ -4478,7 +4483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>5359</v>
       </c>
@@ -4505,7 +4510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="30">
+    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>5359</v>
       </c>
@@ -4532,7 +4537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>5359</v>
       </c>
@@ -4555,7 +4560,7 @@
       <c r="J28" s="18"/>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>5359</v>
       </c>
@@ -4584,7 +4589,7 @@
       <c r="J29" s="18"/>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>5359</v>
       </c>
@@ -4607,7 +4612,7 @@
       <c r="J30" s="18"/>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>5359</v>
       </c>
@@ -4630,7 +4635,7 @@
       <c r="J31" s="18"/>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="1:11" ht="45">
+    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>5359</v>
       </c>
@@ -4653,7 +4658,7 @@
       <c r="J32" s="18"/>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>5359</v>
       </c>
@@ -4676,7 +4681,7 @@
       <c r="J33" s="18"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>5359</v>
       </c>
@@ -4699,7 +4704,7 @@
       <c r="J34" s="18"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>5359</v>
       </c>
@@ -4726,7 +4731,7 @@
       <c r="J35" s="18"/>
       <c r="K35" s="19"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>5359</v>
       </c>
@@ -4749,7 +4754,7 @@
       <c r="J36" s="18"/>
       <c r="K36" s="19"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>5359</v>
       </c>
@@ -4772,7 +4777,7 @@
       <c r="J37" s="18"/>
       <c r="K37" s="19"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>5359</v>
       </c>
@@ -4795,7 +4800,7 @@
       <c r="J38" s="18"/>
       <c r="K38" s="19"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>5359</v>
       </c>
@@ -4818,7 +4823,7 @@
       <c r="J39" s="18"/>
       <c r="K39" s="19"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>5359</v>
       </c>
@@ -4841,7 +4846,7 @@
       <c r="J40" s="18"/>
       <c r="K40" s="19"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>5359</v>
       </c>
@@ -4864,7 +4869,7 @@
       <c r="J41" s="18"/>
       <c r="K41" s="19"/>
     </row>
-    <row r="42" spans="1:11" ht="30">
+    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>5359</v>
       </c>
@@ -4891,7 +4896,7 @@
       <c r="J42" s="18"/>
       <c r="K42" s="19"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>5359</v>
       </c>
@@ -4914,7 +4919,7 @@
       <c r="J43" s="18"/>
       <c r="K43" s="19"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>5359</v>
       </c>
@@ -4937,7 +4942,7 @@
       <c r="J44" s="18"/>
       <c r="K44" s="19"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>5359</v>
       </c>
@@ -4960,7 +4965,7 @@
       <c r="J45" s="18"/>
       <c r="K45" s="19"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>5359</v>
       </c>
@@ -4987,7 +4992,7 @@
       <c r="J46" s="18"/>
       <c r="K46" s="19"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>5359</v>
       </c>
@@ -5010,7 +5015,7 @@
       <c r="J47" s="18"/>
       <c r="K47" s="19"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>5359</v>
       </c>
@@ -5033,7 +5038,7 @@
       <c r="J48" s="18"/>
       <c r="K48" s="19"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>5359</v>
       </c>
@@ -5058,7 +5063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>5359</v>
       </c>
@@ -5081,7 +5086,7 @@
       <c r="J50" s="18"/>
       <c r="K50" s="19"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>5359</v>
       </c>
@@ -5104,7 +5109,7 @@
       <c r="J51" s="18"/>
       <c r="K51" s="19"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>5359</v>
       </c>
@@ -5127,7 +5132,7 @@
       <c r="J52" s="18"/>
       <c r="K52" s="19"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>5359</v>
       </c>
@@ -5150,7 +5155,7 @@
       <c r="J53" s="18"/>
       <c r="K53" s="19"/>
     </row>
-    <row r="54" spans="1:11" ht="30">
+    <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="20">
         <v>5435</v>
       </c>
@@ -5175,7 +5180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="20">
         <v>5435</v>
       </c>
@@ -5200,7 +5205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="45">
+    <row r="56" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="20">
         <v>5435</v>
       </c>
@@ -5225,7 +5230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="20">
         <v>5435</v>
       </c>
@@ -5250,7 +5255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="20">
         <v>5435</v>
       </c>
@@ -5275,7 +5280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="20">
         <v>5435</v>
       </c>
@@ -5300,7 +5305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="60">
+    <row r="60" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
         <v>18189</v>
       </c>
@@ -5327,7 +5332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="60">
+    <row r="61" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="20">
         <v>18637</v>
       </c>
@@ -5354,7 +5359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="60">
+    <row r="62" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
         <v>20431</v>
       </c>
@@ -5379,7 +5384,7 @@
       <c r="J62" s="18"/>
       <c r="K62" s="19"/>
     </row>
-    <row r="63" spans="1:11" ht="30">
+    <row r="63" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
         <v>20431</v>
       </c>
@@ -5404,7 +5409,7 @@
       <c r="J63" s="18"/>
       <c r="K63" s="19"/>
     </row>
-    <row r="64" spans="1:11" ht="105">
+    <row r="64" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
         <v>20431</v>
       </c>
@@ -5429,7 +5434,7 @@
       <c r="J64" s="18"/>
       <c r="K64" s="19"/>
     </row>
-    <row r="65" spans="1:11" ht="60">
+    <row r="65" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>20431</v>
       </c>
@@ -5454,7 +5459,7 @@
       <c r="J65" s="18"/>
       <c r="K65" s="19"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="14">
         <v>20431</v>
       </c>
@@ -5479,7 +5484,7 @@
       <c r="J66" s="18"/>
       <c r="K66" s="19"/>
     </row>
-    <row r="67" spans="1:11" ht="30">
+    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>20431</v>
       </c>
@@ -5504,7 +5509,7 @@
       <c r="J67" s="18"/>
       <c r="K67" s="19"/>
     </row>
-    <row r="68" spans="1:11" ht="30">
+    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="20">
         <v>20523</v>
       </c>
@@ -5527,7 +5532,7 @@
       <c r="J68" s="25"/>
       <c r="K68" s="26"/>
     </row>
-    <row r="69" spans="1:11" ht="30">
+    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="20">
         <v>20523</v>
       </c>
@@ -5550,7 +5555,7 @@
       <c r="J69" s="25"/>
       <c r="K69" s="26"/>
     </row>
-    <row r="70" spans="1:11" ht="30">
+    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="20">
         <v>20523</v>
       </c>
@@ -5573,7 +5578,7 @@
       <c r="J70" s="25"/>
       <c r="K70" s="26"/>
     </row>
-    <row r="71" spans="1:11" ht="30">
+    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
         <v>20523</v>
       </c>
@@ -5596,7 +5601,7 @@
       <c r="J71" s="25"/>
       <c r="K71" s="26"/>
     </row>
-    <row r="72" spans="1:11" ht="30">
+    <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="14">
         <v>20541</v>
       </c>
@@ -5627,7 +5632,7 @@
       </c>
       <c r="K72" s="19"/>
     </row>
-    <row r="73" spans="1:11" ht="105">
+    <row r="73" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A73" s="14">
         <v>20541</v>
       </c>
@@ -5658,7 +5663,7 @@
       </c>
       <c r="K73" s="19"/>
     </row>
-    <row r="74" spans="1:11" ht="45">
+    <row r="74" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
         <v>20541</v>
       </c>
@@ -5689,7 +5694,7 @@
       </c>
       <c r="K74" s="19"/>
     </row>
-    <row r="75" spans="1:11" ht="60">
+    <row r="75" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="14">
         <v>20541</v>
       </c>
@@ -5720,7 +5725,7 @@
       </c>
       <c r="K75" s="19"/>
     </row>
-    <row r="76" spans="1:11" ht="30">
+    <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="14">
         <v>20541</v>
       </c>
@@ -5751,7 +5756,7 @@
       </c>
       <c r="K76" s="19"/>
     </row>
-    <row r="77" spans="1:11" ht="90">
+    <row r="77" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
         <v>20541</v>
       </c>
@@ -5782,7 +5787,7 @@
       </c>
       <c r="K77" s="19"/>
     </row>
-    <row r="78" spans="1:11" ht="75">
+    <row r="78" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A78" s="14">
         <v>20541</v>
       </c>
@@ -5813,7 +5818,7 @@
       </c>
       <c r="K78" s="19"/>
     </row>
-    <row r="79" spans="1:11" ht="30">
+    <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="14">
         <v>20541</v>
       </c>
@@ -5844,7 +5849,7 @@
       </c>
       <c r="K79" s="19"/>
     </row>
-    <row r="80" spans="1:11" ht="105">
+    <row r="80" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A80" s="14">
         <v>20541</v>
       </c>
@@ -5875,7 +5880,7 @@
       </c>
       <c r="K80" s="19"/>
     </row>
-    <row r="81" spans="1:11" ht="60">
+    <row r="81" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="20">
         <v>20579</v>
       </c>
@@ -5902,7 +5907,7 @@
       <c r="J81" s="25"/>
       <c r="K81" s="26"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="14">
         <v>20588</v>
       </c>
@@ -5925,7 +5930,7 @@
       <c r="J82" s="18"/>
       <c r="K82" s="19"/>
     </row>
-    <row r="83" spans="1:11" ht="30">
+    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="14">
         <v>20588</v>
       </c>
@@ -5948,7 +5953,7 @@
       <c r="J83" s="18"/>
       <c r="K83" s="19"/>
     </row>
-    <row r="84" spans="1:11" ht="30">
+    <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="14">
         <v>20588</v>
       </c>
@@ -5971,7 +5976,7 @@
       <c r="J84" s="18"/>
       <c r="K84" s="19"/>
     </row>
-    <row r="85" spans="1:11" ht="60">
+    <row r="85" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="20">
         <v>20593</v>
       </c>
@@ -5996,7 +6001,7 @@
       <c r="J85" s="25"/>
       <c r="K85" s="26"/>
     </row>
-    <row r="86" spans="1:11" ht="105">
+    <row r="86" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A86" s="20">
         <v>20593</v>
       </c>
@@ -6021,7 +6026,7 @@
       <c r="J86" s="25"/>
       <c r="K86" s="26"/>
     </row>
-    <row r="87" spans="1:11" ht="60">
+    <row r="87" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" s="20">
         <v>20593</v>
       </c>
@@ -6046,7 +6051,7 @@
       <c r="J87" s="25"/>
       <c r="K87" s="26"/>
     </row>
-    <row r="88" spans="1:11" ht="75">
+    <row r="88" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A88" s="14">
         <v>20616</v>
       </c>
@@ -6071,7 +6076,7 @@
       <c r="J88" s="18"/>
       <c r="K88" s="19"/>
     </row>
-    <row r="89" spans="1:11" ht="60">
+    <row r="89" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="14">
         <v>20616</v>
       </c>
@@ -6096,7 +6101,7 @@
       <c r="J89" s="18"/>
       <c r="K89" s="19"/>
     </row>
-    <row r="90" spans="1:11" ht="45">
+    <row r="90" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="14">
         <v>20616</v>
       </c>
@@ -6121,7 +6126,7 @@
       <c r="J90" s="18"/>
       <c r="K90" s="19"/>
     </row>
-    <row r="91" spans="1:11" ht="45">
+    <row r="91" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="14">
         <v>20616</v>
       </c>
@@ -6146,7 +6151,7 @@
       <c r="J91" s="18"/>
       <c r="K91" s="19"/>
     </row>
-    <row r="92" spans="1:11" ht="75">
+    <row r="92" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A92" s="14">
         <v>20616</v>
       </c>
@@ -6171,7 +6176,7 @@
       <c r="J92" s="18"/>
       <c r="K92" s="19"/>
     </row>
-    <row r="93" spans="1:11" ht="45">
+    <row r="93" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="14">
         <v>20616</v>
       </c>
@@ -6196,7 +6201,7 @@
       <c r="J93" s="18"/>
       <c r="K93" s="19"/>
     </row>
-    <row r="94" spans="1:11" ht="75">
+    <row r="94" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A94" s="14">
         <v>20616</v>
       </c>
@@ -6221,7 +6226,7 @@
       <c r="J94" s="18"/>
       <c r="K94" s="19"/>
     </row>
-    <row r="95" spans="1:11" ht="30">
+    <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="14">
         <v>20616</v>
       </c>
@@ -6246,7 +6251,7 @@
       <c r="J95" s="18"/>
       <c r="K95" s="19"/>
     </row>
-    <row r="96" spans="1:11" ht="75">
+    <row r="96" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A96" s="14">
         <v>20616</v>
       </c>
@@ -6271,7 +6276,7 @@
       <c r="J96" s="18"/>
       <c r="K96" s="19"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="14">
         <v>20616</v>
       </c>
@@ -6296,7 +6301,7 @@
       <c r="J97" s="18"/>
       <c r="K97" s="19"/>
     </row>
-    <row r="98" spans="1:11" ht="30">
+    <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="14">
         <v>20616</v>
       </c>
@@ -6321,7 +6326,7 @@
       <c r="J98" s="18"/>
       <c r="K98" s="19"/>
     </row>
-    <row r="99" spans="1:11" ht="30">
+    <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="14">
         <v>20616</v>
       </c>
@@ -6346,7 +6351,7 @@
       <c r="J99" s="18"/>
       <c r="K99" s="19"/>
     </row>
-    <row r="100" spans="1:11" ht="75">
+    <row r="100" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A100" s="20">
         <v>20639</v>
       </c>
@@ -6373,7 +6378,7 @@
       <c r="J100" s="25"/>
       <c r="K100" s="26"/>
     </row>
-    <row r="101" spans="1:11" ht="45">
+    <row r="101" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="20">
         <v>20639</v>
       </c>
@@ -6400,7 +6405,7 @@
       <c r="J101" s="25"/>
       <c r="K101" s="26"/>
     </row>
-    <row r="102" spans="1:11" ht="90">
+    <row r="102" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A102" s="20">
         <v>20639</v>
       </c>
@@ -6427,7 +6432,7 @@
       <c r="J102" s="25"/>
       <c r="K102" s="26"/>
     </row>
-    <row r="103" spans="1:11" ht="45">
+    <row r="103" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="20">
         <v>20639</v>
       </c>
@@ -6454,7 +6459,7 @@
       <c r="J103" s="25"/>
       <c r="K103" s="26"/>
     </row>
-    <row r="104" spans="1:11" ht="75">
+    <row r="104" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A104" s="20">
         <v>20639</v>
       </c>
@@ -6481,7 +6486,7 @@
       <c r="J104" s="25"/>
       <c r="K104" s="26"/>
     </row>
-    <row r="105" spans="1:11" ht="30">
+    <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="20">
         <v>20639</v>
       </c>
@@ -6508,7 +6513,7 @@
       <c r="J105" s="25"/>
       <c r="K105" s="26"/>
     </row>
-    <row r="106" spans="1:11" ht="45">
+    <row r="106" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="20">
         <v>20639</v>
       </c>
@@ -6535,7 +6540,7 @@
       <c r="J106" s="25"/>
       <c r="K106" s="26"/>
     </row>
-    <row r="107" spans="1:11" ht="60">
+    <row r="107" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" s="14">
         <v>20640</v>
       </c>
@@ -6560,7 +6565,7 @@
       <c r="J107" s="18"/>
       <c r="K107" s="19"/>
     </row>
-    <row r="108" spans="1:11" ht="60">
+    <row r="108" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A108" s="14">
         <v>20640</v>
       </c>
@@ -6585,7 +6590,7 @@
       <c r="J108" s="18"/>
       <c r="K108" s="19"/>
     </row>
-    <row r="109" spans="1:11" ht="90">
+    <row r="109" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A109" s="14">
         <v>20640</v>
       </c>
@@ -6610,7 +6615,7 @@
       <c r="J109" s="18"/>
       <c r="K109" s="19"/>
     </row>
-    <row r="110" spans="1:11" ht="30">
+    <row r="110" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="20">
         <v>20647</v>
       </c>
@@ -6633,7 +6638,7 @@
       <c r="J110" s="25"/>
       <c r="K110" s="26"/>
     </row>
-    <row r="111" spans="1:11" ht="30">
+    <row r="111" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="20">
         <v>20647</v>
       </c>
@@ -6656,7 +6661,7 @@
       <c r="J111" s="25"/>
       <c r="K111" s="26"/>
     </row>
-    <row r="112" spans="1:11" ht="45">
+    <row r="112" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="14">
         <v>20651</v>
       </c>
@@ -6681,7 +6686,7 @@
       <c r="J112" s="18"/>
       <c r="K112" s="19"/>
     </row>
-    <row r="113" spans="1:11" ht="60">
+    <row r="113" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A113" s="14">
         <v>20651</v>
       </c>
@@ -6706,7 +6711,7 @@
       <c r="J113" s="18"/>
       <c r="K113" s="19"/>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="14">
         <v>20651</v>
       </c>
@@ -6731,7 +6736,7 @@
       <c r="J114" s="18"/>
       <c r="K114" s="19"/>
     </row>
-    <row r="115" spans="1:11" ht="30">
+    <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="14">
         <v>20651</v>
       </c>
@@ -6756,7 +6761,7 @@
       <c r="J115" s="18"/>
       <c r="K115" s="19"/>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="20">
         <v>20662</v>
       </c>
@@ -6779,7 +6784,7 @@
       <c r="J116" s="25"/>
       <c r="K116" s="26"/>
     </row>
-    <row r="117" spans="1:11" ht="30">
+    <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="20">
         <v>20662</v>
       </c>
@@ -6802,7 +6807,7 @@
       <c r="J117" s="25"/>
       <c r="K117" s="26"/>
     </row>
-    <row r="118" spans="1:11" ht="30">
+    <row r="118" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="14">
         <v>20669</v>
       </c>
@@ -6825,7 +6830,7 @@
       <c r="J118" s="18"/>
       <c r="K118" s="19"/>
     </row>
-    <row r="119" spans="1:11" ht="30">
+    <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="14">
         <v>20669</v>
       </c>
@@ -6848,7 +6853,7 @@
       <c r="J119" s="18"/>
       <c r="K119" s="19"/>
     </row>
-    <row r="120" spans="1:11" ht="30">
+    <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="20">
         <v>20682</v>
       </c>
@@ -6875,7 +6880,7 @@
       <c r="J120" s="25"/>
       <c r="K120" s="26"/>
     </row>
-    <row r="121" spans="1:11" ht="30">
+    <row r="121" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="20">
         <v>20682</v>
       </c>
@@ -6902,7 +6907,7 @@
       <c r="J121" s="25"/>
       <c r="K121" s="26"/>
     </row>
-    <row r="122" spans="1:11" ht="30">
+    <row r="122" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="20">
         <v>20682</v>
       </c>
@@ -6929,7 +6934,7 @@
       <c r="J122" s="25"/>
       <c r="K122" s="26"/>
     </row>
-    <row r="123" spans="1:11" ht="60">
+    <row r="123" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A123" s="20">
         <v>20682</v>
       </c>
@@ -6956,7 +6961,7 @@
       <c r="J123" s="25"/>
       <c r="K123" s="26"/>
     </row>
-    <row r="124" spans="1:11" ht="30">
+    <row r="124" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="20">
         <v>20682</v>
       </c>
@@ -6983,7 +6988,7 @@
       <c r="J124" s="25"/>
       <c r="K124" s="26"/>
     </row>
-    <row r="125" spans="1:11" ht="90">
+    <row r="125" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A125" s="20">
         <v>20682</v>
       </c>
@@ -7010,7 +7015,7 @@
       <c r="J125" s="25"/>
       <c r="K125" s="26"/>
     </row>
-    <row r="126" spans="1:11" ht="30">
+    <row r="126" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="20">
         <v>20682</v>
       </c>
@@ -7037,7 +7042,7 @@
       <c r="J126" s="25"/>
       <c r="K126" s="26"/>
     </row>
-    <row r="127" spans="1:11" ht="45">
+    <row r="127" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="20">
         <v>20682</v>
       </c>
@@ -7064,7 +7069,7 @@
       <c r="J127" s="25"/>
       <c r="K127" s="26"/>
     </row>
-    <row r="128" spans="1:11" ht="60">
+    <row r="128" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="20">
         <v>20682</v>
       </c>
@@ -7091,7 +7096,7 @@
       <c r="J128" s="25"/>
       <c r="K128" s="26"/>
     </row>
-    <row r="129" spans="1:11" ht="30">
+    <row r="129" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="20">
         <v>20682</v>
       </c>
@@ -7118,7 +7123,7 @@
       <c r="J129" s="25"/>
       <c r="K129" s="26"/>
     </row>
-    <row r="130" spans="1:11" ht="30">
+    <row r="130" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="20">
         <v>20682</v>
       </c>
@@ -7145,7 +7150,7 @@
       <c r="J130" s="25"/>
       <c r="K130" s="26"/>
     </row>
-    <row r="131" spans="1:11" ht="30">
+    <row r="131" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="20">
         <v>20682</v>
       </c>
@@ -7172,7 +7177,7 @@
       <c r="J131" s="25"/>
       <c r="K131" s="26"/>
     </row>
-    <row r="132" spans="1:11" ht="45">
+    <row r="132" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="20">
         <v>20682</v>
       </c>
@@ -7199,7 +7204,7 @@
       <c r="J132" s="25"/>
       <c r="K132" s="26"/>
     </row>
-    <row r="133" spans="1:11" ht="45">
+    <row r="133" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" s="20">
         <v>20682</v>
       </c>
@@ -7226,7 +7231,7 @@
       <c r="J133" s="25"/>
       <c r="K133" s="26"/>
     </row>
-    <row r="134" spans="1:11" ht="90">
+    <row r="134" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A134" s="20">
         <v>20682</v>
       </c>
@@ -7253,7 +7258,7 @@
       <c r="J134" s="25"/>
       <c r="K134" s="26"/>
     </row>
-    <row r="135" spans="1:11" ht="90">
+    <row r="135" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A135" s="20">
         <v>20682</v>
       </c>
@@ -7280,7 +7285,7 @@
       <c r="J135" s="25"/>
       <c r="K135" s="26"/>
     </row>
-    <row r="136" spans="1:11" ht="60">
+    <row r="136" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A136" s="14">
         <v>20689</v>
       </c>
@@ -7305,7 +7310,7 @@
       <c r="J136" s="18"/>
       <c r="K136" s="19"/>
     </row>
-    <row r="137" spans="1:11" ht="75">
+    <row r="137" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A137" s="14">
         <v>20689</v>
       </c>
@@ -7330,7 +7335,7 @@
       <c r="J137" s="18"/>
       <c r="K137" s="19"/>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="14">
         <v>20689</v>
       </c>
@@ -7355,7 +7360,7 @@
       <c r="J138" s="18"/>
       <c r="K138" s="19"/>
     </row>
-    <row r="139" spans="1:11" ht="30">
+    <row r="139" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="20">
         <v>20762</v>
       </c>
@@ -7378,7 +7383,7 @@
       <c r="J139" s="25"/>
       <c r="K139" s="26"/>
     </row>
-    <row r="140" spans="1:11" ht="30">
+    <row r="140" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="20">
         <v>20762</v>
       </c>
@@ -7401,7 +7406,7 @@
       <c r="J140" s="25"/>
       <c r="K140" s="26"/>
     </row>
-    <row r="141" spans="1:11" ht="30">
+    <row r="141" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="20">
         <v>20762</v>
       </c>
@@ -7424,7 +7429,7 @@
       <c r="J141" s="25"/>
       <c r="K141" s="26"/>
     </row>
-    <row r="142" spans="1:11" ht="30">
+    <row r="142" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="14">
         <v>20769</v>
       </c>
@@ -7447,7 +7452,7 @@
       <c r="J142" s="18"/>
       <c r="K142" s="19"/>
     </row>
-    <row r="143" spans="1:11" ht="90">
+    <row r="143" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A143" s="14">
         <v>20769</v>
       </c>
@@ -7470,7 +7475,7 @@
       <c r="J143" s="18"/>
       <c r="K143" s="19"/>
     </row>
-    <row r="144" spans="1:11" ht="30">
+    <row r="144" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="14">
         <v>20769</v>
       </c>
@@ -7493,7 +7498,7 @@
       <c r="J144" s="18"/>
       <c r="K144" s="19"/>
     </row>
-    <row r="145" spans="1:11" ht="30">
+    <row r="145" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="14">
         <v>20769</v>
       </c>
@@ -7516,7 +7521,7 @@
       <c r="J145" s="18"/>
       <c r="K145" s="19"/>
     </row>
-    <row r="146" spans="1:11" ht="30">
+    <row r="146" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="20">
         <v>20812</v>
       </c>
@@ -7539,7 +7544,7 @@
       <c r="J146" s="25"/>
       <c r="K146" s="26"/>
     </row>
-    <row r="147" spans="1:11" ht="30">
+    <row r="147" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="20">
         <v>20812</v>
       </c>
@@ -7562,7 +7567,7 @@
       <c r="J147" s="25"/>
       <c r="K147" s="26"/>
     </row>
-    <row r="148" spans="1:11" ht="30">
+    <row r="148" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="14">
         <v>20846</v>
       </c>
@@ -7591,7 +7596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="30">
+    <row r="149" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="14">
         <v>20846</v>
       </c>
@@ -7618,7 +7623,7 @@
       <c r="J149" s="18"/>
       <c r="K149" s="19"/>
     </row>
-    <row r="150" spans="1:11" ht="90">
+    <row r="150" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A150" s="14">
         <v>20846</v>
       </c>
@@ -7645,7 +7650,7 @@
       <c r="J150" s="18"/>
       <c r="K150" s="19"/>
     </row>
-    <row r="151" spans="1:11" ht="30">
+    <row r="151" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="14">
         <v>20846</v>
       </c>
@@ -7672,7 +7677,7 @@
       <c r="J151" s="18"/>
       <c r="K151" s="19"/>
     </row>
-    <row r="152" spans="1:11" ht="30">
+    <row r="152" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="14">
         <v>20846</v>
       </c>
@@ -7699,7 +7704,7 @@
       <c r="J152" s="18"/>
       <c r="K152" s="19"/>
     </row>
-    <row r="153" spans="1:11" ht="90">
+    <row r="153" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A153" s="20">
         <v>20847</v>
       </c>
@@ -7724,7 +7729,7 @@
       <c r="J153" s="25"/>
       <c r="K153" s="26"/>
     </row>
-    <row r="154" spans="1:11" ht="75">
+    <row r="154" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A154" s="20">
         <v>20847</v>
       </c>
@@ -7749,7 +7754,7 @@
       <c r="J154" s="25"/>
       <c r="K154" s="26"/>
     </row>
-    <row r="155" spans="1:11" ht="30">
+    <row r="155" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="20">
         <v>20847</v>
       </c>
@@ -7774,7 +7779,7 @@
       <c r="J155" s="25"/>
       <c r="K155" s="26"/>
     </row>
-    <row r="156" spans="1:11" ht="30">
+    <row r="156" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="20">
         <v>20847</v>
       </c>
@@ -7799,7 +7804,7 @@
       <c r="J156" s="25"/>
       <c r="K156" s="26"/>
     </row>
-    <row r="157" spans="1:11" ht="30">
+    <row r="157" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="14">
         <v>20850</v>
       </c>
@@ -7824,7 +7829,7 @@
       <c r="J157" s="18"/>
       <c r="K157" s="19"/>
     </row>
-    <row r="158" spans="1:11" ht="30">
+    <row r="158" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="14">
         <v>20850</v>
       </c>
@@ -7849,7 +7854,7 @@
       <c r="J158" s="18"/>
       <c r="K158" s="19"/>
     </row>
-    <row r="159" spans="1:11" ht="45">
+    <row r="159" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="14">
         <v>20850</v>
       </c>
@@ -7874,7 +7879,7 @@
       <c r="J159" s="18"/>
       <c r="K159" s="19"/>
     </row>
-    <row r="160" spans="1:11" ht="60">
+    <row r="160" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" s="14">
         <v>20850</v>
       </c>
@@ -7899,7 +7904,7 @@
       <c r="J160" s="18"/>
       <c r="K160" s="19"/>
     </row>
-    <row r="161" spans="1:11" ht="30">
+    <row r="161" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="20">
         <v>20852</v>
       </c>
@@ -7922,7 +7927,7 @@
       <c r="J161" s="25"/>
       <c r="K161" s="26"/>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="20">
         <v>20852</v>
       </c>
@@ -7945,7 +7950,7 @@
       <c r="J162" s="25"/>
       <c r="K162" s="26"/>
     </row>
-    <row r="163" spans="1:11" ht="30">
+    <row r="163" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="14">
         <v>20855</v>
       </c>
@@ -7968,7 +7973,7 @@
       <c r="J163" s="18"/>
       <c r="K163" s="19"/>
     </row>
-    <row r="164" spans="1:11" ht="30">
+    <row r="164" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="14">
         <v>20855</v>
       </c>
@@ -7991,7 +7996,7 @@
       <c r="J164" s="18"/>
       <c r="K164" s="19"/>
     </row>
-    <row r="165" spans="1:11" ht="30">
+    <row r="165" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="20">
         <v>20857</v>
       </c>
@@ -8014,7 +8019,7 @@
       <c r="J165" s="25"/>
       <c r="K165" s="26"/>
     </row>
-    <row r="166" spans="1:11" ht="30">
+    <row r="166" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="20">
         <v>20857</v>
       </c>
@@ -8037,7 +8042,7 @@
       <c r="J166" s="25"/>
       <c r="K166" s="26"/>
     </row>
-    <row r="167" spans="1:11" ht="75">
+    <row r="167" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A167" s="14">
         <v>20878</v>
       </c>
@@ -8062,7 +8067,7 @@
       <c r="J167" s="18"/>
       <c r="K167" s="19"/>
     </row>
-    <row r="168" spans="1:11" ht="60">
+    <row r="168" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A168" s="14">
         <v>20878</v>
       </c>
@@ -8087,7 +8092,7 @@
       <c r="J168" s="18"/>
       <c r="K168" s="19"/>
     </row>
-    <row r="169" spans="1:11" ht="30">
+    <row r="169" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="14">
         <v>20878</v>
       </c>
@@ -8112,7 +8117,7 @@
       <c r="J169" s="18"/>
       <c r="K169" s="19"/>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="20">
         <v>20973</v>
       </c>
@@ -8135,7 +8140,7 @@
       <c r="J170" s="25"/>
       <c r="K170" s="26"/>
     </row>
-    <row r="171" spans="1:11" ht="75">
+    <row r="171" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A171" s="14">
         <v>21022</v>
       </c>
@@ -8160,7 +8165,7 @@
       <c r="J171" s="18"/>
       <c r="K171" s="19"/>
     </row>
-    <row r="172" spans="1:11" ht="30">
+    <row r="172" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="14">
         <v>21022</v>
       </c>
@@ -8185,7 +8190,7 @@
       <c r="J172" s="18"/>
       <c r="K172" s="19"/>
     </row>
-    <row r="173" spans="1:11" ht="45">
+    <row r="173" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A173" s="14">
         <v>21022</v>
       </c>
@@ -8210,7 +8215,7 @@
       <c r="J173" s="18"/>
       <c r="K173" s="19"/>
     </row>
-    <row r="174" spans="1:11" ht="105">
+    <row r="174" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A174" s="20">
         <v>21082</v>
       </c>
@@ -8235,7 +8240,7 @@
       <c r="J174" s="25"/>
       <c r="K174" s="26"/>
     </row>
-    <row r="175" spans="1:11" ht="30">
+    <row r="175" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="20">
         <v>21082</v>
       </c>
@@ -8260,7 +8265,7 @@
       <c r="J175" s="25"/>
       <c r="K175" s="26"/>
     </row>
-    <row r="176" spans="1:11" ht="30">
+    <row r="176" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="14">
         <v>21113</v>
       </c>
@@ -8283,7 +8288,7 @@
       <c r="J176" s="18"/>
       <c r="K176" s="19"/>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="14">
         <v>21113</v>
       </c>
@@ -8306,7 +8311,7 @@
       <c r="J177" s="18"/>
       <c r="K177" s="19"/>
     </row>
-    <row r="178" spans="1:11" ht="30">
+    <row r="178" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="20">
         <v>21149</v>
       </c>
@@ -8329,7 +8334,7 @@
       <c r="J178" s="25"/>
       <c r="K178" s="26"/>
     </row>
-    <row r="179" spans="1:11" ht="30">
+    <row r="179" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="20">
         <v>21149</v>
       </c>
@@ -8352,7 +8357,7 @@
       <c r="J179" s="25"/>
       <c r="K179" s="26"/>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="14">
         <v>21201</v>
       </c>
@@ -8377,7 +8382,7 @@
       <c r="J180" s="18"/>
       <c r="K180" s="19"/>
     </row>
-    <row r="181" spans="1:11" ht="75">
+    <row r="181" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A181" s="20">
         <v>21202</v>
       </c>
@@ -8393,7 +8398,7 @@
       <c r="E181" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="F181" s="24">
+      <c r="F181" s="38">
         <v>1</v>
       </c>
       <c r="G181" s="25"/>
@@ -8406,7 +8411,7 @@
       <c r="J181" s="25"/>
       <c r="K181" s="26"/>
     </row>
-    <row r="182" spans="1:11" ht="60">
+    <row r="182" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A182" s="20">
         <v>21202</v>
       </c>
@@ -8422,7 +8427,7 @@
       <c r="E182" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="F182" s="24">
+      <c r="F182" s="38">
         <v>1</v>
       </c>
       <c r="G182" s="25"/>
@@ -8435,7 +8440,7 @@
       <c r="J182" s="25"/>
       <c r="K182" s="26"/>
     </row>
-    <row r="183" spans="1:11" ht="45">
+    <row r="183" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="20">
         <v>21202</v>
       </c>
@@ -8451,7 +8456,7 @@
       <c r="E183" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="F183" s="24">
+      <c r="F183" s="38">
         <v>1</v>
       </c>
       <c r="G183" s="25"/>
@@ -8464,7 +8469,7 @@
       <c r="J183" s="25"/>
       <c r="K183" s="26"/>
     </row>
-    <row r="184" spans="1:11" ht="30">
+    <row r="184" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="20">
         <v>21202</v>
       </c>
@@ -8480,7 +8485,7 @@
       <c r="E184" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="F184" s="24">
+      <c r="F184" s="38">
         <v>1</v>
       </c>
       <c r="G184" s="25"/>
@@ -8493,7 +8498,7 @@
       <c r="J184" s="25"/>
       <c r="K184" s="26"/>
     </row>
-    <row r="185" spans="1:11" ht="45">
+    <row r="185" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="20">
         <v>21202</v>
       </c>
@@ -8509,7 +8514,7 @@
       <c r="E185" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="F185" s="24">
+      <c r="F185" s="38">
         <v>1</v>
       </c>
       <c r="G185" s="25"/>
@@ -8522,7 +8527,7 @@
       <c r="J185" s="25"/>
       <c r="K185" s="26"/>
     </row>
-    <row r="186" spans="1:11" ht="45">
+    <row r="186" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="20">
         <v>21202</v>
       </c>
@@ -8538,7 +8543,7 @@
       <c r="E186" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="F186" s="24">
+      <c r="F186" s="38">
         <v>1</v>
       </c>
       <c r="G186" s="25"/>
@@ -8551,7 +8556,7 @@
       <c r="J186" s="25"/>
       <c r="K186" s="26"/>
     </row>
-    <row r="187" spans="1:11" ht="45">
+    <row r="187" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="20">
         <v>21202</v>
       </c>
@@ -8567,7 +8572,7 @@
       <c r="E187" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="F187" s="24">
+      <c r="F187" s="38">
         <v>1</v>
       </c>
       <c r="G187" s="25"/>
@@ -8580,7 +8585,7 @@
       <c r="J187" s="25"/>
       <c r="K187" s="26"/>
     </row>
-    <row r="188" spans="1:11" ht="90">
+    <row r="188" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A188" s="20">
         <v>21202</v>
       </c>
@@ -8596,7 +8601,7 @@
       <c r="E188" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="F188" s="24">
+      <c r="F188" s="38">
         <v>1</v>
       </c>
       <c r="G188" s="25"/>
@@ -8609,7 +8614,7 @@
       <c r="J188" s="25"/>
       <c r="K188" s="26"/>
     </row>
-    <row r="189" spans="1:11" ht="105">
+    <row r="189" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A189" s="20">
         <v>21202</v>
       </c>
@@ -8625,7 +8630,7 @@
       <c r="E189" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="F189" s="24">
+      <c r="F189" s="38">
         <v>1</v>
       </c>
       <c r="G189" s="25"/>
@@ -8638,7 +8643,7 @@
       <c r="J189" s="25"/>
       <c r="K189" s="26"/>
     </row>
-    <row r="190" spans="1:11" ht="120">
+    <row r="190" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A190" s="20">
         <v>21202</v>
       </c>
@@ -8654,7 +8659,7 @@
       <c r="E190" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="F190" s="24">
+      <c r="F190" s="38">
         <v>1</v>
       </c>
       <c r="G190" s="25"/>
@@ -8667,7 +8672,7 @@
       <c r="J190" s="25"/>
       <c r="K190" s="26"/>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="20">
         <v>21202</v>
       </c>
@@ -8683,7 +8688,7 @@
       <c r="E191" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="F191" s="24">
+      <c r="F191" s="38">
         <v>1</v>
       </c>
       <c r="G191" s="25"/>
@@ -8696,7 +8701,7 @@
       <c r="J191" s="25"/>
       <c r="K191" s="26"/>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="20">
         <v>21202</v>
       </c>
@@ -8712,7 +8717,7 @@
       <c r="E192" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="F192" s="24">
+      <c r="F192" s="38">
         <v>1</v>
       </c>
       <c r="G192" s="25"/>
@@ -8725,7 +8730,7 @@
       <c r="J192" s="25"/>
       <c r="K192" s="26"/>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="20">
         <v>21202</v>
       </c>
@@ -8741,7 +8746,7 @@
       <c r="E193" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="F193" s="24">
+      <c r="F193" s="38">
         <v>1</v>
       </c>
       <c r="G193" s="25"/>
@@ -8754,7 +8759,7 @@
       <c r="J193" s="25"/>
       <c r="K193" s="26"/>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="20">
         <v>21202</v>
       </c>
@@ -8770,7 +8775,7 @@
       <c r="E194" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="F194" s="24">
+      <c r="F194" s="38">
         <v>1</v>
       </c>
       <c r="G194" s="25"/>
@@ -8783,7 +8788,7 @@
       <c r="J194" s="25"/>
       <c r="K194" s="26"/>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="20">
         <v>21202</v>
       </c>
@@ -8799,7 +8804,7 @@
       <c r="E195" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="F195" s="24">
+      <c r="F195" s="38">
         <v>1</v>
       </c>
       <c r="G195" s="25"/>
@@ -8812,7 +8817,7 @@
       <c r="J195" s="25"/>
       <c r="K195" s="26"/>
     </row>
-    <row r="196" spans="1:11" ht="30">
+    <row r="196" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="14">
         <v>21219</v>
       </c>
@@ -8828,7 +8833,7 @@
       <c r="E196" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F196" s="17">
+      <c r="F196" s="35">
         <v>1</v>
       </c>
       <c r="G196" s="18"/>
@@ -8839,7 +8844,7 @@
       <c r="J196" s="18"/>
       <c r="K196" s="19"/>
     </row>
-    <row r="197" spans="1:11" ht="60">
+    <row r="197" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A197" s="14">
         <v>21219</v>
       </c>
@@ -8855,7 +8860,7 @@
       <c r="E197" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="F197" s="17">
+      <c r="F197" s="35">
         <v>1</v>
       </c>
       <c r="G197" s="18"/>
@@ -8866,7 +8871,7 @@
       <c r="J197" s="18"/>
       <c r="K197" s="19"/>
     </row>
-    <row r="198" spans="1:11" ht="75">
+    <row r="198" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A198" s="14">
         <v>21219</v>
       </c>
@@ -8882,7 +8887,7 @@
       <c r="E198" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="F198" s="17">
+      <c r="F198" s="35">
         <v>1</v>
       </c>
       <c r="G198" s="18"/>
@@ -8893,7 +8898,7 @@
       <c r="J198" s="18"/>
       <c r="K198" s="19"/>
     </row>
-    <row r="199" spans="1:11" ht="45">
+    <row r="199" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" s="14">
         <v>21219</v>
       </c>
@@ -8909,7 +8914,7 @@
       <c r="E199" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F199" s="17">
+      <c r="F199" s="35">
         <v>1</v>
       </c>
       <c r="G199" s="18"/>
@@ -8920,7 +8925,7 @@
       <c r="J199" s="18"/>
       <c r="K199" s="19"/>
     </row>
-    <row r="200" spans="1:11" ht="45">
+    <row r="200" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A200" s="14">
         <v>21219</v>
       </c>
@@ -8936,7 +8941,7 @@
       <c r="E200" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="F200" s="17">
+      <c r="F200" s="35">
         <v>1</v>
       </c>
       <c r="G200" s="18"/>
@@ -8947,7 +8952,7 @@
       <c r="J200" s="18"/>
       <c r="K200" s="19"/>
     </row>
-    <row r="201" spans="1:11" ht="105">
+    <row r="201" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A201" s="14">
         <v>21219</v>
       </c>
@@ -8963,7 +8968,7 @@
       <c r="E201" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="F201" s="17">
+      <c r="F201" s="35">
         <v>1</v>
       </c>
       <c r="G201" s="18"/>
@@ -8974,7 +8979,7 @@
       <c r="J201" s="18"/>
       <c r="K201" s="19"/>
     </row>
-    <row r="202" spans="1:11" ht="75">
+    <row r="202" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A202" s="14">
         <v>21219</v>
       </c>
@@ -8990,7 +8995,7 @@
       <c r="E202" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="F202" s="17">
+      <c r="F202" s="35">
         <v>1</v>
       </c>
       <c r="G202" s="18"/>
@@ -9001,7 +9006,7 @@
       <c r="J202" s="18"/>
       <c r="K202" s="19"/>
     </row>
-    <row r="203" spans="1:11" ht="75">
+    <row r="203" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A203" s="20">
         <v>21230</v>
       </c>
@@ -9026,7 +9031,7 @@
       <c r="J203" s="25"/>
       <c r="K203" s="26"/>
     </row>
-    <row r="204" spans="1:11" ht="30">
+    <row r="204" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="14">
         <v>21233</v>
       </c>
@@ -9049,7 +9054,7 @@
       <c r="J204" s="18"/>
       <c r="K204" s="19"/>
     </row>
-    <row r="205" spans="1:11" ht="45">
+    <row r="205" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A205" s="20">
         <v>21244</v>
       </c>
@@ -9072,7 +9077,7 @@
       <c r="J205" s="25"/>
       <c r="K205" s="26"/>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="14">
         <v>21328</v>
       </c>
@@ -9095,7 +9100,7 @@
       <c r="J206" s="18"/>
       <c r="K206" s="19"/>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="14">
         <v>21328</v>
       </c>
@@ -9118,7 +9123,7 @@
       <c r="J207" s="18"/>
       <c r="K207" s="19"/>
     </row>
-    <row r="208" spans="1:11" ht="105">
+    <row r="208" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A208" s="20">
         <v>21433</v>
       </c>
@@ -9143,7 +9148,7 @@
       <c r="J208" s="25"/>
       <c r="K208" s="26"/>
     </row>
-    <row r="209" spans="1:11" ht="45">
+    <row r="209" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A209" s="20">
         <v>21433</v>
       </c>
@@ -9168,7 +9173,7 @@
       <c r="J209" s="25"/>
       <c r="K209" s="26"/>
     </row>
-    <row r="210" spans="1:11" ht="60">
+    <row r="210" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A210" s="20">
         <v>21433</v>
       </c>
@@ -9193,7 +9198,7 @@
       <c r="J210" s="25"/>
       <c r="K210" s="26"/>
     </row>
-    <row r="211" spans="1:11" ht="60">
+    <row r="211" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A211" s="20">
         <v>21433</v>
       </c>
@@ -9218,7 +9223,7 @@
       <c r="J211" s="25"/>
       <c r="K211" s="26"/>
     </row>
-    <row r="212" spans="1:11" ht="30">
+    <row r="212" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="20">
         <v>21433</v>
       </c>
@@ -9243,7 +9248,7 @@
       <c r="J212" s="25"/>
       <c r="K212" s="26"/>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="20">
         <v>21433</v>
       </c>
@@ -9268,7 +9273,7 @@
       <c r="J213" s="25"/>
       <c r="K213" s="26"/>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="20">
         <v>21433</v>
       </c>
@@ -9293,7 +9298,7 @@
       <c r="J214" s="25"/>
       <c r="K214" s="26"/>
     </row>
-    <row r="215" spans="1:11" ht="60">
+    <row r="215" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A215" s="14">
         <v>21439</v>
       </c>
@@ -9318,7 +9323,7 @@
       <c r="J215" s="18"/>
       <c r="K215" s="19"/>
     </row>
-    <row r="216" spans="1:11" ht="30">
+    <row r="216" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="20">
         <v>21442</v>
       </c>
@@ -9341,7 +9346,7 @@
       <c r="J216" s="25"/>
       <c r="K216" s="26"/>
     </row>
-    <row r="217" spans="1:11" ht="30">
+    <row r="217" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="20">
         <v>21442</v>
       </c>
@@ -9364,7 +9369,7 @@
       <c r="J217" s="25"/>
       <c r="K217" s="26"/>
     </row>
-    <row r="218" spans="1:11" ht="30">
+    <row r="218" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="14">
         <v>21443</v>
       </c>
@@ -9387,7 +9392,7 @@
       <c r="J218" s="18"/>
       <c r="K218" s="19"/>
     </row>
-    <row r="219" spans="1:11" ht="30">
+    <row r="219" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="14">
         <v>21443</v>
       </c>
@@ -9410,7 +9415,7 @@
       <c r="J219" s="18"/>
       <c r="K219" s="19"/>
     </row>
-    <row r="220" spans="1:11" ht="30">
+    <row r="220" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="20">
         <v>21444</v>
       </c>
@@ -9433,7 +9438,7 @@
       <c r="J220" s="25"/>
       <c r="K220" s="26"/>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="20">
         <v>21444</v>
       </c>
@@ -9456,7 +9461,7 @@
       <c r="J221" s="25"/>
       <c r="K221" s="26"/>
     </row>
-    <row r="222" spans="1:11" ht="30">
+    <row r="222" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="14">
         <v>21452</v>
       </c>
@@ -9479,7 +9484,7 @@
       <c r="J222" s="18"/>
       <c r="K222" s="19"/>
     </row>
-    <row r="223" spans="1:11" ht="30">
+    <row r="223" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="14">
         <v>21452</v>
       </c>
@@ -9502,7 +9507,7 @@
       <c r="J223" s="18"/>
       <c r="K223" s="19"/>
     </row>
-    <row r="224" spans="1:11" ht="30">
+    <row r="224" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="20">
         <v>21527</v>
       </c>
@@ -9525,7 +9530,7 @@
       <c r="J224" s="25"/>
       <c r="K224" s="26"/>
     </row>
-    <row r="225" spans="1:11" ht="75">
+    <row r="225" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A225" s="20">
         <v>21527</v>
       </c>
@@ -9548,7 +9553,7 @@
       <c r="J225" s="25"/>
       <c r="K225" s="26"/>
     </row>
-    <row r="226" spans="1:11" ht="30">
+    <row r="226" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="20">
         <v>21527</v>
       </c>
@@ -9571,7 +9576,7 @@
       <c r="J226" s="25"/>
       <c r="K226" s="26"/>
     </row>
-    <row r="227" spans="1:11" ht="30">
+    <row r="227" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="20">
         <v>21527</v>
       </c>
@@ -9594,7 +9599,7 @@
       <c r="J227" s="25"/>
       <c r="K227" s="26"/>
     </row>
-    <row r="228" spans="1:11" ht="30">
+    <row r="228" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="20">
         <v>21527</v>
       </c>
@@ -9617,7 +9622,7 @@
       <c r="J228" s="25"/>
       <c r="K228" s="26"/>
     </row>
-    <row r="229" spans="1:11" ht="60">
+    <row r="229" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A229" s="14">
         <v>21536</v>
       </c>
@@ -9644,7 +9649,7 @@
       </c>
       <c r="K229" s="19"/>
     </row>
-    <row r="230" spans="1:11" ht="60">
+    <row r="230" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A230" s="14">
         <v>21536</v>
       </c>
@@ -9673,7 +9678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="14">
         <v>21536</v>
       </c>
@@ -9700,7 +9705,7 @@
       </c>
       <c r="K231" s="19"/>
     </row>
-    <row r="232" spans="1:11" ht="30">
+    <row r="232" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="14">
         <v>21536</v>
       </c>
@@ -9727,7 +9732,7 @@
       </c>
       <c r="K232" s="19"/>
     </row>
-    <row r="233" spans="1:11" ht="45">
+    <row r="233" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A233" s="14">
         <v>21536</v>
       </c>
@@ -9754,7 +9759,7 @@
       </c>
       <c r="K233" s="19"/>
     </row>
-    <row r="234" spans="1:11" ht="60">
+    <row r="234" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A234" s="14">
         <v>21536</v>
       </c>
@@ -9781,7 +9786,7 @@
       </c>
       <c r="K234" s="19"/>
     </row>
-    <row r="235" spans="1:11" ht="45">
+    <row r="235" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A235" s="14">
         <v>21536</v>
       </c>
@@ -9808,7 +9813,7 @@
       </c>
       <c r="K235" s="19"/>
     </row>
-    <row r="236" spans="1:11" ht="45">
+    <row r="236" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A236" s="14">
         <v>21536</v>
       </c>
@@ -9835,7 +9840,7 @@
       </c>
       <c r="K236" s="19"/>
     </row>
-    <row r="237" spans="1:11" ht="90">
+    <row r="237" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A237" s="14">
         <v>21536</v>
       </c>
@@ -9862,7 +9867,7 @@
       </c>
       <c r="K237" s="19"/>
     </row>
-    <row r="238" spans="1:11" ht="120">
+    <row r="238" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A238" s="14">
         <v>21536</v>
       </c>
@@ -9889,7 +9894,7 @@
       </c>
       <c r="K238" s="19"/>
     </row>
-    <row r="239" spans="1:11" ht="75">
+    <row r="239" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A239" s="14">
         <v>21536</v>
       </c>
@@ -9916,7 +9921,7 @@
       </c>
       <c r="K239" s="19"/>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="14">
         <v>21536</v>
       </c>
@@ -9943,7 +9948,7 @@
       </c>
       <c r="K240" s="19"/>
     </row>
-    <row r="241" spans="1:11" ht="30">
+    <row r="241" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="14">
         <v>21536</v>
       </c>
@@ -9970,7 +9975,7 @@
       </c>
       <c r="K241" s="19"/>
     </row>
-    <row r="242" spans="1:11" ht="30">
+    <row r="242" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="14">
         <v>21536</v>
       </c>
@@ -9997,7 +10002,7 @@
       </c>
       <c r="K242" s="19"/>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="14">
         <v>21536</v>
       </c>
@@ -10024,7 +10029,7 @@
       </c>
       <c r="K243" s="19"/>
     </row>
-    <row r="244" spans="1:11" ht="90">
+    <row r="244" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A244" s="14">
         <v>21536</v>
       </c>
@@ -10051,7 +10056,7 @@
       </c>
       <c r="K244" s="19"/>
     </row>
-    <row r="245" spans="1:11" ht="60">
+    <row r="245" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A245" s="20">
         <v>21537</v>
       </c>
@@ -10078,7 +10083,7 @@
       <c r="J245" s="25"/>
       <c r="K245" s="26"/>
     </row>
-    <row r="246" spans="1:11" ht="75">
+    <row r="246" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A246" s="20">
         <v>21537</v>
       </c>
@@ -10105,7 +10110,7 @@
       <c r="J246" s="25"/>
       <c r="K246" s="26"/>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="20">
         <v>21537</v>
       </c>
@@ -10132,7 +10137,7 @@
       <c r="J247" s="25"/>
       <c r="K247" s="26"/>
     </row>
-    <row r="248" spans="1:11" ht="45">
+    <row r="248" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A248" s="20">
         <v>21537</v>
       </c>
@@ -10159,7 +10164,7 @@
       <c r="J248" s="25"/>
       <c r="K248" s="26"/>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="20">
         <v>21537</v>
       </c>
@@ -10186,7 +10191,7 @@
       <c r="J249" s="25"/>
       <c r="K249" s="26"/>
     </row>
-    <row r="250" spans="1:11" ht="120">
+    <row r="250" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A250" s="14">
         <v>21566</v>
       </c>
@@ -10211,7 +10216,7 @@
       <c r="J250" s="18"/>
       <c r="K250" s="19"/>
     </row>
-    <row r="251" spans="1:11" ht="60">
+    <row r="251" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A251" s="20">
         <v>21608</v>
       </c>
@@ -10236,7 +10241,7 @@
       <c r="J251" s="25"/>
       <c r="K251" s="26"/>
     </row>
-    <row r="252" spans="1:11" ht="105">
+    <row r="252" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A252" s="20">
         <v>21608</v>
       </c>
@@ -10261,7 +10266,7 @@
       <c r="J252" s="25"/>
       <c r="K252" s="26"/>
     </row>
-    <row r="253" spans="1:11" ht="90">
+    <row r="253" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A253" s="14">
         <v>21625</v>
       </c>
@@ -10288,7 +10293,7 @@
       </c>
       <c r="K253" s="19"/>
     </row>
-    <row r="254" spans="1:11" ht="30">
+    <row r="254" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="20">
         <v>21626</v>
       </c>
@@ -10311,7 +10316,7 @@
       <c r="J254" s="25"/>
       <c r="K254" s="26"/>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="20">
         <v>21626</v>
       </c>
@@ -10334,7 +10339,7 @@
       <c r="J255" s="25"/>
       <c r="K255" s="26"/>
     </row>
-    <row r="256" spans="1:11" ht="90">
+    <row r="256" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A256" s="14">
         <v>21638</v>
       </c>
@@ -10361,7 +10366,7 @@
       </c>
       <c r="K256" s="19"/>
     </row>
-    <row r="257" spans="1:11" ht="75">
+    <row r="257" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A257" s="14">
         <v>21638</v>
       </c>
@@ -10388,7 +10393,7 @@
       </c>
       <c r="K257" s="19"/>
     </row>
-    <row r="258" spans="1:11" ht="90">
+    <row r="258" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A258" s="14">
         <v>21638</v>
       </c>
@@ -10415,7 +10420,7 @@
       </c>
       <c r="K258" s="19"/>
     </row>
-    <row r="259" spans="1:11" ht="60">
+    <row r="259" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A259" s="14">
         <v>21638</v>
       </c>
@@ -10442,7 +10447,7 @@
       </c>
       <c r="K259" s="19"/>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="14">
         <v>21638</v>
       </c>
@@ -10469,7 +10474,7 @@
       </c>
       <c r="K260" s="19"/>
     </row>
-    <row r="261" spans="1:11" ht="30">
+    <row r="261" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="14">
         <v>21638</v>
       </c>
@@ -10496,7 +10501,7 @@
       </c>
       <c r="K261" s="19"/>
     </row>
-    <row r="262" spans="1:11" ht="30">
+    <row r="262" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="14">
         <v>21638</v>
       </c>
@@ -10523,7 +10528,7 @@
       </c>
       <c r="K262" s="19"/>
     </row>
-    <row r="263" spans="1:11" ht="60">
+    <row r="263" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A263" s="14">
         <v>21638</v>
       </c>
@@ -10550,7 +10555,7 @@
       </c>
       <c r="K263" s="19"/>
     </row>
-    <row r="264" spans="1:11" ht="30">
+    <row r="264" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="14">
         <v>21638</v>
       </c>
@@ -10577,7 +10582,7 @@
       </c>
       <c r="K264" s="19"/>
     </row>
-    <row r="265" spans="1:11" ht="60">
+    <row r="265" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A265" s="14">
         <v>21638</v>
       </c>
@@ -10604,7 +10609,7 @@
       </c>
       <c r="K265" s="19"/>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="14">
         <v>21638</v>
       </c>
@@ -10631,7 +10636,7 @@
       </c>
       <c r="K266" s="19"/>
     </row>
-    <row r="267" spans="1:11" ht="45">
+    <row r="267" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A267" s="14">
         <v>21638</v>
       </c>
@@ -10658,7 +10663,7 @@
       </c>
       <c r="K267" s="19"/>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="14">
         <v>21638</v>
       </c>
@@ -10685,7 +10690,7 @@
       </c>
       <c r="K268" s="19"/>
     </row>
-    <row r="269" spans="1:11" ht="45">
+    <row r="269" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A269" s="14">
         <v>21638</v>
       </c>
@@ -10712,7 +10717,7 @@
       </c>
       <c r="K269" s="19"/>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="20">
         <v>21777</v>
       </c>
@@ -10735,7 +10740,7 @@
       <c r="J270" s="25"/>
       <c r="K270" s="26"/>
     </row>
-    <row r="271" spans="1:11" ht="30">
+    <row r="271" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="20">
         <v>21777</v>
       </c>
@@ -10758,7 +10763,7 @@
       <c r="J271" s="25"/>
       <c r="K271" s="26"/>
     </row>
-    <row r="272" spans="1:11" ht="45">
+    <row r="272" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A272" s="14">
         <v>21921</v>
       </c>
@@ -10781,7 +10786,7 @@
       <c r="J272" s="18"/>
       <c r="K272" s="19"/>
     </row>
-    <row r="273" spans="1:11" ht="30">
+    <row r="273" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="14">
         <v>21921</v>
       </c>
@@ -10804,7 +10809,7 @@
       <c r="J273" s="18"/>
       <c r="K273" s="19"/>
     </row>
-    <row r="274" spans="1:11" ht="30">
+    <row r="274" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A274" s="14">
         <v>21921</v>
       </c>
@@ -10827,7 +10832,7 @@
       <c r="J274" s="18"/>
       <c r="K274" s="19"/>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="14">
         <v>21921</v>
       </c>
@@ -10850,7 +10855,7 @@
       <c r="J275" s="18"/>
       <c r="K275" s="19"/>
     </row>
-    <row r="276" spans="1:11" ht="45">
+    <row r="276" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A276" s="14">
         <v>21921</v>
       </c>
@@ -10873,7 +10878,7 @@
       <c r="J276" s="18"/>
       <c r="K276" s="19"/>
     </row>
-    <row r="277" spans="1:11" ht="30">
+    <row r="277" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="20">
         <v>21922</v>
       </c>
@@ -10896,7 +10901,7 @@
       <c r="J277" s="25"/>
       <c r="K277" s="26"/>
     </row>
-    <row r="278" spans="1:11" ht="30">
+    <row r="278" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="20">
         <v>21922</v>
       </c>
@@ -10919,7 +10924,7 @@
       <c r="J278" s="25"/>
       <c r="K278" s="26"/>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="20">
         <v>21922</v>
       </c>
@@ -10942,7 +10947,7 @@
       <c r="J279" s="25"/>
       <c r="K279" s="26"/>
     </row>
-    <row r="280" spans="1:11" ht="30">
+    <row r="280" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A280" s="20">
         <v>21922</v>
       </c>
@@ -10965,7 +10970,7 @@
       <c r="J280" s="25"/>
       <c r="K280" s="26"/>
     </row>
-    <row r="281" spans="1:11" ht="30">
+    <row r="281" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="14">
         <v>21925</v>
       </c>
@@ -10988,7 +10993,7 @@
       <c r="J281" s="18"/>
       <c r="K281" s="19"/>
     </row>
-    <row r="282" spans="1:11" ht="30">
+    <row r="282" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="14">
         <v>21925</v>
       </c>
@@ -11011,7 +11016,7 @@
       <c r="J282" s="18"/>
       <c r="K282" s="19"/>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="14">
         <v>21925</v>
       </c>
@@ -11034,7 +11039,7 @@
       <c r="J283" s="18"/>
       <c r="K283" s="19"/>
     </row>
-    <row r="284" spans="1:11" ht="30">
+    <row r="284" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" s="14">
         <v>21925</v>
       </c>
@@ -11057,7 +11062,7 @@
       <c r="J284" s="18"/>
       <c r="K284" s="19"/>
     </row>
-    <row r="285" spans="1:11" ht="30">
+    <row r="285" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A285" s="20">
         <v>21944</v>
       </c>
@@ -11082,7 +11087,7 @@
       <c r="J285" s="25"/>
       <c r="K285" s="26"/>
     </row>
-    <row r="286" spans="1:11" ht="30">
+    <row r="286" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A286" s="20">
         <v>21944</v>
       </c>
@@ -11107,7 +11112,7 @@
       <c r="J286" s="25"/>
       <c r="K286" s="26"/>
     </row>
-    <row r="287" spans="1:11" ht="30">
+    <row r="287" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A287" s="14">
         <v>21994</v>
       </c>
@@ -11132,7 +11137,7 @@
       <c r="J287" s="18"/>
       <c r="K287" s="19"/>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="14">
         <v>21994</v>
       </c>
@@ -11157,7 +11162,7 @@
       <c r="J288" s="18"/>
       <c r="K288" s="19"/>
     </row>
-    <row r="289" spans="1:11" ht="45">
+    <row r="289" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A289" s="14">
         <v>21994</v>
       </c>
@@ -11182,7 +11187,7 @@
       <c r="J289" s="18"/>
       <c r="K289" s="19"/>
     </row>
-    <row r="290" spans="1:11" ht="90">
+    <row r="290" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A290" s="14">
         <v>21994</v>
       </c>
@@ -11207,7 +11212,7 @@
       <c r="J290" s="18"/>
       <c r="K290" s="19"/>
     </row>
-    <row r="291" spans="1:11" ht="45">
+    <row r="291" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A291" s="14">
         <v>21994</v>
       </c>
@@ -11232,7 +11237,7 @@
       <c r="J291" s="18"/>
       <c r="K291" s="19"/>
     </row>
-    <row r="292" spans="1:11" ht="30">
+    <row r="292" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A292" s="20">
         <v>21995</v>
       </c>
@@ -11257,7 +11262,7 @@
       <c r="J292" s="25"/>
       <c r="K292" s="26"/>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="20">
         <v>21995</v>
       </c>
@@ -11282,7 +11287,7 @@
       <c r="J293" s="25"/>
       <c r="K293" s="26"/>
     </row>
-    <row r="294" spans="1:11" ht="30">
+    <row r="294" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A294" s="20">
         <v>21995</v>
       </c>
@@ -11307,7 +11312,7 @@
       <c r="J294" s="25"/>
       <c r="K294" s="26"/>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="20">
         <v>21995</v>
       </c>
@@ -11332,7 +11337,7 @@
       <c r="J295" s="25"/>
       <c r="K295" s="26"/>
     </row>
-    <row r="296" spans="1:11" ht="60">
+    <row r="296" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A296" s="14">
         <v>22062</v>
       </c>
@@ -11357,7 +11362,7 @@
       <c r="J296" s="18"/>
       <c r="K296" s="19"/>
     </row>
-    <row r="297" spans="1:11" ht="60">
+    <row r="297" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A297" s="14">
         <v>22062</v>
       </c>
@@ -11382,7 +11387,7 @@
       <c r="J297" s="18"/>
       <c r="K297" s="19"/>
     </row>
-    <row r="298" spans="1:11" ht="45">
+    <row r="298" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A298" s="20">
         <v>22063</v>
       </c>
@@ -11407,7 +11412,7 @@
       <c r="J298" s="25"/>
       <c r="K298" s="26"/>
     </row>
-    <row r="299" spans="1:11" ht="90">
+    <row r="299" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A299" s="20">
         <v>22063</v>
       </c>
@@ -11432,7 +11437,7 @@
       <c r="J299" s="25"/>
       <c r="K299" s="26"/>
     </row>
-    <row r="300" spans="1:11" ht="45">
+    <row r="300" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A300" s="20">
         <v>22063</v>
       </c>
@@ -11457,7 +11462,7 @@
       <c r="J300" s="25"/>
       <c r="K300" s="26"/>
     </row>
-    <row r="301" spans="1:11" ht="60">
+    <row r="301" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A301" s="20">
         <v>22063</v>
       </c>
@@ -11482,7 +11487,7 @@
       <c r="J301" s="25"/>
       <c r="K301" s="26"/>
     </row>
-    <row r="302" spans="1:11" ht="75">
+    <row r="302" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A302" s="20">
         <v>22063</v>
       </c>
@@ -11505,7 +11510,7 @@
       <c r="J302" s="25"/>
       <c r="K302" s="26"/>
     </row>
-    <row r="303" spans="1:11" ht="60">
+    <row r="303" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A303" s="20">
         <v>22063</v>
       </c>
@@ -11530,7 +11535,7 @@
       <c r="J303" s="25"/>
       <c r="K303" s="26"/>
     </row>
-    <row r="304" spans="1:11" ht="60">
+    <row r="304" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A304" s="14">
         <v>22097</v>
       </c>
@@ -11555,7 +11560,7 @@
       <c r="J304" s="18"/>
       <c r="K304" s="19"/>
     </row>
-    <row r="305" spans="1:11" ht="45">
+    <row r="305" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A305" s="14">
         <v>22097</v>
       </c>
@@ -11580,7 +11585,7 @@
       <c r="J305" s="18"/>
       <c r="K305" s="19"/>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="14">
         <v>22097</v>
       </c>
@@ -11605,7 +11610,7 @@
       <c r="J306" s="18"/>
       <c r="K306" s="19"/>
     </row>
-    <row r="307" spans="1:11" ht="90">
+    <row r="307" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A307" s="14">
         <v>22097</v>
       </c>
@@ -11630,7 +11635,7 @@
       <c r="J307" s="18"/>
       <c r="K307" s="19"/>
     </row>
-    <row r="308" spans="1:11" ht="90">
+    <row r="308" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A308" s="20">
         <v>22175</v>
       </c>
@@ -11655,7 +11660,7 @@
       <c r="J308" s="25"/>
       <c r="K308" s="26"/>
     </row>
-    <row r="309" spans="1:11" ht="75">
+    <row r="309" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A309" s="14">
         <v>22195</v>
       </c>
@@ -11680,7 +11685,7 @@
       <c r="J309" s="18"/>
       <c r="K309" s="19"/>
     </row>
-    <row r="310" spans="1:11" ht="45">
+    <row r="310" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A310" s="14">
         <v>22195</v>
       </c>
@@ -11705,7 +11710,7 @@
       <c r="J310" s="18"/>
       <c r="K310" s="19"/>
     </row>
-    <row r="311" spans="1:11" ht="60">
+    <row r="311" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A311" s="20">
         <v>22196</v>
       </c>
@@ -11730,7 +11735,7 @@
       <c r="J311" s="25"/>
       <c r="K311" s="26"/>
     </row>
-    <row r="312" spans="1:11" ht="30">
+    <row r="312" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" s="20">
         <v>22196</v>
       </c>
@@ -11755,7 +11760,7 @@
       <c r="J312" s="25"/>
       <c r="K312" s="26"/>
     </row>
-    <row r="313" spans="1:11" ht="120">
+    <row r="313" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A313" s="14">
         <v>22229</v>
       </c>
@@ -11780,7 +11785,7 @@
       <c r="J313" s="18"/>
       <c r="K313" s="19"/>
     </row>
-    <row r="314" spans="1:11" ht="30">
+    <row r="314" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" s="20">
         <v>22232</v>
       </c>
@@ -11803,7 +11808,7 @@
       <c r="J314" s="25"/>
       <c r="K314" s="26"/>
     </row>
-    <row r="315" spans="1:11" ht="75">
+    <row r="315" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A315" s="14">
         <v>22341</v>
       </c>
@@ -11828,7 +11833,7 @@
       <c r="J315" s="18"/>
       <c r="K315" s="19"/>
     </row>
-    <row r="316" spans="1:11" ht="30">
+    <row r="316" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="14">
         <v>22341</v>
       </c>
@@ -11853,7 +11858,7 @@
       <c r="J316" s="18"/>
       <c r="K316" s="19"/>
     </row>
-    <row r="317" spans="1:11">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="14">
         <v>22341</v>
       </c>
@@ -11878,7 +11883,7 @@
       <c r="J317" s="18"/>
       <c r="K317" s="19"/>
     </row>
-    <row r="318" spans="1:11">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="14">
         <v>22341</v>
       </c>
@@ -11903,7 +11908,7 @@
       <c r="J318" s="18"/>
       <c r="K318" s="19"/>
     </row>
-    <row r="319" spans="1:11" ht="45">
+    <row r="319" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A319" s="14">
         <v>22341</v>
       </c>
@@ -11928,7 +11933,7 @@
       <c r="J319" s="18"/>
       <c r="K319" s="19"/>
     </row>
-    <row r="320" spans="1:11" ht="45">
+    <row r="320" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A320" s="14">
         <v>22341</v>
       </c>
@@ -11953,7 +11958,7 @@
       <c r="J320" s="18"/>
       <c r="K320" s="19"/>
     </row>
-    <row r="321" spans="1:11" ht="90">
+    <row r="321" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A321" s="14">
         <v>22341</v>
       </c>
@@ -11978,7 +11983,7 @@
       <c r="J321" s="18"/>
       <c r="K321" s="19"/>
     </row>
-    <row r="322" spans="1:11" ht="60">
+    <row r="322" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A322" s="14">
         <v>22341</v>
       </c>
@@ -12003,7 +12008,7 @@
       <c r="J322" s="18"/>
       <c r="K322" s="19"/>
     </row>
-    <row r="323" spans="1:11">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="14">
         <v>22341</v>
       </c>
@@ -12028,7 +12033,7 @@
       <c r="J323" s="18"/>
       <c r="K323" s="19"/>
     </row>
-    <row r="324" spans="1:11" ht="45">
+    <row r="324" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A324" s="14">
         <v>22341</v>
       </c>
@@ -12053,7 +12058,7 @@
       <c r="J324" s="18"/>
       <c r="K324" s="19"/>
     </row>
-    <row r="325" spans="1:11" ht="90">
+    <row r="325" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A325" s="14">
         <v>22341</v>
       </c>
@@ -12078,7 +12083,7 @@
       <c r="J325" s="18"/>
       <c r="K325" s="19"/>
     </row>
-    <row r="326" spans="1:11" ht="45">
+    <row r="326" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A326" s="14">
         <v>22341</v>
       </c>
@@ -12103,7 +12108,7 @@
       <c r="J326" s="18"/>
       <c r="K326" s="19"/>
     </row>
-    <row r="327" spans="1:11" ht="45">
+    <row r="327" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A327" s="14">
         <v>22341</v>
       </c>
@@ -12128,7 +12133,7 @@
       <c r="J327" s="18"/>
       <c r="K327" s="19"/>
     </row>
-    <row r="328" spans="1:11">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="14">
         <v>22341</v>
       </c>
@@ -12153,7 +12158,7 @@
       <c r="J328" s="18"/>
       <c r="K328" s="19"/>
     </row>
-    <row r="329" spans="1:11" ht="90">
+    <row r="329" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A329" s="14">
         <v>22341</v>
       </c>
@@ -12180,7 +12185,7 @@
       <c r="J329" s="18"/>
       <c r="K329" s="19"/>
     </row>
-    <row r="330" spans="1:11" ht="60">
+    <row r="330" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A330" s="14">
         <v>22341</v>
       </c>
@@ -12205,7 +12210,7 @@
       <c r="J330" s="18"/>
       <c r="K330" s="19"/>
     </row>
-    <row r="331" spans="1:11" ht="90">
+    <row r="331" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A331" s="14">
         <v>22341</v>
       </c>
@@ -12230,7 +12235,7 @@
       <c r="J331" s="18"/>
       <c r="K331" s="19"/>
     </row>
-    <row r="332" spans="1:11" ht="30">
+    <row r="332" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A332" s="14">
         <v>22341</v>
       </c>
@@ -12255,7 +12260,7 @@
       <c r="J332" s="18"/>
       <c r="K332" s="19"/>
     </row>
-    <row r="333" spans="1:11" ht="30">
+    <row r="333" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A333" s="20">
         <v>22343</v>
       </c>
@@ -12280,7 +12285,7 @@
       <c r="J333" s="25"/>
       <c r="K333" s="26"/>
     </row>
-    <row r="334" spans="1:11" ht="45">
+    <row r="334" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A334" s="20">
         <v>22343</v>
       </c>
@@ -12305,7 +12310,7 @@
       <c r="J334" s="25"/>
       <c r="K334" s="26"/>
     </row>
-    <row r="335" spans="1:11">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="20">
         <v>22343</v>
       </c>
@@ -12330,7 +12335,7 @@
       <c r="J335" s="25"/>
       <c r="K335" s="26"/>
     </row>
-    <row r="336" spans="1:11" ht="30">
+    <row r="336" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A336" s="20">
         <v>22343</v>
       </c>
@@ -12355,7 +12360,7 @@
       <c r="J336" s="25"/>
       <c r="K336" s="26"/>
     </row>
-    <row r="337" spans="1:11" ht="30">
+    <row r="337" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A337" s="14">
         <v>22367</v>
       </c>
@@ -12380,7 +12385,7 @@
       </c>
       <c r="K337" s="19"/>
     </row>
-    <row r="338" spans="1:11" ht="30">
+    <row r="338" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A338" s="14">
         <v>22367</v>
       </c>
@@ -12405,7 +12410,7 @@
       </c>
       <c r="K338" s="19"/>
     </row>
-    <row r="339" spans="1:11">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="14">
         <v>22367</v>
       </c>
@@ -12430,7 +12435,7 @@
       </c>
       <c r="K339" s="19"/>
     </row>
-    <row r="340" spans="1:11" ht="45">
+    <row r="340" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A340" s="14">
         <v>22367</v>
       </c>
@@ -12455,7 +12460,7 @@
       </c>
       <c r="K340" s="19"/>
     </row>
-    <row r="341" spans="1:11" ht="60">
+    <row r="341" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A341" s="14">
         <v>22367</v>
       </c>
@@ -12480,7 +12485,7 @@
       </c>
       <c r="K341" s="19"/>
     </row>
-    <row r="342" spans="1:11" ht="30">
+    <row r="342" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A342" s="14">
         <v>22367</v>
       </c>
@@ -12505,7 +12510,7 @@
       </c>
       <c r="K342" s="19"/>
     </row>
-    <row r="343" spans="1:11" ht="45">
+    <row r="343" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A343" s="14">
         <v>22367</v>
       </c>
@@ -12530,7 +12535,7 @@
       </c>
       <c r="K343" s="19"/>
     </row>
-    <row r="344" spans="1:11">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="14">
         <v>22367</v>
       </c>
@@ -12555,7 +12560,7 @@
       </c>
       <c r="K344" s="19"/>
     </row>
-    <row r="345" spans="1:11" ht="30">
+    <row r="345" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A345" s="14">
         <v>22367</v>
       </c>
@@ -12580,7 +12585,7 @@
       </c>
       <c r="K345" s="19"/>
     </row>
-    <row r="346" spans="1:11">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="14">
         <v>22367</v>
       </c>
@@ -12605,7 +12610,7 @@
       </c>
       <c r="K346" s="19"/>
     </row>
-    <row r="347" spans="1:11" ht="30">
+    <row r="347" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A347" s="14">
         <v>22367</v>
       </c>
@@ -12630,7 +12635,7 @@
       </c>
       <c r="K347" s="19"/>
     </row>
-    <row r="348" spans="1:11" ht="30">
+    <row r="348" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A348" s="14">
         <v>22367</v>
       </c>
@@ -12655,7 +12660,7 @@
       </c>
       <c r="K348" s="19"/>
     </row>
-    <row r="349" spans="1:11" ht="60">
+    <row r="349" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A349" s="14">
         <v>22367</v>
       </c>
@@ -12680,7 +12685,7 @@
       </c>
       <c r="K349" s="19"/>
     </row>
-    <row r="350" spans="1:11" ht="75">
+    <row r="350" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A350" s="14">
         <v>22367</v>
       </c>
@@ -12705,7 +12710,7 @@
       </c>
       <c r="K350" s="19"/>
     </row>
-    <row r="351" spans="1:11" ht="30">
+    <row r="351" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A351" s="14">
         <v>22367</v>
       </c>
@@ -12730,7 +12735,7 @@
       </c>
       <c r="K351" s="19"/>
     </row>
-    <row r="352" spans="1:11" ht="75">
+    <row r="352" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A352" s="14">
         <v>22367</v>
       </c>
@@ -12755,7 +12760,7 @@
       </c>
       <c r="K352" s="19"/>
     </row>
-    <row r="353" spans="1:11" ht="30">
+    <row r="353" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A353" s="14">
         <v>22367</v>
       </c>
@@ -12780,7 +12785,7 @@
       </c>
       <c r="K353" s="19"/>
     </row>
-    <row r="354" spans="1:11">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="14">
         <v>22367</v>
       </c>
@@ -12805,7 +12810,7 @@
       </c>
       <c r="K354" s="19"/>
     </row>
-    <row r="355" spans="1:11">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="14">
         <v>22367</v>
       </c>
@@ -12830,7 +12835,7 @@
       </c>
       <c r="K355" s="19"/>
     </row>
-    <row r="356" spans="1:11" ht="30">
+    <row r="356" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A356" s="14">
         <v>22367</v>
       </c>
@@ -12855,7 +12860,7 @@
       </c>
       <c r="K356" s="19"/>
     </row>
-    <row r="357" spans="1:11">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="14">
         <v>22367</v>
       </c>
@@ -12880,7 +12885,7 @@
       </c>
       <c r="K357" s="19"/>
     </row>
-    <row r="358" spans="1:11" ht="60">
+    <row r="358" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A358" s="20">
         <v>22398</v>
       </c>
@@ -12909,7 +12914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:11">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="20">
         <v>22398</v>
       </c>
@@ -12938,7 +12943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:11">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="20">
         <v>22398</v>
       </c>
@@ -12967,7 +12972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:11" ht="45">
+    <row r="361" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A361" s="20">
         <v>22398</v>
       </c>
@@ -12996,7 +13001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:11" ht="90">
+    <row r="362" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A362" s="20">
         <v>22398</v>
       </c>
@@ -13025,7 +13030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:11" ht="45">
+    <row r="363" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A363" s="20">
         <v>22398</v>
       </c>
@@ -13054,7 +13059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:11" ht="60">
+    <row r="364" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A364" s="20">
         <v>22398</v>
       </c>
@@ -13083,7 +13088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:11">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="20">
         <v>22398</v>
       </c>
@@ -13112,7 +13117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:11">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="20">
         <v>22398</v>
       </c>
@@ -13141,7 +13146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:11" ht="30">
+    <row r="367" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A367" s="20">
         <v>22398</v>
       </c>
@@ -13170,7 +13175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:11" ht="30">
+    <row r="368" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A368" s="14">
         <v>22421</v>
       </c>
@@ -13195,7 +13200,7 @@
       </c>
       <c r="K368" s="19"/>
     </row>
-    <row r="369" spans="1:11">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="14">
         <v>22421</v>
       </c>
@@ -13220,7 +13225,7 @@
       </c>
       <c r="K369" s="19"/>
     </row>
-    <row r="370" spans="1:11" ht="105">
+    <row r="370" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A370" s="14">
         <v>22421</v>
       </c>
@@ -13245,7 +13250,7 @@
       </c>
       <c r="K370" s="19"/>
     </row>
-    <row r="371" spans="1:11" ht="45">
+    <row r="371" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A371" s="20">
         <v>22436</v>
       </c>
@@ -13268,7 +13273,7 @@
       <c r="J371" s="25"/>
       <c r="K371" s="26"/>
     </row>
-    <row r="372" spans="1:11">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="14">
         <v>22452</v>
       </c>
@@ -13291,7 +13296,7 @@
       <c r="J372" s="18"/>
       <c r="K372" s="19"/>
     </row>
-    <row r="373" spans="1:11">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="20">
         <v>22462</v>
       </c>
@@ -13314,7 +13319,7 @@
       <c r="J373" s="25"/>
       <c r="K373" s="26"/>
     </row>
-    <row r="374" spans="1:11" ht="60">
+    <row r="374" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A374" s="14">
         <v>22555</v>
       </c>
@@ -13339,7 +13344,7 @@
       <c r="J374" s="18"/>
       <c r="K374" s="19"/>
     </row>
-    <row r="375" spans="1:11" ht="45">
+    <row r="375" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A375" s="14">
         <v>22555</v>
       </c>
@@ -13364,7 +13369,7 @@
       <c r="J375" s="18"/>
       <c r="K375" s="19"/>
     </row>
-    <row r="376" spans="1:11" ht="60">
+    <row r="376" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A376" s="14">
         <v>22555</v>
       </c>
@@ -13389,7 +13394,7 @@
       <c r="J376" s="18"/>
       <c r="K376" s="19"/>
     </row>
-    <row r="377" spans="1:11" ht="30">
+    <row r="377" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A377" s="14">
         <v>22555</v>
       </c>
@@ -13414,7 +13419,7 @@
       <c r="J377" s="18"/>
       <c r="K377" s="19"/>
     </row>
-    <row r="378" spans="1:11" ht="75">
+    <row r="378" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A378" s="14">
         <v>22555</v>
       </c>
@@ -13439,7 +13444,7 @@
       <c r="J378" s="18"/>
       <c r="K378" s="19"/>
     </row>
-    <row r="379" spans="1:11">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="20">
         <v>22579</v>
       </c>
@@ -13462,7 +13467,7 @@
       <c r="J379" s="25"/>
       <c r="K379" s="26"/>
     </row>
-    <row r="380" spans="1:11" ht="30">
+    <row r="380" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A380" s="20">
         <v>22579</v>
       </c>
@@ -13485,7 +13490,7 @@
       <c r="J380" s="25"/>
       <c r="K380" s="26"/>
     </row>
-    <row r="381" spans="1:11" ht="30">
+    <row r="381" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A381" s="20">
         <v>22579</v>
       </c>
@@ -13508,7 +13513,7 @@
       <c r="J381" s="25"/>
       <c r="K381" s="26"/>
     </row>
-    <row r="382" spans="1:11">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="20">
         <v>22579</v>
       </c>
@@ -13531,7 +13536,7 @@
       <c r="J382" s="25"/>
       <c r="K382" s="26"/>
     </row>
-    <row r="383" spans="1:11" ht="30">
+    <row r="383" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A383" s="20">
         <v>22579</v>
       </c>
@@ -13554,7 +13559,7 @@
       <c r="J383" s="25"/>
       <c r="K383" s="26"/>
     </row>
-    <row r="384" spans="1:11">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="14">
         <v>22609</v>
       </c>
@@ -13577,7 +13582,7 @@
       <c r="J384" s="18"/>
       <c r="K384" s="19"/>
     </row>
-    <row r="385" spans="1:11" ht="45">
+    <row r="385" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A385" s="14">
         <v>22609</v>
       </c>
@@ -13600,7 +13605,7 @@
       <c r="J385" s="18"/>
       <c r="K385" s="19"/>
     </row>
-    <row r="386" spans="1:11" ht="45">
+    <row r="386" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A386" s="14">
         <v>22609</v>
       </c>
@@ -13623,7 +13628,7 @@
       <c r="J386" s="18"/>
       <c r="K386" s="19"/>
     </row>
-    <row r="387" spans="1:11">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="14">
         <v>22609</v>
       </c>
@@ -13646,7 +13651,7 @@
       <c r="J387" s="18"/>
       <c r="K387" s="19"/>
     </row>
-    <row r="388" spans="1:11">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="20">
         <v>22613</v>
       </c>
@@ -13669,7 +13674,7 @@
       <c r="J388" s="25"/>
       <c r="K388" s="26"/>
     </row>
-    <row r="389" spans="1:11" ht="60">
+    <row r="389" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A389" s="20">
         <v>22613</v>
       </c>
@@ -13692,7 +13697,7 @@
       <c r="J389" s="25"/>
       <c r="K389" s="26"/>
     </row>
-    <row r="390" spans="1:11" ht="30">
+    <row r="390" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A390" s="14">
         <v>22614</v>
       </c>
@@ -13715,7 +13720,7 @@
       <c r="J390" s="18"/>
       <c r="K390" s="19"/>
     </row>
-    <row r="391" spans="1:11" ht="60">
+    <row r="391" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A391" s="14">
         <v>22614</v>
       </c>
@@ -13738,7 +13743,7 @@
       <c r="J391" s="18"/>
       <c r="K391" s="19"/>
     </row>
-    <row r="392" spans="1:11" ht="30">
+    <row r="392" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A392" s="20">
         <v>22634</v>
       </c>
@@ -13761,7 +13766,7 @@
       <c r="J392" s="25"/>
       <c r="K392" s="26"/>
     </row>
-    <row r="393" spans="1:11" ht="30">
+    <row r="393" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A393" s="20">
         <v>22634</v>
       </c>
@@ -13784,7 +13789,7 @@
       <c r="J393" s="25"/>
       <c r="K393" s="26"/>
     </row>
-    <row r="394" spans="1:11" ht="30">
+    <row r="394" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A394" s="20">
         <v>22634</v>
       </c>
@@ -13807,7 +13812,7 @@
       <c r="J394" s="25"/>
       <c r="K394" s="26"/>
     </row>
-    <row r="395" spans="1:11" ht="30">
+    <row r="395" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A395" s="20">
         <v>22634</v>
       </c>
@@ -13830,7 +13835,7 @@
       <c r="J395" s="25"/>
       <c r="K395" s="26"/>
     </row>
-    <row r="396" spans="1:11" ht="45">
+    <row r="396" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A396" s="20">
         <v>22634</v>
       </c>
@@ -13853,7 +13858,7 @@
       <c r="J396" s="25"/>
       <c r="K396" s="26"/>
     </row>
-    <row r="397" spans="1:11" ht="30">
+    <row r="397" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A397" s="20">
         <v>22634</v>
       </c>
@@ -13876,7 +13881,7 @@
       <c r="J397" s="25"/>
       <c r="K397" s="26"/>
     </row>
-    <row r="398" spans="1:11" ht="30">
+    <row r="398" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A398" s="20">
         <v>22634</v>
       </c>
@@ -13899,7 +13904,7 @@
       <c r="J398" s="25"/>
       <c r="K398" s="26"/>
     </row>
-    <row r="399" spans="1:11">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="14">
         <v>22717</v>
       </c>
@@ -13924,7 +13929,7 @@
       </c>
       <c r="K399" s="19"/>
     </row>
-    <row r="400" spans="1:11" ht="45">
+    <row r="400" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A400" s="20">
         <v>22720</v>
       </c>
@@ -13953,7 +13958,7 @@
       </c>
       <c r="K400" s="26"/>
     </row>
-    <row r="401" spans="1:11" ht="60">
+    <row r="401" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A401" s="20">
         <v>22720</v>
       </c>
@@ -13982,7 +13987,7 @@
       </c>
       <c r="K401" s="26"/>
     </row>
-    <row r="402" spans="1:11" ht="30">
+    <row r="402" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A402" s="20">
         <v>22720</v>
       </c>
@@ -14011,7 +14016,7 @@
       </c>
       <c r="K402" s="26"/>
     </row>
-    <row r="403" spans="1:11" ht="45">
+    <row r="403" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A403" s="20">
         <v>22720</v>
       </c>
@@ -14040,7 +14045,7 @@
       </c>
       <c r="K403" s="26"/>
     </row>
-    <row r="404" spans="1:11" ht="45">
+    <row r="404" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A404" s="20">
         <v>22720</v>
       </c>
@@ -14069,7 +14074,7 @@
       </c>
       <c r="K404" s="26"/>
     </row>
-    <row r="405" spans="1:11">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="20">
         <v>22720</v>
       </c>
@@ -14098,7 +14103,7 @@
       </c>
       <c r="K405" s="26"/>
     </row>
-    <row r="406" spans="1:11">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="20">
         <v>22720</v>
       </c>
@@ -14127,7 +14132,7 @@
       </c>
       <c r="K406" s="26"/>
     </row>
-    <row r="407" spans="1:11">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="20">
         <v>22720</v>
       </c>
@@ -14156,7 +14161,7 @@
       </c>
       <c r="K407" s="26"/>
     </row>
-    <row r="408" spans="1:11" ht="30">
+    <row r="408" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A408" s="20">
         <v>22720</v>
       </c>
@@ -14185,7 +14190,7 @@
       </c>
       <c r="K408" s="26"/>
     </row>
-    <row r="409" spans="1:11">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="20">
         <v>22720</v>
       </c>
@@ -14214,7 +14219,7 @@
       </c>
       <c r="K409" s="26"/>
     </row>
-    <row r="410" spans="1:11">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="14">
         <v>22721</v>
       </c>
@@ -14239,7 +14244,7 @@
       <c r="J410" s="18"/>
       <c r="K410" s="19"/>
     </row>
-    <row r="411" spans="1:11" ht="30">
+    <row r="411" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A411" s="14">
         <v>22721</v>
       </c>
@@ -14264,7 +14269,7 @@
       <c r="J411" s="18"/>
       <c r="K411" s="19"/>
     </row>
-    <row r="412" spans="1:11" ht="45">
+    <row r="412" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A412" s="14">
         <v>22721</v>
       </c>
@@ -14289,7 +14294,7 @@
       <c r="J412" s="18"/>
       <c r="K412" s="19"/>
     </row>
-    <row r="413" spans="1:11" ht="45">
+    <row r="413" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A413" s="14">
         <v>22721</v>
       </c>
@@ -14314,7 +14319,7 @@
       <c r="J413" s="18"/>
       <c r="K413" s="19"/>
     </row>
-    <row r="414" spans="1:11" ht="60">
+    <row r="414" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A414" s="14">
         <v>22721</v>
       </c>
@@ -14339,7 +14344,7 @@
       <c r="J414" s="18"/>
       <c r="K414" s="19"/>
     </row>
-    <row r="415" spans="1:11" ht="45">
+    <row r="415" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A415" s="14">
         <v>22721</v>
       </c>
@@ -14364,7 +14369,7 @@
       <c r="J415" s="18"/>
       <c r="K415" s="19"/>
     </row>
-    <row r="416" spans="1:11">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="14">
         <v>22721</v>
       </c>
@@ -14389,7 +14394,7 @@
       <c r="J416" s="18"/>
       <c r="K416" s="19"/>
     </row>
-    <row r="417" spans="1:11" ht="30">
+    <row r="417" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A417" s="14">
         <v>22721</v>
       </c>
@@ -14414,7 +14419,7 @@
       <c r="J417" s="18"/>
       <c r="K417" s="19"/>
     </row>
-    <row r="418" spans="1:11">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="20">
         <v>22723</v>
       </c>
@@ -14443,7 +14448,7 @@
       </c>
       <c r="K418" s="26"/>
     </row>
-    <row r="419" spans="1:11" ht="60">
+    <row r="419" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A419" s="20">
         <v>22723</v>
       </c>
@@ -14472,7 +14477,7 @@
       </c>
       <c r="K419" s="26"/>
     </row>
-    <row r="420" spans="1:11" ht="60">
+    <row r="420" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A420" s="20">
         <v>22723</v>
       </c>
@@ -14501,7 +14506,7 @@
       </c>
       <c r="K420" s="26"/>
     </row>
-    <row r="421" spans="1:11" ht="60">
+    <row r="421" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A421" s="20">
         <v>22723</v>
       </c>
@@ -14530,7 +14535,7 @@
       </c>
       <c r="K421" s="26"/>
     </row>
-    <row r="422" spans="1:11" ht="75">
+    <row r="422" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A422" s="20">
         <v>22723</v>
       </c>
@@ -14559,7 +14564,7 @@
       </c>
       <c r="K422" s="26"/>
     </row>
-    <row r="423" spans="1:11" ht="60">
+    <row r="423" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A423" s="20">
         <v>22723</v>
       </c>
@@ -14588,7 +14593,7 @@
       </c>
       <c r="K423" s="26"/>
     </row>
-    <row r="424" spans="1:11" ht="75">
+    <row r="424" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A424" s="20">
         <v>22723</v>
       </c>
@@ -14617,7 +14622,7 @@
       </c>
       <c r="K424" s="26"/>
     </row>
-    <row r="425" spans="1:11" ht="90">
+    <row r="425" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A425" s="20">
         <v>22723</v>
       </c>
@@ -14646,7 +14651,7 @@
       </c>
       <c r="K425" s="26"/>
     </row>
-    <row r="426" spans="1:11" ht="60">
+    <row r="426" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A426" s="20">
         <v>22723</v>
       </c>
@@ -14675,7 +14680,7 @@
       </c>
       <c r="K426" s="26"/>
     </row>
-    <row r="427" spans="1:11" ht="30">
+    <row r="427" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A427" s="20">
         <v>22723</v>
       </c>
@@ -14704,7 +14709,7 @@
       </c>
       <c r="K427" s="26"/>
     </row>
-    <row r="428" spans="1:11" ht="45">
+    <row r="428" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A428" s="14">
         <v>22779</v>
       </c>
@@ -14729,7 +14734,7 @@
       <c r="J428" s="18"/>
       <c r="K428" s="19"/>
     </row>
-    <row r="429" spans="1:11" ht="45">
+    <row r="429" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A429" s="14">
         <v>22779</v>
       </c>
@@ -14754,7 +14759,7 @@
       <c r="J429" s="18"/>
       <c r="K429" s="19"/>
     </row>
-    <row r="430" spans="1:11" ht="30">
+    <row r="430" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A430" s="14">
         <v>22779</v>
       </c>
@@ -14779,7 +14784,7 @@
       <c r="J430" s="18"/>
       <c r="K430" s="19"/>
     </row>
-    <row r="431" spans="1:11" ht="45">
+    <row r="431" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A431" s="14">
         <v>22779</v>
       </c>
@@ -14804,7 +14809,7 @@
       <c r="J431" s="18"/>
       <c r="K431" s="19"/>
     </row>
-    <row r="432" spans="1:11" ht="30">
+    <row r="432" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A432" s="20">
         <v>22870</v>
       </c>
@@ -14831,7 +14836,7 @@
       <c r="J432" s="25"/>
       <c r="K432" s="26"/>
     </row>
-    <row r="433" spans="1:11" ht="75">
+    <row r="433" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A433" s="20">
         <v>22870</v>
       </c>
@@ -14858,7 +14863,7 @@
       <c r="J433" s="25"/>
       <c r="K433" s="26"/>
     </row>
-    <row r="434" spans="1:11" ht="30">
+    <row r="434" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A434" s="20">
         <v>22870</v>
       </c>
@@ -14885,7 +14890,7 @@
       <c r="J434" s="25"/>
       <c r="K434" s="26"/>
     </row>
-    <row r="435" spans="1:11" ht="30">
+    <row r="435" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A435" s="20">
         <v>22870</v>
       </c>
@@ -14912,7 +14917,7 @@
       <c r="J435" s="25"/>
       <c r="K435" s="26"/>
     </row>
-    <row r="436" spans="1:11" ht="30">
+    <row r="436" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A436" s="20">
         <v>22870</v>
       </c>
@@ -14939,7 +14944,7 @@
       <c r="J436" s="25"/>
       <c r="K436" s="26"/>
     </row>
-    <row r="437" spans="1:11" ht="45">
+    <row r="437" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A437" s="14">
         <v>22871</v>
       </c>
@@ -14964,7 +14969,7 @@
       <c r="J437" s="18"/>
       <c r="K437" s="19"/>
     </row>
-    <row r="438" spans="1:11" ht="60">
+    <row r="438" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A438" s="14">
         <v>22871</v>
       </c>
@@ -14989,7 +14994,7 @@
       <c r="J438" s="18"/>
       <c r="K438" s="19"/>
     </row>
-    <row r="439" spans="1:11" ht="45">
+    <row r="439" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A439" s="14">
         <v>22871</v>
       </c>
@@ -15014,7 +15019,7 @@
       <c r="J439" s="18"/>
       <c r="K439" s="19"/>
     </row>
-    <row r="440" spans="1:11" ht="30">
+    <row r="440" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A440" s="14">
         <v>22871</v>
       </c>
@@ -15039,7 +15044,7 @@
       <c r="J440" s="18"/>
       <c r="K440" s="19"/>
     </row>
-    <row r="441" spans="1:11" ht="30">
+    <row r="441" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A441" s="20">
         <v>22947</v>
       </c>
@@ -15064,7 +15069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:11" ht="60">
+    <row r="442" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A442" s="14">
         <v>23012</v>
       </c>
@@ -15089,7 +15094,7 @@
       </c>
       <c r="K442" s="19"/>
     </row>
-    <row r="443" spans="1:11" ht="30">
+    <row r="443" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A443" s="20">
         <v>23019</v>
       </c>
@@ -15114,7 +15119,7 @@
       <c r="J443" s="25"/>
       <c r="K443" s="26"/>
     </row>
-    <row r="444" spans="1:11" ht="45">
+    <row r="444" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A444" s="20">
         <v>23019</v>
       </c>
@@ -15139,7 +15144,7 @@
       <c r="J444" s="25"/>
       <c r="K444" s="26"/>
     </row>
-    <row r="445" spans="1:11" ht="60">
+    <row r="445" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A445" s="20">
         <v>23019</v>
       </c>
@@ -15164,7 +15169,7 @@
       <c r="J445" s="25"/>
       <c r="K445" s="26"/>
     </row>
-    <row r="446" spans="1:11" ht="120">
+    <row r="446" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A446" s="20">
         <v>23019</v>
       </c>
@@ -15189,7 +15194,7 @@
       <c r="J446" s="25"/>
       <c r="K446" s="26"/>
     </row>
-    <row r="447" spans="1:11" ht="30">
+    <row r="447" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A447" s="14">
         <v>23021</v>
       </c>
@@ -15214,7 +15219,7 @@
       <c r="J447" s="18"/>
       <c r="K447" s="19"/>
     </row>
-    <row r="448" spans="1:11" ht="105">
+    <row r="448" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A448" s="14">
         <v>23021</v>
       </c>
@@ -15239,7 +15244,7 @@
       <c r="J448" s="18"/>
       <c r="K448" s="19"/>
     </row>
-    <row r="449" spans="1:11" ht="75">
+    <row r="449" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A449" s="14">
         <v>23021</v>
       </c>
@@ -15264,7 +15269,7 @@
       <c r="J449" s="18"/>
       <c r="K449" s="19"/>
     </row>
-    <row r="450" spans="1:11" ht="60">
+    <row r="450" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A450" s="14">
         <v>23021</v>
       </c>
@@ -15289,7 +15294,7 @@
       <c r="J450" s="18"/>
       <c r="K450" s="19"/>
     </row>
-    <row r="451" spans="1:11" ht="30">
+    <row r="451" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A451" s="14">
         <v>23021</v>
       </c>
@@ -15314,7 +15319,7 @@
       <c r="J451" s="18"/>
       <c r="K451" s="19"/>
     </row>
-    <row r="452" spans="1:11" ht="60">
+    <row r="452" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A452" s="14">
         <v>23021</v>
       </c>
@@ -15339,7 +15344,7 @@
       <c r="J452" s="18"/>
       <c r="K452" s="19"/>
     </row>
-    <row r="453" spans="1:11" ht="30">
+    <row r="453" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A453" s="14">
         <v>23021</v>
       </c>
@@ -15364,7 +15369,7 @@
       <c r="J453" s="18"/>
       <c r="K453" s="19"/>
     </row>
-    <row r="454" spans="1:11" ht="30">
+    <row r="454" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A454" s="14">
         <v>23021</v>
       </c>
@@ -15389,7 +15394,7 @@
       <c r="J454" s="18"/>
       <c r="K454" s="19"/>
     </row>
-    <row r="455" spans="1:11" ht="45">
+    <row r="455" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A455" s="20">
         <v>23122</v>
       </c>
@@ -15414,7 +15419,7 @@
       <c r="J455" s="25"/>
       <c r="K455" s="26"/>
     </row>
-    <row r="456" spans="1:11" ht="30">
+    <row r="456" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A456" s="20">
         <v>23122</v>
       </c>
@@ -15439,7 +15444,7 @@
       <c r="J456" s="25"/>
       <c r="K456" s="26"/>
     </row>
-    <row r="457" spans="1:11" ht="90">
+    <row r="457" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A457" s="20">
         <v>23122</v>
       </c>
@@ -15464,7 +15469,7 @@
       <c r="J457" s="25"/>
       <c r="K457" s="26"/>
     </row>
-    <row r="458" spans="1:11" ht="60">
+    <row r="458" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A458" s="20">
         <v>23122</v>
       </c>
@@ -15489,7 +15494,7 @@
       <c r="J458" s="25"/>
       <c r="K458" s="26"/>
     </row>
-    <row r="459" spans="1:11" ht="45">
+    <row r="459" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A459" s="20">
         <v>23122</v>
       </c>
@@ -15514,7 +15519,7 @@
       <c r="J459" s="25"/>
       <c r="K459" s="26"/>
     </row>
-    <row r="460" spans="1:11" ht="75">
+    <row r="460" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A460" s="14">
         <v>23124</v>
       </c>
@@ -15539,7 +15544,7 @@
       <c r="J460" s="18"/>
       <c r="K460" s="19"/>
     </row>
-    <row r="461" spans="1:11" ht="60">
+    <row r="461" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A461" s="20">
         <v>23165</v>
       </c>
@@ -15566,7 +15571,7 @@
       <c r="J461" s="25"/>
       <c r="K461" s="26"/>
     </row>
-    <row r="462" spans="1:11">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="20">
         <v>23165</v>
       </c>
@@ -15593,7 +15598,7 @@
       <c r="J462" s="25"/>
       <c r="K462" s="26"/>
     </row>
-    <row r="463" spans="1:11" ht="30">
+    <row r="463" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A463" s="20">
         <v>23165</v>
       </c>
@@ -15620,7 +15625,7 @@
       <c r="J463" s="25"/>
       <c r="K463" s="26"/>
     </row>
-    <row r="464" spans="1:11" ht="30">
+    <row r="464" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A464" s="14">
         <v>23201</v>
       </c>
@@ -15645,7 +15650,7 @@
       <c r="J464" s="18"/>
       <c r="K464" s="19"/>
     </row>
-    <row r="465" spans="1:11" ht="30">
+    <row r="465" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A465" s="14">
         <v>23201</v>
       </c>
@@ -15670,7 +15675,7 @@
       <c r="J465" s="18"/>
       <c r="K465" s="19"/>
     </row>
-    <row r="466" spans="1:11" ht="45">
+    <row r="466" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A466" s="20">
         <v>23274</v>
       </c>
@@ -15695,7 +15700,7 @@
       <c r="J466" s="25"/>
       <c r="K466" s="26"/>
     </row>
-    <row r="467" spans="1:11" ht="30">
+    <row r="467" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A467" s="20">
         <v>23274</v>
       </c>
@@ -15720,7 +15725,7 @@
       <c r="J467" s="25"/>
       <c r="K467" s="26"/>
     </row>
-    <row r="468" spans="1:11" ht="30">
+    <row r="468" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A468" s="20">
         <v>23274</v>
       </c>
@@ -15745,7 +15750,7 @@
       <c r="J468" s="25"/>
       <c r="K468" s="26"/>
     </row>
-    <row r="469" spans="1:11" ht="30">
+    <row r="469" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A469" s="14">
         <v>23275</v>
       </c>
@@ -15770,7 +15775,7 @@
       <c r="J469" s="18"/>
       <c r="K469" s="19"/>
     </row>
-    <row r="470" spans="1:11" ht="30">
+    <row r="470" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A470" s="14">
         <v>23275</v>
       </c>
@@ -15795,7 +15800,7 @@
       <c r="J470" s="18"/>
       <c r="K470" s="19"/>
     </row>
-    <row r="471" spans="1:11" ht="30">
+    <row r="471" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A471" s="14">
         <v>23275</v>
       </c>
@@ -15820,7 +15825,7 @@
       <c r="J471" s="18"/>
       <c r="K471" s="19"/>
     </row>
-    <row r="472" spans="1:11" ht="30">
+    <row r="472" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A472" s="14">
         <v>23275</v>
       </c>
@@ -15845,7 +15850,7 @@
       <c r="J472" s="18"/>
       <c r="K472" s="19"/>
     </row>
-    <row r="473" spans="1:11" ht="30">
+    <row r="473" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A473" s="14">
         <v>23275</v>
       </c>
@@ -15870,7 +15875,7 @@
       <c r="J473" s="18"/>
       <c r="K473" s="19"/>
     </row>
-    <row r="474" spans="1:11" ht="45">
+    <row r="474" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A474" s="20">
         <v>23276</v>
       </c>
@@ -15895,7 +15900,7 @@
       <c r="J474" s="25"/>
       <c r="K474" s="26"/>
     </row>
-    <row r="475" spans="1:11" ht="30">
+    <row r="475" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A475" s="20">
         <v>23276</v>
       </c>
@@ -15920,7 +15925,7 @@
       <c r="J475" s="25"/>
       <c r="K475" s="26"/>
     </row>
-    <row r="476" spans="1:11" ht="30">
+    <row r="476" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A476" s="20">
         <v>23276</v>
       </c>
@@ -15945,7 +15950,7 @@
       <c r="J476" s="25"/>
       <c r="K476" s="26"/>
     </row>
-    <row r="477" spans="1:11" ht="105">
+    <row r="477" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A477" s="14">
         <v>23363</v>
       </c>
@@ -15974,7 +15979,7 @@
       </c>
       <c r="K477" s="19"/>
     </row>
-    <row r="478" spans="1:11" ht="60">
+    <row r="478" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A478" s="14">
         <v>23363</v>
       </c>
@@ -16003,7 +16008,7 @@
       </c>
       <c r="K478" s="19"/>
     </row>
-    <row r="479" spans="1:11" ht="120">
+    <row r="479" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A479" s="14">
         <v>23363</v>
       </c>
@@ -16032,7 +16037,7 @@
       </c>
       <c r="K479" s="19"/>
     </row>
-    <row r="480" spans="1:11" ht="45">
+    <row r="480" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A480" s="14">
         <v>23363</v>
       </c>
@@ -16061,7 +16066,7 @@
       </c>
       <c r="K480" s="19"/>
     </row>
-    <row r="481" spans="1:11" ht="45">
+    <row r="481" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A481" s="20">
         <v>23422</v>
       </c>
@@ -16086,7 +16091,7 @@
       <c r="J481" s="25"/>
       <c r="K481" s="26"/>
     </row>
-    <row r="482" spans="1:11" ht="30">
+    <row r="482" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A482" s="20">
         <v>23422</v>
       </c>
@@ -16111,7 +16116,7 @@
       <c r="J482" s="25"/>
       <c r="K482" s="26"/>
     </row>
-    <row r="483" spans="1:11" ht="45">
+    <row r="483" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A483" s="14">
         <v>23428</v>
       </c>
@@ -16136,7 +16141,7 @@
       <c r="J483" s="18"/>
       <c r="K483" s="19"/>
     </row>
-    <row r="484" spans="1:11" ht="30">
+    <row r="484" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A484" s="14">
         <v>23428</v>
       </c>
@@ -16161,7 +16166,7 @@
       <c r="J484" s="18"/>
       <c r="K484" s="19"/>
     </row>
-    <row r="485" spans="1:11" ht="45">
+    <row r="485" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A485" s="20">
         <v>23436</v>
       </c>
@@ -16186,7 +16191,7 @@
       <c r="J485" s="25"/>
       <c r="K485" s="26"/>
     </row>
-    <row r="486" spans="1:11" ht="30">
+    <row r="486" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A486" s="20">
         <v>23436</v>
       </c>
@@ -16211,7 +16216,7 @@
       <c r="J486" s="25"/>
       <c r="K486" s="26"/>
     </row>
-    <row r="487" spans="1:11" ht="30">
+    <row r="487" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A487" s="14">
         <v>23439</v>
       </c>
@@ -16236,7 +16241,7 @@
       <c r="J487" s="18"/>
       <c r="K487" s="19"/>
     </row>
-    <row r="488" spans="1:11" ht="60">
+    <row r="488" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A488" s="20">
         <v>23462</v>
       </c>
@@ -16261,7 +16266,7 @@
       <c r="J488" s="25"/>
       <c r="K488" s="26"/>
     </row>
-    <row r="489" spans="1:11" ht="45">
+    <row r="489" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A489" s="20">
         <v>23462</v>
       </c>
@@ -16286,7 +16291,7 @@
       <c r="J489" s="25"/>
       <c r="K489" s="26"/>
     </row>
-    <row r="490" spans="1:11" ht="75">
+    <row r="490" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A490" s="14">
         <v>23486</v>
       </c>
@@ -16311,7 +16316,7 @@
       <c r="J490" s="18"/>
       <c r="K490" s="19"/>
     </row>
-    <row r="491" spans="1:11">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="14">
         <v>23486</v>
       </c>
@@ -16336,7 +16341,7 @@
       <c r="J491" s="18"/>
       <c r="K491" s="19"/>
     </row>
-    <row r="492" spans="1:11" ht="45">
+    <row r="492" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A492" s="14">
         <v>23486</v>
       </c>
@@ -16361,7 +16366,7 @@
       <c r="J492" s="18"/>
       <c r="K492" s="19"/>
     </row>
-    <row r="493" spans="1:11">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="14">
         <v>23486</v>
       </c>
@@ -16386,7 +16391,7 @@
       <c r="J493" s="18"/>
       <c r="K493" s="19"/>
     </row>
-    <row r="494" spans="1:11" ht="60">
+    <row r="494" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A494" s="20">
         <v>23487</v>
       </c>
@@ -16411,7 +16416,7 @@
       <c r="J494" s="25"/>
       <c r="K494" s="26"/>
     </row>
-    <row r="495" spans="1:11" ht="30">
+    <row r="495" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A495" s="20">
         <v>23487</v>
       </c>
@@ -16436,7 +16441,7 @@
       <c r="J495" s="25"/>
       <c r="K495" s="26"/>
     </row>
-    <row r="496" spans="1:11" ht="30">
+    <row r="496" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A496" s="14">
         <v>23489</v>
       </c>
@@ -16461,7 +16466,7 @@
       <c r="J496" s="18"/>
       <c r="K496" s="19"/>
     </row>
-    <row r="497" spans="1:11" ht="30">
+    <row r="497" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A497" s="14">
         <v>23489</v>
       </c>
@@ -16486,7 +16491,7 @@
       <c r="J497" s="18"/>
       <c r="K497" s="19"/>
     </row>
-    <row r="498" spans="1:11" ht="60">
+    <row r="498" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A498" s="20">
         <v>23492</v>
       </c>
@@ -16511,7 +16516,7 @@
       <c r="J498" s="25"/>
       <c r="K498" s="26"/>
     </row>
-    <row r="499" spans="1:11" ht="30">
+    <row r="499" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A499" s="14">
         <v>23511</v>
       </c>
@@ -16536,7 +16541,7 @@
       <c r="J499" s="18"/>
       <c r="K499" s="19"/>
     </row>
-    <row r="500" spans="1:11" ht="30">
+    <row r="500" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A500" s="14">
         <v>23511</v>
       </c>
@@ -16561,7 +16566,7 @@
       <c r="J500" s="18"/>
       <c r="K500" s="19"/>
     </row>
-    <row r="501" spans="1:11" ht="45">
+    <row r="501" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A501" s="20">
         <v>23512</v>
       </c>
@@ -16586,7 +16591,7 @@
       <c r="J501" s="25"/>
       <c r="K501" s="26"/>
     </row>
-    <row r="502" spans="1:11" ht="30">
+    <row r="502" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A502" s="20">
         <v>23512</v>
       </c>
@@ -16611,7 +16616,7 @@
       <c r="J502" s="25"/>
       <c r="K502" s="26"/>
     </row>
-    <row r="503" spans="1:11" ht="30">
+    <row r="503" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A503" s="14">
         <v>23539</v>
       </c>
@@ -16636,7 +16641,7 @@
       <c r="J503" s="18"/>
       <c r="K503" s="19"/>
     </row>
-    <row r="504" spans="1:11" ht="30">
+    <row r="504" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A504" s="14">
         <v>23539</v>
       </c>
@@ -16661,7 +16666,7 @@
       <c r="J504" s="18"/>
       <c r="K504" s="19"/>
     </row>
-    <row r="505" spans="1:11" ht="75">
+    <row r="505" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A505" s="20">
         <v>23545</v>
       </c>
@@ -16686,7 +16691,7 @@
       <c r="J505" s="25"/>
       <c r="K505" s="26"/>
     </row>
-    <row r="506" spans="1:11" ht="45">
+    <row r="506" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A506" s="20">
         <v>23545</v>
       </c>
@@ -16711,7 +16716,7 @@
       <c r="J506" s="25"/>
       <c r="K506" s="26"/>
     </row>
-    <row r="507" spans="1:11" ht="45">
+    <row r="507" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A507" s="14">
         <v>23593</v>
       </c>
@@ -16734,7 +16739,7 @@
       <c r="J507" s="18"/>
       <c r="K507" s="19"/>
     </row>
-    <row r="508" spans="1:11" ht="45">
+    <row r="508" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A508" s="20">
         <v>23630</v>
       </c>
@@ -16759,7 +16764,7 @@
       <c r="J508" s="25"/>
       <c r="K508" s="26"/>
     </row>
-    <row r="509" spans="1:11" ht="105">
+    <row r="509" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A509" s="20">
         <v>23630</v>
       </c>
@@ -16784,7 +16789,7 @@
       <c r="J509" s="25"/>
       <c r="K509" s="26"/>
     </row>
-    <row r="510" spans="1:11" ht="30">
+    <row r="510" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A510" s="20">
         <v>23630</v>
       </c>
@@ -16807,7 +16812,7 @@
       <c r="J510" s="25"/>
       <c r="K510" s="26"/>
     </row>
-    <row r="511" spans="1:11" ht="30">
+    <row r="511" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A511" s="20">
         <v>23630</v>
       </c>
@@ -16832,7 +16837,7 @@
       <c r="J511" s="25"/>
       <c r="K511" s="26"/>
     </row>
-    <row r="512" spans="1:11" ht="60">
+    <row r="512" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A512" s="20">
         <v>23630</v>
       </c>
@@ -16857,7 +16862,7 @@
       <c r="J512" s="25"/>
       <c r="K512" s="26"/>
     </row>
-    <row r="513" spans="1:11" ht="30">
+    <row r="513" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A513" s="20">
         <v>23630</v>
       </c>
@@ -16882,7 +16887,7 @@
       <c r="J513" s="25"/>
       <c r="K513" s="26"/>
     </row>
-    <row r="514" spans="1:11" ht="30">
+    <row r="514" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A514" s="20">
         <v>23630</v>
       </c>
@@ -16907,7 +16912,7 @@
       <c r="J514" s="25"/>
       <c r="K514" s="26"/>
     </row>
-    <row r="515" spans="1:11" ht="45">
+    <row r="515" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A515" s="20">
         <v>23630</v>
       </c>
@@ -16932,7 +16937,7 @@
       <c r="J515" s="25"/>
       <c r="K515" s="26"/>
     </row>
-    <row r="516" spans="1:11" ht="75">
+    <row r="516" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A516" s="14">
         <v>23692</v>
       </c>
@@ -16957,7 +16962,7 @@
       <c r="J516" s="18"/>
       <c r="K516" s="19"/>
     </row>
-    <row r="517" spans="1:11" ht="30">
+    <row r="517" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A517" s="14">
         <v>23692</v>
       </c>
@@ -16982,7 +16987,7 @@
       <c r="J517" s="18"/>
       <c r="K517" s="19"/>
     </row>
-    <row r="518" spans="1:11" ht="45">
+    <row r="518" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A518" s="14">
         <v>23692</v>
       </c>
@@ -17007,7 +17012,7 @@
       <c r="J518" s="18"/>
       <c r="K518" s="19"/>
     </row>
-    <row r="519" spans="1:11" ht="30">
+    <row r="519" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A519" s="14">
         <v>23692</v>
       </c>
@@ -17032,7 +17037,7 @@
       <c r="J519" s="18"/>
       <c r="K519" s="19"/>
     </row>
-    <row r="520" spans="1:11" ht="45">
+    <row r="520" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A520" s="14">
         <v>23692</v>
       </c>
@@ -17057,7 +17062,7 @@
       <c r="J520" s="18"/>
       <c r="K520" s="19"/>
     </row>
-    <row r="521" spans="1:11" ht="30">
+    <row r="521" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A521" s="20">
         <v>23706</v>
       </c>
@@ -17080,7 +17085,7 @@
       <c r="J521" s="25"/>
       <c r="K521" s="26"/>
     </row>
-    <row r="522" spans="1:11" ht="30">
+    <row r="522" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A522" s="14">
         <v>23708</v>
       </c>
@@ -17103,7 +17108,7 @@
       <c r="J522" s="18"/>
       <c r="K522" s="19"/>
     </row>
-    <row r="523" spans="1:11" ht="30">
+    <row r="523" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A523" s="20">
         <v>23709</v>
       </c>
@@ -17126,7 +17131,7 @@
       <c r="J523" s="25"/>
       <c r="K523" s="26"/>
     </row>
-    <row r="524" spans="1:11" ht="30">
+    <row r="524" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A524" s="14">
         <v>23710</v>
       </c>
@@ -17149,7 +17154,7 @@
       <c r="J524" s="18"/>
       <c r="K524" s="19"/>
     </row>
-    <row r="525" spans="1:11" ht="30">
+    <row r="525" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A525" s="20">
         <v>23712</v>
       </c>
@@ -17176,7 +17181,7 @@
       </c>
       <c r="K525" s="26"/>
     </row>
-    <row r="526" spans="1:11" ht="45">
+    <row r="526" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A526" s="20">
         <v>23712</v>
       </c>
@@ -17203,7 +17208,7 @@
       </c>
       <c r="K526" s="26"/>
     </row>
-    <row r="527" spans="1:11" ht="75">
+    <row r="527" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A527" s="20">
         <v>23712</v>
       </c>
@@ -17230,7 +17235,7 @@
       </c>
       <c r="K527" s="26"/>
     </row>
-    <row r="528" spans="1:11" ht="45">
+    <row r="528" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A528" s="20">
         <v>23712</v>
       </c>
@@ -17257,7 +17262,7 @@
       </c>
       <c r="K528" s="26"/>
     </row>
-    <row r="529" spans="1:11" ht="30">
+    <row r="529" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A529" s="20">
         <v>23712</v>
       </c>
@@ -17284,7 +17289,7 @@
       </c>
       <c r="K529" s="26"/>
     </row>
-    <row r="530" spans="1:11" ht="45">
+    <row r="530" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A530" s="20">
         <v>23712</v>
       </c>
@@ -17311,7 +17316,7 @@
       </c>
       <c r="K530" s="26"/>
     </row>
-    <row r="531" spans="1:11">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="20">
         <v>23712</v>
       </c>
@@ -17338,7 +17343,7 @@
       </c>
       <c r="K531" s="26"/>
     </row>
-    <row r="532" spans="1:11" ht="45">
+    <row r="532" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A532" s="20">
         <v>23712</v>
       </c>
@@ -17365,7 +17370,7 @@
       </c>
       <c r="K532" s="26"/>
     </row>
-    <row r="533" spans="1:11" ht="60">
+    <row r="533" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A533" s="20">
         <v>23712</v>
       </c>
@@ -17392,7 +17397,7 @@
       </c>
       <c r="K533" s="26"/>
     </row>
-    <row r="534" spans="1:11">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="20">
         <v>23712</v>
       </c>
@@ -17419,7 +17424,7 @@
       </c>
       <c r="K534" s="26"/>
     </row>
-    <row r="535" spans="1:11" ht="30">
+    <row r="535" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A535" s="14">
         <v>23753</v>
       </c>
@@ -17442,7 +17447,7 @@
       <c r="J535" s="18"/>
       <c r="K535" s="19"/>
     </row>
-    <row r="536" spans="1:11" ht="30">
+    <row r="536" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A536" s="14">
         <v>23753</v>
       </c>
@@ -17465,7 +17470,7 @@
       <c r="J536" s="18"/>
       <c r="K536" s="19"/>
     </row>
-    <row r="537" spans="1:11" ht="30">
+    <row r="537" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A537" s="14">
         <v>23753</v>
       </c>
@@ -17488,7 +17493,7 @@
       <c r="J537" s="18"/>
       <c r="K537" s="19"/>
     </row>
-    <row r="538" spans="1:11" ht="120">
+    <row r="538" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A538" s="14">
         <v>23753</v>
       </c>
@@ -17513,7 +17518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:11" ht="30">
+    <row r="539" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A539" s="14">
         <v>23753</v>
       </c>
@@ -17538,7 +17543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:11" ht="90">
+    <row r="540" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A540" s="14">
         <v>23753</v>
       </c>
@@ -17561,7 +17566,7 @@
       <c r="J540" s="18"/>
       <c r="K540" s="19"/>
     </row>
-    <row r="541" spans="1:11" ht="60">
+    <row r="541" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A541" s="14">
         <v>23753</v>
       </c>
@@ -17584,7 +17589,7 @@
       <c r="J541" s="18"/>
       <c r="K541" s="19"/>
     </row>
-    <row r="542" spans="1:11">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="20">
         <v>23899</v>
       </c>
@@ -17609,7 +17614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:11" ht="30">
+    <row r="543" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A543" s="14">
         <v>23934</v>
       </c>
@@ -17632,7 +17637,7 @@
       <c r="J543" s="18"/>
       <c r="K543" s="19"/>
     </row>
-    <row r="544" spans="1:11" ht="30">
+    <row r="544" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A544" s="14">
         <v>23934</v>
       </c>
@@ -17655,7 +17660,7 @@
       <c r="J544" s="18"/>
       <c r="K544" s="19"/>
     </row>
-    <row r="545" spans="1:11" ht="30">
+    <row r="545" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A545" s="14">
         <v>23934</v>
       </c>
@@ -17678,7 +17683,7 @@
       <c r="J545" s="18"/>
       <c r="K545" s="19"/>
     </row>
-    <row r="546" spans="1:11">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="20">
         <v>24045</v>
       </c>
@@ -17701,7 +17706,7 @@
       <c r="J546" s="25"/>
       <c r="K546" s="26"/>
     </row>
-    <row r="547" spans="1:11" ht="45">
+    <row r="547" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A547" s="20">
         <v>24045</v>
       </c>
@@ -17726,7 +17731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:11" ht="45">
+    <row r="548" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A548" s="20">
         <v>24045</v>
       </c>
@@ -17751,7 +17756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:11" ht="30">
+    <row r="549" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A549" s="20">
         <v>24045</v>
       </c>
@@ -17776,7 +17781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:11" ht="30">
+    <row r="550" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A550" s="20">
         <v>24045</v>
       </c>
@@ -17801,7 +17806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:11">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="20">
         <v>24045</v>
       </c>
@@ -17824,7 +17829,7 @@
       <c r="J551" s="25"/>
       <c r="K551" s="26"/>
     </row>
-    <row r="552" spans="1:11">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="20">
         <v>24045</v>
       </c>
@@ -17847,7 +17852,7 @@
       <c r="J552" s="25"/>
       <c r="K552" s="26"/>
     </row>
-    <row r="553" spans="1:11">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="20">
         <v>24045</v>
       </c>
@@ -17870,7 +17875,7 @@
       <c r="J553" s="25"/>
       <c r="K553" s="26"/>
     </row>
-    <row r="554" spans="1:11">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="20">
         <v>24045</v>
       </c>
@@ -17893,7 +17898,7 @@
       <c r="J554" s="25"/>
       <c r="K554" s="26"/>
     </row>
-    <row r="555" spans="1:11" ht="30">
+    <row r="555" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A555" s="14">
         <v>24046</v>
       </c>
@@ -17916,7 +17921,7 @@
       <c r="J555" s="18"/>
       <c r="K555" s="19"/>
     </row>
-    <row r="556" spans="1:11" ht="30">
+    <row r="556" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A556" s="14">
         <v>24046</v>
       </c>
@@ -17939,7 +17944,7 @@
       <c r="J556" s="18"/>
       <c r="K556" s="19"/>
     </row>
-    <row r="557" spans="1:11" ht="45">
+    <row r="557" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A557" s="14">
         <v>24046</v>
       </c>
@@ -17962,7 +17967,7 @@
       <c r="J557" s="18"/>
       <c r="K557" s="19"/>
     </row>
-    <row r="558" spans="1:11" ht="30">
+    <row r="558" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A558" s="14">
         <v>24046</v>
       </c>
@@ -17985,7 +17990,7 @@
       <c r="J558" s="18"/>
       <c r="K558" s="19"/>
     </row>
-    <row r="559" spans="1:11" ht="30">
+    <row r="559" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A559" s="14">
         <v>24046</v>
       </c>
@@ -18008,7 +18013,7 @@
       <c r="J559" s="18"/>
       <c r="K559" s="19"/>
     </row>
-    <row r="560" spans="1:11" ht="45">
+    <row r="560" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A560" s="20">
         <v>24047</v>
       </c>
@@ -18033,7 +18038,7 @@
       <c r="J560" s="25"/>
       <c r="K560" s="26"/>
     </row>
-    <row r="561" spans="1:11" ht="45">
+    <row r="561" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A561" s="20">
         <v>24047</v>
       </c>
@@ -18058,7 +18063,7 @@
       <c r="J561" s="25"/>
       <c r="K561" s="26"/>
     </row>
-    <row r="562" spans="1:11" ht="90">
+    <row r="562" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A562" s="20">
         <v>24047</v>
       </c>
@@ -18083,7 +18088,7 @@
       <c r="J562" s="25"/>
       <c r="K562" s="26"/>
     </row>
-    <row r="563" spans="1:11" ht="60">
+    <row r="563" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A563" s="20">
         <v>24047</v>
       </c>
@@ -18108,7 +18113,7 @@
       <c r="J563" s="25"/>
       <c r="K563" s="26"/>
     </row>
-    <row r="564" spans="1:11" ht="30">
+    <row r="564" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A564" s="20">
         <v>24047</v>
       </c>
@@ -18133,7 +18138,7 @@
       <c r="J564" s="25"/>
       <c r="K564" s="26"/>
     </row>
-    <row r="565" spans="1:11" ht="30">
+    <row r="565" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A565" s="20">
         <v>24047</v>
       </c>
@@ -18158,7 +18163,7 @@
       <c r="J565" s="25"/>
       <c r="K565" s="26"/>
     </row>
-    <row r="566" spans="1:11" ht="90">
+    <row r="566" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A566" s="20">
         <v>24047</v>
       </c>
@@ -18183,7 +18188,7 @@
       <c r="J566" s="25"/>
       <c r="K566" s="26"/>
     </row>
-    <row r="567" spans="1:11" ht="60">
+    <row r="567" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A567" s="20">
         <v>24047</v>
       </c>
@@ -18208,7 +18213,7 @@
       <c r="J567" s="25"/>
       <c r="K567" s="26"/>
     </row>
-    <row r="568" spans="1:11" ht="75">
+    <row r="568" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A568" s="20">
         <v>24047</v>
       </c>
@@ -18233,7 +18238,7 @@
       <c r="J568" s="25"/>
       <c r="K568" s="26"/>
     </row>
-    <row r="569" spans="1:11" ht="90">
+    <row r="569" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A569" s="20">
         <v>24047</v>
       </c>
@@ -18258,7 +18263,7 @@
       <c r="J569" s="25"/>
       <c r="K569" s="26"/>
     </row>
-    <row r="570" spans="1:11" ht="45">
+    <row r="570" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A570" s="20">
         <v>24047</v>
       </c>
@@ -18283,7 +18288,7 @@
       <c r="J570" s="25"/>
       <c r="K570" s="26"/>
     </row>
-    <row r="571" spans="1:11" ht="45">
+    <row r="571" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A571" s="20">
         <v>24047</v>
       </c>
@@ -18308,7 +18313,7 @@
       <c r="J571" s="25"/>
       <c r="K571" s="26"/>
     </row>
-    <row r="572" spans="1:11" ht="60">
+    <row r="572" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A572" s="20">
         <v>24047</v>
       </c>
@@ -18333,7 +18338,7 @@
       <c r="J572" s="25"/>
       <c r="K572" s="26"/>
     </row>
-    <row r="573" spans="1:11" ht="90">
+    <row r="573" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A573" s="14">
         <v>24048</v>
       </c>
@@ -18358,7 +18363,7 @@
       <c r="J573" s="18"/>
       <c r="K573" s="19"/>
     </row>
-    <row r="574" spans="1:11" ht="30">
+    <row r="574" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A574" s="14">
         <v>24048</v>
       </c>
@@ -18383,7 +18388,7 @@
       <c r="J574" s="18"/>
       <c r="K574" s="19"/>
     </row>
-    <row r="575" spans="1:11" ht="30">
+    <row r="575" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A575" s="14">
         <v>24048</v>
       </c>
@@ -18408,7 +18413,7 @@
       <c r="J575" s="18"/>
       <c r="K575" s="19"/>
     </row>
-    <row r="576" spans="1:11" ht="30">
+    <row r="576" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A576" s="14">
         <v>24048</v>
       </c>
@@ -18433,7 +18438,7 @@
       <c r="J576" s="18"/>
       <c r="K576" s="19"/>
     </row>
-    <row r="577" spans="1:11" ht="60">
+    <row r="577" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A577" s="14">
         <v>24048</v>
       </c>
@@ -18458,7 +18463,7 @@
       <c r="J577" s="18"/>
       <c r="K577" s="19"/>
     </row>
-    <row r="578" spans="1:11" ht="45">
+    <row r="578" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A578" s="14">
         <v>24048</v>
       </c>
@@ -18483,7 +18488,7 @@
       <c r="J578" s="18"/>
       <c r="K578" s="19"/>
     </row>
-    <row r="579" spans="1:11">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="14">
         <v>24048</v>
       </c>
@@ -18508,7 +18513,7 @@
       <c r="J579" s="18"/>
       <c r="K579" s="19"/>
     </row>
-    <row r="580" spans="1:11" ht="75">
+    <row r="580" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A580" s="14">
         <v>24048</v>
       </c>
@@ -18533,7 +18538,7 @@
       <c r="J580" s="18"/>
       <c r="K580" s="19"/>
     </row>
-    <row r="581" spans="1:11" ht="60">
+    <row r="581" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A581" s="14">
         <v>24048</v>
       </c>
@@ -18558,7 +18563,7 @@
       <c r="J581" s="18"/>
       <c r="K581" s="19"/>
     </row>
-    <row r="582" spans="1:11" ht="75">
+    <row r="582" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A582" s="14">
         <v>24048</v>
       </c>
@@ -18583,7 +18588,7 @@
       <c r="J582" s="18"/>
       <c r="K582" s="19"/>
     </row>
-    <row r="583" spans="1:11" ht="75">
+    <row r="583" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A583" s="14">
         <v>24048</v>
       </c>
@@ -18608,7 +18613,7 @@
       <c r="J583" s="18"/>
       <c r="K583" s="19"/>
     </row>
-    <row r="584" spans="1:11" ht="30">
+    <row r="584" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A584" s="14">
         <v>24048</v>
       </c>
@@ -18633,7 +18638,7 @@
       <c r="J584" s="18"/>
       <c r="K584" s="19"/>
     </row>
-    <row r="585" spans="1:11" ht="60">
+    <row r="585" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A585" s="14">
         <v>24048</v>
       </c>
@@ -18658,7 +18663,7 @@
       <c r="J585" s="18"/>
       <c r="K585" s="19"/>
     </row>
-    <row r="586" spans="1:11" ht="30">
+    <row r="586" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A586" s="14">
         <v>24048</v>
       </c>
@@ -18683,7 +18688,7 @@
       <c r="J586" s="18"/>
       <c r="K586" s="19"/>
     </row>
-    <row r="587" spans="1:11" ht="45">
+    <row r="587" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A587" s="14">
         <v>24048</v>
       </c>
@@ -18708,7 +18713,7 @@
       <c r="J587" s="18"/>
       <c r="K587" s="19"/>
     </row>
-    <row r="588" spans="1:11" ht="45">
+    <row r="588" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A588" s="20">
         <v>24049</v>
       </c>
@@ -18733,7 +18738,7 @@
       <c r="J588" s="25"/>
       <c r="K588" s="26"/>
     </row>
-    <row r="589" spans="1:11" ht="30">
+    <row r="589" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A589" s="20">
         <v>24049</v>
       </c>
@@ -18758,7 +18763,7 @@
       <c r="J589" s="25"/>
       <c r="K589" s="26"/>
     </row>
-    <row r="590" spans="1:11" ht="45">
+    <row r="590" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A590" s="20">
         <v>24049</v>
       </c>
@@ -18783,7 +18788,7 @@
       <c r="J590" s="25"/>
       <c r="K590" s="26"/>
     </row>
-    <row r="591" spans="1:11" ht="60">
+    <row r="591" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A591" s="14">
         <v>24050</v>
       </c>
@@ -18808,7 +18813,7 @@
       <c r="J591" s="18"/>
       <c r="K591" s="19"/>
     </row>
-    <row r="592" spans="1:11">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="14">
         <v>24050</v>
       </c>
@@ -18833,7 +18838,7 @@
       <c r="J592" s="18"/>
       <c r="K592" s="19"/>
     </row>
-    <row r="593" spans="1:11" ht="45">
+    <row r="593" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A593" s="14">
         <v>24050</v>
       </c>
@@ -18858,7 +18863,7 @@
       <c r="J593" s="18"/>
       <c r="K593" s="19"/>
     </row>
-    <row r="594" spans="1:11" ht="75">
+    <row r="594" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A594" s="20">
         <v>24067</v>
       </c>
@@ -18883,7 +18888,7 @@
       <c r="J594" s="25"/>
       <c r="K594" s="26"/>
     </row>
-    <row r="595" spans="1:11" ht="90">
+    <row r="595" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A595" s="20">
         <v>24067</v>
       </c>
@@ -18908,7 +18913,7 @@
       <c r="J595" s="25"/>
       <c r="K595" s="26"/>
     </row>
-    <row r="596" spans="1:11" ht="45">
+    <row r="596" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A596" s="20">
         <v>24067</v>
       </c>
@@ -18933,7 +18938,7 @@
       <c r="J596" s="25"/>
       <c r="K596" s="26"/>
     </row>
-    <row r="597" spans="1:11" ht="75">
+    <row r="597" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A597" s="14">
         <v>24113</v>
       </c>
@@ -18958,7 +18963,7 @@
       <c r="J597" s="18"/>
       <c r="K597" s="19"/>
     </row>
-    <row r="598" spans="1:11">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="14">
         <v>24113</v>
       </c>
@@ -18983,7 +18988,7 @@
       <c r="J598" s="18"/>
       <c r="K598" s="19"/>
     </row>
-    <row r="599" spans="1:11" ht="30">
+    <row r="599" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A599" s="14">
         <v>24113</v>
       </c>
@@ -19008,7 +19013,7 @@
       <c r="J599" s="18"/>
       <c r="K599" s="19"/>
     </row>
-    <row r="600" spans="1:11">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="14">
         <v>24113</v>
       </c>
@@ -19033,7 +19038,7 @@
       <c r="J600" s="18"/>
       <c r="K600" s="19"/>
     </row>
-    <row r="601" spans="1:11" ht="75">
+    <row r="601" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A601" s="14">
         <v>24113</v>
       </c>
@@ -19058,7 +19063,7 @@
       <c r="J601" s="18"/>
       <c r="K601" s="19"/>
     </row>
-    <row r="602" spans="1:11" ht="60">
+    <row r="602" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A602" s="14">
         <v>24113</v>
       </c>
@@ -19083,7 +19088,7 @@
       <c r="J602" s="18"/>
       <c r="K602" s="19"/>
     </row>
-    <row r="603" spans="1:11">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="20">
         <v>24196</v>
       </c>
@@ -19108,7 +19113,7 @@
       <c r="J603" s="25"/>
       <c r="K603" s="26"/>
     </row>
-    <row r="604" spans="1:11" ht="75">
+    <row r="604" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A604" s="14">
         <v>24387</v>
       </c>
@@ -19135,7 +19140,7 @@
       <c r="J604" s="18"/>
       <c r="K604" s="19"/>
     </row>
-    <row r="605" spans="1:11" ht="105">
+    <row r="605" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A605" s="14">
         <v>24387</v>
       </c>
@@ -19162,7 +19167,7 @@
       <c r="J605" s="18"/>
       <c r="K605" s="19"/>
     </row>
-    <row r="606" spans="1:11" ht="75">
+    <row r="606" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A606" s="14">
         <v>24387</v>
       </c>
@@ -19189,7 +19194,7 @@
       <c r="J606" s="18"/>
       <c r="K606" s="19"/>
     </row>
-    <row r="607" spans="1:11" ht="120">
+    <row r="607" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A607" s="14">
         <v>24387</v>
       </c>
@@ -19216,7 +19221,7 @@
       <c r="J607" s="18"/>
       <c r="K607" s="19"/>
     </row>
-    <row r="608" spans="1:11" ht="45">
+    <row r="608" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A608" s="14">
         <v>24387</v>
       </c>
@@ -19243,7 +19248,7 @@
       <c r="J608" s="18"/>
       <c r="K608" s="19"/>
     </row>
-    <row r="609" spans="1:11" ht="30">
+    <row r="609" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A609" s="14">
         <v>24387</v>
       </c>
@@ -19270,7 +19275,7 @@
       <c r="J609" s="18"/>
       <c r="K609" s="19"/>
     </row>
-    <row r="610" spans="1:11">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="20">
         <v>24418</v>
       </c>
@@ -19293,7 +19298,7 @@
       <c r="J610" s="25"/>
       <c r="K610" s="26"/>
     </row>
-    <row r="611" spans="1:11">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="20">
         <v>24418</v>
       </c>
@@ -19316,7 +19321,7 @@
       <c r="J611" s="25"/>
       <c r="K611" s="26"/>
     </row>
-    <row r="612" spans="1:11">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="20">
         <v>24418</v>
       </c>
@@ -19341,7 +19346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:11" ht="45">
+    <row r="613" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A613" s="20">
         <v>24418</v>
       </c>
@@ -19366,7 +19371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:11" ht="75">
+    <row r="614" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A614" s="20">
         <v>24418</v>
       </c>
@@ -19389,7 +19394,7 @@
       <c r="J614" s="25"/>
       <c r="K614" s="26"/>
     </row>
-    <row r="615" spans="1:11" ht="45">
+    <row r="615" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A615" s="20">
         <v>24418</v>
       </c>
@@ -19412,7 +19417,7 @@
       <c r="J615" s="25"/>
       <c r="K615" s="26"/>
     </row>
-    <row r="616" spans="1:11" ht="30">
+    <row r="616" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A616" s="14">
         <v>24539</v>
       </c>
@@ -19437,7 +19442,7 @@
       <c r="J616" s="18"/>
       <c r="K616" s="19"/>
     </row>
-    <row r="617" spans="1:11" ht="45">
+    <row r="617" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A617" s="14">
         <v>24539</v>
       </c>
@@ -19462,7 +19467,7 @@
       <c r="J617" s="18"/>
       <c r="K617" s="19"/>
     </row>
-    <row r="618" spans="1:11" ht="30">
+    <row r="618" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A618" s="20">
         <v>24544</v>
       </c>
@@ -19485,7 +19490,7 @@
       <c r="J618" s="25"/>
       <c r="K618" s="26"/>
     </row>
-    <row r="619" spans="1:11" ht="60">
+    <row r="619" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A619" s="20">
         <v>24544</v>
       </c>
@@ -19510,7 +19515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:11" ht="45">
+    <row r="620" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A620" s="20">
         <v>24544</v>
       </c>
@@ -19533,7 +19538,7 @@
       <c r="J620" s="25"/>
       <c r="K620" s="26"/>
     </row>
-    <row r="621" spans="1:11" ht="30">
+    <row r="621" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A621" s="14">
         <v>24622</v>
       </c>
@@ -19558,7 +19563,7 @@
       <c r="J621" s="18"/>
       <c r="K621" s="19"/>
     </row>
-    <row r="622" spans="1:11" ht="30">
+    <row r="622" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A622" s="14">
         <v>24622</v>
       </c>
@@ -19583,7 +19588,7 @@
       <c r="J622" s="18"/>
       <c r="K622" s="19"/>
     </row>
-    <row r="623" spans="1:11" ht="45">
+    <row r="623" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A623" s="14">
         <v>24622</v>
       </c>
@@ -19608,7 +19613,7 @@
       <c r="J623" s="18"/>
       <c r="K623" s="19"/>
     </row>
-    <row r="624" spans="1:11" ht="60">
+    <row r="624" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A624" s="14">
         <v>24622</v>
       </c>
@@ -19633,7 +19638,7 @@
       <c r="J624" s="18"/>
       <c r="K624" s="19"/>
     </row>
-    <row r="625" spans="1:11" ht="30">
+    <row r="625" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A625" s="20">
         <v>24623</v>
       </c>
@@ -19658,7 +19663,7 @@
       <c r="J625" s="25"/>
       <c r="K625" s="26"/>
     </row>
-    <row r="626" spans="1:11" ht="30">
+    <row r="626" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A626" s="20">
         <v>24623</v>
       </c>
@@ -19683,7 +19688,7 @@
       <c r="J626" s="25"/>
       <c r="K626" s="26"/>
     </row>
-    <row r="627" spans="1:11" ht="30">
+    <row r="627" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A627" s="20">
         <v>24623</v>
       </c>
@@ -19708,7 +19713,7 @@
       <c r="J627" s="25"/>
       <c r="K627" s="26"/>
     </row>
-    <row r="628" spans="1:11" ht="105">
+    <row r="628" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A628" s="20">
         <v>24623</v>
       </c>
@@ -19733,7 +19738,7 @@
       <c r="J628" s="25"/>
       <c r="K628" s="26"/>
     </row>
-    <row r="629" spans="1:11" ht="60">
+    <row r="629" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A629" s="20">
         <v>24623</v>
       </c>
@@ -19758,7 +19763,7 @@
       <c r="J629" s="25"/>
       <c r="K629" s="26"/>
     </row>
-    <row r="630" spans="1:11" ht="105">
+    <row r="630" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A630" s="14">
         <v>24630</v>
       </c>
@@ -19783,7 +19788,7 @@
       <c r="J630" s="18"/>
       <c r="K630" s="19"/>
     </row>
-    <row r="631" spans="1:11" ht="75">
+    <row r="631" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A631" s="14">
         <v>24630</v>
       </c>
@@ -19808,7 +19813,7 @@
       <c r="J631" s="18"/>
       <c r="K631" s="19"/>
     </row>
-    <row r="632" spans="1:11" ht="30">
+    <row r="632" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A632" s="20">
         <v>24667</v>
       </c>
@@ -19831,7 +19836,7 @@
       <c r="J632" s="25"/>
       <c r="K632" s="26"/>
     </row>
-    <row r="633" spans="1:11" ht="30">
+    <row r="633" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A633" s="20">
         <v>24667</v>
       </c>
@@ -19854,7 +19859,7 @@
       <c r="J633" s="25"/>
       <c r="K633" s="26"/>
     </row>
-    <row r="634" spans="1:11" ht="90">
+    <row r="634" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A634" s="20">
         <v>24667</v>
       </c>
@@ -19879,7 +19884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:11" ht="30">
+    <row r="635" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A635" s="20">
         <v>24667</v>
       </c>
@@ -19904,7 +19909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:11" ht="30">
+    <row r="636" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A636" s="20">
         <v>24667</v>
       </c>
@@ -19927,7 +19932,7 @@
       <c r="J636" s="25"/>
       <c r="K636" s="26"/>
     </row>
-    <row r="637" spans="1:11" ht="60">
+    <row r="637" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A637" s="20">
         <v>24667</v>
       </c>
@@ -19950,7 +19955,7 @@
       <c r="J637" s="25"/>
       <c r="K637" s="26"/>
     </row>
-    <row r="638" spans="1:11">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="14">
         <v>24755</v>
       </c>
@@ -19973,7 +19978,7 @@
       <c r="J638" s="18"/>
       <c r="K638" s="19"/>
     </row>
-    <row r="639" spans="1:11" ht="45">
+    <row r="639" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A639" s="14">
         <v>24755</v>
       </c>
@@ -19998,7 +20003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:11" ht="90">
+    <row r="640" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A640" s="14">
         <v>24755</v>
       </c>
@@ -20021,7 +20026,7 @@
       <c r="J640" s="18"/>
       <c r="K640" s="19"/>
     </row>
-    <row r="641" spans="1:11" ht="30">
+    <row r="641" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A641" s="20">
         <v>24763</v>
       </c>
@@ -20046,7 +20051,7 @@
       <c r="J641" s="25"/>
       <c r="K641" s="26"/>
     </row>
-    <row r="642" spans="1:11" ht="30">
+    <row r="642" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A642" s="20">
         <v>24763</v>
       </c>
@@ -20071,7 +20076,7 @@
       <c r="J642" s="25"/>
       <c r="K642" s="26"/>
     </row>
-    <row r="643" spans="1:11" ht="30">
+    <row r="643" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A643" s="20">
         <v>24763</v>
       </c>
@@ -20096,7 +20101,7 @@
       <c r="J643" s="25"/>
       <c r="K643" s="26"/>
     </row>
-    <row r="644" spans="1:11" ht="60">
+    <row r="644" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A644" s="14">
         <v>24764</v>
       </c>
@@ -20123,7 +20128,7 @@
       <c r="J644" s="18"/>
       <c r="K644" s="19"/>
     </row>
-    <row r="645" spans="1:11" ht="30">
+    <row r="645" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A645" s="14">
         <v>24764</v>
       </c>
@@ -20150,7 +20155,7 @@
       <c r="J645" s="18"/>
       <c r="K645" s="19"/>
     </row>
-    <row r="646" spans="1:11" ht="45">
+    <row r="646" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A646" s="14">
         <v>24764</v>
       </c>
@@ -20177,7 +20182,7 @@
       <c r="J646" s="18"/>
       <c r="K646" s="19"/>
     </row>
-    <row r="647" spans="1:11" ht="75">
+    <row r="647" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A647" s="20">
         <v>24778</v>
       </c>
@@ -20204,7 +20209,7 @@
       <c r="J647" s="25"/>
       <c r="K647" s="26"/>
     </row>
-    <row r="648" spans="1:11" ht="60">
+    <row r="648" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A648" s="20">
         <v>24778</v>
       </c>
@@ -20231,7 +20236,7 @@
       <c r="J648" s="25"/>
       <c r="K648" s="26"/>
     </row>
-    <row r="649" spans="1:11" ht="45">
+    <row r="649" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A649" s="20">
         <v>24778</v>
       </c>
@@ -20258,7 +20263,7 @@
       <c r="J649" s="25"/>
       <c r="K649" s="26"/>
     </row>
-    <row r="650" spans="1:11" ht="30">
+    <row r="650" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A650" s="20">
         <v>24778</v>
       </c>
@@ -20285,7 +20290,7 @@
       <c r="J650" s="25"/>
       <c r="K650" s="26"/>
     </row>
-    <row r="651" spans="1:11">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="20">
         <v>24778</v>
       </c>
@@ -20312,7 +20317,7 @@
       <c r="J651" s="25"/>
       <c r="K651" s="26"/>
     </row>
-    <row r="652" spans="1:11" ht="60">
+    <row r="652" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A652" s="20">
         <v>24778</v>
       </c>
@@ -20339,7 +20344,7 @@
       <c r="J652" s="25"/>
       <c r="K652" s="26"/>
     </row>
-    <row r="653" spans="1:11" ht="75">
+    <row r="653" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A653" s="14">
         <v>24779</v>
       </c>
@@ -20364,7 +20369,7 @@
       <c r="J653" s="18"/>
       <c r="K653" s="19"/>
     </row>
-    <row r="654" spans="1:11" ht="30">
+    <row r="654" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A654" s="14">
         <v>24779</v>
       </c>
@@ -20389,7 +20394,7 @@
       <c r="J654" s="18"/>
       <c r="K654" s="19"/>
     </row>
-    <row r="655" spans="1:11" ht="105">
+    <row r="655" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A655" s="14">
         <v>24779</v>
       </c>
@@ -20414,7 +20419,7 @@
       <c r="J655" s="18"/>
       <c r="K655" s="19"/>
     </row>
-    <row r="656" spans="1:11" ht="105">
+    <row r="656" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A656" s="14">
         <v>24779</v>
       </c>
@@ -20439,7 +20444,7 @@
       <c r="J656" s="18"/>
       <c r="K656" s="19"/>
     </row>
-    <row r="657" spans="1:11" ht="30">
+    <row r="657" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A657" s="14">
         <v>24779</v>
       </c>
@@ -20464,7 +20469,7 @@
       <c r="J657" s="18"/>
       <c r="K657" s="19"/>
     </row>
-    <row r="658" spans="1:11" ht="45">
+    <row r="658" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A658" s="14">
         <v>24779</v>
       </c>
@@ -20489,7 +20494,7 @@
       <c r="J658" s="18"/>
       <c r="K658" s="19"/>
     </row>
-    <row r="659" spans="1:11" ht="90">
+    <row r="659" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A659" s="14">
         <v>24779</v>
       </c>
@@ -20514,7 +20519,7 @@
       <c r="J659" s="18"/>
       <c r="K659" s="19"/>
     </row>
-    <row r="660" spans="1:11">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="14">
         <v>24779</v>
       </c>
@@ -20539,7 +20544,7 @@
       <c r="J660" s="18"/>
       <c r="K660" s="19"/>
     </row>
-    <row r="661" spans="1:11" ht="60">
+    <row r="661" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A661" s="14">
         <v>24779</v>
       </c>
@@ -20564,7 +20569,7 @@
       <c r="J661" s="18"/>
       <c r="K661" s="19"/>
     </row>
-    <row r="662" spans="1:11" ht="75">
+    <row r="662" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A662" s="20">
         <v>24780</v>
       </c>
@@ -20589,7 +20594,7 @@
       <c r="J662" s="25"/>
       <c r="K662" s="26"/>
     </row>
-    <row r="663" spans="1:11">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="20">
         <v>24780</v>
       </c>
@@ -20614,7 +20619,7 @@
       <c r="J663" s="25"/>
       <c r="K663" s="26"/>
     </row>
-    <row r="664" spans="1:11">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="20">
         <v>24780</v>
       </c>
@@ -20639,7 +20644,7 @@
       <c r="J664" s="25"/>
       <c r="K664" s="26"/>
     </row>
-    <row r="665" spans="1:11">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="20">
         <v>24780</v>
       </c>
@@ -20664,7 +20669,7 @@
       <c r="J665" s="25"/>
       <c r="K665" s="26"/>
     </row>
-    <row r="666" spans="1:11" ht="60">
+    <row r="666" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A666" s="20">
         <v>24780</v>
       </c>
@@ -20689,7 +20694,7 @@
       <c r="J666" s="25"/>
       <c r="K666" s="26"/>
     </row>
-    <row r="667" spans="1:11" ht="60">
+    <row r="667" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A667" s="20">
         <v>24780</v>
       </c>
@@ -20714,7 +20719,7 @@
       <c r="J667" s="25"/>
       <c r="K667" s="26"/>
     </row>
-    <row r="668" spans="1:11" ht="45">
+    <row r="668" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A668" s="20">
         <v>24780</v>
       </c>
@@ -20739,7 +20744,7 @@
       <c r="J668" s="25"/>
       <c r="K668" s="26"/>
     </row>
-    <row r="669" spans="1:11" ht="30">
+    <row r="669" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A669" s="14">
         <v>24781</v>
       </c>
@@ -20764,7 +20769,7 @@
       <c r="J669" s="18"/>
       <c r="K669" s="19"/>
     </row>
-    <row r="670" spans="1:11" ht="75">
+    <row r="670" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A670" s="14">
         <v>24781</v>
       </c>
@@ -20789,7 +20794,7 @@
       <c r="J670" s="18"/>
       <c r="K670" s="19"/>
     </row>
-    <row r="671" spans="1:11" ht="45">
+    <row r="671" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A671" s="14">
         <v>24781</v>
       </c>
@@ -20814,7 +20819,7 @@
       <c r="J671" s="18"/>
       <c r="K671" s="19"/>
     </row>
-    <row r="672" spans="1:11" ht="30">
+    <row r="672" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A672" s="14">
         <v>24781</v>
       </c>
@@ -20839,7 +20844,7 @@
       <c r="J672" s="18"/>
       <c r="K672" s="19"/>
     </row>
-    <row r="673" spans="1:11" ht="75">
+    <row r="673" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A673" s="14">
         <v>24781</v>
       </c>
@@ -20864,7 +20869,7 @@
       <c r="J673" s="18"/>
       <c r="K673" s="19"/>
     </row>
-    <row r="674" spans="1:11">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="14">
         <v>24781</v>
       </c>
@@ -20889,7 +20894,7 @@
       <c r="J674" s="18"/>
       <c r="K674" s="19"/>
     </row>
-    <row r="675" spans="1:11" ht="30">
+    <row r="675" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A675" s="14">
         <v>24781</v>
       </c>
@@ -20914,7 +20919,7 @@
       <c r="J675" s="18"/>
       <c r="K675" s="19"/>
     </row>
-    <row r="676" spans="1:11" ht="30">
+    <row r="676" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A676" s="20">
         <v>24782</v>
       </c>
@@ -20941,7 +20946,7 @@
       <c r="J676" s="25"/>
       <c r="K676" s="26"/>
     </row>
-    <row r="677" spans="1:11" ht="60">
+    <row r="677" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A677" s="20">
         <v>24782</v>
       </c>
@@ -20968,7 +20973,7 @@
       <c r="J677" s="25"/>
       <c r="K677" s="26"/>
     </row>
-    <row r="678" spans="1:11" ht="45">
+    <row r="678" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A678" s="20">
         <v>24782</v>
       </c>
@@ -20995,7 +21000,7 @@
       <c r="J678" s="25"/>
       <c r="K678" s="26"/>
     </row>
-    <row r="679" spans="1:11" ht="75">
+    <row r="679" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A679" s="20">
         <v>24782</v>
       </c>
@@ -21022,7 +21027,7 @@
       <c r="J679" s="25"/>
       <c r="K679" s="26"/>
     </row>
-    <row r="680" spans="1:11" ht="45">
+    <row r="680" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A680" s="20">
         <v>24782</v>
       </c>
@@ -21049,7 +21054,7 @@
       <c r="J680" s="25"/>
       <c r="K680" s="26"/>
     </row>
-    <row r="681" spans="1:11" ht="45">
+    <row r="681" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A681" s="20">
         <v>24782</v>
       </c>
@@ -21076,7 +21081,7 @@
       <c r="J681" s="25"/>
       <c r="K681" s="26"/>
     </row>
-    <row r="682" spans="1:11" ht="30">
+    <row r="682" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A682" s="20">
         <v>24782</v>
       </c>
@@ -21103,7 +21108,7 @@
       <c r="J682" s="25"/>
       <c r="K682" s="26"/>
     </row>
-    <row r="683" spans="1:11" ht="45">
+    <row r="683" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A683" s="20">
         <v>24782</v>
       </c>
@@ -21130,7 +21135,7 @@
       <c r="J683" s="25"/>
       <c r="K683" s="26"/>
     </row>
-    <row r="684" spans="1:11" ht="30">
+    <row r="684" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A684" s="14">
         <v>24783</v>
       </c>
@@ -21157,7 +21162,7 @@
       <c r="J684" s="18"/>
       <c r="K684" s="19"/>
     </row>
-    <row r="685" spans="1:11" ht="30">
+    <row r="685" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A685" s="14">
         <v>24783</v>
       </c>
@@ -21184,7 +21189,7 @@
       <c r="J685" s="18"/>
       <c r="K685" s="19"/>
     </row>
-    <row r="686" spans="1:11" ht="90">
+    <row r="686" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A686" s="14">
         <v>24783</v>
       </c>
@@ -21211,7 +21216,7 @@
       <c r="J686" s="18"/>
       <c r="K686" s="19"/>
     </row>
-    <row r="687" spans="1:11" ht="75">
+    <row r="687" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A687" s="14">
         <v>24783</v>
       </c>
@@ -21238,7 +21243,7 @@
       <c r="J687" s="18"/>
       <c r="K687" s="19"/>
     </row>
-    <row r="688" spans="1:11" ht="60">
+    <row r="688" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A688" s="14">
         <v>24783</v>
       </c>
@@ -21265,7 +21270,7 @@
       <c r="J688" s="18"/>
       <c r="K688" s="19"/>
     </row>
-    <row r="689" spans="1:11" ht="60">
+    <row r="689" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A689" s="14">
         <v>24783</v>
       </c>
@@ -21292,7 +21297,7 @@
       <c r="J689" s="18"/>
       <c r="K689" s="19"/>
     </row>
-    <row r="690" spans="1:11" ht="30">
+    <row r="690" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A690" s="20">
         <v>24784</v>
       </c>
@@ -21315,7 +21320,7 @@
       <c r="J690" s="25"/>
       <c r="K690" s="26"/>
     </row>
-    <row r="691" spans="1:11" ht="30">
+    <row r="691" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A691" s="20">
         <v>24784</v>
       </c>
@@ -21338,7 +21343,7 @@
       <c r="J691" s="25"/>
       <c r="K691" s="26"/>
     </row>
-    <row r="692" spans="1:11" ht="30">
+    <row r="692" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A692" s="14">
         <v>24787</v>
       </c>
@@ -21363,7 +21368,7 @@
       <c r="J692" s="18"/>
       <c r="K692" s="19"/>
     </row>
-    <row r="693" spans="1:11" ht="30">
+    <row r="693" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A693" s="14">
         <v>24787</v>
       </c>
@@ -21388,7 +21393,7 @@
       <c r="J693" s="18"/>
       <c r="K693" s="19"/>
     </row>
-    <row r="694" spans="1:11" ht="45">
+    <row r="694" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A694" s="14">
         <v>24787</v>
       </c>
@@ -21413,7 +21418,7 @@
       <c r="J694" s="18"/>
       <c r="K694" s="19"/>
     </row>
-    <row r="695" spans="1:11" ht="30">
+    <row r="695" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A695" s="20">
         <v>24788</v>
       </c>
@@ -21438,7 +21443,7 @@
       <c r="J695" s="25"/>
       <c r="K695" s="26"/>
     </row>
-    <row r="696" spans="1:11" ht="30">
+    <row r="696" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A696" s="20">
         <v>24788</v>
       </c>
@@ -21463,7 +21468,7 @@
       <c r="J696" s="25"/>
       <c r="K696" s="26"/>
     </row>
-    <row r="697" spans="1:11" ht="60">
+    <row r="697" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A697" s="20">
         <v>24788</v>
       </c>
@@ -21488,7 +21493,7 @@
       <c r="J697" s="25"/>
       <c r="K697" s="26"/>
     </row>
-    <row r="698" spans="1:11" ht="75">
+    <row r="698" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A698" s="20">
         <v>24788</v>
       </c>
@@ -21513,7 +21518,7 @@
       <c r="J698" s="25"/>
       <c r="K698" s="26"/>
     </row>
-    <row r="699" spans="1:11" ht="30">
+    <row r="699" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A699" s="20">
         <v>24788</v>
       </c>
@@ -21538,7 +21543,7 @@
       <c r="J699" s="25"/>
       <c r="K699" s="26"/>
     </row>
-    <row r="700" spans="1:11" ht="30">
+    <row r="700" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A700" s="20">
         <v>24788</v>
       </c>
@@ -21563,7 +21568,7 @@
       <c r="J700" s="25"/>
       <c r="K700" s="26"/>
     </row>
-    <row r="701" spans="1:11" ht="75">
+    <row r="701" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A701" s="20">
         <v>24788</v>
       </c>
@@ -21588,7 +21593,7 @@
       <c r="J701" s="25"/>
       <c r="K701" s="26"/>
     </row>
-    <row r="702" spans="1:11" ht="30">
+    <row r="702" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A702" s="20">
         <v>24788</v>
       </c>
@@ -21613,7 +21618,7 @@
       <c r="J702" s="25"/>
       <c r="K702" s="26"/>
     </row>
-    <row r="703" spans="1:11" ht="30">
+    <row r="703" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A703" s="14">
         <v>24789</v>
       </c>
@@ -21638,7 +21643,7 @@
       <c r="J703" s="18"/>
       <c r="K703" s="19"/>
     </row>
-    <row r="704" spans="1:11" ht="45">
+    <row r="704" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A704" s="14">
         <v>24789</v>
       </c>
@@ -21663,7 +21668,7 @@
       <c r="J704" s="18"/>
       <c r="K704" s="19"/>
     </row>
-    <row r="705" spans="1:11" ht="45">
+    <row r="705" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A705" s="14">
         <v>24789</v>
       </c>
@@ -21688,7 +21693,7 @@
       <c r="J705" s="18"/>
       <c r="K705" s="19"/>
     </row>
-    <row r="706" spans="1:11" ht="30">
+    <row r="706" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A706" s="14">
         <v>24789</v>
       </c>
@@ -21713,7 +21718,7 @@
       <c r="J706" s="18"/>
       <c r="K706" s="19"/>
     </row>
-    <row r="707" spans="1:11" ht="30">
+    <row r="707" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A707" s="14">
         <v>24789</v>
       </c>
@@ -21738,7 +21743,7 @@
       <c r="J707" s="18"/>
       <c r="K707" s="19"/>
     </row>
-    <row r="708" spans="1:11" ht="45">
+    <row r="708" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A708" s="14">
         <v>24789</v>
       </c>
@@ -21763,7 +21768,7 @@
       <c r="J708" s="18"/>
       <c r="K708" s="19"/>
     </row>
-    <row r="709" spans="1:11" ht="30">
+    <row r="709" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A709" s="20">
         <v>24793</v>
       </c>
@@ -21788,7 +21793,7 @@
       <c r="J709" s="25"/>
       <c r="K709" s="26"/>
     </row>
-    <row r="710" spans="1:11">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="20">
         <v>24793</v>
       </c>
@@ -21813,7 +21818,7 @@
       <c r="J710" s="25"/>
       <c r="K710" s="26"/>
     </row>
-    <row r="711" spans="1:11" ht="45">
+    <row r="711" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A711" s="20">
         <v>24793</v>
       </c>
@@ -21838,7 +21843,7 @@
       <c r="J711" s="25"/>
       <c r="K711" s="26"/>
     </row>
-    <row r="712" spans="1:11">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="20">
         <v>24793</v>
       </c>
@@ -21863,7 +21868,7 @@
       <c r="J712" s="25"/>
       <c r="K712" s="26"/>
     </row>
-    <row r="713" spans="1:11" ht="30">
+    <row r="713" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A713" s="14">
         <v>24794</v>
       </c>
@@ -21888,7 +21893,7 @@
       <c r="J713" s="18"/>
       <c r="K713" s="19"/>
     </row>
-    <row r="714" spans="1:11" ht="30">
+    <row r="714" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A714" s="14">
         <v>24794</v>
       </c>
@@ -21913,7 +21918,7 @@
       <c r="J714" s="18"/>
       <c r="K714" s="19"/>
     </row>
-    <row r="715" spans="1:11" ht="30">
+    <row r="715" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A715" s="14">
         <v>24794</v>
       </c>
@@ -21938,7 +21943,7 @@
       <c r="J715" s="18"/>
       <c r="K715" s="19"/>
     </row>
-    <row r="716" spans="1:11" ht="75">
+    <row r="716" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A716" s="14">
         <v>24794</v>
       </c>
@@ -21963,7 +21968,7 @@
       <c r="J716" s="18"/>
       <c r="K716" s="19"/>
     </row>
-    <row r="717" spans="1:11">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="14">
         <v>24794</v>
       </c>
@@ -21988,7 +21993,7 @@
       <c r="J717" s="18"/>
       <c r="K717" s="19"/>
     </row>
-    <row r="718" spans="1:11" ht="30">
+    <row r="718" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A718" s="14">
         <v>24794</v>
       </c>
@@ -22013,7 +22018,7 @@
       <c r="J718" s="18"/>
       <c r="K718" s="19"/>
     </row>
-    <row r="719" spans="1:11" ht="30">
+    <row r="719" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A719" s="20">
         <v>24795</v>
       </c>
@@ -22038,7 +22043,7 @@
       <c r="J719" s="25"/>
       <c r="K719" s="26"/>
     </row>
-    <row r="720" spans="1:11" ht="30">
+    <row r="720" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A720" s="20">
         <v>24795</v>
       </c>
@@ -22063,7 +22068,7 @@
       <c r="J720" s="25"/>
       <c r="K720" s="26"/>
     </row>
-    <row r="721" spans="1:11" ht="60">
+    <row r="721" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A721" s="20">
         <v>24795</v>
       </c>
@@ -22088,7 +22093,7 @@
       <c r="J721" s="25"/>
       <c r="K721" s="26"/>
     </row>
-    <row r="722" spans="1:11" ht="60">
+    <row r="722" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A722" s="20">
         <v>24795</v>
       </c>
@@ -22113,7 +22118,7 @@
       <c r="J722" s="25"/>
       <c r="K722" s="26"/>
     </row>
-    <row r="723" spans="1:11" ht="75">
+    <row r="723" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A723" s="20">
         <v>24795</v>
       </c>
@@ -22138,7 +22143,7 @@
       <c r="J723" s="25"/>
       <c r="K723" s="26"/>
     </row>
-    <row r="724" spans="1:11">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="20">
         <v>24795</v>
       </c>
@@ -22163,7 +22168,7 @@
       <c r="J724" s="25"/>
       <c r="K724" s="26"/>
     </row>
-    <row r="725" spans="1:11" ht="30">
+    <row r="725" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A725" s="20">
         <v>24795</v>
       </c>
@@ -22188,7 +22193,7 @@
       <c r="J725" s="25"/>
       <c r="K725" s="26"/>
     </row>
-    <row r="726" spans="1:11" ht="30">
+    <row r="726" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A726" s="14">
         <v>24856</v>
       </c>
@@ -22211,7 +22216,7 @@
       <c r="J726" s="18"/>
       <c r="K726" s="19"/>
     </row>
-    <row r="727" spans="1:11" ht="60">
+    <row r="727" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A727" s="14">
         <v>24856</v>
       </c>
@@ -22234,7 +22239,7 @@
       <c r="J727" s="18"/>
       <c r="K727" s="19"/>
     </row>
-    <row r="728" spans="1:11" ht="45">
+    <row r="728" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A728" s="14">
         <v>24856</v>
       </c>
@@ -22257,7 +22262,7 @@
       <c r="J728" s="18"/>
       <c r="K728" s="19"/>
     </row>
-    <row r="729" spans="1:11" ht="30">
+    <row r="729" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A729" s="20">
         <v>24987</v>
       </c>
@@ -22280,7 +22285,7 @@
       <c r="J729" s="25"/>
       <c r="K729" s="26"/>
     </row>
-    <row r="730" spans="1:11" ht="30">
+    <row r="730" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A730" s="20">
         <v>24987</v>
       </c>
@@ -22303,7 +22308,7 @@
       <c r="J730" s="25"/>
       <c r="K730" s="26"/>
     </row>
-    <row r="731" spans="1:11" ht="120">
+    <row r="731" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A731" s="20">
         <v>24987</v>
       </c>
@@ -22328,7 +22333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="1:11" ht="30">
+    <row r="732" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A732" s="20">
         <v>24987</v>
       </c>
@@ -22353,7 +22358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:11" ht="30">
+    <row r="733" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A733" s="20">
         <v>24987</v>
       </c>
@@ -22378,7 +22383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:11" ht="75">
+    <row r="734" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A734" s="20">
         <v>24987</v>
       </c>
@@ -22403,7 +22408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:11" ht="45">
+    <row r="735" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A735" s="20">
         <v>24987</v>
       </c>
@@ -22428,7 +22433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:11">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="20">
         <v>24987</v>
       </c>
@@ -22451,7 +22456,7 @@
       <c r="J736" s="25"/>
       <c r="K736" s="26"/>
     </row>
-    <row r="737" spans="1:11" ht="60">
+    <row r="737" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A737" s="20">
         <v>24987</v>
       </c>
@@ -22474,7 +22479,7 @@
       <c r="J737" s="25"/>
       <c r="K737" s="26"/>
     </row>
-    <row r="738" spans="1:11" ht="30">
+    <row r="738" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A738" s="20">
         <v>24987</v>
       </c>
@@ -22497,7 +22502,7 @@
       <c r="J738" s="25"/>
       <c r="K738" s="26"/>
     </row>
-    <row r="739" spans="1:11" ht="30">
+    <row r="739" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A739" s="14">
         <v>25253</v>
       </c>
@@ -22520,7 +22525,7 @@
       <c r="J739" s="18"/>
       <c r="K739" s="19"/>
     </row>
-    <row r="740" spans="1:11" ht="75">
+    <row r="740" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A740" s="14">
         <v>25253</v>
       </c>
@@ -22543,7 +22548,7 @@
       <c r="J740" s="18"/>
       <c r="K740" s="19"/>
     </row>
-    <row r="741" spans="1:11" ht="30">
+    <row r="741" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A741" s="14">
         <v>25253</v>
       </c>
@@ -22566,7 +22571,7 @@
       <c r="J741" s="18"/>
       <c r="K741" s="19"/>
     </row>
-    <row r="742" spans="1:11" ht="30">
+    <row r="742" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A742" s="14">
         <v>25253</v>
       </c>
@@ -22589,7 +22594,7 @@
       <c r="J742" s="18"/>
       <c r="K742" s="19"/>
     </row>
-    <row r="743" spans="1:11" ht="30">
+    <row r="743" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A743" s="14">
         <v>25253</v>
       </c>
@@ -22612,7 +22617,7 @@
       <c r="J743" s="18"/>
       <c r="K743" s="19"/>
     </row>
-    <row r="744" spans="1:11" ht="60">
+    <row r="744" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A744" s="14">
         <v>25253</v>
       </c>
@@ -22635,7 +22640,7 @@
       <c r="J744" s="18"/>
       <c r="K744" s="19"/>
     </row>
-    <row r="745" spans="1:11" ht="45">
+    <row r="745" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A745" s="14">
         <v>25253</v>
       </c>
@@ -22658,7 +22663,7 @@
       <c r="J745" s="18"/>
       <c r="K745" s="19"/>
     </row>
-    <row r="746" spans="1:11" ht="30">
+    <row r="746" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A746" s="14">
         <v>25253</v>
       </c>
@@ -22681,7 +22686,7 @@
       <c r="J746" s="18"/>
       <c r="K746" s="19"/>
     </row>
-    <row r="747" spans="1:11" ht="30">
+    <row r="747" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A747" s="14">
         <v>25253</v>
       </c>
@@ -22704,7 +22709,7 @@
       <c r="J747" s="18"/>
       <c r="K747" s="19"/>
     </row>
-    <row r="748" spans="1:11">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="20">
         <v>25451</v>
       </c>
@@ -22727,7 +22732,7 @@
       <c r="J748" s="25"/>
       <c r="K748" s="26"/>
     </row>
-    <row r="749" spans="1:11" ht="45">
+    <row r="749" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A749" s="20">
         <v>25451</v>
       </c>
@@ -22750,7 +22755,7 @@
       <c r="J749" s="25"/>
       <c r="K749" s="26"/>
     </row>
-    <row r="750" spans="1:11" ht="30">
+    <row r="750" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A750" s="20">
         <v>25451</v>
       </c>
@@ -22773,7 +22778,7 @@
       <c r="J750" s="25"/>
       <c r="K750" s="26"/>
     </row>
-    <row r="751" spans="1:11" ht="105">
+    <row r="751" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A751" s="20">
         <v>25451</v>
       </c>
@@ -22800,7 +22805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="1:11" ht="90">
+    <row r="752" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A752" s="20">
         <v>25451</v>
       </c>
@@ -22827,7 +22832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="1:11" ht="45">
+    <row r="753" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A753" s="20">
         <v>25451</v>
       </c>
@@ -22850,7 +22855,7 @@
       <c r="J753" s="25"/>
       <c r="K753" s="26"/>
     </row>
-    <row r="754" spans="1:11">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="14">
         <v>25487</v>
       </c>
@@ -22873,7 +22878,7 @@
       <c r="J754" s="18"/>
       <c r="K754" s="19"/>
     </row>
-    <row r="755" spans="1:11" ht="60">
+    <row r="755" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A755" s="14">
         <v>25487</v>
       </c>
@@ -22896,7 +22901,7 @@
       <c r="J755" s="18"/>
       <c r="K755" s="19"/>
     </row>
-    <row r="756" spans="1:11" ht="45">
+    <row r="756" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A756" s="14">
         <v>25487</v>
       </c>
@@ -22923,7 +22928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:11" ht="45">
+    <row r="757" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A757" s="14">
         <v>25487</v>
       </c>
@@ -22950,7 +22955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="758" spans="1:11">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="14">
         <v>25487</v>
       </c>
@@ -22973,7 +22978,7 @@
       <c r="J758" s="18"/>
       <c r="K758" s="19"/>
     </row>
-    <row r="759" spans="1:11" ht="45">
+    <row r="759" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A759" s="14">
         <v>25487</v>
       </c>
@@ -22996,7 +23001,7 @@
       <c r="J759" s="18"/>
       <c r="K759" s="19"/>
     </row>
-    <row r="760" spans="1:11" ht="30">
+    <row r="760" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A760" s="20">
         <v>25661</v>
       </c>
@@ -23019,7 +23024,7 @@
       <c r="J760" s="25"/>
       <c r="K760" s="26"/>
     </row>
-    <row r="761" spans="1:11" ht="30">
+    <row r="761" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A761" s="20">
         <v>25661</v>
       </c>
@@ -23046,7 +23051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="1:11" ht="30">
+    <row r="762" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A762" s="20">
         <v>25661</v>
       </c>
@@ -23073,7 +23078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="763" spans="1:11" ht="30">
+    <row r="763" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A763" s="20">
         <v>25661</v>
       </c>
@@ -23100,7 +23105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="764" spans="1:11" ht="30">
+    <row r="764" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A764" s="20">
         <v>25661</v>
       </c>
@@ -23125,7 +23130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:11" ht="90">
+    <row r="765" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A765" s="20">
         <v>25661</v>
       </c>
@@ -23154,7 +23159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="766" spans="1:11" ht="45">
+    <row r="766" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A766" s="20">
         <v>25661</v>
       </c>
@@ -23177,7 +23182,7 @@
       <c r="J766" s="25"/>
       <c r="K766" s="26"/>
     </row>
-    <row r="767" spans="1:11" ht="75">
+    <row r="767" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A767" s="14">
         <v>25751</v>
       </c>
@@ -23204,7 +23209,7 @@
       <c r="J767" s="18"/>
       <c r="K767" s="19"/>
     </row>
-    <row r="768" spans="1:11" ht="60">
+    <row r="768" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A768" s="14">
         <v>25751</v>
       </c>
@@ -23229,7 +23234,7 @@
       <c r="J768" s="18"/>
       <c r="K768" s="19"/>
     </row>
-    <row r="769" spans="1:11">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" s="14">
         <v>25751</v>
       </c>
@@ -23256,7 +23261,7 @@
       <c r="J769" s="18"/>
       <c r="K769" s="19"/>
     </row>
-    <row r="770" spans="1:11" ht="75">
+    <row r="770" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A770" s="20">
         <v>25752</v>
       </c>
@@ -23285,7 +23290,7 @@
       </c>
       <c r="K770" s="26"/>
     </row>
-    <row r="771" spans="1:11" ht="60">
+    <row r="771" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A771" s="20">
         <v>25752</v>
       </c>
@@ -23316,7 +23321,7 @@
       </c>
       <c r="K771" s="26"/>
     </row>
-    <row r="772" spans="1:11" ht="45">
+    <row r="772" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A772" s="20">
         <v>25752</v>
       </c>
@@ -23345,7 +23350,7 @@
       </c>
       <c r="K772" s="26"/>
     </row>
-    <row r="773" spans="1:11" ht="60">
+    <row r="773" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A773" s="20">
         <v>25752</v>
       </c>
@@ -23374,7 +23379,7 @@
       </c>
       <c r="K773" s="26"/>
     </row>
-    <row r="774" spans="1:11" ht="30">
+    <row r="774" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A774" s="20">
         <v>25752</v>
       </c>
@@ -23403,7 +23408,7 @@
       </c>
       <c r="K774" s="26"/>
     </row>
-    <row r="775" spans="1:11" ht="30">
+    <row r="775" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A775" s="20">
         <v>25752</v>
       </c>
@@ -23434,7 +23439,7 @@
       </c>
       <c r="K775" s="26"/>
     </row>
-    <row r="776" spans="1:11" ht="60">
+    <row r="776" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A776" s="14">
         <v>25801</v>
       </c>
@@ -23459,7 +23464,7 @@
       <c r="J776" s="18"/>
       <c r="K776" s="19"/>
     </row>
-    <row r="777" spans="1:11" ht="75">
+    <row r="777" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A777" s="14">
         <v>25801</v>
       </c>
@@ -23484,7 +23489,7 @@
       <c r="J777" s="18"/>
       <c r="K777" s="19"/>
     </row>
-    <row r="778" spans="1:11" ht="30">
+    <row r="778" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A778" s="14">
         <v>25801</v>
       </c>
@@ -23509,7 +23514,7 @@
       <c r="J778" s="18"/>
       <c r="K778" s="19"/>
     </row>
-    <row r="779" spans="1:11" ht="45">
+    <row r="779" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A779" s="14">
         <v>25801</v>
       </c>
@@ -23534,7 +23539,7 @@
       <c r="J779" s="18"/>
       <c r="K779" s="19"/>
     </row>
-    <row r="780" spans="1:11" ht="45">
+    <row r="780" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A780" s="20">
         <v>25802</v>
       </c>
@@ -23559,7 +23564,7 @@
       <c r="J780" s="25"/>
       <c r="K780" s="26"/>
     </row>
-    <row r="781" spans="1:11" ht="75">
+    <row r="781" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A781" s="20">
         <v>25802</v>
       </c>
@@ -23584,7 +23589,7 @@
       <c r="J781" s="25"/>
       <c r="K781" s="26"/>
     </row>
-    <row r="782" spans="1:11" ht="120">
+    <row r="782" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A782" s="20">
         <v>25802</v>
       </c>
@@ -23609,7 +23614,7 @@
       <c r="J782" s="25"/>
       <c r="K782" s="26"/>
     </row>
-    <row r="783" spans="1:11" ht="60">
+    <row r="783" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A783" s="20">
         <v>25802</v>
       </c>
@@ -23634,7 +23639,7 @@
       <c r="J783" s="25"/>
       <c r="K783" s="26"/>
     </row>
-    <row r="784" spans="1:11" ht="90">
+    <row r="784" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A784" s="20">
         <v>25802</v>
       </c>
@@ -23659,7 +23664,7 @@
       <c r="J784" s="25"/>
       <c r="K784" s="26"/>
     </row>
-    <row r="785" spans="1:11" ht="30">
+    <row r="785" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A785" s="14">
         <v>25806</v>
       </c>
@@ -23684,7 +23689,7 @@
       <c r="J785" s="18"/>
       <c r="K785" s="19"/>
     </row>
-    <row r="786" spans="1:11" ht="30">
+    <row r="786" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A786" s="14">
         <v>25806</v>
       </c>
@@ -23709,7 +23714,7 @@
       <c r="J786" s="18"/>
       <c r="K786" s="19"/>
     </row>
-    <row r="787" spans="1:11" ht="105">
+    <row r="787" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A787" s="14">
         <v>25806</v>
       </c>
@@ -23734,7 +23739,7 @@
       <c r="J787" s="18"/>
       <c r="K787" s="19"/>
     </row>
-    <row r="788" spans="1:11" ht="90">
+    <row r="788" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A788" s="14">
         <v>25806</v>
       </c>
@@ -23759,7 +23764,7 @@
       <c r="J788" s="18"/>
       <c r="K788" s="19"/>
     </row>
-    <row r="789" spans="1:11" ht="30">
+    <row r="789" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A789" s="14">
         <v>25806</v>
       </c>
@@ -23784,7 +23789,7 @@
       <c r="J789" s="18"/>
       <c r="K789" s="19"/>
     </row>
-    <row r="790" spans="1:11" ht="30">
+    <row r="790" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A790" s="14">
         <v>25806</v>
       </c>
@@ -23809,7 +23814,7 @@
       <c r="J790" s="18"/>
       <c r="K790" s="19"/>
     </row>
-    <row r="791" spans="1:11" ht="30">
+    <row r="791" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A791" s="20">
         <v>25843</v>
       </c>
@@ -23836,7 +23841,7 @@
       </c>
       <c r="K791" s="26"/>
     </row>
-    <row r="792" spans="1:11" ht="30">
+    <row r="792" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A792" s="20">
         <v>25843</v>
       </c>
@@ -23863,7 +23868,7 @@
       </c>
       <c r="K792" s="26"/>
     </row>
-    <row r="793" spans="1:11" ht="60">
+    <row r="793" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A793" s="20">
         <v>25843</v>
       </c>
@@ -23890,7 +23895,7 @@
       </c>
       <c r="K793" s="26"/>
     </row>
-    <row r="794" spans="1:11" ht="60">
+    <row r="794" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A794" s="20">
         <v>25843</v>
       </c>
@@ -23917,7 +23922,7 @@
       </c>
       <c r="K794" s="26"/>
     </row>
-    <row r="795" spans="1:11" ht="45">
+    <row r="795" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A795" s="20">
         <v>25843</v>
       </c>
@@ -23944,7 +23949,7 @@
       </c>
       <c r="K795" s="26"/>
     </row>
-    <row r="796" spans="1:11" ht="45">
+    <row r="796" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A796" s="14">
         <v>26069</v>
       </c>
@@ -23971,7 +23976,7 @@
       </c>
       <c r="K796" s="19"/>
     </row>
-    <row r="797" spans="1:11" ht="45">
+    <row r="797" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A797" s="14">
         <v>26069</v>
       </c>
@@ -23998,7 +24003,7 @@
       </c>
       <c r="K797" s="19"/>
     </row>
-    <row r="798" spans="1:11" ht="60">
+    <row r="798" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A798" s="14">
         <v>26069</v>
       </c>
@@ -24025,7 +24030,7 @@
       </c>
       <c r="K798" s="19"/>
     </row>
-    <row r="799" spans="1:11" ht="45">
+    <row r="799" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A799" s="14">
         <v>26069</v>
       </c>
@@ -24052,7 +24057,7 @@
       </c>
       <c r="K799" s="19"/>
     </row>
-    <row r="800" spans="1:11" ht="30">
+    <row r="800" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A800" s="20">
         <v>26071</v>
       </c>
@@ -24075,7 +24080,7 @@
       <c r="J800" s="25"/>
       <c r="K800" s="26"/>
     </row>
-    <row r="801" spans="1:11" ht="30">
+    <row r="801" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A801" s="20">
         <v>26071</v>
       </c>
@@ -24098,7 +24103,7 @@
       <c r="J801" s="25"/>
       <c r="K801" s="26"/>
     </row>
-    <row r="802" spans="1:11" ht="30">
+    <row r="802" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A802" s="20">
         <v>26071</v>
       </c>
@@ -24121,7 +24126,7 @@
       <c r="J802" s="25"/>
       <c r="K802" s="26"/>
     </row>
-    <row r="803" spans="1:11" ht="30">
+    <row r="803" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A803" s="20">
         <v>26071</v>
       </c>
@@ -24144,7 +24149,7 @@
       <c r="J803" s="25"/>
       <c r="K803" s="26"/>
     </row>
-    <row r="804" spans="1:11" ht="30">
+    <row r="804" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A804" s="20">
         <v>26071</v>
       </c>
@@ -24167,7 +24172,7 @@
       <c r="J804" s="25"/>
       <c r="K804" s="26"/>
     </row>
-    <row r="805" spans="1:11" ht="60">
+    <row r="805" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A805" s="14">
         <v>26076</v>
       </c>
@@ -24192,7 +24197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="806" spans="1:11">
+    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A806" s="14">
         <v>26076</v>
       </c>
@@ -24217,7 +24222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="807" spans="1:11">
+    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A807" s="14">
         <v>26076</v>
       </c>
@@ -24242,7 +24247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="808" spans="1:11">
+    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A808" s="14">
         <v>26076</v>
       </c>
@@ -24267,7 +24272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="809" spans="1:11" ht="45">
+    <row r="809" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A809" s="14">
         <v>26076</v>
       </c>
@@ -24292,7 +24297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="810" spans="1:11" ht="75">
+    <row r="810" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A810" s="20">
         <v>26095</v>
       </c>
@@ -24317,7 +24322,7 @@
       <c r="J810" s="25"/>
       <c r="K810" s="26"/>
     </row>
-    <row r="811" spans="1:11" ht="45">
+    <row r="811" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A811" s="14">
         <v>26179</v>
       </c>
@@ -24342,7 +24347,7 @@
       <c r="J811" s="18"/>
       <c r="K811" s="19"/>
     </row>
-    <row r="812" spans="1:11" ht="30">
+    <row r="812" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A812" s="14">
         <v>26179</v>
       </c>
@@ -24367,7 +24372,7 @@
       <c r="J812" s="18"/>
       <c r="K812" s="19"/>
     </row>
-    <row r="813" spans="1:11" ht="30">
+    <row r="813" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A813" s="14">
         <v>26179</v>
       </c>
@@ -24392,7 +24397,7 @@
       <c r="J813" s="18"/>
       <c r="K813" s="19"/>
     </row>
-    <row r="814" spans="1:11" ht="30">
+    <row r="814" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A814" s="14">
         <v>26179</v>
       </c>
@@ -24417,7 +24422,7 @@
       <c r="J814" s="18"/>
       <c r="K814" s="19"/>
     </row>
-    <row r="815" spans="1:11" ht="30">
+    <row r="815" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A815" s="14">
         <v>26179</v>
       </c>
@@ -24442,7 +24447,7 @@
       <c r="J815" s="18"/>
       <c r="K815" s="19"/>
     </row>
-    <row r="816" spans="1:11" ht="30">
+    <row r="816" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A816" s="14">
         <v>26179</v>
       </c>
@@ -24467,7 +24472,7 @@
       <c r="J816" s="18"/>
       <c r="K816" s="19"/>
     </row>
-    <row r="817" spans="1:11" ht="45">
+    <row r="817" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A817" s="20">
         <v>26180</v>
       </c>
@@ -24492,7 +24497,7 @@
       <c r="J817" s="25"/>
       <c r="K817" s="26"/>
     </row>
-    <row r="818" spans="1:11" ht="30">
+    <row r="818" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A818" s="20">
         <v>26180</v>
       </c>
@@ -24517,7 +24522,7 @@
       <c r="J818" s="25"/>
       <c r="K818" s="26"/>
     </row>
-    <row r="819" spans="1:11">
+    <row r="819" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A819" s="20">
         <v>26180</v>
       </c>
@@ -24542,7 +24547,7 @@
       <c r="J819" s="25"/>
       <c r="K819" s="26"/>
     </row>
-    <row r="820" spans="1:11">
+    <row r="820" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A820" s="20">
         <v>26180</v>
       </c>
@@ -24567,7 +24572,7 @@
       <c r="J820" s="25"/>
       <c r="K820" s="26"/>
     </row>
-    <row r="821" spans="1:11" ht="30">
+    <row r="821" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A821" s="20">
         <v>26180</v>
       </c>
@@ -24592,7 +24597,7 @@
       <c r="J821" s="25"/>
       <c r="K821" s="26"/>
     </row>
-    <row r="822" spans="1:11" ht="45">
+    <row r="822" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A822" s="20">
         <v>26180</v>
       </c>
@@ -24617,7 +24622,7 @@
       <c r="J822" s="25"/>
       <c r="K822" s="26"/>
     </row>
-    <row r="823" spans="1:11" ht="60">
+    <row r="823" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A823" s="20">
         <v>26180</v>
       </c>
@@ -24642,7 +24647,7 @@
       <c r="J823" s="25"/>
       <c r="K823" s="26"/>
     </row>
-    <row r="824" spans="1:11" ht="30">
+    <row r="824" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A824" s="20">
         <v>26180</v>
       </c>
@@ -24667,7 +24672,7 @@
       <c r="J824" s="25"/>
       <c r="K824" s="26"/>
     </row>
-    <row r="825" spans="1:11" ht="30">
+    <row r="825" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A825" s="20">
         <v>26180</v>
       </c>
@@ -24692,7 +24697,7 @@
       <c r="J825" s="25"/>
       <c r="K825" s="26"/>
     </row>
-    <row r="826" spans="1:11" ht="30">
+    <row r="826" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A826" s="20">
         <v>26180</v>
       </c>
@@ -24717,7 +24722,7 @@
       <c r="J826" s="25"/>
       <c r="K826" s="26"/>
     </row>
-    <row r="827" spans="1:11" ht="30">
+    <row r="827" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A827" s="20">
         <v>26180</v>
       </c>
@@ -24742,7 +24747,7 @@
       <c r="J827" s="25"/>
       <c r="K827" s="26"/>
     </row>
-    <row r="828" spans="1:11" ht="90">
+    <row r="828" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A828" s="14">
         <v>26230</v>
       </c>
@@ -24767,7 +24772,7 @@
       <c r="J828" s="18"/>
       <c r="K828" s="19"/>
     </row>
-    <row r="829" spans="1:11" ht="75">
+    <row r="829" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A829" s="20">
         <v>26329</v>
       </c>
@@ -24792,7 +24797,7 @@
       <c r="J829" s="25"/>
       <c r="K829" s="26"/>
     </row>
-    <row r="830" spans="1:11" ht="30">
+    <row r="830" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A830" s="27">
         <v>26330</v>
       </c>
@@ -24819,9 +24824,9 @@
   <conditionalFormatting sqref="H13">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -24837,24 +24842,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
+++ b/Extended Campuses/Self Appraisals/2014/Raw Data from Database.xlsx
@@ -3826,8 +3826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K830"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="F208" sqref="F208"/>
+    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
+      <selection activeCell="F358" sqref="F358:F367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9139,7 +9139,7 @@
       <c r="E208" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="F208" s="24">
+      <c r="F208" s="38">
    